--- a/clang_libcpp/scattered erasure.xlsx
+++ b/clang_libcpp/scattered erasure.xlsx
@@ -7680,13 +7680,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.399593</v>
+        <v>0.399824</v>
       </c>
       <c r="C2" t="n">
-        <v>0.236968</v>
+        <v>0.238992</v>
       </c>
       <c r="D2" t="n">
-        <v>0.217605</v>
+        <v>0.221625</v>
       </c>
     </row>
     <row r="3">
@@ -7694,13 +7694,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.40323</v>
+        <v>0.405119</v>
       </c>
       <c r="C3" t="n">
-        <v>0.238907</v>
+        <v>0.240542</v>
       </c>
       <c r="D3" t="n">
-        <v>0.221434</v>
+        <v>0.22558</v>
       </c>
     </row>
     <row r="4">
@@ -7708,13 +7708,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.409846</v>
+        <v>0.411554</v>
       </c>
       <c r="C4" t="n">
-        <v>0.243442</v>
+        <v>0.244576</v>
       </c>
       <c r="D4" t="n">
-        <v>0.22409</v>
+        <v>0.22856</v>
       </c>
     </row>
     <row r="5">
@@ -7722,13 +7722,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.414213</v>
+        <v>0.416545</v>
       </c>
       <c r="C5" t="n">
-        <v>0.244457</v>
+        <v>0.246394</v>
       </c>
       <c r="D5" t="n">
-        <v>0.228116</v>
+        <v>0.23264</v>
       </c>
     </row>
     <row r="6">
@@ -7736,13 +7736,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.419697</v>
+        <v>0.422636</v>
       </c>
       <c r="C6" t="n">
-        <v>0.247798</v>
+        <v>0.249423</v>
       </c>
       <c r="D6" t="n">
-        <v>0.23183</v>
+        <v>0.23646</v>
       </c>
     </row>
     <row r="7">
@@ -7750,13 +7750,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.425899</v>
+        <v>0.429318</v>
       </c>
       <c r="C7" t="n">
-        <v>0.229542</v>
+        <v>0.236675</v>
       </c>
       <c r="D7" t="n">
-        <v>0.204958</v>
+        <v>0.211091</v>
       </c>
     </row>
     <row r="8">
@@ -7764,13 +7764,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.383559</v>
+        <v>0.389206</v>
       </c>
       <c r="C8" t="n">
-        <v>0.232074</v>
+        <v>0.239401</v>
       </c>
       <c r="D8" t="n">
-        <v>0.207357</v>
+        <v>0.213191</v>
       </c>
     </row>
     <row r="9">
@@ -7778,13 +7778,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.387628</v>
+        <v>0.391478</v>
       </c>
       <c r="C9" t="n">
-        <v>0.236151</v>
+        <v>0.243862</v>
       </c>
       <c r="D9" t="n">
-        <v>0.210132</v>
+        <v>0.215959</v>
       </c>
     </row>
     <row r="10">
@@ -7792,13 +7792,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.391015</v>
+        <v>0.395365</v>
       </c>
       <c r="C10" t="n">
-        <v>0.240291</v>
+        <v>0.24724</v>
       </c>
       <c r="D10" t="n">
-        <v>0.21252</v>
+        <v>0.218672</v>
       </c>
     </row>
     <row r="11">
@@ -7806,13 +7806,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.394351</v>
+        <v>0.399935</v>
       </c>
       <c r="C11" t="n">
-        <v>0.243233</v>
+        <v>0.24745</v>
       </c>
       <c r="D11" t="n">
-        <v>0.215058</v>
+        <v>0.220348</v>
       </c>
     </row>
     <row r="12">
@@ -7820,13 +7820,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.39989</v>
+        <v>0.403801</v>
       </c>
       <c r="C12" t="n">
-        <v>0.247639</v>
+        <v>0.250582</v>
       </c>
       <c r="D12" t="n">
-        <v>0.217666</v>
+        <v>0.224829</v>
       </c>
     </row>
     <row r="13">
@@ -7834,13 +7834,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.403193</v>
+        <v>0.411524</v>
       </c>
       <c r="C13" t="n">
-        <v>0.252882</v>
+        <v>0.256123</v>
       </c>
       <c r="D13" t="n">
-        <v>0.220615</v>
+        <v>0.226595</v>
       </c>
     </row>
     <row r="14">
@@ -7848,13 +7848,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.407863</v>
+        <v>0.413939</v>
       </c>
       <c r="C14" t="n">
-        <v>0.256067</v>
+        <v>0.259011</v>
       </c>
       <c r="D14" t="n">
-        <v>0.225081</v>
+        <v>0.231676</v>
       </c>
     </row>
     <row r="15">
@@ -7862,13 +7862,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.415511</v>
+        <v>0.422527</v>
       </c>
       <c r="C15" t="n">
-        <v>0.261463</v>
+        <v>0.262299</v>
       </c>
       <c r="D15" t="n">
-        <v>0.229967</v>
+        <v>0.236081</v>
       </c>
     </row>
     <row r="16">
@@ -7876,13 +7876,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.424181</v>
+        <v>0.429664</v>
       </c>
       <c r="C16" t="n">
-        <v>0.267285</v>
+        <v>0.26728</v>
       </c>
       <c r="D16" t="n">
-        <v>0.235019</v>
+        <v>0.241645</v>
       </c>
     </row>
     <row r="17">
@@ -7890,13 +7890,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.431878</v>
+        <v>0.437916</v>
       </c>
       <c r="C17" t="n">
-        <v>0.271364</v>
+        <v>0.271426</v>
       </c>
       <c r="D17" t="n">
-        <v>0.238947</v>
+        <v>0.247858</v>
       </c>
     </row>
     <row r="18">
@@ -7904,13 +7904,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.439489</v>
+        <v>0.447287</v>
       </c>
       <c r="C18" t="n">
-        <v>0.276297</v>
+        <v>0.276603</v>
       </c>
       <c r="D18" t="n">
-        <v>0.247621</v>
+        <v>0.25373</v>
       </c>
     </row>
     <row r="19">
@@ -7918,13 +7918,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.451163</v>
+        <v>0.455878</v>
       </c>
       <c r="C19" t="n">
-        <v>0.280642</v>
+        <v>0.280685</v>
       </c>
       <c r="D19" t="n">
-        <v>0.251494</v>
+        <v>0.260779</v>
       </c>
     </row>
     <row r="20">
@@ -7932,13 +7932,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.463531</v>
+        <v>0.469636</v>
       </c>
       <c r="C20" t="n">
-        <v>0.284167</v>
+        <v>0.285061</v>
       </c>
       <c r="D20" t="n">
-        <v>0.259496</v>
+        <v>0.267679</v>
       </c>
     </row>
     <row r="21">
@@ -7946,13 +7946,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.471732</v>
+        <v>0.477955</v>
       </c>
       <c r="C21" t="n">
-        <v>0.277266</v>
+        <v>0.278793</v>
       </c>
       <c r="D21" t="n">
-        <v>0.255028</v>
+        <v>0.261725</v>
       </c>
     </row>
     <row r="22">
@@ -7960,13 +7960,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.45792</v>
+        <v>0.46064</v>
       </c>
       <c r="C22" t="n">
-        <v>0.279872</v>
+        <v>0.280767</v>
       </c>
       <c r="D22" t="n">
-        <v>0.26162</v>
+        <v>0.265062</v>
       </c>
     </row>
     <row r="23">
@@ -7974,13 +7974,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.467824</v>
+        <v>0.467816</v>
       </c>
       <c r="C23" t="n">
-        <v>0.283071</v>
+        <v>0.283988</v>
       </c>
       <c r="D23" t="n">
-        <v>0.268778</v>
+        <v>0.271148</v>
       </c>
     </row>
     <row r="24">
@@ -7988,13 +7988,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.476604</v>
+        <v>0.475038</v>
       </c>
       <c r="C24" t="n">
-        <v>0.285272</v>
+        <v>0.286906</v>
       </c>
       <c r="D24" t="n">
-        <v>0.273588</v>
+        <v>0.277209</v>
       </c>
     </row>
     <row r="25">
@@ -8002,13 +8002,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.486451</v>
+        <v>0.487696</v>
       </c>
       <c r="C25" t="n">
-        <v>0.287381</v>
+        <v>0.289196</v>
       </c>
       <c r="D25" t="n">
-        <v>0.27911</v>
+        <v>0.283024</v>
       </c>
     </row>
     <row r="26">
@@ -8016,13 +8016,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.496268</v>
+        <v>0.497206</v>
       </c>
       <c r="C26" t="n">
-        <v>0.290124</v>
+        <v>0.291285</v>
       </c>
       <c r="D26" t="n">
-        <v>0.285034</v>
+        <v>0.28756</v>
       </c>
     </row>
     <row r="27">
@@ -8030,13 +8030,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.502895</v>
+        <v>0.502881</v>
       </c>
       <c r="C27" t="n">
-        <v>0.29342</v>
+        <v>0.294453</v>
       </c>
       <c r="D27" t="n">
-        <v>0.292271</v>
+        <v>0.29391</v>
       </c>
     </row>
     <row r="28">
@@ -8044,13 +8044,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.514997</v>
+        <v>0.511803</v>
       </c>
       <c r="C28" t="n">
-        <v>0.296842</v>
+        <v>0.298316</v>
       </c>
       <c r="D28" t="n">
-        <v>0.297534</v>
+        <v>0.299062</v>
       </c>
     </row>
     <row r="29">
@@ -8058,13 +8058,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.521558</v>
+        <v>0.522012</v>
       </c>
       <c r="C29" t="n">
-        <v>0.299711</v>
+        <v>0.303189</v>
       </c>
       <c r="D29" t="n">
-        <v>0.302893</v>
+        <v>0.306041</v>
       </c>
     </row>
     <row r="30">
@@ -8072,13 +8072,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.529773</v>
+        <v>0.531984</v>
       </c>
       <c r="C30" t="n">
-        <v>0.303526</v>
+        <v>0.304598</v>
       </c>
       <c r="D30" t="n">
-        <v>0.308913</v>
+        <v>0.31041</v>
       </c>
     </row>
     <row r="31">
@@ -8086,13 +8086,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.548646</v>
+        <v>0.5383520000000001</v>
       </c>
       <c r="C31" t="n">
-        <v>0.306816</v>
+        <v>0.307041</v>
       </c>
       <c r="D31" t="n">
-        <v>0.314045</v>
+        <v>0.315452</v>
       </c>
     </row>
     <row r="32">
@@ -8100,13 +8100,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.547627</v>
+        <v>0.547137</v>
       </c>
       <c r="C32" t="n">
-        <v>0.310118</v>
+        <v>0.311515</v>
       </c>
       <c r="D32" t="n">
-        <v>0.319335</v>
+        <v>0.320883</v>
       </c>
     </row>
     <row r="33">
@@ -8114,13 +8114,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.5563</v>
+        <v>0.556318</v>
       </c>
       <c r="C33" t="n">
-        <v>0.313435</v>
+        <v>0.314651</v>
       </c>
       <c r="D33" t="n">
-        <v>0.324855</v>
+        <v>0.327584</v>
       </c>
     </row>
     <row r="34">
@@ -8128,13 +8128,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.5670460000000001</v>
+        <v>0.567495</v>
       </c>
       <c r="C34" t="n">
-        <v>0.317345</v>
+        <v>0.318713</v>
       </c>
       <c r="D34" t="n">
-        <v>0.329946</v>
+        <v>0.333378</v>
       </c>
     </row>
     <row r="35">
@@ -8142,13 +8142,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.575582</v>
+        <v>0.575756</v>
       </c>
       <c r="C35" t="n">
-        <v>0.303131</v>
+        <v>0.310531</v>
       </c>
       <c r="D35" t="n">
-        <v>0.319244</v>
+        <v>0.321955</v>
       </c>
     </row>
     <row r="36">
@@ -8156,13 +8156,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.55804</v>
+        <v>0.561425</v>
       </c>
       <c r="C36" t="n">
-        <v>0.305761</v>
+        <v>0.312551</v>
       </c>
       <c r="D36" t="n">
-        <v>0.322219</v>
+        <v>0.32619</v>
       </c>
     </row>
     <row r="37">
@@ -8170,13 +8170,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.5644749999999999</v>
+        <v>0.570236</v>
       </c>
       <c r="C37" t="n">
-        <v>0.307989</v>
+        <v>0.315684</v>
       </c>
       <c r="D37" t="n">
-        <v>0.32777</v>
+        <v>0.331226</v>
       </c>
     </row>
     <row r="38">
@@ -8184,13 +8184,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.572106</v>
+        <v>0.573451</v>
       </c>
       <c r="C38" t="n">
-        <v>0.309678</v>
+        <v>0.314318</v>
       </c>
       <c r="D38" t="n">
-        <v>0.33051</v>
+        <v>0.333194</v>
       </c>
     </row>
     <row r="39">
@@ -8198,13 +8198,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.580129</v>
+        <v>0.579842</v>
       </c>
       <c r="C39" t="n">
-        <v>0.336434</v>
+        <v>0.314255</v>
       </c>
       <c r="D39" t="n">
-        <v>0.333997</v>
+        <v>0.336163</v>
       </c>
     </row>
     <row r="40">
@@ -8212,13 +8212,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.585179</v>
+        <v>0.585211</v>
       </c>
       <c r="C40" t="n">
-        <v>0.314791</v>
+        <v>0.313325</v>
       </c>
       <c r="D40" t="n">
-        <v>0.339808</v>
+        <v>0.337406</v>
       </c>
     </row>
     <row r="41">
@@ -8226,13 +8226,13 @@
         <v>66357</v>
       </c>
       <c r="B41" t="n">
-        <v>0.590916</v>
+        <v>0.587848</v>
       </c>
       <c r="C41" t="n">
-        <v>0.315604</v>
+        <v>0.315735</v>
       </c>
       <c r="D41" t="n">
-        <v>0.34121</v>
+        <v>0.339416</v>
       </c>
     </row>
     <row r="42">
@@ -8240,13 +8240,13 @@
         <v>69656</v>
       </c>
       <c r="B42" t="n">
-        <v>0.598029</v>
+        <v>0.592349</v>
       </c>
       <c r="C42" t="n">
-        <v>0.318855</v>
+        <v>0.318915</v>
       </c>
       <c r="D42" t="n">
-        <v>0.345542</v>
+        <v>0.344462</v>
       </c>
     </row>
     <row r="43">
@@ -8254,13 +8254,13 @@
         <v>73119</v>
       </c>
       <c r="B43" t="n">
-        <v>0.605058</v>
+        <v>0.600391</v>
       </c>
       <c r="C43" t="n">
-        <v>0.322211</v>
+        <v>0.322865</v>
       </c>
       <c r="D43" t="n">
-        <v>0.349649</v>
+        <v>0.347974</v>
       </c>
     </row>
     <row r="44">
@@ -8268,13 +8268,13 @@
         <v>76755</v>
       </c>
       <c r="B44" t="n">
-        <v>0.612102</v>
+        <v>0.605725</v>
       </c>
       <c r="C44" t="n">
-        <v>0.326186</v>
+        <v>0.327992</v>
       </c>
       <c r="D44" t="n">
-        <v>0.353421</v>
+        <v>0.351957</v>
       </c>
     </row>
     <row r="45">
@@ -8282,13 +8282,13 @@
         <v>80572</v>
       </c>
       <c r="B45" t="n">
-        <v>0.619239</v>
+        <v>0.612105</v>
       </c>
       <c r="C45" t="n">
-        <v>0.331048</v>
+        <v>0.334082</v>
       </c>
       <c r="D45" t="n">
-        <v>0.357002</v>
+        <v>0.3581</v>
       </c>
     </row>
     <row r="46">
@@ -8296,13 +8296,13 @@
         <v>84579</v>
       </c>
       <c r="B46" t="n">
-        <v>0.628325</v>
+        <v>0.626622</v>
       </c>
       <c r="C46" t="n">
-        <v>0.338931</v>
+        <v>0.337271</v>
       </c>
       <c r="D46" t="n">
-        <v>0.361804</v>
+        <v>0.361259</v>
       </c>
     </row>
     <row r="47">
@@ -8310,13 +8310,13 @@
         <v>88786</v>
       </c>
       <c r="B47" t="n">
-        <v>0.636093</v>
+        <v>0.631265</v>
       </c>
       <c r="C47" t="n">
-        <v>0.346114</v>
+        <v>0.343318</v>
       </c>
       <c r="D47" t="n">
-        <v>0.381445</v>
+        <v>0.36605</v>
       </c>
     </row>
     <row r="48">
@@ -8324,13 +8324,13 @@
         <v>93203</v>
       </c>
       <c r="B48" t="n">
-        <v>0.6942430000000001</v>
+        <v>0.63876</v>
       </c>
       <c r="C48" t="n">
-        <v>0.356616</v>
+        <v>0.344127</v>
       </c>
       <c r="D48" t="n">
-        <v>0.369805</v>
+        <v>0.369991</v>
       </c>
     </row>
     <row r="49">
@@ -8338,13 +8338,13 @@
         <v>97840</v>
       </c>
       <c r="B49" t="n">
-        <v>0.649826</v>
+        <v>0.644186</v>
       </c>
       <c r="C49" t="n">
-        <v>0.34674</v>
+        <v>0.351062</v>
       </c>
       <c r="D49" t="n">
-        <v>0.373711</v>
+        <v>0.376455</v>
       </c>
     </row>
     <row r="50">
@@ -8352,13 +8352,13 @@
         <v>102706</v>
       </c>
       <c r="B50" t="n">
-        <v>0.656595</v>
+        <v>0.651988</v>
       </c>
       <c r="C50" t="n">
-        <v>0.332984</v>
+        <v>0.348197</v>
       </c>
       <c r="D50" t="n">
-        <v>0.360714</v>
+        <v>0.37025</v>
       </c>
     </row>
     <row r="51">
@@ -8366,13 +8366,13 @@
         <v>107816</v>
       </c>
       <c r="B51" t="n">
-        <v>0.63261</v>
+        <v>0.637894</v>
       </c>
       <c r="C51" t="n">
-        <v>0.338103</v>
+        <v>0.350221</v>
       </c>
       <c r="D51" t="n">
-        <v>0.361024</v>
+        <v>0.364824</v>
       </c>
     </row>
     <row r="52">
@@ -8380,13 +8380,13 @@
         <v>113182</v>
       </c>
       <c r="B52" t="n">
-        <v>0.640753</v>
+        <v>0.640254</v>
       </c>
       <c r="C52" t="n">
-        <v>0.340347</v>
+        <v>0.347275</v>
       </c>
       <c r="D52" t="n">
-        <v>0.36773</v>
+        <v>0.373168</v>
       </c>
     </row>
     <row r="53">
@@ -8394,13 +8394,13 @@
         <v>118816</v>
       </c>
       <c r="B53" t="n">
-        <v>0.641883</v>
+        <v>0.651815</v>
       </c>
       <c r="C53" t="n">
-        <v>0.341008</v>
+        <v>0.371078</v>
       </c>
       <c r="D53" t="n">
-        <v>0.372682</v>
+        <v>0.381702</v>
       </c>
     </row>
     <row r="54">
@@ -8408,13 +8408,13 @@
         <v>124731</v>
       </c>
       <c r="B54" t="n">
-        <v>0.650066</v>
+        <v>0.657376</v>
       </c>
       <c r="C54" t="n">
-        <v>0.344007</v>
+        <v>0.365892</v>
       </c>
       <c r="D54" t="n">
-        <v>0.383982</v>
+        <v>0.391669</v>
       </c>
     </row>
     <row r="55">
@@ -8422,13 +8422,13 @@
         <v>130941</v>
       </c>
       <c r="B55" t="n">
-        <v>0.677408</v>
+        <v>0.672442</v>
       </c>
       <c r="C55" t="n">
-        <v>0.368012</v>
+        <v>0.384059</v>
       </c>
       <c r="D55" t="n">
-        <v>0.389365</v>
+        <v>0.390789</v>
       </c>
     </row>
     <row r="56">
@@ -8436,13 +8436,13 @@
         <v>137461</v>
       </c>
       <c r="B56" t="n">
-        <v>0.732204</v>
+        <v>0.68314</v>
       </c>
       <c r="C56" t="n">
-        <v>0.403483</v>
+        <v>0.402291</v>
       </c>
       <c r="D56" t="n">
-        <v>0.385911</v>
+        <v>0.408457</v>
       </c>
     </row>
     <row r="57">
@@ -8450,13 +8450,13 @@
         <v>144307</v>
       </c>
       <c r="B57" t="n">
-        <v>0.683555</v>
+        <v>0.715033</v>
       </c>
       <c r="C57" t="n">
-        <v>0.383641</v>
+        <v>0.410128</v>
       </c>
       <c r="D57" t="n">
-        <v>0.420662</v>
+        <v>0.419977</v>
       </c>
     </row>
     <row r="58">
@@ -8464,13 +8464,13 @@
         <v>151495</v>
       </c>
       <c r="B58" t="n">
-        <v>0.72385</v>
+        <v>0.7574109999999999</v>
       </c>
       <c r="C58" t="n">
-        <v>0.380272</v>
+        <v>0.419593</v>
       </c>
       <c r="D58" t="n">
-        <v>0.426538</v>
+        <v>0.44402</v>
       </c>
     </row>
     <row r="59">
@@ -8478,13 +8478,13 @@
         <v>159042</v>
       </c>
       <c r="B59" t="n">
-        <v>0.755673</v>
+        <v>0.780222</v>
       </c>
       <c r="C59" t="n">
-        <v>0.405878</v>
+        <v>0.448947</v>
       </c>
       <c r="D59" t="n">
-        <v>0.383</v>
+        <v>0.506036</v>
       </c>
     </row>
     <row r="60">
@@ -8492,13 +8492,13 @@
         <v>166965</v>
       </c>
       <c r="B60" t="n">
-        <v>0.701442</v>
+        <v>0.838429</v>
       </c>
       <c r="C60" t="n">
-        <v>0.375309</v>
+        <v>0.466841</v>
       </c>
       <c r="D60" t="n">
-        <v>0.501139</v>
+        <v>0.525226</v>
       </c>
     </row>
     <row r="61">
@@ -8506,13 +8506,13 @@
         <v>175284</v>
       </c>
       <c r="B61" t="n">
-        <v>0.814257</v>
+        <v>0.849878</v>
       </c>
       <c r="C61" t="n">
-        <v>0.423755</v>
+        <v>0.478743</v>
       </c>
       <c r="D61" t="n">
-        <v>0.531047</v>
+        <v>0.567903</v>
       </c>
     </row>
     <row r="62">
@@ -8520,13 +8520,13 @@
         <v>184019</v>
       </c>
       <c r="B62" t="n">
-        <v>0.869279</v>
+        <v>0.889786</v>
       </c>
       <c r="C62" t="n">
-        <v>0.439928</v>
+        <v>0.501363</v>
       </c>
       <c r="D62" t="n">
-        <v>0.587159</v>
+        <v>0.6307779999999999</v>
       </c>
     </row>
     <row r="63">
@@ -8534,13 +8534,13 @@
         <v>193190</v>
       </c>
       <c r="B63" t="n">
-        <v>0.8359799999999999</v>
+        <v>0.919592</v>
       </c>
       <c r="C63" t="n">
-        <v>0.445049</v>
+        <v>0.5363</v>
       </c>
       <c r="D63" t="n">
-        <v>0.595621</v>
+        <v>0.662412</v>
       </c>
     </row>
     <row r="64">
@@ -8548,13 +8548,13 @@
         <v>202820</v>
       </c>
       <c r="B64" t="n">
-        <v>0.897987</v>
+        <v>0.954055</v>
       </c>
       <c r="C64" t="n">
-        <v>0.483054</v>
+        <v>0.631193</v>
       </c>
       <c r="D64" t="n">
-        <v>0.6563639999999999</v>
+        <v>1.12236</v>
       </c>
     </row>
     <row r="65">
@@ -8562,13 +8562,13 @@
         <v>212931</v>
       </c>
       <c r="B65" t="n">
-        <v>0.838595</v>
+        <v>1.29284</v>
       </c>
       <c r="C65" t="n">
-        <v>0.526307</v>
+        <v>0.707928</v>
       </c>
       <c r="D65" t="n">
-        <v>0.631808</v>
+        <v>1.24797</v>
       </c>
     </row>
     <row r="66">
@@ -8576,13 +8576,13 @@
         <v>223547</v>
       </c>
       <c r="B66" t="n">
-        <v>0.8760250000000001</v>
+        <v>1.32552</v>
       </c>
       <c r="C66" t="n">
-        <v>0.467587</v>
+        <v>0.698286</v>
       </c>
       <c r="D66" t="n">
-        <v>0.69445</v>
+        <v>1.13952</v>
       </c>
     </row>
     <row r="67">
@@ -8590,13 +8590,13 @@
         <v>234692</v>
       </c>
       <c r="B67" t="n">
-        <v>0.8859590000000001</v>
+        <v>1.22466</v>
       </c>
       <c r="C67" t="n">
-        <v>0.541686</v>
+        <v>0.663489</v>
       </c>
       <c r="D67" t="n">
-        <v>0.887895</v>
+        <v>1.16535</v>
       </c>
     </row>
     <row r="68">
@@ -8604,13 +8604,13 @@
         <v>246395</v>
       </c>
       <c r="B68" t="n">
-        <v>1.10624</v>
+        <v>1.33939</v>
       </c>
       <c r="C68" t="n">
-        <v>0.535865</v>
+        <v>0.720387</v>
       </c>
       <c r="D68" t="n">
-        <v>0.779199</v>
+        <v>1.21579</v>
       </c>
     </row>
     <row r="69">
@@ -8618,13 +8618,13 @@
         <v>258683</v>
       </c>
       <c r="B69" t="n">
-        <v>0.9641459999999999</v>
+        <v>1.3636</v>
       </c>
       <c r="C69" t="n">
-        <v>0.580907</v>
+        <v>0.730317</v>
       </c>
       <c r="D69" t="n">
-        <v>0.794058</v>
+        <v>1.27252</v>
       </c>
     </row>
     <row r="70">
@@ -8632,13 +8632,13 @@
         <v>271585</v>
       </c>
       <c r="B70" t="n">
-        <v>0.979888</v>
+        <v>1.36623</v>
       </c>
       <c r="C70" t="n">
-        <v>0.6261100000000001</v>
+        <v>0.747623</v>
       </c>
       <c r="D70" t="n">
-        <v>0.959081</v>
+        <v>1.39755</v>
       </c>
     </row>
     <row r="71">
@@ -8646,13 +8646,13 @@
         <v>285132</v>
       </c>
       <c r="B71" t="n">
-        <v>1.21044</v>
+        <v>1.44291</v>
       </c>
       <c r="C71" t="n">
-        <v>0.702582</v>
+        <v>0.7792559999999999</v>
       </c>
       <c r="D71" t="n">
-        <v>1.00937</v>
+        <v>1.44469</v>
       </c>
     </row>
     <row r="72">
@@ -8660,13 +8660,13 @@
         <v>299354</v>
       </c>
       <c r="B72" t="n">
-        <v>1.41095</v>
+        <v>1.54209</v>
       </c>
       <c r="C72" t="n">
-        <v>0.7466660000000001</v>
+        <v>0.8258</v>
       </c>
       <c r="D72" t="n">
-        <v>1.02617</v>
+        <v>1.47072</v>
       </c>
     </row>
     <row r="73">
@@ -8674,13 +8674,13 @@
         <v>314289</v>
       </c>
       <c r="B73" t="n">
-        <v>1.25753</v>
+        <v>1.51644</v>
       </c>
       <c r="C73" t="n">
-        <v>0.79029</v>
+        <v>0.823412</v>
       </c>
       <c r="D73" t="n">
-        <v>1.06761</v>
+        <v>1.51836</v>
       </c>
     </row>
     <row r="74">
@@ -8688,13 +8688,13 @@
         <v>329969</v>
       </c>
       <c r="B74" t="n">
-        <v>1.25295</v>
+        <v>1.54528</v>
       </c>
       <c r="C74" t="n">
-        <v>0.691088</v>
+        <v>0.834248</v>
       </c>
       <c r="D74" t="n">
-        <v>1.06644</v>
+        <v>1.58619</v>
       </c>
     </row>
     <row r="75">
@@ -8702,13 +8702,13 @@
         <v>346432</v>
       </c>
       <c r="B75" t="n">
-        <v>1.19229</v>
+        <v>1.58435</v>
       </c>
       <c r="C75" t="n">
-        <v>0.696618</v>
+        <v>0.830332</v>
       </c>
       <c r="D75" t="n">
-        <v>1.22157</v>
+        <v>1.60929</v>
       </c>
     </row>
     <row r="76">
@@ -8716,13 +8716,13 @@
         <v>363719</v>
       </c>
       <c r="B76" t="n">
-        <v>1.36572</v>
+        <v>1.70666</v>
       </c>
       <c r="C76" t="n">
-        <v>0.814469</v>
+        <v>0.899222</v>
       </c>
       <c r="D76" t="n">
-        <v>1.34762</v>
+        <v>1.79576</v>
       </c>
     </row>
     <row r="77">
@@ -8730,13 +8730,13 @@
         <v>381870</v>
       </c>
       <c r="B77" t="n">
-        <v>1.3343</v>
+        <v>1.8526</v>
       </c>
       <c r="C77" t="n">
-        <v>0.792616</v>
+        <v>0.936912</v>
       </c>
       <c r="D77" t="n">
-        <v>1.1415</v>
+        <v>1.7173</v>
       </c>
     </row>
     <row r="78">
@@ -8744,13 +8744,13 @@
         <v>400928</v>
       </c>
       <c r="B78" t="n">
-        <v>1.35176</v>
+        <v>1.72621</v>
       </c>
       <c r="C78" t="n">
-        <v>0.913265</v>
+        <v>0.9188499999999999</v>
       </c>
       <c r="D78" t="n">
-        <v>1.31182</v>
+        <v>1.98011</v>
       </c>
     </row>
     <row r="79">
@@ -8758,13 +8758,13 @@
         <v>420937</v>
       </c>
       <c r="B79" t="n">
-        <v>1.46551</v>
+        <v>1.88978</v>
       </c>
       <c r="C79" t="n">
-        <v>0.959307</v>
+        <v>0.927959</v>
       </c>
       <c r="D79" t="n">
-        <v>1.34383</v>
+        <v>1.70537</v>
       </c>
     </row>
     <row r="80">
@@ -8772,13 +8772,13 @@
         <v>441947</v>
       </c>
       <c r="B80" t="n">
-        <v>2.14689</v>
+        <v>1.70097</v>
       </c>
       <c r="C80" t="n">
-        <v>0.994502</v>
+        <v>0.936818</v>
       </c>
       <c r="D80" t="n">
-        <v>1.60617</v>
+        <v>2.19222</v>
       </c>
     </row>
     <row r="81">
@@ -8786,13 +8786,13 @@
         <v>464005</v>
       </c>
       <c r="B81" t="n">
-        <v>1.58453</v>
+        <v>1.98663</v>
       </c>
       <c r="C81" t="n">
-        <v>0.9538140000000001</v>
+        <v>0.949694</v>
       </c>
       <c r="D81" t="n">
-        <v>2.01283</v>
+        <v>1.95233</v>
       </c>
     </row>
     <row r="82">
@@ -8800,13 +8800,13 @@
         <v>487165</v>
       </c>
       <c r="B82" t="n">
-        <v>2.11781</v>
+        <v>2.00308</v>
       </c>
       <c r="C82" t="n">
-        <v>1.03105</v>
+        <v>0.968124</v>
       </c>
       <c r="D82" t="n">
-        <v>1.94845</v>
+        <v>2.00024</v>
       </c>
     </row>
     <row r="83">
@@ -8814,13 +8814,13 @@
         <v>511485</v>
       </c>
       <c r="B83" t="n">
-        <v>1.9312</v>
+        <v>1.89078</v>
       </c>
       <c r="C83" t="n">
-        <v>1.00172</v>
+        <v>1.00107</v>
       </c>
       <c r="D83" t="n">
-        <v>2.14171</v>
+        <v>2.28213</v>
       </c>
     </row>
     <row r="84">
@@ -8828,13 +8828,13 @@
         <v>537019</v>
       </c>
       <c r="B84" t="n">
-        <v>1.85821</v>
+        <v>2.18259</v>
       </c>
       <c r="C84" t="n">
-        <v>1.05372</v>
+        <v>1.0062</v>
       </c>
       <c r="D84" t="n">
-        <v>1.92193</v>
+        <v>2.33805</v>
       </c>
     </row>
     <row r="85">
@@ -8842,13 +8842,13 @@
         <v>563827</v>
       </c>
       <c r="B85" t="n">
-        <v>2.07632</v>
+        <v>2.13699</v>
       </c>
       <c r="C85" t="n">
-        <v>1.07794</v>
+        <v>0.962687</v>
       </c>
       <c r="D85" t="n">
-        <v>1.84571</v>
+        <v>2.08301</v>
       </c>
     </row>
     <row r="86">
@@ -8856,13 +8856,13 @@
         <v>591977</v>
       </c>
       <c r="B86" t="n">
-        <v>1.95402</v>
+        <v>2.01571</v>
       </c>
       <c r="C86" t="n">
-        <v>1.11661</v>
+        <v>0.98713</v>
       </c>
       <c r="D86" t="n">
-        <v>2.1113</v>
+        <v>2.03393</v>
       </c>
     </row>
     <row r="87">
@@ -8870,13 +8870,13 @@
         <v>621532</v>
       </c>
       <c r="B87" t="n">
-        <v>2.21611</v>
+        <v>1.98682</v>
       </c>
       <c r="C87" t="n">
-        <v>1.15455</v>
+        <v>1.01947</v>
       </c>
       <c r="D87" t="n">
-        <v>2.6388</v>
+        <v>2.44997</v>
       </c>
     </row>
     <row r="88">
@@ -8884,13 +8884,13 @@
         <v>652567</v>
       </c>
       <c r="B88" t="n">
-        <v>2.074</v>
+        <v>2.22226</v>
       </c>
       <c r="C88" t="n">
-        <v>1.1284</v>
+        <v>1.05139</v>
       </c>
       <c r="D88" t="n">
-        <v>2.29579</v>
+        <v>2.47784</v>
       </c>
     </row>
     <row r="89">
@@ -8898,13 +8898,13 @@
         <v>685151</v>
       </c>
       <c r="B89" t="n">
-        <v>2.31998</v>
+        <v>2.21167</v>
       </c>
       <c r="C89" t="n">
-        <v>1.2301</v>
+        <v>1.05194</v>
       </c>
       <c r="D89" t="n">
-        <v>2.43205</v>
+        <v>2.38523</v>
       </c>
     </row>
     <row r="90">
@@ -8912,13 +8912,13 @@
         <v>719359</v>
       </c>
       <c r="B90" t="n">
-        <v>2.21565</v>
+        <v>2.32746</v>
       </c>
       <c r="C90" t="n">
-        <v>1.18062</v>
+        <v>1.08418</v>
       </c>
       <c r="D90" t="n">
-        <v>2.12578</v>
+        <v>2.45579</v>
       </c>
     </row>
     <row r="91">
@@ -8926,13 +8926,13 @@
         <v>755280</v>
       </c>
       <c r="B91" t="n">
-        <v>2.25443</v>
+        <v>2.27178</v>
       </c>
       <c r="C91" t="n">
-        <v>1.16675</v>
+        <v>1.09722</v>
       </c>
       <c r="D91" t="n">
-        <v>2.39091</v>
+        <v>2.42463</v>
       </c>
     </row>
     <row r="92">
@@ -8940,13 +8940,13 @@
         <v>792997</v>
       </c>
       <c r="B92" t="n">
-        <v>2.2808</v>
+        <v>2.30136</v>
       </c>
       <c r="C92" t="n">
-        <v>1.25078</v>
+        <v>1.10088</v>
       </c>
       <c r="D92" t="n">
-        <v>2.89454</v>
+        <v>2.86132</v>
       </c>
     </row>
     <row r="93">
@@ -8954,13 +8954,13 @@
         <v>832595</v>
       </c>
       <c r="B93" t="n">
-        <v>2.64442</v>
+        <v>2.51678</v>
       </c>
       <c r="C93" t="n">
-        <v>1.36374</v>
+        <v>1.12411</v>
       </c>
       <c r="D93" t="n">
-        <v>2.91818</v>
+        <v>2.74207</v>
       </c>
     </row>
     <row r="94">
@@ -8968,13 +8968,13 @@
         <v>874177</v>
       </c>
       <c r="B94" t="n">
-        <v>2.77682</v>
+        <v>2.54161</v>
       </c>
       <c r="C94" t="n">
-        <v>1.35192</v>
+        <v>1.12901</v>
       </c>
       <c r="D94" t="n">
-        <v>3.4936</v>
+        <v>2.93429</v>
       </c>
     </row>
     <row r="95">
@@ -8982,13 +8982,13 @@
         <v>917832</v>
       </c>
       <c r="B95" t="n">
-        <v>3.14084</v>
+        <v>2.50803</v>
       </c>
       <c r="C95" t="n">
-        <v>1.34948</v>
+        <v>1.09196</v>
       </c>
       <c r="D95" t="n">
-        <v>3.14215</v>
+        <v>2.52377</v>
       </c>
     </row>
     <row r="96">
@@ -8996,13 +8996,13 @@
         <v>963677</v>
       </c>
       <c r="B96" t="n">
-        <v>2.79903</v>
+        <v>2.28683</v>
       </c>
       <c r="C96" t="n">
-        <v>1.34758</v>
+        <v>1.04131</v>
       </c>
       <c r="D96" t="n">
-        <v>2.84895</v>
+        <v>2.22849</v>
       </c>
     </row>
     <row r="97">
@@ -9010,13 +9010,13 @@
         <v>1011813</v>
       </c>
       <c r="B97" t="n">
-        <v>2.68358</v>
+        <v>2.3077</v>
       </c>
       <c r="C97" t="n">
-        <v>1.26168</v>
+        <v>1.06301</v>
       </c>
       <c r="D97" t="n">
-        <v>3.03164</v>
+        <v>2.44416</v>
       </c>
     </row>
     <row r="98">
@@ -9024,13 +9024,13 @@
         <v>1062351</v>
       </c>
       <c r="B98" t="n">
-        <v>2.81025</v>
+        <v>2.27623</v>
       </c>
       <c r="C98" t="n">
-        <v>1.37841</v>
+        <v>1.05708</v>
       </c>
       <c r="D98" t="n">
-        <v>3.28093</v>
+        <v>2.36147</v>
       </c>
     </row>
     <row r="99">
@@ -9038,13 +9038,13 @@
         <v>1115422</v>
       </c>
       <c r="B99" t="n">
-        <v>2.96071</v>
+        <v>2.32686</v>
       </c>
       <c r="C99" t="n">
-        <v>1.4201</v>
+        <v>1.054</v>
       </c>
       <c r="D99" t="n">
-        <v>3.14336</v>
+        <v>1.55399</v>
       </c>
     </row>
     <row r="100">
@@ -9052,13 +9052,13 @@
         <v>1171143</v>
       </c>
       <c r="B100" t="n">
-        <v>2.95374</v>
+        <v>1.73977</v>
       </c>
       <c r="C100" t="n">
-        <v>1.37398</v>
+        <v>0.87085</v>
       </c>
       <c r="D100" t="n">
-        <v>3.04946</v>
+        <v>1.48322</v>
       </c>
     </row>
     <row r="101">
@@ -9066,13 +9066,13 @@
         <v>1229634</v>
       </c>
       <c r="B101" t="n">
-        <v>2.8451</v>
+        <v>1.93076</v>
       </c>
       <c r="C101" t="n">
-        <v>1.34293</v>
+        <v>0.945831</v>
       </c>
       <c r="D101" t="n">
-        <v>2.91789</v>
+        <v>1.54121</v>
       </c>
     </row>
     <row r="102">
@@ -9080,13 +9080,13 @@
         <v>1291062</v>
       </c>
       <c r="B102" t="n">
-        <v>2.8966</v>
+        <v>1.94023</v>
       </c>
       <c r="C102" t="n">
-        <v>1.40889</v>
+        <v>1.00876</v>
       </c>
       <c r="D102" t="n">
-        <v>3.21478</v>
+        <v>1.74671</v>
       </c>
     </row>
     <row r="103">
@@ -9094,13 +9094,13 @@
         <v>1355554</v>
       </c>
       <c r="B103" t="n">
-        <v>2.85585</v>
+        <v>2.10261</v>
       </c>
       <c r="C103" t="n">
-        <v>1.30275</v>
+        <v>1.0514</v>
       </c>
       <c r="D103" t="n">
-        <v>1.64627</v>
+        <v>2.19405</v>
       </c>
     </row>
     <row r="104">
@@ -9108,13 +9108,13 @@
         <v>1423274</v>
       </c>
       <c r="B104" t="n">
-        <v>1.88994</v>
+        <v>2.28534</v>
       </c>
       <c r="C104" t="n">
-        <v>0.997972</v>
+        <v>1.08574</v>
       </c>
       <c r="D104" t="n">
-        <v>2.4762</v>
+        <v>2.03285</v>
       </c>
     </row>
     <row r="105">
@@ -9122,13 +9122,13 @@
         <v>1494380</v>
       </c>
       <c r="B105" t="n">
-        <v>2.74479</v>
+        <v>2.27195</v>
       </c>
       <c r="C105" t="n">
-        <v>1.38445</v>
+        <v>1.06472</v>
       </c>
       <c r="D105" t="n">
-        <v>2.62502</v>
+        <v>2.07793</v>
       </c>
     </row>
     <row r="106">
@@ -9136,13 +9136,13 @@
         <v>1569031</v>
       </c>
       <c r="B106" t="n">
-        <v>2.88335</v>
+        <v>2.20635</v>
       </c>
       <c r="C106" t="n">
-        <v>1.35068</v>
+        <v>1.06009</v>
       </c>
       <c r="D106" t="n">
-        <v>2.47177</v>
+        <v>2.03642</v>
       </c>
     </row>
     <row r="107">
@@ -9150,13 +9150,13 @@
         <v>1647417</v>
       </c>
       <c r="B107" t="n">
-        <v>2.94004</v>
+        <v>2.25106</v>
       </c>
       <c r="C107" t="n">
-        <v>1.38323</v>
+        <v>1.11714</v>
       </c>
       <c r="D107" t="n">
-        <v>3.11049</v>
+        <v>2.60267</v>
       </c>
     </row>
     <row r="108">
@@ -9164,13 +9164,13 @@
         <v>1729734</v>
       </c>
       <c r="B108" t="n">
-        <v>3.06305</v>
+        <v>2.48513</v>
       </c>
       <c r="C108" t="n">
-        <v>1.37804</v>
+        <v>1.09361</v>
       </c>
       <c r="D108" t="n">
-        <v>3.02488</v>
+        <v>2.45226</v>
       </c>
     </row>
     <row r="109">
@@ -9178,13 +9178,13 @@
         <v>1816153</v>
       </c>
       <c r="B109" t="n">
-        <v>3.02042</v>
+        <v>2.38074</v>
       </c>
       <c r="C109" t="n">
-        <v>1.36711</v>
+        <v>1.0785</v>
       </c>
       <c r="D109" t="n">
-        <v>2.99398</v>
+        <v>2.3937</v>
       </c>
     </row>
     <row r="110">
@@ -9192,13 +9192,13 @@
         <v>1906885</v>
       </c>
       <c r="B110" t="n">
-        <v>3.02271</v>
+        <v>2.39406</v>
       </c>
       <c r="C110" t="n">
-        <v>1.34128</v>
+        <v>1.07576</v>
       </c>
       <c r="D110" t="n">
-        <v>2.78174</v>
+        <v>2.2967</v>
       </c>
     </row>
     <row r="111">
@@ -9206,13 +9206,13 @@
         <v>2002164</v>
       </c>
       <c r="B111" t="n">
-        <v>3.06712</v>
+        <v>2.39678</v>
       </c>
       <c r="C111" t="n">
-        <v>1.41404</v>
+        <v>1.07443</v>
       </c>
       <c r="D111" t="n">
-        <v>3.04842</v>
+        <v>2.41422</v>
       </c>
     </row>
     <row r="112">
@@ -9220,13 +9220,13 @@
         <v>2102198</v>
       </c>
       <c r="B112" t="n">
-        <v>2.98007</v>
+        <v>2.3045</v>
       </c>
       <c r="C112" t="n">
-        <v>1.3915</v>
+        <v>1.10749</v>
       </c>
       <c r="D112" t="n">
-        <v>2.98783</v>
+        <v>2.41017</v>
       </c>
     </row>
     <row r="113">
@@ -9234,13 +9234,13 @@
         <v>2207233</v>
       </c>
       <c r="B113" t="n">
-        <v>2.99446</v>
+        <v>2.40416</v>
       </c>
       <c r="C113" t="n">
-        <v>1.41324</v>
+        <v>1.11313</v>
       </c>
       <c r="D113" t="n">
-        <v>2.76211</v>
+        <v>2.33469</v>
       </c>
     </row>
     <row r="114">
@@ -9248,13 +9248,13 @@
         <v>2317508</v>
       </c>
       <c r="B114" t="n">
-        <v>3.14659</v>
+        <v>2.46183</v>
       </c>
       <c r="C114" t="n">
-        <v>1.46231</v>
+        <v>1.1287</v>
       </c>
       <c r="D114" t="n">
-        <v>3.07694</v>
+        <v>2.50091</v>
       </c>
     </row>
     <row r="115">
@@ -9262,13 +9262,13 @@
         <v>2433290</v>
       </c>
       <c r="B115" t="n">
-        <v>3.10596</v>
+        <v>2.4804</v>
       </c>
       <c r="C115" t="n">
-        <v>1.50823</v>
+        <v>1.14101</v>
       </c>
       <c r="D115" t="n">
-        <v>3.1113</v>
+        <v>2.21613</v>
       </c>
     </row>
     <row r="116">
@@ -9276,13 +9276,13 @@
         <v>2554854</v>
       </c>
       <c r="B116" t="n">
-        <v>3.14767</v>
+        <v>2.35173</v>
       </c>
       <c r="C116" t="n">
-        <v>1.48282</v>
+        <v>1.17013</v>
       </c>
       <c r="D116" t="n">
-        <v>3.19161</v>
+        <v>2.91996</v>
       </c>
     </row>
     <row r="117">
@@ -9290,13 +9290,13 @@
         <v>2682511</v>
       </c>
       <c r="B117" t="n">
-        <v>3.13804</v>
+        <v>2.6443</v>
       </c>
       <c r="C117" t="n">
-        <v>1.53385</v>
+        <v>1.19828</v>
       </c>
       <c r="D117" t="n">
-        <v>3.41325</v>
+        <v>2.94476</v>
       </c>
     </row>
     <row r="118">
@@ -9304,13 +9304,13 @@
         <v>2816546</v>
       </c>
       <c r="B118" t="n">
-        <v>3.36163</v>
+        <v>2.66674</v>
       </c>
       <c r="C118" t="n">
-        <v>1.58138</v>
+        <v>1.24135</v>
       </c>
       <c r="D118" t="n">
-        <v>3.3922</v>
+        <v>2.92258</v>
       </c>
     </row>
     <row r="119">
@@ -9318,13 +9318,13 @@
         <v>2957287</v>
       </c>
       <c r="B119" t="n">
-        <v>3.24622</v>
+        <v>2.69894</v>
       </c>
       <c r="C119" t="n">
-        <v>1.59704</v>
+        <v>1.25534</v>
       </c>
       <c r="D119" t="n">
-        <v>3.37807</v>
+        <v>2.90168</v>
       </c>
     </row>
   </sheetData>
@@ -9372,13 +9372,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.60248</v>
+        <v>0.809047</v>
       </c>
       <c r="C2" t="n">
-        <v>0.386041</v>
+        <v>0.453732</v>
       </c>
       <c r="D2" t="n">
-        <v>0.378949</v>
+        <v>0.459426</v>
       </c>
     </row>
     <row r="3">
@@ -9386,13 +9386,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.60815</v>
+        <v>0.810706</v>
       </c>
       <c r="C3" t="n">
-        <v>0.387102</v>
+        <v>0.475867</v>
       </c>
       <c r="D3" t="n">
-        <v>0.38048</v>
+        <v>0.479252</v>
       </c>
     </row>
     <row r="4">
@@ -9400,13 +9400,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.615928</v>
+        <v>0.8454660000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>0.390268</v>
+        <v>0.473906</v>
       </c>
       <c r="D4" t="n">
-        <v>0.38465</v>
+        <v>0.479193</v>
       </c>
     </row>
     <row r="5">
@@ -9414,13 +9414,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.61937</v>
+        <v>0.861859</v>
       </c>
       <c r="C5" t="n">
-        <v>0.393641</v>
+        <v>0.482257</v>
       </c>
       <c r="D5" t="n">
-        <v>0.384554</v>
+        <v>0.47963</v>
       </c>
     </row>
     <row r="6">
@@ -9428,13 +9428,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.620849</v>
+        <v>0.85053</v>
       </c>
       <c r="C6" t="n">
-        <v>0.394112</v>
+        <v>0.492631</v>
       </c>
       <c r="D6" t="n">
-        <v>0.387134</v>
+        <v>0.487092</v>
       </c>
     </row>
     <row r="7">
@@ -9442,13 +9442,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.624275</v>
+        <v>0.903962</v>
       </c>
       <c r="C7" t="n">
-        <v>0.405221</v>
+        <v>0.503634</v>
       </c>
       <c r="D7" t="n">
-        <v>0.387939</v>
+        <v>0.501291</v>
       </c>
     </row>
     <row r="8">
@@ -9456,13 +9456,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.621939</v>
+        <v>0.8996189999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>0.406119</v>
+        <v>0.49808</v>
       </c>
       <c r="D8" t="n">
-        <v>0.388861</v>
+        <v>0.499559</v>
       </c>
     </row>
     <row r="9">
@@ -9470,13 +9470,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.6279940000000001</v>
+        <v>0.9207340000000001</v>
       </c>
       <c r="C9" t="n">
-        <v>0.409425</v>
+        <v>0.510093</v>
       </c>
       <c r="D9" t="n">
-        <v>0.391077</v>
+        <v>0.503858</v>
       </c>
     </row>
     <row r="10">
@@ -9484,13 +9484,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.63282</v>
+        <v>0.94082</v>
       </c>
       <c r="C10" t="n">
-        <v>0.415421</v>
+        <v>0.522165</v>
       </c>
       <c r="D10" t="n">
-        <v>0.393374</v>
+        <v>0.512049</v>
       </c>
     </row>
     <row r="11">
@@ -9498,13 +9498,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.640451</v>
+        <v>0.9723349999999999</v>
       </c>
       <c r="C11" t="n">
-        <v>0.41373</v>
+        <v>0.532941</v>
       </c>
       <c r="D11" t="n">
-        <v>0.393455</v>
+        <v>0.528316</v>
       </c>
     </row>
     <row r="12">
@@ -9512,13 +9512,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.635231</v>
+        <v>0.973737</v>
       </c>
       <c r="C12" t="n">
-        <v>0.420878</v>
+        <v>0.52286</v>
       </c>
       <c r="D12" t="n">
-        <v>0.395532</v>
+        <v>0.517454</v>
       </c>
     </row>
     <row r="13">
@@ -9526,13 +9526,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.640701</v>
+        <v>0.990706</v>
       </c>
       <c r="C13" t="n">
-        <v>0.421836</v>
+        <v>0.5213179999999999</v>
       </c>
       <c r="D13" t="n">
-        <v>0.397833</v>
+        <v>0.526277</v>
       </c>
     </row>
     <row r="14">
@@ -9540,13 +9540,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.6465379999999999</v>
+        <v>1.03716</v>
       </c>
       <c r="C14" t="n">
-        <v>0.424608</v>
+        <v>0.529371</v>
       </c>
       <c r="D14" t="n">
-        <v>0.400719</v>
+        <v>0.543916</v>
       </c>
     </row>
     <row r="15">
@@ -9554,13 +9554,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.652277</v>
+        <v>1.00335</v>
       </c>
       <c r="C15" t="n">
-        <v>0.431607</v>
+        <v>0.54286</v>
       </c>
       <c r="D15" t="n">
-        <v>0.401185</v>
+        <v>0.5385760000000001</v>
       </c>
     </row>
     <row r="16">
@@ -9568,13 +9568,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.652238</v>
+        <v>1.01382</v>
       </c>
       <c r="C16" t="n">
-        <v>0.438962</v>
+        <v>0.547349</v>
       </c>
       <c r="D16" t="n">
-        <v>0.404378</v>
+        <v>0.548666</v>
       </c>
     </row>
     <row r="17">
@@ -9582,13 +9582,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.657008</v>
+        <v>1.03632</v>
       </c>
       <c r="C17" t="n">
-        <v>0.439372</v>
+        <v>0.554372</v>
       </c>
       <c r="D17" t="n">
-        <v>0.405795</v>
+        <v>0.556512</v>
       </c>
     </row>
     <row r="18">
@@ -9596,13 +9596,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.660686</v>
+        <v>1.02225</v>
       </c>
       <c r="C18" t="n">
-        <v>0.447553</v>
+        <v>0.554821</v>
       </c>
       <c r="D18" t="n">
-        <v>0.410108</v>
+        <v>0.55459</v>
       </c>
     </row>
     <row r="19">
@@ -9610,13 +9610,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.66601</v>
+        <v>1.04867</v>
       </c>
       <c r="C19" t="n">
-        <v>0.450904</v>
+        <v>0.550579</v>
       </c>
       <c r="D19" t="n">
-        <v>0.416567</v>
+        <v>0.554576</v>
       </c>
     </row>
     <row r="20">
@@ -9624,13 +9624,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.6786</v>
+        <v>1.04932</v>
       </c>
       <c r="C20" t="n">
-        <v>0.458343</v>
+        <v>0.561748</v>
       </c>
       <c r="D20" t="n">
-        <v>0.421963</v>
+        <v>0.557514</v>
       </c>
     </row>
     <row r="21">
@@ -9638,13 +9638,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.688153</v>
+        <v>1.08736</v>
       </c>
       <c r="C21" t="n">
-        <v>0.466181</v>
+        <v>0.568711</v>
       </c>
       <c r="D21" t="n">
-        <v>0.428855</v>
+        <v>0.56555</v>
       </c>
     </row>
     <row r="22">
@@ -9652,13 +9652,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.687415</v>
+        <v>1.06819</v>
       </c>
       <c r="C22" t="n">
-        <v>0.469178</v>
+        <v>0.57007</v>
       </c>
       <c r="D22" t="n">
-        <v>0.43502</v>
+        <v>0.56421</v>
       </c>
     </row>
     <row r="23">
@@ -9666,13 +9666,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.707421</v>
+        <v>1.08405</v>
       </c>
       <c r="C23" t="n">
-        <v>0.473619</v>
+        <v>0.577969</v>
       </c>
       <c r="D23" t="n">
-        <v>0.441547</v>
+        <v>0.571007</v>
       </c>
     </row>
     <row r="24">
@@ -9680,13 +9680,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.711737</v>
+        <v>1.06677</v>
       </c>
       <c r="C24" t="n">
-        <v>0.478518</v>
+        <v>0.5743509999999999</v>
       </c>
       <c r="D24" t="n">
-        <v>0.44652</v>
+        <v>0.571356</v>
       </c>
     </row>
     <row r="25">
@@ -9694,13 +9694,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.729512</v>
+        <v>1.09969</v>
       </c>
       <c r="C25" t="n">
-        <v>0.489227</v>
+        <v>0.596264</v>
       </c>
       <c r="D25" t="n">
-        <v>0.451894</v>
+        <v>0.568263</v>
       </c>
     </row>
     <row r="26">
@@ -9708,13 +9708,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.728846</v>
+        <v>1.09689</v>
       </c>
       <c r="C26" t="n">
-        <v>0.491175</v>
+        <v>0.590696</v>
       </c>
       <c r="D26" t="n">
-        <v>0.455956</v>
+        <v>0.5730420000000001</v>
       </c>
     </row>
     <row r="27">
@@ -9722,13 +9722,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.740375</v>
+        <v>1.10824</v>
       </c>
       <c r="C27" t="n">
-        <v>0.496859</v>
+        <v>0.591937</v>
       </c>
       <c r="D27" t="n">
-        <v>0.462845</v>
+        <v>0.589151</v>
       </c>
     </row>
     <row r="28">
@@ -9736,13 +9736,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.751308</v>
+        <v>1.09701</v>
       </c>
       <c r="C28" t="n">
-        <v>0.499191</v>
+        <v>0.6004890000000001</v>
       </c>
       <c r="D28" t="n">
-        <v>0.467655</v>
+        <v>0.584249</v>
       </c>
     </row>
     <row r="29">
@@ -9750,13 +9750,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.762151</v>
+        <v>1.1315</v>
       </c>
       <c r="C29" t="n">
-        <v>0.507159</v>
+        <v>0.616704</v>
       </c>
       <c r="D29" t="n">
-        <v>0.476152</v>
+        <v>0.581722</v>
       </c>
     </row>
     <row r="30">
@@ -9764,13 +9764,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.7766380000000001</v>
+        <v>1.15357</v>
       </c>
       <c r="C30" t="n">
-        <v>0.518572</v>
+        <v>0.617278</v>
       </c>
       <c r="D30" t="n">
-        <v>0.482335</v>
+        <v>0.591948</v>
       </c>
     </row>
     <row r="31">
@@ -9778,13 +9778,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.791265</v>
+        <v>1.14327</v>
       </c>
       <c r="C31" t="n">
-        <v>0.51903</v>
+        <v>0.613546</v>
       </c>
       <c r="D31" t="n">
-        <v>0.487515</v>
+        <v>0.59262</v>
       </c>
     </row>
     <row r="32">
@@ -9792,13 +9792,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.791423</v>
+        <v>1.13812</v>
       </c>
       <c r="C32" t="n">
-        <v>0.527002</v>
+        <v>0.607129</v>
       </c>
       <c r="D32" t="n">
-        <v>0.492926</v>
+        <v>0.5832349999999999</v>
       </c>
     </row>
     <row r="33">
@@ -9806,13 +9806,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.808795</v>
+        <v>1.16959</v>
       </c>
       <c r="C33" t="n">
-        <v>0.534972</v>
+        <v>0.624936</v>
       </c>
       <c r="D33" t="n">
-        <v>0.499517</v>
+        <v>0.592557</v>
       </c>
     </row>
     <row r="34">
@@ -9820,13 +9820,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.821265</v>
+        <v>1.19695</v>
       </c>
       <c r="C34" t="n">
-        <v>0.537963</v>
+        <v>0.633113</v>
       </c>
       <c r="D34" t="n">
-        <v>0.503873</v>
+        <v>0.589512</v>
       </c>
     </row>
     <row r="35">
@@ -9834,13 +9834,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.834015</v>
+        <v>1.17619</v>
       </c>
       <c r="C35" t="n">
-        <v>0.52545</v>
+        <v>0.587929</v>
       </c>
       <c r="D35" t="n">
-        <v>0.517729</v>
+        <v>0.602461</v>
       </c>
     </row>
     <row r="36">
@@ -9848,13 +9848,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.84185</v>
+        <v>1.16612</v>
       </c>
       <c r="C36" t="n">
-        <v>0.536566</v>
+        <v>0.609136</v>
       </c>
       <c r="D36" t="n">
-        <v>0.525318</v>
+        <v>0.600087</v>
       </c>
     </row>
     <row r="37">
@@ -9862,13 +9862,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.856486</v>
+        <v>1.17702</v>
       </c>
       <c r="C37" t="n">
-        <v>0.534422</v>
+        <v>0.594466</v>
       </c>
       <c r="D37" t="n">
-        <v>0.527684</v>
+        <v>0.597275</v>
       </c>
     </row>
     <row r="38">
@@ -9876,13 +9876,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.860442</v>
+        <v>1.19756</v>
       </c>
       <c r="C38" t="n">
-        <v>0.546153</v>
+        <v>0.588462</v>
       </c>
       <c r="D38" t="n">
-        <v>0.533905</v>
+        <v>0.61214</v>
       </c>
     </row>
     <row r="39">
@@ -9890,13 +9890,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.884089</v>
+        <v>1.20009</v>
       </c>
       <c r="C39" t="n">
-        <v>0.551781</v>
+        <v>0.626439</v>
       </c>
       <c r="D39" t="n">
-        <v>0.538709</v>
+        <v>0.634615</v>
       </c>
     </row>
     <row r="40">
@@ -9904,13 +9904,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.8849320000000001</v>
+        <v>1.20078</v>
       </c>
       <c r="C40" t="n">
-        <v>0.559218</v>
+        <v>0.6017479999999999</v>
       </c>
       <c r="D40" t="n">
-        <v>0.550353</v>
+        <v>0.599683</v>
       </c>
     </row>
     <row r="41">
@@ -9918,13 +9918,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.8944299999999999</v>
+        <v>1.1938</v>
       </c>
       <c r="C41" t="n">
-        <v>0.560484</v>
+        <v>0.615002</v>
       </c>
       <c r="D41" t="n">
-        <v>0.548027</v>
+        <v>0.610011</v>
       </c>
     </row>
     <row r="42">
@@ -9932,13 +9932,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.910392</v>
+        <v>1.2089</v>
       </c>
       <c r="C42" t="n">
-        <v>0.570059</v>
+        <v>0.608752</v>
       </c>
       <c r="D42" t="n">
-        <v>0.554013</v>
+        <v>0.6090370000000001</v>
       </c>
     </row>
     <row r="43">
@@ -9946,13 +9946,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.93147</v>
+        <v>1.19162</v>
       </c>
       <c r="C43" t="n">
-        <v>0.583047</v>
+        <v>0.617377</v>
       </c>
       <c r="D43" t="n">
-        <v>0.56052</v>
+        <v>0.605572</v>
       </c>
     </row>
     <row r="44">
@@ -9960,13 +9960,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.9297260000000001</v>
+        <v>1.21948</v>
       </c>
       <c r="C44" t="n">
-        <v>0.577689</v>
+        <v>0.6172879999999999</v>
       </c>
       <c r="D44" t="n">
-        <v>0.568711</v>
+        <v>0.608386</v>
       </c>
     </row>
     <row r="45">
@@ -9974,13 +9974,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.945612</v>
+        <v>1.22481</v>
       </c>
       <c r="C45" t="n">
-        <v>0.591454</v>
+        <v>0.612191</v>
       </c>
       <c r="D45" t="n">
-        <v>0.573059</v>
+        <v>0.634444</v>
       </c>
     </row>
     <row r="46">
@@ -9988,13 +9988,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.939266</v>
+        <v>1.25001</v>
       </c>
       <c r="C46" t="n">
-        <v>0.594253</v>
+        <v>0.617433</v>
       </c>
       <c r="D46" t="n">
-        <v>0.585916</v>
+        <v>0.609863</v>
       </c>
     </row>
     <row r="47">
@@ -10002,13 +10002,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.985915</v>
+        <v>1.26572</v>
       </c>
       <c r="C47" t="n">
-        <v>0.593266</v>
+        <v>0.621309</v>
       </c>
       <c r="D47" t="n">
-        <v>0.588208</v>
+        <v>0.614521</v>
       </c>
     </row>
     <row r="48">
@@ -10016,13 +10016,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.968091</v>
+        <v>1.25369</v>
       </c>
       <c r="C48" t="n">
-        <v>0.614612</v>
+        <v>0.61919</v>
       </c>
       <c r="D48" t="n">
-        <v>0.585525</v>
+        <v>0.614024</v>
       </c>
     </row>
     <row r="49">
@@ -10030,13 +10030,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>1.00371</v>
+        <v>1.25986</v>
       </c>
       <c r="C49" t="n">
-        <v>0.615548</v>
+        <v>0.63773</v>
       </c>
       <c r="D49" t="n">
-        <v>0.590241</v>
+        <v>0.6201759999999999</v>
       </c>
     </row>
     <row r="50">
@@ -10044,13 +10044,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.99299</v>
+        <v>1.31828</v>
       </c>
       <c r="C50" t="n">
-        <v>0.637635</v>
+        <v>0.630011</v>
       </c>
       <c r="D50" t="n">
-        <v>0.60743</v>
+        <v>0.624171</v>
       </c>
     </row>
     <row r="51">
@@ -10058,13 +10058,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>1.01545</v>
+        <v>1.27506</v>
       </c>
       <c r="C51" t="n">
-        <v>0.673414</v>
+        <v>0.654328</v>
       </c>
       <c r="D51" t="n">
-        <v>0.638398</v>
+        <v>0.631883</v>
       </c>
     </row>
     <row r="52">
@@ -10072,13 +10072,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>1.02028</v>
+        <v>1.27352</v>
       </c>
       <c r="C52" t="n">
-        <v>0.678721</v>
+        <v>0.638225</v>
       </c>
       <c r="D52" t="n">
-        <v>0.614671</v>
+        <v>0.6160369999999999</v>
       </c>
     </row>
     <row r="53">
@@ -10086,13 +10086,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>1.03557</v>
+        <v>1.27575</v>
       </c>
       <c r="C53" t="n">
-        <v>0.693072</v>
+        <v>0.641846</v>
       </c>
       <c r="D53" t="n">
-        <v>0.632837</v>
+        <v>0.619633</v>
       </c>
     </row>
     <row r="54">
@@ -10100,13 +10100,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>1.06359</v>
+        <v>1.27155</v>
       </c>
       <c r="C54" t="n">
-        <v>0.677766</v>
+        <v>0.649396</v>
       </c>
       <c r="D54" t="n">
-        <v>0.646671</v>
+        <v>0.631365</v>
       </c>
     </row>
     <row r="55">
@@ -10114,13 +10114,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>1.0743</v>
+        <v>1.22171</v>
       </c>
       <c r="C55" t="n">
-        <v>0.68704</v>
+        <v>0.656531</v>
       </c>
       <c r="D55" t="n">
-        <v>0.639431</v>
+        <v>0.625517</v>
       </c>
     </row>
     <row r="56">
@@ -10128,13 +10128,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>1.05511</v>
+        <v>1.3009</v>
       </c>
       <c r="C56" t="n">
-        <v>0.696699</v>
+        <v>0.66089</v>
       </c>
       <c r="D56" t="n">
-        <v>0.653771</v>
+        <v>0.660616</v>
       </c>
     </row>
     <row r="57">
@@ -10142,13 +10142,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>1.10087</v>
+        <v>1.27219</v>
       </c>
       <c r="C57" t="n">
-        <v>0.757172</v>
+        <v>0.655458</v>
       </c>
       <c r="D57" t="n">
-        <v>0.661177</v>
+        <v>0.647475</v>
       </c>
     </row>
     <row r="58">
@@ -10156,13 +10156,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>1.16487</v>
+        <v>1.33126</v>
       </c>
       <c r="C58" t="n">
-        <v>0.774173</v>
+        <v>0.701421</v>
       </c>
       <c r="D58" t="n">
-        <v>0.708997</v>
+        <v>0.661272</v>
       </c>
     </row>
     <row r="59">
@@ -10170,13 +10170,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>1.21355</v>
+        <v>1.39491</v>
       </c>
       <c r="C59" t="n">
-        <v>0.740188</v>
+        <v>0.721985</v>
       </c>
       <c r="D59" t="n">
-        <v>0.6893319999999999</v>
+        <v>0.7116130000000001</v>
       </c>
     </row>
     <row r="60">
@@ -10184,13 +10184,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>1.18778</v>
+        <v>1.48826</v>
       </c>
       <c r="C60" t="n">
-        <v>0.783753</v>
+        <v>0.7795800000000001</v>
       </c>
       <c r="D60" t="n">
-        <v>0.704699</v>
+        <v>0.753181</v>
       </c>
     </row>
     <row r="61">
@@ -10198,13 +10198,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>1.23588</v>
+        <v>1.5112</v>
       </c>
       <c r="C61" t="n">
-        <v>0.797233</v>
+        <v>0.784712</v>
       </c>
       <c r="D61" t="n">
-        <v>0.756955</v>
+        <v>0.8027609999999999</v>
       </c>
     </row>
     <row r="62">
@@ -10212,13 +10212,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>1.30675</v>
+        <v>1.56302</v>
       </c>
       <c r="C62" t="n">
-        <v>0.839259</v>
+        <v>0.8464</v>
       </c>
       <c r="D62" t="n">
-        <v>0.77019</v>
+        <v>0.823908</v>
       </c>
     </row>
     <row r="63">
@@ -10226,13 +10226,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>1.33406</v>
+        <v>1.57825</v>
       </c>
       <c r="C63" t="n">
-        <v>0.897112</v>
+        <v>0.8448</v>
       </c>
       <c r="D63" t="n">
-        <v>0.741883</v>
+        <v>0.876776</v>
       </c>
     </row>
     <row r="64">
@@ -10240,13 +10240,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>1.09714</v>
+        <v>1.61208</v>
       </c>
       <c r="C64" t="n">
-        <v>0.735863</v>
+        <v>0.98791</v>
       </c>
       <c r="D64" t="n">
-        <v>0.6825830000000001</v>
+        <v>1.04415</v>
       </c>
     </row>
     <row r="65">
@@ -10254,13 +10254,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>1.04896</v>
+        <v>1.73301</v>
       </c>
       <c r="C65" t="n">
-        <v>0.762794</v>
+        <v>1.00899</v>
       </c>
       <c r="D65" t="n">
-        <v>0.694782</v>
+        <v>1.08094</v>
       </c>
     </row>
     <row r="66">
@@ -10268,13 +10268,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>1.22974</v>
+        <v>1.78041</v>
       </c>
       <c r="C66" t="n">
-        <v>0.8105830000000001</v>
+        <v>0.986116</v>
       </c>
       <c r="D66" t="n">
-        <v>0.841741</v>
+        <v>1.08827</v>
       </c>
     </row>
     <row r="67">
@@ -10282,13 +10282,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.38172</v>
+        <v>1.78936</v>
       </c>
       <c r="C67" t="n">
-        <v>0.913454</v>
+        <v>1.02304</v>
       </c>
       <c r="D67" t="n">
-        <v>0.8824379999999999</v>
+        <v>1.07314</v>
       </c>
     </row>
     <row r="68">
@@ -10296,13 +10296,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>1.52174</v>
+        <v>1.85015</v>
       </c>
       <c r="C68" t="n">
-        <v>1.03123</v>
+        <v>1.05633</v>
       </c>
       <c r="D68" t="n">
-        <v>0.959158</v>
+        <v>1.15814</v>
       </c>
     </row>
     <row r="69">
@@ -10310,13 +10310,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>1.57161</v>
+        <v>1.8788</v>
       </c>
       <c r="C69" t="n">
-        <v>1.07421</v>
+        <v>1.13469</v>
       </c>
       <c r="D69" t="n">
-        <v>1.03348</v>
+        <v>1.18543</v>
       </c>
     </row>
     <row r="70">
@@ -10324,13 +10324,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>1.57582</v>
+        <v>1.90509</v>
       </c>
       <c r="C70" t="n">
-        <v>1.09969</v>
+        <v>1.11045</v>
       </c>
       <c r="D70" t="n">
-        <v>1.03871</v>
+        <v>1.22133</v>
       </c>
     </row>
     <row r="71">
@@ -10338,13 +10338,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>1.67152</v>
+        <v>1.88401</v>
       </c>
       <c r="C71" t="n">
-        <v>1.1083</v>
+        <v>1.14952</v>
       </c>
       <c r="D71" t="n">
-        <v>1.06698</v>
+        <v>1.3004</v>
       </c>
     </row>
     <row r="72">
@@ -10352,13 +10352,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>1.68515</v>
+        <v>2.16472</v>
       </c>
       <c r="C72" t="n">
-        <v>1.12874</v>
+        <v>1.15205</v>
       </c>
       <c r="D72" t="n">
-        <v>1.13221</v>
+        <v>1.31616</v>
       </c>
     </row>
     <row r="73">
@@ -10366,13 +10366,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>1.97635</v>
+        <v>2.16697</v>
       </c>
       <c r="C73" t="n">
-        <v>1.21221</v>
+        <v>1.2422</v>
       </c>
       <c r="D73" t="n">
-        <v>1.27269</v>
+        <v>1.33226</v>
       </c>
     </row>
     <row r="74">
@@ -10380,13 +10380,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.992</v>
+        <v>2.06807</v>
       </c>
       <c r="C74" t="n">
-        <v>1.25841</v>
+        <v>1.26028</v>
       </c>
       <c r="D74" t="n">
-        <v>1.32519</v>
+        <v>1.4433</v>
       </c>
     </row>
     <row r="75">
@@ -10394,13 +10394,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>2.23843</v>
+        <v>2.21824</v>
       </c>
       <c r="C75" t="n">
-        <v>1.4516</v>
+        <v>1.30378</v>
       </c>
       <c r="D75" t="n">
-        <v>1.30872</v>
+        <v>1.43147</v>
       </c>
     </row>
     <row r="76">
@@ -10408,13 +10408,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>2.20295</v>
+        <v>2.05516</v>
       </c>
       <c r="C76" t="n">
-        <v>1.41902</v>
+        <v>1.23725</v>
       </c>
       <c r="D76" t="n">
-        <v>1.41577</v>
+        <v>1.41706</v>
       </c>
     </row>
     <row r="77">
@@ -10422,13 +10422,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>2.23335</v>
+        <v>2.26237</v>
       </c>
       <c r="C77" t="n">
-        <v>1.5065</v>
+        <v>1.39708</v>
       </c>
       <c r="D77" t="n">
-        <v>1.4437</v>
+        <v>1.48493</v>
       </c>
     </row>
     <row r="78">
@@ -10436,13 +10436,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>2.22001</v>
+        <v>2.24178</v>
       </c>
       <c r="C78" t="n">
-        <v>1.48856</v>
+        <v>0.762737</v>
       </c>
       <c r="D78" t="n">
-        <v>1.58962</v>
+        <v>0.88525</v>
       </c>
     </row>
     <row r="79">
@@ -10450,13 +10450,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>2.41432</v>
+        <v>1.73001</v>
       </c>
       <c r="C79" t="n">
-        <v>1.57281</v>
+        <v>0.98004</v>
       </c>
       <c r="D79" t="n">
-        <v>1.61646</v>
+        <v>1.26113</v>
       </c>
     </row>
     <row r="80">
@@ -10464,13 +10464,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>2.49503</v>
+        <v>1.97935</v>
       </c>
       <c r="C80" t="n">
-        <v>1.60081</v>
+        <v>1.06979</v>
       </c>
       <c r="D80" t="n">
-        <v>1.77986</v>
+        <v>1.26097</v>
       </c>
     </row>
     <row r="81">
@@ -10478,13 +10478,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>2.59729</v>
+        <v>1.99919</v>
       </c>
       <c r="C81" t="n">
-        <v>1.61205</v>
+        <v>1.18853</v>
       </c>
       <c r="D81" t="n">
-        <v>1.71118</v>
+        <v>1.3758</v>
       </c>
     </row>
     <row r="82">
@@ -10492,13 +10492,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>2.57611</v>
+        <v>2.1366</v>
       </c>
       <c r="C82" t="n">
-        <v>1.62371</v>
+        <v>1.12282</v>
       </c>
       <c r="D82" t="n">
-        <v>1.65976</v>
+        <v>1.1496</v>
       </c>
     </row>
     <row r="83">
@@ -10506,13 +10506,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>2.65732</v>
+        <v>2.02039</v>
       </c>
       <c r="C83" t="n">
-        <v>1.6613</v>
+        <v>1.1872</v>
       </c>
       <c r="D83" t="n">
-        <v>1.8576</v>
+        <v>1.32919</v>
       </c>
     </row>
     <row r="84">
@@ -10520,13 +10520,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>2.68405</v>
+        <v>2.35676</v>
       </c>
       <c r="C84" t="n">
-        <v>1.75349</v>
+        <v>1.47074</v>
       </c>
       <c r="D84" t="n">
-        <v>2.03903</v>
+        <v>1.52492</v>
       </c>
     </row>
     <row r="85">
@@ -10534,13 +10534,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>2.82242</v>
+        <v>2.50275</v>
       </c>
       <c r="C85" t="n">
-        <v>1.77093</v>
+        <v>1.16592</v>
       </c>
       <c r="D85" t="n">
-        <v>1.90601</v>
+        <v>1.2589</v>
       </c>
     </row>
     <row r="86">
@@ -10548,13 +10548,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>2.49615</v>
+        <v>2.1</v>
       </c>
       <c r="C86" t="n">
-        <v>1.81036</v>
+        <v>1.25635</v>
       </c>
       <c r="D86" t="n">
-        <v>2.12941</v>
+        <v>1.66788</v>
       </c>
     </row>
     <row r="87">
@@ -10562,13 +10562,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>2.71442</v>
+        <v>2.69669</v>
       </c>
       <c r="C87" t="n">
-        <v>1.71804</v>
+        <v>1.47041</v>
       </c>
       <c r="D87" t="n">
-        <v>2.26096</v>
+        <v>1.49923</v>
       </c>
     </row>
     <row r="88">
@@ -10576,13 +10576,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>3.51217</v>
+        <v>2.25369</v>
       </c>
       <c r="C88" t="n">
-        <v>1.91181</v>
+        <v>1.41295</v>
       </c>
       <c r="D88" t="n">
-        <v>2.19973</v>
+        <v>1.31178</v>
       </c>
     </row>
     <row r="89">
@@ -10590,13 +10590,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>3.37514</v>
+        <v>2.35364</v>
       </c>
       <c r="C89" t="n">
-        <v>2.00475</v>
+        <v>1.42174</v>
       </c>
       <c r="D89" t="n">
-        <v>2.15683</v>
+        <v>1.50292</v>
       </c>
     </row>
     <row r="90">
@@ -10604,13 +10604,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>3.2724</v>
+        <v>2.49228</v>
       </c>
       <c r="C90" t="n">
-        <v>2.04401</v>
+        <v>1.42177</v>
       </c>
       <c r="D90" t="n">
-        <v>2.60676</v>
+        <v>1.62994</v>
       </c>
     </row>
     <row r="91">
@@ -10618,13 +10618,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>3.69456</v>
+        <v>2.72253</v>
       </c>
       <c r="C91" t="n">
-        <v>2.14489</v>
+        <v>1.71952</v>
       </c>
       <c r="D91" t="n">
-        <v>2.71511</v>
+        <v>1.71539</v>
       </c>
     </row>
     <row r="92">
@@ -10632,13 +10632,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>3.42936</v>
+        <v>3.04217</v>
       </c>
       <c r="C92" t="n">
-        <v>1.93696</v>
+        <v>1.51494</v>
       </c>
       <c r="D92" t="n">
-        <v>2.53795</v>
+        <v>2.03625</v>
       </c>
     </row>
     <row r="93">
@@ -10646,13 +10646,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>3.43662</v>
+        <v>2.94753</v>
       </c>
       <c r="C93" t="n">
-        <v>1.98272</v>
+        <v>1.55021</v>
       </c>
       <c r="D93" t="n">
-        <v>2.57384</v>
+        <v>1.86413</v>
       </c>
     </row>
     <row r="94">
@@ -10660,13 +10660,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>3.80507</v>
+        <v>2.95735</v>
       </c>
       <c r="C94" t="n">
-        <v>2.00951</v>
+        <v>1.55726</v>
       </c>
       <c r="D94" t="n">
-        <v>2.64991</v>
+        <v>1.95228</v>
       </c>
     </row>
     <row r="95">
@@ -10674,13 +10674,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>3.37237</v>
+        <v>3.19299</v>
       </c>
       <c r="C95" t="n">
-        <v>2.08945</v>
+        <v>1.72018</v>
       </c>
       <c r="D95" t="n">
-        <v>2.67229</v>
+        <v>1.93164</v>
       </c>
     </row>
     <row r="96">
@@ -10688,13 +10688,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>3.45535</v>
+        <v>3.2035</v>
       </c>
       <c r="C96" t="n">
-        <v>2.14926</v>
+        <v>1.65708</v>
       </c>
       <c r="D96" t="n">
-        <v>2.60503</v>
+        <v>1.93332</v>
       </c>
     </row>
     <row r="97">
@@ -10702,13 +10702,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>3.5915</v>
+        <v>3.05428</v>
       </c>
       <c r="C97" t="n">
-        <v>2.06165</v>
+        <v>1.78682</v>
       </c>
       <c r="D97" t="n">
-        <v>2.63478</v>
+        <v>2.1152</v>
       </c>
     </row>
     <row r="98">
@@ -10716,13 +10716,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>3.70138</v>
+        <v>3.2254</v>
       </c>
       <c r="C98" t="n">
-        <v>2.20383</v>
+        <v>1.75831</v>
       </c>
       <c r="D98" t="n">
-        <v>2.80755</v>
+        <v>2.18017</v>
       </c>
     </row>
     <row r="99">
@@ -10730,13 +10730,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>3.73337</v>
+        <v>3.17826</v>
       </c>
       <c r="C99" t="n">
-        <v>2.13683</v>
+        <v>1.75277</v>
       </c>
       <c r="D99" t="n">
-        <v>2.63195</v>
+        <v>2.09813</v>
       </c>
     </row>
     <row r="100">
@@ -10744,13 +10744,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>3.72555</v>
+        <v>3.32842</v>
       </c>
       <c r="C100" t="n">
-        <v>2.22224</v>
+        <v>2.03062</v>
       </c>
       <c r="D100" t="n">
-        <v>2.75389</v>
+        <v>2.23601</v>
       </c>
     </row>
     <row r="101">
@@ -10758,13 +10758,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>3.89183</v>
+        <v>3.29773</v>
       </c>
       <c r="C101" t="n">
-        <v>2.26952</v>
+        <v>1.92219</v>
       </c>
       <c r="D101" t="n">
-        <v>2.4982</v>
+        <v>2.29566</v>
       </c>
     </row>
     <row r="102">
@@ -10772,13 +10772,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>3.99745</v>
+        <v>3.356</v>
       </c>
       <c r="C102" t="n">
-        <v>2.31457</v>
+        <v>1.97987</v>
       </c>
       <c r="D102" t="n">
-        <v>2.89502</v>
+        <v>2.44378</v>
       </c>
     </row>
     <row r="103">
@@ -10786,13 +10786,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>4.02885</v>
+        <v>3.72177</v>
       </c>
       <c r="C103" t="n">
-        <v>2.40755</v>
+        <v>2.11</v>
       </c>
       <c r="D103" t="n">
-        <v>2.4851</v>
+        <v>2.56651</v>
       </c>
     </row>
     <row r="104">
@@ -10800,13 +10800,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>3.05102</v>
+        <v>3.71453</v>
       </c>
       <c r="C104" t="n">
-        <v>1.70139</v>
+        <v>2.14063</v>
       </c>
       <c r="D104" t="n">
-        <v>1.89472</v>
+        <v>2.38093</v>
       </c>
     </row>
     <row r="105">
@@ -10814,13 +10814,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>2.80088</v>
+        <v>3.6579</v>
       </c>
       <c r="C105" t="n">
-        <v>1.76638</v>
+        <v>2.00695</v>
       </c>
       <c r="D105" t="n">
-        <v>1.78377</v>
+        <v>2.43955</v>
       </c>
     </row>
     <row r="106">
@@ -10828,13 +10828,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>2.75409</v>
+        <v>3.6787</v>
       </c>
       <c r="C106" t="n">
-        <v>1.76527</v>
+        <v>2.06386</v>
       </c>
       <c r="D106" t="n">
-        <v>1.9353</v>
+        <v>2.31099</v>
       </c>
     </row>
     <row r="107">
@@ -10842,13 +10842,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>2.76564</v>
+        <v>3.62543</v>
       </c>
       <c r="C107" t="n">
-        <v>1.93489</v>
+        <v>1.88958</v>
       </c>
       <c r="D107" t="n">
-        <v>2.24504</v>
+        <v>2.39087</v>
       </c>
     </row>
     <row r="108">
@@ -10856,13 +10856,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>3.31397</v>
+        <v>3.86385</v>
       </c>
       <c r="C108" t="n">
-        <v>2.0183</v>
+        <v>1.95304</v>
       </c>
       <c r="D108" t="n">
-        <v>2.36307</v>
+        <v>2.71553</v>
       </c>
     </row>
     <row r="109">
@@ -10870,13 +10870,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>3.34992</v>
+        <v>3.82433</v>
       </c>
       <c r="C109" t="n">
-        <v>1.98193</v>
+        <v>2.08859</v>
       </c>
       <c r="D109" t="n">
-        <v>2.25976</v>
+        <v>2.71742</v>
       </c>
     </row>
     <row r="110">
@@ -10884,13 +10884,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>3.28627</v>
+        <v>4.0097</v>
       </c>
       <c r="C110" t="n">
-        <v>2.01871</v>
+        <v>2.06818</v>
       </c>
       <c r="D110" t="n">
-        <v>2.3918</v>
+        <v>2.69474</v>
       </c>
     </row>
     <row r="111">
@@ -10898,13 +10898,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>3.46298</v>
+        <v>3.99559</v>
       </c>
       <c r="C111" t="n">
-        <v>2.06444</v>
+        <v>2.09216</v>
       </c>
       <c r="D111" t="n">
-        <v>2.43385</v>
+        <v>2.69316</v>
       </c>
     </row>
     <row r="112">
@@ -10912,13 +10912,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>3.35966</v>
+        <v>3.83224</v>
       </c>
       <c r="C112" t="n">
-        <v>2.05406</v>
+        <v>2.21724</v>
       </c>
       <c r="D112" t="n">
-        <v>2.40545</v>
+        <v>3.02733</v>
       </c>
     </row>
     <row r="113">
@@ -10926,13 +10926,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>3.45048</v>
+        <v>4.30447</v>
       </c>
       <c r="C113" t="n">
-        <v>2.06464</v>
+        <v>2.24957</v>
       </c>
       <c r="D113" t="n">
-        <v>2.56868</v>
+        <v>2.5398</v>
       </c>
     </row>
     <row r="114">
@@ -10940,13 +10940,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>3.73923</v>
+        <v>3.38997</v>
       </c>
       <c r="C114" t="n">
-        <v>2.21515</v>
+        <v>1.64326</v>
       </c>
       <c r="D114" t="n">
-        <v>2.48705</v>
+        <v>2.00801</v>
       </c>
     </row>
     <row r="115">
@@ -10954,13 +10954,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>3.46329</v>
+        <v>3.69861</v>
       </c>
       <c r="C115" t="n">
-        <v>2.16373</v>
+        <v>1.96676</v>
       </c>
       <c r="D115" t="n">
-        <v>2.49775</v>
+        <v>2.15427</v>
       </c>
     </row>
     <row r="116">
@@ -10968,13 +10968,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>3.6503</v>
+        <v>3.82525</v>
       </c>
       <c r="C116" t="n">
-        <v>2.22016</v>
+        <v>2.03805</v>
       </c>
       <c r="D116" t="n">
-        <v>2.58851</v>
+        <v>2.30058</v>
       </c>
     </row>
     <row r="117">
@@ -10982,13 +10982,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>3.72739</v>
+        <v>3.94703</v>
       </c>
       <c r="C117" t="n">
-        <v>2.30096</v>
+        <v>2.02671</v>
       </c>
       <c r="D117" t="n">
-        <v>2.69747</v>
+        <v>2.39752</v>
       </c>
     </row>
     <row r="118">
@@ -10996,13 +10996,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>3.93756</v>
+        <v>4.14088</v>
       </c>
       <c r="C118" t="n">
-        <v>2.30006</v>
+        <v>2.12431</v>
       </c>
       <c r="D118" t="n">
-        <v>2.77491</v>
+        <v>2.61934</v>
       </c>
     </row>
     <row r="119">
@@ -11010,13 +11010,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>4.00567</v>
+        <v>4.09241</v>
       </c>
       <c r="C119" t="n">
-        <v>2.35723</v>
+        <v>2.14397</v>
       </c>
       <c r="D119" t="n">
-        <v>2.88548</v>
+        <v>2.57449</v>
       </c>
     </row>
   </sheetData>
@@ -11064,13 +11064,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.656208</v>
+        <v>0.838535</v>
       </c>
       <c r="C2" t="n">
-        <v>0.407123</v>
+        <v>0.489497</v>
       </c>
       <c r="D2" t="n">
-        <v>0.38612</v>
+        <v>0.433102</v>
       </c>
     </row>
     <row r="3">
@@ -11078,13 +11078,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.656536</v>
+        <v>0.866309</v>
       </c>
       <c r="C3" t="n">
-        <v>0.409063</v>
+        <v>0.499552</v>
       </c>
       <c r="D3" t="n">
-        <v>0.390007</v>
+        <v>0.446448</v>
       </c>
     </row>
     <row r="4">
@@ -11092,13 +11092,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.666181</v>
+        <v>0.875637</v>
       </c>
       <c r="C4" t="n">
-        <v>0.412051</v>
+        <v>0.509128</v>
       </c>
       <c r="D4" t="n">
-        <v>0.392797</v>
+        <v>0.461665</v>
       </c>
     </row>
     <row r="5">
@@ -11106,13 +11106,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.667297</v>
+        <v>0.892854</v>
       </c>
       <c r="C5" t="n">
-        <v>0.418035</v>
+        <v>0.528265</v>
       </c>
       <c r="D5" t="n">
-        <v>0.393157</v>
+        <v>0.466697</v>
       </c>
     </row>
     <row r="6">
@@ -11120,13 +11120,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.675387</v>
+        <v>0.933356</v>
       </c>
       <c r="C6" t="n">
-        <v>0.415119</v>
+        <v>0.528025</v>
       </c>
       <c r="D6" t="n">
-        <v>0.394546</v>
+        <v>0.488389</v>
       </c>
     </row>
     <row r="7">
@@ -11134,13 +11134,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.6815020000000001</v>
+        <v>0.961255</v>
       </c>
       <c r="C7" t="n">
-        <v>0.423367</v>
+        <v>0.5417689999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>0.399728</v>
+        <v>0.485056</v>
       </c>
     </row>
     <row r="8">
@@ -11148,13 +11148,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.685926</v>
+        <v>0.9826279999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>0.430746</v>
+        <v>0.563539</v>
       </c>
       <c r="D8" t="n">
-        <v>0.398384</v>
+        <v>0.495306</v>
       </c>
     </row>
     <row r="9">
@@ -11162,13 +11162,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.690607</v>
+        <v>1.00162</v>
       </c>
       <c r="C9" t="n">
-        <v>0.433278</v>
+        <v>0.5798489999999999</v>
       </c>
       <c r="D9" t="n">
-        <v>0.401333</v>
+        <v>0.49843</v>
       </c>
     </row>
     <row r="10">
@@ -11176,13 +11176,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.696503</v>
+        <v>1.02728</v>
       </c>
       <c r="C10" t="n">
-        <v>0.439639</v>
+        <v>0.589754</v>
       </c>
       <c r="D10" t="n">
-        <v>0.403443</v>
+        <v>0.491842</v>
       </c>
     </row>
     <row r="11">
@@ -11190,13 +11190,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.700107</v>
+        <v>1.04134</v>
       </c>
       <c r="C11" t="n">
-        <v>0.430627</v>
+        <v>0.560536</v>
       </c>
       <c r="D11" t="n">
-        <v>0.398435</v>
+        <v>0.496744</v>
       </c>
     </row>
     <row r="12">
@@ -11204,13 +11204,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.670704</v>
+        <v>0.995672</v>
       </c>
       <c r="C12" t="n">
-        <v>0.433623</v>
+        <v>0.544029</v>
       </c>
       <c r="D12" t="n">
-        <v>0.402488</v>
+        <v>0.51483</v>
       </c>
     </row>
     <row r="13">
@@ -11218,13 +11218,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.674424</v>
+        <v>1.05885</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4401</v>
+        <v>0.57025</v>
       </c>
       <c r="D13" t="n">
-        <v>0.402945</v>
+        <v>0.518945</v>
       </c>
     </row>
     <row r="14">
@@ -11232,13 +11232,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.674091</v>
+        <v>1.05574</v>
       </c>
       <c r="C14" t="n">
-        <v>0.445772</v>
+        <v>0.5860570000000001</v>
       </c>
       <c r="D14" t="n">
-        <v>0.403588</v>
+        <v>0.517173</v>
       </c>
     </row>
     <row r="15">
@@ -11246,13 +11246,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.685649</v>
+        <v>1.0588</v>
       </c>
       <c r="C15" t="n">
-        <v>0.452607</v>
+        <v>0.606139</v>
       </c>
       <c r="D15" t="n">
-        <v>0.407239</v>
+        <v>0.550701</v>
       </c>
     </row>
     <row r="16">
@@ -11260,13 +11260,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.683903</v>
+        <v>1.1018</v>
       </c>
       <c r="C16" t="n">
-        <v>0.458168</v>
+        <v>0.6222800000000001</v>
       </c>
       <c r="D16" t="n">
-        <v>0.408488</v>
+        <v>0.521966</v>
       </c>
     </row>
     <row r="17">
@@ -11274,13 +11274,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.701328</v>
+        <v>1.13253</v>
       </c>
       <c r="C17" t="n">
-        <v>0.468107</v>
+        <v>0.627104</v>
       </c>
       <c r="D17" t="n">
-        <v>0.411317</v>
+        <v>0.533361</v>
       </c>
     </row>
     <row r="18">
@@ -11288,13 +11288,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.706943</v>
+        <v>1.14064</v>
       </c>
       <c r="C18" t="n">
-        <v>0.470206</v>
+        <v>0.623627</v>
       </c>
       <c r="D18" t="n">
-        <v>0.413662</v>
+        <v>0.540986</v>
       </c>
     </row>
     <row r="19">
@@ -11302,13 +11302,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.72113</v>
+        <v>1.15948</v>
       </c>
       <c r="C19" t="n">
-        <v>0.487256</v>
+        <v>0.65368</v>
       </c>
       <c r="D19" t="n">
-        <v>0.418684</v>
+        <v>0.538758</v>
       </c>
     </row>
     <row r="20">
@@ -11316,13 +11316,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.73262</v>
+        <v>1.21409</v>
       </c>
       <c r="C20" t="n">
-        <v>0.495643</v>
+        <v>0.679487</v>
       </c>
       <c r="D20" t="n">
-        <v>0.42198</v>
+        <v>0.545365</v>
       </c>
     </row>
     <row r="21">
@@ -11330,13 +11330,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.73964</v>
+        <v>1.21432</v>
       </c>
       <c r="C21" t="n">
-        <v>0.507503</v>
+        <v>0.690228</v>
       </c>
       <c r="D21" t="n">
-        <v>0.425599</v>
+        <v>0.561997</v>
       </c>
     </row>
     <row r="22">
@@ -11344,13 +11344,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.747096</v>
+        <v>1.23063</v>
       </c>
       <c r="C22" t="n">
-        <v>0.5097739999999999</v>
+        <v>0.692762</v>
       </c>
       <c r="D22" t="n">
-        <v>0.430452</v>
+        <v>0.556269</v>
       </c>
     </row>
     <row r="23">
@@ -11358,13 +11358,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.768695</v>
+        <v>1.2544</v>
       </c>
       <c r="C23" t="n">
-        <v>0.519689</v>
+        <v>0.709948</v>
       </c>
       <c r="D23" t="n">
-        <v>0.436524</v>
+        <v>0.569295</v>
       </c>
     </row>
     <row r="24">
@@ -11372,13 +11372,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.777992</v>
+        <v>1.27203</v>
       </c>
       <c r="C24" t="n">
-        <v>0.530628</v>
+        <v>0.721145</v>
       </c>
       <c r="D24" t="n">
-        <v>0.439103</v>
+        <v>0.565371</v>
       </c>
     </row>
     <row r="25">
@@ -11386,13 +11386,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.793345</v>
+        <v>1.32379</v>
       </c>
       <c r="C25" t="n">
-        <v>0.5501740000000001</v>
+        <v>0.768172</v>
       </c>
       <c r="D25" t="n">
-        <v>0.449101</v>
+        <v>0.572079</v>
       </c>
     </row>
     <row r="26">
@@ -11400,13 +11400,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.811788</v>
+        <v>1.33335</v>
       </c>
       <c r="C26" t="n">
-        <v>0.500176</v>
+        <v>0.63873</v>
       </c>
       <c r="D26" t="n">
-        <v>0.446109</v>
+        <v>0.590434</v>
       </c>
     </row>
     <row r="27">
@@ -11414,13 +11414,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.768177</v>
+        <v>1.23857</v>
       </c>
       <c r="C27" t="n">
-        <v>0.505578</v>
+        <v>0.684142</v>
       </c>
       <c r="D27" t="n">
-        <v>0.452309</v>
+        <v>0.600267</v>
       </c>
     </row>
     <row r="28">
@@ -11428,13 +11428,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.776964</v>
+        <v>1.27289</v>
       </c>
       <c r="C28" t="n">
-        <v>0.51645</v>
+        <v>0.673336</v>
       </c>
       <c r="D28" t="n">
-        <v>0.45722</v>
+        <v>0.599271</v>
       </c>
     </row>
     <row r="29">
@@ -11442,13 +11442,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.794407</v>
+        <v>1.27786</v>
       </c>
       <c r="C29" t="n">
-        <v>0.519945</v>
+        <v>0.680044</v>
       </c>
       <c r="D29" t="n">
-        <v>0.462653</v>
+        <v>0.617329</v>
       </c>
     </row>
     <row r="30">
@@ -11456,13 +11456,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.805851</v>
+        <v>1.31326</v>
       </c>
       <c r="C30" t="n">
-        <v>0.532512</v>
+        <v>0.690671</v>
       </c>
       <c r="D30" t="n">
-        <v>0.470522</v>
+        <v>0.588582</v>
       </c>
     </row>
     <row r="31">
@@ -11470,13 +11470,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.822631</v>
+        <v>1.28894</v>
       </c>
       <c r="C31" t="n">
-        <v>0.534637</v>
+        <v>0.683412</v>
       </c>
       <c r="D31" t="n">
-        <v>0.477377</v>
+        <v>0.592851</v>
       </c>
     </row>
     <row r="32">
@@ -11484,13 +11484,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.842433</v>
+        <v>1.28299</v>
       </c>
       <c r="C32" t="n">
-        <v>0.549</v>
+        <v>0.687205</v>
       </c>
       <c r="D32" t="n">
-        <v>0.486979</v>
+        <v>0.609312</v>
       </c>
     </row>
     <row r="33">
@@ -11498,13 +11498,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.859814</v>
+        <v>1.36427</v>
       </c>
       <c r="C33" t="n">
-        <v>0.552639</v>
+        <v>0.702044</v>
       </c>
       <c r="D33" t="n">
-        <v>0.490579</v>
+        <v>0.616259</v>
       </c>
     </row>
     <row r="34">
@@ -11512,13 +11512,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.884636</v>
+        <v>1.31831</v>
       </c>
       <c r="C34" t="n">
-        <v>0.565906</v>
+        <v>0.691258</v>
       </c>
       <c r="D34" t="n">
-        <v>0.498848</v>
+        <v>0.591913</v>
       </c>
     </row>
     <row r="35">
@@ -11526,13 +11526,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.9077229999999999</v>
+        <v>1.31715</v>
       </c>
       <c r="C35" t="n">
-        <v>0.575572</v>
+        <v>0.700875</v>
       </c>
       <c r="D35" t="n">
-        <v>0.505034</v>
+        <v>0.587645</v>
       </c>
     </row>
     <row r="36">
@@ -11540,13 +11540,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.920737</v>
+        <v>1.35052</v>
       </c>
       <c r="C36" t="n">
-        <v>0.599565</v>
+        <v>0.736434</v>
       </c>
       <c r="D36" t="n">
-        <v>0.509796</v>
+        <v>0.58823</v>
       </c>
     </row>
     <row r="37">
@@ -11554,13 +11554,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.9419729999999999</v>
+        <v>1.38514</v>
       </c>
       <c r="C37" t="n">
-        <v>0.613857</v>
+        <v>0.7458129999999999</v>
       </c>
       <c r="D37" t="n">
-        <v>0.520268</v>
+        <v>0.581568</v>
       </c>
     </row>
     <row r="38">
@@ -11568,13 +11568,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.961948</v>
+        <v>1.38152</v>
       </c>
       <c r="C38" t="n">
-        <v>0.620302</v>
+        <v>0.752563</v>
       </c>
       <c r="D38" t="n">
-        <v>0.523586</v>
+        <v>0.584062</v>
       </c>
     </row>
     <row r="39">
@@ -11582,13 +11582,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.975989</v>
+        <v>1.39924</v>
       </c>
       <c r="C39" t="n">
-        <v>0.6391210000000001</v>
+        <v>0.753661</v>
       </c>
       <c r="D39" t="n">
-        <v>0.526176</v>
+        <v>0.587825</v>
       </c>
     </row>
     <row r="40">
@@ -11596,13 +11596,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.995352</v>
+        <v>1.39999</v>
       </c>
       <c r="C40" t="n">
-        <v>0.6042419999999999</v>
+        <v>0.671949</v>
       </c>
       <c r="D40" t="n">
-        <v>0.533628</v>
+        <v>0.585514</v>
       </c>
     </row>
     <row r="41">
@@ -11610,13 +11610,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.953117</v>
+        <v>1.34058</v>
       </c>
       <c r="C41" t="n">
-        <v>0.610511</v>
+        <v>0.689489</v>
       </c>
       <c r="D41" t="n">
-        <v>0.547668</v>
+        <v>0.5918679999999999</v>
       </c>
     </row>
     <row r="42">
@@ -11624,13 +11624,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.960315</v>
+        <v>1.29503</v>
       </c>
       <c r="C42" t="n">
-        <v>0.629371</v>
+        <v>0.696394</v>
       </c>
       <c r="D42" t="n">
-        <v>0.554599</v>
+        <v>0.596794</v>
       </c>
     </row>
     <row r="43">
@@ -11638,13 +11638,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.990289</v>
+        <v>1.29801</v>
       </c>
       <c r="C43" t="n">
-        <v>0.636039</v>
+        <v>0.679984</v>
       </c>
       <c r="D43" t="n">
-        <v>0.554657</v>
+        <v>0.6055199999999999</v>
       </c>
     </row>
     <row r="44">
@@ -11652,13 +11652,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.991568</v>
+        <v>1.29505</v>
       </c>
       <c r="C44" t="n">
-        <v>0.647836</v>
+        <v>0.709013</v>
       </c>
       <c r="D44" t="n">
-        <v>0.566568</v>
+        <v>0.602319</v>
       </c>
     </row>
     <row r="45">
@@ -11666,13 +11666,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>1.01165</v>
+        <v>1.3237</v>
       </c>
       <c r="C45" t="n">
-        <v>0.65684</v>
+        <v>0.7098139999999999</v>
       </c>
       <c r="D45" t="n">
-        <v>0.569072</v>
+        <v>0.59534</v>
       </c>
     </row>
     <row r="46">
@@ -11680,13 +11680,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>1.03376</v>
+        <v>1.31202</v>
       </c>
       <c r="C46" t="n">
-        <v>0.676099</v>
+        <v>0.7211379999999999</v>
       </c>
       <c r="D46" t="n">
-        <v>0.570022</v>
+        <v>0.611511</v>
       </c>
     </row>
     <row r="47">
@@ -11694,13 +11694,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.976506</v>
+        <v>1.36179</v>
       </c>
       <c r="C47" t="n">
-        <v>0.630252</v>
+        <v>0.72416</v>
       </c>
       <c r="D47" t="n">
-        <v>0.558969</v>
+        <v>0.591967</v>
       </c>
     </row>
     <row r="48">
@@ -11708,13 +11708,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>1.00971</v>
+        <v>1.34478</v>
       </c>
       <c r="C48" t="n">
-        <v>0.648494</v>
+        <v>0.741106</v>
       </c>
       <c r="D48" t="n">
-        <v>0.564041</v>
+        <v>0.593902</v>
       </c>
     </row>
     <row r="49">
@@ -11722,13 +11722,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>1.01905</v>
+        <v>1.38823</v>
       </c>
       <c r="C49" t="n">
-        <v>0.660129</v>
+        <v>0.747163</v>
       </c>
       <c r="D49" t="n">
-        <v>0.562873</v>
+        <v>0.598905</v>
       </c>
     </row>
     <row r="50">
@@ -11736,13 +11736,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>1.0134</v>
+        <v>1.42363</v>
       </c>
       <c r="C50" t="n">
-        <v>0.660247</v>
+        <v>0.760777</v>
       </c>
       <c r="D50" t="n">
-        <v>0.5699379999999999</v>
+        <v>0.610752</v>
       </c>
     </row>
     <row r="51">
@@ -11750,13 +11750,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>1.0653</v>
+        <v>1.39631</v>
       </c>
       <c r="C51" t="n">
-        <v>0.684511</v>
+        <v>0.777776</v>
       </c>
       <c r="D51" t="n">
-        <v>0.5852540000000001</v>
+        <v>0.595757</v>
       </c>
     </row>
     <row r="52">
@@ -11764,13 +11764,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>1.09674</v>
+        <v>1.44221</v>
       </c>
       <c r="C52" t="n">
-        <v>0.723449</v>
+        <v>0.797108</v>
       </c>
       <c r="D52" t="n">
-        <v>0.58602</v>
+        <v>0.60285</v>
       </c>
     </row>
     <row r="53">
@@ -11778,13 +11778,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>1.08238</v>
+        <v>1.43106</v>
       </c>
       <c r="C53" t="n">
-        <v>0.753287</v>
+        <v>0.799865</v>
       </c>
       <c r="D53" t="n">
-        <v>0.5955510000000001</v>
+        <v>0.591399</v>
       </c>
     </row>
     <row r="54">
@@ -11792,13 +11792,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>1.13475</v>
+        <v>1.42661</v>
       </c>
       <c r="C54" t="n">
-        <v>0.691902</v>
+        <v>0.703223</v>
       </c>
       <c r="D54" t="n">
-        <v>0.595958</v>
+        <v>0.596916</v>
       </c>
     </row>
     <row r="55">
@@ -11806,13 +11806,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>1.0618</v>
+        <v>1.31242</v>
       </c>
       <c r="C55" t="n">
-        <v>0.7113930000000001</v>
+        <v>0.707483</v>
       </c>
       <c r="D55" t="n">
-        <v>0.614882</v>
+        <v>0.601658</v>
       </c>
     </row>
     <row r="56">
@@ -11820,13 +11820,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>1.06356</v>
+        <v>1.35592</v>
       </c>
       <c r="C56" t="n">
-        <v>0.720173</v>
+        <v>0.713721</v>
       </c>
       <c r="D56" t="n">
-        <v>0.60343</v>
+        <v>0.60823</v>
       </c>
     </row>
     <row r="57">
@@ -11834,13 +11834,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>1.10353</v>
+        <v>1.335</v>
       </c>
       <c r="C57" t="n">
-        <v>0.722294</v>
+        <v>0.752117</v>
       </c>
       <c r="D57" t="n">
-        <v>0.6288010000000001</v>
+        <v>0.6072689999999999</v>
       </c>
     </row>
     <row r="58">
@@ -11848,13 +11848,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>1.12622</v>
+        <v>1.32712</v>
       </c>
       <c r="C58" t="n">
-        <v>0.766657</v>
+        <v>0.7160530000000001</v>
       </c>
       <c r="D58" t="n">
-        <v>0.625834</v>
+        <v>0.596793</v>
       </c>
     </row>
     <row r="59">
@@ -11862,13 +11862,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>1.14269</v>
+        <v>1.35409</v>
       </c>
       <c r="C59" t="n">
-        <v>0.7904099999999999</v>
+        <v>0.760188</v>
       </c>
       <c r="D59" t="n">
-        <v>0.659566</v>
+        <v>0.6136819999999999</v>
       </c>
     </row>
     <row r="60">
@@ -11876,13 +11876,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>1.21399</v>
+        <v>1.38045</v>
       </c>
       <c r="C60" t="n">
-        <v>0.821245</v>
+        <v>0.761968</v>
       </c>
       <c r="D60" t="n">
-        <v>0.64986</v>
+        <v>0.592717</v>
       </c>
     </row>
     <row r="61">
@@ -11890,13 +11890,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>1.23069</v>
+        <v>1.41015</v>
       </c>
       <c r="C61" t="n">
-        <v>0.848249</v>
+        <v>0.780004</v>
       </c>
       <c r="D61" t="n">
-        <v>0.668635</v>
+        <v>0.608152</v>
       </c>
     </row>
     <row r="62">
@@ -11904,13 +11904,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>1.24965</v>
+        <v>1.43333</v>
       </c>
       <c r="C62" t="n">
-        <v>0.865953</v>
+        <v>0.766949</v>
       </c>
       <c r="D62" t="n">
-        <v>0.657599</v>
+        <v>0.610595</v>
       </c>
     </row>
     <row r="63">
@@ -11918,13 +11918,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>1.27937</v>
+        <v>1.48704</v>
       </c>
       <c r="C63" t="n">
-        <v>0.907175</v>
+        <v>0.806272</v>
       </c>
       <c r="D63" t="n">
-        <v>0.70156</v>
+        <v>0.608505</v>
       </c>
     </row>
     <row r="64">
@@ -11932,13 +11932,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>1.32771</v>
+        <v>1.48675</v>
       </c>
       <c r="C64" t="n">
-        <v>0.95501</v>
+        <v>0.803441</v>
       </c>
       <c r="D64" t="n">
-        <v>0.698765</v>
+        <v>0.618126</v>
       </c>
     </row>
     <row r="65">
@@ -11946,13 +11946,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>1.3756</v>
+        <v>1.40788</v>
       </c>
       <c r="C65" t="n">
-        <v>0.906625</v>
+        <v>0.847709</v>
       </c>
       <c r="D65" t="n">
-        <v>0.714282</v>
+        <v>0.603138</v>
       </c>
     </row>
     <row r="66">
@@ -11960,13 +11960,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>1.36644</v>
+        <v>1.47684</v>
       </c>
       <c r="C66" t="n">
-        <v>0.998003</v>
+        <v>0.838158</v>
       </c>
       <c r="D66" t="n">
-        <v>0.734468</v>
+        <v>0.627983</v>
       </c>
     </row>
     <row r="67">
@@ -11974,13 +11974,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.50633</v>
+        <v>1.45976</v>
       </c>
       <c r="C67" t="n">
-        <v>0.996236</v>
+        <v>0.841695</v>
       </c>
       <c r="D67" t="n">
-        <v>0.71866</v>
+        <v>0.6145389999999999</v>
       </c>
     </row>
     <row r="68">
@@ -11988,13 +11988,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>1.5093</v>
+        <v>1.47926</v>
       </c>
       <c r="C68" t="n">
-        <v>0.930597</v>
+        <v>0.6928</v>
       </c>
       <c r="D68" t="n">
-        <v>0.751696</v>
+        <v>0.60667</v>
       </c>
     </row>
     <row r="69">
@@ -12002,13 +12002,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>1.37347</v>
+        <v>1.38436</v>
       </c>
       <c r="C69" t="n">
-        <v>0.935425</v>
+        <v>0.742924</v>
       </c>
       <c r="D69" t="n">
-        <v>0.761451</v>
+        <v>0.613877</v>
       </c>
     </row>
     <row r="70">
@@ -12016,13 +12016,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>1.4253</v>
+        <v>1.39587</v>
       </c>
       <c r="C70" t="n">
-        <v>0.94929</v>
+        <v>0.768251</v>
       </c>
       <c r="D70" t="n">
-        <v>0.797824</v>
+        <v>0.608742</v>
       </c>
     </row>
     <row r="71">
@@ -12030,13 +12030,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>1.42725</v>
+        <v>1.37447</v>
       </c>
       <c r="C71" t="n">
-        <v>1.02691</v>
+        <v>0.81257</v>
       </c>
       <c r="D71" t="n">
-        <v>0.774273</v>
+        <v>0.613583</v>
       </c>
     </row>
     <row r="72">
@@ -12044,13 +12044,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>1.5702</v>
+        <v>1.40361</v>
       </c>
       <c r="C72" t="n">
-        <v>1.08376</v>
+        <v>0.760395</v>
       </c>
       <c r="D72" t="n">
-        <v>0.823688</v>
+        <v>0.622038</v>
       </c>
     </row>
     <row r="73">
@@ -12058,13 +12058,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>1.60921</v>
+        <v>1.46822</v>
       </c>
       <c r="C73" t="n">
-        <v>1.13345</v>
+        <v>0.845455</v>
       </c>
       <c r="D73" t="n">
-        <v>0.86899</v>
+        <v>0.629653</v>
       </c>
     </row>
     <row r="74">
@@ -12072,13 +12072,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.78106</v>
+        <v>1.39441</v>
       </c>
       <c r="C74" t="n">
-        <v>1.20231</v>
+        <v>0.787475</v>
       </c>
       <c r="D74" t="n">
-        <v>0.954611</v>
+        <v>0.624422</v>
       </c>
     </row>
     <row r="75">
@@ -12086,13 +12086,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>2.03307</v>
+        <v>1.44345</v>
       </c>
       <c r="C75" t="n">
-        <v>1.3586</v>
+        <v>0.798161</v>
       </c>
       <c r="D75" t="n">
-        <v>0.987218</v>
+        <v>0.645862</v>
       </c>
     </row>
     <row r="76">
@@ -12100,13 +12100,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>1.98668</v>
+        <v>1.43463</v>
       </c>
       <c r="C76" t="n">
-        <v>1.34726</v>
+        <v>0.825672</v>
       </c>
       <c r="D76" t="n">
-        <v>1.1363</v>
+        <v>0.652702</v>
       </c>
     </row>
     <row r="77">
@@ -12114,13 +12114,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>2.06888</v>
+        <v>1.51408</v>
       </c>
       <c r="C77" t="n">
-        <v>1.3959</v>
+        <v>0.892989</v>
       </c>
       <c r="D77" t="n">
-        <v>1.12454</v>
+        <v>0.6472909999999999</v>
       </c>
     </row>
     <row r="78">
@@ -12128,13 +12128,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>2.31877</v>
+        <v>1.51725</v>
       </c>
       <c r="C78" t="n">
-        <v>1.40556</v>
+        <v>0.868991</v>
       </c>
       <c r="D78" t="n">
-        <v>1.12584</v>
+        <v>0.641294</v>
       </c>
     </row>
     <row r="79">
@@ -12142,13 +12142,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>2.26544</v>
+        <v>1.58963</v>
       </c>
       <c r="C79" t="n">
-        <v>1.56265</v>
+        <v>0.890554</v>
       </c>
       <c r="D79" t="n">
-        <v>1.27445</v>
+        <v>0.6352</v>
       </c>
     </row>
     <row r="80">
@@ -12156,13 +12156,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>2.35795</v>
+        <v>1.67514</v>
       </c>
       <c r="C80" t="n">
-        <v>1.67681</v>
+        <v>0.95816</v>
       </c>
       <c r="D80" t="n">
-        <v>1.26025</v>
+        <v>0.687371</v>
       </c>
     </row>
     <row r="81">
@@ -12170,13 +12170,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>2.40445</v>
+        <v>1.80176</v>
       </c>
       <c r="C81" t="n">
-        <v>1.67428</v>
+        <v>0.965575</v>
       </c>
       <c r="D81" t="n">
-        <v>1.35473</v>
+        <v>0.659996</v>
       </c>
     </row>
     <row r="82">
@@ -12184,13 +12184,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>2.71663</v>
+        <v>1.64831</v>
       </c>
       <c r="C82" t="n">
-        <v>1.79176</v>
+        <v>0.967047</v>
       </c>
       <c r="D82" t="n">
-        <v>1.55105</v>
+        <v>0.643046</v>
       </c>
     </row>
     <row r="83">
@@ -12198,13 +12198,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>2.85626</v>
+        <v>1.90902</v>
       </c>
       <c r="C83" t="n">
-        <v>1.67702</v>
+        <v>0.9496599999999999</v>
       </c>
       <c r="D83" t="n">
-        <v>1.48679</v>
+        <v>0.681316</v>
       </c>
     </row>
     <row r="84">
@@ -12212,13 +12212,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>2.67242</v>
+        <v>1.59568</v>
       </c>
       <c r="C84" t="n">
-        <v>1.9079</v>
+        <v>0.936011</v>
       </c>
       <c r="D84" t="n">
-        <v>1.62365</v>
+        <v>0.723291</v>
       </c>
     </row>
     <row r="85">
@@ -12226,13 +12226,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>2.63452</v>
+        <v>1.65653</v>
       </c>
       <c r="C85" t="n">
-        <v>1.8766</v>
+        <v>0.940837</v>
       </c>
       <c r="D85" t="n">
-        <v>1.75678</v>
+        <v>0.687828</v>
       </c>
     </row>
     <row r="86">
@@ -12240,13 +12240,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>3.23359</v>
+        <v>1.66137</v>
       </c>
       <c r="C86" t="n">
-        <v>2.04216</v>
+        <v>1.01002</v>
       </c>
       <c r="D86" t="n">
-        <v>1.83616</v>
+        <v>0.711033</v>
       </c>
     </row>
     <row r="87">
@@ -12254,13 +12254,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>3.5027</v>
+        <v>1.73741</v>
       </c>
       <c r="C87" t="n">
-        <v>2.03354</v>
+        <v>1.01533</v>
       </c>
       <c r="D87" t="n">
-        <v>1.86977</v>
+        <v>0.705766</v>
       </c>
     </row>
     <row r="88">
@@ -12268,13 +12268,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>3.67585</v>
+        <v>2.03549</v>
       </c>
       <c r="C88" t="n">
-        <v>2.12278</v>
+        <v>1.08402</v>
       </c>
       <c r="D88" t="n">
-        <v>1.91213</v>
+        <v>0.736577</v>
       </c>
     </row>
     <row r="89">
@@ -12282,13 +12282,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>2.23143</v>
+        <v>1.80131</v>
       </c>
       <c r="C89" t="n">
-        <v>1.44898</v>
+        <v>1.11387</v>
       </c>
       <c r="D89" t="n">
-        <v>1.15703</v>
+        <v>0.75654</v>
       </c>
     </row>
     <row r="90">
@@ -12296,13 +12296,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>2.75009</v>
+        <v>1.92313</v>
       </c>
       <c r="C90" t="n">
-        <v>1.53722</v>
+        <v>1.12039</v>
       </c>
       <c r="D90" t="n">
-        <v>1.1925</v>
+        <v>0.742086</v>
       </c>
     </row>
     <row r="91">
@@ -12310,13 +12310,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>2.79466</v>
+        <v>1.96811</v>
       </c>
       <c r="C91" t="n">
-        <v>1.49773</v>
+        <v>1.2406</v>
       </c>
       <c r="D91" t="n">
-        <v>1.24732</v>
+        <v>0.769505</v>
       </c>
     </row>
     <row r="92">
@@ -12324,13 +12324,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>2.72789</v>
+        <v>2.01129</v>
       </c>
       <c r="C92" t="n">
-        <v>1.58989</v>
+        <v>1.26824</v>
       </c>
       <c r="D92" t="n">
-        <v>1.32769</v>
+        <v>0.8082240000000001</v>
       </c>
     </row>
     <row r="93">
@@ -12338,13 +12338,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>2.70891</v>
+        <v>2.01357</v>
       </c>
       <c r="C93" t="n">
-        <v>1.71936</v>
+        <v>1.22048</v>
       </c>
       <c r="D93" t="n">
-        <v>1.30774</v>
+        <v>0.798163</v>
       </c>
     </row>
     <row r="94">
@@ -12352,13 +12352,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>2.85778</v>
+        <v>2.21052</v>
       </c>
       <c r="C94" t="n">
-        <v>1.88807</v>
+        <v>1.26502</v>
       </c>
       <c r="D94" t="n">
-        <v>1.3668</v>
+        <v>0.902277</v>
       </c>
     </row>
     <row r="95">
@@ -12366,13 +12366,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>2.81827</v>
+        <v>2.17138</v>
       </c>
       <c r="C95" t="n">
-        <v>1.95952</v>
+        <v>1.27105</v>
       </c>
       <c r="D95" t="n">
-        <v>1.65891</v>
+        <v>0.820787</v>
       </c>
     </row>
     <row r="96">
@@ -12380,13 +12380,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>3.03621</v>
+        <v>2.36731</v>
       </c>
       <c r="C96" t="n">
-        <v>1.9784</v>
+        <v>1.35541</v>
       </c>
       <c r="D96" t="n">
-        <v>1.61105</v>
+        <v>0.842563</v>
       </c>
     </row>
     <row r="97">
@@ -12394,13 +12394,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>2.86536</v>
+        <v>2.3121</v>
       </c>
       <c r="C97" t="n">
-        <v>1.71191</v>
+        <v>1.19928</v>
       </c>
       <c r="D97" t="n">
-        <v>1.51428</v>
+        <v>0.848116</v>
       </c>
     </row>
     <row r="98">
@@ -12408,13 +12408,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>2.51063</v>
+        <v>2.30834</v>
       </c>
       <c r="C98" t="n">
-        <v>1.68161</v>
+        <v>1.17479</v>
       </c>
       <c r="D98" t="n">
-        <v>1.54364</v>
+        <v>0.90723</v>
       </c>
     </row>
     <row r="99">
@@ -12422,13 +12422,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>2.55528</v>
+        <v>2.34062</v>
       </c>
       <c r="C99" t="n">
-        <v>1.81873</v>
+        <v>1.1925</v>
       </c>
       <c r="D99" t="n">
-        <v>1.6582</v>
+        <v>0.908191</v>
       </c>
     </row>
     <row r="100">
@@ -12436,13 +12436,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>2.46503</v>
+        <v>2.34444</v>
       </c>
       <c r="C100" t="n">
-        <v>1.7888</v>
+        <v>1.28984</v>
       </c>
       <c r="D100" t="n">
-        <v>1.63918</v>
+        <v>0.944395</v>
       </c>
     </row>
     <row r="101">
@@ -12450,13 +12450,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>2.81197</v>
+        <v>2.47233</v>
       </c>
       <c r="C101" t="n">
-        <v>1.84559</v>
+        <v>1.39982</v>
       </c>
       <c r="D101" t="n">
-        <v>1.73687</v>
+        <v>1.04727</v>
       </c>
     </row>
     <row r="102">
@@ -12464,13 +12464,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>3.0027</v>
+        <v>2.6936</v>
       </c>
       <c r="C102" t="n">
-        <v>1.93616</v>
+        <v>1.38</v>
       </c>
       <c r="D102" t="n">
-        <v>1.7553</v>
+        <v>0.945647</v>
       </c>
     </row>
     <row r="103">
@@ -12478,13 +12478,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>3.11334</v>
+        <v>2.59195</v>
       </c>
       <c r="C103" t="n">
-        <v>2.0785</v>
+        <v>1.45171</v>
       </c>
       <c r="D103" t="n">
-        <v>1.8184</v>
+        <v>1.83449</v>
       </c>
     </row>
     <row r="104">
@@ -12492,13 +12492,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>3.33207</v>
+        <v>4.12678</v>
       </c>
       <c r="C104" t="n">
-        <v>2.11579</v>
+        <v>2.50465</v>
       </c>
       <c r="D104" t="n">
-        <v>1.78547</v>
+        <v>2.31088</v>
       </c>
     </row>
     <row r="105">
@@ -12506,13 +12506,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>3.43213</v>
+        <v>4.12132</v>
       </c>
       <c r="C105" t="n">
-        <v>2.14737</v>
+        <v>2.47968</v>
       </c>
       <c r="D105" t="n">
-        <v>2.00066</v>
+        <v>2.26094</v>
       </c>
     </row>
     <row r="106">
@@ -12520,13 +12520,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>3.62079</v>
+        <v>4.12233</v>
       </c>
       <c r="C106" t="n">
-        <v>2.22646</v>
+        <v>2.71329</v>
       </c>
       <c r="D106" t="n">
-        <v>2.03679</v>
+        <v>2.20225</v>
       </c>
     </row>
     <row r="107">
@@ -12534,13 +12534,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>3.79003</v>
+        <v>4.13615</v>
       </c>
       <c r="C107" t="n">
-        <v>2.32547</v>
+        <v>2.46399</v>
       </c>
       <c r="D107" t="n">
-        <v>2.07448</v>
+        <v>2.16967</v>
       </c>
     </row>
     <row r="108">
@@ -12548,13 +12548,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>3.89447</v>
+        <v>4.37177</v>
       </c>
       <c r="C108" t="n">
-        <v>2.46973</v>
+        <v>2.79068</v>
       </c>
       <c r="D108" t="n">
-        <v>2.2598</v>
+        <v>2.35165</v>
       </c>
     </row>
     <row r="109">
@@ -12562,13 +12562,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>3.94255</v>
+        <v>4.51154</v>
       </c>
       <c r="C109" t="n">
-        <v>2.56676</v>
+        <v>2.84919</v>
       </c>
       <c r="D109" t="n">
-        <v>2.15247</v>
+        <v>2.35666</v>
       </c>
     </row>
     <row r="110">
@@ -12576,13 +12576,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>4.15769</v>
+        <v>4.89177</v>
       </c>
       <c r="C110" t="n">
-        <v>2.62391</v>
+        <v>2.98489</v>
       </c>
       <c r="D110" t="n">
-        <v>2.23691</v>
+        <v>2.36464</v>
       </c>
     </row>
     <row r="111">
@@ -12590,13 +12590,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>4.29072</v>
+        <v>4.83625</v>
       </c>
       <c r="C111" t="n">
-        <v>2.42252</v>
+        <v>2.42286</v>
       </c>
       <c r="D111" t="n">
-        <v>2.42441</v>
+        <v>2.53024</v>
       </c>
     </row>
     <row r="112">
@@ -12604,13 +12604,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>4.05431</v>
+        <v>4.28057</v>
       </c>
       <c r="C112" t="n">
-        <v>2.51998</v>
+        <v>2.51604</v>
       </c>
       <c r="D112" t="n">
-        <v>2.50286</v>
+        <v>2.55854</v>
       </c>
     </row>
     <row r="113">
@@ -12618,13 +12618,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>4.13528</v>
+        <v>4.40135</v>
       </c>
       <c r="C113" t="n">
-        <v>2.52675</v>
+        <v>2.52718</v>
       </c>
       <c r="D113" t="n">
-        <v>2.51883</v>
+        <v>2.42659</v>
       </c>
     </row>
     <row r="114">
@@ -12632,13 +12632,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>4.19722</v>
+        <v>3.6458</v>
       </c>
       <c r="C114" t="n">
-        <v>2.51728</v>
+        <v>1.72213</v>
       </c>
       <c r="D114" t="n">
-        <v>2.00054</v>
+        <v>1.45607</v>
       </c>
     </row>
     <row r="115">
@@ -12646,13 +12646,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>3.31838</v>
+        <v>3.40891</v>
       </c>
       <c r="C115" t="n">
-        <v>2.13085</v>
+        <v>1.78351</v>
       </c>
       <c r="D115" t="n">
-        <v>2.04421</v>
+        <v>1.43909</v>
       </c>
     </row>
     <row r="116">
@@ -12660,13 +12660,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>3.36373</v>
+        <v>3.6976</v>
       </c>
       <c r="C116" t="n">
-        <v>2.17816</v>
+        <v>2.74284</v>
       </c>
       <c r="D116" t="n">
-        <v>2.03601</v>
+        <v>2.54804</v>
       </c>
     </row>
     <row r="117">
@@ -12674,13 +12674,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>3.41617</v>
+        <v>4.77712</v>
       </c>
       <c r="C117" t="n">
-        <v>2.2105</v>
+        <v>2.6045</v>
       </c>
       <c r="D117" t="n">
-        <v>2.07278</v>
+        <v>2.59815</v>
       </c>
     </row>
     <row r="118">
@@ -12688,13 +12688,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>4.67415</v>
+        <v>5.02163</v>
       </c>
       <c r="C118" t="n">
-        <v>2.87986</v>
+        <v>2.87796</v>
       </c>
       <c r="D118" t="n">
-        <v>2.7872</v>
+        <v>2.75473</v>
       </c>
     </row>
     <row r="119">
@@ -12702,13 +12702,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>4.69884</v>
+        <v>5.17901</v>
       </c>
       <c r="C119" t="n">
-        <v>2.95722</v>
+        <v>3.23653</v>
       </c>
       <c r="D119" t="n">
-        <v>2.80061</v>
+        <v>2.83019</v>
       </c>
     </row>
   </sheetData>

--- a/clang_libcpp/scattered erasure.xlsx
+++ b/clang_libcpp/scattered erasure.xlsx
@@ -7680,13 +7680,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.399824</v>
+        <v>0.39541</v>
       </c>
       <c r="C2" t="n">
-        <v>0.238992</v>
+        <v>0.215726</v>
       </c>
       <c r="D2" t="n">
-        <v>0.221625</v>
+        <v>0.213437</v>
       </c>
     </row>
     <row r="3">
@@ -7694,13 +7694,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.405119</v>
+        <v>0.401609</v>
       </c>
       <c r="C3" t="n">
-        <v>0.240542</v>
+        <v>0.216634</v>
       </c>
       <c r="D3" t="n">
-        <v>0.22558</v>
+        <v>0.219873</v>
       </c>
     </row>
     <row r="4">
@@ -7708,13 +7708,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.411554</v>
+        <v>0.40834</v>
       </c>
       <c r="C4" t="n">
-        <v>0.244576</v>
+        <v>0.220537</v>
       </c>
       <c r="D4" t="n">
-        <v>0.22856</v>
+        <v>0.221915</v>
       </c>
     </row>
     <row r="5">
@@ -7722,13 +7722,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.416545</v>
+        <v>0.412896</v>
       </c>
       <c r="C5" t="n">
-        <v>0.246394</v>
+        <v>0.223485</v>
       </c>
       <c r="D5" t="n">
-        <v>0.23264</v>
+        <v>0.228865</v>
       </c>
     </row>
     <row r="6">
@@ -7736,13 +7736,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.422636</v>
+        <v>0.418157</v>
       </c>
       <c r="C6" t="n">
-        <v>0.249423</v>
+        <v>0.226488</v>
       </c>
       <c r="D6" t="n">
-        <v>0.23646</v>
+        <v>0.233157</v>
       </c>
     </row>
     <row r="7">
@@ -7750,13 +7750,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.429318</v>
+        <v>0.421897</v>
       </c>
       <c r="C7" t="n">
-        <v>0.236675</v>
+        <v>0.218715</v>
       </c>
       <c r="D7" t="n">
-        <v>0.211091</v>
+        <v>0.242558</v>
       </c>
     </row>
     <row r="8">
@@ -7764,13 +7764,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.389206</v>
+        <v>0.40382</v>
       </c>
       <c r="C8" t="n">
-        <v>0.239401</v>
+        <v>0.220012</v>
       </c>
       <c r="D8" t="n">
-        <v>0.213191</v>
+        <v>0.246053</v>
       </c>
     </row>
     <row r="9">
@@ -7778,13 +7778,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.391478</v>
+        <v>0.407911</v>
       </c>
       <c r="C9" t="n">
-        <v>0.243862</v>
+        <v>0.2216</v>
       </c>
       <c r="D9" t="n">
-        <v>0.215959</v>
+        <v>0.251385</v>
       </c>
     </row>
     <row r="10">
@@ -7792,13 +7792,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.395365</v>
+        <v>0.416106</v>
       </c>
       <c r="C10" t="n">
-        <v>0.24724</v>
+        <v>0.223518</v>
       </c>
       <c r="D10" t="n">
-        <v>0.218672</v>
+        <v>0.258026</v>
       </c>
     </row>
     <row r="11">
@@ -7806,13 +7806,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.399935</v>
+        <v>0.422604</v>
       </c>
       <c r="C11" t="n">
-        <v>0.24745</v>
+        <v>0.224963</v>
       </c>
       <c r="D11" t="n">
-        <v>0.220348</v>
+        <v>0.261565</v>
       </c>
     </row>
     <row r="12">
@@ -7820,13 +7820,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.403801</v>
+        <v>0.427144</v>
       </c>
       <c r="C12" t="n">
-        <v>0.250582</v>
+        <v>0.226796</v>
       </c>
       <c r="D12" t="n">
-        <v>0.224829</v>
+        <v>0.267815</v>
       </c>
     </row>
     <row r="13">
@@ -7834,13 +7834,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.411524</v>
+        <v>0.434027</v>
       </c>
       <c r="C13" t="n">
-        <v>0.256123</v>
+        <v>0.228745</v>
       </c>
       <c r="D13" t="n">
-        <v>0.226595</v>
+        <v>0.271323</v>
       </c>
     </row>
     <row r="14">
@@ -7848,13 +7848,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.413939</v>
+        <v>0.440015</v>
       </c>
       <c r="C14" t="n">
-        <v>0.259011</v>
+        <v>0.2306</v>
       </c>
       <c r="D14" t="n">
-        <v>0.231676</v>
+        <v>0.275825</v>
       </c>
     </row>
     <row r="15">
@@ -7862,13 +7862,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.422527</v>
+        <v>0.4449</v>
       </c>
       <c r="C15" t="n">
-        <v>0.262299</v>
+        <v>0.233184</v>
       </c>
       <c r="D15" t="n">
-        <v>0.236081</v>
+        <v>0.281658</v>
       </c>
     </row>
     <row r="16">
@@ -7876,13 +7876,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.429664</v>
+        <v>0.45207</v>
       </c>
       <c r="C16" t="n">
-        <v>0.26728</v>
+        <v>0.235929</v>
       </c>
       <c r="D16" t="n">
-        <v>0.241645</v>
+        <v>0.287156</v>
       </c>
     </row>
     <row r="17">
@@ -7890,13 +7890,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.437916</v>
+        <v>0.459115</v>
       </c>
       <c r="C17" t="n">
-        <v>0.271426</v>
+        <v>0.23735</v>
       </c>
       <c r="D17" t="n">
-        <v>0.247858</v>
+        <v>0.290689</v>
       </c>
     </row>
     <row r="18">
@@ -7904,13 +7904,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.447287</v>
+        <v>0.462091</v>
       </c>
       <c r="C18" t="n">
-        <v>0.276603</v>
+        <v>0.240483</v>
       </c>
       <c r="D18" t="n">
-        <v>0.25373</v>
+        <v>0.295839</v>
       </c>
     </row>
     <row r="19">
@@ -7918,13 +7918,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.455878</v>
+        <v>0.467392</v>
       </c>
       <c r="C19" t="n">
-        <v>0.280685</v>
+        <v>0.242704</v>
       </c>
       <c r="D19" t="n">
-        <v>0.260779</v>
+        <v>0.300028</v>
       </c>
     </row>
     <row r="20">
@@ -7932,13 +7932,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.469636</v>
+        <v>0.475518</v>
       </c>
       <c r="C20" t="n">
-        <v>0.285061</v>
+        <v>0.245672</v>
       </c>
       <c r="D20" t="n">
-        <v>0.267679</v>
+        <v>0.304403</v>
       </c>
     </row>
     <row r="21">
@@ -7946,13 +7946,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.477955</v>
+        <v>0.480649</v>
       </c>
       <c r="C21" t="n">
-        <v>0.278793</v>
+        <v>0.233296</v>
       </c>
       <c r="D21" t="n">
-        <v>0.261725</v>
+        <v>0.305171</v>
       </c>
     </row>
     <row r="22">
@@ -7960,13 +7960,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.46064</v>
+        <v>0.463173</v>
       </c>
       <c r="C22" t="n">
-        <v>0.280767</v>
+        <v>0.234463</v>
       </c>
       <c r="D22" t="n">
-        <v>0.265062</v>
+        <v>0.308352</v>
       </c>
     </row>
     <row r="23">
@@ -7974,13 +7974,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.467816</v>
+        <v>0.46744</v>
       </c>
       <c r="C23" t="n">
-        <v>0.283988</v>
+        <v>0.235885</v>
       </c>
       <c r="D23" t="n">
-        <v>0.271148</v>
+        <v>0.31211</v>
       </c>
     </row>
     <row r="24">
@@ -7988,13 +7988,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.475038</v>
+        <v>0.471792</v>
       </c>
       <c r="C24" t="n">
-        <v>0.286906</v>
+        <v>0.23757</v>
       </c>
       <c r="D24" t="n">
-        <v>0.277209</v>
+        <v>0.314681</v>
       </c>
     </row>
     <row r="25">
@@ -8002,13 +8002,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.487696</v>
+        <v>0.475981</v>
       </c>
       <c r="C25" t="n">
-        <v>0.289196</v>
+        <v>0.239107</v>
       </c>
       <c r="D25" t="n">
-        <v>0.283024</v>
+        <v>0.317182</v>
       </c>
     </row>
     <row r="26">
@@ -8016,13 +8016,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.497206</v>
+        <v>0.480618</v>
       </c>
       <c r="C26" t="n">
-        <v>0.291285</v>
+        <v>0.241006</v>
       </c>
       <c r="D26" t="n">
-        <v>0.28756</v>
+        <v>0.321012</v>
       </c>
     </row>
     <row r="27">
@@ -8030,13 +8030,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.502881</v>
+        <v>0.484015</v>
       </c>
       <c r="C27" t="n">
-        <v>0.294453</v>
+        <v>0.242422</v>
       </c>
       <c r="D27" t="n">
-        <v>0.29391</v>
+        <v>0.324063</v>
       </c>
     </row>
     <row r="28">
@@ -8044,13 +8044,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.511803</v>
+        <v>0.489254</v>
       </c>
       <c r="C28" t="n">
-        <v>0.298316</v>
+        <v>0.244529</v>
       </c>
       <c r="D28" t="n">
-        <v>0.299062</v>
+        <v>0.32727</v>
       </c>
     </row>
     <row r="29">
@@ -8058,13 +8058,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.522012</v>
+        <v>0.492681</v>
       </c>
       <c r="C29" t="n">
-        <v>0.303189</v>
+        <v>0.246363</v>
       </c>
       <c r="D29" t="n">
-        <v>0.306041</v>
+        <v>0.329247</v>
       </c>
     </row>
     <row r="30">
@@ -8072,13 +8072,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.531984</v>
+        <v>0.49814</v>
       </c>
       <c r="C30" t="n">
-        <v>0.304598</v>
+        <v>0.249009</v>
       </c>
       <c r="D30" t="n">
-        <v>0.31041</v>
+        <v>0.331957</v>
       </c>
     </row>
     <row r="31">
@@ -8086,13 +8086,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.5383520000000001</v>
+        <v>0.5021949999999999</v>
       </c>
       <c r="C31" t="n">
-        <v>0.307041</v>
+        <v>0.252199</v>
       </c>
       <c r="D31" t="n">
-        <v>0.315452</v>
+        <v>0.335863</v>
       </c>
     </row>
     <row r="32">
@@ -8100,13 +8100,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.547137</v>
+        <v>0.507016</v>
       </c>
       <c r="C32" t="n">
-        <v>0.311515</v>
+        <v>0.25332</v>
       </c>
       <c r="D32" t="n">
-        <v>0.320883</v>
+        <v>0.337986</v>
       </c>
     </row>
     <row r="33">
@@ -8114,13 +8114,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.556318</v>
+        <v>0.51171</v>
       </c>
       <c r="C33" t="n">
-        <v>0.314651</v>
+        <v>0.256094</v>
       </c>
       <c r="D33" t="n">
-        <v>0.327584</v>
+        <v>0.341056</v>
       </c>
     </row>
     <row r="34">
@@ -8128,13 +8128,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.567495</v>
+        <v>0.517435</v>
       </c>
       <c r="C34" t="n">
-        <v>0.318713</v>
+        <v>0.257336</v>
       </c>
       <c r="D34" t="n">
-        <v>0.333378</v>
+        <v>0.343672</v>
       </c>
     </row>
     <row r="35">
@@ -8142,13 +8142,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.575756</v>
+        <v>0.520823</v>
       </c>
       <c r="C35" t="n">
-        <v>0.310531</v>
+        <v>0.242851</v>
       </c>
       <c r="D35" t="n">
-        <v>0.321955</v>
+        <v>0.337605</v>
       </c>
     </row>
     <row r="36">
@@ -8156,13 +8156,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.561425</v>
+        <v>0.495056</v>
       </c>
       <c r="C36" t="n">
-        <v>0.312551</v>
+        <v>0.243784</v>
       </c>
       <c r="D36" t="n">
-        <v>0.32619</v>
+        <v>0.339263</v>
       </c>
     </row>
     <row r="37">
@@ -8170,13 +8170,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.570236</v>
+        <v>0.498576</v>
       </c>
       <c r="C37" t="n">
-        <v>0.315684</v>
+        <v>0.245521</v>
       </c>
       <c r="D37" t="n">
-        <v>0.331226</v>
+        <v>0.339912</v>
       </c>
     </row>
     <row r="38">
@@ -8184,13 +8184,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.573451</v>
+        <v>0.500748</v>
       </c>
       <c r="C38" t="n">
-        <v>0.314318</v>
+        <v>0.247402</v>
       </c>
       <c r="D38" t="n">
-        <v>0.333194</v>
+        <v>0.342752</v>
       </c>
     </row>
     <row r="39">
@@ -8198,13 +8198,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.579842</v>
+        <v>0.503627</v>
       </c>
       <c r="C39" t="n">
-        <v>0.314255</v>
+        <v>0.248222</v>
       </c>
       <c r="D39" t="n">
-        <v>0.336163</v>
+        <v>0.344537</v>
       </c>
     </row>
     <row r="40">
@@ -8212,13 +8212,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.585211</v>
+        <v>0.508029</v>
       </c>
       <c r="C40" t="n">
-        <v>0.313325</v>
+        <v>0.249978</v>
       </c>
       <c r="D40" t="n">
-        <v>0.337406</v>
+        <v>0.345943</v>
       </c>
     </row>
     <row r="41">
@@ -8226,13 +8226,13 @@
         <v>66357</v>
       </c>
       <c r="B41" t="n">
-        <v>0.587848</v>
+        <v>0.510085</v>
       </c>
       <c r="C41" t="n">
-        <v>0.315735</v>
+        <v>0.252654</v>
       </c>
       <c r="D41" t="n">
-        <v>0.339416</v>
+        <v>0.348275</v>
       </c>
     </row>
     <row r="42">
@@ -8240,13 +8240,13 @@
         <v>69656</v>
       </c>
       <c r="B42" t="n">
-        <v>0.592349</v>
+        <v>0.513829</v>
       </c>
       <c r="C42" t="n">
-        <v>0.318915</v>
+        <v>0.254536</v>
       </c>
       <c r="D42" t="n">
-        <v>0.344462</v>
+        <v>0.35045</v>
       </c>
     </row>
     <row r="43">
@@ -8254,13 +8254,13 @@
         <v>73119</v>
       </c>
       <c r="B43" t="n">
-        <v>0.600391</v>
+        <v>0.519209</v>
       </c>
       <c r="C43" t="n">
-        <v>0.322865</v>
+        <v>0.254376</v>
       </c>
       <c r="D43" t="n">
-        <v>0.347974</v>
+        <v>0.352199</v>
       </c>
     </row>
     <row r="44">
@@ -8268,13 +8268,13 @@
         <v>76755</v>
       </c>
       <c r="B44" t="n">
-        <v>0.605725</v>
+        <v>0.520658</v>
       </c>
       <c r="C44" t="n">
-        <v>0.327992</v>
+        <v>0.257168</v>
       </c>
       <c r="D44" t="n">
-        <v>0.351957</v>
+        <v>0.354533</v>
       </c>
     </row>
     <row r="45">
@@ -8282,13 +8282,13 @@
         <v>80572</v>
       </c>
       <c r="B45" t="n">
-        <v>0.612105</v>
+        <v>0.524628</v>
       </c>
       <c r="C45" t="n">
-        <v>0.334082</v>
+        <v>0.259257</v>
       </c>
       <c r="D45" t="n">
-        <v>0.3581</v>
+        <v>0.356348</v>
       </c>
     </row>
     <row r="46">
@@ -8296,13 +8296,13 @@
         <v>84579</v>
       </c>
       <c r="B46" t="n">
-        <v>0.626622</v>
+        <v>0.5295570000000001</v>
       </c>
       <c r="C46" t="n">
-        <v>0.337271</v>
+        <v>0.262871</v>
       </c>
       <c r="D46" t="n">
-        <v>0.361259</v>
+        <v>0.358743</v>
       </c>
     </row>
     <row r="47">
@@ -8310,13 +8310,13 @@
         <v>88786</v>
       </c>
       <c r="B47" t="n">
-        <v>0.631265</v>
+        <v>0.533605</v>
       </c>
       <c r="C47" t="n">
-        <v>0.343318</v>
+        <v>0.265559</v>
       </c>
       <c r="D47" t="n">
-        <v>0.36605</v>
+        <v>0.360136</v>
       </c>
     </row>
     <row r="48">
@@ -8324,13 +8324,13 @@
         <v>93203</v>
       </c>
       <c r="B48" t="n">
-        <v>0.63876</v>
+        <v>0.537922</v>
       </c>
       <c r="C48" t="n">
-        <v>0.344127</v>
+        <v>0.267815</v>
       </c>
       <c r="D48" t="n">
-        <v>0.369991</v>
+        <v>0.363168</v>
       </c>
     </row>
     <row r="49">
@@ -8338,13 +8338,13 @@
         <v>97840</v>
       </c>
       <c r="B49" t="n">
-        <v>0.644186</v>
+        <v>0.5419040000000001</v>
       </c>
       <c r="C49" t="n">
-        <v>0.351062</v>
+        <v>0.270582</v>
       </c>
       <c r="D49" t="n">
-        <v>0.376455</v>
+        <v>0.365275</v>
       </c>
     </row>
     <row r="50">
@@ -8352,13 +8352,13 @@
         <v>102706</v>
       </c>
       <c r="B50" t="n">
-        <v>0.651988</v>
+        <v>0.546629</v>
       </c>
       <c r="C50" t="n">
-        <v>0.348197</v>
+        <v>0.258599</v>
       </c>
       <c r="D50" t="n">
-        <v>0.37025</v>
+        <v>0.355687</v>
       </c>
     </row>
     <row r="51">
@@ -8366,13 +8366,13 @@
         <v>107816</v>
       </c>
       <c r="B51" t="n">
-        <v>0.637894</v>
+        <v>0.516465</v>
       </c>
       <c r="C51" t="n">
-        <v>0.350221</v>
+        <v>0.259969</v>
       </c>
       <c r="D51" t="n">
-        <v>0.364824</v>
+        <v>0.356959</v>
       </c>
     </row>
     <row r="52">
@@ -8380,13 +8380,13 @@
         <v>113182</v>
       </c>
       <c r="B52" t="n">
-        <v>0.640254</v>
+        <v>0.519814</v>
       </c>
       <c r="C52" t="n">
-        <v>0.347275</v>
+        <v>0.258113</v>
       </c>
       <c r="D52" t="n">
-        <v>0.373168</v>
+        <v>0.357515</v>
       </c>
     </row>
     <row r="53">
@@ -8394,13 +8394,13 @@
         <v>118816</v>
       </c>
       <c r="B53" t="n">
-        <v>0.651815</v>
+        <v>0.521046</v>
       </c>
       <c r="C53" t="n">
-        <v>0.371078</v>
+        <v>0.25964</v>
       </c>
       <c r="D53" t="n">
-        <v>0.381702</v>
+        <v>0.35909</v>
       </c>
     </row>
     <row r="54">
@@ -8408,13 +8408,13 @@
         <v>124731</v>
       </c>
       <c r="B54" t="n">
-        <v>0.657376</v>
+        <v>0.5243679999999999</v>
       </c>
       <c r="C54" t="n">
-        <v>0.365892</v>
+        <v>0.264631</v>
       </c>
       <c r="D54" t="n">
-        <v>0.391669</v>
+        <v>0.360453</v>
       </c>
     </row>
     <row r="55">
@@ -8422,13 +8422,13 @@
         <v>130941</v>
       </c>
       <c r="B55" t="n">
-        <v>0.672442</v>
+        <v>0.526325</v>
       </c>
       <c r="C55" t="n">
-        <v>0.384059</v>
+        <v>0.263071</v>
       </c>
       <c r="D55" t="n">
-        <v>0.390789</v>
+        <v>0.362124</v>
       </c>
     </row>
     <row r="56">
@@ -8436,13 +8436,13 @@
         <v>137461</v>
       </c>
       <c r="B56" t="n">
-        <v>0.68314</v>
+        <v>0.529303</v>
       </c>
       <c r="C56" t="n">
-        <v>0.402291</v>
+        <v>0.265064</v>
       </c>
       <c r="D56" t="n">
-        <v>0.408457</v>
+        <v>0.363438</v>
       </c>
     </row>
     <row r="57">
@@ -8450,13 +8450,13 @@
         <v>144307</v>
       </c>
       <c r="B57" t="n">
-        <v>0.715033</v>
+        <v>0.532125</v>
       </c>
       <c r="C57" t="n">
-        <v>0.410128</v>
+        <v>0.270638</v>
       </c>
       <c r="D57" t="n">
-        <v>0.419977</v>
+        <v>0.365716</v>
       </c>
     </row>
     <row r="58">
@@ -8464,13 +8464,13 @@
         <v>151495</v>
       </c>
       <c r="B58" t="n">
-        <v>0.7574109999999999</v>
+        <v>0.535458</v>
       </c>
       <c r="C58" t="n">
-        <v>0.419593</v>
+        <v>0.272417</v>
       </c>
       <c r="D58" t="n">
-        <v>0.44402</v>
+        <v>0.367968</v>
       </c>
     </row>
     <row r="59">
@@ -8478,13 +8478,13 @@
         <v>159042</v>
       </c>
       <c r="B59" t="n">
-        <v>0.780222</v>
+        <v>0.538516</v>
       </c>
       <c r="C59" t="n">
-        <v>0.448947</v>
+        <v>0.277982</v>
       </c>
       <c r="D59" t="n">
-        <v>0.506036</v>
+        <v>0.369147</v>
       </c>
     </row>
     <row r="60">
@@ -8492,13 +8492,13 @@
         <v>166965</v>
       </c>
       <c r="B60" t="n">
-        <v>0.838429</v>
+        <v>0.54234</v>
       </c>
       <c r="C60" t="n">
-        <v>0.466841</v>
+        <v>0.278755</v>
       </c>
       <c r="D60" t="n">
-        <v>0.525226</v>
+        <v>0.371274</v>
       </c>
     </row>
     <row r="61">
@@ -8506,13 +8506,13 @@
         <v>175284</v>
       </c>
       <c r="B61" t="n">
-        <v>0.849878</v>
+        <v>0.546798</v>
       </c>
       <c r="C61" t="n">
-        <v>0.478743</v>
+        <v>0.284301</v>
       </c>
       <c r="D61" t="n">
-        <v>0.567903</v>
+        <v>0.374205</v>
       </c>
     </row>
     <row r="62">
@@ -8520,13 +8520,13 @@
         <v>184019</v>
       </c>
       <c r="B62" t="n">
-        <v>0.889786</v>
+        <v>0.55124</v>
       </c>
       <c r="C62" t="n">
-        <v>0.501363</v>
+        <v>0.300065</v>
       </c>
       <c r="D62" t="n">
-        <v>0.6307779999999999</v>
+        <v>0.376378</v>
       </c>
     </row>
     <row r="63">
@@ -8534,13 +8534,13 @@
         <v>193190</v>
       </c>
       <c r="B63" t="n">
-        <v>0.919592</v>
+        <v>0.56133</v>
       </c>
       <c r="C63" t="n">
-        <v>0.5363</v>
+        <v>0.311105</v>
       </c>
       <c r="D63" t="n">
-        <v>0.662412</v>
+        <v>0.385415</v>
       </c>
     </row>
     <row r="64">
@@ -8548,13 +8548,13 @@
         <v>202820</v>
       </c>
       <c r="B64" t="n">
-        <v>0.954055</v>
+        <v>0.568603</v>
       </c>
       <c r="C64" t="n">
-        <v>0.631193</v>
+        <v>0.361409</v>
       </c>
       <c r="D64" t="n">
-        <v>1.12236</v>
+        <v>0.409173</v>
       </c>
     </row>
     <row r="65">
@@ -8562,13 +8562,13 @@
         <v>212931</v>
       </c>
       <c r="B65" t="n">
-        <v>1.29284</v>
+        <v>0.589485</v>
       </c>
       <c r="C65" t="n">
-        <v>0.707928</v>
+        <v>0.372483</v>
       </c>
       <c r="D65" t="n">
-        <v>1.24797</v>
+        <v>0.41723</v>
       </c>
     </row>
     <row r="66">
@@ -8576,13 +8576,13 @@
         <v>223547</v>
       </c>
       <c r="B66" t="n">
-        <v>1.32552</v>
+        <v>0.605278</v>
       </c>
       <c r="C66" t="n">
-        <v>0.698286</v>
+        <v>0.397353</v>
       </c>
       <c r="D66" t="n">
-        <v>1.13952</v>
+        <v>0.435175</v>
       </c>
     </row>
     <row r="67">
@@ -8590,13 +8590,13 @@
         <v>234692</v>
       </c>
       <c r="B67" t="n">
-        <v>1.22466</v>
+        <v>0.628949</v>
       </c>
       <c r="C67" t="n">
-        <v>0.663489</v>
+        <v>0.418481</v>
       </c>
       <c r="D67" t="n">
-        <v>1.16535</v>
+        <v>0.452039</v>
       </c>
     </row>
     <row r="68">
@@ -8604,13 +8604,13 @@
         <v>246395</v>
       </c>
       <c r="B68" t="n">
-        <v>1.33939</v>
+        <v>0.655988</v>
       </c>
       <c r="C68" t="n">
-        <v>0.720387</v>
+        <v>0.438486</v>
       </c>
       <c r="D68" t="n">
-        <v>1.21579</v>
+        <v>0.444032</v>
       </c>
     </row>
     <row r="69">
@@ -8618,13 +8618,13 @@
         <v>258683</v>
       </c>
       <c r="B69" t="n">
-        <v>1.3636</v>
+        <v>0.646487</v>
       </c>
       <c r="C69" t="n">
-        <v>0.730317</v>
+        <v>0.465451</v>
       </c>
       <c r="D69" t="n">
-        <v>1.27252</v>
+        <v>0.470104</v>
       </c>
     </row>
     <row r="70">
@@ -8632,13 +8632,13 @@
         <v>271585</v>
       </c>
       <c r="B70" t="n">
-        <v>1.36623</v>
+        <v>0.681836</v>
       </c>
       <c r="C70" t="n">
-        <v>0.747623</v>
+        <v>0.48592</v>
       </c>
       <c r="D70" t="n">
-        <v>1.39755</v>
+        <v>0.486487</v>
       </c>
     </row>
     <row r="71">
@@ -8646,13 +8646,13 @@
         <v>285132</v>
       </c>
       <c r="B71" t="n">
-        <v>1.44291</v>
+        <v>0.693724</v>
       </c>
       <c r="C71" t="n">
-        <v>0.7792559999999999</v>
+        <v>0.505145</v>
       </c>
       <c r="D71" t="n">
-        <v>1.44469</v>
+        <v>0.494786</v>
       </c>
     </row>
     <row r="72">
@@ -8660,13 +8660,13 @@
         <v>299354</v>
       </c>
       <c r="B72" t="n">
-        <v>1.54209</v>
+        <v>0.720129</v>
       </c>
       <c r="C72" t="n">
-        <v>0.8258</v>
+        <v>0.532432</v>
       </c>
       <c r="D72" t="n">
-        <v>1.47072</v>
+        <v>0.516747</v>
       </c>
     </row>
     <row r="73">
@@ -8674,13 +8674,13 @@
         <v>314289</v>
       </c>
       <c r="B73" t="n">
-        <v>1.51644</v>
+        <v>0.76542</v>
       </c>
       <c r="C73" t="n">
-        <v>0.823412</v>
+        <v>0.561662</v>
       </c>
       <c r="D73" t="n">
-        <v>1.51836</v>
+        <v>0.564293</v>
       </c>
     </row>
     <row r="74">
@@ -8688,13 +8688,13 @@
         <v>329969</v>
       </c>
       <c r="B74" t="n">
-        <v>1.54528</v>
+        <v>0.790432</v>
       </c>
       <c r="C74" t="n">
-        <v>0.834248</v>
+        <v>0.584403</v>
       </c>
       <c r="D74" t="n">
-        <v>1.58619</v>
+        <v>0.570457</v>
       </c>
     </row>
     <row r="75">
@@ -8702,13 +8702,13 @@
         <v>346432</v>
       </c>
       <c r="B75" t="n">
-        <v>1.58435</v>
+        <v>0.826233</v>
       </c>
       <c r="C75" t="n">
-        <v>0.830332</v>
+        <v>0.605542</v>
       </c>
       <c r="D75" t="n">
-        <v>1.60929</v>
+        <v>0.599047</v>
       </c>
     </row>
     <row r="76">
@@ -8716,13 +8716,13 @@
         <v>363719</v>
       </c>
       <c r="B76" t="n">
-        <v>1.70666</v>
+        <v>0.869214</v>
       </c>
       <c r="C76" t="n">
-        <v>0.899222</v>
+        <v>0.62448</v>
       </c>
       <c r="D76" t="n">
-        <v>1.79576</v>
+        <v>0.645817</v>
       </c>
     </row>
     <row r="77">
@@ -8730,13 +8730,13 @@
         <v>381870</v>
       </c>
       <c r="B77" t="n">
-        <v>1.8526</v>
+        <v>0.934113</v>
       </c>
       <c r="C77" t="n">
-        <v>0.936912</v>
+        <v>0.654784</v>
       </c>
       <c r="D77" t="n">
-        <v>1.7173</v>
+        <v>0.682221</v>
       </c>
     </row>
     <row r="78">
@@ -8744,13 +8744,13 @@
         <v>400928</v>
       </c>
       <c r="B78" t="n">
-        <v>1.72621</v>
+        <v>0.9685319999999999</v>
       </c>
       <c r="C78" t="n">
-        <v>0.9188499999999999</v>
+        <v>0.79328</v>
       </c>
       <c r="D78" t="n">
-        <v>1.98011</v>
+        <v>0.9591460000000001</v>
       </c>
     </row>
     <row r="79">
@@ -8758,13 +8758,13 @@
         <v>420937</v>
       </c>
       <c r="B79" t="n">
-        <v>1.88978</v>
+        <v>1.34747</v>
       </c>
       <c r="C79" t="n">
-        <v>0.927959</v>
+        <v>0.806149</v>
       </c>
       <c r="D79" t="n">
-        <v>1.70537</v>
+        <v>1.02735</v>
       </c>
     </row>
     <row r="80">
@@ -8772,13 +8772,13 @@
         <v>441947</v>
       </c>
       <c r="B80" t="n">
-        <v>1.70097</v>
+        <v>1.42794</v>
       </c>
       <c r="C80" t="n">
-        <v>0.936818</v>
+        <v>0.82195</v>
       </c>
       <c r="D80" t="n">
-        <v>2.19222</v>
+        <v>1.06158</v>
       </c>
     </row>
     <row r="81">
@@ -8786,13 +8786,13 @@
         <v>464005</v>
       </c>
       <c r="B81" t="n">
-        <v>1.98663</v>
+        <v>1.46951</v>
       </c>
       <c r="C81" t="n">
-        <v>0.949694</v>
+        <v>0.833898</v>
       </c>
       <c r="D81" t="n">
-        <v>1.95233</v>
+        <v>1.11825</v>
       </c>
     </row>
     <row r="82">
@@ -8800,13 +8800,13 @@
         <v>487165</v>
       </c>
       <c r="B82" t="n">
-        <v>2.00308</v>
+        <v>1.55231</v>
       </c>
       <c r="C82" t="n">
-        <v>0.968124</v>
+        <v>0.851277</v>
       </c>
       <c r="D82" t="n">
-        <v>2.00024</v>
+        <v>1.15819</v>
       </c>
     </row>
     <row r="83">
@@ -8814,13 +8814,13 @@
         <v>511485</v>
       </c>
       <c r="B83" t="n">
-        <v>1.89078</v>
+        <v>1.60202</v>
       </c>
       <c r="C83" t="n">
-        <v>1.00107</v>
+        <v>0.863054</v>
       </c>
       <c r="D83" t="n">
-        <v>2.28213</v>
+        <v>1.20864</v>
       </c>
     </row>
     <row r="84">
@@ -8828,13 +8828,13 @@
         <v>537019</v>
       </c>
       <c r="B84" t="n">
-        <v>2.18259</v>
+        <v>1.66715</v>
       </c>
       <c r="C84" t="n">
-        <v>1.0062</v>
+        <v>0.87623</v>
       </c>
       <c r="D84" t="n">
-        <v>2.33805</v>
+        <v>1.25771</v>
       </c>
     </row>
     <row r="85">
@@ -8842,13 +8842,13 @@
         <v>563827</v>
       </c>
       <c r="B85" t="n">
-        <v>2.13699</v>
+        <v>1.72961</v>
       </c>
       <c r="C85" t="n">
-        <v>0.962687</v>
+        <v>0.889312</v>
       </c>
       <c r="D85" t="n">
-        <v>2.08301</v>
+        <v>1.28827</v>
       </c>
     </row>
     <row r="86">
@@ -8856,13 +8856,13 @@
         <v>591977</v>
       </c>
       <c r="B86" t="n">
-        <v>2.01571</v>
+        <v>1.7744</v>
       </c>
       <c r="C86" t="n">
-        <v>0.98713</v>
+        <v>0.900502</v>
       </c>
       <c r="D86" t="n">
-        <v>2.03393</v>
+        <v>1.3343</v>
       </c>
     </row>
     <row r="87">
@@ -8870,13 +8870,13 @@
         <v>621532</v>
       </c>
       <c r="B87" t="n">
-        <v>1.98682</v>
+        <v>1.83994</v>
       </c>
       <c r="C87" t="n">
-        <v>1.01947</v>
+        <v>0.913465</v>
       </c>
       <c r="D87" t="n">
-        <v>2.44997</v>
+        <v>1.37674</v>
       </c>
     </row>
     <row r="88">
@@ -8884,13 +8884,13 @@
         <v>652567</v>
       </c>
       <c r="B88" t="n">
-        <v>2.22226</v>
+        <v>1.88885</v>
       </c>
       <c r="C88" t="n">
-        <v>1.05139</v>
+        <v>0.9268690000000001</v>
       </c>
       <c r="D88" t="n">
-        <v>2.47784</v>
+        <v>1.41725</v>
       </c>
     </row>
     <row r="89">
@@ -8898,13 +8898,13 @@
         <v>685151</v>
       </c>
       <c r="B89" t="n">
-        <v>2.21167</v>
+        <v>1.95255</v>
       </c>
       <c r="C89" t="n">
-        <v>1.05194</v>
+        <v>0.94267</v>
       </c>
       <c r="D89" t="n">
-        <v>2.38523</v>
+        <v>1.4571</v>
       </c>
     </row>
     <row r="90">
@@ -8912,13 +8912,13 @@
         <v>719359</v>
       </c>
       <c r="B90" t="n">
-        <v>2.32746</v>
+        <v>2.00357</v>
       </c>
       <c r="C90" t="n">
-        <v>1.08418</v>
+        <v>0.954202</v>
       </c>
       <c r="D90" t="n">
-        <v>2.45579</v>
+        <v>1.49458</v>
       </c>
     </row>
     <row r="91">
@@ -8926,13 +8926,13 @@
         <v>755280</v>
       </c>
       <c r="B91" t="n">
-        <v>2.27178</v>
+        <v>2.05666</v>
       </c>
       <c r="C91" t="n">
-        <v>1.09722</v>
+        <v>0.967162</v>
       </c>
       <c r="D91" t="n">
-        <v>2.42463</v>
+        <v>1.52731</v>
       </c>
     </row>
     <row r="92">
@@ -8940,13 +8940,13 @@
         <v>792997</v>
       </c>
       <c r="B92" t="n">
-        <v>2.30136</v>
+        <v>2.10516</v>
       </c>
       <c r="C92" t="n">
-        <v>1.10088</v>
+        <v>1.03736</v>
       </c>
       <c r="D92" t="n">
-        <v>2.86132</v>
+        <v>1.75721</v>
       </c>
     </row>
     <row r="93">
@@ -8954,13 +8954,13 @@
         <v>832595</v>
       </c>
       <c r="B93" t="n">
-        <v>2.51678</v>
+        <v>2.39481</v>
       </c>
       <c r="C93" t="n">
-        <v>1.12411</v>
+        <v>1.04651</v>
       </c>
       <c r="D93" t="n">
-        <v>2.74207</v>
+        <v>1.77866</v>
       </c>
     </row>
     <row r="94">
@@ -8968,13 +8968,13 @@
         <v>874177</v>
       </c>
       <c r="B94" t="n">
-        <v>2.54161</v>
+        <v>2.42882</v>
       </c>
       <c r="C94" t="n">
-        <v>1.12901</v>
+        <v>1.05568</v>
       </c>
       <c r="D94" t="n">
-        <v>2.93429</v>
+        <v>1.79501</v>
       </c>
     </row>
     <row r="95">
@@ -8982,13 +8982,13 @@
         <v>917832</v>
       </c>
       <c r="B95" t="n">
-        <v>2.50803</v>
+        <v>2.44874</v>
       </c>
       <c r="C95" t="n">
-        <v>1.09196</v>
+        <v>1.06255</v>
       </c>
       <c r="D95" t="n">
-        <v>2.52377</v>
+        <v>1.80439</v>
       </c>
     </row>
     <row r="96">
@@ -8996,13 +8996,13 @@
         <v>963677</v>
       </c>
       <c r="B96" t="n">
-        <v>2.28683</v>
+        <v>2.48877</v>
       </c>
       <c r="C96" t="n">
-        <v>1.04131</v>
+        <v>1.07283</v>
       </c>
       <c r="D96" t="n">
-        <v>2.22849</v>
+        <v>1.84594</v>
       </c>
     </row>
     <row r="97">
@@ -9010,13 +9010,13 @@
         <v>1011813</v>
       </c>
       <c r="B97" t="n">
-        <v>2.3077</v>
+        <v>2.52188</v>
       </c>
       <c r="C97" t="n">
-        <v>1.06301</v>
+        <v>1.08117</v>
       </c>
       <c r="D97" t="n">
-        <v>2.44416</v>
+        <v>1.8679</v>
       </c>
     </row>
     <row r="98">
@@ -9024,13 +9024,13 @@
         <v>1062351</v>
       </c>
       <c r="B98" t="n">
-        <v>2.27623</v>
+        <v>2.55583</v>
       </c>
       <c r="C98" t="n">
-        <v>1.05708</v>
+        <v>1.09426</v>
       </c>
       <c r="D98" t="n">
-        <v>2.36147</v>
+        <v>1.87809</v>
       </c>
     </row>
     <row r="99">
@@ -9038,13 +9038,13 @@
         <v>1115422</v>
       </c>
       <c r="B99" t="n">
-        <v>2.32686</v>
+        <v>2.58361</v>
       </c>
       <c r="C99" t="n">
-        <v>1.054</v>
+        <v>1.09893</v>
       </c>
       <c r="D99" t="n">
-        <v>1.55399</v>
+        <v>1.89504</v>
       </c>
     </row>
     <row r="100">
@@ -9052,13 +9052,13 @@
         <v>1171143</v>
       </c>
       <c r="B100" t="n">
-        <v>1.73977</v>
+        <v>2.61054</v>
       </c>
       <c r="C100" t="n">
-        <v>0.87085</v>
+        <v>1.10705</v>
       </c>
       <c r="D100" t="n">
-        <v>1.48322</v>
+        <v>1.92063</v>
       </c>
     </row>
     <row r="101">
@@ -9066,13 +9066,13 @@
         <v>1229634</v>
       </c>
       <c r="B101" t="n">
-        <v>1.93076</v>
+        <v>2.64011</v>
       </c>
       <c r="C101" t="n">
-        <v>0.945831</v>
+        <v>1.11687</v>
       </c>
       <c r="D101" t="n">
-        <v>1.54121</v>
+        <v>1.92925</v>
       </c>
     </row>
     <row r="102">
@@ -9080,13 +9080,13 @@
         <v>1291062</v>
       </c>
       <c r="B102" t="n">
-        <v>1.94023</v>
+        <v>2.67059</v>
       </c>
       <c r="C102" t="n">
-        <v>1.00876</v>
+        <v>1.12809</v>
       </c>
       <c r="D102" t="n">
-        <v>1.74671</v>
+        <v>1.94692</v>
       </c>
     </row>
     <row r="103">
@@ -9094,13 +9094,13 @@
         <v>1355554</v>
       </c>
       <c r="B103" t="n">
-        <v>2.10261</v>
+        <v>2.69726</v>
       </c>
       <c r="C103" t="n">
-        <v>1.0514</v>
+        <v>1.14204</v>
       </c>
       <c r="D103" t="n">
-        <v>2.19405</v>
+        <v>1.97871</v>
       </c>
     </row>
     <row r="104">
@@ -9108,13 +9108,13 @@
         <v>1423274</v>
       </c>
       <c r="B104" t="n">
-        <v>2.28534</v>
+        <v>2.74076</v>
       </c>
       <c r="C104" t="n">
-        <v>1.08574</v>
+        <v>1.15553</v>
       </c>
       <c r="D104" t="n">
-        <v>2.03285</v>
+        <v>2.00109</v>
       </c>
     </row>
     <row r="105">
@@ -9122,13 +9122,13 @@
         <v>1494380</v>
       </c>
       <c r="B105" t="n">
-        <v>2.27195</v>
+        <v>2.76801</v>
       </c>
       <c r="C105" t="n">
-        <v>1.06472</v>
+        <v>1.16707</v>
       </c>
       <c r="D105" t="n">
-        <v>2.07793</v>
+        <v>2.02032</v>
       </c>
     </row>
     <row r="106">
@@ -9136,13 +9136,13 @@
         <v>1569031</v>
       </c>
       <c r="B106" t="n">
-        <v>2.20635</v>
+        <v>2.7947</v>
       </c>
       <c r="C106" t="n">
-        <v>1.06009</v>
+        <v>1.18095</v>
       </c>
       <c r="D106" t="n">
-        <v>2.03642</v>
+        <v>2.03042</v>
       </c>
     </row>
     <row r="107">
@@ -9150,13 +9150,13 @@
         <v>1647417</v>
       </c>
       <c r="B107" t="n">
-        <v>2.25106</v>
+        <v>2.91847</v>
       </c>
       <c r="C107" t="n">
-        <v>1.11714</v>
+        <v>1.17689</v>
       </c>
       <c r="D107" t="n">
-        <v>2.60267</v>
+        <v>2.1527</v>
       </c>
     </row>
     <row r="108">
@@ -9164,13 +9164,13 @@
         <v>1729734</v>
       </c>
       <c r="B108" t="n">
-        <v>2.48513</v>
+        <v>2.93292</v>
       </c>
       <c r="C108" t="n">
-        <v>1.09361</v>
+        <v>1.18601</v>
       </c>
       <c r="D108" t="n">
-        <v>2.45226</v>
+        <v>2.16637</v>
       </c>
     </row>
     <row r="109">
@@ -9178,13 +9178,13 @@
         <v>1816153</v>
       </c>
       <c r="B109" t="n">
-        <v>2.38074</v>
+        <v>2.93717</v>
       </c>
       <c r="C109" t="n">
-        <v>1.0785</v>
+        <v>1.18323</v>
       </c>
       <c r="D109" t="n">
-        <v>2.3937</v>
+        <v>2.15907</v>
       </c>
     </row>
     <row r="110">
@@ -9192,13 +9192,13 @@
         <v>1906885</v>
       </c>
       <c r="B110" t="n">
-        <v>2.39406</v>
+        <v>2.9705</v>
       </c>
       <c r="C110" t="n">
-        <v>1.07576</v>
+        <v>1.20202</v>
       </c>
       <c r="D110" t="n">
-        <v>2.2967</v>
+        <v>2.18546</v>
       </c>
     </row>
     <row r="111">
@@ -9206,13 +9206,13 @@
         <v>2002164</v>
       </c>
       <c r="B111" t="n">
-        <v>2.39678</v>
+        <v>2.99049</v>
       </c>
       <c r="C111" t="n">
-        <v>1.07443</v>
+        <v>1.20972</v>
       </c>
       <c r="D111" t="n">
-        <v>2.41422</v>
+        <v>2.19539</v>
       </c>
     </row>
     <row r="112">
@@ -9220,13 +9220,13 @@
         <v>2102198</v>
       </c>
       <c r="B112" t="n">
-        <v>2.3045</v>
+        <v>3.00024</v>
       </c>
       <c r="C112" t="n">
-        <v>1.10749</v>
+        <v>1.21625</v>
       </c>
       <c r="D112" t="n">
-        <v>2.41017</v>
+        <v>2.19947</v>
       </c>
     </row>
     <row r="113">
@@ -9234,13 +9234,13 @@
         <v>2207233</v>
       </c>
       <c r="B113" t="n">
-        <v>2.40416</v>
+        <v>3.00525</v>
       </c>
       <c r="C113" t="n">
-        <v>1.11313</v>
+        <v>1.21456</v>
       </c>
       <c r="D113" t="n">
-        <v>2.33469</v>
+        <v>2.20793</v>
       </c>
     </row>
     <row r="114">
@@ -9248,13 +9248,13 @@
         <v>2317508</v>
       </c>
       <c r="B114" t="n">
-        <v>2.46183</v>
+        <v>3.03808</v>
       </c>
       <c r="C114" t="n">
-        <v>1.1287</v>
+        <v>1.23558</v>
       </c>
       <c r="D114" t="n">
-        <v>2.50091</v>
+        <v>2.2141</v>
       </c>
     </row>
     <row r="115">
@@ -9262,13 +9262,13 @@
         <v>2433290</v>
       </c>
       <c r="B115" t="n">
-        <v>2.4804</v>
+        <v>3.06159</v>
       </c>
       <c r="C115" t="n">
-        <v>1.14101</v>
+        <v>1.24803</v>
       </c>
       <c r="D115" t="n">
-        <v>2.21613</v>
+        <v>2.22935</v>
       </c>
     </row>
     <row r="116">
@@ -9276,13 +9276,13 @@
         <v>2554854</v>
       </c>
       <c r="B116" t="n">
-        <v>2.35173</v>
+        <v>3.07586</v>
       </c>
       <c r="C116" t="n">
-        <v>1.17013</v>
+        <v>1.25804</v>
       </c>
       <c r="D116" t="n">
-        <v>2.91996</v>
+        <v>2.24076</v>
       </c>
     </row>
     <row r="117">
@@ -9290,13 +9290,13 @@
         <v>2682511</v>
       </c>
       <c r="B117" t="n">
-        <v>2.6443</v>
+        <v>3.09721</v>
       </c>
       <c r="C117" t="n">
-        <v>1.19828</v>
+        <v>1.27107</v>
       </c>
       <c r="D117" t="n">
-        <v>2.94476</v>
+        <v>2.2484</v>
       </c>
     </row>
     <row r="118">
@@ -9304,13 +9304,13 @@
         <v>2816546</v>
       </c>
       <c r="B118" t="n">
-        <v>2.66674</v>
+        <v>3.11319</v>
       </c>
       <c r="C118" t="n">
-        <v>1.24135</v>
+        <v>1.28154</v>
       </c>
       <c r="D118" t="n">
-        <v>2.92258</v>
+        <v>2.25623</v>
       </c>
     </row>
     <row r="119">
@@ -9318,13 +9318,13 @@
         <v>2957287</v>
       </c>
       <c r="B119" t="n">
-        <v>2.69894</v>
+        <v>3.14012</v>
       </c>
       <c r="C119" t="n">
-        <v>1.25534</v>
+        <v>1.29356</v>
       </c>
       <c r="D119" t="n">
-        <v>2.90168</v>
+        <v>2.2458</v>
       </c>
     </row>
   </sheetData>
@@ -9372,13 +9372,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.809047</v>
+        <v>0.562731</v>
       </c>
       <c r="C2" t="n">
-        <v>0.453732</v>
+        <v>0.358576</v>
       </c>
       <c r="D2" t="n">
-        <v>0.459426</v>
+        <v>0.34537</v>
       </c>
     </row>
     <row r="3">
@@ -9386,13 +9386,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.810706</v>
+        <v>0.565138</v>
       </c>
       <c r="C3" t="n">
-        <v>0.475867</v>
+        <v>0.36136</v>
       </c>
       <c r="D3" t="n">
-        <v>0.479252</v>
+        <v>0.35105</v>
       </c>
     </row>
     <row r="4">
@@ -9400,13 +9400,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.8454660000000001</v>
+        <v>0.574394</v>
       </c>
       <c r="C4" t="n">
-        <v>0.473906</v>
+        <v>0.367657</v>
       </c>
       <c r="D4" t="n">
-        <v>0.479193</v>
+        <v>0.353253</v>
       </c>
     </row>
     <row r="5">
@@ -9414,13 +9414,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.861859</v>
+        <v>0.580582</v>
       </c>
       <c r="C5" t="n">
-        <v>0.482257</v>
+        <v>0.373813</v>
       </c>
       <c r="D5" t="n">
-        <v>0.47963</v>
+        <v>0.358663</v>
       </c>
     </row>
     <row r="6">
@@ -9428,13 +9428,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.85053</v>
+        <v>0.588004</v>
       </c>
       <c r="C6" t="n">
-        <v>0.492631</v>
+        <v>0.378529</v>
       </c>
       <c r="D6" t="n">
-        <v>0.487092</v>
+        <v>0.364809</v>
       </c>
     </row>
     <row r="7">
@@ -9442,13 +9442,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.903962</v>
+        <v>0.590538</v>
       </c>
       <c r="C7" t="n">
-        <v>0.503634</v>
+        <v>0.390041</v>
       </c>
       <c r="D7" t="n">
-        <v>0.501291</v>
+        <v>0.374205</v>
       </c>
     </row>
     <row r="8">
@@ -9456,13 +9456,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.8996189999999999</v>
+        <v>0.599419</v>
       </c>
       <c r="C8" t="n">
-        <v>0.49808</v>
+        <v>0.391198</v>
       </c>
       <c r="D8" t="n">
-        <v>0.499559</v>
+        <v>0.378294</v>
       </c>
     </row>
     <row r="9">
@@ -9470,13 +9470,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.9207340000000001</v>
+        <v>0.61033</v>
       </c>
       <c r="C9" t="n">
-        <v>0.510093</v>
+        <v>0.391323</v>
       </c>
       <c r="D9" t="n">
-        <v>0.503858</v>
+        <v>0.377594</v>
       </c>
     </row>
     <row r="10">
@@ -9484,13 +9484,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.94082</v>
+        <v>0.621629</v>
       </c>
       <c r="C10" t="n">
-        <v>0.522165</v>
+        <v>0.401384</v>
       </c>
       <c r="D10" t="n">
-        <v>0.512049</v>
+        <v>0.382087</v>
       </c>
     </row>
     <row r="11">
@@ -9498,13 +9498,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.9723349999999999</v>
+        <v>0.6249</v>
       </c>
       <c r="C11" t="n">
-        <v>0.532941</v>
+        <v>0.400426</v>
       </c>
       <c r="D11" t="n">
-        <v>0.528316</v>
+        <v>0.383712</v>
       </c>
     </row>
     <row r="12">
@@ -9512,13 +9512,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.973737</v>
+        <v>0.630894</v>
       </c>
       <c r="C12" t="n">
-        <v>0.52286</v>
+        <v>0.408122</v>
       </c>
       <c r="D12" t="n">
-        <v>0.517454</v>
+        <v>0.396185</v>
       </c>
     </row>
     <row r="13">
@@ -9526,13 +9526,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.990706</v>
+        <v>0.641524</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5213179999999999</v>
+        <v>0.407376</v>
       </c>
       <c r="D13" t="n">
-        <v>0.526277</v>
+        <v>0.395882</v>
       </c>
     </row>
     <row r="14">
@@ -9540,13 +9540,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>1.03716</v>
+        <v>0.646177</v>
       </c>
       <c r="C14" t="n">
-        <v>0.529371</v>
+        <v>0.406129</v>
       </c>
       <c r="D14" t="n">
-        <v>0.543916</v>
+        <v>0.402162</v>
       </c>
     </row>
     <row r="15">
@@ -9554,13 +9554,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>1.00335</v>
+        <v>0.6601669999999999</v>
       </c>
       <c r="C15" t="n">
-        <v>0.54286</v>
+        <v>0.417886</v>
       </c>
       <c r="D15" t="n">
-        <v>0.5385760000000001</v>
+        <v>0.410199</v>
       </c>
     </row>
     <row r="16">
@@ -9568,13 +9568,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>1.01382</v>
+        <v>0.659872</v>
       </c>
       <c r="C16" t="n">
-        <v>0.547349</v>
+        <v>0.420286</v>
       </c>
       <c r="D16" t="n">
-        <v>0.548666</v>
+        <v>0.412683</v>
       </c>
     </row>
     <row r="17">
@@ -9582,13 +9582,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>1.03632</v>
+        <v>0.672051</v>
       </c>
       <c r="C17" t="n">
-        <v>0.554372</v>
+        <v>0.419968</v>
       </c>
       <c r="D17" t="n">
-        <v>0.556512</v>
+        <v>0.41398</v>
       </c>
     </row>
     <row r="18">
@@ -9596,13 +9596,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>1.02225</v>
+        <v>0.676794</v>
       </c>
       <c r="C18" t="n">
-        <v>0.554821</v>
+        <v>0.428724</v>
       </c>
       <c r="D18" t="n">
-        <v>0.55459</v>
+        <v>0.42509</v>
       </c>
     </row>
     <row r="19">
@@ -9610,13 +9610,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>1.04867</v>
+        <v>0.689805</v>
       </c>
       <c r="C19" t="n">
-        <v>0.550579</v>
+        <v>0.430256</v>
       </c>
       <c r="D19" t="n">
-        <v>0.554576</v>
+        <v>0.429521</v>
       </c>
     </row>
     <row r="20">
@@ -9624,13 +9624,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>1.04932</v>
+        <v>0.7003819999999999</v>
       </c>
       <c r="C20" t="n">
-        <v>0.561748</v>
+        <v>0.437441</v>
       </c>
       <c r="D20" t="n">
-        <v>0.557514</v>
+        <v>0.433776</v>
       </c>
     </row>
     <row r="21">
@@ -9638,13 +9638,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>1.08736</v>
+        <v>0.705418</v>
       </c>
       <c r="C21" t="n">
-        <v>0.568711</v>
+        <v>0.437706</v>
       </c>
       <c r="D21" t="n">
-        <v>0.56555</v>
+        <v>0.440126</v>
       </c>
     </row>
     <row r="22">
@@ -9652,13 +9652,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>1.06819</v>
+        <v>0.708911</v>
       </c>
       <c r="C22" t="n">
-        <v>0.57007</v>
+        <v>0.443112</v>
       </c>
       <c r="D22" t="n">
-        <v>0.56421</v>
+        <v>0.447856</v>
       </c>
     </row>
     <row r="23">
@@ -9666,13 +9666,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>1.08405</v>
+        <v>0.723333</v>
       </c>
       <c r="C23" t="n">
-        <v>0.577969</v>
+        <v>0.44205</v>
       </c>
       <c r="D23" t="n">
-        <v>0.571007</v>
+        <v>0.445776</v>
       </c>
     </row>
     <row r="24">
@@ -9680,13 +9680,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>1.06677</v>
+        <v>0.728163</v>
       </c>
       <c r="C24" t="n">
-        <v>0.5743509999999999</v>
+        <v>0.447982</v>
       </c>
       <c r="D24" t="n">
-        <v>0.571356</v>
+        <v>0.456938</v>
       </c>
     </row>
     <row r="25">
@@ -9694,13 +9694,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>1.09969</v>
+        <v>0.741544</v>
       </c>
       <c r="C25" t="n">
-        <v>0.596264</v>
+        <v>0.458936</v>
       </c>
       <c r="D25" t="n">
-        <v>0.568263</v>
+        <v>0.453781</v>
       </c>
     </row>
     <row r="26">
@@ -9708,13 +9708,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>1.09689</v>
+        <v>0.742143</v>
       </c>
       <c r="C26" t="n">
-        <v>0.590696</v>
+        <v>0.455583</v>
       </c>
       <c r="D26" t="n">
-        <v>0.5730420000000001</v>
+        <v>0.465717</v>
       </c>
     </row>
     <row r="27">
@@ -9722,13 +9722,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>1.10824</v>
+        <v>0.746522</v>
       </c>
       <c r="C27" t="n">
-        <v>0.591937</v>
+        <v>0.459334</v>
       </c>
       <c r="D27" t="n">
-        <v>0.589151</v>
+        <v>0.463352</v>
       </c>
     </row>
     <row r="28">
@@ -9736,13 +9736,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>1.09701</v>
+        <v>0.753954</v>
       </c>
       <c r="C28" t="n">
-        <v>0.6004890000000001</v>
+        <v>0.460883</v>
       </c>
       <c r="D28" t="n">
-        <v>0.584249</v>
+        <v>0.463863</v>
       </c>
     </row>
     <row r="29">
@@ -9750,13 +9750,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>1.1315</v>
+        <v>0.761228</v>
       </c>
       <c r="C29" t="n">
-        <v>0.616704</v>
+        <v>0.467062</v>
       </c>
       <c r="D29" t="n">
-        <v>0.581722</v>
+        <v>0.469013</v>
       </c>
     </row>
     <row r="30">
@@ -9764,13 +9764,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>1.15357</v>
+        <v>0.76949</v>
       </c>
       <c r="C30" t="n">
-        <v>0.617278</v>
+        <v>0.472974</v>
       </c>
       <c r="D30" t="n">
-        <v>0.591948</v>
+        <v>0.481175</v>
       </c>
     </row>
     <row r="31">
@@ -9778,13 +9778,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>1.14327</v>
+        <v>0.780951</v>
       </c>
       <c r="C31" t="n">
-        <v>0.613546</v>
+        <v>0.472948</v>
       </c>
       <c r="D31" t="n">
-        <v>0.59262</v>
+        <v>0.485983</v>
       </c>
     </row>
     <row r="32">
@@ -9792,13 +9792,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>1.13812</v>
+        <v>0.784466</v>
       </c>
       <c r="C32" t="n">
-        <v>0.607129</v>
+        <v>0.480425</v>
       </c>
       <c r="D32" t="n">
-        <v>0.5832349999999999</v>
+        <v>0.489417</v>
       </c>
     </row>
     <row r="33">
@@ -9806,13 +9806,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>1.16959</v>
+        <v>0.792188</v>
       </c>
       <c r="C33" t="n">
-        <v>0.624936</v>
+        <v>0.482716</v>
       </c>
       <c r="D33" t="n">
-        <v>0.592557</v>
+        <v>0.489966</v>
       </c>
     </row>
     <row r="34">
@@ -9820,13 +9820,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>1.19695</v>
+        <v>0.797914</v>
       </c>
       <c r="C34" t="n">
-        <v>0.633113</v>
+        <v>0.481584</v>
       </c>
       <c r="D34" t="n">
-        <v>0.589512</v>
+        <v>0.486502</v>
       </c>
     </row>
     <row r="35">
@@ -9834,13 +9834,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>1.17619</v>
+        <v>0.801303</v>
       </c>
       <c r="C35" t="n">
-        <v>0.587929</v>
+        <v>0.461552</v>
       </c>
       <c r="D35" t="n">
-        <v>0.602461</v>
+        <v>0.493728</v>
       </c>
     </row>
     <row r="36">
@@ -9848,13 +9848,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>1.16612</v>
+        <v>0.796637</v>
       </c>
       <c r="C36" t="n">
-        <v>0.609136</v>
+        <v>0.467765</v>
       </c>
       <c r="D36" t="n">
-        <v>0.600087</v>
+        <v>0.499667</v>
       </c>
     </row>
     <row r="37">
@@ -9862,13 +9862,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>1.17702</v>
+        <v>0.80316</v>
       </c>
       <c r="C37" t="n">
-        <v>0.594466</v>
+        <v>0.469638</v>
       </c>
       <c r="D37" t="n">
-        <v>0.597275</v>
+        <v>0.493021</v>
       </c>
     </row>
     <row r="38">
@@ -9876,13 +9876,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>1.19756</v>
+        <v>0.804604</v>
       </c>
       <c r="C38" t="n">
-        <v>0.588462</v>
+        <v>0.46684</v>
       </c>
       <c r="D38" t="n">
-        <v>0.61214</v>
+        <v>0.504084</v>
       </c>
     </row>
     <row r="39">
@@ -9890,13 +9890,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>1.20009</v>
+        <v>0.806803</v>
       </c>
       <c r="C39" t="n">
-        <v>0.626439</v>
+        <v>0.474748</v>
       </c>
       <c r="D39" t="n">
-        <v>0.634615</v>
+        <v>0.499415</v>
       </c>
     </row>
     <row r="40">
@@ -9904,13 +9904,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>1.20078</v>
+        <v>0.813041</v>
       </c>
       <c r="C40" t="n">
-        <v>0.6017479999999999</v>
+        <v>0.474682</v>
       </c>
       <c r="D40" t="n">
-        <v>0.599683</v>
+        <v>0.510089</v>
       </c>
     </row>
     <row r="41">
@@ -9918,13 +9918,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>1.1938</v>
+        <v>0.82481</v>
       </c>
       <c r="C41" t="n">
-        <v>0.615002</v>
+        <v>0.477631</v>
       </c>
       <c r="D41" t="n">
-        <v>0.610011</v>
+        <v>0.508879</v>
       </c>
     </row>
     <row r="42">
@@ -9932,13 +9932,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>1.2089</v>
+        <v>0.824353</v>
       </c>
       <c r="C42" t="n">
-        <v>0.608752</v>
+        <v>0.482489</v>
       </c>
       <c r="D42" t="n">
-        <v>0.6090370000000001</v>
+        <v>0.5119050000000001</v>
       </c>
     </row>
     <row r="43">
@@ -9946,13 +9946,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>1.19162</v>
+        <v>0.8308410000000001</v>
       </c>
       <c r="C43" t="n">
-        <v>0.617377</v>
+        <v>0.480481</v>
       </c>
       <c r="D43" t="n">
-        <v>0.605572</v>
+        <v>0.5172060000000001</v>
       </c>
     </row>
     <row r="44">
@@ -9960,13 +9960,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>1.21948</v>
+        <v>0.831669</v>
       </c>
       <c r="C44" t="n">
-        <v>0.6172879999999999</v>
+        <v>0.480702</v>
       </c>
       <c r="D44" t="n">
-        <v>0.608386</v>
+        <v>0.515041</v>
       </c>
     </row>
     <row r="45">
@@ -9974,13 +9974,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>1.22481</v>
+        <v>0.837081</v>
       </c>
       <c r="C45" t="n">
-        <v>0.612191</v>
+        <v>0.490095</v>
       </c>
       <c r="D45" t="n">
-        <v>0.634444</v>
+        <v>0.52017</v>
       </c>
     </row>
     <row r="46">
@@ -9988,13 +9988,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>1.25001</v>
+        <v>0.841649</v>
       </c>
       <c r="C46" t="n">
-        <v>0.617433</v>
+        <v>0.483166</v>
       </c>
       <c r="D46" t="n">
-        <v>0.609863</v>
+        <v>0.521719</v>
       </c>
     </row>
     <row r="47">
@@ -10002,13 +10002,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>1.26572</v>
+        <v>0.852243</v>
       </c>
       <c r="C47" t="n">
-        <v>0.621309</v>
+        <v>0.49156</v>
       </c>
       <c r="D47" t="n">
-        <v>0.614521</v>
+        <v>0.527064</v>
       </c>
     </row>
     <row r="48">
@@ -10016,13 +10016,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>1.25369</v>
+        <v>0.855758</v>
       </c>
       <c r="C48" t="n">
-        <v>0.61919</v>
+        <v>0.493775</v>
       </c>
       <c r="D48" t="n">
-        <v>0.614024</v>
+        <v>0.526814</v>
       </c>
     </row>
     <row r="49">
@@ -10030,13 +10030,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>1.25986</v>
+        <v>0.859661</v>
       </c>
       <c r="C49" t="n">
-        <v>0.63773</v>
+        <v>0.492075</v>
       </c>
       <c r="D49" t="n">
-        <v>0.6201759999999999</v>
+        <v>0.528852</v>
       </c>
     </row>
     <row r="50">
@@ -10044,13 +10044,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>1.31828</v>
+        <v>0.865451</v>
       </c>
       <c r="C50" t="n">
-        <v>0.630011</v>
+        <v>0.486903</v>
       </c>
       <c r="D50" t="n">
-        <v>0.624171</v>
+        <v>0.525787</v>
       </c>
     </row>
     <row r="51">
@@ -10058,13 +10058,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>1.27506</v>
+        <v>0.840069</v>
       </c>
       <c r="C51" t="n">
-        <v>0.654328</v>
+        <v>0.488581</v>
       </c>
       <c r="D51" t="n">
-        <v>0.631883</v>
+        <v>0.524393</v>
       </c>
     </row>
     <row r="52">
@@ -10072,13 +10072,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>1.27352</v>
+        <v>0.846234</v>
       </c>
       <c r="C52" t="n">
-        <v>0.638225</v>
+        <v>0.491392</v>
       </c>
       <c r="D52" t="n">
-        <v>0.6160369999999999</v>
+        <v>0.526878</v>
       </c>
     </row>
     <row r="53">
@@ -10086,13 +10086,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>1.27575</v>
+        <v>0.85193</v>
       </c>
       <c r="C53" t="n">
-        <v>0.641846</v>
+        <v>0.494785</v>
       </c>
       <c r="D53" t="n">
-        <v>0.619633</v>
+        <v>0.529438</v>
       </c>
     </row>
     <row r="54">
@@ -10100,13 +10100,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>1.27155</v>
+        <v>0.856272</v>
       </c>
       <c r="C54" t="n">
-        <v>0.649396</v>
+        <v>0.500299</v>
       </c>
       <c r="D54" t="n">
-        <v>0.631365</v>
+        <v>0.534487</v>
       </c>
     </row>
     <row r="55">
@@ -10114,13 +10114,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>1.22171</v>
+        <v>0.860101</v>
       </c>
       <c r="C55" t="n">
-        <v>0.656531</v>
+        <v>0.502858</v>
       </c>
       <c r="D55" t="n">
-        <v>0.625517</v>
+        <v>0.536484</v>
       </c>
     </row>
     <row r="56">
@@ -10128,13 +10128,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>1.3009</v>
+        <v>0.861916</v>
       </c>
       <c r="C56" t="n">
-        <v>0.66089</v>
+        <v>0.505726</v>
       </c>
       <c r="D56" t="n">
-        <v>0.660616</v>
+        <v>0.536502</v>
       </c>
     </row>
     <row r="57">
@@ -10142,13 +10142,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>1.27219</v>
+        <v>0.865269</v>
       </c>
       <c r="C57" t="n">
-        <v>0.655458</v>
+        <v>0.510393</v>
       </c>
       <c r="D57" t="n">
-        <v>0.647475</v>
+        <v>0.540208</v>
       </c>
     </row>
     <row r="58">
@@ -10156,13 +10156,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>1.33126</v>
+        <v>0.869884</v>
       </c>
       <c r="C58" t="n">
-        <v>0.701421</v>
+        <v>0.513189</v>
       </c>
       <c r="D58" t="n">
-        <v>0.661272</v>
+        <v>0.539753</v>
       </c>
     </row>
     <row r="59">
@@ -10170,13 +10170,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>1.39491</v>
+        <v>0.871865</v>
       </c>
       <c r="C59" t="n">
-        <v>0.721985</v>
+        <v>0.520322</v>
       </c>
       <c r="D59" t="n">
-        <v>0.7116130000000001</v>
+        <v>0.5397380000000001</v>
       </c>
     </row>
     <row r="60">
@@ -10184,13 +10184,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>1.48826</v>
+        <v>0.878109</v>
       </c>
       <c r="C60" t="n">
-        <v>0.7795800000000001</v>
+        <v>0.5185689999999999</v>
       </c>
       <c r="D60" t="n">
-        <v>0.753181</v>
+        <v>0.5440120000000001</v>
       </c>
     </row>
     <row r="61">
@@ -10198,13 +10198,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>1.5112</v>
+        <v>0.877822</v>
       </c>
       <c r="C61" t="n">
-        <v>0.784712</v>
+        <v>0.5280820000000001</v>
       </c>
       <c r="D61" t="n">
-        <v>0.8027609999999999</v>
+        <v>0.546534</v>
       </c>
     </row>
     <row r="62">
@@ -10212,13 +10212,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>1.56302</v>
+        <v>0.887202</v>
       </c>
       <c r="C62" t="n">
-        <v>0.8464</v>
+        <v>0.534139</v>
       </c>
       <c r="D62" t="n">
-        <v>0.823908</v>
+        <v>0.5487880000000001</v>
       </c>
     </row>
     <row r="63">
@@ -10226,13 +10226,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>1.57825</v>
+        <v>0.894347</v>
       </c>
       <c r="C63" t="n">
-        <v>0.8448</v>
+        <v>0.544412</v>
       </c>
       <c r="D63" t="n">
-        <v>0.876776</v>
+        <v>0.555214</v>
       </c>
     </row>
     <row r="64">
@@ -10240,13 +10240,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>1.61208</v>
+        <v>0.903616</v>
       </c>
       <c r="C64" t="n">
-        <v>0.98791</v>
+        <v>0.585051</v>
       </c>
       <c r="D64" t="n">
-        <v>1.04415</v>
+        <v>0.581409</v>
       </c>
     </row>
     <row r="65">
@@ -10254,13 +10254,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>1.73301</v>
+        <v>0.9269849999999999</v>
       </c>
       <c r="C65" t="n">
-        <v>1.00899</v>
+        <v>0.591749</v>
       </c>
       <c r="D65" t="n">
-        <v>1.08094</v>
+        <v>0.582191</v>
       </c>
     </row>
     <row r="66">
@@ -10268,13 +10268,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>1.78041</v>
+        <v>0.9359420000000001</v>
       </c>
       <c r="C66" t="n">
-        <v>0.986116</v>
+        <v>0.597491</v>
       </c>
       <c r="D66" t="n">
-        <v>1.08827</v>
+        <v>0.59693</v>
       </c>
     </row>
     <row r="67">
@@ -10282,13 +10282,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.78936</v>
+        <v>0.959503</v>
       </c>
       <c r="C67" t="n">
-        <v>1.02304</v>
+        <v>0.6257740000000001</v>
       </c>
       <c r="D67" t="n">
-        <v>1.07314</v>
+        <v>0.602189</v>
       </c>
     </row>
     <row r="68">
@@ -10296,13 +10296,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>1.85015</v>
+        <v>0.961847</v>
       </c>
       <c r="C68" t="n">
-        <v>1.05633</v>
+        <v>0.648106</v>
       </c>
       <c r="D68" t="n">
-        <v>1.15814</v>
+        <v>0.630063</v>
       </c>
     </row>
     <row r="69">
@@ -10310,13 +10310,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>1.8788</v>
+        <v>1.01165</v>
       </c>
       <c r="C69" t="n">
-        <v>1.13469</v>
+        <v>0.668825</v>
       </c>
       <c r="D69" t="n">
-        <v>1.18543</v>
+        <v>0.629466</v>
       </c>
     </row>
     <row r="70">
@@ -10324,13 +10324,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>1.90509</v>
+        <v>1.01821</v>
       </c>
       <c r="C70" t="n">
-        <v>1.11045</v>
+        <v>0.684685</v>
       </c>
       <c r="D70" t="n">
-        <v>1.22133</v>
+        <v>0.647207</v>
       </c>
     </row>
     <row r="71">
@@ -10338,13 +10338,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>1.88401</v>
+        <v>1.04912</v>
       </c>
       <c r="C71" t="n">
-        <v>1.14952</v>
+        <v>0.735227</v>
       </c>
       <c r="D71" t="n">
-        <v>1.3004</v>
+        <v>0.672067</v>
       </c>
     </row>
     <row r="72">
@@ -10352,13 +10352,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>2.16472</v>
+        <v>1.08509</v>
       </c>
       <c r="C72" t="n">
-        <v>1.15205</v>
+        <v>0.744072</v>
       </c>
       <c r="D72" t="n">
-        <v>1.31616</v>
+        <v>0.692773</v>
       </c>
     </row>
     <row r="73">
@@ -10366,13 +10366,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>2.16697</v>
+        <v>1.12324</v>
       </c>
       <c r="C73" t="n">
-        <v>1.2422</v>
+        <v>0.781264</v>
       </c>
       <c r="D73" t="n">
-        <v>1.33226</v>
+        <v>0.711834</v>
       </c>
     </row>
     <row r="74">
@@ -10380,13 +10380,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>2.06807</v>
+        <v>1.15861</v>
       </c>
       <c r="C74" t="n">
-        <v>1.26028</v>
+        <v>0.81004</v>
       </c>
       <c r="D74" t="n">
-        <v>1.4433</v>
+        <v>0.756107</v>
       </c>
     </row>
     <row r="75">
@@ -10394,13 +10394,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>2.21824</v>
+        <v>1.22616</v>
       </c>
       <c r="C75" t="n">
-        <v>1.30378</v>
+        <v>0.8578249999999999</v>
       </c>
       <c r="D75" t="n">
-        <v>1.43147</v>
+        <v>0.7865180000000001</v>
       </c>
     </row>
     <row r="76">
@@ -10408,13 +10408,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>2.05516</v>
+        <v>1.27619</v>
       </c>
       <c r="C76" t="n">
-        <v>1.23725</v>
+        <v>0.882251</v>
       </c>
       <c r="D76" t="n">
-        <v>1.41706</v>
+        <v>0.814157</v>
       </c>
     </row>
     <row r="77">
@@ -10422,13 +10422,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>2.26237</v>
+        <v>1.33016</v>
       </c>
       <c r="C77" t="n">
-        <v>1.39708</v>
+        <v>0.925978</v>
       </c>
       <c r="D77" t="n">
-        <v>1.48493</v>
+        <v>0.857657</v>
       </c>
     </row>
     <row r="78">
@@ -10436,13 +10436,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>2.24178</v>
+        <v>1.38547</v>
       </c>
       <c r="C78" t="n">
-        <v>0.762737</v>
+        <v>1.06783</v>
       </c>
       <c r="D78" t="n">
-        <v>0.88525</v>
+        <v>0.977409</v>
       </c>
     </row>
     <row r="79">
@@ -10450,13 +10450,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.73001</v>
+        <v>1.55923</v>
       </c>
       <c r="C79" t="n">
-        <v>0.98004</v>
+        <v>1.10301</v>
       </c>
       <c r="D79" t="n">
-        <v>1.26113</v>
+        <v>1.02514</v>
       </c>
     </row>
     <row r="80">
@@ -10464,13 +10464,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.97935</v>
+        <v>1.62612</v>
       </c>
       <c r="C80" t="n">
-        <v>1.06979</v>
+        <v>1.1364</v>
       </c>
       <c r="D80" t="n">
-        <v>1.26097</v>
+        <v>1.06908</v>
       </c>
     </row>
     <row r="81">
@@ -10478,13 +10478,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.99919</v>
+        <v>1.70709</v>
       </c>
       <c r="C81" t="n">
-        <v>1.18853</v>
+        <v>1.17169</v>
       </c>
       <c r="D81" t="n">
-        <v>1.3758</v>
+        <v>1.13479</v>
       </c>
     </row>
     <row r="82">
@@ -10492,13 +10492,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>2.1366</v>
+        <v>1.79941</v>
       </c>
       <c r="C82" t="n">
-        <v>1.12282</v>
+        <v>1.20693</v>
       </c>
       <c r="D82" t="n">
-        <v>1.1496</v>
+        <v>1.18346</v>
       </c>
     </row>
     <row r="83">
@@ -10506,13 +10506,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>2.02039</v>
+        <v>1.88544</v>
       </c>
       <c r="C83" t="n">
-        <v>1.1872</v>
+        <v>1.24945</v>
       </c>
       <c r="D83" t="n">
-        <v>1.32919</v>
+        <v>1.2339</v>
       </c>
     </row>
     <row r="84">
@@ -10520,13 +10520,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>2.35676</v>
+        <v>1.96911</v>
       </c>
       <c r="C84" t="n">
-        <v>1.47074</v>
+        <v>1.28567</v>
       </c>
       <c r="D84" t="n">
-        <v>1.52492</v>
+        <v>1.30669</v>
       </c>
     </row>
     <row r="85">
@@ -10534,13 +10534,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>2.50275</v>
+        <v>2.06155</v>
       </c>
       <c r="C85" t="n">
-        <v>1.16592</v>
+        <v>1.32295</v>
       </c>
       <c r="D85" t="n">
-        <v>1.2589</v>
+        <v>1.35432</v>
       </c>
     </row>
     <row r="86">
@@ -10548,13 +10548,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>2.1</v>
+        <v>2.1472</v>
       </c>
       <c r="C86" t="n">
-        <v>1.25635</v>
+        <v>1.35938</v>
       </c>
       <c r="D86" t="n">
-        <v>1.66788</v>
+        <v>1.41419</v>
       </c>
     </row>
     <row r="87">
@@ -10562,13 +10562,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>2.69669</v>
+        <v>2.22777</v>
       </c>
       <c r="C87" t="n">
-        <v>1.47041</v>
+        <v>1.40264</v>
       </c>
       <c r="D87" t="n">
-        <v>1.49923</v>
+        <v>1.47025</v>
       </c>
     </row>
     <row r="88">
@@ -10576,13 +10576,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>2.25369</v>
+        <v>2.3298</v>
       </c>
       <c r="C88" t="n">
-        <v>1.41295</v>
+        <v>1.43922</v>
       </c>
       <c r="D88" t="n">
-        <v>1.31178</v>
+        <v>1.53832</v>
       </c>
     </row>
     <row r="89">
@@ -10590,13 +10590,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>2.35364</v>
+        <v>2.41721</v>
       </c>
       <c r="C89" t="n">
-        <v>1.42174</v>
+        <v>1.47767</v>
       </c>
       <c r="D89" t="n">
-        <v>1.50292</v>
+        <v>1.5908</v>
       </c>
     </row>
     <row r="90">
@@ -10604,13 +10604,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>2.49228</v>
+        <v>2.50004</v>
       </c>
       <c r="C90" t="n">
-        <v>1.42177</v>
+        <v>1.51335</v>
       </c>
       <c r="D90" t="n">
-        <v>1.62994</v>
+        <v>1.65316</v>
       </c>
     </row>
     <row r="91">
@@ -10618,13 +10618,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>2.72253</v>
+        <v>2.59585</v>
       </c>
       <c r="C91" t="n">
-        <v>1.71952</v>
+        <v>1.54666</v>
       </c>
       <c r="D91" t="n">
-        <v>1.71539</v>
+        <v>1.70048</v>
       </c>
     </row>
     <row r="92">
@@ -10632,13 +10632,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>3.04217</v>
+        <v>2.68382</v>
       </c>
       <c r="C92" t="n">
-        <v>1.51494</v>
+        <v>1.65199</v>
       </c>
       <c r="D92" t="n">
-        <v>2.03625</v>
+        <v>1.82211</v>
       </c>
     </row>
     <row r="93">
@@ -10646,13 +10646,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>2.94753</v>
+        <v>2.84842</v>
       </c>
       <c r="C93" t="n">
-        <v>1.55021</v>
+        <v>1.68556</v>
       </c>
       <c r="D93" t="n">
-        <v>1.86413</v>
+        <v>1.87626</v>
       </c>
     </row>
     <row r="94">
@@ -10660,13 +10660,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>2.95735</v>
+        <v>2.92219</v>
       </c>
       <c r="C94" t="n">
-        <v>1.55726</v>
+        <v>1.70974</v>
       </c>
       <c r="D94" t="n">
-        <v>1.95228</v>
+        <v>1.91699</v>
       </c>
     </row>
     <row r="95">
@@ -10674,13 +10674,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>3.19299</v>
+        <v>2.98858</v>
       </c>
       <c r="C95" t="n">
-        <v>1.72018</v>
+        <v>1.7467</v>
       </c>
       <c r="D95" t="n">
-        <v>1.93164</v>
+        <v>1.95768</v>
       </c>
     </row>
     <row r="96">
@@ -10688,13 +10688,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>3.2035</v>
+        <v>3.05015</v>
       </c>
       <c r="C96" t="n">
-        <v>1.65708</v>
+        <v>1.77009</v>
       </c>
       <c r="D96" t="n">
-        <v>1.93332</v>
+        <v>2.00381</v>
       </c>
     </row>
     <row r="97">
@@ -10702,13 +10702,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>3.05428</v>
+        <v>3.12084</v>
       </c>
       <c r="C97" t="n">
-        <v>1.78682</v>
+        <v>1.80165</v>
       </c>
       <c r="D97" t="n">
-        <v>2.1152</v>
+        <v>2.04935</v>
       </c>
     </row>
     <row r="98">
@@ -10716,13 +10716,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>3.2254</v>
+        <v>3.20508</v>
       </c>
       <c r="C98" t="n">
-        <v>1.75831</v>
+        <v>1.82843</v>
       </c>
       <c r="D98" t="n">
-        <v>2.18017</v>
+        <v>2.09641</v>
       </c>
     </row>
     <row r="99">
@@ -10730,13 +10730,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>3.17826</v>
+        <v>3.27291</v>
       </c>
       <c r="C99" t="n">
-        <v>1.75277</v>
+        <v>1.87735</v>
       </c>
       <c r="D99" t="n">
-        <v>2.09813</v>
+        <v>2.13412</v>
       </c>
     </row>
     <row r="100">
@@ -10744,13 +10744,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>3.32842</v>
+        <v>3.33491</v>
       </c>
       <c r="C100" t="n">
-        <v>2.03062</v>
+        <v>1.90073</v>
       </c>
       <c r="D100" t="n">
-        <v>2.23601</v>
+        <v>2.17935</v>
       </c>
     </row>
     <row r="101">
@@ -10758,13 +10758,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>3.29773</v>
+        <v>3.40371</v>
       </c>
       <c r="C101" t="n">
-        <v>1.92219</v>
+        <v>1.92259</v>
       </c>
       <c r="D101" t="n">
-        <v>2.29566</v>
+        <v>2.21343</v>
       </c>
     </row>
     <row r="102">
@@ -10772,13 +10772,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>3.356</v>
+        <v>3.46055</v>
       </c>
       <c r="C102" t="n">
-        <v>1.97987</v>
+        <v>1.97068</v>
       </c>
       <c r="D102" t="n">
-        <v>2.44378</v>
+        <v>2.23951</v>
       </c>
     </row>
     <row r="103">
@@ -10786,13 +10786,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>3.72177</v>
+        <v>3.51376</v>
       </c>
       <c r="C103" t="n">
-        <v>2.11</v>
+        <v>1.99005</v>
       </c>
       <c r="D103" t="n">
-        <v>2.56651</v>
+        <v>2.28489</v>
       </c>
     </row>
     <row r="104">
@@ -10800,13 +10800,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>3.71453</v>
+        <v>3.56444</v>
       </c>
       <c r="C104" t="n">
-        <v>2.14063</v>
+        <v>2.02506</v>
       </c>
       <c r="D104" t="n">
-        <v>2.38093</v>
+        <v>2.31113</v>
       </c>
     </row>
     <row r="105">
@@ -10814,13 +10814,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>3.6579</v>
+        <v>3.6248</v>
       </c>
       <c r="C105" t="n">
-        <v>2.00695</v>
+        <v>2.05075</v>
       </c>
       <c r="D105" t="n">
-        <v>2.43955</v>
+        <v>2.35453</v>
       </c>
     </row>
     <row r="106">
@@ -10828,13 +10828,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>3.6787</v>
+        <v>3.6754</v>
       </c>
       <c r="C106" t="n">
-        <v>2.06386</v>
+        <v>2.07968</v>
       </c>
       <c r="D106" t="n">
-        <v>2.31099</v>
+        <v>2.36929</v>
       </c>
     </row>
     <row r="107">
@@ -10842,13 +10842,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>3.62543</v>
+        <v>3.69282</v>
       </c>
       <c r="C107" t="n">
-        <v>1.88958</v>
+        <v>2.07771</v>
       </c>
       <c r="D107" t="n">
-        <v>2.39087</v>
+        <v>2.44211</v>
       </c>
     </row>
     <row r="108">
@@ -10856,13 +10856,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>3.86385</v>
+        <v>3.73297</v>
       </c>
       <c r="C108" t="n">
-        <v>1.95304</v>
+        <v>2.10049</v>
       </c>
       <c r="D108" t="n">
-        <v>2.71553</v>
+        <v>2.45175</v>
       </c>
     </row>
     <row r="109">
@@ -10870,13 +10870,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>3.82433</v>
+        <v>3.79055</v>
       </c>
       <c r="C109" t="n">
-        <v>2.08859</v>
+        <v>2.1264</v>
       </c>
       <c r="D109" t="n">
-        <v>2.71742</v>
+        <v>2.47776</v>
       </c>
     </row>
     <row r="110">
@@ -10884,13 +10884,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>4.0097</v>
+        <v>3.84645</v>
       </c>
       <c r="C110" t="n">
-        <v>2.06818</v>
+        <v>2.14016</v>
       </c>
       <c r="D110" t="n">
-        <v>2.69474</v>
+        <v>2.50441</v>
       </c>
     </row>
     <row r="111">
@@ -10898,13 +10898,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>3.99559</v>
+        <v>3.89217</v>
       </c>
       <c r="C111" t="n">
-        <v>2.09216</v>
+        <v>2.17107</v>
       </c>
       <c r="D111" t="n">
-        <v>2.69316</v>
+        <v>2.52747</v>
       </c>
     </row>
     <row r="112">
@@ -10912,13 +10912,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>3.83224</v>
+        <v>3.93312</v>
       </c>
       <c r="C112" t="n">
-        <v>2.21724</v>
+        <v>2.19156</v>
       </c>
       <c r="D112" t="n">
-        <v>3.02733</v>
+        <v>2.55938</v>
       </c>
     </row>
     <row r="113">
@@ -10926,13 +10926,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>4.30447</v>
+        <v>3.9852</v>
       </c>
       <c r="C113" t="n">
-        <v>2.24957</v>
+        <v>2.22078</v>
       </c>
       <c r="D113" t="n">
-        <v>2.5398</v>
+        <v>2.57887</v>
       </c>
     </row>
     <row r="114">
@@ -10940,13 +10940,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>3.38997</v>
+        <v>4.03978</v>
       </c>
       <c r="C114" t="n">
-        <v>1.64326</v>
+        <v>2.23466</v>
       </c>
       <c r="D114" t="n">
-        <v>2.00801</v>
+        <v>2.60514</v>
       </c>
     </row>
     <row r="115">
@@ -10954,13 +10954,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>3.69861</v>
+        <v>4.06219</v>
       </c>
       <c r="C115" t="n">
-        <v>1.96676</v>
+        <v>2.26745</v>
       </c>
       <c r="D115" t="n">
-        <v>2.15427</v>
+        <v>2.63182</v>
       </c>
     </row>
     <row r="116">
@@ -10968,13 +10968,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>3.82525</v>
+        <v>4.12795</v>
       </c>
       <c r="C116" t="n">
-        <v>2.03805</v>
+        <v>2.29705</v>
       </c>
       <c r="D116" t="n">
-        <v>2.30058</v>
+        <v>2.66153</v>
       </c>
     </row>
     <row r="117">
@@ -10982,13 +10982,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>3.94703</v>
+        <v>4.15818</v>
       </c>
       <c r="C117" t="n">
-        <v>2.02671</v>
+        <v>2.31094</v>
       </c>
       <c r="D117" t="n">
-        <v>2.39752</v>
+        <v>2.67541</v>
       </c>
     </row>
     <row r="118">
@@ -10996,13 +10996,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>4.14088</v>
+        <v>4.20727</v>
       </c>
       <c r="C118" t="n">
-        <v>2.12431</v>
+        <v>2.35034</v>
       </c>
       <c r="D118" t="n">
-        <v>2.61934</v>
+        <v>2.69733</v>
       </c>
     </row>
     <row r="119">
@@ -11010,13 +11010,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>4.09241</v>
+        <v>4.2481</v>
       </c>
       <c r="C119" t="n">
-        <v>2.14397</v>
+        <v>2.37853</v>
       </c>
       <c r="D119" t="n">
-        <v>2.57449</v>
+        <v>2.71708</v>
       </c>
     </row>
   </sheetData>
@@ -11064,13 +11064,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.838535</v>
+        <v>0.591911</v>
       </c>
       <c r="C2" t="n">
-        <v>0.489497</v>
+        <v>0.376692</v>
       </c>
       <c r="D2" t="n">
-        <v>0.433102</v>
+        <v>0.344253</v>
       </c>
     </row>
     <row r="3">
@@ -11078,13 +11078,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.866309</v>
+        <v>0.598648</v>
       </c>
       <c r="C3" t="n">
-        <v>0.499552</v>
+        <v>0.379305</v>
       </c>
       <c r="D3" t="n">
-        <v>0.446448</v>
+        <v>0.351224</v>
       </c>
     </row>
     <row r="4">
@@ -11092,13 +11092,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.875637</v>
+        <v>0.613714</v>
       </c>
       <c r="C4" t="n">
-        <v>0.509128</v>
+        <v>0.384079</v>
       </c>
       <c r="D4" t="n">
-        <v>0.461665</v>
+        <v>0.356157</v>
       </c>
     </row>
     <row r="5">
@@ -11106,13 +11106,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.892854</v>
+        <v>0.617875</v>
       </c>
       <c r="C5" t="n">
-        <v>0.528265</v>
+        <v>0.394453</v>
       </c>
       <c r="D5" t="n">
-        <v>0.466697</v>
+        <v>0.360288</v>
       </c>
     </row>
     <row r="6">
@@ -11120,13 +11120,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.933356</v>
+        <v>0.6306310000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>0.528025</v>
+        <v>0.393506</v>
       </c>
       <c r="D6" t="n">
-        <v>0.488389</v>
+        <v>0.364452</v>
       </c>
     </row>
     <row r="7">
@@ -11134,13 +11134,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.961255</v>
+        <v>0.637352</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5417689999999999</v>
+        <v>0.406426</v>
       </c>
       <c r="D7" t="n">
-        <v>0.485056</v>
+        <v>0.371798</v>
       </c>
     </row>
     <row r="8">
@@ -11148,13 +11148,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.9826279999999999</v>
+        <v>0.6475</v>
       </c>
       <c r="C8" t="n">
-        <v>0.563539</v>
+        <v>0.416099</v>
       </c>
       <c r="D8" t="n">
-        <v>0.495306</v>
+        <v>0.374127</v>
       </c>
     </row>
     <row r="9">
@@ -11162,13 +11162,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>1.00162</v>
+        <v>0.654522</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5798489999999999</v>
+        <v>0.421171</v>
       </c>
       <c r="D9" t="n">
-        <v>0.49843</v>
+        <v>0.378298</v>
       </c>
     </row>
     <row r="10">
@@ -11176,13 +11176,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>1.02728</v>
+        <v>0.669392</v>
       </c>
       <c r="C10" t="n">
-        <v>0.589754</v>
+        <v>0.431989</v>
       </c>
       <c r="D10" t="n">
-        <v>0.491842</v>
+        <v>0.383154</v>
       </c>
     </row>
     <row r="11">
@@ -11190,13 +11190,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>1.04134</v>
+        <v>0.675632</v>
       </c>
       <c r="C11" t="n">
-        <v>0.560536</v>
+        <v>0.418588</v>
       </c>
       <c r="D11" t="n">
-        <v>0.496744</v>
+        <v>0.384898</v>
       </c>
     </row>
     <row r="12">
@@ -11204,13 +11204,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.995672</v>
+        <v>0.65063</v>
       </c>
       <c r="C12" t="n">
-        <v>0.544029</v>
+        <v>0.423651</v>
       </c>
       <c r="D12" t="n">
-        <v>0.51483</v>
+        <v>0.391293</v>
       </c>
     </row>
     <row r="13">
@@ -11218,13 +11218,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>1.05885</v>
+        <v>0.659861</v>
       </c>
       <c r="C13" t="n">
-        <v>0.57025</v>
+        <v>0.425523</v>
       </c>
       <c r="D13" t="n">
-        <v>0.518945</v>
+        <v>0.394159</v>
       </c>
     </row>
     <row r="14">
@@ -11232,13 +11232,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>1.05574</v>
+        <v>0.666884</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5860570000000001</v>
+        <v>0.433603</v>
       </c>
       <c r="D14" t="n">
-        <v>0.517173</v>
+        <v>0.397596</v>
       </c>
     </row>
     <row r="15">
@@ -11246,13 +11246,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>1.0588</v>
+        <v>0.683343</v>
       </c>
       <c r="C15" t="n">
-        <v>0.606139</v>
+        <v>0.443995</v>
       </c>
       <c r="D15" t="n">
-        <v>0.550701</v>
+        <v>0.407561</v>
       </c>
     </row>
     <row r="16">
@@ -11260,13 +11260,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>1.1018</v>
+        <v>0.692925</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6222800000000001</v>
+        <v>0.453158</v>
       </c>
       <c r="D16" t="n">
-        <v>0.521966</v>
+        <v>0.413034</v>
       </c>
     </row>
     <row r="17">
@@ -11274,13 +11274,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>1.13253</v>
+        <v>0.7060920000000001</v>
       </c>
       <c r="C17" t="n">
-        <v>0.627104</v>
+        <v>0.455559</v>
       </c>
       <c r="D17" t="n">
-        <v>0.533361</v>
+        <v>0.415205</v>
       </c>
     </row>
     <row r="18">
@@ -11288,13 +11288,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>1.14064</v>
+        <v>0.715302</v>
       </c>
       <c r="C18" t="n">
-        <v>0.623627</v>
+        <v>0.45685</v>
       </c>
       <c r="D18" t="n">
-        <v>0.540986</v>
+        <v>0.420542</v>
       </c>
     </row>
     <row r="19">
@@ -11302,13 +11302,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>1.15948</v>
+        <v>0.726267</v>
       </c>
       <c r="C19" t="n">
-        <v>0.65368</v>
+        <v>0.471092</v>
       </c>
       <c r="D19" t="n">
-        <v>0.538758</v>
+        <v>0.426787</v>
       </c>
     </row>
     <row r="20">
@@ -11316,13 +11316,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>1.21409</v>
+        <v>0.74319</v>
       </c>
       <c r="C20" t="n">
-        <v>0.679487</v>
+        <v>0.4828</v>
       </c>
       <c r="D20" t="n">
-        <v>0.545365</v>
+        <v>0.431779</v>
       </c>
     </row>
     <row r="21">
@@ -11330,13 +11330,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>1.21432</v>
+        <v>0.754044</v>
       </c>
       <c r="C21" t="n">
-        <v>0.690228</v>
+        <v>0.494509</v>
       </c>
       <c r="D21" t="n">
-        <v>0.561997</v>
+        <v>0.437797</v>
       </c>
     </row>
     <row r="22">
@@ -11344,13 +11344,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>1.23063</v>
+        <v>0.763186</v>
       </c>
       <c r="C22" t="n">
-        <v>0.692762</v>
+        <v>0.501008</v>
       </c>
       <c r="D22" t="n">
-        <v>0.556269</v>
+        <v>0.442732</v>
       </c>
     </row>
     <row r="23">
@@ -11358,13 +11358,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>1.2544</v>
+        <v>0.785044</v>
       </c>
       <c r="C23" t="n">
-        <v>0.709948</v>
+        <v>0.509976</v>
       </c>
       <c r="D23" t="n">
-        <v>0.569295</v>
+        <v>0.449298</v>
       </c>
     </row>
     <row r="24">
@@ -11372,13 +11372,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>1.27203</v>
+        <v>0.798299</v>
       </c>
       <c r="C24" t="n">
-        <v>0.721145</v>
+        <v>0.520915</v>
       </c>
       <c r="D24" t="n">
-        <v>0.565371</v>
+        <v>0.452479</v>
       </c>
     </row>
     <row r="25">
@@ -11386,13 +11386,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>1.32379</v>
+        <v>0.811002</v>
       </c>
       <c r="C25" t="n">
-        <v>0.768172</v>
+        <v>0.536736</v>
       </c>
       <c r="D25" t="n">
-        <v>0.572079</v>
+        <v>0.461197</v>
       </c>
     </row>
     <row r="26">
@@ -11400,13 +11400,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>1.33335</v>
+        <v>0.828533</v>
       </c>
       <c r="C26" t="n">
-        <v>0.63873</v>
+        <v>0.477751</v>
       </c>
       <c r="D26" t="n">
-        <v>0.590434</v>
+        <v>0.463919</v>
       </c>
     </row>
     <row r="27">
@@ -11414,13 +11414,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>1.23857</v>
+        <v>0.790503</v>
       </c>
       <c r="C27" t="n">
-        <v>0.684142</v>
+        <v>0.487138</v>
       </c>
       <c r="D27" t="n">
-        <v>0.600267</v>
+        <v>0.46848</v>
       </c>
     </row>
     <row r="28">
@@ -11428,13 +11428,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>1.27289</v>
+        <v>0.798662</v>
       </c>
       <c r="C28" t="n">
-        <v>0.673336</v>
+        <v>0.490912</v>
       </c>
       <c r="D28" t="n">
-        <v>0.599271</v>
+        <v>0.47225</v>
       </c>
     </row>
     <row r="29">
@@ -11442,13 +11442,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>1.27786</v>
+        <v>0.811315</v>
       </c>
       <c r="C29" t="n">
-        <v>0.680044</v>
+        <v>0.494681</v>
       </c>
       <c r="D29" t="n">
-        <v>0.617329</v>
+        <v>0.476855</v>
       </c>
     </row>
     <row r="30">
@@ -11456,13 +11456,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>1.31326</v>
+        <v>0.8227680000000001</v>
       </c>
       <c r="C30" t="n">
-        <v>0.690671</v>
+        <v>0.504715</v>
       </c>
       <c r="D30" t="n">
-        <v>0.588582</v>
+        <v>0.482007</v>
       </c>
     </row>
     <row r="31">
@@ -11470,13 +11470,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>1.28894</v>
+        <v>0.8350030000000001</v>
       </c>
       <c r="C31" t="n">
-        <v>0.683412</v>
+        <v>0.510348</v>
       </c>
       <c r="D31" t="n">
-        <v>0.592851</v>
+        <v>0.486186</v>
       </c>
     </row>
     <row r="32">
@@ -11484,13 +11484,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>1.28299</v>
+        <v>0.848824</v>
       </c>
       <c r="C32" t="n">
-        <v>0.687205</v>
+        <v>0.519719</v>
       </c>
       <c r="D32" t="n">
-        <v>0.609312</v>
+        <v>0.490575</v>
       </c>
     </row>
     <row r="33">
@@ -11498,13 +11498,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>1.36427</v>
+        <v>0.857389</v>
       </c>
       <c r="C33" t="n">
-        <v>0.702044</v>
+        <v>0.525794</v>
       </c>
       <c r="D33" t="n">
-        <v>0.616259</v>
+        <v>0.49393</v>
       </c>
     </row>
     <row r="34">
@@ -11512,13 +11512,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>1.31831</v>
+        <v>0.871973</v>
       </c>
       <c r="C34" t="n">
-        <v>0.691258</v>
+        <v>0.535416</v>
       </c>
       <c r="D34" t="n">
-        <v>0.591913</v>
+        <v>0.496752</v>
       </c>
     </row>
     <row r="35">
@@ -11526,13 +11526,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>1.31715</v>
+        <v>0.882993</v>
       </c>
       <c r="C35" t="n">
-        <v>0.700875</v>
+        <v>0.543403</v>
       </c>
       <c r="D35" t="n">
-        <v>0.587645</v>
+        <v>0.499582</v>
       </c>
     </row>
     <row r="36">
@@ -11540,13 +11540,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>1.35052</v>
+        <v>0.89719</v>
       </c>
       <c r="C36" t="n">
-        <v>0.736434</v>
+        <v>0.556324</v>
       </c>
       <c r="D36" t="n">
-        <v>0.58823</v>
+        <v>0.502497</v>
       </c>
     </row>
     <row r="37">
@@ -11554,13 +11554,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>1.38514</v>
+        <v>0.909254</v>
       </c>
       <c r="C37" t="n">
-        <v>0.7458129999999999</v>
+        <v>0.565922</v>
       </c>
       <c r="D37" t="n">
-        <v>0.581568</v>
+        <v>0.506231</v>
       </c>
     </row>
     <row r="38">
@@ -11568,13 +11568,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>1.38152</v>
+        <v>0.924875</v>
       </c>
       <c r="C38" t="n">
-        <v>0.752563</v>
+        <v>0.574784</v>
       </c>
       <c r="D38" t="n">
-        <v>0.584062</v>
+        <v>0.509154</v>
       </c>
     </row>
     <row r="39">
@@ -11582,13 +11582,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>1.39924</v>
+        <v>0.936437</v>
       </c>
       <c r="C39" t="n">
-        <v>0.753661</v>
+        <v>0.586842</v>
       </c>
       <c r="D39" t="n">
-        <v>0.587825</v>
+        <v>0.512093</v>
       </c>
     </row>
     <row r="40">
@@ -11596,13 +11596,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>1.39999</v>
+        <v>0.951305</v>
       </c>
       <c r="C40" t="n">
-        <v>0.671949</v>
+        <v>0.5374139999999999</v>
       </c>
       <c r="D40" t="n">
-        <v>0.585514</v>
+        <v>0.51458</v>
       </c>
     </row>
     <row r="41">
@@ -11610,13 +11610,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>1.34058</v>
+        <v>0.885497</v>
       </c>
       <c r="C41" t="n">
-        <v>0.689489</v>
+        <v>0.54152</v>
       </c>
       <c r="D41" t="n">
-        <v>0.5918679999999999</v>
+        <v>0.5179009999999999</v>
       </c>
     </row>
     <row r="42">
@@ -11624,13 +11624,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>1.29503</v>
+        <v>0.897246</v>
       </c>
       <c r="C42" t="n">
-        <v>0.696394</v>
+        <v>0.550327</v>
       </c>
       <c r="D42" t="n">
-        <v>0.596794</v>
+        <v>0.521224</v>
       </c>
     </row>
     <row r="43">
@@ -11638,13 +11638,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>1.29801</v>
+        <v>0.906043</v>
       </c>
       <c r="C43" t="n">
-        <v>0.679984</v>
+        <v>0.55362</v>
       </c>
       <c r="D43" t="n">
-        <v>0.6055199999999999</v>
+        <v>0.523979</v>
       </c>
     </row>
     <row r="44">
@@ -11652,13 +11652,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>1.29505</v>
+        <v>0.9104409999999999</v>
       </c>
       <c r="C44" t="n">
-        <v>0.709013</v>
+        <v>0.561393</v>
       </c>
       <c r="D44" t="n">
-        <v>0.602319</v>
+        <v>0.525778</v>
       </c>
     </row>
     <row r="45">
@@ -11666,13 +11666,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>1.3237</v>
+        <v>0.924468</v>
       </c>
       <c r="C45" t="n">
-        <v>0.7098139999999999</v>
+        <v>0.568286</v>
       </c>
       <c r="D45" t="n">
-        <v>0.59534</v>
+        <v>0.527569</v>
       </c>
     </row>
     <row r="46">
@@ -11680,13 +11680,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>1.31202</v>
+        <v>0.930486</v>
       </c>
       <c r="C46" t="n">
-        <v>0.7211379999999999</v>
+        <v>0.579792</v>
       </c>
       <c r="D46" t="n">
-        <v>0.611511</v>
+        <v>0.530455</v>
       </c>
     </row>
     <row r="47">
@@ -11694,13 +11694,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>1.36179</v>
+        <v>0.9423280000000001</v>
       </c>
       <c r="C47" t="n">
-        <v>0.72416</v>
+        <v>0.584861</v>
       </c>
       <c r="D47" t="n">
-        <v>0.591967</v>
+        <v>0.531616</v>
       </c>
     </row>
     <row r="48">
@@ -11708,13 +11708,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>1.34478</v>
+        <v>0.952987</v>
       </c>
       <c r="C48" t="n">
-        <v>0.741106</v>
+        <v>0.593672</v>
       </c>
       <c r="D48" t="n">
-        <v>0.593902</v>
+        <v>0.533489</v>
       </c>
     </row>
     <row r="49">
@@ -11722,13 +11722,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>1.38823</v>
+        <v>0.959665</v>
       </c>
       <c r="C49" t="n">
-        <v>0.747163</v>
+        <v>0.59995</v>
       </c>
       <c r="D49" t="n">
-        <v>0.598905</v>
+        <v>0.53683</v>
       </c>
     </row>
     <row r="50">
@@ -11736,13 +11736,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>1.42363</v>
+        <v>0.974048</v>
       </c>
       <c r="C50" t="n">
-        <v>0.760777</v>
+        <v>0.609167</v>
       </c>
       <c r="D50" t="n">
-        <v>0.610752</v>
+        <v>0.539284</v>
       </c>
     </row>
     <row r="51">
@@ -11750,13 +11750,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>1.39631</v>
+        <v>0.98137</v>
       </c>
       <c r="C51" t="n">
-        <v>0.777776</v>
+        <v>0.621536</v>
       </c>
       <c r="D51" t="n">
-        <v>0.595757</v>
+        <v>0.53956</v>
       </c>
     </row>
     <row r="52">
@@ -11764,13 +11764,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>1.44221</v>
+        <v>0.995549</v>
       </c>
       <c r="C52" t="n">
-        <v>0.797108</v>
+        <v>0.6315190000000001</v>
       </c>
       <c r="D52" t="n">
-        <v>0.60285</v>
+        <v>0.543314</v>
       </c>
     </row>
     <row r="53">
@@ -11778,13 +11778,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>1.43106</v>
+        <v>1.00413</v>
       </c>
       <c r="C53" t="n">
-        <v>0.799865</v>
+        <v>0.638608</v>
       </c>
       <c r="D53" t="n">
-        <v>0.591399</v>
+        <v>0.54189</v>
       </c>
     </row>
     <row r="54">
@@ -11792,13 +11792,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>1.42661</v>
+        <v>1.01427</v>
       </c>
       <c r="C54" t="n">
-        <v>0.703223</v>
+        <v>0.577664</v>
       </c>
       <c r="D54" t="n">
-        <v>0.596916</v>
+        <v>0.544111</v>
       </c>
     </row>
     <row r="55">
@@ -11806,13 +11806,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>1.31242</v>
+        <v>0.942314</v>
       </c>
       <c r="C55" t="n">
-        <v>0.707483</v>
+        <v>0.578435</v>
       </c>
       <c r="D55" t="n">
-        <v>0.601658</v>
+        <v>0.546049</v>
       </c>
     </row>
     <row r="56">
@@ -11820,13 +11820,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>1.35592</v>
+        <v>0.950897</v>
       </c>
       <c r="C56" t="n">
-        <v>0.713721</v>
+        <v>0.588008</v>
       </c>
       <c r="D56" t="n">
-        <v>0.60823</v>
+        <v>0.547015</v>
       </c>
     </row>
     <row r="57">
@@ -11834,13 +11834,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>1.335</v>
+        <v>0.958005</v>
       </c>
       <c r="C57" t="n">
-        <v>0.752117</v>
+        <v>0.594321</v>
       </c>
       <c r="D57" t="n">
-        <v>0.6072689999999999</v>
+        <v>0.547651</v>
       </c>
     </row>
     <row r="58">
@@ -11848,13 +11848,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>1.32712</v>
+        <v>0.9661999999999999</v>
       </c>
       <c r="C58" t="n">
-        <v>0.7160530000000001</v>
+        <v>0.601733</v>
       </c>
       <c r="D58" t="n">
-        <v>0.596793</v>
+        <v>0.549797</v>
       </c>
     </row>
     <row r="59">
@@ -11862,13 +11862,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>1.35409</v>
+        <v>0.975455</v>
       </c>
       <c r="C59" t="n">
-        <v>0.760188</v>
+        <v>0.60814</v>
       </c>
       <c r="D59" t="n">
-        <v>0.6136819999999999</v>
+        <v>0.551516</v>
       </c>
     </row>
     <row r="60">
@@ -11876,13 +11876,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>1.38045</v>
+        <v>0.983316</v>
       </c>
       <c r="C60" t="n">
-        <v>0.761968</v>
+        <v>0.617084</v>
       </c>
       <c r="D60" t="n">
-        <v>0.592717</v>
+        <v>0.552489</v>
       </c>
     </row>
     <row r="61">
@@ -11890,13 +11890,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>1.41015</v>
+        <v>0.991807</v>
       </c>
       <c r="C61" t="n">
-        <v>0.780004</v>
+        <v>0.624696</v>
       </c>
       <c r="D61" t="n">
-        <v>0.608152</v>
+        <v>0.556067</v>
       </c>
     </row>
     <row r="62">
@@ -11904,13 +11904,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>1.43333</v>
+        <v>1.004</v>
       </c>
       <c r="C62" t="n">
-        <v>0.766949</v>
+        <v>0.633879</v>
       </c>
       <c r="D62" t="n">
-        <v>0.610595</v>
+        <v>0.555903</v>
       </c>
     </row>
     <row r="63">
@@ -11918,13 +11918,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>1.48704</v>
+        <v>1.01519</v>
       </c>
       <c r="C63" t="n">
-        <v>0.806272</v>
+        <v>0.644957</v>
       </c>
       <c r="D63" t="n">
-        <v>0.608505</v>
+        <v>0.557437</v>
       </c>
     </row>
     <row r="64">
@@ -11932,13 +11932,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>1.48675</v>
+        <v>1.01954</v>
       </c>
       <c r="C64" t="n">
-        <v>0.803441</v>
+        <v>0.656824</v>
       </c>
       <c r="D64" t="n">
-        <v>0.618126</v>
+        <v>0.559101</v>
       </c>
     </row>
     <row r="65">
@@ -11946,13 +11946,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>1.40788</v>
+        <v>1.03157</v>
       </c>
       <c r="C65" t="n">
-        <v>0.847709</v>
+        <v>0.6730429999999999</v>
       </c>
       <c r="D65" t="n">
-        <v>0.603138</v>
+        <v>0.561236</v>
       </c>
     </row>
     <row r="66">
@@ -11960,13 +11960,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>1.47684</v>
+        <v>1.04137</v>
       </c>
       <c r="C66" t="n">
-        <v>0.838158</v>
+        <v>0.6865059999999999</v>
       </c>
       <c r="D66" t="n">
-        <v>0.627983</v>
+        <v>0.563736</v>
       </c>
     </row>
     <row r="67">
@@ -11974,13 +11974,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.45976</v>
+        <v>1.0579</v>
       </c>
       <c r="C67" t="n">
-        <v>0.841695</v>
+        <v>0.706457</v>
       </c>
       <c r="D67" t="n">
-        <v>0.6145389999999999</v>
+        <v>0.564836</v>
       </c>
     </row>
     <row r="68">
@@ -11988,13 +11988,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>1.47926</v>
+        <v>1.0706</v>
       </c>
       <c r="C68" t="n">
-        <v>0.6928</v>
+        <v>0.639688</v>
       </c>
       <c r="D68" t="n">
-        <v>0.60667</v>
+        <v>0.579392</v>
       </c>
     </row>
     <row r="69">
@@ -12002,13 +12002,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>1.38436</v>
+        <v>1.02275</v>
       </c>
       <c r="C69" t="n">
-        <v>0.742924</v>
+        <v>0.663005</v>
       </c>
       <c r="D69" t="n">
-        <v>0.613877</v>
+        <v>0.5871150000000001</v>
       </c>
     </row>
     <row r="70">
@@ -12016,13 +12016,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>1.39587</v>
+        <v>1.04178</v>
       </c>
       <c r="C70" t="n">
-        <v>0.768251</v>
+        <v>0.68788</v>
       </c>
       <c r="D70" t="n">
-        <v>0.608742</v>
+        <v>0.601033</v>
       </c>
     </row>
     <row r="71">
@@ -12030,13 +12030,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>1.37447</v>
+        <v>1.0686</v>
       </c>
       <c r="C71" t="n">
-        <v>0.81257</v>
+        <v>0.720245</v>
       </c>
       <c r="D71" t="n">
-        <v>0.613583</v>
+        <v>0.615787</v>
       </c>
     </row>
     <row r="72">
@@ -12044,13 +12044,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>1.40361</v>
+        <v>1.1002</v>
       </c>
       <c r="C72" t="n">
-        <v>0.760395</v>
+        <v>0.7480869999999999</v>
       </c>
       <c r="D72" t="n">
-        <v>0.622038</v>
+        <v>0.631332</v>
       </c>
     </row>
     <row r="73">
@@ -12058,13 +12058,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>1.46822</v>
+        <v>1.13455</v>
       </c>
       <c r="C73" t="n">
-        <v>0.845455</v>
+        <v>0.781613</v>
       </c>
       <c r="D73" t="n">
-        <v>0.629653</v>
+        <v>0.650786</v>
       </c>
     </row>
     <row r="74">
@@ -12072,13 +12072,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.39441</v>
+        <v>1.17143</v>
       </c>
       <c r="C74" t="n">
-        <v>0.787475</v>
+        <v>0.814385</v>
       </c>
       <c r="D74" t="n">
-        <v>0.624422</v>
+        <v>0.668726</v>
       </c>
     </row>
     <row r="75">
@@ -12086,13 +12086,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>1.44345</v>
+        <v>1.21662</v>
       </c>
       <c r="C75" t="n">
-        <v>0.798161</v>
+        <v>0.857159</v>
       </c>
       <c r="D75" t="n">
-        <v>0.645862</v>
+        <v>0.6944669999999999</v>
       </c>
     </row>
     <row r="76">
@@ -12100,13 +12100,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>1.43463</v>
+        <v>1.26261</v>
       </c>
       <c r="C76" t="n">
-        <v>0.825672</v>
+        <v>0.898056</v>
       </c>
       <c r="D76" t="n">
-        <v>0.652702</v>
+        <v>0.71702</v>
       </c>
     </row>
     <row r="77">
@@ -12114,13 +12114,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>1.51408</v>
+        <v>1.31466</v>
       </c>
       <c r="C77" t="n">
-        <v>0.892989</v>
+        <v>0.947899</v>
       </c>
       <c r="D77" t="n">
-        <v>0.6472909999999999</v>
+        <v>0.7482839999999999</v>
       </c>
     </row>
     <row r="78">
@@ -12128,13 +12128,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>1.51725</v>
+        <v>1.37193</v>
       </c>
       <c r="C78" t="n">
-        <v>0.868991</v>
+        <v>0.995465</v>
       </c>
       <c r="D78" t="n">
-        <v>0.641294</v>
+        <v>0.779257</v>
       </c>
     </row>
     <row r="79">
@@ -12142,13 +12142,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.58963</v>
+        <v>1.44238</v>
       </c>
       <c r="C79" t="n">
-        <v>0.890554</v>
+        <v>1.0477</v>
       </c>
       <c r="D79" t="n">
-        <v>0.6352</v>
+        <v>0.818106</v>
       </c>
     </row>
     <row r="80">
@@ -12156,13 +12156,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.67514</v>
+        <v>1.51606</v>
       </c>
       <c r="C80" t="n">
-        <v>0.95816</v>
+        <v>1.10053</v>
       </c>
       <c r="D80" t="n">
-        <v>0.687371</v>
+        <v>0.857802</v>
       </c>
     </row>
     <row r="81">
@@ -12170,13 +12170,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.80176</v>
+        <v>1.59946</v>
       </c>
       <c r="C81" t="n">
-        <v>0.965575</v>
+        <v>1.1604</v>
       </c>
       <c r="D81" t="n">
-        <v>0.659996</v>
+        <v>0.899107</v>
       </c>
     </row>
     <row r="82">
@@ -12184,13 +12184,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.64831</v>
+        <v>1.68469</v>
       </c>
       <c r="C82" t="n">
-        <v>0.967047</v>
+        <v>1.21875</v>
       </c>
       <c r="D82" t="n">
-        <v>0.643046</v>
+        <v>0.9452199999999999</v>
       </c>
     </row>
     <row r="83">
@@ -12198,13 +12198,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.90902</v>
+        <v>1.78708</v>
       </c>
       <c r="C83" t="n">
-        <v>0.9496599999999999</v>
+        <v>1.19191</v>
       </c>
       <c r="D83" t="n">
-        <v>0.681316</v>
+        <v>1.06197</v>
       </c>
     </row>
     <row r="84">
@@ -12212,13 +12212,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.59568</v>
+        <v>1.80672</v>
       </c>
       <c r="C84" t="n">
-        <v>0.936011</v>
+        <v>1.24692</v>
       </c>
       <c r="D84" t="n">
-        <v>0.723291</v>
+        <v>1.1177</v>
       </c>
     </row>
     <row r="85">
@@ -12226,13 +12226,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.65653</v>
+        <v>1.91593</v>
       </c>
       <c r="C85" t="n">
-        <v>0.940837</v>
+        <v>1.30562</v>
       </c>
       <c r="D85" t="n">
-        <v>0.687828</v>
+        <v>1.17703</v>
       </c>
     </row>
     <row r="86">
@@ -12240,13 +12240,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.66137</v>
+        <v>2.01003</v>
       </c>
       <c r="C86" t="n">
-        <v>1.01002</v>
+        <v>1.37028</v>
       </c>
       <c r="D86" t="n">
-        <v>0.711033</v>
+        <v>1.23214</v>
       </c>
     </row>
     <row r="87">
@@ -12254,13 +12254,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.73741</v>
+        <v>2.12753</v>
       </c>
       <c r="C87" t="n">
-        <v>1.01533</v>
+        <v>1.43402</v>
       </c>
       <c r="D87" t="n">
-        <v>0.705766</v>
+        <v>1.29258</v>
       </c>
     </row>
     <row r="88">
@@ -12268,13 +12268,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>2.03549</v>
+        <v>2.23742</v>
       </c>
       <c r="C88" t="n">
-        <v>1.08402</v>
+        <v>1.50779</v>
       </c>
       <c r="D88" t="n">
-        <v>0.736577</v>
+        <v>1.35374</v>
       </c>
     </row>
     <row r="89">
@@ -12282,13 +12282,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.80131</v>
+        <v>2.36794</v>
       </c>
       <c r="C89" t="n">
-        <v>1.11387</v>
+        <v>1.57843</v>
       </c>
       <c r="D89" t="n">
-        <v>0.75654</v>
+        <v>1.41326</v>
       </c>
     </row>
     <row r="90">
@@ -12296,13 +12296,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.92313</v>
+        <v>2.48957</v>
       </c>
       <c r="C90" t="n">
-        <v>1.12039</v>
+        <v>1.65818</v>
       </c>
       <c r="D90" t="n">
-        <v>0.742086</v>
+        <v>1.475</v>
       </c>
     </row>
     <row r="91">
@@ -12310,13 +12310,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.96811</v>
+        <v>2.62168</v>
       </c>
       <c r="C91" t="n">
-        <v>1.2406</v>
+        <v>1.73915</v>
       </c>
       <c r="D91" t="n">
-        <v>0.769505</v>
+        <v>1.5345</v>
       </c>
     </row>
     <row r="92">
@@ -12324,13 +12324,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>2.01129</v>
+        <v>2.76309</v>
       </c>
       <c r="C92" t="n">
-        <v>1.26824</v>
+        <v>1.82453</v>
       </c>
       <c r="D92" t="n">
-        <v>0.8082240000000001</v>
+        <v>1.58963</v>
       </c>
     </row>
     <row r="93">
@@ -12338,13 +12338,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>2.01357</v>
+        <v>2.89363</v>
       </c>
       <c r="C93" t="n">
-        <v>1.22048</v>
+        <v>1.9103</v>
       </c>
       <c r="D93" t="n">
-        <v>0.798163</v>
+        <v>1.64499</v>
       </c>
     </row>
     <row r="94">
@@ -12352,13 +12352,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>2.21052</v>
+        <v>3.00862</v>
       </c>
       <c r="C94" t="n">
-        <v>1.26502</v>
+        <v>1.998</v>
       </c>
       <c r="D94" t="n">
-        <v>0.902277</v>
+        <v>1.69525</v>
       </c>
     </row>
     <row r="95">
@@ -12366,13 +12366,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>2.17138</v>
+        <v>3.16377</v>
       </c>
       <c r="C95" t="n">
-        <v>1.27105</v>
+        <v>2.09122</v>
       </c>
       <c r="D95" t="n">
-        <v>0.820787</v>
+        <v>1.74565</v>
       </c>
     </row>
     <row r="96">
@@ -12380,13 +12380,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>2.36731</v>
+        <v>3.2937</v>
       </c>
       <c r="C96" t="n">
-        <v>1.35541</v>
+        <v>2.19131</v>
       </c>
       <c r="D96" t="n">
-        <v>0.842563</v>
+        <v>1.79344</v>
       </c>
     </row>
     <row r="97">
@@ -12394,13 +12394,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>2.3121</v>
+        <v>3.42821</v>
       </c>
       <c r="C97" t="n">
-        <v>1.19928</v>
+        <v>1.9347</v>
       </c>
       <c r="D97" t="n">
-        <v>0.848116</v>
+        <v>1.92073</v>
       </c>
     </row>
     <row r="98">
@@ -12408,13 +12408,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>2.30834</v>
+        <v>3.28406</v>
       </c>
       <c r="C98" t="n">
-        <v>1.17479</v>
+        <v>1.98591</v>
       </c>
       <c r="D98" t="n">
-        <v>0.90723</v>
+        <v>1.96672</v>
       </c>
     </row>
     <row r="99">
@@ -12422,13 +12422,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>2.34062</v>
+        <v>3.40493</v>
       </c>
       <c r="C99" t="n">
-        <v>1.1925</v>
+        <v>2.0515</v>
       </c>
       <c r="D99" t="n">
-        <v>0.908191</v>
+        <v>2.02967</v>
       </c>
     </row>
     <row r="100">
@@ -12436,13 +12436,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>2.34444</v>
+        <v>3.47537</v>
       </c>
       <c r="C100" t="n">
-        <v>1.28984</v>
+        <v>2.12166</v>
       </c>
       <c r="D100" t="n">
-        <v>0.944395</v>
+        <v>2.05369</v>
       </c>
     </row>
     <row r="101">
@@ -12450,13 +12450,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>2.47233</v>
+        <v>3.59894</v>
       </c>
       <c r="C101" t="n">
-        <v>1.39982</v>
+        <v>2.18617</v>
       </c>
       <c r="D101" t="n">
-        <v>1.04727</v>
+        <v>2.10969</v>
       </c>
     </row>
     <row r="102">
@@ -12464,13 +12464,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>2.6936</v>
+        <v>3.71085</v>
       </c>
       <c r="C102" t="n">
-        <v>1.38</v>
+        <v>2.25483</v>
       </c>
       <c r="D102" t="n">
-        <v>0.945647</v>
+        <v>2.12412</v>
       </c>
     </row>
     <row r="103">
@@ -12478,13 +12478,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>2.59195</v>
+        <v>3.81758</v>
       </c>
       <c r="C103" t="n">
-        <v>1.45171</v>
+        <v>2.32732</v>
       </c>
       <c r="D103" t="n">
-        <v>1.83449</v>
+        <v>2.16776</v>
       </c>
     </row>
     <row r="104">
@@ -12492,13 +12492,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>4.12678</v>
+        <v>3.93711</v>
       </c>
       <c r="C104" t="n">
-        <v>2.50465</v>
+        <v>2.40036</v>
       </c>
       <c r="D104" t="n">
-        <v>2.31088</v>
+        <v>2.19119</v>
       </c>
     </row>
     <row r="105">
@@ -12506,13 +12506,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>4.12132</v>
+        <v>4.00723</v>
       </c>
       <c r="C105" t="n">
-        <v>2.47968</v>
+        <v>2.46766</v>
       </c>
       <c r="D105" t="n">
-        <v>2.26094</v>
+        <v>2.24624</v>
       </c>
     </row>
     <row r="106">
@@ -12520,13 +12520,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>4.12233</v>
+        <v>4.10475</v>
       </c>
       <c r="C106" t="n">
-        <v>2.71329</v>
+        <v>2.56414</v>
       </c>
       <c r="D106" t="n">
-        <v>2.20225</v>
+        <v>2.2682</v>
       </c>
     </row>
     <row r="107">
@@ -12534,13 +12534,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>4.13615</v>
+        <v>4.21454</v>
       </c>
       <c r="C107" t="n">
-        <v>2.46399</v>
+        <v>2.61861</v>
       </c>
       <c r="D107" t="n">
-        <v>2.16967</v>
+        <v>2.29861</v>
       </c>
     </row>
     <row r="108">
@@ -12548,13 +12548,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>4.37177</v>
+        <v>4.31332</v>
       </c>
       <c r="C108" t="n">
-        <v>2.79068</v>
+        <v>2.70745</v>
       </c>
       <c r="D108" t="n">
-        <v>2.35165</v>
+        <v>2.30973</v>
       </c>
     </row>
     <row r="109">
@@ -12562,13 +12562,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>4.51154</v>
+        <v>4.43932</v>
       </c>
       <c r="C109" t="n">
-        <v>2.84919</v>
+        <v>2.80437</v>
       </c>
       <c r="D109" t="n">
-        <v>2.35666</v>
+        <v>2.35334</v>
       </c>
     </row>
     <row r="110">
@@ -12576,13 +12576,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>4.89177</v>
+        <v>4.56041</v>
       </c>
       <c r="C110" t="n">
-        <v>2.98489</v>
+        <v>2.89194</v>
       </c>
       <c r="D110" t="n">
-        <v>2.36464</v>
+        <v>2.36329</v>
       </c>
     </row>
     <row r="111">
@@ -12590,13 +12590,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>4.83625</v>
+        <v>4.65218</v>
       </c>
       <c r="C111" t="n">
-        <v>2.42286</v>
+        <v>2.46671</v>
       </c>
       <c r="D111" t="n">
-        <v>2.53024</v>
+        <v>2.47149</v>
       </c>
     </row>
     <row r="112">
@@ -12604,13 +12604,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>4.28057</v>
+        <v>4.28733</v>
       </c>
       <c r="C112" t="n">
-        <v>2.51604</v>
+        <v>2.53219</v>
       </c>
       <c r="D112" t="n">
-        <v>2.55854</v>
+        <v>2.48346</v>
       </c>
     </row>
     <row r="113">
@@ -12618,13 +12618,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>4.40135</v>
+        <v>4.37576</v>
       </c>
       <c r="C113" t="n">
-        <v>2.52718</v>
+        <v>2.59721</v>
       </c>
       <c r="D113" t="n">
-        <v>2.42659</v>
+        <v>2.51095</v>
       </c>
     </row>
     <row r="114">
@@ -12632,13 +12632,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>3.6458</v>
+        <v>4.45922</v>
       </c>
       <c r="C114" t="n">
-        <v>1.72213</v>
+        <v>2.64017</v>
       </c>
       <c r="D114" t="n">
-        <v>1.45607</v>
+        <v>2.53247</v>
       </c>
     </row>
     <row r="115">
@@ -12646,13 +12646,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>3.40891</v>
+        <v>4.54989</v>
       </c>
       <c r="C115" t="n">
-        <v>1.78351</v>
+        <v>2.7211</v>
       </c>
       <c r="D115" t="n">
-        <v>1.43909</v>
+        <v>2.57004</v>
       </c>
     </row>
     <row r="116">
@@ -12660,13 +12660,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>3.6976</v>
+        <v>4.64933</v>
       </c>
       <c r="C116" t="n">
-        <v>2.74284</v>
+        <v>2.77369</v>
       </c>
       <c r="D116" t="n">
-        <v>2.54804</v>
+        <v>2.58912</v>
       </c>
     </row>
     <row r="117">
@@ -12674,13 +12674,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>4.77712</v>
+        <v>4.72492</v>
       </c>
       <c r="C117" t="n">
-        <v>2.6045</v>
+        <v>2.82886</v>
       </c>
       <c r="D117" t="n">
-        <v>2.59815</v>
+        <v>2.61547</v>
       </c>
     </row>
     <row r="118">
@@ -12688,13 +12688,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>5.02163</v>
+        <v>4.8098</v>
       </c>
       <c r="C118" t="n">
-        <v>2.87796</v>
+        <v>2.92124</v>
       </c>
       <c r="D118" t="n">
-        <v>2.75473</v>
+        <v>2.64414</v>
       </c>
     </row>
     <row r="119">
@@ -12702,13 +12702,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>5.17901</v>
+        <v>4.91298</v>
       </c>
       <c r="C119" t="n">
-        <v>3.23653</v>
+        <v>2.98662</v>
       </c>
       <c r="D119" t="n">
-        <v>2.83019</v>
+        <v>2.65666</v>
       </c>
     </row>
   </sheetData>

--- a/clang_libcpp/scattered erasure.xlsx
+++ b/clang_libcpp/scattered erasure.xlsx
@@ -7680,13 +7680,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.39541</v>
+        <v>0.400345</v>
       </c>
       <c r="C2" t="n">
-        <v>0.215726</v>
+        <v>0.327873</v>
       </c>
       <c r="D2" t="n">
-        <v>0.213437</v>
+        <v>0.224752</v>
       </c>
     </row>
     <row r="3">
@@ -7694,13 +7694,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.401609</v>
+        <v>0.403781</v>
       </c>
       <c r="C3" t="n">
-        <v>0.216634</v>
+        <v>0.330263</v>
       </c>
       <c r="D3" t="n">
-        <v>0.219873</v>
+        <v>0.229393</v>
       </c>
     </row>
     <row r="4">
@@ -7708,13 +7708,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.40834</v>
+        <v>0.410189</v>
       </c>
       <c r="C4" t="n">
-        <v>0.220537</v>
+        <v>0.334672</v>
       </c>
       <c r="D4" t="n">
-        <v>0.221915</v>
+        <v>0.235249</v>
       </c>
     </row>
     <row r="5">
@@ -7722,13 +7722,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.412896</v>
+        <v>0.417066</v>
       </c>
       <c r="C5" t="n">
-        <v>0.223485</v>
+        <v>0.337751</v>
       </c>
       <c r="D5" t="n">
-        <v>0.228865</v>
+        <v>0.236091</v>
       </c>
     </row>
     <row r="6">
@@ -7736,13 +7736,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.418157</v>
+        <v>0.415887</v>
       </c>
       <c r="C6" t="n">
-        <v>0.226488</v>
+        <v>0.341125</v>
       </c>
       <c r="D6" t="n">
-        <v>0.233157</v>
+        <v>0.244598</v>
       </c>
     </row>
     <row r="7">
@@ -7750,13 +7750,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.421897</v>
+        <v>0.425985</v>
       </c>
       <c r="C7" t="n">
-        <v>0.218715</v>
+        <v>0.340166</v>
       </c>
       <c r="D7" t="n">
-        <v>0.242558</v>
+        <v>0.246097</v>
       </c>
     </row>
     <row r="8">
@@ -7764,13 +7764,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.40382</v>
+        <v>0.401793</v>
       </c>
       <c r="C8" t="n">
-        <v>0.220012</v>
+        <v>0.341687</v>
       </c>
       <c r="D8" t="n">
-        <v>0.246053</v>
+        <v>0.251514</v>
       </c>
     </row>
     <row r="9">
@@ -7778,13 +7778,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.407911</v>
+        <v>0.408183</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2216</v>
+        <v>0.344368</v>
       </c>
       <c r="D9" t="n">
-        <v>0.251385</v>
+        <v>0.256192</v>
       </c>
     </row>
     <row r="10">
@@ -7792,13 +7792,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.416106</v>
+        <v>0.413622</v>
       </c>
       <c r="C10" t="n">
-        <v>0.223518</v>
+        <v>0.346069</v>
       </c>
       <c r="D10" t="n">
-        <v>0.258026</v>
+        <v>0.260723</v>
       </c>
     </row>
     <row r="11">
@@ -7806,13 +7806,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.422604</v>
+        <v>0.419089</v>
       </c>
       <c r="C11" t="n">
-        <v>0.224963</v>
+        <v>0.34827</v>
       </c>
       <c r="D11" t="n">
-        <v>0.261565</v>
+        <v>0.265707</v>
       </c>
     </row>
     <row r="12">
@@ -7820,13 +7820,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.427144</v>
+        <v>0.424209</v>
       </c>
       <c r="C12" t="n">
-        <v>0.226796</v>
+        <v>0.349832</v>
       </c>
       <c r="D12" t="n">
-        <v>0.267815</v>
+        <v>0.268452</v>
       </c>
     </row>
     <row r="13">
@@ -7834,13 +7834,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.434027</v>
+        <v>0.427762</v>
       </c>
       <c r="C13" t="n">
-        <v>0.228745</v>
+        <v>0.351135</v>
       </c>
       <c r="D13" t="n">
-        <v>0.271323</v>
+        <v>0.273397</v>
       </c>
     </row>
     <row r="14">
@@ -7848,13 +7848,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.440015</v>
+        <v>0.436874</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2306</v>
+        <v>0.353705</v>
       </c>
       <c r="D14" t="n">
-        <v>0.275825</v>
+        <v>0.279389</v>
       </c>
     </row>
     <row r="15">
@@ -7862,13 +7862,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.4449</v>
+        <v>0.442583</v>
       </c>
       <c r="C15" t="n">
-        <v>0.233184</v>
+        <v>0.356678</v>
       </c>
       <c r="D15" t="n">
-        <v>0.281658</v>
+        <v>0.284842</v>
       </c>
     </row>
     <row r="16">
@@ -7876,13 +7876,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.45207</v>
+        <v>0.448578</v>
       </c>
       <c r="C16" t="n">
-        <v>0.235929</v>
+        <v>0.359515</v>
       </c>
       <c r="D16" t="n">
-        <v>0.287156</v>
+        <v>0.288594</v>
       </c>
     </row>
     <row r="17">
@@ -7890,13 +7890,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.459115</v>
+        <v>0.454155</v>
       </c>
       <c r="C17" t="n">
-        <v>0.23735</v>
+        <v>0.361482</v>
       </c>
       <c r="D17" t="n">
-        <v>0.290689</v>
+        <v>0.293245</v>
       </c>
     </row>
     <row r="18">
@@ -7904,13 +7904,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.462091</v>
+        <v>0.460402</v>
       </c>
       <c r="C18" t="n">
-        <v>0.240483</v>
+        <v>0.364085</v>
       </c>
       <c r="D18" t="n">
-        <v>0.295839</v>
+        <v>0.297667</v>
       </c>
     </row>
     <row r="19">
@@ -7918,13 +7918,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.467392</v>
+        <v>0.464365</v>
       </c>
       <c r="C19" t="n">
-        <v>0.242704</v>
+        <v>0.365937</v>
       </c>
       <c r="D19" t="n">
-        <v>0.300028</v>
+        <v>0.301278</v>
       </c>
     </row>
     <row r="20">
@@ -7932,13 +7932,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.475518</v>
+        <v>0.471205</v>
       </c>
       <c r="C20" t="n">
-        <v>0.245672</v>
+        <v>0.370123</v>
       </c>
       <c r="D20" t="n">
-        <v>0.304403</v>
+        <v>0.305042</v>
       </c>
     </row>
     <row r="21">
@@ -7946,13 +7946,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.480649</v>
+        <v>0.475432</v>
       </c>
       <c r="C21" t="n">
-        <v>0.233296</v>
+        <v>0.365865</v>
       </c>
       <c r="D21" t="n">
-        <v>0.305171</v>
+        <v>0.305962</v>
       </c>
     </row>
     <row r="22">
@@ -7960,13 +7960,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.463173</v>
+        <v>0.458092</v>
       </c>
       <c r="C22" t="n">
-        <v>0.234463</v>
+        <v>0.366997</v>
       </c>
       <c r="D22" t="n">
-        <v>0.308352</v>
+        <v>0.310005</v>
       </c>
     </row>
     <row r="23">
@@ -7974,13 +7974,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.46744</v>
+        <v>0.462533</v>
       </c>
       <c r="C23" t="n">
-        <v>0.235885</v>
+        <v>0.368396</v>
       </c>
       <c r="D23" t="n">
-        <v>0.31211</v>
+        <v>0.31252</v>
       </c>
     </row>
     <row r="24">
@@ -7988,13 +7988,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.471792</v>
+        <v>0.466762</v>
       </c>
       <c r="C24" t="n">
-        <v>0.23757</v>
+        <v>0.369563</v>
       </c>
       <c r="D24" t="n">
-        <v>0.314681</v>
+        <v>0.315335</v>
       </c>
     </row>
     <row r="25">
@@ -8002,13 +8002,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.475981</v>
+        <v>0.472034</v>
       </c>
       <c r="C25" t="n">
-        <v>0.239107</v>
+        <v>0.370654</v>
       </c>
       <c r="D25" t="n">
-        <v>0.317182</v>
+        <v>0.318323</v>
       </c>
     </row>
     <row r="26">
@@ -8016,13 +8016,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.480618</v>
+        <v>0.475488</v>
       </c>
       <c r="C26" t="n">
-        <v>0.241006</v>
+        <v>0.372162</v>
       </c>
       <c r="D26" t="n">
-        <v>0.321012</v>
+        <v>0.321383</v>
       </c>
     </row>
     <row r="27">
@@ -8030,13 +8030,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.484015</v>
+        <v>0.479337</v>
       </c>
       <c r="C27" t="n">
-        <v>0.242422</v>
+        <v>0.374405</v>
       </c>
       <c r="D27" t="n">
-        <v>0.324063</v>
+        <v>0.324006</v>
       </c>
     </row>
     <row r="28">
@@ -8044,13 +8044,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.489254</v>
+        <v>0.484608</v>
       </c>
       <c r="C28" t="n">
-        <v>0.244529</v>
+        <v>0.376599</v>
       </c>
       <c r="D28" t="n">
-        <v>0.32727</v>
+        <v>0.327321</v>
       </c>
     </row>
     <row r="29">
@@ -8058,13 +8058,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.492681</v>
+        <v>0.488203</v>
       </c>
       <c r="C29" t="n">
-        <v>0.246363</v>
+        <v>0.378439</v>
       </c>
       <c r="D29" t="n">
-        <v>0.329247</v>
+        <v>0.329101</v>
       </c>
     </row>
     <row r="30">
@@ -8072,13 +8072,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.49814</v>
+        <v>0.492816</v>
       </c>
       <c r="C30" t="n">
-        <v>0.249009</v>
+        <v>0.380971</v>
       </c>
       <c r="D30" t="n">
-        <v>0.331957</v>
+        <v>0.332614</v>
       </c>
     </row>
     <row r="31">
@@ -8086,13 +8086,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.5021949999999999</v>
+        <v>0.497671</v>
       </c>
       <c r="C31" t="n">
-        <v>0.252199</v>
+        <v>0.382167</v>
       </c>
       <c r="D31" t="n">
-        <v>0.335863</v>
+        <v>0.335548</v>
       </c>
     </row>
     <row r="32">
@@ -8100,13 +8100,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.507016</v>
+        <v>0.501907</v>
       </c>
       <c r="C32" t="n">
-        <v>0.25332</v>
+        <v>0.385084</v>
       </c>
       <c r="D32" t="n">
-        <v>0.337986</v>
+        <v>0.33764</v>
       </c>
     </row>
     <row r="33">
@@ -8114,13 +8114,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.51171</v>
+        <v>0.50675</v>
       </c>
       <c r="C33" t="n">
-        <v>0.256094</v>
+        <v>0.386976</v>
       </c>
       <c r="D33" t="n">
-        <v>0.341056</v>
+        <v>0.340715</v>
       </c>
     </row>
     <row r="34">
@@ -8128,13 +8128,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.517435</v>
+        <v>0.512085</v>
       </c>
       <c r="C34" t="n">
-        <v>0.257336</v>
+        <v>0.389318</v>
       </c>
       <c r="D34" t="n">
-        <v>0.343672</v>
+        <v>0.34338</v>
       </c>
     </row>
     <row r="35">
@@ -8142,13 +8142,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.520823</v>
+        <v>0.516879</v>
       </c>
       <c r="C35" t="n">
-        <v>0.242851</v>
+        <v>0.379026</v>
       </c>
       <c r="D35" t="n">
-        <v>0.337605</v>
+        <v>0.339127</v>
       </c>
     </row>
     <row r="36">
@@ -8156,13 +8156,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.495056</v>
+        <v>0.490091</v>
       </c>
       <c r="C36" t="n">
-        <v>0.243784</v>
+        <v>0.380643</v>
       </c>
       <c r="D36" t="n">
-        <v>0.339263</v>
+        <v>0.340409</v>
       </c>
     </row>
     <row r="37">
@@ -8170,13 +8170,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.498576</v>
+        <v>0.492791</v>
       </c>
       <c r="C37" t="n">
-        <v>0.245521</v>
+        <v>0.382711</v>
       </c>
       <c r="D37" t="n">
-        <v>0.339912</v>
+        <v>0.342082</v>
       </c>
     </row>
     <row r="38">
@@ -8184,13 +8184,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.500748</v>
+        <v>0.494881</v>
       </c>
       <c r="C38" t="n">
-        <v>0.247402</v>
+        <v>0.382923</v>
       </c>
       <c r="D38" t="n">
-        <v>0.342752</v>
+        <v>0.343298</v>
       </c>
     </row>
     <row r="39">
@@ -8198,13 +8198,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.503627</v>
+        <v>0.498662</v>
       </c>
       <c r="C39" t="n">
-        <v>0.248222</v>
+        <v>0.384433</v>
       </c>
       <c r="D39" t="n">
-        <v>0.344537</v>
+        <v>0.345021</v>
       </c>
     </row>
     <row r="40">
@@ -8212,13 +8212,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.508029</v>
+        <v>0.501156</v>
       </c>
       <c r="C40" t="n">
-        <v>0.249978</v>
+        <v>0.385503</v>
       </c>
       <c r="D40" t="n">
-        <v>0.345943</v>
+        <v>0.346611</v>
       </c>
     </row>
     <row r="41">
@@ -8226,13 +8226,13 @@
         <v>66357</v>
       </c>
       <c r="B41" t="n">
-        <v>0.510085</v>
+        <v>0.504226</v>
       </c>
       <c r="C41" t="n">
-        <v>0.252654</v>
+        <v>0.385921</v>
       </c>
       <c r="D41" t="n">
-        <v>0.348275</v>
+        <v>0.347744</v>
       </c>
     </row>
     <row r="42">
@@ -8240,13 +8240,13 @@
         <v>69656</v>
       </c>
       <c r="B42" t="n">
-        <v>0.513829</v>
+        <v>0.507198</v>
       </c>
       <c r="C42" t="n">
-        <v>0.254536</v>
+        <v>0.387204</v>
       </c>
       <c r="D42" t="n">
-        <v>0.35045</v>
+        <v>0.349407</v>
       </c>
     </row>
     <row r="43">
@@ -8254,13 +8254,13 @@
         <v>73119</v>
       </c>
       <c r="B43" t="n">
-        <v>0.519209</v>
+        <v>0.512514</v>
       </c>
       <c r="C43" t="n">
-        <v>0.254376</v>
+        <v>0.389347</v>
       </c>
       <c r="D43" t="n">
-        <v>0.352199</v>
+        <v>0.352188</v>
       </c>
     </row>
     <row r="44">
@@ -8268,13 +8268,13 @@
         <v>76755</v>
       </c>
       <c r="B44" t="n">
-        <v>0.520658</v>
+        <v>0.514967</v>
       </c>
       <c r="C44" t="n">
-        <v>0.257168</v>
+        <v>0.392396</v>
       </c>
       <c r="D44" t="n">
-        <v>0.354533</v>
+        <v>0.354026</v>
       </c>
     </row>
     <row r="45">
@@ -8282,13 +8282,13 @@
         <v>80572</v>
       </c>
       <c r="B45" t="n">
-        <v>0.524628</v>
+        <v>0.5192020000000001</v>
       </c>
       <c r="C45" t="n">
-        <v>0.259257</v>
+        <v>0.394085</v>
       </c>
       <c r="D45" t="n">
-        <v>0.356348</v>
+        <v>0.356199</v>
       </c>
     </row>
     <row r="46">
@@ -8296,13 +8296,13 @@
         <v>84579</v>
       </c>
       <c r="B46" t="n">
-        <v>0.5295570000000001</v>
+        <v>0.522485</v>
       </c>
       <c r="C46" t="n">
-        <v>0.262871</v>
+        <v>0.396262</v>
       </c>
       <c r="D46" t="n">
-        <v>0.358743</v>
+        <v>0.358891</v>
       </c>
     </row>
     <row r="47">
@@ -8310,13 +8310,13 @@
         <v>88786</v>
       </c>
       <c r="B47" t="n">
-        <v>0.533605</v>
+        <v>0.527745</v>
       </c>
       <c r="C47" t="n">
-        <v>0.265559</v>
+        <v>0.398048</v>
       </c>
       <c r="D47" t="n">
-        <v>0.360136</v>
+        <v>0.361076</v>
       </c>
     </row>
     <row r="48">
@@ -8324,13 +8324,13 @@
         <v>93203</v>
       </c>
       <c r="B48" t="n">
-        <v>0.537922</v>
+        <v>0.531562</v>
       </c>
       <c r="C48" t="n">
-        <v>0.267815</v>
+        <v>0.40098</v>
       </c>
       <c r="D48" t="n">
-        <v>0.363168</v>
+        <v>0.362722</v>
       </c>
     </row>
     <row r="49">
@@ -8338,13 +8338,13 @@
         <v>97840</v>
       </c>
       <c r="B49" t="n">
-        <v>0.5419040000000001</v>
+        <v>0.535903</v>
       </c>
       <c r="C49" t="n">
-        <v>0.270582</v>
+        <v>0.40372</v>
       </c>
       <c r="D49" t="n">
-        <v>0.365275</v>
+        <v>0.364302</v>
       </c>
     </row>
     <row r="50">
@@ -8352,13 +8352,13 @@
         <v>102706</v>
       </c>
       <c r="B50" t="n">
-        <v>0.546629</v>
+        <v>0.540839</v>
       </c>
       <c r="C50" t="n">
-        <v>0.258599</v>
+        <v>0.391548</v>
       </c>
       <c r="D50" t="n">
-        <v>0.355687</v>
+        <v>0.355883</v>
       </c>
     </row>
     <row r="51">
@@ -8366,13 +8366,13 @@
         <v>107816</v>
       </c>
       <c r="B51" t="n">
-        <v>0.516465</v>
+        <v>0.509369</v>
       </c>
       <c r="C51" t="n">
-        <v>0.259969</v>
+        <v>0.392367</v>
       </c>
       <c r="D51" t="n">
-        <v>0.356959</v>
+        <v>0.356846</v>
       </c>
     </row>
     <row r="52">
@@ -8380,13 +8380,13 @@
         <v>113182</v>
       </c>
       <c r="B52" t="n">
-        <v>0.519814</v>
+        <v>0.51235</v>
       </c>
       <c r="C52" t="n">
-        <v>0.258113</v>
+        <v>0.393649</v>
       </c>
       <c r="D52" t="n">
-        <v>0.357515</v>
+        <v>0.357442</v>
       </c>
     </row>
     <row r="53">
@@ -8394,13 +8394,13 @@
         <v>118816</v>
       </c>
       <c r="B53" t="n">
-        <v>0.521046</v>
+        <v>0.513771</v>
       </c>
       <c r="C53" t="n">
-        <v>0.25964</v>
+        <v>0.394937</v>
       </c>
       <c r="D53" t="n">
-        <v>0.35909</v>
+        <v>0.359244</v>
       </c>
     </row>
     <row r="54">
@@ -8408,13 +8408,13 @@
         <v>124731</v>
       </c>
       <c r="B54" t="n">
-        <v>0.5243679999999999</v>
+        <v>0.516177</v>
       </c>
       <c r="C54" t="n">
-        <v>0.264631</v>
+        <v>0.399653</v>
       </c>
       <c r="D54" t="n">
-        <v>0.360453</v>
+        <v>0.360345</v>
       </c>
     </row>
     <row r="55">
@@ -8422,13 +8422,13 @@
         <v>130941</v>
       </c>
       <c r="B55" t="n">
-        <v>0.526325</v>
+        <v>0.519167</v>
       </c>
       <c r="C55" t="n">
-        <v>0.263071</v>
+        <v>0.406375</v>
       </c>
       <c r="D55" t="n">
-        <v>0.362124</v>
+        <v>0.362395</v>
       </c>
     </row>
     <row r="56">
@@ -8436,13 +8436,13 @@
         <v>137461</v>
       </c>
       <c r="B56" t="n">
-        <v>0.529303</v>
+        <v>0.5218699999999999</v>
       </c>
       <c r="C56" t="n">
-        <v>0.265064</v>
+        <v>0.409269</v>
       </c>
       <c r="D56" t="n">
-        <v>0.363438</v>
+        <v>0.364309</v>
       </c>
     </row>
     <row r="57">
@@ -8450,13 +8450,13 @@
         <v>144307</v>
       </c>
       <c r="B57" t="n">
-        <v>0.532125</v>
+        <v>0.525165</v>
       </c>
       <c r="C57" t="n">
-        <v>0.270638</v>
+        <v>0.413612</v>
       </c>
       <c r="D57" t="n">
-        <v>0.365716</v>
+        <v>0.365143</v>
       </c>
     </row>
     <row r="58">
@@ -8464,13 +8464,13 @@
         <v>151495</v>
       </c>
       <c r="B58" t="n">
-        <v>0.535458</v>
+        <v>0.529024</v>
       </c>
       <c r="C58" t="n">
-        <v>0.272417</v>
+        <v>0.418082</v>
       </c>
       <c r="D58" t="n">
-        <v>0.367968</v>
+        <v>0.367237</v>
       </c>
     </row>
     <row r="59">
@@ -8478,13 +8478,13 @@
         <v>159042</v>
       </c>
       <c r="B59" t="n">
-        <v>0.538516</v>
+        <v>0.533509</v>
       </c>
       <c r="C59" t="n">
-        <v>0.277982</v>
+        <v>0.426384</v>
       </c>
       <c r="D59" t="n">
-        <v>0.369147</v>
+        <v>0.369596</v>
       </c>
     </row>
     <row r="60">
@@ -8492,13 +8492,13 @@
         <v>166965</v>
       </c>
       <c r="B60" t="n">
-        <v>0.54234</v>
+        <v>0.538028</v>
       </c>
       <c r="C60" t="n">
-        <v>0.278755</v>
+        <v>0.431976</v>
       </c>
       <c r="D60" t="n">
-        <v>0.371274</v>
+        <v>0.371992</v>
       </c>
     </row>
     <row r="61">
@@ -8506,13 +8506,13 @@
         <v>175284</v>
       </c>
       <c r="B61" t="n">
-        <v>0.546798</v>
+        <v>0.544744</v>
       </c>
       <c r="C61" t="n">
-        <v>0.284301</v>
+        <v>0.445751</v>
       </c>
       <c r="D61" t="n">
-        <v>0.374205</v>
+        <v>0.376176</v>
       </c>
     </row>
     <row r="62">
@@ -8520,13 +8520,13 @@
         <v>184019</v>
       </c>
       <c r="B62" t="n">
-        <v>0.55124</v>
+        <v>0.552155</v>
       </c>
       <c r="C62" t="n">
-        <v>0.300065</v>
+        <v>0.459495</v>
       </c>
       <c r="D62" t="n">
-        <v>0.376378</v>
+        <v>0.380259</v>
       </c>
     </row>
     <row r="63">
@@ -8534,13 +8534,13 @@
         <v>193190</v>
       </c>
       <c r="B63" t="n">
-        <v>0.56133</v>
+        <v>0.560688</v>
       </c>
       <c r="C63" t="n">
-        <v>0.311105</v>
+        <v>0.480684</v>
       </c>
       <c r="D63" t="n">
-        <v>0.385415</v>
+        <v>0.385044</v>
       </c>
     </row>
     <row r="64">
@@ -8548,13 +8548,13 @@
         <v>202820</v>
       </c>
       <c r="B64" t="n">
-        <v>0.568603</v>
+        <v>0.570369</v>
       </c>
       <c r="C64" t="n">
-        <v>0.361409</v>
+        <v>0.5774550000000001</v>
       </c>
       <c r="D64" t="n">
-        <v>0.409173</v>
+        <v>0.425505</v>
       </c>
     </row>
     <row r="65">
@@ -8562,13 +8562,13 @@
         <v>212931</v>
       </c>
       <c r="B65" t="n">
-        <v>0.589485</v>
+        <v>0.60627</v>
       </c>
       <c r="C65" t="n">
-        <v>0.372483</v>
+        <v>0.595625</v>
       </c>
       <c r="D65" t="n">
-        <v>0.41723</v>
+        <v>0.420891</v>
       </c>
     </row>
     <row r="66">
@@ -8576,13 +8576,13 @@
         <v>223547</v>
       </c>
       <c r="B66" t="n">
-        <v>0.605278</v>
+        <v>0.60094</v>
       </c>
       <c r="C66" t="n">
-        <v>0.397353</v>
+        <v>0.621573</v>
       </c>
       <c r="D66" t="n">
-        <v>0.435175</v>
+        <v>0.448321</v>
       </c>
     </row>
     <row r="67">
@@ -8590,13 +8590,13 @@
         <v>234692</v>
       </c>
       <c r="B67" t="n">
-        <v>0.628949</v>
+        <v>0.633572</v>
       </c>
       <c r="C67" t="n">
-        <v>0.418481</v>
+        <v>0.645163</v>
       </c>
       <c r="D67" t="n">
-        <v>0.452039</v>
+        <v>0.455427</v>
       </c>
     </row>
     <row r="68">
@@ -8604,13 +8604,13 @@
         <v>246395</v>
       </c>
       <c r="B68" t="n">
-        <v>0.655988</v>
+        <v>0.653389</v>
       </c>
       <c r="C68" t="n">
-        <v>0.438486</v>
+        <v>0.670564</v>
       </c>
       <c r="D68" t="n">
-        <v>0.444032</v>
+        <v>0.465398</v>
       </c>
     </row>
     <row r="69">
@@ -8618,13 +8618,13 @@
         <v>258683</v>
       </c>
       <c r="B69" t="n">
-        <v>0.646487</v>
+        <v>0.664318</v>
       </c>
       <c r="C69" t="n">
-        <v>0.465451</v>
+        <v>0.6939920000000001</v>
       </c>
       <c r="D69" t="n">
-        <v>0.470104</v>
+        <v>0.482104</v>
       </c>
     </row>
     <row r="70">
@@ -8632,13 +8632,13 @@
         <v>271585</v>
       </c>
       <c r="B70" t="n">
-        <v>0.681836</v>
+        <v>0.691818</v>
       </c>
       <c r="C70" t="n">
-        <v>0.48592</v>
+        <v>0.724266</v>
       </c>
       <c r="D70" t="n">
-        <v>0.486487</v>
+        <v>0.501493</v>
       </c>
     </row>
     <row r="71">
@@ -8646,13 +8646,13 @@
         <v>285132</v>
       </c>
       <c r="B71" t="n">
-        <v>0.693724</v>
+        <v>0.7142579999999999</v>
       </c>
       <c r="C71" t="n">
-        <v>0.505145</v>
+        <v>0.748929</v>
       </c>
       <c r="D71" t="n">
-        <v>0.494786</v>
+        <v>0.523988</v>
       </c>
     </row>
     <row r="72">
@@ -8660,13 +8660,13 @@
         <v>299354</v>
       </c>
       <c r="B72" t="n">
-        <v>0.720129</v>
+        <v>0.752756</v>
       </c>
       <c r="C72" t="n">
-        <v>0.532432</v>
+        <v>0.781926</v>
       </c>
       <c r="D72" t="n">
-        <v>0.516747</v>
+        <v>0.550906</v>
       </c>
     </row>
     <row r="73">
@@ -8674,13 +8674,13 @@
         <v>314289</v>
       </c>
       <c r="B73" t="n">
-        <v>0.76542</v>
+        <v>0.7870470000000001</v>
       </c>
       <c r="C73" t="n">
-        <v>0.561662</v>
+        <v>0.81238</v>
       </c>
       <c r="D73" t="n">
-        <v>0.564293</v>
+        <v>0.5785090000000001</v>
       </c>
     </row>
     <row r="74">
@@ -8688,13 +8688,13 @@
         <v>329969</v>
       </c>
       <c r="B74" t="n">
-        <v>0.790432</v>
+        <v>0.8255209999999999</v>
       </c>
       <c r="C74" t="n">
-        <v>0.584403</v>
+        <v>0.837448</v>
       </c>
       <c r="D74" t="n">
-        <v>0.570457</v>
+        <v>0.591483</v>
       </c>
     </row>
     <row r="75">
@@ -8702,13 +8702,13 @@
         <v>346432</v>
       </c>
       <c r="B75" t="n">
-        <v>0.826233</v>
+        <v>0.834943</v>
       </c>
       <c r="C75" t="n">
-        <v>0.605542</v>
+        <v>0.85769</v>
       </c>
       <c r="D75" t="n">
-        <v>0.599047</v>
+        <v>0.623674</v>
       </c>
     </row>
     <row r="76">
@@ -8716,13 +8716,13 @@
         <v>363719</v>
       </c>
       <c r="B76" t="n">
-        <v>0.869214</v>
+        <v>0.889033</v>
       </c>
       <c r="C76" t="n">
-        <v>0.62448</v>
+        <v>0.884004</v>
       </c>
       <c r="D76" t="n">
-        <v>0.645817</v>
+        <v>0.654748</v>
       </c>
     </row>
     <row r="77">
@@ -8730,13 +8730,13 @@
         <v>381870</v>
       </c>
       <c r="B77" t="n">
-        <v>0.934113</v>
+        <v>0.92919</v>
       </c>
       <c r="C77" t="n">
-        <v>0.654784</v>
+        <v>0.908871</v>
       </c>
       <c r="D77" t="n">
-        <v>0.682221</v>
+        <v>0.688565</v>
       </c>
     </row>
     <row r="78">
@@ -8744,13 +8744,13 @@
         <v>400928</v>
       </c>
       <c r="B78" t="n">
-        <v>0.9685319999999999</v>
+        <v>0.978947</v>
       </c>
       <c r="C78" t="n">
-        <v>0.79328</v>
+        <v>1.10081</v>
       </c>
       <c r="D78" t="n">
-        <v>0.9591460000000001</v>
+        <v>0.965087</v>
       </c>
     </row>
     <row r="79">
@@ -8758,13 +8758,13 @@
         <v>420937</v>
       </c>
       <c r="B79" t="n">
-        <v>1.34747</v>
+        <v>1.32393</v>
       </c>
       <c r="C79" t="n">
-        <v>0.806149</v>
+        <v>1.1192</v>
       </c>
       <c r="D79" t="n">
-        <v>1.02735</v>
+        <v>1.0074</v>
       </c>
     </row>
     <row r="80">
@@ -8772,13 +8772,13 @@
         <v>441947</v>
       </c>
       <c r="B80" t="n">
-        <v>1.42794</v>
+        <v>1.37734</v>
       </c>
       <c r="C80" t="n">
-        <v>0.82195</v>
+        <v>1.14027</v>
       </c>
       <c r="D80" t="n">
-        <v>1.06158</v>
+        <v>1.04117</v>
       </c>
     </row>
     <row r="81">
@@ -8786,13 +8786,13 @@
         <v>464005</v>
       </c>
       <c r="B81" t="n">
-        <v>1.46951</v>
+        <v>1.41301</v>
       </c>
       <c r="C81" t="n">
-        <v>0.833898</v>
+        <v>1.15885</v>
       </c>
       <c r="D81" t="n">
-        <v>1.11825</v>
+        <v>1.09837</v>
       </c>
     </row>
     <row r="82">
@@ -8800,13 +8800,13 @@
         <v>487165</v>
       </c>
       <c r="B82" t="n">
-        <v>1.55231</v>
+        <v>1.48551</v>
       </c>
       <c r="C82" t="n">
-        <v>0.851277</v>
+        <v>1.1783</v>
       </c>
       <c r="D82" t="n">
-        <v>1.15819</v>
+        <v>1.14517</v>
       </c>
     </row>
     <row r="83">
@@ -8814,13 +8814,13 @@
         <v>511485</v>
       </c>
       <c r="B83" t="n">
-        <v>1.60202</v>
+        <v>1.54508</v>
       </c>
       <c r="C83" t="n">
-        <v>0.863054</v>
+        <v>1.19717</v>
       </c>
       <c r="D83" t="n">
-        <v>1.20864</v>
+        <v>1.18901</v>
       </c>
     </row>
     <row r="84">
@@ -8828,13 +8828,13 @@
         <v>537019</v>
       </c>
       <c r="B84" t="n">
-        <v>1.66715</v>
+        <v>1.60043</v>
       </c>
       <c r="C84" t="n">
-        <v>0.87623</v>
+        <v>1.2175</v>
       </c>
       <c r="D84" t="n">
-        <v>1.25771</v>
+        <v>1.23396</v>
       </c>
     </row>
     <row r="85">
@@ -8842,13 +8842,13 @@
         <v>563827</v>
       </c>
       <c r="B85" t="n">
-        <v>1.72961</v>
+        <v>1.66013</v>
       </c>
       <c r="C85" t="n">
-        <v>0.889312</v>
+        <v>1.23601</v>
       </c>
       <c r="D85" t="n">
-        <v>1.28827</v>
+        <v>1.27696</v>
       </c>
     </row>
     <row r="86">
@@ -8856,13 +8856,13 @@
         <v>591977</v>
       </c>
       <c r="B86" t="n">
-        <v>1.7744</v>
+        <v>1.70889</v>
       </c>
       <c r="C86" t="n">
-        <v>0.900502</v>
+        <v>1.25319</v>
       </c>
       <c r="D86" t="n">
-        <v>1.3343</v>
+        <v>1.3195</v>
       </c>
     </row>
     <row r="87">
@@ -8870,13 +8870,13 @@
         <v>621532</v>
       </c>
       <c r="B87" t="n">
-        <v>1.83994</v>
+        <v>1.76558</v>
       </c>
       <c r="C87" t="n">
-        <v>0.913465</v>
+        <v>1.27014</v>
       </c>
       <c r="D87" t="n">
-        <v>1.37674</v>
+        <v>1.36134</v>
       </c>
     </row>
     <row r="88">
@@ -8884,13 +8884,13 @@
         <v>652567</v>
       </c>
       <c r="B88" t="n">
-        <v>1.88885</v>
+        <v>1.81928</v>
       </c>
       <c r="C88" t="n">
-        <v>0.9268690000000001</v>
+        <v>1.28789</v>
       </c>
       <c r="D88" t="n">
-        <v>1.41725</v>
+        <v>1.40394</v>
       </c>
     </row>
     <row r="89">
@@ -8898,13 +8898,13 @@
         <v>685151</v>
       </c>
       <c r="B89" t="n">
-        <v>1.95255</v>
+        <v>1.87647</v>
       </c>
       <c r="C89" t="n">
-        <v>0.94267</v>
+        <v>1.30426</v>
       </c>
       <c r="D89" t="n">
-        <v>1.4571</v>
+        <v>1.44249</v>
       </c>
     </row>
     <row r="90">
@@ -8912,13 +8912,13 @@
         <v>719359</v>
       </c>
       <c r="B90" t="n">
-        <v>2.00357</v>
+        <v>1.92192</v>
       </c>
       <c r="C90" t="n">
-        <v>0.954202</v>
+        <v>1.322</v>
       </c>
       <c r="D90" t="n">
-        <v>1.49458</v>
+        <v>1.4817</v>
       </c>
     </row>
     <row r="91">
@@ -8926,13 +8926,13 @@
         <v>755280</v>
       </c>
       <c r="B91" t="n">
-        <v>2.05666</v>
+        <v>1.97448</v>
       </c>
       <c r="C91" t="n">
-        <v>0.967162</v>
+        <v>1.3376</v>
       </c>
       <c r="D91" t="n">
-        <v>1.52731</v>
+        <v>1.51598</v>
       </c>
     </row>
     <row r="92">
@@ -8940,13 +8940,13 @@
         <v>792997</v>
       </c>
       <c r="B92" t="n">
-        <v>2.10516</v>
+        <v>2.01825</v>
       </c>
       <c r="C92" t="n">
-        <v>1.03736</v>
+        <v>1.45376</v>
       </c>
       <c r="D92" t="n">
-        <v>1.75721</v>
+        <v>1.72115</v>
       </c>
     </row>
     <row r="93">
@@ -8954,13 +8954,13 @@
         <v>832595</v>
       </c>
       <c r="B93" t="n">
-        <v>2.39481</v>
+        <v>2.26803</v>
       </c>
       <c r="C93" t="n">
-        <v>1.04651</v>
+        <v>1.45776</v>
       </c>
       <c r="D93" t="n">
-        <v>1.77866</v>
+        <v>1.74589</v>
       </c>
     </row>
     <row r="94">
@@ -8968,13 +8968,13 @@
         <v>874177</v>
       </c>
       <c r="B94" t="n">
-        <v>2.42882</v>
+        <v>2.30435</v>
       </c>
       <c r="C94" t="n">
-        <v>1.05568</v>
+        <v>1.47072</v>
       </c>
       <c r="D94" t="n">
-        <v>1.79501</v>
+        <v>1.76814</v>
       </c>
     </row>
     <row r="95">
@@ -8982,13 +8982,13 @@
         <v>917832</v>
       </c>
       <c r="B95" t="n">
-        <v>2.44874</v>
+        <v>2.33079</v>
       </c>
       <c r="C95" t="n">
-        <v>1.06255</v>
+        <v>1.48071</v>
       </c>
       <c r="D95" t="n">
-        <v>1.80439</v>
+        <v>1.79196</v>
       </c>
     </row>
     <row r="96">
@@ -8996,13 +8996,13 @@
         <v>963677</v>
       </c>
       <c r="B96" t="n">
-        <v>2.48877</v>
+        <v>2.36729</v>
       </c>
       <c r="C96" t="n">
-        <v>1.07283</v>
+        <v>1.4892</v>
       </c>
       <c r="D96" t="n">
-        <v>1.84594</v>
+        <v>1.81341</v>
       </c>
     </row>
     <row r="97">
@@ -9010,13 +9010,13 @@
         <v>1011813</v>
       </c>
       <c r="B97" t="n">
-        <v>2.52188</v>
+        <v>2.39691</v>
       </c>
       <c r="C97" t="n">
-        <v>1.08117</v>
+        <v>1.49891</v>
       </c>
       <c r="D97" t="n">
-        <v>1.8679</v>
+        <v>1.83338</v>
       </c>
     </row>
     <row r="98">
@@ -9024,13 +9024,13 @@
         <v>1062351</v>
       </c>
       <c r="B98" t="n">
-        <v>2.55583</v>
+        <v>2.42004</v>
       </c>
       <c r="C98" t="n">
-        <v>1.09426</v>
+        <v>1.50937</v>
       </c>
       <c r="D98" t="n">
-        <v>1.87809</v>
+        <v>1.85302</v>
       </c>
     </row>
     <row r="99">
@@ -9038,13 +9038,13 @@
         <v>1115422</v>
       </c>
       <c r="B99" t="n">
-        <v>2.58361</v>
+        <v>2.45138</v>
       </c>
       <c r="C99" t="n">
-        <v>1.09893</v>
+        <v>1.52139</v>
       </c>
       <c r="D99" t="n">
-        <v>1.89504</v>
+        <v>1.8769</v>
       </c>
     </row>
     <row r="100">
@@ -9052,13 +9052,13 @@
         <v>1171143</v>
       </c>
       <c r="B100" t="n">
-        <v>2.61054</v>
+        <v>2.48162</v>
       </c>
       <c r="C100" t="n">
-        <v>1.10705</v>
+        <v>1.53077</v>
       </c>
       <c r="D100" t="n">
-        <v>1.92063</v>
+        <v>1.8953</v>
       </c>
     </row>
     <row r="101">
@@ -9066,13 +9066,13 @@
         <v>1229634</v>
       </c>
       <c r="B101" t="n">
-        <v>2.64011</v>
+        <v>2.51497</v>
       </c>
       <c r="C101" t="n">
-        <v>1.11687</v>
+        <v>1.54053</v>
       </c>
       <c r="D101" t="n">
-        <v>1.92925</v>
+        <v>1.9111</v>
       </c>
     </row>
     <row r="102">
@@ -9080,13 +9080,13 @@
         <v>1291062</v>
       </c>
       <c r="B102" t="n">
-        <v>2.67059</v>
+        <v>2.53998</v>
       </c>
       <c r="C102" t="n">
-        <v>1.12809</v>
+        <v>1.55052</v>
       </c>
       <c r="D102" t="n">
-        <v>1.94692</v>
+        <v>1.93201</v>
       </c>
     </row>
     <row r="103">
@@ -9094,13 +9094,13 @@
         <v>1355554</v>
       </c>
       <c r="B103" t="n">
-        <v>2.69726</v>
+        <v>2.56673</v>
       </c>
       <c r="C103" t="n">
-        <v>1.14204</v>
+        <v>1.56095</v>
       </c>
       <c r="D103" t="n">
-        <v>1.97871</v>
+        <v>1.9496</v>
       </c>
     </row>
     <row r="104">
@@ -9108,13 +9108,13 @@
         <v>1423274</v>
       </c>
       <c r="B104" t="n">
-        <v>2.74076</v>
+        <v>2.59646</v>
       </c>
       <c r="C104" t="n">
-        <v>1.15553</v>
+        <v>1.5709</v>
       </c>
       <c r="D104" t="n">
-        <v>2.00109</v>
+        <v>1.96636</v>
       </c>
     </row>
     <row r="105">
@@ -9122,13 +9122,13 @@
         <v>1494380</v>
       </c>
       <c r="B105" t="n">
-        <v>2.76801</v>
+        <v>2.62166</v>
       </c>
       <c r="C105" t="n">
-        <v>1.16707</v>
+        <v>1.58102</v>
       </c>
       <c r="D105" t="n">
-        <v>2.02032</v>
+        <v>1.98326</v>
       </c>
     </row>
     <row r="106">
@@ -9136,13 +9136,13 @@
         <v>1569031</v>
       </c>
       <c r="B106" t="n">
-        <v>2.7947</v>
+        <v>2.64788</v>
       </c>
       <c r="C106" t="n">
-        <v>1.18095</v>
+        <v>1.59055</v>
       </c>
       <c r="D106" t="n">
-        <v>2.03042</v>
+        <v>1.99983</v>
       </c>
     </row>
     <row r="107">
@@ -9150,13 +9150,13 @@
         <v>1647417</v>
       </c>
       <c r="B107" t="n">
-        <v>2.91847</v>
+        <v>2.77054</v>
       </c>
       <c r="C107" t="n">
-        <v>1.17689</v>
+        <v>1.62954</v>
       </c>
       <c r="D107" t="n">
-        <v>2.1527</v>
+        <v>2.10704</v>
       </c>
     </row>
     <row r="108">
@@ -9164,13 +9164,13 @@
         <v>1729734</v>
       </c>
       <c r="B108" t="n">
-        <v>2.93292</v>
+        <v>2.78789</v>
       </c>
       <c r="C108" t="n">
-        <v>1.18601</v>
+        <v>1.63697</v>
       </c>
       <c r="D108" t="n">
-        <v>2.16637</v>
+        <v>2.12556</v>
       </c>
     </row>
     <row r="109">
@@ -9178,13 +9178,13 @@
         <v>1816153</v>
       </c>
       <c r="B109" t="n">
-        <v>2.93717</v>
+        <v>2.8035</v>
       </c>
       <c r="C109" t="n">
-        <v>1.18323</v>
+        <v>1.64268</v>
       </c>
       <c r="D109" t="n">
-        <v>2.15907</v>
+        <v>2.13247</v>
       </c>
     </row>
     <row r="110">
@@ -9192,13 +9192,13 @@
         <v>1906885</v>
       </c>
       <c r="B110" t="n">
-        <v>2.9705</v>
+        <v>2.8204</v>
       </c>
       <c r="C110" t="n">
-        <v>1.20202</v>
+        <v>1.65008</v>
       </c>
       <c r="D110" t="n">
-        <v>2.18546</v>
+        <v>2.14495</v>
       </c>
     </row>
     <row r="111">
@@ -9206,13 +9206,13 @@
         <v>2002164</v>
       </c>
       <c r="B111" t="n">
-        <v>2.99049</v>
+        <v>2.83683</v>
       </c>
       <c r="C111" t="n">
-        <v>1.20972</v>
+        <v>1.6557</v>
       </c>
       <c r="D111" t="n">
-        <v>2.19539</v>
+        <v>2.15436</v>
       </c>
     </row>
     <row r="112">
@@ -9220,13 +9220,13 @@
         <v>2102198</v>
       </c>
       <c r="B112" t="n">
-        <v>3.00024</v>
+        <v>2.85153</v>
       </c>
       <c r="C112" t="n">
-        <v>1.21625</v>
+        <v>1.66036</v>
       </c>
       <c r="D112" t="n">
-        <v>2.19947</v>
+        <v>2.14464</v>
       </c>
     </row>
     <row r="113">
@@ -9234,13 +9234,13 @@
         <v>2207233</v>
       </c>
       <c r="B113" t="n">
-        <v>3.00525</v>
+        <v>2.86685</v>
       </c>
       <c r="C113" t="n">
-        <v>1.21456</v>
+        <v>1.66613</v>
       </c>
       <c r="D113" t="n">
-        <v>2.20793</v>
+        <v>2.17131</v>
       </c>
     </row>
     <row r="114">
@@ -9248,13 +9248,13 @@
         <v>2317508</v>
       </c>
       <c r="B114" t="n">
-        <v>3.03808</v>
+        <v>2.8843</v>
       </c>
       <c r="C114" t="n">
-        <v>1.23558</v>
+        <v>1.67317</v>
       </c>
       <c r="D114" t="n">
-        <v>2.2141</v>
+        <v>2.17811</v>
       </c>
     </row>
     <row r="115">
@@ -9262,13 +9262,13 @@
         <v>2433290</v>
       </c>
       <c r="B115" t="n">
-        <v>3.06159</v>
+        <v>2.89925</v>
       </c>
       <c r="C115" t="n">
-        <v>1.24803</v>
+        <v>1.68174</v>
       </c>
       <c r="D115" t="n">
-        <v>2.22935</v>
+        <v>2.1854</v>
       </c>
     </row>
     <row r="116">
@@ -9276,13 +9276,13 @@
         <v>2554854</v>
       </c>
       <c r="B116" t="n">
-        <v>3.07586</v>
+        <v>2.90691</v>
       </c>
       <c r="C116" t="n">
-        <v>1.25804</v>
+        <v>1.68141</v>
       </c>
       <c r="D116" t="n">
-        <v>2.24076</v>
+        <v>2.19568</v>
       </c>
     </row>
     <row r="117">
@@ -9290,13 +9290,13 @@
         <v>2682511</v>
       </c>
       <c r="B117" t="n">
-        <v>3.09721</v>
+        <v>2.92756</v>
       </c>
       <c r="C117" t="n">
-        <v>1.27107</v>
+        <v>1.69607</v>
       </c>
       <c r="D117" t="n">
-        <v>2.2484</v>
+        <v>2.2046</v>
       </c>
     </row>
     <row r="118">
@@ -9304,13 +9304,13 @@
         <v>2816546</v>
       </c>
       <c r="B118" t="n">
-        <v>3.11319</v>
+        <v>2.94336</v>
       </c>
       <c r="C118" t="n">
-        <v>1.28154</v>
+        <v>1.70051</v>
       </c>
       <c r="D118" t="n">
-        <v>2.25623</v>
+        <v>2.20297</v>
       </c>
     </row>
     <row r="119">
@@ -9318,13 +9318,13 @@
         <v>2957287</v>
       </c>
       <c r="B119" t="n">
-        <v>3.14012</v>
+        <v>2.96681</v>
       </c>
       <c r="C119" t="n">
-        <v>1.29356</v>
+        <v>1.71086</v>
       </c>
       <c r="D119" t="n">
-        <v>2.2458</v>
+        <v>2.21796</v>
       </c>
     </row>
   </sheetData>
@@ -9372,13 +9372,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.562731</v>
+        <v>0.53181</v>
       </c>
       <c r="C2" t="n">
-        <v>0.358576</v>
+        <v>0.457699</v>
       </c>
       <c r="D2" t="n">
-        <v>0.34537</v>
+        <v>0.332097</v>
       </c>
     </row>
     <row r="3">
@@ -9386,13 +9386,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.565138</v>
+        <v>0.547412</v>
       </c>
       <c r="C3" t="n">
-        <v>0.36136</v>
+        <v>0.463918</v>
       </c>
       <c r="D3" t="n">
-        <v>0.35105</v>
+        <v>0.331301</v>
       </c>
     </row>
     <row r="4">
@@ -9400,13 +9400,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.574394</v>
+        <v>0.547609</v>
       </c>
       <c r="C4" t="n">
-        <v>0.367657</v>
+        <v>0.469852</v>
       </c>
       <c r="D4" t="n">
-        <v>0.353253</v>
+        <v>0.346732</v>
       </c>
     </row>
     <row r="5">
@@ -9414,13 +9414,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.580582</v>
+        <v>0.572645</v>
       </c>
       <c r="C5" t="n">
-        <v>0.373813</v>
+        <v>0.479806</v>
       </c>
       <c r="D5" t="n">
-        <v>0.358663</v>
+        <v>0.343868</v>
       </c>
     </row>
     <row r="6">
@@ -9428,13 +9428,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.588004</v>
+        <v>0.57039</v>
       </c>
       <c r="C6" t="n">
-        <v>0.378529</v>
+        <v>0.481621</v>
       </c>
       <c r="D6" t="n">
-        <v>0.364809</v>
+        <v>0.352193</v>
       </c>
     </row>
     <row r="7">
@@ -9442,13 +9442,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.590538</v>
+        <v>0.580294</v>
       </c>
       <c r="C7" t="n">
-        <v>0.390041</v>
+        <v>0.501862</v>
       </c>
       <c r="D7" t="n">
-        <v>0.374205</v>
+        <v>0.363407</v>
       </c>
     </row>
     <row r="8">
@@ -9456,13 +9456,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.599419</v>
+        <v>0.5896749999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>0.391198</v>
+        <v>0.5029169999999999</v>
       </c>
       <c r="D8" t="n">
-        <v>0.378294</v>
+        <v>0.367401</v>
       </c>
     </row>
     <row r="9">
@@ -9470,13 +9470,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.61033</v>
+        <v>0.593728</v>
       </c>
       <c r="C9" t="n">
-        <v>0.391323</v>
+        <v>0.506024</v>
       </c>
       <c r="D9" t="n">
-        <v>0.377594</v>
+        <v>0.372664</v>
       </c>
     </row>
     <row r="10">
@@ -9484,13 +9484,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.621629</v>
+        <v>0.610675</v>
       </c>
       <c r="C10" t="n">
-        <v>0.401384</v>
+        <v>0.514659</v>
       </c>
       <c r="D10" t="n">
-        <v>0.382087</v>
+        <v>0.379497</v>
       </c>
     </row>
     <row r="11">
@@ -9498,13 +9498,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.6249</v>
+        <v>0.622695</v>
       </c>
       <c r="C11" t="n">
-        <v>0.400426</v>
+        <v>0.514307</v>
       </c>
       <c r="D11" t="n">
-        <v>0.383712</v>
+        <v>0.383412</v>
       </c>
     </row>
     <row r="12">
@@ -9512,13 +9512,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.630894</v>
+        <v>0.619997</v>
       </c>
       <c r="C12" t="n">
-        <v>0.408122</v>
+        <v>0.520886</v>
       </c>
       <c r="D12" t="n">
-        <v>0.396185</v>
+        <v>0.393611</v>
       </c>
     </row>
     <row r="13">
@@ -9526,13 +9526,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.641524</v>
+        <v>0.634733</v>
       </c>
       <c r="C13" t="n">
-        <v>0.407376</v>
+        <v>0.523769</v>
       </c>
       <c r="D13" t="n">
-        <v>0.395882</v>
+        <v>0.395308</v>
       </c>
     </row>
     <row r="14">
@@ -9540,13 +9540,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.646177</v>
+        <v>0.640957</v>
       </c>
       <c r="C14" t="n">
-        <v>0.406129</v>
+        <v>0.523276</v>
       </c>
       <c r="D14" t="n">
-        <v>0.402162</v>
+        <v>0.403097</v>
       </c>
     </row>
     <row r="15">
@@ -9554,13 +9554,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.6601669999999999</v>
+        <v>0.652757</v>
       </c>
       <c r="C15" t="n">
-        <v>0.417886</v>
+        <v>0.535331</v>
       </c>
       <c r="D15" t="n">
-        <v>0.410199</v>
+        <v>0.406577</v>
       </c>
     </row>
     <row r="16">
@@ -9568,13 +9568,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.659872</v>
+        <v>0.650586</v>
       </c>
       <c r="C16" t="n">
-        <v>0.420286</v>
+        <v>0.538473</v>
       </c>
       <c r="D16" t="n">
-        <v>0.412683</v>
+        <v>0.41314</v>
       </c>
     </row>
     <row r="17">
@@ -9582,13 +9582,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.672051</v>
+        <v>0.668068</v>
       </c>
       <c r="C17" t="n">
-        <v>0.419968</v>
+        <v>0.540876</v>
       </c>
       <c r="D17" t="n">
-        <v>0.41398</v>
+        <v>0.420334</v>
       </c>
     </row>
     <row r="18">
@@ -9596,13 +9596,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.676794</v>
+        <v>0.673424</v>
       </c>
       <c r="C18" t="n">
-        <v>0.428724</v>
+        <v>0.548325</v>
       </c>
       <c r="D18" t="n">
-        <v>0.42509</v>
+        <v>0.426316</v>
       </c>
     </row>
     <row r="19">
@@ -9610,13 +9610,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.689805</v>
+        <v>0.68429</v>
       </c>
       <c r="C19" t="n">
-        <v>0.430256</v>
+        <v>0.55127</v>
       </c>
       <c r="D19" t="n">
-        <v>0.429521</v>
+        <v>0.430933</v>
       </c>
     </row>
     <row r="20">
@@ -9624,13 +9624,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.7003819999999999</v>
+        <v>0.695835</v>
       </c>
       <c r="C20" t="n">
-        <v>0.437441</v>
+        <v>0.558382</v>
       </c>
       <c r="D20" t="n">
-        <v>0.433776</v>
+        <v>0.436727</v>
       </c>
     </row>
     <row r="21">
@@ -9638,13 +9638,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.705418</v>
+        <v>0.703009</v>
       </c>
       <c r="C21" t="n">
-        <v>0.437706</v>
+        <v>0.572419</v>
       </c>
       <c r="D21" t="n">
-        <v>0.440126</v>
+        <v>0.445361</v>
       </c>
     </row>
     <row r="22">
@@ -9652,13 +9652,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.708911</v>
+        <v>0.706939</v>
       </c>
       <c r="C22" t="n">
-        <v>0.443112</v>
+        <v>0.574161</v>
       </c>
       <c r="D22" t="n">
-        <v>0.447856</v>
+        <v>0.447505</v>
       </c>
     </row>
     <row r="23">
@@ -9666,13 +9666,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.723333</v>
+        <v>0.720975</v>
       </c>
       <c r="C23" t="n">
-        <v>0.44205</v>
+        <v>0.5761849999999999</v>
       </c>
       <c r="D23" t="n">
-        <v>0.445776</v>
+        <v>0.454148</v>
       </c>
     </row>
     <row r="24">
@@ -9680,13 +9680,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.728163</v>
+        <v>0.72619</v>
       </c>
       <c r="C24" t="n">
-        <v>0.447982</v>
+        <v>0.581433</v>
       </c>
       <c r="D24" t="n">
-        <v>0.456938</v>
+        <v>0.4581</v>
       </c>
     </row>
     <row r="25">
@@ -9694,13 +9694,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.741544</v>
+        <v>0.739739</v>
       </c>
       <c r="C25" t="n">
-        <v>0.458936</v>
+        <v>0.590603</v>
       </c>
       <c r="D25" t="n">
-        <v>0.453781</v>
+        <v>0.462852</v>
       </c>
     </row>
     <row r="26">
@@ -9708,13 +9708,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.742143</v>
+        <v>0.740225</v>
       </c>
       <c r="C26" t="n">
-        <v>0.455583</v>
+        <v>0.589771</v>
       </c>
       <c r="D26" t="n">
-        <v>0.465717</v>
+        <v>0.467797</v>
       </c>
     </row>
     <row r="27">
@@ -9722,13 +9722,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.746522</v>
+        <v>0.746044</v>
       </c>
       <c r="C27" t="n">
-        <v>0.459334</v>
+        <v>0.594329</v>
       </c>
       <c r="D27" t="n">
-        <v>0.463352</v>
+        <v>0.472194</v>
       </c>
     </row>
     <row r="28">
@@ -9736,13 +9736,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.753954</v>
+        <v>0.7524729999999999</v>
       </c>
       <c r="C28" t="n">
-        <v>0.460883</v>
+        <v>0.595541</v>
       </c>
       <c r="D28" t="n">
-        <v>0.463863</v>
+        <v>0.473692</v>
       </c>
     </row>
     <row r="29">
@@ -9750,13 +9750,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.761228</v>
+        <v>0.759479</v>
       </c>
       <c r="C29" t="n">
-        <v>0.467062</v>
+        <v>0.604422</v>
       </c>
       <c r="D29" t="n">
-        <v>0.469013</v>
+        <v>0.47892</v>
       </c>
     </row>
     <row r="30">
@@ -9764,13 +9764,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.76949</v>
+        <v>0.768881</v>
       </c>
       <c r="C30" t="n">
-        <v>0.472974</v>
+        <v>0.607035</v>
       </c>
       <c r="D30" t="n">
-        <v>0.481175</v>
+        <v>0.483977</v>
       </c>
     </row>
     <row r="31">
@@ -9778,13 +9778,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.780951</v>
+        <v>0.775896</v>
       </c>
       <c r="C31" t="n">
-        <v>0.472948</v>
+        <v>0.609294</v>
       </c>
       <c r="D31" t="n">
-        <v>0.485983</v>
+        <v>0.486595</v>
       </c>
     </row>
     <row r="32">
@@ -9792,13 +9792,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.784466</v>
+        <v>0.779881</v>
       </c>
       <c r="C32" t="n">
-        <v>0.480425</v>
+        <v>0.615387</v>
       </c>
       <c r="D32" t="n">
-        <v>0.489417</v>
+        <v>0.491752</v>
       </c>
     </row>
     <row r="33">
@@ -9806,13 +9806,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.792188</v>
+        <v>0.788056</v>
       </c>
       <c r="C33" t="n">
-        <v>0.482716</v>
+        <v>0.62003</v>
       </c>
       <c r="D33" t="n">
-        <v>0.489966</v>
+        <v>0.492556</v>
       </c>
     </row>
     <row r="34">
@@ -9820,13 +9820,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.797914</v>
+        <v>0.794421</v>
       </c>
       <c r="C34" t="n">
-        <v>0.481584</v>
+        <v>0.619294</v>
       </c>
       <c r="D34" t="n">
-        <v>0.486502</v>
+        <v>0.496558</v>
       </c>
     </row>
     <row r="35">
@@ -9834,13 +9834,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.801303</v>
+        <v>0.798148</v>
       </c>
       <c r="C35" t="n">
-        <v>0.461552</v>
+        <v>0.607388</v>
       </c>
       <c r="D35" t="n">
-        <v>0.493728</v>
+        <v>0.500371</v>
       </c>
     </row>
     <row r="36">
@@ -9848,13 +9848,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.796637</v>
+        <v>0.795457</v>
       </c>
       <c r="C36" t="n">
-        <v>0.467765</v>
+        <v>0.61113</v>
       </c>
       <c r="D36" t="n">
-        <v>0.499667</v>
+        <v>0.501549</v>
       </c>
     </row>
     <row r="37">
@@ -9862,13 +9862,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.80316</v>
+        <v>0.802026</v>
       </c>
       <c r="C37" t="n">
-        <v>0.469638</v>
+        <v>0.6123960000000001</v>
       </c>
       <c r="D37" t="n">
-        <v>0.493021</v>
+        <v>0.503922</v>
       </c>
     </row>
     <row r="38">
@@ -9876,13 +9876,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.804604</v>
+        <v>0.803118</v>
       </c>
       <c r="C38" t="n">
-        <v>0.46684</v>
+        <v>0.61535</v>
       </c>
       <c r="D38" t="n">
-        <v>0.504084</v>
+        <v>0.506983</v>
       </c>
     </row>
     <row r="39">
@@ -9890,13 +9890,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.806803</v>
+        <v>0.809467</v>
       </c>
       <c r="C39" t="n">
-        <v>0.474748</v>
+        <v>0.618243</v>
       </c>
       <c r="D39" t="n">
-        <v>0.499415</v>
+        <v>0.5094</v>
       </c>
     </row>
     <row r="40">
@@ -9904,13 +9904,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.813041</v>
+        <v>0.81699</v>
       </c>
       <c r="C40" t="n">
-        <v>0.474682</v>
+        <v>0.620769</v>
       </c>
       <c r="D40" t="n">
-        <v>0.510089</v>
+        <v>0.512888</v>
       </c>
     </row>
     <row r="41">
@@ -9918,13 +9918,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.82481</v>
+        <v>0.823524</v>
       </c>
       <c r="C41" t="n">
-        <v>0.477631</v>
+        <v>0.623342</v>
       </c>
       <c r="D41" t="n">
-        <v>0.508879</v>
+        <v>0.514163</v>
       </c>
     </row>
     <row r="42">
@@ -9932,13 +9932,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.824353</v>
+        <v>0.822735</v>
       </c>
       <c r="C42" t="n">
-        <v>0.482489</v>
+        <v>0.627781</v>
       </c>
       <c r="D42" t="n">
-        <v>0.5119050000000001</v>
+        <v>0.5168970000000001</v>
       </c>
     </row>
     <row r="43">
@@ -9946,13 +9946,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.8308410000000001</v>
+        <v>0.831005</v>
       </c>
       <c r="C43" t="n">
-        <v>0.480481</v>
+        <v>0.628071</v>
       </c>
       <c r="D43" t="n">
-        <v>0.5172060000000001</v>
+        <v>0.519319</v>
       </c>
     </row>
     <row r="44">
@@ -9960,13 +9960,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.831669</v>
+        <v>0.831111</v>
       </c>
       <c r="C44" t="n">
-        <v>0.480702</v>
+        <v>0.6272450000000001</v>
       </c>
       <c r="D44" t="n">
-        <v>0.515041</v>
+        <v>0.5204839999999999</v>
       </c>
     </row>
     <row r="45">
@@ -9974,13 +9974,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.837081</v>
+        <v>0.836299</v>
       </c>
       <c r="C45" t="n">
-        <v>0.490095</v>
+        <v>0.631873</v>
       </c>
       <c r="D45" t="n">
-        <v>0.52017</v>
+        <v>0.5215919999999999</v>
       </c>
     </row>
     <row r="46">
@@ -9988,13 +9988,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.841649</v>
+        <v>0.840539</v>
       </c>
       <c r="C46" t="n">
-        <v>0.483166</v>
+        <v>0.632843</v>
       </c>
       <c r="D46" t="n">
-        <v>0.521719</v>
+        <v>0.523766</v>
       </c>
     </row>
     <row r="47">
@@ -10002,13 +10002,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.852243</v>
+        <v>0.8499139999999999</v>
       </c>
       <c r="C47" t="n">
-        <v>0.49156</v>
+        <v>0.636028</v>
       </c>
       <c r="D47" t="n">
-        <v>0.527064</v>
+        <v>0.526544</v>
       </c>
     </row>
     <row r="48">
@@ -10016,13 +10016,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.855758</v>
+        <v>0.853616</v>
       </c>
       <c r="C48" t="n">
-        <v>0.493775</v>
+        <v>0.639688</v>
       </c>
       <c r="D48" t="n">
-        <v>0.526814</v>
+        <v>0.527285</v>
       </c>
     </row>
     <row r="49">
@@ -10030,13 +10030,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.859661</v>
+        <v>0.858135</v>
       </c>
       <c r="C49" t="n">
-        <v>0.492075</v>
+        <v>0.639679</v>
       </c>
       <c r="D49" t="n">
-        <v>0.528852</v>
+        <v>0.529284</v>
       </c>
     </row>
     <row r="50">
@@ -10044,13 +10044,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.865451</v>
+        <v>0.8648</v>
       </c>
       <c r="C50" t="n">
-        <v>0.486903</v>
+        <v>0.639744</v>
       </c>
       <c r="D50" t="n">
-        <v>0.525787</v>
+        <v>0.53093</v>
       </c>
     </row>
     <row r="51">
@@ -10058,13 +10058,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.840069</v>
+        <v>0.844171</v>
       </c>
       <c r="C51" t="n">
-        <v>0.488581</v>
+        <v>0.641026</v>
       </c>
       <c r="D51" t="n">
-        <v>0.524393</v>
+        <v>0.532952</v>
       </c>
     </row>
     <row r="52">
@@ -10072,13 +10072,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.846234</v>
+        <v>0.8461880000000001</v>
       </c>
       <c r="C52" t="n">
-        <v>0.491392</v>
+        <v>0.637868</v>
       </c>
       <c r="D52" t="n">
-        <v>0.526878</v>
+        <v>0.533982</v>
       </c>
     </row>
     <row r="53">
@@ -10086,13 +10086,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.85193</v>
+        <v>0.851505</v>
       </c>
       <c r="C53" t="n">
-        <v>0.494785</v>
+        <v>0.648683</v>
       </c>
       <c r="D53" t="n">
-        <v>0.529438</v>
+        <v>0.535018</v>
       </c>
     </row>
     <row r="54">
@@ -10100,13 +10100,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.856272</v>
+        <v>0.8562650000000001</v>
       </c>
       <c r="C54" t="n">
-        <v>0.500299</v>
+        <v>0.65118</v>
       </c>
       <c r="D54" t="n">
-        <v>0.534487</v>
+        <v>0.537308</v>
       </c>
     </row>
     <row r="55">
@@ -10114,13 +10114,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.860101</v>
+        <v>0.859229</v>
       </c>
       <c r="C55" t="n">
-        <v>0.502858</v>
+        <v>0.653877</v>
       </c>
       <c r="D55" t="n">
-        <v>0.536484</v>
+        <v>0.538846</v>
       </c>
     </row>
     <row r="56">
@@ -10128,13 +10128,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.861916</v>
+        <v>0.86108</v>
       </c>
       <c r="C56" t="n">
-        <v>0.505726</v>
+        <v>0.655874</v>
       </c>
       <c r="D56" t="n">
-        <v>0.536502</v>
+        <v>0.539436</v>
       </c>
     </row>
     <row r="57">
@@ -10142,13 +10142,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.865269</v>
+        <v>0.8672609999999999</v>
       </c>
       <c r="C57" t="n">
-        <v>0.510393</v>
+        <v>0.666986</v>
       </c>
       <c r="D57" t="n">
-        <v>0.540208</v>
+        <v>0.545013</v>
       </c>
     </row>
     <row r="58">
@@ -10156,13 +10156,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.869884</v>
+        <v>0.875214</v>
       </c>
       <c r="C58" t="n">
-        <v>0.513189</v>
+        <v>0.673886</v>
       </c>
       <c r="D58" t="n">
-        <v>0.539753</v>
+        <v>0.544001</v>
       </c>
     </row>
     <row r="59">
@@ -10170,13 +10170,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.871865</v>
+        <v>0.875561</v>
       </c>
       <c r="C59" t="n">
-        <v>0.520322</v>
+        <v>0.677507</v>
       </c>
       <c r="D59" t="n">
-        <v>0.5397380000000001</v>
+        <v>0.54625</v>
       </c>
     </row>
     <row r="60">
@@ -10184,13 +10184,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.878109</v>
+        <v>0.884391</v>
       </c>
       <c r="C60" t="n">
-        <v>0.5185689999999999</v>
+        <v>0.683356</v>
       </c>
       <c r="D60" t="n">
-        <v>0.5440120000000001</v>
+        <v>0.549787</v>
       </c>
     </row>
     <row r="61">
@@ -10198,13 +10198,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.877822</v>
+        <v>0.886369</v>
       </c>
       <c r="C61" t="n">
-        <v>0.5280820000000001</v>
+        <v>0.689947</v>
       </c>
       <c r="D61" t="n">
-        <v>0.546534</v>
+        <v>0.551087</v>
       </c>
     </row>
     <row r="62">
@@ -10212,13 +10212,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.887202</v>
+        <v>0.8930090000000001</v>
       </c>
       <c r="C62" t="n">
-        <v>0.534139</v>
+        <v>0.6988</v>
       </c>
       <c r="D62" t="n">
-        <v>0.5487880000000001</v>
+        <v>0.553363</v>
       </c>
     </row>
     <row r="63">
@@ -10226,13 +10226,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.894347</v>
+        <v>0.8961980000000001</v>
       </c>
       <c r="C63" t="n">
-        <v>0.544412</v>
+        <v>0.708445</v>
       </c>
       <c r="D63" t="n">
-        <v>0.555214</v>
+        <v>0.555138</v>
       </c>
     </row>
     <row r="64">
@@ -10240,13 +10240,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.903616</v>
+        <v>0.902753</v>
       </c>
       <c r="C64" t="n">
-        <v>0.585051</v>
+        <v>0.749294</v>
       </c>
       <c r="D64" t="n">
-        <v>0.581409</v>
+        <v>0.579907</v>
       </c>
     </row>
     <row r="65">
@@ -10254,13 +10254,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.9269849999999999</v>
+        <v>0.93081</v>
       </c>
       <c r="C65" t="n">
-        <v>0.591749</v>
+        <v>0.772306</v>
       </c>
       <c r="D65" t="n">
-        <v>0.582191</v>
+        <v>0.592491</v>
       </c>
     </row>
     <row r="66">
@@ -10268,13 +10268,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.9359420000000001</v>
+        <v>0.946804</v>
       </c>
       <c r="C66" t="n">
-        <v>0.597491</v>
+        <v>0.802338</v>
       </c>
       <c r="D66" t="n">
-        <v>0.59693</v>
+        <v>0.597488</v>
       </c>
     </row>
     <row r="67">
@@ -10282,13 +10282,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.959503</v>
+        <v>0.966431</v>
       </c>
       <c r="C67" t="n">
-        <v>0.6257740000000001</v>
+        <v>0.826094</v>
       </c>
       <c r="D67" t="n">
-        <v>0.602189</v>
+        <v>0.618522</v>
       </c>
     </row>
     <row r="68">
@@ -10296,13 +10296,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.961847</v>
+        <v>0.995918</v>
       </c>
       <c r="C68" t="n">
-        <v>0.648106</v>
+        <v>0.849066</v>
       </c>
       <c r="D68" t="n">
-        <v>0.630063</v>
+        <v>0.632564</v>
       </c>
     </row>
     <row r="69">
@@ -10310,13 +10310,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>1.01165</v>
+        <v>1.01834</v>
       </c>
       <c r="C69" t="n">
-        <v>0.668825</v>
+        <v>0.875852</v>
       </c>
       <c r="D69" t="n">
-        <v>0.629466</v>
+        <v>0.6478120000000001</v>
       </c>
     </row>
     <row r="70">
@@ -10324,13 +10324,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>1.01821</v>
+        <v>1.04383</v>
       </c>
       <c r="C70" t="n">
-        <v>0.684685</v>
+        <v>0.900129</v>
       </c>
       <c r="D70" t="n">
-        <v>0.647207</v>
+        <v>0.664341</v>
       </c>
     </row>
     <row r="71">
@@ -10338,13 +10338,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>1.04912</v>
+        <v>1.0784</v>
       </c>
       <c r="C71" t="n">
-        <v>0.735227</v>
+        <v>0.9432160000000001</v>
       </c>
       <c r="D71" t="n">
-        <v>0.672067</v>
+        <v>0.68609</v>
       </c>
     </row>
     <row r="72">
@@ -10352,13 +10352,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>1.08509</v>
+        <v>1.107</v>
       </c>
       <c r="C72" t="n">
-        <v>0.744072</v>
+        <v>0.964692</v>
       </c>
       <c r="D72" t="n">
-        <v>0.692773</v>
+        <v>0.703358</v>
       </c>
     </row>
     <row r="73">
@@ -10366,13 +10366,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>1.12324</v>
+        <v>1.14758</v>
       </c>
       <c r="C73" t="n">
-        <v>0.781264</v>
+        <v>1.0026</v>
       </c>
       <c r="D73" t="n">
-        <v>0.711834</v>
+        <v>0.732918</v>
       </c>
     </row>
     <row r="74">
@@ -10380,13 +10380,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.15861</v>
+        <v>1.18424</v>
       </c>
       <c r="C74" t="n">
-        <v>0.81004</v>
+        <v>1.02876</v>
       </c>
       <c r="D74" t="n">
-        <v>0.756107</v>
+        <v>0.758895</v>
       </c>
     </row>
     <row r="75">
@@ -10394,13 +10394,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>1.22616</v>
+        <v>1.23161</v>
       </c>
       <c r="C75" t="n">
-        <v>0.8578249999999999</v>
+        <v>1.06602</v>
       </c>
       <c r="D75" t="n">
-        <v>0.7865180000000001</v>
+        <v>0.789156</v>
       </c>
     </row>
     <row r="76">
@@ -10408,13 +10408,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>1.27619</v>
+        <v>1.28878</v>
       </c>
       <c r="C76" t="n">
-        <v>0.882251</v>
+        <v>1.11002</v>
       </c>
       <c r="D76" t="n">
-        <v>0.814157</v>
+        <v>0.832032</v>
       </c>
     </row>
     <row r="77">
@@ -10422,13 +10422,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>1.33016</v>
+        <v>1.34314</v>
       </c>
       <c r="C77" t="n">
-        <v>0.925978</v>
+        <v>1.14674</v>
       </c>
       <c r="D77" t="n">
-        <v>0.857657</v>
+        <v>0.8697319999999999</v>
       </c>
     </row>
     <row r="78">
@@ -10436,13 +10436,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>1.38547</v>
+        <v>1.3938</v>
       </c>
       <c r="C78" t="n">
-        <v>1.06783</v>
+        <v>1.32212</v>
       </c>
       <c r="D78" t="n">
-        <v>0.977409</v>
+        <v>1.00266</v>
       </c>
     </row>
     <row r="79">
@@ -10450,13 +10450,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.55923</v>
+        <v>1.5949</v>
       </c>
       <c r="C79" t="n">
-        <v>1.10301</v>
+        <v>1.376</v>
       </c>
       <c r="D79" t="n">
-        <v>1.02514</v>
+        <v>1.05402</v>
       </c>
     </row>
     <row r="80">
@@ -10464,13 +10464,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.62612</v>
+        <v>1.68972</v>
       </c>
       <c r="C80" t="n">
-        <v>1.1364</v>
+        <v>1.40935</v>
       </c>
       <c r="D80" t="n">
-        <v>1.06908</v>
+        <v>1.09514</v>
       </c>
     </row>
     <row r="81">
@@ -10478,13 +10478,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.70709</v>
+        <v>1.74298</v>
       </c>
       <c r="C81" t="n">
-        <v>1.17169</v>
+        <v>1.44622</v>
       </c>
       <c r="D81" t="n">
-        <v>1.13479</v>
+        <v>1.1571</v>
       </c>
     </row>
     <row r="82">
@@ -10492,13 +10492,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.79941</v>
+        <v>1.81183</v>
       </c>
       <c r="C82" t="n">
-        <v>1.20693</v>
+        <v>1.48381</v>
       </c>
       <c r="D82" t="n">
-        <v>1.18346</v>
+        <v>1.20204</v>
       </c>
     </row>
     <row r="83">
@@ -10506,13 +10506,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.88544</v>
+        <v>1.90461</v>
       </c>
       <c r="C83" t="n">
-        <v>1.24945</v>
+        <v>1.52847</v>
       </c>
       <c r="D83" t="n">
-        <v>1.2339</v>
+        <v>1.25346</v>
       </c>
     </row>
     <row r="84">
@@ -10520,13 +10520,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.96911</v>
+        <v>1.99668</v>
       </c>
       <c r="C84" t="n">
-        <v>1.28567</v>
+        <v>1.56947</v>
       </c>
       <c r="D84" t="n">
-        <v>1.30669</v>
+        <v>1.31201</v>
       </c>
     </row>
     <row r="85">
@@ -10534,13 +10534,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>2.06155</v>
+        <v>2.08075</v>
       </c>
       <c r="C85" t="n">
-        <v>1.32295</v>
+        <v>1.62044</v>
       </c>
       <c r="D85" t="n">
-        <v>1.35432</v>
+        <v>1.37918</v>
       </c>
     </row>
     <row r="86">
@@ -10548,13 +10548,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>2.1472</v>
+        <v>2.18488</v>
       </c>
       <c r="C86" t="n">
-        <v>1.35938</v>
+        <v>1.66093</v>
       </c>
       <c r="D86" t="n">
-        <v>1.41419</v>
+        <v>1.43838</v>
       </c>
     </row>
     <row r="87">
@@ -10562,13 +10562,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>2.22777</v>
+        <v>2.26744</v>
       </c>
       <c r="C87" t="n">
-        <v>1.40264</v>
+        <v>1.69882</v>
       </c>
       <c r="D87" t="n">
-        <v>1.47025</v>
+        <v>1.49262</v>
       </c>
     </row>
     <row r="88">
@@ -10576,13 +10576,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>2.3298</v>
+        <v>2.35774</v>
       </c>
       <c r="C88" t="n">
-        <v>1.43922</v>
+        <v>1.74742</v>
       </c>
       <c r="D88" t="n">
-        <v>1.53832</v>
+        <v>1.54773</v>
       </c>
     </row>
     <row r="89">
@@ -10590,13 +10590,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>2.41721</v>
+        <v>2.44292</v>
       </c>
       <c r="C89" t="n">
-        <v>1.47767</v>
+        <v>1.78655</v>
       </c>
       <c r="D89" t="n">
-        <v>1.5908</v>
+        <v>1.60129</v>
       </c>
     </row>
     <row r="90">
@@ -10604,13 +10604,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>2.50004</v>
+        <v>2.52433</v>
       </c>
       <c r="C90" t="n">
-        <v>1.51335</v>
+        <v>1.82598</v>
       </c>
       <c r="D90" t="n">
-        <v>1.65316</v>
+        <v>1.65508</v>
       </c>
     </row>
     <row r="91">
@@ -10618,13 +10618,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>2.59585</v>
+        <v>2.60879</v>
       </c>
       <c r="C91" t="n">
-        <v>1.54666</v>
+        <v>1.86991</v>
       </c>
       <c r="D91" t="n">
-        <v>1.70048</v>
+        <v>1.70645</v>
       </c>
     </row>
     <row r="92">
@@ -10632,13 +10632,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>2.68382</v>
+        <v>2.70744</v>
       </c>
       <c r="C92" t="n">
-        <v>1.65199</v>
+        <v>2.012</v>
       </c>
       <c r="D92" t="n">
-        <v>1.82211</v>
+        <v>1.81966</v>
       </c>
     </row>
     <row r="93">
@@ -10646,13 +10646,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>2.84842</v>
+        <v>2.84917</v>
       </c>
       <c r="C93" t="n">
-        <v>1.68556</v>
+        <v>2.04343</v>
       </c>
       <c r="D93" t="n">
-        <v>1.87626</v>
+        <v>1.86626</v>
       </c>
     </row>
     <row r="94">
@@ -10660,13 +10660,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>2.92219</v>
+        <v>2.93612</v>
       </c>
       <c r="C94" t="n">
-        <v>1.70974</v>
+        <v>2.08213</v>
       </c>
       <c r="D94" t="n">
-        <v>1.91699</v>
+        <v>1.91416</v>
       </c>
     </row>
     <row r="95">
@@ -10674,13 +10674,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>2.98858</v>
+        <v>3.0006</v>
       </c>
       <c r="C95" t="n">
-        <v>1.7467</v>
+        <v>2.1156</v>
       </c>
       <c r="D95" t="n">
-        <v>1.95768</v>
+        <v>1.95968</v>
       </c>
     </row>
     <row r="96">
@@ -10688,13 +10688,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>3.05015</v>
+        <v>3.07295</v>
       </c>
       <c r="C96" t="n">
-        <v>1.77009</v>
+        <v>2.14825</v>
       </c>
       <c r="D96" t="n">
-        <v>2.00381</v>
+        <v>2.00435</v>
       </c>
     </row>
     <row r="97">
@@ -10702,13 +10702,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>3.12084</v>
+        <v>3.15365</v>
       </c>
       <c r="C97" t="n">
-        <v>1.80165</v>
+        <v>2.18072</v>
       </c>
       <c r="D97" t="n">
-        <v>2.04935</v>
+        <v>2.04633</v>
       </c>
     </row>
     <row r="98">
@@ -10716,13 +10716,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>3.20508</v>
+        <v>3.20858</v>
       </c>
       <c r="C98" t="n">
-        <v>1.82843</v>
+        <v>2.19628</v>
       </c>
       <c r="D98" t="n">
-        <v>2.09641</v>
+        <v>2.08606</v>
       </c>
     </row>
     <row r="99">
@@ -10730,13 +10730,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>3.27291</v>
+        <v>3.27737</v>
       </c>
       <c r="C99" t="n">
-        <v>1.87735</v>
+        <v>2.22842</v>
       </c>
       <c r="D99" t="n">
-        <v>2.13412</v>
+        <v>2.12296</v>
       </c>
     </row>
     <row r="100">
@@ -10744,13 +10744,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>3.33491</v>
+        <v>3.33025</v>
       </c>
       <c r="C100" t="n">
-        <v>1.90073</v>
+        <v>2.27671</v>
       </c>
       <c r="D100" t="n">
-        <v>2.17935</v>
+        <v>2.15807</v>
       </c>
     </row>
     <row r="101">
@@ -10758,13 +10758,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>3.40371</v>
+        <v>3.40758</v>
       </c>
       <c r="C101" t="n">
-        <v>1.92259</v>
+        <v>2.30528</v>
       </c>
       <c r="D101" t="n">
-        <v>2.21343</v>
+        <v>2.19166</v>
       </c>
     </row>
     <row r="102">
@@ -10772,13 +10772,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>3.46055</v>
+        <v>3.45539</v>
       </c>
       <c r="C102" t="n">
-        <v>1.97068</v>
+        <v>2.31876</v>
       </c>
       <c r="D102" t="n">
-        <v>2.23951</v>
+        <v>2.2222</v>
       </c>
     </row>
     <row r="103">
@@ -10786,13 +10786,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>3.51376</v>
+        <v>3.51857</v>
       </c>
       <c r="C103" t="n">
-        <v>1.99005</v>
+        <v>2.37173</v>
       </c>
       <c r="D103" t="n">
-        <v>2.28489</v>
+        <v>2.25292</v>
       </c>
     </row>
     <row r="104">
@@ -10800,13 +10800,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>3.56444</v>
+        <v>3.56126</v>
       </c>
       <c r="C104" t="n">
-        <v>2.02506</v>
+        <v>2.40119</v>
       </c>
       <c r="D104" t="n">
-        <v>2.31113</v>
+        <v>2.28604</v>
       </c>
     </row>
     <row r="105">
@@ -10814,13 +10814,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>3.6248</v>
+        <v>3.61062</v>
       </c>
       <c r="C105" t="n">
-        <v>2.05075</v>
+        <v>2.43589</v>
       </c>
       <c r="D105" t="n">
-        <v>2.35453</v>
+        <v>2.31332</v>
       </c>
     </row>
     <row r="106">
@@ -10828,13 +10828,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>3.6754</v>
+        <v>3.66739</v>
       </c>
       <c r="C106" t="n">
-        <v>2.07968</v>
+        <v>2.43658</v>
       </c>
       <c r="D106" t="n">
-        <v>2.36929</v>
+        <v>2.34377</v>
       </c>
     </row>
     <row r="107">
@@ -10842,13 +10842,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>3.69282</v>
+        <v>3.67592</v>
       </c>
       <c r="C107" t="n">
-        <v>2.07771</v>
+        <v>2.50835</v>
       </c>
       <c r="D107" t="n">
-        <v>2.44211</v>
+        <v>2.40548</v>
       </c>
     </row>
     <row r="108">
@@ -10856,13 +10856,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>3.73297</v>
+        <v>3.73726</v>
       </c>
       <c r="C108" t="n">
-        <v>2.10049</v>
+        <v>2.52055</v>
       </c>
       <c r="D108" t="n">
-        <v>2.45175</v>
+        <v>2.43315</v>
       </c>
     </row>
     <row r="109">
@@ -10870,13 +10870,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>3.79055</v>
+        <v>3.79261</v>
       </c>
       <c r="C109" t="n">
-        <v>2.1264</v>
+        <v>2.55336</v>
       </c>
       <c r="D109" t="n">
-        <v>2.47776</v>
+        <v>2.46127</v>
       </c>
     </row>
     <row r="110">
@@ -10884,13 +10884,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>3.84645</v>
+        <v>3.81584</v>
       </c>
       <c r="C110" t="n">
-        <v>2.14016</v>
+        <v>2.57275</v>
       </c>
       <c r="D110" t="n">
-        <v>2.50441</v>
+        <v>2.4849</v>
       </c>
     </row>
     <row r="111">
@@ -10898,13 +10898,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>3.89217</v>
+        <v>3.86115</v>
       </c>
       <c r="C111" t="n">
-        <v>2.17107</v>
+        <v>2.55879</v>
       </c>
       <c r="D111" t="n">
-        <v>2.52747</v>
+        <v>2.50339</v>
       </c>
     </row>
     <row r="112">
@@ -10912,13 +10912,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>3.93312</v>
+        <v>3.89593</v>
       </c>
       <c r="C112" t="n">
-        <v>2.19156</v>
+        <v>2.60271</v>
       </c>
       <c r="D112" t="n">
-        <v>2.55938</v>
+        <v>2.52581</v>
       </c>
     </row>
     <row r="113">
@@ -10926,13 +10926,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>3.9852</v>
+        <v>3.94477</v>
       </c>
       <c r="C113" t="n">
-        <v>2.22078</v>
+        <v>2.63874</v>
       </c>
       <c r="D113" t="n">
-        <v>2.57887</v>
+        <v>2.56435</v>
       </c>
     </row>
     <row r="114">
@@ -10940,13 +10940,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>4.03978</v>
+        <v>3.99994</v>
       </c>
       <c r="C114" t="n">
-        <v>2.23466</v>
+        <v>2.66303</v>
       </c>
       <c r="D114" t="n">
-        <v>2.60514</v>
+        <v>2.58728</v>
       </c>
     </row>
     <row r="115">
@@ -10954,13 +10954,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>4.06219</v>
+        <v>4.0346</v>
       </c>
       <c r="C115" t="n">
-        <v>2.26745</v>
+        <v>2.66895</v>
       </c>
       <c r="D115" t="n">
-        <v>2.63182</v>
+        <v>2.60705</v>
       </c>
     </row>
     <row r="116">
@@ -10968,13 +10968,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>4.12795</v>
+        <v>4.08653</v>
       </c>
       <c r="C116" t="n">
-        <v>2.29705</v>
+        <v>2.7068</v>
       </c>
       <c r="D116" t="n">
-        <v>2.66153</v>
+        <v>2.63164</v>
       </c>
     </row>
     <row r="117">
@@ -10982,13 +10982,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>4.15818</v>
+        <v>4.13896</v>
       </c>
       <c r="C117" t="n">
-        <v>2.31094</v>
+        <v>2.72882</v>
       </c>
       <c r="D117" t="n">
-        <v>2.67541</v>
+        <v>2.65742</v>
       </c>
     </row>
     <row r="118">
@@ -10996,13 +10996,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>4.20727</v>
+        <v>4.17968</v>
       </c>
       <c r="C118" t="n">
-        <v>2.35034</v>
+        <v>2.7632</v>
       </c>
       <c r="D118" t="n">
-        <v>2.69733</v>
+        <v>2.68726</v>
       </c>
     </row>
     <row r="119">
@@ -11010,13 +11010,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>4.2481</v>
+        <v>4.23046</v>
       </c>
       <c r="C119" t="n">
-        <v>2.37853</v>
+        <v>2.77283</v>
       </c>
       <c r="D119" t="n">
-        <v>2.71708</v>
+        <v>2.69695</v>
       </c>
     </row>
   </sheetData>
@@ -11064,13 +11064,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.591911</v>
+        <v>0.56441</v>
       </c>
       <c r="C2" t="n">
-        <v>0.376692</v>
+        <v>0.467019</v>
       </c>
       <c r="D2" t="n">
-        <v>0.344253</v>
+        <v>0.329226</v>
       </c>
     </row>
     <row r="3">
@@ -11078,13 +11078,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.598648</v>
+        <v>0.571785</v>
       </c>
       <c r="C3" t="n">
-        <v>0.379305</v>
+        <v>0.468935</v>
       </c>
       <c r="D3" t="n">
-        <v>0.351224</v>
+        <v>0.33398</v>
       </c>
     </row>
     <row r="4">
@@ -11092,13 +11092,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.613714</v>
+        <v>0.585103</v>
       </c>
       <c r="C4" t="n">
-        <v>0.384079</v>
+        <v>0.477667</v>
       </c>
       <c r="D4" t="n">
-        <v>0.356157</v>
+        <v>0.341259</v>
       </c>
     </row>
     <row r="5">
@@ -11106,13 +11106,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.617875</v>
+        <v>0.5933040000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>0.394453</v>
+        <v>0.489061</v>
       </c>
       <c r="D5" t="n">
-        <v>0.360288</v>
+        <v>0.346574</v>
       </c>
     </row>
     <row r="6">
@@ -11120,13 +11120,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.6306310000000001</v>
+        <v>0.6059020000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>0.393506</v>
+        <v>0.489562</v>
       </c>
       <c r="D6" t="n">
-        <v>0.364452</v>
+        <v>0.349942</v>
       </c>
     </row>
     <row r="7">
@@ -11134,13 +11134,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.637352</v>
+        <v>0.607669</v>
       </c>
       <c r="C7" t="n">
-        <v>0.406426</v>
+        <v>0.497981</v>
       </c>
       <c r="D7" t="n">
-        <v>0.371798</v>
+        <v>0.356325</v>
       </c>
     </row>
     <row r="8">
@@ -11148,13 +11148,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.6475</v>
+        <v>0.6198360000000001</v>
       </c>
       <c r="C8" t="n">
-        <v>0.416099</v>
+        <v>0.50958</v>
       </c>
       <c r="D8" t="n">
-        <v>0.374127</v>
+        <v>0.358415</v>
       </c>
     </row>
     <row r="9">
@@ -11162,13 +11162,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.654522</v>
+        <v>0.628288</v>
       </c>
       <c r="C9" t="n">
-        <v>0.421171</v>
+        <v>0.515532</v>
       </c>
       <c r="D9" t="n">
-        <v>0.378298</v>
+        <v>0.362676</v>
       </c>
     </row>
     <row r="10">
@@ -11176,13 +11176,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.669392</v>
+        <v>0.645761</v>
       </c>
       <c r="C10" t="n">
-        <v>0.431989</v>
+        <v>0.524818</v>
       </c>
       <c r="D10" t="n">
-        <v>0.383154</v>
+        <v>0.369549</v>
       </c>
     </row>
     <row r="11">
@@ -11190,13 +11190,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.675632</v>
+        <v>0.655153</v>
       </c>
       <c r="C11" t="n">
-        <v>0.418588</v>
+        <v>0.522016</v>
       </c>
       <c r="D11" t="n">
-        <v>0.384898</v>
+        <v>0.378065</v>
       </c>
     </row>
     <row r="12">
@@ -11204,13 +11204,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.65063</v>
+        <v>0.633618</v>
       </c>
       <c r="C12" t="n">
-        <v>0.423651</v>
+        <v>0.527773</v>
       </c>
       <c r="D12" t="n">
-        <v>0.391293</v>
+        <v>0.384547</v>
       </c>
     </row>
     <row r="13">
@@ -11218,13 +11218,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.659861</v>
+        <v>0.644635</v>
       </c>
       <c r="C13" t="n">
-        <v>0.425523</v>
+        <v>0.530347</v>
       </c>
       <c r="D13" t="n">
-        <v>0.394159</v>
+        <v>0.387097</v>
       </c>
     </row>
     <row r="14">
@@ -11232,13 +11232,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.666884</v>
+        <v>0.650631</v>
       </c>
       <c r="C14" t="n">
-        <v>0.433603</v>
+        <v>0.536983</v>
       </c>
       <c r="D14" t="n">
-        <v>0.397596</v>
+        <v>0.389161</v>
       </c>
     </row>
     <row r="15">
@@ -11246,13 +11246,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.683343</v>
+        <v>0.66911</v>
       </c>
       <c r="C15" t="n">
-        <v>0.443995</v>
+        <v>0.548971</v>
       </c>
       <c r="D15" t="n">
-        <v>0.407561</v>
+        <v>0.400717</v>
       </c>
     </row>
     <row r="16">
@@ -11260,13 +11260,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.692925</v>
+        <v>0.682095</v>
       </c>
       <c r="C16" t="n">
-        <v>0.453158</v>
+        <v>0.55974</v>
       </c>
       <c r="D16" t="n">
-        <v>0.413034</v>
+        <v>0.407197</v>
       </c>
     </row>
     <row r="17">
@@ -11274,13 +11274,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.7060920000000001</v>
+        <v>0.702546</v>
       </c>
       <c r="C17" t="n">
-        <v>0.455559</v>
+        <v>0.568198</v>
       </c>
       <c r="D17" t="n">
-        <v>0.415205</v>
+        <v>0.4127</v>
       </c>
     </row>
     <row r="18">
@@ -11288,13 +11288,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.715302</v>
+        <v>0.70678</v>
       </c>
       <c r="C18" t="n">
-        <v>0.45685</v>
+        <v>0.568556</v>
       </c>
       <c r="D18" t="n">
-        <v>0.420542</v>
+        <v>0.417612</v>
       </c>
     </row>
     <row r="19">
@@ -11302,13 +11302,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.726267</v>
+        <v>0.720603</v>
       </c>
       <c r="C19" t="n">
-        <v>0.471092</v>
+        <v>0.583207</v>
       </c>
       <c r="D19" t="n">
-        <v>0.426787</v>
+        <v>0.424606</v>
       </c>
     </row>
     <row r="20">
@@ -11316,13 +11316,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.74319</v>
+        <v>0.741982</v>
       </c>
       <c r="C20" t="n">
-        <v>0.4828</v>
+        <v>0.59582</v>
       </c>
       <c r="D20" t="n">
-        <v>0.431779</v>
+        <v>0.431819</v>
       </c>
     </row>
     <row r="21">
@@ -11330,13 +11330,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.754044</v>
+        <v>0.7498</v>
       </c>
       <c r="C21" t="n">
-        <v>0.494509</v>
+        <v>0.606639</v>
       </c>
       <c r="D21" t="n">
-        <v>0.437797</v>
+        <v>0.436325</v>
       </c>
     </row>
     <row r="22">
@@ -11344,13 +11344,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.763186</v>
+        <v>0.756431</v>
       </c>
       <c r="C22" t="n">
-        <v>0.501008</v>
+        <v>0.611352</v>
       </c>
       <c r="D22" t="n">
-        <v>0.442732</v>
+        <v>0.440151</v>
       </c>
     </row>
     <row r="23">
@@ -11358,13 +11358,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.785044</v>
+        <v>0.777096</v>
       </c>
       <c r="C23" t="n">
-        <v>0.509976</v>
+        <v>0.622653</v>
       </c>
       <c r="D23" t="n">
-        <v>0.449298</v>
+        <v>0.448487</v>
       </c>
     </row>
     <row r="24">
@@ -11372,13 +11372,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.798299</v>
+        <v>0.791351</v>
       </c>
       <c r="C24" t="n">
-        <v>0.520915</v>
+        <v>0.631507</v>
       </c>
       <c r="D24" t="n">
-        <v>0.452479</v>
+        <v>0.450174</v>
       </c>
     </row>
     <row r="25">
@@ -11386,13 +11386,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.811002</v>
+        <v>0.803445</v>
       </c>
       <c r="C25" t="n">
-        <v>0.536736</v>
+        <v>0.6467270000000001</v>
       </c>
       <c r="D25" t="n">
-        <v>0.461197</v>
+        <v>0.458871</v>
       </c>
     </row>
     <row r="26">
@@ -11400,13 +11400,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.828533</v>
+        <v>0.821026</v>
       </c>
       <c r="C26" t="n">
-        <v>0.477751</v>
+        <v>0.595355</v>
       </c>
       <c r="D26" t="n">
-        <v>0.463919</v>
+        <v>0.462512</v>
       </c>
     </row>
     <row r="27">
@@ -11414,13 +11414,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.790503</v>
+        <v>0.783976</v>
       </c>
       <c r="C27" t="n">
-        <v>0.487138</v>
+        <v>0.602846</v>
       </c>
       <c r="D27" t="n">
-        <v>0.46848</v>
+        <v>0.467173</v>
       </c>
     </row>
     <row r="28">
@@ -11428,13 +11428,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.798662</v>
+        <v>0.794129</v>
       </c>
       <c r="C28" t="n">
-        <v>0.490912</v>
+        <v>0.609052</v>
       </c>
       <c r="D28" t="n">
-        <v>0.47225</v>
+        <v>0.470468</v>
       </c>
     </row>
     <row r="29">
@@ -11442,13 +11442,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.811315</v>
+        <v>0.806385</v>
       </c>
       <c r="C29" t="n">
-        <v>0.494681</v>
+        <v>0.613459</v>
       </c>
       <c r="D29" t="n">
-        <v>0.476855</v>
+        <v>0.475572</v>
       </c>
     </row>
     <row r="30">
@@ -11456,13 +11456,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.8227680000000001</v>
+        <v>0.818765</v>
       </c>
       <c r="C30" t="n">
-        <v>0.504715</v>
+        <v>0.623096</v>
       </c>
       <c r="D30" t="n">
-        <v>0.482007</v>
+        <v>0.480773</v>
       </c>
     </row>
     <row r="31">
@@ -11470,13 +11470,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.8350030000000001</v>
+        <v>0.830578</v>
       </c>
       <c r="C31" t="n">
-        <v>0.510348</v>
+        <v>0.629795</v>
       </c>
       <c r="D31" t="n">
-        <v>0.486186</v>
+        <v>0.485508</v>
       </c>
     </row>
     <row r="32">
@@ -11484,13 +11484,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.848824</v>
+        <v>0.845363</v>
       </c>
       <c r="C32" t="n">
-        <v>0.519719</v>
+        <v>0.636174</v>
       </c>
       <c r="D32" t="n">
-        <v>0.490575</v>
+        <v>0.488728</v>
       </c>
     </row>
     <row r="33">
@@ -11498,13 +11498,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.857389</v>
+        <v>0.856039</v>
       </c>
       <c r="C33" t="n">
-        <v>0.525794</v>
+        <v>0.644348</v>
       </c>
       <c r="D33" t="n">
-        <v>0.49393</v>
+        <v>0.492308</v>
       </c>
     </row>
     <row r="34">
@@ -11512,13 +11512,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.871973</v>
+        <v>0.868147</v>
       </c>
       <c r="C34" t="n">
-        <v>0.535416</v>
+        <v>0.6556689999999999</v>
       </c>
       <c r="D34" t="n">
-        <v>0.496752</v>
+        <v>0.49502</v>
       </c>
     </row>
     <row r="35">
@@ -11526,13 +11526,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.882993</v>
+        <v>0.879752</v>
       </c>
       <c r="C35" t="n">
-        <v>0.543403</v>
+        <v>0.665794</v>
       </c>
       <c r="D35" t="n">
-        <v>0.499582</v>
+        <v>0.498978</v>
       </c>
     </row>
     <row r="36">
@@ -11540,13 +11540,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.89719</v>
+        <v>0.89401</v>
       </c>
       <c r="C36" t="n">
-        <v>0.556324</v>
+        <v>0.677745</v>
       </c>
       <c r="D36" t="n">
-        <v>0.502497</v>
+        <v>0.501567</v>
       </c>
     </row>
     <row r="37">
@@ -11554,13 +11554,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.909254</v>
+        <v>0.911139</v>
       </c>
       <c r="C37" t="n">
-        <v>0.565922</v>
+        <v>0.687545</v>
       </c>
       <c r="D37" t="n">
-        <v>0.506231</v>
+        <v>0.504509</v>
       </c>
     </row>
     <row r="38">
@@ -11568,13 +11568,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.924875</v>
+        <v>0.925885</v>
       </c>
       <c r="C38" t="n">
-        <v>0.574784</v>
+        <v>0.694197</v>
       </c>
       <c r="D38" t="n">
-        <v>0.509154</v>
+        <v>0.508332</v>
       </c>
     </row>
     <row r="39">
@@ -11582,13 +11582,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.936437</v>
+        <v>0.938429</v>
       </c>
       <c r="C39" t="n">
-        <v>0.586842</v>
+        <v>0.707279</v>
       </c>
       <c r="D39" t="n">
-        <v>0.512093</v>
+        <v>0.511397</v>
       </c>
     </row>
     <row r="40">
@@ -11596,13 +11596,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.951305</v>
+        <v>0.952387</v>
       </c>
       <c r="C40" t="n">
-        <v>0.5374139999999999</v>
+        <v>0.665212</v>
       </c>
       <c r="D40" t="n">
-        <v>0.51458</v>
+        <v>0.51437</v>
       </c>
     </row>
     <row r="41">
@@ -11610,13 +11610,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.885497</v>
+        <v>0.886068</v>
       </c>
       <c r="C41" t="n">
-        <v>0.54152</v>
+        <v>0.670227</v>
       </c>
       <c r="D41" t="n">
-        <v>0.5179009999999999</v>
+        <v>0.517598</v>
       </c>
     </row>
     <row r="42">
@@ -11624,13 +11624,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.897246</v>
+        <v>0.898116</v>
       </c>
       <c r="C42" t="n">
-        <v>0.550327</v>
+        <v>0.677293</v>
       </c>
       <c r="D42" t="n">
-        <v>0.521224</v>
+        <v>0.521008</v>
       </c>
     </row>
     <row r="43">
@@ -11638,13 +11638,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.906043</v>
+        <v>0.907254</v>
       </c>
       <c r="C43" t="n">
-        <v>0.55362</v>
+        <v>0.683127</v>
       </c>
       <c r="D43" t="n">
-        <v>0.523979</v>
+        <v>0.523851</v>
       </c>
     </row>
     <row r="44">
@@ -11652,13 +11652,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.9104409999999999</v>
+        <v>0.912788</v>
       </c>
       <c r="C44" t="n">
-        <v>0.561393</v>
+        <v>0.691141</v>
       </c>
       <c r="D44" t="n">
-        <v>0.525778</v>
+        <v>0.5255339999999999</v>
       </c>
     </row>
     <row r="45">
@@ -11666,13 +11666,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.924468</v>
+        <v>0.924988</v>
       </c>
       <c r="C45" t="n">
-        <v>0.568286</v>
+        <v>0.697411</v>
       </c>
       <c r="D45" t="n">
-        <v>0.527569</v>
+        <v>0.527788</v>
       </c>
     </row>
     <row r="46">
@@ -11680,13 +11680,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.930486</v>
+        <v>0.932464</v>
       </c>
       <c r="C46" t="n">
-        <v>0.579792</v>
+        <v>0.705999</v>
       </c>
       <c r="D46" t="n">
-        <v>0.530455</v>
+        <v>0.530744</v>
       </c>
     </row>
     <row r="47">
@@ -11694,13 +11694,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.9423280000000001</v>
+        <v>0.94424</v>
       </c>
       <c r="C47" t="n">
-        <v>0.584861</v>
+        <v>0.71339</v>
       </c>
       <c r="D47" t="n">
-        <v>0.531616</v>
+        <v>0.531432</v>
       </c>
     </row>
     <row r="48">
@@ -11708,13 +11708,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.952987</v>
+        <v>0.952797</v>
       </c>
       <c r="C48" t="n">
-        <v>0.593672</v>
+        <v>0.720677</v>
       </c>
       <c r="D48" t="n">
-        <v>0.533489</v>
+        <v>0.532875</v>
       </c>
     </row>
     <row r="49">
@@ -11722,13 +11722,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.959665</v>
+        <v>0.959106</v>
       </c>
       <c r="C49" t="n">
-        <v>0.59995</v>
+        <v>0.728742</v>
       </c>
       <c r="D49" t="n">
-        <v>0.53683</v>
+        <v>0.536644</v>
       </c>
     </row>
     <row r="50">
@@ -11736,13 +11736,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.974048</v>
+        <v>0.973098</v>
       </c>
       <c r="C50" t="n">
-        <v>0.609167</v>
+        <v>0.733661</v>
       </c>
       <c r="D50" t="n">
-        <v>0.539284</v>
+        <v>0.539938</v>
       </c>
     </row>
     <row r="51">
@@ -11750,13 +11750,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.98137</v>
+        <v>0.982685</v>
       </c>
       <c r="C51" t="n">
-        <v>0.621536</v>
+        <v>0.747771</v>
       </c>
       <c r="D51" t="n">
-        <v>0.53956</v>
+        <v>0.539451</v>
       </c>
     </row>
     <row r="52">
@@ -11764,13 +11764,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.995549</v>
+        <v>0.997146</v>
       </c>
       <c r="C52" t="n">
-        <v>0.6315190000000001</v>
+        <v>0.760452</v>
       </c>
       <c r="D52" t="n">
-        <v>0.543314</v>
+        <v>0.543071</v>
       </c>
     </row>
     <row r="53">
@@ -11778,13 +11778,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>1.00413</v>
+        <v>1.00607</v>
       </c>
       <c r="C53" t="n">
-        <v>0.638608</v>
+        <v>0.766796</v>
       </c>
       <c r="D53" t="n">
-        <v>0.54189</v>
+        <v>0.5414679999999999</v>
       </c>
     </row>
     <row r="54">
@@ -11792,13 +11792,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>1.01427</v>
+        <v>1.01353</v>
       </c>
       <c r="C54" t="n">
-        <v>0.577664</v>
+        <v>0.713952</v>
       </c>
       <c r="D54" t="n">
-        <v>0.544111</v>
+        <v>0.543086</v>
       </c>
     </row>
     <row r="55">
@@ -11806,13 +11806,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.942314</v>
+        <v>0.941516</v>
       </c>
       <c r="C55" t="n">
-        <v>0.578435</v>
+        <v>0.716329</v>
       </c>
       <c r="D55" t="n">
-        <v>0.546049</v>
+        <v>0.545215</v>
       </c>
     </row>
     <row r="56">
@@ -11820,13 +11820,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.950897</v>
+        <v>0.951672</v>
       </c>
       <c r="C56" t="n">
-        <v>0.588008</v>
+        <v>0.7239409999999999</v>
       </c>
       <c r="D56" t="n">
-        <v>0.547015</v>
+        <v>0.546109</v>
       </c>
     </row>
     <row r="57">
@@ -11834,13 +11834,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.958005</v>
+        <v>0.960858</v>
       </c>
       <c r="C57" t="n">
-        <v>0.594321</v>
+        <v>0.732722</v>
       </c>
       <c r="D57" t="n">
-        <v>0.547651</v>
+        <v>0.547335</v>
       </c>
     </row>
     <row r="58">
@@ -11848,13 +11848,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.9661999999999999</v>
+        <v>0.967971</v>
       </c>
       <c r="C58" t="n">
-        <v>0.601733</v>
+        <v>0.739826</v>
       </c>
       <c r="D58" t="n">
-        <v>0.549797</v>
+        <v>0.549301</v>
       </c>
     </row>
     <row r="59">
@@ -11862,13 +11862,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.975455</v>
+        <v>0.976522</v>
       </c>
       <c r="C59" t="n">
-        <v>0.60814</v>
+        <v>0.747963</v>
       </c>
       <c r="D59" t="n">
-        <v>0.551516</v>
+        <v>0.552373</v>
       </c>
     </row>
     <row r="60">
@@ -11876,13 +11876,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.983316</v>
+        <v>0.9863690000000001</v>
       </c>
       <c r="C60" t="n">
-        <v>0.617084</v>
+        <v>0.756571</v>
       </c>
       <c r="D60" t="n">
-        <v>0.552489</v>
+        <v>0.553105</v>
       </c>
     </row>
     <row r="61">
@@ -11890,13 +11890,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.991807</v>
+        <v>0.992923</v>
       </c>
       <c r="C61" t="n">
-        <v>0.624696</v>
+        <v>0.769891</v>
       </c>
       <c r="D61" t="n">
-        <v>0.556067</v>
+        <v>0.5567029999999999</v>
       </c>
     </row>
     <row r="62">
@@ -11904,13 +11904,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>1.004</v>
+        <v>1.00654</v>
       </c>
       <c r="C62" t="n">
-        <v>0.633879</v>
+        <v>0.781547</v>
       </c>
       <c r="D62" t="n">
-        <v>0.555903</v>
+        <v>0.556847</v>
       </c>
     </row>
     <row r="63">
@@ -11918,13 +11918,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>1.01519</v>
+        <v>1.01789</v>
       </c>
       <c r="C63" t="n">
-        <v>0.644957</v>
+        <v>0.795469</v>
       </c>
       <c r="D63" t="n">
-        <v>0.557437</v>
+        <v>0.5600619999999999</v>
       </c>
     </row>
     <row r="64">
@@ -11932,13 +11932,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>1.01954</v>
+        <v>1.02342</v>
       </c>
       <c r="C64" t="n">
-        <v>0.656824</v>
+        <v>0.8114209999999999</v>
       </c>
       <c r="D64" t="n">
-        <v>0.559101</v>
+        <v>0.561401</v>
       </c>
     </row>
     <row r="65">
@@ -11946,13 +11946,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>1.03157</v>
+        <v>1.03442</v>
       </c>
       <c r="C65" t="n">
-        <v>0.6730429999999999</v>
+        <v>0.832743</v>
       </c>
       <c r="D65" t="n">
-        <v>0.561236</v>
+        <v>0.564184</v>
       </c>
     </row>
     <row r="66">
@@ -11960,13 +11960,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>1.04137</v>
+        <v>1.04747</v>
       </c>
       <c r="C66" t="n">
-        <v>0.6865059999999999</v>
+        <v>0.847624</v>
       </c>
       <c r="D66" t="n">
-        <v>0.563736</v>
+        <v>0.567598</v>
       </c>
     </row>
     <row r="67">
@@ -11974,13 +11974,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.0579</v>
+        <v>1.06665</v>
       </c>
       <c r="C67" t="n">
-        <v>0.706457</v>
+        <v>0.871134</v>
       </c>
       <c r="D67" t="n">
-        <v>0.564836</v>
+        <v>0.569755</v>
       </c>
     </row>
     <row r="68">
@@ -11988,13 +11988,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>1.0706</v>
+        <v>1.07912</v>
       </c>
       <c r="C68" t="n">
-        <v>0.639688</v>
+        <v>0.809408</v>
       </c>
       <c r="D68" t="n">
-        <v>0.579392</v>
+        <v>0.581886</v>
       </c>
     </row>
     <row r="69">
@@ -12002,13 +12002,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>1.02275</v>
+        <v>1.02582</v>
       </c>
       <c r="C69" t="n">
-        <v>0.663005</v>
+        <v>0.835452</v>
       </c>
       <c r="D69" t="n">
-        <v>0.5871150000000001</v>
+        <v>0.59066</v>
       </c>
     </row>
     <row r="70">
@@ -12016,13 +12016,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>1.04178</v>
+        <v>1.04557</v>
       </c>
       <c r="C70" t="n">
-        <v>0.68788</v>
+        <v>0.864387</v>
       </c>
       <c r="D70" t="n">
-        <v>0.601033</v>
+        <v>0.603591</v>
       </c>
     </row>
     <row r="71">
@@ -12030,13 +12030,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>1.0686</v>
+        <v>1.07154</v>
       </c>
       <c r="C71" t="n">
-        <v>0.720245</v>
+        <v>0.9035609999999999</v>
       </c>
       <c r="D71" t="n">
-        <v>0.615787</v>
+        <v>0.617702</v>
       </c>
     </row>
     <row r="72">
@@ -12044,13 +12044,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>1.1002</v>
+        <v>1.10328</v>
       </c>
       <c r="C72" t="n">
-        <v>0.7480869999999999</v>
+        <v>0.931012</v>
       </c>
       <c r="D72" t="n">
-        <v>0.631332</v>
+        <v>0.6341639999999999</v>
       </c>
     </row>
     <row r="73">
@@ -12058,13 +12058,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>1.13455</v>
+        <v>1.13953</v>
       </c>
       <c r="C73" t="n">
-        <v>0.781613</v>
+        <v>0.966955</v>
       </c>
       <c r="D73" t="n">
-        <v>0.650786</v>
+        <v>0.652949</v>
       </c>
     </row>
     <row r="74">
@@ -12072,13 +12072,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.17143</v>
+        <v>1.17462</v>
       </c>
       <c r="C74" t="n">
-        <v>0.814385</v>
+        <v>1.0022</v>
       </c>
       <c r="D74" t="n">
-        <v>0.668726</v>
+        <v>0.672914</v>
       </c>
     </row>
     <row r="75">
@@ -12086,13 +12086,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>1.21662</v>
+        <v>1.21805</v>
       </c>
       <c r="C75" t="n">
-        <v>0.857159</v>
+        <v>1.04496</v>
       </c>
       <c r="D75" t="n">
-        <v>0.6944669999999999</v>
+        <v>0.697622</v>
       </c>
     </row>
     <row r="76">
@@ -12100,13 +12100,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>1.26261</v>
+        <v>1.26709</v>
       </c>
       <c r="C76" t="n">
-        <v>0.898056</v>
+        <v>1.08316</v>
       </c>
       <c r="D76" t="n">
-        <v>0.71702</v>
+        <v>0.720865</v>
       </c>
     </row>
     <row r="77">
@@ -12114,13 +12114,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>1.31466</v>
+        <v>1.31348</v>
       </c>
       <c r="C77" t="n">
-        <v>0.947899</v>
+        <v>1.1358</v>
       </c>
       <c r="D77" t="n">
-        <v>0.7482839999999999</v>
+        <v>0.747453</v>
       </c>
     </row>
     <row r="78">
@@ -12128,13 +12128,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>1.37193</v>
+        <v>1.37416</v>
       </c>
       <c r="C78" t="n">
-        <v>0.995465</v>
+        <v>1.18025</v>
       </c>
       <c r="D78" t="n">
-        <v>0.779257</v>
+        <v>0.780905</v>
       </c>
     </row>
     <row r="79">
@@ -12142,13 +12142,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.44238</v>
+        <v>1.43845</v>
       </c>
       <c r="C79" t="n">
-        <v>1.0477</v>
+        <v>1.22914</v>
       </c>
       <c r="D79" t="n">
-        <v>0.818106</v>
+        <v>0.813445</v>
       </c>
     </row>
     <row r="80">
@@ -12156,13 +12156,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.51606</v>
+        <v>1.51103</v>
       </c>
       <c r="C80" t="n">
-        <v>1.10053</v>
+        <v>1.28069</v>
       </c>
       <c r="D80" t="n">
-        <v>0.857802</v>
+        <v>0.853244</v>
       </c>
     </row>
     <row r="81">
@@ -12170,13 +12170,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.59946</v>
+        <v>1.59313</v>
       </c>
       <c r="C81" t="n">
-        <v>1.1604</v>
+        <v>1.34485</v>
       </c>
       <c r="D81" t="n">
-        <v>0.899107</v>
+        <v>0.8947619999999999</v>
       </c>
     </row>
     <row r="82">
@@ -12184,13 +12184,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.68469</v>
+        <v>1.67956</v>
       </c>
       <c r="C82" t="n">
-        <v>1.21875</v>
+        <v>1.40265</v>
       </c>
       <c r="D82" t="n">
-        <v>0.9452199999999999</v>
+        <v>0.939831</v>
       </c>
     </row>
     <row r="83">
@@ -12198,13 +12198,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.78708</v>
+        <v>1.78147</v>
       </c>
       <c r="C83" t="n">
-        <v>1.19191</v>
+        <v>1.3836</v>
       </c>
       <c r="D83" t="n">
-        <v>1.06197</v>
+        <v>1.05118</v>
       </c>
     </row>
     <row r="84">
@@ -12212,13 +12212,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.80672</v>
+        <v>1.80058</v>
       </c>
       <c r="C84" t="n">
-        <v>1.24692</v>
+        <v>1.44516</v>
       </c>
       <c r="D84" t="n">
-        <v>1.1177</v>
+        <v>1.10879</v>
       </c>
     </row>
     <row r="85">
@@ -12226,13 +12226,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.91593</v>
+        <v>1.90318</v>
       </c>
       <c r="C85" t="n">
-        <v>1.30562</v>
+        <v>1.50436</v>
       </c>
       <c r="D85" t="n">
-        <v>1.17703</v>
+        <v>1.16781</v>
       </c>
     </row>
     <row r="86">
@@ -12240,13 +12240,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>2.01003</v>
+        <v>2.01289</v>
       </c>
       <c r="C86" t="n">
-        <v>1.37028</v>
+        <v>1.57619</v>
       </c>
       <c r="D86" t="n">
-        <v>1.23214</v>
+        <v>1.22818</v>
       </c>
     </row>
     <row r="87">
@@ -12254,13 +12254,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>2.12753</v>
+        <v>2.11782</v>
       </c>
       <c r="C87" t="n">
-        <v>1.43402</v>
+        <v>1.64078</v>
       </c>
       <c r="D87" t="n">
-        <v>1.29258</v>
+        <v>1.28687</v>
       </c>
     </row>
     <row r="88">
@@ -12268,13 +12268,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>2.23742</v>
+        <v>2.22745</v>
       </c>
       <c r="C88" t="n">
-        <v>1.50779</v>
+        <v>1.71878</v>
       </c>
       <c r="D88" t="n">
-        <v>1.35374</v>
+        <v>1.34702</v>
       </c>
     </row>
     <row r="89">
@@ -12282,13 +12282,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>2.36794</v>
+        <v>2.35478</v>
       </c>
       <c r="C89" t="n">
-        <v>1.57843</v>
+        <v>1.79517</v>
       </c>
       <c r="D89" t="n">
-        <v>1.41326</v>
+        <v>1.40393</v>
       </c>
     </row>
     <row r="90">
@@ -12296,13 +12296,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>2.48957</v>
+        <v>2.47401</v>
       </c>
       <c r="C90" t="n">
-        <v>1.65818</v>
+        <v>1.86893</v>
       </c>
       <c r="D90" t="n">
-        <v>1.475</v>
+        <v>1.46437</v>
       </c>
     </row>
     <row r="91">
@@ -12310,13 +12310,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>2.62168</v>
+        <v>2.60735</v>
       </c>
       <c r="C91" t="n">
-        <v>1.73915</v>
+        <v>1.94738</v>
       </c>
       <c r="D91" t="n">
-        <v>1.5345</v>
+        <v>1.52361</v>
       </c>
     </row>
     <row r="92">
@@ -12324,13 +12324,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>2.76309</v>
+        <v>2.73942</v>
       </c>
       <c r="C92" t="n">
-        <v>1.82453</v>
+        <v>2.04514</v>
       </c>
       <c r="D92" t="n">
-        <v>1.58963</v>
+        <v>1.57968</v>
       </c>
     </row>
     <row r="93">
@@ -12338,13 +12338,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>2.89363</v>
+        <v>2.86701</v>
       </c>
       <c r="C93" t="n">
-        <v>1.9103</v>
+        <v>2.13302</v>
       </c>
       <c r="D93" t="n">
-        <v>1.64499</v>
+        <v>1.6326</v>
       </c>
     </row>
     <row r="94">
@@ -12352,13 +12352,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>3.00862</v>
+        <v>2.98996</v>
       </c>
       <c r="C94" t="n">
-        <v>1.998</v>
+        <v>2.21306</v>
       </c>
       <c r="D94" t="n">
-        <v>1.69525</v>
+        <v>1.68488</v>
       </c>
     </row>
     <row r="95">
@@ -12366,13 +12366,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>3.16377</v>
+        <v>3.13658</v>
       </c>
       <c r="C95" t="n">
-        <v>2.09122</v>
+        <v>2.31515</v>
       </c>
       <c r="D95" t="n">
-        <v>1.74565</v>
+        <v>1.73389</v>
       </c>
     </row>
     <row r="96">
@@ -12380,13 +12380,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>3.2937</v>
+        <v>3.26783</v>
       </c>
       <c r="C96" t="n">
-        <v>2.19131</v>
+        <v>2.40948</v>
       </c>
       <c r="D96" t="n">
-        <v>1.79344</v>
+        <v>1.78374</v>
       </c>
     </row>
     <row r="97">
@@ -12394,13 +12394,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>3.42821</v>
+        <v>3.40983</v>
       </c>
       <c r="C97" t="n">
-        <v>1.9347</v>
+        <v>2.18858</v>
       </c>
       <c r="D97" t="n">
-        <v>1.92073</v>
+        <v>1.90766</v>
       </c>
     </row>
     <row r="98">
@@ -12408,13 +12408,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>3.28406</v>
+        <v>3.25278</v>
       </c>
       <c r="C98" t="n">
-        <v>1.98591</v>
+        <v>2.23057</v>
       </c>
       <c r="D98" t="n">
-        <v>1.96672</v>
+        <v>1.95165</v>
       </c>
     </row>
     <row r="99">
@@ -12422,13 +12422,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>3.40493</v>
+        <v>3.35377</v>
       </c>
       <c r="C99" t="n">
-        <v>2.0515</v>
+        <v>2.30469</v>
       </c>
       <c r="D99" t="n">
-        <v>2.02967</v>
+        <v>1.99397</v>
       </c>
     </row>
     <row r="100">
@@ -12436,13 +12436,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>3.47537</v>
+        <v>3.45496</v>
       </c>
       <c r="C100" t="n">
-        <v>2.12166</v>
+        <v>2.38127</v>
       </c>
       <c r="D100" t="n">
-        <v>2.05369</v>
+        <v>2.0355</v>
       </c>
     </row>
     <row r="101">
@@ -12450,13 +12450,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>3.59894</v>
+        <v>3.57835</v>
       </c>
       <c r="C101" t="n">
-        <v>2.18617</v>
+        <v>2.45051</v>
       </c>
       <c r="D101" t="n">
-        <v>2.10969</v>
+        <v>2.0856</v>
       </c>
     </row>
     <row r="102">
@@ -12464,13 +12464,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>3.71085</v>
+        <v>3.6936</v>
       </c>
       <c r="C102" t="n">
-        <v>2.25483</v>
+        <v>2.5168</v>
       </c>
       <c r="D102" t="n">
-        <v>2.12412</v>
+        <v>2.10855</v>
       </c>
     </row>
     <row r="103">
@@ -12478,13 +12478,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>3.81758</v>
+        <v>3.76481</v>
       </c>
       <c r="C103" t="n">
-        <v>2.32732</v>
+        <v>2.5797</v>
       </c>
       <c r="D103" t="n">
-        <v>2.16776</v>
+        <v>2.14328</v>
       </c>
     </row>
     <row r="104">
@@ -12492,13 +12492,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>3.93711</v>
+        <v>3.88518</v>
       </c>
       <c r="C104" t="n">
-        <v>2.40036</v>
+        <v>2.67013</v>
       </c>
       <c r="D104" t="n">
-        <v>2.19119</v>
+        <v>2.1756</v>
       </c>
     </row>
     <row r="105">
@@ -12506,13 +12506,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>4.00723</v>
+        <v>3.97665</v>
       </c>
       <c r="C105" t="n">
-        <v>2.46766</v>
+        <v>2.74037</v>
       </c>
       <c r="D105" t="n">
-        <v>2.24624</v>
+        <v>2.22201</v>
       </c>
     </row>
     <row r="106">
@@ -12520,13 +12520,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>4.10475</v>
+        <v>4.07823</v>
       </c>
       <c r="C106" t="n">
-        <v>2.56414</v>
+        <v>2.81915</v>
       </c>
       <c r="D106" t="n">
-        <v>2.2682</v>
+        <v>2.24065</v>
       </c>
     </row>
     <row r="107">
@@ -12534,13 +12534,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>4.21454</v>
+        <v>4.19387</v>
       </c>
       <c r="C107" t="n">
-        <v>2.61861</v>
+        <v>2.8519</v>
       </c>
       <c r="D107" t="n">
-        <v>2.29861</v>
+        <v>2.27504</v>
       </c>
     </row>
     <row r="108">
@@ -12548,13 +12548,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>4.31332</v>
+        <v>4.30572</v>
       </c>
       <c r="C108" t="n">
-        <v>2.70745</v>
+        <v>2.97726</v>
       </c>
       <c r="D108" t="n">
-        <v>2.30973</v>
+        <v>2.30016</v>
       </c>
     </row>
     <row r="109">
@@ -12562,13 +12562,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>4.43932</v>
+        <v>4.40859</v>
       </c>
       <c r="C109" t="n">
-        <v>2.80437</v>
+        <v>3.07014</v>
       </c>
       <c r="D109" t="n">
-        <v>2.35334</v>
+        <v>2.32752</v>
       </c>
     </row>
     <row r="110">
@@ -12576,13 +12576,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>4.56041</v>
+        <v>4.52133</v>
       </c>
       <c r="C110" t="n">
-        <v>2.89194</v>
+        <v>3.16431</v>
       </c>
       <c r="D110" t="n">
-        <v>2.36329</v>
+        <v>2.35842</v>
       </c>
     </row>
     <row r="111">
@@ -12590,13 +12590,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>4.65218</v>
+        <v>4.63922</v>
       </c>
       <c r="C111" t="n">
-        <v>2.46671</v>
+        <v>2.79317</v>
       </c>
       <c r="D111" t="n">
-        <v>2.47149</v>
+        <v>2.44815</v>
       </c>
     </row>
     <row r="112">
@@ -12604,13 +12604,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>4.28733</v>
+        <v>4.2616</v>
       </c>
       <c r="C112" t="n">
-        <v>2.53219</v>
+        <v>2.8596</v>
       </c>
       <c r="D112" t="n">
-        <v>2.48346</v>
+        <v>2.47384</v>
       </c>
     </row>
     <row r="113">
@@ -12618,13 +12618,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>4.37576</v>
+        <v>4.35638</v>
       </c>
       <c r="C113" t="n">
-        <v>2.59721</v>
+        <v>2.91738</v>
       </c>
       <c r="D113" t="n">
-        <v>2.51095</v>
+        <v>2.4981</v>
       </c>
     </row>
     <row r="114">
@@ -12632,13 +12632,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>4.45922</v>
+        <v>4.42787</v>
       </c>
       <c r="C114" t="n">
-        <v>2.64017</v>
+        <v>2.97877</v>
       </c>
       <c r="D114" t="n">
-        <v>2.53247</v>
+        <v>2.52269</v>
       </c>
     </row>
     <row r="115">
@@ -12646,13 +12646,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>4.54989</v>
+        <v>4.53223</v>
       </c>
       <c r="C115" t="n">
-        <v>2.7211</v>
+        <v>3.02625</v>
       </c>
       <c r="D115" t="n">
-        <v>2.57004</v>
+        <v>2.547</v>
       </c>
     </row>
     <row r="116">
@@ -12660,13 +12660,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>4.64933</v>
+        <v>4.60803</v>
       </c>
       <c r="C116" t="n">
-        <v>2.77369</v>
+        <v>3.09289</v>
       </c>
       <c r="D116" t="n">
-        <v>2.58912</v>
+        <v>2.56717</v>
       </c>
     </row>
     <row r="117">
@@ -12674,13 +12674,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>4.72492</v>
+        <v>4.68395</v>
       </c>
       <c r="C117" t="n">
-        <v>2.82886</v>
+        <v>3.1536</v>
       </c>
       <c r="D117" t="n">
-        <v>2.61547</v>
+        <v>2.58945</v>
       </c>
     </row>
     <row r="118">
@@ -12688,13 +12688,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>4.8098</v>
+        <v>4.77913</v>
       </c>
       <c r="C118" t="n">
-        <v>2.92124</v>
+        <v>3.22378</v>
       </c>
       <c r="D118" t="n">
-        <v>2.64414</v>
+        <v>2.60421</v>
       </c>
     </row>
     <row r="119">
@@ -12702,13 +12702,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>4.91298</v>
+        <v>4.86563</v>
       </c>
       <c r="C119" t="n">
-        <v>2.98662</v>
+        <v>3.30724</v>
       </c>
       <c r="D119" t="n">
-        <v>2.65666</v>
+        <v>2.62797</v>
       </c>
     </row>
   </sheetData>

--- a/clang_libcpp/scattered erasure.xlsx
+++ b/clang_libcpp/scattered erasure.xlsx
@@ -7680,13 +7680,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.400345</v>
+        <v>0.396289</v>
       </c>
       <c r="C2" t="n">
-        <v>0.327873</v>
+        <v>0.210693</v>
       </c>
       <c r="D2" t="n">
-        <v>0.224752</v>
+        <v>0.207539</v>
       </c>
     </row>
     <row r="3">
@@ -7694,13 +7694,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.403781</v>
+        <v>0.395082</v>
       </c>
       <c r="C3" t="n">
-        <v>0.330263</v>
+        <v>0.212194</v>
       </c>
       <c r="D3" t="n">
-        <v>0.229393</v>
+        <v>0.213929</v>
       </c>
     </row>
     <row r="4">
@@ -7708,13 +7708,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.410189</v>
+        <v>0.401354</v>
       </c>
       <c r="C4" t="n">
-        <v>0.334672</v>
+        <v>0.215132</v>
       </c>
       <c r="D4" t="n">
-        <v>0.235249</v>
+        <v>0.218025</v>
       </c>
     </row>
     <row r="5">
@@ -7722,13 +7722,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.417066</v>
+        <v>0.409699</v>
       </c>
       <c r="C5" t="n">
-        <v>0.337751</v>
+        <v>0.218748</v>
       </c>
       <c r="D5" t="n">
-        <v>0.236091</v>
+        <v>0.225468</v>
       </c>
     </row>
     <row r="6">
@@ -7736,13 +7736,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.415887</v>
+        <v>0.414322</v>
       </c>
       <c r="C6" t="n">
-        <v>0.341125</v>
+        <v>0.221112</v>
       </c>
       <c r="D6" t="n">
-        <v>0.244598</v>
+        <v>0.231772</v>
       </c>
     </row>
     <row r="7">
@@ -7750,13 +7750,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.425985</v>
+        <v>0.419341</v>
       </c>
       <c r="C7" t="n">
-        <v>0.340166</v>
+        <v>0.215022</v>
       </c>
       <c r="D7" t="n">
-        <v>0.246097</v>
+        <v>0.239282</v>
       </c>
     </row>
     <row r="8">
@@ -7764,13 +7764,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.401793</v>
+        <v>0.396845</v>
       </c>
       <c r="C8" t="n">
-        <v>0.341687</v>
+        <v>0.216641</v>
       </c>
       <c r="D8" t="n">
-        <v>0.251514</v>
+        <v>0.246172</v>
       </c>
     </row>
     <row r="9">
@@ -7778,13 +7778,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.408183</v>
+        <v>0.402099</v>
       </c>
       <c r="C9" t="n">
-        <v>0.344368</v>
+        <v>0.218923</v>
       </c>
       <c r="D9" t="n">
-        <v>0.256192</v>
+        <v>0.249758</v>
       </c>
     </row>
     <row r="10">
@@ -7792,13 +7792,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.413622</v>
+        <v>0.410697</v>
       </c>
       <c r="C10" t="n">
-        <v>0.346069</v>
+        <v>0.219997</v>
       </c>
       <c r="D10" t="n">
-        <v>0.260723</v>
+        <v>0.255023</v>
       </c>
     </row>
     <row r="11">
@@ -7806,13 +7806,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.419089</v>
+        <v>0.415078</v>
       </c>
       <c r="C11" t="n">
-        <v>0.34827</v>
+        <v>0.220961</v>
       </c>
       <c r="D11" t="n">
-        <v>0.265707</v>
+        <v>0.261261</v>
       </c>
     </row>
     <row r="12">
@@ -7820,13 +7820,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.424209</v>
+        <v>0.421937</v>
       </c>
       <c r="C12" t="n">
-        <v>0.349832</v>
+        <v>0.222557</v>
       </c>
       <c r="D12" t="n">
-        <v>0.268452</v>
+        <v>0.265802</v>
       </c>
     </row>
     <row r="13">
@@ -7834,13 +7834,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.427762</v>
+        <v>0.427387</v>
       </c>
       <c r="C13" t="n">
-        <v>0.351135</v>
+        <v>0.224696</v>
       </c>
       <c r="D13" t="n">
-        <v>0.273397</v>
+        <v>0.269108</v>
       </c>
     </row>
     <row r="14">
@@ -7848,13 +7848,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.436874</v>
+        <v>0.432588</v>
       </c>
       <c r="C14" t="n">
-        <v>0.353705</v>
+        <v>0.226813</v>
       </c>
       <c r="D14" t="n">
-        <v>0.279389</v>
+        <v>0.275607</v>
       </c>
     </row>
     <row r="15">
@@ -7862,13 +7862,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.442583</v>
+        <v>0.439746</v>
       </c>
       <c r="C15" t="n">
-        <v>0.356678</v>
+        <v>0.228397</v>
       </c>
       <c r="D15" t="n">
-        <v>0.284842</v>
+        <v>0.280203</v>
       </c>
     </row>
     <row r="16">
@@ -7876,13 +7876,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.448578</v>
+        <v>0.44521</v>
       </c>
       <c r="C16" t="n">
-        <v>0.359515</v>
+        <v>0.231094</v>
       </c>
       <c r="D16" t="n">
-        <v>0.288594</v>
+        <v>0.285141</v>
       </c>
     </row>
     <row r="17">
@@ -7890,13 +7890,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.454155</v>
+        <v>0.452229</v>
       </c>
       <c r="C17" t="n">
-        <v>0.361482</v>
+        <v>0.233501</v>
       </c>
       <c r="D17" t="n">
-        <v>0.293245</v>
+        <v>0.291012</v>
       </c>
     </row>
     <row r="18">
@@ -7904,13 +7904,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.460402</v>
+        <v>0.458355</v>
       </c>
       <c r="C18" t="n">
-        <v>0.364085</v>
+        <v>0.23592</v>
       </c>
       <c r="D18" t="n">
-        <v>0.297667</v>
+        <v>0.296796</v>
       </c>
     </row>
     <row r="19">
@@ -7918,13 +7918,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.464365</v>
+        <v>0.465348</v>
       </c>
       <c r="C19" t="n">
-        <v>0.365937</v>
+        <v>0.238544</v>
       </c>
       <c r="D19" t="n">
-        <v>0.301278</v>
+        <v>0.300288</v>
       </c>
     </row>
     <row r="20">
@@ -7932,13 +7932,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.471205</v>
+        <v>0.471338</v>
       </c>
       <c r="C20" t="n">
-        <v>0.370123</v>
+        <v>0.241685</v>
       </c>
       <c r="D20" t="n">
-        <v>0.305042</v>
+        <v>0.30446</v>
       </c>
     </row>
     <row r="21">
@@ -7946,13 +7946,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.475432</v>
+        <v>0.475529</v>
       </c>
       <c r="C21" t="n">
-        <v>0.365865</v>
+        <v>0.234226</v>
       </c>
       <c r="D21" t="n">
-        <v>0.305962</v>
+        <v>0.306096</v>
       </c>
     </row>
     <row r="22">
@@ -7960,13 +7960,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.458092</v>
+        <v>0.457566</v>
       </c>
       <c r="C22" t="n">
-        <v>0.366997</v>
+        <v>0.234462</v>
       </c>
       <c r="D22" t="n">
-        <v>0.310005</v>
+        <v>0.309022</v>
       </c>
     </row>
     <row r="23">
@@ -7974,13 +7974,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.462533</v>
+        <v>0.462079</v>
       </c>
       <c r="C23" t="n">
-        <v>0.368396</v>
+        <v>0.236704</v>
       </c>
       <c r="D23" t="n">
-        <v>0.31252</v>
+        <v>0.312588</v>
       </c>
     </row>
     <row r="24">
@@ -7988,13 +7988,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.466762</v>
+        <v>0.465878</v>
       </c>
       <c r="C24" t="n">
-        <v>0.369563</v>
+        <v>0.238227</v>
       </c>
       <c r="D24" t="n">
-        <v>0.315335</v>
+        <v>0.31467</v>
       </c>
     </row>
     <row r="25">
@@ -8002,13 +8002,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.472034</v>
+        <v>0.471598</v>
       </c>
       <c r="C25" t="n">
-        <v>0.370654</v>
+        <v>0.237945</v>
       </c>
       <c r="D25" t="n">
-        <v>0.318323</v>
+        <v>0.316519</v>
       </c>
     </row>
     <row r="26">
@@ -8016,13 +8016,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.475488</v>
+        <v>0.475114</v>
       </c>
       <c r="C26" t="n">
-        <v>0.372162</v>
+        <v>0.240702</v>
       </c>
       <c r="D26" t="n">
-        <v>0.321383</v>
+        <v>0.318891</v>
       </c>
     </row>
     <row r="27">
@@ -8030,13 +8030,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.479337</v>
+        <v>0.477999</v>
       </c>
       <c r="C27" t="n">
-        <v>0.374405</v>
+        <v>0.241298</v>
       </c>
       <c r="D27" t="n">
-        <v>0.324006</v>
+        <v>0.324949</v>
       </c>
     </row>
     <row r="28">
@@ -8044,13 +8044,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.484608</v>
+        <v>0.483628</v>
       </c>
       <c r="C28" t="n">
-        <v>0.376599</v>
+        <v>0.243162</v>
       </c>
       <c r="D28" t="n">
-        <v>0.327321</v>
+        <v>0.327061</v>
       </c>
     </row>
     <row r="29">
@@ -8058,13 +8058,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.488203</v>
+        <v>0.489345</v>
       </c>
       <c r="C29" t="n">
-        <v>0.378439</v>
+        <v>0.245834</v>
       </c>
       <c r="D29" t="n">
-        <v>0.329101</v>
+        <v>0.329126</v>
       </c>
     </row>
     <row r="30">
@@ -8072,13 +8072,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.492816</v>
+        <v>0.492356</v>
       </c>
       <c r="C30" t="n">
-        <v>0.380971</v>
+        <v>0.24878</v>
       </c>
       <c r="D30" t="n">
-        <v>0.332614</v>
+        <v>0.333987</v>
       </c>
     </row>
     <row r="31">
@@ -8086,13 +8086,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.497671</v>
+        <v>0.498405</v>
       </c>
       <c r="C31" t="n">
-        <v>0.382167</v>
+        <v>0.251403</v>
       </c>
       <c r="D31" t="n">
-        <v>0.335548</v>
+        <v>0.33752</v>
       </c>
     </row>
     <row r="32">
@@ -8100,13 +8100,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.501907</v>
+        <v>0.5025269999999999</v>
       </c>
       <c r="C32" t="n">
-        <v>0.385084</v>
+        <v>0.251508</v>
       </c>
       <c r="D32" t="n">
-        <v>0.33764</v>
+        <v>0.338159</v>
       </c>
     </row>
     <row r="33">
@@ -8114,13 +8114,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.50675</v>
+        <v>0.508019</v>
       </c>
       <c r="C33" t="n">
-        <v>0.386976</v>
+        <v>0.255809</v>
       </c>
       <c r="D33" t="n">
-        <v>0.340715</v>
+        <v>0.343183</v>
       </c>
     </row>
     <row r="34">
@@ -8128,13 +8128,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.512085</v>
+        <v>0.513202</v>
       </c>
       <c r="C34" t="n">
-        <v>0.389318</v>
+        <v>0.256895</v>
       </c>
       <c r="D34" t="n">
-        <v>0.34338</v>
+        <v>0.345396</v>
       </c>
     </row>
     <row r="35">
@@ -8142,13 +8142,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.516879</v>
+        <v>0.51828</v>
       </c>
       <c r="C35" t="n">
-        <v>0.379026</v>
+        <v>0.244969</v>
       </c>
       <c r="D35" t="n">
-        <v>0.339127</v>
+        <v>0.339086</v>
       </c>
     </row>
     <row r="36">
@@ -8156,13 +8156,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.490091</v>
+        <v>0.490413</v>
       </c>
       <c r="C36" t="n">
-        <v>0.380643</v>
+        <v>0.249213</v>
       </c>
       <c r="D36" t="n">
-        <v>0.340409</v>
+        <v>0.340734</v>
       </c>
     </row>
     <row r="37">
@@ -8170,13 +8170,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.492791</v>
+        <v>0.493302</v>
       </c>
       <c r="C37" t="n">
-        <v>0.382711</v>
+        <v>0.247727</v>
       </c>
       <c r="D37" t="n">
-        <v>0.342082</v>
+        <v>0.341449</v>
       </c>
     </row>
     <row r="38">
@@ -8184,13 +8184,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.494881</v>
+        <v>0.496285</v>
       </c>
       <c r="C38" t="n">
-        <v>0.382923</v>
+        <v>0.25338</v>
       </c>
       <c r="D38" t="n">
-        <v>0.343298</v>
+        <v>0.342421</v>
       </c>
     </row>
     <row r="39">
@@ -8198,13 +8198,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.498662</v>
+        <v>0.499099</v>
       </c>
       <c r="C39" t="n">
-        <v>0.384433</v>
+        <v>0.253349</v>
       </c>
       <c r="D39" t="n">
-        <v>0.345021</v>
+        <v>0.34593</v>
       </c>
     </row>
     <row r="40">
@@ -8212,13 +8212,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.501156</v>
+        <v>0.502213</v>
       </c>
       <c r="C40" t="n">
-        <v>0.385503</v>
+        <v>0.255549</v>
       </c>
       <c r="D40" t="n">
-        <v>0.346611</v>
+        <v>0.35017</v>
       </c>
     </row>
     <row r="41">
@@ -8226,13 +8226,13 @@
         <v>66357</v>
       </c>
       <c r="B41" t="n">
-        <v>0.504226</v>
+        <v>0.505613</v>
       </c>
       <c r="C41" t="n">
-        <v>0.385921</v>
+        <v>0.255093</v>
       </c>
       <c r="D41" t="n">
-        <v>0.347744</v>
+        <v>0.35097</v>
       </c>
     </row>
     <row r="42">
@@ -8240,13 +8240,13 @@
         <v>69656</v>
       </c>
       <c r="B42" t="n">
-        <v>0.507198</v>
+        <v>0.508682</v>
       </c>
       <c r="C42" t="n">
-        <v>0.387204</v>
+        <v>0.261996</v>
       </c>
       <c r="D42" t="n">
-        <v>0.349407</v>
+        <v>0.353111</v>
       </c>
     </row>
     <row r="43">
@@ -8254,13 +8254,13 @@
         <v>73119</v>
       </c>
       <c r="B43" t="n">
-        <v>0.512514</v>
+        <v>0.513898</v>
       </c>
       <c r="C43" t="n">
-        <v>0.389347</v>
+        <v>0.258613</v>
       </c>
       <c r="D43" t="n">
-        <v>0.352188</v>
+        <v>0.354651</v>
       </c>
     </row>
     <row r="44">
@@ -8268,13 +8268,13 @@
         <v>76755</v>
       </c>
       <c r="B44" t="n">
-        <v>0.514967</v>
+        <v>0.515081</v>
       </c>
       <c r="C44" t="n">
-        <v>0.392396</v>
+        <v>0.264614</v>
       </c>
       <c r="D44" t="n">
-        <v>0.354026</v>
+        <v>0.357526</v>
       </c>
     </row>
     <row r="45">
@@ -8282,13 +8282,13 @@
         <v>80572</v>
       </c>
       <c r="B45" t="n">
-        <v>0.5192020000000001</v>
+        <v>0.520288</v>
       </c>
       <c r="C45" t="n">
-        <v>0.394085</v>
+        <v>0.268456</v>
       </c>
       <c r="D45" t="n">
-        <v>0.356199</v>
+        <v>0.358792</v>
       </c>
     </row>
     <row r="46">
@@ -8296,13 +8296,13 @@
         <v>84579</v>
       </c>
       <c r="B46" t="n">
-        <v>0.522485</v>
+        <v>0.523085</v>
       </c>
       <c r="C46" t="n">
-        <v>0.396262</v>
+        <v>0.269221</v>
       </c>
       <c r="D46" t="n">
-        <v>0.358891</v>
+        <v>0.361664</v>
       </c>
     </row>
     <row r="47">
@@ -8310,13 +8310,13 @@
         <v>88786</v>
       </c>
       <c r="B47" t="n">
-        <v>0.527745</v>
+        <v>0.528351</v>
       </c>
       <c r="C47" t="n">
-        <v>0.398048</v>
+        <v>0.273136</v>
       </c>
       <c r="D47" t="n">
-        <v>0.361076</v>
+        <v>0.363938</v>
       </c>
     </row>
     <row r="48">
@@ -8324,13 +8324,13 @@
         <v>93203</v>
       </c>
       <c r="B48" t="n">
-        <v>0.531562</v>
+        <v>0.531465</v>
       </c>
       <c r="C48" t="n">
-        <v>0.40098</v>
+        <v>0.274874</v>
       </c>
       <c r="D48" t="n">
-        <v>0.362722</v>
+        <v>0.366557</v>
       </c>
     </row>
     <row r="49">
@@ -8338,13 +8338,13 @@
         <v>97840</v>
       </c>
       <c r="B49" t="n">
-        <v>0.535903</v>
+        <v>0.5373289999999999</v>
       </c>
       <c r="C49" t="n">
-        <v>0.40372</v>
+        <v>0.277919</v>
       </c>
       <c r="D49" t="n">
-        <v>0.364302</v>
+        <v>0.368124</v>
       </c>
     </row>
     <row r="50">
@@ -8352,13 +8352,13 @@
         <v>102706</v>
       </c>
       <c r="B50" t="n">
-        <v>0.540839</v>
+        <v>0.541311</v>
       </c>
       <c r="C50" t="n">
-        <v>0.391548</v>
+        <v>0.267403</v>
       </c>
       <c r="D50" t="n">
-        <v>0.355883</v>
+        <v>0.357147</v>
       </c>
     </row>
     <row r="51">
@@ -8366,13 +8366,13 @@
         <v>107816</v>
       </c>
       <c r="B51" t="n">
-        <v>0.509369</v>
+        <v>0.509091</v>
       </c>
       <c r="C51" t="n">
-        <v>0.392367</v>
+        <v>0.261641</v>
       </c>
       <c r="D51" t="n">
-        <v>0.356846</v>
+        <v>0.358691</v>
       </c>
     </row>
     <row r="52">
@@ -8380,13 +8380,13 @@
         <v>113182</v>
       </c>
       <c r="B52" t="n">
-        <v>0.51235</v>
+        <v>0.513089</v>
       </c>
       <c r="C52" t="n">
-        <v>0.393649</v>
+        <v>0.265138</v>
       </c>
       <c r="D52" t="n">
-        <v>0.357442</v>
+        <v>0.358188</v>
       </c>
     </row>
     <row r="53">
@@ -8394,13 +8394,13 @@
         <v>118816</v>
       </c>
       <c r="B53" t="n">
-        <v>0.513771</v>
+        <v>0.513921</v>
       </c>
       <c r="C53" t="n">
-        <v>0.394937</v>
+        <v>0.265252</v>
       </c>
       <c r="D53" t="n">
-        <v>0.359244</v>
+        <v>0.362051</v>
       </c>
     </row>
     <row r="54">
@@ -8408,13 +8408,13 @@
         <v>124731</v>
       </c>
       <c r="B54" t="n">
-        <v>0.516177</v>
+        <v>0.517252</v>
       </c>
       <c r="C54" t="n">
-        <v>0.399653</v>
+        <v>0.264767</v>
       </c>
       <c r="D54" t="n">
-        <v>0.360345</v>
+        <v>0.36256</v>
       </c>
     </row>
     <row r="55">
@@ -8422,13 +8422,13 @@
         <v>130941</v>
       </c>
       <c r="B55" t="n">
-        <v>0.519167</v>
+        <v>0.519621</v>
       </c>
       <c r="C55" t="n">
-        <v>0.406375</v>
+        <v>0.269493</v>
       </c>
       <c r="D55" t="n">
-        <v>0.362395</v>
+        <v>0.363374</v>
       </c>
     </row>
     <row r="56">
@@ -8436,13 +8436,13 @@
         <v>137461</v>
       </c>
       <c r="B56" t="n">
-        <v>0.5218699999999999</v>
+        <v>0.522255</v>
       </c>
       <c r="C56" t="n">
-        <v>0.409269</v>
+        <v>0.273355</v>
       </c>
       <c r="D56" t="n">
-        <v>0.364309</v>
+        <v>0.365106</v>
       </c>
     </row>
     <row r="57">
@@ -8450,13 +8450,13 @@
         <v>144307</v>
       </c>
       <c r="B57" t="n">
-        <v>0.525165</v>
+        <v>0.5253989999999999</v>
       </c>
       <c r="C57" t="n">
-        <v>0.413612</v>
+        <v>0.276042</v>
       </c>
       <c r="D57" t="n">
-        <v>0.365143</v>
+        <v>0.366584</v>
       </c>
     </row>
     <row r="58">
@@ -8464,13 +8464,13 @@
         <v>151495</v>
       </c>
       <c r="B58" t="n">
-        <v>0.529024</v>
+        <v>0.53064</v>
       </c>
       <c r="C58" t="n">
-        <v>0.418082</v>
+        <v>0.282549</v>
       </c>
       <c r="D58" t="n">
-        <v>0.367237</v>
+        <v>0.369826</v>
       </c>
     </row>
     <row r="59">
@@ -8478,13 +8478,13 @@
         <v>159042</v>
       </c>
       <c r="B59" t="n">
-        <v>0.533509</v>
+        <v>0.533002</v>
       </c>
       <c r="C59" t="n">
-        <v>0.426384</v>
+        <v>0.284466</v>
       </c>
       <c r="D59" t="n">
-        <v>0.369596</v>
+        <v>0.370518</v>
       </c>
     </row>
     <row r="60">
@@ -8492,13 +8492,13 @@
         <v>166965</v>
       </c>
       <c r="B60" t="n">
-        <v>0.538028</v>
+        <v>0.53571</v>
       </c>
       <c r="C60" t="n">
-        <v>0.431976</v>
+        <v>0.292833</v>
       </c>
       <c r="D60" t="n">
-        <v>0.371992</v>
+        <v>0.373538</v>
       </c>
     </row>
     <row r="61">
@@ -8506,13 +8506,13 @@
         <v>175284</v>
       </c>
       <c r="B61" t="n">
-        <v>0.544744</v>
+        <v>0.542411</v>
       </c>
       <c r="C61" t="n">
-        <v>0.445751</v>
+        <v>0.295597</v>
       </c>
       <c r="D61" t="n">
-        <v>0.376176</v>
+        <v>0.377657</v>
       </c>
     </row>
     <row r="62">
@@ -8520,13 +8520,13 @@
         <v>184019</v>
       </c>
       <c r="B62" t="n">
-        <v>0.552155</v>
+        <v>0.54701</v>
       </c>
       <c r="C62" t="n">
-        <v>0.459495</v>
+        <v>0.301088</v>
       </c>
       <c r="D62" t="n">
-        <v>0.380259</v>
+        <v>0.379954</v>
       </c>
     </row>
     <row r="63">
@@ -8534,13 +8534,13 @@
         <v>193190</v>
       </c>
       <c r="B63" t="n">
-        <v>0.560688</v>
+        <v>0.55102</v>
       </c>
       <c r="C63" t="n">
-        <v>0.480684</v>
+        <v>0.307748</v>
       </c>
       <c r="D63" t="n">
-        <v>0.385044</v>
+        <v>0.38289</v>
       </c>
     </row>
     <row r="64">
@@ -8548,13 +8548,13 @@
         <v>202820</v>
       </c>
       <c r="B64" t="n">
-        <v>0.570369</v>
+        <v>0.561079</v>
       </c>
       <c r="C64" t="n">
-        <v>0.5774550000000001</v>
+        <v>0.344495</v>
       </c>
       <c r="D64" t="n">
-        <v>0.425505</v>
+        <v>0.409533</v>
       </c>
     </row>
     <row r="65">
@@ -8562,13 +8562,13 @@
         <v>212931</v>
       </c>
       <c r="B65" t="n">
-        <v>0.60627</v>
+        <v>0.586066</v>
       </c>
       <c r="C65" t="n">
-        <v>0.595625</v>
+        <v>0.354904</v>
       </c>
       <c r="D65" t="n">
-        <v>0.420891</v>
+        <v>0.428042</v>
       </c>
     </row>
     <row r="66">
@@ -8576,13 +8576,13 @@
         <v>223547</v>
       </c>
       <c r="B66" t="n">
-        <v>0.60094</v>
+        <v>0.610028</v>
       </c>
       <c r="C66" t="n">
-        <v>0.621573</v>
+        <v>0.370518</v>
       </c>
       <c r="D66" t="n">
-        <v>0.448321</v>
+        <v>0.42784</v>
       </c>
     </row>
     <row r="67">
@@ -8590,13 +8590,13 @@
         <v>234692</v>
       </c>
       <c r="B67" t="n">
-        <v>0.633572</v>
+        <v>0.610136</v>
       </c>
       <c r="C67" t="n">
-        <v>0.645163</v>
+        <v>0.381458</v>
       </c>
       <c r="D67" t="n">
-        <v>0.455427</v>
+        <v>0.434693</v>
       </c>
     </row>
     <row r="68">
@@ -8604,13 +8604,13 @@
         <v>246395</v>
       </c>
       <c r="B68" t="n">
-        <v>0.653389</v>
+        <v>0.627207</v>
       </c>
       <c r="C68" t="n">
-        <v>0.670564</v>
+        <v>0.397609</v>
       </c>
       <c r="D68" t="n">
-        <v>0.465398</v>
+        <v>0.432165</v>
       </c>
     </row>
     <row r="69">
@@ -8618,13 +8618,13 @@
         <v>258683</v>
       </c>
       <c r="B69" t="n">
-        <v>0.664318</v>
+        <v>0.624128</v>
       </c>
       <c r="C69" t="n">
-        <v>0.6939920000000001</v>
+        <v>0.412849</v>
       </c>
       <c r="D69" t="n">
-        <v>0.482104</v>
+        <v>0.459799</v>
       </c>
     </row>
     <row r="70">
@@ -8632,13 +8632,13 @@
         <v>271585</v>
       </c>
       <c r="B70" t="n">
-        <v>0.691818</v>
+        <v>0.665409</v>
       </c>
       <c r="C70" t="n">
-        <v>0.724266</v>
+        <v>0.429655</v>
       </c>
       <c r="D70" t="n">
-        <v>0.501493</v>
+        <v>0.480786</v>
       </c>
     </row>
     <row r="71">
@@ -8646,13 +8646,13 @@
         <v>285132</v>
       </c>
       <c r="B71" t="n">
-        <v>0.7142579999999999</v>
+        <v>0.670082</v>
       </c>
       <c r="C71" t="n">
-        <v>0.748929</v>
+        <v>0.447816</v>
       </c>
       <c r="D71" t="n">
-        <v>0.523988</v>
+        <v>0.50651</v>
       </c>
     </row>
     <row r="72">
@@ -8660,13 +8660,13 @@
         <v>299354</v>
       </c>
       <c r="B72" t="n">
-        <v>0.752756</v>
+        <v>0.7199719999999999</v>
       </c>
       <c r="C72" t="n">
-        <v>0.781926</v>
+        <v>0.468255</v>
       </c>
       <c r="D72" t="n">
-        <v>0.550906</v>
+        <v>0.51273</v>
       </c>
     </row>
     <row r="73">
@@ -8674,13 +8674,13 @@
         <v>314289</v>
       </c>
       <c r="B73" t="n">
-        <v>0.7870470000000001</v>
+        <v>0.736177</v>
       </c>
       <c r="C73" t="n">
-        <v>0.81238</v>
+        <v>0.49155</v>
       </c>
       <c r="D73" t="n">
-        <v>0.5785090000000001</v>
+        <v>0.5428460000000001</v>
       </c>
     </row>
     <row r="74">
@@ -8688,13 +8688,13 @@
         <v>329969</v>
       </c>
       <c r="B74" t="n">
-        <v>0.8255209999999999</v>
+        <v>0.78792</v>
       </c>
       <c r="C74" t="n">
-        <v>0.837448</v>
+        <v>0.515956</v>
       </c>
       <c r="D74" t="n">
-        <v>0.591483</v>
+        <v>0.564376</v>
       </c>
     </row>
     <row r="75">
@@ -8702,13 +8702,13 @@
         <v>346432</v>
       </c>
       <c r="B75" t="n">
-        <v>0.834943</v>
+        <v>0.815234</v>
       </c>
       <c r="C75" t="n">
-        <v>0.85769</v>
+        <v>0.530583</v>
       </c>
       <c r="D75" t="n">
-        <v>0.623674</v>
+        <v>0.603112</v>
       </c>
     </row>
     <row r="76">
@@ -8716,13 +8716,13 @@
         <v>363719</v>
       </c>
       <c r="B76" t="n">
-        <v>0.889033</v>
+        <v>0.84195</v>
       </c>
       <c r="C76" t="n">
-        <v>0.884004</v>
+        <v>0.546606</v>
       </c>
       <c r="D76" t="n">
-        <v>0.654748</v>
+        <v>0.623046</v>
       </c>
     </row>
     <row r="77">
@@ -8730,13 +8730,13 @@
         <v>381870</v>
       </c>
       <c r="B77" t="n">
-        <v>0.92919</v>
+        <v>0.895081</v>
       </c>
       <c r="C77" t="n">
-        <v>0.908871</v>
+        <v>0.5673589999999999</v>
       </c>
       <c r="D77" t="n">
-        <v>0.688565</v>
+        <v>0.655247</v>
       </c>
     </row>
     <row r="78">
@@ -8744,13 +8744,13 @@
         <v>400928</v>
       </c>
       <c r="B78" t="n">
-        <v>0.978947</v>
+        <v>0.930023</v>
       </c>
       <c r="C78" t="n">
-        <v>1.10081</v>
+        <v>0.671305</v>
       </c>
       <c r="D78" t="n">
-        <v>0.965087</v>
+        <v>0.870185</v>
       </c>
     </row>
     <row r="79">
@@ -8758,13 +8758,13 @@
         <v>420937</v>
       </c>
       <c r="B79" t="n">
-        <v>1.32393</v>
+        <v>1.20697</v>
       </c>
       <c r="C79" t="n">
-        <v>1.1192</v>
+        <v>0.6841739999999999</v>
       </c>
       <c r="D79" t="n">
-        <v>1.0074</v>
+        <v>0.912821</v>
       </c>
     </row>
     <row r="80">
@@ -8772,13 +8772,13 @@
         <v>441947</v>
       </c>
       <c r="B80" t="n">
-        <v>1.37734</v>
+        <v>1.25777</v>
       </c>
       <c r="C80" t="n">
-        <v>1.14027</v>
+        <v>0.695681</v>
       </c>
       <c r="D80" t="n">
-        <v>1.04117</v>
+        <v>0.9535360000000001</v>
       </c>
     </row>
     <row r="81">
@@ -8786,13 +8786,13 @@
         <v>464005</v>
       </c>
       <c r="B81" t="n">
-        <v>1.41301</v>
+        <v>1.31919</v>
       </c>
       <c r="C81" t="n">
-        <v>1.15885</v>
+        <v>0.71028</v>
       </c>
       <c r="D81" t="n">
-        <v>1.09837</v>
+        <v>1.00607</v>
       </c>
     </row>
     <row r="82">
@@ -8800,13 +8800,13 @@
         <v>487165</v>
       </c>
       <c r="B82" t="n">
-        <v>1.48551</v>
+        <v>1.38005</v>
       </c>
       <c r="C82" t="n">
-        <v>1.1783</v>
+        <v>0.724074</v>
       </c>
       <c r="D82" t="n">
-        <v>1.14517</v>
+        <v>1.03344</v>
       </c>
     </row>
     <row r="83">
@@ -8814,13 +8814,13 @@
         <v>511485</v>
       </c>
       <c r="B83" t="n">
-        <v>1.54508</v>
+        <v>1.4133</v>
       </c>
       <c r="C83" t="n">
-        <v>1.19717</v>
+        <v>0.733173</v>
       </c>
       <c r="D83" t="n">
-        <v>1.18901</v>
+        <v>1.0729</v>
       </c>
     </row>
     <row r="84">
@@ -8828,13 +8828,13 @@
         <v>537019</v>
       </c>
       <c r="B84" t="n">
-        <v>1.60043</v>
+        <v>1.47078</v>
       </c>
       <c r="C84" t="n">
-        <v>1.2175</v>
+        <v>0.740042</v>
       </c>
       <c r="D84" t="n">
-        <v>1.23396</v>
+        <v>1.10501</v>
       </c>
     </row>
     <row r="85">
@@ -8842,13 +8842,13 @@
         <v>563827</v>
       </c>
       <c r="B85" t="n">
-        <v>1.66013</v>
+        <v>1.51138</v>
       </c>
       <c r="C85" t="n">
-        <v>1.23601</v>
+        <v>0.753535</v>
       </c>
       <c r="D85" t="n">
-        <v>1.27696</v>
+        <v>1.14718</v>
       </c>
     </row>
     <row r="86">
@@ -8856,13 +8856,13 @@
         <v>591977</v>
       </c>
       <c r="B86" t="n">
-        <v>1.70889</v>
+        <v>1.57227</v>
       </c>
       <c r="C86" t="n">
-        <v>1.25319</v>
+        <v>0.764748</v>
       </c>
       <c r="D86" t="n">
-        <v>1.3195</v>
+        <v>1.18768</v>
       </c>
     </row>
     <row r="87">
@@ -8870,13 +8870,13 @@
         <v>621532</v>
       </c>
       <c r="B87" t="n">
-        <v>1.76558</v>
+        <v>1.6152</v>
       </c>
       <c r="C87" t="n">
-        <v>1.27014</v>
+        <v>0.774115</v>
       </c>
       <c r="D87" t="n">
-        <v>1.36134</v>
+        <v>1.22228</v>
       </c>
     </row>
     <row r="88">
@@ -8884,13 +8884,13 @@
         <v>652567</v>
       </c>
       <c r="B88" t="n">
-        <v>1.81928</v>
+        <v>1.657</v>
       </c>
       <c r="C88" t="n">
-        <v>1.28789</v>
+        <v>0.784801</v>
       </c>
       <c r="D88" t="n">
-        <v>1.40394</v>
+        <v>1.2548</v>
       </c>
     </row>
     <row r="89">
@@ -8898,13 +8898,13 @@
         <v>685151</v>
       </c>
       <c r="B89" t="n">
-        <v>1.87647</v>
+        <v>1.69975</v>
       </c>
       <c r="C89" t="n">
-        <v>1.30426</v>
+        <v>0.799271</v>
       </c>
       <c r="D89" t="n">
-        <v>1.44249</v>
+        <v>1.29083</v>
       </c>
     </row>
     <row r="90">
@@ -8912,13 +8912,13 @@
         <v>719359</v>
       </c>
       <c r="B90" t="n">
-        <v>1.92192</v>
+        <v>1.74664</v>
       </c>
       <c r="C90" t="n">
-        <v>1.322</v>
+        <v>0.805227</v>
       </c>
       <c r="D90" t="n">
-        <v>1.4817</v>
+        <v>1.31756</v>
       </c>
     </row>
     <row r="91">
@@ -8926,13 +8926,13 @@
         <v>755280</v>
       </c>
       <c r="B91" t="n">
-        <v>1.97448</v>
+        <v>1.77792</v>
       </c>
       <c r="C91" t="n">
-        <v>1.3376</v>
+        <v>0.817384</v>
       </c>
       <c r="D91" t="n">
-        <v>1.51598</v>
+        <v>1.34753</v>
       </c>
     </row>
     <row r="92">
@@ -8940,13 +8940,13 @@
         <v>792997</v>
       </c>
       <c r="B92" t="n">
-        <v>2.01825</v>
+        <v>1.82189</v>
       </c>
       <c r="C92" t="n">
-        <v>1.45376</v>
+        <v>0.87885</v>
       </c>
       <c r="D92" t="n">
-        <v>1.72115</v>
+        <v>1.53586</v>
       </c>
     </row>
     <row r="93">
@@ -8954,13 +8954,13 @@
         <v>832595</v>
       </c>
       <c r="B93" t="n">
-        <v>2.26803</v>
+        <v>2.04779</v>
       </c>
       <c r="C93" t="n">
-        <v>1.45776</v>
+        <v>0.881103</v>
       </c>
       <c r="D93" t="n">
-        <v>1.74589</v>
+        <v>1.52987</v>
       </c>
     </row>
     <row r="94">
@@ -8968,13 +8968,13 @@
         <v>874177</v>
       </c>
       <c r="B94" t="n">
-        <v>2.30435</v>
+        <v>2.04954</v>
       </c>
       <c r="C94" t="n">
-        <v>1.47072</v>
+        <v>0.892034</v>
       </c>
       <c r="D94" t="n">
-        <v>1.76814</v>
+        <v>1.54855</v>
       </c>
     </row>
     <row r="95">
@@ -8982,13 +8982,13 @@
         <v>917832</v>
       </c>
       <c r="B95" t="n">
-        <v>2.33079</v>
+        <v>2.09563</v>
       </c>
       <c r="C95" t="n">
-        <v>1.48071</v>
+        <v>0.8881250000000001</v>
       </c>
       <c r="D95" t="n">
-        <v>1.79196</v>
+        <v>1.58887</v>
       </c>
     </row>
     <row r="96">
@@ -8996,13 +8996,13 @@
         <v>963677</v>
       </c>
       <c r="B96" t="n">
-        <v>2.36729</v>
+        <v>2.1248</v>
       </c>
       <c r="C96" t="n">
-        <v>1.4892</v>
+        <v>0.905436</v>
       </c>
       <c r="D96" t="n">
-        <v>1.81341</v>
+        <v>1.61813</v>
       </c>
     </row>
     <row r="97">
@@ -9010,13 +9010,13 @@
         <v>1011813</v>
       </c>
       <c r="B97" t="n">
-        <v>2.39691</v>
+        <v>2.15897</v>
       </c>
       <c r="C97" t="n">
-        <v>1.49891</v>
+        <v>0.914556</v>
       </c>
       <c r="D97" t="n">
-        <v>1.83338</v>
+        <v>1.63151</v>
       </c>
     </row>
     <row r="98">
@@ -9024,13 +9024,13 @@
         <v>1062351</v>
       </c>
       <c r="B98" t="n">
-        <v>2.42004</v>
+        <v>2.17615</v>
       </c>
       <c r="C98" t="n">
-        <v>1.50937</v>
+        <v>0.917033</v>
       </c>
       <c r="D98" t="n">
-        <v>1.85302</v>
+        <v>1.65066</v>
       </c>
     </row>
     <row r="99">
@@ -9038,13 +9038,13 @@
         <v>1115422</v>
       </c>
       <c r="B99" t="n">
-        <v>2.45138</v>
+        <v>2.20753</v>
       </c>
       <c r="C99" t="n">
-        <v>1.52139</v>
+        <v>0.928505</v>
       </c>
       <c r="D99" t="n">
-        <v>1.8769</v>
+        <v>1.66795</v>
       </c>
     </row>
     <row r="100">
@@ -9052,13 +9052,13 @@
         <v>1171143</v>
       </c>
       <c r="B100" t="n">
-        <v>2.48162</v>
+        <v>2.23109</v>
       </c>
       <c r="C100" t="n">
-        <v>1.53077</v>
+        <v>0.935817</v>
       </c>
       <c r="D100" t="n">
-        <v>1.8953</v>
+        <v>1.68497</v>
       </c>
     </row>
     <row r="101">
@@ -9066,13 +9066,13 @@
         <v>1229634</v>
       </c>
       <c r="B101" t="n">
-        <v>2.51497</v>
+        <v>2.25267</v>
       </c>
       <c r="C101" t="n">
-        <v>1.54053</v>
+        <v>0.947586</v>
       </c>
       <c r="D101" t="n">
-        <v>1.9111</v>
+        <v>1.70039</v>
       </c>
     </row>
     <row r="102">
@@ -9080,13 +9080,13 @@
         <v>1291062</v>
       </c>
       <c r="B102" t="n">
-        <v>2.53998</v>
+        <v>2.27879</v>
       </c>
       <c r="C102" t="n">
-        <v>1.55052</v>
+        <v>0.955311</v>
       </c>
       <c r="D102" t="n">
-        <v>1.93201</v>
+        <v>1.71643</v>
       </c>
     </row>
     <row r="103">
@@ -9094,13 +9094,13 @@
         <v>1355554</v>
       </c>
       <c r="B103" t="n">
-        <v>2.56673</v>
+        <v>2.30188</v>
       </c>
       <c r="C103" t="n">
-        <v>1.56095</v>
+        <v>0.963673</v>
       </c>
       <c r="D103" t="n">
-        <v>1.9496</v>
+        <v>1.7328</v>
       </c>
     </row>
     <row r="104">
@@ -9108,13 +9108,13 @@
         <v>1423274</v>
       </c>
       <c r="B104" t="n">
-        <v>2.59646</v>
+        <v>2.32461</v>
       </c>
       <c r="C104" t="n">
-        <v>1.5709</v>
+        <v>0.969158</v>
       </c>
       <c r="D104" t="n">
-        <v>1.96636</v>
+        <v>1.74841</v>
       </c>
     </row>
     <row r="105">
@@ -9122,13 +9122,13 @@
         <v>1494380</v>
       </c>
       <c r="B105" t="n">
-        <v>2.62166</v>
+        <v>2.34871</v>
       </c>
       <c r="C105" t="n">
-        <v>1.58102</v>
+        <v>0.980636</v>
       </c>
       <c r="D105" t="n">
-        <v>1.98326</v>
+        <v>1.76271</v>
       </c>
     </row>
     <row r="106">
@@ -9136,13 +9136,13 @@
         <v>1569031</v>
       </c>
       <c r="B106" t="n">
-        <v>2.64788</v>
+        <v>2.37128</v>
       </c>
       <c r="C106" t="n">
-        <v>1.59055</v>
+        <v>0.991688</v>
       </c>
       <c r="D106" t="n">
-        <v>1.99983</v>
+        <v>1.77594</v>
       </c>
     </row>
     <row r="107">
@@ -9150,13 +9150,13 @@
         <v>1647417</v>
       </c>
       <c r="B107" t="n">
-        <v>2.77054</v>
+        <v>2.4843</v>
       </c>
       <c r="C107" t="n">
-        <v>1.62954</v>
+        <v>1.07685</v>
       </c>
       <c r="D107" t="n">
-        <v>2.10704</v>
+        <v>1.85742</v>
       </c>
     </row>
     <row r="108">
@@ -9164,13 +9164,13 @@
         <v>1729734</v>
       </c>
       <c r="B108" t="n">
-        <v>2.78789</v>
+        <v>2.50089</v>
       </c>
       <c r="C108" t="n">
-        <v>1.63697</v>
+        <v>1.08196</v>
       </c>
       <c r="D108" t="n">
-        <v>2.12556</v>
+        <v>1.87984</v>
       </c>
     </row>
     <row r="109">
@@ -9178,13 +9178,13 @@
         <v>1816153</v>
       </c>
       <c r="B109" t="n">
-        <v>2.8035</v>
+        <v>2.51749</v>
       </c>
       <c r="C109" t="n">
-        <v>1.64268</v>
+        <v>1.08854</v>
       </c>
       <c r="D109" t="n">
-        <v>2.13247</v>
+        <v>1.8876</v>
       </c>
     </row>
     <row r="110">
@@ -9192,13 +9192,13 @@
         <v>1906885</v>
       </c>
       <c r="B110" t="n">
-        <v>2.8204</v>
+        <v>2.52331</v>
       </c>
       <c r="C110" t="n">
-        <v>1.65008</v>
+        <v>1.07781</v>
       </c>
       <c r="D110" t="n">
-        <v>2.14495</v>
+        <v>1.88379</v>
       </c>
     </row>
     <row r="111">
@@ -9206,13 +9206,13 @@
         <v>2002164</v>
       </c>
       <c r="B111" t="n">
-        <v>2.83683</v>
+        <v>2.52289</v>
       </c>
       <c r="C111" t="n">
-        <v>1.6557</v>
+        <v>1.08101</v>
       </c>
       <c r="D111" t="n">
-        <v>2.15436</v>
+        <v>1.89236</v>
       </c>
     </row>
     <row r="112">
@@ -9220,13 +9220,13 @@
         <v>2102198</v>
       </c>
       <c r="B112" t="n">
-        <v>2.85153</v>
+        <v>2.53761</v>
       </c>
       <c r="C112" t="n">
-        <v>1.66036</v>
+        <v>1.08857</v>
       </c>
       <c r="D112" t="n">
-        <v>2.14464</v>
+        <v>1.91479</v>
       </c>
     </row>
     <row r="113">
@@ -9234,13 +9234,13 @@
         <v>2207233</v>
       </c>
       <c r="B113" t="n">
-        <v>2.86685</v>
+        <v>2.57497</v>
       </c>
       <c r="C113" t="n">
-        <v>1.66613</v>
+        <v>1.11228</v>
       </c>
       <c r="D113" t="n">
-        <v>2.17131</v>
+        <v>1.93065</v>
       </c>
     </row>
     <row r="114">
@@ -9248,13 +9248,13 @@
         <v>2317508</v>
       </c>
       <c r="B114" t="n">
-        <v>2.8843</v>
+        <v>2.58556</v>
       </c>
       <c r="C114" t="n">
-        <v>1.67317</v>
+        <v>1.12046</v>
       </c>
       <c r="D114" t="n">
-        <v>2.17811</v>
+        <v>1.93847</v>
       </c>
     </row>
     <row r="115">
@@ -9262,13 +9262,13 @@
         <v>2433290</v>
       </c>
       <c r="B115" t="n">
-        <v>2.89925</v>
+        <v>2.58138</v>
       </c>
       <c r="C115" t="n">
-        <v>1.68174</v>
+        <v>1.11911</v>
       </c>
       <c r="D115" t="n">
-        <v>2.1854</v>
+        <v>1.94849</v>
       </c>
     </row>
     <row r="116">
@@ -9276,13 +9276,13 @@
         <v>2554854</v>
       </c>
       <c r="B116" t="n">
-        <v>2.90691</v>
+        <v>2.61255</v>
       </c>
       <c r="C116" t="n">
-        <v>1.68141</v>
+        <v>1.13545</v>
       </c>
       <c r="D116" t="n">
-        <v>2.19568</v>
+        <v>1.9501</v>
       </c>
     </row>
     <row r="117">
@@ -9290,13 +9290,13 @@
         <v>2682511</v>
       </c>
       <c r="B117" t="n">
-        <v>2.92756</v>
+        <v>2.62739</v>
       </c>
       <c r="C117" t="n">
-        <v>1.69607</v>
+        <v>1.13819</v>
       </c>
       <c r="D117" t="n">
-        <v>2.2046</v>
+        <v>1.96682</v>
       </c>
     </row>
     <row r="118">
@@ -9304,13 +9304,13 @@
         <v>2816546</v>
       </c>
       <c r="B118" t="n">
-        <v>2.94336</v>
+        <v>2.63979</v>
       </c>
       <c r="C118" t="n">
-        <v>1.70051</v>
+        <v>1.15011</v>
       </c>
       <c r="D118" t="n">
-        <v>2.20297</v>
+        <v>1.98768</v>
       </c>
     </row>
     <row r="119">
@@ -9318,13 +9318,13 @@
         <v>2957287</v>
       </c>
       <c r="B119" t="n">
-        <v>2.96681</v>
+        <v>2.65531</v>
       </c>
       <c r="C119" t="n">
-        <v>1.71086</v>
+        <v>1.15805</v>
       </c>
       <c r="D119" t="n">
-        <v>2.21796</v>
+        <v>1.98872</v>
       </c>
     </row>
   </sheetData>
@@ -9372,13 +9372,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.53181</v>
+        <v>0.5498420000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>0.457699</v>
+        <v>0.341846</v>
       </c>
       <c r="D2" t="n">
-        <v>0.332097</v>
+        <v>0.343572</v>
       </c>
     </row>
     <row r="3">
@@ -9386,13 +9386,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.547412</v>
+        <v>0.556832</v>
       </c>
       <c r="C3" t="n">
-        <v>0.463918</v>
+        <v>0.347288</v>
       </c>
       <c r="D3" t="n">
-        <v>0.331301</v>
+        <v>0.347764</v>
       </c>
     </row>
     <row r="4">
@@ -9400,13 +9400,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.547609</v>
+        <v>0.56274</v>
       </c>
       <c r="C4" t="n">
-        <v>0.469852</v>
+        <v>0.350884</v>
       </c>
       <c r="D4" t="n">
-        <v>0.346732</v>
+        <v>0.34593</v>
       </c>
     </row>
     <row r="5">
@@ -9414,13 +9414,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.572645</v>
+        <v>0.566878</v>
       </c>
       <c r="C5" t="n">
-        <v>0.479806</v>
+        <v>0.356067</v>
       </c>
       <c r="D5" t="n">
-        <v>0.343868</v>
+        <v>0.353351</v>
       </c>
     </row>
     <row r="6">
@@ -9428,13 +9428,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.57039</v>
+        <v>0.580158</v>
       </c>
       <c r="C6" t="n">
-        <v>0.481621</v>
+        <v>0.363573</v>
       </c>
       <c r="D6" t="n">
-        <v>0.352193</v>
+        <v>0.361522</v>
       </c>
     </row>
     <row r="7">
@@ -9442,13 +9442,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.580294</v>
+        <v>0.583106</v>
       </c>
       <c r="C7" t="n">
-        <v>0.501862</v>
+        <v>0.377571</v>
       </c>
       <c r="D7" t="n">
-        <v>0.363407</v>
+        <v>0.372628</v>
       </c>
     </row>
     <row r="8">
@@ -9456,13 +9456,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.5896749999999999</v>
+        <v>0.595283</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5029169999999999</v>
+        <v>0.378053</v>
       </c>
       <c r="D8" t="n">
-        <v>0.367401</v>
+        <v>0.375485</v>
       </c>
     </row>
     <row r="9">
@@ -9470,13 +9470,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.593728</v>
+        <v>0.602356</v>
       </c>
       <c r="C9" t="n">
-        <v>0.506024</v>
+        <v>0.381372</v>
       </c>
       <c r="D9" t="n">
-        <v>0.372664</v>
+        <v>0.377393</v>
       </c>
     </row>
     <row r="10">
@@ -9484,13 +9484,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.610675</v>
+        <v>0.611023</v>
       </c>
       <c r="C10" t="n">
-        <v>0.514659</v>
+        <v>0.389093</v>
       </c>
       <c r="D10" t="n">
-        <v>0.379497</v>
+        <v>0.386698</v>
       </c>
     </row>
     <row r="11">
@@ -9498,13 +9498,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.622695</v>
+        <v>0.6275500000000001</v>
       </c>
       <c r="C11" t="n">
-        <v>0.514307</v>
+        <v>0.388599</v>
       </c>
       <c r="D11" t="n">
-        <v>0.383412</v>
+        <v>0.390193</v>
       </c>
     </row>
     <row r="12">
@@ -9512,13 +9512,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.619997</v>
+        <v>0.629332</v>
       </c>
       <c r="C12" t="n">
-        <v>0.520886</v>
+        <v>0.395906</v>
       </c>
       <c r="D12" t="n">
-        <v>0.393611</v>
+        <v>0.398922</v>
       </c>
     </row>
     <row r="13">
@@ -9526,13 +9526,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.634733</v>
+        <v>0.641171</v>
       </c>
       <c r="C13" t="n">
-        <v>0.523769</v>
+        <v>0.396187</v>
       </c>
       <c r="D13" t="n">
-        <v>0.395308</v>
+        <v>0.400612</v>
       </c>
     </row>
     <row r="14">
@@ -9540,13 +9540,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.640957</v>
+        <v>0.646299</v>
       </c>
       <c r="C14" t="n">
-        <v>0.523276</v>
+        <v>0.394031</v>
       </c>
       <c r="D14" t="n">
-        <v>0.403097</v>
+        <v>0.411145</v>
       </c>
     </row>
     <row r="15">
@@ -9554,13 +9554,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.652757</v>
+        <v>0.660651</v>
       </c>
       <c r="C15" t="n">
-        <v>0.535331</v>
+        <v>0.404093</v>
       </c>
       <c r="D15" t="n">
-        <v>0.406577</v>
+        <v>0.409654</v>
       </c>
     </row>
     <row r="16">
@@ -9568,13 +9568,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.650586</v>
+        <v>0.654036</v>
       </c>
       <c r="C16" t="n">
-        <v>0.538473</v>
+        <v>0.407933</v>
       </c>
       <c r="D16" t="n">
-        <v>0.41314</v>
+        <v>0.417121</v>
       </c>
     </row>
     <row r="17">
@@ -9582,13 +9582,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.668068</v>
+        <v>0.67243</v>
       </c>
       <c r="C17" t="n">
-        <v>0.540876</v>
+        <v>0.409679</v>
       </c>
       <c r="D17" t="n">
-        <v>0.420334</v>
+        <v>0.424018</v>
       </c>
     </row>
     <row r="18">
@@ -9596,13 +9596,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.673424</v>
+        <v>0.67511</v>
       </c>
       <c r="C18" t="n">
-        <v>0.548325</v>
+        <v>0.416901</v>
       </c>
       <c r="D18" t="n">
-        <v>0.426316</v>
+        <v>0.430068</v>
       </c>
     </row>
     <row r="19">
@@ -9610,13 +9610,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.68429</v>
+        <v>0.6854</v>
       </c>
       <c r="C19" t="n">
-        <v>0.55127</v>
+        <v>0.419028</v>
       </c>
       <c r="D19" t="n">
-        <v>0.430933</v>
+        <v>0.431862</v>
       </c>
     </row>
     <row r="20">
@@ -9624,13 +9624,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.695835</v>
+        <v>0.696791</v>
       </c>
       <c r="C20" t="n">
-        <v>0.558382</v>
+        <v>0.424503</v>
       </c>
       <c r="D20" t="n">
-        <v>0.436727</v>
+        <v>0.440007</v>
       </c>
     </row>
     <row r="21">
@@ -9638,13 +9638,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.703009</v>
+        <v>0.704855</v>
       </c>
       <c r="C21" t="n">
-        <v>0.572419</v>
+        <v>0.42526</v>
       </c>
       <c r="D21" t="n">
-        <v>0.445361</v>
+        <v>0.447871</v>
       </c>
     </row>
     <row r="22">
@@ -9652,13 +9652,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.706939</v>
+        <v>0.709163</v>
       </c>
       <c r="C22" t="n">
-        <v>0.574161</v>
+        <v>0.432903</v>
       </c>
       <c r="D22" t="n">
-        <v>0.447505</v>
+        <v>0.449794</v>
       </c>
     </row>
     <row r="23">
@@ -9666,13 +9666,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.720975</v>
+        <v>0.720284</v>
       </c>
       <c r="C23" t="n">
-        <v>0.5761849999999999</v>
+        <v>0.432983</v>
       </c>
       <c r="D23" t="n">
-        <v>0.454148</v>
+        <v>0.455716</v>
       </c>
     </row>
     <row r="24">
@@ -9680,13 +9680,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.72619</v>
+        <v>0.72502</v>
       </c>
       <c r="C24" t="n">
-        <v>0.581433</v>
+        <v>0.436129</v>
       </c>
       <c r="D24" t="n">
-        <v>0.4581</v>
+        <v>0.460949</v>
       </c>
     </row>
     <row r="25">
@@ -9694,13 +9694,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.739739</v>
+        <v>0.7415350000000001</v>
       </c>
       <c r="C25" t="n">
-        <v>0.590603</v>
+        <v>0.448077</v>
       </c>
       <c r="D25" t="n">
-        <v>0.462852</v>
+        <v>0.463072</v>
       </c>
     </row>
     <row r="26">
@@ -9708,13 +9708,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.740225</v>
+        <v>0.74361</v>
       </c>
       <c r="C26" t="n">
-        <v>0.589771</v>
+        <v>0.444014</v>
       </c>
       <c r="D26" t="n">
-        <v>0.467797</v>
+        <v>0.469788</v>
       </c>
     </row>
     <row r="27">
@@ -9722,13 +9722,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.746044</v>
+        <v>0.746718</v>
       </c>
       <c r="C27" t="n">
-        <v>0.594329</v>
+        <v>0.450402</v>
       </c>
       <c r="D27" t="n">
-        <v>0.472194</v>
+        <v>0.469338</v>
       </c>
     </row>
     <row r="28">
@@ -9736,13 +9736,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.7524729999999999</v>
+        <v>0.754279</v>
       </c>
       <c r="C28" t="n">
-        <v>0.595541</v>
+        <v>0.448854</v>
       </c>
       <c r="D28" t="n">
-        <v>0.473692</v>
+        <v>0.477277</v>
       </c>
     </row>
     <row r="29">
@@ -9750,13 +9750,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.759479</v>
+        <v>0.761773</v>
       </c>
       <c r="C29" t="n">
-        <v>0.604422</v>
+        <v>0.458371</v>
       </c>
       <c r="D29" t="n">
-        <v>0.47892</v>
+        <v>0.483797</v>
       </c>
     </row>
     <row r="30">
@@ -9764,13 +9764,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.768881</v>
+        <v>0.769579</v>
       </c>
       <c r="C30" t="n">
-        <v>0.607035</v>
+        <v>0.468186</v>
       </c>
       <c r="D30" t="n">
-        <v>0.483977</v>
+        <v>0.48969</v>
       </c>
     </row>
     <row r="31">
@@ -9778,13 +9778,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.775896</v>
+        <v>0.778129</v>
       </c>
       <c r="C31" t="n">
-        <v>0.609294</v>
+        <v>0.464252</v>
       </c>
       <c r="D31" t="n">
-        <v>0.486595</v>
+        <v>0.490284</v>
       </c>
     </row>
     <row r="32">
@@ -9792,13 +9792,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.779881</v>
+        <v>0.782118</v>
       </c>
       <c r="C32" t="n">
-        <v>0.615387</v>
+        <v>0.46798</v>
       </c>
       <c r="D32" t="n">
-        <v>0.491752</v>
+        <v>0.49471</v>
       </c>
     </row>
     <row r="33">
@@ -9806,13 +9806,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.788056</v>
+        <v>0.788919</v>
       </c>
       <c r="C33" t="n">
-        <v>0.62003</v>
+        <v>0.471164</v>
       </c>
       <c r="D33" t="n">
-        <v>0.492556</v>
+        <v>0.495317</v>
       </c>
     </row>
     <row r="34">
@@ -9820,13 +9820,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.794421</v>
+        <v>0.79642</v>
       </c>
       <c r="C34" t="n">
-        <v>0.619294</v>
+        <v>0.473186</v>
       </c>
       <c r="D34" t="n">
-        <v>0.496558</v>
+        <v>0.501107</v>
       </c>
     </row>
     <row r="35">
@@ -9834,13 +9834,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.798148</v>
+        <v>0.8009770000000001</v>
       </c>
       <c r="C35" t="n">
-        <v>0.607388</v>
+        <v>0.454502</v>
       </c>
       <c r="D35" t="n">
-        <v>0.500371</v>
+        <v>0.504088</v>
       </c>
     </row>
     <row r="36">
@@ -9848,13 +9848,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.795457</v>
+        <v>0.795968</v>
       </c>
       <c r="C36" t="n">
-        <v>0.61113</v>
+        <v>0.459621</v>
       </c>
       <c r="D36" t="n">
-        <v>0.501549</v>
+        <v>0.504835</v>
       </c>
     </row>
     <row r="37">
@@ -9862,13 +9862,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.802026</v>
+        <v>0.80139</v>
       </c>
       <c r="C37" t="n">
-        <v>0.6123960000000001</v>
+        <v>0.460042</v>
       </c>
       <c r="D37" t="n">
-        <v>0.503922</v>
+        <v>0.507483</v>
       </c>
     </row>
     <row r="38">
@@ -9876,13 +9876,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.803118</v>
+        <v>0.803982</v>
       </c>
       <c r="C38" t="n">
-        <v>0.61535</v>
+        <v>0.46113</v>
       </c>
       <c r="D38" t="n">
-        <v>0.506983</v>
+        <v>0.510943</v>
       </c>
     </row>
     <row r="39">
@@ -9890,13 +9890,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.809467</v>
+        <v>0.809408</v>
       </c>
       <c r="C39" t="n">
-        <v>0.618243</v>
+        <v>0.463821</v>
       </c>
       <c r="D39" t="n">
-        <v>0.5094</v>
+        <v>0.513284</v>
       </c>
     </row>
     <row r="40">
@@ -9904,13 +9904,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.81699</v>
+        <v>0.816809</v>
       </c>
       <c r="C40" t="n">
-        <v>0.620769</v>
+        <v>0.468584</v>
       </c>
       <c r="D40" t="n">
-        <v>0.512888</v>
+        <v>0.517868</v>
       </c>
     </row>
     <row r="41">
@@ -9918,13 +9918,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.823524</v>
+        <v>0.824622</v>
       </c>
       <c r="C41" t="n">
-        <v>0.623342</v>
+        <v>0.473833</v>
       </c>
       <c r="D41" t="n">
-        <v>0.514163</v>
+        <v>0.519025</v>
       </c>
     </row>
     <row r="42">
@@ -9932,13 +9932,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.822735</v>
+        <v>0.823727</v>
       </c>
       <c r="C42" t="n">
-        <v>0.627781</v>
+        <v>0.471298</v>
       </c>
       <c r="D42" t="n">
-        <v>0.5168970000000001</v>
+        <v>0.521635</v>
       </c>
     </row>
     <row r="43">
@@ -9946,13 +9946,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.831005</v>
+        <v>0.831</v>
       </c>
       <c r="C43" t="n">
-        <v>0.628071</v>
+        <v>0.473969</v>
       </c>
       <c r="D43" t="n">
-        <v>0.519319</v>
+        <v>0.524946</v>
       </c>
     </row>
     <row r="44">
@@ -9960,13 +9960,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.831111</v>
+        <v>0.830772</v>
       </c>
       <c r="C44" t="n">
-        <v>0.6272450000000001</v>
+        <v>0.47717</v>
       </c>
       <c r="D44" t="n">
-        <v>0.5204839999999999</v>
+        <v>0.5254</v>
       </c>
     </row>
     <row r="45">
@@ -9974,13 +9974,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.836299</v>
+        <v>0.837531</v>
       </c>
       <c r="C45" t="n">
-        <v>0.631873</v>
+        <v>0.477498</v>
       </c>
       <c r="D45" t="n">
-        <v>0.5215919999999999</v>
+        <v>0.523801</v>
       </c>
     </row>
     <row r="46">
@@ -9988,13 +9988,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.840539</v>
+        <v>0.839842</v>
       </c>
       <c r="C46" t="n">
-        <v>0.632843</v>
+        <v>0.479869</v>
       </c>
       <c r="D46" t="n">
-        <v>0.523766</v>
+        <v>0.527833</v>
       </c>
     </row>
     <row r="47">
@@ -10002,13 +10002,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.8499139999999999</v>
+        <v>0.849886</v>
       </c>
       <c r="C47" t="n">
-        <v>0.636028</v>
+        <v>0.484539</v>
       </c>
       <c r="D47" t="n">
-        <v>0.526544</v>
+        <v>0.53226</v>
       </c>
     </row>
     <row r="48">
@@ -10016,13 +10016,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.853616</v>
+        <v>0.852834</v>
       </c>
       <c r="C48" t="n">
-        <v>0.639688</v>
+        <v>0.488551</v>
       </c>
       <c r="D48" t="n">
-        <v>0.527285</v>
+        <v>0.532977</v>
       </c>
     </row>
     <row r="49">
@@ -10030,13 +10030,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.858135</v>
+        <v>0.858011</v>
       </c>
       <c r="C49" t="n">
-        <v>0.639679</v>
+        <v>0.487435</v>
       </c>
       <c r="D49" t="n">
-        <v>0.529284</v>
+        <v>0.534655</v>
       </c>
     </row>
     <row r="50">
@@ -10044,13 +10044,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.8648</v>
+        <v>0.86351</v>
       </c>
       <c r="C50" t="n">
-        <v>0.639744</v>
+        <v>0.475253</v>
       </c>
       <c r="D50" t="n">
-        <v>0.53093</v>
+        <v>0.533911</v>
       </c>
     </row>
     <row r="51">
@@ -10058,13 +10058,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.844171</v>
+        <v>0.843771</v>
       </c>
       <c r="C51" t="n">
-        <v>0.641026</v>
+        <v>0.476902</v>
       </c>
       <c r="D51" t="n">
-        <v>0.532952</v>
+        <v>0.535567</v>
       </c>
     </row>
     <row r="52">
@@ -10072,13 +10072,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.8461880000000001</v>
+        <v>0.8461689999999999</v>
       </c>
       <c r="C52" t="n">
-        <v>0.637868</v>
+        <v>0.482589</v>
       </c>
       <c r="D52" t="n">
-        <v>0.533982</v>
+        <v>0.540354</v>
       </c>
     </row>
     <row r="53">
@@ -10086,13 +10086,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.851505</v>
+        <v>0.852608</v>
       </c>
       <c r="C53" t="n">
-        <v>0.648683</v>
+        <v>0.488281</v>
       </c>
       <c r="D53" t="n">
-        <v>0.535018</v>
+        <v>0.53957</v>
       </c>
     </row>
     <row r="54">
@@ -10100,13 +10100,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.8562650000000001</v>
+        <v>0.856754</v>
       </c>
       <c r="C54" t="n">
-        <v>0.65118</v>
+        <v>0.488698</v>
       </c>
       <c r="D54" t="n">
-        <v>0.537308</v>
+        <v>0.54422</v>
       </c>
     </row>
     <row r="55">
@@ -10114,13 +10114,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.859229</v>
+        <v>0.86028</v>
       </c>
       <c r="C55" t="n">
-        <v>0.653877</v>
+        <v>0.497396</v>
       </c>
       <c r="D55" t="n">
-        <v>0.538846</v>
+        <v>0.544396</v>
       </c>
     </row>
     <row r="56">
@@ -10128,13 +10128,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.86108</v>
+        <v>0.860694</v>
       </c>
       <c r="C56" t="n">
-        <v>0.655874</v>
+        <v>0.496255</v>
       </c>
       <c r="D56" t="n">
-        <v>0.539436</v>
+        <v>0.543324</v>
       </c>
     </row>
     <row r="57">
@@ -10142,13 +10142,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.8672609999999999</v>
+        <v>0.865727</v>
       </c>
       <c r="C57" t="n">
-        <v>0.666986</v>
+        <v>0.506638</v>
       </c>
       <c r="D57" t="n">
-        <v>0.545013</v>
+        <v>0.549747</v>
       </c>
     </row>
     <row r="58">
@@ -10156,13 +10156,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.875214</v>
+        <v>0.871776</v>
       </c>
       <c r="C58" t="n">
-        <v>0.673886</v>
+        <v>0.509879</v>
       </c>
       <c r="D58" t="n">
-        <v>0.544001</v>
+        <v>0.548781</v>
       </c>
     </row>
     <row r="59">
@@ -10170,13 +10170,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.875561</v>
+        <v>0.873265</v>
       </c>
       <c r="C59" t="n">
-        <v>0.677507</v>
+        <v>0.514585</v>
       </c>
       <c r="D59" t="n">
-        <v>0.54625</v>
+        <v>0.550296</v>
       </c>
     </row>
     <row r="60">
@@ -10184,13 +10184,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.884391</v>
+        <v>0.881076</v>
       </c>
       <c r="C60" t="n">
-        <v>0.683356</v>
+        <v>0.52272</v>
       </c>
       <c r="D60" t="n">
-        <v>0.549787</v>
+        <v>0.558563</v>
       </c>
     </row>
     <row r="61">
@@ -10198,13 +10198,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.886369</v>
+        <v>0.889483</v>
       </c>
       <c r="C61" t="n">
-        <v>0.689947</v>
+        <v>0.527165</v>
       </c>
       <c r="D61" t="n">
-        <v>0.551087</v>
+        <v>0.557943</v>
       </c>
     </row>
     <row r="62">
@@ -10212,13 +10212,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.8930090000000001</v>
+        <v>0.895987</v>
       </c>
       <c r="C62" t="n">
-        <v>0.6988</v>
+        <v>0.532772</v>
       </c>
       <c r="D62" t="n">
-        <v>0.553363</v>
+        <v>0.5613629999999999</v>
       </c>
     </row>
     <row r="63">
@@ -10226,13 +10226,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.8961980000000001</v>
+        <v>0.89774</v>
       </c>
       <c r="C63" t="n">
-        <v>0.708445</v>
+        <v>0.537709</v>
       </c>
       <c r="D63" t="n">
-        <v>0.555138</v>
+        <v>0.564423</v>
       </c>
     </row>
     <row r="64">
@@ -10240,13 +10240,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.902753</v>
+        <v>0.905285</v>
       </c>
       <c r="C64" t="n">
-        <v>0.749294</v>
+        <v>0.575974</v>
       </c>
       <c r="D64" t="n">
-        <v>0.579907</v>
+        <v>0.595004</v>
       </c>
     </row>
     <row r="65">
@@ -10254,13 +10254,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.93081</v>
+        <v>0.9396</v>
       </c>
       <c r="C65" t="n">
-        <v>0.772306</v>
+        <v>0.593921</v>
       </c>
       <c r="D65" t="n">
-        <v>0.592491</v>
+        <v>0.603873</v>
       </c>
     </row>
     <row r="66">
@@ -10268,13 +10268,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.946804</v>
+        <v>0.95285</v>
       </c>
       <c r="C66" t="n">
-        <v>0.802338</v>
+        <v>0.6024389999999999</v>
       </c>
       <c r="D66" t="n">
-        <v>0.597488</v>
+        <v>0.604263</v>
       </c>
     </row>
     <row r="67">
@@ -10282,13 +10282,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.966431</v>
+        <v>0.963602</v>
       </c>
       <c r="C67" t="n">
-        <v>0.826094</v>
+        <v>0.615922</v>
       </c>
       <c r="D67" t="n">
-        <v>0.618522</v>
+        <v>0.612478</v>
       </c>
     </row>
     <row r="68">
@@ -10296,13 +10296,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.995918</v>
+        <v>0.975056</v>
       </c>
       <c r="C68" t="n">
-        <v>0.849066</v>
+        <v>0.626294</v>
       </c>
       <c r="D68" t="n">
-        <v>0.632564</v>
+        <v>0.631586</v>
       </c>
     </row>
     <row r="69">
@@ -10310,13 +10310,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>1.01834</v>
+        <v>0.993364</v>
       </c>
       <c r="C69" t="n">
-        <v>0.875852</v>
+        <v>0.660677</v>
       </c>
       <c r="D69" t="n">
-        <v>0.6478120000000001</v>
+        <v>0.6462869999999999</v>
       </c>
     </row>
     <row r="70">
@@ -10324,13 +10324,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>1.04383</v>
+        <v>0.999933</v>
       </c>
       <c r="C70" t="n">
-        <v>0.900129</v>
+        <v>0.66292</v>
       </c>
       <c r="D70" t="n">
-        <v>0.664341</v>
+        <v>0.652402</v>
       </c>
     </row>
     <row r="71">
@@ -10338,13 +10338,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>1.0784</v>
+        <v>1.04927</v>
       </c>
       <c r="C71" t="n">
-        <v>0.9432160000000001</v>
+        <v>0.702983</v>
       </c>
       <c r="D71" t="n">
-        <v>0.68609</v>
+        <v>0.663865</v>
       </c>
     </row>
     <row r="72">
@@ -10352,13 +10352,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>1.107</v>
+        <v>1.07005</v>
       </c>
       <c r="C72" t="n">
-        <v>0.964692</v>
+        <v>0.725239</v>
       </c>
       <c r="D72" t="n">
-        <v>0.703358</v>
+        <v>0.702162</v>
       </c>
     </row>
     <row r="73">
@@ -10366,13 +10366,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>1.14758</v>
+        <v>1.12316</v>
       </c>
       <c r="C73" t="n">
-        <v>1.0026</v>
+        <v>0.761695</v>
       </c>
       <c r="D73" t="n">
-        <v>0.732918</v>
+        <v>0.727677</v>
       </c>
     </row>
     <row r="74">
@@ -10380,13 +10380,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.18424</v>
+        <v>1.16875</v>
       </c>
       <c r="C74" t="n">
-        <v>1.02876</v>
+        <v>0.799028</v>
       </c>
       <c r="D74" t="n">
-        <v>0.758895</v>
+        <v>0.761246</v>
       </c>
     </row>
     <row r="75">
@@ -10394,13 +10394,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>1.23161</v>
+        <v>1.21254</v>
       </c>
       <c r="C75" t="n">
-        <v>1.06602</v>
+        <v>0.831014</v>
       </c>
       <c r="D75" t="n">
-        <v>0.789156</v>
+        <v>0.79226</v>
       </c>
     </row>
     <row r="76">
@@ -10408,13 +10408,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>1.28878</v>
+        <v>1.27343</v>
       </c>
       <c r="C76" t="n">
-        <v>1.11002</v>
+        <v>0.86827</v>
       </c>
       <c r="D76" t="n">
-        <v>0.832032</v>
+        <v>0.821922</v>
       </c>
     </row>
     <row r="77">
@@ -10422,13 +10422,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>1.34314</v>
+        <v>1.31598</v>
       </c>
       <c r="C77" t="n">
-        <v>1.14674</v>
+        <v>0.902157</v>
       </c>
       <c r="D77" t="n">
-        <v>0.8697319999999999</v>
+        <v>0.8630949999999999</v>
       </c>
     </row>
     <row r="78">
@@ -10436,13 +10436,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>1.3938</v>
+        <v>1.3863</v>
       </c>
       <c r="C78" t="n">
-        <v>1.32212</v>
+        <v>1.06746</v>
       </c>
       <c r="D78" t="n">
-        <v>1.00266</v>
+        <v>0.992715</v>
       </c>
     </row>
     <row r="79">
@@ -10450,13 +10450,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.5949</v>
+        <v>1.58814</v>
       </c>
       <c r="C79" t="n">
-        <v>1.376</v>
+        <v>1.10756</v>
       </c>
       <c r="D79" t="n">
-        <v>1.05402</v>
+        <v>1.04924</v>
       </c>
     </row>
     <row r="80">
@@ -10464,13 +10464,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.68972</v>
+        <v>1.65937</v>
       </c>
       <c r="C80" t="n">
-        <v>1.40935</v>
+        <v>1.13979</v>
       </c>
       <c r="D80" t="n">
-        <v>1.09514</v>
+        <v>1.0911</v>
       </c>
     </row>
     <row r="81">
@@ -10478,13 +10478,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.74298</v>
+        <v>1.73335</v>
       </c>
       <c r="C81" t="n">
-        <v>1.44622</v>
+        <v>1.1749</v>
       </c>
       <c r="D81" t="n">
-        <v>1.1571</v>
+        <v>1.14731</v>
       </c>
     </row>
     <row r="82">
@@ -10492,13 +10492,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.81183</v>
+        <v>1.82543</v>
       </c>
       <c r="C82" t="n">
-        <v>1.48381</v>
+        <v>1.21723</v>
       </c>
       <c r="D82" t="n">
-        <v>1.20204</v>
+        <v>1.18861</v>
       </c>
     </row>
     <row r="83">
@@ -10506,13 +10506,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.90461</v>
+        <v>1.88772</v>
       </c>
       <c r="C83" t="n">
-        <v>1.52847</v>
+        <v>1.24692</v>
       </c>
       <c r="D83" t="n">
-        <v>1.25346</v>
+        <v>1.25811</v>
       </c>
     </row>
     <row r="84">
@@ -10520,13 +10520,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.99668</v>
+        <v>1.98618</v>
       </c>
       <c r="C84" t="n">
-        <v>1.56947</v>
+        <v>1.28627</v>
       </c>
       <c r="D84" t="n">
-        <v>1.31201</v>
+        <v>1.30991</v>
       </c>
     </row>
     <row r="85">
@@ -10534,13 +10534,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>2.08075</v>
+        <v>2.0673</v>
       </c>
       <c r="C85" t="n">
-        <v>1.62044</v>
+        <v>1.32595</v>
       </c>
       <c r="D85" t="n">
-        <v>1.37918</v>
+        <v>1.38638</v>
       </c>
     </row>
     <row r="86">
@@ -10548,13 +10548,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>2.18488</v>
+        <v>2.17562</v>
       </c>
       <c r="C86" t="n">
-        <v>1.66093</v>
+        <v>1.36511</v>
       </c>
       <c r="D86" t="n">
-        <v>1.43838</v>
+        <v>1.43667</v>
       </c>
     </row>
     <row r="87">
@@ -10562,13 +10562,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>2.26744</v>
+        <v>2.26537</v>
       </c>
       <c r="C87" t="n">
-        <v>1.69882</v>
+        <v>1.4039</v>
       </c>
       <c r="D87" t="n">
-        <v>1.49262</v>
+        <v>1.49552</v>
       </c>
     </row>
     <row r="88">
@@ -10576,13 +10576,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>2.35774</v>
+        <v>2.3548</v>
       </c>
       <c r="C88" t="n">
-        <v>1.74742</v>
+        <v>1.4378</v>
       </c>
       <c r="D88" t="n">
-        <v>1.54773</v>
+        <v>1.54602</v>
       </c>
     </row>
     <row r="89">
@@ -10590,13 +10590,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>2.44292</v>
+        <v>2.43134</v>
       </c>
       <c r="C89" t="n">
-        <v>1.78655</v>
+        <v>1.47709</v>
       </c>
       <c r="D89" t="n">
-        <v>1.60129</v>
+        <v>1.60055</v>
       </c>
     </row>
     <row r="90">
@@ -10604,13 +10604,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>2.52433</v>
+        <v>2.50965</v>
       </c>
       <c r="C90" t="n">
-        <v>1.82598</v>
+        <v>1.51354</v>
       </c>
       <c r="D90" t="n">
-        <v>1.65508</v>
+        <v>1.65835</v>
       </c>
     </row>
     <row r="91">
@@ -10618,13 +10618,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>2.60879</v>
+        <v>2.60952</v>
       </c>
       <c r="C91" t="n">
-        <v>1.86991</v>
+        <v>1.55793</v>
       </c>
       <c r="D91" t="n">
-        <v>1.70645</v>
+        <v>1.71058</v>
       </c>
     </row>
     <row r="92">
@@ -10632,13 +10632,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>2.70744</v>
+        <v>2.69988</v>
       </c>
       <c r="C92" t="n">
-        <v>2.012</v>
+        <v>1.6837</v>
       </c>
       <c r="D92" t="n">
-        <v>1.81966</v>
+        <v>1.83577</v>
       </c>
     </row>
     <row r="93">
@@ -10646,13 +10646,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>2.84917</v>
+        <v>2.84246</v>
       </c>
       <c r="C93" t="n">
-        <v>2.04343</v>
+        <v>1.70578</v>
       </c>
       <c r="D93" t="n">
-        <v>1.86626</v>
+        <v>1.87301</v>
       </c>
     </row>
     <row r="94">
@@ -10660,13 +10660,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>2.93612</v>
+        <v>2.9314</v>
       </c>
       <c r="C94" t="n">
-        <v>2.08213</v>
+        <v>1.73266</v>
       </c>
       <c r="D94" t="n">
-        <v>1.91416</v>
+        <v>1.9062</v>
       </c>
     </row>
     <row r="95">
@@ -10674,13 +10674,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>3.0006</v>
+        <v>2.96629</v>
       </c>
       <c r="C95" t="n">
-        <v>2.1156</v>
+        <v>1.74953</v>
       </c>
       <c r="D95" t="n">
-        <v>1.95968</v>
+        <v>1.9579</v>
       </c>
     </row>
     <row r="96">
@@ -10688,13 +10688,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>3.07295</v>
+        <v>3.0273</v>
       </c>
       <c r="C96" t="n">
-        <v>2.14825</v>
+        <v>1.79261</v>
       </c>
       <c r="D96" t="n">
-        <v>2.00435</v>
+        <v>2.01176</v>
       </c>
     </row>
     <row r="97">
@@ -10702,13 +10702,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>3.15365</v>
+        <v>3.13903</v>
       </c>
       <c r="C97" t="n">
-        <v>2.18072</v>
+        <v>1.81582</v>
       </c>
       <c r="D97" t="n">
-        <v>2.04633</v>
+        <v>2.05243</v>
       </c>
     </row>
     <row r="98">
@@ -10716,13 +10716,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>3.20858</v>
+        <v>3.20718</v>
       </c>
       <c r="C98" t="n">
-        <v>2.19628</v>
+        <v>1.84363</v>
       </c>
       <c r="D98" t="n">
-        <v>2.08606</v>
+        <v>2.09124</v>
       </c>
     </row>
     <row r="99">
@@ -10730,13 +10730,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>3.27737</v>
+        <v>3.26845</v>
       </c>
       <c r="C99" t="n">
-        <v>2.22842</v>
+        <v>1.87538</v>
       </c>
       <c r="D99" t="n">
-        <v>2.12296</v>
+        <v>2.12747</v>
       </c>
     </row>
     <row r="100">
@@ -10744,13 +10744,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>3.33025</v>
+        <v>3.32149</v>
       </c>
       <c r="C100" t="n">
-        <v>2.27671</v>
+        <v>1.87992</v>
       </c>
       <c r="D100" t="n">
-        <v>2.15807</v>
+        <v>2.16419</v>
       </c>
     </row>
     <row r="101">
@@ -10758,13 +10758,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>3.40758</v>
+        <v>3.37565</v>
       </c>
       <c r="C101" t="n">
-        <v>2.30528</v>
+        <v>1.91607</v>
       </c>
       <c r="D101" t="n">
-        <v>2.19166</v>
+        <v>2.19558</v>
       </c>
     </row>
     <row r="102">
@@ -10772,13 +10772,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>3.45539</v>
+        <v>3.43365</v>
       </c>
       <c r="C102" t="n">
-        <v>2.31876</v>
+        <v>1.94266</v>
       </c>
       <c r="D102" t="n">
-        <v>2.2222</v>
+        <v>2.22106</v>
       </c>
     </row>
     <row r="103">
@@ -10786,13 +10786,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>3.51857</v>
+        <v>3.4878</v>
       </c>
       <c r="C103" t="n">
-        <v>2.37173</v>
+        <v>1.98331</v>
       </c>
       <c r="D103" t="n">
-        <v>2.25292</v>
+        <v>2.25124</v>
       </c>
     </row>
     <row r="104">
@@ -10800,13 +10800,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>3.56126</v>
+        <v>3.54436</v>
       </c>
       <c r="C104" t="n">
-        <v>2.40119</v>
+        <v>2.01042</v>
       </c>
       <c r="D104" t="n">
-        <v>2.28604</v>
+        <v>2.2828</v>
       </c>
     </row>
     <row r="105">
@@ -10814,13 +10814,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>3.61062</v>
+        <v>3.59148</v>
       </c>
       <c r="C105" t="n">
-        <v>2.43589</v>
+        <v>2.04109</v>
       </c>
       <c r="D105" t="n">
-        <v>2.31332</v>
+        <v>2.30975</v>
       </c>
     </row>
     <row r="106">
@@ -10828,13 +10828,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>3.66739</v>
+        <v>3.64758</v>
       </c>
       <c r="C106" t="n">
-        <v>2.43658</v>
+        <v>2.05734</v>
       </c>
       <c r="D106" t="n">
-        <v>2.34377</v>
+        <v>2.34116</v>
       </c>
     </row>
     <row r="107">
@@ -10842,13 +10842,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>3.67592</v>
+        <v>3.65285</v>
       </c>
       <c r="C107" t="n">
-        <v>2.50835</v>
+        <v>2.11049</v>
       </c>
       <c r="D107" t="n">
-        <v>2.40548</v>
+        <v>2.41945</v>
       </c>
     </row>
     <row r="108">
@@ -10856,13 +10856,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>3.73726</v>
+        <v>3.72538</v>
       </c>
       <c r="C108" t="n">
-        <v>2.52055</v>
+        <v>2.11774</v>
       </c>
       <c r="D108" t="n">
-        <v>2.43315</v>
+        <v>2.42929</v>
       </c>
     </row>
     <row r="109">
@@ -10870,13 +10870,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>3.79261</v>
+        <v>3.75644</v>
       </c>
       <c r="C109" t="n">
-        <v>2.55336</v>
+        <v>2.15611</v>
       </c>
       <c r="D109" t="n">
-        <v>2.46127</v>
+        <v>2.47778</v>
       </c>
     </row>
     <row r="110">
@@ -10884,13 +10884,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>3.81584</v>
+        <v>3.81525</v>
       </c>
       <c r="C110" t="n">
-        <v>2.57275</v>
+        <v>2.17471</v>
       </c>
       <c r="D110" t="n">
-        <v>2.4849</v>
+        <v>2.5018</v>
       </c>
     </row>
     <row r="111">
@@ -10898,13 +10898,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>3.86115</v>
+        <v>3.84248</v>
       </c>
       <c r="C111" t="n">
-        <v>2.55879</v>
+        <v>2.17954</v>
       </c>
       <c r="D111" t="n">
-        <v>2.50339</v>
+        <v>2.51868</v>
       </c>
     </row>
     <row r="112">
@@ -10912,13 +10912,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>3.89593</v>
+        <v>3.89408</v>
       </c>
       <c r="C112" t="n">
-        <v>2.60271</v>
+        <v>2.22189</v>
       </c>
       <c r="D112" t="n">
-        <v>2.52581</v>
+        <v>2.55571</v>
       </c>
     </row>
     <row r="113">
@@ -10926,13 +10926,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>3.94477</v>
+        <v>3.95018</v>
       </c>
       <c r="C113" t="n">
-        <v>2.63874</v>
+        <v>2.23536</v>
       </c>
       <c r="D113" t="n">
-        <v>2.56435</v>
+        <v>2.56749</v>
       </c>
     </row>
     <row r="114">
@@ -10940,13 +10940,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>3.99994</v>
+        <v>3.99992</v>
       </c>
       <c r="C114" t="n">
-        <v>2.66303</v>
+        <v>2.26119</v>
       </c>
       <c r="D114" t="n">
-        <v>2.58728</v>
+        <v>2.59395</v>
       </c>
     </row>
     <row r="115">
@@ -10954,13 +10954,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>4.0346</v>
+        <v>4.02419</v>
       </c>
       <c r="C115" t="n">
-        <v>2.66895</v>
+        <v>2.28596</v>
       </c>
       <c r="D115" t="n">
-        <v>2.60705</v>
+        <v>2.6299</v>
       </c>
     </row>
     <row r="116">
@@ -10968,13 +10968,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>4.08653</v>
+        <v>4.07947</v>
       </c>
       <c r="C116" t="n">
-        <v>2.7068</v>
+        <v>2.30727</v>
       </c>
       <c r="D116" t="n">
-        <v>2.63164</v>
+        <v>2.64919</v>
       </c>
     </row>
     <row r="117">
@@ -10982,13 +10982,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>4.13896</v>
+        <v>4.10592</v>
       </c>
       <c r="C117" t="n">
-        <v>2.72882</v>
+        <v>2.3293</v>
       </c>
       <c r="D117" t="n">
-        <v>2.65742</v>
+        <v>2.66045</v>
       </c>
     </row>
     <row r="118">
@@ -10996,13 +10996,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>4.17968</v>
+        <v>4.15626</v>
       </c>
       <c r="C118" t="n">
-        <v>2.7632</v>
+        <v>2.35596</v>
       </c>
       <c r="D118" t="n">
-        <v>2.68726</v>
+        <v>2.68555</v>
       </c>
     </row>
     <row r="119">
@@ -11010,13 +11010,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>4.23046</v>
+        <v>4.21151</v>
       </c>
       <c r="C119" t="n">
-        <v>2.77283</v>
+        <v>2.39357</v>
       </c>
       <c r="D119" t="n">
-        <v>2.69695</v>
+        <v>2.71858</v>
       </c>
     </row>
   </sheetData>
@@ -11064,13 +11064,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.56441</v>
+        <v>0.576118</v>
       </c>
       <c r="C2" t="n">
-        <v>0.467019</v>
+        <v>0.357481</v>
       </c>
       <c r="D2" t="n">
-        <v>0.329226</v>
+        <v>0.332397</v>
       </c>
     </row>
     <row r="3">
@@ -11078,13 +11078,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.571785</v>
+        <v>0.580723</v>
       </c>
       <c r="C3" t="n">
-        <v>0.468935</v>
+        <v>0.362361</v>
       </c>
       <c r="D3" t="n">
-        <v>0.33398</v>
+        <v>0.336999</v>
       </c>
     </row>
     <row r="4">
@@ -11092,13 +11092,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.585103</v>
+        <v>0.591032</v>
       </c>
       <c r="C4" t="n">
-        <v>0.477667</v>
+        <v>0.365023</v>
       </c>
       <c r="D4" t="n">
-        <v>0.341259</v>
+        <v>0.342095</v>
       </c>
     </row>
     <row r="5">
@@ -11106,13 +11106,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.5933040000000001</v>
+        <v>0.5953079999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>0.489061</v>
+        <v>0.373702</v>
       </c>
       <c r="D5" t="n">
-        <v>0.346574</v>
+        <v>0.344984</v>
       </c>
     </row>
     <row r="6">
@@ -11120,13 +11120,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.6059020000000001</v>
+        <v>0.605247</v>
       </c>
       <c r="C6" t="n">
-        <v>0.489562</v>
+        <v>0.372926</v>
       </c>
       <c r="D6" t="n">
-        <v>0.349942</v>
+        <v>0.345683</v>
       </c>
     </row>
     <row r="7">
@@ -11134,13 +11134,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.607669</v>
+        <v>0.611092</v>
       </c>
       <c r="C7" t="n">
-        <v>0.497981</v>
+        <v>0.385234</v>
       </c>
       <c r="D7" t="n">
-        <v>0.356325</v>
+        <v>0.353258</v>
       </c>
     </row>
     <row r="8">
@@ -11148,13 +11148,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.6198360000000001</v>
+        <v>0.622555</v>
       </c>
       <c r="C8" t="n">
-        <v>0.50958</v>
+        <v>0.394452</v>
       </c>
       <c r="D8" t="n">
-        <v>0.358415</v>
+        <v>0.355556</v>
       </c>
     </row>
     <row r="9">
@@ -11162,13 +11162,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.628288</v>
+        <v>0.63115</v>
       </c>
       <c r="C9" t="n">
-        <v>0.515532</v>
+        <v>0.400639</v>
       </c>
       <c r="D9" t="n">
-        <v>0.362676</v>
+        <v>0.360965</v>
       </c>
     </row>
     <row r="10">
@@ -11176,13 +11176,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.645761</v>
+        <v>0.644838</v>
       </c>
       <c r="C10" t="n">
-        <v>0.524818</v>
+        <v>0.410378</v>
       </c>
       <c r="D10" t="n">
-        <v>0.369549</v>
+        <v>0.365273</v>
       </c>
     </row>
     <row r="11">
@@ -11190,13 +11190,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.655153</v>
+        <v>0.655771</v>
       </c>
       <c r="C11" t="n">
-        <v>0.522016</v>
+        <v>0.401175</v>
       </c>
       <c r="D11" t="n">
-        <v>0.378065</v>
+        <v>0.3723</v>
       </c>
     </row>
     <row r="12">
@@ -11204,13 +11204,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.633618</v>
+        <v>0.6342</v>
       </c>
       <c r="C12" t="n">
-        <v>0.527773</v>
+        <v>0.406299</v>
       </c>
       <c r="D12" t="n">
-        <v>0.384547</v>
+        <v>0.379198</v>
       </c>
     </row>
     <row r="13">
@@ -11218,13 +11218,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.644635</v>
+        <v>0.646793</v>
       </c>
       <c r="C13" t="n">
-        <v>0.530347</v>
+        <v>0.411292</v>
       </c>
       <c r="D13" t="n">
-        <v>0.387097</v>
+        <v>0.385481</v>
       </c>
     </row>
     <row r="14">
@@ -11232,13 +11232,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.650631</v>
+        <v>0.655257</v>
       </c>
       <c r="C14" t="n">
-        <v>0.536983</v>
+        <v>0.419465</v>
       </c>
       <c r="D14" t="n">
-        <v>0.389161</v>
+        <v>0.389616</v>
       </c>
     </row>
     <row r="15">
@@ -11246,13 +11246,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.66911</v>
+        <v>0.671656</v>
       </c>
       <c r="C15" t="n">
-        <v>0.548971</v>
+        <v>0.429316</v>
       </c>
       <c r="D15" t="n">
-        <v>0.400717</v>
+        <v>0.40014</v>
       </c>
     </row>
     <row r="16">
@@ -11260,13 +11260,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.682095</v>
+        <v>0.679139</v>
       </c>
       <c r="C16" t="n">
-        <v>0.55974</v>
+        <v>0.437881</v>
       </c>
       <c r="D16" t="n">
-        <v>0.407197</v>
+        <v>0.404599</v>
       </c>
     </row>
     <row r="17">
@@ -11274,13 +11274,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.702546</v>
+        <v>0.696837</v>
       </c>
       <c r="C17" t="n">
-        <v>0.568198</v>
+        <v>0.443238</v>
       </c>
       <c r="D17" t="n">
-        <v>0.4127</v>
+        <v>0.409692</v>
       </c>
     </row>
     <row r="18">
@@ -11288,13 +11288,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.70678</v>
+        <v>0.7086710000000001</v>
       </c>
       <c r="C18" t="n">
-        <v>0.568556</v>
+        <v>0.446588</v>
       </c>
       <c r="D18" t="n">
-        <v>0.417612</v>
+        <v>0.416006</v>
       </c>
     </row>
     <row r="19">
@@ -11302,13 +11302,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.720603</v>
+        <v>0.721478</v>
       </c>
       <c r="C19" t="n">
-        <v>0.583207</v>
+        <v>0.46172</v>
       </c>
       <c r="D19" t="n">
-        <v>0.424606</v>
+        <v>0.423061</v>
       </c>
     </row>
     <row r="20">
@@ -11316,13 +11316,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.741982</v>
+        <v>0.737758</v>
       </c>
       <c r="C20" t="n">
-        <v>0.59582</v>
+        <v>0.471721</v>
       </c>
       <c r="D20" t="n">
-        <v>0.431819</v>
+        <v>0.428832</v>
       </c>
     </row>
     <row r="21">
@@ -11330,13 +11330,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.7498</v>
+        <v>0.74824</v>
       </c>
       <c r="C21" t="n">
-        <v>0.606639</v>
+        <v>0.48331</v>
       </c>
       <c r="D21" t="n">
-        <v>0.436325</v>
+        <v>0.434131</v>
       </c>
     </row>
     <row r="22">
@@ -11344,13 +11344,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.756431</v>
+        <v>0.75939</v>
       </c>
       <c r="C22" t="n">
-        <v>0.611352</v>
+        <v>0.490808</v>
       </c>
       <c r="D22" t="n">
-        <v>0.440151</v>
+        <v>0.440232</v>
       </c>
     </row>
     <row r="23">
@@ -11358,13 +11358,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.777096</v>
+        <v>0.781345</v>
       </c>
       <c r="C23" t="n">
-        <v>0.622653</v>
+        <v>0.50184</v>
       </c>
       <c r="D23" t="n">
-        <v>0.448487</v>
+        <v>0.447663</v>
       </c>
     </row>
     <row r="24">
@@ -11372,13 +11372,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.791351</v>
+        <v>0.795574</v>
       </c>
       <c r="C24" t="n">
-        <v>0.631507</v>
+        <v>0.5119320000000001</v>
       </c>
       <c r="D24" t="n">
-        <v>0.450174</v>
+        <v>0.449689</v>
       </c>
     </row>
     <row r="25">
@@ -11386,13 +11386,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.803445</v>
+        <v>0.808389</v>
       </c>
       <c r="C25" t="n">
-        <v>0.6467270000000001</v>
+        <v>0.529617</v>
       </c>
       <c r="D25" t="n">
-        <v>0.458871</v>
+        <v>0.457975</v>
       </c>
     </row>
     <row r="26">
@@ -11400,13 +11400,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.821026</v>
+        <v>0.827245</v>
       </c>
       <c r="C26" t="n">
-        <v>0.595355</v>
+        <v>0.468399</v>
       </c>
       <c r="D26" t="n">
-        <v>0.462512</v>
+        <v>0.464756</v>
       </c>
     </row>
     <row r="27">
@@ -11414,13 +11414,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.783976</v>
+        <v>0.788802</v>
       </c>
       <c r="C27" t="n">
-        <v>0.602846</v>
+        <v>0.476931</v>
       </c>
       <c r="D27" t="n">
-        <v>0.467173</v>
+        <v>0.469379</v>
       </c>
     </row>
     <row r="28">
@@ -11428,13 +11428,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.794129</v>
+        <v>0.797811</v>
       </c>
       <c r="C28" t="n">
-        <v>0.609052</v>
+        <v>0.481564</v>
       </c>
       <c r="D28" t="n">
-        <v>0.470468</v>
+        <v>0.472602</v>
       </c>
     </row>
     <row r="29">
@@ -11442,13 +11442,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.806385</v>
+        <v>0.810792</v>
       </c>
       <c r="C29" t="n">
-        <v>0.613459</v>
+        <v>0.485762</v>
       </c>
       <c r="D29" t="n">
-        <v>0.475572</v>
+        <v>0.477141</v>
       </c>
     </row>
     <row r="30">
@@ -11456,13 +11456,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.818765</v>
+        <v>0.821275</v>
       </c>
       <c r="C30" t="n">
-        <v>0.623096</v>
+        <v>0.496007</v>
       </c>
       <c r="D30" t="n">
-        <v>0.480773</v>
+        <v>0.482727</v>
       </c>
     </row>
     <row r="31">
@@ -11470,13 +11470,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.830578</v>
+        <v>0.834427</v>
       </c>
       <c r="C31" t="n">
-        <v>0.629795</v>
+        <v>0.5024420000000001</v>
       </c>
       <c r="D31" t="n">
-        <v>0.485508</v>
+        <v>0.487025</v>
       </c>
     </row>
     <row r="32">
@@ -11484,13 +11484,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.845363</v>
+        <v>0.847933</v>
       </c>
       <c r="C32" t="n">
-        <v>0.636174</v>
+        <v>0.511105</v>
       </c>
       <c r="D32" t="n">
-        <v>0.488728</v>
+        <v>0.489975</v>
       </c>
     </row>
     <row r="33">
@@ -11498,13 +11498,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.856039</v>
+        <v>0.858625</v>
       </c>
       <c r="C33" t="n">
-        <v>0.644348</v>
+        <v>0.518576</v>
       </c>
       <c r="D33" t="n">
-        <v>0.492308</v>
+        <v>0.49377</v>
       </c>
     </row>
     <row r="34">
@@ -11512,13 +11512,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.868147</v>
+        <v>0.872201</v>
       </c>
       <c r="C34" t="n">
-        <v>0.6556689999999999</v>
+        <v>0.5275300000000001</v>
       </c>
       <c r="D34" t="n">
-        <v>0.49502</v>
+        <v>0.496563</v>
       </c>
     </row>
     <row r="35">
@@ -11526,13 +11526,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.879752</v>
+        <v>0.883918</v>
       </c>
       <c r="C35" t="n">
-        <v>0.665794</v>
+        <v>0.536135</v>
       </c>
       <c r="D35" t="n">
-        <v>0.498978</v>
+        <v>0.5005849999999999</v>
       </c>
     </row>
     <row r="36">
@@ -11540,13 +11540,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.89401</v>
+        <v>0.897427</v>
       </c>
       <c r="C36" t="n">
-        <v>0.677745</v>
+        <v>0.548957</v>
       </c>
       <c r="D36" t="n">
-        <v>0.501567</v>
+        <v>0.502231</v>
       </c>
     </row>
     <row r="37">
@@ -11554,13 +11554,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.911139</v>
+        <v>0.911386</v>
       </c>
       <c r="C37" t="n">
-        <v>0.687545</v>
+        <v>0.557628</v>
       </c>
       <c r="D37" t="n">
-        <v>0.504509</v>
+        <v>0.50435</v>
       </c>
     </row>
     <row r="38">
@@ -11568,13 +11568,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.925885</v>
+        <v>0.925443</v>
       </c>
       <c r="C38" t="n">
-        <v>0.694197</v>
+        <v>0.567817</v>
       </c>
       <c r="D38" t="n">
-        <v>0.508332</v>
+        <v>0.508406</v>
       </c>
     </row>
     <row r="39">
@@ -11582,13 +11582,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.938429</v>
+        <v>0.938052</v>
       </c>
       <c r="C39" t="n">
-        <v>0.707279</v>
+        <v>0.579135</v>
       </c>
       <c r="D39" t="n">
-        <v>0.511397</v>
+        <v>0.511172</v>
       </c>
     </row>
     <row r="40">
@@ -11596,13 +11596,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.952387</v>
+        <v>0.951501</v>
       </c>
       <c r="C40" t="n">
-        <v>0.665212</v>
+        <v>0.530533</v>
       </c>
       <c r="D40" t="n">
-        <v>0.51437</v>
+        <v>0.516364</v>
       </c>
     </row>
     <row r="41">
@@ -11610,13 +11610,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.886068</v>
+        <v>0.886786</v>
       </c>
       <c r="C41" t="n">
-        <v>0.670227</v>
+        <v>0.534945</v>
       </c>
       <c r="D41" t="n">
-        <v>0.517598</v>
+        <v>0.519436</v>
       </c>
     </row>
     <row r="42">
@@ -11624,13 +11624,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.898116</v>
+        <v>0.898158</v>
       </c>
       <c r="C42" t="n">
-        <v>0.677293</v>
+        <v>0.541668</v>
       </c>
       <c r="D42" t="n">
-        <v>0.521008</v>
+        <v>0.522417</v>
       </c>
     </row>
     <row r="43">
@@ -11638,13 +11638,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.907254</v>
+        <v>0.906125</v>
       </c>
       <c r="C43" t="n">
-        <v>0.683127</v>
+        <v>0.546699</v>
       </c>
       <c r="D43" t="n">
-        <v>0.523851</v>
+        <v>0.525309</v>
       </c>
     </row>
     <row r="44">
@@ -11652,13 +11652,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.912788</v>
+        <v>0.91142</v>
       </c>
       <c r="C44" t="n">
-        <v>0.691141</v>
+        <v>0.5543</v>
       </c>
       <c r="D44" t="n">
-        <v>0.5255339999999999</v>
+        <v>0.526686</v>
       </c>
     </row>
     <row r="45">
@@ -11666,13 +11666,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.924988</v>
+        <v>0.924781</v>
       </c>
       <c r="C45" t="n">
-        <v>0.697411</v>
+        <v>0.561304</v>
       </c>
       <c r="D45" t="n">
-        <v>0.527788</v>
+        <v>0.528746</v>
       </c>
     </row>
     <row r="46">
@@ -11680,13 +11680,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.932464</v>
+        <v>0.93074</v>
       </c>
       <c r="C46" t="n">
-        <v>0.705999</v>
+        <v>0.5716830000000001</v>
       </c>
       <c r="D46" t="n">
-        <v>0.530744</v>
+        <v>0.531807</v>
       </c>
     </row>
     <row r="47">
@@ -11694,13 +11694,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.94424</v>
+        <v>0.942651</v>
       </c>
       <c r="C47" t="n">
-        <v>0.71339</v>
+        <v>0.5772929999999999</v>
       </c>
       <c r="D47" t="n">
-        <v>0.531432</v>
+        <v>0.53181</v>
       </c>
     </row>
     <row r="48">
@@ -11708,13 +11708,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.952797</v>
+        <v>0.952771</v>
       </c>
       <c r="C48" t="n">
-        <v>0.720677</v>
+        <v>0.586685</v>
       </c>
       <c r="D48" t="n">
-        <v>0.532875</v>
+        <v>0.533783</v>
       </c>
     </row>
     <row r="49">
@@ -11722,13 +11722,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.959106</v>
+        <v>0.959975</v>
       </c>
       <c r="C49" t="n">
-        <v>0.728742</v>
+        <v>0.593173</v>
       </c>
       <c r="D49" t="n">
-        <v>0.536644</v>
+        <v>0.537002</v>
       </c>
     </row>
     <row r="50">
@@ -11736,13 +11736,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.973098</v>
+        <v>0.973966</v>
       </c>
       <c r="C50" t="n">
-        <v>0.733661</v>
+        <v>0.602386</v>
       </c>
       <c r="D50" t="n">
-        <v>0.539938</v>
+        <v>0.540225</v>
       </c>
     </row>
     <row r="51">
@@ -11750,13 +11750,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.982685</v>
+        <v>0.981952</v>
       </c>
       <c r="C51" t="n">
-        <v>0.747771</v>
+        <v>0.615182</v>
       </c>
       <c r="D51" t="n">
-        <v>0.539451</v>
+        <v>0.539785</v>
       </c>
     </row>
     <row r="52">
@@ -11764,13 +11764,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.997146</v>
+        <v>0.996741</v>
       </c>
       <c r="C52" t="n">
-        <v>0.760452</v>
+        <v>0.625376</v>
       </c>
       <c r="D52" t="n">
-        <v>0.543071</v>
+        <v>0.542137</v>
       </c>
     </row>
     <row r="53">
@@ -11778,13 +11778,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>1.00607</v>
+        <v>1.00412</v>
       </c>
       <c r="C53" t="n">
-        <v>0.766796</v>
+        <v>0.631955</v>
       </c>
       <c r="D53" t="n">
-        <v>0.5414679999999999</v>
+        <v>0.541675</v>
       </c>
     </row>
     <row r="54">
@@ -11792,13 +11792,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>1.01353</v>
+        <v>1.01347</v>
       </c>
       <c r="C54" t="n">
-        <v>0.713952</v>
+        <v>0.569566</v>
       </c>
       <c r="D54" t="n">
-        <v>0.543086</v>
+        <v>0.545135</v>
       </c>
     </row>
     <row r="55">
@@ -11806,13 +11806,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.941516</v>
+        <v>0.94291</v>
       </c>
       <c r="C55" t="n">
-        <v>0.716329</v>
+        <v>0.571603</v>
       </c>
       <c r="D55" t="n">
-        <v>0.545215</v>
+        <v>0.547474</v>
       </c>
     </row>
     <row r="56">
@@ -11820,13 +11820,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.951672</v>
+        <v>0.950275</v>
       </c>
       <c r="C56" t="n">
-        <v>0.7239409999999999</v>
+        <v>0.580717</v>
       </c>
       <c r="D56" t="n">
-        <v>0.546109</v>
+        <v>0.548216</v>
       </c>
     </row>
     <row r="57">
@@ -11834,13 +11834,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.960858</v>
+        <v>0.9585939999999999</v>
       </c>
       <c r="C57" t="n">
-        <v>0.732722</v>
+        <v>0.587066</v>
       </c>
       <c r="D57" t="n">
-        <v>0.547335</v>
+        <v>0.548779</v>
       </c>
     </row>
     <row r="58">
@@ -11848,13 +11848,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.967971</v>
+        <v>0.966813</v>
       </c>
       <c r="C58" t="n">
-        <v>0.739826</v>
+        <v>0.594904</v>
       </c>
       <c r="D58" t="n">
-        <v>0.549301</v>
+        <v>0.550907</v>
       </c>
     </row>
     <row r="59">
@@ -11862,13 +11862,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.976522</v>
+        <v>0.975892</v>
       </c>
       <c r="C59" t="n">
-        <v>0.747963</v>
+        <v>0.601325</v>
       </c>
       <c r="D59" t="n">
-        <v>0.552373</v>
+        <v>0.552597</v>
       </c>
     </row>
     <row r="60">
@@ -11876,13 +11876,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.9863690000000001</v>
+        <v>0.983659</v>
       </c>
       <c r="C60" t="n">
-        <v>0.756571</v>
+        <v>0.610776</v>
       </c>
       <c r="D60" t="n">
-        <v>0.553105</v>
+        <v>0.552668</v>
       </c>
     </row>
     <row r="61">
@@ -11890,13 +11890,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.992923</v>
+        <v>0.9920099999999999</v>
       </c>
       <c r="C61" t="n">
-        <v>0.769891</v>
+        <v>0.619699</v>
       </c>
       <c r="D61" t="n">
-        <v>0.5567029999999999</v>
+        <v>0.555814</v>
       </c>
     </row>
     <row r="62">
@@ -11904,13 +11904,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>1.00654</v>
+        <v>1.00373</v>
       </c>
       <c r="C62" t="n">
-        <v>0.781547</v>
+        <v>0.628988</v>
       </c>
       <c r="D62" t="n">
-        <v>0.556847</v>
+        <v>0.557446</v>
       </c>
     </row>
     <row r="63">
@@ -11918,13 +11918,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>1.01789</v>
+        <v>1.01436</v>
       </c>
       <c r="C63" t="n">
-        <v>0.795469</v>
+        <v>0.640938</v>
       </c>
       <c r="D63" t="n">
-        <v>0.5600619999999999</v>
+        <v>0.557294</v>
       </c>
     </row>
     <row r="64">
@@ -11932,13 +11932,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>1.02342</v>
+        <v>1.01947</v>
       </c>
       <c r="C64" t="n">
-        <v>0.8114209999999999</v>
+        <v>0.6514799999999999</v>
       </c>
       <c r="D64" t="n">
-        <v>0.561401</v>
+        <v>0.559532</v>
       </c>
     </row>
     <row r="65">
@@ -11946,13 +11946,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>1.03442</v>
+        <v>1.03144</v>
       </c>
       <c r="C65" t="n">
-        <v>0.832743</v>
+        <v>0.666519</v>
       </c>
       <c r="D65" t="n">
-        <v>0.564184</v>
+        <v>0.561717</v>
       </c>
     </row>
     <row r="66">
@@ -11960,13 +11960,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>1.04747</v>
+        <v>1.04211</v>
       </c>
       <c r="C66" t="n">
-        <v>0.847624</v>
+        <v>0.677989</v>
       </c>
       <c r="D66" t="n">
-        <v>0.567598</v>
+        <v>0.5629459999999999</v>
       </c>
     </row>
     <row r="67">
@@ -11974,13 +11974,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.06665</v>
+        <v>1.05988</v>
       </c>
       <c r="C67" t="n">
-        <v>0.871134</v>
+        <v>0.696118</v>
       </c>
       <c r="D67" t="n">
-        <v>0.569755</v>
+        <v>0.56489</v>
       </c>
     </row>
     <row r="68">
@@ -11988,13 +11988,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>1.07912</v>
+        <v>1.07297</v>
       </c>
       <c r="C68" t="n">
-        <v>0.809408</v>
+        <v>0.6276620000000001</v>
       </c>
       <c r="D68" t="n">
-        <v>0.581886</v>
+        <v>0.581897</v>
       </c>
     </row>
     <row r="69">
@@ -12002,13 +12002,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>1.02582</v>
+        <v>1.02699</v>
       </c>
       <c r="C69" t="n">
-        <v>0.835452</v>
+        <v>0.6471519999999999</v>
       </c>
       <c r="D69" t="n">
-        <v>0.59066</v>
+        <v>0.589557</v>
       </c>
     </row>
     <row r="70">
@@ -12016,13 +12016,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>1.04557</v>
+        <v>1.04384</v>
       </c>
       <c r="C70" t="n">
-        <v>0.864387</v>
+        <v>0.677202</v>
       </c>
       <c r="D70" t="n">
-        <v>0.603591</v>
+        <v>0.605104</v>
       </c>
     </row>
     <row r="71">
@@ -12030,13 +12030,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>1.07154</v>
+        <v>1.06864</v>
       </c>
       <c r="C71" t="n">
-        <v>0.9035609999999999</v>
+        <v>0.703881</v>
       </c>
       <c r="D71" t="n">
-        <v>0.617702</v>
+        <v>0.618368</v>
       </c>
     </row>
     <row r="72">
@@ -12044,13 +12044,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>1.10328</v>
+        <v>1.10322</v>
       </c>
       <c r="C72" t="n">
-        <v>0.931012</v>
+        <v>0.7342919999999999</v>
       </c>
       <c r="D72" t="n">
-        <v>0.6341639999999999</v>
+        <v>0.63541</v>
       </c>
     </row>
     <row r="73">
@@ -12058,13 +12058,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>1.13953</v>
+        <v>1.14056</v>
       </c>
       <c r="C73" t="n">
-        <v>0.966955</v>
+        <v>0.7686770000000001</v>
       </c>
       <c r="D73" t="n">
-        <v>0.652949</v>
+        <v>0.656961</v>
       </c>
     </row>
     <row r="74">
@@ -12072,13 +12072,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.17462</v>
+        <v>1.17633</v>
       </c>
       <c r="C74" t="n">
-        <v>1.0022</v>
+        <v>0.805504</v>
       </c>
       <c r="D74" t="n">
-        <v>0.672914</v>
+        <v>0.673616</v>
       </c>
     </row>
     <row r="75">
@@ -12086,13 +12086,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>1.21805</v>
+        <v>1.21743</v>
       </c>
       <c r="C75" t="n">
-        <v>1.04496</v>
+        <v>0.8410530000000001</v>
       </c>
       <c r="D75" t="n">
-        <v>0.697622</v>
+        <v>0.696713</v>
       </c>
     </row>
     <row r="76">
@@ -12100,13 +12100,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>1.26709</v>
+        <v>1.26081</v>
       </c>
       <c r="C76" t="n">
-        <v>1.08316</v>
+        <v>0.87988</v>
       </c>
       <c r="D76" t="n">
-        <v>0.720865</v>
+        <v>0.715666</v>
       </c>
     </row>
     <row r="77">
@@ -12114,13 +12114,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>1.31348</v>
+        <v>1.31013</v>
       </c>
       <c r="C77" t="n">
-        <v>1.1358</v>
+        <v>0.929664</v>
       </c>
       <c r="D77" t="n">
-        <v>0.747453</v>
+        <v>0.745517</v>
       </c>
     </row>
     <row r="78">
@@ -12128,13 +12128,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>1.37416</v>
+        <v>1.36893</v>
       </c>
       <c r="C78" t="n">
-        <v>1.18025</v>
+        <v>0.975176</v>
       </c>
       <c r="D78" t="n">
-        <v>0.780905</v>
+        <v>0.777245</v>
       </c>
     </row>
     <row r="79">
@@ -12142,13 +12142,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.43845</v>
+        <v>1.43589</v>
       </c>
       <c r="C79" t="n">
-        <v>1.22914</v>
+        <v>1.02541</v>
       </c>
       <c r="D79" t="n">
-        <v>0.813445</v>
+        <v>0.813592</v>
       </c>
     </row>
     <row r="80">
@@ -12156,13 +12156,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.51103</v>
+        <v>1.5084</v>
       </c>
       <c r="C80" t="n">
-        <v>1.28069</v>
+        <v>1.07964</v>
       </c>
       <c r="D80" t="n">
-        <v>0.853244</v>
+        <v>0.85251</v>
       </c>
     </row>
     <row r="81">
@@ -12170,13 +12170,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.59313</v>
+        <v>1.59252</v>
       </c>
       <c r="C81" t="n">
-        <v>1.34485</v>
+        <v>1.14474</v>
       </c>
       <c r="D81" t="n">
-        <v>0.8947619999999999</v>
+        <v>0.895286</v>
       </c>
     </row>
     <row r="82">
@@ -12184,13 +12184,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.67956</v>
+        <v>1.68091</v>
       </c>
       <c r="C82" t="n">
-        <v>1.40265</v>
+        <v>1.20683</v>
       </c>
       <c r="D82" t="n">
-        <v>0.939831</v>
+        <v>0.945372</v>
       </c>
     </row>
     <row r="83">
@@ -12198,13 +12198,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.78147</v>
+        <v>1.78748</v>
       </c>
       <c r="C83" t="n">
-        <v>1.3836</v>
+        <v>1.17435</v>
       </c>
       <c r="D83" t="n">
-        <v>1.05118</v>
+        <v>1.06164</v>
       </c>
     </row>
     <row r="84">
@@ -12212,13 +12212,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.80058</v>
+        <v>1.79427</v>
       </c>
       <c r="C84" t="n">
-        <v>1.44516</v>
+        <v>1.22813</v>
       </c>
       <c r="D84" t="n">
-        <v>1.10879</v>
+        <v>1.11261</v>
       </c>
     </row>
     <row r="85">
@@ -12226,13 +12226,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.90318</v>
+        <v>1.90813</v>
       </c>
       <c r="C85" t="n">
-        <v>1.50436</v>
+        <v>1.29062</v>
       </c>
       <c r="D85" t="n">
-        <v>1.16781</v>
+        <v>1.17288</v>
       </c>
     </row>
     <row r="86">
@@ -12240,13 +12240,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>2.01289</v>
+        <v>2.00941</v>
       </c>
       <c r="C86" t="n">
-        <v>1.57619</v>
+        <v>1.36246</v>
       </c>
       <c r="D86" t="n">
-        <v>1.22818</v>
+        <v>1.23409</v>
       </c>
     </row>
     <row r="87">
@@ -12254,13 +12254,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>2.11782</v>
+        <v>2.12116</v>
       </c>
       <c r="C87" t="n">
-        <v>1.64078</v>
+        <v>1.42351</v>
       </c>
       <c r="D87" t="n">
-        <v>1.28687</v>
+        <v>1.29376</v>
       </c>
     </row>
     <row r="88">
@@ -12268,13 +12268,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>2.22745</v>
+        <v>2.22815</v>
       </c>
       <c r="C88" t="n">
-        <v>1.71878</v>
+        <v>1.50208</v>
       </c>
       <c r="D88" t="n">
-        <v>1.34702</v>
+        <v>1.35442</v>
       </c>
     </row>
     <row r="89">
@@ -12282,13 +12282,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>2.35478</v>
+        <v>2.35528</v>
       </c>
       <c r="C89" t="n">
-        <v>1.79517</v>
+        <v>1.57734</v>
       </c>
       <c r="D89" t="n">
-        <v>1.40393</v>
+        <v>1.41672</v>
       </c>
     </row>
     <row r="90">
@@ -12296,13 +12296,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>2.47401</v>
+        <v>2.48133</v>
       </c>
       <c r="C90" t="n">
-        <v>1.86893</v>
+        <v>1.6505</v>
       </c>
       <c r="D90" t="n">
-        <v>1.46437</v>
+        <v>1.4731</v>
       </c>
     </row>
     <row r="91">
@@ -12310,13 +12310,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>2.60735</v>
+        <v>2.61274</v>
       </c>
       <c r="C91" t="n">
-        <v>1.94738</v>
+        <v>1.73799</v>
       </c>
       <c r="D91" t="n">
-        <v>1.52361</v>
+        <v>1.53075</v>
       </c>
     </row>
     <row r="92">
@@ -12324,13 +12324,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>2.73942</v>
+        <v>2.73565</v>
       </c>
       <c r="C92" t="n">
-        <v>2.04514</v>
+        <v>1.81875</v>
       </c>
       <c r="D92" t="n">
-        <v>1.57968</v>
+        <v>1.58726</v>
       </c>
     </row>
     <row r="93">
@@ -12338,13 +12338,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>2.86701</v>
+        <v>2.85738</v>
       </c>
       <c r="C93" t="n">
-        <v>2.13302</v>
+        <v>1.90624</v>
       </c>
       <c r="D93" t="n">
-        <v>1.6326</v>
+        <v>1.63915</v>
       </c>
     </row>
     <row r="94">
@@ -12352,13 +12352,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>2.98996</v>
+        <v>2.9956</v>
       </c>
       <c r="C94" t="n">
-        <v>2.21306</v>
+        <v>1.99043</v>
       </c>
       <c r="D94" t="n">
-        <v>1.68488</v>
+        <v>1.69153</v>
       </c>
     </row>
     <row r="95">
@@ -12366,13 +12366,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>3.13658</v>
+        <v>3.14083</v>
       </c>
       <c r="C95" t="n">
-        <v>2.31515</v>
+        <v>2.08433</v>
       </c>
       <c r="D95" t="n">
-        <v>1.73389</v>
+        <v>1.73883</v>
       </c>
     </row>
     <row r="96">
@@ -12380,13 +12380,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>3.26783</v>
+        <v>3.26279</v>
       </c>
       <c r="C96" t="n">
-        <v>2.40948</v>
+        <v>2.18477</v>
       </c>
       <c r="D96" t="n">
-        <v>1.78374</v>
+        <v>1.78866</v>
       </c>
     </row>
     <row r="97">
@@ -12394,13 +12394,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>3.40983</v>
+        <v>3.40147</v>
       </c>
       <c r="C97" t="n">
-        <v>2.18858</v>
+        <v>1.90501</v>
       </c>
       <c r="D97" t="n">
-        <v>1.90766</v>
+        <v>1.91292</v>
       </c>
     </row>
     <row r="98">
@@ -12408,13 +12408,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>3.25278</v>
+        <v>3.24687</v>
       </c>
       <c r="C98" t="n">
-        <v>2.23057</v>
+        <v>1.9706</v>
       </c>
       <c r="D98" t="n">
-        <v>1.95165</v>
+        <v>1.9601</v>
       </c>
     </row>
     <row r="99">
@@ -12422,13 +12422,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>3.35377</v>
+        <v>3.36367</v>
       </c>
       <c r="C99" t="n">
-        <v>2.30469</v>
+        <v>2.01986</v>
       </c>
       <c r="D99" t="n">
-        <v>1.99397</v>
+        <v>2.00397</v>
       </c>
     </row>
     <row r="100">
@@ -12436,13 +12436,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>3.45496</v>
+        <v>3.45774</v>
       </c>
       <c r="C100" t="n">
-        <v>2.38127</v>
+        <v>2.09732</v>
       </c>
       <c r="D100" t="n">
-        <v>2.0355</v>
+        <v>2.04132</v>
       </c>
     </row>
     <row r="101">
@@ -12450,13 +12450,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>3.57835</v>
+        <v>3.57506</v>
       </c>
       <c r="C101" t="n">
-        <v>2.45051</v>
+        <v>2.16423</v>
       </c>
       <c r="D101" t="n">
-        <v>2.0856</v>
+        <v>2.08041</v>
       </c>
     </row>
     <row r="102">
@@ -12464,13 +12464,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>3.6936</v>
+        <v>3.69</v>
       </c>
       <c r="C102" t="n">
-        <v>2.5168</v>
+        <v>2.23128</v>
       </c>
       <c r="D102" t="n">
-        <v>2.10855</v>
+        <v>2.11548</v>
       </c>
     </row>
     <row r="103">
@@ -12478,13 +12478,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>3.76481</v>
+        <v>3.76444</v>
       </c>
       <c r="C103" t="n">
-        <v>2.5797</v>
+        <v>2.30572</v>
       </c>
       <c r="D103" t="n">
-        <v>2.14328</v>
+        <v>2.15307</v>
       </c>
     </row>
     <row r="104">
@@ -12492,13 +12492,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>3.88518</v>
+        <v>3.8945</v>
       </c>
       <c r="C104" t="n">
-        <v>2.67013</v>
+        <v>2.37414</v>
       </c>
       <c r="D104" t="n">
-        <v>2.1756</v>
+        <v>2.18207</v>
       </c>
     </row>
     <row r="105">
@@ -12506,13 +12506,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>3.97665</v>
+        <v>3.97599</v>
       </c>
       <c r="C105" t="n">
-        <v>2.74037</v>
+        <v>2.44759</v>
       </c>
       <c r="D105" t="n">
-        <v>2.22201</v>
+        <v>2.21715</v>
       </c>
     </row>
     <row r="106">
@@ -12520,13 +12520,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>4.07823</v>
+        <v>4.06156</v>
       </c>
       <c r="C106" t="n">
-        <v>2.81915</v>
+        <v>2.52144</v>
       </c>
       <c r="D106" t="n">
-        <v>2.24065</v>
+        <v>2.24934</v>
       </c>
     </row>
     <row r="107">
@@ -12534,13 +12534,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>4.19387</v>
+        <v>4.18126</v>
       </c>
       <c r="C107" t="n">
-        <v>2.8519</v>
+        <v>2.59887</v>
       </c>
       <c r="D107" t="n">
-        <v>2.27504</v>
+        <v>2.27984</v>
       </c>
     </row>
     <row r="108">
@@ -12548,13 +12548,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>4.30572</v>
+        <v>4.29903</v>
       </c>
       <c r="C108" t="n">
-        <v>2.97726</v>
+        <v>2.69215</v>
       </c>
       <c r="D108" t="n">
-        <v>2.30016</v>
+        <v>2.30662</v>
       </c>
     </row>
     <row r="109">
@@ -12562,13 +12562,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>4.40859</v>
+        <v>4.41148</v>
       </c>
       <c r="C109" t="n">
-        <v>3.07014</v>
+        <v>2.78746</v>
       </c>
       <c r="D109" t="n">
-        <v>2.32752</v>
+        <v>2.32935</v>
       </c>
     </row>
     <row r="110">
@@ -12576,13 +12576,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>4.52133</v>
+        <v>4.49556</v>
       </c>
       <c r="C110" t="n">
-        <v>3.16431</v>
+        <v>2.87266</v>
       </c>
       <c r="D110" t="n">
-        <v>2.35842</v>
+        <v>2.36117</v>
       </c>
     </row>
     <row r="111">
@@ -12590,13 +12590,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>4.63922</v>
+        <v>4.58852</v>
       </c>
       <c r="C111" t="n">
-        <v>2.79317</v>
+        <v>2.43299</v>
       </c>
       <c r="D111" t="n">
-        <v>2.44815</v>
+        <v>2.44927</v>
       </c>
     </row>
     <row r="112">
@@ -12604,13 +12604,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>4.2616</v>
+        <v>4.2755</v>
       </c>
       <c r="C112" t="n">
-        <v>2.8596</v>
+        <v>2.4976</v>
       </c>
       <c r="D112" t="n">
-        <v>2.47384</v>
+        <v>2.48188</v>
       </c>
     </row>
     <row r="113">
@@ -12618,13 +12618,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>4.35638</v>
+        <v>4.34053</v>
       </c>
       <c r="C113" t="n">
-        <v>2.91738</v>
+        <v>2.57373</v>
       </c>
       <c r="D113" t="n">
-        <v>2.4981</v>
+        <v>2.50201</v>
       </c>
     </row>
     <row r="114">
@@ -12632,13 +12632,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>4.42787</v>
+        <v>4.41998</v>
       </c>
       <c r="C114" t="n">
-        <v>2.97877</v>
+        <v>2.63657</v>
       </c>
       <c r="D114" t="n">
-        <v>2.52269</v>
+        <v>2.52641</v>
       </c>
     </row>
     <row r="115">
@@ -12646,13 +12646,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>4.53223</v>
+        <v>4.50394</v>
       </c>
       <c r="C115" t="n">
-        <v>3.02625</v>
+        <v>2.68433</v>
       </c>
       <c r="D115" t="n">
-        <v>2.547</v>
+        <v>2.55008</v>
       </c>
     </row>
     <row r="116">
@@ -12660,13 +12660,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>4.60803</v>
+        <v>4.59992</v>
       </c>
       <c r="C116" t="n">
-        <v>3.09289</v>
+        <v>2.75794</v>
       </c>
       <c r="D116" t="n">
-        <v>2.56717</v>
+        <v>2.57729</v>
       </c>
     </row>
     <row r="117">
@@ -12674,13 +12674,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>4.68395</v>
+        <v>4.6831</v>
       </c>
       <c r="C117" t="n">
-        <v>3.1536</v>
+        <v>2.83013</v>
       </c>
       <c r="D117" t="n">
-        <v>2.58945</v>
+        <v>2.59805</v>
       </c>
     </row>
     <row r="118">
@@ -12688,13 +12688,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>4.77913</v>
+        <v>4.76406</v>
       </c>
       <c r="C118" t="n">
-        <v>3.22378</v>
+        <v>2.88338</v>
       </c>
       <c r="D118" t="n">
-        <v>2.60421</v>
+        <v>2.61699</v>
       </c>
     </row>
     <row r="119">
@@ -12702,13 +12702,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>4.86563</v>
+        <v>4.85107</v>
       </c>
       <c r="C119" t="n">
-        <v>3.30724</v>
+        <v>2.9541</v>
       </c>
       <c r="D119" t="n">
-        <v>2.62797</v>
+        <v>2.63694</v>
       </c>
     </row>
   </sheetData>

--- a/clang_libcpp/scattered erasure.xlsx
+++ b/clang_libcpp/scattered erasure.xlsx
@@ -7680,13 +7680,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.39541</v>
+        <v>0.403522</v>
       </c>
       <c r="C2" t="n">
-        <v>0.215726</v>
+        <v>0.316352</v>
       </c>
       <c r="D2" t="n">
-        <v>0.213437</v>
+        <v>0.223596</v>
       </c>
     </row>
     <row r="3">
@@ -7694,13 +7694,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.401609</v>
+        <v>0.402875</v>
       </c>
       <c r="C3" t="n">
-        <v>0.216634</v>
+        <v>0.320527</v>
       </c>
       <c r="D3" t="n">
-        <v>0.219873</v>
+        <v>0.227436</v>
       </c>
     </row>
     <row r="4">
@@ -7708,13 +7708,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.40834</v>
+        <v>0.410851</v>
       </c>
       <c r="C4" t="n">
-        <v>0.220537</v>
+        <v>0.32531</v>
       </c>
       <c r="D4" t="n">
-        <v>0.221915</v>
+        <v>0.2354</v>
       </c>
     </row>
     <row r="5">
@@ -7722,13 +7722,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.412896</v>
+        <v>0.414973</v>
       </c>
       <c r="C5" t="n">
-        <v>0.223485</v>
+        <v>0.328288</v>
       </c>
       <c r="D5" t="n">
-        <v>0.228865</v>
+        <v>0.238878</v>
       </c>
     </row>
     <row r="6">
@@ -7736,13 +7736,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.418157</v>
+        <v>0.420474</v>
       </c>
       <c r="C6" t="n">
-        <v>0.226488</v>
+        <v>0.331486</v>
       </c>
       <c r="D6" t="n">
-        <v>0.233157</v>
+        <v>0.245533</v>
       </c>
     </row>
     <row r="7">
@@ -7750,13 +7750,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.421897</v>
+        <v>0.426762</v>
       </c>
       <c r="C7" t="n">
-        <v>0.218715</v>
+        <v>0.330689</v>
       </c>
       <c r="D7" t="n">
-        <v>0.242558</v>
+        <v>0.247807</v>
       </c>
     </row>
     <row r="8">
@@ -7764,13 +7764,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.40382</v>
+        <v>0.401641</v>
       </c>
       <c r="C8" t="n">
-        <v>0.220012</v>
+        <v>0.332328</v>
       </c>
       <c r="D8" t="n">
-        <v>0.246053</v>
+        <v>0.257802</v>
       </c>
     </row>
     <row r="9">
@@ -7778,13 +7778,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.407911</v>
+        <v>0.409645</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2216</v>
+        <v>0.335261</v>
       </c>
       <c r="D9" t="n">
-        <v>0.251385</v>
+        <v>0.260103</v>
       </c>
     </row>
     <row r="10">
@@ -7792,13 +7792,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.416106</v>
+        <v>0.417208</v>
       </c>
       <c r="C10" t="n">
-        <v>0.223518</v>
+        <v>0.337727</v>
       </c>
       <c r="D10" t="n">
-        <v>0.258026</v>
+        <v>0.263098</v>
       </c>
     </row>
     <row r="11">
@@ -7806,13 +7806,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.422604</v>
+        <v>0.420774</v>
       </c>
       <c r="C11" t="n">
-        <v>0.224963</v>
+        <v>0.338776</v>
       </c>
       <c r="D11" t="n">
-        <v>0.261565</v>
+        <v>0.268639</v>
       </c>
     </row>
     <row r="12">
@@ -7820,13 +7820,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.427144</v>
+        <v>0.428872</v>
       </c>
       <c r="C12" t="n">
-        <v>0.226796</v>
+        <v>0.341387</v>
       </c>
       <c r="D12" t="n">
-        <v>0.267815</v>
+        <v>0.269286</v>
       </c>
     </row>
     <row r="13">
@@ -7834,13 +7834,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.434027</v>
+        <v>0.429724</v>
       </c>
       <c r="C13" t="n">
-        <v>0.228745</v>
+        <v>0.343965</v>
       </c>
       <c r="D13" t="n">
-        <v>0.271323</v>
+        <v>0.27497</v>
       </c>
     </row>
     <row r="14">
@@ -7848,13 +7848,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.440015</v>
+        <v>0.437034</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2306</v>
+        <v>0.347174</v>
       </c>
       <c r="D14" t="n">
-        <v>0.275825</v>
+        <v>0.281166</v>
       </c>
     </row>
     <row r="15">
@@ -7862,13 +7862,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.4449</v>
+        <v>0.442343</v>
       </c>
       <c r="C15" t="n">
-        <v>0.233184</v>
+        <v>0.349704</v>
       </c>
       <c r="D15" t="n">
-        <v>0.281658</v>
+        <v>0.284619</v>
       </c>
     </row>
     <row r="16">
@@ -7876,13 +7876,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.45207</v>
+        <v>0.448239</v>
       </c>
       <c r="C16" t="n">
-        <v>0.235929</v>
+        <v>0.352799</v>
       </c>
       <c r="D16" t="n">
-        <v>0.287156</v>
+        <v>0.290601</v>
       </c>
     </row>
     <row r="17">
@@ -7890,13 +7890,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.459115</v>
+        <v>0.455385</v>
       </c>
       <c r="C17" t="n">
-        <v>0.23735</v>
+        <v>0.354443</v>
       </c>
       <c r="D17" t="n">
-        <v>0.290689</v>
+        <v>0.295261</v>
       </c>
     </row>
     <row r="18">
@@ -7904,13 +7904,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.462091</v>
+        <v>0.461322</v>
       </c>
       <c r="C18" t="n">
-        <v>0.240483</v>
+        <v>0.358288</v>
       </c>
       <c r="D18" t="n">
-        <v>0.295839</v>
+        <v>0.298566</v>
       </c>
     </row>
     <row r="19">
@@ -7918,13 +7918,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.467392</v>
+        <v>0.464838</v>
       </c>
       <c r="C19" t="n">
-        <v>0.242704</v>
+        <v>0.360952</v>
       </c>
       <c r="D19" t="n">
-        <v>0.300028</v>
+        <v>0.302888</v>
       </c>
     </row>
     <row r="20">
@@ -7932,13 +7932,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.475518</v>
+        <v>0.474079</v>
       </c>
       <c r="C20" t="n">
-        <v>0.245672</v>
+        <v>0.36447</v>
       </c>
       <c r="D20" t="n">
-        <v>0.304403</v>
+        <v>0.30778</v>
       </c>
     </row>
     <row r="21">
@@ -7946,13 +7946,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.480649</v>
+        <v>0.477961</v>
       </c>
       <c r="C21" t="n">
-        <v>0.233296</v>
+        <v>0.358306</v>
       </c>
       <c r="D21" t="n">
-        <v>0.305171</v>
+        <v>0.307005</v>
       </c>
     </row>
     <row r="22">
@@ -7960,13 +7960,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.463173</v>
+        <v>0.458497</v>
       </c>
       <c r="C22" t="n">
-        <v>0.234463</v>
+        <v>0.359688</v>
       </c>
       <c r="D22" t="n">
-        <v>0.308352</v>
+        <v>0.309862</v>
       </c>
     </row>
     <row r="23">
@@ -7974,13 +7974,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.46744</v>
+        <v>0.462256</v>
       </c>
       <c r="C23" t="n">
-        <v>0.235885</v>
+        <v>0.360766</v>
       </c>
       <c r="D23" t="n">
-        <v>0.31211</v>
+        <v>0.31329</v>
       </c>
     </row>
     <row r="24">
@@ -7988,13 +7988,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.471792</v>
+        <v>0.466556</v>
       </c>
       <c r="C24" t="n">
-        <v>0.23757</v>
+        <v>0.362961</v>
       </c>
       <c r="D24" t="n">
-        <v>0.314681</v>
+        <v>0.316788</v>
       </c>
     </row>
     <row r="25">
@@ -8002,13 +8002,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.475981</v>
+        <v>0.472298</v>
       </c>
       <c r="C25" t="n">
-        <v>0.239107</v>
+        <v>0.36507</v>
       </c>
       <c r="D25" t="n">
-        <v>0.317182</v>
+        <v>0.319867</v>
       </c>
     </row>
     <row r="26">
@@ -8016,13 +8016,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.480618</v>
+        <v>0.475941</v>
       </c>
       <c r="C26" t="n">
-        <v>0.241006</v>
+        <v>0.366095</v>
       </c>
       <c r="D26" t="n">
-        <v>0.321012</v>
+        <v>0.322453</v>
       </c>
     </row>
     <row r="27">
@@ -8030,13 +8030,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.484015</v>
+        <v>0.480486</v>
       </c>
       <c r="C27" t="n">
-        <v>0.242422</v>
+        <v>0.368518</v>
       </c>
       <c r="D27" t="n">
-        <v>0.324063</v>
+        <v>0.325672</v>
       </c>
     </row>
     <row r="28">
@@ -8044,13 +8044,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.489254</v>
+        <v>0.484407</v>
       </c>
       <c r="C28" t="n">
-        <v>0.244529</v>
+        <v>0.371965</v>
       </c>
       <c r="D28" t="n">
-        <v>0.32727</v>
+        <v>0.328929</v>
       </c>
     </row>
     <row r="29">
@@ -8058,13 +8058,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.492681</v>
+        <v>0.489513</v>
       </c>
       <c r="C29" t="n">
-        <v>0.246363</v>
+        <v>0.373657</v>
       </c>
       <c r="D29" t="n">
-        <v>0.329247</v>
+        <v>0.331387</v>
       </c>
     </row>
     <row r="30">
@@ -8072,13 +8072,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.49814</v>
+        <v>0.49274</v>
       </c>
       <c r="C30" t="n">
-        <v>0.249009</v>
+        <v>0.376477</v>
       </c>
       <c r="D30" t="n">
-        <v>0.331957</v>
+        <v>0.333888</v>
       </c>
     </row>
     <row r="31">
@@ -8086,13 +8086,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.5021949999999999</v>
+        <v>0.497133</v>
       </c>
       <c r="C31" t="n">
-        <v>0.252199</v>
+        <v>0.377808</v>
       </c>
       <c r="D31" t="n">
-        <v>0.335863</v>
+        <v>0.337388</v>
       </c>
     </row>
     <row r="32">
@@ -8100,13 +8100,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.507016</v>
+        <v>0.501617</v>
       </c>
       <c r="C32" t="n">
-        <v>0.25332</v>
+        <v>0.380456</v>
       </c>
       <c r="D32" t="n">
-        <v>0.337986</v>
+        <v>0.340332</v>
       </c>
     </row>
     <row r="33">
@@ -8114,13 +8114,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.51171</v>
+        <v>0.507003</v>
       </c>
       <c r="C33" t="n">
-        <v>0.256094</v>
+        <v>0.382815</v>
       </c>
       <c r="D33" t="n">
-        <v>0.341056</v>
+        <v>0.343553</v>
       </c>
     </row>
     <row r="34">
@@ -8128,13 +8128,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.517435</v>
+        <v>0.512857</v>
       </c>
       <c r="C34" t="n">
-        <v>0.257336</v>
+        <v>0.38642</v>
       </c>
       <c r="D34" t="n">
-        <v>0.343672</v>
+        <v>0.346551</v>
       </c>
     </row>
     <row r="35">
@@ -8142,13 +8142,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.520823</v>
+        <v>0.5177659999999999</v>
       </c>
       <c r="C35" t="n">
-        <v>0.242851</v>
+        <v>0.374118</v>
       </c>
       <c r="D35" t="n">
-        <v>0.337605</v>
+        <v>0.340392</v>
       </c>
     </row>
     <row r="36">
@@ -8156,13 +8156,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.495056</v>
+        <v>0.489702</v>
       </c>
       <c r="C36" t="n">
-        <v>0.243784</v>
+        <v>0.373909</v>
       </c>
       <c r="D36" t="n">
-        <v>0.339263</v>
+        <v>0.342272</v>
       </c>
     </row>
     <row r="37">
@@ -8170,13 +8170,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.498576</v>
+        <v>0.493472</v>
       </c>
       <c r="C37" t="n">
-        <v>0.245521</v>
+        <v>0.377336</v>
       </c>
       <c r="D37" t="n">
-        <v>0.339912</v>
+        <v>0.344365</v>
       </c>
     </row>
     <row r="38">
@@ -8184,13 +8184,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.500748</v>
+        <v>0.496761</v>
       </c>
       <c r="C38" t="n">
-        <v>0.247402</v>
+        <v>0.37759</v>
       </c>
       <c r="D38" t="n">
-        <v>0.342752</v>
+        <v>0.345992</v>
       </c>
     </row>
     <row r="39">
@@ -8198,13 +8198,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.503627</v>
+        <v>0.499431</v>
       </c>
       <c r="C39" t="n">
-        <v>0.248222</v>
+        <v>0.378573</v>
       </c>
       <c r="D39" t="n">
-        <v>0.344537</v>
+        <v>0.347337</v>
       </c>
     </row>
     <row r="40">
@@ -8212,13 +8212,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.508029</v>
+        <v>0.502188</v>
       </c>
       <c r="C40" t="n">
-        <v>0.249978</v>
+        <v>0.380785</v>
       </c>
       <c r="D40" t="n">
-        <v>0.345943</v>
+        <v>0.349522</v>
       </c>
     </row>
     <row r="41">
@@ -8226,13 +8226,13 @@
         <v>66357</v>
       </c>
       <c r="B41" t="n">
-        <v>0.510085</v>
+        <v>0.505255</v>
       </c>
       <c r="C41" t="n">
-        <v>0.252654</v>
+        <v>0.381841</v>
       </c>
       <c r="D41" t="n">
-        <v>0.348275</v>
+        <v>0.351178</v>
       </c>
     </row>
     <row r="42">
@@ -8240,13 +8240,13 @@
         <v>69656</v>
       </c>
       <c r="B42" t="n">
-        <v>0.513829</v>
+        <v>0.508784</v>
       </c>
       <c r="C42" t="n">
-        <v>0.254536</v>
+        <v>0.383893</v>
       </c>
       <c r="D42" t="n">
-        <v>0.35045</v>
+        <v>0.353391</v>
       </c>
     </row>
     <row r="43">
@@ -8254,13 +8254,13 @@
         <v>73119</v>
       </c>
       <c r="B43" t="n">
-        <v>0.519209</v>
+        <v>0.513885</v>
       </c>
       <c r="C43" t="n">
-        <v>0.254376</v>
+        <v>0.385567</v>
       </c>
       <c r="D43" t="n">
-        <v>0.352199</v>
+        <v>0.355444</v>
       </c>
     </row>
     <row r="44">
@@ -8268,13 +8268,13 @@
         <v>76755</v>
       </c>
       <c r="B44" t="n">
-        <v>0.520658</v>
+        <v>0.515552</v>
       </c>
       <c r="C44" t="n">
-        <v>0.257168</v>
+        <v>0.388063</v>
       </c>
       <c r="D44" t="n">
-        <v>0.354533</v>
+        <v>0.357422</v>
       </c>
     </row>
     <row r="45">
@@ -8282,13 +8282,13 @@
         <v>80572</v>
       </c>
       <c r="B45" t="n">
-        <v>0.524628</v>
+        <v>0.519408</v>
       </c>
       <c r="C45" t="n">
-        <v>0.259257</v>
+        <v>0.389987</v>
       </c>
       <c r="D45" t="n">
-        <v>0.356348</v>
+        <v>0.359044</v>
       </c>
     </row>
     <row r="46">
@@ -8296,13 +8296,13 @@
         <v>84579</v>
       </c>
       <c r="B46" t="n">
-        <v>0.5295570000000001</v>
+        <v>0.523599</v>
       </c>
       <c r="C46" t="n">
-        <v>0.262871</v>
+        <v>0.392269</v>
       </c>
       <c r="D46" t="n">
-        <v>0.358743</v>
+        <v>0.361562</v>
       </c>
     </row>
     <row r="47">
@@ -8310,13 +8310,13 @@
         <v>88786</v>
       </c>
       <c r="B47" t="n">
-        <v>0.533605</v>
+        <v>0.528156</v>
       </c>
       <c r="C47" t="n">
-        <v>0.265559</v>
+        <v>0.394413</v>
       </c>
       <c r="D47" t="n">
-        <v>0.360136</v>
+        <v>0.363784</v>
       </c>
     </row>
     <row r="48">
@@ -8324,13 +8324,13 @@
         <v>93203</v>
       </c>
       <c r="B48" t="n">
-        <v>0.537922</v>
+        <v>0.531755</v>
       </c>
       <c r="C48" t="n">
-        <v>0.267815</v>
+        <v>0.397452</v>
       </c>
       <c r="D48" t="n">
-        <v>0.363168</v>
+        <v>0.365645</v>
       </c>
     </row>
     <row r="49">
@@ -8338,13 +8338,13 @@
         <v>97840</v>
       </c>
       <c r="B49" t="n">
-        <v>0.5419040000000001</v>
+        <v>0.536291</v>
       </c>
       <c r="C49" t="n">
-        <v>0.270582</v>
+        <v>0.399984</v>
       </c>
       <c r="D49" t="n">
-        <v>0.365275</v>
+        <v>0.367902</v>
       </c>
     </row>
     <row r="50">
@@ -8352,13 +8352,13 @@
         <v>102706</v>
       </c>
       <c r="B50" t="n">
-        <v>0.546629</v>
+        <v>0.540671</v>
       </c>
       <c r="C50" t="n">
-        <v>0.258599</v>
+        <v>0.386236</v>
       </c>
       <c r="D50" t="n">
-        <v>0.355687</v>
+        <v>0.358012</v>
       </c>
     </row>
     <row r="51">
@@ -8366,13 +8366,13 @@
         <v>107816</v>
       </c>
       <c r="B51" t="n">
-        <v>0.516465</v>
+        <v>0.508931</v>
       </c>
       <c r="C51" t="n">
-        <v>0.259969</v>
+        <v>0.3884</v>
       </c>
       <c r="D51" t="n">
-        <v>0.356959</v>
+        <v>0.357986</v>
       </c>
     </row>
     <row r="52">
@@ -8380,13 +8380,13 @@
         <v>113182</v>
       </c>
       <c r="B52" t="n">
-        <v>0.519814</v>
+        <v>0.51129</v>
       </c>
       <c r="C52" t="n">
-        <v>0.258113</v>
+        <v>0.387049</v>
       </c>
       <c r="D52" t="n">
-        <v>0.357515</v>
+        <v>0.357942</v>
       </c>
     </row>
     <row r="53">
@@ -8394,13 +8394,13 @@
         <v>118816</v>
       </c>
       <c r="B53" t="n">
-        <v>0.521046</v>
+        <v>0.512946</v>
       </c>
       <c r="C53" t="n">
-        <v>0.25964</v>
+        <v>0.389961</v>
       </c>
       <c r="D53" t="n">
-        <v>0.35909</v>
+        <v>0.359819</v>
       </c>
     </row>
     <row r="54">
@@ -8408,13 +8408,13 @@
         <v>124731</v>
       </c>
       <c r="B54" t="n">
-        <v>0.5243679999999999</v>
+        <v>0.516551</v>
       </c>
       <c r="C54" t="n">
-        <v>0.264631</v>
+        <v>0.38956</v>
       </c>
       <c r="D54" t="n">
-        <v>0.360453</v>
+        <v>0.36226</v>
       </c>
     </row>
     <row r="55">
@@ -8422,13 +8422,13 @@
         <v>130941</v>
       </c>
       <c r="B55" t="n">
-        <v>0.526325</v>
+        <v>0.518689</v>
       </c>
       <c r="C55" t="n">
-        <v>0.263071</v>
+        <v>0.392529</v>
       </c>
       <c r="D55" t="n">
-        <v>0.362124</v>
+        <v>0.362564</v>
       </c>
     </row>
     <row r="56">
@@ -8436,13 +8436,13 @@
         <v>137461</v>
       </c>
       <c r="B56" t="n">
-        <v>0.529303</v>
+        <v>0.521061</v>
       </c>
       <c r="C56" t="n">
-        <v>0.265064</v>
+        <v>0.399256</v>
       </c>
       <c r="D56" t="n">
-        <v>0.363438</v>
+        <v>0.365626</v>
       </c>
     </row>
     <row r="57">
@@ -8450,13 +8450,13 @@
         <v>144307</v>
       </c>
       <c r="B57" t="n">
-        <v>0.532125</v>
+        <v>0.524898</v>
       </c>
       <c r="C57" t="n">
-        <v>0.270638</v>
+        <v>0.403591</v>
       </c>
       <c r="D57" t="n">
-        <v>0.365716</v>
+        <v>0.365934</v>
       </c>
     </row>
     <row r="58">
@@ -8464,13 +8464,13 @@
         <v>151495</v>
       </c>
       <c r="B58" t="n">
-        <v>0.535458</v>
+        <v>0.528803</v>
       </c>
       <c r="C58" t="n">
-        <v>0.272417</v>
+        <v>0.404871</v>
       </c>
       <c r="D58" t="n">
-        <v>0.367968</v>
+        <v>0.369568</v>
       </c>
     </row>
     <row r="59">
@@ -8478,13 +8478,13 @@
         <v>159042</v>
       </c>
       <c r="B59" t="n">
-        <v>0.538516</v>
+        <v>0.534411</v>
       </c>
       <c r="C59" t="n">
-        <v>0.277982</v>
+        <v>0.412433</v>
       </c>
       <c r="D59" t="n">
-        <v>0.369147</v>
+        <v>0.371326</v>
       </c>
     </row>
     <row r="60">
@@ -8492,13 +8492,13 @@
         <v>166965</v>
       </c>
       <c r="B60" t="n">
-        <v>0.54234</v>
+        <v>0.536212</v>
       </c>
       <c r="C60" t="n">
-        <v>0.278755</v>
+        <v>0.419616</v>
       </c>
       <c r="D60" t="n">
-        <v>0.371274</v>
+        <v>0.372961</v>
       </c>
     </row>
     <row r="61">
@@ -8506,13 +8506,13 @@
         <v>175284</v>
       </c>
       <c r="B61" t="n">
-        <v>0.546798</v>
+        <v>0.54276</v>
       </c>
       <c r="C61" t="n">
-        <v>0.284301</v>
+        <v>0.422087</v>
       </c>
       <c r="D61" t="n">
-        <v>0.374205</v>
+        <v>0.377895</v>
       </c>
     </row>
     <row r="62">
@@ -8520,13 +8520,13 @@
         <v>184019</v>
       </c>
       <c r="B62" t="n">
-        <v>0.55124</v>
+        <v>0.546026</v>
       </c>
       <c r="C62" t="n">
-        <v>0.300065</v>
+        <v>0.427528</v>
       </c>
       <c r="D62" t="n">
-        <v>0.376378</v>
+        <v>0.379637</v>
       </c>
     </row>
     <row r="63">
@@ -8534,13 +8534,13 @@
         <v>193190</v>
       </c>
       <c r="B63" t="n">
-        <v>0.56133</v>
+        <v>0.552337</v>
       </c>
       <c r="C63" t="n">
-        <v>0.311105</v>
+        <v>0.435311</v>
       </c>
       <c r="D63" t="n">
-        <v>0.385415</v>
+        <v>0.382581</v>
       </c>
     </row>
     <row r="64">
@@ -8548,13 +8548,13 @@
         <v>202820</v>
       </c>
       <c r="B64" t="n">
-        <v>0.568603</v>
+        <v>0.558494</v>
       </c>
       <c r="C64" t="n">
-        <v>0.361409</v>
+        <v>0.490746</v>
       </c>
       <c r="D64" t="n">
-        <v>0.409173</v>
+        <v>0.415585</v>
       </c>
     </row>
     <row r="65">
@@ -8562,13 +8562,13 @@
         <v>212931</v>
       </c>
       <c r="B65" t="n">
-        <v>0.589485</v>
+        <v>0.5946090000000001</v>
       </c>
       <c r="C65" t="n">
-        <v>0.372483</v>
+        <v>0.513168</v>
       </c>
       <c r="D65" t="n">
-        <v>0.41723</v>
+        <v>0.425569</v>
       </c>
     </row>
     <row r="66">
@@ -8576,13 +8576,13 @@
         <v>223547</v>
       </c>
       <c r="B66" t="n">
-        <v>0.605278</v>
+        <v>0.61007</v>
       </c>
       <c r="C66" t="n">
-        <v>0.397353</v>
+        <v>0.525333</v>
       </c>
       <c r="D66" t="n">
-        <v>0.435175</v>
+        <v>0.435137</v>
       </c>
     </row>
     <row r="67">
@@ -8590,13 +8590,13 @@
         <v>234692</v>
       </c>
       <c r="B67" t="n">
-        <v>0.628949</v>
+        <v>0.626742</v>
       </c>
       <c r="C67" t="n">
-        <v>0.418481</v>
+        <v>0.549733</v>
       </c>
       <c r="D67" t="n">
-        <v>0.452039</v>
+        <v>0.448898</v>
       </c>
     </row>
     <row r="68">
@@ -8604,13 +8604,13 @@
         <v>246395</v>
       </c>
       <c r="B68" t="n">
-        <v>0.655988</v>
+        <v>0.644228</v>
       </c>
       <c r="C68" t="n">
-        <v>0.438486</v>
+        <v>0.569001</v>
       </c>
       <c r="D68" t="n">
-        <v>0.444032</v>
+        <v>0.459066</v>
       </c>
     </row>
     <row r="69">
@@ -8618,13 +8618,13 @@
         <v>258683</v>
       </c>
       <c r="B69" t="n">
-        <v>0.646487</v>
+        <v>0.654547</v>
       </c>
       <c r="C69" t="n">
-        <v>0.465451</v>
+        <v>0.587016</v>
       </c>
       <c r="D69" t="n">
-        <v>0.470104</v>
+        <v>0.476285</v>
       </c>
     </row>
     <row r="70">
@@ -8632,13 +8632,13 @@
         <v>271585</v>
       </c>
       <c r="B70" t="n">
-        <v>0.681836</v>
+        <v>0.690611</v>
       </c>
       <c r="C70" t="n">
-        <v>0.48592</v>
+        <v>0.613411</v>
       </c>
       <c r="D70" t="n">
-        <v>0.486487</v>
+        <v>0.503596</v>
       </c>
     </row>
     <row r="71">
@@ -8646,13 +8646,13 @@
         <v>285132</v>
       </c>
       <c r="B71" t="n">
-        <v>0.693724</v>
+        <v>0.703858</v>
       </c>
       <c r="C71" t="n">
-        <v>0.505145</v>
+        <v>0.63212</v>
       </c>
       <c r="D71" t="n">
-        <v>0.494786</v>
+        <v>0.503165</v>
       </c>
     </row>
     <row r="72">
@@ -8660,13 +8660,13 @@
         <v>299354</v>
       </c>
       <c r="B72" t="n">
-        <v>0.720129</v>
+        <v>0.722868</v>
       </c>
       <c r="C72" t="n">
-        <v>0.532432</v>
+        <v>0.65629</v>
       </c>
       <c r="D72" t="n">
-        <v>0.516747</v>
+        <v>0.5292790000000001</v>
       </c>
     </row>
     <row r="73">
@@ -8674,13 +8674,13 @@
         <v>314289</v>
       </c>
       <c r="B73" t="n">
-        <v>0.76542</v>
+        <v>0.760695</v>
       </c>
       <c r="C73" t="n">
-        <v>0.561662</v>
+        <v>0.686819</v>
       </c>
       <c r="D73" t="n">
-        <v>0.564293</v>
+        <v>0.560676</v>
       </c>
     </row>
     <row r="74">
@@ -8688,13 +8688,13 @@
         <v>329969</v>
       </c>
       <c r="B74" t="n">
-        <v>0.790432</v>
+        <v>0.787049</v>
       </c>
       <c r="C74" t="n">
-        <v>0.584403</v>
+        <v>0.708137</v>
       </c>
       <c r="D74" t="n">
-        <v>0.570457</v>
+        <v>0.580156</v>
       </c>
     </row>
     <row r="75">
@@ -8702,13 +8702,13 @@
         <v>346432</v>
       </c>
       <c r="B75" t="n">
-        <v>0.826233</v>
+        <v>0.834794</v>
       </c>
       <c r="C75" t="n">
-        <v>0.605542</v>
+        <v>0.738602</v>
       </c>
       <c r="D75" t="n">
-        <v>0.599047</v>
+        <v>0.619509</v>
       </c>
     </row>
     <row r="76">
@@ -8716,13 +8716,13 @@
         <v>363719</v>
       </c>
       <c r="B76" t="n">
-        <v>0.869214</v>
+        <v>0.878939</v>
       </c>
       <c r="C76" t="n">
-        <v>0.62448</v>
+        <v>0.764441</v>
       </c>
       <c r="D76" t="n">
-        <v>0.645817</v>
+        <v>0.651953</v>
       </c>
     </row>
     <row r="77">
@@ -8730,13 +8730,13 @@
         <v>381870</v>
       </c>
       <c r="B77" t="n">
-        <v>0.934113</v>
+        <v>0.92979</v>
       </c>
       <c r="C77" t="n">
-        <v>0.654784</v>
+        <v>0.781786</v>
       </c>
       <c r="D77" t="n">
-        <v>0.682221</v>
+        <v>0.659436</v>
       </c>
     </row>
     <row r="78">
@@ -8744,13 +8744,13 @@
         <v>400928</v>
       </c>
       <c r="B78" t="n">
-        <v>0.9685319999999999</v>
+        <v>0.946747</v>
       </c>
       <c r="C78" t="n">
-        <v>0.79328</v>
+        <v>0.96262</v>
       </c>
       <c r="D78" t="n">
-        <v>0.9591460000000001</v>
+        <v>0.8908430000000001</v>
       </c>
     </row>
     <row r="79">
@@ -8758,13 +8758,13 @@
         <v>420937</v>
       </c>
       <c r="B79" t="n">
-        <v>1.34747</v>
+        <v>1.22486</v>
       </c>
       <c r="C79" t="n">
-        <v>0.806149</v>
+        <v>0.976071</v>
       </c>
       <c r="D79" t="n">
-        <v>1.02735</v>
+        <v>0.921887</v>
       </c>
     </row>
     <row r="80">
@@ -8772,13 +8772,13 @@
         <v>441947</v>
       </c>
       <c r="B80" t="n">
-        <v>1.42794</v>
+        <v>1.27155</v>
       </c>
       <c r="C80" t="n">
-        <v>0.82195</v>
+        <v>0.996406</v>
       </c>
       <c r="D80" t="n">
-        <v>1.06158</v>
+        <v>0.962207</v>
       </c>
     </row>
     <row r="81">
@@ -8786,13 +8786,13 @@
         <v>464005</v>
       </c>
       <c r="B81" t="n">
-        <v>1.46951</v>
+        <v>1.32736</v>
       </c>
       <c r="C81" t="n">
-        <v>0.833898</v>
+        <v>1.01812</v>
       </c>
       <c r="D81" t="n">
-        <v>1.11825</v>
+        <v>1.00164</v>
       </c>
     </row>
     <row r="82">
@@ -8800,13 +8800,13 @@
         <v>487165</v>
       </c>
       <c r="B82" t="n">
-        <v>1.55231</v>
+        <v>1.3802</v>
       </c>
       <c r="C82" t="n">
-        <v>0.851277</v>
+        <v>1.03545</v>
       </c>
       <c r="D82" t="n">
-        <v>1.15819</v>
+        <v>1.04434</v>
       </c>
     </row>
     <row r="83">
@@ -8814,13 +8814,13 @@
         <v>511485</v>
       </c>
       <c r="B83" t="n">
-        <v>1.60202</v>
+        <v>1.42917</v>
       </c>
       <c r="C83" t="n">
-        <v>0.863054</v>
+        <v>1.05543</v>
       </c>
       <c r="D83" t="n">
-        <v>1.20864</v>
+        <v>1.0755</v>
       </c>
     </row>
     <row r="84">
@@ -8828,13 +8828,13 @@
         <v>537019</v>
       </c>
       <c r="B84" t="n">
-        <v>1.66715</v>
+        <v>1.47585</v>
       </c>
       <c r="C84" t="n">
-        <v>0.87623</v>
+        <v>1.07405</v>
       </c>
       <c r="D84" t="n">
-        <v>1.25771</v>
+        <v>1.11048</v>
       </c>
     </row>
     <row r="85">
@@ -8842,13 +8842,13 @@
         <v>563827</v>
       </c>
       <c r="B85" t="n">
-        <v>1.72961</v>
+        <v>1.52073</v>
       </c>
       <c r="C85" t="n">
-        <v>0.889312</v>
+        <v>1.09839</v>
       </c>
       <c r="D85" t="n">
-        <v>1.28827</v>
+        <v>1.14728</v>
       </c>
     </row>
     <row r="86">
@@ -8856,13 +8856,13 @@
         <v>591977</v>
       </c>
       <c r="B86" t="n">
-        <v>1.7744</v>
+        <v>1.57233</v>
       </c>
       <c r="C86" t="n">
-        <v>0.900502</v>
+        <v>1.11184</v>
       </c>
       <c r="D86" t="n">
-        <v>1.3343</v>
+        <v>1.18625</v>
       </c>
     </row>
     <row r="87">
@@ -8870,13 +8870,13 @@
         <v>621532</v>
       </c>
       <c r="B87" t="n">
-        <v>1.83994</v>
+        <v>1.61783</v>
       </c>
       <c r="C87" t="n">
-        <v>0.913465</v>
+        <v>1.13001</v>
       </c>
       <c r="D87" t="n">
-        <v>1.37674</v>
+        <v>1.22222</v>
       </c>
     </row>
     <row r="88">
@@ -8884,13 +8884,13 @@
         <v>652567</v>
       </c>
       <c r="B88" t="n">
-        <v>1.88885</v>
+        <v>1.6605</v>
       </c>
       <c r="C88" t="n">
-        <v>0.9268690000000001</v>
+        <v>1.15089</v>
       </c>
       <c r="D88" t="n">
-        <v>1.41725</v>
+        <v>1.26092</v>
       </c>
     </row>
     <row r="89">
@@ -8898,13 +8898,13 @@
         <v>685151</v>
       </c>
       <c r="B89" t="n">
-        <v>1.95255</v>
+        <v>1.70694</v>
       </c>
       <c r="C89" t="n">
-        <v>0.94267</v>
+        <v>1.16853</v>
       </c>
       <c r="D89" t="n">
-        <v>1.4571</v>
+        <v>1.29486</v>
       </c>
     </row>
     <row r="90">
@@ -8912,13 +8912,13 @@
         <v>719359</v>
       </c>
       <c r="B90" t="n">
-        <v>2.00357</v>
+        <v>1.75027</v>
       </c>
       <c r="C90" t="n">
-        <v>0.954202</v>
+        <v>1.18757</v>
       </c>
       <c r="D90" t="n">
-        <v>1.49458</v>
+        <v>1.32435</v>
       </c>
     </row>
     <row r="91">
@@ -8926,13 +8926,13 @@
         <v>755280</v>
       </c>
       <c r="B91" t="n">
-        <v>2.05666</v>
+        <v>1.79538</v>
       </c>
       <c r="C91" t="n">
-        <v>0.967162</v>
+        <v>1.20621</v>
       </c>
       <c r="D91" t="n">
-        <v>1.52731</v>
+        <v>1.35619</v>
       </c>
     </row>
     <row r="92">
@@ -8940,13 +8940,13 @@
         <v>792997</v>
       </c>
       <c r="B92" t="n">
-        <v>2.10516</v>
+        <v>1.83413</v>
       </c>
       <c r="C92" t="n">
-        <v>1.03736</v>
+        <v>1.30414</v>
       </c>
       <c r="D92" t="n">
-        <v>1.75721</v>
+        <v>1.53664</v>
       </c>
     </row>
     <row r="93">
@@ -8954,13 +8954,13 @@
         <v>832595</v>
       </c>
       <c r="B93" t="n">
-        <v>2.39481</v>
+        <v>2.04971</v>
       </c>
       <c r="C93" t="n">
-        <v>1.04651</v>
+        <v>1.30829</v>
       </c>
       <c r="D93" t="n">
-        <v>1.77866</v>
+        <v>1.53277</v>
       </c>
     </row>
     <row r="94">
@@ -8968,13 +8968,13 @@
         <v>874177</v>
       </c>
       <c r="B94" t="n">
-        <v>2.42882</v>
+        <v>2.05638</v>
       </c>
       <c r="C94" t="n">
-        <v>1.05568</v>
+        <v>1.32256</v>
       </c>
       <c r="D94" t="n">
-        <v>1.79501</v>
+        <v>1.56059</v>
       </c>
     </row>
     <row r="95">
@@ -8982,13 +8982,13 @@
         <v>917832</v>
       </c>
       <c r="B95" t="n">
-        <v>2.44874</v>
+        <v>2.10627</v>
       </c>
       <c r="C95" t="n">
-        <v>1.06255</v>
+        <v>1.31751</v>
       </c>
       <c r="D95" t="n">
-        <v>1.80439</v>
+        <v>1.59546</v>
       </c>
     </row>
     <row r="96">
@@ -8996,13 +8996,13 @@
         <v>963677</v>
       </c>
       <c r="B96" t="n">
-        <v>2.48877</v>
+        <v>2.13423</v>
       </c>
       <c r="C96" t="n">
-        <v>1.07283</v>
+        <v>1.34086</v>
       </c>
       <c r="D96" t="n">
-        <v>1.84594</v>
+        <v>1.62239</v>
       </c>
     </row>
     <row r="97">
@@ -9010,13 +9010,13 @@
         <v>1011813</v>
       </c>
       <c r="B97" t="n">
-        <v>2.52188</v>
+        <v>2.16214</v>
       </c>
       <c r="C97" t="n">
-        <v>1.08117</v>
+        <v>1.34896</v>
       </c>
       <c r="D97" t="n">
-        <v>1.8679</v>
+        <v>1.63286</v>
       </c>
     </row>
     <row r="98">
@@ -9024,13 +9024,13 @@
         <v>1062351</v>
       </c>
       <c r="B98" t="n">
-        <v>2.55583</v>
+        <v>2.17385</v>
       </c>
       <c r="C98" t="n">
-        <v>1.09426</v>
+        <v>1.35372</v>
       </c>
       <c r="D98" t="n">
-        <v>1.87809</v>
+        <v>1.64564</v>
       </c>
     </row>
     <row r="99">
@@ -9038,13 +9038,13 @@
         <v>1115422</v>
       </c>
       <c r="B99" t="n">
-        <v>2.58361</v>
+        <v>2.20151</v>
       </c>
       <c r="C99" t="n">
-        <v>1.09893</v>
+        <v>1.37241</v>
       </c>
       <c r="D99" t="n">
-        <v>1.89504</v>
+        <v>1.67078</v>
       </c>
     </row>
     <row r="100">
@@ -9052,13 +9052,13 @@
         <v>1171143</v>
       </c>
       <c r="B100" t="n">
-        <v>2.61054</v>
+        <v>2.23442</v>
       </c>
       <c r="C100" t="n">
-        <v>1.10705</v>
+        <v>1.38135</v>
       </c>
       <c r="D100" t="n">
-        <v>1.92063</v>
+        <v>1.67469</v>
       </c>
     </row>
     <row r="101">
@@ -9066,13 +9066,13 @@
         <v>1229634</v>
       </c>
       <c r="B101" t="n">
-        <v>2.64011</v>
+        <v>2.24242</v>
       </c>
       <c r="C101" t="n">
-        <v>1.11687</v>
+        <v>1.38569</v>
       </c>
       <c r="D101" t="n">
-        <v>1.92925</v>
+        <v>1.69256</v>
       </c>
     </row>
     <row r="102">
@@ -9080,13 +9080,13 @@
         <v>1291062</v>
       </c>
       <c r="B102" t="n">
-        <v>2.67059</v>
+        <v>2.27399</v>
       </c>
       <c r="C102" t="n">
-        <v>1.12809</v>
+        <v>1.40061</v>
       </c>
       <c r="D102" t="n">
-        <v>1.94692</v>
+        <v>1.71017</v>
       </c>
     </row>
     <row r="103">
@@ -9094,13 +9094,13 @@
         <v>1355554</v>
       </c>
       <c r="B103" t="n">
-        <v>2.69726</v>
+        <v>2.29554</v>
       </c>
       <c r="C103" t="n">
-        <v>1.14204</v>
+        <v>1.41322</v>
       </c>
       <c r="D103" t="n">
-        <v>1.97871</v>
+        <v>1.73086</v>
       </c>
     </row>
     <row r="104">
@@ -9108,13 +9108,13 @@
         <v>1423274</v>
       </c>
       <c r="B104" t="n">
-        <v>2.74076</v>
+        <v>2.32962</v>
       </c>
       <c r="C104" t="n">
-        <v>1.15553</v>
+        <v>1.42532</v>
       </c>
       <c r="D104" t="n">
-        <v>2.00109</v>
+        <v>1.74671</v>
       </c>
     </row>
     <row r="105">
@@ -9122,13 +9122,13 @@
         <v>1494380</v>
       </c>
       <c r="B105" t="n">
-        <v>2.76801</v>
+        <v>2.35209</v>
       </c>
       <c r="C105" t="n">
-        <v>1.16707</v>
+        <v>1.43748</v>
       </c>
       <c r="D105" t="n">
-        <v>2.02032</v>
+        <v>1.76694</v>
       </c>
     </row>
     <row r="106">
@@ -9136,13 +9136,13 @@
         <v>1569031</v>
       </c>
       <c r="B106" t="n">
-        <v>2.7947</v>
+        <v>2.37205</v>
       </c>
       <c r="C106" t="n">
-        <v>1.18095</v>
+        <v>1.44671</v>
       </c>
       <c r="D106" t="n">
-        <v>2.03042</v>
+        <v>1.77767</v>
       </c>
     </row>
     <row r="107">
@@ -9150,13 +9150,13 @@
         <v>1647417</v>
       </c>
       <c r="B107" t="n">
-        <v>2.91847</v>
+        <v>2.46454</v>
       </c>
       <c r="C107" t="n">
-        <v>1.17689</v>
+        <v>1.46342</v>
       </c>
       <c r="D107" t="n">
-        <v>2.1527</v>
+        <v>1.85919</v>
       </c>
     </row>
     <row r="108">
@@ -9164,13 +9164,13 @@
         <v>1729734</v>
       </c>
       <c r="B108" t="n">
-        <v>2.93292</v>
+        <v>2.49891</v>
       </c>
       <c r="C108" t="n">
-        <v>1.18601</v>
+        <v>1.48309</v>
       </c>
       <c r="D108" t="n">
-        <v>2.16637</v>
+        <v>1.88171</v>
       </c>
     </row>
     <row r="109">
@@ -9178,13 +9178,13 @@
         <v>1816153</v>
       </c>
       <c r="B109" t="n">
-        <v>2.93717</v>
+        <v>2.5203</v>
       </c>
       <c r="C109" t="n">
-        <v>1.18323</v>
+        <v>1.49051</v>
       </c>
       <c r="D109" t="n">
-        <v>2.15907</v>
+        <v>1.88233</v>
       </c>
     </row>
     <row r="110">
@@ -9192,13 +9192,13 @@
         <v>1906885</v>
       </c>
       <c r="B110" t="n">
-        <v>2.9705</v>
+        <v>2.5282</v>
       </c>
       <c r="C110" t="n">
-        <v>1.20202</v>
+        <v>1.49658</v>
       </c>
       <c r="D110" t="n">
-        <v>2.18546</v>
+        <v>1.90182</v>
       </c>
     </row>
     <row r="111">
@@ -9206,13 +9206,13 @@
         <v>2002164</v>
       </c>
       <c r="B111" t="n">
-        <v>2.99049</v>
+        <v>2.55111</v>
       </c>
       <c r="C111" t="n">
-        <v>1.20972</v>
+        <v>1.50309</v>
       </c>
       <c r="D111" t="n">
-        <v>2.19539</v>
+        <v>1.91155</v>
       </c>
     </row>
     <row r="112">
@@ -9220,13 +9220,13 @@
         <v>2102198</v>
       </c>
       <c r="B112" t="n">
-        <v>3.00024</v>
+        <v>2.56523</v>
       </c>
       <c r="C112" t="n">
-        <v>1.21625</v>
+        <v>1.50943</v>
       </c>
       <c r="D112" t="n">
-        <v>2.19947</v>
+        <v>1.9183</v>
       </c>
     </row>
     <row r="113">
@@ -9234,13 +9234,13 @@
         <v>2207233</v>
       </c>
       <c r="B113" t="n">
-        <v>3.00525</v>
+        <v>2.56844</v>
       </c>
       <c r="C113" t="n">
-        <v>1.21456</v>
+        <v>1.50848</v>
       </c>
       <c r="D113" t="n">
-        <v>2.20793</v>
+        <v>1.92798</v>
       </c>
     </row>
     <row r="114">
@@ -9248,13 +9248,13 @@
         <v>2317508</v>
       </c>
       <c r="B114" t="n">
-        <v>3.03808</v>
+        <v>2.58259</v>
       </c>
       <c r="C114" t="n">
-        <v>1.23558</v>
+        <v>1.52126</v>
       </c>
       <c r="D114" t="n">
-        <v>2.2141</v>
+        <v>1.9366</v>
       </c>
     </row>
     <row r="115">
@@ -9262,13 +9262,13 @@
         <v>2433290</v>
       </c>
       <c r="B115" t="n">
-        <v>3.06159</v>
+        <v>2.60857</v>
       </c>
       <c r="C115" t="n">
-        <v>1.24803</v>
+        <v>1.53167</v>
       </c>
       <c r="D115" t="n">
-        <v>2.22935</v>
+        <v>1.95722</v>
       </c>
     </row>
     <row r="116">
@@ -9276,13 +9276,13 @@
         <v>2554854</v>
       </c>
       <c r="B116" t="n">
-        <v>3.07586</v>
+        <v>2.62429</v>
       </c>
       <c r="C116" t="n">
-        <v>1.25804</v>
+        <v>1.53804</v>
       </c>
       <c r="D116" t="n">
-        <v>2.24076</v>
+        <v>1.96072</v>
       </c>
     </row>
     <row r="117">
@@ -9290,13 +9290,13 @@
         <v>2682511</v>
       </c>
       <c r="B117" t="n">
-        <v>3.09721</v>
+        <v>2.63534</v>
       </c>
       <c r="C117" t="n">
-        <v>1.27107</v>
+        <v>1.54174</v>
       </c>
       <c r="D117" t="n">
-        <v>2.2484</v>
+        <v>1.95232</v>
       </c>
     </row>
     <row r="118">
@@ -9304,13 +9304,13 @@
         <v>2816546</v>
       </c>
       <c r="B118" t="n">
-        <v>3.11319</v>
+        <v>2.64507</v>
       </c>
       <c r="C118" t="n">
-        <v>1.28154</v>
+        <v>1.54864</v>
       </c>
       <c r="D118" t="n">
-        <v>2.25623</v>
+        <v>1.97737</v>
       </c>
     </row>
     <row r="119">
@@ -9318,13 +9318,13 @@
         <v>2957287</v>
       </c>
       <c r="B119" t="n">
-        <v>3.14012</v>
+        <v>2.65733</v>
       </c>
       <c r="C119" t="n">
-        <v>1.29356</v>
+        <v>1.5593</v>
       </c>
       <c r="D119" t="n">
-        <v>2.2458</v>
+        <v>1.97619</v>
       </c>
     </row>
   </sheetData>
@@ -9372,13 +9372,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.562731</v>
+        <v>0.568698</v>
       </c>
       <c r="C2" t="n">
-        <v>0.358576</v>
+        <v>0.470372</v>
       </c>
       <c r="D2" t="n">
-        <v>0.34537</v>
+        <v>0.355872</v>
       </c>
     </row>
     <row r="3">
@@ -9386,13 +9386,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.565138</v>
+        <v>0.578452</v>
       </c>
       <c r="C3" t="n">
-        <v>0.36136</v>
+        <v>0.474356</v>
       </c>
       <c r="D3" t="n">
-        <v>0.35105</v>
+        <v>0.360225</v>
       </c>
     </row>
     <row r="4">
@@ -9400,13 +9400,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.574394</v>
+        <v>0.588174</v>
       </c>
       <c r="C4" t="n">
-        <v>0.367657</v>
+        <v>0.482266</v>
       </c>
       <c r="D4" t="n">
-        <v>0.353253</v>
+        <v>0.363703</v>
       </c>
     </row>
     <row r="5">
@@ -9414,13 +9414,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.580582</v>
+        <v>0.59676</v>
       </c>
       <c r="C5" t="n">
-        <v>0.373813</v>
+        <v>0.489765</v>
       </c>
       <c r="D5" t="n">
-        <v>0.358663</v>
+        <v>0.367952</v>
       </c>
     </row>
     <row r="6">
@@ -9428,13 +9428,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.588004</v>
+        <v>0.603668</v>
       </c>
       <c r="C6" t="n">
-        <v>0.378529</v>
+        <v>0.492464</v>
       </c>
       <c r="D6" t="n">
-        <v>0.364809</v>
+        <v>0.369702</v>
       </c>
     </row>
     <row r="7">
@@ -9442,13 +9442,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.590538</v>
+        <v>0.604894</v>
       </c>
       <c r="C7" t="n">
-        <v>0.390041</v>
+        <v>0.5031949999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>0.374205</v>
+        <v>0.375761</v>
       </c>
     </row>
     <row r="8">
@@ -9456,13 +9456,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.599419</v>
+        <v>0.6050759999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>0.391198</v>
+        <v>0.506616</v>
       </c>
       <c r="D8" t="n">
-        <v>0.378294</v>
+        <v>0.378822</v>
       </c>
     </row>
     <row r="9">
@@ -9470,13 +9470,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.61033</v>
+        <v>0.609426</v>
       </c>
       <c r="C9" t="n">
-        <v>0.391323</v>
+        <v>0.509197</v>
       </c>
       <c r="D9" t="n">
-        <v>0.377594</v>
+        <v>0.383156</v>
       </c>
     </row>
     <row r="10">
@@ -9484,13 +9484,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.621629</v>
+        <v>0.621189</v>
       </c>
       <c r="C10" t="n">
-        <v>0.401384</v>
+        <v>0.517553</v>
       </c>
       <c r="D10" t="n">
-        <v>0.382087</v>
+        <v>0.387068</v>
       </c>
     </row>
     <row r="11">
@@ -9498,13 +9498,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.6249</v>
+        <v>0.629393</v>
       </c>
       <c r="C11" t="n">
-        <v>0.400426</v>
+        <v>0.515983</v>
       </c>
       <c r="D11" t="n">
-        <v>0.383712</v>
+        <v>0.387223</v>
       </c>
     </row>
     <row r="12">
@@ -9512,13 +9512,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.630894</v>
+        <v>0.627353</v>
       </c>
       <c r="C12" t="n">
-        <v>0.408122</v>
+        <v>0.522397</v>
       </c>
       <c r="D12" t="n">
-        <v>0.396185</v>
+        <v>0.393881</v>
       </c>
     </row>
     <row r="13">
@@ -9526,13 +9526,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.641524</v>
+        <v>0.638157</v>
       </c>
       <c r="C13" t="n">
-        <v>0.407376</v>
+        <v>0.524894</v>
       </c>
       <c r="D13" t="n">
-        <v>0.395882</v>
+        <v>0.398094</v>
       </c>
     </row>
     <row r="14">
@@ -9540,13 +9540,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.646177</v>
+        <v>0.64784</v>
       </c>
       <c r="C14" t="n">
-        <v>0.406129</v>
+        <v>0.524285</v>
       </c>
       <c r="D14" t="n">
-        <v>0.402162</v>
+        <v>0.407735</v>
       </c>
     </row>
     <row r="15">
@@ -9554,13 +9554,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.6601669999999999</v>
+        <v>0.664733</v>
       </c>
       <c r="C15" t="n">
-        <v>0.417886</v>
+        <v>0.535097</v>
       </c>
       <c r="D15" t="n">
-        <v>0.410199</v>
+        <v>0.40701</v>
       </c>
     </row>
     <row r="16">
@@ -9568,13 +9568,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.659872</v>
+        <v>0.663124</v>
       </c>
       <c r="C16" t="n">
-        <v>0.420286</v>
+        <v>0.539214</v>
       </c>
       <c r="D16" t="n">
-        <v>0.412683</v>
+        <v>0.413756</v>
       </c>
     </row>
     <row r="17">
@@ -9582,13 +9582,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.672051</v>
+        <v>0.676238</v>
       </c>
       <c r="C17" t="n">
-        <v>0.419968</v>
+        <v>0.53951</v>
       </c>
       <c r="D17" t="n">
-        <v>0.41398</v>
+        <v>0.415756</v>
       </c>
     </row>
     <row r="18">
@@ -9596,13 +9596,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.676794</v>
+        <v>0.678392</v>
       </c>
       <c r="C18" t="n">
-        <v>0.428724</v>
+        <v>0.547847</v>
       </c>
       <c r="D18" t="n">
-        <v>0.42509</v>
+        <v>0.420048</v>
       </c>
     </row>
     <row r="19">
@@ -9610,13 +9610,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.689805</v>
+        <v>0.685938</v>
       </c>
       <c r="C19" t="n">
-        <v>0.430256</v>
+        <v>0.54786</v>
       </c>
       <c r="D19" t="n">
-        <v>0.429521</v>
+        <v>0.422935</v>
       </c>
     </row>
     <row r="20">
@@ -9624,13 +9624,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.7003819999999999</v>
+        <v>0.69896</v>
       </c>
       <c r="C20" t="n">
-        <v>0.437441</v>
+        <v>0.556935</v>
       </c>
       <c r="D20" t="n">
-        <v>0.433776</v>
+        <v>0.430012</v>
       </c>
     </row>
     <row r="21">
@@ -9638,13 +9638,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.705418</v>
+        <v>0.703902</v>
       </c>
       <c r="C21" t="n">
-        <v>0.437706</v>
+        <v>0.56716</v>
       </c>
       <c r="D21" t="n">
-        <v>0.440126</v>
+        <v>0.436514</v>
       </c>
     </row>
     <row r="22">
@@ -9652,13 +9652,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.708911</v>
+        <v>0.70618</v>
       </c>
       <c r="C22" t="n">
-        <v>0.443112</v>
+        <v>0.569946</v>
       </c>
       <c r="D22" t="n">
-        <v>0.447856</v>
+        <v>0.439465</v>
       </c>
     </row>
     <row r="23">
@@ -9666,13 +9666,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.723333</v>
+        <v>0.72328</v>
       </c>
       <c r="C23" t="n">
-        <v>0.44205</v>
+        <v>0.572116</v>
       </c>
       <c r="D23" t="n">
-        <v>0.445776</v>
+        <v>0.444571</v>
       </c>
     </row>
     <row r="24">
@@ -9680,13 +9680,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.728163</v>
+        <v>0.727784</v>
       </c>
       <c r="C24" t="n">
-        <v>0.447982</v>
+        <v>0.5760729999999999</v>
       </c>
       <c r="D24" t="n">
-        <v>0.456938</v>
+        <v>0.445967</v>
       </c>
     </row>
     <row r="25">
@@ -9694,13 +9694,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.741544</v>
+        <v>0.739278</v>
       </c>
       <c r="C25" t="n">
-        <v>0.458936</v>
+        <v>0.587728</v>
       </c>
       <c r="D25" t="n">
-        <v>0.453781</v>
+        <v>0.450678</v>
       </c>
     </row>
     <row r="26">
@@ -9708,13 +9708,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.742143</v>
+        <v>0.7416469999999999</v>
       </c>
       <c r="C26" t="n">
-        <v>0.455583</v>
+        <v>0.5850379999999999</v>
       </c>
       <c r="D26" t="n">
-        <v>0.465717</v>
+        <v>0.455506</v>
       </c>
     </row>
     <row r="27">
@@ -9722,13 +9722,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.746522</v>
+        <v>0.74636</v>
       </c>
       <c r="C27" t="n">
-        <v>0.459334</v>
+        <v>0.593104</v>
       </c>
       <c r="D27" t="n">
-        <v>0.463352</v>
+        <v>0.45637</v>
       </c>
     </row>
     <row r="28">
@@ -9736,13 +9736,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.753954</v>
+        <v>0.753312</v>
       </c>
       <c r="C28" t="n">
-        <v>0.460883</v>
+        <v>0.591682</v>
       </c>
       <c r="D28" t="n">
-        <v>0.463863</v>
+        <v>0.459494</v>
       </c>
     </row>
     <row r="29">
@@ -9750,13 +9750,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.761228</v>
+        <v>0.760922</v>
       </c>
       <c r="C29" t="n">
-        <v>0.467062</v>
+        <v>0.6006320000000001</v>
       </c>
       <c r="D29" t="n">
-        <v>0.469013</v>
+        <v>0.465072</v>
       </c>
     </row>
     <row r="30">
@@ -9764,13 +9764,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.76949</v>
+        <v>0.7687079999999999</v>
       </c>
       <c r="C30" t="n">
-        <v>0.472974</v>
+        <v>0.605984</v>
       </c>
       <c r="D30" t="n">
-        <v>0.481175</v>
+        <v>0.466554</v>
       </c>
     </row>
     <row r="31">
@@ -9778,13 +9778,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.780951</v>
+        <v>0.777196</v>
       </c>
       <c r="C31" t="n">
-        <v>0.472948</v>
+        <v>0.60736</v>
       </c>
       <c r="D31" t="n">
-        <v>0.485983</v>
+        <v>0.470689</v>
       </c>
     </row>
     <row r="32">
@@ -9792,13 +9792,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.784466</v>
+        <v>0.780101</v>
       </c>
       <c r="C32" t="n">
-        <v>0.480425</v>
+        <v>0.612698</v>
       </c>
       <c r="D32" t="n">
-        <v>0.489417</v>
+        <v>0.473885</v>
       </c>
     </row>
     <row r="33">
@@ -9806,13 +9806,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.792188</v>
+        <v>0.788023</v>
       </c>
       <c r="C33" t="n">
-        <v>0.482716</v>
+        <v>0.617298</v>
       </c>
       <c r="D33" t="n">
-        <v>0.489966</v>
+        <v>0.475978</v>
       </c>
     </row>
     <row r="34">
@@ -9820,13 +9820,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.797914</v>
+        <v>0.795682</v>
       </c>
       <c r="C34" t="n">
-        <v>0.481584</v>
+        <v>0.616685</v>
       </c>
       <c r="D34" t="n">
-        <v>0.486502</v>
+        <v>0.476592</v>
       </c>
     </row>
     <row r="35">
@@ -9834,13 +9834,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.801303</v>
+        <v>0.798809</v>
       </c>
       <c r="C35" t="n">
-        <v>0.461552</v>
+        <v>0.601142</v>
       </c>
       <c r="D35" t="n">
-        <v>0.493728</v>
+        <v>0.477855</v>
       </c>
     </row>
     <row r="36">
@@ -9848,13 +9848,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.796637</v>
+        <v>0.796251</v>
       </c>
       <c r="C36" t="n">
-        <v>0.467765</v>
+        <v>0.60434</v>
       </c>
       <c r="D36" t="n">
-        <v>0.499667</v>
+        <v>0.48106</v>
       </c>
     </row>
     <row r="37">
@@ -9862,13 +9862,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.80316</v>
+        <v>0.80211</v>
       </c>
       <c r="C37" t="n">
-        <v>0.469638</v>
+        <v>0.605841</v>
       </c>
       <c r="D37" t="n">
-        <v>0.493021</v>
+        <v>0.483691</v>
       </c>
     </row>
     <row r="38">
@@ -9876,13 +9876,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.804604</v>
+        <v>0.803714</v>
       </c>
       <c r="C38" t="n">
-        <v>0.46684</v>
+        <v>0.607187</v>
       </c>
       <c r="D38" t="n">
-        <v>0.504084</v>
+        <v>0.48603</v>
       </c>
     </row>
     <row r="39">
@@ -9890,13 +9890,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.806803</v>
+        <v>0.809798</v>
       </c>
       <c r="C39" t="n">
-        <v>0.474748</v>
+        <v>0.615398</v>
       </c>
       <c r="D39" t="n">
-        <v>0.499415</v>
+        <v>0.487003</v>
       </c>
     </row>
     <row r="40">
@@ -9904,13 +9904,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.813041</v>
+        <v>0.815709</v>
       </c>
       <c r="C40" t="n">
-        <v>0.474682</v>
+        <v>0.616816</v>
       </c>
       <c r="D40" t="n">
-        <v>0.510089</v>
+        <v>0.490887</v>
       </c>
     </row>
     <row r="41">
@@ -9918,13 +9918,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.82481</v>
+        <v>0.823951</v>
       </c>
       <c r="C41" t="n">
-        <v>0.477631</v>
+        <v>0.617859</v>
       </c>
       <c r="D41" t="n">
-        <v>0.508879</v>
+        <v>0.49179</v>
       </c>
     </row>
     <row r="42">
@@ -9932,13 +9932,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.824353</v>
+        <v>0.823676</v>
       </c>
       <c r="C42" t="n">
-        <v>0.482489</v>
+        <v>0.620469</v>
       </c>
       <c r="D42" t="n">
-        <v>0.5119050000000001</v>
+        <v>0.494461</v>
       </c>
     </row>
     <row r="43">
@@ -9946,13 +9946,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.8308410000000001</v>
+        <v>0.830738</v>
       </c>
       <c r="C43" t="n">
-        <v>0.480481</v>
+        <v>0.623873</v>
       </c>
       <c r="D43" t="n">
-        <v>0.5172060000000001</v>
+        <v>0.495483</v>
       </c>
     </row>
     <row r="44">
@@ -9960,13 +9960,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.831669</v>
+        <v>0.831354</v>
       </c>
       <c r="C44" t="n">
-        <v>0.480702</v>
+        <v>0.6233070000000001</v>
       </c>
       <c r="D44" t="n">
-        <v>0.515041</v>
+        <v>0.49699</v>
       </c>
     </row>
     <row r="45">
@@ -9974,13 +9974,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.837081</v>
+        <v>0.837192</v>
       </c>
       <c r="C45" t="n">
-        <v>0.490095</v>
+        <v>0.630029</v>
       </c>
       <c r="D45" t="n">
-        <v>0.52017</v>
+        <v>0.497537</v>
       </c>
     </row>
     <row r="46">
@@ -9988,13 +9988,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.841649</v>
+        <v>0.841979</v>
       </c>
       <c r="C46" t="n">
-        <v>0.483166</v>
+        <v>0.62735</v>
       </c>
       <c r="D46" t="n">
-        <v>0.521719</v>
+        <v>0.49847</v>
       </c>
     </row>
     <row r="47">
@@ -10002,13 +10002,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.852243</v>
+        <v>0.850932</v>
       </c>
       <c r="C47" t="n">
-        <v>0.49156</v>
+        <v>0.632195</v>
       </c>
       <c r="D47" t="n">
-        <v>0.527064</v>
+        <v>0.502305</v>
       </c>
     </row>
     <row r="48">
@@ -10016,13 +10016,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.855758</v>
+        <v>0.853951</v>
       </c>
       <c r="C48" t="n">
-        <v>0.493775</v>
+        <v>0.636093</v>
       </c>
       <c r="D48" t="n">
-        <v>0.526814</v>
+        <v>0.502653</v>
       </c>
     </row>
     <row r="49">
@@ -10030,13 +10030,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.859661</v>
+        <v>0.858264</v>
       </c>
       <c r="C49" t="n">
-        <v>0.492075</v>
+        <v>0.636254</v>
       </c>
       <c r="D49" t="n">
-        <v>0.528852</v>
+        <v>0.504648</v>
       </c>
     </row>
     <row r="50">
@@ -10044,13 +10044,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.865451</v>
+        <v>0.865777</v>
       </c>
       <c r="C50" t="n">
-        <v>0.486903</v>
+        <v>0.632204</v>
       </c>
       <c r="D50" t="n">
-        <v>0.525787</v>
+        <v>0.505376</v>
       </c>
     </row>
     <row r="51">
@@ -10058,13 +10058,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.840069</v>
+        <v>0.843777</v>
       </c>
       <c r="C51" t="n">
-        <v>0.488581</v>
+        <v>0.629132</v>
       </c>
       <c r="D51" t="n">
-        <v>0.524393</v>
+        <v>0.505089</v>
       </c>
     </row>
     <row r="52">
@@ -10072,13 +10072,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.846234</v>
+        <v>0.846167</v>
       </c>
       <c r="C52" t="n">
-        <v>0.491392</v>
+        <v>0.634063</v>
       </c>
       <c r="D52" t="n">
-        <v>0.526878</v>
+        <v>0.50732</v>
       </c>
     </row>
     <row r="53">
@@ -10086,13 +10086,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.85193</v>
+        <v>0.851613</v>
       </c>
       <c r="C53" t="n">
-        <v>0.494785</v>
+        <v>0.639628</v>
       </c>
       <c r="D53" t="n">
-        <v>0.529438</v>
+        <v>0.508614</v>
       </c>
     </row>
     <row r="54">
@@ -10100,13 +10100,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.856272</v>
+        <v>0.856555</v>
       </c>
       <c r="C54" t="n">
-        <v>0.500299</v>
+        <v>0.643487</v>
       </c>
       <c r="D54" t="n">
-        <v>0.534487</v>
+        <v>0.510517</v>
       </c>
     </row>
     <row r="55">
@@ -10114,13 +10114,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.860101</v>
+        <v>0.860174</v>
       </c>
       <c r="C55" t="n">
-        <v>0.502858</v>
+        <v>0.649204</v>
       </c>
       <c r="D55" t="n">
-        <v>0.536484</v>
+        <v>0.511937</v>
       </c>
     </row>
     <row r="56">
@@ -10128,13 +10128,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.861916</v>
+        <v>0.8618440000000001</v>
       </c>
       <c r="C56" t="n">
-        <v>0.505726</v>
+        <v>0.648759</v>
       </c>
       <c r="D56" t="n">
-        <v>0.536502</v>
+        <v>0.512246</v>
       </c>
     </row>
     <row r="57">
@@ -10142,13 +10142,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.865269</v>
+        <v>0.865386</v>
       </c>
       <c r="C57" t="n">
-        <v>0.510393</v>
+        <v>0.6584140000000001</v>
       </c>
       <c r="D57" t="n">
-        <v>0.540208</v>
+        <v>0.513451</v>
       </c>
     </row>
     <row r="58">
@@ -10156,13 +10156,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.869884</v>
+        <v>0.87015</v>
       </c>
       <c r="C58" t="n">
-        <v>0.513189</v>
+        <v>0.664995</v>
       </c>
       <c r="D58" t="n">
-        <v>0.539753</v>
+        <v>0.514588</v>
       </c>
     </row>
     <row r="59">
@@ -10170,13 +10170,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.871865</v>
+        <v>0.873546</v>
       </c>
       <c r="C59" t="n">
-        <v>0.520322</v>
+        <v>0.667042</v>
       </c>
       <c r="D59" t="n">
-        <v>0.5397380000000001</v>
+        <v>0.514978</v>
       </c>
     </row>
     <row r="60">
@@ -10184,13 +10184,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.878109</v>
+        <v>0.879682</v>
       </c>
       <c r="C60" t="n">
-        <v>0.5185689999999999</v>
+        <v>0.669544</v>
       </c>
       <c r="D60" t="n">
-        <v>0.5440120000000001</v>
+        <v>0.517903</v>
       </c>
     </row>
     <row r="61">
@@ -10198,13 +10198,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.877822</v>
+        <v>0.881885</v>
       </c>
       <c r="C61" t="n">
-        <v>0.5280820000000001</v>
+        <v>0.67402</v>
       </c>
       <c r="D61" t="n">
-        <v>0.546534</v>
+        <v>0.519156</v>
       </c>
     </row>
     <row r="62">
@@ -10212,13 +10212,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.887202</v>
+        <v>0.890028</v>
       </c>
       <c r="C62" t="n">
-        <v>0.534139</v>
+        <v>0.68265</v>
       </c>
       <c r="D62" t="n">
-        <v>0.5487880000000001</v>
+        <v>0.522343</v>
       </c>
     </row>
     <row r="63">
@@ -10226,13 +10226,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.894347</v>
+        <v>0.893751</v>
       </c>
       <c r="C63" t="n">
-        <v>0.544412</v>
+        <v>0.696759</v>
       </c>
       <c r="D63" t="n">
-        <v>0.555214</v>
+        <v>0.5250320000000001</v>
       </c>
     </row>
     <row r="64">
@@ -10240,13 +10240,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.903616</v>
+        <v>0.903315</v>
       </c>
       <c r="C64" t="n">
-        <v>0.585051</v>
+        <v>0.7379599999999999</v>
       </c>
       <c r="D64" t="n">
-        <v>0.581409</v>
+        <v>0.552359</v>
       </c>
     </row>
     <row r="65">
@@ -10254,13 +10254,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.9269849999999999</v>
+        <v>0.929626</v>
       </c>
       <c r="C65" t="n">
-        <v>0.591749</v>
+        <v>0.759865</v>
       </c>
       <c r="D65" t="n">
-        <v>0.582191</v>
+        <v>0.568738</v>
       </c>
     </row>
     <row r="66">
@@ -10268,13 +10268,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.9359420000000001</v>
+        <v>0.959272</v>
       </c>
       <c r="C66" t="n">
-        <v>0.597491</v>
+        <v>0.774092</v>
       </c>
       <c r="D66" t="n">
-        <v>0.59693</v>
+        <v>0.570067</v>
       </c>
     </row>
     <row r="67">
@@ -10282,13 +10282,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.959503</v>
+        <v>0.964153</v>
       </c>
       <c r="C67" t="n">
-        <v>0.6257740000000001</v>
+        <v>0.790624</v>
       </c>
       <c r="D67" t="n">
-        <v>0.602189</v>
+        <v>0.574592</v>
       </c>
     </row>
     <row r="68">
@@ -10296,13 +10296,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.961847</v>
+        <v>0.980961</v>
       </c>
       <c r="C68" t="n">
-        <v>0.648106</v>
+        <v>0.813255</v>
       </c>
       <c r="D68" t="n">
-        <v>0.630063</v>
+        <v>0.595279</v>
       </c>
     </row>
     <row r="69">
@@ -10310,13 +10310,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>1.01165</v>
+        <v>1.01211</v>
       </c>
       <c r="C69" t="n">
-        <v>0.668825</v>
+        <v>0.84485</v>
       </c>
       <c r="D69" t="n">
-        <v>0.629466</v>
+        <v>0.609429</v>
       </c>
     </row>
     <row r="70">
@@ -10324,13 +10324,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>1.01821</v>
+        <v>1.03915</v>
       </c>
       <c r="C70" t="n">
-        <v>0.684685</v>
+        <v>0.857813</v>
       </c>
       <c r="D70" t="n">
-        <v>0.647207</v>
+        <v>0.613027</v>
       </c>
     </row>
     <row r="71">
@@ -10338,13 +10338,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>1.04912</v>
+        <v>1.05062</v>
       </c>
       <c r="C71" t="n">
-        <v>0.735227</v>
+        <v>0.886562</v>
       </c>
       <c r="D71" t="n">
-        <v>0.672067</v>
+        <v>0.629022</v>
       </c>
     </row>
     <row r="72">
@@ -10352,13 +10352,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>1.08509</v>
+        <v>1.07723</v>
       </c>
       <c r="C72" t="n">
-        <v>0.744072</v>
+        <v>0.902999</v>
       </c>
       <c r="D72" t="n">
-        <v>0.692773</v>
+        <v>0.639002</v>
       </c>
     </row>
     <row r="73">
@@ -10366,13 +10366,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>1.12324</v>
+        <v>1.11256</v>
       </c>
       <c r="C73" t="n">
-        <v>0.781264</v>
+        <v>0.939335</v>
       </c>
       <c r="D73" t="n">
-        <v>0.711834</v>
+        <v>0.669223</v>
       </c>
     </row>
     <row r="74">
@@ -10380,13 +10380,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.15861</v>
+        <v>1.15833</v>
       </c>
       <c r="C74" t="n">
-        <v>0.81004</v>
+        <v>0.9760799999999999</v>
       </c>
       <c r="D74" t="n">
-        <v>0.756107</v>
+        <v>0.6937489999999999</v>
       </c>
     </row>
     <row r="75">
@@ -10394,13 +10394,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>1.22616</v>
+        <v>1.19709</v>
       </c>
       <c r="C75" t="n">
-        <v>0.8578249999999999</v>
+        <v>1.0148</v>
       </c>
       <c r="D75" t="n">
-        <v>0.7865180000000001</v>
+        <v>0.723002</v>
       </c>
     </row>
     <row r="76">
@@ -10408,13 +10408,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>1.27619</v>
+        <v>1.25235</v>
       </c>
       <c r="C76" t="n">
-        <v>0.882251</v>
+        <v>1.07159</v>
       </c>
       <c r="D76" t="n">
-        <v>0.814157</v>
+        <v>0.757757</v>
       </c>
     </row>
     <row r="77">
@@ -10422,13 +10422,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>1.33016</v>
+        <v>1.3088</v>
       </c>
       <c r="C77" t="n">
-        <v>0.925978</v>
+        <v>1.10641</v>
       </c>
       <c r="D77" t="n">
-        <v>0.857657</v>
+        <v>0.807562</v>
       </c>
     </row>
     <row r="78">
@@ -10436,13 +10436,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>1.38547</v>
+        <v>1.40171</v>
       </c>
       <c r="C78" t="n">
-        <v>1.06783</v>
+        <v>1.31177</v>
       </c>
       <c r="D78" t="n">
-        <v>0.977409</v>
+        <v>0.935246</v>
       </c>
     </row>
     <row r="79">
@@ -10450,13 +10450,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.55923</v>
+        <v>1.57692</v>
       </c>
       <c r="C79" t="n">
-        <v>1.10301</v>
+        <v>1.34788</v>
       </c>
       <c r="D79" t="n">
-        <v>1.02514</v>
+        <v>0.985921</v>
       </c>
     </row>
     <row r="80">
@@ -10464,13 +10464,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.62612</v>
+        <v>1.66522</v>
       </c>
       <c r="C80" t="n">
-        <v>1.1364</v>
+        <v>1.38986</v>
       </c>
       <c r="D80" t="n">
-        <v>1.06908</v>
+        <v>1.04128</v>
       </c>
     </row>
     <row r="81">
@@ -10478,13 +10478,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.70709</v>
+        <v>1.74636</v>
       </c>
       <c r="C81" t="n">
-        <v>1.17169</v>
+        <v>1.43841</v>
       </c>
       <c r="D81" t="n">
-        <v>1.13479</v>
+        <v>1.09082</v>
       </c>
     </row>
     <row r="82">
@@ -10492,13 +10492,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.79941</v>
+        <v>1.81484</v>
       </c>
       <c r="C82" t="n">
-        <v>1.20693</v>
+        <v>1.47968</v>
       </c>
       <c r="D82" t="n">
-        <v>1.18346</v>
+        <v>1.13972</v>
       </c>
     </row>
     <row r="83">
@@ -10506,13 +10506,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.88544</v>
+        <v>1.91482</v>
       </c>
       <c r="C83" t="n">
-        <v>1.24945</v>
+        <v>1.52767</v>
       </c>
       <c r="D83" t="n">
-        <v>1.2339</v>
+        <v>1.18356</v>
       </c>
     </row>
     <row r="84">
@@ -10520,13 +10520,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.96911</v>
+        <v>1.98912</v>
       </c>
       <c r="C84" t="n">
-        <v>1.28567</v>
+        <v>1.5665</v>
       </c>
       <c r="D84" t="n">
-        <v>1.30669</v>
+        <v>1.23839</v>
       </c>
     </row>
     <row r="85">
@@ -10534,13 +10534,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>2.06155</v>
+        <v>2.08565</v>
       </c>
       <c r="C85" t="n">
-        <v>1.32295</v>
+        <v>1.609</v>
       </c>
       <c r="D85" t="n">
-        <v>1.35432</v>
+        <v>1.29741</v>
       </c>
     </row>
     <row r="86">
@@ -10548,13 +10548,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>2.1472</v>
+        <v>2.17022</v>
       </c>
       <c r="C86" t="n">
-        <v>1.35938</v>
+        <v>1.65633</v>
       </c>
       <c r="D86" t="n">
-        <v>1.41419</v>
+        <v>1.34838</v>
       </c>
     </row>
     <row r="87">
@@ -10562,13 +10562,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>2.22777</v>
+        <v>2.25994</v>
       </c>
       <c r="C87" t="n">
-        <v>1.40264</v>
+        <v>1.70209</v>
       </c>
       <c r="D87" t="n">
-        <v>1.47025</v>
+        <v>1.39734</v>
       </c>
     </row>
     <row r="88">
@@ -10576,13 +10576,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>2.3298</v>
+        <v>2.34576</v>
       </c>
       <c r="C88" t="n">
-        <v>1.43922</v>
+        <v>1.7446</v>
       </c>
       <c r="D88" t="n">
-        <v>1.53832</v>
+        <v>1.45011</v>
       </c>
     </row>
     <row r="89">
@@ -10590,13 +10590,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>2.41721</v>
+        <v>2.44862</v>
       </c>
       <c r="C89" t="n">
-        <v>1.47767</v>
+        <v>1.794</v>
       </c>
       <c r="D89" t="n">
-        <v>1.5908</v>
+        <v>1.50179</v>
       </c>
     </row>
     <row r="90">
@@ -10604,13 +10604,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>2.50004</v>
+        <v>2.53227</v>
       </c>
       <c r="C90" t="n">
-        <v>1.51335</v>
+        <v>1.83303</v>
       </c>
       <c r="D90" t="n">
-        <v>1.65316</v>
+        <v>1.55543</v>
       </c>
     </row>
     <row r="91">
@@ -10618,13 +10618,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>2.59585</v>
+        <v>2.61435</v>
       </c>
       <c r="C91" t="n">
-        <v>1.54666</v>
+        <v>1.87693</v>
       </c>
       <c r="D91" t="n">
-        <v>1.70048</v>
+        <v>1.6002</v>
       </c>
     </row>
     <row r="92">
@@ -10632,13 +10632,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>2.68382</v>
+        <v>2.71069</v>
       </c>
       <c r="C92" t="n">
-        <v>1.65199</v>
+        <v>2.01991</v>
       </c>
       <c r="D92" t="n">
-        <v>1.82211</v>
+        <v>1.69895</v>
       </c>
     </row>
     <row r="93">
@@ -10646,13 +10646,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>2.84842</v>
+        <v>2.8531</v>
       </c>
       <c r="C93" t="n">
-        <v>1.68556</v>
+        <v>2.05621</v>
       </c>
       <c r="D93" t="n">
-        <v>1.87626</v>
+        <v>1.73701</v>
       </c>
     </row>
     <row r="94">
@@ -10660,13 +10660,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>2.92219</v>
+        <v>2.92259</v>
       </c>
       <c r="C94" t="n">
-        <v>1.70974</v>
+        <v>2.07801</v>
       </c>
       <c r="D94" t="n">
-        <v>1.91699</v>
+        <v>1.78401</v>
       </c>
     </row>
     <row r="95">
@@ -10674,13 +10674,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>2.98858</v>
+        <v>3.01441</v>
       </c>
       <c r="C95" t="n">
-        <v>1.7467</v>
+        <v>2.11891</v>
       </c>
       <c r="D95" t="n">
-        <v>1.95768</v>
+        <v>1.82103</v>
       </c>
     </row>
     <row r="96">
@@ -10688,13 +10688,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>3.05015</v>
+        <v>3.09064</v>
       </c>
       <c r="C96" t="n">
-        <v>1.77009</v>
+        <v>2.14827</v>
       </c>
       <c r="D96" t="n">
-        <v>2.00381</v>
+        <v>1.86008</v>
       </c>
     </row>
     <row r="97">
@@ -10702,13 +10702,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>3.12084</v>
+        <v>3.13668</v>
       </c>
       <c r="C97" t="n">
-        <v>1.80165</v>
+        <v>2.17953</v>
       </c>
       <c r="D97" t="n">
-        <v>2.04935</v>
+        <v>1.89633</v>
       </c>
     </row>
     <row r="98">
@@ -10716,13 +10716,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>3.20508</v>
+        <v>3.21599</v>
       </c>
       <c r="C98" t="n">
-        <v>1.82843</v>
+        <v>2.21469</v>
       </c>
       <c r="D98" t="n">
-        <v>2.09641</v>
+        <v>1.93428</v>
       </c>
     </row>
     <row r="99">
@@ -10730,13 +10730,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>3.27291</v>
+        <v>3.27314</v>
       </c>
       <c r="C99" t="n">
-        <v>1.87735</v>
+        <v>2.24583</v>
       </c>
       <c r="D99" t="n">
-        <v>2.13412</v>
+        <v>1.96608</v>
       </c>
     </row>
     <row r="100">
@@ -10744,13 +10744,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>3.33491</v>
+        <v>3.34636</v>
       </c>
       <c r="C100" t="n">
-        <v>1.90073</v>
+        <v>2.28279</v>
       </c>
       <c r="D100" t="n">
-        <v>2.17935</v>
+        <v>1.99251</v>
       </c>
     </row>
     <row r="101">
@@ -10758,13 +10758,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>3.40371</v>
+        <v>3.3939</v>
       </c>
       <c r="C101" t="n">
-        <v>1.92259</v>
+        <v>2.31611</v>
       </c>
       <c r="D101" t="n">
-        <v>2.21343</v>
+        <v>2.02942</v>
       </c>
     </row>
     <row r="102">
@@ -10772,13 +10772,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>3.46055</v>
+        <v>3.45186</v>
       </c>
       <c r="C102" t="n">
-        <v>1.97068</v>
+        <v>2.35376</v>
       </c>
       <c r="D102" t="n">
-        <v>2.23951</v>
+        <v>2.04934</v>
       </c>
     </row>
     <row r="103">
@@ -10786,13 +10786,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>3.51376</v>
+        <v>3.50996</v>
       </c>
       <c r="C103" t="n">
-        <v>1.99005</v>
+        <v>2.3871</v>
       </c>
       <c r="D103" t="n">
-        <v>2.28489</v>
+        <v>2.0866</v>
       </c>
     </row>
     <row r="104">
@@ -10800,13 +10800,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>3.56444</v>
+        <v>3.57456</v>
       </c>
       <c r="C104" t="n">
-        <v>2.02506</v>
+        <v>2.41434</v>
       </c>
       <c r="D104" t="n">
-        <v>2.31113</v>
+        <v>2.10237</v>
       </c>
     </row>
     <row r="105">
@@ -10814,13 +10814,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>3.6248</v>
+        <v>3.63368</v>
       </c>
       <c r="C105" t="n">
-        <v>2.05075</v>
+        <v>2.45383</v>
       </c>
       <c r="D105" t="n">
-        <v>2.35453</v>
+        <v>2.13022</v>
       </c>
     </row>
     <row r="106">
@@ -10828,13 +10828,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>3.6754</v>
+        <v>3.68564</v>
       </c>
       <c r="C106" t="n">
-        <v>2.07968</v>
+        <v>2.48516</v>
       </c>
       <c r="D106" t="n">
-        <v>2.36929</v>
+        <v>2.12869</v>
       </c>
     </row>
     <row r="107">
@@ -10842,13 +10842,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>3.69282</v>
+        <v>3.6825</v>
       </c>
       <c r="C107" t="n">
-        <v>2.07771</v>
+        <v>2.52011</v>
       </c>
       <c r="D107" t="n">
-        <v>2.44211</v>
+        <v>2.20802</v>
       </c>
     </row>
     <row r="108">
@@ -10856,13 +10856,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>3.73297</v>
+        <v>3.74447</v>
       </c>
       <c r="C108" t="n">
-        <v>2.10049</v>
+        <v>2.5305</v>
       </c>
       <c r="D108" t="n">
-        <v>2.45175</v>
+        <v>2.22716</v>
       </c>
     </row>
     <row r="109">
@@ -10870,13 +10870,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>3.79055</v>
+        <v>3.79228</v>
       </c>
       <c r="C109" t="n">
-        <v>2.1264</v>
+        <v>2.55946</v>
       </c>
       <c r="D109" t="n">
-        <v>2.47776</v>
+        <v>2.24852</v>
       </c>
     </row>
     <row r="110">
@@ -10884,13 +10884,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>3.84645</v>
+        <v>3.84226</v>
       </c>
       <c r="C110" t="n">
-        <v>2.14016</v>
+        <v>2.57863</v>
       </c>
       <c r="D110" t="n">
-        <v>2.50441</v>
+        <v>2.27577</v>
       </c>
     </row>
     <row r="111">
@@ -10898,13 +10898,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>3.89217</v>
+        <v>3.86641</v>
       </c>
       <c r="C111" t="n">
-        <v>2.17107</v>
+        <v>2.59598</v>
       </c>
       <c r="D111" t="n">
-        <v>2.52747</v>
+        <v>2.28684</v>
       </c>
     </row>
     <row r="112">
@@ -10912,13 +10912,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>3.93312</v>
+        <v>3.91328</v>
       </c>
       <c r="C112" t="n">
-        <v>2.19156</v>
+        <v>2.6346</v>
       </c>
       <c r="D112" t="n">
-        <v>2.55938</v>
+        <v>2.31274</v>
       </c>
     </row>
     <row r="113">
@@ -10926,13 +10926,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>3.9852</v>
+        <v>3.97688</v>
       </c>
       <c r="C113" t="n">
-        <v>2.22078</v>
+        <v>2.65729</v>
       </c>
       <c r="D113" t="n">
-        <v>2.57887</v>
+        <v>2.32039</v>
       </c>
     </row>
     <row r="114">
@@ -10940,13 +10940,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>4.03978</v>
+        <v>4.02538</v>
       </c>
       <c r="C114" t="n">
-        <v>2.23466</v>
+        <v>2.68167</v>
       </c>
       <c r="D114" t="n">
-        <v>2.60514</v>
+        <v>2.34365</v>
       </c>
     </row>
     <row r="115">
@@ -10954,13 +10954,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>4.06219</v>
+        <v>4.05425</v>
       </c>
       <c r="C115" t="n">
-        <v>2.26745</v>
+        <v>2.69975</v>
       </c>
       <c r="D115" t="n">
-        <v>2.63182</v>
+        <v>2.3614</v>
       </c>
     </row>
     <row r="116">
@@ -10968,13 +10968,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>4.12795</v>
+        <v>4.11132</v>
       </c>
       <c r="C116" t="n">
-        <v>2.29705</v>
+        <v>2.73204</v>
       </c>
       <c r="D116" t="n">
-        <v>2.66153</v>
+        <v>2.37286</v>
       </c>
     </row>
     <row r="117">
@@ -10982,13 +10982,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>4.15818</v>
+        <v>4.16188</v>
       </c>
       <c r="C117" t="n">
-        <v>2.31094</v>
+        <v>2.76332</v>
       </c>
       <c r="D117" t="n">
-        <v>2.67541</v>
+        <v>2.39382</v>
       </c>
     </row>
     <row r="118">
@@ -10996,13 +10996,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>4.20727</v>
+        <v>4.20448</v>
       </c>
       <c r="C118" t="n">
-        <v>2.35034</v>
+        <v>2.78081</v>
       </c>
       <c r="D118" t="n">
-        <v>2.69733</v>
+        <v>2.39946</v>
       </c>
     </row>
     <row r="119">
@@ -11010,13 +11010,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>4.2481</v>
+        <v>4.25078</v>
       </c>
       <c r="C119" t="n">
-        <v>2.37853</v>
+        <v>2.82014</v>
       </c>
       <c r="D119" t="n">
-        <v>2.71708</v>
+        <v>2.41069</v>
       </c>
     </row>
   </sheetData>
@@ -11064,13 +11064,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.591911</v>
+        <v>0.581534</v>
       </c>
       <c r="C2" t="n">
-        <v>0.376692</v>
+        <v>0.479945</v>
       </c>
       <c r="D2" t="n">
-        <v>0.344253</v>
+        <v>0.337871</v>
       </c>
     </row>
     <row r="3">
@@ -11078,13 +11078,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.598648</v>
+        <v>0.5903080000000001</v>
       </c>
       <c r="C3" t="n">
-        <v>0.379305</v>
+        <v>0.483525</v>
       </c>
       <c r="D3" t="n">
-        <v>0.351224</v>
+        <v>0.343861</v>
       </c>
     </row>
     <row r="4">
@@ -11092,13 +11092,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.613714</v>
+        <v>0.60238</v>
       </c>
       <c r="C4" t="n">
-        <v>0.384079</v>
+        <v>0.492308</v>
       </c>
       <c r="D4" t="n">
-        <v>0.356157</v>
+        <v>0.34834</v>
       </c>
     </row>
     <row r="5">
@@ -11106,13 +11106,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.617875</v>
+        <v>0.606871</v>
       </c>
       <c r="C5" t="n">
-        <v>0.394453</v>
+        <v>0.504537</v>
       </c>
       <c r="D5" t="n">
-        <v>0.360288</v>
+        <v>0.353099</v>
       </c>
     </row>
     <row r="6">
@@ -11120,13 +11120,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.6306310000000001</v>
+        <v>0.614857</v>
       </c>
       <c r="C6" t="n">
-        <v>0.393506</v>
+        <v>0.502688</v>
       </c>
       <c r="D6" t="n">
-        <v>0.364452</v>
+        <v>0.352465</v>
       </c>
     </row>
     <row r="7">
@@ -11134,13 +11134,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.637352</v>
+        <v>0.624873</v>
       </c>
       <c r="C7" t="n">
-        <v>0.406426</v>
+        <v>0.512174</v>
       </c>
       <c r="D7" t="n">
-        <v>0.371798</v>
+        <v>0.360287</v>
       </c>
     </row>
     <row r="8">
@@ -11148,13 +11148,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.6475</v>
+        <v>0.636843</v>
       </c>
       <c r="C8" t="n">
-        <v>0.416099</v>
+        <v>0.52416</v>
       </c>
       <c r="D8" t="n">
-        <v>0.374127</v>
+        <v>0.36344</v>
       </c>
     </row>
     <row r="9">
@@ -11162,13 +11162,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.654522</v>
+        <v>0.643622</v>
       </c>
       <c r="C9" t="n">
-        <v>0.421171</v>
+        <v>0.529035</v>
       </c>
       <c r="D9" t="n">
-        <v>0.378298</v>
+        <v>0.367353</v>
       </c>
     </row>
     <row r="10">
@@ -11176,13 +11176,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.669392</v>
+        <v>0.660068</v>
       </c>
       <c r="C10" t="n">
-        <v>0.431989</v>
+        <v>0.539879</v>
       </c>
       <c r="D10" t="n">
-        <v>0.383154</v>
+        <v>0.371633</v>
       </c>
     </row>
     <row r="11">
@@ -11190,13 +11190,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.675632</v>
+        <v>0.664803</v>
       </c>
       <c r="C11" t="n">
-        <v>0.418588</v>
+        <v>0.524996</v>
       </c>
       <c r="D11" t="n">
-        <v>0.384898</v>
+        <v>0.373658</v>
       </c>
     </row>
     <row r="12">
@@ -11204,13 +11204,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.65063</v>
+        <v>0.645278</v>
       </c>
       <c r="C12" t="n">
-        <v>0.423651</v>
+        <v>0.531671</v>
       </c>
       <c r="D12" t="n">
-        <v>0.391293</v>
+        <v>0.380377</v>
       </c>
     </row>
     <row r="13">
@@ -11218,13 +11218,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.659861</v>
+        <v>0.656896</v>
       </c>
       <c r="C13" t="n">
-        <v>0.425523</v>
+        <v>0.535671</v>
       </c>
       <c r="D13" t="n">
-        <v>0.394159</v>
+        <v>0.386402</v>
       </c>
     </row>
     <row r="14">
@@ -11232,13 +11232,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.666884</v>
+        <v>0.669771</v>
       </c>
       <c r="C14" t="n">
-        <v>0.433603</v>
+        <v>0.548094</v>
       </c>
       <c r="D14" t="n">
-        <v>0.397596</v>
+        <v>0.390464</v>
       </c>
     </row>
     <row r="15">
@@ -11246,13 +11246,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.683343</v>
+        <v>0.68236</v>
       </c>
       <c r="C15" t="n">
-        <v>0.443995</v>
+        <v>0.559199</v>
       </c>
       <c r="D15" t="n">
-        <v>0.407561</v>
+        <v>0.395639</v>
       </c>
     </row>
     <row r="16">
@@ -11260,13 +11260,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.692925</v>
+        <v>0.68832</v>
       </c>
       <c r="C16" t="n">
-        <v>0.453158</v>
+        <v>0.5671079999999999</v>
       </c>
       <c r="D16" t="n">
-        <v>0.413034</v>
+        <v>0.401447</v>
       </c>
     </row>
     <row r="17">
@@ -11274,13 +11274,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.7060920000000001</v>
+        <v>0.705417</v>
       </c>
       <c r="C17" t="n">
-        <v>0.455559</v>
+        <v>0.57173</v>
       </c>
       <c r="D17" t="n">
-        <v>0.415205</v>
+        <v>0.402961</v>
       </c>
     </row>
     <row r="18">
@@ -11288,13 +11288,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.715302</v>
+        <v>0.7171419999999999</v>
       </c>
       <c r="C18" t="n">
-        <v>0.45685</v>
+        <v>0.574464</v>
       </c>
       <c r="D18" t="n">
-        <v>0.420542</v>
+        <v>0.409673</v>
       </c>
     </row>
     <row r="19">
@@ -11302,13 +11302,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.726267</v>
+        <v>0.724184</v>
       </c>
       <c r="C19" t="n">
-        <v>0.471092</v>
+        <v>0.5882579999999999</v>
       </c>
       <c r="D19" t="n">
-        <v>0.426787</v>
+        <v>0.413581</v>
       </c>
     </row>
     <row r="20">
@@ -11316,13 +11316,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.74319</v>
+        <v>0.7414230000000001</v>
       </c>
       <c r="C20" t="n">
-        <v>0.4828</v>
+        <v>0.600909</v>
       </c>
       <c r="D20" t="n">
-        <v>0.431779</v>
+        <v>0.418931</v>
       </c>
     </row>
     <row r="21">
@@ -11330,13 +11330,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.754044</v>
+        <v>0.751453</v>
       </c>
       <c r="C21" t="n">
-        <v>0.494509</v>
+        <v>0.6137629999999999</v>
       </c>
       <c r="D21" t="n">
-        <v>0.437797</v>
+        <v>0.422791</v>
       </c>
     </row>
     <row r="22">
@@ -11344,13 +11344,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.763186</v>
+        <v>0.76242</v>
       </c>
       <c r="C22" t="n">
-        <v>0.501008</v>
+        <v>0.622001</v>
       </c>
       <c r="D22" t="n">
-        <v>0.442732</v>
+        <v>0.427023</v>
       </c>
     </row>
     <row r="23">
@@ -11358,13 +11358,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.785044</v>
+        <v>0.785357</v>
       </c>
       <c r="C23" t="n">
-        <v>0.509976</v>
+        <v>0.632684</v>
       </c>
       <c r="D23" t="n">
-        <v>0.449298</v>
+        <v>0.433046</v>
       </c>
     </row>
     <row r="24">
@@ -11372,13 +11372,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.798299</v>
+        <v>0.800061</v>
       </c>
       <c r="C24" t="n">
-        <v>0.520915</v>
+        <v>0.643295</v>
       </c>
       <c r="D24" t="n">
-        <v>0.452479</v>
+        <v>0.436436</v>
       </c>
     </row>
     <row r="25">
@@ -11386,13 +11386,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.811002</v>
+        <v>0.806661</v>
       </c>
       <c r="C25" t="n">
-        <v>0.536736</v>
+        <v>0.661595</v>
       </c>
       <c r="D25" t="n">
-        <v>0.461197</v>
+        <v>0.442318</v>
       </c>
     </row>
     <row r="26">
@@ -11400,13 +11400,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.828533</v>
+        <v>0.830871</v>
       </c>
       <c r="C26" t="n">
-        <v>0.477751</v>
+        <v>0.602291</v>
       </c>
       <c r="D26" t="n">
-        <v>0.463919</v>
+        <v>0.446042</v>
       </c>
     </row>
     <row r="27">
@@ -11414,13 +11414,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.790503</v>
+        <v>0.79244</v>
       </c>
       <c r="C27" t="n">
-        <v>0.487138</v>
+        <v>0.610246</v>
       </c>
       <c r="D27" t="n">
-        <v>0.46848</v>
+        <v>0.449602</v>
       </c>
     </row>
     <row r="28">
@@ -11428,13 +11428,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.798662</v>
+        <v>0.8029500000000001</v>
       </c>
       <c r="C28" t="n">
-        <v>0.490912</v>
+        <v>0.615888</v>
       </c>
       <c r="D28" t="n">
-        <v>0.47225</v>
+        <v>0.451954</v>
       </c>
     </row>
     <row r="29">
@@ -11442,13 +11442,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.811315</v>
+        <v>0.814685</v>
       </c>
       <c r="C29" t="n">
-        <v>0.494681</v>
+        <v>0.621766</v>
       </c>
       <c r="D29" t="n">
-        <v>0.476855</v>
+        <v>0.456749</v>
       </c>
     </row>
     <row r="30">
@@ -11456,13 +11456,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.8227680000000001</v>
+        <v>0.825848</v>
       </c>
       <c r="C30" t="n">
-        <v>0.504715</v>
+        <v>0.629995</v>
       </c>
       <c r="D30" t="n">
-        <v>0.482007</v>
+        <v>0.459952</v>
       </c>
     </row>
     <row r="31">
@@ -11470,13 +11470,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.8350030000000001</v>
+        <v>0.837415</v>
       </c>
       <c r="C31" t="n">
-        <v>0.510348</v>
+        <v>0.637493</v>
       </c>
       <c r="D31" t="n">
-        <v>0.486186</v>
+        <v>0.463948</v>
       </c>
     </row>
     <row r="32">
@@ -11484,13 +11484,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.848824</v>
+        <v>0.851732</v>
       </c>
       <c r="C32" t="n">
-        <v>0.519719</v>
+        <v>0.649574</v>
       </c>
       <c r="D32" t="n">
-        <v>0.490575</v>
+        <v>0.467298</v>
       </c>
     </row>
     <row r="33">
@@ -11498,13 +11498,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.857389</v>
+        <v>0.860004</v>
       </c>
       <c r="C33" t="n">
-        <v>0.525794</v>
+        <v>0.653545</v>
       </c>
       <c r="D33" t="n">
-        <v>0.49393</v>
+        <v>0.469625</v>
       </c>
     </row>
     <row r="34">
@@ -11512,13 +11512,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.871973</v>
+        <v>0.871094</v>
       </c>
       <c r="C34" t="n">
-        <v>0.535416</v>
+        <v>0.664475</v>
       </c>
       <c r="D34" t="n">
-        <v>0.496752</v>
+        <v>0.472395</v>
       </c>
     </row>
     <row r="35">
@@ -11526,13 +11526,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.882993</v>
+        <v>0.8861019999999999</v>
       </c>
       <c r="C35" t="n">
-        <v>0.543403</v>
+        <v>0.674422</v>
       </c>
       <c r="D35" t="n">
-        <v>0.499582</v>
+        <v>0.475465</v>
       </c>
     </row>
     <row r="36">
@@ -11540,13 +11540,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.89719</v>
+        <v>0.898578</v>
       </c>
       <c r="C36" t="n">
-        <v>0.556324</v>
+        <v>0.68828</v>
       </c>
       <c r="D36" t="n">
-        <v>0.502497</v>
+        <v>0.478238</v>
       </c>
     </row>
     <row r="37">
@@ -11554,13 +11554,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.909254</v>
+        <v>0.913083</v>
       </c>
       <c r="C37" t="n">
-        <v>0.565922</v>
+        <v>0.698505</v>
       </c>
       <c r="D37" t="n">
-        <v>0.506231</v>
+        <v>0.478364</v>
       </c>
     </row>
     <row r="38">
@@ -11568,13 +11568,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.924875</v>
+        <v>0.925666</v>
       </c>
       <c r="C38" t="n">
-        <v>0.574784</v>
+        <v>0.708485</v>
       </c>
       <c r="D38" t="n">
-        <v>0.509154</v>
+        <v>0.482466</v>
       </c>
     </row>
     <row r="39">
@@ -11582,13 +11582,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.936437</v>
+        <v>0.937272</v>
       </c>
       <c r="C39" t="n">
-        <v>0.586842</v>
+        <v>0.721231</v>
       </c>
       <c r="D39" t="n">
-        <v>0.512093</v>
+        <v>0.486166</v>
       </c>
     </row>
     <row r="40">
@@ -11596,13 +11596,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.951305</v>
+        <v>0.954323</v>
       </c>
       <c r="C40" t="n">
-        <v>0.5374139999999999</v>
+        <v>0.671526</v>
       </c>
       <c r="D40" t="n">
-        <v>0.51458</v>
+        <v>0.488894</v>
       </c>
     </row>
     <row r="41">
@@ -11610,13 +11610,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.885497</v>
+        <v>0.88592</v>
       </c>
       <c r="C41" t="n">
-        <v>0.54152</v>
+        <v>0.677331</v>
       </c>
       <c r="D41" t="n">
-        <v>0.5179009999999999</v>
+        <v>0.490907</v>
       </c>
     </row>
     <row r="42">
@@ -11624,13 +11624,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.897246</v>
+        <v>0.897162</v>
       </c>
       <c r="C42" t="n">
-        <v>0.550327</v>
+        <v>0.684725</v>
       </c>
       <c r="D42" t="n">
-        <v>0.521224</v>
+        <v>0.492308</v>
       </c>
     </row>
     <row r="43">
@@ -11638,13 +11638,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.906043</v>
+        <v>0.907541</v>
       </c>
       <c r="C43" t="n">
-        <v>0.55362</v>
+        <v>0.692084</v>
       </c>
       <c r="D43" t="n">
-        <v>0.523979</v>
+        <v>0.496041</v>
       </c>
     </row>
     <row r="44">
@@ -11652,13 +11652,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.9104409999999999</v>
+        <v>0.912611</v>
       </c>
       <c r="C44" t="n">
-        <v>0.561393</v>
+        <v>0.699418</v>
       </c>
       <c r="D44" t="n">
-        <v>0.525778</v>
+        <v>0.496427</v>
       </c>
     </row>
     <row r="45">
@@ -11666,13 +11666,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.924468</v>
+        <v>0.925799</v>
       </c>
       <c r="C45" t="n">
-        <v>0.568286</v>
+        <v>0.707294</v>
       </c>
       <c r="D45" t="n">
-        <v>0.527569</v>
+        <v>0.497826</v>
       </c>
     </row>
     <row r="46">
@@ -11680,13 +11680,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.930486</v>
+        <v>0.931267</v>
       </c>
       <c r="C46" t="n">
-        <v>0.579792</v>
+        <v>0.716573</v>
       </c>
       <c r="D46" t="n">
-        <v>0.530455</v>
+        <v>0.499424</v>
       </c>
     </row>
     <row r="47">
@@ -11694,13 +11694,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.9423280000000001</v>
+        <v>0.943384</v>
       </c>
       <c r="C47" t="n">
-        <v>0.584861</v>
+        <v>0.7235279999999999</v>
       </c>
       <c r="D47" t="n">
-        <v>0.531616</v>
+        <v>0.50168</v>
       </c>
     </row>
     <row r="48">
@@ -11708,13 +11708,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.952987</v>
+        <v>0.954346</v>
       </c>
       <c r="C48" t="n">
-        <v>0.593672</v>
+        <v>0.732405</v>
       </c>
       <c r="D48" t="n">
-        <v>0.533489</v>
+        <v>0.504515</v>
       </c>
     </row>
     <row r="49">
@@ -11722,13 +11722,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.959665</v>
+        <v>0.959763</v>
       </c>
       <c r="C49" t="n">
-        <v>0.59995</v>
+        <v>0.742104</v>
       </c>
       <c r="D49" t="n">
-        <v>0.53683</v>
+        <v>0.50631</v>
       </c>
     </row>
     <row r="50">
@@ -11736,13 +11736,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.974048</v>
+        <v>0.973929</v>
       </c>
       <c r="C50" t="n">
-        <v>0.609167</v>
+        <v>0.750436</v>
       </c>
       <c r="D50" t="n">
-        <v>0.539284</v>
+        <v>0.506035</v>
       </c>
     </row>
     <row r="51">
@@ -11750,13 +11750,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.98137</v>
+        <v>0.983023</v>
       </c>
       <c r="C51" t="n">
-        <v>0.621536</v>
+        <v>0.761449</v>
       </c>
       <c r="D51" t="n">
-        <v>0.53956</v>
+        <v>0.509024</v>
       </c>
     </row>
     <row r="52">
@@ -11764,13 +11764,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.995549</v>
+        <v>0.997062</v>
       </c>
       <c r="C52" t="n">
-        <v>0.6315190000000001</v>
+        <v>0.7709780000000001</v>
       </c>
       <c r="D52" t="n">
-        <v>0.543314</v>
+        <v>0.508034</v>
       </c>
     </row>
     <row r="53">
@@ -11778,13 +11778,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>1.00413</v>
+        <v>1.00437</v>
       </c>
       <c r="C53" t="n">
-        <v>0.638608</v>
+        <v>0.780034</v>
       </c>
       <c r="D53" t="n">
-        <v>0.54189</v>
+        <v>0.5096039999999999</v>
       </c>
     </row>
     <row r="54">
@@ -11792,13 +11792,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>1.01427</v>
+        <v>1.01474</v>
       </c>
       <c r="C54" t="n">
-        <v>0.577664</v>
+        <v>0.716411</v>
       </c>
       <c r="D54" t="n">
-        <v>0.544111</v>
+        <v>0.511498</v>
       </c>
     </row>
     <row r="55">
@@ -11806,13 +11806,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.942314</v>
+        <v>0.940685</v>
       </c>
       <c r="C55" t="n">
-        <v>0.578435</v>
+        <v>0.7189179999999999</v>
       </c>
       <c r="D55" t="n">
-        <v>0.546049</v>
+        <v>0.511532</v>
       </c>
     </row>
     <row r="56">
@@ -11820,13 +11820,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.950897</v>
+        <v>0.950574</v>
       </c>
       <c r="C56" t="n">
-        <v>0.588008</v>
+        <v>0.728539</v>
       </c>
       <c r="D56" t="n">
-        <v>0.547015</v>
+        <v>0.513388</v>
       </c>
     </row>
     <row r="57">
@@ -11834,13 +11834,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.958005</v>
+        <v>0.959517</v>
       </c>
       <c r="C57" t="n">
-        <v>0.594321</v>
+        <v>0.73668</v>
       </c>
       <c r="D57" t="n">
-        <v>0.547651</v>
+        <v>0.514139</v>
       </c>
     </row>
     <row r="58">
@@ -11848,13 +11848,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.9661999999999999</v>
+        <v>0.966697</v>
       </c>
       <c r="C58" t="n">
-        <v>0.601733</v>
+        <v>0.744275</v>
       </c>
       <c r="D58" t="n">
-        <v>0.549797</v>
+        <v>0.514866</v>
       </c>
     </row>
     <row r="59">
@@ -11862,13 +11862,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.975455</v>
+        <v>0.976036</v>
       </c>
       <c r="C59" t="n">
-        <v>0.60814</v>
+        <v>0.753034</v>
       </c>
       <c r="D59" t="n">
-        <v>0.551516</v>
+        <v>0.515891</v>
       </c>
     </row>
     <row r="60">
@@ -11876,13 +11876,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.983316</v>
+        <v>0.982854</v>
       </c>
       <c r="C60" t="n">
-        <v>0.617084</v>
+        <v>0.761608</v>
       </c>
       <c r="D60" t="n">
-        <v>0.552489</v>
+        <v>0.5182909999999999</v>
       </c>
     </row>
     <row r="61">
@@ -11890,13 +11890,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.991807</v>
+        <v>0.99042</v>
       </c>
       <c r="C61" t="n">
-        <v>0.624696</v>
+        <v>0.773517</v>
       </c>
       <c r="D61" t="n">
-        <v>0.556067</v>
+        <v>0.519609</v>
       </c>
     </row>
     <row r="62">
@@ -11904,13 +11904,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>1.004</v>
+        <v>1.00852</v>
       </c>
       <c r="C62" t="n">
-        <v>0.633879</v>
+        <v>0.786158</v>
       </c>
       <c r="D62" t="n">
-        <v>0.555903</v>
+        <v>0.52461</v>
       </c>
     </row>
     <row r="63">
@@ -11918,13 +11918,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>1.01519</v>
+        <v>1.01808</v>
       </c>
       <c r="C63" t="n">
-        <v>0.644957</v>
+        <v>0.7987919999999999</v>
       </c>
       <c r="D63" t="n">
-        <v>0.557437</v>
+        <v>0.526617</v>
       </c>
     </row>
     <row r="64">
@@ -11932,13 +11932,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>1.01954</v>
+        <v>1.02443</v>
       </c>
       <c r="C64" t="n">
-        <v>0.656824</v>
+        <v>0.810539</v>
       </c>
       <c r="D64" t="n">
-        <v>0.559101</v>
+        <v>0.527628</v>
       </c>
     </row>
     <row r="65">
@@ -11946,13 +11946,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>1.03157</v>
+        <v>1.03543</v>
       </c>
       <c r="C65" t="n">
-        <v>0.6730429999999999</v>
+        <v>0.8294280000000001</v>
       </c>
       <c r="D65" t="n">
-        <v>0.561236</v>
+        <v>0.528403</v>
       </c>
     </row>
     <row r="66">
@@ -11960,13 +11960,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>1.04137</v>
+        <v>1.0479</v>
       </c>
       <c r="C66" t="n">
-        <v>0.6865059999999999</v>
+        <v>0.843533</v>
       </c>
       <c r="D66" t="n">
-        <v>0.563736</v>
+        <v>0.531303</v>
       </c>
     </row>
     <row r="67">
@@ -11974,13 +11974,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.0579</v>
+        <v>1.06705</v>
       </c>
       <c r="C67" t="n">
-        <v>0.706457</v>
+        <v>0.866004</v>
       </c>
       <c r="D67" t="n">
-        <v>0.564836</v>
+        <v>0.535059</v>
       </c>
     </row>
     <row r="68">
@@ -11988,13 +11988,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>1.0706</v>
+        <v>1.07768</v>
       </c>
       <c r="C68" t="n">
-        <v>0.639688</v>
+        <v>0.785114</v>
       </c>
       <c r="D68" t="n">
-        <v>0.579392</v>
+        <v>0.541242</v>
       </c>
     </row>
     <row r="69">
@@ -12002,13 +12002,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>1.02275</v>
+        <v>1.01214</v>
       </c>
       <c r="C69" t="n">
-        <v>0.663005</v>
+        <v>0.807867</v>
       </c>
       <c r="D69" t="n">
-        <v>0.5871150000000001</v>
+        <v>0.548035</v>
       </c>
     </row>
     <row r="70">
@@ -12016,13 +12016,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>1.04178</v>
+        <v>1.03356</v>
       </c>
       <c r="C70" t="n">
-        <v>0.68788</v>
+        <v>0.832864</v>
       </c>
       <c r="D70" t="n">
-        <v>0.601033</v>
+        <v>0.561982</v>
       </c>
     </row>
     <row r="71">
@@ -12030,13 +12030,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>1.0686</v>
+        <v>1.06023</v>
       </c>
       <c r="C71" t="n">
-        <v>0.720245</v>
+        <v>0.86403</v>
       </c>
       <c r="D71" t="n">
-        <v>0.615787</v>
+        <v>0.576314</v>
       </c>
     </row>
     <row r="72">
@@ -12044,13 +12044,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>1.1002</v>
+        <v>1.09502</v>
       </c>
       <c r="C72" t="n">
-        <v>0.7480869999999999</v>
+        <v>0.89774</v>
       </c>
       <c r="D72" t="n">
-        <v>0.631332</v>
+        <v>0.592021</v>
       </c>
     </row>
     <row r="73">
@@ -12058,13 +12058,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>1.13455</v>
+        <v>1.12129</v>
       </c>
       <c r="C73" t="n">
-        <v>0.781613</v>
+        <v>0.928324</v>
       </c>
       <c r="D73" t="n">
-        <v>0.650786</v>
+        <v>0.605106</v>
       </c>
     </row>
     <row r="74">
@@ -12072,13 +12072,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.17143</v>
+        <v>1.14282</v>
       </c>
       <c r="C74" t="n">
-        <v>0.814385</v>
+        <v>0.9577290000000001</v>
       </c>
       <c r="D74" t="n">
-        <v>0.668726</v>
+        <v>0.615922</v>
       </c>
     </row>
     <row r="75">
@@ -12086,13 +12086,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>1.21662</v>
+        <v>1.1821</v>
       </c>
       <c r="C75" t="n">
-        <v>0.857159</v>
+        <v>0.998993</v>
       </c>
       <c r="D75" t="n">
-        <v>0.6944669999999999</v>
+        <v>0.633373</v>
       </c>
     </row>
     <row r="76">
@@ -12100,13 +12100,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>1.26261</v>
+        <v>1.22896</v>
       </c>
       <c r="C76" t="n">
-        <v>0.898056</v>
+        <v>1.0356</v>
       </c>
       <c r="D76" t="n">
-        <v>0.71702</v>
+        <v>0.6599429999999999</v>
       </c>
     </row>
     <row r="77">
@@ -12114,13 +12114,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>1.31466</v>
+        <v>1.27724</v>
       </c>
       <c r="C77" t="n">
-        <v>0.947899</v>
+        <v>1.0831</v>
       </c>
       <c r="D77" t="n">
-        <v>0.7482839999999999</v>
+        <v>0.683213</v>
       </c>
     </row>
     <row r="78">
@@ -12128,13 +12128,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>1.37193</v>
+        <v>1.33984</v>
       </c>
       <c r="C78" t="n">
-        <v>0.995465</v>
+        <v>1.13401</v>
       </c>
       <c r="D78" t="n">
-        <v>0.779257</v>
+        <v>0.714324</v>
       </c>
     </row>
     <row r="79">
@@ -12142,13 +12142,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.44238</v>
+        <v>1.40145</v>
       </c>
       <c r="C79" t="n">
-        <v>1.0477</v>
+        <v>1.18345</v>
       </c>
       <c r="D79" t="n">
-        <v>0.818106</v>
+        <v>0.747382</v>
       </c>
     </row>
     <row r="80">
@@ -12156,13 +12156,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.51606</v>
+        <v>1.47779</v>
       </c>
       <c r="C80" t="n">
-        <v>1.10053</v>
+        <v>1.2425</v>
       </c>
       <c r="D80" t="n">
-        <v>0.857802</v>
+        <v>0.787647</v>
       </c>
     </row>
     <row r="81">
@@ -12170,13 +12170,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.59946</v>
+        <v>1.56313</v>
       </c>
       <c r="C81" t="n">
-        <v>1.1604</v>
+        <v>1.30668</v>
       </c>
       <c r="D81" t="n">
-        <v>0.899107</v>
+        <v>0.828489</v>
       </c>
     </row>
     <row r="82">
@@ -12184,13 +12184,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.68469</v>
+        <v>1.64458</v>
       </c>
       <c r="C82" t="n">
-        <v>1.21875</v>
+        <v>1.36985</v>
       </c>
       <c r="D82" t="n">
-        <v>0.9452199999999999</v>
+        <v>0.869984</v>
       </c>
     </row>
     <row r="83">
@@ -12198,13 +12198,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.78708</v>
+        <v>1.7583</v>
       </c>
       <c r="C83" t="n">
-        <v>1.19191</v>
+        <v>1.37368</v>
       </c>
       <c r="D83" t="n">
-        <v>1.06197</v>
+        <v>0.990428</v>
       </c>
     </row>
     <row r="84">
@@ -12212,13 +12212,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.80672</v>
+        <v>1.78742</v>
       </c>
       <c r="C84" t="n">
-        <v>1.24692</v>
+        <v>1.43678</v>
       </c>
       <c r="D84" t="n">
-        <v>1.1177</v>
+        <v>1.03927</v>
       </c>
     </row>
     <row r="85">
@@ -12226,13 +12226,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.91593</v>
+        <v>1.89215</v>
       </c>
       <c r="C85" t="n">
-        <v>1.30562</v>
+        <v>1.49643</v>
       </c>
       <c r="D85" t="n">
-        <v>1.17703</v>
+        <v>1.09142</v>
       </c>
     </row>
     <row r="86">
@@ -12240,13 +12240,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>2.01003</v>
+        <v>1.99967</v>
       </c>
       <c r="C86" t="n">
-        <v>1.37028</v>
+        <v>1.57657</v>
       </c>
       <c r="D86" t="n">
-        <v>1.23214</v>
+        <v>1.14766</v>
       </c>
     </row>
     <row r="87">
@@ -12254,13 +12254,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>2.12753</v>
+        <v>2.10702</v>
       </c>
       <c r="C87" t="n">
-        <v>1.43402</v>
+        <v>1.64609</v>
       </c>
       <c r="D87" t="n">
-        <v>1.29258</v>
+        <v>1.20573</v>
       </c>
     </row>
     <row r="88">
@@ -12268,13 +12268,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>2.23742</v>
+        <v>2.22372</v>
       </c>
       <c r="C88" t="n">
-        <v>1.50779</v>
+        <v>1.73099</v>
       </c>
       <c r="D88" t="n">
-        <v>1.35374</v>
+        <v>1.26449</v>
       </c>
     </row>
     <row r="89">
@@ -12282,13 +12282,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>2.36794</v>
+        <v>2.33796</v>
       </c>
       <c r="C89" t="n">
-        <v>1.57843</v>
+        <v>1.81061</v>
       </c>
       <c r="D89" t="n">
-        <v>1.41326</v>
+        <v>1.31526</v>
       </c>
     </row>
     <row r="90">
@@ -12296,13 +12296,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>2.48957</v>
+        <v>2.4747</v>
       </c>
       <c r="C90" t="n">
-        <v>1.65818</v>
+        <v>1.88928</v>
       </c>
       <c r="D90" t="n">
-        <v>1.475</v>
+        <v>1.37039</v>
       </c>
     </row>
     <row r="91">
@@ -12310,13 +12310,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>2.62168</v>
+        <v>2.59174</v>
       </c>
       <c r="C91" t="n">
-        <v>1.73915</v>
+        <v>1.97776</v>
       </c>
       <c r="D91" t="n">
-        <v>1.5345</v>
+        <v>1.42294</v>
       </c>
     </row>
     <row r="92">
@@ -12324,13 +12324,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>2.76309</v>
+        <v>2.72003</v>
       </c>
       <c r="C92" t="n">
-        <v>1.82453</v>
+        <v>2.06792</v>
       </c>
       <c r="D92" t="n">
-        <v>1.58963</v>
+        <v>1.47262</v>
       </c>
     </row>
     <row r="93">
@@ -12338,13 +12338,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>2.89363</v>
+        <v>2.85854</v>
       </c>
       <c r="C93" t="n">
-        <v>1.9103</v>
+        <v>2.16181</v>
       </c>
       <c r="D93" t="n">
-        <v>1.64499</v>
+        <v>1.51193</v>
       </c>
     </row>
     <row r="94">
@@ -12352,13 +12352,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>3.00862</v>
+        <v>2.99075</v>
       </c>
       <c r="C94" t="n">
-        <v>1.998</v>
+        <v>2.25503</v>
       </c>
       <c r="D94" t="n">
-        <v>1.69525</v>
+        <v>1.57279</v>
       </c>
     </row>
     <row r="95">
@@ -12366,13 +12366,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>3.16377</v>
+        <v>3.12547</v>
       </c>
       <c r="C95" t="n">
-        <v>2.09122</v>
+        <v>2.34739</v>
       </c>
       <c r="D95" t="n">
-        <v>1.74565</v>
+        <v>1.61849</v>
       </c>
     </row>
     <row r="96">
@@ -12380,13 +12380,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>3.2937</v>
+        <v>3.26756</v>
       </c>
       <c r="C96" t="n">
-        <v>2.19131</v>
+        <v>2.47066</v>
       </c>
       <c r="D96" t="n">
-        <v>1.79344</v>
+        <v>1.64867</v>
       </c>
     </row>
     <row r="97">
@@ -12394,13 +12394,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>3.42821</v>
+        <v>3.41224</v>
       </c>
       <c r="C97" t="n">
-        <v>1.9347</v>
+        <v>2.23342</v>
       </c>
       <c r="D97" t="n">
-        <v>1.92073</v>
+        <v>1.77546</v>
       </c>
     </row>
     <row r="98">
@@ -12408,13 +12408,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>3.28406</v>
+        <v>3.26255</v>
       </c>
       <c r="C98" t="n">
-        <v>1.98591</v>
+        <v>2.29906</v>
       </c>
       <c r="D98" t="n">
-        <v>1.96672</v>
+        <v>1.80965</v>
       </c>
     </row>
     <row r="99">
@@ -12422,13 +12422,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>3.40493</v>
+        <v>3.366</v>
       </c>
       <c r="C99" t="n">
-        <v>2.0515</v>
+        <v>2.36889</v>
       </c>
       <c r="D99" t="n">
-        <v>2.02967</v>
+        <v>1.82333</v>
       </c>
     </row>
     <row r="100">
@@ -12436,13 +12436,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>3.47537</v>
+        <v>3.4799</v>
       </c>
       <c r="C100" t="n">
-        <v>2.12166</v>
+        <v>2.43541</v>
       </c>
       <c r="D100" t="n">
-        <v>2.05369</v>
+        <v>1.86797</v>
       </c>
     </row>
     <row r="101">
@@ -12450,13 +12450,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>3.59894</v>
+        <v>3.56407</v>
       </c>
       <c r="C101" t="n">
-        <v>2.18617</v>
+        <v>2.50386</v>
       </c>
       <c r="D101" t="n">
-        <v>2.10969</v>
+        <v>1.89856</v>
       </c>
     </row>
     <row r="102">
@@ -12464,13 +12464,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>3.71085</v>
+        <v>3.67088</v>
       </c>
       <c r="C102" t="n">
-        <v>2.25483</v>
+        <v>2.57859</v>
       </c>
       <c r="D102" t="n">
-        <v>2.12412</v>
+        <v>1.9346</v>
       </c>
     </row>
     <row r="103">
@@ -12478,13 +12478,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>3.81758</v>
+        <v>3.76926</v>
       </c>
       <c r="C103" t="n">
-        <v>2.32732</v>
+        <v>2.65402</v>
       </c>
       <c r="D103" t="n">
-        <v>2.16776</v>
+        <v>1.95407</v>
       </c>
     </row>
     <row r="104">
@@ -12492,13 +12492,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>3.93711</v>
+        <v>3.86586</v>
       </c>
       <c r="C104" t="n">
-        <v>2.40036</v>
+        <v>2.7235</v>
       </c>
       <c r="D104" t="n">
-        <v>2.19119</v>
+        <v>1.98437</v>
       </c>
     </row>
     <row r="105">
@@ -12506,13 +12506,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>4.00723</v>
+        <v>3.99282</v>
       </c>
       <c r="C105" t="n">
-        <v>2.46766</v>
+        <v>2.80994</v>
       </c>
       <c r="D105" t="n">
-        <v>2.24624</v>
+        <v>2.01976</v>
       </c>
     </row>
     <row r="106">
@@ -12520,13 +12520,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>4.10475</v>
+        <v>4.07532</v>
       </c>
       <c r="C106" t="n">
-        <v>2.56414</v>
+        <v>2.89117</v>
       </c>
       <c r="D106" t="n">
-        <v>2.2682</v>
+        <v>2.03606</v>
       </c>
     </row>
     <row r="107">
@@ -12534,13 +12534,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>4.21454</v>
+        <v>4.18253</v>
       </c>
       <c r="C107" t="n">
-        <v>2.61861</v>
+        <v>2.96449</v>
       </c>
       <c r="D107" t="n">
-        <v>2.29861</v>
+        <v>2.08772</v>
       </c>
     </row>
     <row r="108">
@@ -12548,13 +12548,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>4.31332</v>
+        <v>4.28802</v>
       </c>
       <c r="C108" t="n">
-        <v>2.70745</v>
+        <v>3.05975</v>
       </c>
       <c r="D108" t="n">
-        <v>2.30973</v>
+        <v>2.07968</v>
       </c>
     </row>
     <row r="109">
@@ -12562,13 +12562,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>4.43932</v>
+        <v>4.37226</v>
       </c>
       <c r="C109" t="n">
-        <v>2.80437</v>
+        <v>3.15368</v>
       </c>
       <c r="D109" t="n">
-        <v>2.35334</v>
+        <v>2.11659</v>
       </c>
     </row>
     <row r="110">
@@ -12576,13 +12576,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>4.56041</v>
+        <v>4.55225</v>
       </c>
       <c r="C110" t="n">
-        <v>2.89194</v>
+        <v>3.24664</v>
       </c>
       <c r="D110" t="n">
-        <v>2.36329</v>
+        <v>2.14774</v>
       </c>
     </row>
     <row r="111">
@@ -12590,13 +12590,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>4.65218</v>
+        <v>4.63442</v>
       </c>
       <c r="C111" t="n">
-        <v>2.46671</v>
+        <v>2.87205</v>
       </c>
       <c r="D111" t="n">
-        <v>2.47149</v>
+        <v>2.224</v>
       </c>
     </row>
     <row r="112">
@@ -12604,13 +12604,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>4.28733</v>
+        <v>4.26381</v>
       </c>
       <c r="C112" t="n">
-        <v>2.53219</v>
+        <v>2.90585</v>
       </c>
       <c r="D112" t="n">
-        <v>2.48346</v>
+        <v>2.22365</v>
       </c>
     </row>
     <row r="113">
@@ -12618,13 +12618,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>4.37576</v>
+        <v>4.32496</v>
       </c>
       <c r="C113" t="n">
-        <v>2.59721</v>
+        <v>2.9718</v>
       </c>
       <c r="D113" t="n">
-        <v>2.51095</v>
+        <v>2.26779</v>
       </c>
     </row>
     <row r="114">
@@ -12632,13 +12632,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>4.45922</v>
+        <v>4.43132</v>
       </c>
       <c r="C114" t="n">
-        <v>2.64017</v>
+        <v>3.03844</v>
       </c>
       <c r="D114" t="n">
-        <v>2.53247</v>
+        <v>2.26291</v>
       </c>
     </row>
     <row r="115">
@@ -12646,13 +12646,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>4.54989</v>
+        <v>4.51303</v>
       </c>
       <c r="C115" t="n">
-        <v>2.7211</v>
+        <v>3.07995</v>
       </c>
       <c r="D115" t="n">
-        <v>2.57004</v>
+        <v>2.30738</v>
       </c>
     </row>
     <row r="116">
@@ -12660,13 +12660,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>4.64933</v>
+        <v>4.60473</v>
       </c>
       <c r="C116" t="n">
-        <v>2.77369</v>
+        <v>3.16812</v>
       </c>
       <c r="D116" t="n">
-        <v>2.58912</v>
+        <v>2.31786</v>
       </c>
     </row>
     <row r="117">
@@ -12674,13 +12674,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>4.72492</v>
+        <v>4.68542</v>
       </c>
       <c r="C117" t="n">
-        <v>2.82886</v>
+        <v>3.25419</v>
       </c>
       <c r="D117" t="n">
-        <v>2.61547</v>
+        <v>2.33998</v>
       </c>
     </row>
     <row r="118">
@@ -12688,13 +12688,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>4.8098</v>
+        <v>4.80472</v>
       </c>
       <c r="C118" t="n">
-        <v>2.92124</v>
+        <v>3.30181</v>
       </c>
       <c r="D118" t="n">
-        <v>2.64414</v>
+        <v>2.36012</v>
       </c>
     </row>
     <row r="119">
@@ -12702,13 +12702,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>4.91298</v>
+        <v>4.88637</v>
       </c>
       <c r="C119" t="n">
-        <v>2.98662</v>
+        <v>3.37095</v>
       </c>
       <c r="D119" t="n">
-        <v>2.65666</v>
+        <v>2.36897</v>
       </c>
     </row>
   </sheetData>

--- a/clang_libcpp/scattered erasure.xlsx
+++ b/clang_libcpp/scattered erasure.xlsx
@@ -7680,13 +7680,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.403522</v>
+        <v>0.404343</v>
       </c>
       <c r="C2" t="n">
-        <v>0.316352</v>
+        <v>0.320689</v>
       </c>
       <c r="D2" t="n">
-        <v>0.223596</v>
+        <v>0.230377</v>
       </c>
     </row>
     <row r="3">
@@ -7694,13 +7694,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.402875</v>
+        <v>0.40798</v>
       </c>
       <c r="C3" t="n">
-        <v>0.320527</v>
+        <v>0.324867</v>
       </c>
       <c r="D3" t="n">
-        <v>0.227436</v>
+        <v>0.23812</v>
       </c>
     </row>
     <row r="4">
@@ -7708,13 +7708,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.410851</v>
+        <v>0.415288</v>
       </c>
       <c r="C4" t="n">
-        <v>0.32531</v>
+        <v>0.3291</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2354</v>
+        <v>0.245491</v>
       </c>
     </row>
     <row r="5">
@@ -7722,13 +7722,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.414973</v>
+        <v>0.424429</v>
       </c>
       <c r="C5" t="n">
-        <v>0.328288</v>
+        <v>0.332151</v>
       </c>
       <c r="D5" t="n">
-        <v>0.238878</v>
+        <v>0.249421</v>
       </c>
     </row>
     <row r="6">
@@ -7736,13 +7736,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.420474</v>
+        <v>0.426365</v>
       </c>
       <c r="C6" t="n">
-        <v>0.331486</v>
+        <v>0.33448</v>
       </c>
       <c r="D6" t="n">
-        <v>0.245533</v>
+        <v>0.251649</v>
       </c>
     </row>
     <row r="7">
@@ -7750,13 +7750,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.426762</v>
+        <v>0.432962</v>
       </c>
       <c r="C7" t="n">
-        <v>0.330689</v>
+        <v>0.332332</v>
       </c>
       <c r="D7" t="n">
-        <v>0.247807</v>
+        <v>0.252217</v>
       </c>
     </row>
     <row r="8">
@@ -7764,13 +7764,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.401641</v>
+        <v>0.405724</v>
       </c>
       <c r="C8" t="n">
-        <v>0.332328</v>
+        <v>0.333735</v>
       </c>
       <c r="D8" t="n">
-        <v>0.257802</v>
+        <v>0.255663</v>
       </c>
     </row>
     <row r="9">
@@ -7778,13 +7778,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.409645</v>
+        <v>0.411926</v>
       </c>
       <c r="C9" t="n">
-        <v>0.335261</v>
+        <v>0.33665</v>
       </c>
       <c r="D9" t="n">
-        <v>0.260103</v>
+        <v>0.261615</v>
       </c>
     </row>
     <row r="10">
@@ -7792,13 +7792,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.417208</v>
+        <v>0.416844</v>
       </c>
       <c r="C10" t="n">
-        <v>0.337727</v>
+        <v>0.339664</v>
       </c>
       <c r="D10" t="n">
-        <v>0.263098</v>
+        <v>0.263079</v>
       </c>
     </row>
     <row r="11">
@@ -7806,13 +7806,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.420774</v>
+        <v>0.424282</v>
       </c>
       <c r="C11" t="n">
-        <v>0.338776</v>
+        <v>0.341297</v>
       </c>
       <c r="D11" t="n">
-        <v>0.268639</v>
+        <v>0.268279</v>
       </c>
     </row>
     <row r="12">
@@ -7820,13 +7820,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.428872</v>
+        <v>0.427469</v>
       </c>
       <c r="C12" t="n">
-        <v>0.341387</v>
+        <v>0.34351</v>
       </c>
       <c r="D12" t="n">
-        <v>0.269286</v>
+        <v>0.273024</v>
       </c>
     </row>
     <row r="13">
@@ -7834,13 +7834,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.429724</v>
+        <v>0.434324</v>
       </c>
       <c r="C13" t="n">
-        <v>0.343965</v>
+        <v>0.345573</v>
       </c>
       <c r="D13" t="n">
-        <v>0.27497</v>
+        <v>0.274662</v>
       </c>
     </row>
     <row r="14">
@@ -7848,13 +7848,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.437034</v>
+        <v>0.437094</v>
       </c>
       <c r="C14" t="n">
-        <v>0.347174</v>
+        <v>0.348346</v>
       </c>
       <c r="D14" t="n">
-        <v>0.281166</v>
+        <v>0.280836</v>
       </c>
     </row>
     <row r="15">
@@ -7862,13 +7862,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.442343</v>
+        <v>0.44322</v>
       </c>
       <c r="C15" t="n">
-        <v>0.349704</v>
+        <v>0.351066</v>
       </c>
       <c r="D15" t="n">
-        <v>0.284619</v>
+        <v>0.285217</v>
       </c>
     </row>
     <row r="16">
@@ -7876,13 +7876,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.448239</v>
+        <v>0.449294</v>
       </c>
       <c r="C16" t="n">
-        <v>0.352799</v>
+        <v>0.35315</v>
       </c>
       <c r="D16" t="n">
-        <v>0.290601</v>
+        <v>0.290666</v>
       </c>
     </row>
     <row r="17">
@@ -7890,13 +7890,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.455385</v>
+        <v>0.455278</v>
       </c>
       <c r="C17" t="n">
-        <v>0.354443</v>
+        <v>0.355092</v>
       </c>
       <c r="D17" t="n">
-        <v>0.295261</v>
+        <v>0.29558</v>
       </c>
     </row>
     <row r="18">
@@ -7904,13 +7904,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.461322</v>
+        <v>0.460713</v>
       </c>
       <c r="C18" t="n">
-        <v>0.358288</v>
+        <v>0.359181</v>
       </c>
       <c r="D18" t="n">
-        <v>0.298566</v>
+        <v>0.298976</v>
       </c>
     </row>
     <row r="19">
@@ -7918,13 +7918,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.464838</v>
+        <v>0.465713</v>
       </c>
       <c r="C19" t="n">
-        <v>0.360952</v>
+        <v>0.362886</v>
       </c>
       <c r="D19" t="n">
-        <v>0.302888</v>
+        <v>0.304271</v>
       </c>
     </row>
     <row r="20">
@@ -7932,13 +7932,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.474079</v>
+        <v>0.475095</v>
       </c>
       <c r="C20" t="n">
-        <v>0.36447</v>
+        <v>0.366273</v>
       </c>
       <c r="D20" t="n">
-        <v>0.30778</v>
+        <v>0.308813</v>
       </c>
     </row>
     <row r="21">
@@ -7946,13 +7946,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.477961</v>
+        <v>0.479529</v>
       </c>
       <c r="C21" t="n">
-        <v>0.358306</v>
+        <v>0.359241</v>
       </c>
       <c r="D21" t="n">
-        <v>0.307005</v>
+        <v>0.308162</v>
       </c>
     </row>
     <row r="22">
@@ -7960,13 +7960,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.458497</v>
+        <v>0.460545</v>
       </c>
       <c r="C22" t="n">
-        <v>0.359688</v>
+        <v>0.360965</v>
       </c>
       <c r="D22" t="n">
-        <v>0.309862</v>
+        <v>0.310792</v>
       </c>
     </row>
     <row r="23">
@@ -7974,13 +7974,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.462256</v>
+        <v>0.465152</v>
       </c>
       <c r="C23" t="n">
-        <v>0.360766</v>
+        <v>0.362332</v>
       </c>
       <c r="D23" t="n">
-        <v>0.31329</v>
+        <v>0.313403</v>
       </c>
     </row>
     <row r="24">
@@ -7988,13 +7988,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.466556</v>
+        <v>0.467324</v>
       </c>
       <c r="C24" t="n">
-        <v>0.362961</v>
+        <v>0.363277</v>
       </c>
       <c r="D24" t="n">
-        <v>0.316788</v>
+        <v>0.31743</v>
       </c>
     </row>
     <row r="25">
@@ -8002,13 +8002,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.472298</v>
+        <v>0.473979</v>
       </c>
       <c r="C25" t="n">
-        <v>0.36507</v>
+        <v>0.365691</v>
       </c>
       <c r="D25" t="n">
-        <v>0.319867</v>
+        <v>0.321363</v>
       </c>
     </row>
     <row r="26">
@@ -8016,13 +8016,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.475941</v>
+        <v>0.476364</v>
       </c>
       <c r="C26" t="n">
-        <v>0.366095</v>
+        <v>0.366497</v>
       </c>
       <c r="D26" t="n">
-        <v>0.322453</v>
+        <v>0.32466</v>
       </c>
     </row>
     <row r="27">
@@ -8030,13 +8030,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.480486</v>
+        <v>0.480837</v>
       </c>
       <c r="C27" t="n">
-        <v>0.368518</v>
+        <v>0.369164</v>
       </c>
       <c r="D27" t="n">
-        <v>0.325672</v>
+        <v>0.327099</v>
       </c>
     </row>
     <row r="28">
@@ -8044,13 +8044,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.484407</v>
+        <v>0.485699</v>
       </c>
       <c r="C28" t="n">
-        <v>0.371965</v>
+        <v>0.372089</v>
       </c>
       <c r="D28" t="n">
-        <v>0.328929</v>
+        <v>0.329464</v>
       </c>
     </row>
     <row r="29">
@@ -8058,13 +8058,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.489513</v>
+        <v>0.488744</v>
       </c>
       <c r="C29" t="n">
-        <v>0.373657</v>
+        <v>0.37406</v>
       </c>
       <c r="D29" t="n">
-        <v>0.331387</v>
+        <v>0.332537</v>
       </c>
     </row>
     <row r="30">
@@ -8072,13 +8072,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.49274</v>
+        <v>0.493453</v>
       </c>
       <c r="C30" t="n">
-        <v>0.376477</v>
+        <v>0.376587</v>
       </c>
       <c r="D30" t="n">
-        <v>0.333888</v>
+        <v>0.334058</v>
       </c>
     </row>
     <row r="31">
@@ -8086,13 +8086,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.497133</v>
+        <v>0.498321</v>
       </c>
       <c r="C31" t="n">
-        <v>0.377808</v>
+        <v>0.377732</v>
       </c>
       <c r="D31" t="n">
-        <v>0.337388</v>
+        <v>0.339025</v>
       </c>
     </row>
     <row r="32">
@@ -8100,13 +8100,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.501617</v>
+        <v>0.502691</v>
       </c>
       <c r="C32" t="n">
-        <v>0.380456</v>
+        <v>0.381272</v>
       </c>
       <c r="D32" t="n">
-        <v>0.340332</v>
+        <v>0.341534</v>
       </c>
     </row>
     <row r="33">
@@ -8114,13 +8114,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.507003</v>
+        <v>0.5079090000000001</v>
       </c>
       <c r="C33" t="n">
-        <v>0.382815</v>
+        <v>0.383531</v>
       </c>
       <c r="D33" t="n">
-        <v>0.343553</v>
+        <v>0.344271</v>
       </c>
     </row>
     <row r="34">
@@ -8128,13 +8128,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.512857</v>
+        <v>0.513495</v>
       </c>
       <c r="C34" t="n">
-        <v>0.38642</v>
+        <v>0.386926</v>
       </c>
       <c r="D34" t="n">
-        <v>0.346551</v>
+        <v>0.347985</v>
       </c>
     </row>
     <row r="35">
@@ -8142,13 +8142,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.5177659999999999</v>
+        <v>0.518732</v>
       </c>
       <c r="C35" t="n">
-        <v>0.374118</v>
+        <v>0.373918</v>
       </c>
       <c r="D35" t="n">
-        <v>0.340392</v>
+        <v>0.339649</v>
       </c>
     </row>
     <row r="36">
@@ -8156,13 +8156,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.489702</v>
+        <v>0.490143</v>
       </c>
       <c r="C36" t="n">
-        <v>0.373909</v>
+        <v>0.374531</v>
       </c>
       <c r="D36" t="n">
-        <v>0.342272</v>
+        <v>0.341725</v>
       </c>
     </row>
     <row r="37">
@@ -8170,13 +8170,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.493472</v>
+        <v>0.49319</v>
       </c>
       <c r="C37" t="n">
-        <v>0.377336</v>
+        <v>0.376171</v>
       </c>
       <c r="D37" t="n">
-        <v>0.344365</v>
+        <v>0.34294</v>
       </c>
     </row>
     <row r="38">
@@ -8184,13 +8184,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.496761</v>
+        <v>0.496085</v>
       </c>
       <c r="C38" t="n">
-        <v>0.37759</v>
+        <v>0.377745</v>
       </c>
       <c r="D38" t="n">
-        <v>0.345992</v>
+        <v>0.345292</v>
       </c>
     </row>
     <row r="39">
@@ -8198,13 +8198,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.499431</v>
+        <v>0.49826</v>
       </c>
       <c r="C39" t="n">
-        <v>0.378573</v>
+        <v>0.378339</v>
       </c>
       <c r="D39" t="n">
-        <v>0.347337</v>
+        <v>0.348595</v>
       </c>
     </row>
     <row r="40">
@@ -8212,13 +8212,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.502188</v>
+        <v>0.501491</v>
       </c>
       <c r="C40" t="n">
-        <v>0.380785</v>
+        <v>0.380963</v>
       </c>
       <c r="D40" t="n">
-        <v>0.349522</v>
+        <v>0.350247</v>
       </c>
     </row>
     <row r="41">
@@ -8226,13 +8226,13 @@
         <v>66357</v>
       </c>
       <c r="B41" t="n">
-        <v>0.505255</v>
+        <v>0.5046580000000001</v>
       </c>
       <c r="C41" t="n">
-        <v>0.381841</v>
+        <v>0.382087</v>
       </c>
       <c r="D41" t="n">
-        <v>0.351178</v>
+        <v>0.351501</v>
       </c>
     </row>
     <row r="42">
@@ -8240,13 +8240,13 @@
         <v>69656</v>
       </c>
       <c r="B42" t="n">
-        <v>0.508784</v>
+        <v>0.507096</v>
       </c>
       <c r="C42" t="n">
-        <v>0.383893</v>
+        <v>0.3839</v>
       </c>
       <c r="D42" t="n">
-        <v>0.353391</v>
+        <v>0.352763</v>
       </c>
     </row>
     <row r="43">
@@ -8254,13 +8254,13 @@
         <v>73119</v>
       </c>
       <c r="B43" t="n">
-        <v>0.513885</v>
+        <v>0.513019</v>
       </c>
       <c r="C43" t="n">
-        <v>0.385567</v>
+        <v>0.384979</v>
       </c>
       <c r="D43" t="n">
-        <v>0.355444</v>
+        <v>0.355706</v>
       </c>
     </row>
     <row r="44">
@@ -8268,13 +8268,13 @@
         <v>76755</v>
       </c>
       <c r="B44" t="n">
-        <v>0.515552</v>
+        <v>0.51524</v>
       </c>
       <c r="C44" t="n">
-        <v>0.388063</v>
+        <v>0.387638</v>
       </c>
       <c r="D44" t="n">
-        <v>0.357422</v>
+        <v>0.357928</v>
       </c>
     </row>
     <row r="45">
@@ -8282,13 +8282,13 @@
         <v>80572</v>
       </c>
       <c r="B45" t="n">
-        <v>0.519408</v>
+        <v>0.519557</v>
       </c>
       <c r="C45" t="n">
-        <v>0.389987</v>
+        <v>0.39015</v>
       </c>
       <c r="D45" t="n">
-        <v>0.359044</v>
+        <v>0.359678</v>
       </c>
     </row>
     <row r="46">
@@ -8296,13 +8296,13 @@
         <v>84579</v>
       </c>
       <c r="B46" t="n">
-        <v>0.523599</v>
+        <v>0.522887</v>
       </c>
       <c r="C46" t="n">
-        <v>0.392269</v>
+        <v>0.391439</v>
       </c>
       <c r="D46" t="n">
-        <v>0.361562</v>
+        <v>0.361956</v>
       </c>
     </row>
     <row r="47">
@@ -8310,13 +8310,13 @@
         <v>88786</v>
       </c>
       <c r="B47" t="n">
-        <v>0.528156</v>
+        <v>0.528281</v>
       </c>
       <c r="C47" t="n">
-        <v>0.394413</v>
+        <v>0.394994</v>
       </c>
       <c r="D47" t="n">
-        <v>0.363784</v>
+        <v>0.363744</v>
       </c>
     </row>
     <row r="48">
@@ -8324,13 +8324,13 @@
         <v>93203</v>
       </c>
       <c r="B48" t="n">
-        <v>0.531755</v>
+        <v>0.531941</v>
       </c>
       <c r="C48" t="n">
-        <v>0.397452</v>
+        <v>0.397477</v>
       </c>
       <c r="D48" t="n">
-        <v>0.365645</v>
+        <v>0.365806</v>
       </c>
     </row>
     <row r="49">
@@ -8338,13 +8338,13 @@
         <v>97840</v>
       </c>
       <c r="B49" t="n">
-        <v>0.536291</v>
+        <v>0.53664</v>
       </c>
       <c r="C49" t="n">
-        <v>0.399984</v>
+        <v>0.403152</v>
       </c>
       <c r="D49" t="n">
-        <v>0.367902</v>
+        <v>0.367539</v>
       </c>
     </row>
     <row r="50">
@@ -8352,13 +8352,13 @@
         <v>102706</v>
       </c>
       <c r="B50" t="n">
-        <v>0.540671</v>
+        <v>0.541319</v>
       </c>
       <c r="C50" t="n">
-        <v>0.386236</v>
+        <v>0.38657</v>
       </c>
       <c r="D50" t="n">
-        <v>0.358012</v>
+        <v>0.358017</v>
       </c>
     </row>
     <row r="51">
@@ -8366,13 +8366,13 @@
         <v>107816</v>
       </c>
       <c r="B51" t="n">
-        <v>0.508931</v>
+        <v>0.509377</v>
       </c>
       <c r="C51" t="n">
-        <v>0.3884</v>
+        <v>0.387995</v>
       </c>
       <c r="D51" t="n">
-        <v>0.357986</v>
+        <v>0.357609</v>
       </c>
     </row>
     <row r="52">
@@ -8380,13 +8380,13 @@
         <v>113182</v>
       </c>
       <c r="B52" t="n">
-        <v>0.51129</v>
+        <v>0.511336</v>
       </c>
       <c r="C52" t="n">
-        <v>0.387049</v>
+        <v>0.387977</v>
       </c>
       <c r="D52" t="n">
-        <v>0.357942</v>
+        <v>0.359197</v>
       </c>
     </row>
     <row r="53">
@@ -8394,13 +8394,13 @@
         <v>118816</v>
       </c>
       <c r="B53" t="n">
-        <v>0.512946</v>
+        <v>0.513798</v>
       </c>
       <c r="C53" t="n">
-        <v>0.389961</v>
+        <v>0.396551</v>
       </c>
       <c r="D53" t="n">
-        <v>0.359819</v>
+        <v>0.359561</v>
       </c>
     </row>
     <row r="54">
@@ -8408,13 +8408,13 @@
         <v>124731</v>
       </c>
       <c r="B54" t="n">
-        <v>0.516551</v>
+        <v>0.518023</v>
       </c>
       <c r="C54" t="n">
-        <v>0.38956</v>
+        <v>0.397382</v>
       </c>
       <c r="D54" t="n">
-        <v>0.36226</v>
+        <v>0.36769</v>
       </c>
     </row>
     <row r="55">
@@ -8422,13 +8422,13 @@
         <v>130941</v>
       </c>
       <c r="B55" t="n">
-        <v>0.518689</v>
+        <v>0.523963</v>
       </c>
       <c r="C55" t="n">
-        <v>0.392529</v>
+        <v>0.399834</v>
       </c>
       <c r="D55" t="n">
-        <v>0.362564</v>
+        <v>0.367171</v>
       </c>
     </row>
     <row r="56">
@@ -8436,13 +8436,13 @@
         <v>137461</v>
       </c>
       <c r="B56" t="n">
-        <v>0.521061</v>
+        <v>0.527533</v>
       </c>
       <c r="C56" t="n">
-        <v>0.399256</v>
+        <v>0.40483</v>
       </c>
       <c r="D56" t="n">
-        <v>0.365626</v>
+        <v>0.367235</v>
       </c>
     </row>
     <row r="57">
@@ -8450,13 +8450,13 @@
         <v>144307</v>
       </c>
       <c r="B57" t="n">
-        <v>0.524898</v>
+        <v>0.52695</v>
       </c>
       <c r="C57" t="n">
-        <v>0.403591</v>
+        <v>0.412788</v>
       </c>
       <c r="D57" t="n">
-        <v>0.365934</v>
+        <v>0.371302</v>
       </c>
     </row>
     <row r="58">
@@ -8464,13 +8464,13 @@
         <v>151495</v>
       </c>
       <c r="B58" t="n">
-        <v>0.528803</v>
+        <v>0.530966</v>
       </c>
       <c r="C58" t="n">
-        <v>0.404871</v>
+        <v>0.407953</v>
       </c>
       <c r="D58" t="n">
-        <v>0.369568</v>
+        <v>0.37219</v>
       </c>
     </row>
     <row r="59">
@@ -8478,13 +8478,13 @@
         <v>159042</v>
       </c>
       <c r="B59" t="n">
-        <v>0.534411</v>
+        <v>0.5362170000000001</v>
       </c>
       <c r="C59" t="n">
-        <v>0.412433</v>
+        <v>0.414089</v>
       </c>
       <c r="D59" t="n">
-        <v>0.371326</v>
+        <v>0.378868</v>
       </c>
     </row>
     <row r="60">
@@ -8492,13 +8492,13 @@
         <v>166965</v>
       </c>
       <c r="B60" t="n">
-        <v>0.536212</v>
+        <v>0.545157</v>
       </c>
       <c r="C60" t="n">
-        <v>0.419616</v>
+        <v>0.422549</v>
       </c>
       <c r="D60" t="n">
-        <v>0.372961</v>
+        <v>0.382033</v>
       </c>
     </row>
     <row r="61">
@@ -8506,13 +8506,13 @@
         <v>175284</v>
       </c>
       <c r="B61" t="n">
-        <v>0.54276</v>
+        <v>0.555195</v>
       </c>
       <c r="C61" t="n">
-        <v>0.422087</v>
+        <v>0.430867</v>
       </c>
       <c r="D61" t="n">
-        <v>0.377895</v>
+        <v>0.386767</v>
       </c>
     </row>
     <row r="62">
@@ -8520,13 +8520,13 @@
         <v>184019</v>
       </c>
       <c r="B62" t="n">
-        <v>0.546026</v>
+        <v>0.555331</v>
       </c>
       <c r="C62" t="n">
-        <v>0.427528</v>
+        <v>0.434628</v>
       </c>
       <c r="D62" t="n">
-        <v>0.379637</v>
+        <v>0.387232</v>
       </c>
     </row>
     <row r="63">
@@ -8534,13 +8534,13 @@
         <v>193190</v>
       </c>
       <c r="B63" t="n">
-        <v>0.552337</v>
+        <v>0.559793</v>
       </c>
       <c r="C63" t="n">
-        <v>0.435311</v>
+        <v>0.443907</v>
       </c>
       <c r="D63" t="n">
-        <v>0.382581</v>
+        <v>0.390531</v>
       </c>
     </row>
     <row r="64">
@@ -8548,13 +8548,13 @@
         <v>202820</v>
       </c>
       <c r="B64" t="n">
-        <v>0.558494</v>
+        <v>0.569205</v>
       </c>
       <c r="C64" t="n">
-        <v>0.490746</v>
+        <v>0.504136</v>
       </c>
       <c r="D64" t="n">
-        <v>0.415585</v>
+        <v>0.422559</v>
       </c>
     </row>
     <row r="65">
@@ -8562,13 +8562,13 @@
         <v>212931</v>
       </c>
       <c r="B65" t="n">
-        <v>0.5946090000000001</v>
+        <v>0.598393</v>
       </c>
       <c r="C65" t="n">
-        <v>0.513168</v>
+        <v>0.505853</v>
       </c>
       <c r="D65" t="n">
-        <v>0.425569</v>
+        <v>0.424979</v>
       </c>
     </row>
     <row r="66">
@@ -8576,13 +8576,13 @@
         <v>223547</v>
       </c>
       <c r="B66" t="n">
-        <v>0.61007</v>
+        <v>0.603555</v>
       </c>
       <c r="C66" t="n">
-        <v>0.525333</v>
+        <v>0.515374</v>
       </c>
       <c r="D66" t="n">
-        <v>0.435137</v>
+        <v>0.426915</v>
       </c>
     </row>
     <row r="67">
@@ -8590,13 +8590,13 @@
         <v>234692</v>
       </c>
       <c r="B67" t="n">
-        <v>0.626742</v>
+        <v>0.6094270000000001</v>
       </c>
       <c r="C67" t="n">
-        <v>0.549733</v>
+        <v>0.549265</v>
       </c>
       <c r="D67" t="n">
-        <v>0.448898</v>
+        <v>0.441125</v>
       </c>
     </row>
     <row r="68">
@@ -8604,13 +8604,13 @@
         <v>246395</v>
       </c>
       <c r="B68" t="n">
-        <v>0.644228</v>
+        <v>0.6297779999999999</v>
       </c>
       <c r="C68" t="n">
-        <v>0.569001</v>
+        <v>0.570178</v>
       </c>
       <c r="D68" t="n">
-        <v>0.459066</v>
+        <v>0.460326</v>
       </c>
     </row>
     <row r="69">
@@ -8618,13 +8618,13 @@
         <v>258683</v>
       </c>
       <c r="B69" t="n">
-        <v>0.654547</v>
+        <v>0.661044</v>
       </c>
       <c r="C69" t="n">
-        <v>0.587016</v>
+        <v>0.596062</v>
       </c>
       <c r="D69" t="n">
-        <v>0.476285</v>
+        <v>0.467139</v>
       </c>
     </row>
     <row r="70">
@@ -8632,13 +8632,13 @@
         <v>271585</v>
       </c>
       <c r="B70" t="n">
-        <v>0.690611</v>
+        <v>0.676987</v>
       </c>
       <c r="C70" t="n">
-        <v>0.613411</v>
+        <v>0.606948</v>
       </c>
       <c r="D70" t="n">
-        <v>0.503596</v>
+        <v>0.49419</v>
       </c>
     </row>
     <row r="71">
@@ -8646,13 +8646,13 @@
         <v>285132</v>
       </c>
       <c r="B71" t="n">
-        <v>0.703858</v>
+        <v>0.697736</v>
       </c>
       <c r="C71" t="n">
-        <v>0.63212</v>
+        <v>0.639836</v>
       </c>
       <c r="D71" t="n">
-        <v>0.503165</v>
+        <v>0.513538</v>
       </c>
     </row>
     <row r="72">
@@ -8660,13 +8660,13 @@
         <v>299354</v>
       </c>
       <c r="B72" t="n">
-        <v>0.722868</v>
+        <v>0.7146940000000001</v>
       </c>
       <c r="C72" t="n">
-        <v>0.65629</v>
+        <v>0.6615839999999999</v>
       </c>
       <c r="D72" t="n">
-        <v>0.5292790000000001</v>
+        <v>0.524989</v>
       </c>
     </row>
     <row r="73">
@@ -8674,13 +8674,13 @@
         <v>314289</v>
       </c>
       <c r="B73" t="n">
-        <v>0.760695</v>
+        <v>0.767239</v>
       </c>
       <c r="C73" t="n">
-        <v>0.686819</v>
+        <v>0.694252</v>
       </c>
       <c r="D73" t="n">
-        <v>0.560676</v>
+        <v>0.562455</v>
       </c>
     </row>
     <row r="74">
@@ -8688,13 +8688,13 @@
         <v>329969</v>
       </c>
       <c r="B74" t="n">
-        <v>0.787049</v>
+        <v>0.792729</v>
       </c>
       <c r="C74" t="n">
-        <v>0.708137</v>
+        <v>0.709199</v>
       </c>
       <c r="D74" t="n">
-        <v>0.580156</v>
+        <v>0.5823700000000001</v>
       </c>
     </row>
     <row r="75">
@@ -8702,13 +8702,13 @@
         <v>346432</v>
       </c>
       <c r="B75" t="n">
-        <v>0.834794</v>
+        <v>0.837118</v>
       </c>
       <c r="C75" t="n">
-        <v>0.738602</v>
+        <v>0.745599</v>
       </c>
       <c r="D75" t="n">
-        <v>0.619509</v>
+        <v>0.589341</v>
       </c>
     </row>
     <row r="76">
@@ -8716,13 +8716,13 @@
         <v>363719</v>
       </c>
       <c r="B76" t="n">
-        <v>0.878939</v>
+        <v>0.843082</v>
       </c>
       <c r="C76" t="n">
-        <v>0.764441</v>
+        <v>0.754557</v>
       </c>
       <c r="D76" t="n">
-        <v>0.651953</v>
+        <v>0.62585</v>
       </c>
     </row>
     <row r="77">
@@ -8730,13 +8730,13 @@
         <v>381870</v>
       </c>
       <c r="B77" t="n">
-        <v>0.92979</v>
+        <v>0.897166</v>
       </c>
       <c r="C77" t="n">
-        <v>0.781786</v>
+        <v>0.781324</v>
       </c>
       <c r="D77" t="n">
-        <v>0.659436</v>
+        <v>0.657421</v>
       </c>
     </row>
     <row r="78">
@@ -8744,13 +8744,13 @@
         <v>400928</v>
       </c>
       <c r="B78" t="n">
-        <v>0.946747</v>
+        <v>0.944303</v>
       </c>
       <c r="C78" t="n">
-        <v>0.96262</v>
+        <v>0.962242</v>
       </c>
       <c r="D78" t="n">
-        <v>0.8908430000000001</v>
+        <v>0.898868</v>
       </c>
     </row>
     <row r="79">
@@ -8758,13 +8758,13 @@
         <v>420937</v>
       </c>
       <c r="B79" t="n">
-        <v>1.22486</v>
+        <v>1.22296</v>
       </c>
       <c r="C79" t="n">
-        <v>0.976071</v>
+        <v>0.98437</v>
       </c>
       <c r="D79" t="n">
-        <v>0.921887</v>
+        <v>0.935379</v>
       </c>
     </row>
     <row r="80">
@@ -8772,13 +8772,13 @@
         <v>441947</v>
       </c>
       <c r="B80" t="n">
-        <v>1.27155</v>
+        <v>1.2723</v>
       </c>
       <c r="C80" t="n">
-        <v>0.996406</v>
+        <v>1.00825</v>
       </c>
       <c r="D80" t="n">
-        <v>0.962207</v>
+        <v>0.968257</v>
       </c>
     </row>
     <row r="81">
@@ -8786,13 +8786,13 @@
         <v>464005</v>
       </c>
       <c r="B81" t="n">
-        <v>1.32736</v>
+        <v>1.31053</v>
       </c>
       <c r="C81" t="n">
-        <v>1.01812</v>
+        <v>1.02276</v>
       </c>
       <c r="D81" t="n">
-        <v>1.00164</v>
+        <v>1.01017</v>
       </c>
     </row>
     <row r="82">
@@ -8800,13 +8800,13 @@
         <v>487165</v>
       </c>
       <c r="B82" t="n">
-        <v>1.3802</v>
+        <v>1.36813</v>
       </c>
       <c r="C82" t="n">
-        <v>1.03545</v>
+        <v>1.04887</v>
       </c>
       <c r="D82" t="n">
-        <v>1.04434</v>
+        <v>1.05629</v>
       </c>
     </row>
     <row r="83">
@@ -8814,13 +8814,13 @@
         <v>511485</v>
       </c>
       <c r="B83" t="n">
-        <v>1.42917</v>
+        <v>1.4198</v>
       </c>
       <c r="C83" t="n">
-        <v>1.05543</v>
+        <v>1.06308</v>
       </c>
       <c r="D83" t="n">
-        <v>1.0755</v>
+        <v>1.09054</v>
       </c>
     </row>
     <row r="84">
@@ -8828,13 +8828,13 @@
         <v>537019</v>
       </c>
       <c r="B84" t="n">
-        <v>1.47585</v>
+        <v>1.46736</v>
       </c>
       <c r="C84" t="n">
-        <v>1.07405</v>
+        <v>1.08091</v>
       </c>
       <c r="D84" t="n">
-        <v>1.11048</v>
+        <v>1.13357</v>
       </c>
     </row>
     <row r="85">
@@ -8842,13 +8842,13 @@
         <v>563827</v>
       </c>
       <c r="B85" t="n">
-        <v>1.52073</v>
+        <v>1.52395</v>
       </c>
       <c r="C85" t="n">
-        <v>1.09839</v>
+        <v>1.10308</v>
       </c>
       <c r="D85" t="n">
-        <v>1.14728</v>
+        <v>1.16961</v>
       </c>
     </row>
     <row r="86">
@@ -8856,13 +8856,13 @@
         <v>591977</v>
       </c>
       <c r="B86" t="n">
-        <v>1.57233</v>
+        <v>1.56891</v>
       </c>
       <c r="C86" t="n">
-        <v>1.11184</v>
+        <v>1.12114</v>
       </c>
       <c r="D86" t="n">
-        <v>1.18625</v>
+        <v>1.20959</v>
       </c>
     </row>
     <row r="87">
@@ -8870,13 +8870,13 @@
         <v>621532</v>
       </c>
       <c r="B87" t="n">
-        <v>1.61783</v>
+        <v>1.62048</v>
       </c>
       <c r="C87" t="n">
-        <v>1.13001</v>
+        <v>1.13888</v>
       </c>
       <c r="D87" t="n">
-        <v>1.22222</v>
+        <v>1.24918</v>
       </c>
     </row>
     <row r="88">
@@ -8884,13 +8884,13 @@
         <v>652567</v>
       </c>
       <c r="B88" t="n">
-        <v>1.6605</v>
+        <v>1.66074</v>
       </c>
       <c r="C88" t="n">
-        <v>1.15089</v>
+        <v>1.15745</v>
       </c>
       <c r="D88" t="n">
-        <v>1.26092</v>
+        <v>1.28134</v>
       </c>
     </row>
     <row r="89">
@@ -8898,13 +8898,13 @@
         <v>685151</v>
       </c>
       <c r="B89" t="n">
-        <v>1.70694</v>
+        <v>1.70682</v>
       </c>
       <c r="C89" t="n">
-        <v>1.16853</v>
+        <v>1.17095</v>
       </c>
       <c r="D89" t="n">
-        <v>1.29486</v>
+        <v>1.31526</v>
       </c>
     </row>
     <row r="90">
@@ -8912,13 +8912,13 @@
         <v>719359</v>
       </c>
       <c r="B90" t="n">
-        <v>1.75027</v>
+        <v>1.74843</v>
       </c>
       <c r="C90" t="n">
-        <v>1.18757</v>
+        <v>1.18827</v>
       </c>
       <c r="D90" t="n">
-        <v>1.32435</v>
+        <v>1.34871</v>
       </c>
     </row>
     <row r="91">
@@ -8926,13 +8926,13 @@
         <v>755280</v>
       </c>
       <c r="B91" t="n">
-        <v>1.79538</v>
+        <v>1.79151</v>
       </c>
       <c r="C91" t="n">
-        <v>1.20621</v>
+        <v>1.20789</v>
       </c>
       <c r="D91" t="n">
-        <v>1.35619</v>
+        <v>1.37715</v>
       </c>
     </row>
     <row r="92">
@@ -8940,13 +8940,13 @@
         <v>792997</v>
       </c>
       <c r="B92" t="n">
-        <v>1.83413</v>
+        <v>1.83596</v>
       </c>
       <c r="C92" t="n">
-        <v>1.30414</v>
+        <v>1.30677</v>
       </c>
       <c r="D92" t="n">
-        <v>1.53664</v>
+        <v>1.56321</v>
       </c>
     </row>
     <row r="93">
@@ -8954,13 +8954,13 @@
         <v>832595</v>
       </c>
       <c r="B93" t="n">
-        <v>2.04971</v>
+        <v>2.05617</v>
       </c>
       <c r="C93" t="n">
-        <v>1.30829</v>
+        <v>1.31592</v>
       </c>
       <c r="D93" t="n">
-        <v>1.53277</v>
+        <v>1.55714</v>
       </c>
     </row>
     <row r="94">
@@ -8968,13 +8968,13 @@
         <v>874177</v>
       </c>
       <c r="B94" t="n">
-        <v>2.05638</v>
+        <v>2.06084</v>
       </c>
       <c r="C94" t="n">
-        <v>1.32256</v>
+        <v>1.31576</v>
       </c>
       <c r="D94" t="n">
-        <v>1.56059</v>
+        <v>1.58938</v>
       </c>
     </row>
     <row r="95">
@@ -8982,13 +8982,13 @@
         <v>917832</v>
       </c>
       <c r="B95" t="n">
-        <v>2.10627</v>
+        <v>2.11189</v>
       </c>
       <c r="C95" t="n">
-        <v>1.31751</v>
+        <v>1.33962</v>
       </c>
       <c r="D95" t="n">
-        <v>1.59546</v>
+        <v>1.62996</v>
       </c>
     </row>
     <row r="96">
@@ -8996,13 +8996,13 @@
         <v>963677</v>
       </c>
       <c r="B96" t="n">
-        <v>2.13423</v>
+        <v>2.14407</v>
       </c>
       <c r="C96" t="n">
-        <v>1.34086</v>
+        <v>1.34942</v>
       </c>
       <c r="D96" t="n">
-        <v>1.62239</v>
+        <v>1.6485</v>
       </c>
     </row>
     <row r="97">
@@ -9010,13 +9010,13 @@
         <v>1011813</v>
       </c>
       <c r="B97" t="n">
-        <v>2.16214</v>
+        <v>2.16664</v>
       </c>
       <c r="C97" t="n">
-        <v>1.34896</v>
+        <v>1.35794</v>
       </c>
       <c r="D97" t="n">
-        <v>1.63286</v>
+        <v>1.66395</v>
       </c>
     </row>
     <row r="98">
@@ -9024,13 +9024,13 @@
         <v>1062351</v>
       </c>
       <c r="B98" t="n">
-        <v>2.17385</v>
+        <v>2.18894</v>
       </c>
       <c r="C98" t="n">
-        <v>1.35372</v>
+        <v>1.36616</v>
       </c>
       <c r="D98" t="n">
-        <v>1.64564</v>
+        <v>1.6637</v>
       </c>
     </row>
     <row r="99">
@@ -9038,13 +9038,13 @@
         <v>1115422</v>
       </c>
       <c r="B99" t="n">
-        <v>2.20151</v>
+        <v>2.193</v>
       </c>
       <c r="C99" t="n">
-        <v>1.37241</v>
+        <v>1.37195</v>
       </c>
       <c r="D99" t="n">
-        <v>1.67078</v>
+        <v>1.70354</v>
       </c>
     </row>
     <row r="100">
@@ -9052,13 +9052,13 @@
         <v>1171143</v>
       </c>
       <c r="B100" t="n">
-        <v>2.23442</v>
+        <v>2.24239</v>
       </c>
       <c r="C100" t="n">
-        <v>1.38135</v>
+        <v>1.39082</v>
       </c>
       <c r="D100" t="n">
-        <v>1.67469</v>
+        <v>1.72168</v>
       </c>
     </row>
     <row r="101">
@@ -9066,13 +9066,13 @@
         <v>1229634</v>
       </c>
       <c r="B101" t="n">
-        <v>2.24242</v>
+        <v>2.27219</v>
       </c>
       <c r="C101" t="n">
-        <v>1.38569</v>
+        <v>1.40092</v>
       </c>
       <c r="D101" t="n">
-        <v>1.69256</v>
+        <v>1.737</v>
       </c>
     </row>
     <row r="102">
@@ -9080,13 +9080,13 @@
         <v>1291062</v>
       </c>
       <c r="B102" t="n">
-        <v>2.27399</v>
+        <v>2.29362</v>
       </c>
       <c r="C102" t="n">
-        <v>1.40061</v>
+        <v>1.41183</v>
       </c>
       <c r="D102" t="n">
-        <v>1.71017</v>
+        <v>1.74662</v>
       </c>
     </row>
     <row r="103">
@@ -9094,13 +9094,13 @@
         <v>1355554</v>
       </c>
       <c r="B103" t="n">
-        <v>2.29554</v>
+        <v>2.31969</v>
       </c>
       <c r="C103" t="n">
-        <v>1.41322</v>
+        <v>1.42315</v>
       </c>
       <c r="D103" t="n">
-        <v>1.73086</v>
+        <v>1.75325</v>
       </c>
     </row>
     <row r="104">
@@ -9108,13 +9108,13 @@
         <v>1423274</v>
       </c>
       <c r="B104" t="n">
-        <v>2.32962</v>
+        <v>2.33046</v>
       </c>
       <c r="C104" t="n">
-        <v>1.42532</v>
+        <v>1.42634</v>
       </c>
       <c r="D104" t="n">
-        <v>1.74671</v>
+        <v>1.76236</v>
       </c>
     </row>
     <row r="105">
@@ -9122,13 +9122,13 @@
         <v>1494380</v>
       </c>
       <c r="B105" t="n">
-        <v>2.35209</v>
+        <v>2.35646</v>
       </c>
       <c r="C105" t="n">
-        <v>1.43748</v>
+        <v>1.4398</v>
       </c>
       <c r="D105" t="n">
-        <v>1.76694</v>
+        <v>1.77937</v>
       </c>
     </row>
     <row r="106">
@@ -9136,13 +9136,13 @@
         <v>1569031</v>
       </c>
       <c r="B106" t="n">
-        <v>2.37205</v>
+        <v>2.37866</v>
       </c>
       <c r="C106" t="n">
-        <v>1.44671</v>
+        <v>1.45072</v>
       </c>
       <c r="D106" t="n">
-        <v>1.77767</v>
+        <v>1.7969</v>
       </c>
     </row>
     <row r="107">
@@ -9150,13 +9150,13 @@
         <v>1647417</v>
       </c>
       <c r="B107" t="n">
-        <v>2.46454</v>
+        <v>2.49017</v>
       </c>
       <c r="C107" t="n">
-        <v>1.46342</v>
+        <v>1.48002</v>
       </c>
       <c r="D107" t="n">
-        <v>1.85919</v>
+        <v>1.90517</v>
       </c>
     </row>
     <row r="108">
@@ -9164,13 +9164,13 @@
         <v>1729734</v>
       </c>
       <c r="B108" t="n">
-        <v>2.49891</v>
+        <v>2.50937</v>
       </c>
       <c r="C108" t="n">
-        <v>1.48309</v>
+        <v>1.48536</v>
       </c>
       <c r="D108" t="n">
-        <v>1.88171</v>
+        <v>1.90768</v>
       </c>
     </row>
     <row r="109">
@@ -9178,13 +9178,13 @@
         <v>1816153</v>
       </c>
       <c r="B109" t="n">
-        <v>2.5203</v>
+        <v>2.53279</v>
       </c>
       <c r="C109" t="n">
-        <v>1.49051</v>
+        <v>1.49647</v>
       </c>
       <c r="D109" t="n">
-        <v>1.88233</v>
+        <v>1.92732</v>
       </c>
     </row>
     <row r="110">
@@ -9192,13 +9192,13 @@
         <v>1906885</v>
       </c>
       <c r="B110" t="n">
-        <v>2.5282</v>
+        <v>2.53693</v>
       </c>
       <c r="C110" t="n">
-        <v>1.49658</v>
+        <v>1.50373</v>
       </c>
       <c r="D110" t="n">
-        <v>1.90182</v>
+        <v>1.92788</v>
       </c>
     </row>
     <row r="111">
@@ -9206,13 +9206,13 @@
         <v>2002164</v>
       </c>
       <c r="B111" t="n">
-        <v>2.55111</v>
+        <v>2.55447</v>
       </c>
       <c r="C111" t="n">
-        <v>1.50309</v>
+        <v>1.50648</v>
       </c>
       <c r="D111" t="n">
-        <v>1.91155</v>
+        <v>1.94263</v>
       </c>
     </row>
     <row r="112">
@@ -9220,13 +9220,13 @@
         <v>2102198</v>
       </c>
       <c r="B112" t="n">
-        <v>2.56523</v>
+        <v>2.57018</v>
       </c>
       <c r="C112" t="n">
-        <v>1.50943</v>
+        <v>1.51238</v>
       </c>
       <c r="D112" t="n">
-        <v>1.9183</v>
+        <v>1.93769</v>
       </c>
     </row>
     <row r="113">
@@ -9234,13 +9234,13 @@
         <v>2207233</v>
       </c>
       <c r="B113" t="n">
-        <v>2.56844</v>
+        <v>2.57271</v>
       </c>
       <c r="C113" t="n">
-        <v>1.50848</v>
+        <v>1.51823</v>
       </c>
       <c r="D113" t="n">
-        <v>1.92798</v>
+        <v>1.96473</v>
       </c>
     </row>
     <row r="114">
@@ -9248,13 +9248,13 @@
         <v>2317508</v>
       </c>
       <c r="B114" t="n">
-        <v>2.58259</v>
+        <v>2.59738</v>
       </c>
       <c r="C114" t="n">
-        <v>1.52126</v>
+        <v>1.52698</v>
       </c>
       <c r="D114" t="n">
-        <v>1.9366</v>
+        <v>1.96363</v>
       </c>
     </row>
     <row r="115">
@@ -9262,13 +9262,13 @@
         <v>2433290</v>
       </c>
       <c r="B115" t="n">
-        <v>2.60857</v>
+        <v>2.60933</v>
       </c>
       <c r="C115" t="n">
-        <v>1.53167</v>
+        <v>1.52902</v>
       </c>
       <c r="D115" t="n">
-        <v>1.95722</v>
+        <v>1.96237</v>
       </c>
     </row>
     <row r="116">
@@ -9276,13 +9276,13 @@
         <v>2554854</v>
       </c>
       <c r="B116" t="n">
-        <v>2.62429</v>
+        <v>2.62645</v>
       </c>
       <c r="C116" t="n">
-        <v>1.53804</v>
+        <v>1.54289</v>
       </c>
       <c r="D116" t="n">
-        <v>1.96072</v>
+        <v>1.98046</v>
       </c>
     </row>
     <row r="117">
@@ -9290,13 +9290,13 @@
         <v>2682511</v>
       </c>
       <c r="B117" t="n">
-        <v>2.63534</v>
+        <v>2.63833</v>
       </c>
       <c r="C117" t="n">
-        <v>1.54174</v>
+        <v>1.54725</v>
       </c>
       <c r="D117" t="n">
-        <v>1.95232</v>
+        <v>1.99406</v>
       </c>
     </row>
     <row r="118">
@@ -9304,13 +9304,13 @@
         <v>2816546</v>
       </c>
       <c r="B118" t="n">
-        <v>2.64507</v>
+        <v>2.658</v>
       </c>
       <c r="C118" t="n">
-        <v>1.54864</v>
+        <v>1.56016</v>
       </c>
       <c r="D118" t="n">
-        <v>1.97737</v>
+        <v>1.99858</v>
       </c>
     </row>
     <row r="119">
@@ -9318,13 +9318,13 @@
         <v>2957287</v>
       </c>
       <c r="B119" t="n">
-        <v>2.65733</v>
+        <v>2.67285</v>
       </c>
       <c r="C119" t="n">
-        <v>1.5593</v>
+        <v>1.56551</v>
       </c>
       <c r="D119" t="n">
-        <v>1.97619</v>
+        <v>2.0035</v>
       </c>
     </row>
   </sheetData>
@@ -9372,13 +9372,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.568698</v>
+        <v>0.559949</v>
       </c>
       <c r="C2" t="n">
-        <v>0.470372</v>
+        <v>0.467642</v>
       </c>
       <c r="D2" t="n">
-        <v>0.355872</v>
+        <v>0.356154</v>
       </c>
     </row>
     <row r="3">
@@ -9386,13 +9386,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.578452</v>
+        <v>0.570894</v>
       </c>
       <c r="C3" t="n">
-        <v>0.474356</v>
+        <v>0.468643</v>
       </c>
       <c r="D3" t="n">
-        <v>0.360225</v>
+        <v>0.357446</v>
       </c>
     </row>
     <row r="4">
@@ -9400,13 +9400,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.588174</v>
+        <v>0.579952</v>
       </c>
       <c r="C4" t="n">
-        <v>0.482266</v>
+        <v>0.473177</v>
       </c>
       <c r="D4" t="n">
-        <v>0.363703</v>
+        <v>0.360855</v>
       </c>
     </row>
     <row r="5">
@@ -9414,13 +9414,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.59676</v>
+        <v>0.589962</v>
       </c>
       <c r="C5" t="n">
-        <v>0.489765</v>
+        <v>0.481048</v>
       </c>
       <c r="D5" t="n">
-        <v>0.367952</v>
+        <v>0.362098</v>
       </c>
     </row>
     <row r="6">
@@ -9428,13 +9428,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.603668</v>
+        <v>0.594036</v>
       </c>
       <c r="C6" t="n">
-        <v>0.492464</v>
+        <v>0.481948</v>
       </c>
       <c r="D6" t="n">
-        <v>0.369702</v>
+        <v>0.368423</v>
       </c>
     </row>
     <row r="7">
@@ -9442,13 +9442,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.604894</v>
+        <v>0.596763</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5031949999999999</v>
+        <v>0.498841</v>
       </c>
       <c r="D7" t="n">
-        <v>0.375761</v>
+        <v>0.37588</v>
       </c>
     </row>
     <row r="8">
@@ -9456,13 +9456,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.6050759999999999</v>
+        <v>0.599791</v>
       </c>
       <c r="C8" t="n">
-        <v>0.506616</v>
+        <v>0.503275</v>
       </c>
       <c r="D8" t="n">
-        <v>0.378822</v>
+        <v>0.384287</v>
       </c>
     </row>
     <row r="9">
@@ -9470,13 +9470,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.609426</v>
+        <v>0.610066</v>
       </c>
       <c r="C9" t="n">
-        <v>0.509197</v>
+        <v>0.5061870000000001</v>
       </c>
       <c r="D9" t="n">
-        <v>0.383156</v>
+        <v>0.389005</v>
       </c>
     </row>
     <row r="10">
@@ -9484,13 +9484,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.621189</v>
+        <v>0.624911</v>
       </c>
       <c r="C10" t="n">
-        <v>0.517553</v>
+        <v>0.514861</v>
       </c>
       <c r="D10" t="n">
-        <v>0.387068</v>
+        <v>0.393626</v>
       </c>
     </row>
     <row r="11">
@@ -9498,13 +9498,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.629393</v>
+        <v>0.63408</v>
       </c>
       <c r="C11" t="n">
-        <v>0.515983</v>
+        <v>0.5155110000000001</v>
       </c>
       <c r="D11" t="n">
-        <v>0.387223</v>
+        <v>0.394788</v>
       </c>
     </row>
     <row r="12">
@@ -9512,13 +9512,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.627353</v>
+        <v>0.630165</v>
       </c>
       <c r="C12" t="n">
-        <v>0.522397</v>
+        <v>0.521379</v>
       </c>
       <c r="D12" t="n">
-        <v>0.393881</v>
+        <v>0.402083</v>
       </c>
     </row>
     <row r="13">
@@ -9526,13 +9526,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.638157</v>
+        <v>0.640078</v>
       </c>
       <c r="C13" t="n">
-        <v>0.524894</v>
+        <v>0.52313</v>
       </c>
       <c r="D13" t="n">
-        <v>0.398094</v>
+        <v>0.407974</v>
       </c>
     </row>
     <row r="14">
@@ -9540,13 +9540,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.64784</v>
+        <v>0.654792</v>
       </c>
       <c r="C14" t="n">
-        <v>0.524285</v>
+        <v>0.5229279999999999</v>
       </c>
       <c r="D14" t="n">
-        <v>0.407735</v>
+        <v>0.411996</v>
       </c>
     </row>
     <row r="15">
@@ -9554,13 +9554,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.664733</v>
+        <v>0.659685</v>
       </c>
       <c r="C15" t="n">
-        <v>0.535097</v>
+        <v>0.534204</v>
       </c>
       <c r="D15" t="n">
-        <v>0.40701</v>
+        <v>0.417983</v>
       </c>
     </row>
     <row r="16">
@@ -9568,13 +9568,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.663124</v>
+        <v>0.667709</v>
       </c>
       <c r="C16" t="n">
-        <v>0.539214</v>
+        <v>0.53814</v>
       </c>
       <c r="D16" t="n">
-        <v>0.413756</v>
+        <v>0.422467</v>
       </c>
     </row>
     <row r="17">
@@ -9582,13 +9582,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.676238</v>
+        <v>0.679755</v>
       </c>
       <c r="C17" t="n">
-        <v>0.53951</v>
+        <v>0.540157</v>
       </c>
       <c r="D17" t="n">
-        <v>0.415756</v>
+        <v>0.428872</v>
       </c>
     </row>
     <row r="18">
@@ -9596,13 +9596,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.678392</v>
+        <v>0.68352</v>
       </c>
       <c r="C18" t="n">
-        <v>0.547847</v>
+        <v>0.550602</v>
       </c>
       <c r="D18" t="n">
-        <v>0.420048</v>
+        <v>0.436254</v>
       </c>
     </row>
     <row r="19">
@@ -9610,13 +9610,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.685938</v>
+        <v>0.692674</v>
       </c>
       <c r="C19" t="n">
-        <v>0.54786</v>
+        <v>0.549063</v>
       </c>
       <c r="D19" t="n">
-        <v>0.422935</v>
+        <v>0.438538</v>
       </c>
     </row>
     <row r="20">
@@ -9624,13 +9624,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.69896</v>
+        <v>0.702911</v>
       </c>
       <c r="C20" t="n">
-        <v>0.556935</v>
+        <v>0.557402</v>
       </c>
       <c r="D20" t="n">
-        <v>0.430012</v>
+        <v>0.443922</v>
       </c>
     </row>
     <row r="21">
@@ -9638,13 +9638,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.703902</v>
+        <v>0.7082540000000001</v>
       </c>
       <c r="C21" t="n">
-        <v>0.56716</v>
+        <v>0.570257</v>
       </c>
       <c r="D21" t="n">
-        <v>0.436514</v>
+        <v>0.453823</v>
       </c>
     </row>
     <row r="22">
@@ -9652,13 +9652,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.70618</v>
+        <v>0.714181</v>
       </c>
       <c r="C22" t="n">
-        <v>0.569946</v>
+        <v>0.574667</v>
       </c>
       <c r="D22" t="n">
-        <v>0.439465</v>
+        <v>0.45604</v>
       </c>
     </row>
     <row r="23">
@@ -9666,13 +9666,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.72328</v>
+        <v>0.72824</v>
       </c>
       <c r="C23" t="n">
-        <v>0.572116</v>
+        <v>0.5737409999999999</v>
       </c>
       <c r="D23" t="n">
-        <v>0.444571</v>
+        <v>0.460884</v>
       </c>
     </row>
     <row r="24">
@@ -9680,13 +9680,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.727784</v>
+        <v>0.731479</v>
       </c>
       <c r="C24" t="n">
-        <v>0.5760729999999999</v>
+        <v>0.578672</v>
       </c>
       <c r="D24" t="n">
-        <v>0.445967</v>
+        <v>0.465108</v>
       </c>
     </row>
     <row r="25">
@@ -9694,13 +9694,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.739278</v>
+        <v>0.746005</v>
       </c>
       <c r="C25" t="n">
-        <v>0.587728</v>
+        <v>0.590083</v>
       </c>
       <c r="D25" t="n">
-        <v>0.450678</v>
+        <v>0.469405</v>
       </c>
     </row>
     <row r="26">
@@ -9708,13 +9708,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.7416469999999999</v>
+        <v>0.74518</v>
       </c>
       <c r="C26" t="n">
-        <v>0.5850379999999999</v>
+        <v>0.587211</v>
       </c>
       <c r="D26" t="n">
-        <v>0.455506</v>
+        <v>0.47527</v>
       </c>
     </row>
     <row r="27">
@@ -9722,13 +9722,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.74636</v>
+        <v>0.752103</v>
       </c>
       <c r="C27" t="n">
-        <v>0.593104</v>
+        <v>0.594396</v>
       </c>
       <c r="D27" t="n">
-        <v>0.45637</v>
+        <v>0.478921</v>
       </c>
     </row>
     <row r="28">
@@ -9736,13 +9736,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.753312</v>
+        <v>0.757702</v>
       </c>
       <c r="C28" t="n">
-        <v>0.591682</v>
+        <v>0.594293</v>
       </c>
       <c r="D28" t="n">
-        <v>0.459494</v>
+        <v>0.479607</v>
       </c>
     </row>
     <row r="29">
@@ -9750,13 +9750,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.760922</v>
+        <v>0.765562</v>
       </c>
       <c r="C29" t="n">
-        <v>0.6006320000000001</v>
+        <v>0.602231</v>
       </c>
       <c r="D29" t="n">
-        <v>0.465072</v>
+        <v>0.485265</v>
       </c>
     </row>
     <row r="30">
@@ -9764,13 +9764,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.7687079999999999</v>
+        <v>0.773784</v>
       </c>
       <c r="C30" t="n">
-        <v>0.605984</v>
+        <v>0.60809</v>
       </c>
       <c r="D30" t="n">
-        <v>0.466554</v>
+        <v>0.488999</v>
       </c>
     </row>
     <row r="31">
@@ -9778,13 +9778,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.777196</v>
+        <v>0.781954</v>
       </c>
       <c r="C31" t="n">
-        <v>0.60736</v>
+        <v>0.608028</v>
       </c>
       <c r="D31" t="n">
-        <v>0.470689</v>
+        <v>0.492609</v>
       </c>
     </row>
     <row r="32">
@@ -9792,13 +9792,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.780101</v>
+        <v>0.784757</v>
       </c>
       <c r="C32" t="n">
-        <v>0.612698</v>
+        <v>0.61396</v>
       </c>
       <c r="D32" t="n">
-        <v>0.473885</v>
+        <v>0.497302</v>
       </c>
     </row>
     <row r="33">
@@ -9806,13 +9806,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.788023</v>
+        <v>0.793934</v>
       </c>
       <c r="C33" t="n">
-        <v>0.617298</v>
+        <v>0.614273</v>
       </c>
       <c r="D33" t="n">
-        <v>0.475978</v>
+        <v>0.498996</v>
       </c>
     </row>
     <row r="34">
@@ -9820,13 +9820,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.795682</v>
+        <v>0.800404</v>
       </c>
       <c r="C34" t="n">
-        <v>0.616685</v>
+        <v>0.619209</v>
       </c>
       <c r="D34" t="n">
-        <v>0.476592</v>
+        <v>0.502429</v>
       </c>
     </row>
     <row r="35">
@@ -9834,13 +9834,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.798809</v>
+        <v>0.803671</v>
       </c>
       <c r="C35" t="n">
-        <v>0.601142</v>
+        <v>0.601418</v>
       </c>
       <c r="D35" t="n">
-        <v>0.477855</v>
+        <v>0.505772</v>
       </c>
     </row>
     <row r="36">
@@ -9848,13 +9848,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.796251</v>
+        <v>0.79662</v>
       </c>
       <c r="C36" t="n">
-        <v>0.60434</v>
+        <v>0.604287</v>
       </c>
       <c r="D36" t="n">
-        <v>0.48106</v>
+        <v>0.504268</v>
       </c>
     </row>
     <row r="37">
@@ -9862,13 +9862,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.80211</v>
+        <v>0.806633</v>
       </c>
       <c r="C37" t="n">
-        <v>0.605841</v>
+        <v>0.604382</v>
       </c>
       <c r="D37" t="n">
-        <v>0.483691</v>
+        <v>0.510347</v>
       </c>
     </row>
     <row r="38">
@@ -9876,13 +9876,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.803714</v>
+        <v>0.807135</v>
       </c>
       <c r="C38" t="n">
-        <v>0.607187</v>
+        <v>0.606232</v>
       </c>
       <c r="D38" t="n">
-        <v>0.48603</v>
+        <v>0.511812</v>
       </c>
     </row>
     <row r="39">
@@ -9890,13 +9890,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.809798</v>
+        <v>0.808454</v>
       </c>
       <c r="C39" t="n">
-        <v>0.615398</v>
+        <v>0.6096200000000001</v>
       </c>
       <c r="D39" t="n">
-        <v>0.487003</v>
+        <v>0.515895</v>
       </c>
     </row>
     <row r="40">
@@ -9904,13 +9904,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.815709</v>
+        <v>0.819491</v>
       </c>
       <c r="C40" t="n">
-        <v>0.616816</v>
+        <v>0.610884</v>
       </c>
       <c r="D40" t="n">
-        <v>0.490887</v>
+        <v>0.518741</v>
       </c>
     </row>
     <row r="41">
@@ -9918,13 +9918,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.823951</v>
+        <v>0.826603</v>
       </c>
       <c r="C41" t="n">
-        <v>0.617859</v>
+        <v>0.614387</v>
       </c>
       <c r="D41" t="n">
-        <v>0.49179</v>
+        <v>0.516687</v>
       </c>
     </row>
     <row r="42">
@@ -9932,13 +9932,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.823676</v>
+        <v>0.8256</v>
       </c>
       <c r="C42" t="n">
-        <v>0.620469</v>
+        <v>0.621043</v>
       </c>
       <c r="D42" t="n">
-        <v>0.494461</v>
+        <v>0.515541</v>
       </c>
     </row>
     <row r="43">
@@ -9946,13 +9946,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.830738</v>
+        <v>0.83072</v>
       </c>
       <c r="C43" t="n">
-        <v>0.623873</v>
+        <v>0.624775</v>
       </c>
       <c r="D43" t="n">
-        <v>0.495483</v>
+        <v>0.5231209999999999</v>
       </c>
     </row>
     <row r="44">
@@ -9960,13 +9960,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.831354</v>
+        <v>0.830915</v>
       </c>
       <c r="C44" t="n">
-        <v>0.6233070000000001</v>
+        <v>0.621459</v>
       </c>
       <c r="D44" t="n">
-        <v>0.49699</v>
+        <v>0.526984</v>
       </c>
     </row>
     <row r="45">
@@ -9974,13 +9974,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.837192</v>
+        <v>0.839405</v>
       </c>
       <c r="C45" t="n">
-        <v>0.630029</v>
+        <v>0.627759</v>
       </c>
       <c r="D45" t="n">
-        <v>0.497537</v>
+        <v>0.5283949999999999</v>
       </c>
     </row>
     <row r="46">
@@ -9988,13 +9988,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.841979</v>
+        <v>0.8448369999999999</v>
       </c>
       <c r="C46" t="n">
-        <v>0.62735</v>
+        <v>0.625947</v>
       </c>
       <c r="D46" t="n">
-        <v>0.49847</v>
+        <v>0.530287</v>
       </c>
     </row>
     <row r="47">
@@ -10002,13 +10002,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.850932</v>
+        <v>0.85336</v>
       </c>
       <c r="C47" t="n">
-        <v>0.632195</v>
+        <v>0.63103</v>
       </c>
       <c r="D47" t="n">
-        <v>0.502305</v>
+        <v>0.534004</v>
       </c>
     </row>
     <row r="48">
@@ -10016,13 +10016,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.853951</v>
+        <v>0.858504</v>
       </c>
       <c r="C48" t="n">
-        <v>0.636093</v>
+        <v>0.633011</v>
       </c>
       <c r="D48" t="n">
-        <v>0.502653</v>
+        <v>0.5351050000000001</v>
       </c>
     </row>
     <row r="49">
@@ -10030,13 +10030,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.858264</v>
+        <v>0.861012</v>
       </c>
       <c r="C49" t="n">
-        <v>0.636254</v>
+        <v>0.632935</v>
       </c>
       <c r="D49" t="n">
-        <v>0.504648</v>
+        <v>0.536639</v>
       </c>
     </row>
     <row r="50">
@@ -10044,13 +10044,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.865777</v>
+        <v>0.867683</v>
       </c>
       <c r="C50" t="n">
-        <v>0.632204</v>
+        <v>0.629242</v>
       </c>
       <c r="D50" t="n">
-        <v>0.505376</v>
+        <v>0.536164</v>
       </c>
     </row>
     <row r="51">
@@ -10058,13 +10058,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.843777</v>
+        <v>0.838971</v>
       </c>
       <c r="C51" t="n">
-        <v>0.629132</v>
+        <v>0.63145</v>
       </c>
       <c r="D51" t="n">
-        <v>0.505089</v>
+        <v>0.535428</v>
       </c>
     </row>
     <row r="52">
@@ -10072,13 +10072,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.846167</v>
+        <v>0.846846</v>
       </c>
       <c r="C52" t="n">
-        <v>0.634063</v>
+        <v>0.633394</v>
       </c>
       <c r="D52" t="n">
-        <v>0.50732</v>
+        <v>0.539606</v>
       </c>
     </row>
     <row r="53">
@@ -10086,13 +10086,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.851613</v>
+        <v>0.854065</v>
       </c>
       <c r="C53" t="n">
-        <v>0.639628</v>
+        <v>0.6381829999999999</v>
       </c>
       <c r="D53" t="n">
-        <v>0.508614</v>
+        <v>0.542416</v>
       </c>
     </row>
     <row r="54">
@@ -10100,13 +10100,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.856555</v>
+        <v>0.857578</v>
       </c>
       <c r="C54" t="n">
-        <v>0.643487</v>
+        <v>0.6429049999999999</v>
       </c>
       <c r="D54" t="n">
-        <v>0.510517</v>
+        <v>0.5442090000000001</v>
       </c>
     </row>
     <row r="55">
@@ -10114,13 +10114,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.860174</v>
+        <v>0.861639</v>
       </c>
       <c r="C55" t="n">
-        <v>0.649204</v>
+        <v>0.649651</v>
       </c>
       <c r="D55" t="n">
-        <v>0.511937</v>
+        <v>0.548392</v>
       </c>
     </row>
     <row r="56">
@@ -10128,13 +10128,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.8618440000000001</v>
+        <v>0.866136</v>
       </c>
       <c r="C56" t="n">
-        <v>0.648759</v>
+        <v>0.652233</v>
       </c>
       <c r="D56" t="n">
-        <v>0.512246</v>
+        <v>0.550373</v>
       </c>
     </row>
     <row r="57">
@@ -10142,13 +10142,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.865386</v>
+        <v>0.869628</v>
       </c>
       <c r="C57" t="n">
-        <v>0.6584140000000001</v>
+        <v>0.657908</v>
       </c>
       <c r="D57" t="n">
-        <v>0.513451</v>
+        <v>0.547726</v>
       </c>
     </row>
     <row r="58">
@@ -10156,13 +10156,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.87015</v>
+        <v>0.869931</v>
       </c>
       <c r="C58" t="n">
-        <v>0.664995</v>
+        <v>0.6619390000000001</v>
       </c>
       <c r="D58" t="n">
-        <v>0.514588</v>
+        <v>0.550876</v>
       </c>
     </row>
     <row r="59">
@@ -10170,13 +10170,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.873546</v>
+        <v>0.874711</v>
       </c>
       <c r="C59" t="n">
-        <v>0.667042</v>
+        <v>0.668222</v>
       </c>
       <c r="D59" t="n">
-        <v>0.514978</v>
+        <v>0.55121</v>
       </c>
     </row>
     <row r="60">
@@ -10184,13 +10184,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.879682</v>
+        <v>0.879504</v>
       </c>
       <c r="C60" t="n">
-        <v>0.669544</v>
+        <v>0.6676530000000001</v>
       </c>
       <c r="D60" t="n">
-        <v>0.517903</v>
+        <v>0.553357</v>
       </c>
     </row>
     <row r="61">
@@ -10198,13 +10198,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.881885</v>
+        <v>0.883582</v>
       </c>
       <c r="C61" t="n">
-        <v>0.67402</v>
+        <v>0.673984</v>
       </c>
       <c r="D61" t="n">
-        <v>0.519156</v>
+        <v>0.556179</v>
       </c>
     </row>
     <row r="62">
@@ -10212,13 +10212,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.890028</v>
+        <v>0.8922</v>
       </c>
       <c r="C62" t="n">
-        <v>0.68265</v>
+        <v>0.68385</v>
       </c>
       <c r="D62" t="n">
-        <v>0.522343</v>
+        <v>0.561827</v>
       </c>
     </row>
     <row r="63">
@@ -10226,13 +10226,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.893751</v>
+        <v>0.892642</v>
       </c>
       <c r="C63" t="n">
-        <v>0.696759</v>
+        <v>0.692223</v>
       </c>
       <c r="D63" t="n">
-        <v>0.5250320000000001</v>
+        <v>0.56033</v>
       </c>
     </row>
     <row r="64">
@@ -10240,13 +10240,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.903315</v>
+        <v>0.902787</v>
       </c>
       <c r="C64" t="n">
-        <v>0.7379599999999999</v>
+        <v>0.739154</v>
       </c>
       <c r="D64" t="n">
-        <v>0.552359</v>
+        <v>0.598147</v>
       </c>
     </row>
     <row r="65">
@@ -10254,13 +10254,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.929626</v>
+        <v>0.944153</v>
       </c>
       <c r="C65" t="n">
-        <v>0.759865</v>
+        <v>0.752333</v>
       </c>
       <c r="D65" t="n">
-        <v>0.568738</v>
+        <v>0.603895</v>
       </c>
     </row>
     <row r="66">
@@ -10268,13 +10268,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.959272</v>
+        <v>0.954561</v>
       </c>
       <c r="C66" t="n">
-        <v>0.774092</v>
+        <v>0.765912</v>
       </c>
       <c r="D66" t="n">
-        <v>0.570067</v>
+        <v>0.612304</v>
       </c>
     </row>
     <row r="67">
@@ -10282,13 +10282,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.964153</v>
+        <v>0.972137</v>
       </c>
       <c r="C67" t="n">
-        <v>0.790624</v>
+        <v>0.790886</v>
       </c>
       <c r="D67" t="n">
-        <v>0.574592</v>
+        <v>0.628477</v>
       </c>
     </row>
     <row r="68">
@@ -10296,13 +10296,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.980961</v>
+        <v>1.00523</v>
       </c>
       <c r="C68" t="n">
-        <v>0.813255</v>
+        <v>0.816288</v>
       </c>
       <c r="D68" t="n">
-        <v>0.595279</v>
+        <v>0.647574</v>
       </c>
     </row>
     <row r="69">
@@ -10310,13 +10310,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>1.01211</v>
+        <v>1.02541</v>
       </c>
       <c r="C69" t="n">
-        <v>0.84485</v>
+        <v>0.841439</v>
       </c>
       <c r="D69" t="n">
-        <v>0.609429</v>
+        <v>0.647604</v>
       </c>
     </row>
     <row r="70">
@@ -10324,13 +10324,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>1.03915</v>
+        <v>1.02865</v>
       </c>
       <c r="C70" t="n">
-        <v>0.857813</v>
+        <v>0.858908</v>
       </c>
       <c r="D70" t="n">
-        <v>0.613027</v>
+        <v>0.654056</v>
       </c>
     </row>
     <row r="71">
@@ -10338,13 +10338,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>1.05062</v>
+        <v>1.04855</v>
       </c>
       <c r="C71" t="n">
-        <v>0.886562</v>
+        <v>0.892011</v>
       </c>
       <c r="D71" t="n">
-        <v>0.629022</v>
+        <v>0.6745139999999999</v>
       </c>
     </row>
     <row r="72">
@@ -10352,13 +10352,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>1.07723</v>
+        <v>1.08838</v>
       </c>
       <c r="C72" t="n">
-        <v>0.902999</v>
+        <v>0.913485</v>
       </c>
       <c r="D72" t="n">
-        <v>0.639002</v>
+        <v>0.697805</v>
       </c>
     </row>
     <row r="73">
@@ -10366,13 +10366,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>1.11256</v>
+        <v>1.10997</v>
       </c>
       <c r="C73" t="n">
-        <v>0.939335</v>
+        <v>0.94174</v>
       </c>
       <c r="D73" t="n">
-        <v>0.669223</v>
+        <v>0.727026</v>
       </c>
     </row>
     <row r="74">
@@ -10380,13 +10380,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.15833</v>
+        <v>1.17648</v>
       </c>
       <c r="C74" t="n">
-        <v>0.9760799999999999</v>
+        <v>0.9900330000000001</v>
       </c>
       <c r="D74" t="n">
-        <v>0.6937489999999999</v>
+        <v>0.7512489999999999</v>
       </c>
     </row>
     <row r="75">
@@ -10394,13 +10394,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>1.19709</v>
+        <v>1.21448</v>
       </c>
       <c r="C75" t="n">
-        <v>1.0148</v>
+        <v>1.02048</v>
       </c>
       <c r="D75" t="n">
-        <v>0.723002</v>
+        <v>0.7821709999999999</v>
       </c>
     </row>
     <row r="76">
@@ -10408,13 +10408,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>1.25235</v>
+        <v>1.26694</v>
       </c>
       <c r="C76" t="n">
-        <v>1.07159</v>
+        <v>1.06268</v>
       </c>
       <c r="D76" t="n">
-        <v>0.757757</v>
+        <v>0.819466</v>
       </c>
     </row>
     <row r="77">
@@ -10422,13 +10422,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>1.3088</v>
+        <v>1.31201</v>
       </c>
       <c r="C77" t="n">
-        <v>1.10641</v>
+        <v>1.10145</v>
       </c>
       <c r="D77" t="n">
-        <v>0.807562</v>
+        <v>0.855096</v>
       </c>
     </row>
     <row r="78">
@@ -10436,13 +10436,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>1.40171</v>
+        <v>1.38999</v>
       </c>
       <c r="C78" t="n">
-        <v>1.31177</v>
+        <v>1.30232</v>
       </c>
       <c r="D78" t="n">
-        <v>0.935246</v>
+        <v>0.998601</v>
       </c>
     </row>
     <row r="79">
@@ -10450,13 +10450,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.57692</v>
+        <v>1.57932</v>
       </c>
       <c r="C79" t="n">
-        <v>1.34788</v>
+        <v>1.34495</v>
       </c>
       <c r="D79" t="n">
-        <v>0.985921</v>
+        <v>1.04441</v>
       </c>
     </row>
     <row r="80">
@@ -10464,13 +10464,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.66522</v>
+        <v>1.65868</v>
       </c>
       <c r="C80" t="n">
-        <v>1.38986</v>
+        <v>1.39045</v>
       </c>
       <c r="D80" t="n">
-        <v>1.04128</v>
+        <v>1.09306</v>
       </c>
     </row>
     <row r="81">
@@ -10478,13 +10478,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.74636</v>
+        <v>1.73397</v>
       </c>
       <c r="C81" t="n">
-        <v>1.43841</v>
+        <v>1.43095</v>
       </c>
       <c r="D81" t="n">
-        <v>1.09082</v>
+        <v>1.15253</v>
       </c>
     </row>
     <row r="82">
@@ -10492,13 +10492,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.81484</v>
+        <v>1.8221</v>
       </c>
       <c r="C82" t="n">
-        <v>1.47968</v>
+        <v>1.47286</v>
       </c>
       <c r="D82" t="n">
-        <v>1.13972</v>
+        <v>1.21395</v>
       </c>
     </row>
     <row r="83">
@@ -10506,13 +10506,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.91482</v>
+        <v>1.9145</v>
       </c>
       <c r="C83" t="n">
-        <v>1.52767</v>
+        <v>1.52706</v>
       </c>
       <c r="D83" t="n">
-        <v>1.18356</v>
+        <v>1.26504</v>
       </c>
     </row>
     <row r="84">
@@ -10520,13 +10520,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.98912</v>
+        <v>1.98829</v>
       </c>
       <c r="C84" t="n">
-        <v>1.5665</v>
+        <v>1.56579</v>
       </c>
       <c r="D84" t="n">
-        <v>1.23839</v>
+        <v>1.31346</v>
       </c>
     </row>
     <row r="85">
@@ -10534,13 +10534,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>2.08565</v>
+        <v>2.07246</v>
       </c>
       <c r="C85" t="n">
-        <v>1.609</v>
+        <v>1.61344</v>
       </c>
       <c r="D85" t="n">
-        <v>1.29741</v>
+        <v>1.3767</v>
       </c>
     </row>
     <row r="86">
@@ -10548,13 +10548,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>2.17022</v>
+        <v>2.16451</v>
       </c>
       <c r="C86" t="n">
-        <v>1.65633</v>
+        <v>1.65567</v>
       </c>
       <c r="D86" t="n">
-        <v>1.34838</v>
+        <v>1.42932</v>
       </c>
     </row>
     <row r="87">
@@ -10562,13 +10562,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>2.25994</v>
+        <v>2.25217</v>
       </c>
       <c r="C87" t="n">
-        <v>1.70209</v>
+        <v>1.69303</v>
       </c>
       <c r="D87" t="n">
-        <v>1.39734</v>
+        <v>1.49072</v>
       </c>
     </row>
     <row r="88">
@@ -10576,13 +10576,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>2.34576</v>
+        <v>2.34217</v>
       </c>
       <c r="C88" t="n">
-        <v>1.7446</v>
+        <v>1.73956</v>
       </c>
       <c r="D88" t="n">
-        <v>1.45011</v>
+        <v>1.54776</v>
       </c>
     </row>
     <row r="89">
@@ -10590,13 +10590,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>2.44862</v>
+        <v>2.43002</v>
       </c>
       <c r="C89" t="n">
-        <v>1.794</v>
+        <v>1.78423</v>
       </c>
       <c r="D89" t="n">
-        <v>1.50179</v>
+        <v>1.60183</v>
       </c>
     </row>
     <row r="90">
@@ -10604,13 +10604,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>2.53227</v>
+        <v>2.51121</v>
       </c>
       <c r="C90" t="n">
-        <v>1.83303</v>
+        <v>1.82343</v>
       </c>
       <c r="D90" t="n">
-        <v>1.55543</v>
+        <v>1.65674</v>
       </c>
     </row>
     <row r="91">
@@ -10618,13 +10618,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>2.61435</v>
+        <v>2.59254</v>
       </c>
       <c r="C91" t="n">
-        <v>1.87693</v>
+        <v>1.87249</v>
       </c>
       <c r="D91" t="n">
-        <v>1.6002</v>
+        <v>1.70846</v>
       </c>
     </row>
     <row r="92">
@@ -10632,13 +10632,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>2.71069</v>
+        <v>2.68933</v>
       </c>
       <c r="C92" t="n">
-        <v>2.01991</v>
+        <v>2.01557</v>
       </c>
       <c r="D92" t="n">
-        <v>1.69895</v>
+        <v>1.82101</v>
       </c>
     </row>
     <row r="93">
@@ -10646,13 +10646,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>2.8531</v>
+        <v>2.85035</v>
       </c>
       <c r="C93" t="n">
-        <v>2.05621</v>
+        <v>2.04889</v>
       </c>
       <c r="D93" t="n">
-        <v>1.73701</v>
+        <v>1.87809</v>
       </c>
     </row>
     <row r="94">
@@ -10660,13 +10660,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>2.92259</v>
+        <v>2.92393</v>
       </c>
       <c r="C94" t="n">
-        <v>2.07801</v>
+        <v>2.07821</v>
       </c>
       <c r="D94" t="n">
-        <v>1.78401</v>
+        <v>1.91439</v>
       </c>
     </row>
     <row r="95">
@@ -10674,13 +10674,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>3.01441</v>
+        <v>2.99312</v>
       </c>
       <c r="C95" t="n">
-        <v>2.11891</v>
+        <v>2.11427</v>
       </c>
       <c r="D95" t="n">
-        <v>1.82103</v>
+        <v>1.9659</v>
       </c>
     </row>
     <row r="96">
@@ -10688,13 +10688,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>3.09064</v>
+        <v>3.06372</v>
       </c>
       <c r="C96" t="n">
-        <v>2.14827</v>
+        <v>2.14773</v>
       </c>
       <c r="D96" t="n">
-        <v>1.86008</v>
+        <v>2.01173</v>
       </c>
     </row>
     <row r="97">
@@ -10702,13 +10702,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>3.13668</v>
+        <v>3.14826</v>
       </c>
       <c r="C97" t="n">
-        <v>2.17953</v>
+        <v>2.1837</v>
       </c>
       <c r="D97" t="n">
-        <v>1.89633</v>
+        <v>2.0497</v>
       </c>
     </row>
     <row r="98">
@@ -10716,13 +10716,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>3.21599</v>
+        <v>3.21238</v>
       </c>
       <c r="C98" t="n">
-        <v>2.21469</v>
+        <v>2.21319</v>
       </c>
       <c r="D98" t="n">
-        <v>1.93428</v>
+        <v>2.10205</v>
       </c>
     </row>
     <row r="99">
@@ -10730,13 +10730,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>3.27314</v>
+        <v>3.27713</v>
       </c>
       <c r="C99" t="n">
-        <v>2.24583</v>
+        <v>2.25093</v>
       </c>
       <c r="D99" t="n">
-        <v>1.96608</v>
+        <v>2.12679</v>
       </c>
     </row>
     <row r="100">
@@ -10744,13 +10744,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>3.34636</v>
+        <v>3.31731</v>
       </c>
       <c r="C100" t="n">
-        <v>2.28279</v>
+        <v>2.272</v>
       </c>
       <c r="D100" t="n">
-        <v>1.99251</v>
+        <v>2.16724</v>
       </c>
     </row>
     <row r="101">
@@ -10758,13 +10758,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>3.3939</v>
+        <v>3.39551</v>
       </c>
       <c r="C101" t="n">
-        <v>2.31611</v>
+        <v>2.30254</v>
       </c>
       <c r="D101" t="n">
-        <v>2.02942</v>
+        <v>2.19696</v>
       </c>
     </row>
     <row r="102">
@@ -10772,13 +10772,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>3.45186</v>
+        <v>3.46072</v>
       </c>
       <c r="C102" t="n">
-        <v>2.35376</v>
+        <v>2.34628</v>
       </c>
       <c r="D102" t="n">
-        <v>2.04934</v>
+        <v>2.25586</v>
       </c>
     </row>
     <row r="103">
@@ -10786,13 +10786,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>3.50996</v>
+        <v>3.51878</v>
       </c>
       <c r="C103" t="n">
-        <v>2.3871</v>
+        <v>2.37448</v>
       </c>
       <c r="D103" t="n">
-        <v>2.0866</v>
+        <v>2.29472</v>
       </c>
     </row>
     <row r="104">
@@ -10800,13 +10800,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>3.57456</v>
+        <v>3.56804</v>
       </c>
       <c r="C104" t="n">
-        <v>2.41434</v>
+        <v>2.40973</v>
       </c>
       <c r="D104" t="n">
-        <v>2.10237</v>
+        <v>2.29387</v>
       </c>
     </row>
     <row r="105">
@@ -10814,13 +10814,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>3.63368</v>
+        <v>3.62153</v>
       </c>
       <c r="C105" t="n">
-        <v>2.45383</v>
+        <v>2.44481</v>
       </c>
       <c r="D105" t="n">
-        <v>2.13022</v>
+        <v>2.32172</v>
       </c>
     </row>
     <row r="106">
@@ -10828,13 +10828,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>3.68564</v>
+        <v>3.67911</v>
       </c>
       <c r="C106" t="n">
-        <v>2.48516</v>
+        <v>2.47571</v>
       </c>
       <c r="D106" t="n">
-        <v>2.12869</v>
+        <v>2.35515</v>
       </c>
     </row>
     <row r="107">
@@ -10842,13 +10842,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>3.6825</v>
+        <v>3.67995</v>
       </c>
       <c r="C107" t="n">
-        <v>2.52011</v>
+        <v>2.49935</v>
       </c>
       <c r="D107" t="n">
-        <v>2.20802</v>
+        <v>2.40796</v>
       </c>
     </row>
     <row r="108">
@@ -10856,13 +10856,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>3.74447</v>
+        <v>3.72284</v>
       </c>
       <c r="C108" t="n">
-        <v>2.5305</v>
+        <v>2.51138</v>
       </c>
       <c r="D108" t="n">
-        <v>2.22716</v>
+        <v>2.43536</v>
       </c>
     </row>
     <row r="109">
@@ -10870,13 +10870,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>3.79228</v>
+        <v>3.74421</v>
       </c>
       <c r="C109" t="n">
-        <v>2.55946</v>
+        <v>2.54324</v>
       </c>
       <c r="D109" t="n">
-        <v>2.24852</v>
+        <v>2.46167</v>
       </c>
     </row>
     <row r="110">
@@ -10884,13 +10884,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>3.84226</v>
+        <v>3.81503</v>
       </c>
       <c r="C110" t="n">
-        <v>2.57863</v>
+        <v>2.55865</v>
       </c>
       <c r="D110" t="n">
-        <v>2.27577</v>
+        <v>2.49585</v>
       </c>
     </row>
     <row r="111">
@@ -10898,13 +10898,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>3.86641</v>
+        <v>3.874</v>
       </c>
       <c r="C111" t="n">
-        <v>2.59598</v>
+        <v>2.59435</v>
       </c>
       <c r="D111" t="n">
-        <v>2.28684</v>
+        <v>2.53094</v>
       </c>
     </row>
     <row r="112">
@@ -10912,13 +10912,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>3.91328</v>
+        <v>3.91381</v>
       </c>
       <c r="C112" t="n">
-        <v>2.6346</v>
+        <v>2.61287</v>
       </c>
       <c r="D112" t="n">
-        <v>2.31274</v>
+        <v>2.54376</v>
       </c>
     </row>
     <row r="113">
@@ -10926,13 +10926,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>3.97688</v>
+        <v>3.94856</v>
       </c>
       <c r="C113" t="n">
-        <v>2.65729</v>
+        <v>2.63652</v>
       </c>
       <c r="D113" t="n">
-        <v>2.32039</v>
+        <v>2.56437</v>
       </c>
     </row>
     <row r="114">
@@ -10940,13 +10940,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>4.02538</v>
+        <v>4.00203</v>
       </c>
       <c r="C114" t="n">
-        <v>2.68167</v>
+        <v>2.66788</v>
       </c>
       <c r="D114" t="n">
-        <v>2.34365</v>
+        <v>2.58907</v>
       </c>
     </row>
     <row r="115">
@@ -10954,13 +10954,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>4.05425</v>
+        <v>4.03781</v>
       </c>
       <c r="C115" t="n">
-        <v>2.69975</v>
+        <v>2.69281</v>
       </c>
       <c r="D115" t="n">
-        <v>2.3614</v>
+        <v>2.61052</v>
       </c>
     </row>
     <row r="116">
@@ -10968,13 +10968,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>4.11132</v>
+        <v>4.07763</v>
       </c>
       <c r="C116" t="n">
-        <v>2.73204</v>
+        <v>2.70811</v>
       </c>
       <c r="D116" t="n">
-        <v>2.37286</v>
+        <v>2.63216</v>
       </c>
     </row>
     <row r="117">
@@ -10982,13 +10982,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>4.16188</v>
+        <v>4.12183</v>
       </c>
       <c r="C117" t="n">
-        <v>2.76332</v>
+        <v>2.74579</v>
       </c>
       <c r="D117" t="n">
-        <v>2.39382</v>
+        <v>2.65858</v>
       </c>
     </row>
     <row r="118">
@@ -10996,13 +10996,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>4.20448</v>
+        <v>4.17451</v>
       </c>
       <c r="C118" t="n">
-        <v>2.78081</v>
+        <v>2.76814</v>
       </c>
       <c r="D118" t="n">
-        <v>2.39946</v>
+        <v>2.67554</v>
       </c>
     </row>
     <row r="119">
@@ -11010,13 +11010,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>4.25078</v>
+        <v>4.21854</v>
       </c>
       <c r="C119" t="n">
-        <v>2.82014</v>
+        <v>2.79064</v>
       </c>
       <c r="D119" t="n">
-        <v>2.41069</v>
+        <v>2.68983</v>
       </c>
     </row>
   </sheetData>
@@ -11064,13 +11064,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.581534</v>
+        <v>0.601764</v>
       </c>
       <c r="C2" t="n">
-        <v>0.479945</v>
+        <v>0.488774</v>
       </c>
       <c r="D2" t="n">
-        <v>0.337871</v>
+        <v>0.350414</v>
       </c>
     </row>
     <row r="3">
@@ -11078,13 +11078,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5903080000000001</v>
+        <v>0.607121</v>
       </c>
       <c r="C3" t="n">
-        <v>0.483525</v>
+        <v>0.485748</v>
       </c>
       <c r="D3" t="n">
-        <v>0.343861</v>
+        <v>0.351706</v>
       </c>
     </row>
     <row r="4">
@@ -11092,13 +11092,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.60238</v>
+        <v>0.618874</v>
       </c>
       <c r="C4" t="n">
-        <v>0.492308</v>
+        <v>0.497285</v>
       </c>
       <c r="D4" t="n">
-        <v>0.34834</v>
+        <v>0.357295</v>
       </c>
     </row>
     <row r="5">
@@ -11106,13 +11106,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.606871</v>
+        <v>0.620308</v>
       </c>
       <c r="C5" t="n">
-        <v>0.504537</v>
+        <v>0.510886</v>
       </c>
       <c r="D5" t="n">
-        <v>0.353099</v>
+        <v>0.361529</v>
       </c>
     </row>
     <row r="6">
@@ -11120,13 +11120,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.614857</v>
+        <v>0.633698</v>
       </c>
       <c r="C6" t="n">
-        <v>0.502688</v>
+        <v>0.512065</v>
       </c>
       <c r="D6" t="n">
-        <v>0.352465</v>
+        <v>0.364074</v>
       </c>
     </row>
     <row r="7">
@@ -11134,13 +11134,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.624873</v>
+        <v>0.636965</v>
       </c>
       <c r="C7" t="n">
-        <v>0.512174</v>
+        <v>0.517967</v>
       </c>
       <c r="D7" t="n">
-        <v>0.360287</v>
+        <v>0.369789</v>
       </c>
     </row>
     <row r="8">
@@ -11148,13 +11148,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.636843</v>
+        <v>0.643442</v>
       </c>
       <c r="C8" t="n">
-        <v>0.52416</v>
+        <v>0.5272289999999999</v>
       </c>
       <c r="D8" t="n">
-        <v>0.36344</v>
+        <v>0.370626</v>
       </c>
     </row>
     <row r="9">
@@ -11162,13 +11162,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.643622</v>
+        <v>0.653106</v>
       </c>
       <c r="C9" t="n">
-        <v>0.529035</v>
+        <v>0.5344989999999999</v>
       </c>
       <c r="D9" t="n">
-        <v>0.367353</v>
+        <v>0.375142</v>
       </c>
     </row>
     <row r="10">
@@ -11176,13 +11176,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.660068</v>
+        <v>0.66406</v>
       </c>
       <c r="C10" t="n">
-        <v>0.539879</v>
+        <v>0.542815</v>
       </c>
       <c r="D10" t="n">
-        <v>0.371633</v>
+        <v>0.379051</v>
       </c>
     </row>
     <row r="11">
@@ -11190,13 +11190,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.664803</v>
+        <v>0.675192</v>
       </c>
       <c r="C11" t="n">
-        <v>0.524996</v>
+        <v>0.52317</v>
       </c>
       <c r="D11" t="n">
-        <v>0.373658</v>
+        <v>0.379895</v>
       </c>
     </row>
     <row r="12">
@@ -11204,13 +11204,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.645278</v>
+        <v>0.634764</v>
       </c>
       <c r="C12" t="n">
-        <v>0.531671</v>
+        <v>0.5283639999999999</v>
       </c>
       <c r="D12" t="n">
-        <v>0.380377</v>
+        <v>0.385479</v>
       </c>
     </row>
     <row r="13">
@@ -11218,13 +11218,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.656896</v>
+        <v>0.647871</v>
       </c>
       <c r="C13" t="n">
-        <v>0.535671</v>
+        <v>0.5294180000000001</v>
       </c>
       <c r="D13" t="n">
-        <v>0.386402</v>
+        <v>0.389569</v>
       </c>
     </row>
     <row r="14">
@@ -11232,13 +11232,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.669771</v>
+        <v>0.65691</v>
       </c>
       <c r="C14" t="n">
-        <v>0.548094</v>
+        <v>0.538654</v>
       </c>
       <c r="D14" t="n">
-        <v>0.390464</v>
+        <v>0.392486</v>
       </c>
     </row>
     <row r="15">
@@ -11246,13 +11246,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.68236</v>
+        <v>0.670543</v>
       </c>
       <c r="C15" t="n">
-        <v>0.559199</v>
+        <v>0.551764</v>
       </c>
       <c r="D15" t="n">
-        <v>0.395639</v>
+        <v>0.40165</v>
       </c>
     </row>
     <row r="16">
@@ -11260,13 +11260,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.68832</v>
+        <v>0.68192</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5671079999999999</v>
+        <v>0.564655</v>
       </c>
       <c r="D16" t="n">
-        <v>0.401447</v>
+        <v>0.408577</v>
       </c>
     </row>
     <row r="17">
@@ -11274,13 +11274,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.705417</v>
+        <v>0.70369</v>
       </c>
       <c r="C17" t="n">
-        <v>0.57173</v>
+        <v>0.5701349999999999</v>
       </c>
       <c r="D17" t="n">
-        <v>0.402961</v>
+        <v>0.412303</v>
       </c>
     </row>
     <row r="18">
@@ -11288,13 +11288,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.7171419999999999</v>
+        <v>0.707052</v>
       </c>
       <c r="C18" t="n">
-        <v>0.574464</v>
+        <v>0.5726290000000001</v>
       </c>
       <c r="D18" t="n">
-        <v>0.409673</v>
+        <v>0.418671</v>
       </c>
     </row>
     <row r="19">
@@ -11302,13 +11302,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.724184</v>
+        <v>0.71238</v>
       </c>
       <c r="C19" t="n">
-        <v>0.5882579999999999</v>
+        <v>0.579866</v>
       </c>
       <c r="D19" t="n">
-        <v>0.413581</v>
+        <v>0.422749</v>
       </c>
     </row>
     <row r="20">
@@ -11316,13 +11316,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.7414230000000001</v>
+        <v>0.733775</v>
       </c>
       <c r="C20" t="n">
-        <v>0.600909</v>
+        <v>0.5905550000000001</v>
       </c>
       <c r="D20" t="n">
-        <v>0.418931</v>
+        <v>0.427113</v>
       </c>
     </row>
     <row r="21">
@@ -11330,13 +11330,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.751453</v>
+        <v>0.740165</v>
       </c>
       <c r="C21" t="n">
-        <v>0.6137629999999999</v>
+        <v>0.606232</v>
       </c>
       <c r="D21" t="n">
-        <v>0.422791</v>
+        <v>0.432747</v>
       </c>
     </row>
     <row r="22">
@@ -11344,13 +11344,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.76242</v>
+        <v>0.7506890000000001</v>
       </c>
       <c r="C22" t="n">
-        <v>0.622001</v>
+        <v>0.615275</v>
       </c>
       <c r="D22" t="n">
-        <v>0.427023</v>
+        <v>0.436426</v>
       </c>
     </row>
     <row r="23">
@@ -11358,13 +11358,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.785357</v>
+        <v>0.773017</v>
       </c>
       <c r="C23" t="n">
-        <v>0.632684</v>
+        <v>0.62681</v>
       </c>
       <c r="D23" t="n">
-        <v>0.433046</v>
+        <v>0.444259</v>
       </c>
     </row>
     <row r="24">
@@ -11372,13 +11372,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.800061</v>
+        <v>0.788915</v>
       </c>
       <c r="C24" t="n">
-        <v>0.643295</v>
+        <v>0.638825</v>
       </c>
       <c r="D24" t="n">
-        <v>0.436436</v>
+        <v>0.446144</v>
       </c>
     </row>
     <row r="25">
@@ -11386,13 +11386,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.806661</v>
+        <v>0.796484</v>
       </c>
       <c r="C25" t="n">
-        <v>0.661595</v>
+        <v>0.651424</v>
       </c>
       <c r="D25" t="n">
-        <v>0.442318</v>
+        <v>0.454765</v>
       </c>
     </row>
     <row r="26">
@@ -11400,13 +11400,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.830871</v>
+        <v>0.818018</v>
       </c>
       <c r="C26" t="n">
-        <v>0.602291</v>
+        <v>0.5905</v>
       </c>
       <c r="D26" t="n">
-        <v>0.446042</v>
+        <v>0.458072</v>
       </c>
     </row>
     <row r="27">
@@ -11414,13 +11414,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.79244</v>
+        <v>0.774721</v>
       </c>
       <c r="C27" t="n">
-        <v>0.610246</v>
+        <v>0.597154</v>
       </c>
       <c r="D27" t="n">
-        <v>0.449602</v>
+        <v>0.463524</v>
       </c>
     </row>
     <row r="28">
@@ -11428,13 +11428,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.8029500000000001</v>
+        <v>0.78567</v>
       </c>
       <c r="C28" t="n">
-        <v>0.615888</v>
+        <v>0.604148</v>
       </c>
       <c r="D28" t="n">
-        <v>0.451954</v>
+        <v>0.4664</v>
       </c>
     </row>
     <row r="29">
@@ -11442,13 +11442,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.814685</v>
+        <v>0.7942090000000001</v>
       </c>
       <c r="C29" t="n">
-        <v>0.621766</v>
+        <v>0.609471</v>
       </c>
       <c r="D29" t="n">
-        <v>0.456749</v>
+        <v>0.470221</v>
       </c>
     </row>
     <row r="30">
@@ -11456,13 +11456,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.825848</v>
+        <v>0.807451</v>
       </c>
       <c r="C30" t="n">
-        <v>0.629995</v>
+        <v>0.618362</v>
       </c>
       <c r="D30" t="n">
-        <v>0.459952</v>
+        <v>0.476152</v>
       </c>
     </row>
     <row r="31">
@@ -11470,13 +11470,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.837415</v>
+        <v>0.819534</v>
       </c>
       <c r="C31" t="n">
-        <v>0.637493</v>
+        <v>0.626291</v>
       </c>
       <c r="D31" t="n">
-        <v>0.463948</v>
+        <v>0.480379</v>
       </c>
     </row>
     <row r="32">
@@ -11484,13 +11484,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.851732</v>
+        <v>0.833139</v>
       </c>
       <c r="C32" t="n">
-        <v>0.649574</v>
+        <v>0.634735</v>
       </c>
       <c r="D32" t="n">
-        <v>0.467298</v>
+        <v>0.485311</v>
       </c>
     </row>
     <row r="33">
@@ -11498,13 +11498,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.860004</v>
+        <v>0.840612</v>
       </c>
       <c r="C33" t="n">
-        <v>0.653545</v>
+        <v>0.6416190000000001</v>
       </c>
       <c r="D33" t="n">
-        <v>0.469625</v>
+        <v>0.486424</v>
       </c>
     </row>
     <row r="34">
@@ -11512,13 +11512,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.871094</v>
+        <v>0.855429</v>
       </c>
       <c r="C34" t="n">
-        <v>0.664475</v>
+        <v>0.6534450000000001</v>
       </c>
       <c r="D34" t="n">
-        <v>0.472395</v>
+        <v>0.489714</v>
       </c>
     </row>
     <row r="35">
@@ -11526,13 +11526,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.8861019999999999</v>
+        <v>0.867198</v>
       </c>
       <c r="C35" t="n">
-        <v>0.674422</v>
+        <v>0.664187</v>
       </c>
       <c r="D35" t="n">
-        <v>0.475465</v>
+        <v>0.492819</v>
       </c>
     </row>
     <row r="36">
@@ -11540,13 +11540,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.898578</v>
+        <v>0.878844</v>
       </c>
       <c r="C36" t="n">
-        <v>0.68828</v>
+        <v>0.67465</v>
       </c>
       <c r="D36" t="n">
-        <v>0.478238</v>
+        <v>0.495548</v>
       </c>
     </row>
     <row r="37">
@@ -11554,13 +11554,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.913083</v>
+        <v>0.896093</v>
       </c>
       <c r="C37" t="n">
-        <v>0.698505</v>
+        <v>0.6870270000000001</v>
       </c>
       <c r="D37" t="n">
-        <v>0.478364</v>
+        <v>0.499404</v>
       </c>
     </row>
     <row r="38">
@@ -11568,13 +11568,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.925666</v>
+        <v>0.910395</v>
       </c>
       <c r="C38" t="n">
-        <v>0.708485</v>
+        <v>0.696289</v>
       </c>
       <c r="D38" t="n">
-        <v>0.482466</v>
+        <v>0.503149</v>
       </c>
     </row>
     <row r="39">
@@ -11582,13 +11582,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.937272</v>
+        <v>0.92361</v>
       </c>
       <c r="C39" t="n">
-        <v>0.721231</v>
+        <v>0.7089299999999999</v>
       </c>
       <c r="D39" t="n">
-        <v>0.486166</v>
+        <v>0.506779</v>
       </c>
     </row>
     <row r="40">
@@ -11596,13 +11596,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.954323</v>
+        <v>0.937298</v>
       </c>
       <c r="C40" t="n">
-        <v>0.671526</v>
+        <v>0.667732</v>
       </c>
       <c r="D40" t="n">
-        <v>0.488894</v>
+        <v>0.513307</v>
       </c>
     </row>
     <row r="41">
@@ -11610,13 +11610,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.88592</v>
+        <v>0.8808049999999999</v>
       </c>
       <c r="C41" t="n">
-        <v>0.677331</v>
+        <v>0.672578</v>
       </c>
       <c r="D41" t="n">
-        <v>0.490907</v>
+        <v>0.516007</v>
       </c>
     </row>
     <row r="42">
@@ -11624,13 +11624,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.897162</v>
+        <v>0.892487</v>
       </c>
       <c r="C42" t="n">
-        <v>0.684725</v>
+        <v>0.679894</v>
       </c>
       <c r="D42" t="n">
-        <v>0.492308</v>
+        <v>0.519973</v>
       </c>
     </row>
     <row r="43">
@@ -11638,13 +11638,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.907541</v>
+        <v>0.9023600000000001</v>
       </c>
       <c r="C43" t="n">
-        <v>0.692084</v>
+        <v>0.687988</v>
       </c>
       <c r="D43" t="n">
-        <v>0.496041</v>
+        <v>0.523367</v>
       </c>
     </row>
     <row r="44">
@@ -11652,13 +11652,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.912611</v>
+        <v>0.908023</v>
       </c>
       <c r="C44" t="n">
-        <v>0.699418</v>
+        <v>0.696607</v>
       </c>
       <c r="D44" t="n">
-        <v>0.496427</v>
+        <v>0.525564</v>
       </c>
     </row>
     <row r="45">
@@ -11666,13 +11666,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.925799</v>
+        <v>0.9190469999999999</v>
       </c>
       <c r="C45" t="n">
-        <v>0.707294</v>
+        <v>0.704415</v>
       </c>
       <c r="D45" t="n">
-        <v>0.497826</v>
+        <v>0.527605</v>
       </c>
     </row>
     <row r="46">
@@ -11680,13 +11680,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.931267</v>
+        <v>0.924513</v>
       </c>
       <c r="C46" t="n">
-        <v>0.716573</v>
+        <v>0.714404</v>
       </c>
       <c r="D46" t="n">
-        <v>0.499424</v>
+        <v>0.530979</v>
       </c>
     </row>
     <row r="47">
@@ -11694,13 +11694,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.943384</v>
+        <v>0.939103</v>
       </c>
       <c r="C47" t="n">
-        <v>0.7235279999999999</v>
+        <v>0.720713</v>
       </c>
       <c r="D47" t="n">
-        <v>0.50168</v>
+        <v>0.531659</v>
       </c>
     </row>
     <row r="48">
@@ -11708,13 +11708,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.954346</v>
+        <v>0.950146</v>
       </c>
       <c r="C48" t="n">
-        <v>0.732405</v>
+        <v>0.728067</v>
       </c>
       <c r="D48" t="n">
-        <v>0.504515</v>
+        <v>0.5332</v>
       </c>
     </row>
     <row r="49">
@@ -11722,13 +11722,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.959763</v>
+        <v>0.954175</v>
       </c>
       <c r="C49" t="n">
-        <v>0.742104</v>
+        <v>0.740146</v>
       </c>
       <c r="D49" t="n">
-        <v>0.50631</v>
+        <v>0.537427</v>
       </c>
     </row>
     <row r="50">
@@ -11736,13 +11736,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.973929</v>
+        <v>0.96855</v>
       </c>
       <c r="C50" t="n">
-        <v>0.750436</v>
+        <v>0.7488359999999999</v>
       </c>
       <c r="D50" t="n">
-        <v>0.506035</v>
+        <v>0.539335</v>
       </c>
     </row>
     <row r="51">
@@ -11750,13 +11750,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.983023</v>
+        <v>0.977843</v>
       </c>
       <c r="C51" t="n">
-        <v>0.761449</v>
+        <v>0.758263</v>
       </c>
       <c r="D51" t="n">
-        <v>0.509024</v>
+        <v>0.5401</v>
       </c>
     </row>
     <row r="52">
@@ -11764,13 +11764,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.997062</v>
+        <v>0.992914</v>
       </c>
       <c r="C52" t="n">
-        <v>0.7709780000000001</v>
+        <v>0.767858</v>
       </c>
       <c r="D52" t="n">
-        <v>0.508034</v>
+        <v>0.543724</v>
       </c>
     </row>
     <row r="53">
@@ -11778,13 +11778,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>1.00437</v>
+        <v>1.00208</v>
       </c>
       <c r="C53" t="n">
-        <v>0.780034</v>
+        <v>0.777648</v>
       </c>
       <c r="D53" t="n">
-        <v>0.5096039999999999</v>
+        <v>0.542114</v>
       </c>
     </row>
     <row r="54">
@@ -11792,13 +11792,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>1.01474</v>
+        <v>1.01433</v>
       </c>
       <c r="C54" t="n">
-        <v>0.716411</v>
+        <v>0.717753</v>
       </c>
       <c r="D54" t="n">
-        <v>0.511498</v>
+        <v>0.546411</v>
       </c>
     </row>
     <row r="55">
@@ -11806,13 +11806,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.940685</v>
+        <v>0.940679</v>
       </c>
       <c r="C55" t="n">
-        <v>0.7189179999999999</v>
+        <v>0.720364</v>
       </c>
       <c r="D55" t="n">
-        <v>0.511532</v>
+        <v>0.548305</v>
       </c>
     </row>
     <row r="56">
@@ -11820,13 +11820,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.950574</v>
+        <v>0.949276</v>
       </c>
       <c r="C56" t="n">
-        <v>0.728539</v>
+        <v>0.72832</v>
       </c>
       <c r="D56" t="n">
-        <v>0.513388</v>
+        <v>0.549663</v>
       </c>
     </row>
     <row r="57">
@@ -11834,13 +11834,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.959517</v>
+        <v>0.958251</v>
       </c>
       <c r="C57" t="n">
-        <v>0.73668</v>
+        <v>0.7347669999999999</v>
       </c>
       <c r="D57" t="n">
-        <v>0.514139</v>
+        <v>0.550265</v>
       </c>
     </row>
     <row r="58">
@@ -11848,13 +11848,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.966697</v>
+        <v>0.965776</v>
       </c>
       <c r="C58" t="n">
-        <v>0.744275</v>
+        <v>0.741088</v>
       </c>
       <c r="D58" t="n">
-        <v>0.514866</v>
+        <v>0.551565</v>
       </c>
     </row>
     <row r="59">
@@ -11862,13 +11862,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.976036</v>
+        <v>0.974809</v>
       </c>
       <c r="C59" t="n">
-        <v>0.753034</v>
+        <v>0.749416</v>
       </c>
       <c r="D59" t="n">
-        <v>0.515891</v>
+        <v>0.554388</v>
       </c>
     </row>
     <row r="60">
@@ -11876,13 +11876,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.982854</v>
+        <v>0.983437</v>
       </c>
       <c r="C60" t="n">
-        <v>0.761608</v>
+        <v>0.759901</v>
       </c>
       <c r="D60" t="n">
-        <v>0.5182909999999999</v>
+        <v>0.554508</v>
       </c>
     </row>
     <row r="61">
@@ -11890,13 +11890,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.99042</v>
+        <v>0.990625</v>
       </c>
       <c r="C61" t="n">
-        <v>0.773517</v>
+        <v>0.768082</v>
       </c>
       <c r="D61" t="n">
-        <v>0.519609</v>
+        <v>0.557461</v>
       </c>
     </row>
     <row r="62">
@@ -11904,13 +11904,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>1.00852</v>
+        <v>1.00295</v>
       </c>
       <c r="C62" t="n">
-        <v>0.786158</v>
+        <v>0.7756150000000001</v>
       </c>
       <c r="D62" t="n">
-        <v>0.52461</v>
+        <v>0.5579460000000001</v>
       </c>
     </row>
     <row r="63">
@@ -11918,13 +11918,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>1.01808</v>
+        <v>1.01325</v>
       </c>
       <c r="C63" t="n">
-        <v>0.7987919999999999</v>
+        <v>0.788012</v>
       </c>
       <c r="D63" t="n">
-        <v>0.526617</v>
+        <v>0.559554</v>
       </c>
     </row>
     <row r="64">
@@ -11932,13 +11932,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>1.02443</v>
+        <v>1.01998</v>
       </c>
       <c r="C64" t="n">
-        <v>0.810539</v>
+        <v>0.801351</v>
       </c>
       <c r="D64" t="n">
-        <v>0.527628</v>
+        <v>0.561048</v>
       </c>
     </row>
     <row r="65">
@@ -11946,13 +11946,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>1.03543</v>
+        <v>1.02957</v>
       </c>
       <c r="C65" t="n">
-        <v>0.8294280000000001</v>
+        <v>0.817253</v>
       </c>
       <c r="D65" t="n">
-        <v>0.528403</v>
+        <v>0.563232</v>
       </c>
     </row>
     <row r="66">
@@ -11960,13 +11960,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>1.0479</v>
+        <v>1.04146</v>
       </c>
       <c r="C66" t="n">
-        <v>0.843533</v>
+        <v>0.828203</v>
       </c>
       <c r="D66" t="n">
-        <v>0.531303</v>
+        <v>0.566313</v>
       </c>
     </row>
     <row r="67">
@@ -11974,13 +11974,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.06705</v>
+        <v>1.05816</v>
       </c>
       <c r="C67" t="n">
-        <v>0.866004</v>
+        <v>0.846976</v>
       </c>
       <c r="D67" t="n">
-        <v>0.535059</v>
+        <v>0.5666369999999999</v>
       </c>
     </row>
     <row r="68">
@@ -11988,13 +11988,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>1.07768</v>
+        <v>1.08426</v>
       </c>
       <c r="C68" t="n">
-        <v>0.785114</v>
+        <v>0.767532</v>
       </c>
       <c r="D68" t="n">
-        <v>0.541242</v>
+        <v>0.577569</v>
       </c>
     </row>
     <row r="69">
@@ -12002,13 +12002,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>1.01214</v>
+        <v>1.00069</v>
       </c>
       <c r="C69" t="n">
-        <v>0.807867</v>
+        <v>0.789314</v>
       </c>
       <c r="D69" t="n">
-        <v>0.548035</v>
+        <v>0.582406</v>
       </c>
     </row>
     <row r="70">
@@ -12016,13 +12016,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>1.03356</v>
+        <v>1.0211</v>
       </c>
       <c r="C70" t="n">
-        <v>0.832864</v>
+        <v>0.8146409999999999</v>
       </c>
       <c r="D70" t="n">
-        <v>0.561982</v>
+        <v>0.592882</v>
       </c>
     </row>
     <row r="71">
@@ -12030,13 +12030,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>1.06023</v>
+        <v>1.04866</v>
       </c>
       <c r="C71" t="n">
-        <v>0.86403</v>
+        <v>0.85128</v>
       </c>
       <c r="D71" t="n">
-        <v>0.576314</v>
+        <v>0.609147</v>
       </c>
     </row>
     <row r="72">
@@ -12044,13 +12044,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>1.09502</v>
+        <v>1.0791</v>
       </c>
       <c r="C72" t="n">
-        <v>0.89774</v>
+        <v>0.879503</v>
       </c>
       <c r="D72" t="n">
-        <v>0.592021</v>
+        <v>0.623588</v>
       </c>
     </row>
     <row r="73">
@@ -12058,13 +12058,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>1.12129</v>
+        <v>1.11349</v>
       </c>
       <c r="C73" t="n">
-        <v>0.928324</v>
+        <v>0.9176879999999999</v>
       </c>
       <c r="D73" t="n">
-        <v>0.605106</v>
+        <v>0.63794</v>
       </c>
     </row>
     <row r="74">
@@ -12072,13 +12072,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.14282</v>
+        <v>1.14599</v>
       </c>
       <c r="C74" t="n">
-        <v>0.9577290000000001</v>
+        <v>0.955769</v>
       </c>
       <c r="D74" t="n">
-        <v>0.615922</v>
+        <v>0.657625</v>
       </c>
     </row>
     <row r="75">
@@ -12086,13 +12086,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>1.1821</v>
+        <v>1.18568</v>
       </c>
       <c r="C75" t="n">
-        <v>0.998993</v>
+        <v>0.994007</v>
       </c>
       <c r="D75" t="n">
-        <v>0.633373</v>
+        <v>0.679659</v>
       </c>
     </row>
     <row r="76">
@@ -12100,13 +12100,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>1.22896</v>
+        <v>1.23297</v>
       </c>
       <c r="C76" t="n">
-        <v>1.0356</v>
+        <v>1.0349</v>
       </c>
       <c r="D76" t="n">
-        <v>0.6599429999999999</v>
+        <v>0.703608</v>
       </c>
     </row>
     <row r="77">
@@ -12114,13 +12114,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>1.27724</v>
+        <v>1.27849</v>
       </c>
       <c r="C77" t="n">
-        <v>1.0831</v>
+        <v>1.07676</v>
       </c>
       <c r="D77" t="n">
-        <v>0.683213</v>
+        <v>0.726894</v>
       </c>
     </row>
     <row r="78">
@@ -12128,13 +12128,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>1.33984</v>
+        <v>1.34485</v>
       </c>
       <c r="C78" t="n">
-        <v>1.13401</v>
+        <v>1.13088</v>
       </c>
       <c r="D78" t="n">
-        <v>0.714324</v>
+        <v>0.763356</v>
       </c>
     </row>
     <row r="79">
@@ -12142,13 +12142,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.40145</v>
+        <v>1.40491</v>
       </c>
       <c r="C79" t="n">
-        <v>1.18345</v>
+        <v>1.18209</v>
       </c>
       <c r="D79" t="n">
-        <v>0.747382</v>
+        <v>0.797041</v>
       </c>
     </row>
     <row r="80">
@@ -12156,13 +12156,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.47779</v>
+        <v>1.47606</v>
       </c>
       <c r="C80" t="n">
-        <v>1.2425</v>
+        <v>1.23739</v>
       </c>
       <c r="D80" t="n">
-        <v>0.787647</v>
+        <v>0.8334279999999999</v>
       </c>
     </row>
     <row r="81">
@@ -12170,13 +12170,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.56313</v>
+        <v>1.56224</v>
       </c>
       <c r="C81" t="n">
-        <v>1.30668</v>
+        <v>1.30606</v>
       </c>
       <c r="D81" t="n">
-        <v>0.828489</v>
+        <v>0.880018</v>
       </c>
     </row>
     <row r="82">
@@ -12184,13 +12184,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.64458</v>
+        <v>1.65452</v>
       </c>
       <c r="C82" t="n">
-        <v>1.36985</v>
+        <v>1.3778</v>
       </c>
       <c r="D82" t="n">
-        <v>0.869984</v>
+        <v>0.932491</v>
       </c>
     </row>
     <row r="83">
@@ -12198,13 +12198,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.7583</v>
+        <v>1.76104</v>
       </c>
       <c r="C83" t="n">
-        <v>1.37368</v>
+        <v>1.37219</v>
       </c>
       <c r="D83" t="n">
-        <v>0.990428</v>
+        <v>1.052</v>
       </c>
     </row>
     <row r="84">
@@ -12212,13 +12212,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.78742</v>
+        <v>1.78213</v>
       </c>
       <c r="C84" t="n">
-        <v>1.43678</v>
+        <v>1.43457</v>
       </c>
       <c r="D84" t="n">
-        <v>1.03927</v>
+        <v>1.10749</v>
       </c>
     </row>
     <row r="85">
@@ -12226,13 +12226,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.89215</v>
+        <v>1.8893</v>
       </c>
       <c r="C85" t="n">
-        <v>1.49643</v>
+        <v>1.50061</v>
       </c>
       <c r="D85" t="n">
-        <v>1.09142</v>
+        <v>1.16843</v>
       </c>
     </row>
     <row r="86">
@@ -12240,13 +12240,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.99967</v>
+        <v>1.99088</v>
       </c>
       <c r="C86" t="n">
-        <v>1.57657</v>
+        <v>1.56832</v>
       </c>
       <c r="D86" t="n">
-        <v>1.14766</v>
+        <v>1.22831</v>
       </c>
     </row>
     <row r="87">
@@ -12254,13 +12254,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>2.10702</v>
+        <v>2.1027</v>
       </c>
       <c r="C87" t="n">
-        <v>1.64609</v>
+        <v>1.64292</v>
       </c>
       <c r="D87" t="n">
-        <v>1.20573</v>
+        <v>1.28826</v>
       </c>
     </row>
     <row r="88">
@@ -12268,13 +12268,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>2.22372</v>
+        <v>2.21687</v>
       </c>
       <c r="C88" t="n">
-        <v>1.73099</v>
+        <v>1.72751</v>
       </c>
       <c r="D88" t="n">
-        <v>1.26449</v>
+        <v>1.35233</v>
       </c>
     </row>
     <row r="89">
@@ -12282,13 +12282,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>2.33796</v>
+        <v>2.34468</v>
       </c>
       <c r="C89" t="n">
-        <v>1.81061</v>
+        <v>1.80808</v>
       </c>
       <c r="D89" t="n">
-        <v>1.31526</v>
+        <v>1.40934</v>
       </c>
     </row>
     <row r="90">
@@ -12296,13 +12296,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>2.4747</v>
+        <v>2.46646</v>
       </c>
       <c r="C90" t="n">
-        <v>1.88928</v>
+        <v>1.88875</v>
       </c>
       <c r="D90" t="n">
-        <v>1.37039</v>
+        <v>1.47091</v>
       </c>
     </row>
     <row r="91">
@@ -12310,13 +12310,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>2.59174</v>
+        <v>2.59594</v>
       </c>
       <c r="C91" t="n">
-        <v>1.97776</v>
+        <v>1.97177</v>
       </c>
       <c r="D91" t="n">
-        <v>1.42294</v>
+        <v>1.5263</v>
       </c>
     </row>
     <row r="92">
@@ -12324,13 +12324,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>2.72003</v>
+        <v>2.72456</v>
       </c>
       <c r="C92" t="n">
-        <v>2.06792</v>
+        <v>2.06495</v>
       </c>
       <c r="D92" t="n">
-        <v>1.47262</v>
+        <v>1.58485</v>
       </c>
     </row>
     <row r="93">
@@ -12338,13 +12338,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>2.85854</v>
+        <v>2.85503</v>
       </c>
       <c r="C93" t="n">
-        <v>2.16181</v>
+        <v>2.15109</v>
       </c>
       <c r="D93" t="n">
-        <v>1.51193</v>
+        <v>1.63911</v>
       </c>
     </row>
     <row r="94">
@@ -12352,13 +12352,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>2.99075</v>
+        <v>2.97204</v>
       </c>
       <c r="C94" t="n">
-        <v>2.25503</v>
+        <v>2.24705</v>
       </c>
       <c r="D94" t="n">
-        <v>1.57279</v>
+        <v>1.69065</v>
       </c>
     </row>
     <row r="95">
@@ -12366,13 +12366,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>3.12547</v>
+        <v>3.12425</v>
       </c>
       <c r="C95" t="n">
-        <v>2.34739</v>
+        <v>2.34063</v>
       </c>
       <c r="D95" t="n">
-        <v>1.61849</v>
+        <v>1.74063</v>
       </c>
     </row>
     <row r="96">
@@ -12380,13 +12380,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>3.26756</v>
+        <v>3.2414</v>
       </c>
       <c r="C96" t="n">
-        <v>2.47066</v>
+        <v>2.45507</v>
       </c>
       <c r="D96" t="n">
-        <v>1.64867</v>
+        <v>1.78949</v>
       </c>
     </row>
     <row r="97">
@@ -12394,13 +12394,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>3.41224</v>
+        <v>3.38375</v>
       </c>
       <c r="C97" t="n">
-        <v>2.23342</v>
+        <v>2.22027</v>
       </c>
       <c r="D97" t="n">
-        <v>1.77546</v>
+        <v>1.91778</v>
       </c>
     </row>
     <row r="98">
@@ -12408,13 +12408,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>3.26255</v>
+        <v>3.25699</v>
       </c>
       <c r="C98" t="n">
-        <v>2.29906</v>
+        <v>2.28373</v>
       </c>
       <c r="D98" t="n">
-        <v>1.80965</v>
+        <v>1.96918</v>
       </c>
     </row>
     <row r="99">
@@ -12422,13 +12422,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>3.366</v>
+        <v>3.35035</v>
       </c>
       <c r="C99" t="n">
-        <v>2.36889</v>
+        <v>2.35827</v>
       </c>
       <c r="D99" t="n">
-        <v>1.82333</v>
+        <v>2.00794</v>
       </c>
     </row>
     <row r="100">
@@ -12436,13 +12436,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>3.4799</v>
+        <v>3.42287</v>
       </c>
       <c r="C100" t="n">
-        <v>2.43541</v>
+        <v>2.41823</v>
       </c>
       <c r="D100" t="n">
-        <v>1.86797</v>
+        <v>2.04801</v>
       </c>
     </row>
     <row r="101">
@@ -12450,13 +12450,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>3.56407</v>
+        <v>3.55721</v>
       </c>
       <c r="C101" t="n">
-        <v>2.50386</v>
+        <v>2.4763</v>
       </c>
       <c r="D101" t="n">
-        <v>1.89856</v>
+        <v>2.09224</v>
       </c>
     </row>
     <row r="102">
@@ -12464,13 +12464,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>3.67088</v>
+        <v>3.67264</v>
       </c>
       <c r="C102" t="n">
-        <v>2.57859</v>
+        <v>2.55471</v>
       </c>
       <c r="D102" t="n">
-        <v>1.9346</v>
+        <v>2.11724</v>
       </c>
     </row>
     <row r="103">
@@ -12478,13 +12478,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>3.76926</v>
+        <v>3.76968</v>
       </c>
       <c r="C103" t="n">
-        <v>2.65402</v>
+        <v>2.63899</v>
       </c>
       <c r="D103" t="n">
-        <v>1.95407</v>
+        <v>2.15292</v>
       </c>
     </row>
     <row r="104">
@@ -12492,13 +12492,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>3.86586</v>
+        <v>3.87882</v>
       </c>
       <c r="C104" t="n">
-        <v>2.7235</v>
+        <v>2.70044</v>
       </c>
       <c r="D104" t="n">
-        <v>1.98437</v>
+        <v>2.18397</v>
       </c>
     </row>
     <row r="105">
@@ -12506,13 +12506,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>3.99282</v>
+        <v>3.95773</v>
       </c>
       <c r="C105" t="n">
-        <v>2.80994</v>
+        <v>2.79231</v>
       </c>
       <c r="D105" t="n">
-        <v>2.01976</v>
+        <v>2.21601</v>
       </c>
     </row>
     <row r="106">
@@ -12520,13 +12520,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>4.07532</v>
+        <v>4.06551</v>
       </c>
       <c r="C106" t="n">
-        <v>2.89117</v>
+        <v>2.86959</v>
       </c>
       <c r="D106" t="n">
-        <v>2.03606</v>
+        <v>2.25219</v>
       </c>
     </row>
     <row r="107">
@@ -12534,13 +12534,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>4.18253</v>
+        <v>4.18201</v>
       </c>
       <c r="C107" t="n">
-        <v>2.96449</v>
+        <v>2.9459</v>
       </c>
       <c r="D107" t="n">
-        <v>2.08772</v>
+        <v>2.30634</v>
       </c>
     </row>
     <row r="108">
@@ -12548,13 +12548,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>4.28802</v>
+        <v>4.27853</v>
       </c>
       <c r="C108" t="n">
-        <v>3.05975</v>
+        <v>3.0396</v>
       </c>
       <c r="D108" t="n">
-        <v>2.07968</v>
+        <v>2.30681</v>
       </c>
     </row>
     <row r="109">
@@ -12562,13 +12562,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>4.37226</v>
+        <v>4.37788</v>
       </c>
       <c r="C109" t="n">
-        <v>3.15368</v>
+        <v>3.12349</v>
       </c>
       <c r="D109" t="n">
-        <v>2.11659</v>
+        <v>2.33502</v>
       </c>
     </row>
     <row r="110">
@@ -12576,13 +12576,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>4.55225</v>
+        <v>4.49553</v>
       </c>
       <c r="C110" t="n">
-        <v>3.24664</v>
+        <v>3.20567</v>
       </c>
       <c r="D110" t="n">
-        <v>2.14774</v>
+        <v>2.37176</v>
       </c>
     </row>
     <row r="111">
@@ -12590,13 +12590,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>4.63442</v>
+        <v>4.60221</v>
       </c>
       <c r="C111" t="n">
-        <v>2.87205</v>
+        <v>2.836</v>
       </c>
       <c r="D111" t="n">
-        <v>2.224</v>
+        <v>2.45287</v>
       </c>
     </row>
     <row r="112">
@@ -12604,13 +12604,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>4.26381</v>
+        <v>4.24824</v>
       </c>
       <c r="C112" t="n">
-        <v>2.90585</v>
+        <v>2.89843</v>
       </c>
       <c r="D112" t="n">
-        <v>2.22365</v>
+        <v>2.47808</v>
       </c>
     </row>
     <row r="113">
@@ -12618,13 +12618,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>4.32496</v>
+        <v>4.31484</v>
       </c>
       <c r="C113" t="n">
-        <v>2.9718</v>
+        <v>2.9721</v>
       </c>
       <c r="D113" t="n">
-        <v>2.26779</v>
+        <v>2.49657</v>
       </c>
     </row>
     <row r="114">
@@ -12632,13 +12632,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>4.43132</v>
+        <v>4.39865</v>
       </c>
       <c r="C114" t="n">
-        <v>3.03844</v>
+        <v>3.02206</v>
       </c>
       <c r="D114" t="n">
-        <v>2.26291</v>
+        <v>2.52432</v>
       </c>
     </row>
     <row r="115">
@@ -12646,13 +12646,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>4.51303</v>
+        <v>4.48713</v>
       </c>
       <c r="C115" t="n">
-        <v>3.07995</v>
+        <v>3.08064</v>
       </c>
       <c r="D115" t="n">
-        <v>2.30738</v>
+        <v>2.54536</v>
       </c>
     </row>
     <row r="116">
@@ -12660,13 +12660,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>4.60473</v>
+        <v>4.5908</v>
       </c>
       <c r="C116" t="n">
-        <v>3.16812</v>
+        <v>3.14077</v>
       </c>
       <c r="D116" t="n">
-        <v>2.31786</v>
+        <v>2.56627</v>
       </c>
     </row>
     <row r="117">
@@ -12674,13 +12674,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>4.68542</v>
+        <v>4.6403</v>
       </c>
       <c r="C117" t="n">
-        <v>3.25419</v>
+        <v>3.21197</v>
       </c>
       <c r="D117" t="n">
-        <v>2.33998</v>
+        <v>2.58313</v>
       </c>
     </row>
     <row r="118">
@@ -12688,13 +12688,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>4.80472</v>
+        <v>4.7365</v>
       </c>
       <c r="C118" t="n">
-        <v>3.30181</v>
+        <v>3.28677</v>
       </c>
       <c r="D118" t="n">
-        <v>2.36012</v>
+        <v>2.61445</v>
       </c>
     </row>
     <row r="119">
@@ -12702,13 +12702,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>4.88637</v>
+        <v>4.84581</v>
       </c>
       <c r="C119" t="n">
-        <v>3.37095</v>
+        <v>3.35915</v>
       </c>
       <c r="D119" t="n">
-        <v>2.36897</v>
+        <v>2.64245</v>
       </c>
     </row>
   </sheetData>

--- a/clang_libcpp/scattered erasure.xlsx
+++ b/clang_libcpp/scattered erasure.xlsx
@@ -7680,13 +7680,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.39541</v>
+        <v>0.402418</v>
       </c>
       <c r="C2" t="n">
-        <v>0.215726</v>
+        <v>0.168798</v>
       </c>
       <c r="D2" t="n">
-        <v>0.213437</v>
+        <v>0.22611</v>
       </c>
     </row>
     <row r="3">
@@ -7694,13 +7694,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.401609</v>
+        <v>0.40501</v>
       </c>
       <c r="C3" t="n">
-        <v>0.216634</v>
+        <v>0.172151</v>
       </c>
       <c r="D3" t="n">
-        <v>0.219873</v>
+        <v>0.23352</v>
       </c>
     </row>
     <row r="4">
@@ -7708,13 +7708,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.40834</v>
+        <v>0.413062</v>
       </c>
       <c r="C4" t="n">
-        <v>0.220537</v>
+        <v>0.175609</v>
       </c>
       <c r="D4" t="n">
-        <v>0.221915</v>
+        <v>0.237321</v>
       </c>
     </row>
     <row r="5">
@@ -7722,13 +7722,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.412896</v>
+        <v>0.417018</v>
       </c>
       <c r="C5" t="n">
-        <v>0.223485</v>
+        <v>0.178231</v>
       </c>
       <c r="D5" t="n">
-        <v>0.228865</v>
+        <v>0.243986</v>
       </c>
     </row>
     <row r="6">
@@ -7736,13 +7736,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.418157</v>
+        <v>0.42148</v>
       </c>
       <c r="C6" t="n">
-        <v>0.226488</v>
+        <v>0.181094</v>
       </c>
       <c r="D6" t="n">
-        <v>0.233157</v>
+        <v>0.249711</v>
       </c>
     </row>
     <row r="7">
@@ -7750,13 +7750,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.421897</v>
+        <v>0.430787</v>
       </c>
       <c r="C7" t="n">
-        <v>0.218715</v>
+        <v>0.166367</v>
       </c>
       <c r="D7" t="n">
-        <v>0.242558</v>
+        <v>0.250115</v>
       </c>
     </row>
     <row r="8">
@@ -7764,13 +7764,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.40382</v>
+        <v>0.405788</v>
       </c>
       <c r="C8" t="n">
-        <v>0.220012</v>
+        <v>0.168413</v>
       </c>
       <c r="D8" t="n">
-        <v>0.246053</v>
+        <v>0.254151</v>
       </c>
     </row>
     <row r="9">
@@ -7778,13 +7778,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.407911</v>
+        <v>0.409837</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2216</v>
+        <v>0.170261</v>
       </c>
       <c r="D9" t="n">
-        <v>0.251385</v>
+        <v>0.258281</v>
       </c>
     </row>
     <row r="10">
@@ -7792,13 +7792,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.416106</v>
+        <v>0.414844</v>
       </c>
       <c r="C10" t="n">
-        <v>0.223518</v>
+        <v>0.172572</v>
       </c>
       <c r="D10" t="n">
-        <v>0.258026</v>
+        <v>0.260631</v>
       </c>
     </row>
     <row r="11">
@@ -7806,13 +7806,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.422604</v>
+        <v>0.418889</v>
       </c>
       <c r="C11" t="n">
-        <v>0.224963</v>
+        <v>0.174236</v>
       </c>
       <c r="D11" t="n">
-        <v>0.261565</v>
+        <v>0.271291</v>
       </c>
     </row>
     <row r="12">
@@ -7820,13 +7820,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.427144</v>
+        <v>0.431641</v>
       </c>
       <c r="C12" t="n">
-        <v>0.226796</v>
+        <v>0.176353</v>
       </c>
       <c r="D12" t="n">
-        <v>0.267815</v>
+        <v>0.273632</v>
       </c>
     </row>
     <row r="13">
@@ -7834,13 +7834,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.434027</v>
+        <v>0.434364</v>
       </c>
       <c r="C13" t="n">
-        <v>0.228745</v>
+        <v>0.178499</v>
       </c>
       <c r="D13" t="n">
-        <v>0.271323</v>
+        <v>0.277236</v>
       </c>
     </row>
     <row r="14">
@@ -7848,13 +7848,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.440015</v>
+        <v>0.439161</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2306</v>
+        <v>0.180866</v>
       </c>
       <c r="D14" t="n">
-        <v>0.275825</v>
+        <v>0.281466</v>
       </c>
     </row>
     <row r="15">
@@ -7862,13 +7862,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.4449</v>
+        <v>0.444594</v>
       </c>
       <c r="C15" t="n">
-        <v>0.233184</v>
+        <v>0.183015</v>
       </c>
       <c r="D15" t="n">
-        <v>0.281658</v>
+        <v>0.284651</v>
       </c>
     </row>
     <row r="16">
@@ -7876,13 +7876,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.45207</v>
+        <v>0.447264</v>
       </c>
       <c r="C16" t="n">
-        <v>0.235929</v>
+        <v>0.185791</v>
       </c>
       <c r="D16" t="n">
-        <v>0.287156</v>
+        <v>0.288612</v>
       </c>
     </row>
     <row r="17">
@@ -7890,13 +7890,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.459115</v>
+        <v>0.455127</v>
       </c>
       <c r="C17" t="n">
-        <v>0.23735</v>
+        <v>0.187535</v>
       </c>
       <c r="D17" t="n">
-        <v>0.290689</v>
+        <v>0.29377</v>
       </c>
     </row>
     <row r="18">
@@ -7904,13 +7904,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.462091</v>
+        <v>0.46034</v>
       </c>
       <c r="C18" t="n">
-        <v>0.240483</v>
+        <v>0.190518</v>
       </c>
       <c r="D18" t="n">
-        <v>0.295839</v>
+        <v>0.298464</v>
       </c>
     </row>
     <row r="19">
@@ -7918,13 +7918,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.467392</v>
+        <v>0.465349</v>
       </c>
       <c r="C19" t="n">
-        <v>0.242704</v>
+        <v>0.193409</v>
       </c>
       <c r="D19" t="n">
-        <v>0.300028</v>
+        <v>0.303707</v>
       </c>
     </row>
     <row r="20">
@@ -7932,13 +7932,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.475518</v>
+        <v>0.473006</v>
       </c>
       <c r="C20" t="n">
-        <v>0.245672</v>
+        <v>0.195631</v>
       </c>
       <c r="D20" t="n">
-        <v>0.304403</v>
+        <v>0.307798</v>
       </c>
     </row>
     <row r="21">
@@ -7946,13 +7946,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.480649</v>
+        <v>0.477907</v>
       </c>
       <c r="C21" t="n">
-        <v>0.233296</v>
+        <v>0.175811</v>
       </c>
       <c r="D21" t="n">
-        <v>0.305171</v>
+        <v>0.305529</v>
       </c>
     </row>
     <row r="22">
@@ -7960,13 +7960,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.463173</v>
+        <v>0.458975</v>
       </c>
       <c r="C22" t="n">
-        <v>0.234463</v>
+        <v>0.177749</v>
       </c>
       <c r="D22" t="n">
-        <v>0.308352</v>
+        <v>0.309641</v>
       </c>
     </row>
     <row r="23">
@@ -7974,13 +7974,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.46744</v>
+        <v>0.463511</v>
       </c>
       <c r="C23" t="n">
-        <v>0.235885</v>
+        <v>0.179655</v>
       </c>
       <c r="D23" t="n">
-        <v>0.31211</v>
+        <v>0.311962</v>
       </c>
     </row>
     <row r="24">
@@ -7988,13 +7988,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.471792</v>
+        <v>0.468341</v>
       </c>
       <c r="C24" t="n">
-        <v>0.23757</v>
+        <v>0.181684</v>
       </c>
       <c r="D24" t="n">
-        <v>0.314681</v>
+        <v>0.317134</v>
       </c>
     </row>
     <row r="25">
@@ -8002,13 +8002,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.475981</v>
+        <v>0.473016</v>
       </c>
       <c r="C25" t="n">
-        <v>0.239107</v>
+        <v>0.183513</v>
       </c>
       <c r="D25" t="n">
-        <v>0.317182</v>
+        <v>0.318577</v>
       </c>
     </row>
     <row r="26">
@@ -8016,13 +8016,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.480618</v>
+        <v>0.476636</v>
       </c>
       <c r="C26" t="n">
-        <v>0.241006</v>
+        <v>0.185321</v>
       </c>
       <c r="D26" t="n">
-        <v>0.321012</v>
+        <v>0.322736</v>
       </c>
     </row>
     <row r="27">
@@ -8030,13 +8030,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.484015</v>
+        <v>0.481304</v>
       </c>
       <c r="C27" t="n">
-        <v>0.242422</v>
+        <v>0.187524</v>
       </c>
       <c r="D27" t="n">
-        <v>0.324063</v>
+        <v>0.323749</v>
       </c>
     </row>
     <row r="28">
@@ -8044,13 +8044,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.489254</v>
+        <v>0.485811</v>
       </c>
       <c r="C28" t="n">
-        <v>0.244529</v>
+        <v>0.189644</v>
       </c>
       <c r="D28" t="n">
-        <v>0.32727</v>
+        <v>0.328972</v>
       </c>
     </row>
     <row r="29">
@@ -8058,13 +8058,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.492681</v>
+        <v>0.489362</v>
       </c>
       <c r="C29" t="n">
-        <v>0.246363</v>
+        <v>0.192146</v>
       </c>
       <c r="D29" t="n">
-        <v>0.329247</v>
+        <v>0.331816</v>
       </c>
     </row>
     <row r="30">
@@ -8072,13 +8072,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.49814</v>
+        <v>0.493947</v>
       </c>
       <c r="C30" t="n">
-        <v>0.249009</v>
+        <v>0.194396</v>
       </c>
       <c r="D30" t="n">
-        <v>0.331957</v>
+        <v>0.334576</v>
       </c>
     </row>
     <row r="31">
@@ -8086,13 +8086,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.5021949999999999</v>
+        <v>0.49822</v>
       </c>
       <c r="C31" t="n">
-        <v>0.252199</v>
+        <v>0.197037</v>
       </c>
       <c r="D31" t="n">
-        <v>0.335863</v>
+        <v>0.337905</v>
       </c>
     </row>
     <row r="32">
@@ -8100,13 +8100,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.507016</v>
+        <v>0.5024999999999999</v>
       </c>
       <c r="C32" t="n">
-        <v>0.25332</v>
+        <v>0.199435</v>
       </c>
       <c r="D32" t="n">
-        <v>0.337986</v>
+        <v>0.340204</v>
       </c>
     </row>
     <row r="33">
@@ -8114,13 +8114,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.51171</v>
+        <v>0.50753</v>
       </c>
       <c r="C33" t="n">
-        <v>0.256094</v>
+        <v>0.201539</v>
       </c>
       <c r="D33" t="n">
-        <v>0.341056</v>
+        <v>0.343673</v>
       </c>
     </row>
     <row r="34">
@@ -8128,13 +8128,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.517435</v>
+        <v>0.513361</v>
       </c>
       <c r="C34" t="n">
-        <v>0.257336</v>
+        <v>0.204164</v>
       </c>
       <c r="D34" t="n">
-        <v>0.343672</v>
+        <v>0.346858</v>
       </c>
     </row>
     <row r="35">
@@ -8142,13 +8142,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.520823</v>
+        <v>0.5177310000000001</v>
       </c>
       <c r="C35" t="n">
-        <v>0.242851</v>
+        <v>0.180604</v>
       </c>
       <c r="D35" t="n">
-        <v>0.337605</v>
+        <v>0.340998</v>
       </c>
     </row>
     <row r="36">
@@ -8156,13 +8156,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.495056</v>
+        <v>0.489961</v>
       </c>
       <c r="C36" t="n">
-        <v>0.243784</v>
+        <v>0.18265</v>
       </c>
       <c r="D36" t="n">
-        <v>0.339263</v>
+        <v>0.34301</v>
       </c>
     </row>
     <row r="37">
@@ -8170,13 +8170,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.498576</v>
+        <v>0.493737</v>
       </c>
       <c r="C37" t="n">
-        <v>0.245521</v>
+        <v>0.184199</v>
       </c>
       <c r="D37" t="n">
-        <v>0.339912</v>
+        <v>0.344097</v>
       </c>
     </row>
     <row r="38">
@@ -8184,13 +8184,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.500748</v>
+        <v>0.495958</v>
       </c>
       <c r="C38" t="n">
-        <v>0.247402</v>
+        <v>0.186114</v>
       </c>
       <c r="D38" t="n">
-        <v>0.342752</v>
+        <v>0.3459</v>
       </c>
     </row>
     <row r="39">
@@ -8198,13 +8198,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.503627</v>
+        <v>0.498524</v>
       </c>
       <c r="C39" t="n">
-        <v>0.248222</v>
+        <v>0.187501</v>
       </c>
       <c r="D39" t="n">
-        <v>0.344537</v>
+        <v>0.347971</v>
       </c>
     </row>
     <row r="40">
@@ -8212,13 +8212,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.508029</v>
+        <v>0.50132</v>
       </c>
       <c r="C40" t="n">
-        <v>0.249978</v>
+        <v>0.188518</v>
       </c>
       <c r="D40" t="n">
-        <v>0.345943</v>
+        <v>0.349941</v>
       </c>
     </row>
     <row r="41">
@@ -8226,13 +8226,13 @@
         <v>66357</v>
       </c>
       <c r="B41" t="n">
-        <v>0.510085</v>
+        <v>0.504287</v>
       </c>
       <c r="C41" t="n">
-        <v>0.252654</v>
+        <v>0.191311</v>
       </c>
       <c r="D41" t="n">
-        <v>0.348275</v>
+        <v>0.351566</v>
       </c>
     </row>
     <row r="42">
@@ -8240,13 +8240,13 @@
         <v>69656</v>
       </c>
       <c r="B42" t="n">
-        <v>0.513829</v>
+        <v>0.506092</v>
       </c>
       <c r="C42" t="n">
-        <v>0.254536</v>
+        <v>0.193395</v>
       </c>
       <c r="D42" t="n">
-        <v>0.35045</v>
+        <v>0.353219</v>
       </c>
     </row>
     <row r="43">
@@ -8254,13 +8254,13 @@
         <v>73119</v>
       </c>
       <c r="B43" t="n">
-        <v>0.519209</v>
+        <v>0.512768</v>
       </c>
       <c r="C43" t="n">
-        <v>0.254376</v>
+        <v>0.195543</v>
       </c>
       <c r="D43" t="n">
-        <v>0.352199</v>
+        <v>0.355958</v>
       </c>
     </row>
     <row r="44">
@@ -8268,13 +8268,13 @@
         <v>76755</v>
       </c>
       <c r="B44" t="n">
-        <v>0.520658</v>
+        <v>0.515683</v>
       </c>
       <c r="C44" t="n">
-        <v>0.257168</v>
+        <v>0.198153</v>
       </c>
       <c r="D44" t="n">
-        <v>0.354533</v>
+        <v>0.357461</v>
       </c>
     </row>
     <row r="45">
@@ -8282,13 +8282,13 @@
         <v>80572</v>
       </c>
       <c r="B45" t="n">
-        <v>0.524628</v>
+        <v>0.519312</v>
       </c>
       <c r="C45" t="n">
-        <v>0.259257</v>
+        <v>0.200366</v>
       </c>
       <c r="D45" t="n">
-        <v>0.356348</v>
+        <v>0.359286</v>
       </c>
     </row>
     <row r="46">
@@ -8296,13 +8296,13 @@
         <v>84579</v>
       </c>
       <c r="B46" t="n">
-        <v>0.5295570000000001</v>
+        <v>0.522569</v>
       </c>
       <c r="C46" t="n">
-        <v>0.262871</v>
+        <v>0.20291</v>
       </c>
       <c r="D46" t="n">
-        <v>0.358743</v>
+        <v>0.361032</v>
       </c>
     </row>
     <row r="47">
@@ -8310,13 +8310,13 @@
         <v>88786</v>
       </c>
       <c r="B47" t="n">
-        <v>0.533605</v>
+        <v>0.526811</v>
       </c>
       <c r="C47" t="n">
-        <v>0.265559</v>
+        <v>0.205516</v>
       </c>
       <c r="D47" t="n">
-        <v>0.360136</v>
+        <v>0.364184</v>
       </c>
     </row>
     <row r="48">
@@ -8324,13 +8324,13 @@
         <v>93203</v>
       </c>
       <c r="B48" t="n">
-        <v>0.537922</v>
+        <v>0.5308890000000001</v>
       </c>
       <c r="C48" t="n">
-        <v>0.267815</v>
+        <v>0.207839</v>
       </c>
       <c r="D48" t="n">
-        <v>0.363168</v>
+        <v>0.365689</v>
       </c>
     </row>
     <row r="49">
@@ -8338,13 +8338,13 @@
         <v>97840</v>
       </c>
       <c r="B49" t="n">
-        <v>0.5419040000000001</v>
+        <v>0.535504</v>
       </c>
       <c r="C49" t="n">
-        <v>0.270582</v>
+        <v>0.211289</v>
       </c>
       <c r="D49" t="n">
-        <v>0.365275</v>
+        <v>0.367925</v>
       </c>
     </row>
     <row r="50">
@@ -8352,13 +8352,13 @@
         <v>102706</v>
       </c>
       <c r="B50" t="n">
-        <v>0.546629</v>
+        <v>0.540832</v>
       </c>
       <c r="C50" t="n">
-        <v>0.258599</v>
+        <v>0.186338</v>
       </c>
       <c r="D50" t="n">
-        <v>0.355687</v>
+        <v>0.358941</v>
       </c>
     </row>
     <row r="51">
@@ -8366,13 +8366,13 @@
         <v>107816</v>
       </c>
       <c r="B51" t="n">
-        <v>0.516465</v>
+        <v>0.509001</v>
       </c>
       <c r="C51" t="n">
-        <v>0.259969</v>
+        <v>0.189791</v>
       </c>
       <c r="D51" t="n">
-        <v>0.356959</v>
+        <v>0.359384</v>
       </c>
     </row>
     <row r="52">
@@ -8380,13 +8380,13 @@
         <v>113182</v>
       </c>
       <c r="B52" t="n">
-        <v>0.519814</v>
+        <v>0.510721</v>
       </c>
       <c r="C52" t="n">
-        <v>0.258113</v>
+        <v>0.19145</v>
       </c>
       <c r="D52" t="n">
-        <v>0.357515</v>
+        <v>0.360298</v>
       </c>
     </row>
     <row r="53">
@@ -8394,13 +8394,13 @@
         <v>118816</v>
       </c>
       <c r="B53" t="n">
-        <v>0.521046</v>
+        <v>0.51331</v>
       </c>
       <c r="C53" t="n">
-        <v>0.25964</v>
+        <v>0.193003</v>
       </c>
       <c r="D53" t="n">
-        <v>0.35909</v>
+        <v>0.36186</v>
       </c>
     </row>
     <row r="54">
@@ -8408,13 +8408,13 @@
         <v>124731</v>
       </c>
       <c r="B54" t="n">
-        <v>0.5243679999999999</v>
+        <v>0.515894</v>
       </c>
       <c r="C54" t="n">
-        <v>0.264631</v>
+        <v>0.196079</v>
       </c>
       <c r="D54" t="n">
-        <v>0.360453</v>
+        <v>0.363247</v>
       </c>
     </row>
     <row r="55">
@@ -8422,13 +8422,13 @@
         <v>130941</v>
       </c>
       <c r="B55" t="n">
-        <v>0.526325</v>
+        <v>0.518259</v>
       </c>
       <c r="C55" t="n">
-        <v>0.263071</v>
+        <v>0.201734</v>
       </c>
       <c r="D55" t="n">
-        <v>0.362124</v>
+        <v>0.365969</v>
       </c>
     </row>
     <row r="56">
@@ -8436,13 +8436,13 @@
         <v>137461</v>
       </c>
       <c r="B56" t="n">
-        <v>0.529303</v>
+        <v>0.523054</v>
       </c>
       <c r="C56" t="n">
-        <v>0.265064</v>
+        <v>0.206222</v>
       </c>
       <c r="D56" t="n">
-        <v>0.363438</v>
+        <v>0.366568</v>
       </c>
     </row>
     <row r="57">
@@ -8450,13 +8450,13 @@
         <v>144307</v>
       </c>
       <c r="B57" t="n">
-        <v>0.532125</v>
+        <v>0.524716</v>
       </c>
       <c r="C57" t="n">
-        <v>0.270638</v>
+        <v>0.208933</v>
       </c>
       <c r="D57" t="n">
-        <v>0.365716</v>
+        <v>0.369225</v>
       </c>
     </row>
     <row r="58">
@@ -8464,13 +8464,13 @@
         <v>151495</v>
       </c>
       <c r="B58" t="n">
-        <v>0.535458</v>
+        <v>0.529992</v>
       </c>
       <c r="C58" t="n">
-        <v>0.272417</v>
+        <v>0.212154</v>
       </c>
       <c r="D58" t="n">
-        <v>0.367968</v>
+        <v>0.370275</v>
       </c>
     </row>
     <row r="59">
@@ -8478,13 +8478,13 @@
         <v>159042</v>
       </c>
       <c r="B59" t="n">
-        <v>0.538516</v>
+        <v>0.5319430000000001</v>
       </c>
       <c r="C59" t="n">
-        <v>0.277982</v>
+        <v>0.221272</v>
       </c>
       <c r="D59" t="n">
-        <v>0.369147</v>
+        <v>0.372035</v>
       </c>
     </row>
     <row r="60">
@@ -8492,13 +8492,13 @@
         <v>166965</v>
       </c>
       <c r="B60" t="n">
-        <v>0.54234</v>
+        <v>0.5375450000000001</v>
       </c>
       <c r="C60" t="n">
-        <v>0.278755</v>
+        <v>0.224259</v>
       </c>
       <c r="D60" t="n">
-        <v>0.371274</v>
+        <v>0.379631</v>
       </c>
     </row>
     <row r="61">
@@ -8506,13 +8506,13 @@
         <v>175284</v>
       </c>
       <c r="B61" t="n">
-        <v>0.546798</v>
+        <v>0.54258</v>
       </c>
       <c r="C61" t="n">
-        <v>0.284301</v>
+        <v>0.226644</v>
       </c>
       <c r="D61" t="n">
-        <v>0.374205</v>
+        <v>0.377534</v>
       </c>
     </row>
     <row r="62">
@@ -8520,13 +8520,13 @@
         <v>184019</v>
       </c>
       <c r="B62" t="n">
-        <v>0.55124</v>
+        <v>0.5613629999999999</v>
       </c>
       <c r="C62" t="n">
-        <v>0.300065</v>
+        <v>0.242503</v>
       </c>
       <c r="D62" t="n">
-        <v>0.376378</v>
+        <v>0.392639</v>
       </c>
     </row>
     <row r="63">
@@ -8534,13 +8534,13 @@
         <v>193190</v>
       </c>
       <c r="B63" t="n">
-        <v>0.56133</v>
+        <v>0.555368</v>
       </c>
       <c r="C63" t="n">
-        <v>0.311105</v>
+        <v>0.244609</v>
       </c>
       <c r="D63" t="n">
-        <v>0.385415</v>
+        <v>0.385144</v>
       </c>
     </row>
     <row r="64">
@@ -8548,13 +8548,13 @@
         <v>202820</v>
       </c>
       <c r="B64" t="n">
-        <v>0.568603</v>
+        <v>0.5631890000000001</v>
       </c>
       <c r="C64" t="n">
-        <v>0.361409</v>
+        <v>0.282371</v>
       </c>
       <c r="D64" t="n">
-        <v>0.409173</v>
+        <v>0.41521</v>
       </c>
     </row>
     <row r="65">
@@ -8562,13 +8562,13 @@
         <v>212931</v>
       </c>
       <c r="B65" t="n">
-        <v>0.589485</v>
+        <v>0.589939</v>
       </c>
       <c r="C65" t="n">
-        <v>0.372483</v>
+        <v>0.299368</v>
       </c>
       <c r="D65" t="n">
-        <v>0.41723</v>
+        <v>0.422334</v>
       </c>
     </row>
     <row r="66">
@@ -8576,13 +8576,13 @@
         <v>223547</v>
       </c>
       <c r="B66" t="n">
-        <v>0.605278</v>
+        <v>0.609206</v>
       </c>
       <c r="C66" t="n">
-        <v>0.397353</v>
+        <v>0.315739</v>
       </c>
       <c r="D66" t="n">
-        <v>0.435175</v>
+        <v>0.437235</v>
       </c>
     </row>
     <row r="67">
@@ -8590,13 +8590,13 @@
         <v>234692</v>
       </c>
       <c r="B67" t="n">
-        <v>0.628949</v>
+        <v>0.622651</v>
       </c>
       <c r="C67" t="n">
-        <v>0.418481</v>
+        <v>0.333662</v>
       </c>
       <c r="D67" t="n">
-        <v>0.452039</v>
+        <v>0.448344</v>
       </c>
     </row>
     <row r="68">
@@ -8604,13 +8604,13 @@
         <v>246395</v>
       </c>
       <c r="B68" t="n">
-        <v>0.655988</v>
+        <v>0.6396579999999999</v>
       </c>
       <c r="C68" t="n">
-        <v>0.438486</v>
+        <v>0.355069</v>
       </c>
       <c r="D68" t="n">
-        <v>0.444032</v>
+        <v>0.451128</v>
       </c>
     </row>
     <row r="69">
@@ -8618,13 +8618,13 @@
         <v>258683</v>
       </c>
       <c r="B69" t="n">
-        <v>0.646487</v>
+        <v>0.645252</v>
       </c>
       <c r="C69" t="n">
-        <v>0.465451</v>
+        <v>0.375066</v>
       </c>
       <c r="D69" t="n">
-        <v>0.470104</v>
+        <v>0.465515</v>
       </c>
     </row>
     <row r="70">
@@ -8632,13 +8632,13 @@
         <v>271585</v>
       </c>
       <c r="B70" t="n">
-        <v>0.681836</v>
+        <v>0.66895</v>
       </c>
       <c r="C70" t="n">
-        <v>0.48592</v>
+        <v>0.384219</v>
       </c>
       <c r="D70" t="n">
-        <v>0.486487</v>
+        <v>0.490151</v>
       </c>
     </row>
     <row r="71">
@@ -8646,13 +8646,13 @@
         <v>285132</v>
       </c>
       <c r="B71" t="n">
-        <v>0.693724</v>
+        <v>0.682536</v>
       </c>
       <c r="C71" t="n">
-        <v>0.505145</v>
+        <v>0.402931</v>
       </c>
       <c r="D71" t="n">
-        <v>0.494786</v>
+        <v>0.504447</v>
       </c>
     </row>
     <row r="72">
@@ -8660,13 +8660,13 @@
         <v>299354</v>
       </c>
       <c r="B72" t="n">
-        <v>0.720129</v>
+        <v>0.719651</v>
       </c>
       <c r="C72" t="n">
-        <v>0.532432</v>
+        <v>0.426043</v>
       </c>
       <c r="D72" t="n">
-        <v>0.516747</v>
+        <v>0.530583</v>
       </c>
     </row>
     <row r="73">
@@ -8674,13 +8674,13 @@
         <v>314289</v>
       </c>
       <c r="B73" t="n">
-        <v>0.76542</v>
+        <v>0.7294659999999999</v>
       </c>
       <c r="C73" t="n">
-        <v>0.561662</v>
+        <v>0.446045</v>
       </c>
       <c r="D73" t="n">
-        <v>0.564293</v>
+        <v>0.536008</v>
       </c>
     </row>
     <row r="74">
@@ -8688,13 +8688,13 @@
         <v>329969</v>
       </c>
       <c r="B74" t="n">
-        <v>0.790432</v>
+        <v>0.793612</v>
       </c>
       <c r="C74" t="n">
-        <v>0.584403</v>
+        <v>0.474051</v>
       </c>
       <c r="D74" t="n">
-        <v>0.570457</v>
+        <v>0.556101</v>
       </c>
     </row>
     <row r="75">
@@ -8702,13 +8702,13 @@
         <v>346432</v>
       </c>
       <c r="B75" t="n">
-        <v>0.826233</v>
+        <v>0.809716</v>
       </c>
       <c r="C75" t="n">
-        <v>0.605542</v>
+        <v>0.483789</v>
       </c>
       <c r="D75" t="n">
-        <v>0.599047</v>
+        <v>0.592367</v>
       </c>
     </row>
     <row r="76">
@@ -8716,13 +8716,13 @@
         <v>363719</v>
       </c>
       <c r="B76" t="n">
-        <v>0.869214</v>
+        <v>0.85789</v>
       </c>
       <c r="C76" t="n">
-        <v>0.62448</v>
+        <v>0.509974</v>
       </c>
       <c r="D76" t="n">
-        <v>0.645817</v>
+        <v>0.636097</v>
       </c>
     </row>
     <row r="77">
@@ -8730,13 +8730,13 @@
         <v>381870</v>
       </c>
       <c r="B77" t="n">
-        <v>0.934113</v>
+        <v>0.914202</v>
       </c>
       <c r="C77" t="n">
-        <v>0.654784</v>
+        <v>0.528744</v>
       </c>
       <c r="D77" t="n">
-        <v>0.682221</v>
+        <v>0.671462</v>
       </c>
     </row>
     <row r="78">
@@ -8744,13 +8744,13 @@
         <v>400928</v>
       </c>
       <c r="B78" t="n">
-        <v>0.9685319999999999</v>
+        <v>0.9553739999999999</v>
       </c>
       <c r="C78" t="n">
-        <v>0.79328</v>
+        <v>0.6203070000000001</v>
       </c>
       <c r="D78" t="n">
-        <v>0.9591460000000001</v>
+        <v>0.891083</v>
       </c>
     </row>
     <row r="79">
@@ -8758,13 +8758,13 @@
         <v>420937</v>
       </c>
       <c r="B79" t="n">
-        <v>1.34747</v>
+        <v>1.22679</v>
       </c>
       <c r="C79" t="n">
-        <v>0.806149</v>
+        <v>0.6350749999999999</v>
       </c>
       <c r="D79" t="n">
-        <v>1.02735</v>
+        <v>0.924342</v>
       </c>
     </row>
     <row r="80">
@@ -8772,13 +8772,13 @@
         <v>441947</v>
       </c>
       <c r="B80" t="n">
-        <v>1.42794</v>
+        <v>1.26878</v>
       </c>
       <c r="C80" t="n">
-        <v>0.82195</v>
+        <v>0.646877</v>
       </c>
       <c r="D80" t="n">
-        <v>1.06158</v>
+        <v>0.965</v>
       </c>
     </row>
     <row r="81">
@@ -8786,13 +8786,13 @@
         <v>464005</v>
       </c>
       <c r="B81" t="n">
-        <v>1.46951</v>
+        <v>1.32626</v>
       </c>
       <c r="C81" t="n">
-        <v>0.833898</v>
+        <v>0.65948</v>
       </c>
       <c r="D81" t="n">
-        <v>1.11825</v>
+        <v>1.00659</v>
       </c>
     </row>
     <row r="82">
@@ -8800,13 +8800,13 @@
         <v>487165</v>
       </c>
       <c r="B82" t="n">
-        <v>1.55231</v>
+        <v>1.37267</v>
       </c>
       <c r="C82" t="n">
-        <v>0.851277</v>
+        <v>0.669903</v>
       </c>
       <c r="D82" t="n">
-        <v>1.15819</v>
+        <v>1.04227</v>
       </c>
     </row>
     <row r="83">
@@ -8814,13 +8814,13 @@
         <v>511485</v>
       </c>
       <c r="B83" t="n">
-        <v>1.60202</v>
+        <v>1.42702</v>
       </c>
       <c r="C83" t="n">
-        <v>0.863054</v>
+        <v>0.683528</v>
       </c>
       <c r="D83" t="n">
-        <v>1.20864</v>
+        <v>1.08131</v>
       </c>
     </row>
     <row r="84">
@@ -8828,13 +8828,13 @@
         <v>537019</v>
       </c>
       <c r="B84" t="n">
-        <v>1.66715</v>
+        <v>1.4736</v>
       </c>
       <c r="C84" t="n">
-        <v>0.87623</v>
+        <v>0.694675</v>
       </c>
       <c r="D84" t="n">
-        <v>1.25771</v>
+        <v>1.11088</v>
       </c>
     </row>
     <row r="85">
@@ -8842,13 +8842,13 @@
         <v>563827</v>
       </c>
       <c r="B85" t="n">
-        <v>1.72961</v>
+        <v>1.51263</v>
       </c>
       <c r="C85" t="n">
-        <v>0.889312</v>
+        <v>0.705754</v>
       </c>
       <c r="D85" t="n">
-        <v>1.28827</v>
+        <v>1.14965</v>
       </c>
     </row>
     <row r="86">
@@ -8856,13 +8856,13 @@
         <v>591977</v>
       </c>
       <c r="B86" t="n">
-        <v>1.7744</v>
+        <v>1.56963</v>
       </c>
       <c r="C86" t="n">
-        <v>0.900502</v>
+        <v>0.718386</v>
       </c>
       <c r="D86" t="n">
-        <v>1.3343</v>
+        <v>1.18886</v>
       </c>
     </row>
     <row r="87">
@@ -8870,13 +8870,13 @@
         <v>621532</v>
       </c>
       <c r="B87" t="n">
-        <v>1.83994</v>
+        <v>1.61371</v>
       </c>
       <c r="C87" t="n">
-        <v>0.913465</v>
+        <v>0.729593</v>
       </c>
       <c r="D87" t="n">
-        <v>1.37674</v>
+        <v>1.22636</v>
       </c>
     </row>
     <row r="88">
@@ -8884,13 +8884,13 @@
         <v>652567</v>
       </c>
       <c r="B88" t="n">
-        <v>1.88885</v>
+        <v>1.66388</v>
       </c>
       <c r="C88" t="n">
-        <v>0.9268690000000001</v>
+        <v>0.743407</v>
       </c>
       <c r="D88" t="n">
-        <v>1.41725</v>
+        <v>1.26229</v>
       </c>
     </row>
     <row r="89">
@@ -8898,13 +8898,13 @@
         <v>685151</v>
       </c>
       <c r="B89" t="n">
-        <v>1.95255</v>
+        <v>1.7056</v>
       </c>
       <c r="C89" t="n">
-        <v>0.94267</v>
+        <v>0.7548859999999999</v>
       </c>
       <c r="D89" t="n">
-        <v>1.4571</v>
+        <v>1.29747</v>
       </c>
     </row>
     <row r="90">
@@ -8912,13 +8912,13 @@
         <v>719359</v>
       </c>
       <c r="B90" t="n">
-        <v>2.00357</v>
+        <v>1.74692</v>
       </c>
       <c r="C90" t="n">
-        <v>0.954202</v>
+        <v>0.767788</v>
       </c>
       <c r="D90" t="n">
-        <v>1.49458</v>
+        <v>1.32744</v>
       </c>
     </row>
     <row r="91">
@@ -8926,13 +8926,13 @@
         <v>755280</v>
       </c>
       <c r="B91" t="n">
-        <v>2.05666</v>
+        <v>1.79152</v>
       </c>
       <c r="C91" t="n">
-        <v>0.967162</v>
+        <v>0.78164</v>
       </c>
       <c r="D91" t="n">
-        <v>1.52731</v>
+        <v>1.35991</v>
       </c>
     </row>
     <row r="92">
@@ -8940,13 +8940,13 @@
         <v>792997</v>
       </c>
       <c r="B92" t="n">
-        <v>2.10516</v>
+        <v>1.83117</v>
       </c>
       <c r="C92" t="n">
-        <v>1.03736</v>
+        <v>0.784697</v>
       </c>
       <c r="D92" t="n">
-        <v>1.75721</v>
+        <v>1.54204</v>
       </c>
     </row>
     <row r="93">
@@ -8954,13 +8954,13 @@
         <v>832595</v>
       </c>
       <c r="B93" t="n">
-        <v>2.39481</v>
+        <v>2.05336</v>
       </c>
       <c r="C93" t="n">
-        <v>1.04651</v>
+        <v>0.793082</v>
       </c>
       <c r="D93" t="n">
-        <v>1.77866</v>
+        <v>1.55724</v>
       </c>
     </row>
     <row r="94">
@@ -8968,13 +8968,13 @@
         <v>874177</v>
       </c>
       <c r="B94" t="n">
-        <v>2.42882</v>
+        <v>2.07573</v>
       </c>
       <c r="C94" t="n">
-        <v>1.05568</v>
+        <v>0.801157</v>
       </c>
       <c r="D94" t="n">
-        <v>1.79501</v>
+        <v>1.58091</v>
       </c>
     </row>
     <row r="95">
@@ -8982,13 +8982,13 @@
         <v>917832</v>
       </c>
       <c r="B95" t="n">
-        <v>2.44874</v>
+        <v>2.10482</v>
       </c>
       <c r="C95" t="n">
-        <v>1.06255</v>
+        <v>0.808551</v>
       </c>
       <c r="D95" t="n">
-        <v>1.80439</v>
+        <v>1.60371</v>
       </c>
     </row>
     <row r="96">
@@ -8996,13 +8996,13 @@
         <v>963677</v>
       </c>
       <c r="B96" t="n">
-        <v>2.48877</v>
+        <v>2.13075</v>
       </c>
       <c r="C96" t="n">
-        <v>1.07283</v>
+        <v>0.817223</v>
       </c>
       <c r="D96" t="n">
-        <v>1.84594</v>
+        <v>1.62568</v>
       </c>
     </row>
     <row r="97">
@@ -9010,13 +9010,13 @@
         <v>1011813</v>
       </c>
       <c r="B97" t="n">
-        <v>2.52188</v>
+        <v>2.15794</v>
       </c>
       <c r="C97" t="n">
-        <v>1.08117</v>
+        <v>0.824701</v>
       </c>
       <c r="D97" t="n">
-        <v>1.8679</v>
+        <v>1.63449</v>
       </c>
     </row>
     <row r="98">
@@ -9024,13 +9024,13 @@
         <v>1062351</v>
       </c>
       <c r="B98" t="n">
-        <v>2.55583</v>
+        <v>2.1826</v>
       </c>
       <c r="C98" t="n">
-        <v>1.09426</v>
+        <v>0.834113</v>
       </c>
       <c r="D98" t="n">
-        <v>1.87809</v>
+        <v>1.65357</v>
       </c>
     </row>
     <row r="99">
@@ -9038,13 +9038,13 @@
         <v>1115422</v>
       </c>
       <c r="B99" t="n">
-        <v>2.58361</v>
+        <v>2.2102</v>
       </c>
       <c r="C99" t="n">
-        <v>1.09893</v>
+        <v>0.841724</v>
       </c>
       <c r="D99" t="n">
-        <v>1.89504</v>
+        <v>1.67141</v>
       </c>
     </row>
     <row r="100">
@@ -9052,13 +9052,13 @@
         <v>1171143</v>
       </c>
       <c r="B100" t="n">
-        <v>2.61054</v>
+        <v>2.23247</v>
       </c>
       <c r="C100" t="n">
-        <v>1.10705</v>
+        <v>0.850935</v>
       </c>
       <c r="D100" t="n">
-        <v>1.92063</v>
+        <v>1.68882</v>
       </c>
     </row>
     <row r="101">
@@ -9066,13 +9066,13 @@
         <v>1229634</v>
       </c>
       <c r="B101" t="n">
-        <v>2.64011</v>
+        <v>2.25646</v>
       </c>
       <c r="C101" t="n">
-        <v>1.11687</v>
+        <v>0.858658</v>
       </c>
       <c r="D101" t="n">
-        <v>1.92925</v>
+        <v>1.71434</v>
       </c>
     </row>
     <row r="102">
@@ -9080,13 +9080,13 @@
         <v>1291062</v>
       </c>
       <c r="B102" t="n">
-        <v>2.67059</v>
+        <v>2.28049</v>
       </c>
       <c r="C102" t="n">
-        <v>1.12809</v>
+        <v>0.869835</v>
       </c>
       <c r="D102" t="n">
-        <v>1.94692</v>
+        <v>1.73531</v>
       </c>
     </row>
     <row r="103">
@@ -9094,13 +9094,13 @@
         <v>1355554</v>
       </c>
       <c r="B103" t="n">
-        <v>2.69726</v>
+        <v>2.3009</v>
       </c>
       <c r="C103" t="n">
-        <v>1.14204</v>
+        <v>0.879602</v>
       </c>
       <c r="D103" t="n">
-        <v>1.97871</v>
+        <v>1.7395</v>
       </c>
     </row>
     <row r="104">
@@ -9108,13 +9108,13 @@
         <v>1423274</v>
       </c>
       <c r="B104" t="n">
-        <v>2.74076</v>
+        <v>2.32731</v>
       </c>
       <c r="C104" t="n">
-        <v>1.15553</v>
+        <v>0.892584</v>
       </c>
       <c r="D104" t="n">
-        <v>2.00109</v>
+        <v>1.7564</v>
       </c>
     </row>
     <row r="105">
@@ -9122,13 +9122,13 @@
         <v>1494380</v>
       </c>
       <c r="B105" t="n">
-        <v>2.76801</v>
+        <v>2.34901</v>
       </c>
       <c r="C105" t="n">
-        <v>1.16707</v>
+        <v>0.905049</v>
       </c>
       <c r="D105" t="n">
-        <v>2.02032</v>
+        <v>1.76583</v>
       </c>
     </row>
     <row r="106">
@@ -9136,13 +9136,13 @@
         <v>1569031</v>
       </c>
       <c r="B106" t="n">
-        <v>2.7947</v>
+        <v>2.37082</v>
       </c>
       <c r="C106" t="n">
-        <v>1.18095</v>
+        <v>0.916167</v>
       </c>
       <c r="D106" t="n">
-        <v>2.03042</v>
+        <v>1.78399</v>
       </c>
     </row>
     <row r="107">
@@ -9150,13 +9150,13 @@
         <v>1647417</v>
       </c>
       <c r="B107" t="n">
-        <v>2.91847</v>
+        <v>2.47876</v>
       </c>
       <c r="C107" t="n">
-        <v>1.17689</v>
+        <v>0.862129</v>
       </c>
       <c r="D107" t="n">
-        <v>2.1527</v>
+        <v>1.88946</v>
       </c>
     </row>
     <row r="108">
@@ -9164,13 +9164,13 @@
         <v>1729734</v>
       </c>
       <c r="B108" t="n">
-        <v>2.93292</v>
+        <v>2.4981</v>
       </c>
       <c r="C108" t="n">
-        <v>1.18601</v>
+        <v>0.869417</v>
       </c>
       <c r="D108" t="n">
-        <v>2.16637</v>
+        <v>1.87948</v>
       </c>
     </row>
     <row r="109">
@@ -9178,13 +9178,13 @@
         <v>1816153</v>
       </c>
       <c r="B109" t="n">
-        <v>2.93717</v>
+        <v>2.51409</v>
       </c>
       <c r="C109" t="n">
-        <v>1.18323</v>
+        <v>0.877432</v>
       </c>
       <c r="D109" t="n">
-        <v>2.15907</v>
+        <v>1.89551</v>
       </c>
     </row>
     <row r="110">
@@ -9192,13 +9192,13 @@
         <v>1906885</v>
       </c>
       <c r="B110" t="n">
-        <v>2.9705</v>
+        <v>2.52644</v>
       </c>
       <c r="C110" t="n">
-        <v>1.20202</v>
+        <v>0.884223</v>
       </c>
       <c r="D110" t="n">
-        <v>2.18546</v>
+        <v>1.91255</v>
       </c>
     </row>
     <row r="111">
@@ -9206,13 +9206,13 @@
         <v>2002164</v>
       </c>
       <c r="B111" t="n">
-        <v>2.99049</v>
+        <v>2.54196</v>
       </c>
       <c r="C111" t="n">
-        <v>1.20972</v>
+        <v>0.8922</v>
       </c>
       <c r="D111" t="n">
-        <v>2.19539</v>
+        <v>1.91798</v>
       </c>
     </row>
     <row r="112">
@@ -9220,13 +9220,13 @@
         <v>2102198</v>
       </c>
       <c r="B112" t="n">
-        <v>3.00024</v>
+        <v>2.55654</v>
       </c>
       <c r="C112" t="n">
-        <v>1.21625</v>
+        <v>0.900582</v>
       </c>
       <c r="D112" t="n">
-        <v>2.19947</v>
+        <v>1.92019</v>
       </c>
     </row>
     <row r="113">
@@ -9234,13 +9234,13 @@
         <v>2207233</v>
       </c>
       <c r="B113" t="n">
-        <v>3.00525</v>
+        <v>2.57086</v>
       </c>
       <c r="C113" t="n">
-        <v>1.21456</v>
+        <v>0.908222</v>
       </c>
       <c r="D113" t="n">
-        <v>2.20793</v>
+        <v>1.92843</v>
       </c>
     </row>
     <row r="114">
@@ -9248,13 +9248,13 @@
         <v>2317508</v>
       </c>
       <c r="B114" t="n">
-        <v>3.03808</v>
+        <v>2.58638</v>
       </c>
       <c r="C114" t="n">
-        <v>1.23558</v>
+        <v>0.918802</v>
       </c>
       <c r="D114" t="n">
-        <v>2.2141</v>
+        <v>1.94958</v>
       </c>
     </row>
     <row r="115">
@@ -9262,13 +9262,13 @@
         <v>2433290</v>
       </c>
       <c r="B115" t="n">
-        <v>3.06159</v>
+        <v>2.60141</v>
       </c>
       <c r="C115" t="n">
-        <v>1.24803</v>
+        <v>0.927324</v>
       </c>
       <c r="D115" t="n">
-        <v>2.22935</v>
+        <v>1.95292</v>
       </c>
     </row>
     <row r="116">
@@ -9276,13 +9276,13 @@
         <v>2554854</v>
       </c>
       <c r="B116" t="n">
-        <v>3.07586</v>
+        <v>2.61975</v>
       </c>
       <c r="C116" t="n">
-        <v>1.25804</v>
+        <v>0.93848</v>
       </c>
       <c r="D116" t="n">
-        <v>2.24076</v>
+        <v>1.96042</v>
       </c>
     </row>
     <row r="117">
@@ -9290,13 +9290,13 @@
         <v>2682511</v>
       </c>
       <c r="B117" t="n">
-        <v>3.09721</v>
+        <v>2.63333</v>
       </c>
       <c r="C117" t="n">
-        <v>1.27107</v>
+        <v>0.944457</v>
       </c>
       <c r="D117" t="n">
-        <v>2.2484</v>
+        <v>1.96822</v>
       </c>
     </row>
     <row r="118">
@@ -9304,13 +9304,13 @@
         <v>2816546</v>
       </c>
       <c r="B118" t="n">
-        <v>3.11319</v>
+        <v>2.6445</v>
       </c>
       <c r="C118" t="n">
-        <v>1.28154</v>
+        <v>0.960564</v>
       </c>
       <c r="D118" t="n">
-        <v>2.25623</v>
+        <v>1.98053</v>
       </c>
     </row>
     <row r="119">
@@ -9318,13 +9318,13 @@
         <v>2957287</v>
       </c>
       <c r="B119" t="n">
-        <v>3.14012</v>
+        <v>2.65824</v>
       </c>
       <c r="C119" t="n">
-        <v>1.29356</v>
+        <v>0.968905</v>
       </c>
       <c r="D119" t="n">
-        <v>2.2458</v>
+        <v>1.98689</v>
       </c>
     </row>
   </sheetData>
@@ -9372,13 +9372,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.562731</v>
+        <v>0.561365</v>
       </c>
       <c r="C2" t="n">
-        <v>0.358576</v>
+        <v>0.294599</v>
       </c>
       <c r="D2" t="n">
-        <v>0.34537</v>
+        <v>0.345364</v>
       </c>
     </row>
     <row r="3">
@@ -9386,13 +9386,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.565138</v>
+        <v>0.559603</v>
       </c>
       <c r="C3" t="n">
-        <v>0.36136</v>
+        <v>0.297301</v>
       </c>
       <c r="D3" t="n">
-        <v>0.35105</v>
+        <v>0.343364</v>
       </c>
     </row>
     <row r="4">
@@ -9400,13 +9400,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.574394</v>
+        <v>0.559232</v>
       </c>
       <c r="C4" t="n">
-        <v>0.367657</v>
+        <v>0.303909</v>
       </c>
       <c r="D4" t="n">
-        <v>0.353253</v>
+        <v>0.35799</v>
       </c>
     </row>
     <row r="5">
@@ -9414,13 +9414,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.580582</v>
+        <v>0.582303</v>
       </c>
       <c r="C5" t="n">
-        <v>0.373813</v>
+        <v>0.306432</v>
       </c>
       <c r="D5" t="n">
-        <v>0.358663</v>
+        <v>0.35039</v>
       </c>
     </row>
     <row r="6">
@@ -9428,13 +9428,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.588004</v>
+        <v>0.578191</v>
       </c>
       <c r="C6" t="n">
-        <v>0.378529</v>
+        <v>0.312821</v>
       </c>
       <c r="D6" t="n">
-        <v>0.364809</v>
+        <v>0.354622</v>
       </c>
     </row>
     <row r="7">
@@ -9442,13 +9442,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.590538</v>
+        <v>0.577754</v>
       </c>
       <c r="C7" t="n">
-        <v>0.390041</v>
+        <v>0.327413</v>
       </c>
       <c r="D7" t="n">
-        <v>0.374205</v>
+        <v>0.366971</v>
       </c>
     </row>
     <row r="8">
@@ -9456,13 +9456,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.599419</v>
+        <v>0.595478</v>
       </c>
       <c r="C8" t="n">
-        <v>0.391198</v>
+        <v>0.329284</v>
       </c>
       <c r="D8" t="n">
-        <v>0.378294</v>
+        <v>0.371443</v>
       </c>
     </row>
     <row r="9">
@@ -9470,13 +9470,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.61033</v>
+        <v>0.602826</v>
       </c>
       <c r="C9" t="n">
-        <v>0.391323</v>
+        <v>0.332213</v>
       </c>
       <c r="D9" t="n">
-        <v>0.377594</v>
+        <v>0.375161</v>
       </c>
     </row>
     <row r="10">
@@ -9484,13 +9484,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.621629</v>
+        <v>0.6142339999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>0.401384</v>
+        <v>0.340463</v>
       </c>
       <c r="D10" t="n">
-        <v>0.382087</v>
+        <v>0.383646</v>
       </c>
     </row>
     <row r="11">
@@ -9498,13 +9498,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.6249</v>
+        <v>0.629854</v>
       </c>
       <c r="C11" t="n">
-        <v>0.400426</v>
+        <v>0.339436</v>
       </c>
       <c r="D11" t="n">
-        <v>0.383712</v>
+        <v>0.387384</v>
       </c>
     </row>
     <row r="12">
@@ -9512,13 +9512,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.630894</v>
+        <v>0.6330440000000001</v>
       </c>
       <c r="C12" t="n">
-        <v>0.408122</v>
+        <v>0.347264</v>
       </c>
       <c r="D12" t="n">
-        <v>0.396185</v>
+        <v>0.39406</v>
       </c>
     </row>
     <row r="13">
@@ -9526,13 +9526,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.641524</v>
+        <v>0.636189</v>
       </c>
       <c r="C13" t="n">
-        <v>0.407376</v>
+        <v>0.347589</v>
       </c>
       <c r="D13" t="n">
-        <v>0.395882</v>
+        <v>0.400006</v>
       </c>
     </row>
     <row r="14">
@@ -9540,13 +9540,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.646177</v>
+        <v>0.64982</v>
       </c>
       <c r="C14" t="n">
-        <v>0.406129</v>
+        <v>0.34914</v>
       </c>
       <c r="D14" t="n">
-        <v>0.402162</v>
+        <v>0.406486</v>
       </c>
     </row>
     <row r="15">
@@ -9554,13 +9554,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.6601669999999999</v>
+        <v>0.6566610000000001</v>
       </c>
       <c r="C15" t="n">
-        <v>0.417886</v>
+        <v>0.357491</v>
       </c>
       <c r="D15" t="n">
-        <v>0.410199</v>
+        <v>0.407558</v>
       </c>
     </row>
     <row r="16">
@@ -9568,13 +9568,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.659872</v>
+        <v>0.655463</v>
       </c>
       <c r="C16" t="n">
-        <v>0.420286</v>
+        <v>0.362668</v>
       </c>
       <c r="D16" t="n">
-        <v>0.412683</v>
+        <v>0.415796</v>
       </c>
     </row>
     <row r="17">
@@ -9582,13 +9582,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.672051</v>
+        <v>0.6741279999999999</v>
       </c>
       <c r="C17" t="n">
-        <v>0.419968</v>
+        <v>0.364364</v>
       </c>
       <c r="D17" t="n">
-        <v>0.41398</v>
+        <v>0.421932</v>
       </c>
     </row>
     <row r="18">
@@ -9596,13 +9596,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.676794</v>
+        <v>0.6768380000000001</v>
       </c>
       <c r="C18" t="n">
-        <v>0.428724</v>
+        <v>0.3714</v>
       </c>
       <c r="D18" t="n">
-        <v>0.42509</v>
+        <v>0.425163</v>
       </c>
     </row>
     <row r="19">
@@ -9610,13 +9610,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.689805</v>
+        <v>0.68666</v>
       </c>
       <c r="C19" t="n">
-        <v>0.430256</v>
+        <v>0.375165</v>
       </c>
       <c r="D19" t="n">
-        <v>0.429521</v>
+        <v>0.430953</v>
       </c>
     </row>
     <row r="20">
@@ -9624,13 +9624,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.7003819999999999</v>
+        <v>0.697673</v>
       </c>
       <c r="C20" t="n">
-        <v>0.437441</v>
+        <v>0.38252</v>
       </c>
       <c r="D20" t="n">
-        <v>0.433776</v>
+        <v>0.438596</v>
       </c>
     </row>
     <row r="21">
@@ -9638,13 +9638,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.705418</v>
+        <v>0.707145</v>
       </c>
       <c r="C21" t="n">
-        <v>0.437706</v>
+        <v>0.381812</v>
       </c>
       <c r="D21" t="n">
-        <v>0.440126</v>
+        <v>0.444336</v>
       </c>
     </row>
     <row r="22">
@@ -9652,13 +9652,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.708911</v>
+        <v>0.708921</v>
       </c>
       <c r="C22" t="n">
-        <v>0.443112</v>
+        <v>0.386744</v>
       </c>
       <c r="D22" t="n">
-        <v>0.447856</v>
+        <v>0.448937</v>
       </c>
     </row>
     <row r="23">
@@ -9666,13 +9666,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.723333</v>
+        <v>0.726436</v>
       </c>
       <c r="C23" t="n">
-        <v>0.44205</v>
+        <v>0.39011</v>
       </c>
       <c r="D23" t="n">
-        <v>0.445776</v>
+        <v>0.457644</v>
       </c>
     </row>
     <row r="24">
@@ -9680,13 +9680,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.728163</v>
+        <v>0.7285</v>
       </c>
       <c r="C24" t="n">
-        <v>0.447982</v>
+        <v>0.395706</v>
       </c>
       <c r="D24" t="n">
-        <v>0.456938</v>
+        <v>0.459492</v>
       </c>
     </row>
     <row r="25">
@@ -9694,13 +9694,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.741544</v>
+        <v>0.742548</v>
       </c>
       <c r="C25" t="n">
-        <v>0.458936</v>
+        <v>0.408283</v>
       </c>
       <c r="D25" t="n">
-        <v>0.453781</v>
+        <v>0.464688</v>
       </c>
     </row>
     <row r="26">
@@ -9708,13 +9708,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.742143</v>
+        <v>0.744356</v>
       </c>
       <c r="C26" t="n">
-        <v>0.455583</v>
+        <v>0.403899</v>
       </c>
       <c r="D26" t="n">
-        <v>0.465717</v>
+        <v>0.469496</v>
       </c>
     </row>
     <row r="27">
@@ -9722,13 +9722,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.746522</v>
+        <v>0.749382</v>
       </c>
       <c r="C27" t="n">
-        <v>0.459334</v>
+        <v>0.409722</v>
       </c>
       <c r="D27" t="n">
-        <v>0.463352</v>
+        <v>0.473964</v>
       </c>
     </row>
     <row r="28">
@@ -9736,13 +9736,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.753954</v>
+        <v>0.756659</v>
       </c>
       <c r="C28" t="n">
-        <v>0.460883</v>
+        <v>0.412172</v>
       </c>
       <c r="D28" t="n">
-        <v>0.463863</v>
+        <v>0.47513</v>
       </c>
     </row>
     <row r="29">
@@ -9750,13 +9750,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.761228</v>
+        <v>0.76463</v>
       </c>
       <c r="C29" t="n">
-        <v>0.467062</v>
+        <v>0.418107</v>
       </c>
       <c r="D29" t="n">
-        <v>0.469013</v>
+        <v>0.480545</v>
       </c>
     </row>
     <row r="30">
@@ -9764,13 +9764,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.76949</v>
+        <v>0.769715</v>
       </c>
       <c r="C30" t="n">
-        <v>0.472974</v>
+        <v>0.424851</v>
       </c>
       <c r="D30" t="n">
-        <v>0.481175</v>
+        <v>0.486536</v>
       </c>
     </row>
     <row r="31">
@@ -9778,13 +9778,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.780951</v>
+        <v>0.779224</v>
       </c>
       <c r="C31" t="n">
-        <v>0.472948</v>
+        <v>0.425266</v>
       </c>
       <c r="D31" t="n">
-        <v>0.485983</v>
+        <v>0.489607</v>
       </c>
     </row>
     <row r="32">
@@ -9792,13 +9792,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.784466</v>
+        <v>0.78298</v>
       </c>
       <c r="C32" t="n">
-        <v>0.480425</v>
+        <v>0.430183</v>
       </c>
       <c r="D32" t="n">
-        <v>0.489417</v>
+        <v>0.492206</v>
       </c>
     </row>
     <row r="33">
@@ -9806,13 +9806,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.792188</v>
+        <v>0.789534</v>
       </c>
       <c r="C33" t="n">
-        <v>0.482716</v>
+        <v>0.43404</v>
       </c>
       <c r="D33" t="n">
-        <v>0.489966</v>
+        <v>0.493389</v>
       </c>
     </row>
     <row r="34">
@@ -9820,13 +9820,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.797914</v>
+        <v>0.796489</v>
       </c>
       <c r="C34" t="n">
-        <v>0.481584</v>
+        <v>0.436267</v>
       </c>
       <c r="D34" t="n">
-        <v>0.486502</v>
+        <v>0.497738</v>
       </c>
     </row>
     <row r="35">
@@ -9834,13 +9834,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.801303</v>
+        <v>0.800276</v>
       </c>
       <c r="C35" t="n">
-        <v>0.461552</v>
+        <v>0.410738</v>
       </c>
       <c r="D35" t="n">
-        <v>0.493728</v>
+        <v>0.500579</v>
       </c>
     </row>
     <row r="36">
@@ -9848,13 +9848,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.796637</v>
+        <v>0.7957959999999999</v>
       </c>
       <c r="C36" t="n">
-        <v>0.467765</v>
+        <v>0.415747</v>
       </c>
       <c r="D36" t="n">
-        <v>0.499667</v>
+        <v>0.503212</v>
       </c>
     </row>
     <row r="37">
@@ -9862,13 +9862,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.80316</v>
+        <v>0.803385</v>
       </c>
       <c r="C37" t="n">
-        <v>0.469638</v>
+        <v>0.418285</v>
       </c>
       <c r="D37" t="n">
-        <v>0.493021</v>
+        <v>0.504656</v>
       </c>
     </row>
     <row r="38">
@@ -9876,13 +9876,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.804604</v>
+        <v>0.804932</v>
       </c>
       <c r="C38" t="n">
-        <v>0.46684</v>
+        <v>0.419098</v>
       </c>
       <c r="D38" t="n">
-        <v>0.504084</v>
+        <v>0.507881</v>
       </c>
     </row>
     <row r="39">
@@ -9890,13 +9890,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.806803</v>
+        <v>0.8103050000000001</v>
       </c>
       <c r="C39" t="n">
-        <v>0.474748</v>
+        <v>0.425519</v>
       </c>
       <c r="D39" t="n">
-        <v>0.499415</v>
+        <v>0.509857</v>
       </c>
     </row>
     <row r="40">
@@ -9904,13 +9904,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.813041</v>
+        <v>0.818603</v>
       </c>
       <c r="C40" t="n">
-        <v>0.474682</v>
+        <v>0.428521</v>
       </c>
       <c r="D40" t="n">
-        <v>0.510089</v>
+        <v>0.513395</v>
       </c>
     </row>
     <row r="41">
@@ -9918,13 +9918,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.82481</v>
+        <v>0.825125</v>
       </c>
       <c r="C41" t="n">
-        <v>0.477631</v>
+        <v>0.430652</v>
       </c>
       <c r="D41" t="n">
-        <v>0.508879</v>
+        <v>0.514238</v>
       </c>
     </row>
     <row r="42">
@@ -9932,13 +9932,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.824353</v>
+        <v>0.825044</v>
       </c>
       <c r="C42" t="n">
-        <v>0.482489</v>
+        <v>0.43356</v>
       </c>
       <c r="D42" t="n">
-        <v>0.5119050000000001</v>
+        <v>0.516367</v>
       </c>
     </row>
     <row r="43">
@@ -9946,13 +9946,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.8308410000000001</v>
+        <v>0.832148</v>
       </c>
       <c r="C43" t="n">
-        <v>0.480481</v>
+        <v>0.436018</v>
       </c>
       <c r="D43" t="n">
-        <v>0.5172060000000001</v>
+        <v>0.519653</v>
       </c>
     </row>
     <row r="44">
@@ -9960,13 +9960,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.831669</v>
+        <v>0.832925</v>
       </c>
       <c r="C44" t="n">
-        <v>0.480702</v>
+        <v>0.435039</v>
       </c>
       <c r="D44" t="n">
-        <v>0.515041</v>
+        <v>0.521578</v>
       </c>
     </row>
     <row r="45">
@@ -9974,13 +9974,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.837081</v>
+        <v>0.837347</v>
       </c>
       <c r="C45" t="n">
-        <v>0.490095</v>
+        <v>0.440594</v>
       </c>
       <c r="D45" t="n">
-        <v>0.52017</v>
+        <v>0.522056</v>
       </c>
     </row>
     <row r="46">
@@ -9988,13 +9988,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.841649</v>
+        <v>0.842229</v>
       </c>
       <c r="C46" t="n">
-        <v>0.483166</v>
+        <v>0.439744</v>
       </c>
       <c r="D46" t="n">
-        <v>0.521719</v>
+        <v>0.524343</v>
       </c>
     </row>
     <row r="47">
@@ -10002,13 +10002,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.852243</v>
+        <v>0.8517169999999999</v>
       </c>
       <c r="C47" t="n">
-        <v>0.49156</v>
+        <v>0.444362</v>
       </c>
       <c r="D47" t="n">
-        <v>0.527064</v>
+        <v>0.526575</v>
       </c>
     </row>
     <row r="48">
@@ -10016,13 +10016,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.855758</v>
+        <v>0.854705</v>
       </c>
       <c r="C48" t="n">
-        <v>0.493775</v>
+        <v>0.449707</v>
       </c>
       <c r="D48" t="n">
-        <v>0.526814</v>
+        <v>0.528067</v>
       </c>
     </row>
     <row r="49">
@@ -10030,13 +10030,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.859661</v>
+        <v>0.859492</v>
       </c>
       <c r="C49" t="n">
-        <v>0.492075</v>
+        <v>0.450357</v>
       </c>
       <c r="D49" t="n">
-        <v>0.528852</v>
+        <v>0.529926</v>
       </c>
     </row>
     <row r="50">
@@ -10044,13 +10044,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.865451</v>
+        <v>0.866856</v>
       </c>
       <c r="C50" t="n">
-        <v>0.486903</v>
+        <v>0.439927</v>
       </c>
       <c r="D50" t="n">
-        <v>0.525787</v>
+        <v>0.531081</v>
       </c>
     </row>
     <row r="51">
@@ -10058,13 +10058,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.840069</v>
+        <v>0.84429</v>
       </c>
       <c r="C51" t="n">
-        <v>0.488581</v>
+        <v>0.439147</v>
       </c>
       <c r="D51" t="n">
-        <v>0.524393</v>
+        <v>0.5328349999999999</v>
       </c>
     </row>
     <row r="52">
@@ -10072,13 +10072,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.846234</v>
+        <v>0.846155</v>
       </c>
       <c r="C52" t="n">
-        <v>0.491392</v>
+        <v>0.445199</v>
       </c>
       <c r="D52" t="n">
-        <v>0.526878</v>
+        <v>0.534251</v>
       </c>
     </row>
     <row r="53">
@@ -10086,13 +10086,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.85193</v>
+        <v>0.854454</v>
       </c>
       <c r="C53" t="n">
-        <v>0.494785</v>
+        <v>0.449552</v>
       </c>
       <c r="D53" t="n">
-        <v>0.529438</v>
+        <v>0.53594</v>
       </c>
     </row>
     <row r="54">
@@ -10100,13 +10100,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.856272</v>
+        <v>0.859083</v>
       </c>
       <c r="C54" t="n">
-        <v>0.500299</v>
+        <v>0.453404</v>
       </c>
       <c r="D54" t="n">
-        <v>0.534487</v>
+        <v>0.538299</v>
       </c>
     </row>
     <row r="55">
@@ -10114,13 +10114,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.860101</v>
+        <v>0.862249</v>
       </c>
       <c r="C55" t="n">
-        <v>0.502858</v>
+        <v>0.455931</v>
       </c>
       <c r="D55" t="n">
-        <v>0.536484</v>
+        <v>0.541037</v>
       </c>
     </row>
     <row r="56">
@@ -10128,13 +10128,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.861916</v>
+        <v>0.864679</v>
       </c>
       <c r="C56" t="n">
-        <v>0.505726</v>
+        <v>0.45758</v>
       </c>
       <c r="D56" t="n">
-        <v>0.536502</v>
+        <v>0.540693</v>
       </c>
     </row>
     <row r="57">
@@ -10142,13 +10142,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.865269</v>
+        <v>0.8688709999999999</v>
       </c>
       <c r="C57" t="n">
-        <v>0.510393</v>
+        <v>0.465009</v>
       </c>
       <c r="D57" t="n">
-        <v>0.540208</v>
+        <v>0.54237</v>
       </c>
     </row>
     <row r="58">
@@ -10156,13 +10156,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.869884</v>
+        <v>0.871623</v>
       </c>
       <c r="C58" t="n">
-        <v>0.513189</v>
+        <v>0.471455</v>
       </c>
       <c r="D58" t="n">
-        <v>0.539753</v>
+        <v>0.542754</v>
       </c>
     </row>
     <row r="59">
@@ -10170,13 +10170,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.871865</v>
+        <v>0.87339</v>
       </c>
       <c r="C59" t="n">
-        <v>0.520322</v>
+        <v>0.48109</v>
       </c>
       <c r="D59" t="n">
-        <v>0.5397380000000001</v>
+        <v>0.544332</v>
       </c>
     </row>
     <row r="60">
@@ -10184,13 +10184,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.878109</v>
+        <v>0.8811099999999999</v>
       </c>
       <c r="C60" t="n">
-        <v>0.5185689999999999</v>
+        <v>0.485736</v>
       </c>
       <c r="D60" t="n">
-        <v>0.5440120000000001</v>
+        <v>0.548224</v>
       </c>
     </row>
     <row r="61">
@@ -10198,13 +10198,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.877822</v>
+        <v>0.884938</v>
       </c>
       <c r="C61" t="n">
-        <v>0.5280820000000001</v>
+        <v>0.491236</v>
       </c>
       <c r="D61" t="n">
-        <v>0.546534</v>
+        <v>0.552886</v>
       </c>
     </row>
     <row r="62">
@@ -10212,13 +10212,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.887202</v>
+        <v>0.89484</v>
       </c>
       <c r="C62" t="n">
-        <v>0.534139</v>
+        <v>0.497041</v>
       </c>
       <c r="D62" t="n">
-        <v>0.5487880000000001</v>
+        <v>0.5557879999999999</v>
       </c>
     </row>
     <row r="63">
@@ -10226,13 +10226,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.894347</v>
+        <v>0.898255</v>
       </c>
       <c r="C63" t="n">
-        <v>0.544412</v>
+        <v>0.507412</v>
       </c>
       <c r="D63" t="n">
-        <v>0.555214</v>
+        <v>0.558299</v>
       </c>
     </row>
     <row r="64">
@@ -10240,13 +10240,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.903616</v>
+        <v>0.90861</v>
       </c>
       <c r="C64" t="n">
-        <v>0.585051</v>
+        <v>0.547824</v>
       </c>
       <c r="D64" t="n">
-        <v>0.581409</v>
+        <v>0.595696</v>
       </c>
     </row>
     <row r="65">
@@ -10254,13 +10254,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.9269849999999999</v>
+        <v>0.954246</v>
       </c>
       <c r="C65" t="n">
-        <v>0.591749</v>
+        <v>0.559016</v>
       </c>
       <c r="D65" t="n">
-        <v>0.582191</v>
+        <v>0.6026319999999999</v>
       </c>
     </row>
     <row r="66">
@@ -10268,13 +10268,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.9359420000000001</v>
+        <v>0.964287</v>
       </c>
       <c r="C66" t="n">
-        <v>0.597491</v>
+        <v>0.580637</v>
       </c>
       <c r="D66" t="n">
-        <v>0.59693</v>
+        <v>0.613141</v>
       </c>
     </row>
     <row r="67">
@@ -10282,13 +10282,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.959503</v>
+        <v>0.985274</v>
       </c>
       <c r="C67" t="n">
-        <v>0.6257740000000001</v>
+        <v>0.598546</v>
       </c>
       <c r="D67" t="n">
-        <v>0.602189</v>
+        <v>0.627884</v>
       </c>
     </row>
     <row r="68">
@@ -10296,13 +10296,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.961847</v>
+        <v>0.9926469999999999</v>
       </c>
       <c r="C68" t="n">
-        <v>0.648106</v>
+        <v>0.622037</v>
       </c>
       <c r="D68" t="n">
-        <v>0.630063</v>
+        <v>0.638114</v>
       </c>
     </row>
     <row r="69">
@@ -10310,13 +10310,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>1.01165</v>
+        <v>1.0277</v>
       </c>
       <c r="C69" t="n">
-        <v>0.668825</v>
+        <v>0.645525</v>
       </c>
       <c r="D69" t="n">
-        <v>0.629466</v>
+        <v>0.6562210000000001</v>
       </c>
     </row>
     <row r="70">
@@ -10324,13 +10324,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>1.01821</v>
+        <v>1.03724</v>
       </c>
       <c r="C70" t="n">
-        <v>0.684685</v>
+        <v>0.665347</v>
       </c>
       <c r="D70" t="n">
-        <v>0.647207</v>
+        <v>0.672392</v>
       </c>
     </row>
     <row r="71">
@@ -10338,13 +10338,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>1.04912</v>
+        <v>1.08213</v>
       </c>
       <c r="C71" t="n">
-        <v>0.735227</v>
+        <v>0.703531</v>
       </c>
       <c r="D71" t="n">
-        <v>0.672067</v>
+        <v>0.6900309999999999</v>
       </c>
     </row>
     <row r="72">
@@ -10352,13 +10352,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>1.08509</v>
+        <v>1.11043</v>
       </c>
       <c r="C72" t="n">
-        <v>0.744072</v>
+        <v>0.730193</v>
       </c>
       <c r="D72" t="n">
-        <v>0.692773</v>
+        <v>0.718163</v>
       </c>
     </row>
     <row r="73">
@@ -10366,13 +10366,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>1.12324</v>
+        <v>1.15878</v>
       </c>
       <c r="C73" t="n">
-        <v>0.781264</v>
+        <v>0.776903</v>
       </c>
       <c r="D73" t="n">
-        <v>0.711834</v>
+        <v>0.73169</v>
       </c>
     </row>
     <row r="74">
@@ -10380,13 +10380,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.15861</v>
+        <v>1.18564</v>
       </c>
       <c r="C74" t="n">
-        <v>0.81004</v>
+        <v>0.796452</v>
       </c>
       <c r="D74" t="n">
-        <v>0.756107</v>
+        <v>0.755993</v>
       </c>
     </row>
     <row r="75">
@@ -10394,13 +10394,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>1.22616</v>
+        <v>1.22784</v>
       </c>
       <c r="C75" t="n">
-        <v>0.8578249999999999</v>
+        <v>0.823152</v>
       </c>
       <c r="D75" t="n">
-        <v>0.7865180000000001</v>
+        <v>0.787926</v>
       </c>
     </row>
     <row r="76">
@@ -10408,13 +10408,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>1.27619</v>
+        <v>1.27906</v>
       </c>
       <c r="C76" t="n">
-        <v>0.882251</v>
+        <v>0.868256</v>
       </c>
       <c r="D76" t="n">
-        <v>0.814157</v>
+        <v>0.8279570000000001</v>
       </c>
     </row>
     <row r="77">
@@ -10422,13 +10422,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>1.33016</v>
+        <v>1.33275</v>
       </c>
       <c r="C77" t="n">
-        <v>0.925978</v>
+        <v>0.909801</v>
       </c>
       <c r="D77" t="n">
-        <v>0.857657</v>
+        <v>0.867242</v>
       </c>
     </row>
     <row r="78">
@@ -10436,13 +10436,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>1.38547</v>
+        <v>1.41214</v>
       </c>
       <c r="C78" t="n">
-        <v>1.06783</v>
+        <v>1.0495</v>
       </c>
       <c r="D78" t="n">
-        <v>0.977409</v>
+        <v>1.00997</v>
       </c>
     </row>
     <row r="79">
@@ -10450,13 +10450,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.55923</v>
+        <v>1.59903</v>
       </c>
       <c r="C79" t="n">
-        <v>1.10301</v>
+        <v>1.08864</v>
       </c>
       <c r="D79" t="n">
-        <v>1.02514</v>
+        <v>1.05684</v>
       </c>
     </row>
     <row r="80">
@@ -10464,13 +10464,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.62612</v>
+        <v>1.67514</v>
       </c>
       <c r="C80" t="n">
-        <v>1.1364</v>
+        <v>1.1295</v>
       </c>
       <c r="D80" t="n">
-        <v>1.06908</v>
+        <v>1.11745</v>
       </c>
     </row>
     <row r="81">
@@ -10478,13 +10478,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.70709</v>
+        <v>1.76611</v>
       </c>
       <c r="C81" t="n">
-        <v>1.17169</v>
+        <v>1.17087</v>
       </c>
       <c r="D81" t="n">
-        <v>1.13479</v>
+        <v>1.17179</v>
       </c>
     </row>
     <row r="82">
@@ -10492,13 +10492,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.79941</v>
+        <v>1.84617</v>
       </c>
       <c r="C82" t="n">
-        <v>1.20693</v>
+        <v>1.20129</v>
       </c>
       <c r="D82" t="n">
-        <v>1.18346</v>
+        <v>1.22339</v>
       </c>
     </row>
     <row r="83">
@@ -10506,13 +10506,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.88544</v>
+        <v>1.9296</v>
       </c>
       <c r="C83" t="n">
-        <v>1.24945</v>
+        <v>1.24615</v>
       </c>
       <c r="D83" t="n">
-        <v>1.2339</v>
+        <v>1.26985</v>
       </c>
     </row>
     <row r="84">
@@ -10520,13 +10520,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.96911</v>
+        <v>2.01776</v>
       </c>
       <c r="C84" t="n">
-        <v>1.28567</v>
+        <v>1.28875</v>
       </c>
       <c r="D84" t="n">
-        <v>1.30669</v>
+        <v>1.32757</v>
       </c>
     </row>
     <row r="85">
@@ -10534,13 +10534,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>2.06155</v>
+        <v>2.09405</v>
       </c>
       <c r="C85" t="n">
-        <v>1.32295</v>
+        <v>1.33254</v>
       </c>
       <c r="D85" t="n">
-        <v>1.35432</v>
+        <v>1.38586</v>
       </c>
     </row>
     <row r="86">
@@ -10548,13 +10548,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>2.1472</v>
+        <v>2.18852</v>
       </c>
       <c r="C86" t="n">
-        <v>1.35938</v>
+        <v>1.36988</v>
       </c>
       <c r="D86" t="n">
-        <v>1.41419</v>
+        <v>1.4457</v>
       </c>
     </row>
     <row r="87">
@@ -10562,13 +10562,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>2.22777</v>
+        <v>2.27745</v>
       </c>
       <c r="C87" t="n">
-        <v>1.40264</v>
+        <v>1.41206</v>
       </c>
       <c r="D87" t="n">
-        <v>1.47025</v>
+        <v>1.49813</v>
       </c>
     </row>
     <row r="88">
@@ -10576,13 +10576,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>2.3298</v>
+        <v>2.36106</v>
       </c>
       <c r="C88" t="n">
-        <v>1.43922</v>
+        <v>1.45309</v>
       </c>
       <c r="D88" t="n">
-        <v>1.53832</v>
+        <v>1.55829</v>
       </c>
     </row>
     <row r="89">
@@ -10590,13 +10590,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>2.41721</v>
+        <v>2.45071</v>
       </c>
       <c r="C89" t="n">
-        <v>1.47767</v>
+        <v>1.49629</v>
       </c>
       <c r="D89" t="n">
-        <v>1.5908</v>
+        <v>1.60947</v>
       </c>
     </row>
     <row r="90">
@@ -10604,13 +10604,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>2.50004</v>
+        <v>2.53863</v>
       </c>
       <c r="C90" t="n">
-        <v>1.51335</v>
+        <v>1.53198</v>
       </c>
       <c r="D90" t="n">
-        <v>1.65316</v>
+        <v>1.66356</v>
       </c>
     </row>
     <row r="91">
@@ -10618,13 +10618,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>2.59585</v>
+        <v>2.62195</v>
       </c>
       <c r="C91" t="n">
-        <v>1.54666</v>
+        <v>1.58012</v>
       </c>
       <c r="D91" t="n">
-        <v>1.70048</v>
+        <v>1.71532</v>
       </c>
     </row>
     <row r="92">
@@ -10632,13 +10632,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>2.68382</v>
+        <v>2.70888</v>
       </c>
       <c r="C92" t="n">
-        <v>1.65199</v>
+        <v>1.65174</v>
       </c>
       <c r="D92" t="n">
-        <v>1.82211</v>
+        <v>1.83147</v>
       </c>
     </row>
     <row r="93">
@@ -10646,13 +10646,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>2.84842</v>
+        <v>2.87567</v>
       </c>
       <c r="C93" t="n">
-        <v>1.68556</v>
+        <v>1.68894</v>
       </c>
       <c r="D93" t="n">
-        <v>1.87626</v>
+        <v>1.87778</v>
       </c>
     </row>
     <row r="94">
@@ -10660,13 +10660,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>2.92219</v>
+        <v>2.94748</v>
       </c>
       <c r="C94" t="n">
-        <v>1.70974</v>
+        <v>1.71946</v>
       </c>
       <c r="D94" t="n">
-        <v>1.91699</v>
+        <v>1.92885</v>
       </c>
     </row>
     <row r="95">
@@ -10674,13 +10674,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>2.98858</v>
+        <v>3.01328</v>
       </c>
       <c r="C95" t="n">
-        <v>1.7467</v>
+        <v>1.75434</v>
       </c>
       <c r="D95" t="n">
-        <v>1.95768</v>
+        <v>1.97123</v>
       </c>
     </row>
     <row r="96">
@@ -10688,13 +10688,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>3.05015</v>
+        <v>3.09325</v>
       </c>
       <c r="C96" t="n">
-        <v>1.77009</v>
+        <v>1.79273</v>
       </c>
       <c r="D96" t="n">
-        <v>2.00381</v>
+        <v>2.01713</v>
       </c>
     </row>
     <row r="97">
@@ -10702,13 +10702,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>3.12084</v>
+        <v>3.16318</v>
       </c>
       <c r="C97" t="n">
-        <v>1.80165</v>
+        <v>1.81738</v>
       </c>
       <c r="D97" t="n">
-        <v>2.04935</v>
+        <v>2.05536</v>
       </c>
     </row>
     <row r="98">
@@ -10716,13 +10716,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>3.20508</v>
+        <v>3.23298</v>
       </c>
       <c r="C98" t="n">
-        <v>1.82843</v>
+        <v>1.85511</v>
       </c>
       <c r="D98" t="n">
-        <v>2.09641</v>
+        <v>2.09987</v>
       </c>
     </row>
     <row r="99">
@@ -10730,13 +10730,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>3.27291</v>
+        <v>3.30664</v>
       </c>
       <c r="C99" t="n">
-        <v>1.87735</v>
+        <v>1.90465</v>
       </c>
       <c r="D99" t="n">
-        <v>2.13412</v>
+        <v>2.14388</v>
       </c>
     </row>
     <row r="100">
@@ -10744,13 +10744,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>3.33491</v>
+        <v>3.36449</v>
       </c>
       <c r="C100" t="n">
-        <v>1.90073</v>
+        <v>1.91892</v>
       </c>
       <c r="D100" t="n">
-        <v>2.17935</v>
+        <v>2.17426</v>
       </c>
     </row>
     <row r="101">
@@ -10758,13 +10758,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>3.40371</v>
+        <v>3.41719</v>
       </c>
       <c r="C101" t="n">
-        <v>1.92259</v>
+        <v>1.94458</v>
       </c>
       <c r="D101" t="n">
-        <v>2.21343</v>
+        <v>2.20441</v>
       </c>
     </row>
     <row r="102">
@@ -10772,13 +10772,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>3.46055</v>
+        <v>3.47883</v>
       </c>
       <c r="C102" t="n">
-        <v>1.97068</v>
+        <v>1.98577</v>
       </c>
       <c r="D102" t="n">
-        <v>2.23951</v>
+        <v>2.23872</v>
       </c>
     </row>
     <row r="103">
@@ -10786,13 +10786,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>3.51376</v>
+        <v>3.54689</v>
       </c>
       <c r="C103" t="n">
-        <v>1.99005</v>
+        <v>2.02352</v>
       </c>
       <c r="D103" t="n">
-        <v>2.28489</v>
+        <v>2.28075</v>
       </c>
     </row>
     <row r="104">
@@ -10800,13 +10800,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>3.56444</v>
+        <v>3.58752</v>
       </c>
       <c r="C104" t="n">
-        <v>2.02506</v>
+        <v>2.0531</v>
       </c>
       <c r="D104" t="n">
-        <v>2.31113</v>
+        <v>2.29909</v>
       </c>
     </row>
     <row r="105">
@@ -10814,13 +10814,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>3.6248</v>
+        <v>3.65742</v>
       </c>
       <c r="C105" t="n">
-        <v>2.05075</v>
+        <v>2.0865</v>
       </c>
       <c r="D105" t="n">
-        <v>2.35453</v>
+        <v>2.32969</v>
       </c>
     </row>
     <row r="106">
@@ -10828,13 +10828,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>3.6754</v>
+        <v>3.69623</v>
       </c>
       <c r="C106" t="n">
-        <v>2.07968</v>
+        <v>2.10079</v>
       </c>
       <c r="D106" t="n">
-        <v>2.36929</v>
+        <v>2.37426</v>
       </c>
     </row>
     <row r="107">
@@ -10842,13 +10842,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>3.69282</v>
+        <v>3.70423</v>
       </c>
       <c r="C107" t="n">
-        <v>2.07771</v>
+        <v>2.08663</v>
       </c>
       <c r="D107" t="n">
-        <v>2.44211</v>
+        <v>2.4182</v>
       </c>
     </row>
     <row r="108">
@@ -10856,13 +10856,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>3.73297</v>
+        <v>3.75812</v>
       </c>
       <c r="C108" t="n">
-        <v>2.10049</v>
+        <v>2.10974</v>
       </c>
       <c r="D108" t="n">
-        <v>2.45175</v>
+        <v>2.45402</v>
       </c>
     </row>
     <row r="109">
@@ -10870,13 +10870,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>3.79055</v>
+        <v>3.78548</v>
       </c>
       <c r="C109" t="n">
-        <v>2.1264</v>
+        <v>2.11197</v>
       </c>
       <c r="D109" t="n">
-        <v>2.47776</v>
+        <v>2.46557</v>
       </c>
     </row>
     <row r="110">
@@ -10884,13 +10884,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>3.84645</v>
+        <v>3.82235</v>
       </c>
       <c r="C110" t="n">
-        <v>2.14016</v>
+        <v>2.15596</v>
       </c>
       <c r="D110" t="n">
-        <v>2.50441</v>
+        <v>2.50066</v>
       </c>
     </row>
     <row r="111">
@@ -10898,13 +10898,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>3.89217</v>
+        <v>3.89149</v>
       </c>
       <c r="C111" t="n">
-        <v>2.17107</v>
+        <v>2.17243</v>
       </c>
       <c r="D111" t="n">
-        <v>2.52747</v>
+        <v>2.52398</v>
       </c>
     </row>
     <row r="112">
@@ -10912,13 +10912,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>3.93312</v>
+        <v>3.93662</v>
       </c>
       <c r="C112" t="n">
-        <v>2.19156</v>
+        <v>2.2022</v>
       </c>
       <c r="D112" t="n">
-        <v>2.55938</v>
+        <v>2.55285</v>
       </c>
     </row>
     <row r="113">
@@ -10926,13 +10926,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>3.9852</v>
+        <v>3.9729</v>
       </c>
       <c r="C113" t="n">
-        <v>2.22078</v>
+        <v>2.22221</v>
       </c>
       <c r="D113" t="n">
-        <v>2.57887</v>
+        <v>2.58564</v>
       </c>
     </row>
     <row r="114">
@@ -10940,13 +10940,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>4.03978</v>
+        <v>4.02512</v>
       </c>
       <c r="C114" t="n">
-        <v>2.23466</v>
+        <v>2.25373</v>
       </c>
       <c r="D114" t="n">
-        <v>2.60514</v>
+        <v>2.59286</v>
       </c>
     </row>
     <row r="115">
@@ -10954,13 +10954,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>4.06219</v>
+        <v>4.0637</v>
       </c>
       <c r="C115" t="n">
-        <v>2.26745</v>
+        <v>2.25971</v>
       </c>
       <c r="D115" t="n">
-        <v>2.63182</v>
+        <v>2.61099</v>
       </c>
     </row>
     <row r="116">
@@ -10968,13 +10968,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>4.12795</v>
+        <v>4.09713</v>
       </c>
       <c r="C116" t="n">
-        <v>2.29705</v>
+        <v>2.29475</v>
       </c>
       <c r="D116" t="n">
-        <v>2.66153</v>
+        <v>2.64199</v>
       </c>
     </row>
     <row r="117">
@@ -10982,13 +10982,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>4.15818</v>
+        <v>4.14193</v>
       </c>
       <c r="C117" t="n">
-        <v>2.31094</v>
+        <v>2.33027</v>
       </c>
       <c r="D117" t="n">
-        <v>2.67541</v>
+        <v>2.66342</v>
       </c>
     </row>
     <row r="118">
@@ -10996,13 +10996,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>4.20727</v>
+        <v>4.18636</v>
       </c>
       <c r="C118" t="n">
-        <v>2.35034</v>
+        <v>2.37565</v>
       </c>
       <c r="D118" t="n">
-        <v>2.69733</v>
+        <v>2.68959</v>
       </c>
     </row>
     <row r="119">
@@ -11010,13 +11010,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>4.2481</v>
+        <v>4.22512</v>
       </c>
       <c r="C119" t="n">
-        <v>2.37853</v>
+        <v>2.38152</v>
       </c>
       <c r="D119" t="n">
-        <v>2.71708</v>
+        <v>2.69872</v>
       </c>
     </row>
   </sheetData>
@@ -11064,13 +11064,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.591911</v>
+        <v>0.585384</v>
       </c>
       <c r="C2" t="n">
-        <v>0.376692</v>
+        <v>0.314288</v>
       </c>
       <c r="D2" t="n">
-        <v>0.344253</v>
+        <v>0.340977</v>
       </c>
     </row>
     <row r="3">
@@ -11078,13 +11078,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.598648</v>
+        <v>0.588599</v>
       </c>
       <c r="C3" t="n">
-        <v>0.379305</v>
+        <v>0.317042</v>
       </c>
       <c r="D3" t="n">
-        <v>0.351224</v>
+        <v>0.34423</v>
       </c>
     </row>
     <row r="4">
@@ -11092,13 +11092,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.613714</v>
+        <v>0.598624</v>
       </c>
       <c r="C4" t="n">
-        <v>0.384079</v>
+        <v>0.321278</v>
       </c>
       <c r="D4" t="n">
-        <v>0.356157</v>
+        <v>0.34658</v>
       </c>
     </row>
     <row r="5">
@@ -11106,13 +11106,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.617875</v>
+        <v>0.609229</v>
       </c>
       <c r="C5" t="n">
-        <v>0.394453</v>
+        <v>0.333761</v>
       </c>
       <c r="D5" t="n">
-        <v>0.360288</v>
+        <v>0.353873</v>
       </c>
     </row>
     <row r="6">
@@ -11120,13 +11120,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.6306310000000001</v>
+        <v>0.620075</v>
       </c>
       <c r="C6" t="n">
-        <v>0.393506</v>
+        <v>0.336637</v>
       </c>
       <c r="D6" t="n">
-        <v>0.364452</v>
+        <v>0.358505</v>
       </c>
     </row>
     <row r="7">
@@ -11134,13 +11134,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.637352</v>
+        <v>0.625264</v>
       </c>
       <c r="C7" t="n">
-        <v>0.406426</v>
+        <v>0.345976</v>
       </c>
       <c r="D7" t="n">
-        <v>0.371798</v>
+        <v>0.362591</v>
       </c>
     </row>
     <row r="8">
@@ -11148,13 +11148,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.6475</v>
+        <v>0.637723</v>
       </c>
       <c r="C8" t="n">
-        <v>0.416099</v>
+        <v>0.359197</v>
       </c>
       <c r="D8" t="n">
-        <v>0.374127</v>
+        <v>0.367299</v>
       </c>
     </row>
     <row r="9">
@@ -11162,13 +11162,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.654522</v>
+        <v>0.64619</v>
       </c>
       <c r="C9" t="n">
-        <v>0.421171</v>
+        <v>0.362454</v>
       </c>
       <c r="D9" t="n">
-        <v>0.378298</v>
+        <v>0.372969</v>
       </c>
     </row>
     <row r="10">
@@ -11176,13 +11176,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.669392</v>
+        <v>0.648351</v>
       </c>
       <c r="C10" t="n">
-        <v>0.431989</v>
+        <v>0.369531</v>
       </c>
       <c r="D10" t="n">
-        <v>0.383154</v>
+        <v>0.372479</v>
       </c>
     </row>
     <row r="11">
@@ -11190,13 +11190,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.675632</v>
+        <v>0.652443</v>
       </c>
       <c r="C11" t="n">
-        <v>0.418588</v>
+        <v>0.34878</v>
       </c>
       <c r="D11" t="n">
-        <v>0.384898</v>
+        <v>0.368812</v>
       </c>
     </row>
     <row r="12">
@@ -11204,13 +11204,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.65063</v>
+        <v>0.625865</v>
       </c>
       <c r="C12" t="n">
-        <v>0.423651</v>
+        <v>0.352618</v>
       </c>
       <c r="D12" t="n">
-        <v>0.391293</v>
+        <v>0.375958</v>
       </c>
     </row>
     <row r="13">
@@ -11218,13 +11218,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.659861</v>
+        <v>0.6394339999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>0.425523</v>
+        <v>0.36006</v>
       </c>
       <c r="D13" t="n">
-        <v>0.394159</v>
+        <v>0.3814</v>
       </c>
     </row>
     <row r="14">
@@ -11232,13 +11232,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.666884</v>
+        <v>0.649636</v>
       </c>
       <c r="C14" t="n">
-        <v>0.433603</v>
+        <v>0.370678</v>
       </c>
       <c r="D14" t="n">
-        <v>0.397596</v>
+        <v>0.387081</v>
       </c>
     </row>
     <row r="15">
@@ -11246,13 +11246,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.683343</v>
+        <v>0.668306</v>
       </c>
       <c r="C15" t="n">
-        <v>0.443995</v>
+        <v>0.378738</v>
       </c>
       <c r="D15" t="n">
-        <v>0.407561</v>
+        <v>0.397431</v>
       </c>
     </row>
     <row r="16">
@@ -11260,13 +11260,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.692925</v>
+        <v>0.674332</v>
       </c>
       <c r="C16" t="n">
-        <v>0.453158</v>
+        <v>0.390038</v>
       </c>
       <c r="D16" t="n">
-        <v>0.413034</v>
+        <v>0.40207</v>
       </c>
     </row>
     <row r="17">
@@ -11274,13 +11274,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.7060920000000001</v>
+        <v>0.686119</v>
       </c>
       <c r="C17" t="n">
-        <v>0.455559</v>
+        <v>0.395206</v>
       </c>
       <c r="D17" t="n">
-        <v>0.415205</v>
+        <v>0.404074</v>
       </c>
     </row>
     <row r="18">
@@ -11288,13 +11288,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.715302</v>
+        <v>0.69785</v>
       </c>
       <c r="C18" t="n">
-        <v>0.45685</v>
+        <v>0.39724</v>
       </c>
       <c r="D18" t="n">
-        <v>0.420542</v>
+        <v>0.410718</v>
       </c>
     </row>
     <row r="19">
@@ -11302,13 +11302,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.726267</v>
+        <v>0.706001</v>
       </c>
       <c r="C19" t="n">
-        <v>0.471092</v>
+        <v>0.406253</v>
       </c>
       <c r="D19" t="n">
-        <v>0.426787</v>
+        <v>0.415685</v>
       </c>
     </row>
     <row r="20">
@@ -11316,13 +11316,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.74319</v>
+        <v>0.723039</v>
       </c>
       <c r="C20" t="n">
-        <v>0.4828</v>
+        <v>0.42045</v>
       </c>
       <c r="D20" t="n">
-        <v>0.431779</v>
+        <v>0.419893</v>
       </c>
     </row>
     <row r="21">
@@ -11330,13 +11330,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.754044</v>
+        <v>0.733832</v>
       </c>
       <c r="C21" t="n">
-        <v>0.494509</v>
+        <v>0.429345</v>
       </c>
       <c r="D21" t="n">
-        <v>0.437797</v>
+        <v>0.426507</v>
       </c>
     </row>
     <row r="22">
@@ -11344,13 +11344,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.763186</v>
+        <v>0.740007</v>
       </c>
       <c r="C22" t="n">
-        <v>0.501008</v>
+        <v>0.439722</v>
       </c>
       <c r="D22" t="n">
-        <v>0.442732</v>
+        <v>0.431242</v>
       </c>
     </row>
     <row r="23">
@@ -11358,13 +11358,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.785044</v>
+        <v>0.761816</v>
       </c>
       <c r="C23" t="n">
-        <v>0.509976</v>
+        <v>0.444613</v>
       </c>
       <c r="D23" t="n">
-        <v>0.449298</v>
+        <v>0.437777</v>
       </c>
     </row>
     <row r="24">
@@ -11372,13 +11372,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.798299</v>
+        <v>0.776401</v>
       </c>
       <c r="C24" t="n">
-        <v>0.520915</v>
+        <v>0.459651</v>
       </c>
       <c r="D24" t="n">
-        <v>0.452479</v>
+        <v>0.44111</v>
       </c>
     </row>
     <row r="25">
@@ -11386,13 +11386,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.811002</v>
+        <v>0.789112</v>
       </c>
       <c r="C25" t="n">
-        <v>0.536736</v>
+        <v>0.475317</v>
       </c>
       <c r="D25" t="n">
-        <v>0.461197</v>
+        <v>0.449728</v>
       </c>
     </row>
     <row r="26">
@@ -11400,13 +11400,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.828533</v>
+        <v>0.806548</v>
       </c>
       <c r="C26" t="n">
-        <v>0.477751</v>
+        <v>0.41683</v>
       </c>
       <c r="D26" t="n">
-        <v>0.463919</v>
+        <v>0.452968</v>
       </c>
     </row>
     <row r="27">
@@ -11414,13 +11414,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.790503</v>
+        <v>0.769051</v>
       </c>
       <c r="C27" t="n">
-        <v>0.487138</v>
+        <v>0.425942</v>
       </c>
       <c r="D27" t="n">
-        <v>0.46848</v>
+        <v>0.457117</v>
       </c>
     </row>
     <row r="28">
@@ -11428,13 +11428,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.798662</v>
+        <v>0.779575</v>
       </c>
       <c r="C28" t="n">
-        <v>0.490912</v>
+        <v>0.431458</v>
       </c>
       <c r="D28" t="n">
-        <v>0.47225</v>
+        <v>0.461091</v>
       </c>
     </row>
     <row r="29">
@@ -11442,13 +11442,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.811315</v>
+        <v>0.791511</v>
       </c>
       <c r="C29" t="n">
-        <v>0.494681</v>
+        <v>0.436963</v>
       </c>
       <c r="D29" t="n">
-        <v>0.476855</v>
+        <v>0.465784</v>
       </c>
     </row>
     <row r="30">
@@ -11456,13 +11456,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.8227680000000001</v>
+        <v>0.8020929999999999</v>
       </c>
       <c r="C30" t="n">
-        <v>0.504715</v>
+        <v>0.445664</v>
       </c>
       <c r="D30" t="n">
-        <v>0.482007</v>
+        <v>0.471439</v>
       </c>
     </row>
     <row r="31">
@@ -11470,13 +11470,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.8350030000000001</v>
+        <v>0.816348</v>
       </c>
       <c r="C31" t="n">
-        <v>0.510348</v>
+        <v>0.453986</v>
       </c>
       <c r="D31" t="n">
-        <v>0.486186</v>
+        <v>0.476926</v>
       </c>
     </row>
     <row r="32">
@@ -11484,13 +11484,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.848824</v>
+        <v>0.83039</v>
       </c>
       <c r="C32" t="n">
-        <v>0.519719</v>
+        <v>0.462594</v>
       </c>
       <c r="D32" t="n">
-        <v>0.490575</v>
+        <v>0.480575</v>
       </c>
     </row>
     <row r="33">
@@ -11498,13 +11498,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.857389</v>
+        <v>0.84104</v>
       </c>
       <c r="C33" t="n">
-        <v>0.525794</v>
+        <v>0.470159</v>
       </c>
       <c r="D33" t="n">
-        <v>0.49393</v>
+        <v>0.484566</v>
       </c>
     </row>
     <row r="34">
@@ -11512,13 +11512,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.871973</v>
+        <v>0.8565970000000001</v>
       </c>
       <c r="C34" t="n">
-        <v>0.535416</v>
+        <v>0.480694</v>
       </c>
       <c r="D34" t="n">
-        <v>0.496752</v>
+        <v>0.488485</v>
       </c>
     </row>
     <row r="35">
@@ -11526,13 +11526,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.882993</v>
+        <v>0.867855</v>
       </c>
       <c r="C35" t="n">
-        <v>0.543403</v>
+        <v>0.490599</v>
       </c>
       <c r="D35" t="n">
-        <v>0.499582</v>
+        <v>0.492116</v>
       </c>
     </row>
     <row r="36">
@@ -11540,13 +11540,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.89719</v>
+        <v>0.882207</v>
       </c>
       <c r="C36" t="n">
-        <v>0.556324</v>
+        <v>0.503789</v>
       </c>
       <c r="D36" t="n">
-        <v>0.502497</v>
+        <v>0.495692</v>
       </c>
     </row>
     <row r="37">
@@ -11554,13 +11554,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.909254</v>
+        <v>0.895979</v>
       </c>
       <c r="C37" t="n">
-        <v>0.565922</v>
+        <v>0.515711</v>
       </c>
       <c r="D37" t="n">
-        <v>0.506231</v>
+        <v>0.498605</v>
       </c>
     </row>
     <row r="38">
@@ -11568,13 +11568,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.924875</v>
+        <v>0.912673</v>
       </c>
       <c r="C38" t="n">
-        <v>0.574784</v>
+        <v>0.524333</v>
       </c>
       <c r="D38" t="n">
-        <v>0.509154</v>
+        <v>0.50266</v>
       </c>
     </row>
     <row r="39">
@@ -11582,13 +11582,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.936437</v>
+        <v>0.925392</v>
       </c>
       <c r="C39" t="n">
-        <v>0.586842</v>
+        <v>0.538801</v>
       </c>
       <c r="D39" t="n">
-        <v>0.512093</v>
+        <v>0.506752</v>
       </c>
     </row>
     <row r="40">
@@ -11596,13 +11596,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.951305</v>
+        <v>0.939076</v>
       </c>
       <c r="C40" t="n">
-        <v>0.5374139999999999</v>
+        <v>0.490874</v>
       </c>
       <c r="D40" t="n">
-        <v>0.51458</v>
+        <v>0.510675</v>
       </c>
     </row>
     <row r="41">
@@ -11610,13 +11610,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.885497</v>
+        <v>0.879726</v>
       </c>
       <c r="C41" t="n">
-        <v>0.54152</v>
+        <v>0.496653</v>
       </c>
       <c r="D41" t="n">
-        <v>0.5179009999999999</v>
+        <v>0.5145690000000001</v>
       </c>
     </row>
     <row r="42">
@@ -11624,13 +11624,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.897246</v>
+        <v>0.892837</v>
       </c>
       <c r="C42" t="n">
-        <v>0.550327</v>
+        <v>0.503923</v>
       </c>
       <c r="D42" t="n">
-        <v>0.521224</v>
+        <v>0.51757</v>
       </c>
     </row>
     <row r="43">
@@ -11638,13 +11638,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.906043</v>
+        <v>0.901087</v>
       </c>
       <c r="C43" t="n">
-        <v>0.55362</v>
+        <v>0.510655</v>
       </c>
       <c r="D43" t="n">
-        <v>0.523979</v>
+        <v>0.521111</v>
       </c>
     </row>
     <row r="44">
@@ -11652,13 +11652,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.9104409999999999</v>
+        <v>0.905183</v>
       </c>
       <c r="C44" t="n">
-        <v>0.561393</v>
+        <v>0.51885</v>
       </c>
       <c r="D44" t="n">
-        <v>0.525778</v>
+        <v>0.523139</v>
       </c>
     </row>
     <row r="45">
@@ -11666,13 +11666,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.924468</v>
+        <v>0.919582</v>
       </c>
       <c r="C45" t="n">
-        <v>0.568286</v>
+        <v>0.5236150000000001</v>
       </c>
       <c r="D45" t="n">
-        <v>0.527569</v>
+        <v>0.525164</v>
       </c>
     </row>
     <row r="46">
@@ -11680,13 +11680,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.930486</v>
+        <v>0.924448</v>
       </c>
       <c r="C46" t="n">
-        <v>0.579792</v>
+        <v>0.535039</v>
       </c>
       <c r="D46" t="n">
-        <v>0.530455</v>
+        <v>0.528048</v>
       </c>
     </row>
     <row r="47">
@@ -11694,13 +11694,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.9423280000000001</v>
+        <v>0.938089</v>
       </c>
       <c r="C47" t="n">
-        <v>0.584861</v>
+        <v>0.54053</v>
       </c>
       <c r="D47" t="n">
-        <v>0.531616</v>
+        <v>0.529272</v>
       </c>
     </row>
     <row r="48">
@@ -11708,13 +11708,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.952987</v>
+        <v>0.949372</v>
       </c>
       <c r="C48" t="n">
-        <v>0.593672</v>
+        <v>0.550498</v>
       </c>
       <c r="D48" t="n">
-        <v>0.533489</v>
+        <v>0.530882</v>
       </c>
     </row>
     <row r="49">
@@ -11722,13 +11722,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.959665</v>
+        <v>0.954846</v>
       </c>
       <c r="C49" t="n">
-        <v>0.59995</v>
+        <v>0.558481</v>
       </c>
       <c r="D49" t="n">
-        <v>0.53683</v>
+        <v>0.53516</v>
       </c>
     </row>
     <row r="50">
@@ -11736,13 +11736,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.974048</v>
+        <v>0.969713</v>
       </c>
       <c r="C50" t="n">
-        <v>0.609167</v>
+        <v>0.567043</v>
       </c>
       <c r="D50" t="n">
-        <v>0.539284</v>
+        <v>0.5373329999999999</v>
       </c>
     </row>
     <row r="51">
@@ -11750,13 +11750,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.98137</v>
+        <v>0.9773849999999999</v>
       </c>
       <c r="C51" t="n">
-        <v>0.621536</v>
+        <v>0.58011</v>
       </c>
       <c r="D51" t="n">
-        <v>0.53956</v>
+        <v>0.5374989999999999</v>
       </c>
     </row>
     <row r="52">
@@ -11764,13 +11764,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.995549</v>
+        <v>0.993287</v>
       </c>
       <c r="C52" t="n">
-        <v>0.6315190000000001</v>
+        <v>0.591029</v>
       </c>
       <c r="D52" t="n">
-        <v>0.543314</v>
+        <v>0.54092</v>
       </c>
     </row>
     <row r="53">
@@ -11778,13 +11778,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>1.00413</v>
+        <v>1.00101</v>
       </c>
       <c r="C53" t="n">
-        <v>0.638608</v>
+        <v>0.597514</v>
       </c>
       <c r="D53" t="n">
-        <v>0.54189</v>
+        <v>0.5402400000000001</v>
       </c>
     </row>
     <row r="54">
@@ -11792,13 +11792,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>1.01427</v>
+        <v>1.01149</v>
       </c>
       <c r="C54" t="n">
-        <v>0.577664</v>
+        <v>0.533886</v>
       </c>
       <c r="D54" t="n">
-        <v>0.544111</v>
+        <v>0.5419620000000001</v>
       </c>
     </row>
     <row r="55">
@@ -11806,13 +11806,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.942314</v>
+        <v>0.940057</v>
       </c>
       <c r="C55" t="n">
-        <v>0.578435</v>
+        <v>0.536151</v>
       </c>
       <c r="D55" t="n">
-        <v>0.546049</v>
+        <v>0.544443</v>
       </c>
     </row>
     <row r="56">
@@ -11820,13 +11820,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.950897</v>
+        <v>0.947487</v>
       </c>
       <c r="C56" t="n">
-        <v>0.588008</v>
+        <v>0.5451859999999999</v>
       </c>
       <c r="D56" t="n">
-        <v>0.547015</v>
+        <v>0.54518</v>
       </c>
     </row>
     <row r="57">
@@ -11834,13 +11834,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.958005</v>
+        <v>0.95572</v>
       </c>
       <c r="C57" t="n">
-        <v>0.594321</v>
+        <v>0.552918</v>
       </c>
       <c r="D57" t="n">
-        <v>0.547651</v>
+        <v>0.546526</v>
       </c>
     </row>
     <row r="58">
@@ -11848,13 +11848,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.9661999999999999</v>
+        <v>0.964781</v>
       </c>
       <c r="C58" t="n">
-        <v>0.601733</v>
+        <v>0.561146</v>
       </c>
       <c r="D58" t="n">
-        <v>0.549797</v>
+        <v>0.548698</v>
       </c>
     </row>
     <row r="59">
@@ -11862,13 +11862,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.975455</v>
+        <v>0.973905</v>
       </c>
       <c r="C59" t="n">
-        <v>0.60814</v>
+        <v>0.569044</v>
       </c>
       <c r="D59" t="n">
-        <v>0.551516</v>
+        <v>0.551087</v>
       </c>
     </row>
     <row r="60">
@@ -11876,13 +11876,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.983316</v>
+        <v>0.9813809999999999</v>
       </c>
       <c r="C60" t="n">
-        <v>0.617084</v>
+        <v>0.57778</v>
       </c>
       <c r="D60" t="n">
-        <v>0.552489</v>
+        <v>0.550759</v>
       </c>
     </row>
     <row r="61">
@@ -11890,13 +11890,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.991807</v>
+        <v>0.989897</v>
       </c>
       <c r="C61" t="n">
-        <v>0.624696</v>
+        <v>0.588357</v>
       </c>
       <c r="D61" t="n">
-        <v>0.556067</v>
+        <v>0.554666</v>
       </c>
     </row>
     <row r="62">
@@ -11904,13 +11904,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>1.004</v>
+        <v>1.00187</v>
       </c>
       <c r="C62" t="n">
-        <v>0.633879</v>
+        <v>0.596423</v>
       </c>
       <c r="D62" t="n">
-        <v>0.555903</v>
+        <v>0.554748</v>
       </c>
     </row>
     <row r="63">
@@ -11918,13 +11918,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>1.01519</v>
+        <v>1.01308</v>
       </c>
       <c r="C63" t="n">
-        <v>0.644957</v>
+        <v>0.609664</v>
       </c>
       <c r="D63" t="n">
-        <v>0.557437</v>
+        <v>0.557206</v>
       </c>
     </row>
     <row r="64">
@@ -11932,13 +11932,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>1.01954</v>
+        <v>1.01926</v>
       </c>
       <c r="C64" t="n">
-        <v>0.656824</v>
+        <v>0.6202220000000001</v>
       </c>
       <c r="D64" t="n">
-        <v>0.559101</v>
+        <v>0.559613</v>
       </c>
     </row>
     <row r="65">
@@ -11946,13 +11946,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>1.03157</v>
+        <v>1.03141</v>
       </c>
       <c r="C65" t="n">
-        <v>0.6730429999999999</v>
+        <v>0.637584</v>
       </c>
       <c r="D65" t="n">
-        <v>0.561236</v>
+        <v>0.562293</v>
       </c>
     </row>
     <row r="66">
@@ -11960,13 +11960,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>1.04137</v>
+        <v>1.04177</v>
       </c>
       <c r="C66" t="n">
-        <v>0.6865059999999999</v>
+        <v>0.649358</v>
       </c>
       <c r="D66" t="n">
-        <v>0.563736</v>
+        <v>0.564615</v>
       </c>
     </row>
     <row r="67">
@@ -11974,13 +11974,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.0579</v>
+        <v>1.06097</v>
       </c>
       <c r="C67" t="n">
-        <v>0.706457</v>
+        <v>0.670628</v>
       </c>
       <c r="D67" t="n">
-        <v>0.564836</v>
+        <v>0.566733</v>
       </c>
     </row>
     <row r="68">
@@ -11988,13 +11988,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>1.0706</v>
+        <v>1.08493</v>
       </c>
       <c r="C68" t="n">
-        <v>0.639688</v>
+        <v>0.595823</v>
       </c>
       <c r="D68" t="n">
-        <v>0.579392</v>
+        <v>0.580136</v>
       </c>
     </row>
     <row r="69">
@@ -12002,13 +12002,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>1.02275</v>
+        <v>1.01532</v>
       </c>
       <c r="C69" t="n">
-        <v>0.663005</v>
+        <v>0.620924</v>
       </c>
       <c r="D69" t="n">
-        <v>0.5871150000000001</v>
+        <v>0.587726</v>
       </c>
     </row>
     <row r="70">
@@ -12016,13 +12016,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>1.04178</v>
+        <v>1.03777</v>
       </c>
       <c r="C70" t="n">
-        <v>0.68788</v>
+        <v>0.644763</v>
       </c>
       <c r="D70" t="n">
-        <v>0.601033</v>
+        <v>0.600607</v>
       </c>
     </row>
     <row r="71">
@@ -12030,13 +12030,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>1.0686</v>
+        <v>1.06446</v>
       </c>
       <c r="C71" t="n">
-        <v>0.720245</v>
+        <v>0.6793439999999999</v>
       </c>
       <c r="D71" t="n">
-        <v>0.615787</v>
+        <v>0.616644</v>
       </c>
     </row>
     <row r="72">
@@ -12044,13 +12044,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>1.1002</v>
+        <v>1.09993</v>
       </c>
       <c r="C72" t="n">
-        <v>0.7480869999999999</v>
+        <v>0.711459</v>
       </c>
       <c r="D72" t="n">
-        <v>0.631332</v>
+        <v>0.635655</v>
       </c>
     </row>
     <row r="73">
@@ -12058,13 +12058,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>1.13455</v>
+        <v>1.13382</v>
       </c>
       <c r="C73" t="n">
-        <v>0.781613</v>
+        <v>0.746277</v>
       </c>
       <c r="D73" t="n">
-        <v>0.650786</v>
+        <v>0.653232</v>
       </c>
     </row>
     <row r="74">
@@ -12072,13 +12072,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.17143</v>
+        <v>1.16942</v>
       </c>
       <c r="C74" t="n">
-        <v>0.814385</v>
+        <v>0.783216</v>
       </c>
       <c r="D74" t="n">
-        <v>0.668726</v>
+        <v>0.671355</v>
       </c>
     </row>
     <row r="75">
@@ -12086,13 +12086,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>1.21662</v>
+        <v>1.21612</v>
       </c>
       <c r="C75" t="n">
-        <v>0.857159</v>
+        <v>0.824152</v>
       </c>
       <c r="D75" t="n">
-        <v>0.6944669999999999</v>
+        <v>0.696287</v>
       </c>
     </row>
     <row r="76">
@@ -12100,13 +12100,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>1.26261</v>
+        <v>1.26147</v>
       </c>
       <c r="C76" t="n">
-        <v>0.898056</v>
+        <v>0.862973</v>
       </c>
       <c r="D76" t="n">
-        <v>0.71702</v>
+        <v>0.719705</v>
       </c>
     </row>
     <row r="77">
@@ -12114,13 +12114,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>1.31466</v>
+        <v>1.30839</v>
       </c>
       <c r="C77" t="n">
-        <v>0.947899</v>
+        <v>0.9085029999999999</v>
       </c>
       <c r="D77" t="n">
-        <v>0.7482839999999999</v>
+        <v>0.7468939999999999</v>
       </c>
     </row>
     <row r="78">
@@ -12128,13 +12128,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>1.37193</v>
+        <v>1.37612</v>
       </c>
       <c r="C78" t="n">
-        <v>0.995465</v>
+        <v>0.958629</v>
       </c>
       <c r="D78" t="n">
-        <v>0.779257</v>
+        <v>0.782771</v>
       </c>
     </row>
     <row r="79">
@@ -12142,13 +12142,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.44238</v>
+        <v>1.44166</v>
       </c>
       <c r="C79" t="n">
-        <v>1.0477</v>
+        <v>1.01038</v>
       </c>
       <c r="D79" t="n">
-        <v>0.818106</v>
+        <v>0.81791</v>
       </c>
     </row>
     <row r="80">
@@ -12156,13 +12156,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.51606</v>
+        <v>1.51451</v>
       </c>
       <c r="C80" t="n">
-        <v>1.10053</v>
+        <v>1.06344</v>
       </c>
       <c r="D80" t="n">
-        <v>0.857802</v>
+        <v>0.855941</v>
       </c>
     </row>
     <row r="81">
@@ -12170,13 +12170,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.59946</v>
+        <v>1.60409</v>
       </c>
       <c r="C81" t="n">
-        <v>1.1604</v>
+        <v>1.12951</v>
       </c>
       <c r="D81" t="n">
-        <v>0.899107</v>
+        <v>0.903308</v>
       </c>
     </row>
     <row r="82">
@@ -12184,13 +12184,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.68469</v>
+        <v>1.68902</v>
       </c>
       <c r="C82" t="n">
-        <v>1.21875</v>
+        <v>1.19113</v>
       </c>
       <c r="D82" t="n">
-        <v>0.9452199999999999</v>
+        <v>0.950288</v>
       </c>
     </row>
     <row r="83">
@@ -12198,13 +12198,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.78708</v>
+        <v>1.7973</v>
       </c>
       <c r="C83" t="n">
-        <v>1.19191</v>
+        <v>1.17</v>
       </c>
       <c r="D83" t="n">
-        <v>1.06197</v>
+        <v>1.07004</v>
       </c>
     </row>
     <row r="84">
@@ -12212,13 +12212,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.80672</v>
+        <v>1.81449</v>
       </c>
       <c r="C84" t="n">
-        <v>1.24692</v>
+        <v>1.22581</v>
       </c>
       <c r="D84" t="n">
-        <v>1.1177</v>
+        <v>1.12149</v>
       </c>
     </row>
     <row r="85">
@@ -12226,13 +12226,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.91593</v>
+        <v>1.92142</v>
       </c>
       <c r="C85" t="n">
-        <v>1.30562</v>
+        <v>1.28502</v>
       </c>
       <c r="D85" t="n">
-        <v>1.17703</v>
+        <v>1.18003</v>
       </c>
     </row>
     <row r="86">
@@ -12240,13 +12240,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>2.01003</v>
+        <v>2.02854</v>
       </c>
       <c r="C86" t="n">
-        <v>1.37028</v>
+        <v>1.35075</v>
       </c>
       <c r="D86" t="n">
-        <v>1.23214</v>
+        <v>1.24024</v>
       </c>
     </row>
     <row r="87">
@@ -12254,13 +12254,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>2.12753</v>
+        <v>2.13267</v>
       </c>
       <c r="C87" t="n">
-        <v>1.43402</v>
+        <v>1.41813</v>
       </c>
       <c r="D87" t="n">
-        <v>1.29258</v>
+        <v>1.29965</v>
       </c>
     </row>
     <row r="88">
@@ -12268,13 +12268,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>2.23742</v>
+        <v>2.24462</v>
       </c>
       <c r="C88" t="n">
-        <v>1.50779</v>
+        <v>1.49747</v>
       </c>
       <c r="D88" t="n">
-        <v>1.35374</v>
+        <v>1.35926</v>
       </c>
     </row>
     <row r="89">
@@ -12282,13 +12282,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>2.36794</v>
+        <v>2.38366</v>
       </c>
       <c r="C89" t="n">
-        <v>1.57843</v>
+        <v>1.57541</v>
       </c>
       <c r="D89" t="n">
-        <v>1.41326</v>
+        <v>1.42033</v>
       </c>
     </row>
     <row r="90">
@@ -12296,13 +12296,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>2.48957</v>
+        <v>2.50498</v>
       </c>
       <c r="C90" t="n">
-        <v>1.65818</v>
+        <v>1.64416</v>
       </c>
       <c r="D90" t="n">
-        <v>1.475</v>
+        <v>1.47877</v>
       </c>
     </row>
     <row r="91">
@@ -12310,13 +12310,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>2.62168</v>
+        <v>2.63238</v>
       </c>
       <c r="C91" t="n">
-        <v>1.73915</v>
+        <v>1.72668</v>
       </c>
       <c r="D91" t="n">
-        <v>1.5345</v>
+        <v>1.53023</v>
       </c>
     </row>
     <row r="92">
@@ -12324,13 +12324,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>2.76309</v>
+        <v>2.7562</v>
       </c>
       <c r="C92" t="n">
-        <v>1.82453</v>
+        <v>1.80812</v>
       </c>
       <c r="D92" t="n">
-        <v>1.58963</v>
+        <v>1.58974</v>
       </c>
     </row>
     <row r="93">
@@ -12338,13 +12338,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>2.89363</v>
+        <v>2.88561</v>
       </c>
       <c r="C93" t="n">
-        <v>1.9103</v>
+        <v>1.89868</v>
       </c>
       <c r="D93" t="n">
-        <v>1.64499</v>
+        <v>1.64098</v>
       </c>
     </row>
     <row r="94">
@@ -12352,13 +12352,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>3.00862</v>
+        <v>3.00323</v>
       </c>
       <c r="C94" t="n">
-        <v>1.998</v>
+        <v>1.98613</v>
       </c>
       <c r="D94" t="n">
-        <v>1.69525</v>
+        <v>1.69331</v>
       </c>
     </row>
     <row r="95">
@@ -12366,13 +12366,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>3.16377</v>
+        <v>3.16782</v>
       </c>
       <c r="C95" t="n">
-        <v>2.09122</v>
+        <v>2.07924</v>
       </c>
       <c r="D95" t="n">
-        <v>1.74565</v>
+        <v>1.74013</v>
       </c>
     </row>
     <row r="96">
@@ -12380,13 +12380,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>3.2937</v>
+        <v>3.29084</v>
       </c>
       <c r="C96" t="n">
-        <v>2.19131</v>
+        <v>2.17767</v>
       </c>
       <c r="D96" t="n">
-        <v>1.79344</v>
+        <v>1.79144</v>
       </c>
     </row>
     <row r="97">
@@ -12394,13 +12394,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>3.42821</v>
+        <v>3.43421</v>
       </c>
       <c r="C97" t="n">
-        <v>1.9347</v>
+        <v>1.93591</v>
       </c>
       <c r="D97" t="n">
-        <v>1.92073</v>
+        <v>1.9236</v>
       </c>
     </row>
     <row r="98">
@@ -12408,13 +12408,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>3.28406</v>
+        <v>3.30186</v>
       </c>
       <c r="C98" t="n">
-        <v>1.98591</v>
+        <v>2.00491</v>
       </c>
       <c r="D98" t="n">
-        <v>1.96672</v>
+        <v>1.96804</v>
       </c>
     </row>
     <row r="99">
@@ -12422,13 +12422,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>3.40493</v>
+        <v>3.40406</v>
       </c>
       <c r="C99" t="n">
-        <v>2.0515</v>
+        <v>2.07469</v>
       </c>
       <c r="D99" t="n">
-        <v>2.02967</v>
+        <v>2.01056</v>
       </c>
     </row>
     <row r="100">
@@ -12436,13 +12436,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>3.47537</v>
+        <v>3.48646</v>
       </c>
       <c r="C100" t="n">
-        <v>2.12166</v>
+        <v>2.13563</v>
       </c>
       <c r="D100" t="n">
-        <v>2.05369</v>
+        <v>2.07143</v>
       </c>
     </row>
     <row r="101">
@@ -12450,13 +12450,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>3.59894</v>
+        <v>3.60754</v>
       </c>
       <c r="C101" t="n">
-        <v>2.18617</v>
+        <v>2.19277</v>
       </c>
       <c r="D101" t="n">
-        <v>2.10969</v>
+        <v>2.12241</v>
       </c>
     </row>
     <row r="102">
@@ -12464,13 +12464,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>3.71085</v>
+        <v>3.73056</v>
       </c>
       <c r="C102" t="n">
-        <v>2.25483</v>
+        <v>2.27827</v>
       </c>
       <c r="D102" t="n">
-        <v>2.12412</v>
+        <v>2.13087</v>
       </c>
     </row>
     <row r="103">
@@ -12478,13 +12478,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>3.81758</v>
+        <v>3.83027</v>
       </c>
       <c r="C103" t="n">
-        <v>2.32732</v>
+        <v>2.34235</v>
       </c>
       <c r="D103" t="n">
-        <v>2.16776</v>
+        <v>2.16745</v>
       </c>
     </row>
     <row r="104">
@@ -12492,13 +12492,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>3.93711</v>
+        <v>3.91802</v>
       </c>
       <c r="C104" t="n">
-        <v>2.40036</v>
+        <v>2.413</v>
       </c>
       <c r="D104" t="n">
-        <v>2.19119</v>
+        <v>2.21052</v>
       </c>
     </row>
     <row r="105">
@@ -12506,13 +12506,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>4.00723</v>
+        <v>3.99228</v>
       </c>
       <c r="C105" t="n">
-        <v>2.46766</v>
+        <v>2.48055</v>
       </c>
       <c r="D105" t="n">
-        <v>2.24624</v>
+        <v>2.22337</v>
       </c>
     </row>
     <row r="106">
@@ -12520,13 +12520,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>4.10475</v>
+        <v>4.09475</v>
       </c>
       <c r="C106" t="n">
-        <v>2.56414</v>
+        <v>2.55689</v>
       </c>
       <c r="D106" t="n">
-        <v>2.2682</v>
+        <v>2.2493</v>
       </c>
     </row>
     <row r="107">
@@ -12534,13 +12534,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>4.21454</v>
+        <v>4.21766</v>
       </c>
       <c r="C107" t="n">
-        <v>2.61861</v>
+        <v>2.63539</v>
       </c>
       <c r="D107" t="n">
-        <v>2.29861</v>
+        <v>2.29363</v>
       </c>
     </row>
     <row r="108">
@@ -12548,13 +12548,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>4.31332</v>
+        <v>4.29762</v>
       </c>
       <c r="C108" t="n">
-        <v>2.70745</v>
+        <v>2.70761</v>
       </c>
       <c r="D108" t="n">
-        <v>2.30973</v>
+        <v>2.32013</v>
       </c>
     </row>
     <row r="109">
@@ -12562,13 +12562,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>4.43932</v>
+        <v>4.41496</v>
       </c>
       <c r="C109" t="n">
-        <v>2.80437</v>
+        <v>2.80036</v>
       </c>
       <c r="D109" t="n">
-        <v>2.35334</v>
+        <v>2.33853</v>
       </c>
     </row>
     <row r="110">
@@ -12576,13 +12576,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>4.56041</v>
+        <v>4.53817</v>
       </c>
       <c r="C110" t="n">
-        <v>2.89194</v>
+        <v>2.86552</v>
       </c>
       <c r="D110" t="n">
-        <v>2.36329</v>
+        <v>2.3749</v>
       </c>
     </row>
     <row r="111">
@@ -12590,13 +12590,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>4.65218</v>
+        <v>4.65645</v>
       </c>
       <c r="C111" t="n">
-        <v>2.46671</v>
+        <v>2.48774</v>
       </c>
       <c r="D111" t="n">
-        <v>2.47149</v>
+        <v>2.45491</v>
       </c>
     </row>
     <row r="112">
@@ -12604,13 +12604,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>4.28733</v>
+        <v>4.2741</v>
       </c>
       <c r="C112" t="n">
-        <v>2.53219</v>
+        <v>2.5524</v>
       </c>
       <c r="D112" t="n">
-        <v>2.48346</v>
+        <v>2.47902</v>
       </c>
     </row>
     <row r="113">
@@ -12618,13 +12618,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>4.37576</v>
+        <v>4.34683</v>
       </c>
       <c r="C113" t="n">
-        <v>2.59721</v>
+        <v>2.60675</v>
       </c>
       <c r="D113" t="n">
-        <v>2.51095</v>
+        <v>2.50428</v>
       </c>
     </row>
     <row r="114">
@@ -12632,13 +12632,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>4.45922</v>
+        <v>4.43829</v>
       </c>
       <c r="C114" t="n">
-        <v>2.64017</v>
+        <v>2.64884</v>
       </c>
       <c r="D114" t="n">
-        <v>2.53247</v>
+        <v>2.52872</v>
       </c>
     </row>
     <row r="115">
@@ -12646,13 +12646,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>4.54989</v>
+        <v>4.52551</v>
       </c>
       <c r="C115" t="n">
-        <v>2.7211</v>
+        <v>2.71172</v>
       </c>
       <c r="D115" t="n">
-        <v>2.57004</v>
+        <v>2.56489</v>
       </c>
     </row>
     <row r="116">
@@ -12660,13 +12660,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>4.64933</v>
+        <v>4.62302</v>
       </c>
       <c r="C116" t="n">
-        <v>2.77369</v>
+        <v>2.77896</v>
       </c>
       <c r="D116" t="n">
-        <v>2.58912</v>
+        <v>2.57595</v>
       </c>
     </row>
     <row r="117">
@@ -12674,13 +12674,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>4.72492</v>
+        <v>4.6982</v>
       </c>
       <c r="C117" t="n">
-        <v>2.82886</v>
+        <v>2.84115</v>
       </c>
       <c r="D117" t="n">
-        <v>2.61547</v>
+        <v>2.59151</v>
       </c>
     </row>
     <row r="118">
@@ -12688,13 +12688,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>4.8098</v>
+        <v>4.7632</v>
       </c>
       <c r="C118" t="n">
-        <v>2.92124</v>
+        <v>2.91963</v>
       </c>
       <c r="D118" t="n">
-        <v>2.64414</v>
+        <v>2.61547</v>
       </c>
     </row>
     <row r="119">
@@ -12702,13 +12702,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>4.91298</v>
+        <v>4.89086</v>
       </c>
       <c r="C119" t="n">
-        <v>2.98662</v>
+        <v>2.98125</v>
       </c>
       <c r="D119" t="n">
-        <v>2.65666</v>
+        <v>2.63255</v>
       </c>
     </row>
   </sheetData>

--- a/clang_libcpp/scattered erasure.xlsx
+++ b/clang_libcpp/scattered erasure.xlsx
@@ -7680,13 +7680,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.404343</v>
+        <v>0.400163</v>
       </c>
       <c r="C2" t="n">
-        <v>0.320689</v>
+        <v>0.319048</v>
       </c>
       <c r="D2" t="n">
-        <v>0.230377</v>
+        <v>0.218738</v>
       </c>
     </row>
     <row r="3">
@@ -7694,13 +7694,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.40798</v>
+        <v>0.397972</v>
       </c>
       <c r="C3" t="n">
-        <v>0.324867</v>
+        <v>0.320882</v>
       </c>
       <c r="D3" t="n">
-        <v>0.23812</v>
+        <v>0.22853</v>
       </c>
     </row>
     <row r="4">
@@ -7708,13 +7708,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.415288</v>
+        <v>0.409304</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3291</v>
+        <v>0.327954</v>
       </c>
       <c r="D4" t="n">
-        <v>0.245491</v>
+        <v>0.234732</v>
       </c>
     </row>
     <row r="5">
@@ -7722,13 +7722,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.424429</v>
+        <v>0.416601</v>
       </c>
       <c r="C5" t="n">
-        <v>0.332151</v>
+        <v>0.332262</v>
       </c>
       <c r="D5" t="n">
-        <v>0.249421</v>
+        <v>0.2409</v>
       </c>
     </row>
     <row r="6">
@@ -7736,13 +7736,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.426365</v>
+        <v>0.418635</v>
       </c>
       <c r="C6" t="n">
-        <v>0.33448</v>
+        <v>0.333304</v>
       </c>
       <c r="D6" t="n">
-        <v>0.251649</v>
+        <v>0.248735</v>
       </c>
     </row>
     <row r="7">
@@ -7750,13 +7750,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.432962</v>
+        <v>0.425684</v>
       </c>
       <c r="C7" t="n">
-        <v>0.332332</v>
+        <v>0.333451</v>
       </c>
       <c r="D7" t="n">
-        <v>0.252217</v>
+        <v>0.248055</v>
       </c>
     </row>
     <row r="8">
@@ -7764,13 +7764,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.405724</v>
+        <v>0.40088</v>
       </c>
       <c r="C8" t="n">
-        <v>0.333735</v>
+        <v>0.334549</v>
       </c>
       <c r="D8" t="n">
-        <v>0.255663</v>
+        <v>0.253675</v>
       </c>
     </row>
     <row r="9">
@@ -7778,13 +7778,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.411926</v>
+        <v>0.409278</v>
       </c>
       <c r="C9" t="n">
-        <v>0.33665</v>
+        <v>0.337718</v>
       </c>
       <c r="D9" t="n">
-        <v>0.261615</v>
+        <v>0.26085</v>
       </c>
     </row>
     <row r="10">
@@ -7792,13 +7792,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.416844</v>
+        <v>0.413362</v>
       </c>
       <c r="C10" t="n">
-        <v>0.339664</v>
+        <v>0.340058</v>
       </c>
       <c r="D10" t="n">
-        <v>0.263079</v>
+        <v>0.261836</v>
       </c>
     </row>
     <row r="11">
@@ -7806,13 +7806,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.424282</v>
+        <v>0.420777</v>
       </c>
       <c r="C11" t="n">
-        <v>0.341297</v>
+        <v>0.34095</v>
       </c>
       <c r="D11" t="n">
-        <v>0.268279</v>
+        <v>0.267681</v>
       </c>
     </row>
     <row r="12">
@@ -7820,13 +7820,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.427469</v>
+        <v>0.4251</v>
       </c>
       <c r="C12" t="n">
-        <v>0.34351</v>
+        <v>0.343072</v>
       </c>
       <c r="D12" t="n">
-        <v>0.273024</v>
+        <v>0.271874</v>
       </c>
     </row>
     <row r="13">
@@ -7834,13 +7834,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.434324</v>
+        <v>0.428898</v>
       </c>
       <c r="C13" t="n">
-        <v>0.345573</v>
+        <v>0.345791</v>
       </c>
       <c r="D13" t="n">
-        <v>0.274662</v>
+        <v>0.273118</v>
       </c>
     </row>
     <row r="14">
@@ -7848,13 +7848,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.437094</v>
+        <v>0.435629</v>
       </c>
       <c r="C14" t="n">
-        <v>0.348346</v>
+        <v>0.347824</v>
       </c>
       <c r="D14" t="n">
-        <v>0.280836</v>
+        <v>0.280517</v>
       </c>
     </row>
     <row r="15">
@@ -7862,13 +7862,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.44322</v>
+        <v>0.442354</v>
       </c>
       <c r="C15" t="n">
-        <v>0.351066</v>
+        <v>0.351196</v>
       </c>
       <c r="D15" t="n">
-        <v>0.285217</v>
+        <v>0.284811</v>
       </c>
     </row>
     <row r="16">
@@ -7876,13 +7876,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.449294</v>
+        <v>0.449027</v>
       </c>
       <c r="C16" t="n">
-        <v>0.35315</v>
+        <v>0.353642</v>
       </c>
       <c r="D16" t="n">
-        <v>0.290666</v>
+        <v>0.289069</v>
       </c>
     </row>
     <row r="17">
@@ -7890,13 +7890,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.455278</v>
+        <v>0.453501</v>
       </c>
       <c r="C17" t="n">
-        <v>0.355092</v>
+        <v>0.355603</v>
       </c>
       <c r="D17" t="n">
-        <v>0.29558</v>
+        <v>0.296145</v>
       </c>
     </row>
     <row r="18">
@@ -7904,13 +7904,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.460713</v>
+        <v>0.460588</v>
       </c>
       <c r="C18" t="n">
-        <v>0.359181</v>
+        <v>0.359192</v>
       </c>
       <c r="D18" t="n">
-        <v>0.298976</v>
+        <v>0.299149</v>
       </c>
     </row>
     <row r="19">
@@ -7918,13 +7918,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.465713</v>
+        <v>0.464193</v>
       </c>
       <c r="C19" t="n">
-        <v>0.362886</v>
+        <v>0.362124</v>
       </c>
       <c r="D19" t="n">
-        <v>0.304271</v>
+        <v>0.305233</v>
       </c>
     </row>
     <row r="20">
@@ -7932,13 +7932,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.475095</v>
+        <v>0.473894</v>
       </c>
       <c r="C20" t="n">
-        <v>0.366273</v>
+        <v>0.364882</v>
       </c>
       <c r="D20" t="n">
-        <v>0.308813</v>
+        <v>0.308298</v>
       </c>
     </row>
     <row r="21">
@@ -7946,13 +7946,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.479529</v>
+        <v>0.476905</v>
       </c>
       <c r="C21" t="n">
-        <v>0.359241</v>
+        <v>0.359035</v>
       </c>
       <c r="D21" t="n">
-        <v>0.308162</v>
+        <v>0.305788</v>
       </c>
     </row>
     <row r="22">
@@ -7960,13 +7960,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.460545</v>
+        <v>0.458364</v>
       </c>
       <c r="C22" t="n">
-        <v>0.360965</v>
+        <v>0.36086</v>
       </c>
       <c r="D22" t="n">
-        <v>0.310792</v>
+        <v>0.309218</v>
       </c>
     </row>
     <row r="23">
@@ -7974,13 +7974,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.465152</v>
+        <v>0.462764</v>
       </c>
       <c r="C23" t="n">
-        <v>0.362332</v>
+        <v>0.362346</v>
       </c>
       <c r="D23" t="n">
-        <v>0.313403</v>
+        <v>0.312167</v>
       </c>
     </row>
     <row r="24">
@@ -7988,13 +7988,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.467324</v>
+        <v>0.466735</v>
       </c>
       <c r="C24" t="n">
-        <v>0.363277</v>
+        <v>0.363937</v>
       </c>
       <c r="D24" t="n">
-        <v>0.31743</v>
+        <v>0.318304</v>
       </c>
     </row>
     <row r="25">
@@ -8002,13 +8002,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.473979</v>
+        <v>0.472155</v>
       </c>
       <c r="C25" t="n">
-        <v>0.365691</v>
+        <v>0.366157</v>
       </c>
       <c r="D25" t="n">
-        <v>0.321363</v>
+        <v>0.32052</v>
       </c>
     </row>
     <row r="26">
@@ -8016,13 +8016,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.476364</v>
+        <v>0.475387</v>
       </c>
       <c r="C26" t="n">
-        <v>0.366497</v>
+        <v>0.368428</v>
       </c>
       <c r="D26" t="n">
-        <v>0.32466</v>
+        <v>0.323997</v>
       </c>
     </row>
     <row r="27">
@@ -8030,13 +8030,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.480837</v>
+        <v>0.479343</v>
       </c>
       <c r="C27" t="n">
-        <v>0.369164</v>
+        <v>0.370044</v>
       </c>
       <c r="D27" t="n">
-        <v>0.327099</v>
+        <v>0.326164</v>
       </c>
     </row>
     <row r="28">
@@ -8044,13 +8044,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.485699</v>
+        <v>0.485691</v>
       </c>
       <c r="C28" t="n">
-        <v>0.372089</v>
+        <v>0.373255</v>
       </c>
       <c r="D28" t="n">
-        <v>0.329464</v>
+        <v>0.328746</v>
       </c>
     </row>
     <row r="29">
@@ -8058,13 +8058,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.488744</v>
+        <v>0.489292</v>
       </c>
       <c r="C29" t="n">
-        <v>0.37406</v>
+        <v>0.374128</v>
       </c>
       <c r="D29" t="n">
-        <v>0.332537</v>
+        <v>0.332024</v>
       </c>
     </row>
     <row r="30">
@@ -8072,13 +8072,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.493453</v>
+        <v>0.49233</v>
       </c>
       <c r="C30" t="n">
-        <v>0.376587</v>
+        <v>0.378009</v>
       </c>
       <c r="D30" t="n">
-        <v>0.334058</v>
+        <v>0.334298</v>
       </c>
     </row>
     <row r="31">
@@ -8086,13 +8086,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.498321</v>
+        <v>0.498264</v>
       </c>
       <c r="C31" t="n">
-        <v>0.377732</v>
+        <v>0.378482</v>
       </c>
       <c r="D31" t="n">
-        <v>0.339025</v>
+        <v>0.338457</v>
       </c>
     </row>
     <row r="32">
@@ -8100,13 +8100,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.502691</v>
+        <v>0.502321</v>
       </c>
       <c r="C32" t="n">
-        <v>0.381272</v>
+        <v>0.38156</v>
       </c>
       <c r="D32" t="n">
-        <v>0.341534</v>
+        <v>0.341249</v>
       </c>
     </row>
     <row r="33">
@@ -8114,13 +8114,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.5079090000000001</v>
+        <v>0.507235</v>
       </c>
       <c r="C33" t="n">
-        <v>0.383531</v>
+        <v>0.384246</v>
       </c>
       <c r="D33" t="n">
-        <v>0.344271</v>
+        <v>0.344474</v>
       </c>
     </row>
     <row r="34">
@@ -8128,13 +8128,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.513495</v>
+        <v>0.513061</v>
       </c>
       <c r="C34" t="n">
-        <v>0.386926</v>
+        <v>0.386725</v>
       </c>
       <c r="D34" t="n">
-        <v>0.347985</v>
+        <v>0.347194</v>
       </c>
     </row>
     <row r="35">
@@ -8142,13 +8142,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.518732</v>
+        <v>0.518001</v>
       </c>
       <c r="C35" t="n">
-        <v>0.373918</v>
+        <v>0.373603</v>
       </c>
       <c r="D35" t="n">
-        <v>0.339649</v>
+        <v>0.341291</v>
       </c>
     </row>
     <row r="36">
@@ -8156,13 +8156,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.490143</v>
+        <v>0.490189</v>
       </c>
       <c r="C36" t="n">
-        <v>0.374531</v>
+        <v>0.375031</v>
       </c>
       <c r="D36" t="n">
-        <v>0.341725</v>
+        <v>0.343034</v>
       </c>
     </row>
     <row r="37">
@@ -8170,13 +8170,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.49319</v>
+        <v>0.493118</v>
       </c>
       <c r="C37" t="n">
-        <v>0.376171</v>
+        <v>0.376987</v>
       </c>
       <c r="D37" t="n">
-        <v>0.34294</v>
+        <v>0.345448</v>
       </c>
     </row>
     <row r="38">
@@ -8184,13 +8184,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.496085</v>
+        <v>0.496035</v>
       </c>
       <c r="C38" t="n">
-        <v>0.377745</v>
+        <v>0.377813</v>
       </c>
       <c r="D38" t="n">
-        <v>0.345292</v>
+        <v>0.346235</v>
       </c>
     </row>
     <row r="39">
@@ -8198,13 +8198,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.49826</v>
+        <v>0.497682</v>
       </c>
       <c r="C39" t="n">
-        <v>0.378339</v>
+        <v>0.378495</v>
       </c>
       <c r="D39" t="n">
-        <v>0.348595</v>
+        <v>0.347719</v>
       </c>
     </row>
     <row r="40">
@@ -8212,13 +8212,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.501491</v>
+        <v>0.50121</v>
       </c>
       <c r="C40" t="n">
-        <v>0.380963</v>
+        <v>0.380486</v>
       </c>
       <c r="D40" t="n">
-        <v>0.350247</v>
+        <v>0.349622</v>
       </c>
     </row>
     <row r="41">
@@ -8226,13 +8226,13 @@
         <v>66357</v>
       </c>
       <c r="B41" t="n">
-        <v>0.5046580000000001</v>
+        <v>0.503684</v>
       </c>
       <c r="C41" t="n">
-        <v>0.382087</v>
+        <v>0.381654</v>
       </c>
       <c r="D41" t="n">
-        <v>0.351501</v>
+        <v>0.351368</v>
       </c>
     </row>
     <row r="42">
@@ -8240,13 +8240,13 @@
         <v>69656</v>
       </c>
       <c r="B42" t="n">
-        <v>0.507096</v>
+        <v>0.507475</v>
       </c>
       <c r="C42" t="n">
-        <v>0.3839</v>
+        <v>0.383501</v>
       </c>
       <c r="D42" t="n">
-        <v>0.352763</v>
+        <v>0.353558</v>
       </c>
     </row>
     <row r="43">
@@ -8254,13 +8254,13 @@
         <v>73119</v>
       </c>
       <c r="B43" t="n">
-        <v>0.513019</v>
+        <v>0.51254</v>
       </c>
       <c r="C43" t="n">
-        <v>0.384979</v>
+        <v>0.385372</v>
       </c>
       <c r="D43" t="n">
-        <v>0.355706</v>
+        <v>0.355745</v>
       </c>
     </row>
     <row r="44">
@@ -8268,13 +8268,13 @@
         <v>76755</v>
       </c>
       <c r="B44" t="n">
-        <v>0.51524</v>
+        <v>0.515424</v>
       </c>
       <c r="C44" t="n">
-        <v>0.387638</v>
+        <v>0.388573</v>
       </c>
       <c r="D44" t="n">
-        <v>0.357928</v>
+        <v>0.357736</v>
       </c>
     </row>
     <row r="45">
@@ -8282,13 +8282,13 @@
         <v>80572</v>
       </c>
       <c r="B45" t="n">
-        <v>0.519557</v>
+        <v>0.519185</v>
       </c>
       <c r="C45" t="n">
-        <v>0.39015</v>
+        <v>0.389658</v>
       </c>
       <c r="D45" t="n">
-        <v>0.359678</v>
+        <v>0.359851</v>
       </c>
     </row>
     <row r="46">
@@ -8296,13 +8296,13 @@
         <v>84579</v>
       </c>
       <c r="B46" t="n">
-        <v>0.522887</v>
+        <v>0.523357</v>
       </c>
       <c r="C46" t="n">
-        <v>0.391439</v>
+        <v>0.393921</v>
       </c>
       <c r="D46" t="n">
-        <v>0.361956</v>
+        <v>0.361887</v>
       </c>
     </row>
     <row r="47">
@@ -8310,13 +8310,13 @@
         <v>88786</v>
       </c>
       <c r="B47" t="n">
-        <v>0.528281</v>
+        <v>0.527984</v>
       </c>
       <c r="C47" t="n">
-        <v>0.394994</v>
+        <v>0.394929</v>
       </c>
       <c r="D47" t="n">
-        <v>0.363744</v>
+        <v>0.364746</v>
       </c>
     </row>
     <row r="48">
@@ -8324,13 +8324,13 @@
         <v>93203</v>
       </c>
       <c r="B48" t="n">
-        <v>0.531941</v>
+        <v>0.532406</v>
       </c>
       <c r="C48" t="n">
-        <v>0.397477</v>
+        <v>0.398049</v>
       </c>
       <c r="D48" t="n">
-        <v>0.365806</v>
+        <v>0.366531</v>
       </c>
     </row>
     <row r="49">
@@ -8338,13 +8338,13 @@
         <v>97840</v>
       </c>
       <c r="B49" t="n">
-        <v>0.53664</v>
+        <v>0.536632</v>
       </c>
       <c r="C49" t="n">
-        <v>0.403152</v>
+        <v>0.40074</v>
       </c>
       <c r="D49" t="n">
-        <v>0.367539</v>
+        <v>0.368267</v>
       </c>
     </row>
     <row r="50">
@@ -8352,13 +8352,13 @@
         <v>102706</v>
       </c>
       <c r="B50" t="n">
-        <v>0.541319</v>
+        <v>0.541404</v>
       </c>
       <c r="C50" t="n">
-        <v>0.38657</v>
+        <v>0.38556</v>
       </c>
       <c r="D50" t="n">
-        <v>0.358017</v>
+        <v>0.359447</v>
       </c>
     </row>
     <row r="51">
@@ -8366,13 +8366,13 @@
         <v>107816</v>
       </c>
       <c r="B51" t="n">
-        <v>0.509377</v>
+        <v>0.509494</v>
       </c>
       <c r="C51" t="n">
-        <v>0.387995</v>
+        <v>0.387953</v>
       </c>
       <c r="D51" t="n">
-        <v>0.357609</v>
+        <v>0.360127</v>
       </c>
     </row>
     <row r="52">
@@ -8380,13 +8380,13 @@
         <v>113182</v>
       </c>
       <c r="B52" t="n">
-        <v>0.511336</v>
+        <v>0.511682</v>
       </c>
       <c r="C52" t="n">
-        <v>0.387977</v>
+        <v>0.386998</v>
       </c>
       <c r="D52" t="n">
-        <v>0.359197</v>
+        <v>0.360796</v>
       </c>
     </row>
     <row r="53">
@@ -8394,13 +8394,13 @@
         <v>118816</v>
       </c>
       <c r="B53" t="n">
-        <v>0.513798</v>
+        <v>0.5138470000000001</v>
       </c>
       <c r="C53" t="n">
-        <v>0.396551</v>
+        <v>0.389982</v>
       </c>
       <c r="D53" t="n">
-        <v>0.359561</v>
+        <v>0.362273</v>
       </c>
     </row>
     <row r="54">
@@ -8408,13 +8408,13 @@
         <v>124731</v>
       </c>
       <c r="B54" t="n">
-        <v>0.518023</v>
+        <v>0.516818</v>
       </c>
       <c r="C54" t="n">
-        <v>0.397382</v>
+        <v>0.39293</v>
       </c>
       <c r="D54" t="n">
-        <v>0.36769</v>
+        <v>0.36383</v>
       </c>
     </row>
     <row r="55">
@@ -8422,13 +8422,13 @@
         <v>130941</v>
       </c>
       <c r="B55" t="n">
-        <v>0.523963</v>
+        <v>0.519447</v>
       </c>
       <c r="C55" t="n">
-        <v>0.399834</v>
+        <v>0.394439</v>
       </c>
       <c r="D55" t="n">
-        <v>0.367171</v>
+        <v>0.365067</v>
       </c>
     </row>
     <row r="56">
@@ -8436,13 +8436,13 @@
         <v>137461</v>
       </c>
       <c r="B56" t="n">
-        <v>0.527533</v>
+        <v>0.522053</v>
       </c>
       <c r="C56" t="n">
-        <v>0.40483</v>
+        <v>0.395812</v>
       </c>
       <c r="D56" t="n">
-        <v>0.367235</v>
+        <v>0.366999</v>
       </c>
     </row>
     <row r="57">
@@ -8450,13 +8450,13 @@
         <v>144307</v>
       </c>
       <c r="B57" t="n">
-        <v>0.52695</v>
+        <v>0.526307</v>
       </c>
       <c r="C57" t="n">
-        <v>0.412788</v>
+        <v>0.404391</v>
       </c>
       <c r="D57" t="n">
-        <v>0.371302</v>
+        <v>0.369181</v>
       </c>
     </row>
     <row r="58">
@@ -8464,13 +8464,13 @@
         <v>151495</v>
       </c>
       <c r="B58" t="n">
-        <v>0.530966</v>
+        <v>0.530641</v>
       </c>
       <c r="C58" t="n">
-        <v>0.407953</v>
+        <v>0.409752</v>
       </c>
       <c r="D58" t="n">
-        <v>0.37219</v>
+        <v>0.370716</v>
       </c>
     </row>
     <row r="59">
@@ -8478,13 +8478,13 @@
         <v>159042</v>
       </c>
       <c r="B59" t="n">
-        <v>0.5362170000000001</v>
+        <v>0.533267</v>
       </c>
       <c r="C59" t="n">
-        <v>0.414089</v>
+        <v>0.411272</v>
       </c>
       <c r="D59" t="n">
-        <v>0.378868</v>
+        <v>0.371632</v>
       </c>
     </row>
     <row r="60">
@@ -8492,13 +8492,13 @@
         <v>166965</v>
       </c>
       <c r="B60" t="n">
-        <v>0.545157</v>
+        <v>0.535936</v>
       </c>
       <c r="C60" t="n">
-        <v>0.422549</v>
+        <v>0.413334</v>
       </c>
       <c r="D60" t="n">
-        <v>0.382033</v>
+        <v>0.374299</v>
       </c>
     </row>
     <row r="61">
@@ -8506,13 +8506,13 @@
         <v>175284</v>
       </c>
       <c r="B61" t="n">
-        <v>0.555195</v>
+        <v>0.540839</v>
       </c>
       <c r="C61" t="n">
-        <v>0.430867</v>
+        <v>0.418376</v>
       </c>
       <c r="D61" t="n">
-        <v>0.386767</v>
+        <v>0.376714</v>
       </c>
     </row>
     <row r="62">
@@ -8520,13 +8520,13 @@
         <v>184019</v>
       </c>
       <c r="B62" t="n">
-        <v>0.555331</v>
+        <v>0.547311</v>
       </c>
       <c r="C62" t="n">
-        <v>0.434628</v>
+        <v>0.427761</v>
       </c>
       <c r="D62" t="n">
-        <v>0.387232</v>
+        <v>0.380709</v>
       </c>
     </row>
     <row r="63">
@@ -8534,13 +8534,13 @@
         <v>193190</v>
       </c>
       <c r="B63" t="n">
-        <v>0.559793</v>
+        <v>0.552014</v>
       </c>
       <c r="C63" t="n">
-        <v>0.443907</v>
+        <v>0.431967</v>
       </c>
       <c r="D63" t="n">
-        <v>0.390531</v>
+        <v>0.382986</v>
       </c>
     </row>
     <row r="64">
@@ -8548,13 +8548,13 @@
         <v>202820</v>
       </c>
       <c r="B64" t="n">
-        <v>0.569205</v>
+        <v>0.559644</v>
       </c>
       <c r="C64" t="n">
-        <v>0.504136</v>
+        <v>0.491905</v>
       </c>
       <c r="D64" t="n">
-        <v>0.422559</v>
+        <v>0.412523</v>
       </c>
     </row>
     <row r="65">
@@ -8562,13 +8562,13 @@
         <v>212931</v>
       </c>
       <c r="B65" t="n">
-        <v>0.598393</v>
+        <v>0.585168</v>
       </c>
       <c r="C65" t="n">
-        <v>0.505853</v>
+        <v>0.51267</v>
       </c>
       <c r="D65" t="n">
-        <v>0.424979</v>
+        <v>0.418163</v>
       </c>
     </row>
     <row r="66">
@@ -8576,13 +8576,13 @@
         <v>223547</v>
       </c>
       <c r="B66" t="n">
-        <v>0.603555</v>
+        <v>0.5978059999999999</v>
       </c>
       <c r="C66" t="n">
-        <v>0.515374</v>
+        <v>0.522354</v>
       </c>
       <c r="D66" t="n">
-        <v>0.426915</v>
+        <v>0.423945</v>
       </c>
     </row>
     <row r="67">
@@ -8590,13 +8590,13 @@
         <v>234692</v>
       </c>
       <c r="B67" t="n">
-        <v>0.6094270000000001</v>
+        <v>0.60709</v>
       </c>
       <c r="C67" t="n">
-        <v>0.549265</v>
+        <v>0.538187</v>
       </c>
       <c r="D67" t="n">
-        <v>0.441125</v>
+        <v>0.441592</v>
       </c>
     </row>
     <row r="68">
@@ -8604,13 +8604,13 @@
         <v>246395</v>
       </c>
       <c r="B68" t="n">
-        <v>0.6297779999999999</v>
+        <v>0.633826</v>
       </c>
       <c r="C68" t="n">
-        <v>0.570178</v>
+        <v>0.569649</v>
       </c>
       <c r="D68" t="n">
-        <v>0.460326</v>
+        <v>0.462357</v>
       </c>
     </row>
     <row r="69">
@@ -8618,13 +8618,13 @@
         <v>258683</v>
       </c>
       <c r="B69" t="n">
-        <v>0.661044</v>
+        <v>0.663868</v>
       </c>
       <c r="C69" t="n">
-        <v>0.596062</v>
+        <v>0.585305</v>
       </c>
       <c r="D69" t="n">
-        <v>0.467139</v>
+        <v>0.47419</v>
       </c>
     </row>
     <row r="70">
@@ -8632,13 +8632,13 @@
         <v>271585</v>
       </c>
       <c r="B70" t="n">
-        <v>0.676987</v>
+        <v>0.681901</v>
       </c>
       <c r="C70" t="n">
-        <v>0.606948</v>
+        <v>0.601272</v>
       </c>
       <c r="D70" t="n">
-        <v>0.49419</v>
+        <v>0.475824</v>
       </c>
     </row>
     <row r="71">
@@ -8646,13 +8646,13 @@
         <v>285132</v>
       </c>
       <c r="B71" t="n">
-        <v>0.697736</v>
+        <v>0.688935</v>
       </c>
       <c r="C71" t="n">
-        <v>0.639836</v>
+        <v>0.620179</v>
       </c>
       <c r="D71" t="n">
-        <v>0.513538</v>
+        <v>0.505965</v>
       </c>
     </row>
     <row r="72">
@@ -8660,13 +8660,13 @@
         <v>299354</v>
       </c>
       <c r="B72" t="n">
-        <v>0.7146940000000001</v>
+        <v>0.731102</v>
       </c>
       <c r="C72" t="n">
-        <v>0.6615839999999999</v>
+        <v>0.658243</v>
       </c>
       <c r="D72" t="n">
-        <v>0.524989</v>
+        <v>0.529817</v>
       </c>
     </row>
     <row r="73">
@@ -8674,13 +8674,13 @@
         <v>314289</v>
       </c>
       <c r="B73" t="n">
-        <v>0.767239</v>
+        <v>0.746812</v>
       </c>
       <c r="C73" t="n">
-        <v>0.694252</v>
+        <v>0.680868</v>
       </c>
       <c r="D73" t="n">
-        <v>0.562455</v>
+        <v>0.547004</v>
       </c>
     </row>
     <row r="74">
@@ -8688,13 +8688,13 @@
         <v>329969</v>
       </c>
       <c r="B74" t="n">
-        <v>0.792729</v>
+        <v>0.784666</v>
       </c>
       <c r="C74" t="n">
-        <v>0.709199</v>
+        <v>0.703911</v>
       </c>
       <c r="D74" t="n">
-        <v>0.5823700000000001</v>
+        <v>0.569964</v>
       </c>
     </row>
     <row r="75">
@@ -8702,13 +8702,13 @@
         <v>346432</v>
       </c>
       <c r="B75" t="n">
-        <v>0.837118</v>
+        <v>0.824495</v>
       </c>
       <c r="C75" t="n">
-        <v>0.745599</v>
+        <v>0.729793</v>
       </c>
       <c r="D75" t="n">
-        <v>0.589341</v>
+        <v>0.605366</v>
       </c>
     </row>
     <row r="76">
@@ -8716,13 +8716,13 @@
         <v>363719</v>
       </c>
       <c r="B76" t="n">
-        <v>0.843082</v>
+        <v>0.872013</v>
       </c>
       <c r="C76" t="n">
-        <v>0.754557</v>
+        <v>0.763566</v>
       </c>
       <c r="D76" t="n">
-        <v>0.62585</v>
+        <v>0.6445070000000001</v>
       </c>
     </row>
     <row r="77">
@@ -8730,13 +8730,13 @@
         <v>381870</v>
       </c>
       <c r="B77" t="n">
-        <v>0.897166</v>
+        <v>0.895011</v>
       </c>
       <c r="C77" t="n">
-        <v>0.781324</v>
+        <v>0.782006</v>
       </c>
       <c r="D77" t="n">
-        <v>0.657421</v>
+        <v>0.661709</v>
       </c>
     </row>
     <row r="78">
@@ -8744,13 +8744,13 @@
         <v>400928</v>
       </c>
       <c r="B78" t="n">
-        <v>0.944303</v>
+        <v>0.95033</v>
       </c>
       <c r="C78" t="n">
-        <v>0.962242</v>
+        <v>0.959701</v>
       </c>
       <c r="D78" t="n">
-        <v>0.898868</v>
+        <v>0.888351</v>
       </c>
     </row>
     <row r="79">
@@ -8758,13 +8758,13 @@
         <v>420937</v>
       </c>
       <c r="B79" t="n">
-        <v>1.22296</v>
+        <v>1.2272</v>
       </c>
       <c r="C79" t="n">
-        <v>0.98437</v>
+        <v>0.979826</v>
       </c>
       <c r="D79" t="n">
-        <v>0.935379</v>
+        <v>0.9332859999999999</v>
       </c>
     </row>
     <row r="80">
@@ -8772,13 +8772,13 @@
         <v>441947</v>
       </c>
       <c r="B80" t="n">
-        <v>1.2723</v>
+        <v>1.27749</v>
       </c>
       <c r="C80" t="n">
-        <v>1.00825</v>
+        <v>1.00196</v>
       </c>
       <c r="D80" t="n">
-        <v>0.968257</v>
+        <v>0.965484</v>
       </c>
     </row>
     <row r="81">
@@ -8786,13 +8786,13 @@
         <v>464005</v>
       </c>
       <c r="B81" t="n">
-        <v>1.31053</v>
+        <v>1.32803</v>
       </c>
       <c r="C81" t="n">
-        <v>1.02276</v>
+        <v>1.01775</v>
       </c>
       <c r="D81" t="n">
-        <v>1.01017</v>
+        <v>1.00762</v>
       </c>
     </row>
     <row r="82">
@@ -8800,13 +8800,13 @@
         <v>487165</v>
       </c>
       <c r="B82" t="n">
-        <v>1.36813</v>
+        <v>1.37927</v>
       </c>
       <c r="C82" t="n">
-        <v>1.04887</v>
+        <v>1.03687</v>
       </c>
       <c r="D82" t="n">
-        <v>1.05629</v>
+        <v>1.04008</v>
       </c>
     </row>
     <row r="83">
@@ -8814,13 +8814,13 @@
         <v>511485</v>
       </c>
       <c r="B83" t="n">
-        <v>1.4198</v>
+        <v>1.42802</v>
       </c>
       <c r="C83" t="n">
-        <v>1.06308</v>
+        <v>1.06194</v>
       </c>
       <c r="D83" t="n">
-        <v>1.09054</v>
+        <v>1.0818</v>
       </c>
     </row>
     <row r="84">
@@ -8828,13 +8828,13 @@
         <v>537019</v>
       </c>
       <c r="B84" t="n">
-        <v>1.46736</v>
+        <v>1.47711</v>
       </c>
       <c r="C84" t="n">
-        <v>1.08091</v>
+        <v>1.07938</v>
       </c>
       <c r="D84" t="n">
-        <v>1.13357</v>
+        <v>1.11625</v>
       </c>
     </row>
     <row r="85">
@@ -8842,13 +8842,13 @@
         <v>563827</v>
       </c>
       <c r="B85" t="n">
-        <v>1.52395</v>
+        <v>1.52612</v>
       </c>
       <c r="C85" t="n">
-        <v>1.10308</v>
+        <v>1.09642</v>
       </c>
       <c r="D85" t="n">
-        <v>1.16961</v>
+        <v>1.15341</v>
       </c>
     </row>
     <row r="86">
@@ -8856,13 +8856,13 @@
         <v>591977</v>
       </c>
       <c r="B86" t="n">
-        <v>1.56891</v>
+        <v>1.57673</v>
       </c>
       <c r="C86" t="n">
-        <v>1.12114</v>
+        <v>1.11309</v>
       </c>
       <c r="D86" t="n">
-        <v>1.20959</v>
+        <v>1.1907</v>
       </c>
     </row>
     <row r="87">
@@ -8870,13 +8870,13 @@
         <v>621532</v>
       </c>
       <c r="B87" t="n">
-        <v>1.62048</v>
+        <v>1.61932</v>
       </c>
       <c r="C87" t="n">
-        <v>1.13888</v>
+        <v>1.13041</v>
       </c>
       <c r="D87" t="n">
-        <v>1.24918</v>
+        <v>1.22648</v>
       </c>
     </row>
     <row r="88">
@@ -8884,13 +8884,13 @@
         <v>652567</v>
       </c>
       <c r="B88" t="n">
-        <v>1.66074</v>
+        <v>1.65807</v>
       </c>
       <c r="C88" t="n">
-        <v>1.15745</v>
+        <v>1.1484</v>
       </c>
       <c r="D88" t="n">
-        <v>1.28134</v>
+        <v>1.26288</v>
       </c>
     </row>
     <row r="89">
@@ -8898,13 +8898,13 @@
         <v>685151</v>
       </c>
       <c r="B89" t="n">
-        <v>1.70682</v>
+        <v>1.70739</v>
       </c>
       <c r="C89" t="n">
-        <v>1.17095</v>
+        <v>1.17127</v>
       </c>
       <c r="D89" t="n">
-        <v>1.31526</v>
+        <v>1.29805</v>
       </c>
     </row>
     <row r="90">
@@ -8912,13 +8912,13 @@
         <v>719359</v>
       </c>
       <c r="B90" t="n">
-        <v>1.74843</v>
+        <v>1.75433</v>
       </c>
       <c r="C90" t="n">
-        <v>1.18827</v>
+        <v>1.18846</v>
       </c>
       <c r="D90" t="n">
-        <v>1.34871</v>
+        <v>1.32887</v>
       </c>
     </row>
     <row r="91">
@@ -8926,13 +8926,13 @@
         <v>755280</v>
       </c>
       <c r="B91" t="n">
-        <v>1.79151</v>
+        <v>1.78937</v>
       </c>
       <c r="C91" t="n">
-        <v>1.20789</v>
+        <v>1.2067</v>
       </c>
       <c r="D91" t="n">
-        <v>1.37715</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="92">
@@ -8940,13 +8940,13 @@
         <v>792997</v>
       </c>
       <c r="B92" t="n">
-        <v>1.83596</v>
+        <v>1.83283</v>
       </c>
       <c r="C92" t="n">
-        <v>1.30677</v>
+        <v>1.30279</v>
       </c>
       <c r="D92" t="n">
-        <v>1.56321</v>
+        <v>1.54053</v>
       </c>
     </row>
     <row r="93">
@@ -8954,13 +8954,13 @@
         <v>832595</v>
       </c>
       <c r="B93" t="n">
-        <v>2.05617</v>
+        <v>2.05325</v>
       </c>
       <c r="C93" t="n">
-        <v>1.31592</v>
+        <v>1.31745</v>
       </c>
       <c r="D93" t="n">
-        <v>1.55714</v>
+        <v>1.55739</v>
       </c>
     </row>
     <row r="94">
@@ -8968,13 +8968,13 @@
         <v>874177</v>
       </c>
       <c r="B94" t="n">
-        <v>2.06084</v>
+        <v>2.0788</v>
       </c>
       <c r="C94" t="n">
-        <v>1.31576</v>
+        <v>1.32547</v>
       </c>
       <c r="D94" t="n">
-        <v>1.58938</v>
+        <v>1.57727</v>
       </c>
     </row>
     <row r="95">
@@ -8982,13 +8982,13 @@
         <v>917832</v>
       </c>
       <c r="B95" t="n">
-        <v>2.11189</v>
+        <v>2.11125</v>
       </c>
       <c r="C95" t="n">
-        <v>1.33962</v>
+        <v>1.33453</v>
       </c>
       <c r="D95" t="n">
-        <v>1.62996</v>
+        <v>1.60083</v>
       </c>
     </row>
     <row r="96">
@@ -8996,13 +8996,13 @@
         <v>963677</v>
       </c>
       <c r="B96" t="n">
-        <v>2.14407</v>
+        <v>2.13387</v>
       </c>
       <c r="C96" t="n">
-        <v>1.34942</v>
+        <v>1.34098</v>
       </c>
       <c r="D96" t="n">
-        <v>1.6485</v>
+        <v>1.62224</v>
       </c>
     </row>
     <row r="97">
@@ -9010,13 +9010,13 @@
         <v>1011813</v>
       </c>
       <c r="B97" t="n">
-        <v>2.16664</v>
+        <v>2.16248</v>
       </c>
       <c r="C97" t="n">
-        <v>1.35794</v>
+        <v>1.35071</v>
       </c>
       <c r="D97" t="n">
-        <v>1.66395</v>
+        <v>1.63497</v>
       </c>
     </row>
     <row r="98">
@@ -9024,13 +9024,13 @@
         <v>1062351</v>
       </c>
       <c r="B98" t="n">
-        <v>2.18894</v>
+        <v>2.186</v>
       </c>
       <c r="C98" t="n">
-        <v>1.36616</v>
+        <v>1.3613</v>
       </c>
       <c r="D98" t="n">
-        <v>1.6637</v>
+        <v>1.65308</v>
       </c>
     </row>
     <row r="99">
@@ -9038,13 +9038,13 @@
         <v>1115422</v>
       </c>
       <c r="B99" t="n">
-        <v>2.193</v>
+        <v>2.21025</v>
       </c>
       <c r="C99" t="n">
-        <v>1.37195</v>
+        <v>1.37316</v>
       </c>
       <c r="D99" t="n">
-        <v>1.70354</v>
+        <v>1.67081</v>
       </c>
     </row>
     <row r="100">
@@ -9052,13 +9052,13 @@
         <v>1171143</v>
       </c>
       <c r="B100" t="n">
-        <v>2.24239</v>
+        <v>2.23557</v>
       </c>
       <c r="C100" t="n">
-        <v>1.39082</v>
+        <v>1.38424</v>
       </c>
       <c r="D100" t="n">
-        <v>1.72168</v>
+        <v>1.68592</v>
       </c>
     </row>
     <row r="101">
@@ -9066,13 +9066,13 @@
         <v>1229634</v>
       </c>
       <c r="B101" t="n">
-        <v>2.27219</v>
+        <v>2.25611</v>
       </c>
       <c r="C101" t="n">
-        <v>1.40092</v>
+        <v>1.39375</v>
       </c>
       <c r="D101" t="n">
-        <v>1.737</v>
+        <v>1.70194</v>
       </c>
     </row>
     <row r="102">
@@ -9080,13 +9080,13 @@
         <v>1291062</v>
       </c>
       <c r="B102" t="n">
-        <v>2.29362</v>
+        <v>2.28014</v>
       </c>
       <c r="C102" t="n">
-        <v>1.41183</v>
+        <v>1.40668</v>
       </c>
       <c r="D102" t="n">
-        <v>1.74662</v>
+        <v>1.7248</v>
       </c>
     </row>
     <row r="103">
@@ -9094,13 +9094,13 @@
         <v>1355554</v>
       </c>
       <c r="B103" t="n">
-        <v>2.31969</v>
+        <v>2.30881</v>
       </c>
       <c r="C103" t="n">
-        <v>1.42315</v>
+        <v>1.41765</v>
       </c>
       <c r="D103" t="n">
-        <v>1.75325</v>
+        <v>1.73652</v>
       </c>
     </row>
     <row r="104">
@@ -9108,13 +9108,13 @@
         <v>1423274</v>
       </c>
       <c r="B104" t="n">
-        <v>2.33046</v>
+        <v>2.3305</v>
       </c>
       <c r="C104" t="n">
-        <v>1.42634</v>
+        <v>1.42663</v>
       </c>
       <c r="D104" t="n">
-        <v>1.76236</v>
+        <v>1.75759</v>
       </c>
     </row>
     <row r="105">
@@ -9122,13 +9122,13 @@
         <v>1494380</v>
       </c>
       <c r="B105" t="n">
-        <v>2.35646</v>
+        <v>2.35378</v>
       </c>
       <c r="C105" t="n">
-        <v>1.4398</v>
+        <v>1.43713</v>
       </c>
       <c r="D105" t="n">
-        <v>1.77937</v>
+        <v>1.76508</v>
       </c>
     </row>
     <row r="106">
@@ -9136,13 +9136,13 @@
         <v>1569031</v>
       </c>
       <c r="B106" t="n">
-        <v>2.37866</v>
+        <v>2.37801</v>
       </c>
       <c r="C106" t="n">
-        <v>1.45072</v>
+        <v>1.44978</v>
       </c>
       <c r="D106" t="n">
-        <v>1.7969</v>
+        <v>1.782</v>
       </c>
     </row>
     <row r="107">
@@ -9150,13 +9150,13 @@
         <v>1647417</v>
       </c>
       <c r="B107" t="n">
-        <v>2.49017</v>
+        <v>2.4865</v>
       </c>
       <c r="C107" t="n">
-        <v>1.48002</v>
+        <v>1.47622</v>
       </c>
       <c r="D107" t="n">
-        <v>1.90517</v>
+        <v>1.87494</v>
       </c>
     </row>
     <row r="108">
@@ -9164,13 +9164,13 @@
         <v>1729734</v>
       </c>
       <c r="B108" t="n">
-        <v>2.50937</v>
+        <v>2.50477</v>
       </c>
       <c r="C108" t="n">
-        <v>1.48536</v>
+        <v>1.48088</v>
       </c>
       <c r="D108" t="n">
-        <v>1.90768</v>
+        <v>1.88993</v>
       </c>
     </row>
     <row r="109">
@@ -9178,13 +9178,13 @@
         <v>1816153</v>
       </c>
       <c r="B109" t="n">
-        <v>2.53279</v>
+        <v>2.51695</v>
       </c>
       <c r="C109" t="n">
-        <v>1.49647</v>
+        <v>1.48873</v>
       </c>
       <c r="D109" t="n">
-        <v>1.92732</v>
+        <v>1.89254</v>
       </c>
     </row>
     <row r="110">
@@ -9192,13 +9192,13 @@
         <v>1906885</v>
       </c>
       <c r="B110" t="n">
-        <v>2.53693</v>
+        <v>2.53322</v>
       </c>
       <c r="C110" t="n">
-        <v>1.50373</v>
+        <v>1.49438</v>
       </c>
       <c r="D110" t="n">
-        <v>1.92788</v>
+        <v>1.8994</v>
       </c>
     </row>
     <row r="111">
@@ -9206,13 +9206,13 @@
         <v>2002164</v>
       </c>
       <c r="B111" t="n">
-        <v>2.55447</v>
+        <v>2.5471</v>
       </c>
       <c r="C111" t="n">
-        <v>1.50648</v>
+        <v>1.50183</v>
       </c>
       <c r="D111" t="n">
-        <v>1.94263</v>
+        <v>1.91348</v>
       </c>
     </row>
     <row r="112">
@@ -9220,13 +9220,13 @@
         <v>2102198</v>
       </c>
       <c r="B112" t="n">
-        <v>2.57018</v>
+        <v>2.56011</v>
       </c>
       <c r="C112" t="n">
-        <v>1.51238</v>
+        <v>1.50682</v>
       </c>
       <c r="D112" t="n">
-        <v>1.93769</v>
+        <v>1.92076</v>
       </c>
     </row>
     <row r="113">
@@ -9234,13 +9234,13 @@
         <v>2207233</v>
       </c>
       <c r="B113" t="n">
-        <v>2.57271</v>
+        <v>2.57668</v>
       </c>
       <c r="C113" t="n">
-        <v>1.51823</v>
+        <v>1.51559</v>
       </c>
       <c r="D113" t="n">
-        <v>1.96473</v>
+        <v>1.93099</v>
       </c>
     </row>
     <row r="114">
@@ -9248,13 +9248,13 @@
         <v>2317508</v>
       </c>
       <c r="B114" t="n">
-        <v>2.59738</v>
+        <v>2.59182</v>
       </c>
       <c r="C114" t="n">
-        <v>1.52698</v>
+        <v>1.52271</v>
       </c>
       <c r="D114" t="n">
-        <v>1.96363</v>
+        <v>1.94201</v>
       </c>
     </row>
     <row r="115">
@@ -9262,13 +9262,13 @@
         <v>2433290</v>
       </c>
       <c r="B115" t="n">
-        <v>2.60933</v>
+        <v>2.60704</v>
       </c>
       <c r="C115" t="n">
-        <v>1.52902</v>
+        <v>1.53083</v>
       </c>
       <c r="D115" t="n">
-        <v>1.96237</v>
+        <v>1.95343</v>
       </c>
     </row>
     <row r="116">
@@ -9276,13 +9276,13 @@
         <v>2554854</v>
       </c>
       <c r="B116" t="n">
-        <v>2.62645</v>
+        <v>2.62285</v>
       </c>
       <c r="C116" t="n">
-        <v>1.54289</v>
+        <v>1.53819</v>
       </c>
       <c r="D116" t="n">
-        <v>1.98046</v>
+        <v>1.96677</v>
       </c>
     </row>
     <row r="117">
@@ -9290,13 +9290,13 @@
         <v>2682511</v>
       </c>
       <c r="B117" t="n">
-        <v>2.63833</v>
+        <v>2.63467</v>
       </c>
       <c r="C117" t="n">
-        <v>1.54725</v>
+        <v>1.54672</v>
       </c>
       <c r="D117" t="n">
-        <v>1.99406</v>
+        <v>1.96984</v>
       </c>
     </row>
     <row r="118">
@@ -9304,13 +9304,13 @@
         <v>2816546</v>
       </c>
       <c r="B118" t="n">
-        <v>2.658</v>
+        <v>2.64718</v>
       </c>
       <c r="C118" t="n">
-        <v>1.56016</v>
+        <v>1.55347</v>
       </c>
       <c r="D118" t="n">
-        <v>1.99858</v>
+        <v>1.97956</v>
       </c>
     </row>
     <row r="119">
@@ -9318,13 +9318,13 @@
         <v>2957287</v>
       </c>
       <c r="B119" t="n">
-        <v>2.67285</v>
+        <v>2.6628</v>
       </c>
       <c r="C119" t="n">
-        <v>1.56551</v>
+        <v>1.56201</v>
       </c>
       <c r="D119" t="n">
-        <v>2.0035</v>
+        <v>1.98749</v>
       </c>
     </row>
   </sheetData>
@@ -9372,13 +9372,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.559949</v>
+        <v>0.552253</v>
       </c>
       <c r="C2" t="n">
-        <v>0.467642</v>
+        <v>0.466491</v>
       </c>
       <c r="D2" t="n">
-        <v>0.356154</v>
+        <v>0.35623</v>
       </c>
     </row>
     <row r="3">
@@ -9386,13 +9386,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.570894</v>
+        <v>0.564314</v>
       </c>
       <c r="C3" t="n">
-        <v>0.468643</v>
+        <v>0.46625</v>
       </c>
       <c r="D3" t="n">
-        <v>0.357446</v>
+        <v>0.364188</v>
       </c>
     </row>
     <row r="4">
@@ -9400,13 +9400,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.579952</v>
+        <v>0.578468</v>
       </c>
       <c r="C4" t="n">
-        <v>0.473177</v>
+        <v>0.475698</v>
       </c>
       <c r="D4" t="n">
-        <v>0.360855</v>
+        <v>0.363008</v>
       </c>
     </row>
     <row r="5">
@@ -9414,13 +9414,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.589962</v>
+        <v>0.576361</v>
       </c>
       <c r="C5" t="n">
-        <v>0.481048</v>
+        <v>0.478196</v>
       </c>
       <c r="D5" t="n">
-        <v>0.362098</v>
+        <v>0.366463</v>
       </c>
     </row>
     <row r="6">
@@ -9428,13 +9428,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.594036</v>
+        <v>0.582295</v>
       </c>
       <c r="C6" t="n">
-        <v>0.481948</v>
+        <v>0.484729</v>
       </c>
       <c r="D6" t="n">
-        <v>0.368423</v>
+        <v>0.377146</v>
       </c>
     </row>
     <row r="7">
@@ -9442,13 +9442,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.596763</v>
+        <v>0.591135</v>
       </c>
       <c r="C7" t="n">
-        <v>0.498841</v>
+        <v>0.50431</v>
       </c>
       <c r="D7" t="n">
-        <v>0.37588</v>
+        <v>0.381148</v>
       </c>
     </row>
     <row r="8">
@@ -9456,13 +9456,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.599791</v>
+        <v>0.5986629999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>0.503275</v>
+        <v>0.507157</v>
       </c>
       <c r="D8" t="n">
-        <v>0.384287</v>
+        <v>0.396045</v>
       </c>
     </row>
     <row r="9">
@@ -9470,13 +9470,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.610066</v>
+        <v>0.609023</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5061870000000001</v>
+        <v>0.509135</v>
       </c>
       <c r="D9" t="n">
-        <v>0.389005</v>
+        <v>0.39561</v>
       </c>
     </row>
     <row r="10">
@@ -9484,13 +9484,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.624911</v>
+        <v>0.627194</v>
       </c>
       <c r="C10" t="n">
-        <v>0.514861</v>
+        <v>0.520003</v>
       </c>
       <c r="D10" t="n">
-        <v>0.393626</v>
+        <v>0.406397</v>
       </c>
     </row>
     <row r="11">
@@ -9498,13 +9498,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.63408</v>
+        <v>0.638478</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5155110000000001</v>
+        <v>0.519755</v>
       </c>
       <c r="D11" t="n">
-        <v>0.394788</v>
+        <v>0.40655</v>
       </c>
     </row>
     <row r="12">
@@ -9512,13 +9512,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.630165</v>
+        <v>0.636955</v>
       </c>
       <c r="C12" t="n">
-        <v>0.521379</v>
+        <v>0.52383</v>
       </c>
       <c r="D12" t="n">
-        <v>0.402083</v>
+        <v>0.411385</v>
       </c>
     </row>
     <row r="13">
@@ -9526,13 +9526,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.640078</v>
+        <v>0.64441</v>
       </c>
       <c r="C13" t="n">
-        <v>0.52313</v>
+        <v>0.5276999999999999</v>
       </c>
       <c r="D13" t="n">
-        <v>0.407974</v>
+        <v>0.420209</v>
       </c>
     </row>
     <row r="14">
@@ -9540,13 +9540,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.654792</v>
+        <v>0.659617</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5229279999999999</v>
+        <v>0.527308</v>
       </c>
       <c r="D14" t="n">
-        <v>0.411996</v>
+        <v>0.424751</v>
       </c>
     </row>
     <row r="15">
@@ -9554,13 +9554,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.659685</v>
+        <v>0.663354</v>
       </c>
       <c r="C15" t="n">
-        <v>0.534204</v>
+        <v>0.538644</v>
       </c>
       <c r="D15" t="n">
-        <v>0.417983</v>
+        <v>0.43025</v>
       </c>
     </row>
     <row r="16">
@@ -9568,13 +9568,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.667709</v>
+        <v>0.665609</v>
       </c>
       <c r="C16" t="n">
-        <v>0.53814</v>
+        <v>0.539457</v>
       </c>
       <c r="D16" t="n">
-        <v>0.422467</v>
+        <v>0.431946</v>
       </c>
     </row>
     <row r="17">
@@ -9582,13 +9582,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.679755</v>
+        <v>0.678297</v>
       </c>
       <c r="C17" t="n">
-        <v>0.540157</v>
+        <v>0.542377</v>
       </c>
       <c r="D17" t="n">
-        <v>0.428872</v>
+        <v>0.436873</v>
       </c>
     </row>
     <row r="18">
@@ -9596,13 +9596,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.68352</v>
+        <v>0.682117</v>
       </c>
       <c r="C18" t="n">
-        <v>0.550602</v>
+        <v>0.55219</v>
       </c>
       <c r="D18" t="n">
-        <v>0.436254</v>
+        <v>0.444728</v>
       </c>
     </row>
     <row r="19">
@@ -9610,13 +9610,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.692674</v>
+        <v>0.690983</v>
       </c>
       <c r="C19" t="n">
-        <v>0.549063</v>
+        <v>0.551855</v>
       </c>
       <c r="D19" t="n">
-        <v>0.438538</v>
+        <v>0.446444</v>
       </c>
     </row>
     <row r="20">
@@ -9624,13 +9624,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.702911</v>
+        <v>0.703642</v>
       </c>
       <c r="C20" t="n">
-        <v>0.557402</v>
+        <v>0.56172</v>
       </c>
       <c r="D20" t="n">
-        <v>0.443922</v>
+        <v>0.453371</v>
       </c>
     </row>
     <row r="21">
@@ -9638,13 +9638,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.7082540000000001</v>
+        <v>0.708501</v>
       </c>
       <c r="C21" t="n">
-        <v>0.570257</v>
+        <v>0.566237</v>
       </c>
       <c r="D21" t="n">
-        <v>0.453823</v>
+        <v>0.45898</v>
       </c>
     </row>
     <row r="22">
@@ -9652,13 +9652,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.714181</v>
+        <v>0.710873</v>
       </c>
       <c r="C22" t="n">
-        <v>0.574667</v>
+        <v>0.571152</v>
       </c>
       <c r="D22" t="n">
-        <v>0.45604</v>
+        <v>0.460207</v>
       </c>
     </row>
     <row r="23">
@@ -9666,13 +9666,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.72824</v>
+        <v>0.723199</v>
       </c>
       <c r="C23" t="n">
-        <v>0.5737409999999999</v>
+        <v>0.571738</v>
       </c>
       <c r="D23" t="n">
-        <v>0.460884</v>
+        <v>0.469464</v>
       </c>
     </row>
     <row r="24">
@@ -9680,13 +9680,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.731479</v>
+        <v>0.72923</v>
       </c>
       <c r="C24" t="n">
-        <v>0.578672</v>
+        <v>0.573715</v>
       </c>
       <c r="D24" t="n">
-        <v>0.465108</v>
+        <v>0.471672</v>
       </c>
     </row>
     <row r="25">
@@ -9694,13 +9694,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.746005</v>
+        <v>0.742768</v>
       </c>
       <c r="C25" t="n">
-        <v>0.590083</v>
+        <v>0.590214</v>
       </c>
       <c r="D25" t="n">
-        <v>0.469405</v>
+        <v>0.475631</v>
       </c>
     </row>
     <row r="26">
@@ -9708,13 +9708,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.74518</v>
+        <v>0.742767</v>
       </c>
       <c r="C26" t="n">
-        <v>0.587211</v>
+        <v>0.586323</v>
       </c>
       <c r="D26" t="n">
-        <v>0.47527</v>
+        <v>0.480149</v>
       </c>
     </row>
     <row r="27">
@@ -9722,13 +9722,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.752103</v>
+        <v>0.749242</v>
       </c>
       <c r="C27" t="n">
-        <v>0.594396</v>
+        <v>0.592623</v>
       </c>
       <c r="D27" t="n">
-        <v>0.478921</v>
+        <v>0.489562</v>
       </c>
     </row>
     <row r="28">
@@ -9736,13 +9736,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.757702</v>
+        <v>0.755587</v>
       </c>
       <c r="C28" t="n">
-        <v>0.594293</v>
+        <v>0.591761</v>
       </c>
       <c r="D28" t="n">
-        <v>0.479607</v>
+        <v>0.489483</v>
       </c>
     </row>
     <row r="29">
@@ -9750,13 +9750,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.765562</v>
+        <v>0.764757</v>
       </c>
       <c r="C29" t="n">
-        <v>0.602231</v>
+        <v>0.603192</v>
       </c>
       <c r="D29" t="n">
-        <v>0.485265</v>
+        <v>0.494889</v>
       </c>
     </row>
     <row r="30">
@@ -9764,13 +9764,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.773784</v>
+        <v>0.771992</v>
       </c>
       <c r="C30" t="n">
-        <v>0.60809</v>
+        <v>0.606152</v>
       </c>
       <c r="D30" t="n">
-        <v>0.488999</v>
+        <v>0.499125</v>
       </c>
     </row>
     <row r="31">
@@ -9778,13 +9778,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.781954</v>
+        <v>0.780025</v>
       </c>
       <c r="C31" t="n">
-        <v>0.608028</v>
+        <v>0.609046</v>
       </c>
       <c r="D31" t="n">
-        <v>0.492609</v>
+        <v>0.502088</v>
       </c>
     </row>
     <row r="32">
@@ -9792,13 +9792,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.784757</v>
+        <v>0.783543</v>
       </c>
       <c r="C32" t="n">
-        <v>0.61396</v>
+        <v>0.6132880000000001</v>
       </c>
       <c r="D32" t="n">
-        <v>0.497302</v>
+        <v>0.5069</v>
       </c>
     </row>
     <row r="33">
@@ -9806,13 +9806,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.793934</v>
+        <v>0.790923</v>
       </c>
       <c r="C33" t="n">
-        <v>0.614273</v>
+        <v>0.616507</v>
       </c>
       <c r="D33" t="n">
-        <v>0.498996</v>
+        <v>0.508189</v>
       </c>
     </row>
     <row r="34">
@@ -9820,13 +9820,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.800404</v>
+        <v>0.797126</v>
       </c>
       <c r="C34" t="n">
-        <v>0.619209</v>
+        <v>0.619013</v>
       </c>
       <c r="D34" t="n">
-        <v>0.502429</v>
+        <v>0.5124069999999999</v>
       </c>
     </row>
     <row r="35">
@@ -9834,13 +9834,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.803671</v>
+        <v>0.800458</v>
       </c>
       <c r="C35" t="n">
-        <v>0.601418</v>
+        <v>0.599487</v>
       </c>
       <c r="D35" t="n">
-        <v>0.505772</v>
+        <v>0.514485</v>
       </c>
     </row>
     <row r="36">
@@ -9848,13 +9848,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.79662</v>
+        <v>0.796621</v>
       </c>
       <c r="C36" t="n">
-        <v>0.604287</v>
+        <v>0.604169</v>
       </c>
       <c r="D36" t="n">
-        <v>0.504268</v>
+        <v>0.5158</v>
       </c>
     </row>
     <row r="37">
@@ -9862,13 +9862,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.806633</v>
+        <v>0.803423</v>
       </c>
       <c r="C37" t="n">
-        <v>0.604382</v>
+        <v>0.604244</v>
       </c>
       <c r="D37" t="n">
-        <v>0.510347</v>
+        <v>0.518648</v>
       </c>
     </row>
     <row r="38">
@@ -9876,13 +9876,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.807135</v>
+        <v>0.804705</v>
       </c>
       <c r="C38" t="n">
-        <v>0.606232</v>
+        <v>0.609136</v>
       </c>
       <c r="D38" t="n">
-        <v>0.511812</v>
+        <v>0.522474</v>
       </c>
     </row>
     <row r="39">
@@ -9890,13 +9890,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.808454</v>
+        <v>0.810544</v>
       </c>
       <c r="C39" t="n">
-        <v>0.6096200000000001</v>
+        <v>0.614646</v>
       </c>
       <c r="D39" t="n">
-        <v>0.515895</v>
+        <v>0.525377</v>
       </c>
     </row>
     <row r="40">
@@ -9904,13 +9904,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.819491</v>
+        <v>0.8181310000000001</v>
       </c>
       <c r="C40" t="n">
-        <v>0.610884</v>
+        <v>0.6176199999999999</v>
       </c>
       <c r="D40" t="n">
-        <v>0.518741</v>
+        <v>0.527726</v>
       </c>
     </row>
     <row r="41">
@@ -9918,13 +9918,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.826603</v>
+        <v>0.825047</v>
       </c>
       <c r="C41" t="n">
-        <v>0.614387</v>
+        <v>0.619218</v>
       </c>
       <c r="D41" t="n">
-        <v>0.516687</v>
+        <v>0.529701</v>
       </c>
     </row>
     <row r="42">
@@ -9932,13 +9932,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.8256</v>
+        <v>0.824139</v>
       </c>
       <c r="C42" t="n">
-        <v>0.621043</v>
+        <v>0.621218</v>
       </c>
       <c r="D42" t="n">
-        <v>0.515541</v>
+        <v>0.531554</v>
       </c>
     </row>
     <row r="43">
@@ -9946,13 +9946,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.83072</v>
+        <v>0.832256</v>
       </c>
       <c r="C43" t="n">
-        <v>0.624775</v>
+        <v>0.624212</v>
       </c>
       <c r="D43" t="n">
-        <v>0.5231209999999999</v>
+        <v>0.535478</v>
       </c>
     </row>
     <row r="44">
@@ -9960,13 +9960,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.830915</v>
+        <v>0.83163</v>
       </c>
       <c r="C44" t="n">
-        <v>0.621459</v>
+        <v>0.623154</v>
       </c>
       <c r="D44" t="n">
-        <v>0.526984</v>
+        <v>0.5329390000000001</v>
       </c>
     </row>
     <row r="45">
@@ -9974,13 +9974,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.839405</v>
+        <v>0.837856</v>
       </c>
       <c r="C45" t="n">
-        <v>0.627759</v>
+        <v>0.630069</v>
       </c>
       <c r="D45" t="n">
-        <v>0.5283949999999999</v>
+        <v>0.536268</v>
       </c>
     </row>
     <row r="46">
@@ -9988,13 +9988,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.8448369999999999</v>
+        <v>0.842901</v>
       </c>
       <c r="C46" t="n">
-        <v>0.625947</v>
+        <v>0.629729</v>
       </c>
       <c r="D46" t="n">
-        <v>0.530287</v>
+        <v>0.538422</v>
       </c>
     </row>
     <row r="47">
@@ -10002,13 +10002,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.85336</v>
+        <v>0.851738</v>
       </c>
       <c r="C47" t="n">
-        <v>0.63103</v>
+        <v>0.633431</v>
       </c>
       <c r="D47" t="n">
-        <v>0.534004</v>
+        <v>0.540088</v>
       </c>
     </row>
     <row r="48">
@@ -10016,13 +10016,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.858504</v>
+        <v>0.855889</v>
       </c>
       <c r="C48" t="n">
-        <v>0.633011</v>
+        <v>0.637303</v>
       </c>
       <c r="D48" t="n">
-        <v>0.5351050000000001</v>
+        <v>0.540426</v>
       </c>
     </row>
     <row r="49">
@@ -10030,13 +10030,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.861012</v>
+        <v>0.8596549999999999</v>
       </c>
       <c r="C49" t="n">
-        <v>0.632935</v>
+        <v>0.638666</v>
       </c>
       <c r="D49" t="n">
-        <v>0.536639</v>
+        <v>0.542706</v>
       </c>
     </row>
     <row r="50">
@@ -10044,13 +10044,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.867683</v>
+        <v>0.86626</v>
       </c>
       <c r="C50" t="n">
-        <v>0.629242</v>
+        <v>0.634896</v>
       </c>
       <c r="D50" t="n">
-        <v>0.536164</v>
+        <v>0.54439</v>
       </c>
     </row>
     <row r="51">
@@ -10058,13 +10058,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.838971</v>
+        <v>0.843067</v>
       </c>
       <c r="C51" t="n">
-        <v>0.63145</v>
+        <v>0.630761</v>
       </c>
       <c r="D51" t="n">
-        <v>0.535428</v>
+        <v>0.545723</v>
       </c>
     </row>
     <row r="52">
@@ -10072,13 +10072,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.846846</v>
+        <v>0.846785</v>
       </c>
       <c r="C52" t="n">
-        <v>0.633394</v>
+        <v>0.6365960000000001</v>
       </c>
       <c r="D52" t="n">
-        <v>0.539606</v>
+        <v>0.547675</v>
       </c>
     </row>
     <row r="53">
@@ -10086,13 +10086,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.854065</v>
+        <v>0.852729</v>
       </c>
       <c r="C53" t="n">
-        <v>0.6381829999999999</v>
+        <v>0.639328</v>
       </c>
       <c r="D53" t="n">
-        <v>0.542416</v>
+        <v>0.548188</v>
       </c>
     </row>
     <row r="54">
@@ -10100,13 +10100,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.857578</v>
+        <v>0.8573</v>
       </c>
       <c r="C54" t="n">
-        <v>0.6429049999999999</v>
+        <v>0.644048</v>
       </c>
       <c r="D54" t="n">
-        <v>0.5442090000000001</v>
+        <v>0.5494869999999999</v>
       </c>
     </row>
     <row r="55">
@@ -10114,13 +10114,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.861639</v>
+        <v>0.859923</v>
       </c>
       <c r="C55" t="n">
-        <v>0.649651</v>
+        <v>0.649846</v>
       </c>
       <c r="D55" t="n">
-        <v>0.548392</v>
+        <v>0.552412</v>
       </c>
     </row>
     <row r="56">
@@ -10128,13 +10128,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.866136</v>
+        <v>0.862163</v>
       </c>
       <c r="C56" t="n">
-        <v>0.652233</v>
+        <v>0.649423</v>
       </c>
       <c r="D56" t="n">
-        <v>0.550373</v>
+        <v>0.554578</v>
       </c>
     </row>
     <row r="57">
@@ -10142,13 +10142,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.869628</v>
+        <v>0.865274</v>
       </c>
       <c r="C57" t="n">
-        <v>0.657908</v>
+        <v>0.654993</v>
       </c>
       <c r="D57" t="n">
-        <v>0.547726</v>
+        <v>0.5543630000000001</v>
       </c>
     </row>
     <row r="58">
@@ -10156,13 +10156,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.869931</v>
+        <v>0.870057</v>
       </c>
       <c r="C58" t="n">
-        <v>0.6619390000000001</v>
+        <v>0.662002</v>
       </c>
       <c r="D58" t="n">
-        <v>0.550876</v>
+        <v>0.5566489999999999</v>
       </c>
     </row>
     <row r="59">
@@ -10170,13 +10170,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.874711</v>
+        <v>0.873209</v>
       </c>
       <c r="C59" t="n">
-        <v>0.668222</v>
+        <v>0.6657</v>
       </c>
       <c r="D59" t="n">
-        <v>0.55121</v>
+        <v>0.559644</v>
       </c>
     </row>
     <row r="60">
@@ -10184,13 +10184,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.879504</v>
+        <v>0.879215</v>
       </c>
       <c r="C60" t="n">
-        <v>0.6676530000000001</v>
+        <v>0.6693249999999999</v>
       </c>
       <c r="D60" t="n">
-        <v>0.553357</v>
+        <v>0.55954</v>
       </c>
     </row>
     <row r="61">
@@ -10198,13 +10198,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.883582</v>
+        <v>0.883336</v>
       </c>
       <c r="C61" t="n">
-        <v>0.673984</v>
+        <v>0.680466</v>
       </c>
       <c r="D61" t="n">
-        <v>0.556179</v>
+        <v>0.566519</v>
       </c>
     </row>
     <row r="62">
@@ -10212,13 +10212,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.8922</v>
+        <v>0.891873</v>
       </c>
       <c r="C62" t="n">
-        <v>0.68385</v>
+        <v>0.683128</v>
       </c>
       <c r="D62" t="n">
-        <v>0.561827</v>
+        <v>0.562922</v>
       </c>
     </row>
     <row r="63">
@@ -10226,13 +10226,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.892642</v>
+        <v>0.892358</v>
       </c>
       <c r="C63" t="n">
-        <v>0.692223</v>
+        <v>0.691365</v>
       </c>
       <c r="D63" t="n">
-        <v>0.56033</v>
+        <v>0.568599</v>
       </c>
     </row>
     <row r="64">
@@ -10240,13 +10240,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.902787</v>
+        <v>0.900266</v>
       </c>
       <c r="C64" t="n">
-        <v>0.739154</v>
+        <v>0.740221</v>
       </c>
       <c r="D64" t="n">
-        <v>0.598147</v>
+        <v>0.599792</v>
       </c>
     </row>
     <row r="65">
@@ -10254,13 +10254,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.944153</v>
+        <v>0.9390269999999999</v>
       </c>
       <c r="C65" t="n">
-        <v>0.752333</v>
+        <v>0.754284</v>
       </c>
       <c r="D65" t="n">
-        <v>0.603895</v>
+        <v>0.611435</v>
       </c>
     </row>
     <row r="66">
@@ -10268,13 +10268,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.954561</v>
+        <v>0.955799</v>
       </c>
       <c r="C66" t="n">
-        <v>0.765912</v>
+        <v>0.766576</v>
       </c>
       <c r="D66" t="n">
-        <v>0.612304</v>
+        <v>0.6126509999999999</v>
       </c>
     </row>
     <row r="67">
@@ -10282,13 +10282,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.972137</v>
+        <v>0.959573</v>
       </c>
       <c r="C67" t="n">
-        <v>0.790886</v>
+        <v>0.786504</v>
       </c>
       <c r="D67" t="n">
-        <v>0.628477</v>
+        <v>0.628176</v>
       </c>
     </row>
     <row r="68">
@@ -10296,13 +10296,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>1.00523</v>
+        <v>0.991418</v>
       </c>
       <c r="C68" t="n">
-        <v>0.816288</v>
+        <v>0.80687</v>
       </c>
       <c r="D68" t="n">
-        <v>0.647574</v>
+        <v>0.639319</v>
       </c>
     </row>
     <row r="69">
@@ -10310,13 +10310,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>1.02541</v>
+        <v>1.00796</v>
       </c>
       <c r="C69" t="n">
-        <v>0.841439</v>
+        <v>0.834257</v>
       </c>
       <c r="D69" t="n">
-        <v>0.647604</v>
+        <v>0.6573909999999999</v>
       </c>
     </row>
     <row r="70">
@@ -10324,13 +10324,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>1.02865</v>
+        <v>1.03133</v>
       </c>
       <c r="C70" t="n">
-        <v>0.858908</v>
+        <v>0.8587630000000001</v>
       </c>
       <c r="D70" t="n">
-        <v>0.654056</v>
+        <v>0.663146</v>
       </c>
     </row>
     <row r="71">
@@ -10338,13 +10338,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>1.04855</v>
+        <v>1.04856</v>
       </c>
       <c r="C71" t="n">
-        <v>0.892011</v>
+        <v>0.8917620000000001</v>
       </c>
       <c r="D71" t="n">
-        <v>0.6745139999999999</v>
+        <v>0.690003</v>
       </c>
     </row>
     <row r="72">
@@ -10352,13 +10352,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>1.08838</v>
+        <v>1.09401</v>
       </c>
       <c r="C72" t="n">
-        <v>0.913485</v>
+        <v>0.927014</v>
       </c>
       <c r="D72" t="n">
-        <v>0.697805</v>
+        <v>0.711969</v>
       </c>
     </row>
     <row r="73">
@@ -10366,13 +10366,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>1.10997</v>
+        <v>1.14272</v>
       </c>
       <c r="C73" t="n">
-        <v>0.94174</v>
+        <v>0.9634470000000001</v>
       </c>
       <c r="D73" t="n">
-        <v>0.727026</v>
+        <v>0.738148</v>
       </c>
     </row>
     <row r="74">
@@ -10380,13 +10380,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.17648</v>
+        <v>1.18244</v>
       </c>
       <c r="C74" t="n">
-        <v>0.9900330000000001</v>
+        <v>0.996574</v>
       </c>
       <c r="D74" t="n">
-        <v>0.7512489999999999</v>
+        <v>0.7726189999999999</v>
       </c>
     </row>
     <row r="75">
@@ -10394,13 +10394,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>1.21448</v>
+        <v>1.23664</v>
       </c>
       <c r="C75" t="n">
-        <v>1.02048</v>
+        <v>1.03326</v>
       </c>
       <c r="D75" t="n">
-        <v>0.7821709999999999</v>
+        <v>0.8033940000000001</v>
       </c>
     </row>
     <row r="76">
@@ -10408,13 +10408,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>1.26694</v>
+        <v>1.28975</v>
       </c>
       <c r="C76" t="n">
-        <v>1.06268</v>
+        <v>1.07305</v>
       </c>
       <c r="D76" t="n">
-        <v>0.819466</v>
+        <v>0.815813</v>
       </c>
     </row>
     <row r="77">
@@ -10422,13 +10422,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>1.31201</v>
+        <v>1.31198</v>
       </c>
       <c r="C77" t="n">
-        <v>1.10145</v>
+        <v>1.10507</v>
       </c>
       <c r="D77" t="n">
-        <v>0.855096</v>
+        <v>0.862052</v>
       </c>
     </row>
     <row r="78">
@@ -10436,13 +10436,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>1.38999</v>
+        <v>1.38916</v>
       </c>
       <c r="C78" t="n">
-        <v>1.30232</v>
+        <v>1.31016</v>
       </c>
       <c r="D78" t="n">
-        <v>0.998601</v>
+        <v>1.00436</v>
       </c>
     </row>
     <row r="79">
@@ -10450,13 +10450,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.57932</v>
+        <v>1.59008</v>
       </c>
       <c r="C79" t="n">
-        <v>1.34495</v>
+        <v>1.35157</v>
       </c>
       <c r="D79" t="n">
-        <v>1.04441</v>
+        <v>1.05753</v>
       </c>
     </row>
     <row r="80">
@@ -10464,13 +10464,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.65868</v>
+        <v>1.66747</v>
       </c>
       <c r="C80" t="n">
-        <v>1.39045</v>
+        <v>1.39488</v>
       </c>
       <c r="D80" t="n">
-        <v>1.09306</v>
+        <v>1.10545</v>
       </c>
     </row>
     <row r="81">
@@ -10478,13 +10478,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.73397</v>
+        <v>1.74597</v>
       </c>
       <c r="C81" t="n">
-        <v>1.43095</v>
+        <v>1.43674</v>
       </c>
       <c r="D81" t="n">
-        <v>1.15253</v>
+        <v>1.16862</v>
       </c>
     </row>
     <row r="82">
@@ -10492,13 +10492,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.8221</v>
+        <v>1.83265</v>
       </c>
       <c r="C82" t="n">
-        <v>1.47286</v>
+        <v>1.48332</v>
       </c>
       <c r="D82" t="n">
-        <v>1.21395</v>
+        <v>1.22759</v>
       </c>
     </row>
     <row r="83">
@@ -10506,13 +10506,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.9145</v>
+        <v>1.9219</v>
       </c>
       <c r="C83" t="n">
-        <v>1.52706</v>
+        <v>1.52688</v>
       </c>
       <c r="D83" t="n">
-        <v>1.26504</v>
+        <v>1.27476</v>
       </c>
     </row>
     <row r="84">
@@ -10520,13 +10520,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.98829</v>
+        <v>2.01427</v>
       </c>
       <c r="C84" t="n">
-        <v>1.56579</v>
+        <v>1.57481</v>
       </c>
       <c r="D84" t="n">
-        <v>1.31346</v>
+        <v>1.32544</v>
       </c>
     </row>
     <row r="85">
@@ -10534,13 +10534,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>2.07246</v>
+        <v>2.08615</v>
       </c>
       <c r="C85" t="n">
-        <v>1.61344</v>
+        <v>1.61711</v>
       </c>
       <c r="D85" t="n">
-        <v>1.3767</v>
+        <v>1.3841</v>
       </c>
     </row>
     <row r="86">
@@ -10548,13 +10548,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>2.16451</v>
+        <v>2.18096</v>
       </c>
       <c r="C86" t="n">
-        <v>1.65567</v>
+        <v>1.65542</v>
       </c>
       <c r="D86" t="n">
-        <v>1.42932</v>
+        <v>1.44266</v>
       </c>
     </row>
     <row r="87">
@@ -10562,13 +10562,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>2.25217</v>
+        <v>2.26507</v>
       </c>
       <c r="C87" t="n">
-        <v>1.69303</v>
+        <v>1.69931</v>
       </c>
       <c r="D87" t="n">
-        <v>1.49072</v>
+        <v>1.50272</v>
       </c>
     </row>
     <row r="88">
@@ -10576,13 +10576,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>2.34217</v>
+        <v>2.36032</v>
       </c>
       <c r="C88" t="n">
-        <v>1.73956</v>
+        <v>1.74644</v>
       </c>
       <c r="D88" t="n">
-        <v>1.54776</v>
+        <v>1.55986</v>
       </c>
     </row>
     <row r="89">
@@ -10590,13 +10590,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>2.43002</v>
+        <v>2.44599</v>
       </c>
       <c r="C89" t="n">
-        <v>1.78423</v>
+        <v>1.78956</v>
       </c>
       <c r="D89" t="n">
-        <v>1.60183</v>
+        <v>1.61584</v>
       </c>
     </row>
     <row r="90">
@@ -10604,13 +10604,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>2.51121</v>
+        <v>2.53304</v>
       </c>
       <c r="C90" t="n">
-        <v>1.82343</v>
+        <v>1.83203</v>
       </c>
       <c r="D90" t="n">
-        <v>1.65674</v>
+        <v>1.66759</v>
       </c>
     </row>
     <row r="91">
@@ -10618,13 +10618,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>2.59254</v>
+        <v>2.625</v>
       </c>
       <c r="C91" t="n">
-        <v>1.87249</v>
+        <v>1.87943</v>
       </c>
       <c r="D91" t="n">
-        <v>1.70846</v>
+        <v>1.71913</v>
       </c>
     </row>
     <row r="92">
@@ -10632,13 +10632,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>2.68933</v>
+        <v>2.7158</v>
       </c>
       <c r="C92" t="n">
-        <v>2.01557</v>
+        <v>2.02743</v>
       </c>
       <c r="D92" t="n">
-        <v>1.82101</v>
+        <v>1.84058</v>
       </c>
     </row>
     <row r="93">
@@ -10646,13 +10646,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>2.85035</v>
+        <v>2.88396</v>
       </c>
       <c r="C93" t="n">
-        <v>2.04889</v>
+        <v>2.06233</v>
       </c>
       <c r="D93" t="n">
-        <v>1.87809</v>
+        <v>1.8843</v>
       </c>
     </row>
     <row r="94">
@@ -10660,13 +10660,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>2.92393</v>
+        <v>2.94617</v>
       </c>
       <c r="C94" t="n">
-        <v>2.07821</v>
+        <v>2.08519</v>
       </c>
       <c r="D94" t="n">
-        <v>1.91439</v>
+        <v>1.92469</v>
       </c>
     </row>
     <row r="95">
@@ -10674,13 +10674,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>2.99312</v>
+        <v>3.01837</v>
       </c>
       <c r="C95" t="n">
-        <v>2.11427</v>
+        <v>2.12162</v>
       </c>
       <c r="D95" t="n">
-        <v>1.9659</v>
+        <v>1.97191</v>
       </c>
     </row>
     <row r="96">
@@ -10688,13 +10688,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>3.06372</v>
+        <v>3.09025</v>
       </c>
       <c r="C96" t="n">
-        <v>2.14773</v>
+        <v>2.15185</v>
       </c>
       <c r="D96" t="n">
-        <v>2.01173</v>
+        <v>2.02029</v>
       </c>
     </row>
     <row r="97">
@@ -10702,13 +10702,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>3.14826</v>
+        <v>3.15191</v>
       </c>
       <c r="C97" t="n">
-        <v>2.1837</v>
+        <v>2.18508</v>
       </c>
       <c r="D97" t="n">
-        <v>2.0497</v>
+        <v>2.06202</v>
       </c>
     </row>
     <row r="98">
@@ -10716,13 +10716,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>3.21238</v>
+        <v>3.23211</v>
       </c>
       <c r="C98" t="n">
-        <v>2.21319</v>
+        <v>2.21771</v>
       </c>
       <c r="D98" t="n">
-        <v>2.10205</v>
+        <v>2.10398</v>
       </c>
     </row>
     <row r="99">
@@ -10730,13 +10730,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>3.27713</v>
+        <v>3.29613</v>
       </c>
       <c r="C99" t="n">
-        <v>2.25093</v>
+        <v>2.25856</v>
       </c>
       <c r="D99" t="n">
-        <v>2.12679</v>
+        <v>2.14124</v>
       </c>
     </row>
     <row r="100">
@@ -10744,13 +10744,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>3.31731</v>
+        <v>3.34202</v>
       </c>
       <c r="C100" t="n">
-        <v>2.272</v>
+        <v>2.28853</v>
       </c>
       <c r="D100" t="n">
-        <v>2.16724</v>
+        <v>2.17471</v>
       </c>
     </row>
     <row r="101">
@@ -10758,13 +10758,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>3.39551</v>
+        <v>3.41235</v>
       </c>
       <c r="C101" t="n">
-        <v>2.30254</v>
+        <v>2.31838</v>
       </c>
       <c r="D101" t="n">
-        <v>2.19696</v>
+        <v>2.21148</v>
       </c>
     </row>
     <row r="102">
@@ -10772,13 +10772,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>3.46072</v>
+        <v>3.47921</v>
       </c>
       <c r="C102" t="n">
-        <v>2.34628</v>
+        <v>2.3538</v>
       </c>
       <c r="D102" t="n">
-        <v>2.25586</v>
+        <v>2.24998</v>
       </c>
     </row>
     <row r="103">
@@ -10786,13 +10786,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>3.51878</v>
+        <v>3.53749</v>
       </c>
       <c r="C103" t="n">
-        <v>2.37448</v>
+        <v>2.38215</v>
       </c>
       <c r="D103" t="n">
-        <v>2.29472</v>
+        <v>2.27256</v>
       </c>
     </row>
     <row r="104">
@@ -10800,13 +10800,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>3.56804</v>
+        <v>3.58259</v>
       </c>
       <c r="C104" t="n">
-        <v>2.40973</v>
+        <v>2.41767</v>
       </c>
       <c r="D104" t="n">
-        <v>2.29387</v>
+        <v>2.30665</v>
       </c>
     </row>
     <row r="105">
@@ -10814,13 +10814,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>3.62153</v>
+        <v>3.63524</v>
       </c>
       <c r="C105" t="n">
-        <v>2.44481</v>
+        <v>2.44906</v>
       </c>
       <c r="D105" t="n">
-        <v>2.32172</v>
+        <v>2.32393</v>
       </c>
     </row>
     <row r="106">
@@ -10828,13 +10828,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>3.67911</v>
+        <v>3.6959</v>
       </c>
       <c r="C106" t="n">
-        <v>2.47571</v>
+        <v>2.48195</v>
       </c>
       <c r="D106" t="n">
-        <v>2.35515</v>
+        <v>2.35794</v>
       </c>
     </row>
     <row r="107">
@@ -10842,13 +10842,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>3.67995</v>
+        <v>3.7041</v>
       </c>
       <c r="C107" t="n">
-        <v>2.49935</v>
+        <v>2.514</v>
       </c>
       <c r="D107" t="n">
-        <v>2.40796</v>
+        <v>2.42835</v>
       </c>
     </row>
     <row r="108">
@@ -10856,13 +10856,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>3.72284</v>
+        <v>3.75897</v>
       </c>
       <c r="C108" t="n">
-        <v>2.51138</v>
+        <v>2.53635</v>
       </c>
       <c r="D108" t="n">
-        <v>2.43536</v>
+        <v>2.46767</v>
       </c>
     </row>
     <row r="109">
@@ -10870,13 +10870,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>3.74421</v>
+        <v>3.79782</v>
       </c>
       <c r="C109" t="n">
-        <v>2.54324</v>
+        <v>2.56121</v>
       </c>
       <c r="D109" t="n">
-        <v>2.46167</v>
+        <v>2.48206</v>
       </c>
     </row>
     <row r="110">
@@ -10884,13 +10884,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>3.81503</v>
+        <v>3.87048</v>
       </c>
       <c r="C110" t="n">
-        <v>2.55865</v>
+        <v>2.58844</v>
       </c>
       <c r="D110" t="n">
-        <v>2.49585</v>
+        <v>2.50246</v>
       </c>
     </row>
     <row r="111">
@@ -10898,13 +10898,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>3.874</v>
+        <v>3.89554</v>
       </c>
       <c r="C111" t="n">
-        <v>2.59435</v>
+        <v>2.60166</v>
       </c>
       <c r="D111" t="n">
-        <v>2.53094</v>
+        <v>2.5332</v>
       </c>
     </row>
     <row r="112">
@@ -10912,13 +10912,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>3.91381</v>
+        <v>3.95005</v>
       </c>
       <c r="C112" t="n">
-        <v>2.61287</v>
+        <v>2.63814</v>
       </c>
       <c r="D112" t="n">
-        <v>2.54376</v>
+        <v>2.56942</v>
       </c>
     </row>
     <row r="113">
@@ -10926,13 +10926,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>3.94856</v>
+        <v>4.02073</v>
       </c>
       <c r="C113" t="n">
-        <v>2.63652</v>
+        <v>2.66561</v>
       </c>
       <c r="D113" t="n">
-        <v>2.56437</v>
+        <v>2.59319</v>
       </c>
     </row>
     <row r="114">
@@ -10940,13 +10940,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>4.00203</v>
+        <v>4.03575</v>
       </c>
       <c r="C114" t="n">
-        <v>2.66788</v>
+        <v>2.6802</v>
       </c>
       <c r="D114" t="n">
-        <v>2.58907</v>
+        <v>2.60714</v>
       </c>
     </row>
     <row r="115">
@@ -10954,13 +10954,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>4.03781</v>
+        <v>4.07888</v>
       </c>
       <c r="C115" t="n">
-        <v>2.69281</v>
+        <v>2.7085</v>
       </c>
       <c r="D115" t="n">
-        <v>2.61052</v>
+        <v>2.63267</v>
       </c>
     </row>
     <row r="116">
@@ -10968,13 +10968,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>4.07763</v>
+        <v>4.13175</v>
       </c>
       <c r="C116" t="n">
-        <v>2.70811</v>
+        <v>2.73212</v>
       </c>
       <c r="D116" t="n">
-        <v>2.63216</v>
+        <v>2.6562</v>
       </c>
     </row>
     <row r="117">
@@ -10982,13 +10982,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>4.12183</v>
+        <v>4.16391</v>
       </c>
       <c r="C117" t="n">
-        <v>2.74579</v>
+        <v>2.75355</v>
       </c>
       <c r="D117" t="n">
-        <v>2.65858</v>
+        <v>2.67491</v>
       </c>
     </row>
     <row r="118">
@@ -10996,13 +10996,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>4.17451</v>
+        <v>4.2194</v>
       </c>
       <c r="C118" t="n">
-        <v>2.76814</v>
+        <v>2.78728</v>
       </c>
       <c r="D118" t="n">
-        <v>2.67554</v>
+        <v>2.70034</v>
       </c>
     </row>
     <row r="119">
@@ -11010,13 +11010,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>4.21854</v>
+        <v>4.24483</v>
       </c>
       <c r="C119" t="n">
-        <v>2.79064</v>
+        <v>2.81143</v>
       </c>
       <c r="D119" t="n">
-        <v>2.68983</v>
+        <v>2.73002</v>
       </c>
     </row>
   </sheetData>
@@ -11064,13 +11064,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.601764</v>
+        <v>0.5903890000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>0.488774</v>
+        <v>0.488258</v>
       </c>
       <c r="D2" t="n">
-        <v>0.350414</v>
+        <v>0.350135</v>
       </c>
     </row>
     <row r="3">
@@ -11078,13 +11078,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.607121</v>
+        <v>0.5977980000000001</v>
       </c>
       <c r="C3" t="n">
-        <v>0.485748</v>
+        <v>0.488375</v>
       </c>
       <c r="D3" t="n">
-        <v>0.351706</v>
+        <v>0.353512</v>
       </c>
     </row>
     <row r="4">
@@ -11092,13 +11092,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.618874</v>
+        <v>0.605766</v>
       </c>
       <c r="C4" t="n">
-        <v>0.497285</v>
+        <v>0.495375</v>
       </c>
       <c r="D4" t="n">
-        <v>0.357295</v>
+        <v>0.35758</v>
       </c>
     </row>
     <row r="5">
@@ -11106,13 +11106,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.620308</v>
+        <v>0.614414</v>
       </c>
       <c r="C5" t="n">
-        <v>0.510886</v>
+        <v>0.509427</v>
       </c>
       <c r="D5" t="n">
-        <v>0.361529</v>
+        <v>0.364507</v>
       </c>
     </row>
     <row r="6">
@@ -11120,13 +11120,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.633698</v>
+        <v>0.623034</v>
       </c>
       <c r="C6" t="n">
-        <v>0.512065</v>
+        <v>0.506348</v>
       </c>
       <c r="D6" t="n">
-        <v>0.364074</v>
+        <v>0.36334</v>
       </c>
     </row>
     <row r="7">
@@ -11134,13 +11134,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.636965</v>
+        <v>0.62754</v>
       </c>
       <c r="C7" t="n">
-        <v>0.517967</v>
+        <v>0.514971</v>
       </c>
       <c r="D7" t="n">
-        <v>0.369789</v>
+        <v>0.369628</v>
       </c>
     </row>
     <row r="8">
@@ -11148,13 +11148,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.643442</v>
+        <v>0.636142</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5272289999999999</v>
+        <v>0.526165</v>
       </c>
       <c r="D8" t="n">
-        <v>0.370626</v>
+        <v>0.372052</v>
       </c>
     </row>
     <row r="9">
@@ -11162,13 +11162,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.653106</v>
+        <v>0.6502869999999999</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5344989999999999</v>
+        <v>0.5376069999999999</v>
       </c>
       <c r="D9" t="n">
-        <v>0.375142</v>
+        <v>0.380541</v>
       </c>
     </row>
     <row r="10">
@@ -11176,13 +11176,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.66406</v>
+        <v>0.667204</v>
       </c>
       <c r="C10" t="n">
-        <v>0.542815</v>
+        <v>0.547497</v>
       </c>
       <c r="D10" t="n">
-        <v>0.379051</v>
+        <v>0.384855</v>
       </c>
     </row>
     <row r="11">
@@ -11190,13 +11190,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.675192</v>
+        <v>0.671274</v>
       </c>
       <c r="C11" t="n">
-        <v>0.52317</v>
+        <v>0.528423</v>
       </c>
       <c r="D11" t="n">
-        <v>0.379895</v>
+        <v>0.384077</v>
       </c>
     </row>
     <row r="12">
@@ -11204,13 +11204,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.634764</v>
+        <v>0.645046</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5283639999999999</v>
+        <v>0.53505</v>
       </c>
       <c r="D12" t="n">
-        <v>0.385479</v>
+        <v>0.391557</v>
       </c>
     </row>
     <row r="13">
@@ -11218,13 +11218,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.647871</v>
+        <v>0.656983</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5294180000000001</v>
+        <v>0.538026</v>
       </c>
       <c r="D13" t="n">
-        <v>0.389569</v>
+        <v>0.398134</v>
       </c>
     </row>
     <row r="14">
@@ -11232,13 +11232,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.65691</v>
+        <v>0.668469</v>
       </c>
       <c r="C14" t="n">
-        <v>0.538654</v>
+        <v>0.550814</v>
       </c>
       <c r="D14" t="n">
-        <v>0.392486</v>
+        <v>0.403311</v>
       </c>
     </row>
     <row r="15">
@@ -11246,13 +11246,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.670543</v>
+        <v>0.682432</v>
       </c>
       <c r="C15" t="n">
-        <v>0.551764</v>
+        <v>0.563345</v>
       </c>
       <c r="D15" t="n">
-        <v>0.40165</v>
+        <v>0.412476</v>
       </c>
     </row>
     <row r="16">
@@ -11260,13 +11260,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.68192</v>
+        <v>0.690957</v>
       </c>
       <c r="C16" t="n">
-        <v>0.564655</v>
+        <v>0.571893</v>
       </c>
       <c r="D16" t="n">
-        <v>0.408577</v>
+        <v>0.417974</v>
       </c>
     </row>
     <row r="17">
@@ -11274,13 +11274,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.70369</v>
+        <v>0.710381</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5701349999999999</v>
+        <v>0.577644</v>
       </c>
       <c r="D17" t="n">
-        <v>0.412303</v>
+        <v>0.422537</v>
       </c>
     </row>
     <row r="18">
@@ -11288,13 +11288,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.707052</v>
+        <v>0.718561</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5726290000000001</v>
+        <v>0.5794550000000001</v>
       </c>
       <c r="D18" t="n">
-        <v>0.418671</v>
+        <v>0.429067</v>
       </c>
     </row>
     <row r="19">
@@ -11302,13 +11302,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.71238</v>
+        <v>0.728695</v>
       </c>
       <c r="C19" t="n">
-        <v>0.579866</v>
+        <v>0.593384</v>
       </c>
       <c r="D19" t="n">
-        <v>0.422749</v>
+        <v>0.435328</v>
       </c>
     </row>
     <row r="20">
@@ -11316,13 +11316,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.733775</v>
+        <v>0.746472</v>
       </c>
       <c r="C20" t="n">
-        <v>0.5905550000000001</v>
+        <v>0.606491</v>
       </c>
       <c r="D20" t="n">
-        <v>0.427113</v>
+        <v>0.439467</v>
       </c>
     </row>
     <row r="21">
@@ -11330,13 +11330,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.740165</v>
+        <v>0.751135</v>
       </c>
       <c r="C21" t="n">
-        <v>0.606232</v>
+        <v>0.618305</v>
       </c>
       <c r="D21" t="n">
-        <v>0.432747</v>
+        <v>0.444729</v>
       </c>
     </row>
     <row r="22">
@@ -11344,13 +11344,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.7506890000000001</v>
+        <v>0.762845</v>
       </c>
       <c r="C22" t="n">
-        <v>0.615275</v>
+        <v>0.628756</v>
       </c>
       <c r="D22" t="n">
-        <v>0.436426</v>
+        <v>0.450806</v>
       </c>
     </row>
     <row r="23">
@@ -11358,13 +11358,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.773017</v>
+        <v>0.789734</v>
       </c>
       <c r="C23" t="n">
-        <v>0.62681</v>
+        <v>0.640258</v>
       </c>
       <c r="D23" t="n">
-        <v>0.444259</v>
+        <v>0.45857</v>
       </c>
     </row>
     <row r="24">
@@ -11372,13 +11372,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.788915</v>
+        <v>0.802641</v>
       </c>
       <c r="C24" t="n">
-        <v>0.638825</v>
+        <v>0.652715</v>
       </c>
       <c r="D24" t="n">
-        <v>0.446144</v>
+        <v>0.460925</v>
       </c>
     </row>
     <row r="25">
@@ -11386,13 +11386,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.796484</v>
+        <v>0.8126</v>
       </c>
       <c r="C25" t="n">
-        <v>0.651424</v>
+        <v>0.668761</v>
       </c>
       <c r="D25" t="n">
-        <v>0.454765</v>
+        <v>0.469219</v>
       </c>
     </row>
     <row r="26">
@@ -11400,13 +11400,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.818018</v>
+        <v>0.8344200000000001</v>
       </c>
       <c r="C26" t="n">
-        <v>0.5905</v>
+        <v>0.607728</v>
       </c>
       <c r="D26" t="n">
-        <v>0.458072</v>
+        <v>0.475242</v>
       </c>
     </row>
     <row r="27">
@@ -11414,13 +11414,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.774721</v>
+        <v>0.790879</v>
       </c>
       <c r="C27" t="n">
-        <v>0.597154</v>
+        <v>0.615604</v>
       </c>
       <c r="D27" t="n">
-        <v>0.463524</v>
+        <v>0.479779</v>
       </c>
     </row>
     <row r="28">
@@ -11428,13 +11428,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.78567</v>
+        <v>0.802249</v>
       </c>
       <c r="C28" t="n">
-        <v>0.604148</v>
+        <v>0.62192</v>
       </c>
       <c r="D28" t="n">
-        <v>0.4664</v>
+        <v>0.482111</v>
       </c>
     </row>
     <row r="29">
@@ -11442,13 +11442,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.7942090000000001</v>
+        <v>0.812276</v>
       </c>
       <c r="C29" t="n">
-        <v>0.609471</v>
+        <v>0.627889</v>
       </c>
       <c r="D29" t="n">
-        <v>0.470221</v>
+        <v>0.487615</v>
       </c>
     </row>
     <row r="30">
@@ -11456,13 +11456,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.807451</v>
+        <v>0.8270149999999999</v>
       </c>
       <c r="C30" t="n">
-        <v>0.618362</v>
+        <v>0.635294</v>
       </c>
       <c r="D30" t="n">
-        <v>0.476152</v>
+        <v>0.492609</v>
       </c>
     </row>
     <row r="31">
@@ -11470,13 +11470,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.819534</v>
+        <v>0.836581</v>
       </c>
       <c r="C31" t="n">
-        <v>0.626291</v>
+        <v>0.643548</v>
       </c>
       <c r="D31" t="n">
-        <v>0.480379</v>
+        <v>0.497363</v>
       </c>
     </row>
     <row r="32">
@@ -11484,13 +11484,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.833139</v>
+        <v>0.851043</v>
       </c>
       <c r="C32" t="n">
-        <v>0.634735</v>
+        <v>0.655772</v>
       </c>
       <c r="D32" t="n">
-        <v>0.485311</v>
+        <v>0.500427</v>
       </c>
     </row>
     <row r="33">
@@ -11498,13 +11498,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.840612</v>
+        <v>0.86102</v>
       </c>
       <c r="C33" t="n">
-        <v>0.6416190000000001</v>
+        <v>0.657932</v>
       </c>
       <c r="D33" t="n">
-        <v>0.486424</v>
+        <v>0.503621</v>
       </c>
     </row>
     <row r="34">
@@ -11512,13 +11512,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.855429</v>
+        <v>0.873261</v>
       </c>
       <c r="C34" t="n">
-        <v>0.6534450000000001</v>
+        <v>0.670044</v>
       </c>
       <c r="D34" t="n">
-        <v>0.489714</v>
+        <v>0.506843</v>
       </c>
     </row>
     <row r="35">
@@ -11526,13 +11526,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.867198</v>
+        <v>0.88622</v>
       </c>
       <c r="C35" t="n">
-        <v>0.664187</v>
+        <v>0.680771</v>
       </c>
       <c r="D35" t="n">
-        <v>0.492819</v>
+        <v>0.510193</v>
       </c>
     </row>
     <row r="36">
@@ -11540,13 +11540,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.878844</v>
+        <v>0.9006150000000001</v>
       </c>
       <c r="C36" t="n">
-        <v>0.67465</v>
+        <v>0.693173</v>
       </c>
       <c r="D36" t="n">
-        <v>0.495548</v>
+        <v>0.512821</v>
       </c>
     </row>
     <row r="37">
@@ -11554,13 +11554,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.896093</v>
+        <v>0.911724</v>
       </c>
       <c r="C37" t="n">
-        <v>0.6870270000000001</v>
+        <v>0.704829</v>
       </c>
       <c r="D37" t="n">
-        <v>0.499404</v>
+        <v>0.515306</v>
       </c>
     </row>
     <row r="38">
@@ -11568,13 +11568,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.910395</v>
+        <v>0.925833</v>
       </c>
       <c r="C38" t="n">
-        <v>0.696289</v>
+        <v>0.716763</v>
       </c>
       <c r="D38" t="n">
-        <v>0.503149</v>
+        <v>0.518916</v>
       </c>
     </row>
     <row r="39">
@@ -11582,13 +11582,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.92361</v>
+        <v>0.93859</v>
       </c>
       <c r="C39" t="n">
-        <v>0.7089299999999999</v>
+        <v>0.727627</v>
       </c>
       <c r="D39" t="n">
-        <v>0.506779</v>
+        <v>0.521724</v>
       </c>
     </row>
     <row r="40">
@@ -11596,13 +11596,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.937298</v>
+        <v>0.95329</v>
       </c>
       <c r="C40" t="n">
-        <v>0.667732</v>
+        <v>0.675614</v>
       </c>
       <c r="D40" t="n">
-        <v>0.513307</v>
+        <v>0.5253060000000001</v>
       </c>
     </row>
     <row r="41">
@@ -11610,13 +11610,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.8808049999999999</v>
+        <v>0.887861</v>
       </c>
       <c r="C41" t="n">
-        <v>0.672578</v>
+        <v>0.681671</v>
       </c>
       <c r="D41" t="n">
-        <v>0.516007</v>
+        <v>0.528964</v>
       </c>
     </row>
     <row r="42">
@@ -11624,13 +11624,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.892487</v>
+        <v>0.898448</v>
       </c>
       <c r="C42" t="n">
-        <v>0.679894</v>
+        <v>0.690371</v>
       </c>
       <c r="D42" t="n">
-        <v>0.519973</v>
+        <v>0.531569</v>
       </c>
     </row>
     <row r="43">
@@ -11638,13 +11638,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.9023600000000001</v>
+        <v>0.908897</v>
       </c>
       <c r="C43" t="n">
-        <v>0.687988</v>
+        <v>0.696165</v>
       </c>
       <c r="D43" t="n">
-        <v>0.523367</v>
+        <v>0.534945</v>
       </c>
     </row>
     <row r="44">
@@ -11652,13 +11652,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.908023</v>
+        <v>0.913817</v>
       </c>
       <c r="C44" t="n">
-        <v>0.696607</v>
+        <v>0.704221</v>
       </c>
       <c r="D44" t="n">
-        <v>0.525564</v>
+        <v>0.536563</v>
       </c>
     </row>
     <row r="45">
@@ -11666,13 +11666,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.9190469999999999</v>
+        <v>0.926431</v>
       </c>
       <c r="C45" t="n">
-        <v>0.704415</v>
+        <v>0.711491</v>
       </c>
       <c r="D45" t="n">
-        <v>0.527605</v>
+        <v>0.538614</v>
       </c>
     </row>
     <row r="46">
@@ -11680,13 +11680,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.924513</v>
+        <v>0.932283</v>
       </c>
       <c r="C46" t="n">
-        <v>0.714404</v>
+        <v>0.723109</v>
       </c>
       <c r="D46" t="n">
-        <v>0.530979</v>
+        <v>0.541806</v>
       </c>
     </row>
     <row r="47">
@@ -11694,13 +11694,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.939103</v>
+        <v>0.944984</v>
       </c>
       <c r="C47" t="n">
-        <v>0.720713</v>
+        <v>0.729074</v>
       </c>
       <c r="D47" t="n">
-        <v>0.531659</v>
+        <v>0.54226</v>
       </c>
     </row>
     <row r="48">
@@ -11708,13 +11708,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.950146</v>
+        <v>0.9531539999999999</v>
       </c>
       <c r="C48" t="n">
-        <v>0.728067</v>
+        <v>0.738507</v>
       </c>
       <c r="D48" t="n">
-        <v>0.5332</v>
+        <v>0.543892</v>
       </c>
     </row>
     <row r="49">
@@ -11722,13 +11722,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.954175</v>
+        <v>0.960909</v>
       </c>
       <c r="C49" t="n">
-        <v>0.740146</v>
+        <v>0.746584</v>
       </c>
       <c r="D49" t="n">
-        <v>0.537427</v>
+        <v>0.547565</v>
       </c>
     </row>
     <row r="50">
@@ -11736,13 +11736,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.96855</v>
+        <v>0.9747440000000001</v>
       </c>
       <c r="C50" t="n">
-        <v>0.7488359999999999</v>
+        <v>0.754621</v>
       </c>
       <c r="D50" t="n">
-        <v>0.539335</v>
+        <v>0.5502280000000001</v>
       </c>
     </row>
     <row r="51">
@@ -11750,13 +11750,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.977843</v>
+        <v>0.982887</v>
       </c>
       <c r="C51" t="n">
-        <v>0.758263</v>
+        <v>0.769465</v>
       </c>
       <c r="D51" t="n">
-        <v>0.5401</v>
+        <v>0.550309</v>
       </c>
     </row>
     <row r="52">
@@ -11764,13 +11764,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.992914</v>
+        <v>0.998952</v>
       </c>
       <c r="C52" t="n">
-        <v>0.767858</v>
+        <v>0.77894</v>
       </c>
       <c r="D52" t="n">
-        <v>0.543724</v>
+        <v>0.553139</v>
       </c>
     </row>
     <row r="53">
@@ -11778,13 +11778,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>1.00208</v>
+        <v>1.00643</v>
       </c>
       <c r="C53" t="n">
-        <v>0.777648</v>
+        <v>0.787205</v>
       </c>
       <c r="D53" t="n">
-        <v>0.542114</v>
+        <v>0.552297</v>
       </c>
     </row>
     <row r="54">
@@ -11792,13 +11792,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>1.01433</v>
+        <v>1.01557</v>
       </c>
       <c r="C54" t="n">
-        <v>0.717753</v>
+        <v>0.723718</v>
       </c>
       <c r="D54" t="n">
-        <v>0.546411</v>
+        <v>0.5550040000000001</v>
       </c>
     </row>
     <row r="55">
@@ -11806,13 +11806,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.940679</v>
+        <v>0.943743</v>
       </c>
       <c r="C55" t="n">
-        <v>0.720364</v>
+        <v>0.725855</v>
       </c>
       <c r="D55" t="n">
-        <v>0.548305</v>
+        <v>0.5572510000000001</v>
       </c>
     </row>
     <row r="56">
@@ -11820,13 +11820,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.949276</v>
+        <v>0.953225</v>
       </c>
       <c r="C56" t="n">
-        <v>0.72832</v>
+        <v>0.7345120000000001</v>
       </c>
       <c r="D56" t="n">
-        <v>0.549663</v>
+        <v>0.558558</v>
       </c>
     </row>
     <row r="57">
@@ -11834,13 +11834,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.958251</v>
+        <v>0.9614239999999999</v>
       </c>
       <c r="C57" t="n">
-        <v>0.7347669999999999</v>
+        <v>0.742004</v>
       </c>
       <c r="D57" t="n">
-        <v>0.550265</v>
+        <v>0.559406</v>
       </c>
     </row>
     <row r="58">
@@ -11848,13 +11848,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.965776</v>
+        <v>0.969659</v>
       </c>
       <c r="C58" t="n">
-        <v>0.741088</v>
+        <v>0.749105</v>
       </c>
       <c r="D58" t="n">
-        <v>0.551565</v>
+        <v>0.561111</v>
       </c>
     </row>
     <row r="59">
@@ -11862,13 +11862,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.974809</v>
+        <v>0.977452</v>
       </c>
       <c r="C59" t="n">
-        <v>0.749416</v>
+        <v>0.756561</v>
       </c>
       <c r="D59" t="n">
-        <v>0.554388</v>
+        <v>0.563647</v>
       </c>
     </row>
     <row r="60">
@@ -11876,13 +11876,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.983437</v>
+        <v>0.985529</v>
       </c>
       <c r="C60" t="n">
-        <v>0.759901</v>
+        <v>0.765822</v>
       </c>
       <c r="D60" t="n">
-        <v>0.554508</v>
+        <v>0.5638</v>
       </c>
     </row>
     <row r="61">
@@ -11890,13 +11890,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.990625</v>
+        <v>0.993289</v>
       </c>
       <c r="C61" t="n">
-        <v>0.768082</v>
+        <v>0.775062</v>
       </c>
       <c r="D61" t="n">
-        <v>0.557461</v>
+        <v>0.566984</v>
       </c>
     </row>
     <row r="62">
@@ -11904,13 +11904,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>1.00295</v>
+        <v>1.0064</v>
       </c>
       <c r="C62" t="n">
-        <v>0.7756150000000001</v>
+        <v>0.785697</v>
       </c>
       <c r="D62" t="n">
-        <v>0.5579460000000001</v>
+        <v>0.56715</v>
       </c>
     </row>
     <row r="63">
@@ -11918,13 +11918,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>1.01325</v>
+        <v>1.01619</v>
       </c>
       <c r="C63" t="n">
-        <v>0.788012</v>
+        <v>0.797921</v>
       </c>
       <c r="D63" t="n">
-        <v>0.559554</v>
+        <v>0.56838</v>
       </c>
     </row>
     <row r="64">
@@ -11932,13 +11932,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>1.01998</v>
+        <v>1.0221</v>
       </c>
       <c r="C64" t="n">
-        <v>0.801351</v>
+        <v>0.809715</v>
       </c>
       <c r="D64" t="n">
-        <v>0.561048</v>
+        <v>0.569856</v>
       </c>
     </row>
     <row r="65">
@@ -11946,13 +11946,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>1.02957</v>
+        <v>1.0317</v>
       </c>
       <c r="C65" t="n">
-        <v>0.817253</v>
+        <v>0.828462</v>
       </c>
       <c r="D65" t="n">
-        <v>0.563232</v>
+        <v>0.572058</v>
       </c>
     </row>
     <row r="66">
@@ -11960,13 +11960,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>1.04146</v>
+        <v>1.04258</v>
       </c>
       <c r="C66" t="n">
-        <v>0.828203</v>
+        <v>0.840883</v>
       </c>
       <c r="D66" t="n">
-        <v>0.566313</v>
+        <v>0.574682</v>
       </c>
     </row>
     <row r="67">
@@ -11974,13 +11974,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.05816</v>
+        <v>1.0618</v>
       </c>
       <c r="C67" t="n">
-        <v>0.846976</v>
+        <v>0.861199</v>
       </c>
       <c r="D67" t="n">
-        <v>0.5666369999999999</v>
+        <v>0.576462</v>
       </c>
     </row>
     <row r="68">
@@ -11988,13 +11988,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>1.08426</v>
+        <v>1.0728</v>
       </c>
       <c r="C68" t="n">
-        <v>0.767532</v>
+        <v>0.787639</v>
       </c>
       <c r="D68" t="n">
-        <v>0.577569</v>
+        <v>0.591463</v>
       </c>
     </row>
     <row r="69">
@@ -12002,13 +12002,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>1.00069</v>
+        <v>1.02711</v>
       </c>
       <c r="C69" t="n">
-        <v>0.789314</v>
+        <v>0.816705</v>
       </c>
       <c r="D69" t="n">
-        <v>0.582406</v>
+        <v>0.600252</v>
       </c>
     </row>
     <row r="70">
@@ -12016,13 +12016,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>1.0211</v>
+        <v>1.04573</v>
       </c>
       <c r="C70" t="n">
-        <v>0.8146409999999999</v>
+        <v>0.841306</v>
       </c>
       <c r="D70" t="n">
-        <v>0.592882</v>
+        <v>0.613708</v>
       </c>
     </row>
     <row r="71">
@@ -12030,13 +12030,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>1.04866</v>
+        <v>1.07201</v>
       </c>
       <c r="C71" t="n">
-        <v>0.85128</v>
+        <v>0.870655</v>
       </c>
       <c r="D71" t="n">
-        <v>0.609147</v>
+        <v>0.629206</v>
       </c>
     </row>
     <row r="72">
@@ -12044,13 +12044,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>1.0791</v>
+        <v>1.10384</v>
       </c>
       <c r="C72" t="n">
-        <v>0.879503</v>
+        <v>0.900879</v>
       </c>
       <c r="D72" t="n">
-        <v>0.623588</v>
+        <v>0.644687</v>
       </c>
     </row>
     <row r="73">
@@ -12058,13 +12058,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>1.11349</v>
+        <v>1.14263</v>
       </c>
       <c r="C73" t="n">
-        <v>0.9176879999999999</v>
+        <v>0.94043</v>
       </c>
       <c r="D73" t="n">
-        <v>0.63794</v>
+        <v>0.665239</v>
       </c>
     </row>
     <row r="74">
@@ -12072,13 +12072,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.14599</v>
+        <v>1.17823</v>
       </c>
       <c r="C74" t="n">
-        <v>0.955769</v>
+        <v>0.977619</v>
       </c>
       <c r="D74" t="n">
-        <v>0.657625</v>
+        <v>0.684485</v>
       </c>
     </row>
     <row r="75">
@@ -12086,13 +12086,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>1.18568</v>
+        <v>1.22554</v>
       </c>
       <c r="C75" t="n">
-        <v>0.994007</v>
+        <v>1.01886</v>
       </c>
       <c r="D75" t="n">
-        <v>0.679659</v>
+        <v>0.711206</v>
       </c>
     </row>
     <row r="76">
@@ -12100,13 +12100,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>1.23297</v>
+        <v>1.27348</v>
       </c>
       <c r="C76" t="n">
-        <v>1.0349</v>
+        <v>1.06065</v>
       </c>
       <c r="D76" t="n">
-        <v>0.703608</v>
+        <v>0.735208</v>
       </c>
     </row>
     <row r="77">
@@ -12114,13 +12114,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>1.27849</v>
+        <v>1.32278</v>
       </c>
       <c r="C77" t="n">
-        <v>1.07676</v>
+        <v>1.11018</v>
       </c>
       <c r="D77" t="n">
-        <v>0.726894</v>
+        <v>0.763313</v>
       </c>
     </row>
     <row r="78">
@@ -12128,13 +12128,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>1.34485</v>
+        <v>1.38499</v>
       </c>
       <c r="C78" t="n">
-        <v>1.13088</v>
+        <v>1.16155</v>
       </c>
       <c r="D78" t="n">
-        <v>0.763356</v>
+        <v>0.7949929999999999</v>
       </c>
     </row>
     <row r="79">
@@ -12142,13 +12142,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.40491</v>
+        <v>1.45693</v>
       </c>
       <c r="C79" t="n">
-        <v>1.18209</v>
+        <v>1.21447</v>
       </c>
       <c r="D79" t="n">
-        <v>0.797041</v>
+        <v>0.834404</v>
       </c>
     </row>
     <row r="80">
@@ -12156,13 +12156,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.47606</v>
+        <v>1.54074</v>
       </c>
       <c r="C80" t="n">
-        <v>1.23739</v>
+        <v>1.28127</v>
       </c>
       <c r="D80" t="n">
-        <v>0.8334279999999999</v>
+        <v>0.8792180000000001</v>
       </c>
     </row>
     <row r="81">
@@ -12170,13 +12170,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.56224</v>
+        <v>1.62232</v>
       </c>
       <c r="C81" t="n">
-        <v>1.30606</v>
+        <v>1.34563</v>
       </c>
       <c r="D81" t="n">
-        <v>0.880018</v>
+        <v>0.921361</v>
       </c>
     </row>
     <row r="82">
@@ -12184,13 +12184,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.65452</v>
+        <v>1.70649</v>
       </c>
       <c r="C82" t="n">
-        <v>1.3778</v>
+        <v>1.41027</v>
       </c>
       <c r="D82" t="n">
-        <v>0.932491</v>
+        <v>0.965404</v>
       </c>
     </row>
     <row r="83">
@@ -12198,13 +12198,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.76104</v>
+        <v>1.81735</v>
       </c>
       <c r="C83" t="n">
-        <v>1.37219</v>
+        <v>1.40246</v>
       </c>
       <c r="D83" t="n">
-        <v>1.052</v>
+        <v>1.08272</v>
       </c>
     </row>
     <row r="84">
@@ -12212,13 +12212,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.78213</v>
+        <v>1.83093</v>
       </c>
       <c r="C84" t="n">
-        <v>1.43457</v>
+        <v>1.46141</v>
       </c>
       <c r="D84" t="n">
-        <v>1.10749</v>
+        <v>1.13849</v>
       </c>
     </row>
     <row r="85">
@@ -12226,13 +12226,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.8893</v>
+        <v>1.93734</v>
       </c>
       <c r="C85" t="n">
-        <v>1.50061</v>
+        <v>1.529</v>
       </c>
       <c r="D85" t="n">
-        <v>1.16843</v>
+        <v>1.19661</v>
       </c>
     </row>
     <row r="86">
@@ -12240,13 +12240,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.99088</v>
+        <v>2.03211</v>
       </c>
       <c r="C86" t="n">
-        <v>1.56832</v>
+        <v>1.60232</v>
       </c>
       <c r="D86" t="n">
-        <v>1.22831</v>
+        <v>1.25101</v>
       </c>
     </row>
     <row r="87">
@@ -12254,13 +12254,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>2.1027</v>
+        <v>2.13583</v>
       </c>
       <c r="C87" t="n">
-        <v>1.64292</v>
+        <v>1.66776</v>
       </c>
       <c r="D87" t="n">
-        <v>1.28826</v>
+        <v>1.30575</v>
       </c>
     </row>
     <row r="88">
@@ -12268,13 +12268,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>2.21687</v>
+        <v>2.24963</v>
       </c>
       <c r="C88" t="n">
-        <v>1.72751</v>
+        <v>1.75132</v>
       </c>
       <c r="D88" t="n">
-        <v>1.35233</v>
+        <v>1.36463</v>
       </c>
     </row>
     <row r="89">
@@ -12282,13 +12282,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>2.34468</v>
+        <v>2.37691</v>
       </c>
       <c r="C89" t="n">
-        <v>1.80808</v>
+        <v>1.83315</v>
       </c>
       <c r="D89" t="n">
-        <v>1.40934</v>
+        <v>1.42097</v>
       </c>
     </row>
     <row r="90">
@@ -12296,13 +12296,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>2.46646</v>
+        <v>2.50039</v>
       </c>
       <c r="C90" t="n">
-        <v>1.88875</v>
+        <v>1.91114</v>
       </c>
       <c r="D90" t="n">
-        <v>1.47091</v>
+        <v>1.4819</v>
       </c>
     </row>
     <row r="91">
@@ -12310,13 +12310,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>2.59594</v>
+        <v>2.61979</v>
       </c>
       <c r="C91" t="n">
-        <v>1.97177</v>
+        <v>1.99305</v>
       </c>
       <c r="D91" t="n">
-        <v>1.5263</v>
+        <v>1.53013</v>
       </c>
     </row>
     <row r="92">
@@ -12324,13 +12324,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>2.72456</v>
+        <v>2.74759</v>
       </c>
       <c r="C92" t="n">
-        <v>2.06495</v>
+        <v>2.07873</v>
       </c>
       <c r="D92" t="n">
-        <v>1.58485</v>
+        <v>1.58714</v>
       </c>
     </row>
     <row r="93">
@@ -12338,13 +12338,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>2.85503</v>
+        <v>2.88957</v>
       </c>
       <c r="C93" t="n">
-        <v>2.15109</v>
+        <v>2.1698</v>
       </c>
       <c r="D93" t="n">
-        <v>1.63911</v>
+        <v>1.6418</v>
       </c>
     </row>
     <row r="94">
@@ -12352,13 +12352,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>2.97204</v>
+        <v>3.01606</v>
       </c>
       <c r="C94" t="n">
-        <v>2.24705</v>
+        <v>2.27164</v>
       </c>
       <c r="D94" t="n">
-        <v>1.69065</v>
+        <v>1.69157</v>
       </c>
     </row>
     <row r="95">
@@ -12366,13 +12366,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>3.12425</v>
+        <v>3.1533</v>
       </c>
       <c r="C95" t="n">
-        <v>2.34063</v>
+        <v>2.36224</v>
       </c>
       <c r="D95" t="n">
-        <v>1.74063</v>
+        <v>1.74139</v>
       </c>
     </row>
     <row r="96">
@@ -12380,13 +12380,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>3.2414</v>
+        <v>3.27367</v>
       </c>
       <c r="C96" t="n">
-        <v>2.45507</v>
+        <v>2.47422</v>
       </c>
       <c r="D96" t="n">
-        <v>1.78949</v>
+        <v>1.78734</v>
       </c>
     </row>
     <row r="97">
@@ -12394,13 +12394,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>3.38375</v>
+        <v>3.40899</v>
       </c>
       <c r="C97" t="n">
-        <v>2.22027</v>
+        <v>2.2434</v>
       </c>
       <c r="D97" t="n">
-        <v>1.91778</v>
+        <v>1.91845</v>
       </c>
     </row>
     <row r="98">
@@ -12408,13 +12408,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>3.25699</v>
+        <v>3.26064</v>
       </c>
       <c r="C98" t="n">
-        <v>2.28373</v>
+        <v>2.29833</v>
       </c>
       <c r="D98" t="n">
-        <v>1.96918</v>
+        <v>1.96217</v>
       </c>
     </row>
     <row r="99">
@@ -12422,13 +12422,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>3.35035</v>
+        <v>3.36576</v>
       </c>
       <c r="C99" t="n">
-        <v>2.35827</v>
+        <v>2.3622</v>
       </c>
       <c r="D99" t="n">
-        <v>2.00794</v>
+        <v>2.01615</v>
       </c>
     </row>
     <row r="100">
@@ -12436,13 +12436,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>3.42287</v>
+        <v>3.46621</v>
       </c>
       <c r="C100" t="n">
-        <v>2.41823</v>
+        <v>2.43707</v>
       </c>
       <c r="D100" t="n">
-        <v>2.04801</v>
+        <v>2.04399</v>
       </c>
     </row>
     <row r="101">
@@ -12450,13 +12450,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>3.55721</v>
+        <v>3.58671</v>
       </c>
       <c r="C101" t="n">
-        <v>2.4763</v>
+        <v>2.50209</v>
       </c>
       <c r="D101" t="n">
-        <v>2.09224</v>
+        <v>2.08918</v>
       </c>
     </row>
     <row r="102">
@@ -12464,13 +12464,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>3.67264</v>
+        <v>3.69261</v>
       </c>
       <c r="C102" t="n">
-        <v>2.55471</v>
+        <v>2.57114</v>
       </c>
       <c r="D102" t="n">
-        <v>2.11724</v>
+        <v>2.11926</v>
       </c>
     </row>
     <row r="103">
@@ -12478,13 +12478,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>3.76968</v>
+        <v>3.79618</v>
       </c>
       <c r="C103" t="n">
-        <v>2.63899</v>
+        <v>2.65131</v>
       </c>
       <c r="D103" t="n">
-        <v>2.15292</v>
+        <v>2.15167</v>
       </c>
     </row>
     <row r="104">
@@ -12492,13 +12492,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>3.87882</v>
+        <v>3.88382</v>
       </c>
       <c r="C104" t="n">
-        <v>2.70044</v>
+        <v>2.72936</v>
       </c>
       <c r="D104" t="n">
-        <v>2.18397</v>
+        <v>2.18685</v>
       </c>
     </row>
     <row r="105">
@@ -12506,13 +12506,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>3.95773</v>
+        <v>3.97977</v>
       </c>
       <c r="C105" t="n">
-        <v>2.79231</v>
+        <v>2.8102</v>
       </c>
       <c r="D105" t="n">
-        <v>2.21601</v>
+        <v>2.22817</v>
       </c>
     </row>
     <row r="106">
@@ -12520,13 +12520,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>4.06551</v>
+        <v>4.09108</v>
       </c>
       <c r="C106" t="n">
-        <v>2.86959</v>
+        <v>2.89509</v>
       </c>
       <c r="D106" t="n">
-        <v>2.25219</v>
+        <v>2.24516</v>
       </c>
     </row>
     <row r="107">
@@ -12534,13 +12534,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>4.18201</v>
+        <v>4.18683</v>
       </c>
       <c r="C107" t="n">
-        <v>2.9459</v>
+        <v>2.96786</v>
       </c>
       <c r="D107" t="n">
-        <v>2.30634</v>
+        <v>2.29156</v>
       </c>
     </row>
     <row r="108">
@@ -12548,13 +12548,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>4.27853</v>
+        <v>4.30742</v>
       </c>
       <c r="C108" t="n">
-        <v>3.0396</v>
+        <v>3.06198</v>
       </c>
       <c r="D108" t="n">
-        <v>2.30681</v>
+        <v>2.30712</v>
       </c>
     </row>
     <row r="109">
@@ -12562,13 +12562,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>4.37788</v>
+        <v>4.43119</v>
       </c>
       <c r="C109" t="n">
-        <v>3.12349</v>
+        <v>3.16092</v>
       </c>
       <c r="D109" t="n">
-        <v>2.33502</v>
+        <v>2.3528</v>
       </c>
     </row>
     <row r="110">
@@ -12576,13 +12576,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>4.49553</v>
+        <v>4.51946</v>
       </c>
       <c r="C110" t="n">
-        <v>3.20567</v>
+        <v>3.25602</v>
       </c>
       <c r="D110" t="n">
-        <v>2.37176</v>
+        <v>2.37506</v>
       </c>
     </row>
     <row r="111">
@@ -12590,13 +12590,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>4.60221</v>
+        <v>4.63873</v>
       </c>
       <c r="C111" t="n">
-        <v>2.836</v>
+        <v>2.86552</v>
       </c>
       <c r="D111" t="n">
-        <v>2.45287</v>
+        <v>2.45697</v>
       </c>
     </row>
     <row r="112">
@@ -12604,13 +12604,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>4.24824</v>
+        <v>4.27978</v>
       </c>
       <c r="C112" t="n">
-        <v>2.89843</v>
+        <v>2.91946</v>
       </c>
       <c r="D112" t="n">
-        <v>2.47808</v>
+        <v>2.48823</v>
       </c>
     </row>
     <row r="113">
@@ -12618,13 +12618,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>4.31484</v>
+        <v>4.36949</v>
       </c>
       <c r="C113" t="n">
-        <v>2.9721</v>
+        <v>2.97986</v>
       </c>
       <c r="D113" t="n">
-        <v>2.49657</v>
+        <v>2.50952</v>
       </c>
     </row>
     <row r="114">
@@ -12632,13 +12632,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>4.39865</v>
+        <v>4.42992</v>
       </c>
       <c r="C114" t="n">
-        <v>3.02206</v>
+        <v>3.04024</v>
       </c>
       <c r="D114" t="n">
-        <v>2.52432</v>
+        <v>2.53085</v>
       </c>
     </row>
     <row r="115">
@@ -12646,13 +12646,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>4.48713</v>
+        <v>4.52715</v>
       </c>
       <c r="C115" t="n">
-        <v>3.08064</v>
+        <v>3.11368</v>
       </c>
       <c r="D115" t="n">
-        <v>2.54536</v>
+        <v>2.55686</v>
       </c>
     </row>
     <row r="116">
@@ -12660,13 +12660,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>4.5908</v>
+        <v>4.62767</v>
       </c>
       <c r="C116" t="n">
-        <v>3.14077</v>
+        <v>3.1715</v>
       </c>
       <c r="D116" t="n">
-        <v>2.56627</v>
+        <v>2.58112</v>
       </c>
     </row>
     <row r="117">
@@ -12674,13 +12674,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>4.6403</v>
+        <v>4.71199</v>
       </c>
       <c r="C117" t="n">
-        <v>3.21197</v>
+        <v>3.23799</v>
       </c>
       <c r="D117" t="n">
-        <v>2.58313</v>
+        <v>2.60095</v>
       </c>
     </row>
     <row r="118">
@@ -12688,13 +12688,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>4.7365</v>
+        <v>4.79089</v>
       </c>
       <c r="C118" t="n">
-        <v>3.28677</v>
+        <v>3.31396</v>
       </c>
       <c r="D118" t="n">
-        <v>2.61445</v>
+        <v>2.62462</v>
       </c>
     </row>
     <row r="119">
@@ -12702,13 +12702,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>4.84581</v>
+        <v>4.90538</v>
       </c>
       <c r="C119" t="n">
-        <v>3.35915</v>
+        <v>3.40427</v>
       </c>
       <c r="D119" t="n">
-        <v>2.64245</v>
+        <v>2.648</v>
       </c>
     </row>
   </sheetData>

--- a/clang_libcpp/scattered erasure.xlsx
+++ b/clang_libcpp/scattered erasure.xlsx
@@ -7680,13 +7680,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.400163</v>
+        <v>0.402036</v>
       </c>
       <c r="C2" t="n">
-        <v>0.319048</v>
+        <v>0.174782</v>
       </c>
       <c r="D2" t="n">
-        <v>0.218738</v>
+        <v>0.225017</v>
       </c>
     </row>
     <row r="3">
@@ -7694,13 +7694,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.397972</v>
+        <v>0.405973</v>
       </c>
       <c r="C3" t="n">
-        <v>0.320882</v>
+        <v>0.178581</v>
       </c>
       <c r="D3" t="n">
-        <v>0.22853</v>
+        <v>0.235129</v>
       </c>
     </row>
     <row r="4">
@@ -7708,13 +7708,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.409304</v>
+        <v>0.413452</v>
       </c>
       <c r="C4" t="n">
-        <v>0.327954</v>
+        <v>0.181127</v>
       </c>
       <c r="D4" t="n">
-        <v>0.234732</v>
+        <v>0.240992</v>
       </c>
     </row>
     <row r="5">
@@ -7722,13 +7722,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.416601</v>
+        <v>0.422647</v>
       </c>
       <c r="C5" t="n">
-        <v>0.332262</v>
+        <v>0.184423</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2409</v>
+        <v>0.243619</v>
       </c>
     </row>
     <row r="6">
@@ -7736,13 +7736,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.418635</v>
+        <v>0.42267</v>
       </c>
       <c r="C6" t="n">
-        <v>0.333304</v>
+        <v>0.189326</v>
       </c>
       <c r="D6" t="n">
-        <v>0.248735</v>
+        <v>0.249286</v>
       </c>
     </row>
     <row r="7">
@@ -7750,13 +7750,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.425684</v>
+        <v>0.42966</v>
       </c>
       <c r="C7" t="n">
-        <v>0.333451</v>
+        <v>0.173974</v>
       </c>
       <c r="D7" t="n">
-        <v>0.248055</v>
+        <v>0.249724</v>
       </c>
     </row>
     <row r="8">
@@ -7764,13 +7764,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.40088</v>
+        <v>0.406009</v>
       </c>
       <c r="C8" t="n">
-        <v>0.334549</v>
+        <v>0.176145</v>
       </c>
       <c r="D8" t="n">
-        <v>0.253675</v>
+        <v>0.250922</v>
       </c>
     </row>
     <row r="9">
@@ -7778,13 +7778,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.409278</v>
+        <v>0.409044</v>
       </c>
       <c r="C9" t="n">
-        <v>0.337718</v>
+        <v>0.178033</v>
       </c>
       <c r="D9" t="n">
-        <v>0.26085</v>
+        <v>0.258104</v>
       </c>
     </row>
     <row r="10">
@@ -7792,13 +7792,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.413362</v>
+        <v>0.416363</v>
       </c>
       <c r="C10" t="n">
-        <v>0.340058</v>
+        <v>0.180046</v>
       </c>
       <c r="D10" t="n">
-        <v>0.261836</v>
+        <v>0.261547</v>
       </c>
     </row>
     <row r="11">
@@ -7806,13 +7806,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.420777</v>
+        <v>0.421402</v>
       </c>
       <c r="C11" t="n">
-        <v>0.34095</v>
+        <v>0.18129</v>
       </c>
       <c r="D11" t="n">
-        <v>0.267681</v>
+        <v>0.266866</v>
       </c>
     </row>
     <row r="12">
@@ -7820,13 +7820,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.4251</v>
+        <v>0.426501</v>
       </c>
       <c r="C12" t="n">
-        <v>0.343072</v>
+        <v>0.183585</v>
       </c>
       <c r="D12" t="n">
-        <v>0.271874</v>
+        <v>0.269282</v>
       </c>
     </row>
     <row r="13">
@@ -7834,13 +7834,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.428898</v>
+        <v>0.431326</v>
       </c>
       <c r="C13" t="n">
-        <v>0.345791</v>
+        <v>0.186019</v>
       </c>
       <c r="D13" t="n">
-        <v>0.273118</v>
+        <v>0.276351</v>
       </c>
     </row>
     <row r="14">
@@ -7848,13 +7848,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.435629</v>
+        <v>0.438419</v>
       </c>
       <c r="C14" t="n">
-        <v>0.347824</v>
+        <v>0.188317</v>
       </c>
       <c r="D14" t="n">
-        <v>0.280517</v>
+        <v>0.281737</v>
       </c>
     </row>
     <row r="15">
@@ -7862,13 +7862,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.442354</v>
+        <v>0.44299</v>
       </c>
       <c r="C15" t="n">
-        <v>0.351196</v>
+        <v>0.190763</v>
       </c>
       <c r="D15" t="n">
-        <v>0.284811</v>
+        <v>0.283369</v>
       </c>
     </row>
     <row r="16">
@@ -7876,13 +7876,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.449027</v>
+        <v>0.450745</v>
       </c>
       <c r="C16" t="n">
-        <v>0.353642</v>
+        <v>0.193318</v>
       </c>
       <c r="D16" t="n">
-        <v>0.289069</v>
+        <v>0.289617</v>
       </c>
     </row>
     <row r="17">
@@ -7890,13 +7890,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.453501</v>
+        <v>0.456295</v>
       </c>
       <c r="C17" t="n">
-        <v>0.355603</v>
+        <v>0.195509</v>
       </c>
       <c r="D17" t="n">
-        <v>0.296145</v>
+        <v>0.295868</v>
       </c>
     </row>
     <row r="18">
@@ -7904,13 +7904,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.460588</v>
+        <v>0.462505</v>
       </c>
       <c r="C18" t="n">
-        <v>0.359192</v>
+        <v>0.198701</v>
       </c>
       <c r="D18" t="n">
-        <v>0.299149</v>
+        <v>0.300411</v>
       </c>
     </row>
     <row r="19">
@@ -7918,13 +7918,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.464193</v>
+        <v>0.468804</v>
       </c>
       <c r="C19" t="n">
-        <v>0.362124</v>
+        <v>0.201628</v>
       </c>
       <c r="D19" t="n">
-        <v>0.305233</v>
+        <v>0.302882</v>
       </c>
     </row>
     <row r="20">
@@ -7932,13 +7932,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.473894</v>
+        <v>0.474114</v>
       </c>
       <c r="C20" t="n">
-        <v>0.364882</v>
+        <v>0.204408</v>
       </c>
       <c r="D20" t="n">
-        <v>0.308298</v>
+        <v>0.308719</v>
       </c>
     </row>
     <row r="21">
@@ -7946,13 +7946,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.476905</v>
+        <v>0.479183</v>
       </c>
       <c r="C21" t="n">
-        <v>0.359035</v>
+        <v>0.18409</v>
       </c>
       <c r="D21" t="n">
-        <v>0.305788</v>
+        <v>0.304497</v>
       </c>
     </row>
     <row r="22">
@@ -7960,13 +7960,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.458364</v>
+        <v>0.459888</v>
       </c>
       <c r="C22" t="n">
-        <v>0.36086</v>
+        <v>0.185524</v>
       </c>
       <c r="D22" t="n">
-        <v>0.309218</v>
+        <v>0.308123</v>
       </c>
     </row>
     <row r="23">
@@ -7974,13 +7974,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.462764</v>
+        <v>0.463934</v>
       </c>
       <c r="C23" t="n">
-        <v>0.362346</v>
+        <v>0.187677</v>
       </c>
       <c r="D23" t="n">
-        <v>0.312167</v>
+        <v>0.312336</v>
       </c>
     </row>
     <row r="24">
@@ -7988,13 +7988,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.466735</v>
+        <v>0.467153</v>
       </c>
       <c r="C24" t="n">
-        <v>0.363937</v>
+        <v>0.189481</v>
       </c>
       <c r="D24" t="n">
-        <v>0.318304</v>
+        <v>0.314711</v>
       </c>
     </row>
     <row r="25">
@@ -8002,13 +8002,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.472155</v>
+        <v>0.473271</v>
       </c>
       <c r="C25" t="n">
-        <v>0.366157</v>
+        <v>0.191278</v>
       </c>
       <c r="D25" t="n">
-        <v>0.32052</v>
+        <v>0.318793</v>
       </c>
     </row>
     <row r="26">
@@ -8016,13 +8016,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.475387</v>
+        <v>0.477698</v>
       </c>
       <c r="C26" t="n">
-        <v>0.368428</v>
+        <v>0.193512</v>
       </c>
       <c r="D26" t="n">
-        <v>0.323997</v>
+        <v>0.320344</v>
       </c>
     </row>
     <row r="27">
@@ -8030,13 +8030,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.479343</v>
+        <v>0.481118</v>
       </c>
       <c r="C27" t="n">
-        <v>0.370044</v>
+        <v>0.195552</v>
       </c>
       <c r="D27" t="n">
-        <v>0.326164</v>
+        <v>0.326019</v>
       </c>
     </row>
     <row r="28">
@@ -8044,13 +8044,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.485691</v>
+        <v>0.485912</v>
       </c>
       <c r="C28" t="n">
-        <v>0.373255</v>
+        <v>0.19793</v>
       </c>
       <c r="D28" t="n">
-        <v>0.328746</v>
+        <v>0.32566</v>
       </c>
     </row>
     <row r="29">
@@ -8058,13 +8058,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.489292</v>
+        <v>0.489969</v>
       </c>
       <c r="C29" t="n">
-        <v>0.374128</v>
+        <v>0.200311</v>
       </c>
       <c r="D29" t="n">
-        <v>0.332024</v>
+        <v>0.331201</v>
       </c>
     </row>
     <row r="30">
@@ -8072,13 +8072,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.49233</v>
+        <v>0.495542</v>
       </c>
       <c r="C30" t="n">
-        <v>0.378009</v>
+        <v>0.202532</v>
       </c>
       <c r="D30" t="n">
-        <v>0.334298</v>
+        <v>0.334475</v>
       </c>
     </row>
     <row r="31">
@@ -8086,13 +8086,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.498264</v>
+        <v>0.498938</v>
       </c>
       <c r="C31" t="n">
-        <v>0.378482</v>
+        <v>0.205458</v>
       </c>
       <c r="D31" t="n">
-        <v>0.338457</v>
+        <v>0.33878</v>
       </c>
     </row>
     <row r="32">
@@ -8100,13 +8100,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.502321</v>
+        <v>0.503335</v>
       </c>
       <c r="C32" t="n">
-        <v>0.38156</v>
+        <v>0.20697</v>
       </c>
       <c r="D32" t="n">
-        <v>0.341249</v>
+        <v>0.340503</v>
       </c>
     </row>
     <row r="33">
@@ -8114,13 +8114,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.507235</v>
+        <v>0.508161</v>
       </c>
       <c r="C33" t="n">
-        <v>0.384246</v>
+        <v>0.210429</v>
       </c>
       <c r="D33" t="n">
-        <v>0.344474</v>
+        <v>0.343969</v>
       </c>
     </row>
     <row r="34">
@@ -8128,13 +8128,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.513061</v>
+        <v>0.513645</v>
       </c>
       <c r="C34" t="n">
-        <v>0.386725</v>
+        <v>0.2121</v>
       </c>
       <c r="D34" t="n">
-        <v>0.347194</v>
+        <v>0.345606</v>
       </c>
     </row>
     <row r="35">
@@ -8142,13 +8142,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.518001</v>
+        <v>0.519018</v>
       </c>
       <c r="C35" t="n">
-        <v>0.373603</v>
+        <v>0.188478</v>
       </c>
       <c r="D35" t="n">
-        <v>0.341291</v>
+        <v>0.337404</v>
       </c>
     </row>
     <row r="36">
@@ -8156,13 +8156,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.490189</v>
+        <v>0.490621</v>
       </c>
       <c r="C36" t="n">
-        <v>0.375031</v>
+        <v>0.190369</v>
       </c>
       <c r="D36" t="n">
-        <v>0.343034</v>
+        <v>0.342538</v>
       </c>
     </row>
     <row r="37">
@@ -8170,13 +8170,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.493118</v>
+        <v>0.493647</v>
       </c>
       <c r="C37" t="n">
-        <v>0.376987</v>
+        <v>0.192587</v>
       </c>
       <c r="D37" t="n">
-        <v>0.345448</v>
+        <v>0.344705</v>
       </c>
     </row>
     <row r="38">
@@ -8184,13 +8184,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.496035</v>
+        <v>0.495781</v>
       </c>
       <c r="C38" t="n">
-        <v>0.377813</v>
+        <v>0.194352</v>
       </c>
       <c r="D38" t="n">
-        <v>0.346235</v>
+        <v>0.346158</v>
       </c>
     </row>
     <row r="39">
@@ -8198,13 +8198,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.497682</v>
+        <v>0.498913</v>
       </c>
       <c r="C39" t="n">
-        <v>0.378495</v>
+        <v>0.196416</v>
       </c>
       <c r="D39" t="n">
-        <v>0.347719</v>
+        <v>0.347846</v>
       </c>
     </row>
     <row r="40">
@@ -8212,13 +8212,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.50121</v>
+        <v>0.50241</v>
       </c>
       <c r="C40" t="n">
-        <v>0.380486</v>
+        <v>0.198416</v>
       </c>
       <c r="D40" t="n">
-        <v>0.349622</v>
+        <v>0.349795</v>
       </c>
     </row>
     <row r="41">
@@ -8226,13 +8226,13 @@
         <v>66357</v>
       </c>
       <c r="B41" t="n">
-        <v>0.503684</v>
+        <v>0.505123</v>
       </c>
       <c r="C41" t="n">
-        <v>0.381654</v>
+        <v>0.200116</v>
       </c>
       <c r="D41" t="n">
-        <v>0.351368</v>
+        <v>0.351615</v>
       </c>
     </row>
     <row r="42">
@@ -8240,13 +8240,13 @@
         <v>69656</v>
       </c>
       <c r="B42" t="n">
-        <v>0.507475</v>
+        <v>0.507562</v>
       </c>
       <c r="C42" t="n">
-        <v>0.383501</v>
+        <v>0.202357</v>
       </c>
       <c r="D42" t="n">
-        <v>0.353558</v>
+        <v>0.353107</v>
       </c>
     </row>
     <row r="43">
@@ -8254,13 +8254,13 @@
         <v>73119</v>
       </c>
       <c r="B43" t="n">
-        <v>0.51254</v>
+        <v>0.513062</v>
       </c>
       <c r="C43" t="n">
-        <v>0.385372</v>
+        <v>0.204591</v>
       </c>
       <c r="D43" t="n">
-        <v>0.355745</v>
+        <v>0.355834</v>
       </c>
     </row>
     <row r="44">
@@ -8268,13 +8268,13 @@
         <v>76755</v>
       </c>
       <c r="B44" t="n">
-        <v>0.515424</v>
+        <v>0.515804</v>
       </c>
       <c r="C44" t="n">
-        <v>0.388573</v>
+        <v>0.206694</v>
       </c>
       <c r="D44" t="n">
-        <v>0.357736</v>
+        <v>0.357386</v>
       </c>
     </row>
     <row r="45">
@@ -8282,13 +8282,13 @@
         <v>80572</v>
       </c>
       <c r="B45" t="n">
-        <v>0.519185</v>
+        <v>0.51985</v>
       </c>
       <c r="C45" t="n">
-        <v>0.389658</v>
+        <v>0.208903</v>
       </c>
       <c r="D45" t="n">
-        <v>0.359851</v>
+        <v>0.359346</v>
       </c>
     </row>
     <row r="46">
@@ -8296,13 +8296,13 @@
         <v>84579</v>
       </c>
       <c r="B46" t="n">
-        <v>0.523357</v>
+        <v>0.523672</v>
       </c>
       <c r="C46" t="n">
-        <v>0.393921</v>
+        <v>0.211842</v>
       </c>
       <c r="D46" t="n">
-        <v>0.361887</v>
+        <v>0.361698</v>
       </c>
     </row>
     <row r="47">
@@ -8310,13 +8310,13 @@
         <v>88786</v>
       </c>
       <c r="B47" t="n">
-        <v>0.527984</v>
+        <v>0.528609</v>
       </c>
       <c r="C47" t="n">
-        <v>0.394929</v>
+        <v>0.21461</v>
       </c>
       <c r="D47" t="n">
-        <v>0.364746</v>
+        <v>0.36414</v>
       </c>
     </row>
     <row r="48">
@@ -8324,13 +8324,13 @@
         <v>93203</v>
       </c>
       <c r="B48" t="n">
-        <v>0.532406</v>
+        <v>0.531579</v>
       </c>
       <c r="C48" t="n">
-        <v>0.398049</v>
+        <v>0.217303</v>
       </c>
       <c r="D48" t="n">
-        <v>0.366531</v>
+        <v>0.366118</v>
       </c>
     </row>
     <row r="49">
@@ -8338,13 +8338,13 @@
         <v>97840</v>
       </c>
       <c r="B49" t="n">
-        <v>0.536632</v>
+        <v>0.536649</v>
       </c>
       <c r="C49" t="n">
-        <v>0.40074</v>
+        <v>0.220301</v>
       </c>
       <c r="D49" t="n">
-        <v>0.368267</v>
+        <v>0.368029</v>
       </c>
     </row>
     <row r="50">
@@ -8352,13 +8352,13 @@
         <v>102706</v>
       </c>
       <c r="B50" t="n">
-        <v>0.541404</v>
+        <v>0.541835</v>
       </c>
       <c r="C50" t="n">
-        <v>0.38556</v>
+        <v>0.194317</v>
       </c>
       <c r="D50" t="n">
-        <v>0.359447</v>
+        <v>0.358856</v>
       </c>
     </row>
     <row r="51">
@@ -8366,13 +8366,13 @@
         <v>107816</v>
       </c>
       <c r="B51" t="n">
-        <v>0.509494</v>
+        <v>0.509876</v>
       </c>
       <c r="C51" t="n">
-        <v>0.387953</v>
+        <v>0.197844</v>
       </c>
       <c r="D51" t="n">
-        <v>0.360127</v>
+        <v>0.359791</v>
       </c>
     </row>
     <row r="52">
@@ -8380,13 +8380,13 @@
         <v>113182</v>
       </c>
       <c r="B52" t="n">
-        <v>0.511682</v>
+        <v>0.51271</v>
       </c>
       <c r="C52" t="n">
-        <v>0.386998</v>
+        <v>0.198145</v>
       </c>
       <c r="D52" t="n">
-        <v>0.360796</v>
+        <v>0.360597</v>
       </c>
     </row>
     <row r="53">
@@ -8394,13 +8394,13 @@
         <v>118816</v>
       </c>
       <c r="B53" t="n">
-        <v>0.5138470000000001</v>
+        <v>0.514168</v>
       </c>
       <c r="C53" t="n">
-        <v>0.389982</v>
+        <v>0.202024</v>
       </c>
       <c r="D53" t="n">
-        <v>0.362273</v>
+        <v>0.362018</v>
       </c>
     </row>
     <row r="54">
@@ -8408,13 +8408,13 @@
         <v>124731</v>
       </c>
       <c r="B54" t="n">
-        <v>0.516818</v>
+        <v>0.516855</v>
       </c>
       <c r="C54" t="n">
-        <v>0.39293</v>
+        <v>0.204117</v>
       </c>
       <c r="D54" t="n">
-        <v>0.36383</v>
+        <v>0.36367</v>
       </c>
     </row>
     <row r="55">
@@ -8422,13 +8422,13 @@
         <v>130941</v>
       </c>
       <c r="B55" t="n">
-        <v>0.519447</v>
+        <v>0.519995</v>
       </c>
       <c r="C55" t="n">
-        <v>0.394439</v>
+        <v>0.207089</v>
       </c>
       <c r="D55" t="n">
-        <v>0.365067</v>
+        <v>0.365307</v>
       </c>
     </row>
     <row r="56">
@@ -8436,13 +8436,13 @@
         <v>137461</v>
       </c>
       <c r="B56" t="n">
-        <v>0.522053</v>
+        <v>0.524718</v>
       </c>
       <c r="C56" t="n">
-        <v>0.395812</v>
+        <v>0.214916</v>
       </c>
       <c r="D56" t="n">
-        <v>0.366999</v>
+        <v>0.366325</v>
       </c>
     </row>
     <row r="57">
@@ -8450,13 +8450,13 @@
         <v>144307</v>
       </c>
       <c r="B57" t="n">
-        <v>0.526307</v>
+        <v>0.525088</v>
       </c>
       <c r="C57" t="n">
-        <v>0.404391</v>
+        <v>0.212424</v>
       </c>
       <c r="D57" t="n">
-        <v>0.369181</v>
+        <v>0.368342</v>
       </c>
     </row>
     <row r="58">
@@ -8464,13 +8464,13 @@
         <v>151495</v>
       </c>
       <c r="B58" t="n">
-        <v>0.530641</v>
+        <v>0.528747</v>
       </c>
       <c r="C58" t="n">
-        <v>0.409752</v>
+        <v>0.221377</v>
       </c>
       <c r="D58" t="n">
-        <v>0.370716</v>
+        <v>0.370481</v>
       </c>
     </row>
     <row r="59">
@@ -8478,13 +8478,13 @@
         <v>159042</v>
       </c>
       <c r="B59" t="n">
-        <v>0.533267</v>
+        <v>0.532843</v>
       </c>
       <c r="C59" t="n">
-        <v>0.411272</v>
+        <v>0.225272</v>
       </c>
       <c r="D59" t="n">
-        <v>0.371632</v>
+        <v>0.372048</v>
       </c>
     </row>
     <row r="60">
@@ -8492,13 +8492,13 @@
         <v>166965</v>
       </c>
       <c r="B60" t="n">
-        <v>0.535936</v>
+        <v>0.536686</v>
       </c>
       <c r="C60" t="n">
-        <v>0.413334</v>
+        <v>0.228559</v>
       </c>
       <c r="D60" t="n">
-        <v>0.374299</v>
+        <v>0.373685</v>
       </c>
     </row>
     <row r="61">
@@ -8506,13 +8506,13 @@
         <v>175284</v>
       </c>
       <c r="B61" t="n">
-        <v>0.540839</v>
+        <v>0.54044</v>
       </c>
       <c r="C61" t="n">
-        <v>0.418376</v>
+        <v>0.229887</v>
       </c>
       <c r="D61" t="n">
-        <v>0.376714</v>
+        <v>0.375799</v>
       </c>
     </row>
     <row r="62">
@@ -8520,13 +8520,13 @@
         <v>184019</v>
       </c>
       <c r="B62" t="n">
-        <v>0.547311</v>
+        <v>0.544978</v>
       </c>
       <c r="C62" t="n">
-        <v>0.427761</v>
+        <v>0.238358</v>
       </c>
       <c r="D62" t="n">
-        <v>0.380709</v>
+        <v>0.377847</v>
       </c>
     </row>
     <row r="63">
@@ -8534,13 +8534,13 @@
         <v>193190</v>
       </c>
       <c r="B63" t="n">
-        <v>0.552014</v>
+        <v>0.550031</v>
       </c>
       <c r="C63" t="n">
-        <v>0.431967</v>
+        <v>0.250227</v>
       </c>
       <c r="D63" t="n">
-        <v>0.382986</v>
+        <v>0.380673</v>
       </c>
     </row>
     <row r="64">
@@ -8548,13 +8548,13 @@
         <v>202820</v>
       </c>
       <c r="B64" t="n">
-        <v>0.559644</v>
+        <v>0.55622</v>
       </c>
       <c r="C64" t="n">
-        <v>0.491905</v>
+        <v>0.298677</v>
       </c>
       <c r="D64" t="n">
-        <v>0.412523</v>
+        <v>0.419421</v>
       </c>
     </row>
     <row r="65">
@@ -8562,13 +8562,13 @@
         <v>212931</v>
       </c>
       <c r="B65" t="n">
-        <v>0.585168</v>
+        <v>0.598144</v>
       </c>
       <c r="C65" t="n">
-        <v>0.51267</v>
+        <v>0.320273</v>
       </c>
       <c r="D65" t="n">
-        <v>0.418163</v>
+        <v>0.433599</v>
       </c>
     </row>
     <row r="66">
@@ -8576,13 +8576,13 @@
         <v>223547</v>
       </c>
       <c r="B66" t="n">
-        <v>0.5978059999999999</v>
+        <v>0.617445</v>
       </c>
       <c r="C66" t="n">
-        <v>0.522354</v>
+        <v>0.335864</v>
       </c>
       <c r="D66" t="n">
-        <v>0.423945</v>
+        <v>0.435263</v>
       </c>
     </row>
     <row r="67">
@@ -8590,13 +8590,13 @@
         <v>234692</v>
       </c>
       <c r="B67" t="n">
-        <v>0.60709</v>
+        <v>0.623817</v>
       </c>
       <c r="C67" t="n">
-        <v>0.538187</v>
+        <v>0.34899</v>
       </c>
       <c r="D67" t="n">
-        <v>0.441592</v>
+        <v>0.456464</v>
       </c>
     </row>
     <row r="68">
@@ -8604,13 +8604,13 @@
         <v>246395</v>
       </c>
       <c r="B68" t="n">
-        <v>0.633826</v>
+        <v>0.660864</v>
       </c>
       <c r="C68" t="n">
-        <v>0.569649</v>
+        <v>0.367905</v>
       </c>
       <c r="D68" t="n">
-        <v>0.462357</v>
+        <v>0.458649</v>
       </c>
     </row>
     <row r="69">
@@ -8618,13 +8618,13 @@
         <v>258683</v>
       </c>
       <c r="B69" t="n">
-        <v>0.663868</v>
+        <v>0.652339</v>
       </c>
       <c r="C69" t="n">
-        <v>0.585305</v>
+        <v>0.392061</v>
       </c>
       <c r="D69" t="n">
-        <v>0.47419</v>
+        <v>0.473411</v>
       </c>
     </row>
     <row r="70">
@@ -8632,13 +8632,13 @@
         <v>271585</v>
       </c>
       <c r="B70" t="n">
-        <v>0.681901</v>
+        <v>0.687832</v>
       </c>
       <c r="C70" t="n">
-        <v>0.601272</v>
+        <v>0.400646</v>
       </c>
       <c r="D70" t="n">
-        <v>0.475824</v>
+        <v>0.482093</v>
       </c>
     </row>
     <row r="71">
@@ -8646,13 +8646,13 @@
         <v>285132</v>
       </c>
       <c r="B71" t="n">
-        <v>0.688935</v>
+        <v>0.7134819999999999</v>
       </c>
       <c r="C71" t="n">
-        <v>0.620179</v>
+        <v>0.419222</v>
       </c>
       <c r="D71" t="n">
-        <v>0.505965</v>
+        <v>0.527128</v>
       </c>
     </row>
     <row r="72">
@@ -8660,13 +8660,13 @@
         <v>299354</v>
       </c>
       <c r="B72" t="n">
-        <v>0.731102</v>
+        <v>0.737617</v>
       </c>
       <c r="C72" t="n">
-        <v>0.658243</v>
+        <v>0.439385</v>
       </c>
       <c r="D72" t="n">
-        <v>0.529817</v>
+        <v>0.527489</v>
       </c>
     </row>
     <row r="73">
@@ -8674,13 +8674,13 @@
         <v>314289</v>
       </c>
       <c r="B73" t="n">
-        <v>0.746812</v>
+        <v>0.761841</v>
       </c>
       <c r="C73" t="n">
-        <v>0.680868</v>
+        <v>0.463312</v>
       </c>
       <c r="D73" t="n">
-        <v>0.547004</v>
+        <v>0.553283</v>
       </c>
     </row>
     <row r="74">
@@ -8688,13 +8688,13 @@
         <v>329969</v>
       </c>
       <c r="B74" t="n">
-        <v>0.784666</v>
+        <v>0.799601</v>
       </c>
       <c r="C74" t="n">
-        <v>0.703911</v>
+        <v>0.483988</v>
       </c>
       <c r="D74" t="n">
-        <v>0.569964</v>
+        <v>0.577002</v>
       </c>
     </row>
     <row r="75">
@@ -8702,13 +8702,13 @@
         <v>346432</v>
       </c>
       <c r="B75" t="n">
-        <v>0.824495</v>
+        <v>0.827302</v>
       </c>
       <c r="C75" t="n">
-        <v>0.729793</v>
+        <v>0.496674</v>
       </c>
       <c r="D75" t="n">
-        <v>0.605366</v>
+        <v>0.608809</v>
       </c>
     </row>
     <row r="76">
@@ -8716,13 +8716,13 @@
         <v>363719</v>
       </c>
       <c r="B76" t="n">
-        <v>0.872013</v>
+        <v>0.863965</v>
       </c>
       <c r="C76" t="n">
-        <v>0.763566</v>
+        <v>0.517633</v>
       </c>
       <c r="D76" t="n">
-        <v>0.6445070000000001</v>
+        <v>0.638195</v>
       </c>
     </row>
     <row r="77">
@@ -8730,13 +8730,13 @@
         <v>381870</v>
       </c>
       <c r="B77" t="n">
-        <v>0.895011</v>
+        <v>0.913586</v>
       </c>
       <c r="C77" t="n">
-        <v>0.782006</v>
+        <v>0.536099</v>
       </c>
       <c r="D77" t="n">
-        <v>0.661709</v>
+        <v>0.670354</v>
       </c>
     </row>
     <row r="78">
@@ -8744,13 +8744,13 @@
         <v>400928</v>
       </c>
       <c r="B78" t="n">
-        <v>0.95033</v>
+        <v>0.956082</v>
       </c>
       <c r="C78" t="n">
-        <v>0.959701</v>
+        <v>0.630534</v>
       </c>
       <c r="D78" t="n">
-        <v>0.888351</v>
+        <v>0.895793</v>
       </c>
     </row>
     <row r="79">
@@ -8758,13 +8758,13 @@
         <v>420937</v>
       </c>
       <c r="B79" t="n">
-        <v>1.2272</v>
+        <v>1.23411</v>
       </c>
       <c r="C79" t="n">
-        <v>0.979826</v>
+        <v>0.643586</v>
       </c>
       <c r="D79" t="n">
-        <v>0.9332859999999999</v>
+        <v>0.937117</v>
       </c>
     </row>
     <row r="80">
@@ -8772,13 +8772,13 @@
         <v>441947</v>
       </c>
       <c r="B80" t="n">
-        <v>1.27749</v>
+        <v>1.27977</v>
       </c>
       <c r="C80" t="n">
-        <v>1.00196</v>
+        <v>0.65616</v>
       </c>
       <c r="D80" t="n">
-        <v>0.965484</v>
+        <v>0.97651</v>
       </c>
     </row>
     <row r="81">
@@ -8786,13 +8786,13 @@
         <v>464005</v>
       </c>
       <c r="B81" t="n">
-        <v>1.32803</v>
+        <v>1.34135</v>
       </c>
       <c r="C81" t="n">
-        <v>1.01775</v>
+        <v>0.6672709999999999</v>
       </c>
       <c r="D81" t="n">
-        <v>1.00762</v>
+        <v>1.01513</v>
       </c>
     </row>
     <row r="82">
@@ -8800,13 +8800,13 @@
         <v>487165</v>
       </c>
       <c r="B82" t="n">
-        <v>1.37927</v>
+        <v>1.39142</v>
       </c>
       <c r="C82" t="n">
-        <v>1.03687</v>
+        <v>0.678037</v>
       </c>
       <c r="D82" t="n">
-        <v>1.04008</v>
+        <v>1.0509</v>
       </c>
     </row>
     <row r="83">
@@ -8814,13 +8814,13 @@
         <v>511485</v>
       </c>
       <c r="B83" t="n">
-        <v>1.42802</v>
+        <v>1.43838</v>
       </c>
       <c r="C83" t="n">
-        <v>1.06194</v>
+        <v>0.6913859999999999</v>
       </c>
       <c r="D83" t="n">
-        <v>1.0818</v>
+        <v>1.08655</v>
       </c>
     </row>
     <row r="84">
@@ -8828,13 +8828,13 @@
         <v>537019</v>
       </c>
       <c r="B84" t="n">
-        <v>1.47711</v>
+        <v>1.48661</v>
       </c>
       <c r="C84" t="n">
-        <v>1.07938</v>
+        <v>0.703315</v>
       </c>
       <c r="D84" t="n">
-        <v>1.11625</v>
+        <v>1.12757</v>
       </c>
     </row>
     <row r="85">
@@ -8842,13 +8842,13 @@
         <v>563827</v>
       </c>
       <c r="B85" t="n">
-        <v>1.52612</v>
+        <v>1.53827</v>
       </c>
       <c r="C85" t="n">
-        <v>1.09642</v>
+        <v>0.71478</v>
       </c>
       <c r="D85" t="n">
-        <v>1.15341</v>
+        <v>1.16103</v>
       </c>
     </row>
     <row r="86">
@@ -8856,13 +8856,13 @@
         <v>591977</v>
       </c>
       <c r="B86" t="n">
-        <v>1.57673</v>
+        <v>1.58388</v>
       </c>
       <c r="C86" t="n">
-        <v>1.11309</v>
+        <v>0.727248</v>
       </c>
       <c r="D86" t="n">
-        <v>1.1907</v>
+        <v>1.1993</v>
       </c>
     </row>
     <row r="87">
@@ -8870,13 +8870,13 @@
         <v>621532</v>
       </c>
       <c r="B87" t="n">
-        <v>1.61932</v>
+        <v>1.63023</v>
       </c>
       <c r="C87" t="n">
-        <v>1.13041</v>
+        <v>0.737909</v>
       </c>
       <c r="D87" t="n">
-        <v>1.22648</v>
+        <v>1.23145</v>
       </c>
     </row>
     <row r="88">
@@ -8884,13 +8884,13 @@
         <v>652567</v>
       </c>
       <c r="B88" t="n">
-        <v>1.65807</v>
+        <v>1.67246</v>
       </c>
       <c r="C88" t="n">
-        <v>1.1484</v>
+        <v>0.74876</v>
       </c>
       <c r="D88" t="n">
-        <v>1.26288</v>
+        <v>1.26974</v>
       </c>
     </row>
     <row r="89">
@@ -8898,13 +8898,13 @@
         <v>685151</v>
       </c>
       <c r="B89" t="n">
-        <v>1.70739</v>
+        <v>1.7197</v>
       </c>
       <c r="C89" t="n">
-        <v>1.17127</v>
+        <v>0.762725</v>
       </c>
       <c r="D89" t="n">
-        <v>1.29805</v>
+        <v>1.30575</v>
       </c>
     </row>
     <row r="90">
@@ -8912,13 +8912,13 @@
         <v>719359</v>
       </c>
       <c r="B90" t="n">
-        <v>1.75433</v>
+        <v>1.7633</v>
       </c>
       <c r="C90" t="n">
-        <v>1.18846</v>
+        <v>0.775066</v>
       </c>
       <c r="D90" t="n">
-        <v>1.32887</v>
+        <v>1.3351</v>
       </c>
     </row>
     <row r="91">
@@ -8926,13 +8926,13 @@
         <v>755280</v>
       </c>
       <c r="B91" t="n">
-        <v>1.78937</v>
+        <v>1.79542</v>
       </c>
       <c r="C91" t="n">
-        <v>1.2067</v>
+        <v>0.7868849999999999</v>
       </c>
       <c r="D91" t="n">
-        <v>1.36</v>
+        <v>1.36674</v>
       </c>
     </row>
     <row r="92">
@@ -8940,13 +8940,13 @@
         <v>792997</v>
       </c>
       <c r="B92" t="n">
-        <v>1.83283</v>
+        <v>1.84146</v>
       </c>
       <c r="C92" t="n">
-        <v>1.30279</v>
+        <v>0.795366</v>
       </c>
       <c r="D92" t="n">
-        <v>1.54053</v>
+        <v>1.54512</v>
       </c>
     </row>
     <row r="93">
@@ -8954,13 +8954,13 @@
         <v>832595</v>
       </c>
       <c r="B93" t="n">
-        <v>2.05325</v>
+        <v>2.05535</v>
       </c>
       <c r="C93" t="n">
-        <v>1.31745</v>
+        <v>0.801368</v>
       </c>
       <c r="D93" t="n">
-        <v>1.55739</v>
+        <v>1.56134</v>
       </c>
     </row>
     <row r="94">
@@ -8968,13 +8968,13 @@
         <v>874177</v>
       </c>
       <c r="B94" t="n">
-        <v>2.0788</v>
+        <v>2.08671</v>
       </c>
       <c r="C94" t="n">
-        <v>1.32547</v>
+        <v>0.807844</v>
       </c>
       <c r="D94" t="n">
-        <v>1.57727</v>
+        <v>1.58543</v>
       </c>
     </row>
     <row r="95">
@@ -8982,13 +8982,13 @@
         <v>917832</v>
       </c>
       <c r="B95" t="n">
-        <v>2.11125</v>
+        <v>2.11616</v>
       </c>
       <c r="C95" t="n">
-        <v>1.33453</v>
+        <v>0.816033</v>
       </c>
       <c r="D95" t="n">
-        <v>1.60083</v>
+        <v>1.60648</v>
       </c>
     </row>
     <row r="96">
@@ -8996,13 +8996,13 @@
         <v>963677</v>
       </c>
       <c r="B96" t="n">
-        <v>2.13387</v>
+        <v>2.14056</v>
       </c>
       <c r="C96" t="n">
-        <v>1.34098</v>
+        <v>0.823972</v>
       </c>
       <c r="D96" t="n">
-        <v>1.62224</v>
+        <v>1.62542</v>
       </c>
     </row>
     <row r="97">
@@ -9010,13 +9010,13 @@
         <v>1011813</v>
       </c>
       <c r="B97" t="n">
-        <v>2.16248</v>
+        <v>2.17107</v>
       </c>
       <c r="C97" t="n">
-        <v>1.35071</v>
+        <v>0.833189</v>
       </c>
       <c r="D97" t="n">
-        <v>1.63497</v>
+        <v>1.64525</v>
       </c>
     </row>
     <row r="98">
@@ -9024,13 +9024,13 @@
         <v>1062351</v>
       </c>
       <c r="B98" t="n">
-        <v>2.186</v>
+        <v>2.19856</v>
       </c>
       <c r="C98" t="n">
-        <v>1.3613</v>
+        <v>0.84401</v>
       </c>
       <c r="D98" t="n">
-        <v>1.65308</v>
+        <v>1.66321</v>
       </c>
     </row>
     <row r="99">
@@ -9038,13 +9038,13 @@
         <v>1115422</v>
       </c>
       <c r="B99" t="n">
-        <v>2.21025</v>
+        <v>2.22171</v>
       </c>
       <c r="C99" t="n">
-        <v>1.37316</v>
+        <v>0.849241</v>
       </c>
       <c r="D99" t="n">
-        <v>1.67081</v>
+        <v>1.68358</v>
       </c>
     </row>
     <row r="100">
@@ -9052,13 +9052,13 @@
         <v>1171143</v>
       </c>
       <c r="B100" t="n">
-        <v>2.23557</v>
+        <v>2.24831</v>
       </c>
       <c r="C100" t="n">
-        <v>1.38424</v>
+        <v>0.859862</v>
       </c>
       <c r="D100" t="n">
-        <v>1.68592</v>
+        <v>1.69986</v>
       </c>
     </row>
     <row r="101">
@@ -9066,13 +9066,13 @@
         <v>1229634</v>
       </c>
       <c r="B101" t="n">
-        <v>2.25611</v>
+        <v>2.27188</v>
       </c>
       <c r="C101" t="n">
-        <v>1.39375</v>
+        <v>0.868666</v>
       </c>
       <c r="D101" t="n">
-        <v>1.70194</v>
+        <v>1.71239</v>
       </c>
     </row>
     <row r="102">
@@ -9080,13 +9080,13 @@
         <v>1291062</v>
       </c>
       <c r="B102" t="n">
-        <v>2.28014</v>
+        <v>2.29696</v>
       </c>
       <c r="C102" t="n">
-        <v>1.40668</v>
+        <v>0.878135</v>
       </c>
       <c r="D102" t="n">
-        <v>1.7248</v>
+        <v>1.72834</v>
       </c>
     </row>
     <row r="103">
@@ -9094,13 +9094,13 @@
         <v>1355554</v>
       </c>
       <c r="B103" t="n">
-        <v>2.30881</v>
+        <v>2.31569</v>
       </c>
       <c r="C103" t="n">
-        <v>1.41765</v>
+        <v>0.886832</v>
       </c>
       <c r="D103" t="n">
-        <v>1.73652</v>
+        <v>1.75496</v>
       </c>
     </row>
     <row r="104">
@@ -9108,13 +9108,13 @@
         <v>1423274</v>
       </c>
       <c r="B104" t="n">
-        <v>2.3305</v>
+        <v>2.34364</v>
       </c>
       <c r="C104" t="n">
-        <v>1.42663</v>
+        <v>0.900778</v>
       </c>
       <c r="D104" t="n">
-        <v>1.75759</v>
+        <v>1.76314</v>
       </c>
     </row>
     <row r="105">
@@ -9122,13 +9122,13 @@
         <v>1494380</v>
       </c>
       <c r="B105" t="n">
-        <v>2.35378</v>
+        <v>2.36194</v>
       </c>
       <c r="C105" t="n">
-        <v>1.43713</v>
+        <v>0.911029</v>
       </c>
       <c r="D105" t="n">
-        <v>1.76508</v>
+        <v>1.77677</v>
       </c>
     </row>
     <row r="106">
@@ -9136,13 +9136,13 @@
         <v>1569031</v>
       </c>
       <c r="B106" t="n">
-        <v>2.37801</v>
+        <v>2.38657</v>
       </c>
       <c r="C106" t="n">
-        <v>1.44978</v>
+        <v>0.922211</v>
       </c>
       <c r="D106" t="n">
-        <v>1.782</v>
+        <v>1.78937</v>
       </c>
     </row>
     <row r="107">
@@ -9150,13 +9150,13 @@
         <v>1647417</v>
       </c>
       <c r="B107" t="n">
-        <v>2.4865</v>
+        <v>2.49827</v>
       </c>
       <c r="C107" t="n">
-        <v>1.47622</v>
+        <v>0.871925</v>
       </c>
       <c r="D107" t="n">
-        <v>1.87494</v>
+        <v>1.88677</v>
       </c>
     </row>
     <row r="108">
@@ -9164,13 +9164,13 @@
         <v>1729734</v>
       </c>
       <c r="B108" t="n">
-        <v>2.50477</v>
+        <v>2.51363</v>
       </c>
       <c r="C108" t="n">
-        <v>1.48088</v>
+        <v>0.878637</v>
       </c>
       <c r="D108" t="n">
-        <v>1.88993</v>
+        <v>1.89367</v>
       </c>
     </row>
     <row r="109">
@@ -9178,13 +9178,13 @@
         <v>1816153</v>
       </c>
       <c r="B109" t="n">
-        <v>2.51695</v>
+        <v>2.52398</v>
       </c>
       <c r="C109" t="n">
-        <v>1.48873</v>
+        <v>0.886478</v>
       </c>
       <c r="D109" t="n">
-        <v>1.89254</v>
+        <v>1.902</v>
       </c>
     </row>
     <row r="110">
@@ -9192,13 +9192,13 @@
         <v>1906885</v>
       </c>
       <c r="B110" t="n">
-        <v>2.53322</v>
+        <v>2.54602</v>
       </c>
       <c r="C110" t="n">
-        <v>1.49438</v>
+        <v>0.896261</v>
       </c>
       <c r="D110" t="n">
-        <v>1.8994</v>
+        <v>1.91167</v>
       </c>
     </row>
     <row r="111">
@@ -9206,13 +9206,13 @@
         <v>2002164</v>
       </c>
       <c r="B111" t="n">
-        <v>2.5471</v>
+        <v>2.55914</v>
       </c>
       <c r="C111" t="n">
-        <v>1.50183</v>
+        <v>0.903236</v>
       </c>
       <c r="D111" t="n">
-        <v>1.91348</v>
+        <v>1.92923</v>
       </c>
     </row>
     <row r="112">
@@ -9220,13 +9220,13 @@
         <v>2102198</v>
       </c>
       <c r="B112" t="n">
-        <v>2.56011</v>
+        <v>2.57038</v>
       </c>
       <c r="C112" t="n">
-        <v>1.50682</v>
+        <v>0.912428</v>
       </c>
       <c r="D112" t="n">
-        <v>1.92076</v>
+        <v>1.94305</v>
       </c>
     </row>
     <row r="113">
@@ -9234,13 +9234,13 @@
         <v>2207233</v>
       </c>
       <c r="B113" t="n">
-        <v>2.57668</v>
+        <v>2.58643</v>
       </c>
       <c r="C113" t="n">
-        <v>1.51559</v>
+        <v>0.922791</v>
       </c>
       <c r="D113" t="n">
-        <v>1.93099</v>
+        <v>1.94445</v>
       </c>
     </row>
     <row r="114">
@@ -9248,13 +9248,13 @@
         <v>2317508</v>
       </c>
       <c r="B114" t="n">
-        <v>2.59182</v>
+        <v>2.60483</v>
       </c>
       <c r="C114" t="n">
-        <v>1.52271</v>
+        <v>0.928891</v>
       </c>
       <c r="D114" t="n">
-        <v>1.94201</v>
+        <v>1.95571</v>
       </c>
     </row>
     <row r="115">
@@ -9262,13 +9262,13 @@
         <v>2433290</v>
       </c>
       <c r="B115" t="n">
-        <v>2.60704</v>
+        <v>2.61641</v>
       </c>
       <c r="C115" t="n">
-        <v>1.53083</v>
+        <v>0.938275</v>
       </c>
       <c r="D115" t="n">
-        <v>1.95343</v>
+        <v>1.9729</v>
       </c>
     </row>
     <row r="116">
@@ -9276,13 +9276,13 @@
         <v>2554854</v>
       </c>
       <c r="B116" t="n">
-        <v>2.62285</v>
+        <v>2.6321</v>
       </c>
       <c r="C116" t="n">
-        <v>1.53819</v>
+        <v>0.949138</v>
       </c>
       <c r="D116" t="n">
-        <v>1.96677</v>
+        <v>1.97191</v>
       </c>
     </row>
     <row r="117">
@@ -9290,13 +9290,13 @@
         <v>2682511</v>
       </c>
       <c r="B117" t="n">
-        <v>2.63467</v>
+        <v>2.64386</v>
       </c>
       <c r="C117" t="n">
-        <v>1.54672</v>
+        <v>0.958575</v>
       </c>
       <c r="D117" t="n">
-        <v>1.96984</v>
+        <v>1.98003</v>
       </c>
     </row>
     <row r="118">
@@ -9304,13 +9304,13 @@
         <v>2816546</v>
       </c>
       <c r="B118" t="n">
-        <v>2.64718</v>
+        <v>2.65859</v>
       </c>
       <c r="C118" t="n">
-        <v>1.55347</v>
+        <v>0.970533</v>
       </c>
       <c r="D118" t="n">
-        <v>1.97956</v>
+        <v>1.99286</v>
       </c>
     </row>
     <row r="119">
@@ -9318,13 +9318,13 @@
         <v>2957287</v>
       </c>
       <c r="B119" t="n">
-        <v>2.6628</v>
+        <v>2.67404</v>
       </c>
       <c r="C119" t="n">
-        <v>1.56201</v>
+        <v>0.982353</v>
       </c>
       <c r="D119" t="n">
-        <v>1.98749</v>
+        <v>2.00452</v>
       </c>
     </row>
   </sheetData>
@@ -9372,13 +9372,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.552253</v>
+        <v>0.555022</v>
       </c>
       <c r="C2" t="n">
-        <v>0.466491</v>
+        <v>0.302264</v>
       </c>
       <c r="D2" t="n">
-        <v>0.35623</v>
+        <v>0.343763</v>
       </c>
     </row>
     <row r="3">
@@ -9386,13 +9386,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.564314</v>
+        <v>0.557663</v>
       </c>
       <c r="C3" t="n">
-        <v>0.46625</v>
+        <v>0.309433</v>
       </c>
       <c r="D3" t="n">
-        <v>0.364188</v>
+        <v>0.342185</v>
       </c>
     </row>
     <row r="4">
@@ -9400,13 +9400,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.578468</v>
+        <v>0.56308</v>
       </c>
       <c r="C4" t="n">
-        <v>0.475698</v>
+        <v>0.314263</v>
       </c>
       <c r="D4" t="n">
-        <v>0.363008</v>
+        <v>0.347874</v>
       </c>
     </row>
     <row r="5">
@@ -9414,13 +9414,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.576361</v>
+        <v>0.573152</v>
       </c>
       <c r="C5" t="n">
-        <v>0.478196</v>
+        <v>0.316479</v>
       </c>
       <c r="D5" t="n">
-        <v>0.366463</v>
+        <v>0.353798</v>
       </c>
     </row>
     <row r="6">
@@ -9428,13 +9428,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.582295</v>
+        <v>0.580498</v>
       </c>
       <c r="C6" t="n">
-        <v>0.484729</v>
+        <v>0.325572</v>
       </c>
       <c r="D6" t="n">
-        <v>0.377146</v>
+        <v>0.353384</v>
       </c>
     </row>
     <row r="7">
@@ -9442,13 +9442,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.591135</v>
+        <v>0.577048</v>
       </c>
       <c r="C7" t="n">
-        <v>0.50431</v>
+        <v>0.336227</v>
       </c>
       <c r="D7" t="n">
-        <v>0.381148</v>
+        <v>0.367826</v>
       </c>
     </row>
     <row r="8">
@@ -9456,13 +9456,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.5986629999999999</v>
+        <v>0.593178</v>
       </c>
       <c r="C8" t="n">
-        <v>0.507157</v>
+        <v>0.337986</v>
       </c>
       <c r="D8" t="n">
-        <v>0.396045</v>
+        <v>0.369481</v>
       </c>
     </row>
     <row r="9">
@@ -9470,13 +9470,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.609023</v>
+        <v>0.6041299999999999</v>
       </c>
       <c r="C9" t="n">
-        <v>0.509135</v>
+        <v>0.340834</v>
       </c>
       <c r="D9" t="n">
-        <v>0.39561</v>
+        <v>0.376953</v>
       </c>
     </row>
     <row r="10">
@@ -9484,13 +9484,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.627194</v>
+        <v>0.613062</v>
       </c>
       <c r="C10" t="n">
-        <v>0.520003</v>
+        <v>0.349486</v>
       </c>
       <c r="D10" t="n">
-        <v>0.406397</v>
+        <v>0.385134</v>
       </c>
     </row>
     <row r="11">
@@ -9498,13 +9498,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.638478</v>
+        <v>0.625378</v>
       </c>
       <c r="C11" t="n">
-        <v>0.519755</v>
+        <v>0.349209</v>
       </c>
       <c r="D11" t="n">
-        <v>0.40655</v>
+        <v>0.388157</v>
       </c>
     </row>
     <row r="12">
@@ -9512,13 +9512,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.636955</v>
+        <v>0.6285539999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>0.52383</v>
+        <v>0.356209</v>
       </c>
       <c r="D12" t="n">
-        <v>0.411385</v>
+        <v>0.396207</v>
       </c>
     </row>
     <row r="13">
@@ -9526,13 +9526,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.64441</v>
+        <v>0.641126</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5276999999999999</v>
+        <v>0.357276</v>
       </c>
       <c r="D13" t="n">
-        <v>0.420209</v>
+        <v>0.402676</v>
       </c>
     </row>
     <row r="14">
@@ -9540,13 +9540,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.659617</v>
+        <v>0.6488120000000001</v>
       </c>
       <c r="C14" t="n">
-        <v>0.527308</v>
+        <v>0.358975</v>
       </c>
       <c r="D14" t="n">
-        <v>0.424751</v>
+        <v>0.406794</v>
       </c>
     </row>
     <row r="15">
@@ -9554,13 +9554,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.663354</v>
+        <v>0.657104</v>
       </c>
       <c r="C15" t="n">
-        <v>0.538644</v>
+        <v>0.368472</v>
       </c>
       <c r="D15" t="n">
-        <v>0.43025</v>
+        <v>0.413992</v>
       </c>
     </row>
     <row r="16">
@@ -9568,13 +9568,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.665609</v>
+        <v>0.6622749999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>0.539457</v>
+        <v>0.370592</v>
       </c>
       <c r="D16" t="n">
-        <v>0.431946</v>
+        <v>0.413873</v>
       </c>
     </row>
     <row r="17">
@@ -9582,13 +9582,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.678297</v>
+        <v>0.669729</v>
       </c>
       <c r="C17" t="n">
-        <v>0.542377</v>
+        <v>0.372983</v>
       </c>
       <c r="D17" t="n">
-        <v>0.436873</v>
+        <v>0.422356</v>
       </c>
     </row>
     <row r="18">
@@ -9596,13 +9596,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.682117</v>
+        <v>0.674732</v>
       </c>
       <c r="C18" t="n">
-        <v>0.55219</v>
+        <v>0.38028</v>
       </c>
       <c r="D18" t="n">
-        <v>0.444728</v>
+        <v>0.427909</v>
       </c>
     </row>
     <row r="19">
@@ -9610,13 +9610,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.690983</v>
+        <v>0.685938</v>
       </c>
       <c r="C19" t="n">
-        <v>0.551855</v>
+        <v>0.382899</v>
       </c>
       <c r="D19" t="n">
-        <v>0.446444</v>
+        <v>0.433301</v>
       </c>
     </row>
     <row r="20">
@@ -9624,13 +9624,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.703642</v>
+        <v>0.698539</v>
       </c>
       <c r="C20" t="n">
-        <v>0.56172</v>
+        <v>0.391347</v>
       </c>
       <c r="D20" t="n">
-        <v>0.453371</v>
+        <v>0.439585</v>
       </c>
     </row>
     <row r="21">
@@ -9638,13 +9638,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.708501</v>
+        <v>0.704726</v>
       </c>
       <c r="C21" t="n">
-        <v>0.566237</v>
+        <v>0.39233</v>
       </c>
       <c r="D21" t="n">
-        <v>0.45898</v>
+        <v>0.446596</v>
       </c>
     </row>
     <row r="22">
@@ -9652,13 +9652,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.710873</v>
+        <v>0.709683</v>
       </c>
       <c r="C22" t="n">
-        <v>0.571152</v>
+        <v>0.396693</v>
       </c>
       <c r="D22" t="n">
-        <v>0.460207</v>
+        <v>0.448451</v>
       </c>
     </row>
     <row r="23">
@@ -9666,13 +9666,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.723199</v>
+        <v>0.722372</v>
       </c>
       <c r="C23" t="n">
-        <v>0.571738</v>
+        <v>0.397275</v>
       </c>
       <c r="D23" t="n">
-        <v>0.469464</v>
+        <v>0.457707</v>
       </c>
     </row>
     <row r="24">
@@ -9680,13 +9680,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.72923</v>
+        <v>0.726863</v>
       </c>
       <c r="C24" t="n">
-        <v>0.573715</v>
+        <v>0.401875</v>
       </c>
       <c r="D24" t="n">
-        <v>0.471672</v>
+        <v>0.460601</v>
       </c>
     </row>
     <row r="25">
@@ -9694,13 +9694,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.742768</v>
+        <v>0.7429480000000001</v>
       </c>
       <c r="C25" t="n">
-        <v>0.590214</v>
+        <v>0.414608</v>
       </c>
       <c r="D25" t="n">
-        <v>0.475631</v>
+        <v>0.462725</v>
       </c>
     </row>
     <row r="26">
@@ -9708,13 +9708,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.742767</v>
+        <v>0.742764</v>
       </c>
       <c r="C26" t="n">
-        <v>0.586323</v>
+        <v>0.412077</v>
       </c>
       <c r="D26" t="n">
-        <v>0.480149</v>
+        <v>0.470957</v>
       </c>
     </row>
     <row r="27">
@@ -9722,13 +9722,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.749242</v>
+        <v>0.747936</v>
       </c>
       <c r="C27" t="n">
-        <v>0.592623</v>
+        <v>0.417535</v>
       </c>
       <c r="D27" t="n">
-        <v>0.489562</v>
+        <v>0.475124</v>
       </c>
     </row>
     <row r="28">
@@ -9736,13 +9736,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.755587</v>
+        <v>0.753982</v>
       </c>
       <c r="C28" t="n">
-        <v>0.591761</v>
+        <v>0.420748</v>
       </c>
       <c r="D28" t="n">
-        <v>0.489483</v>
+        <v>0.475583</v>
       </c>
     </row>
     <row r="29">
@@ -9750,13 +9750,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.764757</v>
+        <v>0.763033</v>
       </c>
       <c r="C29" t="n">
-        <v>0.603192</v>
+        <v>0.425629</v>
       </c>
       <c r="D29" t="n">
-        <v>0.494889</v>
+        <v>0.479444</v>
       </c>
     </row>
     <row r="30">
@@ -9764,13 +9764,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.771992</v>
+        <v>0.771593</v>
       </c>
       <c r="C30" t="n">
-        <v>0.606152</v>
+        <v>0.433519</v>
       </c>
       <c r="D30" t="n">
-        <v>0.499125</v>
+        <v>0.485874</v>
       </c>
     </row>
     <row r="31">
@@ -9778,13 +9778,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.780025</v>
+        <v>0.779004</v>
       </c>
       <c r="C31" t="n">
-        <v>0.609046</v>
+        <v>0.432135</v>
       </c>
       <c r="D31" t="n">
-        <v>0.502088</v>
+        <v>0.489644</v>
       </c>
     </row>
     <row r="32">
@@ -9792,13 +9792,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.783543</v>
+        <v>0.781383</v>
       </c>
       <c r="C32" t="n">
-        <v>0.6132880000000001</v>
+        <v>0.43814</v>
       </c>
       <c r="D32" t="n">
-        <v>0.5069</v>
+        <v>0.493142</v>
       </c>
     </row>
     <row r="33">
@@ -9806,13 +9806,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.790923</v>
+        <v>0.789788</v>
       </c>
       <c r="C33" t="n">
-        <v>0.616507</v>
+        <v>0.443566</v>
       </c>
       <c r="D33" t="n">
-        <v>0.508189</v>
+        <v>0.496054</v>
       </c>
     </row>
     <row r="34">
@@ -9820,13 +9820,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.797126</v>
+        <v>0.796142</v>
       </c>
       <c r="C34" t="n">
-        <v>0.619013</v>
+        <v>0.445072</v>
       </c>
       <c r="D34" t="n">
-        <v>0.5124069999999999</v>
+        <v>0.496973</v>
       </c>
     </row>
     <row r="35">
@@ -9834,13 +9834,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.800458</v>
+        <v>0.799355</v>
       </c>
       <c r="C35" t="n">
-        <v>0.599487</v>
+        <v>0.419139</v>
       </c>
       <c r="D35" t="n">
-        <v>0.514485</v>
+        <v>0.500507</v>
       </c>
     </row>
     <row r="36">
@@ -9848,13 +9848,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.796621</v>
+        <v>0.796551</v>
       </c>
       <c r="C36" t="n">
-        <v>0.604169</v>
+        <v>0.423083</v>
       </c>
       <c r="D36" t="n">
-        <v>0.5158</v>
+        <v>0.502432</v>
       </c>
     </row>
     <row r="37">
@@ -9862,13 +9862,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.803423</v>
+        <v>0.802708</v>
       </c>
       <c r="C37" t="n">
-        <v>0.604244</v>
+        <v>0.426654</v>
       </c>
       <c r="D37" t="n">
-        <v>0.518648</v>
+        <v>0.50381</v>
       </c>
     </row>
     <row r="38">
@@ -9876,13 +9876,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.804705</v>
+        <v>0.803679</v>
       </c>
       <c r="C38" t="n">
-        <v>0.609136</v>
+        <v>0.429268</v>
       </c>
       <c r="D38" t="n">
-        <v>0.522474</v>
+        <v>0.50904</v>
       </c>
     </row>
     <row r="39">
@@ -9890,13 +9890,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.810544</v>
+        <v>0.809355</v>
       </c>
       <c r="C39" t="n">
-        <v>0.614646</v>
+        <v>0.433748</v>
       </c>
       <c r="D39" t="n">
-        <v>0.525377</v>
+        <v>0.50975</v>
       </c>
     </row>
     <row r="40">
@@ -9904,13 +9904,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.8181310000000001</v>
+        <v>0.817079</v>
       </c>
       <c r="C40" t="n">
-        <v>0.6176199999999999</v>
+        <v>0.437368</v>
       </c>
       <c r="D40" t="n">
-        <v>0.527726</v>
+        <v>0.516128</v>
       </c>
     </row>
     <row r="41">
@@ -9918,13 +9918,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.825047</v>
+        <v>0.823689</v>
       </c>
       <c r="C41" t="n">
-        <v>0.619218</v>
+        <v>0.441141</v>
       </c>
       <c r="D41" t="n">
-        <v>0.529701</v>
+        <v>0.51701</v>
       </c>
     </row>
     <row r="42">
@@ -9932,13 +9932,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.824139</v>
+        <v>0.823404</v>
       </c>
       <c r="C42" t="n">
-        <v>0.621218</v>
+        <v>0.444081</v>
       </c>
       <c r="D42" t="n">
-        <v>0.531554</v>
+        <v>0.5199859999999999</v>
       </c>
     </row>
     <row r="43">
@@ -9946,13 +9946,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.832256</v>
+        <v>0.831008</v>
       </c>
       <c r="C43" t="n">
-        <v>0.624212</v>
+        <v>0.444566</v>
       </c>
       <c r="D43" t="n">
-        <v>0.535478</v>
+        <v>0.522157</v>
       </c>
     </row>
     <row r="44">
@@ -9960,13 +9960,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.83163</v>
+        <v>0.831714</v>
       </c>
       <c r="C44" t="n">
-        <v>0.623154</v>
+        <v>0.444856</v>
       </c>
       <c r="D44" t="n">
-        <v>0.5329390000000001</v>
+        <v>0.5238429999999999</v>
       </c>
     </row>
     <row r="45">
@@ -9974,13 +9974,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.837856</v>
+        <v>0.836235</v>
       </c>
       <c r="C45" t="n">
-        <v>0.630069</v>
+        <v>0.450218</v>
       </c>
       <c r="D45" t="n">
-        <v>0.536268</v>
+        <v>0.524311</v>
       </c>
     </row>
     <row r="46">
@@ -9988,13 +9988,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.842901</v>
+        <v>0.841261</v>
       </c>
       <c r="C46" t="n">
-        <v>0.629729</v>
+        <v>0.449581</v>
       </c>
       <c r="D46" t="n">
-        <v>0.538422</v>
+        <v>0.526277</v>
       </c>
     </row>
     <row r="47">
@@ -10002,13 +10002,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.851738</v>
+        <v>0.850884</v>
       </c>
       <c r="C47" t="n">
-        <v>0.633431</v>
+        <v>0.45478</v>
       </c>
       <c r="D47" t="n">
-        <v>0.540088</v>
+        <v>0.529214</v>
       </c>
     </row>
     <row r="48">
@@ -10016,13 +10016,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.855889</v>
+        <v>0.854124</v>
       </c>
       <c r="C48" t="n">
-        <v>0.637303</v>
+        <v>0.45953</v>
       </c>
       <c r="D48" t="n">
-        <v>0.540426</v>
+        <v>0.530434</v>
       </c>
     </row>
     <row r="49">
@@ -10030,13 +10030,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.8596549999999999</v>
+        <v>0.858233</v>
       </c>
       <c r="C49" t="n">
-        <v>0.638666</v>
+        <v>0.459616</v>
       </c>
       <c r="D49" t="n">
-        <v>0.542706</v>
+        <v>0.531961</v>
       </c>
     </row>
     <row r="50">
@@ -10044,13 +10044,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.86626</v>
+        <v>0.864661</v>
       </c>
       <c r="C50" t="n">
-        <v>0.634896</v>
+        <v>0.447163</v>
       </c>
       <c r="D50" t="n">
-        <v>0.54439</v>
+        <v>0.535017</v>
       </c>
     </row>
     <row r="51">
@@ -10058,13 +10058,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.843067</v>
+        <v>0.844116</v>
       </c>
       <c r="C51" t="n">
-        <v>0.630761</v>
+        <v>0.449575</v>
       </c>
       <c r="D51" t="n">
-        <v>0.545723</v>
+        <v>0.536713</v>
       </c>
     </row>
     <row r="52">
@@ -10072,13 +10072,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.846785</v>
+        <v>0.845727</v>
       </c>
       <c r="C52" t="n">
-        <v>0.6365960000000001</v>
+        <v>0.452441</v>
       </c>
       <c r="D52" t="n">
-        <v>0.547675</v>
+        <v>0.537749</v>
       </c>
     </row>
     <row r="53">
@@ -10086,13 +10086,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.852729</v>
+        <v>0.851691</v>
       </c>
       <c r="C53" t="n">
-        <v>0.639328</v>
+        <v>0.457021</v>
       </c>
       <c r="D53" t="n">
-        <v>0.548188</v>
+        <v>0.538561</v>
       </c>
     </row>
     <row r="54">
@@ -10100,13 +10100,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.8573</v>
+        <v>0.856254</v>
       </c>
       <c r="C54" t="n">
-        <v>0.644048</v>
+        <v>0.459788</v>
       </c>
       <c r="D54" t="n">
-        <v>0.5494869999999999</v>
+        <v>0.540459</v>
       </c>
     </row>
     <row r="55">
@@ -10114,13 +10114,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.859923</v>
+        <v>0.859201</v>
       </c>
       <c r="C55" t="n">
-        <v>0.649846</v>
+        <v>0.461735</v>
       </c>
       <c r="D55" t="n">
-        <v>0.552412</v>
+        <v>0.54225</v>
       </c>
     </row>
     <row r="56">
@@ -10128,13 +10128,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.862163</v>
+        <v>0.861075</v>
       </c>
       <c r="C56" t="n">
-        <v>0.649423</v>
+        <v>0.461719</v>
       </c>
       <c r="D56" t="n">
-        <v>0.554578</v>
+        <v>0.542978</v>
       </c>
     </row>
     <row r="57">
@@ -10142,13 +10142,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.865274</v>
+        <v>0.866066</v>
       </c>
       <c r="C57" t="n">
-        <v>0.654993</v>
+        <v>0.471728</v>
       </c>
       <c r="D57" t="n">
-        <v>0.5543630000000001</v>
+        <v>0.545195</v>
       </c>
     </row>
     <row r="58">
@@ -10156,13 +10156,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.870057</v>
+        <v>0.868965</v>
       </c>
       <c r="C58" t="n">
-        <v>0.662002</v>
+        <v>0.473529</v>
       </c>
       <c r="D58" t="n">
-        <v>0.5566489999999999</v>
+        <v>0.545259</v>
       </c>
     </row>
     <row r="59">
@@ -10170,13 +10170,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.873209</v>
+        <v>0.871488</v>
       </c>
       <c r="C59" t="n">
-        <v>0.6657</v>
+        <v>0.480702</v>
       </c>
       <c r="D59" t="n">
-        <v>0.559644</v>
+        <v>0.546777</v>
       </c>
     </row>
     <row r="60">
@@ -10184,13 +10184,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.879215</v>
+        <v>0.878457</v>
       </c>
       <c r="C60" t="n">
-        <v>0.6693249999999999</v>
+        <v>0.482854</v>
       </c>
       <c r="D60" t="n">
-        <v>0.55954</v>
+        <v>0.548805</v>
       </c>
     </row>
     <row r="61">
@@ -10198,13 +10198,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.883336</v>
+        <v>0.880094</v>
       </c>
       <c r="C61" t="n">
-        <v>0.680466</v>
+        <v>0.489049</v>
       </c>
       <c r="D61" t="n">
-        <v>0.566519</v>
+        <v>0.549477</v>
       </c>
     </row>
     <row r="62">
@@ -10212,13 +10212,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.891873</v>
+        <v>0.8859</v>
       </c>
       <c r="C62" t="n">
-        <v>0.683128</v>
+        <v>0.497024</v>
       </c>
       <c r="D62" t="n">
-        <v>0.562922</v>
+        <v>0.550755</v>
       </c>
     </row>
     <row r="63">
@@ -10226,13 +10226,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.892358</v>
+        <v>0.889252</v>
       </c>
       <c r="C63" t="n">
-        <v>0.691365</v>
+        <v>0.510231</v>
       </c>
       <c r="D63" t="n">
-        <v>0.568599</v>
+        <v>0.553028</v>
       </c>
     </row>
     <row r="64">
@@ -10240,13 +10240,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.900266</v>
+        <v>0.896458</v>
       </c>
       <c r="C64" t="n">
-        <v>0.740221</v>
+        <v>0.555825</v>
       </c>
       <c r="D64" t="n">
-        <v>0.599792</v>
+        <v>0.5928330000000001</v>
       </c>
     </row>
     <row r="65">
@@ -10254,13 +10254,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.9390269999999999</v>
+        <v>0.94069</v>
       </c>
       <c r="C65" t="n">
-        <v>0.754284</v>
+        <v>0.570061</v>
       </c>
       <c r="D65" t="n">
-        <v>0.611435</v>
+        <v>0.601761</v>
       </c>
     </row>
     <row r="66">
@@ -10268,13 +10268,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.955799</v>
+        <v>0.957807</v>
       </c>
       <c r="C66" t="n">
-        <v>0.766576</v>
+        <v>0.58858</v>
       </c>
       <c r="D66" t="n">
-        <v>0.6126509999999999</v>
+        <v>0.608722</v>
       </c>
     </row>
     <row r="67">
@@ -10282,13 +10282,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.959573</v>
+        <v>0.973172</v>
       </c>
       <c r="C67" t="n">
-        <v>0.786504</v>
+        <v>0.6074619999999999</v>
       </c>
       <c r="D67" t="n">
-        <v>0.628176</v>
+        <v>0.629754</v>
       </c>
     </row>
     <row r="68">
@@ -10296,13 +10296,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.991418</v>
+        <v>0.999396</v>
       </c>
       <c r="C68" t="n">
-        <v>0.80687</v>
+        <v>0.630427</v>
       </c>
       <c r="D68" t="n">
-        <v>0.639319</v>
+        <v>0.633742</v>
       </c>
     </row>
     <row r="69">
@@ -10310,13 +10310,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>1.00796</v>
+        <v>1.00968</v>
       </c>
       <c r="C69" t="n">
-        <v>0.834257</v>
+        <v>0.647377</v>
       </c>
       <c r="D69" t="n">
-        <v>0.6573909999999999</v>
+        <v>0.655786</v>
       </c>
     </row>
     <row r="70">
@@ -10324,13 +10324,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>1.03133</v>
+        <v>1.03712</v>
       </c>
       <c r="C70" t="n">
-        <v>0.8587630000000001</v>
+        <v>0.677651</v>
       </c>
       <c r="D70" t="n">
-        <v>0.663146</v>
+        <v>0.666396</v>
       </c>
     </row>
     <row r="71">
@@ -10338,13 +10338,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>1.04856</v>
+        <v>1.07334</v>
       </c>
       <c r="C71" t="n">
-        <v>0.8917620000000001</v>
+        <v>0.716044</v>
       </c>
       <c r="D71" t="n">
-        <v>0.690003</v>
+        <v>0.686009</v>
       </c>
     </row>
     <row r="72">
@@ -10352,13 +10352,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>1.09401</v>
+        <v>1.10924</v>
       </c>
       <c r="C72" t="n">
-        <v>0.927014</v>
+        <v>0.73307</v>
       </c>
       <c r="D72" t="n">
-        <v>0.711969</v>
+        <v>0.698585</v>
       </c>
     </row>
     <row r="73">
@@ -10366,13 +10366,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>1.14272</v>
+        <v>1.12912</v>
       </c>
       <c r="C73" t="n">
-        <v>0.9634470000000001</v>
+        <v>0.770113</v>
       </c>
       <c r="D73" t="n">
-        <v>0.738148</v>
+        <v>0.727011</v>
       </c>
     </row>
     <row r="74">
@@ -10380,13 +10380,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.18244</v>
+        <v>1.17991</v>
       </c>
       <c r="C74" t="n">
-        <v>0.996574</v>
+        <v>0.802948</v>
       </c>
       <c r="D74" t="n">
-        <v>0.7726189999999999</v>
+        <v>0.764697</v>
       </c>
     </row>
     <row r="75">
@@ -10394,13 +10394,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>1.23664</v>
+        <v>1.2166</v>
       </c>
       <c r="C75" t="n">
-        <v>1.03326</v>
+        <v>0.835555</v>
       </c>
       <c r="D75" t="n">
-        <v>0.8033940000000001</v>
+        <v>0.788652</v>
       </c>
     </row>
     <row r="76">
@@ -10408,13 +10408,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>1.28975</v>
+        <v>1.28065</v>
       </c>
       <c r="C76" t="n">
-        <v>1.07305</v>
+        <v>0.882682</v>
       </c>
       <c r="D76" t="n">
-        <v>0.815813</v>
+        <v>0.831151</v>
       </c>
     </row>
     <row r="77">
@@ -10422,13 +10422,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>1.31198</v>
+        <v>1.33666</v>
       </c>
       <c r="C77" t="n">
-        <v>1.10507</v>
+        <v>0.914844</v>
       </c>
       <c r="D77" t="n">
-        <v>0.862052</v>
+        <v>0.863806</v>
       </c>
     </row>
     <row r="78">
@@ -10436,13 +10436,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>1.38916</v>
+        <v>1.40143</v>
       </c>
       <c r="C78" t="n">
-        <v>1.31016</v>
+        <v>1.06019</v>
       </c>
       <c r="D78" t="n">
-        <v>1.00436</v>
+        <v>1.00776</v>
       </c>
     </row>
     <row r="79">
@@ -10450,13 +10450,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.59008</v>
+        <v>1.59998</v>
       </c>
       <c r="C79" t="n">
-        <v>1.35157</v>
+        <v>1.09738</v>
       </c>
       <c r="D79" t="n">
-        <v>1.05753</v>
+        <v>1.05514</v>
       </c>
     </row>
     <row r="80">
@@ -10464,13 +10464,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.66747</v>
+        <v>1.67151</v>
       </c>
       <c r="C80" t="n">
-        <v>1.39488</v>
+        <v>1.13881</v>
       </c>
       <c r="D80" t="n">
-        <v>1.10545</v>
+        <v>1.10878</v>
       </c>
     </row>
     <row r="81">
@@ -10478,13 +10478,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.74597</v>
+        <v>1.7496</v>
       </c>
       <c r="C81" t="n">
-        <v>1.43674</v>
+        <v>1.17661</v>
       </c>
       <c r="D81" t="n">
-        <v>1.16862</v>
+        <v>1.16264</v>
       </c>
     </row>
     <row r="82">
@@ -10492,13 +10492,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.83265</v>
+        <v>1.83698</v>
       </c>
       <c r="C82" t="n">
-        <v>1.48332</v>
+        <v>1.2172</v>
       </c>
       <c r="D82" t="n">
-        <v>1.22759</v>
+        <v>1.2305</v>
       </c>
     </row>
     <row r="83">
@@ -10506,13 +10506,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.9219</v>
+        <v>1.92625</v>
       </c>
       <c r="C83" t="n">
-        <v>1.52688</v>
+        <v>1.25903</v>
       </c>
       <c r="D83" t="n">
-        <v>1.27476</v>
+        <v>1.28055</v>
       </c>
     </row>
     <row r="84">
@@ -10520,13 +10520,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>2.01427</v>
+        <v>2.01211</v>
       </c>
       <c r="C84" t="n">
-        <v>1.57481</v>
+        <v>1.29585</v>
       </c>
       <c r="D84" t="n">
-        <v>1.32544</v>
+        <v>1.32943</v>
       </c>
     </row>
     <row r="85">
@@ -10534,13 +10534,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>2.08615</v>
+        <v>2.09393</v>
       </c>
       <c r="C85" t="n">
-        <v>1.61711</v>
+        <v>1.33726</v>
       </c>
       <c r="D85" t="n">
-        <v>1.3841</v>
+        <v>1.38479</v>
       </c>
     </row>
     <row r="86">
@@ -10548,13 +10548,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>2.18096</v>
+        <v>2.17678</v>
       </c>
       <c r="C86" t="n">
-        <v>1.65542</v>
+        <v>1.37503</v>
       </c>
       <c r="D86" t="n">
-        <v>1.44266</v>
+        <v>1.4417</v>
       </c>
     </row>
     <row r="87">
@@ -10562,13 +10562,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>2.26507</v>
+        <v>2.26755</v>
       </c>
       <c r="C87" t="n">
-        <v>1.69931</v>
+        <v>1.41984</v>
       </c>
       <c r="D87" t="n">
-        <v>1.50272</v>
+        <v>1.49966</v>
       </c>
     </row>
     <row r="88">
@@ -10576,13 +10576,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>2.36032</v>
+        <v>2.35969</v>
       </c>
       <c r="C88" t="n">
-        <v>1.74644</v>
+        <v>1.45837</v>
       </c>
       <c r="D88" t="n">
-        <v>1.55986</v>
+        <v>1.5534</v>
       </c>
     </row>
     <row r="89">
@@ -10590,13 +10590,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>2.44599</v>
+        <v>2.43529</v>
       </c>
       <c r="C89" t="n">
-        <v>1.78956</v>
+        <v>1.49926</v>
       </c>
       <c r="D89" t="n">
-        <v>1.61584</v>
+        <v>1.6108</v>
       </c>
     </row>
     <row r="90">
@@ -10604,13 +10604,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>2.53304</v>
+        <v>2.52313</v>
       </c>
       <c r="C90" t="n">
-        <v>1.83203</v>
+        <v>1.53725</v>
       </c>
       <c r="D90" t="n">
-        <v>1.66759</v>
+        <v>1.66228</v>
       </c>
     </row>
     <row r="91">
@@ -10618,13 +10618,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>2.625</v>
+        <v>2.60475</v>
       </c>
       <c r="C91" t="n">
-        <v>1.87943</v>
+        <v>1.57842</v>
       </c>
       <c r="D91" t="n">
-        <v>1.71913</v>
+        <v>1.71026</v>
       </c>
     </row>
     <row r="92">
@@ -10632,13 +10632,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>2.7158</v>
+        <v>2.70371</v>
       </c>
       <c r="C92" t="n">
-        <v>2.02743</v>
+        <v>1.66992</v>
       </c>
       <c r="D92" t="n">
-        <v>1.84058</v>
+        <v>1.83199</v>
       </c>
     </row>
     <row r="93">
@@ -10646,13 +10646,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>2.88396</v>
+        <v>2.85653</v>
       </c>
       <c r="C93" t="n">
-        <v>2.06233</v>
+        <v>1.69308</v>
       </c>
       <c r="D93" t="n">
-        <v>1.8843</v>
+        <v>1.87446</v>
       </c>
     </row>
     <row r="94">
@@ -10660,13 +10660,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>2.94617</v>
+        <v>2.92688</v>
       </c>
       <c r="C94" t="n">
-        <v>2.08519</v>
+        <v>1.72283</v>
       </c>
       <c r="D94" t="n">
-        <v>1.92469</v>
+        <v>1.92162</v>
       </c>
     </row>
     <row r="95">
@@ -10674,13 +10674,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>3.01837</v>
+        <v>2.99377</v>
       </c>
       <c r="C95" t="n">
-        <v>2.12162</v>
+        <v>1.75684</v>
       </c>
       <c r="D95" t="n">
-        <v>1.97191</v>
+        <v>1.97355</v>
       </c>
     </row>
     <row r="96">
@@ -10688,13 +10688,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>3.09025</v>
+        <v>3.07526</v>
       </c>
       <c r="C96" t="n">
-        <v>2.15185</v>
+        <v>1.79059</v>
       </c>
       <c r="D96" t="n">
-        <v>2.02029</v>
+        <v>2.01277</v>
       </c>
     </row>
     <row r="97">
@@ -10702,13 +10702,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>3.15191</v>
+        <v>3.13567</v>
       </c>
       <c r="C97" t="n">
-        <v>2.18508</v>
+        <v>1.8247</v>
       </c>
       <c r="D97" t="n">
-        <v>2.06202</v>
+        <v>2.06389</v>
       </c>
     </row>
     <row r="98">
@@ -10716,13 +10716,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>3.23211</v>
+        <v>3.21686</v>
       </c>
       <c r="C98" t="n">
-        <v>2.21771</v>
+        <v>1.85463</v>
       </c>
       <c r="D98" t="n">
-        <v>2.10398</v>
+        <v>2.09534</v>
       </c>
     </row>
     <row r="99">
@@ -10730,13 +10730,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>3.29613</v>
+        <v>3.27705</v>
       </c>
       <c r="C99" t="n">
-        <v>2.25856</v>
+        <v>1.89956</v>
       </c>
       <c r="D99" t="n">
-        <v>2.14124</v>
+        <v>2.13416</v>
       </c>
     </row>
     <row r="100">
@@ -10744,13 +10744,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>3.34202</v>
+        <v>3.33424</v>
       </c>
       <c r="C100" t="n">
-        <v>2.28853</v>
+        <v>1.93046</v>
       </c>
       <c r="D100" t="n">
-        <v>2.17471</v>
+        <v>2.16875</v>
       </c>
     </row>
     <row r="101">
@@ -10758,13 +10758,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>3.41235</v>
+        <v>3.41215</v>
       </c>
       <c r="C101" t="n">
-        <v>2.31838</v>
+        <v>1.96044</v>
       </c>
       <c r="D101" t="n">
-        <v>2.21148</v>
+        <v>2.21339</v>
       </c>
     </row>
     <row r="102">
@@ -10772,13 +10772,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>3.47921</v>
+        <v>3.45576</v>
       </c>
       <c r="C102" t="n">
-        <v>2.3538</v>
+        <v>1.9867</v>
       </c>
       <c r="D102" t="n">
-        <v>2.24998</v>
+        <v>2.24602</v>
       </c>
     </row>
     <row r="103">
@@ -10786,13 +10786,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>3.53749</v>
+        <v>3.51453</v>
       </c>
       <c r="C103" t="n">
-        <v>2.38215</v>
+        <v>2.01884</v>
       </c>
       <c r="D103" t="n">
-        <v>2.27256</v>
+        <v>2.26094</v>
       </c>
     </row>
     <row r="104">
@@ -10800,13 +10800,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>3.58259</v>
+        <v>3.55179</v>
       </c>
       <c r="C104" t="n">
-        <v>2.41767</v>
+        <v>2.04219</v>
       </c>
       <c r="D104" t="n">
-        <v>2.30665</v>
+        <v>2.2925</v>
       </c>
     </row>
     <row r="105">
@@ -10814,13 +10814,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>3.63524</v>
+        <v>3.62192</v>
       </c>
       <c r="C105" t="n">
-        <v>2.44906</v>
+        <v>2.08629</v>
       </c>
       <c r="D105" t="n">
-        <v>2.32393</v>
+        <v>2.34357</v>
       </c>
     </row>
     <row r="106">
@@ -10828,13 +10828,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>3.6959</v>
+        <v>3.67451</v>
       </c>
       <c r="C106" t="n">
-        <v>2.48195</v>
+        <v>2.11437</v>
       </c>
       <c r="D106" t="n">
-        <v>2.35794</v>
+        <v>2.35878</v>
       </c>
     </row>
     <row r="107">
@@ -10842,13 +10842,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>3.7041</v>
+        <v>3.68577</v>
       </c>
       <c r="C107" t="n">
-        <v>2.514</v>
+        <v>2.08141</v>
       </c>
       <c r="D107" t="n">
-        <v>2.42835</v>
+        <v>2.43415</v>
       </c>
     </row>
     <row r="108">
@@ -10856,13 +10856,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>3.75897</v>
+        <v>3.72218</v>
       </c>
       <c r="C108" t="n">
-        <v>2.53635</v>
+        <v>2.10085</v>
       </c>
       <c r="D108" t="n">
-        <v>2.46767</v>
+        <v>2.45251</v>
       </c>
     </row>
     <row r="109">
@@ -10870,13 +10870,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>3.79782</v>
+        <v>3.77967</v>
       </c>
       <c r="C109" t="n">
-        <v>2.56121</v>
+        <v>2.13768</v>
       </c>
       <c r="D109" t="n">
-        <v>2.48206</v>
+        <v>2.46978</v>
       </c>
     </row>
     <row r="110">
@@ -10884,13 +10884,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>3.87048</v>
+        <v>3.82136</v>
       </c>
       <c r="C110" t="n">
-        <v>2.58844</v>
+        <v>2.17411</v>
       </c>
       <c r="D110" t="n">
-        <v>2.50246</v>
+        <v>2.50789</v>
       </c>
     </row>
     <row r="111">
@@ -10898,13 +10898,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>3.89554</v>
+        <v>3.8691</v>
       </c>
       <c r="C111" t="n">
-        <v>2.60166</v>
+        <v>2.18853</v>
       </c>
       <c r="D111" t="n">
-        <v>2.5332</v>
+        <v>2.53698</v>
       </c>
     </row>
     <row r="112">
@@ -10912,13 +10912,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>3.95005</v>
+        <v>3.90545</v>
       </c>
       <c r="C112" t="n">
-        <v>2.63814</v>
+        <v>2.20026</v>
       </c>
       <c r="D112" t="n">
-        <v>2.56942</v>
+        <v>2.55118</v>
       </c>
     </row>
     <row r="113">
@@ -10926,13 +10926,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>4.02073</v>
+        <v>3.9537</v>
       </c>
       <c r="C113" t="n">
-        <v>2.66561</v>
+        <v>2.23592</v>
       </c>
       <c r="D113" t="n">
-        <v>2.59319</v>
+        <v>2.58273</v>
       </c>
     </row>
     <row r="114">
@@ -10940,13 +10940,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>4.03575</v>
+        <v>3.99097</v>
       </c>
       <c r="C114" t="n">
-        <v>2.6802</v>
+        <v>2.2702</v>
       </c>
       <c r="D114" t="n">
-        <v>2.60714</v>
+        <v>2.59654</v>
       </c>
     </row>
     <row r="115">
@@ -10954,13 +10954,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>4.07888</v>
+        <v>4.03501</v>
       </c>
       <c r="C115" t="n">
-        <v>2.7085</v>
+        <v>2.29399</v>
       </c>
       <c r="D115" t="n">
-        <v>2.63267</v>
+        <v>2.6236</v>
       </c>
     </row>
     <row r="116">
@@ -10968,13 +10968,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>4.13175</v>
+        <v>4.08548</v>
       </c>
       <c r="C116" t="n">
-        <v>2.73212</v>
+        <v>2.32216</v>
       </c>
       <c r="D116" t="n">
-        <v>2.6562</v>
+        <v>2.64317</v>
       </c>
     </row>
     <row r="117">
@@ -10982,13 +10982,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>4.16391</v>
+        <v>4.12379</v>
       </c>
       <c r="C117" t="n">
-        <v>2.75355</v>
+        <v>2.33585</v>
       </c>
       <c r="D117" t="n">
-        <v>2.67491</v>
+        <v>2.66453</v>
       </c>
     </row>
     <row r="118">
@@ -10996,13 +10996,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>4.2194</v>
+        <v>4.17319</v>
       </c>
       <c r="C118" t="n">
-        <v>2.78728</v>
+        <v>2.37858</v>
       </c>
       <c r="D118" t="n">
-        <v>2.70034</v>
+        <v>2.6893</v>
       </c>
     </row>
     <row r="119">
@@ -11010,13 +11010,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>4.24483</v>
+        <v>4.21065</v>
       </c>
       <c r="C119" t="n">
-        <v>2.81143</v>
+        <v>2.37964</v>
       </c>
       <c r="D119" t="n">
-        <v>2.73002</v>
+        <v>2.71214</v>
       </c>
     </row>
   </sheetData>
@@ -11064,13 +11064,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.5903890000000001</v>
+        <v>0.580795</v>
       </c>
       <c r="C2" t="n">
-        <v>0.488258</v>
+        <v>0.323793</v>
       </c>
       <c r="D2" t="n">
-        <v>0.350135</v>
+        <v>0.334182</v>
       </c>
     </row>
     <row r="3">
@@ -11078,13 +11078,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5977980000000001</v>
+        <v>0.585933</v>
       </c>
       <c r="C3" t="n">
-        <v>0.488375</v>
+        <v>0.328191</v>
       </c>
       <c r="D3" t="n">
-        <v>0.353512</v>
+        <v>0.337944</v>
       </c>
     </row>
     <row r="4">
@@ -11092,13 +11092,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.605766</v>
+        <v>0.59592</v>
       </c>
       <c r="C4" t="n">
-        <v>0.495375</v>
+        <v>0.333168</v>
       </c>
       <c r="D4" t="n">
-        <v>0.35758</v>
+        <v>0.342359</v>
       </c>
     </row>
     <row r="5">
@@ -11106,13 +11106,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.614414</v>
+        <v>0.601788</v>
       </c>
       <c r="C5" t="n">
-        <v>0.509427</v>
+        <v>0.343387</v>
       </c>
       <c r="D5" t="n">
-        <v>0.364507</v>
+        <v>0.346577</v>
       </c>
     </row>
     <row r="6">
@@ -11120,13 +11120,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.623034</v>
+        <v>0.611351</v>
       </c>
       <c r="C6" t="n">
-        <v>0.506348</v>
+        <v>0.343643</v>
       </c>
       <c r="D6" t="n">
-        <v>0.36334</v>
+        <v>0.346829</v>
       </c>
     </row>
     <row r="7">
@@ -11134,13 +11134,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.62754</v>
+        <v>0.616</v>
       </c>
       <c r="C7" t="n">
-        <v>0.514971</v>
+        <v>0.355334</v>
       </c>
       <c r="D7" t="n">
-        <v>0.369628</v>
+        <v>0.354796</v>
       </c>
     </row>
     <row r="8">
@@ -11148,13 +11148,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.636142</v>
+        <v>0.627758</v>
       </c>
       <c r="C8" t="n">
-        <v>0.526165</v>
+        <v>0.363968</v>
       </c>
       <c r="D8" t="n">
-        <v>0.372052</v>
+        <v>0.357776</v>
       </c>
     </row>
     <row r="9">
@@ -11162,13 +11162,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.6502869999999999</v>
+        <v>0.636655</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5376069999999999</v>
+        <v>0.370773</v>
       </c>
       <c r="D9" t="n">
-        <v>0.380541</v>
+        <v>0.362729</v>
       </c>
     </row>
     <row r="10">
@@ -11176,13 +11176,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.667204</v>
+        <v>0.653138</v>
       </c>
       <c r="C10" t="n">
-        <v>0.547497</v>
+        <v>0.38152</v>
       </c>
       <c r="D10" t="n">
-        <v>0.384855</v>
+        <v>0.369004</v>
       </c>
     </row>
     <row r="11">
@@ -11190,13 +11190,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.671274</v>
+        <v>0.6602479999999999</v>
       </c>
       <c r="C11" t="n">
-        <v>0.528423</v>
+        <v>0.37023</v>
       </c>
       <c r="D11" t="n">
-        <v>0.384077</v>
+        <v>0.377205</v>
       </c>
     </row>
     <row r="12">
@@ -11204,13 +11204,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.645046</v>
+        <v>0.645366</v>
       </c>
       <c r="C12" t="n">
-        <v>0.53505</v>
+        <v>0.374283</v>
       </c>
       <c r="D12" t="n">
-        <v>0.391557</v>
+        <v>0.384093</v>
       </c>
     </row>
     <row r="13">
@@ -11218,13 +11218,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.656983</v>
+        <v>0.655904</v>
       </c>
       <c r="C13" t="n">
-        <v>0.538026</v>
+        <v>0.382508</v>
       </c>
       <c r="D13" t="n">
-        <v>0.398134</v>
+        <v>0.391165</v>
       </c>
     </row>
     <row r="14">
@@ -11232,13 +11232,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.668469</v>
+        <v>0.664786</v>
       </c>
       <c r="C14" t="n">
-        <v>0.550814</v>
+        <v>0.38996</v>
       </c>
       <c r="D14" t="n">
-        <v>0.403311</v>
+        <v>0.394551</v>
       </c>
     </row>
     <row r="15">
@@ -11246,13 +11246,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.682432</v>
+        <v>0.68425</v>
       </c>
       <c r="C15" t="n">
-        <v>0.563345</v>
+        <v>0.402965</v>
       </c>
       <c r="D15" t="n">
-        <v>0.412476</v>
+        <v>0.405835</v>
       </c>
     </row>
     <row r="16">
@@ -11260,13 +11260,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.690957</v>
+        <v>0.690617</v>
       </c>
       <c r="C16" t="n">
-        <v>0.571893</v>
+        <v>0.411084</v>
       </c>
       <c r="D16" t="n">
-        <v>0.417974</v>
+        <v>0.410367</v>
       </c>
     </row>
     <row r="17">
@@ -11274,13 +11274,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.710381</v>
+        <v>0.7087830000000001</v>
       </c>
       <c r="C17" t="n">
-        <v>0.577644</v>
+        <v>0.417062</v>
       </c>
       <c r="D17" t="n">
-        <v>0.422537</v>
+        <v>0.415392</v>
       </c>
     </row>
     <row r="18">
@@ -11288,13 +11288,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.718561</v>
+        <v>0.718309</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5794550000000001</v>
+        <v>0.419201</v>
       </c>
       <c r="D18" t="n">
-        <v>0.429067</v>
+        <v>0.419033</v>
       </c>
     </row>
     <row r="19">
@@ -11302,13 +11302,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.728695</v>
+        <v>0.73251</v>
       </c>
       <c r="C19" t="n">
-        <v>0.593384</v>
+        <v>0.438572</v>
       </c>
       <c r="D19" t="n">
-        <v>0.435328</v>
+        <v>0.42668</v>
       </c>
     </row>
     <row r="20">
@@ -11316,13 +11316,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.746472</v>
+        <v>0.747897</v>
       </c>
       <c r="C20" t="n">
-        <v>0.606491</v>
+        <v>0.448492</v>
       </c>
       <c r="D20" t="n">
-        <v>0.439467</v>
+        <v>0.431962</v>
       </c>
     </row>
     <row r="21">
@@ -11330,13 +11330,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.751135</v>
+        <v>0.759771</v>
       </c>
       <c r="C21" t="n">
-        <v>0.618305</v>
+        <v>0.463395</v>
       </c>
       <c r="D21" t="n">
-        <v>0.444729</v>
+        <v>0.43714</v>
       </c>
     </row>
     <row r="22">
@@ -11344,13 +11344,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.762845</v>
+        <v>0.766693</v>
       </c>
       <c r="C22" t="n">
-        <v>0.628756</v>
+        <v>0.467482</v>
       </c>
       <c r="D22" t="n">
-        <v>0.450806</v>
+        <v>0.441736</v>
       </c>
     </row>
     <row r="23">
@@ -11358,13 +11358,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.789734</v>
+        <v>0.787233</v>
       </c>
       <c r="C23" t="n">
-        <v>0.640258</v>
+        <v>0.478433</v>
       </c>
       <c r="D23" t="n">
-        <v>0.45857</v>
+        <v>0.448657</v>
       </c>
     </row>
     <row r="24">
@@ -11372,13 +11372,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.802641</v>
+        <v>0.79979</v>
       </c>
       <c r="C24" t="n">
-        <v>0.652715</v>
+        <v>0.486347</v>
       </c>
       <c r="D24" t="n">
-        <v>0.460925</v>
+        <v>0.450425</v>
       </c>
     </row>
     <row r="25">
@@ -11386,13 +11386,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.8126</v>
+        <v>0.811921</v>
       </c>
       <c r="C25" t="n">
-        <v>0.668761</v>
+        <v>0.504758</v>
       </c>
       <c r="D25" t="n">
-        <v>0.469219</v>
+        <v>0.457191</v>
       </c>
     </row>
     <row r="26">
@@ -11400,13 +11400,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.8344200000000001</v>
+        <v>0.828969</v>
       </c>
       <c r="C26" t="n">
-        <v>0.607728</v>
+        <v>0.4407</v>
       </c>
       <c r="D26" t="n">
-        <v>0.475242</v>
+        <v>0.463897</v>
       </c>
     </row>
     <row r="27">
@@ -11414,13 +11414,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.790879</v>
+        <v>0.7921859999999999</v>
       </c>
       <c r="C27" t="n">
-        <v>0.615604</v>
+        <v>0.44907</v>
       </c>
       <c r="D27" t="n">
-        <v>0.479779</v>
+        <v>0.468251</v>
       </c>
     </row>
     <row r="28">
@@ -11428,13 +11428,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.802249</v>
+        <v>0.80077</v>
       </c>
       <c r="C28" t="n">
-        <v>0.62192</v>
+        <v>0.454559</v>
       </c>
       <c r="D28" t="n">
-        <v>0.482111</v>
+        <v>0.471565</v>
       </c>
     </row>
     <row r="29">
@@ -11442,13 +11442,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.812276</v>
+        <v>0.8130309999999999</v>
       </c>
       <c r="C29" t="n">
-        <v>0.627889</v>
+        <v>0.457546</v>
       </c>
       <c r="D29" t="n">
-        <v>0.487615</v>
+        <v>0.475642</v>
       </c>
     </row>
     <row r="30">
@@ -11456,13 +11456,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.8270149999999999</v>
+        <v>0.8233819999999999</v>
       </c>
       <c r="C30" t="n">
-        <v>0.635294</v>
+        <v>0.46892</v>
       </c>
       <c r="D30" t="n">
-        <v>0.492609</v>
+        <v>0.480615</v>
       </c>
     </row>
     <row r="31">
@@ -11470,13 +11470,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.836581</v>
+        <v>0.836512</v>
       </c>
       <c r="C31" t="n">
-        <v>0.643548</v>
+        <v>0.474782</v>
       </c>
       <c r="D31" t="n">
-        <v>0.497363</v>
+        <v>0.485003</v>
       </c>
     </row>
     <row r="32">
@@ -11484,13 +11484,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.851043</v>
+        <v>0.849164</v>
       </c>
       <c r="C32" t="n">
-        <v>0.655772</v>
+        <v>0.484826</v>
       </c>
       <c r="D32" t="n">
-        <v>0.500427</v>
+        <v>0.48776</v>
       </c>
     </row>
     <row r="33">
@@ -11498,13 +11498,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.86102</v>
+        <v>0.857371</v>
       </c>
       <c r="C33" t="n">
-        <v>0.657932</v>
+        <v>0.49211</v>
       </c>
       <c r="D33" t="n">
-        <v>0.503621</v>
+        <v>0.491791</v>
       </c>
     </row>
     <row r="34">
@@ -11512,13 +11512,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.873261</v>
+        <v>0.871646</v>
       </c>
       <c r="C34" t="n">
-        <v>0.670044</v>
+        <v>0.501705</v>
       </c>
       <c r="D34" t="n">
-        <v>0.506843</v>
+        <v>0.494983</v>
       </c>
     </row>
     <row r="35">
@@ -11526,13 +11526,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.88622</v>
+        <v>0.885594</v>
       </c>
       <c r="C35" t="n">
-        <v>0.680771</v>
+        <v>0.51208</v>
       </c>
       <c r="D35" t="n">
-        <v>0.510193</v>
+        <v>0.49842</v>
       </c>
     </row>
     <row r="36">
@@ -11540,13 +11540,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.9006150000000001</v>
+        <v>0.897914</v>
       </c>
       <c r="C36" t="n">
-        <v>0.693173</v>
+        <v>0.525069</v>
       </c>
       <c r="D36" t="n">
-        <v>0.512821</v>
+        <v>0.50087</v>
       </c>
     </row>
     <row r="37">
@@ -11554,13 +11554,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.911724</v>
+        <v>0.909626</v>
       </c>
       <c r="C37" t="n">
-        <v>0.704829</v>
+        <v>0.5352440000000001</v>
       </c>
       <c r="D37" t="n">
-        <v>0.515306</v>
+        <v>0.50306</v>
       </c>
     </row>
     <row r="38">
@@ -11568,13 +11568,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.925833</v>
+        <v>0.9266450000000001</v>
       </c>
       <c r="C38" t="n">
-        <v>0.716763</v>
+        <v>0.54517</v>
       </c>
       <c r="D38" t="n">
-        <v>0.518916</v>
+        <v>0.506583</v>
       </c>
     </row>
     <row r="39">
@@ -11582,13 +11582,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.93859</v>
+        <v>0.9378300000000001</v>
       </c>
       <c r="C39" t="n">
-        <v>0.727627</v>
+        <v>0.5589</v>
       </c>
       <c r="D39" t="n">
-        <v>0.521724</v>
+        <v>0.509475</v>
       </c>
     </row>
     <row r="40">
@@ -11596,13 +11596,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.95329</v>
+        <v>0.952641</v>
       </c>
       <c r="C40" t="n">
-        <v>0.675614</v>
+        <v>0.5043570000000001</v>
       </c>
       <c r="D40" t="n">
-        <v>0.5253060000000001</v>
+        <v>0.513588</v>
       </c>
     </row>
     <row r="41">
@@ -11610,13 +11610,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.887861</v>
+        <v>0.8834959999999999</v>
       </c>
       <c r="C41" t="n">
-        <v>0.681671</v>
+        <v>0.509673</v>
       </c>
       <c r="D41" t="n">
-        <v>0.528964</v>
+        <v>0.517366</v>
       </c>
     </row>
     <row r="42">
@@ -11624,13 +11624,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.898448</v>
+        <v>0.896408</v>
       </c>
       <c r="C42" t="n">
-        <v>0.690371</v>
+        <v>0.519611</v>
       </c>
       <c r="D42" t="n">
-        <v>0.531569</v>
+        <v>0.520326</v>
       </c>
     </row>
     <row r="43">
@@ -11638,13 +11638,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.908897</v>
+        <v>0.904138</v>
       </c>
       <c r="C43" t="n">
-        <v>0.696165</v>
+        <v>0.523497</v>
       </c>
       <c r="D43" t="n">
-        <v>0.534945</v>
+        <v>0.523304</v>
       </c>
     </row>
     <row r="44">
@@ -11652,13 +11652,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.913817</v>
+        <v>0.910234</v>
       </c>
       <c r="C44" t="n">
-        <v>0.704221</v>
+        <v>0.531801</v>
       </c>
       <c r="D44" t="n">
-        <v>0.536563</v>
+        <v>0.524851</v>
       </c>
     </row>
     <row r="45">
@@ -11666,13 +11666,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.926431</v>
+        <v>0.923994</v>
       </c>
       <c r="C45" t="n">
-        <v>0.711491</v>
+        <v>0.538517</v>
       </c>
       <c r="D45" t="n">
-        <v>0.538614</v>
+        <v>0.526544</v>
       </c>
     </row>
     <row r="46">
@@ -11680,13 +11680,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.932283</v>
+        <v>0.930288</v>
       </c>
       <c r="C46" t="n">
-        <v>0.723109</v>
+        <v>0.550389</v>
       </c>
       <c r="D46" t="n">
-        <v>0.541806</v>
+        <v>0.529227</v>
       </c>
     </row>
     <row r="47">
@@ -11694,13 +11694,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.944984</v>
+        <v>0.941271</v>
       </c>
       <c r="C47" t="n">
-        <v>0.729074</v>
+        <v>0.55646</v>
       </c>
       <c r="D47" t="n">
-        <v>0.54226</v>
+        <v>0.5297539999999999</v>
       </c>
     </row>
     <row r="48">
@@ -11708,13 +11708,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.9531539999999999</v>
+        <v>0.951659</v>
       </c>
       <c r="C48" t="n">
-        <v>0.738507</v>
+        <v>0.565484</v>
       </c>
       <c r="D48" t="n">
-        <v>0.543892</v>
+        <v>0.5315879999999999</v>
       </c>
     </row>
     <row r="49">
@@ -11722,13 +11722,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.960909</v>
+        <v>0.959162</v>
       </c>
       <c r="C49" t="n">
-        <v>0.746584</v>
+        <v>0.573425</v>
       </c>
       <c r="D49" t="n">
-        <v>0.547565</v>
+        <v>0.535079</v>
       </c>
     </row>
     <row r="50">
@@ -11736,13 +11736,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.9747440000000001</v>
+        <v>0.973046</v>
       </c>
       <c r="C50" t="n">
-        <v>0.754621</v>
+        <v>0.582534</v>
       </c>
       <c r="D50" t="n">
-        <v>0.5502280000000001</v>
+        <v>0.537291</v>
       </c>
     </row>
     <row r="51">
@@ -11750,13 +11750,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.982887</v>
+        <v>0.9807090000000001</v>
       </c>
       <c r="C51" t="n">
-        <v>0.769465</v>
+        <v>0.5952460000000001</v>
       </c>
       <c r="D51" t="n">
-        <v>0.550309</v>
+        <v>0.537026</v>
       </c>
     </row>
     <row r="52">
@@ -11764,13 +11764,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.998952</v>
+        <v>0.996319</v>
       </c>
       <c r="C52" t="n">
-        <v>0.77894</v>
+        <v>0.607245</v>
       </c>
       <c r="D52" t="n">
-        <v>0.553139</v>
+        <v>0.540185</v>
       </c>
     </row>
     <row r="53">
@@ -11778,13 +11778,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>1.00643</v>
+        <v>1.00377</v>
       </c>
       <c r="C53" t="n">
-        <v>0.787205</v>
+        <v>0.613824</v>
       </c>
       <c r="D53" t="n">
-        <v>0.552297</v>
+        <v>0.53916</v>
       </c>
     </row>
     <row r="54">
@@ -11792,13 +11792,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>1.01557</v>
+        <v>1.01685</v>
       </c>
       <c r="C54" t="n">
-        <v>0.723718</v>
+        <v>0.546679</v>
       </c>
       <c r="D54" t="n">
-        <v>0.5550040000000001</v>
+        <v>0.5430430000000001</v>
       </c>
     </row>
     <row r="55">
@@ -11806,13 +11806,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.943743</v>
+        <v>0.942037</v>
       </c>
       <c r="C55" t="n">
-        <v>0.725855</v>
+        <v>0.54849</v>
       </c>
       <c r="D55" t="n">
-        <v>0.5572510000000001</v>
+        <v>0.545112</v>
       </c>
     </row>
     <row r="56">
@@ -11820,13 +11820,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.953225</v>
+        <v>0.949883</v>
       </c>
       <c r="C56" t="n">
-        <v>0.7345120000000001</v>
+        <v>0.557863</v>
       </c>
       <c r="D56" t="n">
-        <v>0.558558</v>
+        <v>0.546192</v>
       </c>
     </row>
     <row r="57">
@@ -11834,13 +11834,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.9614239999999999</v>
+        <v>0.957527</v>
       </c>
       <c r="C57" t="n">
-        <v>0.742004</v>
+        <v>0.564987</v>
       </c>
       <c r="D57" t="n">
-        <v>0.559406</v>
+        <v>0.546828</v>
       </c>
     </row>
     <row r="58">
@@ -11848,13 +11848,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.969659</v>
+        <v>0.966357</v>
       </c>
       <c r="C58" t="n">
-        <v>0.749105</v>
+        <v>0.571398</v>
       </c>
       <c r="D58" t="n">
-        <v>0.561111</v>
+        <v>0.548196</v>
       </c>
     </row>
     <row r="59">
@@ -11862,13 +11862,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.977452</v>
+        <v>0.975382</v>
       </c>
       <c r="C59" t="n">
-        <v>0.756561</v>
+        <v>0.579812</v>
       </c>
       <c r="D59" t="n">
-        <v>0.563647</v>
+        <v>0.550323</v>
       </c>
     </row>
     <row r="60">
@@ -11876,13 +11876,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.985529</v>
+        <v>0.982934</v>
       </c>
       <c r="C60" t="n">
-        <v>0.765822</v>
+        <v>0.588625</v>
       </c>
       <c r="D60" t="n">
-        <v>0.5638</v>
+        <v>0.550092</v>
       </c>
     </row>
     <row r="61">
@@ -11890,13 +11890,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.993289</v>
+        <v>0.991389</v>
       </c>
       <c r="C61" t="n">
-        <v>0.775062</v>
+        <v>0.5994429999999999</v>
       </c>
       <c r="D61" t="n">
-        <v>0.566984</v>
+        <v>0.553949</v>
       </c>
     </row>
     <row r="62">
@@ -11904,13 +11904,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>1.0064</v>
+        <v>1.00359</v>
       </c>
       <c r="C62" t="n">
-        <v>0.785697</v>
+        <v>0.609966</v>
       </c>
       <c r="D62" t="n">
-        <v>0.56715</v>
+        <v>0.554204</v>
       </c>
     </row>
     <row r="63">
@@ -11918,13 +11918,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>1.01619</v>
+        <v>1.01473</v>
       </c>
       <c r="C63" t="n">
-        <v>0.797921</v>
+        <v>0.62307</v>
       </c>
       <c r="D63" t="n">
-        <v>0.56838</v>
+        <v>0.555496</v>
       </c>
     </row>
     <row r="64">
@@ -11932,13 +11932,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>1.0221</v>
+        <v>1.01908</v>
       </c>
       <c r="C64" t="n">
-        <v>0.809715</v>
+        <v>0.631629</v>
       </c>
       <c r="D64" t="n">
-        <v>0.569856</v>
+        <v>0.556351</v>
       </c>
     </row>
     <row r="65">
@@ -11946,13 +11946,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>1.0317</v>
+        <v>1.03071</v>
       </c>
       <c r="C65" t="n">
-        <v>0.828462</v>
+        <v>0.648834</v>
       </c>
       <c r="D65" t="n">
-        <v>0.572058</v>
+        <v>0.558456</v>
       </c>
     </row>
     <row r="66">
@@ -11960,13 +11960,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>1.04258</v>
+        <v>1.04178</v>
       </c>
       <c r="C66" t="n">
-        <v>0.840883</v>
+        <v>0.660477</v>
       </c>
       <c r="D66" t="n">
-        <v>0.574682</v>
+        <v>0.561102</v>
       </c>
     </row>
     <row r="67">
@@ -11974,13 +11974,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.0618</v>
+        <v>1.05895</v>
       </c>
       <c r="C67" t="n">
-        <v>0.861199</v>
+        <v>0.680198</v>
       </c>
       <c r="D67" t="n">
-        <v>0.576462</v>
+        <v>0.562612</v>
       </c>
     </row>
     <row r="68">
@@ -11988,13 +11988,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>1.0728</v>
+        <v>1.07171</v>
       </c>
       <c r="C68" t="n">
-        <v>0.787639</v>
+        <v>0.609145</v>
       </c>
       <c r="D68" t="n">
-        <v>0.591463</v>
+        <v>0.578007</v>
       </c>
     </row>
     <row r="69">
@@ -12002,13 +12002,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>1.02711</v>
+        <v>1.02241</v>
       </c>
       <c r="C69" t="n">
-        <v>0.816705</v>
+        <v>0.631799</v>
       </c>
       <c r="D69" t="n">
-        <v>0.600252</v>
+        <v>0.586252</v>
       </c>
     </row>
     <row r="70">
@@ -12016,13 +12016,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>1.04573</v>
+        <v>1.04089</v>
       </c>
       <c r="C70" t="n">
-        <v>0.841306</v>
+        <v>0.6581</v>
       </c>
       <c r="D70" t="n">
-        <v>0.613708</v>
+        <v>0.599761</v>
       </c>
     </row>
     <row r="71">
@@ -12030,13 +12030,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>1.07201</v>
+        <v>1.06626</v>
       </c>
       <c r="C71" t="n">
-        <v>0.870655</v>
+        <v>0.687458</v>
       </c>
       <c r="D71" t="n">
-        <v>0.629206</v>
+        <v>0.613206</v>
       </c>
     </row>
     <row r="72">
@@ -12044,13 +12044,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>1.10384</v>
+        <v>1.09759</v>
       </c>
       <c r="C72" t="n">
-        <v>0.900879</v>
+        <v>0.717919</v>
       </c>
       <c r="D72" t="n">
-        <v>0.644687</v>
+        <v>0.629728</v>
       </c>
     </row>
     <row r="73">
@@ -12058,13 +12058,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>1.14263</v>
+        <v>1.13108</v>
       </c>
       <c r="C73" t="n">
-        <v>0.94043</v>
+        <v>0.756271</v>
       </c>
       <c r="D73" t="n">
-        <v>0.665239</v>
+        <v>0.6481440000000001</v>
       </c>
     </row>
     <row r="74">
@@ -12072,13 +12072,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.17823</v>
+        <v>1.16687</v>
       </c>
       <c r="C74" t="n">
-        <v>0.977619</v>
+        <v>0.791256</v>
       </c>
       <c r="D74" t="n">
-        <v>0.684485</v>
+        <v>0.665485</v>
       </c>
     </row>
     <row r="75">
@@ -12086,13 +12086,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>1.22554</v>
+        <v>1.20506</v>
       </c>
       <c r="C75" t="n">
-        <v>1.01886</v>
+        <v>0.828512</v>
       </c>
       <c r="D75" t="n">
-        <v>0.711206</v>
+        <v>0.685356</v>
       </c>
     </row>
     <row r="76">
@@ -12100,13 +12100,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>1.27348</v>
+        <v>1.2518</v>
       </c>
       <c r="C76" t="n">
-        <v>1.06065</v>
+        <v>0.871343</v>
       </c>
       <c r="D76" t="n">
-        <v>0.735208</v>
+        <v>0.7086789999999999</v>
       </c>
     </row>
     <row r="77">
@@ -12114,13 +12114,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>1.32278</v>
+        <v>1.3004</v>
       </c>
       <c r="C77" t="n">
-        <v>1.11018</v>
+        <v>0.920099</v>
       </c>
       <c r="D77" t="n">
-        <v>0.763313</v>
+        <v>0.736461</v>
       </c>
     </row>
     <row r="78">
@@ -12128,13 +12128,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>1.38499</v>
+        <v>1.35915</v>
       </c>
       <c r="C78" t="n">
-        <v>1.16155</v>
+        <v>0.969108</v>
       </c>
       <c r="D78" t="n">
-        <v>0.7949929999999999</v>
+        <v>0.766902</v>
       </c>
     </row>
     <row r="79">
@@ -12142,13 +12142,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.45693</v>
+        <v>1.42525</v>
       </c>
       <c r="C79" t="n">
-        <v>1.21447</v>
+        <v>1.01996</v>
       </c>
       <c r="D79" t="n">
-        <v>0.834404</v>
+        <v>0.802237</v>
       </c>
     </row>
     <row r="80">
@@ -12156,13 +12156,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.54074</v>
+        <v>1.5089</v>
       </c>
       <c r="C80" t="n">
-        <v>1.28127</v>
+        <v>1.07718</v>
       </c>
       <c r="D80" t="n">
-        <v>0.8792180000000001</v>
+        <v>0.849361</v>
       </c>
     </row>
     <row r="81">
@@ -12170,13 +12170,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.62232</v>
+        <v>1.59193</v>
       </c>
       <c r="C81" t="n">
-        <v>1.34563</v>
+        <v>1.13607</v>
       </c>
       <c r="D81" t="n">
-        <v>0.921361</v>
+        <v>0.89276</v>
       </c>
     </row>
     <row r="82">
@@ -12184,13 +12184,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.70649</v>
+        <v>1.6735</v>
       </c>
       <c r="C82" t="n">
-        <v>1.41027</v>
+        <v>1.1957</v>
       </c>
       <c r="D82" t="n">
-        <v>0.965404</v>
+        <v>0.937612</v>
       </c>
     </row>
     <row r="83">
@@ -12198,13 +12198,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.81735</v>
+        <v>1.77468</v>
       </c>
       <c r="C83" t="n">
-        <v>1.40246</v>
+        <v>1.17301</v>
       </c>
       <c r="D83" t="n">
-        <v>1.08272</v>
+        <v>1.06013</v>
       </c>
     </row>
     <row r="84">
@@ -12212,13 +12212,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.83093</v>
+        <v>1.8018</v>
       </c>
       <c r="C84" t="n">
-        <v>1.46141</v>
+        <v>1.23146</v>
       </c>
       <c r="D84" t="n">
-        <v>1.13849</v>
+        <v>1.11578</v>
       </c>
     </row>
     <row r="85">
@@ -12226,13 +12226,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.93734</v>
+        <v>1.91381</v>
       </c>
       <c r="C85" t="n">
-        <v>1.529</v>
+        <v>1.28894</v>
       </c>
       <c r="D85" t="n">
-        <v>1.19661</v>
+        <v>1.17637</v>
       </c>
     </row>
     <row r="86">
@@ -12240,13 +12240,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>2.03211</v>
+        <v>2.01576</v>
       </c>
       <c r="C86" t="n">
-        <v>1.60232</v>
+        <v>1.35524</v>
       </c>
       <c r="D86" t="n">
-        <v>1.25101</v>
+        <v>1.23564</v>
       </c>
     </row>
     <row r="87">
@@ -12254,13 +12254,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>2.13583</v>
+        <v>2.12682</v>
       </c>
       <c r="C87" t="n">
-        <v>1.66776</v>
+        <v>1.41842</v>
       </c>
       <c r="D87" t="n">
-        <v>1.30575</v>
+        <v>1.29409</v>
       </c>
     </row>
     <row r="88">
@@ -12268,13 +12268,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>2.24963</v>
+        <v>2.22923</v>
       </c>
       <c r="C88" t="n">
-        <v>1.75132</v>
+        <v>1.49628</v>
       </c>
       <c r="D88" t="n">
-        <v>1.36463</v>
+        <v>1.35503</v>
       </c>
     </row>
     <row r="89">
@@ -12282,13 +12282,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>2.37691</v>
+        <v>2.36096</v>
       </c>
       <c r="C89" t="n">
-        <v>1.83315</v>
+        <v>1.56833</v>
       </c>
       <c r="D89" t="n">
-        <v>1.42097</v>
+        <v>1.40998</v>
       </c>
     </row>
     <row r="90">
@@ -12296,13 +12296,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>2.50039</v>
+        <v>2.48477</v>
       </c>
       <c r="C90" t="n">
-        <v>1.91114</v>
+        <v>1.63457</v>
       </c>
       <c r="D90" t="n">
-        <v>1.4819</v>
+        <v>1.46883</v>
       </c>
     </row>
     <row r="91">
@@ -12310,13 +12310,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>2.61979</v>
+        <v>2.60329</v>
       </c>
       <c r="C91" t="n">
-        <v>1.99305</v>
+        <v>1.71785</v>
       </c>
       <c r="D91" t="n">
-        <v>1.53013</v>
+        <v>1.52621</v>
       </c>
     </row>
     <row r="92">
@@ -12324,13 +12324,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>2.74759</v>
+        <v>2.74163</v>
       </c>
       <c r="C92" t="n">
-        <v>2.07873</v>
+        <v>1.80296</v>
       </c>
       <c r="D92" t="n">
-        <v>1.58714</v>
+        <v>1.58124</v>
       </c>
     </row>
     <row r="93">
@@ -12338,13 +12338,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>2.88957</v>
+        <v>2.86934</v>
       </c>
       <c r="C93" t="n">
-        <v>2.1698</v>
+        <v>1.88627</v>
       </c>
       <c r="D93" t="n">
-        <v>1.6418</v>
+        <v>1.63388</v>
       </c>
     </row>
     <row r="94">
@@ -12352,13 +12352,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>3.01606</v>
+        <v>2.98198</v>
       </c>
       <c r="C94" t="n">
-        <v>2.27164</v>
+        <v>1.97876</v>
       </c>
       <c r="D94" t="n">
-        <v>1.69157</v>
+        <v>1.68682</v>
       </c>
     </row>
     <row r="95">
@@ -12366,13 +12366,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>3.1533</v>
+        <v>3.12264</v>
       </c>
       <c r="C95" t="n">
-        <v>2.36224</v>
+        <v>2.0644</v>
       </c>
       <c r="D95" t="n">
-        <v>1.74139</v>
+        <v>1.73863</v>
       </c>
     </row>
     <row r="96">
@@ -12380,13 +12380,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>3.27367</v>
+        <v>3.26195</v>
       </c>
       <c r="C96" t="n">
-        <v>2.47422</v>
+        <v>2.17013</v>
       </c>
       <c r="D96" t="n">
-        <v>1.78734</v>
+        <v>1.78819</v>
       </c>
     </row>
     <row r="97">
@@ -12394,13 +12394,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>3.40899</v>
+        <v>3.40182</v>
       </c>
       <c r="C97" t="n">
-        <v>2.2434</v>
+        <v>1.93914</v>
       </c>
       <c r="D97" t="n">
-        <v>1.91845</v>
+        <v>1.91855</v>
       </c>
     </row>
     <row r="98">
@@ -12408,13 +12408,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>3.26064</v>
+        <v>3.26091</v>
       </c>
       <c r="C98" t="n">
-        <v>2.29833</v>
+        <v>1.99403</v>
       </c>
       <c r="D98" t="n">
-        <v>1.96217</v>
+        <v>1.96577</v>
       </c>
     </row>
     <row r="99">
@@ -12422,13 +12422,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>3.36576</v>
+        <v>3.35276</v>
       </c>
       <c r="C99" t="n">
-        <v>2.3622</v>
+        <v>2.0606</v>
       </c>
       <c r="D99" t="n">
-        <v>2.01615</v>
+        <v>2.0177</v>
       </c>
     </row>
     <row r="100">
@@ -12436,13 +12436,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>3.46621</v>
+        <v>3.43498</v>
       </c>
       <c r="C100" t="n">
-        <v>2.43707</v>
+        <v>2.12871</v>
       </c>
       <c r="D100" t="n">
-        <v>2.04399</v>
+        <v>2.05881</v>
       </c>
     </row>
     <row r="101">
@@ -12450,13 +12450,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>3.58671</v>
+        <v>3.5619</v>
       </c>
       <c r="C101" t="n">
-        <v>2.50209</v>
+        <v>2.18806</v>
       </c>
       <c r="D101" t="n">
-        <v>2.08918</v>
+        <v>2.07695</v>
       </c>
     </row>
     <row r="102">
@@ -12464,13 +12464,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>3.69261</v>
+        <v>3.6881</v>
       </c>
       <c r="C102" t="n">
-        <v>2.57114</v>
+        <v>2.25723</v>
       </c>
       <c r="D102" t="n">
-        <v>2.11926</v>
+        <v>2.11663</v>
       </c>
     </row>
     <row r="103">
@@ -12478,13 +12478,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>3.79618</v>
+        <v>3.77851</v>
       </c>
       <c r="C103" t="n">
-        <v>2.65131</v>
+        <v>2.32707</v>
       </c>
       <c r="D103" t="n">
-        <v>2.15167</v>
+        <v>2.15688</v>
       </c>
     </row>
     <row r="104">
@@ -12492,13 +12492,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>3.88382</v>
+        <v>3.90904</v>
       </c>
       <c r="C104" t="n">
-        <v>2.72936</v>
+        <v>2.39938</v>
       </c>
       <c r="D104" t="n">
-        <v>2.18685</v>
+        <v>2.1789</v>
       </c>
     </row>
     <row r="105">
@@ -12506,13 +12506,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>3.97977</v>
+        <v>3.96624</v>
       </c>
       <c r="C105" t="n">
-        <v>2.8102</v>
+        <v>2.46259</v>
       </c>
       <c r="D105" t="n">
-        <v>2.22817</v>
+        <v>2.22548</v>
       </c>
     </row>
     <row r="106">
@@ -12520,13 +12520,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>4.09108</v>
+        <v>4.07047</v>
       </c>
       <c r="C106" t="n">
-        <v>2.89509</v>
+        <v>2.54154</v>
       </c>
       <c r="D106" t="n">
-        <v>2.24516</v>
+        <v>2.24084</v>
       </c>
     </row>
     <row r="107">
@@ -12534,13 +12534,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>4.18683</v>
+        <v>4.16806</v>
       </c>
       <c r="C107" t="n">
-        <v>2.96786</v>
+        <v>2.61284</v>
       </c>
       <c r="D107" t="n">
-        <v>2.29156</v>
+        <v>2.27007</v>
       </c>
     </row>
     <row r="108">
@@ -12548,13 +12548,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>4.30742</v>
+        <v>4.27253</v>
       </c>
       <c r="C108" t="n">
-        <v>3.06198</v>
+        <v>2.69612</v>
       </c>
       <c r="D108" t="n">
-        <v>2.30712</v>
+        <v>2.32356</v>
       </c>
     </row>
     <row r="109">
@@ -12562,13 +12562,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>4.43119</v>
+        <v>4.3684</v>
       </c>
       <c r="C109" t="n">
-        <v>3.16092</v>
+        <v>2.77244</v>
       </c>
       <c r="D109" t="n">
-        <v>2.3528</v>
+        <v>2.34115</v>
       </c>
     </row>
     <row r="110">
@@ -12576,13 +12576,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>4.51946</v>
+        <v>4.49011</v>
       </c>
       <c r="C110" t="n">
-        <v>3.25602</v>
+        <v>2.86081</v>
       </c>
       <c r="D110" t="n">
-        <v>2.37506</v>
+        <v>2.35796</v>
       </c>
     </row>
     <row r="111">
@@ -12590,13 +12590,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>4.63873</v>
+        <v>4.59542</v>
       </c>
       <c r="C111" t="n">
-        <v>2.86552</v>
+        <v>2.49573</v>
       </c>
       <c r="D111" t="n">
-        <v>2.45697</v>
+        <v>2.45278</v>
       </c>
     </row>
     <row r="112">
@@ -12604,13 +12604,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>4.27978</v>
+        <v>4.26969</v>
       </c>
       <c r="C112" t="n">
-        <v>2.91946</v>
+        <v>2.55919</v>
       </c>
       <c r="D112" t="n">
-        <v>2.48823</v>
+        <v>2.47601</v>
       </c>
     </row>
     <row r="113">
@@ -12618,13 +12618,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>4.36949</v>
+        <v>4.33304</v>
       </c>
       <c r="C113" t="n">
-        <v>2.97986</v>
+        <v>2.59651</v>
       </c>
       <c r="D113" t="n">
-        <v>2.50952</v>
+        <v>2.50322</v>
       </c>
     </row>
     <row r="114">
@@ -12632,13 +12632,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>4.42992</v>
+        <v>4.40199</v>
       </c>
       <c r="C114" t="n">
-        <v>3.04024</v>
+        <v>2.64004</v>
       </c>
       <c r="D114" t="n">
-        <v>2.53085</v>
+        <v>2.52333</v>
       </c>
     </row>
     <row r="115">
@@ -12646,13 +12646,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>4.52715</v>
+        <v>4.49066</v>
       </c>
       <c r="C115" t="n">
-        <v>3.11368</v>
+        <v>2.71892</v>
       </c>
       <c r="D115" t="n">
-        <v>2.55686</v>
+        <v>2.56074</v>
       </c>
     </row>
     <row r="116">
@@ -12660,13 +12660,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>4.62767</v>
+        <v>4.58208</v>
       </c>
       <c r="C116" t="n">
-        <v>3.1715</v>
+        <v>2.77821</v>
       </c>
       <c r="D116" t="n">
-        <v>2.58112</v>
+        <v>2.57666</v>
       </c>
     </row>
     <row r="117">
@@ -12674,13 +12674,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>4.71199</v>
+        <v>4.67091</v>
       </c>
       <c r="C117" t="n">
-        <v>3.23799</v>
+        <v>2.83479</v>
       </c>
       <c r="D117" t="n">
-        <v>2.60095</v>
+        <v>2.60455</v>
       </c>
     </row>
     <row r="118">
@@ -12688,13 +12688,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>4.79089</v>
+        <v>4.769</v>
       </c>
       <c r="C118" t="n">
-        <v>3.31396</v>
+        <v>2.91249</v>
       </c>
       <c r="D118" t="n">
-        <v>2.62462</v>
+        <v>2.62639</v>
       </c>
     </row>
     <row r="119">
@@ -12702,13 +12702,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>4.90538</v>
+        <v>4.83958</v>
       </c>
       <c r="C119" t="n">
-        <v>3.40427</v>
+        <v>2.98755</v>
       </c>
       <c r="D119" t="n">
-        <v>2.648</v>
+        <v>2.63698</v>
       </c>
     </row>
   </sheetData>

--- a/clang_libcpp/scattered erasure.xlsx
+++ b/clang_libcpp/scattered erasure.xlsx
@@ -7680,13 +7680,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.402036</v>
+        <v>0.404423</v>
       </c>
       <c r="C2" t="n">
-        <v>0.174782</v>
+        <v>0.177401</v>
       </c>
       <c r="D2" t="n">
-        <v>0.225017</v>
+        <v>0.237174</v>
       </c>
     </row>
     <row r="3">
@@ -7694,13 +7694,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.405973</v>
+        <v>0.415088</v>
       </c>
       <c r="C3" t="n">
-        <v>0.178581</v>
+        <v>0.179848</v>
       </c>
       <c r="D3" t="n">
-        <v>0.235129</v>
+        <v>0.235807</v>
       </c>
     </row>
     <row r="4">
@@ -7708,13 +7708,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.413452</v>
+        <v>0.415132</v>
       </c>
       <c r="C4" t="n">
-        <v>0.181127</v>
+        <v>0.182211</v>
       </c>
       <c r="D4" t="n">
-        <v>0.240992</v>
+        <v>0.242682</v>
       </c>
     </row>
     <row r="5">
@@ -7722,13 +7722,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.422647</v>
+        <v>0.424218</v>
       </c>
       <c r="C5" t="n">
-        <v>0.184423</v>
+        <v>0.184711</v>
       </c>
       <c r="D5" t="n">
-        <v>0.243619</v>
+        <v>0.243576</v>
       </c>
     </row>
     <row r="6">
@@ -7736,13 +7736,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.42267</v>
+        <v>0.422746</v>
       </c>
       <c r="C6" t="n">
-        <v>0.189326</v>
+        <v>0.188467</v>
       </c>
       <c r="D6" t="n">
-        <v>0.249286</v>
+        <v>0.249829</v>
       </c>
     </row>
     <row r="7">
@@ -7750,13 +7750,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.42966</v>
+        <v>0.430635</v>
       </c>
       <c r="C7" t="n">
-        <v>0.173974</v>
+        <v>0.174076</v>
       </c>
       <c r="D7" t="n">
-        <v>0.249724</v>
+        <v>0.249007</v>
       </c>
     </row>
     <row r="8">
@@ -7764,13 +7764,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.406009</v>
+        <v>0.406975</v>
       </c>
       <c r="C8" t="n">
-        <v>0.176145</v>
+        <v>0.176232</v>
       </c>
       <c r="D8" t="n">
-        <v>0.250922</v>
+        <v>0.25013</v>
       </c>
     </row>
     <row r="9">
@@ -7778,13 +7778,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.409044</v>
+        <v>0.405934</v>
       </c>
       <c r="C9" t="n">
-        <v>0.178033</v>
+        <v>0.1779</v>
       </c>
       <c r="D9" t="n">
-        <v>0.258104</v>
+        <v>0.256257</v>
       </c>
     </row>
     <row r="10">
@@ -7792,13 +7792,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.416363</v>
+        <v>0.417393</v>
       </c>
       <c r="C10" t="n">
-        <v>0.180046</v>
+        <v>0.179966</v>
       </c>
       <c r="D10" t="n">
-        <v>0.261547</v>
+        <v>0.262663</v>
       </c>
     </row>
     <row r="11">
@@ -7806,13 +7806,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.421402</v>
+        <v>0.422002</v>
       </c>
       <c r="C11" t="n">
-        <v>0.18129</v>
+        <v>0.181229</v>
       </c>
       <c r="D11" t="n">
-        <v>0.266866</v>
+        <v>0.268981</v>
       </c>
     </row>
     <row r="12">
@@ -7820,13 +7820,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.426501</v>
+        <v>0.430118</v>
       </c>
       <c r="C12" t="n">
-        <v>0.183585</v>
+        <v>0.183998</v>
       </c>
       <c r="D12" t="n">
-        <v>0.269282</v>
+        <v>0.272508</v>
       </c>
     </row>
     <row r="13">
@@ -7834,13 +7834,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.431326</v>
+        <v>0.432722</v>
       </c>
       <c r="C13" t="n">
-        <v>0.186019</v>
+        <v>0.186356</v>
       </c>
       <c r="D13" t="n">
-        <v>0.276351</v>
+        <v>0.277143</v>
       </c>
     </row>
     <row r="14">
@@ -7848,13 +7848,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.438419</v>
+        <v>0.439831</v>
       </c>
       <c r="C14" t="n">
-        <v>0.188317</v>
+        <v>0.188439</v>
       </c>
       <c r="D14" t="n">
-        <v>0.281737</v>
+        <v>0.283863</v>
       </c>
     </row>
     <row r="15">
@@ -7862,13 +7862,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.44299</v>
+        <v>0.445128</v>
       </c>
       <c r="C15" t="n">
-        <v>0.190763</v>
+        <v>0.190612</v>
       </c>
       <c r="D15" t="n">
-        <v>0.283369</v>
+        <v>0.288509</v>
       </c>
     </row>
     <row r="16">
@@ -7876,13 +7876,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.450745</v>
+        <v>0.452506</v>
       </c>
       <c r="C16" t="n">
-        <v>0.193318</v>
+        <v>0.193647</v>
       </c>
       <c r="D16" t="n">
-        <v>0.289617</v>
+        <v>0.291668</v>
       </c>
     </row>
     <row r="17">
@@ -7890,13 +7890,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.456295</v>
+        <v>0.457644</v>
       </c>
       <c r="C17" t="n">
-        <v>0.195509</v>
+        <v>0.195827</v>
       </c>
       <c r="D17" t="n">
-        <v>0.295868</v>
+        <v>0.296712</v>
       </c>
     </row>
     <row r="18">
@@ -7904,13 +7904,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.462505</v>
+        <v>0.461012</v>
       </c>
       <c r="C18" t="n">
-        <v>0.198701</v>
+        <v>0.198935</v>
       </c>
       <c r="D18" t="n">
-        <v>0.300411</v>
+        <v>0.299551</v>
       </c>
     </row>
     <row r="19">
@@ -7918,13 +7918,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.468804</v>
+        <v>0.467335</v>
       </c>
       <c r="C19" t="n">
-        <v>0.201628</v>
+        <v>0.201763</v>
       </c>
       <c r="D19" t="n">
-        <v>0.302882</v>
+        <v>0.3053</v>
       </c>
     </row>
     <row r="20">
@@ -7932,13 +7932,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.474114</v>
+        <v>0.47516</v>
       </c>
       <c r="C20" t="n">
-        <v>0.204408</v>
+        <v>0.205159</v>
       </c>
       <c r="D20" t="n">
-        <v>0.308719</v>
+        <v>0.309272</v>
       </c>
     </row>
     <row r="21">
@@ -7946,13 +7946,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.479183</v>
+        <v>0.479575</v>
       </c>
       <c r="C21" t="n">
-        <v>0.18409</v>
+        <v>0.184426</v>
       </c>
       <c r="D21" t="n">
-        <v>0.304497</v>
+        <v>0.307673</v>
       </c>
     </row>
     <row r="22">
@@ -7960,13 +7960,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.459888</v>
+        <v>0.460687</v>
       </c>
       <c r="C22" t="n">
-        <v>0.185524</v>
+        <v>0.185937</v>
       </c>
       <c r="D22" t="n">
-        <v>0.308123</v>
+        <v>0.311281</v>
       </c>
     </row>
     <row r="23">
@@ -7974,13 +7974,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.463934</v>
+        <v>0.465085</v>
       </c>
       <c r="C23" t="n">
-        <v>0.187677</v>
+        <v>0.1878</v>
       </c>
       <c r="D23" t="n">
-        <v>0.312336</v>
+        <v>0.314296</v>
       </c>
     </row>
     <row r="24">
@@ -7988,13 +7988,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.467153</v>
+        <v>0.470157</v>
       </c>
       <c r="C24" t="n">
-        <v>0.189481</v>
+        <v>0.189678</v>
       </c>
       <c r="D24" t="n">
-        <v>0.314711</v>
+        <v>0.317232</v>
       </c>
     </row>
     <row r="25">
@@ -8002,13 +8002,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.473271</v>
+        <v>0.47396</v>
       </c>
       <c r="C25" t="n">
-        <v>0.191278</v>
+        <v>0.191412</v>
       </c>
       <c r="D25" t="n">
-        <v>0.318793</v>
+        <v>0.320704</v>
       </c>
     </row>
     <row r="26">
@@ -8016,13 +8016,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.477698</v>
+        <v>0.477657</v>
       </c>
       <c r="C26" t="n">
-        <v>0.193512</v>
+        <v>0.193561</v>
       </c>
       <c r="D26" t="n">
-        <v>0.320344</v>
+        <v>0.323376</v>
       </c>
     </row>
     <row r="27">
@@ -8030,13 +8030,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.481118</v>
+        <v>0.480791</v>
       </c>
       <c r="C27" t="n">
-        <v>0.195552</v>
+        <v>0.195285</v>
       </c>
       <c r="D27" t="n">
-        <v>0.326019</v>
+        <v>0.325493</v>
       </c>
     </row>
     <row r="28">
@@ -8044,13 +8044,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.485912</v>
+        <v>0.486124</v>
       </c>
       <c r="C28" t="n">
-        <v>0.19793</v>
+        <v>0.19762</v>
       </c>
       <c r="D28" t="n">
-        <v>0.32566</v>
+        <v>0.327919</v>
       </c>
     </row>
     <row r="29">
@@ -8058,13 +8058,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.489969</v>
+        <v>0.490215</v>
       </c>
       <c r="C29" t="n">
-        <v>0.200311</v>
+        <v>0.200206</v>
       </c>
       <c r="D29" t="n">
-        <v>0.331201</v>
+        <v>0.331987</v>
       </c>
     </row>
     <row r="30">
@@ -8072,13 +8072,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.495542</v>
+        <v>0.493841</v>
       </c>
       <c r="C30" t="n">
-        <v>0.202532</v>
+        <v>0.202464</v>
       </c>
       <c r="D30" t="n">
-        <v>0.334475</v>
+        <v>0.328248</v>
       </c>
     </row>
     <row r="31">
@@ -8086,13 +8086,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.498938</v>
+        <v>0.497433</v>
       </c>
       <c r="C31" t="n">
-        <v>0.205458</v>
+        <v>0.204792</v>
       </c>
       <c r="D31" t="n">
-        <v>0.33878</v>
+        <v>0.333086</v>
       </c>
     </row>
     <row r="32">
@@ -8100,13 +8100,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.503335</v>
+        <v>0.503203</v>
       </c>
       <c r="C32" t="n">
-        <v>0.20697</v>
+        <v>0.207004</v>
       </c>
       <c r="D32" t="n">
-        <v>0.340503</v>
+        <v>0.335446</v>
       </c>
     </row>
     <row r="33">
@@ -8114,13 +8114,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.508161</v>
+        <v>0.506932</v>
       </c>
       <c r="C33" t="n">
-        <v>0.210429</v>
+        <v>0.209932</v>
       </c>
       <c r="D33" t="n">
-        <v>0.343969</v>
+        <v>0.339583</v>
       </c>
     </row>
     <row r="34">
@@ -8128,13 +8128,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.513645</v>
+        <v>0.512148</v>
       </c>
       <c r="C34" t="n">
-        <v>0.2121</v>
+        <v>0.211934</v>
       </c>
       <c r="D34" t="n">
-        <v>0.345606</v>
+        <v>0.340454</v>
       </c>
     </row>
     <row r="35">
@@ -8142,13 +8142,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.519018</v>
+        <v>0.516588</v>
       </c>
       <c r="C35" t="n">
-        <v>0.188478</v>
+        <v>0.188159</v>
       </c>
       <c r="D35" t="n">
-        <v>0.337404</v>
+        <v>0.336572</v>
       </c>
     </row>
     <row r="36">
@@ -8156,13 +8156,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.490621</v>
+        <v>0.491032</v>
       </c>
       <c r="C36" t="n">
-        <v>0.190369</v>
+        <v>0.190148</v>
       </c>
       <c r="D36" t="n">
-        <v>0.342538</v>
+        <v>0.338276</v>
       </c>
     </row>
     <row r="37">
@@ -8170,13 +8170,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.493647</v>
+        <v>0.492605</v>
       </c>
       <c r="C37" t="n">
-        <v>0.192587</v>
+        <v>0.19275</v>
       </c>
       <c r="D37" t="n">
-        <v>0.344705</v>
+        <v>0.341354</v>
       </c>
     </row>
     <row r="38">
@@ -8184,13 +8184,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.495781</v>
+        <v>0.496703</v>
       </c>
       <c r="C38" t="n">
-        <v>0.194352</v>
+        <v>0.196652</v>
       </c>
       <c r="D38" t="n">
-        <v>0.346158</v>
+        <v>0.343658</v>
       </c>
     </row>
     <row r="39">
@@ -8198,13 +8198,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.498913</v>
+        <v>0.5006080000000001</v>
       </c>
       <c r="C39" t="n">
-        <v>0.196416</v>
+        <v>0.198036</v>
       </c>
       <c r="D39" t="n">
-        <v>0.347846</v>
+        <v>0.347699</v>
       </c>
     </row>
     <row r="40">
@@ -8212,13 +8212,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.50241</v>
+        <v>0.504324</v>
       </c>
       <c r="C40" t="n">
-        <v>0.198416</v>
+        <v>0.199538</v>
       </c>
       <c r="D40" t="n">
-        <v>0.349795</v>
+        <v>0.34833</v>
       </c>
     </row>
     <row r="41">
@@ -8226,13 +8226,13 @@
         <v>66357</v>
       </c>
       <c r="B41" t="n">
-        <v>0.505123</v>
+        <v>0.505377</v>
       </c>
       <c r="C41" t="n">
-        <v>0.200116</v>
+        <v>0.203968</v>
       </c>
       <c r="D41" t="n">
-        <v>0.351615</v>
+        <v>0.349812</v>
       </c>
     </row>
     <row r="42">
@@ -8240,13 +8240,13 @@
         <v>69656</v>
       </c>
       <c r="B42" t="n">
-        <v>0.507562</v>
+        <v>0.5105499999999999</v>
       </c>
       <c r="C42" t="n">
-        <v>0.202357</v>
+        <v>0.209921</v>
       </c>
       <c r="D42" t="n">
-        <v>0.353107</v>
+        <v>0.352403</v>
       </c>
     </row>
     <row r="43">
@@ -8254,13 +8254,13 @@
         <v>73119</v>
       </c>
       <c r="B43" t="n">
-        <v>0.513062</v>
+        <v>0.513852</v>
       </c>
       <c r="C43" t="n">
-        <v>0.204591</v>
+        <v>0.2073</v>
       </c>
       <c r="D43" t="n">
-        <v>0.355834</v>
+        <v>0.355083</v>
       </c>
     </row>
     <row r="44">
@@ -8268,13 +8268,13 @@
         <v>76755</v>
       </c>
       <c r="B44" t="n">
-        <v>0.515804</v>
+        <v>0.517904</v>
       </c>
       <c r="C44" t="n">
-        <v>0.206694</v>
+        <v>0.209106</v>
       </c>
       <c r="D44" t="n">
-        <v>0.357386</v>
+        <v>0.354348</v>
       </c>
     </row>
     <row r="45">
@@ -8282,13 +8282,13 @@
         <v>80572</v>
       </c>
       <c r="B45" t="n">
-        <v>0.51985</v>
+        <v>0.520698</v>
       </c>
       <c r="C45" t="n">
-        <v>0.208903</v>
+        <v>0.211071</v>
       </c>
       <c r="D45" t="n">
-        <v>0.359346</v>
+        <v>0.356024</v>
       </c>
     </row>
     <row r="46">
@@ -8296,13 +8296,13 @@
         <v>84579</v>
       </c>
       <c r="B46" t="n">
-        <v>0.523672</v>
+        <v>0.524692</v>
       </c>
       <c r="C46" t="n">
-        <v>0.211842</v>
+        <v>0.21468</v>
       </c>
       <c r="D46" t="n">
-        <v>0.361698</v>
+        <v>0.358666</v>
       </c>
     </row>
     <row r="47">
@@ -8310,13 +8310,13 @@
         <v>88786</v>
       </c>
       <c r="B47" t="n">
-        <v>0.528609</v>
+        <v>0.528405</v>
       </c>
       <c r="C47" t="n">
-        <v>0.21461</v>
+        <v>0.216782</v>
       </c>
       <c r="D47" t="n">
-        <v>0.36414</v>
+        <v>0.362854</v>
       </c>
     </row>
     <row r="48">
@@ -8324,13 +8324,13 @@
         <v>93203</v>
       </c>
       <c r="B48" t="n">
-        <v>0.531579</v>
+        <v>0.533463</v>
       </c>
       <c r="C48" t="n">
-        <v>0.217303</v>
+        <v>0.222852</v>
       </c>
       <c r="D48" t="n">
-        <v>0.366118</v>
+        <v>0.362321</v>
       </c>
     </row>
     <row r="49">
@@ -8338,13 +8338,13 @@
         <v>97840</v>
       </c>
       <c r="B49" t="n">
-        <v>0.536649</v>
+        <v>0.537652</v>
       </c>
       <c r="C49" t="n">
-        <v>0.220301</v>
+        <v>0.221045</v>
       </c>
       <c r="D49" t="n">
-        <v>0.368029</v>
+        <v>0.36194</v>
       </c>
     </row>
     <row r="50">
@@ -8352,13 +8352,13 @@
         <v>102706</v>
       </c>
       <c r="B50" t="n">
-        <v>0.541835</v>
+        <v>0.54109</v>
       </c>
       <c r="C50" t="n">
-        <v>0.194317</v>
+        <v>0.194972</v>
       </c>
       <c r="D50" t="n">
-        <v>0.358856</v>
+        <v>0.352887</v>
       </c>
     </row>
     <row r="51">
@@ -8366,13 +8366,13 @@
         <v>107816</v>
       </c>
       <c r="B51" t="n">
-        <v>0.509876</v>
+        <v>0.509169</v>
       </c>
       <c r="C51" t="n">
-        <v>0.197844</v>
+        <v>0.199682</v>
       </c>
       <c r="D51" t="n">
-        <v>0.359791</v>
+        <v>0.355351</v>
       </c>
     </row>
     <row r="52">
@@ -8380,13 +8380,13 @@
         <v>113182</v>
       </c>
       <c r="B52" t="n">
-        <v>0.51271</v>
+        <v>0.51041</v>
       </c>
       <c r="C52" t="n">
-        <v>0.198145</v>
+        <v>0.201182</v>
       </c>
       <c r="D52" t="n">
-        <v>0.360597</v>
+        <v>0.354942</v>
       </c>
     </row>
     <row r="53">
@@ -8394,13 +8394,13 @@
         <v>118816</v>
       </c>
       <c r="B53" t="n">
-        <v>0.514168</v>
+        <v>0.514195</v>
       </c>
       <c r="C53" t="n">
-        <v>0.202024</v>
+        <v>0.201051</v>
       </c>
       <c r="D53" t="n">
-        <v>0.362018</v>
+        <v>0.356261</v>
       </c>
     </row>
     <row r="54">
@@ -8408,13 +8408,13 @@
         <v>124731</v>
       </c>
       <c r="B54" t="n">
-        <v>0.516855</v>
+        <v>0.516943</v>
       </c>
       <c r="C54" t="n">
-        <v>0.204117</v>
+        <v>0.203659</v>
       </c>
       <c r="D54" t="n">
-        <v>0.36367</v>
+        <v>0.35622</v>
       </c>
     </row>
     <row r="55">
@@ -8422,13 +8422,13 @@
         <v>130941</v>
       </c>
       <c r="B55" t="n">
-        <v>0.519995</v>
+        <v>0.5193990000000001</v>
       </c>
       <c r="C55" t="n">
-        <v>0.207089</v>
+        <v>0.207163</v>
       </c>
       <c r="D55" t="n">
-        <v>0.365307</v>
+        <v>0.358914</v>
       </c>
     </row>
     <row r="56">
@@ -8436,13 +8436,13 @@
         <v>137461</v>
       </c>
       <c r="B56" t="n">
-        <v>0.524718</v>
+        <v>0.522686</v>
       </c>
       <c r="C56" t="n">
-        <v>0.214916</v>
+        <v>0.212446</v>
       </c>
       <c r="D56" t="n">
-        <v>0.366325</v>
+        <v>0.362261</v>
       </c>
     </row>
     <row r="57">
@@ -8450,13 +8450,13 @@
         <v>144307</v>
       </c>
       <c r="B57" t="n">
-        <v>0.525088</v>
+        <v>0.526179</v>
       </c>
       <c r="C57" t="n">
-        <v>0.212424</v>
+        <v>0.221343</v>
       </c>
       <c r="D57" t="n">
-        <v>0.368342</v>
+        <v>0.364632</v>
       </c>
     </row>
     <row r="58">
@@ -8464,13 +8464,13 @@
         <v>151495</v>
       </c>
       <c r="B58" t="n">
-        <v>0.528747</v>
+        <v>0.530416</v>
       </c>
       <c r="C58" t="n">
-        <v>0.221377</v>
+        <v>0.2231</v>
       </c>
       <c r="D58" t="n">
-        <v>0.370481</v>
+        <v>0.366679</v>
       </c>
     </row>
     <row r="59">
@@ -8478,13 +8478,13 @@
         <v>159042</v>
       </c>
       <c r="B59" t="n">
-        <v>0.532843</v>
+        <v>0.532925</v>
       </c>
       <c r="C59" t="n">
-        <v>0.225272</v>
+        <v>0.227853</v>
       </c>
       <c r="D59" t="n">
-        <v>0.372048</v>
+        <v>0.371015</v>
       </c>
     </row>
     <row r="60">
@@ -8492,13 +8492,13 @@
         <v>166965</v>
       </c>
       <c r="B60" t="n">
-        <v>0.536686</v>
+        <v>0.539809</v>
       </c>
       <c r="C60" t="n">
-        <v>0.228559</v>
+        <v>0.233993</v>
       </c>
       <c r="D60" t="n">
-        <v>0.373685</v>
+        <v>0.369359</v>
       </c>
     </row>
     <row r="61">
@@ -8506,13 +8506,13 @@
         <v>175284</v>
       </c>
       <c r="B61" t="n">
-        <v>0.54044</v>
+        <v>0.542025</v>
       </c>
       <c r="C61" t="n">
-        <v>0.229887</v>
+        <v>0.243239</v>
       </c>
       <c r="D61" t="n">
-        <v>0.375799</v>
+        <v>0.372788</v>
       </c>
     </row>
     <row r="62">
@@ -8520,13 +8520,13 @@
         <v>184019</v>
       </c>
       <c r="B62" t="n">
-        <v>0.544978</v>
+        <v>0.546364</v>
       </c>
       <c r="C62" t="n">
-        <v>0.238358</v>
+        <v>0.246232</v>
       </c>
       <c r="D62" t="n">
-        <v>0.377847</v>
+        <v>0.37501</v>
       </c>
     </row>
     <row r="63">
@@ -8534,13 +8534,13 @@
         <v>193190</v>
       </c>
       <c r="B63" t="n">
-        <v>0.550031</v>
+        <v>0.554593</v>
       </c>
       <c r="C63" t="n">
-        <v>0.250227</v>
+        <v>0.257582</v>
       </c>
       <c r="D63" t="n">
-        <v>0.380673</v>
+        <v>0.379546</v>
       </c>
     </row>
     <row r="64">
@@ -8548,13 +8548,13 @@
         <v>202820</v>
       </c>
       <c r="B64" t="n">
-        <v>0.55622</v>
+        <v>0.560503</v>
       </c>
       <c r="C64" t="n">
-        <v>0.298677</v>
+        <v>0.315134</v>
       </c>
       <c r="D64" t="n">
-        <v>0.419421</v>
+        <v>0.412341</v>
       </c>
     </row>
     <row r="65">
@@ -8562,13 +8562,13 @@
         <v>212931</v>
       </c>
       <c r="B65" t="n">
-        <v>0.598144</v>
+        <v>0.587069</v>
       </c>
       <c r="C65" t="n">
-        <v>0.320273</v>
+        <v>0.335403</v>
       </c>
       <c r="D65" t="n">
-        <v>0.433599</v>
+        <v>0.418351</v>
       </c>
     </row>
     <row r="66">
@@ -8576,13 +8576,13 @@
         <v>223547</v>
       </c>
       <c r="B66" t="n">
-        <v>0.617445</v>
+        <v>0.601069</v>
       </c>
       <c r="C66" t="n">
-        <v>0.335864</v>
+        <v>0.357669</v>
       </c>
       <c r="D66" t="n">
-        <v>0.435263</v>
+        <v>0.438227</v>
       </c>
     </row>
     <row r="67">
@@ -8590,13 +8590,13 @@
         <v>234692</v>
       </c>
       <c r="B67" t="n">
-        <v>0.623817</v>
+        <v>0.624015</v>
       </c>
       <c r="C67" t="n">
-        <v>0.34899</v>
+        <v>0.379542</v>
       </c>
       <c r="D67" t="n">
-        <v>0.456464</v>
+        <v>0.451483</v>
       </c>
     </row>
     <row r="68">
@@ -8604,13 +8604,13 @@
         <v>246395</v>
       </c>
       <c r="B68" t="n">
-        <v>0.660864</v>
+        <v>0.631385</v>
       </c>
       <c r="C68" t="n">
-        <v>0.367905</v>
+        <v>0.403767</v>
       </c>
       <c r="D68" t="n">
-        <v>0.458649</v>
+        <v>0.457432</v>
       </c>
     </row>
     <row r="69">
@@ -8618,13 +8618,13 @@
         <v>258683</v>
       </c>
       <c r="B69" t="n">
-        <v>0.652339</v>
+        <v>0.650122</v>
       </c>
       <c r="C69" t="n">
-        <v>0.392061</v>
+        <v>0.42853</v>
       </c>
       <c r="D69" t="n">
-        <v>0.473411</v>
+        <v>0.449996</v>
       </c>
     </row>
     <row r="70">
@@ -8632,13 +8632,13 @@
         <v>271585</v>
       </c>
       <c r="B70" t="n">
-        <v>0.687832</v>
+        <v>0.650345</v>
       </c>
       <c r="C70" t="n">
-        <v>0.400646</v>
+        <v>0.449022</v>
       </c>
       <c r="D70" t="n">
-        <v>0.482093</v>
+        <v>0.5045539999999999</v>
       </c>
     </row>
     <row r="71">
@@ -8646,13 +8646,13 @@
         <v>285132</v>
       </c>
       <c r="B71" t="n">
-        <v>0.7134819999999999</v>
+        <v>0.711996</v>
       </c>
       <c r="C71" t="n">
-        <v>0.419222</v>
+        <v>0.47093</v>
       </c>
       <c r="D71" t="n">
-        <v>0.527128</v>
+        <v>0.536497</v>
       </c>
     </row>
     <row r="72">
@@ -8660,13 +8660,13 @@
         <v>299354</v>
       </c>
       <c r="B72" t="n">
-        <v>0.737617</v>
+        <v>0.765046</v>
       </c>
       <c r="C72" t="n">
-        <v>0.439385</v>
+        <v>0.502338</v>
       </c>
       <c r="D72" t="n">
-        <v>0.527489</v>
+        <v>0.555146</v>
       </c>
     </row>
     <row r="73">
@@ -8674,13 +8674,13 @@
         <v>314289</v>
       </c>
       <c r="B73" t="n">
-        <v>0.761841</v>
+        <v>0.797405</v>
       </c>
       <c r="C73" t="n">
-        <v>0.463312</v>
+        <v>0.52937</v>
       </c>
       <c r="D73" t="n">
-        <v>0.553283</v>
+        <v>0.599318</v>
       </c>
     </row>
     <row r="74">
@@ -8688,13 +8688,13 @@
         <v>329969</v>
       </c>
       <c r="B74" t="n">
-        <v>0.799601</v>
+        <v>0.831574</v>
       </c>
       <c r="C74" t="n">
-        <v>0.483988</v>
+        <v>0.551534</v>
       </c>
       <c r="D74" t="n">
-        <v>0.577002</v>
+        <v>0.609433</v>
       </c>
     </row>
     <row r="75">
@@ -8702,13 +8702,13 @@
         <v>346432</v>
       </c>
       <c r="B75" t="n">
-        <v>0.827302</v>
+        <v>0.865394</v>
       </c>
       <c r="C75" t="n">
-        <v>0.496674</v>
+        <v>0.570675</v>
       </c>
       <c r="D75" t="n">
-        <v>0.608809</v>
+        <v>0.653749</v>
       </c>
     </row>
     <row r="76">
@@ -8716,13 +8716,13 @@
         <v>363719</v>
       </c>
       <c r="B76" t="n">
-        <v>0.863965</v>
+        <v>0.9061669999999999</v>
       </c>
       <c r="C76" t="n">
-        <v>0.517633</v>
+        <v>0.588365</v>
       </c>
       <c r="D76" t="n">
-        <v>0.638195</v>
+        <v>0.665494</v>
       </c>
     </row>
     <row r="77">
@@ -8730,13 +8730,13 @@
         <v>381870</v>
       </c>
       <c r="B77" t="n">
-        <v>0.913586</v>
+        <v>0.951341</v>
       </c>
       <c r="C77" t="n">
-        <v>0.536099</v>
+        <v>0.5831809999999999</v>
       </c>
       <c r="D77" t="n">
-        <v>0.670354</v>
+        <v>0.702971</v>
       </c>
     </row>
     <row r="78">
@@ -8744,13 +8744,13 @@
         <v>400928</v>
       </c>
       <c r="B78" t="n">
-        <v>0.956082</v>
+        <v>1.00902</v>
       </c>
       <c r="C78" t="n">
-        <v>0.630534</v>
+        <v>0.692865</v>
       </c>
       <c r="D78" t="n">
-        <v>0.895793</v>
+        <v>0.966356</v>
       </c>
     </row>
     <row r="79">
@@ -8758,13 +8758,13 @@
         <v>420937</v>
       </c>
       <c r="B79" t="n">
-        <v>1.23411</v>
+        <v>1.33269</v>
       </c>
       <c r="C79" t="n">
-        <v>0.643586</v>
+        <v>0.709668</v>
       </c>
       <c r="D79" t="n">
-        <v>0.937117</v>
+        <v>1.00996</v>
       </c>
     </row>
     <row r="80">
@@ -8772,13 +8772,13 @@
         <v>441947</v>
       </c>
       <c r="B80" t="n">
-        <v>1.27977</v>
+        <v>1.37963</v>
       </c>
       <c r="C80" t="n">
-        <v>0.65616</v>
+        <v>0.723672</v>
       </c>
       <c r="D80" t="n">
-        <v>0.97651</v>
+        <v>1.04651</v>
       </c>
     </row>
     <row r="81">
@@ -8786,13 +8786,13 @@
         <v>464005</v>
       </c>
       <c r="B81" t="n">
-        <v>1.34135</v>
+        <v>1.43787</v>
       </c>
       <c r="C81" t="n">
-        <v>0.6672709999999999</v>
+        <v>0.733251</v>
       </c>
       <c r="D81" t="n">
-        <v>1.01513</v>
+        <v>1.0868</v>
       </c>
     </row>
     <row r="82">
@@ -8800,13 +8800,13 @@
         <v>487165</v>
       </c>
       <c r="B82" t="n">
-        <v>1.39142</v>
+        <v>1.48927</v>
       </c>
       <c r="C82" t="n">
-        <v>0.678037</v>
+        <v>0.742519</v>
       </c>
       <c r="D82" t="n">
-        <v>1.0509</v>
+        <v>1.12857</v>
       </c>
     </row>
     <row r="83">
@@ -8814,13 +8814,13 @@
         <v>511485</v>
       </c>
       <c r="B83" t="n">
-        <v>1.43838</v>
+        <v>1.5407</v>
       </c>
       <c r="C83" t="n">
-        <v>0.6913859999999999</v>
+        <v>0.757</v>
       </c>
       <c r="D83" t="n">
-        <v>1.08655</v>
+        <v>1.17773</v>
       </c>
     </row>
     <row r="84">
@@ -8828,13 +8828,13 @@
         <v>537019</v>
       </c>
       <c r="B84" t="n">
-        <v>1.48661</v>
+        <v>1.60854</v>
       </c>
       <c r="C84" t="n">
-        <v>0.703315</v>
+        <v>0.771326</v>
       </c>
       <c r="D84" t="n">
-        <v>1.12757</v>
+        <v>1.22224</v>
       </c>
     </row>
     <row r="85">
@@ -8842,13 +8842,13 @@
         <v>563827</v>
       </c>
       <c r="B85" t="n">
-        <v>1.53827</v>
+        <v>1.65856</v>
       </c>
       <c r="C85" t="n">
-        <v>0.71478</v>
+        <v>0.784409</v>
       </c>
       <c r="D85" t="n">
-        <v>1.16103</v>
+        <v>1.26465</v>
       </c>
     </row>
     <row r="86">
@@ -8856,13 +8856,13 @@
         <v>591977</v>
       </c>
       <c r="B86" t="n">
-        <v>1.58388</v>
+        <v>1.72083</v>
       </c>
       <c r="C86" t="n">
-        <v>0.727248</v>
+        <v>0.797258</v>
       </c>
       <c r="D86" t="n">
-        <v>1.1993</v>
+        <v>1.30629</v>
       </c>
     </row>
     <row r="87">
@@ -8870,13 +8870,13 @@
         <v>621532</v>
       </c>
       <c r="B87" t="n">
-        <v>1.63023</v>
+        <v>1.76918</v>
       </c>
       <c r="C87" t="n">
-        <v>0.737909</v>
+        <v>0.809253</v>
       </c>
       <c r="D87" t="n">
-        <v>1.23145</v>
+        <v>1.34755</v>
       </c>
     </row>
     <row r="88">
@@ -8884,13 +8884,13 @@
         <v>652567</v>
       </c>
       <c r="B88" t="n">
-        <v>1.67246</v>
+        <v>1.82237</v>
       </c>
       <c r="C88" t="n">
-        <v>0.74876</v>
+        <v>0.822904</v>
       </c>
       <c r="D88" t="n">
-        <v>1.26974</v>
+        <v>1.38187</v>
       </c>
     </row>
     <row r="89">
@@ -8898,13 +8898,13 @@
         <v>685151</v>
       </c>
       <c r="B89" t="n">
-        <v>1.7197</v>
+        <v>1.86174</v>
       </c>
       <c r="C89" t="n">
-        <v>0.762725</v>
+        <v>0.836033</v>
       </c>
       <c r="D89" t="n">
-        <v>1.30575</v>
+        <v>1.42314</v>
       </c>
     </row>
     <row r="90">
@@ -8912,13 +8912,13 @@
         <v>719359</v>
       </c>
       <c r="B90" t="n">
-        <v>1.7633</v>
+        <v>1.91905</v>
       </c>
       <c r="C90" t="n">
-        <v>0.775066</v>
+        <v>0.847728</v>
       </c>
       <c r="D90" t="n">
-        <v>1.3351</v>
+        <v>1.46299</v>
       </c>
     </row>
     <row r="91">
@@ -8926,13 +8926,13 @@
         <v>755280</v>
       </c>
       <c r="B91" t="n">
-        <v>1.79542</v>
+        <v>1.96931</v>
       </c>
       <c r="C91" t="n">
-        <v>0.7868849999999999</v>
+        <v>0.86338</v>
       </c>
       <c r="D91" t="n">
-        <v>1.36674</v>
+        <v>1.49718</v>
       </c>
     </row>
     <row r="92">
@@ -8940,13 +8940,13 @@
         <v>792997</v>
       </c>
       <c r="B92" t="n">
-        <v>1.84146</v>
+        <v>2.01273</v>
       </c>
       <c r="C92" t="n">
-        <v>0.795366</v>
+        <v>0.876211</v>
       </c>
       <c r="D92" t="n">
-        <v>1.54512</v>
+        <v>1.69676</v>
       </c>
     </row>
     <row r="93">
@@ -8954,13 +8954,13 @@
         <v>832595</v>
       </c>
       <c r="B93" t="n">
-        <v>2.05535</v>
+        <v>2.26</v>
       </c>
       <c r="C93" t="n">
-        <v>0.801368</v>
+        <v>0.881125</v>
       </c>
       <c r="D93" t="n">
-        <v>1.56134</v>
+        <v>1.71776</v>
       </c>
     </row>
     <row r="94">
@@ -8968,13 +8968,13 @@
         <v>874177</v>
       </c>
       <c r="B94" t="n">
-        <v>2.08671</v>
+        <v>2.29428</v>
       </c>
       <c r="C94" t="n">
-        <v>0.807844</v>
+        <v>0.890483</v>
       </c>
       <c r="D94" t="n">
-        <v>1.58543</v>
+        <v>1.7473</v>
       </c>
     </row>
     <row r="95">
@@ -8982,13 +8982,13 @@
         <v>917832</v>
       </c>
       <c r="B95" t="n">
-        <v>2.11616</v>
+        <v>2.33007</v>
       </c>
       <c r="C95" t="n">
-        <v>0.816033</v>
+        <v>0.898771</v>
       </c>
       <c r="D95" t="n">
-        <v>1.60648</v>
+        <v>1.77297</v>
       </c>
     </row>
     <row r="96">
@@ -8996,13 +8996,13 @@
         <v>963677</v>
       </c>
       <c r="B96" t="n">
-        <v>2.14056</v>
+        <v>2.35783</v>
       </c>
       <c r="C96" t="n">
-        <v>0.823972</v>
+        <v>0.908639</v>
       </c>
       <c r="D96" t="n">
-        <v>1.62542</v>
+        <v>1.78909</v>
       </c>
     </row>
     <row r="97">
@@ -9010,13 +9010,13 @@
         <v>1011813</v>
       </c>
       <c r="B97" t="n">
-        <v>2.17107</v>
+        <v>2.38702</v>
       </c>
       <c r="C97" t="n">
-        <v>0.833189</v>
+        <v>0.917331</v>
       </c>
       <c r="D97" t="n">
-        <v>1.64525</v>
+        <v>1.81103</v>
       </c>
     </row>
     <row r="98">
@@ -9024,13 +9024,13 @@
         <v>1062351</v>
       </c>
       <c r="B98" t="n">
-        <v>2.19856</v>
+        <v>2.42276</v>
       </c>
       <c r="C98" t="n">
-        <v>0.84401</v>
+        <v>0.927435</v>
       </c>
       <c r="D98" t="n">
-        <v>1.66321</v>
+        <v>1.83017</v>
       </c>
     </row>
     <row r="99">
@@ -9038,13 +9038,13 @@
         <v>1115422</v>
       </c>
       <c r="B99" t="n">
-        <v>2.22171</v>
+        <v>2.45199</v>
       </c>
       <c r="C99" t="n">
-        <v>0.849241</v>
+        <v>0.9359</v>
       </c>
       <c r="D99" t="n">
-        <v>1.68358</v>
+        <v>1.8518</v>
       </c>
     </row>
     <row r="100">
@@ -9052,13 +9052,13 @@
         <v>1171143</v>
       </c>
       <c r="B100" t="n">
-        <v>2.24831</v>
+        <v>2.48219</v>
       </c>
       <c r="C100" t="n">
-        <v>0.859862</v>
+        <v>0.949094</v>
       </c>
       <c r="D100" t="n">
-        <v>1.69986</v>
+        <v>1.87823</v>
       </c>
     </row>
     <row r="101">
@@ -9066,13 +9066,13 @@
         <v>1229634</v>
       </c>
       <c r="B101" t="n">
-        <v>2.27188</v>
+        <v>2.51079</v>
       </c>
       <c r="C101" t="n">
-        <v>0.868666</v>
+        <v>0.959293</v>
       </c>
       <c r="D101" t="n">
-        <v>1.71239</v>
+        <v>1.89269</v>
       </c>
     </row>
     <row r="102">
@@ -9080,13 +9080,13 @@
         <v>1291062</v>
       </c>
       <c r="B102" t="n">
-        <v>2.29696</v>
+        <v>2.53501</v>
       </c>
       <c r="C102" t="n">
-        <v>0.878135</v>
+        <v>0.971724</v>
       </c>
       <c r="D102" t="n">
-        <v>1.72834</v>
+        <v>1.91364</v>
       </c>
     </row>
     <row r="103">
@@ -9094,13 +9094,13 @@
         <v>1355554</v>
       </c>
       <c r="B103" t="n">
-        <v>2.31569</v>
+        <v>2.55699</v>
       </c>
       <c r="C103" t="n">
-        <v>0.886832</v>
+        <v>0.984974</v>
       </c>
       <c r="D103" t="n">
-        <v>1.75496</v>
+        <v>1.93248</v>
       </c>
     </row>
     <row r="104">
@@ -9108,13 +9108,13 @@
         <v>1423274</v>
       </c>
       <c r="B104" t="n">
-        <v>2.34364</v>
+        <v>2.59959</v>
       </c>
       <c r="C104" t="n">
-        <v>0.900778</v>
+        <v>0.999792</v>
       </c>
       <c r="D104" t="n">
-        <v>1.76314</v>
+        <v>1.9508</v>
       </c>
     </row>
     <row r="105">
@@ -9122,13 +9122,13 @@
         <v>1494380</v>
       </c>
       <c r="B105" t="n">
-        <v>2.36194</v>
+        <v>2.62439</v>
       </c>
       <c r="C105" t="n">
-        <v>0.911029</v>
+        <v>1.01156</v>
       </c>
       <c r="D105" t="n">
-        <v>1.77677</v>
+        <v>1.97018</v>
       </c>
     </row>
     <row r="106">
@@ -9136,13 +9136,13 @@
         <v>1569031</v>
       </c>
       <c r="B106" t="n">
-        <v>2.38657</v>
+        <v>2.64603</v>
       </c>
       <c r="C106" t="n">
-        <v>0.922211</v>
+        <v>1.02651</v>
       </c>
       <c r="D106" t="n">
-        <v>1.78937</v>
+        <v>1.9906</v>
       </c>
     </row>
     <row r="107">
@@ -9150,13 +9150,13 @@
         <v>1647417</v>
       </c>
       <c r="B107" t="n">
-        <v>2.49827</v>
+        <v>2.79682</v>
       </c>
       <c r="C107" t="n">
-        <v>0.871925</v>
+        <v>0.978319</v>
       </c>
       <c r="D107" t="n">
-        <v>1.88677</v>
+        <v>2.13056</v>
       </c>
     </row>
     <row r="108">
@@ -9164,13 +9164,13 @@
         <v>1729734</v>
       </c>
       <c r="B108" t="n">
-        <v>2.51363</v>
+        <v>2.81233</v>
       </c>
       <c r="C108" t="n">
-        <v>0.878637</v>
+        <v>0.9875429999999999</v>
       </c>
       <c r="D108" t="n">
-        <v>1.89367</v>
+        <v>2.13165</v>
       </c>
     </row>
     <row r="109">
@@ -9178,13 +9178,13 @@
         <v>1816153</v>
       </c>
       <c r="B109" t="n">
-        <v>2.52398</v>
+        <v>2.83049</v>
       </c>
       <c r="C109" t="n">
-        <v>0.886478</v>
+        <v>0.99536</v>
       </c>
       <c r="D109" t="n">
-        <v>1.902</v>
+        <v>2.14068</v>
       </c>
     </row>
     <row r="110">
@@ -9192,13 +9192,13 @@
         <v>1906885</v>
       </c>
       <c r="B110" t="n">
-        <v>2.54602</v>
+        <v>2.84377</v>
       </c>
       <c r="C110" t="n">
-        <v>0.896261</v>
+        <v>1.00333</v>
       </c>
       <c r="D110" t="n">
-        <v>1.91167</v>
+        <v>2.15469</v>
       </c>
     </row>
     <row r="111">
@@ -9206,13 +9206,13 @@
         <v>2002164</v>
       </c>
       <c r="B111" t="n">
-        <v>2.55914</v>
+        <v>2.85214</v>
       </c>
       <c r="C111" t="n">
-        <v>0.903236</v>
+        <v>1.00722</v>
       </c>
       <c r="D111" t="n">
-        <v>1.92923</v>
+        <v>2.16663</v>
       </c>
     </row>
     <row r="112">
@@ -9220,13 +9220,13 @@
         <v>2102198</v>
       </c>
       <c r="B112" t="n">
-        <v>2.57038</v>
+        <v>2.87172</v>
       </c>
       <c r="C112" t="n">
-        <v>0.912428</v>
+        <v>1.01891</v>
       </c>
       <c r="D112" t="n">
-        <v>1.94305</v>
+        <v>2.16765</v>
       </c>
     </row>
     <row r="113">
@@ -9234,13 +9234,13 @@
         <v>2207233</v>
       </c>
       <c r="B113" t="n">
-        <v>2.58643</v>
+        <v>2.8859</v>
       </c>
       <c r="C113" t="n">
-        <v>0.922791</v>
+        <v>1.02805</v>
       </c>
       <c r="D113" t="n">
-        <v>1.94445</v>
+        <v>2.17928</v>
       </c>
     </row>
     <row r="114">
@@ -9248,13 +9248,13 @@
         <v>2317508</v>
       </c>
       <c r="B114" t="n">
-        <v>2.60483</v>
+        <v>2.90656</v>
       </c>
       <c r="C114" t="n">
-        <v>0.928891</v>
+        <v>1.04202</v>
       </c>
       <c r="D114" t="n">
-        <v>1.95571</v>
+        <v>2.18606</v>
       </c>
     </row>
     <row r="115">
@@ -9262,13 +9262,13 @@
         <v>2433290</v>
       </c>
       <c r="B115" t="n">
-        <v>2.61641</v>
+        <v>2.91709</v>
       </c>
       <c r="C115" t="n">
-        <v>0.938275</v>
+        <v>1.04544</v>
       </c>
       <c r="D115" t="n">
-        <v>1.9729</v>
+        <v>2.19915</v>
       </c>
     </row>
     <row r="116">
@@ -9276,13 +9276,13 @@
         <v>2554854</v>
       </c>
       <c r="B116" t="n">
-        <v>2.6321</v>
+        <v>2.93388</v>
       </c>
       <c r="C116" t="n">
-        <v>0.949138</v>
+        <v>1.05812</v>
       </c>
       <c r="D116" t="n">
-        <v>1.97191</v>
+        <v>2.2123</v>
       </c>
     </row>
     <row r="117">
@@ -9290,13 +9290,13 @@
         <v>2682511</v>
       </c>
       <c r="B117" t="n">
-        <v>2.64386</v>
+        <v>2.93291</v>
       </c>
       <c r="C117" t="n">
-        <v>0.958575</v>
+        <v>1.0475</v>
       </c>
       <c r="D117" t="n">
-        <v>1.98003</v>
+        <v>2.19546</v>
       </c>
     </row>
     <row r="118">
@@ -9304,13 +9304,13 @@
         <v>2816546</v>
       </c>
       <c r="B118" t="n">
-        <v>2.65859</v>
+        <v>2.9353</v>
       </c>
       <c r="C118" t="n">
-        <v>0.970533</v>
+        <v>1.06757</v>
       </c>
       <c r="D118" t="n">
-        <v>1.99286</v>
+        <v>2.20878</v>
       </c>
     </row>
     <row r="119">
@@ -9318,13 +9318,13 @@
         <v>2957287</v>
       </c>
       <c r="B119" t="n">
-        <v>2.67404</v>
+        <v>2.95209</v>
       </c>
       <c r="C119" t="n">
-        <v>0.982353</v>
+        <v>1.07686</v>
       </c>
       <c r="D119" t="n">
-        <v>2.00452</v>
+        <v>2.21031</v>
       </c>
     </row>
   </sheetData>
@@ -9372,13 +9372,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.555022</v>
+        <v>0.552919</v>
       </c>
       <c r="C2" t="n">
-        <v>0.302264</v>
+        <v>0.415378</v>
       </c>
       <c r="D2" t="n">
-        <v>0.343763</v>
+        <v>0.342392</v>
       </c>
     </row>
     <row r="3">
@@ -9386,13 +9386,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.557663</v>
+        <v>0.5556449999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>0.309433</v>
+        <v>0.421125</v>
       </c>
       <c r="D3" t="n">
-        <v>0.342185</v>
+        <v>0.346589</v>
       </c>
     </row>
     <row r="4">
@@ -9400,13 +9400,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.56308</v>
+        <v>0.567037</v>
       </c>
       <c r="C4" t="n">
-        <v>0.314263</v>
+        <v>0.422853</v>
       </c>
       <c r="D4" t="n">
-        <v>0.347874</v>
+        <v>0.352085</v>
       </c>
     </row>
     <row r="5">
@@ -9414,13 +9414,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.573152</v>
+        <v>0.577228</v>
       </c>
       <c r="C5" t="n">
-        <v>0.316479</v>
+        <v>0.42917</v>
       </c>
       <c r="D5" t="n">
-        <v>0.353798</v>
+        <v>0.359055</v>
       </c>
     </row>
     <row r="6">
@@ -9428,13 +9428,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.580498</v>
+        <v>0.582465</v>
       </c>
       <c r="C6" t="n">
-        <v>0.325572</v>
+        <v>0.441938</v>
       </c>
       <c r="D6" t="n">
-        <v>0.353384</v>
+        <v>0.359959</v>
       </c>
     </row>
     <row r="7">
@@ -9442,13 +9442,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.577048</v>
+        <v>0.58458</v>
       </c>
       <c r="C7" t="n">
-        <v>0.336227</v>
+        <v>0.450257</v>
       </c>
       <c r="D7" t="n">
-        <v>0.367826</v>
+        <v>0.371957</v>
       </c>
     </row>
     <row r="8">
@@ -9456,13 +9456,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.593178</v>
+        <v>0.599322</v>
       </c>
       <c r="C8" t="n">
-        <v>0.337986</v>
+        <v>0.453836</v>
       </c>
       <c r="D8" t="n">
-        <v>0.369481</v>
+        <v>0.382345</v>
       </c>
     </row>
     <row r="9">
@@ -9470,13 +9470,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.6041299999999999</v>
+        <v>0.606262</v>
       </c>
       <c r="C9" t="n">
-        <v>0.340834</v>
+        <v>0.46062</v>
       </c>
       <c r="D9" t="n">
-        <v>0.376953</v>
+        <v>0.384296</v>
       </c>
     </row>
     <row r="10">
@@ -9484,13 +9484,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.613062</v>
+        <v>0.624969</v>
       </c>
       <c r="C10" t="n">
-        <v>0.349486</v>
+        <v>0.465751</v>
       </c>
       <c r="D10" t="n">
-        <v>0.385134</v>
+        <v>0.389571</v>
       </c>
     </row>
     <row r="11">
@@ -9498,13 +9498,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.625378</v>
+        <v>0.629177</v>
       </c>
       <c r="C11" t="n">
-        <v>0.349209</v>
+        <v>0.465827</v>
       </c>
       <c r="D11" t="n">
-        <v>0.388157</v>
+        <v>0.395348</v>
       </c>
     </row>
     <row r="12">
@@ -9512,13 +9512,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.6285539999999999</v>
+        <v>0.630101</v>
       </c>
       <c r="C12" t="n">
-        <v>0.356209</v>
+        <v>0.469385</v>
       </c>
       <c r="D12" t="n">
-        <v>0.396207</v>
+        <v>0.400065</v>
       </c>
     </row>
     <row r="13">
@@ -9526,13 +9526,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.641126</v>
+        <v>0.637944</v>
       </c>
       <c r="C13" t="n">
-        <v>0.357276</v>
+        <v>0.473899</v>
       </c>
       <c r="D13" t="n">
-        <v>0.402676</v>
+        <v>0.40848</v>
       </c>
     </row>
     <row r="14">
@@ -9540,13 +9540,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.6488120000000001</v>
+        <v>0.654175</v>
       </c>
       <c r="C14" t="n">
-        <v>0.358975</v>
+        <v>0.477624</v>
       </c>
       <c r="D14" t="n">
-        <v>0.406794</v>
+        <v>0.413293</v>
       </c>
     </row>
     <row r="15">
@@ -9554,13 +9554,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.657104</v>
+        <v>0.661204</v>
       </c>
       <c r="C15" t="n">
-        <v>0.368472</v>
+        <v>0.48238</v>
       </c>
       <c r="D15" t="n">
-        <v>0.413992</v>
+        <v>0.417934</v>
       </c>
     </row>
     <row r="16">
@@ -9568,13 +9568,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.6622749999999999</v>
+        <v>0.663419</v>
       </c>
       <c r="C16" t="n">
-        <v>0.370592</v>
+        <v>0.488068</v>
       </c>
       <c r="D16" t="n">
-        <v>0.413873</v>
+        <v>0.422906</v>
       </c>
     </row>
     <row r="17">
@@ -9582,13 +9582,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.669729</v>
+        <v>0.6748</v>
       </c>
       <c r="C17" t="n">
-        <v>0.372983</v>
+        <v>0.490788</v>
       </c>
       <c r="D17" t="n">
-        <v>0.422356</v>
+        <v>0.42553</v>
       </c>
     </row>
     <row r="18">
@@ -9596,13 +9596,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.674732</v>
+        <v>0.679002</v>
       </c>
       <c r="C18" t="n">
-        <v>0.38028</v>
+        <v>0.49787</v>
       </c>
       <c r="D18" t="n">
-        <v>0.427909</v>
+        <v>0.431586</v>
       </c>
     </row>
     <row r="19">
@@ -9610,13 +9610,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.685938</v>
+        <v>0.6884980000000001</v>
       </c>
       <c r="C19" t="n">
-        <v>0.382899</v>
+        <v>0.500929</v>
       </c>
       <c r="D19" t="n">
-        <v>0.433301</v>
+        <v>0.438683</v>
       </c>
     </row>
     <row r="20">
@@ -9624,13 +9624,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.698539</v>
+        <v>0.701828</v>
       </c>
       <c r="C20" t="n">
-        <v>0.391347</v>
+        <v>0.5105420000000001</v>
       </c>
       <c r="D20" t="n">
-        <v>0.439585</v>
+        <v>0.442161</v>
       </c>
     </row>
     <row r="21">
@@ -9638,13 +9638,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.704726</v>
+        <v>0.7078140000000001</v>
       </c>
       <c r="C21" t="n">
-        <v>0.39233</v>
+        <v>0.511946</v>
       </c>
       <c r="D21" t="n">
-        <v>0.446596</v>
+        <v>0.45114</v>
       </c>
     </row>
     <row r="22">
@@ -9652,13 +9652,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.709683</v>
+        <v>0.710591</v>
       </c>
       <c r="C22" t="n">
-        <v>0.396693</v>
+        <v>0.517776</v>
       </c>
       <c r="D22" t="n">
-        <v>0.448451</v>
+        <v>0.452783</v>
       </c>
     </row>
     <row r="23">
@@ -9666,13 +9666,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.722372</v>
+        <v>0.724118</v>
       </c>
       <c r="C23" t="n">
-        <v>0.397275</v>
+        <v>0.51575</v>
       </c>
       <c r="D23" t="n">
-        <v>0.457707</v>
+        <v>0.460887</v>
       </c>
     </row>
     <row r="24">
@@ -9680,13 +9680,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.726863</v>
+        <v>0.73016</v>
       </c>
       <c r="C24" t="n">
-        <v>0.401875</v>
+        <v>0.524387</v>
       </c>
       <c r="D24" t="n">
-        <v>0.460601</v>
+        <v>0.466574</v>
       </c>
     </row>
     <row r="25">
@@ -9694,13 +9694,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.7429480000000001</v>
+        <v>0.744465</v>
       </c>
       <c r="C25" t="n">
-        <v>0.414608</v>
+        <v>0.537744</v>
       </c>
       <c r="D25" t="n">
-        <v>0.462725</v>
+        <v>0.471691</v>
       </c>
     </row>
     <row r="26">
@@ -9708,13 +9708,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.742764</v>
+        <v>0.7448669999999999</v>
       </c>
       <c r="C26" t="n">
-        <v>0.412077</v>
+        <v>0.534738</v>
       </c>
       <c r="D26" t="n">
-        <v>0.470957</v>
+        <v>0.476196</v>
       </c>
     </row>
     <row r="27">
@@ -9722,13 +9722,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.747936</v>
+        <v>0.7503609999999999</v>
       </c>
       <c r="C27" t="n">
-        <v>0.417535</v>
+        <v>0.541995</v>
       </c>
       <c r="D27" t="n">
-        <v>0.475124</v>
+        <v>0.480208</v>
       </c>
     </row>
     <row r="28">
@@ -9736,13 +9736,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.753982</v>
+        <v>0.75563</v>
       </c>
       <c r="C28" t="n">
-        <v>0.420748</v>
+        <v>0.543907</v>
       </c>
       <c r="D28" t="n">
-        <v>0.475583</v>
+        <v>0.481094</v>
       </c>
     </row>
     <row r="29">
@@ -9750,13 +9750,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.763033</v>
+        <v>0.764566</v>
       </c>
       <c r="C29" t="n">
-        <v>0.425629</v>
+        <v>0.5508</v>
       </c>
       <c r="D29" t="n">
-        <v>0.479444</v>
+        <v>0.486427</v>
       </c>
     </row>
     <row r="30">
@@ -9764,13 +9764,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.771593</v>
+        <v>0.7715649999999999</v>
       </c>
       <c r="C30" t="n">
-        <v>0.433519</v>
+        <v>0.556102</v>
       </c>
       <c r="D30" t="n">
-        <v>0.485874</v>
+        <v>0.491457</v>
       </c>
     </row>
     <row r="31">
@@ -9778,13 +9778,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.779004</v>
+        <v>0.78065</v>
       </c>
       <c r="C31" t="n">
-        <v>0.432135</v>
+        <v>0.556975</v>
       </c>
       <c r="D31" t="n">
-        <v>0.489644</v>
+        <v>0.494693</v>
       </c>
     </row>
     <row r="32">
@@ -9792,13 +9792,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.781383</v>
+        <v>0.782797</v>
       </c>
       <c r="C32" t="n">
-        <v>0.43814</v>
+        <v>0.5609730000000001</v>
       </c>
       <c r="D32" t="n">
-        <v>0.493142</v>
+        <v>0.499105</v>
       </c>
     </row>
     <row r="33">
@@ -9806,13 +9806,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.789788</v>
+        <v>0.791957</v>
       </c>
       <c r="C33" t="n">
-        <v>0.443566</v>
+        <v>0.56271</v>
       </c>
       <c r="D33" t="n">
-        <v>0.496054</v>
+        <v>0.499916</v>
       </c>
     </row>
     <row r="34">
@@ -9820,13 +9820,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.796142</v>
+        <v>0.797827</v>
       </c>
       <c r="C34" t="n">
-        <v>0.445072</v>
+        <v>0.568977</v>
       </c>
       <c r="D34" t="n">
-        <v>0.496973</v>
+        <v>0.502038</v>
       </c>
     </row>
     <row r="35">
@@ -9834,13 +9834,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.799355</v>
+        <v>0.802339</v>
       </c>
       <c r="C35" t="n">
-        <v>0.419139</v>
+        <v>0.542449</v>
       </c>
       <c r="D35" t="n">
-        <v>0.500507</v>
+        <v>0.509907</v>
       </c>
     </row>
     <row r="36">
@@ -9848,13 +9848,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.796551</v>
+        <v>0.798106</v>
       </c>
       <c r="C36" t="n">
-        <v>0.423083</v>
+        <v>0.549973</v>
       </c>
       <c r="D36" t="n">
-        <v>0.502432</v>
+        <v>0.50501</v>
       </c>
     </row>
     <row r="37">
@@ -9862,13 +9862,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.802708</v>
+        <v>0.802414</v>
       </c>
       <c r="C37" t="n">
-        <v>0.426654</v>
+        <v>0.552131</v>
       </c>
       <c r="D37" t="n">
-        <v>0.50381</v>
+        <v>0.511476</v>
       </c>
     </row>
     <row r="38">
@@ -9876,13 +9876,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.803679</v>
+        <v>0.80545</v>
       </c>
       <c r="C38" t="n">
-        <v>0.429268</v>
+        <v>0.5531430000000001</v>
       </c>
       <c r="D38" t="n">
-        <v>0.50904</v>
+        <v>0.515068</v>
       </c>
     </row>
     <row r="39">
@@ -9890,13 +9890,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.809355</v>
+        <v>0.809509</v>
       </c>
       <c r="C39" t="n">
-        <v>0.433748</v>
+        <v>0.558779</v>
       </c>
       <c r="D39" t="n">
-        <v>0.50975</v>
+        <v>0.516672</v>
       </c>
     </row>
     <row r="40">
@@ -9904,13 +9904,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.817079</v>
+        <v>0.817433</v>
       </c>
       <c r="C40" t="n">
-        <v>0.437368</v>
+        <v>0.559662</v>
       </c>
       <c r="D40" t="n">
-        <v>0.516128</v>
+        <v>0.520472</v>
       </c>
     </row>
     <row r="41">
@@ -9918,13 +9918,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.823689</v>
+        <v>0.825124</v>
       </c>
       <c r="C41" t="n">
-        <v>0.441141</v>
+        <v>0.563397</v>
       </c>
       <c r="D41" t="n">
-        <v>0.51701</v>
+        <v>0.519189</v>
       </c>
     </row>
     <row r="42">
@@ -9932,13 +9932,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.823404</v>
+        <v>0.825308</v>
       </c>
       <c r="C42" t="n">
-        <v>0.444081</v>
+        <v>0.56518</v>
       </c>
       <c r="D42" t="n">
-        <v>0.5199859999999999</v>
+        <v>0.524852</v>
       </c>
     </row>
     <row r="43">
@@ -9946,13 +9946,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.831008</v>
+        <v>0.832174</v>
       </c>
       <c r="C43" t="n">
-        <v>0.444566</v>
+        <v>0.5723819999999999</v>
       </c>
       <c r="D43" t="n">
-        <v>0.522157</v>
+        <v>0.525999</v>
       </c>
     </row>
     <row r="44">
@@ -9960,13 +9960,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.831714</v>
+        <v>0.832409</v>
       </c>
       <c r="C44" t="n">
-        <v>0.444856</v>
+        <v>0.567093</v>
       </c>
       <c r="D44" t="n">
-        <v>0.5238429999999999</v>
+        <v>0.528901</v>
       </c>
     </row>
     <row r="45">
@@ -9974,13 +9974,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.836235</v>
+        <v>0.837441</v>
       </c>
       <c r="C45" t="n">
-        <v>0.450218</v>
+        <v>0.57543</v>
       </c>
       <c r="D45" t="n">
-        <v>0.524311</v>
+        <v>0.529811</v>
       </c>
     </row>
     <row r="46">
@@ -9988,13 +9988,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.841261</v>
+        <v>0.842762</v>
       </c>
       <c r="C46" t="n">
-        <v>0.449581</v>
+        <v>0.576671</v>
       </c>
       <c r="D46" t="n">
-        <v>0.526277</v>
+        <v>0.531278</v>
       </c>
     </row>
     <row r="47">
@@ -10002,13 +10002,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.850884</v>
+        <v>0.8523539999999999</v>
       </c>
       <c r="C47" t="n">
-        <v>0.45478</v>
+        <v>0.5817600000000001</v>
       </c>
       <c r="D47" t="n">
-        <v>0.529214</v>
+        <v>0.534442</v>
       </c>
     </row>
     <row r="48">
@@ -10016,13 +10016,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.854124</v>
+        <v>0.85454</v>
       </c>
       <c r="C48" t="n">
-        <v>0.45953</v>
+        <v>0.584555</v>
       </c>
       <c r="D48" t="n">
-        <v>0.530434</v>
+        <v>0.535007</v>
       </c>
     </row>
     <row r="49">
@@ -10030,13 +10030,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.858233</v>
+        <v>0.859298</v>
       </c>
       <c r="C49" t="n">
-        <v>0.459616</v>
+        <v>0.586251</v>
       </c>
       <c r="D49" t="n">
-        <v>0.531961</v>
+        <v>0.536444</v>
       </c>
     </row>
     <row r="50">
@@ -10044,13 +10044,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.864661</v>
+        <v>0.866016</v>
       </c>
       <c r="C50" t="n">
-        <v>0.447163</v>
+        <v>0.5779840000000001</v>
       </c>
       <c r="D50" t="n">
-        <v>0.535017</v>
+        <v>0.537628</v>
       </c>
     </row>
     <row r="51">
@@ -10058,13 +10058,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.844116</v>
+        <v>0.844435</v>
       </c>
       <c r="C51" t="n">
-        <v>0.449575</v>
+        <v>0.5793509999999999</v>
       </c>
       <c r="D51" t="n">
-        <v>0.536713</v>
+        <v>0.536079</v>
       </c>
     </row>
     <row r="52">
@@ -10072,13 +10072,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.845727</v>
+        <v>0.8465510000000001</v>
       </c>
       <c r="C52" t="n">
-        <v>0.452441</v>
+        <v>0.580484</v>
       </c>
       <c r="D52" t="n">
-        <v>0.537749</v>
+        <v>0.542391</v>
       </c>
     </row>
     <row r="53">
@@ -10086,13 +10086,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.851691</v>
+        <v>0.85275</v>
       </c>
       <c r="C53" t="n">
-        <v>0.457021</v>
+        <v>0.588801</v>
       </c>
       <c r="D53" t="n">
-        <v>0.538561</v>
+        <v>0.542586</v>
       </c>
     </row>
     <row r="54">
@@ -10100,13 +10100,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.856254</v>
+        <v>0.857086</v>
       </c>
       <c r="C54" t="n">
-        <v>0.459788</v>
+        <v>0.589315</v>
       </c>
       <c r="D54" t="n">
-        <v>0.540459</v>
+        <v>0.543092</v>
       </c>
     </row>
     <row r="55">
@@ -10114,13 +10114,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.859201</v>
+        <v>0.860222</v>
       </c>
       <c r="C55" t="n">
-        <v>0.461735</v>
+        <v>0.592548</v>
       </c>
       <c r="D55" t="n">
-        <v>0.54225</v>
+        <v>0.5445140000000001</v>
       </c>
     </row>
     <row r="56">
@@ -10128,13 +10128,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.861075</v>
+        <v>0.861741</v>
       </c>
       <c r="C56" t="n">
-        <v>0.461719</v>
+        <v>0.591988</v>
       </c>
       <c r="D56" t="n">
-        <v>0.542978</v>
+        <v>0.544941</v>
       </c>
     </row>
     <row r="57">
@@ -10142,13 +10142,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.866066</v>
+        <v>0.862815</v>
       </c>
       <c r="C57" t="n">
-        <v>0.471728</v>
+        <v>0.602986</v>
       </c>
       <c r="D57" t="n">
-        <v>0.545195</v>
+        <v>0.553692</v>
       </c>
     </row>
     <row r="58">
@@ -10156,13 +10156,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.868965</v>
+        <v>0.875566</v>
       </c>
       <c r="C58" t="n">
-        <v>0.473529</v>
+        <v>0.61019</v>
       </c>
       <c r="D58" t="n">
-        <v>0.545259</v>
+        <v>0.547476</v>
       </c>
     </row>
     <row r="59">
@@ -10170,13 +10170,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.871488</v>
+        <v>0.87013</v>
       </c>
       <c r="C59" t="n">
-        <v>0.480702</v>
+        <v>0.608972</v>
       </c>
       <c r="D59" t="n">
-        <v>0.546777</v>
+        <v>0.551489</v>
       </c>
     </row>
     <row r="60">
@@ -10184,13 +10184,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.878457</v>
+        <v>0.8789360000000001</v>
       </c>
       <c r="C60" t="n">
-        <v>0.482854</v>
+        <v>0.609804</v>
       </c>
       <c r="D60" t="n">
-        <v>0.548805</v>
+        <v>0.553187</v>
       </c>
     </row>
     <row r="61">
@@ -10198,13 +10198,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.880094</v>
+        <v>0.887544</v>
       </c>
       <c r="C61" t="n">
-        <v>0.489049</v>
+        <v>0.625294</v>
       </c>
       <c r="D61" t="n">
-        <v>0.549477</v>
+        <v>0.555347</v>
       </c>
     </row>
     <row r="62">
@@ -10212,13 +10212,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.8859</v>
+        <v>0.895788</v>
       </c>
       <c r="C62" t="n">
-        <v>0.497024</v>
+        <v>0.630661</v>
       </c>
       <c r="D62" t="n">
-        <v>0.550755</v>
+        <v>0.559317</v>
       </c>
     </row>
     <row r="63">
@@ -10226,13 +10226,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.889252</v>
+        <v>0.8933489999999999</v>
       </c>
       <c r="C63" t="n">
-        <v>0.510231</v>
+        <v>0.641452</v>
       </c>
       <c r="D63" t="n">
-        <v>0.553028</v>
+        <v>0.56125</v>
       </c>
     </row>
     <row r="64">
@@ -10240,13 +10240,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.896458</v>
+        <v>0.899868</v>
       </c>
       <c r="C64" t="n">
-        <v>0.555825</v>
+        <v>0.6705719999999999</v>
       </c>
       <c r="D64" t="n">
-        <v>0.5928330000000001</v>
+        <v>0.565062</v>
       </c>
     </row>
     <row r="65">
@@ -10254,13 +10254,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.94069</v>
+        <v>0.868924</v>
       </c>
       <c r="C65" t="n">
-        <v>0.570061</v>
+        <v>0.647354</v>
       </c>
       <c r="D65" t="n">
-        <v>0.601761</v>
+        <v>0.582164</v>
       </c>
     </row>
     <row r="66">
@@ -10268,13 +10268,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.957807</v>
+        <v>0.897788</v>
       </c>
       <c r="C66" t="n">
-        <v>0.58858</v>
+        <v>0.7015980000000001</v>
       </c>
       <c r="D66" t="n">
-        <v>0.608722</v>
+        <v>0.5819839999999999</v>
       </c>
     </row>
     <row r="67">
@@ -10282,13 +10282,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.973172</v>
+        <v>0.920475</v>
       </c>
       <c r="C67" t="n">
-        <v>0.6074619999999999</v>
+        <v>0.7318249999999999</v>
       </c>
       <c r="D67" t="n">
-        <v>0.629754</v>
+        <v>0.585593</v>
       </c>
     </row>
     <row r="68">
@@ -10296,13 +10296,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.999396</v>
+        <v>0.919899</v>
       </c>
       <c r="C68" t="n">
-        <v>0.630427</v>
+        <v>0.7408400000000001</v>
       </c>
       <c r="D68" t="n">
-        <v>0.633742</v>
+        <v>0.625566</v>
       </c>
     </row>
     <row r="69">
@@ -10310,13 +10310,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>1.00968</v>
+        <v>0.993506</v>
       </c>
       <c r="C69" t="n">
-        <v>0.647377</v>
+        <v>0.769038</v>
       </c>
       <c r="D69" t="n">
-        <v>0.655786</v>
+        <v>0.647205</v>
       </c>
     </row>
     <row r="70">
@@ -10324,13 +10324,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>1.03712</v>
+        <v>0.9539339999999999</v>
       </c>
       <c r="C70" t="n">
-        <v>0.677651</v>
+        <v>0.795924</v>
       </c>
       <c r="D70" t="n">
-        <v>0.666396</v>
+        <v>0.615766</v>
       </c>
     </row>
     <row r="71">
@@ -10338,13 +10338,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>1.07334</v>
+        <v>0.986061</v>
       </c>
       <c r="C71" t="n">
-        <v>0.716044</v>
+        <v>0.828834</v>
       </c>
       <c r="D71" t="n">
-        <v>0.686009</v>
+        <v>0.690839</v>
       </c>
     </row>
     <row r="72">
@@ -10352,13 +10352,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>1.10924</v>
+        <v>1.09138</v>
       </c>
       <c r="C72" t="n">
-        <v>0.73307</v>
+        <v>0.893415</v>
       </c>
       <c r="D72" t="n">
-        <v>0.698585</v>
+        <v>0.702661</v>
       </c>
     </row>
     <row r="73">
@@ -10366,13 +10366,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>1.12912</v>
+        <v>1.12924</v>
       </c>
       <c r="C73" t="n">
-        <v>0.770113</v>
+        <v>0.927951</v>
       </c>
       <c r="D73" t="n">
-        <v>0.727011</v>
+        <v>0.718527</v>
       </c>
     </row>
     <row r="74">
@@ -10380,13 +10380,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.17991</v>
+        <v>1.13192</v>
       </c>
       <c r="C74" t="n">
-        <v>0.802948</v>
+        <v>0.935134</v>
       </c>
       <c r="D74" t="n">
-        <v>0.764697</v>
+        <v>0.739057</v>
       </c>
     </row>
     <row r="75">
@@ -10394,13 +10394,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>1.2166</v>
+        <v>1.19123</v>
       </c>
       <c r="C75" t="n">
-        <v>0.835555</v>
+        <v>0.972395</v>
       </c>
       <c r="D75" t="n">
-        <v>0.788652</v>
+        <v>0.746957</v>
       </c>
     </row>
     <row r="76">
@@ -10408,13 +10408,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>1.28065</v>
+        <v>1.21152</v>
       </c>
       <c r="C76" t="n">
-        <v>0.882682</v>
+        <v>1.01767</v>
       </c>
       <c r="D76" t="n">
-        <v>0.831151</v>
+        <v>0.785108</v>
       </c>
     </row>
     <row r="77">
@@ -10422,13 +10422,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>1.33666</v>
+        <v>1.27229</v>
       </c>
       <c r="C77" t="n">
-        <v>0.914844</v>
+        <v>1.05506</v>
       </c>
       <c r="D77" t="n">
-        <v>0.863806</v>
+        <v>0.833384</v>
       </c>
     </row>
     <row r="78">
@@ -10436,13 +10436,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>1.40143</v>
+        <v>1.34063</v>
       </c>
       <c r="C78" t="n">
-        <v>1.06019</v>
+        <v>1.26536</v>
       </c>
       <c r="D78" t="n">
-        <v>1.00776</v>
+        <v>0.991954</v>
       </c>
     </row>
     <row r="79">
@@ -10450,13 +10450,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.59998</v>
+        <v>1.54318</v>
       </c>
       <c r="C79" t="n">
-        <v>1.09738</v>
+        <v>1.31033</v>
       </c>
       <c r="D79" t="n">
-        <v>1.05514</v>
+        <v>1.06795</v>
       </c>
     </row>
     <row r="80">
@@ -10464,13 +10464,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.67151</v>
+        <v>1.6851</v>
       </c>
       <c r="C80" t="n">
-        <v>1.13881</v>
+        <v>1.35419</v>
       </c>
       <c r="D80" t="n">
-        <v>1.10878</v>
+        <v>1.11981</v>
       </c>
     </row>
     <row r="81">
@@ -10478,13 +10478,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.7496</v>
+        <v>1.77385</v>
       </c>
       <c r="C81" t="n">
-        <v>1.17661</v>
+        <v>1.39742</v>
       </c>
       <c r="D81" t="n">
-        <v>1.16264</v>
+        <v>1.17252</v>
       </c>
     </row>
     <row r="82">
@@ -10492,13 +10492,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.83698</v>
+        <v>1.94308</v>
       </c>
       <c r="C82" t="n">
-        <v>1.2172</v>
+        <v>1.56341</v>
       </c>
       <c r="D82" t="n">
-        <v>1.2305</v>
+        <v>1.31029</v>
       </c>
     </row>
     <row r="83">
@@ -10506,13 +10506,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.92625</v>
+        <v>2.04552</v>
       </c>
       <c r="C83" t="n">
-        <v>1.25903</v>
+        <v>1.61849</v>
       </c>
       <c r="D83" t="n">
-        <v>1.28055</v>
+        <v>1.3802</v>
       </c>
     </row>
     <row r="84">
@@ -10520,13 +10520,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>2.01211</v>
+        <v>2.17275</v>
       </c>
       <c r="C84" t="n">
-        <v>1.29585</v>
+        <v>1.68008</v>
       </c>
       <c r="D84" t="n">
-        <v>1.32943</v>
+        <v>1.45126</v>
       </c>
     </row>
     <row r="85">
@@ -10534,13 +10534,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>2.09393</v>
+        <v>2.25948</v>
       </c>
       <c r="C85" t="n">
-        <v>1.33726</v>
+        <v>1.7233</v>
       </c>
       <c r="D85" t="n">
-        <v>1.38479</v>
+        <v>1.51395</v>
       </c>
     </row>
     <row r="86">
@@ -10548,13 +10548,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>2.17678</v>
+        <v>2.36994</v>
       </c>
       <c r="C86" t="n">
-        <v>1.37503</v>
+        <v>1.77487</v>
       </c>
       <c r="D86" t="n">
-        <v>1.4417</v>
+        <v>1.56681</v>
       </c>
     </row>
     <row r="87">
@@ -10562,13 +10562,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>2.26755</v>
+        <v>2.43216</v>
       </c>
       <c r="C87" t="n">
-        <v>1.41984</v>
+        <v>1.81846</v>
       </c>
       <c r="D87" t="n">
-        <v>1.49966</v>
+        <v>1.64055</v>
       </c>
     </row>
     <row r="88">
@@ -10576,13 +10576,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>2.35969</v>
+        <v>2.56676</v>
       </c>
       <c r="C88" t="n">
-        <v>1.45837</v>
+        <v>1.87509</v>
       </c>
       <c r="D88" t="n">
-        <v>1.5534</v>
+        <v>1.7147</v>
       </c>
     </row>
     <row r="89">
@@ -10590,13 +10590,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>2.43529</v>
+        <v>2.67914</v>
       </c>
       <c r="C89" t="n">
-        <v>1.49926</v>
+        <v>1.93282</v>
       </c>
       <c r="D89" t="n">
-        <v>1.6108</v>
+        <v>1.77932</v>
       </c>
     </row>
     <row r="90">
@@ -10604,13 +10604,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>2.52313</v>
+        <v>2.78093</v>
       </c>
       <c r="C90" t="n">
-        <v>1.53725</v>
+        <v>1.98894</v>
       </c>
       <c r="D90" t="n">
-        <v>1.66228</v>
+        <v>1.84416</v>
       </c>
     </row>
     <row r="91">
@@ -10618,13 +10618,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>2.60475</v>
+        <v>2.88916</v>
       </c>
       <c r="C91" t="n">
-        <v>1.57842</v>
+        <v>2.04358</v>
       </c>
       <c r="D91" t="n">
-        <v>1.71026</v>
+        <v>1.90686</v>
       </c>
     </row>
     <row r="92">
@@ -10632,13 +10632,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>2.70371</v>
+        <v>2.97989</v>
       </c>
       <c r="C92" t="n">
-        <v>1.66992</v>
+        <v>2.17334</v>
       </c>
       <c r="D92" t="n">
-        <v>1.83199</v>
+        <v>2.04651</v>
       </c>
     </row>
     <row r="93">
@@ -10646,13 +10646,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>2.85653</v>
+        <v>3.15567</v>
       </c>
       <c r="C93" t="n">
-        <v>1.69308</v>
+        <v>2.19275</v>
       </c>
       <c r="D93" t="n">
-        <v>1.87446</v>
+        <v>2.10908</v>
       </c>
     </row>
     <row r="94">
@@ -10660,13 +10660,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>2.92688</v>
+        <v>3.25678</v>
       </c>
       <c r="C94" t="n">
-        <v>1.72283</v>
+        <v>2.25558</v>
       </c>
       <c r="D94" t="n">
-        <v>1.92162</v>
+        <v>2.17006</v>
       </c>
     </row>
     <row r="95">
@@ -10674,13 +10674,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>2.99377</v>
+        <v>3.33877</v>
       </c>
       <c r="C95" t="n">
-        <v>1.75684</v>
+        <v>2.30137</v>
       </c>
       <c r="D95" t="n">
-        <v>1.97355</v>
+        <v>2.22091</v>
       </c>
     </row>
     <row r="96">
@@ -10688,13 +10688,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>3.07526</v>
+        <v>3.41276</v>
       </c>
       <c r="C96" t="n">
-        <v>1.79059</v>
+        <v>2.3472</v>
       </c>
       <c r="D96" t="n">
-        <v>2.01277</v>
+        <v>2.27282</v>
       </c>
     </row>
     <row r="97">
@@ -10702,13 +10702,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>3.13567</v>
+        <v>3.49671</v>
       </c>
       <c r="C97" t="n">
-        <v>1.8247</v>
+        <v>2.38519</v>
       </c>
       <c r="D97" t="n">
-        <v>2.06389</v>
+        <v>2.32257</v>
       </c>
     </row>
     <row r="98">
@@ -10716,13 +10716,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>3.21686</v>
+        <v>3.5689</v>
       </c>
       <c r="C98" t="n">
-        <v>1.85463</v>
+        <v>2.41698</v>
       </c>
       <c r="D98" t="n">
-        <v>2.09534</v>
+        <v>2.37443</v>
       </c>
     </row>
     <row r="99">
@@ -10730,13 +10730,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>3.27705</v>
+        <v>3.64844</v>
       </c>
       <c r="C99" t="n">
-        <v>1.89956</v>
+        <v>2.47896</v>
       </c>
       <c r="D99" t="n">
-        <v>2.13416</v>
+        <v>2.41757</v>
       </c>
     </row>
     <row r="100">
@@ -10744,13 +10744,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>3.33424</v>
+        <v>3.71067</v>
       </c>
       <c r="C100" t="n">
-        <v>1.93046</v>
+        <v>2.50379</v>
       </c>
       <c r="D100" t="n">
-        <v>2.16875</v>
+        <v>2.46964</v>
       </c>
     </row>
     <row r="101">
@@ -10758,13 +10758,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>3.41215</v>
+        <v>3.78944</v>
       </c>
       <c r="C101" t="n">
-        <v>1.96044</v>
+        <v>2.53919</v>
       </c>
       <c r="D101" t="n">
-        <v>2.21339</v>
+        <v>2.49862</v>
       </c>
     </row>
     <row r="102">
@@ -10772,13 +10772,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>3.45576</v>
+        <v>3.85892</v>
       </c>
       <c r="C102" t="n">
-        <v>1.9867</v>
+        <v>2.57516</v>
       </c>
       <c r="D102" t="n">
-        <v>2.24602</v>
+        <v>2.54758</v>
       </c>
     </row>
     <row r="103">
@@ -10786,13 +10786,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>3.51453</v>
+        <v>3.92007</v>
       </c>
       <c r="C103" t="n">
-        <v>2.01884</v>
+        <v>2.61143</v>
       </c>
       <c r="D103" t="n">
-        <v>2.26094</v>
+        <v>2.59592</v>
       </c>
     </row>
     <row r="104">
@@ -10800,13 +10800,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>3.55179</v>
+        <v>3.9901</v>
       </c>
       <c r="C104" t="n">
-        <v>2.04219</v>
+        <v>2.65696</v>
       </c>
       <c r="D104" t="n">
-        <v>2.2925</v>
+        <v>2.6367</v>
       </c>
     </row>
     <row r="105">
@@ -10814,13 +10814,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>3.62192</v>
+        <v>4.12398</v>
       </c>
       <c r="C105" t="n">
-        <v>2.08629</v>
+        <v>2.72873</v>
       </c>
       <c r="D105" t="n">
-        <v>2.34357</v>
+        <v>2.66321</v>
       </c>
     </row>
     <row r="106">
@@ -10828,13 +10828,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>3.67451</v>
+        <v>4.1986</v>
       </c>
       <c r="C106" t="n">
-        <v>2.11437</v>
+        <v>2.76494</v>
       </c>
       <c r="D106" t="n">
-        <v>2.35878</v>
+        <v>2.69697</v>
       </c>
     </row>
     <row r="107">
@@ -10842,13 +10842,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>3.68577</v>
+        <v>4.25786</v>
       </c>
       <c r="C107" t="n">
-        <v>2.08141</v>
+        <v>2.79321</v>
       </c>
       <c r="D107" t="n">
-        <v>2.43415</v>
+        <v>2.85203</v>
       </c>
     </row>
     <row r="108">
@@ -10856,13 +10856,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>3.72218</v>
+        <v>4.32008</v>
       </c>
       <c r="C108" t="n">
-        <v>2.10085</v>
+        <v>2.7937</v>
       </c>
       <c r="D108" t="n">
-        <v>2.45251</v>
+        <v>2.84518</v>
       </c>
     </row>
     <row r="109">
@@ -10870,13 +10870,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>3.77967</v>
+        <v>4.38017</v>
       </c>
       <c r="C109" t="n">
-        <v>2.13768</v>
+        <v>2.83562</v>
       </c>
       <c r="D109" t="n">
-        <v>2.46978</v>
+        <v>2.86387</v>
       </c>
     </row>
     <row r="110">
@@ -10884,13 +10884,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>3.82136</v>
+        <v>4.4305</v>
       </c>
       <c r="C110" t="n">
-        <v>2.17411</v>
+        <v>2.86192</v>
       </c>
       <c r="D110" t="n">
-        <v>2.50789</v>
+        <v>2.87603</v>
       </c>
     </row>
     <row r="111">
@@ -10898,13 +10898,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>3.8691</v>
+        <v>4.44627</v>
       </c>
       <c r="C111" t="n">
-        <v>2.18853</v>
+        <v>2.85879</v>
       </c>
       <c r="D111" t="n">
-        <v>2.53698</v>
+        <v>2.94549</v>
       </c>
     </row>
     <row r="112">
@@ -10912,13 +10912,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>3.90545</v>
+        <v>4.47237</v>
       </c>
       <c r="C112" t="n">
-        <v>2.20026</v>
+        <v>2.90258</v>
       </c>
       <c r="D112" t="n">
-        <v>2.55118</v>
+        <v>2.9397</v>
       </c>
     </row>
     <row r="113">
@@ -10926,13 +10926,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>3.9537</v>
+        <v>4.53789</v>
       </c>
       <c r="C113" t="n">
-        <v>2.23592</v>
+        <v>2.93528</v>
       </c>
       <c r="D113" t="n">
-        <v>2.58273</v>
+        <v>2.97973</v>
       </c>
     </row>
     <row r="114">
@@ -10940,13 +10940,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>3.99097</v>
+        <v>4.59471</v>
       </c>
       <c r="C114" t="n">
-        <v>2.2702</v>
+        <v>2.97516</v>
       </c>
       <c r="D114" t="n">
-        <v>2.59654</v>
+        <v>3.00525</v>
       </c>
     </row>
     <row r="115">
@@ -10954,13 +10954,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>4.03501</v>
+        <v>4.66306</v>
       </c>
       <c r="C115" t="n">
-        <v>2.29399</v>
+        <v>2.99112</v>
       </c>
       <c r="D115" t="n">
-        <v>2.6236</v>
+        <v>3.03668</v>
       </c>
     </row>
     <row r="116">
@@ -10968,13 +10968,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>4.08548</v>
+        <v>4.69096</v>
       </c>
       <c r="C116" t="n">
-        <v>2.32216</v>
+        <v>3.02498</v>
       </c>
       <c r="D116" t="n">
-        <v>2.64317</v>
+        <v>3.02938</v>
       </c>
     </row>
     <row r="117">
@@ -10982,13 +10982,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>4.12379</v>
+        <v>4.66171</v>
       </c>
       <c r="C117" t="n">
-        <v>2.33585</v>
+        <v>2.98312</v>
       </c>
       <c r="D117" t="n">
-        <v>2.66453</v>
+        <v>2.77454</v>
       </c>
     </row>
     <row r="118">
@@ -10996,13 +10996,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>4.17319</v>
+        <v>4.25254</v>
       </c>
       <c r="C118" t="n">
-        <v>2.37858</v>
+        <v>3.03468</v>
       </c>
       <c r="D118" t="n">
-        <v>2.6893</v>
+        <v>3.09217</v>
       </c>
     </row>
     <row r="119">
@@ -11010,13 +11010,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>4.21065</v>
+        <v>4.76647</v>
       </c>
       <c r="C119" t="n">
-        <v>2.37964</v>
+        <v>3.06344</v>
       </c>
       <c r="D119" t="n">
-        <v>2.71214</v>
+        <v>3.09958</v>
       </c>
     </row>
   </sheetData>
@@ -11064,13 +11064,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.580795</v>
+        <v>0.585014</v>
       </c>
       <c r="C2" t="n">
-        <v>0.323793</v>
+        <v>0.439137</v>
       </c>
       <c r="D2" t="n">
-        <v>0.334182</v>
+        <v>0.340603</v>
       </c>
     </row>
     <row r="3">
@@ -11078,13 +11078,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.585933</v>
+        <v>0.591835</v>
       </c>
       <c r="C3" t="n">
-        <v>0.328191</v>
+        <v>0.444839</v>
       </c>
       <c r="D3" t="n">
-        <v>0.337944</v>
+        <v>0.345545</v>
       </c>
     </row>
     <row r="4">
@@ -11092,13 +11092,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.59592</v>
+        <v>0.6032920000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>0.333168</v>
+        <v>0.450599</v>
       </c>
       <c r="D4" t="n">
-        <v>0.342359</v>
+        <v>0.350305</v>
       </c>
     </row>
     <row r="5">
@@ -11106,13 +11106,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.601788</v>
+        <v>0.608273</v>
       </c>
       <c r="C5" t="n">
-        <v>0.343387</v>
+        <v>0.461612</v>
       </c>
       <c r="D5" t="n">
-        <v>0.346577</v>
+        <v>0.352845</v>
       </c>
     </row>
     <row r="6">
@@ -11120,13 +11120,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.611351</v>
+        <v>0.619049</v>
       </c>
       <c r="C6" t="n">
-        <v>0.343643</v>
+        <v>0.464752</v>
       </c>
       <c r="D6" t="n">
-        <v>0.346829</v>
+        <v>0.35458</v>
       </c>
     </row>
     <row r="7">
@@ -11134,13 +11134,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.616</v>
+        <v>0.624661</v>
       </c>
       <c r="C7" t="n">
-        <v>0.355334</v>
+        <v>0.475391</v>
       </c>
       <c r="D7" t="n">
-        <v>0.354796</v>
+        <v>0.361902</v>
       </c>
     </row>
     <row r="8">
@@ -11148,13 +11148,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.627758</v>
+        <v>0.637602</v>
       </c>
       <c r="C8" t="n">
-        <v>0.363968</v>
+        <v>0.484568</v>
       </c>
       <c r="D8" t="n">
-        <v>0.357776</v>
+        <v>0.365586</v>
       </c>
     </row>
     <row r="9">
@@ -11162,13 +11162,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.636655</v>
+        <v>0.6472909999999999</v>
       </c>
       <c r="C9" t="n">
-        <v>0.370773</v>
+        <v>0.496297</v>
       </c>
       <c r="D9" t="n">
-        <v>0.362729</v>
+        <v>0.370923</v>
       </c>
     </row>
     <row r="10">
@@ -11176,13 +11176,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.653138</v>
+        <v>0.663359</v>
       </c>
       <c r="C10" t="n">
-        <v>0.38152</v>
+        <v>0.505794</v>
       </c>
       <c r="D10" t="n">
-        <v>0.369004</v>
+        <v>0.377181</v>
       </c>
     </row>
     <row r="11">
@@ -11190,13 +11190,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.6602479999999999</v>
+        <v>0.669149</v>
       </c>
       <c r="C11" t="n">
-        <v>0.37023</v>
+        <v>0.489393</v>
       </c>
       <c r="D11" t="n">
-        <v>0.377205</v>
+        <v>0.37918</v>
       </c>
     </row>
     <row r="12">
@@ -11204,13 +11204,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.645366</v>
+        <v>0.649917</v>
       </c>
       <c r="C12" t="n">
-        <v>0.374283</v>
+        <v>0.491168</v>
       </c>
       <c r="D12" t="n">
-        <v>0.384093</v>
+        <v>0.387414</v>
       </c>
     </row>
     <row r="13">
@@ -11218,13 +11218,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.655904</v>
+        <v>0.661168</v>
       </c>
       <c r="C13" t="n">
-        <v>0.382508</v>
+        <v>0.496532</v>
       </c>
       <c r="D13" t="n">
-        <v>0.391165</v>
+        <v>0.394178</v>
       </c>
     </row>
     <row r="14">
@@ -11232,13 +11232,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.664786</v>
+        <v>0.6694</v>
       </c>
       <c r="C14" t="n">
-        <v>0.38996</v>
+        <v>0.509011</v>
       </c>
       <c r="D14" t="n">
-        <v>0.394551</v>
+        <v>0.398668</v>
       </c>
     </row>
     <row r="15">
@@ -11246,13 +11246,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.68425</v>
+        <v>0.683494</v>
       </c>
       <c r="C15" t="n">
-        <v>0.402965</v>
+        <v>0.51539</v>
       </c>
       <c r="D15" t="n">
-        <v>0.405835</v>
+        <v>0.406297</v>
       </c>
     </row>
     <row r="16">
@@ -11260,13 +11260,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.690617</v>
+        <v>0.694341</v>
       </c>
       <c r="C16" t="n">
-        <v>0.411084</v>
+        <v>0.524888</v>
       </c>
       <c r="D16" t="n">
-        <v>0.410367</v>
+        <v>0.411231</v>
       </c>
     </row>
     <row r="17">
@@ -11274,13 +11274,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.7087830000000001</v>
+        <v>0.703739</v>
       </c>
       <c r="C17" t="n">
-        <v>0.417062</v>
+        <v>0.531178</v>
       </c>
       <c r="D17" t="n">
-        <v>0.415392</v>
+        <v>0.413539</v>
       </c>
     </row>
     <row r="18">
@@ -11288,13 +11288,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.718309</v>
+        <v>0.71719</v>
       </c>
       <c r="C18" t="n">
-        <v>0.419201</v>
+        <v>0.5392400000000001</v>
       </c>
       <c r="D18" t="n">
-        <v>0.419033</v>
+        <v>0.421348</v>
       </c>
     </row>
     <row r="19">
@@ -11302,13 +11302,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.73251</v>
+        <v>0.729251</v>
       </c>
       <c r="C19" t="n">
-        <v>0.438572</v>
+        <v>0.55601</v>
       </c>
       <c r="D19" t="n">
-        <v>0.42668</v>
+        <v>0.425862</v>
       </c>
     </row>
     <row r="20">
@@ -11316,13 +11316,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.747897</v>
+        <v>0.74476</v>
       </c>
       <c r="C20" t="n">
-        <v>0.448492</v>
+        <v>0.562657</v>
       </c>
       <c r="D20" t="n">
-        <v>0.431962</v>
+        <v>0.431297</v>
       </c>
     </row>
     <row r="21">
@@ -11330,13 +11330,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.759771</v>
+        <v>0.753332</v>
       </c>
       <c r="C21" t="n">
-        <v>0.463395</v>
+        <v>0.572977</v>
       </c>
       <c r="D21" t="n">
-        <v>0.43714</v>
+        <v>0.437626</v>
       </c>
     </row>
     <row r="22">
@@ -11344,13 +11344,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.766693</v>
+        <v>0.765015</v>
       </c>
       <c r="C22" t="n">
-        <v>0.467482</v>
+        <v>0.585129</v>
       </c>
       <c r="D22" t="n">
-        <v>0.441736</v>
+        <v>0.443061</v>
       </c>
     </row>
     <row r="23">
@@ -11358,13 +11358,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.787233</v>
+        <v>0.787092</v>
       </c>
       <c r="C23" t="n">
-        <v>0.478433</v>
+        <v>0.6002420000000001</v>
       </c>
       <c r="D23" t="n">
-        <v>0.448657</v>
+        <v>0.451283</v>
       </c>
     </row>
     <row r="24">
@@ -11372,13 +11372,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.79979</v>
+        <v>0.80018</v>
       </c>
       <c r="C24" t="n">
-        <v>0.486347</v>
+        <v>0.6071530000000001</v>
       </c>
       <c r="D24" t="n">
-        <v>0.450425</v>
+        <v>0.453226</v>
       </c>
     </row>
     <row r="25">
@@ -11386,13 +11386,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.811921</v>
+        <v>0.810607</v>
       </c>
       <c r="C25" t="n">
-        <v>0.504758</v>
+        <v>0.619793</v>
       </c>
       <c r="D25" t="n">
-        <v>0.457191</v>
+        <v>0.459521</v>
       </c>
     </row>
     <row r="26">
@@ -11400,13 +11400,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.828969</v>
+        <v>0.829922</v>
       </c>
       <c r="C26" t="n">
-        <v>0.4407</v>
+        <v>0.5579229999999999</v>
       </c>
       <c r="D26" t="n">
-        <v>0.463897</v>
+        <v>0.4656</v>
       </c>
     </row>
     <row r="27">
@@ -11414,13 +11414,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.7921859999999999</v>
+        <v>0.791005</v>
       </c>
       <c r="C27" t="n">
-        <v>0.44907</v>
+        <v>0.564324</v>
       </c>
       <c r="D27" t="n">
-        <v>0.468251</v>
+        <v>0.469607</v>
       </c>
     </row>
     <row r="28">
@@ -11428,13 +11428,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.80077</v>
+        <v>0.800195</v>
       </c>
       <c r="C28" t="n">
-        <v>0.454559</v>
+        <v>0.5703780000000001</v>
       </c>
       <c r="D28" t="n">
-        <v>0.471565</v>
+        <v>0.474737</v>
       </c>
     </row>
     <row r="29">
@@ -11442,13 +11442,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.8130309999999999</v>
+        <v>0.811824</v>
       </c>
       <c r="C29" t="n">
-        <v>0.457546</v>
+        <v>0.576385</v>
       </c>
       <c r="D29" t="n">
-        <v>0.475642</v>
+        <v>0.478073</v>
       </c>
     </row>
     <row r="30">
@@ -11456,13 +11456,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.8233819999999999</v>
+        <v>0.82263</v>
       </c>
       <c r="C30" t="n">
-        <v>0.46892</v>
+        <v>0.585805</v>
       </c>
       <c r="D30" t="n">
-        <v>0.480615</v>
+        <v>0.483019</v>
       </c>
     </row>
     <row r="31">
@@ -11470,13 +11470,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.836512</v>
+        <v>0.834744</v>
       </c>
       <c r="C31" t="n">
-        <v>0.474782</v>
+        <v>0.596015</v>
       </c>
       <c r="D31" t="n">
-        <v>0.485003</v>
+        <v>0.486558</v>
       </c>
     </row>
     <row r="32">
@@ -11484,13 +11484,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.849164</v>
+        <v>0.849167</v>
       </c>
       <c r="C32" t="n">
-        <v>0.484826</v>
+        <v>0.605625</v>
       </c>
       <c r="D32" t="n">
-        <v>0.48776</v>
+        <v>0.490624</v>
       </c>
     </row>
     <row r="33">
@@ -11498,13 +11498,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.857371</v>
+        <v>0.860004</v>
       </c>
       <c r="C33" t="n">
-        <v>0.49211</v>
+        <v>0.612303</v>
       </c>
       <c r="D33" t="n">
-        <v>0.491791</v>
+        <v>0.494615</v>
       </c>
     </row>
     <row r="34">
@@ -11512,13 +11512,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.871646</v>
+        <v>0.872459</v>
       </c>
       <c r="C34" t="n">
-        <v>0.501705</v>
+        <v>0.624497</v>
       </c>
       <c r="D34" t="n">
-        <v>0.494983</v>
+        <v>0.498103</v>
       </c>
     </row>
     <row r="35">
@@ -11526,13 +11526,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.885594</v>
+        <v>0.883971</v>
       </c>
       <c r="C35" t="n">
-        <v>0.51208</v>
+        <v>0.631355</v>
       </c>
       <c r="D35" t="n">
-        <v>0.49842</v>
+        <v>0.503525</v>
       </c>
     </row>
     <row r="36">
@@ -11540,13 +11540,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.897914</v>
+        <v>0.898039</v>
       </c>
       <c r="C36" t="n">
-        <v>0.525069</v>
+        <v>0.64512</v>
       </c>
       <c r="D36" t="n">
-        <v>0.50087</v>
+        <v>0.5030210000000001</v>
       </c>
     </row>
     <row r="37">
@@ -11554,13 +11554,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.909626</v>
+        <v>0.911296</v>
       </c>
       <c r="C37" t="n">
-        <v>0.5352440000000001</v>
+        <v>0.658474</v>
       </c>
       <c r="D37" t="n">
-        <v>0.50306</v>
+        <v>0.509756</v>
       </c>
     </row>
     <row r="38">
@@ -11568,13 +11568,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.9266450000000001</v>
+        <v>0.926016</v>
       </c>
       <c r="C38" t="n">
-        <v>0.54517</v>
+        <v>0.667878</v>
       </c>
       <c r="D38" t="n">
-        <v>0.506583</v>
+        <v>0.508405</v>
       </c>
     </row>
     <row r="39">
@@ -11582,13 +11582,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.9378300000000001</v>
+        <v>0.937466</v>
       </c>
       <c r="C39" t="n">
-        <v>0.5589</v>
+        <v>0.679268</v>
       </c>
       <c r="D39" t="n">
-        <v>0.509475</v>
+        <v>0.511675</v>
       </c>
     </row>
     <row r="40">
@@ -11596,13 +11596,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.952641</v>
+        <v>0.951882</v>
       </c>
       <c r="C40" t="n">
-        <v>0.5043570000000001</v>
+        <v>0.616557</v>
       </c>
       <c r="D40" t="n">
-        <v>0.513588</v>
+        <v>0.514332</v>
       </c>
     </row>
     <row r="41">
@@ -11610,13 +11610,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.8834959999999999</v>
+        <v>0.88323</v>
       </c>
       <c r="C41" t="n">
-        <v>0.509673</v>
+        <v>0.620861</v>
       </c>
       <c r="D41" t="n">
-        <v>0.517366</v>
+        <v>0.518223</v>
       </c>
     </row>
     <row r="42">
@@ -11624,13 +11624,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.896408</v>
+        <v>0.896776</v>
       </c>
       <c r="C42" t="n">
-        <v>0.519611</v>
+        <v>0.632381</v>
       </c>
       <c r="D42" t="n">
-        <v>0.520326</v>
+        <v>0.5206769999999999</v>
       </c>
     </row>
     <row r="43">
@@ -11638,13 +11638,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.904138</v>
+        <v>0.901536</v>
       </c>
       <c r="C43" t="n">
-        <v>0.523497</v>
+        <v>0.641838</v>
       </c>
       <c r="D43" t="n">
-        <v>0.523304</v>
+        <v>0.521745</v>
       </c>
     </row>
     <row r="44">
@@ -11652,13 +11652,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.910234</v>
+        <v>0.914451</v>
       </c>
       <c r="C44" t="n">
-        <v>0.531801</v>
+        <v>0.651895</v>
       </c>
       <c r="D44" t="n">
-        <v>0.524851</v>
+        <v>0.526819</v>
       </c>
     </row>
     <row r="45">
@@ -11666,13 +11666,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.923994</v>
+        <v>0.924575</v>
       </c>
       <c r="C45" t="n">
-        <v>0.538517</v>
+        <v>0.65824</v>
       </c>
       <c r="D45" t="n">
-        <v>0.526544</v>
+        <v>0.528685</v>
       </c>
     </row>
     <row r="46">
@@ -11680,13 +11680,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.930288</v>
+        <v>0.930172</v>
       </c>
       <c r="C46" t="n">
-        <v>0.550389</v>
+        <v>0.664283</v>
       </c>
       <c r="D46" t="n">
-        <v>0.529227</v>
+        <v>0.531883</v>
       </c>
     </row>
     <row r="47">
@@ -11694,13 +11694,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.941271</v>
+        <v>0.9402700000000001</v>
       </c>
       <c r="C47" t="n">
-        <v>0.55646</v>
+        <v>0.679572</v>
       </c>
       <c r="D47" t="n">
-        <v>0.5297539999999999</v>
+        <v>0.532632</v>
       </c>
     </row>
     <row r="48">
@@ -11708,13 +11708,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.951659</v>
+        <v>0.950955</v>
       </c>
       <c r="C48" t="n">
-        <v>0.565484</v>
+        <v>0.686321</v>
       </c>
       <c r="D48" t="n">
-        <v>0.5315879999999999</v>
+        <v>0.533533</v>
       </c>
     </row>
     <row r="49">
@@ -11722,13 +11722,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.959162</v>
+        <v>0.958968</v>
       </c>
       <c r="C49" t="n">
-        <v>0.573425</v>
+        <v>0.689595</v>
       </c>
       <c r="D49" t="n">
-        <v>0.535079</v>
+        <v>0.5363019999999999</v>
       </c>
     </row>
     <row r="50">
@@ -11736,13 +11736,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.973046</v>
+        <v>0.976708</v>
       </c>
       <c r="C50" t="n">
-        <v>0.582534</v>
+        <v>0.705512</v>
       </c>
       <c r="D50" t="n">
-        <v>0.537291</v>
+        <v>0.540512</v>
       </c>
     </row>
     <row r="51">
@@ -11750,13 +11750,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.9807090000000001</v>
+        <v>0.983551</v>
       </c>
       <c r="C51" t="n">
-        <v>0.5952460000000001</v>
+        <v>0.7167750000000001</v>
       </c>
       <c r="D51" t="n">
-        <v>0.537026</v>
+        <v>0.539561</v>
       </c>
     </row>
     <row r="52">
@@ -11764,13 +11764,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.996319</v>
+        <v>0.998882</v>
       </c>
       <c r="C52" t="n">
-        <v>0.607245</v>
+        <v>0.730602</v>
       </c>
       <c r="D52" t="n">
-        <v>0.540185</v>
+        <v>0.543619</v>
       </c>
     </row>
     <row r="53">
@@ -11778,13 +11778,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>1.00377</v>
+        <v>1.00535</v>
       </c>
       <c r="C53" t="n">
-        <v>0.613824</v>
+        <v>0.73949</v>
       </c>
       <c r="D53" t="n">
-        <v>0.53916</v>
+        <v>0.541866</v>
       </c>
     </row>
     <row r="54">
@@ -11792,13 +11792,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>1.01685</v>
+        <v>1.01563</v>
       </c>
       <c r="C54" t="n">
-        <v>0.546679</v>
+        <v>0.669399</v>
       </c>
       <c r="D54" t="n">
-        <v>0.5430430000000001</v>
+        <v>0.5444639999999999</v>
       </c>
     </row>
     <row r="55">
@@ -11806,13 +11806,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.942037</v>
+        <v>0.940978</v>
       </c>
       <c r="C55" t="n">
-        <v>0.54849</v>
+        <v>0.674222</v>
       </c>
       <c r="D55" t="n">
-        <v>0.545112</v>
+        <v>0.545882</v>
       </c>
     </row>
     <row r="56">
@@ -11820,13 +11820,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.949883</v>
+        <v>0.9502660000000001</v>
       </c>
       <c r="C56" t="n">
-        <v>0.557863</v>
+        <v>0.683238</v>
       </c>
       <c r="D56" t="n">
-        <v>0.546192</v>
+        <v>0.548843</v>
       </c>
     </row>
     <row r="57">
@@ -11834,13 +11834,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.957527</v>
+        <v>0.958628</v>
       </c>
       <c r="C57" t="n">
-        <v>0.564987</v>
+        <v>0.689721</v>
       </c>
       <c r="D57" t="n">
-        <v>0.546828</v>
+        <v>0.548907</v>
       </c>
     </row>
     <row r="58">
@@ -11848,13 +11848,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.966357</v>
+        <v>0.966571</v>
       </c>
       <c r="C58" t="n">
-        <v>0.571398</v>
+        <v>0.694551</v>
       </c>
       <c r="D58" t="n">
-        <v>0.548196</v>
+        <v>0.552747</v>
       </c>
     </row>
     <row r="59">
@@ -11862,13 +11862,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.975382</v>
+        <v>0.975971</v>
       </c>
       <c r="C59" t="n">
-        <v>0.579812</v>
+        <v>0.703998</v>
       </c>
       <c r="D59" t="n">
-        <v>0.550323</v>
+        <v>0.5534559999999999</v>
       </c>
     </row>
     <row r="60">
@@ -11876,13 +11876,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.982934</v>
+        <v>0.983093</v>
       </c>
       <c r="C60" t="n">
-        <v>0.588625</v>
+        <v>0.713481</v>
       </c>
       <c r="D60" t="n">
-        <v>0.550092</v>
+        <v>0.554668</v>
       </c>
     </row>
     <row r="61">
@@ -11890,13 +11890,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.991389</v>
+        <v>0.991533</v>
       </c>
       <c r="C61" t="n">
-        <v>0.5994429999999999</v>
+        <v>0.721841</v>
       </c>
       <c r="D61" t="n">
-        <v>0.553949</v>
+        <v>0.558303</v>
       </c>
     </row>
     <row r="62">
@@ -11904,13 +11904,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>1.00359</v>
+        <v>1.00391</v>
       </c>
       <c r="C62" t="n">
-        <v>0.609966</v>
+        <v>0.734019</v>
       </c>
       <c r="D62" t="n">
-        <v>0.554204</v>
+        <v>0.556075</v>
       </c>
     </row>
     <row r="63">
@@ -11918,13 +11918,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>1.01473</v>
+        <v>1.01442</v>
       </c>
       <c r="C63" t="n">
-        <v>0.62307</v>
+        <v>0.74696</v>
       </c>
       <c r="D63" t="n">
-        <v>0.555496</v>
+        <v>0.55887</v>
       </c>
     </row>
     <row r="64">
@@ -11932,13 +11932,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>1.01908</v>
+        <v>1.01942</v>
       </c>
       <c r="C64" t="n">
-        <v>0.631629</v>
+        <v>0.763711</v>
       </c>
       <c r="D64" t="n">
-        <v>0.556351</v>
+        <v>0.5594209999999999</v>
       </c>
     </row>
     <row r="65">
@@ -11946,13 +11946,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>1.03071</v>
+        <v>1.03175</v>
       </c>
       <c r="C65" t="n">
-        <v>0.648834</v>
+        <v>0.778125</v>
       </c>
       <c r="D65" t="n">
-        <v>0.558456</v>
+        <v>0.5618840000000001</v>
       </c>
     </row>
     <row r="66">
@@ -11960,13 +11960,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>1.04178</v>
+        <v>1.04203</v>
       </c>
       <c r="C66" t="n">
-        <v>0.660477</v>
+        <v>0.792196</v>
       </c>
       <c r="D66" t="n">
-        <v>0.561102</v>
+        <v>0.565536</v>
       </c>
     </row>
     <row r="67">
@@ -11974,13 +11974,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.05895</v>
+        <v>1.05912</v>
       </c>
       <c r="C67" t="n">
-        <v>0.680198</v>
+        <v>0.811249</v>
       </c>
       <c r="D67" t="n">
-        <v>0.562612</v>
+        <v>0.566138</v>
       </c>
     </row>
     <row r="68">
@@ -11988,13 +11988,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>1.07171</v>
+        <v>1.07282</v>
       </c>
       <c r="C68" t="n">
-        <v>0.609145</v>
+        <v>0.745727</v>
       </c>
       <c r="D68" t="n">
-        <v>0.578007</v>
+        <v>0.582108</v>
       </c>
     </row>
     <row r="69">
@@ -12002,13 +12002,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>1.02241</v>
+        <v>1.02625</v>
       </c>
       <c r="C69" t="n">
-        <v>0.631799</v>
+        <v>0.767937</v>
       </c>
       <c r="D69" t="n">
-        <v>0.586252</v>
+        <v>0.591282</v>
       </c>
     </row>
     <row r="70">
@@ -12016,13 +12016,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>1.04089</v>
+        <v>1.04311</v>
       </c>
       <c r="C70" t="n">
-        <v>0.6581</v>
+        <v>0.800709</v>
       </c>
       <c r="D70" t="n">
-        <v>0.599761</v>
+        <v>0.606904</v>
       </c>
     </row>
     <row r="71">
@@ -12030,13 +12030,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>1.06626</v>
+        <v>1.07043</v>
       </c>
       <c r="C71" t="n">
-        <v>0.687458</v>
+        <v>0.834155</v>
       </c>
       <c r="D71" t="n">
-        <v>0.613206</v>
+        <v>0.622297</v>
       </c>
     </row>
     <row r="72">
@@ -12044,13 +12044,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>1.09759</v>
+        <v>1.10064</v>
       </c>
       <c r="C72" t="n">
-        <v>0.717919</v>
+        <v>0.870521</v>
       </c>
       <c r="D72" t="n">
-        <v>0.629728</v>
+        <v>0.636151</v>
       </c>
     </row>
     <row r="73">
@@ -12058,13 +12058,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>1.13108</v>
+        <v>1.12685</v>
       </c>
       <c r="C73" t="n">
-        <v>0.756271</v>
+        <v>0.90327</v>
       </c>
       <c r="D73" t="n">
-        <v>0.6481440000000001</v>
+        <v>0.650828</v>
       </c>
     </row>
     <row r="74">
@@ -12072,13 +12072,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.16687</v>
+        <v>1.16718</v>
       </c>
       <c r="C74" t="n">
-        <v>0.791256</v>
+        <v>0.949203</v>
       </c>
       <c r="D74" t="n">
-        <v>0.665485</v>
+        <v>0.66922</v>
       </c>
     </row>
     <row r="75">
@@ -12086,13 +12086,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>1.20506</v>
+        <v>1.21621</v>
       </c>
       <c r="C75" t="n">
-        <v>0.828512</v>
+        <v>0.997766</v>
       </c>
       <c r="D75" t="n">
-        <v>0.685356</v>
+        <v>0.700871</v>
       </c>
     </row>
     <row r="76">
@@ -12100,13 +12100,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>1.2518</v>
+        <v>1.26187</v>
       </c>
       <c r="C76" t="n">
-        <v>0.871343</v>
+        <v>1.04832</v>
       </c>
       <c r="D76" t="n">
-        <v>0.7086789999999999</v>
+        <v>0.724719</v>
       </c>
     </row>
     <row r="77">
@@ -12114,13 +12114,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>1.3004</v>
+        <v>1.31362</v>
       </c>
       <c r="C77" t="n">
-        <v>0.920099</v>
+        <v>1.1013</v>
       </c>
       <c r="D77" t="n">
-        <v>0.736461</v>
+        <v>0.754854</v>
       </c>
     </row>
     <row r="78">
@@ -12128,13 +12128,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>1.35915</v>
+        <v>1.37531</v>
       </c>
       <c r="C78" t="n">
-        <v>0.969108</v>
+        <v>1.15354</v>
       </c>
       <c r="D78" t="n">
-        <v>0.766902</v>
+        <v>0.7872130000000001</v>
       </c>
     </row>
     <row r="79">
@@ -12142,13 +12142,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.42525</v>
+        <v>1.44875</v>
       </c>
       <c r="C79" t="n">
-        <v>1.01996</v>
+        <v>1.21819</v>
       </c>
       <c r="D79" t="n">
-        <v>0.802237</v>
+        <v>0.830577</v>
       </c>
     </row>
     <row r="80">
@@ -12156,13 +12156,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.5089</v>
+        <v>1.52692</v>
       </c>
       <c r="C80" t="n">
-        <v>1.07718</v>
+        <v>1.28054</v>
       </c>
       <c r="D80" t="n">
-        <v>0.849361</v>
+        <v>0.875826</v>
       </c>
     </row>
     <row r="81">
@@ -12170,13 +12170,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.59193</v>
+        <v>1.62488</v>
       </c>
       <c r="C81" t="n">
-        <v>1.13607</v>
+        <v>1.35666</v>
       </c>
       <c r="D81" t="n">
-        <v>0.89276</v>
+        <v>0.93181</v>
       </c>
     </row>
     <row r="82">
@@ -12184,13 +12184,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.6735</v>
+        <v>1.73377</v>
       </c>
       <c r="C82" t="n">
-        <v>1.1957</v>
+        <v>1.434</v>
       </c>
       <c r="D82" t="n">
-        <v>0.937612</v>
+        <v>0.990016</v>
       </c>
     </row>
     <row r="83">
@@ -12198,13 +12198,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.77468</v>
+        <v>1.84523</v>
       </c>
       <c r="C83" t="n">
-        <v>1.17301</v>
+        <v>1.44085</v>
       </c>
       <c r="D83" t="n">
-        <v>1.06013</v>
+        <v>1.1312</v>
       </c>
     </row>
     <row r="84">
@@ -12212,13 +12212,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.8018</v>
+        <v>1.90108</v>
       </c>
       <c r="C84" t="n">
-        <v>1.23146</v>
+        <v>1.51648</v>
       </c>
       <c r="D84" t="n">
-        <v>1.11578</v>
+        <v>1.1946</v>
       </c>
     </row>
     <row r="85">
@@ -12226,13 +12226,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.91381</v>
+        <v>2.02821</v>
       </c>
       <c r="C85" t="n">
-        <v>1.28894</v>
+        <v>1.58647</v>
       </c>
       <c r="D85" t="n">
-        <v>1.17637</v>
+        <v>1.26376</v>
       </c>
     </row>
     <row r="86">
@@ -12240,13 +12240,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>2.01576</v>
+        <v>2.15015</v>
       </c>
       <c r="C86" t="n">
-        <v>1.35524</v>
+        <v>1.67138</v>
       </c>
       <c r="D86" t="n">
-        <v>1.23564</v>
+        <v>1.27147</v>
       </c>
     </row>
     <row r="87">
@@ -12254,13 +12254,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>2.12682</v>
+        <v>2.15908</v>
       </c>
       <c r="C87" t="n">
-        <v>1.41842</v>
+        <v>1.63478</v>
       </c>
       <c r="D87" t="n">
-        <v>1.29409</v>
+        <v>1.31763</v>
       </c>
     </row>
     <row r="88">
@@ -12268,13 +12268,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>2.22923</v>
+        <v>2.27883</v>
       </c>
       <c r="C88" t="n">
-        <v>1.49628</v>
+        <v>1.7247</v>
       </c>
       <c r="D88" t="n">
-        <v>1.35503</v>
+        <v>1.37434</v>
       </c>
     </row>
     <row r="89">
@@ -12282,13 +12282,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>2.36096</v>
+        <v>2.37741</v>
       </c>
       <c r="C89" t="n">
-        <v>1.56833</v>
+        <v>1.80278</v>
       </c>
       <c r="D89" t="n">
-        <v>1.40998</v>
+        <v>1.43022</v>
       </c>
     </row>
     <row r="90">
@@ -12296,13 +12296,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>2.48477</v>
+        <v>2.50616</v>
       </c>
       <c r="C90" t="n">
-        <v>1.63457</v>
+        <v>1.87952</v>
       </c>
       <c r="D90" t="n">
-        <v>1.46883</v>
+        <v>1.49872</v>
       </c>
     </row>
     <row r="91">
@@ -12310,13 +12310,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>2.60329</v>
+        <v>2.64645</v>
       </c>
       <c r="C91" t="n">
-        <v>1.71785</v>
+        <v>1.97827</v>
       </c>
       <c r="D91" t="n">
-        <v>1.52621</v>
+        <v>1.5543</v>
       </c>
     </row>
     <row r="92">
@@ -12324,13 +12324,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>2.74163</v>
+        <v>2.76334</v>
       </c>
       <c r="C92" t="n">
-        <v>1.80296</v>
+        <v>2.07066</v>
       </c>
       <c r="D92" t="n">
-        <v>1.58124</v>
+        <v>1.61042</v>
       </c>
     </row>
     <row r="93">
@@ -12338,13 +12338,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>2.86934</v>
+        <v>2.89769</v>
       </c>
       <c r="C93" t="n">
-        <v>1.88627</v>
+        <v>2.14619</v>
       </c>
       <c r="D93" t="n">
-        <v>1.63388</v>
+        <v>1.66141</v>
       </c>
     </row>
     <row r="94">
@@ -12352,13 +12352,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>2.98198</v>
+        <v>3.03593</v>
       </c>
       <c r="C94" t="n">
-        <v>1.97876</v>
+        <v>2.24405</v>
       </c>
       <c r="D94" t="n">
-        <v>1.68682</v>
+        <v>1.71994</v>
       </c>
     </row>
     <row r="95">
@@ -12366,13 +12366,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>3.12264</v>
+        <v>3.17515</v>
       </c>
       <c r="C95" t="n">
-        <v>2.0644</v>
+        <v>2.35856</v>
       </c>
       <c r="D95" t="n">
-        <v>1.73863</v>
+        <v>1.76709</v>
       </c>
     </row>
     <row r="96">
@@ -12380,13 +12380,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>3.26195</v>
+        <v>3.31214</v>
       </c>
       <c r="C96" t="n">
-        <v>2.17013</v>
+        <v>2.45697</v>
       </c>
       <c r="D96" t="n">
-        <v>1.78819</v>
+        <v>1.81727</v>
       </c>
     </row>
     <row r="97">
@@ -12394,13 +12394,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>3.40182</v>
+        <v>3.45219</v>
       </c>
       <c r="C97" t="n">
-        <v>1.93914</v>
+        <v>2.22803</v>
       </c>
       <c r="D97" t="n">
-        <v>1.91855</v>
+        <v>1.9496</v>
       </c>
     </row>
     <row r="98">
@@ -12408,13 +12408,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>3.26091</v>
+        <v>3.29441</v>
       </c>
       <c r="C98" t="n">
-        <v>1.99403</v>
+        <v>2.29752</v>
       </c>
       <c r="D98" t="n">
-        <v>1.96577</v>
+        <v>2.00363</v>
       </c>
     </row>
     <row r="99">
@@ -12422,13 +12422,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>3.35276</v>
+        <v>3.40739</v>
       </c>
       <c r="C99" t="n">
-        <v>2.0606</v>
+        <v>2.38096</v>
       </c>
       <c r="D99" t="n">
-        <v>2.0177</v>
+        <v>2.04298</v>
       </c>
     </row>
     <row r="100">
@@ -12436,13 +12436,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>3.43498</v>
+        <v>3.49595</v>
       </c>
       <c r="C100" t="n">
-        <v>2.12871</v>
+        <v>2.43915</v>
       </c>
       <c r="D100" t="n">
-        <v>2.05881</v>
+        <v>2.07841</v>
       </c>
     </row>
     <row r="101">
@@ -12450,13 +12450,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>3.5619</v>
+        <v>3.60693</v>
       </c>
       <c r="C101" t="n">
-        <v>2.18806</v>
+        <v>2.51984</v>
       </c>
       <c r="D101" t="n">
-        <v>2.07695</v>
+        <v>2.12391</v>
       </c>
     </row>
     <row r="102">
@@ -12464,13 +12464,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>3.6881</v>
+        <v>3.75644</v>
       </c>
       <c r="C102" t="n">
-        <v>2.25723</v>
+        <v>2.60377</v>
       </c>
       <c r="D102" t="n">
-        <v>2.11663</v>
+        <v>2.17602</v>
       </c>
     </row>
     <row r="103">
@@ -12478,13 +12478,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>3.77851</v>
+        <v>3.81607</v>
       </c>
       <c r="C103" t="n">
-        <v>2.32707</v>
+        <v>2.67705</v>
       </c>
       <c r="D103" t="n">
-        <v>2.15688</v>
+        <v>2.22163</v>
       </c>
     </row>
     <row r="104">
@@ -12492,13 +12492,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>3.90904</v>
+        <v>3.93418</v>
       </c>
       <c r="C104" t="n">
-        <v>2.39938</v>
+        <v>2.76521</v>
       </c>
       <c r="D104" t="n">
-        <v>2.1789</v>
+        <v>2.26178</v>
       </c>
     </row>
     <row r="105">
@@ -12506,13 +12506,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>3.96624</v>
+        <v>4.05811</v>
       </c>
       <c r="C105" t="n">
-        <v>2.46259</v>
+        <v>2.83188</v>
       </c>
       <c r="D105" t="n">
-        <v>2.22548</v>
+        <v>2.29055</v>
       </c>
     </row>
     <row r="106">
@@ -12520,13 +12520,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>4.07047</v>
+        <v>4.13945</v>
       </c>
       <c r="C106" t="n">
-        <v>2.54154</v>
+        <v>2.91664</v>
       </c>
       <c r="D106" t="n">
-        <v>2.24084</v>
+        <v>2.32447</v>
       </c>
     </row>
     <row r="107">
@@ -12534,13 +12534,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>4.16806</v>
+        <v>4.23988</v>
       </c>
       <c r="C107" t="n">
-        <v>2.61284</v>
+        <v>2.98853</v>
       </c>
       <c r="D107" t="n">
-        <v>2.27007</v>
+        <v>2.37086</v>
       </c>
     </row>
     <row r="108">
@@ -12548,13 +12548,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>4.27253</v>
+        <v>4.3705</v>
       </c>
       <c r="C108" t="n">
-        <v>2.69612</v>
+        <v>3.09109</v>
       </c>
       <c r="D108" t="n">
-        <v>2.32356</v>
+        <v>2.38731</v>
       </c>
     </row>
     <row r="109">
@@ -12562,13 +12562,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>4.3684</v>
+        <v>4.50501</v>
       </c>
       <c r="C109" t="n">
-        <v>2.77244</v>
+        <v>3.15922</v>
       </c>
       <c r="D109" t="n">
-        <v>2.34115</v>
+        <v>2.43074</v>
       </c>
     </row>
     <row r="110">
@@ -12576,13 +12576,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>4.49011</v>
+        <v>4.61981</v>
       </c>
       <c r="C110" t="n">
-        <v>2.86081</v>
+        <v>3.2613</v>
       </c>
       <c r="D110" t="n">
-        <v>2.35796</v>
+        <v>2.4439</v>
       </c>
     </row>
     <row r="111">
@@ -12590,13 +12590,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>4.59542</v>
+        <v>4.70739</v>
       </c>
       <c r="C111" t="n">
-        <v>2.49573</v>
+        <v>2.88625</v>
       </c>
       <c r="D111" t="n">
-        <v>2.45278</v>
+        <v>2.55781</v>
       </c>
     </row>
     <row r="112">
@@ -12604,13 +12604,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>4.26969</v>
+        <v>4.39153</v>
       </c>
       <c r="C112" t="n">
-        <v>2.55919</v>
+        <v>2.99031</v>
       </c>
       <c r="D112" t="n">
-        <v>2.47601</v>
+        <v>2.61786</v>
       </c>
     </row>
     <row r="113">
@@ -12618,13 +12618,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>4.33304</v>
+        <v>4.49838</v>
       </c>
       <c r="C113" t="n">
-        <v>2.59651</v>
+        <v>3.02913</v>
       </c>
       <c r="D113" t="n">
-        <v>2.50322</v>
+        <v>2.62372</v>
       </c>
     </row>
     <row r="114">
@@ -12632,13 +12632,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>4.40199</v>
+        <v>4.57447</v>
       </c>
       <c r="C114" t="n">
-        <v>2.64004</v>
+        <v>3.18753</v>
       </c>
       <c r="D114" t="n">
-        <v>2.52333</v>
+        <v>2.71723</v>
       </c>
     </row>
     <row r="115">
@@ -12646,13 +12646,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>4.49066</v>
+        <v>4.76066</v>
       </c>
       <c r="C115" t="n">
-        <v>2.71892</v>
+        <v>3.20941</v>
       </c>
       <c r="D115" t="n">
-        <v>2.56074</v>
+        <v>2.72205</v>
       </c>
     </row>
     <row r="116">
@@ -12660,13 +12660,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>4.58208</v>
+        <v>4.79543</v>
       </c>
       <c r="C116" t="n">
-        <v>2.77821</v>
+        <v>3.20959</v>
       </c>
       <c r="D116" t="n">
-        <v>2.57666</v>
+        <v>2.72282</v>
       </c>
     </row>
     <row r="117">
@@ -12674,13 +12674,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>4.67091</v>
+        <v>4.8447</v>
       </c>
       <c r="C117" t="n">
-        <v>2.83479</v>
+        <v>3.27784</v>
       </c>
       <c r="D117" t="n">
-        <v>2.60455</v>
+        <v>2.71922</v>
       </c>
     </row>
     <row r="118">
@@ -12688,13 +12688,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>4.769</v>
+        <v>4.92574</v>
       </c>
       <c r="C118" t="n">
-        <v>2.91249</v>
+        <v>3.3439</v>
       </c>
       <c r="D118" t="n">
-        <v>2.62639</v>
+        <v>2.73555</v>
       </c>
     </row>
     <row r="119">
@@ -12702,13 +12702,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>4.83958</v>
+        <v>4.99605</v>
       </c>
       <c r="C119" t="n">
-        <v>2.98755</v>
+        <v>3.42148</v>
       </c>
       <c r="D119" t="n">
-        <v>2.63698</v>
+        <v>2.73249</v>
       </c>
     </row>
   </sheetData>

--- a/clang_libcpp/scattered erasure.xlsx
+++ b/clang_libcpp/scattered erasure.xlsx
@@ -7680,13 +7680,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.39541</v>
+        <v>0.399838</v>
       </c>
       <c r="C2" t="n">
-        <v>0.215726</v>
+        <v>0.174423</v>
       </c>
       <c r="D2" t="n">
-        <v>0.213437</v>
+        <v>0.223699</v>
       </c>
     </row>
     <row r="3">
@@ -7694,13 +7694,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.401609</v>
+        <v>0.400826</v>
       </c>
       <c r="C3" t="n">
-        <v>0.216634</v>
+        <v>0.176861</v>
       </c>
       <c r="D3" t="n">
-        <v>0.219873</v>
+        <v>0.230848</v>
       </c>
     </row>
     <row r="4">
@@ -7708,13 +7708,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.40834</v>
+        <v>0.407938</v>
       </c>
       <c r="C4" t="n">
-        <v>0.220537</v>
+        <v>0.180318</v>
       </c>
       <c r="D4" t="n">
-        <v>0.221915</v>
+        <v>0.232792</v>
       </c>
     </row>
     <row r="5">
@@ -7722,13 +7722,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.412896</v>
+        <v>0.411438</v>
       </c>
       <c r="C5" t="n">
-        <v>0.223485</v>
+        <v>0.183943</v>
       </c>
       <c r="D5" t="n">
-        <v>0.228865</v>
+        <v>0.245484</v>
       </c>
     </row>
     <row r="6">
@@ -7736,13 +7736,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.418157</v>
+        <v>0.422582</v>
       </c>
       <c r="C6" t="n">
-        <v>0.226488</v>
+        <v>0.187476</v>
       </c>
       <c r="D6" t="n">
-        <v>0.233157</v>
+        <v>0.243</v>
       </c>
     </row>
     <row r="7">
@@ -7750,13 +7750,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.421897</v>
+        <v>0.421594</v>
       </c>
       <c r="C7" t="n">
-        <v>0.218715</v>
+        <v>0.173496</v>
       </c>
       <c r="D7" t="n">
-        <v>0.242558</v>
+        <v>0.24759</v>
       </c>
     </row>
     <row r="8">
@@ -7764,13 +7764,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.40382</v>
+        <v>0.40224</v>
       </c>
       <c r="C8" t="n">
-        <v>0.220012</v>
+        <v>0.175832</v>
       </c>
       <c r="D8" t="n">
-        <v>0.246053</v>
+        <v>0.252202</v>
       </c>
     </row>
     <row r="9">
@@ -7778,13 +7778,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.407911</v>
+        <v>0.406452</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2216</v>
+        <v>0.177491</v>
       </c>
       <c r="D9" t="n">
-        <v>0.251385</v>
+        <v>0.255061</v>
       </c>
     </row>
     <row r="10">
@@ -7792,13 +7792,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.416106</v>
+        <v>0.411566</v>
       </c>
       <c r="C10" t="n">
-        <v>0.223518</v>
+        <v>0.179598</v>
       </c>
       <c r="D10" t="n">
-        <v>0.258026</v>
+        <v>0.259457</v>
       </c>
     </row>
     <row r="11">
@@ -7806,13 +7806,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.422604</v>
+        <v>0.416275</v>
       </c>
       <c r="C11" t="n">
-        <v>0.224963</v>
+        <v>0.181054</v>
       </c>
       <c r="D11" t="n">
-        <v>0.261565</v>
+        <v>0.267991</v>
       </c>
     </row>
     <row r="12">
@@ -7820,13 +7820,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.427144</v>
+        <v>0.424751</v>
       </c>
       <c r="C12" t="n">
-        <v>0.226796</v>
+        <v>0.183376</v>
       </c>
       <c r="D12" t="n">
-        <v>0.267815</v>
+        <v>0.269308</v>
       </c>
     </row>
     <row r="13">
@@ -7834,13 +7834,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.434027</v>
+        <v>0.430214</v>
       </c>
       <c r="C13" t="n">
-        <v>0.228745</v>
+        <v>0.186067</v>
       </c>
       <c r="D13" t="n">
-        <v>0.271323</v>
+        <v>0.273562</v>
       </c>
     </row>
     <row r="14">
@@ -7848,13 +7848,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.440015</v>
+        <v>0.435434</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2306</v>
+        <v>0.187841</v>
       </c>
       <c r="D14" t="n">
-        <v>0.275825</v>
+        <v>0.279962</v>
       </c>
     </row>
     <row r="15">
@@ -7862,13 +7862,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.4449</v>
+        <v>0.440804</v>
       </c>
       <c r="C15" t="n">
-        <v>0.233184</v>
+        <v>0.190233</v>
       </c>
       <c r="D15" t="n">
-        <v>0.281658</v>
+        <v>0.285216</v>
       </c>
     </row>
     <row r="16">
@@ -7876,13 +7876,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.45207</v>
+        <v>0.446876</v>
       </c>
       <c r="C16" t="n">
-        <v>0.235929</v>
+        <v>0.192714</v>
       </c>
       <c r="D16" t="n">
-        <v>0.287156</v>
+        <v>0.289505</v>
       </c>
     </row>
     <row r="17">
@@ -7890,13 +7890,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.459115</v>
+        <v>0.45256</v>
       </c>
       <c r="C17" t="n">
-        <v>0.23735</v>
+        <v>0.195184</v>
       </c>
       <c r="D17" t="n">
-        <v>0.290689</v>
+        <v>0.295102</v>
       </c>
     </row>
     <row r="18">
@@ -7904,13 +7904,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.462091</v>
+        <v>0.459345</v>
       </c>
       <c r="C18" t="n">
-        <v>0.240483</v>
+        <v>0.198002</v>
       </c>
       <c r="D18" t="n">
-        <v>0.295839</v>
+        <v>0.298927</v>
       </c>
     </row>
     <row r="19">
@@ -7918,13 +7918,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.467392</v>
+        <v>0.467229</v>
       </c>
       <c r="C19" t="n">
-        <v>0.242704</v>
+        <v>0.201194</v>
       </c>
       <c r="D19" t="n">
-        <v>0.300028</v>
+        <v>0.3041</v>
       </c>
     </row>
     <row r="20">
@@ -7932,13 +7932,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.475518</v>
+        <v>0.473</v>
       </c>
       <c r="C20" t="n">
-        <v>0.245672</v>
+        <v>0.203393</v>
       </c>
       <c r="D20" t="n">
-        <v>0.304403</v>
+        <v>0.308216</v>
       </c>
     </row>
     <row r="21">
@@ -7946,13 +7946,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.480649</v>
+        <v>0.477839</v>
       </c>
       <c r="C21" t="n">
-        <v>0.233296</v>
+        <v>0.1838</v>
       </c>
       <c r="D21" t="n">
-        <v>0.305171</v>
+        <v>0.306891</v>
       </c>
     </row>
     <row r="22">
@@ -7960,13 +7960,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.463173</v>
+        <v>0.45782</v>
       </c>
       <c r="C22" t="n">
-        <v>0.234463</v>
+        <v>0.185255</v>
       </c>
       <c r="D22" t="n">
-        <v>0.308352</v>
+        <v>0.31163</v>
       </c>
     </row>
     <row r="23">
@@ -7974,13 +7974,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.46744</v>
+        <v>0.462843</v>
       </c>
       <c r="C23" t="n">
-        <v>0.235885</v>
+        <v>0.187287</v>
       </c>
       <c r="D23" t="n">
-        <v>0.31211</v>
+        <v>0.315935</v>
       </c>
     </row>
     <row r="24">
@@ -7988,13 +7988,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.471792</v>
+        <v>0.46652</v>
       </c>
       <c r="C24" t="n">
-        <v>0.23757</v>
+        <v>0.189558</v>
       </c>
       <c r="D24" t="n">
-        <v>0.314681</v>
+        <v>0.318317</v>
       </c>
     </row>
     <row r="25">
@@ -8002,13 +8002,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.475981</v>
+        <v>0.472417</v>
       </c>
       <c r="C25" t="n">
-        <v>0.239107</v>
+        <v>0.191328</v>
       </c>
       <c r="D25" t="n">
-        <v>0.317182</v>
+        <v>0.319239</v>
       </c>
     </row>
     <row r="26">
@@ -8016,13 +8016,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.480618</v>
+        <v>0.475693</v>
       </c>
       <c r="C26" t="n">
-        <v>0.241006</v>
+        <v>0.193575</v>
       </c>
       <c r="D26" t="n">
-        <v>0.321012</v>
+        <v>0.324443</v>
       </c>
     </row>
     <row r="27">
@@ -8030,13 +8030,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.484015</v>
+        <v>0.480135</v>
       </c>
       <c r="C27" t="n">
-        <v>0.242422</v>
+        <v>0.19543</v>
       </c>
       <c r="D27" t="n">
-        <v>0.324063</v>
+        <v>0.327667</v>
       </c>
     </row>
     <row r="28">
@@ -8044,13 +8044,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.489254</v>
+        <v>0.485056</v>
       </c>
       <c r="C28" t="n">
-        <v>0.244529</v>
+        <v>0.197841</v>
       </c>
       <c r="D28" t="n">
-        <v>0.32727</v>
+        <v>0.330238</v>
       </c>
     </row>
     <row r="29">
@@ -8058,13 +8058,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.492681</v>
+        <v>0.489147</v>
       </c>
       <c r="C29" t="n">
-        <v>0.246363</v>
+        <v>0.20027</v>
       </c>
       <c r="D29" t="n">
-        <v>0.329247</v>
+        <v>0.333422</v>
       </c>
     </row>
     <row r="30">
@@ -8072,13 +8072,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.49814</v>
+        <v>0.49402</v>
       </c>
       <c r="C30" t="n">
-        <v>0.249009</v>
+        <v>0.202914</v>
       </c>
       <c r="D30" t="n">
-        <v>0.331957</v>
+        <v>0.33596</v>
       </c>
     </row>
     <row r="31">
@@ -8086,13 +8086,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.5021949999999999</v>
+        <v>0.498469</v>
       </c>
       <c r="C31" t="n">
-        <v>0.252199</v>
+        <v>0.205235</v>
       </c>
       <c r="D31" t="n">
-        <v>0.335863</v>
+        <v>0.339829</v>
       </c>
     </row>
     <row r="32">
@@ -8100,13 +8100,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.507016</v>
+        <v>0.502835</v>
       </c>
       <c r="C32" t="n">
-        <v>0.25332</v>
+        <v>0.20773</v>
       </c>
       <c r="D32" t="n">
-        <v>0.337986</v>
+        <v>0.341785</v>
       </c>
     </row>
     <row r="33">
@@ -8114,13 +8114,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.51171</v>
+        <v>0.507646</v>
       </c>
       <c r="C33" t="n">
-        <v>0.256094</v>
+        <v>0.210208</v>
       </c>
       <c r="D33" t="n">
-        <v>0.341056</v>
+        <v>0.34501</v>
       </c>
     </row>
     <row r="34">
@@ -8128,13 +8128,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.517435</v>
+        <v>0.513258</v>
       </c>
       <c r="C34" t="n">
-        <v>0.257336</v>
+        <v>0.212749</v>
       </c>
       <c r="D34" t="n">
-        <v>0.343672</v>
+        <v>0.347825</v>
       </c>
     </row>
     <row r="35">
@@ -8142,13 +8142,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.520823</v>
+        <v>0.518003</v>
       </c>
       <c r="C35" t="n">
-        <v>0.242851</v>
+        <v>0.188953</v>
       </c>
       <c r="D35" t="n">
-        <v>0.337605</v>
+        <v>0.342508</v>
       </c>
     </row>
     <row r="36">
@@ -8156,13 +8156,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.495056</v>
+        <v>0.490456</v>
       </c>
       <c r="C36" t="n">
-        <v>0.243784</v>
+        <v>0.190901</v>
       </c>
       <c r="D36" t="n">
-        <v>0.339263</v>
+        <v>0.343455</v>
       </c>
     </row>
     <row r="37">
@@ -8170,13 +8170,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.498576</v>
+        <v>0.492974</v>
       </c>
       <c r="C37" t="n">
-        <v>0.245521</v>
+        <v>0.192599</v>
       </c>
       <c r="D37" t="n">
-        <v>0.339912</v>
+        <v>0.345205</v>
       </c>
     </row>
     <row r="38">
@@ -8184,13 +8184,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.500748</v>
+        <v>0.495544</v>
       </c>
       <c r="C38" t="n">
-        <v>0.247402</v>
+        <v>0.194419</v>
       </c>
       <c r="D38" t="n">
-        <v>0.342752</v>
+        <v>0.347066</v>
       </c>
     </row>
     <row r="39">
@@ -8198,13 +8198,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.503627</v>
+        <v>0.498387</v>
       </c>
       <c r="C39" t="n">
-        <v>0.248222</v>
+        <v>0.196131</v>
       </c>
       <c r="D39" t="n">
-        <v>0.344537</v>
+        <v>0.349161</v>
       </c>
     </row>
     <row r="40">
@@ -8212,13 +8212,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.508029</v>
+        <v>0.50249</v>
       </c>
       <c r="C40" t="n">
-        <v>0.249978</v>
+        <v>0.198352</v>
       </c>
       <c r="D40" t="n">
-        <v>0.345943</v>
+        <v>0.350505</v>
       </c>
     </row>
     <row r="41">
@@ -8226,13 +8226,13 @@
         <v>66357</v>
       </c>
       <c r="B41" t="n">
-        <v>0.510085</v>
+        <v>0.504643</v>
       </c>
       <c r="C41" t="n">
-        <v>0.252654</v>
+        <v>0.200111</v>
       </c>
       <c r="D41" t="n">
-        <v>0.348275</v>
+        <v>0.352501</v>
       </c>
     </row>
     <row r="42">
@@ -8240,13 +8240,13 @@
         <v>69656</v>
       </c>
       <c r="B42" t="n">
-        <v>0.513829</v>
+        <v>0.508621</v>
       </c>
       <c r="C42" t="n">
-        <v>0.254536</v>
+        <v>0.202584</v>
       </c>
       <c r="D42" t="n">
-        <v>0.35045</v>
+        <v>0.35436</v>
       </c>
     </row>
     <row r="43">
@@ -8254,13 +8254,13 @@
         <v>73119</v>
       </c>
       <c r="B43" t="n">
-        <v>0.519209</v>
+        <v>0.5134649999999999</v>
       </c>
       <c r="C43" t="n">
-        <v>0.254376</v>
+        <v>0.204331</v>
       </c>
       <c r="D43" t="n">
-        <v>0.352199</v>
+        <v>0.356666</v>
       </c>
     </row>
     <row r="44">
@@ -8268,13 +8268,13 @@
         <v>76755</v>
       </c>
       <c r="B44" t="n">
-        <v>0.520658</v>
+        <v>0.5157620000000001</v>
       </c>
       <c r="C44" t="n">
-        <v>0.257168</v>
+        <v>0.206702</v>
       </c>
       <c r="D44" t="n">
-        <v>0.354533</v>
+        <v>0.359148</v>
       </c>
     </row>
     <row r="45">
@@ -8282,13 +8282,13 @@
         <v>80572</v>
       </c>
       <c r="B45" t="n">
-        <v>0.524628</v>
+        <v>0.519826</v>
       </c>
       <c r="C45" t="n">
-        <v>0.259257</v>
+        <v>0.208884</v>
       </c>
       <c r="D45" t="n">
-        <v>0.356348</v>
+        <v>0.360475</v>
       </c>
     </row>
     <row r="46">
@@ -8296,13 +8296,13 @@
         <v>84579</v>
       </c>
       <c r="B46" t="n">
-        <v>0.5295570000000001</v>
+        <v>0.523412</v>
       </c>
       <c r="C46" t="n">
-        <v>0.262871</v>
+        <v>0.211474</v>
       </c>
       <c r="D46" t="n">
-        <v>0.358743</v>
+        <v>0.362217</v>
       </c>
     </row>
     <row r="47">
@@ -8310,13 +8310,13 @@
         <v>88786</v>
       </c>
       <c r="B47" t="n">
-        <v>0.533605</v>
+        <v>0.528371</v>
       </c>
       <c r="C47" t="n">
-        <v>0.265559</v>
+        <v>0.214692</v>
       </c>
       <c r="D47" t="n">
-        <v>0.360136</v>
+        <v>0.365171</v>
       </c>
     </row>
     <row r="48">
@@ -8324,13 +8324,13 @@
         <v>93203</v>
       </c>
       <c r="B48" t="n">
-        <v>0.537922</v>
+        <v>0.532778</v>
       </c>
       <c r="C48" t="n">
-        <v>0.267815</v>
+        <v>0.217468</v>
       </c>
       <c r="D48" t="n">
-        <v>0.363168</v>
+        <v>0.366832</v>
       </c>
     </row>
     <row r="49">
@@ -8338,13 +8338,13 @@
         <v>97840</v>
       </c>
       <c r="B49" t="n">
-        <v>0.5419040000000001</v>
+        <v>0.537305</v>
       </c>
       <c r="C49" t="n">
-        <v>0.270582</v>
+        <v>0.220223</v>
       </c>
       <c r="D49" t="n">
-        <v>0.365275</v>
+        <v>0.369335</v>
       </c>
     </row>
     <row r="50">
@@ -8352,13 +8352,13 @@
         <v>102706</v>
       </c>
       <c r="B50" t="n">
-        <v>0.546629</v>
+        <v>0.541496</v>
       </c>
       <c r="C50" t="n">
-        <v>0.258599</v>
+        <v>0.194741</v>
       </c>
       <c r="D50" t="n">
-        <v>0.355687</v>
+        <v>0.360051</v>
       </c>
     </row>
     <row r="51">
@@ -8366,13 +8366,13 @@
         <v>107816</v>
       </c>
       <c r="B51" t="n">
-        <v>0.516465</v>
+        <v>0.51011</v>
       </c>
       <c r="C51" t="n">
-        <v>0.259969</v>
+        <v>0.197242</v>
       </c>
       <c r="D51" t="n">
-        <v>0.356959</v>
+        <v>0.361443</v>
       </c>
     </row>
     <row r="52">
@@ -8380,13 +8380,13 @@
         <v>113182</v>
       </c>
       <c r="B52" t="n">
-        <v>0.519814</v>
+        <v>0.512714</v>
       </c>
       <c r="C52" t="n">
-        <v>0.258113</v>
+        <v>0.199461</v>
       </c>
       <c r="D52" t="n">
-        <v>0.357515</v>
+        <v>0.361902</v>
       </c>
     </row>
     <row r="53">
@@ -8394,13 +8394,13 @@
         <v>118816</v>
       </c>
       <c r="B53" t="n">
-        <v>0.521046</v>
+        <v>0.513795</v>
       </c>
       <c r="C53" t="n">
-        <v>0.25964</v>
+        <v>0.201379</v>
       </c>
       <c r="D53" t="n">
-        <v>0.35909</v>
+        <v>0.362749</v>
       </c>
     </row>
     <row r="54">
@@ -8408,13 +8408,13 @@
         <v>124731</v>
       </c>
       <c r="B54" t="n">
-        <v>0.5243679999999999</v>
+        <v>0.516638</v>
       </c>
       <c r="C54" t="n">
-        <v>0.264631</v>
+        <v>0.202107</v>
       </c>
       <c r="D54" t="n">
-        <v>0.360453</v>
+        <v>0.364225</v>
       </c>
     </row>
     <row r="55">
@@ -8422,13 +8422,13 @@
         <v>130941</v>
       </c>
       <c r="B55" t="n">
-        <v>0.526325</v>
+        <v>0.519137</v>
       </c>
       <c r="C55" t="n">
-        <v>0.263071</v>
+        <v>0.208464</v>
       </c>
       <c r="D55" t="n">
-        <v>0.362124</v>
+        <v>0.365571</v>
       </c>
     </row>
     <row r="56">
@@ -8436,13 +8436,13 @@
         <v>137461</v>
       </c>
       <c r="B56" t="n">
-        <v>0.529303</v>
+        <v>0.521739</v>
       </c>
       <c r="C56" t="n">
-        <v>0.265064</v>
+        <v>0.211351</v>
       </c>
       <c r="D56" t="n">
-        <v>0.363438</v>
+        <v>0.367389</v>
       </c>
     </row>
     <row r="57">
@@ -8450,13 +8450,13 @@
         <v>144307</v>
       </c>
       <c r="B57" t="n">
-        <v>0.532125</v>
+        <v>0.524879</v>
       </c>
       <c r="C57" t="n">
-        <v>0.270638</v>
+        <v>0.217581</v>
       </c>
       <c r="D57" t="n">
-        <v>0.365716</v>
+        <v>0.368971</v>
       </c>
     </row>
     <row r="58">
@@ -8464,13 +8464,13 @@
         <v>151495</v>
       </c>
       <c r="B58" t="n">
-        <v>0.535458</v>
+        <v>0.52884</v>
       </c>
       <c r="C58" t="n">
-        <v>0.272417</v>
+        <v>0.219475</v>
       </c>
       <c r="D58" t="n">
-        <v>0.367968</v>
+        <v>0.370956</v>
       </c>
     </row>
     <row r="59">
@@ -8478,13 +8478,13 @@
         <v>159042</v>
       </c>
       <c r="B59" t="n">
-        <v>0.538516</v>
+        <v>0.5331129999999999</v>
       </c>
       <c r="C59" t="n">
-        <v>0.277982</v>
+        <v>0.223368</v>
       </c>
       <c r="D59" t="n">
-        <v>0.369147</v>
+        <v>0.371586</v>
       </c>
     </row>
     <row r="60">
@@ -8492,13 +8492,13 @@
         <v>166965</v>
       </c>
       <c r="B60" t="n">
-        <v>0.54234</v>
+        <v>0.535649</v>
       </c>
       <c r="C60" t="n">
-        <v>0.278755</v>
+        <v>0.223772</v>
       </c>
       <c r="D60" t="n">
-        <v>0.371274</v>
+        <v>0.374011</v>
       </c>
     </row>
     <row r="61">
@@ -8506,13 +8506,13 @@
         <v>175284</v>
       </c>
       <c r="B61" t="n">
-        <v>0.546798</v>
+        <v>0.540289</v>
       </c>
       <c r="C61" t="n">
-        <v>0.284301</v>
+        <v>0.22764</v>
       </c>
       <c r="D61" t="n">
-        <v>0.374205</v>
+        <v>0.376189</v>
       </c>
     </row>
     <row r="62">
@@ -8520,13 +8520,13 @@
         <v>184019</v>
       </c>
       <c r="B62" t="n">
-        <v>0.55124</v>
+        <v>0.5452360000000001</v>
       </c>
       <c r="C62" t="n">
-        <v>0.300065</v>
+        <v>0.241154</v>
       </c>
       <c r="D62" t="n">
-        <v>0.376378</v>
+        <v>0.378551</v>
       </c>
     </row>
     <row r="63">
@@ -8534,13 +8534,13 @@
         <v>193190</v>
       </c>
       <c r="B63" t="n">
-        <v>0.56133</v>
+        <v>0.549796</v>
       </c>
       <c r="C63" t="n">
-        <v>0.311105</v>
+        <v>0.251471</v>
       </c>
       <c r="D63" t="n">
-        <v>0.385415</v>
+        <v>0.380988</v>
       </c>
     </row>
     <row r="64">
@@ -8548,13 +8548,13 @@
         <v>202820</v>
       </c>
       <c r="B64" t="n">
-        <v>0.568603</v>
+        <v>0.556383</v>
       </c>
       <c r="C64" t="n">
-        <v>0.361409</v>
+        <v>0.306369</v>
       </c>
       <c r="D64" t="n">
-        <v>0.409173</v>
+        <v>0.425573</v>
       </c>
     </row>
     <row r="65">
@@ -8562,13 +8562,13 @@
         <v>212931</v>
       </c>
       <c r="B65" t="n">
-        <v>0.589485</v>
+        <v>0.597543</v>
       </c>
       <c r="C65" t="n">
-        <v>0.372483</v>
+        <v>0.319039</v>
       </c>
       <c r="D65" t="n">
-        <v>0.41723</v>
+        <v>0.429776</v>
       </c>
     </row>
     <row r="66">
@@ -8576,13 +8576,13 @@
         <v>223547</v>
       </c>
       <c r="B66" t="n">
-        <v>0.605278</v>
+        <v>0.615635</v>
       </c>
       <c r="C66" t="n">
-        <v>0.397353</v>
+        <v>0.328324</v>
       </c>
       <c r="D66" t="n">
-        <v>0.435175</v>
+        <v>0.426676</v>
       </c>
     </row>
     <row r="67">
@@ -8590,13 +8590,13 @@
         <v>234692</v>
       </c>
       <c r="B67" t="n">
-        <v>0.628949</v>
+        <v>0.613446</v>
       </c>
       <c r="C67" t="n">
-        <v>0.418481</v>
+        <v>0.35101</v>
       </c>
       <c r="D67" t="n">
-        <v>0.452039</v>
+        <v>0.441299</v>
       </c>
     </row>
     <row r="68">
@@ -8604,13 +8604,13 @@
         <v>246395</v>
       </c>
       <c r="B68" t="n">
-        <v>0.655988</v>
+        <v>0.6309979999999999</v>
       </c>
       <c r="C68" t="n">
-        <v>0.438486</v>
+        <v>0.373103</v>
       </c>
       <c r="D68" t="n">
-        <v>0.444032</v>
+        <v>0.455905</v>
       </c>
     </row>
     <row r="69">
@@ -8618,13 +8618,13 @@
         <v>258683</v>
       </c>
       <c r="B69" t="n">
-        <v>0.646487</v>
+        <v>0.652214</v>
       </c>
       <c r="C69" t="n">
-        <v>0.465451</v>
+        <v>0.389509</v>
       </c>
       <c r="D69" t="n">
-        <v>0.470104</v>
+        <v>0.466867</v>
       </c>
     </row>
     <row r="70">
@@ -8632,13 +8632,13 @@
         <v>271585</v>
       </c>
       <c r="B70" t="n">
-        <v>0.681836</v>
+        <v>0.672652</v>
       </c>
       <c r="C70" t="n">
-        <v>0.48592</v>
+        <v>0.40481</v>
       </c>
       <c r="D70" t="n">
-        <v>0.486487</v>
+        <v>0.477341</v>
       </c>
     </row>
     <row r="71">
@@ -8646,13 +8646,13 @@
         <v>285132</v>
       </c>
       <c r="B71" t="n">
-        <v>0.693724</v>
+        <v>0.685445</v>
       </c>
       <c r="C71" t="n">
-        <v>0.505145</v>
+        <v>0.425123</v>
       </c>
       <c r="D71" t="n">
-        <v>0.494786</v>
+        <v>0.500275</v>
       </c>
     </row>
     <row r="72">
@@ -8660,13 +8660,13 @@
         <v>299354</v>
       </c>
       <c r="B72" t="n">
-        <v>0.720129</v>
+        <v>0.716576</v>
       </c>
       <c r="C72" t="n">
-        <v>0.532432</v>
+        <v>0.439038</v>
       </c>
       <c r="D72" t="n">
-        <v>0.516747</v>
+        <v>0.522295</v>
       </c>
     </row>
     <row r="73">
@@ -8674,13 +8674,13 @@
         <v>314289</v>
       </c>
       <c r="B73" t="n">
-        <v>0.76542</v>
+        <v>0.738851</v>
       </c>
       <c r="C73" t="n">
-        <v>0.561662</v>
+        <v>0.455244</v>
       </c>
       <c r="D73" t="n">
-        <v>0.564293</v>
+        <v>0.539492</v>
       </c>
     </row>
     <row r="74">
@@ -8688,13 +8688,13 @@
         <v>329969</v>
       </c>
       <c r="B74" t="n">
-        <v>0.790432</v>
+        <v>0.773467</v>
       </c>
       <c r="C74" t="n">
-        <v>0.584403</v>
+        <v>0.480298</v>
       </c>
       <c r="D74" t="n">
-        <v>0.570457</v>
+        <v>0.578258</v>
       </c>
     </row>
     <row r="75">
@@ -8702,13 +8702,13 @@
         <v>346432</v>
       </c>
       <c r="B75" t="n">
-        <v>0.826233</v>
+        <v>0.831687</v>
       </c>
       <c r="C75" t="n">
-        <v>0.605542</v>
+        <v>0.50393</v>
       </c>
       <c r="D75" t="n">
-        <v>0.599047</v>
+        <v>0.614004</v>
       </c>
     </row>
     <row r="76">
@@ -8716,13 +8716,13 @@
         <v>363719</v>
       </c>
       <c r="B76" t="n">
-        <v>0.869214</v>
+        <v>0.849827</v>
       </c>
       <c r="C76" t="n">
-        <v>0.62448</v>
+        <v>0.516397</v>
       </c>
       <c r="D76" t="n">
-        <v>0.645817</v>
+        <v>0.626338</v>
       </c>
     </row>
     <row r="77">
@@ -8730,13 +8730,13 @@
         <v>381870</v>
       </c>
       <c r="B77" t="n">
-        <v>0.934113</v>
+        <v>0.90318</v>
       </c>
       <c r="C77" t="n">
-        <v>0.654784</v>
+        <v>0.541533</v>
       </c>
       <c r="D77" t="n">
-        <v>0.682221</v>
+        <v>0.663689</v>
       </c>
     </row>
     <row r="78">
@@ -8744,13 +8744,13 @@
         <v>400928</v>
       </c>
       <c r="B78" t="n">
-        <v>0.9685319999999999</v>
+        <v>0.947275</v>
       </c>
       <c r="C78" t="n">
-        <v>0.79328</v>
+        <v>0.632085</v>
       </c>
       <c r="D78" t="n">
-        <v>0.9591460000000001</v>
+        <v>0.890703</v>
       </c>
     </row>
     <row r="79">
@@ -8758,13 +8758,13 @@
         <v>420937</v>
       </c>
       <c r="B79" t="n">
-        <v>1.34747</v>
+        <v>1.22659</v>
       </c>
       <c r="C79" t="n">
-        <v>0.806149</v>
+        <v>0.644002</v>
       </c>
       <c r="D79" t="n">
-        <v>1.02735</v>
+        <v>0.937367</v>
       </c>
     </row>
     <row r="80">
@@ -8772,13 +8772,13 @@
         <v>441947</v>
       </c>
       <c r="B80" t="n">
-        <v>1.42794</v>
+        <v>1.28017</v>
       </c>
       <c r="C80" t="n">
-        <v>0.82195</v>
+        <v>0.656469</v>
       </c>
       <c r="D80" t="n">
-        <v>1.06158</v>
+        <v>0.982712</v>
       </c>
     </row>
     <row r="81">
@@ -8786,13 +8786,13 @@
         <v>464005</v>
       </c>
       <c r="B81" t="n">
-        <v>1.46951</v>
+        <v>1.33767</v>
       </c>
       <c r="C81" t="n">
-        <v>0.833898</v>
+        <v>0.668106</v>
       </c>
       <c r="D81" t="n">
-        <v>1.11825</v>
+        <v>1.02524</v>
       </c>
     </row>
     <row r="82">
@@ -8800,13 +8800,13 @@
         <v>487165</v>
       </c>
       <c r="B82" t="n">
-        <v>1.55231</v>
+        <v>1.39248</v>
       </c>
       <c r="C82" t="n">
-        <v>0.851277</v>
+        <v>0.681206</v>
       </c>
       <c r="D82" t="n">
-        <v>1.15819</v>
+        <v>1.06128</v>
       </c>
     </row>
     <row r="83">
@@ -8814,13 +8814,13 @@
         <v>511485</v>
       </c>
       <c r="B83" t="n">
-        <v>1.60202</v>
+        <v>1.4338</v>
       </c>
       <c r="C83" t="n">
-        <v>0.863054</v>
+        <v>0.691177</v>
       </c>
       <c r="D83" t="n">
-        <v>1.20864</v>
+        <v>1.09653</v>
       </c>
     </row>
     <row r="84">
@@ -8828,13 +8828,13 @@
         <v>537019</v>
       </c>
       <c r="B84" t="n">
-        <v>1.66715</v>
+        <v>1.47773</v>
       </c>
       <c r="C84" t="n">
-        <v>0.87623</v>
+        <v>0.702413</v>
       </c>
       <c r="D84" t="n">
-        <v>1.25771</v>
+        <v>1.13504</v>
       </c>
     </row>
     <row r="85">
@@ -8842,13 +8842,13 @@
         <v>563827</v>
       </c>
       <c r="B85" t="n">
-        <v>1.72961</v>
+        <v>1.53033</v>
       </c>
       <c r="C85" t="n">
-        <v>0.889312</v>
+        <v>0.71572</v>
       </c>
       <c r="D85" t="n">
-        <v>1.28827</v>
+        <v>1.17474</v>
       </c>
     </row>
     <row r="86">
@@ -8856,13 +8856,13 @@
         <v>591977</v>
       </c>
       <c r="B86" t="n">
-        <v>1.7744</v>
+        <v>1.57713</v>
       </c>
       <c r="C86" t="n">
-        <v>0.900502</v>
+        <v>0.725673</v>
       </c>
       <c r="D86" t="n">
-        <v>1.3343</v>
+        <v>1.21329</v>
       </c>
     </row>
     <row r="87">
@@ -8870,13 +8870,13 @@
         <v>621532</v>
       </c>
       <c r="B87" t="n">
-        <v>1.83994</v>
+        <v>1.62637</v>
       </c>
       <c r="C87" t="n">
-        <v>0.913465</v>
+        <v>0.738173</v>
       </c>
       <c r="D87" t="n">
-        <v>1.37674</v>
+        <v>1.25122</v>
       </c>
     </row>
     <row r="88">
@@ -8884,13 +8884,13 @@
         <v>652567</v>
       </c>
       <c r="B88" t="n">
-        <v>1.88885</v>
+        <v>1.67367</v>
       </c>
       <c r="C88" t="n">
-        <v>0.9268690000000001</v>
+        <v>0.750534</v>
       </c>
       <c r="D88" t="n">
-        <v>1.41725</v>
+        <v>1.28536</v>
       </c>
     </row>
     <row r="89">
@@ -8898,13 +8898,13 @@
         <v>685151</v>
       </c>
       <c r="B89" t="n">
-        <v>1.95255</v>
+        <v>1.717</v>
       </c>
       <c r="C89" t="n">
-        <v>0.94267</v>
+        <v>0.760564</v>
       </c>
       <c r="D89" t="n">
-        <v>1.4571</v>
+        <v>1.32063</v>
       </c>
     </row>
     <row r="90">
@@ -8912,13 +8912,13 @@
         <v>719359</v>
       </c>
       <c r="B90" t="n">
-        <v>2.00357</v>
+        <v>1.75626</v>
       </c>
       <c r="C90" t="n">
-        <v>0.954202</v>
+        <v>0.775413</v>
       </c>
       <c r="D90" t="n">
-        <v>1.49458</v>
+        <v>1.35232</v>
       </c>
     </row>
     <row r="91">
@@ -8926,13 +8926,13 @@
         <v>755280</v>
       </c>
       <c r="B91" t="n">
-        <v>2.05666</v>
+        <v>1.80367</v>
       </c>
       <c r="C91" t="n">
-        <v>0.967162</v>
+        <v>0.786192</v>
       </c>
       <c r="D91" t="n">
-        <v>1.52731</v>
+        <v>1.38413</v>
       </c>
     </row>
     <row r="92">
@@ -8940,13 +8940,13 @@
         <v>792997</v>
       </c>
       <c r="B92" t="n">
-        <v>2.10516</v>
+        <v>1.84052</v>
       </c>
       <c r="C92" t="n">
-        <v>1.03736</v>
+        <v>0.792696</v>
       </c>
       <c r="D92" t="n">
-        <v>1.75721</v>
+        <v>1.56285</v>
       </c>
     </row>
     <row r="93">
@@ -8954,13 +8954,13 @@
         <v>832595</v>
       </c>
       <c r="B93" t="n">
-        <v>2.39481</v>
+        <v>2.06125</v>
       </c>
       <c r="C93" t="n">
-        <v>1.04651</v>
+        <v>0.800092</v>
       </c>
       <c r="D93" t="n">
-        <v>1.77866</v>
+        <v>1.58483</v>
       </c>
     </row>
     <row r="94">
@@ -8968,13 +8968,13 @@
         <v>874177</v>
       </c>
       <c r="B94" t="n">
-        <v>2.42882</v>
+        <v>2.08954</v>
       </c>
       <c r="C94" t="n">
-        <v>1.05568</v>
+        <v>0.807791</v>
       </c>
       <c r="D94" t="n">
-        <v>1.79501</v>
+        <v>1.60801</v>
       </c>
     </row>
     <row r="95">
@@ -8982,13 +8982,13 @@
         <v>917832</v>
       </c>
       <c r="B95" t="n">
-        <v>2.44874</v>
+        <v>2.11576</v>
       </c>
       <c r="C95" t="n">
-        <v>1.06255</v>
+        <v>0.8139960000000001</v>
       </c>
       <c r="D95" t="n">
-        <v>1.80439</v>
+        <v>1.62683</v>
       </c>
     </row>
     <row r="96">
@@ -8996,13 +8996,13 @@
         <v>963677</v>
       </c>
       <c r="B96" t="n">
-        <v>2.48877</v>
+        <v>2.14453</v>
       </c>
       <c r="C96" t="n">
-        <v>1.07283</v>
+        <v>0.823292</v>
       </c>
       <c r="D96" t="n">
-        <v>1.84594</v>
+        <v>1.64827</v>
       </c>
     </row>
     <row r="97">
@@ -9010,13 +9010,13 @@
         <v>1011813</v>
       </c>
       <c r="B97" t="n">
-        <v>2.52188</v>
+        <v>2.17287</v>
       </c>
       <c r="C97" t="n">
-        <v>1.08117</v>
+        <v>0.829768</v>
       </c>
       <c r="D97" t="n">
-        <v>1.8679</v>
+        <v>1.66702</v>
       </c>
     </row>
     <row r="98">
@@ -9024,13 +9024,13 @@
         <v>1062351</v>
       </c>
       <c r="B98" t="n">
-        <v>2.55583</v>
+        <v>2.19605</v>
       </c>
       <c r="C98" t="n">
-        <v>1.09426</v>
+        <v>0.8387869999999999</v>
       </c>
       <c r="D98" t="n">
-        <v>1.87809</v>
+        <v>1.68627</v>
       </c>
     </row>
     <row r="99">
@@ -9038,13 +9038,13 @@
         <v>1115422</v>
       </c>
       <c r="B99" t="n">
-        <v>2.58361</v>
+        <v>2.225</v>
       </c>
       <c r="C99" t="n">
-        <v>1.09893</v>
+        <v>0.8491570000000001</v>
       </c>
       <c r="D99" t="n">
-        <v>1.89504</v>
+        <v>1.70364</v>
       </c>
     </row>
     <row r="100">
@@ -9052,13 +9052,13 @@
         <v>1171143</v>
       </c>
       <c r="B100" t="n">
-        <v>2.61054</v>
+        <v>2.24781</v>
       </c>
       <c r="C100" t="n">
-        <v>1.10705</v>
+        <v>0.856642</v>
       </c>
       <c r="D100" t="n">
-        <v>1.92063</v>
+        <v>1.7197</v>
       </c>
     </row>
     <row r="101">
@@ -9066,13 +9066,13 @@
         <v>1229634</v>
       </c>
       <c r="B101" t="n">
-        <v>2.64011</v>
+        <v>2.27315</v>
       </c>
       <c r="C101" t="n">
-        <v>1.11687</v>
+        <v>0.866113</v>
       </c>
       <c r="D101" t="n">
-        <v>1.92925</v>
+        <v>1.73415</v>
       </c>
     </row>
     <row r="102">
@@ -9080,13 +9080,13 @@
         <v>1291062</v>
       </c>
       <c r="B102" t="n">
-        <v>2.67059</v>
+        <v>2.29369</v>
       </c>
       <c r="C102" t="n">
-        <v>1.12809</v>
+        <v>0.878513</v>
       </c>
       <c r="D102" t="n">
-        <v>1.94692</v>
+        <v>1.74291</v>
       </c>
     </row>
     <row r="103">
@@ -9094,13 +9094,13 @@
         <v>1355554</v>
       </c>
       <c r="B103" t="n">
-        <v>2.69726</v>
+        <v>2.32285</v>
       </c>
       <c r="C103" t="n">
-        <v>1.14204</v>
+        <v>0.887505</v>
       </c>
       <c r="D103" t="n">
-        <v>1.97871</v>
+        <v>1.75984</v>
       </c>
     </row>
     <row r="104">
@@ -9108,13 +9108,13 @@
         <v>1423274</v>
       </c>
       <c r="B104" t="n">
-        <v>2.74076</v>
+        <v>2.34742</v>
       </c>
       <c r="C104" t="n">
-        <v>1.15553</v>
+        <v>0.898603</v>
       </c>
       <c r="D104" t="n">
-        <v>2.00109</v>
+        <v>1.78021</v>
       </c>
     </row>
     <row r="105">
@@ -9122,13 +9122,13 @@
         <v>1494380</v>
       </c>
       <c r="B105" t="n">
-        <v>2.76801</v>
+        <v>2.36913</v>
       </c>
       <c r="C105" t="n">
-        <v>1.16707</v>
+        <v>0.909152</v>
       </c>
       <c r="D105" t="n">
-        <v>2.02032</v>
+        <v>1.79265</v>
       </c>
     </row>
     <row r="106">
@@ -9136,13 +9136,13 @@
         <v>1569031</v>
       </c>
       <c r="B106" t="n">
-        <v>2.7947</v>
+        <v>2.39312</v>
       </c>
       <c r="C106" t="n">
-        <v>1.18095</v>
+        <v>0.9219850000000001</v>
       </c>
       <c r="D106" t="n">
-        <v>2.03042</v>
+        <v>1.80916</v>
       </c>
     </row>
     <row r="107">
@@ -9150,13 +9150,13 @@
         <v>1647417</v>
       </c>
       <c r="B107" t="n">
-        <v>2.91847</v>
+        <v>2.50621</v>
       </c>
       <c r="C107" t="n">
-        <v>1.17689</v>
+        <v>0.869247</v>
       </c>
       <c r="D107" t="n">
-        <v>2.1527</v>
+        <v>1.90826</v>
       </c>
     </row>
     <row r="108">
@@ -9164,13 +9164,13 @@
         <v>1729734</v>
       </c>
       <c r="B108" t="n">
-        <v>2.93292</v>
+        <v>2.51784</v>
       </c>
       <c r="C108" t="n">
-        <v>1.18601</v>
+        <v>0.875909</v>
       </c>
       <c r="D108" t="n">
-        <v>2.16637</v>
+        <v>1.91711</v>
       </c>
     </row>
     <row r="109">
@@ -9178,13 +9178,13 @@
         <v>1816153</v>
       </c>
       <c r="B109" t="n">
-        <v>2.93717</v>
+        <v>2.53621</v>
       </c>
       <c r="C109" t="n">
-        <v>1.18323</v>
+        <v>0.8847739999999999</v>
       </c>
       <c r="D109" t="n">
-        <v>2.15907</v>
+        <v>1.9263</v>
       </c>
     </row>
     <row r="110">
@@ -9192,13 +9192,13 @@
         <v>1906885</v>
       </c>
       <c r="B110" t="n">
-        <v>2.9705</v>
+        <v>2.55124</v>
       </c>
       <c r="C110" t="n">
-        <v>1.20202</v>
+        <v>0.890246</v>
       </c>
       <c r="D110" t="n">
-        <v>2.18546</v>
+        <v>1.93496</v>
       </c>
     </row>
     <row r="111">
@@ -9206,13 +9206,13 @@
         <v>2002164</v>
       </c>
       <c r="B111" t="n">
-        <v>2.99049</v>
+        <v>2.56355</v>
       </c>
       <c r="C111" t="n">
-        <v>1.20972</v>
+        <v>0.898873</v>
       </c>
       <c r="D111" t="n">
-        <v>2.19539</v>
+        <v>1.94235</v>
       </c>
     </row>
     <row r="112">
@@ -9220,13 +9220,13 @@
         <v>2102198</v>
       </c>
       <c r="B112" t="n">
-        <v>3.00024</v>
+        <v>2.57788</v>
       </c>
       <c r="C112" t="n">
-        <v>1.21625</v>
+        <v>0.90784</v>
       </c>
       <c r="D112" t="n">
-        <v>2.19947</v>
+        <v>1.94874</v>
       </c>
     </row>
     <row r="113">
@@ -9234,13 +9234,13 @@
         <v>2207233</v>
       </c>
       <c r="B113" t="n">
-        <v>3.00525</v>
+        <v>2.59379</v>
       </c>
       <c r="C113" t="n">
-        <v>1.21456</v>
+        <v>0.9172439999999999</v>
       </c>
       <c r="D113" t="n">
-        <v>2.20793</v>
+        <v>1.95342</v>
       </c>
     </row>
     <row r="114">
@@ -9248,13 +9248,13 @@
         <v>2317508</v>
       </c>
       <c r="B114" t="n">
-        <v>3.03808</v>
+        <v>2.61077</v>
       </c>
       <c r="C114" t="n">
-        <v>1.23558</v>
+        <v>0.930588</v>
       </c>
       <c r="D114" t="n">
-        <v>2.2141</v>
+        <v>1.96953</v>
       </c>
     </row>
     <row r="115">
@@ -9262,13 +9262,13 @@
         <v>2433290</v>
       </c>
       <c r="B115" t="n">
-        <v>3.06159</v>
+        <v>2.62088</v>
       </c>
       <c r="C115" t="n">
-        <v>1.24803</v>
+        <v>0.9383280000000001</v>
       </c>
       <c r="D115" t="n">
-        <v>2.22935</v>
+        <v>1.97452</v>
       </c>
     </row>
     <row r="116">
@@ -9276,13 +9276,13 @@
         <v>2554854</v>
       </c>
       <c r="B116" t="n">
-        <v>3.07586</v>
+        <v>2.63666</v>
       </c>
       <c r="C116" t="n">
-        <v>1.25804</v>
+        <v>0.94377</v>
       </c>
       <c r="D116" t="n">
-        <v>2.24076</v>
+        <v>1.98383</v>
       </c>
     </row>
     <row r="117">
@@ -9290,13 +9290,13 @@
         <v>2682511</v>
       </c>
       <c r="B117" t="n">
-        <v>3.09721</v>
+        <v>2.65082</v>
       </c>
       <c r="C117" t="n">
-        <v>1.27107</v>
+        <v>0.958653</v>
       </c>
       <c r="D117" t="n">
-        <v>2.2484</v>
+        <v>1.99418</v>
       </c>
     </row>
     <row r="118">
@@ -9304,13 +9304,13 @@
         <v>2816546</v>
       </c>
       <c r="B118" t="n">
-        <v>3.11319</v>
+        <v>2.66728</v>
       </c>
       <c r="C118" t="n">
-        <v>1.28154</v>
+        <v>0.967127</v>
       </c>
       <c r="D118" t="n">
-        <v>2.25623</v>
+        <v>1.99232</v>
       </c>
     </row>
     <row r="119">
@@ -9318,13 +9318,13 @@
         <v>2957287</v>
       </c>
       <c r="B119" t="n">
-        <v>3.14012</v>
+        <v>2.68338</v>
       </c>
       <c r="C119" t="n">
-        <v>1.29356</v>
+        <v>0.9769370000000001</v>
       </c>
       <c r="D119" t="n">
-        <v>2.2458</v>
+        <v>2.00917</v>
       </c>
     </row>
   </sheetData>
@@ -9372,13 +9372,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.562731</v>
+        <v>0.550639</v>
       </c>
       <c r="C2" t="n">
-        <v>0.358576</v>
+        <v>0.302384</v>
       </c>
       <c r="D2" t="n">
-        <v>0.34537</v>
+        <v>0.34061</v>
       </c>
     </row>
     <row r="3">
@@ -9386,13 +9386,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.565138</v>
+        <v>0.553503</v>
       </c>
       <c r="C3" t="n">
-        <v>0.36136</v>
+        <v>0.311444</v>
       </c>
       <c r="D3" t="n">
-        <v>0.35105</v>
+        <v>0.345955</v>
       </c>
     </row>
     <row r="4">
@@ -9400,13 +9400,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.574394</v>
+        <v>0.567472</v>
       </c>
       <c r="C4" t="n">
-        <v>0.367657</v>
+        <v>0.313268</v>
       </c>
       <c r="D4" t="n">
-        <v>0.353253</v>
+        <v>0.351248</v>
       </c>
     </row>
     <row r="5">
@@ -9414,13 +9414,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.580582</v>
+        <v>0.57078</v>
       </c>
       <c r="C5" t="n">
-        <v>0.373813</v>
+        <v>0.316956</v>
       </c>
       <c r="D5" t="n">
-        <v>0.358663</v>
+        <v>0.358889</v>
       </c>
     </row>
     <row r="6">
@@ -9428,13 +9428,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.588004</v>
+        <v>0.584186</v>
       </c>
       <c r="C6" t="n">
-        <v>0.378529</v>
+        <v>0.325054</v>
       </c>
       <c r="D6" t="n">
-        <v>0.364809</v>
+        <v>0.359222</v>
       </c>
     </row>
     <row r="7">
@@ -9442,13 +9442,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.590538</v>
+        <v>0.584461</v>
       </c>
       <c r="C7" t="n">
-        <v>0.390041</v>
+        <v>0.334715</v>
       </c>
       <c r="D7" t="n">
-        <v>0.374205</v>
+        <v>0.369816</v>
       </c>
     </row>
     <row r="8">
@@ -9456,13 +9456,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.599419</v>
+        <v>0.5903</v>
       </c>
       <c r="C8" t="n">
-        <v>0.391198</v>
+        <v>0.337732</v>
       </c>
       <c r="D8" t="n">
-        <v>0.378294</v>
+        <v>0.380521</v>
       </c>
     </row>
     <row r="9">
@@ -9470,13 +9470,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.61033</v>
+        <v>0.5990760000000001</v>
       </c>
       <c r="C9" t="n">
-        <v>0.391323</v>
+        <v>0.341065</v>
       </c>
       <c r="D9" t="n">
-        <v>0.377594</v>
+        <v>0.384156</v>
       </c>
     </row>
     <row r="10">
@@ -9484,13 +9484,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.621629</v>
+        <v>0.615906</v>
       </c>
       <c r="C10" t="n">
-        <v>0.401384</v>
+        <v>0.349535</v>
       </c>
       <c r="D10" t="n">
-        <v>0.382087</v>
+        <v>0.388933</v>
       </c>
     </row>
     <row r="11">
@@ -9498,13 +9498,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.6249</v>
+        <v>0.624129</v>
       </c>
       <c r="C11" t="n">
-        <v>0.400426</v>
+        <v>0.349412</v>
       </c>
       <c r="D11" t="n">
-        <v>0.383712</v>
+        <v>0.39242</v>
       </c>
     </row>
     <row r="12">
@@ -9512,13 +9512,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.630894</v>
+        <v>0.625234</v>
       </c>
       <c r="C12" t="n">
-        <v>0.408122</v>
+        <v>0.355928</v>
       </c>
       <c r="D12" t="n">
-        <v>0.396185</v>
+        <v>0.398117</v>
       </c>
     </row>
     <row r="13">
@@ -9526,13 +9526,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.641524</v>
+        <v>0.636598</v>
       </c>
       <c r="C13" t="n">
-        <v>0.407376</v>
+        <v>0.356016</v>
       </c>
       <c r="D13" t="n">
-        <v>0.395882</v>
+        <v>0.405364</v>
       </c>
     </row>
     <row r="14">
@@ -9540,13 +9540,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.646177</v>
+        <v>0.649284</v>
       </c>
       <c r="C14" t="n">
-        <v>0.406129</v>
+        <v>0.357906</v>
       </c>
       <c r="D14" t="n">
-        <v>0.402162</v>
+        <v>0.410764</v>
       </c>
     </row>
     <row r="15">
@@ -9554,13 +9554,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.6601669999999999</v>
+        <v>0.656855</v>
       </c>
       <c r="C15" t="n">
-        <v>0.417886</v>
+        <v>0.368018</v>
       </c>
       <c r="D15" t="n">
-        <v>0.410199</v>
+        <v>0.413324</v>
       </c>
     </row>
     <row r="16">
@@ -9568,13 +9568,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.659872</v>
+        <v>0.657872</v>
       </c>
       <c r="C16" t="n">
-        <v>0.420286</v>
+        <v>0.370571</v>
       </c>
       <c r="D16" t="n">
-        <v>0.412683</v>
+        <v>0.420467</v>
       </c>
     </row>
     <row r="17">
@@ -9582,13 +9582,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.672051</v>
+        <v>0.671204</v>
       </c>
       <c r="C17" t="n">
-        <v>0.419968</v>
+        <v>0.373131</v>
       </c>
       <c r="D17" t="n">
-        <v>0.41398</v>
+        <v>0.42498</v>
       </c>
     </row>
     <row r="18">
@@ -9596,13 +9596,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.676794</v>
+        <v>0.675812</v>
       </c>
       <c r="C18" t="n">
-        <v>0.428724</v>
+        <v>0.380511</v>
       </c>
       <c r="D18" t="n">
-        <v>0.42509</v>
+        <v>0.430572</v>
       </c>
     </row>
     <row r="19">
@@ -9610,13 +9610,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.689805</v>
+        <v>0.685638</v>
       </c>
       <c r="C19" t="n">
-        <v>0.430256</v>
+        <v>0.383172</v>
       </c>
       <c r="D19" t="n">
-        <v>0.429521</v>
+        <v>0.435378</v>
       </c>
     </row>
     <row r="20">
@@ -9624,13 +9624,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.7003819999999999</v>
+        <v>0.700411</v>
       </c>
       <c r="C20" t="n">
-        <v>0.437441</v>
+        <v>0.392706</v>
       </c>
       <c r="D20" t="n">
-        <v>0.433776</v>
+        <v>0.44295</v>
       </c>
     </row>
     <row r="21">
@@ -9638,13 +9638,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.705418</v>
+        <v>0.705296</v>
       </c>
       <c r="C21" t="n">
-        <v>0.437706</v>
+        <v>0.392969</v>
       </c>
       <c r="D21" t="n">
-        <v>0.440126</v>
+        <v>0.451175</v>
       </c>
     </row>
     <row r="22">
@@ -9652,13 +9652,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.708911</v>
+        <v>0.710042</v>
       </c>
       <c r="C22" t="n">
-        <v>0.443112</v>
+        <v>0.398654</v>
       </c>
       <c r="D22" t="n">
-        <v>0.447856</v>
+        <v>0.454615</v>
       </c>
     </row>
     <row r="23">
@@ -9666,13 +9666,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.723333</v>
+        <v>0.723607</v>
       </c>
       <c r="C23" t="n">
-        <v>0.44205</v>
+        <v>0.39759</v>
       </c>
       <c r="D23" t="n">
-        <v>0.445776</v>
+        <v>0.462839</v>
       </c>
     </row>
     <row r="24">
@@ -9680,13 +9680,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.728163</v>
+        <v>0.728947</v>
       </c>
       <c r="C24" t="n">
-        <v>0.447982</v>
+        <v>0.401482</v>
       </c>
       <c r="D24" t="n">
-        <v>0.456938</v>
+        <v>0.465028</v>
       </c>
     </row>
     <row r="25">
@@ -9694,13 +9694,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.741544</v>
+        <v>0.7425</v>
       </c>
       <c r="C25" t="n">
-        <v>0.458936</v>
+        <v>0.413626</v>
       </c>
       <c r="D25" t="n">
-        <v>0.453781</v>
+        <v>0.470231</v>
       </c>
     </row>
     <row r="26">
@@ -9708,13 +9708,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.742143</v>
+        <v>0.7422</v>
       </c>
       <c r="C26" t="n">
-        <v>0.455583</v>
+        <v>0.41291</v>
       </c>
       <c r="D26" t="n">
-        <v>0.465717</v>
+        <v>0.475059</v>
       </c>
     </row>
     <row r="27">
@@ -9722,13 +9722,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.746522</v>
+        <v>0.748183</v>
       </c>
       <c r="C27" t="n">
-        <v>0.459334</v>
+        <v>0.417489</v>
       </c>
       <c r="D27" t="n">
-        <v>0.463352</v>
+        <v>0.479277</v>
       </c>
     </row>
     <row r="28">
@@ -9736,13 +9736,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.753954</v>
+        <v>0.7536079999999999</v>
       </c>
       <c r="C28" t="n">
-        <v>0.460883</v>
+        <v>0.418981</v>
       </c>
       <c r="D28" t="n">
-        <v>0.463863</v>
+        <v>0.480799</v>
       </c>
     </row>
     <row r="29">
@@ -9750,13 +9750,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.761228</v>
+        <v>0.762211</v>
       </c>
       <c r="C29" t="n">
-        <v>0.467062</v>
+        <v>0.425686</v>
       </c>
       <c r="D29" t="n">
-        <v>0.469013</v>
+        <v>0.486365</v>
       </c>
     </row>
     <row r="30">
@@ -9764,13 +9764,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.76949</v>
+        <v>0.770381</v>
       </c>
       <c r="C30" t="n">
-        <v>0.472974</v>
+        <v>0.432988</v>
       </c>
       <c r="D30" t="n">
-        <v>0.481175</v>
+        <v>0.48979</v>
       </c>
     </row>
     <row r="31">
@@ -9778,13 +9778,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.780951</v>
+        <v>0.7786419999999999</v>
       </c>
       <c r="C31" t="n">
-        <v>0.472948</v>
+        <v>0.430675</v>
       </c>
       <c r="D31" t="n">
-        <v>0.485983</v>
+        <v>0.493502</v>
       </c>
     </row>
     <row r="32">
@@ -9792,13 +9792,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.784466</v>
+        <v>0.781529</v>
       </c>
       <c r="C32" t="n">
-        <v>0.480425</v>
+        <v>0.43511</v>
       </c>
       <c r="D32" t="n">
-        <v>0.489417</v>
+        <v>0.497144</v>
       </c>
     </row>
     <row r="33">
@@ -9806,13 +9806,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.792188</v>
+        <v>0.7897459999999999</v>
       </c>
       <c r="C33" t="n">
-        <v>0.482716</v>
+        <v>0.440804</v>
       </c>
       <c r="D33" t="n">
-        <v>0.489966</v>
+        <v>0.498977</v>
       </c>
     </row>
     <row r="34">
@@ -9820,13 +9820,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.797914</v>
+        <v>0.79737</v>
       </c>
       <c r="C34" t="n">
-        <v>0.481584</v>
+        <v>0.442483</v>
       </c>
       <c r="D34" t="n">
-        <v>0.486502</v>
+        <v>0.502911</v>
       </c>
     </row>
     <row r="35">
@@ -9834,13 +9834,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.801303</v>
+        <v>0.8014559999999999</v>
       </c>
       <c r="C35" t="n">
-        <v>0.461552</v>
+        <v>0.41655</v>
       </c>
       <c r="D35" t="n">
-        <v>0.493728</v>
+        <v>0.504864</v>
       </c>
     </row>
     <row r="36">
@@ -9848,13 +9848,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.796637</v>
+        <v>0.796906</v>
       </c>
       <c r="C36" t="n">
-        <v>0.467765</v>
+        <v>0.422209</v>
       </c>
       <c r="D36" t="n">
-        <v>0.499667</v>
+        <v>0.509246</v>
       </c>
     </row>
     <row r="37">
@@ -9862,13 +9862,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.80316</v>
+        <v>0.802305</v>
       </c>
       <c r="C37" t="n">
-        <v>0.469638</v>
+        <v>0.425124</v>
       </c>
       <c r="D37" t="n">
-        <v>0.493021</v>
+        <v>0.5104880000000001</v>
       </c>
     </row>
     <row r="38">
@@ -9876,13 +9876,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.804604</v>
+        <v>0.803562</v>
       </c>
       <c r="C38" t="n">
-        <v>0.46684</v>
+        <v>0.427545</v>
       </c>
       <c r="D38" t="n">
-        <v>0.504084</v>
+        <v>0.514996</v>
       </c>
     </row>
     <row r="39">
@@ -9890,13 +9890,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.806803</v>
+        <v>0.8101390000000001</v>
       </c>
       <c r="C39" t="n">
-        <v>0.474748</v>
+        <v>0.432306</v>
       </c>
       <c r="D39" t="n">
-        <v>0.499415</v>
+        <v>0.516956</v>
       </c>
     </row>
     <row r="40">
@@ -9904,13 +9904,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.813041</v>
+        <v>0.816878</v>
       </c>
       <c r="C40" t="n">
-        <v>0.474682</v>
+        <v>0.434409</v>
       </c>
       <c r="D40" t="n">
-        <v>0.510089</v>
+        <v>0.5193990000000001</v>
       </c>
     </row>
     <row r="41">
@@ -9918,13 +9918,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.82481</v>
+        <v>0.823717</v>
       </c>
       <c r="C41" t="n">
-        <v>0.477631</v>
+        <v>0.437872</v>
       </c>
       <c r="D41" t="n">
-        <v>0.508879</v>
+        <v>0.5217810000000001</v>
       </c>
     </row>
     <row r="42">
@@ -9932,13 +9932,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.824353</v>
+        <v>0.8241270000000001</v>
       </c>
       <c r="C42" t="n">
-        <v>0.482489</v>
+        <v>0.443342</v>
       </c>
       <c r="D42" t="n">
-        <v>0.5119050000000001</v>
+        <v>0.525118</v>
       </c>
     </row>
     <row r="43">
@@ -9946,13 +9946,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.8308410000000001</v>
+        <v>0.8314</v>
       </c>
       <c r="C43" t="n">
-        <v>0.480481</v>
+        <v>0.444084</v>
       </c>
       <c r="D43" t="n">
-        <v>0.5172060000000001</v>
+        <v>0.527131</v>
       </c>
     </row>
     <row r="44">
@@ -9960,13 +9960,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.831669</v>
+        <v>0.832215</v>
       </c>
       <c r="C44" t="n">
-        <v>0.480702</v>
+        <v>0.444285</v>
       </c>
       <c r="D44" t="n">
-        <v>0.515041</v>
+        <v>0.527779</v>
       </c>
     </row>
     <row r="45">
@@ -9974,13 +9974,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.837081</v>
+        <v>0.837014</v>
       </c>
       <c r="C45" t="n">
-        <v>0.490095</v>
+        <v>0.450197</v>
       </c>
       <c r="D45" t="n">
-        <v>0.52017</v>
+        <v>0.529321</v>
       </c>
     </row>
     <row r="46">
@@ -9988,13 +9988,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.841649</v>
+        <v>0.841776</v>
       </c>
       <c r="C46" t="n">
-        <v>0.483166</v>
+        <v>0.449154</v>
       </c>
       <c r="D46" t="n">
-        <v>0.521719</v>
+        <v>0.531159</v>
       </c>
     </row>
     <row r="47">
@@ -10002,13 +10002,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.852243</v>
+        <v>0.850742</v>
       </c>
       <c r="C47" t="n">
-        <v>0.49156</v>
+        <v>0.454743</v>
       </c>
       <c r="D47" t="n">
-        <v>0.527064</v>
+        <v>0.534398</v>
       </c>
     </row>
     <row r="48">
@@ -10016,13 +10016,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.855758</v>
+        <v>0.853929</v>
       </c>
       <c r="C48" t="n">
-        <v>0.493775</v>
+        <v>0.458325</v>
       </c>
       <c r="D48" t="n">
-        <v>0.526814</v>
+        <v>0.535816</v>
       </c>
     </row>
     <row r="49">
@@ -10030,13 +10030,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.859661</v>
+        <v>0.858545</v>
       </c>
       <c r="C49" t="n">
-        <v>0.492075</v>
+        <v>0.459609</v>
       </c>
       <c r="D49" t="n">
-        <v>0.528852</v>
+        <v>0.537391</v>
       </c>
     </row>
     <row r="50">
@@ -10044,13 +10044,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.865451</v>
+        <v>0.865347</v>
       </c>
       <c r="C50" t="n">
-        <v>0.486903</v>
+        <v>0.445834</v>
       </c>
       <c r="D50" t="n">
-        <v>0.525787</v>
+        <v>0.538424</v>
       </c>
     </row>
     <row r="51">
@@ -10058,13 +10058,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.840069</v>
+        <v>0.842067</v>
       </c>
       <c r="C51" t="n">
-        <v>0.488581</v>
+        <v>0.448133</v>
       </c>
       <c r="D51" t="n">
-        <v>0.524393</v>
+        <v>0.53911</v>
       </c>
     </row>
     <row r="52">
@@ -10072,13 +10072,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.846234</v>
+        <v>0.846629</v>
       </c>
       <c r="C52" t="n">
-        <v>0.491392</v>
+        <v>0.452536</v>
       </c>
       <c r="D52" t="n">
-        <v>0.526878</v>
+        <v>0.541579</v>
       </c>
     </row>
     <row r="53">
@@ -10086,13 +10086,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.85193</v>
+        <v>0.85215</v>
       </c>
       <c r="C53" t="n">
-        <v>0.494785</v>
+        <v>0.457482</v>
       </c>
       <c r="D53" t="n">
-        <v>0.529438</v>
+        <v>0.542842</v>
       </c>
     </row>
     <row r="54">
@@ -10100,13 +10100,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.856272</v>
+        <v>0.856497</v>
       </c>
       <c r="C54" t="n">
-        <v>0.500299</v>
+        <v>0.460718</v>
       </c>
       <c r="D54" t="n">
-        <v>0.534487</v>
+        <v>0.544596</v>
       </c>
     </row>
     <row r="55">
@@ -10114,13 +10114,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.860101</v>
+        <v>0.859387</v>
       </c>
       <c r="C55" t="n">
-        <v>0.502858</v>
+        <v>0.461941</v>
       </c>
       <c r="D55" t="n">
-        <v>0.536484</v>
+        <v>0.546631</v>
       </c>
     </row>
     <row r="56">
@@ -10128,13 +10128,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.861916</v>
+        <v>0.8611259999999999</v>
       </c>
       <c r="C56" t="n">
-        <v>0.505726</v>
+        <v>0.461732</v>
       </c>
       <c r="D56" t="n">
-        <v>0.536502</v>
+        <v>0.546872</v>
       </c>
     </row>
     <row r="57">
@@ -10142,13 +10142,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.865269</v>
+        <v>0.864916</v>
       </c>
       <c r="C57" t="n">
-        <v>0.510393</v>
+        <v>0.470628</v>
       </c>
       <c r="D57" t="n">
-        <v>0.540208</v>
+        <v>0.549355</v>
       </c>
     </row>
     <row r="58">
@@ -10156,13 +10156,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.869884</v>
+        <v>0.868779</v>
       </c>
       <c r="C58" t="n">
-        <v>0.513189</v>
+        <v>0.475282</v>
       </c>
       <c r="D58" t="n">
-        <v>0.539753</v>
+        <v>0.5500389999999999</v>
       </c>
     </row>
     <row r="59">
@@ -10170,13 +10170,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.871865</v>
+        <v>0.8728630000000001</v>
       </c>
       <c r="C59" t="n">
-        <v>0.520322</v>
+        <v>0.481929</v>
       </c>
       <c r="D59" t="n">
-        <v>0.5397380000000001</v>
+        <v>0.551706</v>
       </c>
     </row>
     <row r="60">
@@ -10184,13 +10184,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.878109</v>
+        <v>0.878737</v>
       </c>
       <c r="C60" t="n">
-        <v>0.5185689999999999</v>
+        <v>0.480991</v>
       </c>
       <c r="D60" t="n">
-        <v>0.5440120000000001</v>
+        <v>0.553416</v>
       </c>
     </row>
     <row r="61">
@@ -10198,13 +10198,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.877822</v>
+        <v>0.883004</v>
       </c>
       <c r="C61" t="n">
-        <v>0.5280820000000001</v>
+        <v>0.48971</v>
       </c>
       <c r="D61" t="n">
-        <v>0.546534</v>
+        <v>0.553621</v>
       </c>
     </row>
     <row r="62">
@@ -10212,13 +10212,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.887202</v>
+        <v>0.888076</v>
       </c>
       <c r="C62" t="n">
-        <v>0.534139</v>
+        <v>0.494989</v>
       </c>
       <c r="D62" t="n">
-        <v>0.5487880000000001</v>
+        <v>0.55671</v>
       </c>
     </row>
     <row r="63">
@@ -10226,13 +10226,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.894347</v>
+        <v>0.890864</v>
       </c>
       <c r="C63" t="n">
-        <v>0.544412</v>
+        <v>0.50871</v>
       </c>
       <c r="D63" t="n">
-        <v>0.555214</v>
+        <v>0.558478</v>
       </c>
     </row>
     <row r="64">
@@ -10240,13 +10240,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.903616</v>
+        <v>0.898607</v>
       </c>
       <c r="C64" t="n">
-        <v>0.585051</v>
+        <v>0.548071</v>
       </c>
       <c r="D64" t="n">
-        <v>0.581409</v>
+        <v>0.592175</v>
       </c>
     </row>
     <row r="65">
@@ -10254,13 +10254,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.9269849999999999</v>
+        <v>0.935271</v>
       </c>
       <c r="C65" t="n">
-        <v>0.591749</v>
+        <v>0.5602819999999999</v>
       </c>
       <c r="D65" t="n">
-        <v>0.582191</v>
+        <v>0.596965</v>
       </c>
     </row>
     <row r="66">
@@ -10268,13 +10268,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.9359420000000001</v>
+        <v>0.942792</v>
       </c>
       <c r="C66" t="n">
-        <v>0.597491</v>
+        <v>0.577371</v>
       </c>
       <c r="D66" t="n">
-        <v>0.59693</v>
+        <v>0.605079</v>
       </c>
     </row>
     <row r="67">
@@ -10282,13 +10282,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.959503</v>
+        <v>0.957568</v>
       </c>
       <c r="C67" t="n">
-        <v>0.6257740000000001</v>
+        <v>0.591345</v>
       </c>
       <c r="D67" t="n">
-        <v>0.602189</v>
+        <v>0.618177</v>
       </c>
     </row>
     <row r="68">
@@ -10296,13 +10296,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.961847</v>
+        <v>0.974285</v>
       </c>
       <c r="C68" t="n">
-        <v>0.648106</v>
+        <v>0.618258</v>
       </c>
       <c r="D68" t="n">
-        <v>0.630063</v>
+        <v>0.632389</v>
       </c>
     </row>
     <row r="69">
@@ -10310,13 +10310,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>1.01165</v>
+        <v>1.00057</v>
       </c>
       <c r="C69" t="n">
-        <v>0.668825</v>
+        <v>0.640795</v>
       </c>
       <c r="D69" t="n">
-        <v>0.629466</v>
+        <v>0.63981</v>
       </c>
     </row>
     <row r="70">
@@ -10324,13 +10324,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>1.01821</v>
+        <v>1.01448</v>
       </c>
       <c r="C70" t="n">
-        <v>0.684685</v>
+        <v>0.661914</v>
       </c>
       <c r="D70" t="n">
-        <v>0.647207</v>
+        <v>0.651088</v>
       </c>
     </row>
     <row r="71">
@@ -10338,13 +10338,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>1.04912</v>
+        <v>1.04037</v>
       </c>
       <c r="C71" t="n">
-        <v>0.735227</v>
+        <v>0.701326</v>
       </c>
       <c r="D71" t="n">
-        <v>0.672067</v>
+        <v>0.674579</v>
       </c>
     </row>
     <row r="72">
@@ -10352,13 +10352,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>1.08509</v>
+        <v>1.07649</v>
       </c>
       <c r="C72" t="n">
-        <v>0.744072</v>
+        <v>0.727361</v>
       </c>
       <c r="D72" t="n">
-        <v>0.692773</v>
+        <v>0.68541</v>
       </c>
     </row>
     <row r="73">
@@ -10366,13 +10366,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>1.12324</v>
+        <v>1.10532</v>
       </c>
       <c r="C73" t="n">
-        <v>0.781264</v>
+        <v>0.764061</v>
       </c>
       <c r="D73" t="n">
-        <v>0.711834</v>
+        <v>0.724699</v>
       </c>
     </row>
     <row r="74">
@@ -10380,13 +10380,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.15861</v>
+        <v>1.16634</v>
       </c>
       <c r="C74" t="n">
-        <v>0.81004</v>
+        <v>0.792004</v>
       </c>
       <c r="D74" t="n">
-        <v>0.756107</v>
+        <v>0.746862</v>
       </c>
     </row>
     <row r="75">
@@ -10394,13 +10394,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>1.22616</v>
+        <v>1.20273</v>
       </c>
       <c r="C75" t="n">
-        <v>0.8578249999999999</v>
+        <v>0.82778</v>
       </c>
       <c r="D75" t="n">
-        <v>0.7865180000000001</v>
+        <v>0.775245</v>
       </c>
     </row>
     <row r="76">
@@ -10408,13 +10408,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>1.27619</v>
+        <v>1.25659</v>
       </c>
       <c r="C76" t="n">
-        <v>0.882251</v>
+        <v>0.872375</v>
       </c>
       <c r="D76" t="n">
-        <v>0.814157</v>
+        <v>0.815604</v>
       </c>
     </row>
     <row r="77">
@@ -10422,13 +10422,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>1.33016</v>
+        <v>1.30367</v>
       </c>
       <c r="C77" t="n">
-        <v>0.925978</v>
+        <v>0.915512</v>
       </c>
       <c r="D77" t="n">
-        <v>0.857657</v>
+        <v>0.853434</v>
       </c>
     </row>
     <row r="78">
@@ -10436,13 +10436,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>1.38547</v>
+        <v>1.3864</v>
       </c>
       <c r="C78" t="n">
-        <v>1.06783</v>
+        <v>1.05499</v>
       </c>
       <c r="D78" t="n">
-        <v>0.977409</v>
+        <v>1.00216</v>
       </c>
     </row>
     <row r="79">
@@ -10450,13 +10450,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.55923</v>
+        <v>1.5842</v>
       </c>
       <c r="C79" t="n">
-        <v>1.10301</v>
+        <v>1.09764</v>
       </c>
       <c r="D79" t="n">
-        <v>1.02514</v>
+        <v>1.04994</v>
       </c>
     </row>
     <row r="80">
@@ -10464,13 +10464,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.62612</v>
+        <v>1.65943</v>
       </c>
       <c r="C80" t="n">
-        <v>1.1364</v>
+        <v>1.13632</v>
       </c>
       <c r="D80" t="n">
-        <v>1.06908</v>
+        <v>1.10718</v>
       </c>
     </row>
     <row r="81">
@@ -10478,13 +10478,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.70709</v>
+        <v>1.74564</v>
       </c>
       <c r="C81" t="n">
-        <v>1.17169</v>
+        <v>1.18254</v>
       </c>
       <c r="D81" t="n">
-        <v>1.13479</v>
+        <v>1.15577</v>
       </c>
     </row>
     <row r="82">
@@ -10492,13 +10492,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.79941</v>
+        <v>1.81492</v>
       </c>
       <c r="C82" t="n">
-        <v>1.20693</v>
+        <v>1.20971</v>
       </c>
       <c r="D82" t="n">
-        <v>1.18346</v>
+        <v>1.2063</v>
       </c>
     </row>
     <row r="83">
@@ -10506,13 +10506,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.88544</v>
+        <v>1.90361</v>
       </c>
       <c r="C83" t="n">
-        <v>1.24945</v>
+        <v>1.25425</v>
       </c>
       <c r="D83" t="n">
-        <v>1.2339</v>
+        <v>1.2666</v>
       </c>
     </row>
     <row r="84">
@@ -10520,13 +10520,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.96911</v>
+        <v>1.99213</v>
       </c>
       <c r="C84" t="n">
-        <v>1.28567</v>
+        <v>1.29818</v>
       </c>
       <c r="D84" t="n">
-        <v>1.30669</v>
+        <v>1.33059</v>
       </c>
     </row>
     <row r="85">
@@ -10534,13 +10534,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>2.06155</v>
+        <v>2.09437</v>
       </c>
       <c r="C85" t="n">
-        <v>1.32295</v>
+        <v>1.34052</v>
       </c>
       <c r="D85" t="n">
-        <v>1.35432</v>
+        <v>1.39329</v>
       </c>
     </row>
     <row r="86">
@@ -10548,13 +10548,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>2.1472</v>
+        <v>2.17383</v>
       </c>
       <c r="C86" t="n">
-        <v>1.35938</v>
+        <v>1.38022</v>
       </c>
       <c r="D86" t="n">
-        <v>1.41419</v>
+        <v>1.44878</v>
       </c>
     </row>
     <row r="87">
@@ -10562,13 +10562,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>2.22777</v>
+        <v>2.2535</v>
       </c>
       <c r="C87" t="n">
-        <v>1.40264</v>
+        <v>1.41697</v>
       </c>
       <c r="D87" t="n">
-        <v>1.47025</v>
+        <v>1.51726</v>
       </c>
     </row>
     <row r="88">
@@ -10576,13 +10576,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>2.3298</v>
+        <v>2.35626</v>
       </c>
       <c r="C88" t="n">
-        <v>1.43922</v>
+        <v>1.46109</v>
       </c>
       <c r="D88" t="n">
-        <v>1.53832</v>
+        <v>1.57059</v>
       </c>
     </row>
     <row r="89">
@@ -10590,13 +10590,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>2.41721</v>
+        <v>2.44419</v>
       </c>
       <c r="C89" t="n">
-        <v>1.47767</v>
+        <v>1.50529</v>
       </c>
       <c r="D89" t="n">
-        <v>1.5908</v>
+        <v>1.62243</v>
       </c>
     </row>
     <row r="90">
@@ -10604,13 +10604,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>2.50004</v>
+        <v>2.53103</v>
       </c>
       <c r="C90" t="n">
-        <v>1.51335</v>
+        <v>1.54421</v>
       </c>
       <c r="D90" t="n">
-        <v>1.65316</v>
+        <v>1.68892</v>
       </c>
     </row>
     <row r="91">
@@ -10618,13 +10618,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>2.59585</v>
+        <v>2.61789</v>
       </c>
       <c r="C91" t="n">
-        <v>1.54666</v>
+        <v>1.58752</v>
       </c>
       <c r="D91" t="n">
-        <v>1.70048</v>
+        <v>1.74249</v>
       </c>
     </row>
     <row r="92">
@@ -10632,13 +10632,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>2.68382</v>
+        <v>2.69936</v>
       </c>
       <c r="C92" t="n">
-        <v>1.65199</v>
+        <v>1.67392</v>
       </c>
       <c r="D92" t="n">
-        <v>1.82211</v>
+        <v>1.85818</v>
       </c>
     </row>
     <row r="93">
@@ -10646,13 +10646,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>2.84842</v>
+        <v>2.87066</v>
       </c>
       <c r="C93" t="n">
-        <v>1.68556</v>
+        <v>1.70647</v>
       </c>
       <c r="D93" t="n">
-        <v>1.87626</v>
+        <v>1.90976</v>
       </c>
     </row>
     <row r="94">
@@ -10660,13 +10660,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>2.92219</v>
+        <v>2.9504</v>
       </c>
       <c r="C94" t="n">
-        <v>1.70974</v>
+        <v>1.73916</v>
       </c>
       <c r="D94" t="n">
-        <v>1.91699</v>
+        <v>1.95726</v>
       </c>
     </row>
     <row r="95">
@@ -10674,13 +10674,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>2.98858</v>
+        <v>3.0201</v>
       </c>
       <c r="C95" t="n">
-        <v>1.7467</v>
+        <v>1.77211</v>
       </c>
       <c r="D95" t="n">
-        <v>1.95768</v>
+        <v>2.00805</v>
       </c>
     </row>
     <row r="96">
@@ -10688,13 +10688,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>3.05015</v>
+        <v>3.0914</v>
       </c>
       <c r="C96" t="n">
-        <v>1.77009</v>
+        <v>1.79645</v>
       </c>
       <c r="D96" t="n">
-        <v>2.00381</v>
+        <v>2.04754</v>
       </c>
     </row>
     <row r="97">
@@ -10702,13 +10702,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>3.12084</v>
+        <v>3.15194</v>
       </c>
       <c r="C97" t="n">
-        <v>1.80165</v>
+        <v>1.83505</v>
       </c>
       <c r="D97" t="n">
-        <v>2.04935</v>
+        <v>2.09559</v>
       </c>
     </row>
     <row r="98">
@@ -10716,13 +10716,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>3.20508</v>
+        <v>3.22002</v>
       </c>
       <c r="C98" t="n">
-        <v>1.82843</v>
+        <v>1.86022</v>
       </c>
       <c r="D98" t="n">
-        <v>2.09641</v>
+        <v>2.13198</v>
       </c>
     </row>
     <row r="99">
@@ -10730,13 +10730,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>3.27291</v>
+        <v>3.27568</v>
       </c>
       <c r="C99" t="n">
-        <v>1.87735</v>
+        <v>1.90585</v>
       </c>
       <c r="D99" t="n">
-        <v>2.13412</v>
+        <v>2.18087</v>
       </c>
     </row>
     <row r="100">
@@ -10744,13 +10744,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>3.33491</v>
+        <v>3.35417</v>
       </c>
       <c r="C100" t="n">
-        <v>1.90073</v>
+        <v>1.93767</v>
       </c>
       <c r="D100" t="n">
-        <v>2.17935</v>
+        <v>2.20262</v>
       </c>
     </row>
     <row r="101">
@@ -10758,13 +10758,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>3.40371</v>
+        <v>3.40771</v>
       </c>
       <c r="C101" t="n">
-        <v>1.92259</v>
+        <v>1.96789</v>
       </c>
       <c r="D101" t="n">
-        <v>2.21343</v>
+        <v>2.25277</v>
       </c>
     </row>
     <row r="102">
@@ -10772,13 +10772,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>3.46055</v>
+        <v>3.47269</v>
       </c>
       <c r="C102" t="n">
-        <v>1.97068</v>
+        <v>2.00888</v>
       </c>
       <c r="D102" t="n">
-        <v>2.23951</v>
+        <v>2.28537</v>
       </c>
     </row>
     <row r="103">
@@ -10786,13 +10786,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>3.51376</v>
+        <v>3.54017</v>
       </c>
       <c r="C103" t="n">
-        <v>1.99005</v>
+        <v>2.0366</v>
       </c>
       <c r="D103" t="n">
-        <v>2.28489</v>
+        <v>2.32763</v>
       </c>
     </row>
     <row r="104">
@@ -10800,13 +10800,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>3.56444</v>
+        <v>3.59955</v>
       </c>
       <c r="C104" t="n">
-        <v>2.02506</v>
+        <v>2.07672</v>
       </c>
       <c r="D104" t="n">
-        <v>2.31113</v>
+        <v>2.3564</v>
       </c>
     </row>
     <row r="105">
@@ -10814,13 +10814,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>3.6248</v>
+        <v>3.6466</v>
       </c>
       <c r="C105" t="n">
-        <v>2.05075</v>
+        <v>2.10634</v>
       </c>
       <c r="D105" t="n">
-        <v>2.35453</v>
+        <v>2.38779</v>
       </c>
     </row>
     <row r="106">
@@ -10828,13 +10828,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>3.6754</v>
+        <v>3.71636</v>
       </c>
       <c r="C106" t="n">
-        <v>2.07968</v>
+        <v>2.13643</v>
       </c>
       <c r="D106" t="n">
-        <v>2.36929</v>
+        <v>2.40313</v>
       </c>
     </row>
     <row r="107">
@@ -10842,13 +10842,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>3.69282</v>
+        <v>3.72392</v>
       </c>
       <c r="C107" t="n">
-        <v>2.07771</v>
+        <v>2.11321</v>
       </c>
       <c r="D107" t="n">
-        <v>2.44211</v>
+        <v>2.46908</v>
       </c>
     </row>
     <row r="108">
@@ -10856,13 +10856,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>3.73297</v>
+        <v>3.75958</v>
       </c>
       <c r="C108" t="n">
-        <v>2.10049</v>
+        <v>2.13064</v>
       </c>
       <c r="D108" t="n">
-        <v>2.45175</v>
+        <v>2.49209</v>
       </c>
     </row>
     <row r="109">
@@ -10870,13 +10870,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>3.79055</v>
+        <v>3.80165</v>
       </c>
       <c r="C109" t="n">
-        <v>2.1264</v>
+        <v>2.14867</v>
       </c>
       <c r="D109" t="n">
-        <v>2.47776</v>
+        <v>2.52866</v>
       </c>
     </row>
     <row r="110">
@@ -10884,13 +10884,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>3.84645</v>
+        <v>3.84265</v>
       </c>
       <c r="C110" t="n">
-        <v>2.14016</v>
+        <v>2.18892</v>
       </c>
       <c r="D110" t="n">
-        <v>2.50441</v>
+        <v>2.54608</v>
       </c>
     </row>
     <row r="111">
@@ -10898,13 +10898,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>3.89217</v>
+        <v>3.88604</v>
       </c>
       <c r="C111" t="n">
-        <v>2.17107</v>
+        <v>2.18647</v>
       </c>
       <c r="D111" t="n">
-        <v>2.52747</v>
+        <v>2.58222</v>
       </c>
     </row>
     <row r="112">
@@ -10912,13 +10912,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>3.93312</v>
+        <v>3.93361</v>
       </c>
       <c r="C112" t="n">
-        <v>2.19156</v>
+        <v>2.23309</v>
       </c>
       <c r="D112" t="n">
-        <v>2.55938</v>
+        <v>2.60497</v>
       </c>
     </row>
     <row r="113">
@@ -10926,13 +10926,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>3.9852</v>
+        <v>3.97504</v>
       </c>
       <c r="C113" t="n">
-        <v>2.22078</v>
+        <v>2.25608</v>
       </c>
       <c r="D113" t="n">
-        <v>2.57887</v>
+        <v>2.6264</v>
       </c>
     </row>
     <row r="114">
@@ -10940,13 +10940,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>4.03978</v>
+        <v>4.01828</v>
       </c>
       <c r="C114" t="n">
-        <v>2.23466</v>
+        <v>2.27084</v>
       </c>
       <c r="D114" t="n">
-        <v>2.60514</v>
+        <v>2.64711</v>
       </c>
     </row>
     <row r="115">
@@ -10954,13 +10954,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>4.06219</v>
+        <v>4.07249</v>
       </c>
       <c r="C115" t="n">
-        <v>2.26745</v>
+        <v>2.28932</v>
       </c>
       <c r="D115" t="n">
-        <v>2.63182</v>
+        <v>2.67902</v>
       </c>
     </row>
     <row r="116">
@@ -10968,13 +10968,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>4.12795</v>
+        <v>4.11815</v>
       </c>
       <c r="C116" t="n">
-        <v>2.29705</v>
+        <v>2.32682</v>
       </c>
       <c r="D116" t="n">
-        <v>2.66153</v>
+        <v>2.69142</v>
       </c>
     </row>
     <row r="117">
@@ -10982,13 +10982,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>4.15818</v>
+        <v>4.16939</v>
       </c>
       <c r="C117" t="n">
-        <v>2.31094</v>
+        <v>2.3544</v>
       </c>
       <c r="D117" t="n">
-        <v>2.67541</v>
+        <v>2.7117</v>
       </c>
     </row>
     <row r="118">
@@ -10996,13 +10996,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>4.20727</v>
+        <v>4.20953</v>
       </c>
       <c r="C118" t="n">
-        <v>2.35034</v>
+        <v>2.38506</v>
       </c>
       <c r="D118" t="n">
-        <v>2.69733</v>
+        <v>2.738</v>
       </c>
     </row>
     <row r="119">
@@ -11010,13 +11010,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>4.2481</v>
+        <v>4.24853</v>
       </c>
       <c r="C119" t="n">
-        <v>2.37853</v>
+        <v>2.41019</v>
       </c>
       <c r="D119" t="n">
-        <v>2.71708</v>
+        <v>2.7587</v>
       </c>
     </row>
   </sheetData>
@@ -11064,13 +11064,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.591911</v>
+        <v>0.586819</v>
       </c>
       <c r="C2" t="n">
-        <v>0.376692</v>
+        <v>0.324525</v>
       </c>
       <c r="D2" t="n">
-        <v>0.344253</v>
+        <v>0.337582</v>
       </c>
     </row>
     <row r="3">
@@ -11078,13 +11078,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.598648</v>
+        <v>0.592608</v>
       </c>
       <c r="C3" t="n">
-        <v>0.379305</v>
+        <v>0.329444</v>
       </c>
       <c r="D3" t="n">
-        <v>0.351224</v>
+        <v>0.342627</v>
       </c>
     </row>
     <row r="4">
@@ -11092,13 +11092,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.613714</v>
+        <v>0.607156</v>
       </c>
       <c r="C4" t="n">
-        <v>0.384079</v>
+        <v>0.337525</v>
       </c>
       <c r="D4" t="n">
-        <v>0.356157</v>
+        <v>0.349615</v>
       </c>
     </row>
     <row r="5">
@@ -11106,13 +11106,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.617875</v>
+        <v>0.6086510000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>0.394453</v>
+        <v>0.347183</v>
       </c>
       <c r="D5" t="n">
-        <v>0.360288</v>
+        <v>0.351705</v>
       </c>
     </row>
     <row r="6">
@@ -11120,13 +11120,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.6306310000000001</v>
+        <v>0.616609</v>
       </c>
       <c r="C6" t="n">
-        <v>0.393506</v>
+        <v>0.34632</v>
       </c>
       <c r="D6" t="n">
-        <v>0.364452</v>
+        <v>0.351524</v>
       </c>
     </row>
     <row r="7">
@@ -11134,13 +11134,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.637352</v>
+        <v>0.624115</v>
       </c>
       <c r="C7" t="n">
-        <v>0.406426</v>
+        <v>0.35713</v>
       </c>
       <c r="D7" t="n">
-        <v>0.371798</v>
+        <v>0.359252</v>
       </c>
     </row>
     <row r="8">
@@ -11148,13 +11148,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.6475</v>
+        <v>0.629233</v>
       </c>
       <c r="C8" t="n">
-        <v>0.416099</v>
+        <v>0.365376</v>
       </c>
       <c r="D8" t="n">
-        <v>0.374127</v>
+        <v>0.360045</v>
       </c>
     </row>
     <row r="9">
@@ -11162,13 +11162,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.654522</v>
+        <v>0.641853</v>
       </c>
       <c r="C9" t="n">
-        <v>0.421171</v>
+        <v>0.375308</v>
       </c>
       <c r="D9" t="n">
-        <v>0.378298</v>
+        <v>0.367605</v>
       </c>
     </row>
     <row r="10">
@@ -11176,13 +11176,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.669392</v>
+        <v>0.65664</v>
       </c>
       <c r="C10" t="n">
-        <v>0.431989</v>
+        <v>0.385183</v>
       </c>
       <c r="D10" t="n">
-        <v>0.383154</v>
+        <v>0.371418</v>
       </c>
     </row>
     <row r="11">
@@ -11190,13 +11190,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.675632</v>
+        <v>0.6669389999999999</v>
       </c>
       <c r="C11" t="n">
-        <v>0.418588</v>
+        <v>0.370342</v>
       </c>
       <c r="D11" t="n">
-        <v>0.384898</v>
+        <v>0.377449</v>
       </c>
     </row>
     <row r="12">
@@ -11204,13 +11204,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.65063</v>
+        <v>0.642048</v>
       </c>
       <c r="C12" t="n">
-        <v>0.423651</v>
+        <v>0.374174</v>
       </c>
       <c r="D12" t="n">
-        <v>0.391293</v>
+        <v>0.384096</v>
       </c>
     </row>
     <row r="13">
@@ -11218,13 +11218,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.659861</v>
+        <v>0.655388</v>
       </c>
       <c r="C13" t="n">
-        <v>0.425523</v>
+        <v>0.381778</v>
       </c>
       <c r="D13" t="n">
-        <v>0.394159</v>
+        <v>0.38918</v>
       </c>
     </row>
     <row r="14">
@@ -11232,13 +11232,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.666884</v>
+        <v>0.6697149999999999</v>
       </c>
       <c r="C14" t="n">
-        <v>0.433603</v>
+        <v>0.391139</v>
       </c>
       <c r="D14" t="n">
-        <v>0.397596</v>
+        <v>0.394927</v>
       </c>
     </row>
     <row r="15">
@@ -11246,13 +11246,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.683343</v>
+        <v>0.682264</v>
       </c>
       <c r="C15" t="n">
-        <v>0.443995</v>
+        <v>0.401021</v>
       </c>
       <c r="D15" t="n">
-        <v>0.407561</v>
+        <v>0.402953</v>
       </c>
     </row>
     <row r="16">
@@ -11260,13 +11260,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.692925</v>
+        <v>0.689096</v>
       </c>
       <c r="C16" t="n">
-        <v>0.453158</v>
+        <v>0.411486</v>
       </c>
       <c r="D16" t="n">
-        <v>0.413034</v>
+        <v>0.409214</v>
       </c>
     </row>
     <row r="17">
@@ -11274,13 +11274,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.7060920000000001</v>
+        <v>0.71111</v>
       </c>
       <c r="C17" t="n">
-        <v>0.455559</v>
+        <v>0.418529</v>
       </c>
       <c r="D17" t="n">
-        <v>0.415205</v>
+        <v>0.415024</v>
       </c>
     </row>
     <row r="18">
@@ -11288,13 +11288,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.715302</v>
+        <v>0.722309</v>
       </c>
       <c r="C18" t="n">
-        <v>0.45685</v>
+        <v>0.4208</v>
       </c>
       <c r="D18" t="n">
-        <v>0.420542</v>
+        <v>0.42083</v>
       </c>
     </row>
     <row r="19">
@@ -11302,13 +11302,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.726267</v>
+        <v>0.73268</v>
       </c>
       <c r="C19" t="n">
-        <v>0.471092</v>
+        <v>0.437016</v>
       </c>
       <c r="D19" t="n">
-        <v>0.426787</v>
+        <v>0.427697</v>
       </c>
     </row>
     <row r="20">
@@ -11316,13 +11316,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.74319</v>
+        <v>0.7489130000000001</v>
       </c>
       <c r="C20" t="n">
-        <v>0.4828</v>
+        <v>0.447056</v>
       </c>
       <c r="D20" t="n">
-        <v>0.431779</v>
+        <v>0.432365</v>
       </c>
     </row>
     <row r="21">
@@ -11330,13 +11330,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.754044</v>
+        <v>0.757135</v>
       </c>
       <c r="C21" t="n">
-        <v>0.494509</v>
+        <v>0.458991</v>
       </c>
       <c r="D21" t="n">
-        <v>0.437797</v>
+        <v>0.437778</v>
       </c>
     </row>
     <row r="22">
@@ -11344,13 +11344,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.763186</v>
+        <v>0.765697</v>
       </c>
       <c r="C22" t="n">
-        <v>0.501008</v>
+        <v>0.465695</v>
       </c>
       <c r="D22" t="n">
-        <v>0.442732</v>
+        <v>0.442299</v>
       </c>
     </row>
     <row r="23">
@@ -11358,13 +11358,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.785044</v>
+        <v>0.787772</v>
       </c>
       <c r="C23" t="n">
-        <v>0.509976</v>
+        <v>0.477615</v>
       </c>
       <c r="D23" t="n">
-        <v>0.449298</v>
+        <v>0.448942</v>
       </c>
     </row>
     <row r="24">
@@ -11372,13 +11372,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.798299</v>
+        <v>0.802808</v>
       </c>
       <c r="C24" t="n">
-        <v>0.520915</v>
+        <v>0.483856</v>
       </c>
       <c r="D24" t="n">
-        <v>0.452479</v>
+        <v>0.45196</v>
       </c>
     </row>
     <row r="25">
@@ -11386,13 +11386,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.811002</v>
+        <v>0.811032</v>
       </c>
       <c r="C25" t="n">
-        <v>0.536736</v>
+        <v>0.502431</v>
       </c>
       <c r="D25" t="n">
-        <v>0.461197</v>
+        <v>0.459306</v>
       </c>
     </row>
     <row r="26">
@@ -11400,13 +11400,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.828533</v>
+        <v>0.831873</v>
       </c>
       <c r="C26" t="n">
-        <v>0.477751</v>
+        <v>0.439609</v>
       </c>
       <c r="D26" t="n">
-        <v>0.463919</v>
+        <v>0.465019</v>
       </c>
     </row>
     <row r="27">
@@ -11414,13 +11414,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.790503</v>
+        <v>0.788771</v>
       </c>
       <c r="C27" t="n">
-        <v>0.487138</v>
+        <v>0.446227</v>
       </c>
       <c r="D27" t="n">
-        <v>0.46848</v>
+        <v>0.469034</v>
       </c>
     </row>
     <row r="28">
@@ -11428,13 +11428,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.798662</v>
+        <v>0.801235</v>
       </c>
       <c r="C28" t="n">
-        <v>0.490912</v>
+        <v>0.452559</v>
       </c>
       <c r="D28" t="n">
-        <v>0.47225</v>
+        <v>0.472839</v>
       </c>
     </row>
     <row r="29">
@@ -11442,13 +11442,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.811315</v>
+        <v>0.81036</v>
       </c>
       <c r="C29" t="n">
-        <v>0.494681</v>
+        <v>0.458039</v>
       </c>
       <c r="D29" t="n">
-        <v>0.476855</v>
+        <v>0.477452</v>
       </c>
     </row>
     <row r="30">
@@ -11456,13 +11456,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.8227680000000001</v>
+        <v>0.824699</v>
       </c>
       <c r="C30" t="n">
-        <v>0.504715</v>
+        <v>0.468359</v>
       </c>
       <c r="D30" t="n">
-        <v>0.482007</v>
+        <v>0.482013</v>
       </c>
     </row>
     <row r="31">
@@ -11470,13 +11470,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.8350030000000001</v>
+        <v>0.835602</v>
       </c>
       <c r="C31" t="n">
-        <v>0.510348</v>
+        <v>0.475564</v>
       </c>
       <c r="D31" t="n">
-        <v>0.486186</v>
+        <v>0.486313</v>
       </c>
     </row>
     <row r="32">
@@ -11484,13 +11484,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.848824</v>
+        <v>0.84824</v>
       </c>
       <c r="C32" t="n">
-        <v>0.519719</v>
+        <v>0.482914</v>
       </c>
       <c r="D32" t="n">
-        <v>0.490575</v>
+        <v>0.489784</v>
       </c>
     </row>
     <row r="33">
@@ -11498,13 +11498,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.857389</v>
+        <v>0.859585</v>
       </c>
       <c r="C33" t="n">
-        <v>0.525794</v>
+        <v>0.49232</v>
       </c>
       <c r="D33" t="n">
-        <v>0.49393</v>
+        <v>0.493529</v>
       </c>
     </row>
     <row r="34">
@@ -11512,13 +11512,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.871973</v>
+        <v>0.871463</v>
       </c>
       <c r="C34" t="n">
-        <v>0.535416</v>
+        <v>0.501111</v>
       </c>
       <c r="D34" t="n">
-        <v>0.496752</v>
+        <v>0.49597</v>
       </c>
     </row>
     <row r="35">
@@ -11526,13 +11526,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.882993</v>
+        <v>0.883149</v>
       </c>
       <c r="C35" t="n">
-        <v>0.543403</v>
+        <v>0.510883</v>
       </c>
       <c r="D35" t="n">
-        <v>0.499582</v>
+        <v>0.50019</v>
       </c>
     </row>
     <row r="36">
@@ -11540,13 +11540,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.89719</v>
+        <v>0.8983179999999999</v>
       </c>
       <c r="C36" t="n">
-        <v>0.556324</v>
+        <v>0.524103</v>
       </c>
       <c r="D36" t="n">
-        <v>0.502497</v>
+        <v>0.503572</v>
       </c>
     </row>
     <row r="37">
@@ -11554,13 +11554,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.909254</v>
+        <v>0.912231</v>
       </c>
       <c r="C37" t="n">
-        <v>0.565922</v>
+        <v>0.5348540000000001</v>
       </c>
       <c r="D37" t="n">
-        <v>0.506231</v>
+        <v>0.504089</v>
       </c>
     </row>
     <row r="38">
@@ -11568,13 +11568,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.924875</v>
+        <v>0.927101</v>
       </c>
       <c r="C38" t="n">
-        <v>0.574784</v>
+        <v>0.544964</v>
       </c>
       <c r="D38" t="n">
-        <v>0.509154</v>
+        <v>0.508345</v>
       </c>
     </row>
     <row r="39">
@@ -11582,13 +11582,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.936437</v>
+        <v>0.938968</v>
       </c>
       <c r="C39" t="n">
-        <v>0.586842</v>
+        <v>0.557681</v>
       </c>
       <c r="D39" t="n">
-        <v>0.512093</v>
+        <v>0.513307</v>
       </c>
     </row>
     <row r="40">
@@ -11596,13 +11596,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.951305</v>
+        <v>0.952675</v>
       </c>
       <c r="C40" t="n">
-        <v>0.5374139999999999</v>
+        <v>0.50423</v>
       </c>
       <c r="D40" t="n">
-        <v>0.51458</v>
+        <v>0.517862</v>
       </c>
     </row>
     <row r="41">
@@ -11610,13 +11610,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.885497</v>
+        <v>0.88496</v>
       </c>
       <c r="C41" t="n">
-        <v>0.54152</v>
+        <v>0.508485</v>
       </c>
       <c r="D41" t="n">
-        <v>0.5179009999999999</v>
+        <v>0.518631</v>
       </c>
     </row>
     <row r="42">
@@ -11624,13 +11624,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.897246</v>
+        <v>0.89727</v>
       </c>
       <c r="C42" t="n">
-        <v>0.550327</v>
+        <v>0.517397</v>
       </c>
       <c r="D42" t="n">
-        <v>0.521224</v>
+        <v>0.521388</v>
       </c>
     </row>
     <row r="43">
@@ -11638,13 +11638,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.906043</v>
+        <v>0.906865</v>
       </c>
       <c r="C43" t="n">
-        <v>0.55362</v>
+        <v>0.523566</v>
       </c>
       <c r="D43" t="n">
-        <v>0.523979</v>
+        <v>0.525496</v>
       </c>
     </row>
     <row r="44">
@@ -11652,13 +11652,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.9104409999999999</v>
+        <v>0.91435</v>
       </c>
       <c r="C44" t="n">
-        <v>0.561393</v>
+        <v>0.53155</v>
       </c>
       <c r="D44" t="n">
-        <v>0.525778</v>
+        <v>0.525819</v>
       </c>
     </row>
     <row r="45">
@@ -11666,13 +11666,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.924468</v>
+        <v>0.926517</v>
       </c>
       <c r="C45" t="n">
-        <v>0.568286</v>
+        <v>0.537676</v>
       </c>
       <c r="D45" t="n">
-        <v>0.527569</v>
+        <v>0.528318</v>
       </c>
     </row>
     <row r="46">
@@ -11680,13 +11680,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.930486</v>
+        <v>0.933001</v>
       </c>
       <c r="C46" t="n">
-        <v>0.579792</v>
+        <v>0.548569</v>
       </c>
       <c r="D46" t="n">
-        <v>0.530455</v>
+        <v>0.531134</v>
       </c>
     </row>
     <row r="47">
@@ -11694,13 +11694,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.9423280000000001</v>
+        <v>0.944951</v>
       </c>
       <c r="C47" t="n">
-        <v>0.584861</v>
+        <v>0.5566179999999999</v>
       </c>
       <c r="D47" t="n">
-        <v>0.531616</v>
+        <v>0.533433</v>
       </c>
     </row>
     <row r="48">
@@ -11708,13 +11708,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.952987</v>
+        <v>0.954835</v>
       </c>
       <c r="C48" t="n">
-        <v>0.593672</v>
+        <v>0.565373</v>
       </c>
       <c r="D48" t="n">
-        <v>0.533489</v>
+        <v>0.535765</v>
       </c>
     </row>
     <row r="49">
@@ -11722,13 +11722,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.959665</v>
+        <v>0.961871</v>
       </c>
       <c r="C49" t="n">
-        <v>0.59995</v>
+        <v>0.57353</v>
       </c>
       <c r="D49" t="n">
-        <v>0.53683</v>
+        <v>0.537818</v>
       </c>
     </row>
     <row r="50">
@@ -11736,13 +11736,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.974048</v>
+        <v>0.975168</v>
       </c>
       <c r="C50" t="n">
-        <v>0.609167</v>
+        <v>0.583142</v>
       </c>
       <c r="D50" t="n">
-        <v>0.539284</v>
+        <v>0.539247</v>
       </c>
     </row>
     <row r="51">
@@ -11750,13 +11750,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.98137</v>
+        <v>0.984484</v>
       </c>
       <c r="C51" t="n">
-        <v>0.621536</v>
+        <v>0.595252</v>
       </c>
       <c r="D51" t="n">
-        <v>0.53956</v>
+        <v>0.54242</v>
       </c>
     </row>
     <row r="52">
@@ -11764,13 +11764,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.995549</v>
+        <v>0.999291</v>
       </c>
       <c r="C52" t="n">
-        <v>0.6315190000000001</v>
+        <v>0.606457</v>
       </c>
       <c r="D52" t="n">
-        <v>0.543314</v>
+        <v>0.542459</v>
       </c>
     </row>
     <row r="53">
@@ -11778,13 +11778,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>1.00413</v>
+        <v>1.0077</v>
       </c>
       <c r="C53" t="n">
-        <v>0.638608</v>
+        <v>0.610467</v>
       </c>
       <c r="D53" t="n">
-        <v>0.54189</v>
+        <v>0.544527</v>
       </c>
     </row>
     <row r="54">
@@ -11792,13 +11792,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>1.01427</v>
+        <v>1.01957</v>
       </c>
       <c r="C54" t="n">
-        <v>0.577664</v>
+        <v>0.545897</v>
       </c>
       <c r="D54" t="n">
-        <v>0.544111</v>
+        <v>0.546871</v>
       </c>
     </row>
     <row r="55">
@@ -11806,13 +11806,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.942314</v>
+        <v>0.942617</v>
       </c>
       <c r="C55" t="n">
-        <v>0.578435</v>
+        <v>0.549476</v>
       </c>
       <c r="D55" t="n">
-        <v>0.546049</v>
+        <v>0.54758</v>
       </c>
     </row>
     <row r="56">
@@ -11820,13 +11820,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.950897</v>
+        <v>0.952264</v>
       </c>
       <c r="C56" t="n">
-        <v>0.588008</v>
+        <v>0.558236</v>
       </c>
       <c r="D56" t="n">
-        <v>0.547015</v>
+        <v>0.550243</v>
       </c>
     </row>
     <row r="57">
@@ -11834,13 +11834,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.958005</v>
+        <v>0.960956</v>
       </c>
       <c r="C57" t="n">
-        <v>0.594321</v>
+        <v>0.566701</v>
       </c>
       <c r="D57" t="n">
-        <v>0.547651</v>
+        <v>0.5503400000000001</v>
       </c>
     </row>
     <row r="58">
@@ -11848,13 +11848,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.9661999999999999</v>
+        <v>0.968201</v>
       </c>
       <c r="C58" t="n">
-        <v>0.601733</v>
+        <v>0.574696</v>
       </c>
       <c r="D58" t="n">
-        <v>0.549797</v>
+        <v>0.551614</v>
       </c>
     </row>
     <row r="59">
@@ -11862,13 +11862,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.975455</v>
+        <v>0.979003</v>
       </c>
       <c r="C59" t="n">
-        <v>0.60814</v>
+        <v>0.581856</v>
       </c>
       <c r="D59" t="n">
-        <v>0.551516</v>
+        <v>0.553924</v>
       </c>
     </row>
     <row r="60">
@@ -11876,13 +11876,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.983316</v>
+        <v>0.986422</v>
       </c>
       <c r="C60" t="n">
-        <v>0.617084</v>
+        <v>0.5908600000000001</v>
       </c>
       <c r="D60" t="n">
-        <v>0.552489</v>
+        <v>0.55515</v>
       </c>
     </row>
     <row r="61">
@@ -11890,13 +11890,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.991807</v>
+        <v>0.994383</v>
       </c>
       <c r="C61" t="n">
-        <v>0.624696</v>
+        <v>0.600787</v>
       </c>
       <c r="D61" t="n">
-        <v>0.556067</v>
+        <v>0.556678</v>
       </c>
     </row>
     <row r="62">
@@ -11904,13 +11904,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>1.004</v>
+        <v>1.0074</v>
       </c>
       <c r="C62" t="n">
-        <v>0.633879</v>
+        <v>0.609684</v>
       </c>
       <c r="D62" t="n">
-        <v>0.555903</v>
+        <v>0.559466</v>
       </c>
     </row>
     <row r="63">
@@ -11918,13 +11918,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>1.01519</v>
+        <v>1.01717</v>
       </c>
       <c r="C63" t="n">
-        <v>0.644957</v>
+        <v>0.620793</v>
       </c>
       <c r="D63" t="n">
-        <v>0.557437</v>
+        <v>0.560874</v>
       </c>
     </row>
     <row r="64">
@@ -11932,13 +11932,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>1.01954</v>
+        <v>1.02321</v>
       </c>
       <c r="C64" t="n">
-        <v>0.656824</v>
+        <v>0.63447</v>
       </c>
       <c r="D64" t="n">
-        <v>0.559101</v>
+        <v>0.563216</v>
       </c>
     </row>
     <row r="65">
@@ -11946,13 +11946,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>1.03157</v>
+        <v>1.03402</v>
       </c>
       <c r="C65" t="n">
-        <v>0.6730429999999999</v>
+        <v>0.653019</v>
       </c>
       <c r="D65" t="n">
-        <v>0.561236</v>
+        <v>0.564981</v>
       </c>
     </row>
     <row r="66">
@@ -11960,13 +11960,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>1.04137</v>
+        <v>1.04383</v>
       </c>
       <c r="C66" t="n">
-        <v>0.6865059999999999</v>
+        <v>0.664043</v>
       </c>
       <c r="D66" t="n">
-        <v>0.563736</v>
+        <v>0.566842</v>
       </c>
     </row>
     <row r="67">
@@ -11974,13 +11974,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.0579</v>
+        <v>1.06214</v>
       </c>
       <c r="C67" t="n">
-        <v>0.706457</v>
+        <v>0.685159</v>
       </c>
       <c r="D67" t="n">
-        <v>0.564836</v>
+        <v>0.569059</v>
       </c>
     </row>
     <row r="68">
@@ -11988,13 +11988,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>1.0706</v>
+        <v>1.07496</v>
       </c>
       <c r="C68" t="n">
-        <v>0.639688</v>
+        <v>0.614156</v>
       </c>
       <c r="D68" t="n">
-        <v>0.579392</v>
+        <v>0.583742</v>
       </c>
     </row>
     <row r="69">
@@ -12002,13 +12002,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>1.02275</v>
+        <v>1.02532</v>
       </c>
       <c r="C69" t="n">
-        <v>0.663005</v>
+        <v>0.6383450000000001</v>
       </c>
       <c r="D69" t="n">
-        <v>0.5871150000000001</v>
+        <v>0.593155</v>
       </c>
     </row>
     <row r="70">
@@ -12016,13 +12016,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>1.04178</v>
+        <v>1.04268</v>
       </c>
       <c r="C70" t="n">
-        <v>0.68788</v>
+        <v>0.66504</v>
       </c>
       <c r="D70" t="n">
-        <v>0.601033</v>
+        <v>0.604585</v>
       </c>
     </row>
     <row r="71">
@@ -12030,13 +12030,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>1.0686</v>
+        <v>1.0694</v>
       </c>
       <c r="C71" t="n">
-        <v>0.720245</v>
+        <v>0.697369</v>
       </c>
       <c r="D71" t="n">
-        <v>0.615787</v>
+        <v>0.619513</v>
       </c>
     </row>
     <row r="72">
@@ -12044,13 +12044,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>1.1002</v>
+        <v>1.10133</v>
       </c>
       <c r="C72" t="n">
-        <v>0.7480869999999999</v>
+        <v>0.726959</v>
       </c>
       <c r="D72" t="n">
-        <v>0.631332</v>
+        <v>0.632579</v>
       </c>
     </row>
     <row r="73">
@@ -12058,13 +12058,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>1.13455</v>
+        <v>1.13346</v>
       </c>
       <c r="C73" t="n">
-        <v>0.781613</v>
+        <v>0.758056</v>
       </c>
       <c r="D73" t="n">
-        <v>0.650786</v>
+        <v>0.650688</v>
       </c>
     </row>
     <row r="74">
@@ -12072,13 +12072,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.17143</v>
+        <v>1.17071</v>
       </c>
       <c r="C74" t="n">
-        <v>0.814385</v>
+        <v>0.793293</v>
       </c>
       <c r="D74" t="n">
-        <v>0.668726</v>
+        <v>0.671195</v>
       </c>
     </row>
     <row r="75">
@@ -12086,13 +12086,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>1.21662</v>
+        <v>1.21629</v>
       </c>
       <c r="C75" t="n">
-        <v>0.857159</v>
+        <v>0.836201</v>
       </c>
       <c r="D75" t="n">
-        <v>0.6944669999999999</v>
+        <v>0.696466</v>
       </c>
     </row>
     <row r="76">
@@ -12100,13 +12100,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>1.26261</v>
+        <v>1.26993</v>
       </c>
       <c r="C76" t="n">
-        <v>0.898056</v>
+        <v>0.87892</v>
       </c>
       <c r="D76" t="n">
-        <v>0.71702</v>
+        <v>0.725994</v>
       </c>
     </row>
     <row r="77">
@@ -12114,13 +12114,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>1.31466</v>
+        <v>1.31769</v>
       </c>
       <c r="C77" t="n">
-        <v>0.947899</v>
+        <v>0.929159</v>
       </c>
       <c r="D77" t="n">
-        <v>0.7482839999999999</v>
+        <v>0.753647</v>
       </c>
     </row>
     <row r="78">
@@ -12128,13 +12128,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>1.37193</v>
+        <v>1.38192</v>
       </c>
       <c r="C78" t="n">
-        <v>0.995465</v>
+        <v>0.979386</v>
       </c>
       <c r="D78" t="n">
-        <v>0.779257</v>
+        <v>0.790767</v>
       </c>
     </row>
     <row r="79">
@@ -12142,13 +12142,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.44238</v>
+        <v>1.44651</v>
       </c>
       <c r="C79" t="n">
-        <v>1.0477</v>
+        <v>1.03045</v>
       </c>
       <c r="D79" t="n">
-        <v>0.818106</v>
+        <v>0.82241</v>
       </c>
     </row>
     <row r="80">
@@ -12156,13 +12156,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.51606</v>
+        <v>1.52189</v>
       </c>
       <c r="C80" t="n">
-        <v>1.10053</v>
+        <v>1.08496</v>
       </c>
       <c r="D80" t="n">
-        <v>0.857802</v>
+        <v>0.86615</v>
       </c>
     </row>
     <row r="81">
@@ -12170,13 +12170,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.59946</v>
+        <v>1.60997</v>
       </c>
       <c r="C81" t="n">
-        <v>1.1604</v>
+        <v>1.14639</v>
       </c>
       <c r="D81" t="n">
-        <v>0.899107</v>
+        <v>0.913516</v>
       </c>
     </row>
     <row r="82">
@@ -12184,13 +12184,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.68469</v>
+        <v>1.699</v>
       </c>
       <c r="C82" t="n">
-        <v>1.21875</v>
+        <v>1.21008</v>
       </c>
       <c r="D82" t="n">
-        <v>0.9452199999999999</v>
+        <v>0.9626670000000001</v>
       </c>
     </row>
     <row r="83">
@@ -12198,13 +12198,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.78708</v>
+        <v>1.80361</v>
       </c>
       <c r="C83" t="n">
-        <v>1.19191</v>
+        <v>1.18141</v>
       </c>
       <c r="D83" t="n">
-        <v>1.06197</v>
+        <v>1.08147</v>
       </c>
     </row>
     <row r="84">
@@ -12212,13 +12212,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.80672</v>
+        <v>1.82666</v>
       </c>
       <c r="C84" t="n">
-        <v>1.24692</v>
+        <v>1.2411</v>
       </c>
       <c r="D84" t="n">
-        <v>1.1177</v>
+        <v>1.13987</v>
       </c>
     </row>
     <row r="85">
@@ -12226,13 +12226,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.91593</v>
+        <v>1.92583</v>
       </c>
       <c r="C85" t="n">
-        <v>1.30562</v>
+        <v>1.29591</v>
       </c>
       <c r="D85" t="n">
-        <v>1.17703</v>
+        <v>1.19857</v>
       </c>
     </row>
     <row r="86">
@@ -12240,13 +12240,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>2.01003</v>
+        <v>2.03241</v>
       </c>
       <c r="C86" t="n">
-        <v>1.37028</v>
+        <v>1.36466</v>
       </c>
       <c r="D86" t="n">
-        <v>1.23214</v>
+        <v>1.25923</v>
       </c>
     </row>
     <row r="87">
@@ -12254,13 +12254,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>2.12753</v>
+        <v>2.13776</v>
       </c>
       <c r="C87" t="n">
-        <v>1.43402</v>
+        <v>1.42172</v>
       </c>
       <c r="D87" t="n">
-        <v>1.29258</v>
+        <v>1.32089</v>
       </c>
     </row>
     <row r="88">
@@ -12268,13 +12268,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>2.23742</v>
+        <v>2.25024</v>
       </c>
       <c r="C88" t="n">
-        <v>1.50779</v>
+        <v>1.50791</v>
       </c>
       <c r="D88" t="n">
-        <v>1.35374</v>
+        <v>1.38604</v>
       </c>
     </row>
     <row r="89">
@@ -12282,13 +12282,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>2.36794</v>
+        <v>2.38089</v>
       </c>
       <c r="C89" t="n">
-        <v>1.57843</v>
+        <v>1.58015</v>
       </c>
       <c r="D89" t="n">
-        <v>1.41326</v>
+        <v>1.44552</v>
       </c>
     </row>
     <row r="90">
@@ -12296,13 +12296,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>2.48957</v>
+        <v>2.50001</v>
       </c>
       <c r="C90" t="n">
-        <v>1.65818</v>
+        <v>1.65106</v>
       </c>
       <c r="D90" t="n">
-        <v>1.475</v>
+        <v>1.50172</v>
       </c>
     </row>
     <row r="91">
@@ -12310,13 +12310,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>2.62168</v>
+        <v>2.62568</v>
       </c>
       <c r="C91" t="n">
-        <v>1.73915</v>
+        <v>1.73963</v>
       </c>
       <c r="D91" t="n">
-        <v>1.5345</v>
+        <v>1.56411</v>
       </c>
     </row>
     <row r="92">
@@ -12324,13 +12324,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>2.76309</v>
+        <v>2.75136</v>
       </c>
       <c r="C92" t="n">
-        <v>1.82453</v>
+        <v>1.82089</v>
       </c>
       <c r="D92" t="n">
-        <v>1.58963</v>
+        <v>1.62512</v>
       </c>
     </row>
     <row r="93">
@@ -12338,13 +12338,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>2.89363</v>
+        <v>2.87196</v>
       </c>
       <c r="C93" t="n">
-        <v>1.9103</v>
+        <v>1.90816</v>
       </c>
       <c r="D93" t="n">
-        <v>1.64499</v>
+        <v>1.66748</v>
       </c>
     </row>
     <row r="94">
@@ -12352,13 +12352,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>3.00862</v>
+        <v>3.01343</v>
       </c>
       <c r="C94" t="n">
-        <v>1.998</v>
+        <v>1.98728</v>
       </c>
       <c r="D94" t="n">
-        <v>1.69525</v>
+        <v>1.73138</v>
       </c>
     </row>
     <row r="95">
@@ -12366,13 +12366,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>3.16377</v>
+        <v>3.14769</v>
       </c>
       <c r="C95" t="n">
-        <v>2.09122</v>
+        <v>2.08431</v>
       </c>
       <c r="D95" t="n">
-        <v>1.74565</v>
+        <v>1.78121</v>
       </c>
     </row>
     <row r="96">
@@ -12380,13 +12380,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>3.2937</v>
+        <v>3.28208</v>
       </c>
       <c r="C96" t="n">
-        <v>2.19131</v>
+        <v>2.18844</v>
       </c>
       <c r="D96" t="n">
-        <v>1.79344</v>
+        <v>1.8315</v>
       </c>
     </row>
     <row r="97">
@@ -12394,13 +12394,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>3.42821</v>
+        <v>3.42419</v>
       </c>
       <c r="C97" t="n">
-        <v>1.9347</v>
+        <v>1.94416</v>
       </c>
       <c r="D97" t="n">
-        <v>1.92073</v>
+        <v>1.95766</v>
       </c>
     </row>
     <row r="98">
@@ -12408,13 +12408,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>3.28406</v>
+        <v>3.27915</v>
       </c>
       <c r="C98" t="n">
-        <v>1.98591</v>
+        <v>1.99332</v>
       </c>
       <c r="D98" t="n">
-        <v>1.96672</v>
+        <v>1.99607</v>
       </c>
     </row>
     <row r="99">
@@ -12422,13 +12422,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>3.40493</v>
+        <v>3.3619</v>
       </c>
       <c r="C99" t="n">
-        <v>2.0515</v>
+        <v>2.0625</v>
       </c>
       <c r="D99" t="n">
-        <v>2.02967</v>
+        <v>2.03141</v>
       </c>
     </row>
     <row r="100">
@@ -12436,13 +12436,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>3.47537</v>
+        <v>3.48719</v>
       </c>
       <c r="C100" t="n">
-        <v>2.12166</v>
+        <v>2.13024</v>
       </c>
       <c r="D100" t="n">
-        <v>2.05369</v>
+        <v>2.09383</v>
       </c>
     </row>
     <row r="101">
@@ -12450,13 +12450,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>3.59894</v>
+        <v>3.57284</v>
       </c>
       <c r="C101" t="n">
-        <v>2.18617</v>
+        <v>2.19854</v>
       </c>
       <c r="D101" t="n">
-        <v>2.10969</v>
+        <v>2.1356</v>
       </c>
     </row>
     <row r="102">
@@ -12464,13 +12464,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>3.71085</v>
+        <v>3.67486</v>
       </c>
       <c r="C102" t="n">
-        <v>2.25483</v>
+        <v>2.26449</v>
       </c>
       <c r="D102" t="n">
-        <v>2.12412</v>
+        <v>2.1553</v>
       </c>
     </row>
     <row r="103">
@@ -12478,13 +12478,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>3.81758</v>
+        <v>3.77337</v>
       </c>
       <c r="C103" t="n">
-        <v>2.32732</v>
+        <v>2.34321</v>
       </c>
       <c r="D103" t="n">
-        <v>2.16776</v>
+        <v>2.19605</v>
       </c>
     </row>
     <row r="104">
@@ -12492,13 +12492,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>3.93711</v>
+        <v>3.88709</v>
       </c>
       <c r="C104" t="n">
-        <v>2.40036</v>
+        <v>2.40471</v>
       </c>
       <c r="D104" t="n">
-        <v>2.19119</v>
+        <v>2.22556</v>
       </c>
     </row>
     <row r="105">
@@ -12506,13 +12506,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>4.00723</v>
+        <v>3.99004</v>
       </c>
       <c r="C105" t="n">
-        <v>2.46766</v>
+        <v>2.49829</v>
       </c>
       <c r="D105" t="n">
-        <v>2.24624</v>
+        <v>2.26457</v>
       </c>
     </row>
     <row r="106">
@@ -12520,13 +12520,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>4.10475</v>
+        <v>4.07903</v>
       </c>
       <c r="C106" t="n">
-        <v>2.56414</v>
+        <v>2.56188</v>
       </c>
       <c r="D106" t="n">
-        <v>2.2682</v>
+        <v>2.287</v>
       </c>
     </row>
     <row r="107">
@@ -12534,13 +12534,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>4.21454</v>
+        <v>4.21032</v>
       </c>
       <c r="C107" t="n">
-        <v>2.61861</v>
+        <v>2.63849</v>
       </c>
       <c r="D107" t="n">
-        <v>2.29861</v>
+        <v>2.3327</v>
       </c>
     </row>
     <row r="108">
@@ -12548,13 +12548,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>4.31332</v>
+        <v>4.27728</v>
       </c>
       <c r="C108" t="n">
-        <v>2.70745</v>
+        <v>2.7211</v>
       </c>
       <c r="D108" t="n">
-        <v>2.30973</v>
+        <v>2.36089</v>
       </c>
     </row>
     <row r="109">
@@ -12562,13 +12562,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>4.43932</v>
+        <v>4.40037</v>
       </c>
       <c r="C109" t="n">
-        <v>2.80437</v>
+        <v>2.80926</v>
       </c>
       <c r="D109" t="n">
-        <v>2.35334</v>
+        <v>2.37138</v>
       </c>
     </row>
     <row r="110">
@@ -12576,13 +12576,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>4.56041</v>
+        <v>4.51925</v>
       </c>
       <c r="C110" t="n">
-        <v>2.89194</v>
+        <v>2.87876</v>
       </c>
       <c r="D110" t="n">
-        <v>2.36329</v>
+        <v>2.4125</v>
       </c>
     </row>
     <row r="111">
@@ -12590,13 +12590,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>4.65218</v>
+        <v>4.61655</v>
       </c>
       <c r="C111" t="n">
-        <v>2.46671</v>
+        <v>2.53203</v>
       </c>
       <c r="D111" t="n">
-        <v>2.47149</v>
+        <v>2.50455</v>
       </c>
     </row>
     <row r="112">
@@ -12604,13 +12604,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>4.28733</v>
+        <v>4.28263</v>
       </c>
       <c r="C112" t="n">
-        <v>2.53219</v>
+        <v>2.58062</v>
       </c>
       <c r="D112" t="n">
-        <v>2.48346</v>
+        <v>2.51967</v>
       </c>
     </row>
     <row r="113">
@@ -12618,13 +12618,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>4.37576</v>
+        <v>4.34629</v>
       </c>
       <c r="C113" t="n">
-        <v>2.59721</v>
+        <v>2.63491</v>
       </c>
       <c r="D113" t="n">
-        <v>2.51095</v>
+        <v>2.55289</v>
       </c>
     </row>
     <row r="114">
@@ -12632,13 +12632,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>4.45922</v>
+        <v>4.44171</v>
       </c>
       <c r="C114" t="n">
-        <v>2.64017</v>
+        <v>2.69417</v>
       </c>
       <c r="D114" t="n">
-        <v>2.53247</v>
+        <v>2.58147</v>
       </c>
     </row>
     <row r="115">
@@ -12646,13 +12646,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>4.54989</v>
+        <v>4.52297</v>
       </c>
       <c r="C115" t="n">
-        <v>2.7211</v>
+        <v>2.73255</v>
       </c>
       <c r="D115" t="n">
-        <v>2.57004</v>
+        <v>2.60608</v>
       </c>
     </row>
     <row r="116">
@@ -12660,13 +12660,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>4.64933</v>
+        <v>4.61248</v>
       </c>
       <c r="C116" t="n">
-        <v>2.77369</v>
+        <v>2.80902</v>
       </c>
       <c r="D116" t="n">
-        <v>2.58912</v>
+        <v>2.62619</v>
       </c>
     </row>
     <row r="117">
@@ -12674,13 +12674,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>4.72492</v>
+        <v>4.69874</v>
       </c>
       <c r="C117" t="n">
-        <v>2.82886</v>
+        <v>2.86521</v>
       </c>
       <c r="D117" t="n">
-        <v>2.61547</v>
+        <v>2.64192</v>
       </c>
     </row>
     <row r="118">
@@ -12688,13 +12688,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>4.8098</v>
+        <v>4.80569</v>
       </c>
       <c r="C118" t="n">
-        <v>2.92124</v>
+        <v>2.94973</v>
       </c>
       <c r="D118" t="n">
-        <v>2.64414</v>
+        <v>2.65752</v>
       </c>
     </row>
     <row r="119">
@@ -12702,13 +12702,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>4.91298</v>
+        <v>4.88903</v>
       </c>
       <c r="C119" t="n">
-        <v>2.98662</v>
+        <v>3.03331</v>
       </c>
       <c r="D119" t="n">
-        <v>2.65666</v>
+        <v>2.69041</v>
       </c>
     </row>
   </sheetData>

--- a/clang_libcpp/scattered erasure.xlsx
+++ b/clang_libcpp/scattered erasure.xlsx
@@ -7680,13 +7680,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.399838</v>
+        <v>0.399253</v>
       </c>
       <c r="C2" t="n">
-        <v>0.174423</v>
+        <v>0.172505</v>
       </c>
       <c r="D2" t="n">
-        <v>0.223699</v>
+        <v>0.22433</v>
       </c>
     </row>
     <row r="3">
@@ -7694,13 +7694,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.400826</v>
+        <v>0.404215</v>
       </c>
       <c r="C3" t="n">
-        <v>0.176861</v>
+        <v>0.175648</v>
       </c>
       <c r="D3" t="n">
-        <v>0.230848</v>
+        <v>0.225939</v>
       </c>
     </row>
     <row r="4">
@@ -7708,13 +7708,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.407938</v>
+        <v>0.406557</v>
       </c>
       <c r="C4" t="n">
-        <v>0.180318</v>
+        <v>0.178781</v>
       </c>
       <c r="D4" t="n">
-        <v>0.232792</v>
+        <v>0.232723</v>
       </c>
     </row>
     <row r="5">
@@ -7722,13 +7722,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.411438</v>
+        <v>0.413516</v>
       </c>
       <c r="C5" t="n">
-        <v>0.183943</v>
+        <v>0.18252</v>
       </c>
       <c r="D5" t="n">
-        <v>0.245484</v>
+        <v>0.238017</v>
       </c>
     </row>
     <row r="6">
@@ -7736,13 +7736,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.422582</v>
+        <v>0.418108</v>
       </c>
       <c r="C6" t="n">
-        <v>0.187476</v>
+        <v>0.185945</v>
       </c>
       <c r="D6" t="n">
-        <v>0.243</v>
+        <v>0.243898</v>
       </c>
     </row>
     <row r="7">
@@ -7750,13 +7750,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.421594</v>
+        <v>0.425392</v>
       </c>
       <c r="C7" t="n">
-        <v>0.173496</v>
+        <v>0.172807</v>
       </c>
       <c r="D7" t="n">
-        <v>0.24759</v>
+        <v>0.249399</v>
       </c>
     </row>
     <row r="8">
@@ -7764,13 +7764,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.40224</v>
+        <v>0.403132</v>
       </c>
       <c r="C8" t="n">
-        <v>0.175832</v>
+        <v>0.174894</v>
       </c>
       <c r="D8" t="n">
-        <v>0.252202</v>
+        <v>0.253418</v>
       </c>
     </row>
     <row r="9">
@@ -7778,13 +7778,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.406452</v>
+        <v>0.410296</v>
       </c>
       <c r="C9" t="n">
-        <v>0.177491</v>
+        <v>0.176688</v>
       </c>
       <c r="D9" t="n">
-        <v>0.255061</v>
+        <v>0.257075</v>
       </c>
     </row>
     <row r="10">
@@ -7792,13 +7792,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.411566</v>
+        <v>0.414173</v>
       </c>
       <c r="C10" t="n">
-        <v>0.179598</v>
+        <v>0.17884</v>
       </c>
       <c r="D10" t="n">
-        <v>0.259457</v>
+        <v>0.262446</v>
       </c>
     </row>
     <row r="11">
@@ -7806,13 +7806,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.416275</v>
+        <v>0.418435</v>
       </c>
       <c r="C11" t="n">
-        <v>0.181054</v>
+        <v>0.180337</v>
       </c>
       <c r="D11" t="n">
-        <v>0.267991</v>
+        <v>0.264931</v>
       </c>
     </row>
     <row r="12">
@@ -7820,13 +7820,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.424751</v>
+        <v>0.423712</v>
       </c>
       <c r="C12" t="n">
-        <v>0.183376</v>
+        <v>0.182422</v>
       </c>
       <c r="D12" t="n">
-        <v>0.269308</v>
+        <v>0.26879</v>
       </c>
     </row>
     <row r="13">
@@ -7834,13 +7834,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.430214</v>
+        <v>0.427695</v>
       </c>
       <c r="C13" t="n">
-        <v>0.186067</v>
+        <v>0.184718</v>
       </c>
       <c r="D13" t="n">
-        <v>0.273562</v>
+        <v>0.276257</v>
       </c>
     </row>
     <row r="14">
@@ -7848,13 +7848,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.435434</v>
+        <v>0.437305</v>
       </c>
       <c r="C14" t="n">
-        <v>0.187841</v>
+        <v>0.187009</v>
       </c>
       <c r="D14" t="n">
-        <v>0.279962</v>
+        <v>0.279165</v>
       </c>
     </row>
     <row r="15">
@@ -7862,13 +7862,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.440804</v>
+        <v>0.441345</v>
       </c>
       <c r="C15" t="n">
-        <v>0.190233</v>
+        <v>0.18936</v>
       </c>
       <c r="D15" t="n">
-        <v>0.285216</v>
+        <v>0.282957</v>
       </c>
     </row>
     <row r="16">
@@ -7876,13 +7876,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.446876</v>
+        <v>0.447212</v>
       </c>
       <c r="C16" t="n">
-        <v>0.192714</v>
+        <v>0.192089</v>
       </c>
       <c r="D16" t="n">
-        <v>0.289505</v>
+        <v>0.289008</v>
       </c>
     </row>
     <row r="17">
@@ -7890,13 +7890,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.45256</v>
+        <v>0.454669</v>
       </c>
       <c r="C17" t="n">
-        <v>0.195184</v>
+        <v>0.19427</v>
       </c>
       <c r="D17" t="n">
-        <v>0.295102</v>
+        <v>0.294106</v>
       </c>
     </row>
     <row r="18">
@@ -7904,13 +7904,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.459345</v>
+        <v>0.459902</v>
       </c>
       <c r="C18" t="n">
-        <v>0.198002</v>
+        <v>0.197273</v>
       </c>
       <c r="D18" t="n">
-        <v>0.298927</v>
+        <v>0.297497</v>
       </c>
     </row>
     <row r="19">
@@ -7918,13 +7918,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.467229</v>
+        <v>0.463675</v>
       </c>
       <c r="C19" t="n">
-        <v>0.201194</v>
+        <v>0.20032</v>
       </c>
       <c r="D19" t="n">
-        <v>0.3041</v>
+        <v>0.302863</v>
       </c>
     </row>
     <row r="20">
@@ -7932,13 +7932,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.473</v>
+        <v>0.473888</v>
       </c>
       <c r="C20" t="n">
-        <v>0.203393</v>
+        <v>0.202893</v>
       </c>
       <c r="D20" t="n">
-        <v>0.308216</v>
+        <v>0.307131</v>
       </c>
     </row>
     <row r="21">
@@ -7946,13 +7946,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.477839</v>
+        <v>0.47757</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1838</v>
+        <v>0.18349</v>
       </c>
       <c r="D21" t="n">
-        <v>0.306891</v>
+        <v>0.307112</v>
       </c>
     </row>
     <row r="22">
@@ -7960,13 +7960,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.45782</v>
+        <v>0.458806</v>
       </c>
       <c r="C22" t="n">
-        <v>0.185255</v>
+        <v>0.185164</v>
       </c>
       <c r="D22" t="n">
-        <v>0.31163</v>
+        <v>0.310544</v>
       </c>
     </row>
     <row r="23">
@@ -7974,13 +7974,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.462843</v>
+        <v>0.461872</v>
       </c>
       <c r="C23" t="n">
-        <v>0.187287</v>
+        <v>0.187223</v>
       </c>
       <c r="D23" t="n">
-        <v>0.315935</v>
+        <v>0.3127</v>
       </c>
     </row>
     <row r="24">
@@ -7988,13 +7988,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.46652</v>
+        <v>0.467979</v>
       </c>
       <c r="C24" t="n">
-        <v>0.189558</v>
+        <v>0.189313</v>
       </c>
       <c r="D24" t="n">
-        <v>0.318317</v>
+        <v>0.317922</v>
       </c>
     </row>
     <row r="25">
@@ -8002,13 +8002,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.472417</v>
+        <v>0.472515</v>
       </c>
       <c r="C25" t="n">
-        <v>0.191328</v>
+        <v>0.190761</v>
       </c>
       <c r="D25" t="n">
-        <v>0.319239</v>
+        <v>0.32064</v>
       </c>
     </row>
     <row r="26">
@@ -8016,13 +8016,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.475693</v>
+        <v>0.475954</v>
       </c>
       <c r="C26" t="n">
-        <v>0.193575</v>
+        <v>0.192955</v>
       </c>
       <c r="D26" t="n">
-        <v>0.324443</v>
+        <v>0.323921</v>
       </c>
     </row>
     <row r="27">
@@ -8030,13 +8030,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.480135</v>
+        <v>0.479728</v>
       </c>
       <c r="C27" t="n">
-        <v>0.19543</v>
+        <v>0.195142</v>
       </c>
       <c r="D27" t="n">
-        <v>0.327667</v>
+        <v>0.326854</v>
       </c>
     </row>
     <row r="28">
@@ -8044,13 +8044,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.485056</v>
+        <v>0.485344</v>
       </c>
       <c r="C28" t="n">
-        <v>0.197841</v>
+        <v>0.197835</v>
       </c>
       <c r="D28" t="n">
-        <v>0.330238</v>
+        <v>0.330068</v>
       </c>
     </row>
     <row r="29">
@@ -8058,13 +8058,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.489147</v>
+        <v>0.488713</v>
       </c>
       <c r="C29" t="n">
-        <v>0.20027</v>
+        <v>0.199989</v>
       </c>
       <c r="D29" t="n">
-        <v>0.333422</v>
+        <v>0.332535</v>
       </c>
     </row>
     <row r="30">
@@ -8072,13 +8072,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.49402</v>
+        <v>0.493353</v>
       </c>
       <c r="C30" t="n">
-        <v>0.202914</v>
+        <v>0.202214</v>
       </c>
       <c r="D30" t="n">
-        <v>0.33596</v>
+        <v>0.33522</v>
       </c>
     </row>
     <row r="31">
@@ -8086,13 +8086,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.498469</v>
+        <v>0.498755</v>
       </c>
       <c r="C31" t="n">
-        <v>0.205235</v>
+        <v>0.204779</v>
       </c>
       <c r="D31" t="n">
-        <v>0.339829</v>
+        <v>0.338985</v>
       </c>
     </row>
     <row r="32">
@@ -8100,13 +8100,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.502835</v>
+        <v>0.502749</v>
       </c>
       <c r="C32" t="n">
-        <v>0.20773</v>
+        <v>0.206988</v>
       </c>
       <c r="D32" t="n">
-        <v>0.341785</v>
+        <v>0.341448</v>
       </c>
     </row>
     <row r="33">
@@ -8114,13 +8114,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.507646</v>
+        <v>0.507006</v>
       </c>
       <c r="C33" t="n">
-        <v>0.210208</v>
+        <v>0.209559</v>
       </c>
       <c r="D33" t="n">
-        <v>0.34501</v>
+        <v>0.344661</v>
       </c>
     </row>
     <row r="34">
@@ -8128,13 +8128,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.513258</v>
+        <v>0.512995</v>
       </c>
       <c r="C34" t="n">
-        <v>0.212749</v>
+        <v>0.212011</v>
       </c>
       <c r="D34" t="n">
-        <v>0.347825</v>
+        <v>0.347826</v>
       </c>
     </row>
     <row r="35">
@@ -8142,13 +8142,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.518003</v>
+        <v>0.518104</v>
       </c>
       <c r="C35" t="n">
-        <v>0.188953</v>
+        <v>0.18887</v>
       </c>
       <c r="D35" t="n">
-        <v>0.342508</v>
+        <v>0.340233</v>
       </c>
     </row>
     <row r="36">
@@ -8156,13 +8156,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.490456</v>
+        <v>0.48923</v>
       </c>
       <c r="C36" t="n">
-        <v>0.190901</v>
+        <v>0.19048</v>
       </c>
       <c r="D36" t="n">
-        <v>0.343455</v>
+        <v>0.343882</v>
       </c>
     </row>
     <row r="37">
@@ -8170,13 +8170,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.492974</v>
+        <v>0.493543</v>
       </c>
       <c r="C37" t="n">
-        <v>0.192599</v>
+        <v>0.192502</v>
       </c>
       <c r="D37" t="n">
-        <v>0.345205</v>
+        <v>0.345137</v>
       </c>
     </row>
     <row r="38">
@@ -8184,13 +8184,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.495544</v>
+        <v>0.495189</v>
       </c>
       <c r="C38" t="n">
-        <v>0.194419</v>
+        <v>0.193878</v>
       </c>
       <c r="D38" t="n">
-        <v>0.347066</v>
+        <v>0.346662</v>
       </c>
     </row>
     <row r="39">
@@ -8198,13 +8198,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.498387</v>
+        <v>0.497278</v>
       </c>
       <c r="C39" t="n">
-        <v>0.196131</v>
+        <v>0.195651</v>
       </c>
       <c r="D39" t="n">
-        <v>0.349161</v>
+        <v>0.349153</v>
       </c>
     </row>
     <row r="40">
@@ -8212,13 +8212,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.50249</v>
+        <v>0.500773</v>
       </c>
       <c r="C40" t="n">
-        <v>0.198352</v>
+        <v>0.197822</v>
       </c>
       <c r="D40" t="n">
-        <v>0.350505</v>
+        <v>0.35006</v>
       </c>
     </row>
     <row r="41">
@@ -8226,13 +8226,13 @@
         <v>66357</v>
       </c>
       <c r="B41" t="n">
-        <v>0.504643</v>
+        <v>0.5046040000000001</v>
       </c>
       <c r="C41" t="n">
-        <v>0.200111</v>
+        <v>0.199517</v>
       </c>
       <c r="D41" t="n">
-        <v>0.352501</v>
+        <v>0.352055</v>
       </c>
     </row>
     <row r="42">
@@ -8240,13 +8240,13 @@
         <v>69656</v>
       </c>
       <c r="B42" t="n">
-        <v>0.508621</v>
+        <v>0.507024</v>
       </c>
       <c r="C42" t="n">
-        <v>0.202584</v>
+        <v>0.201669</v>
       </c>
       <c r="D42" t="n">
-        <v>0.35436</v>
+        <v>0.354608</v>
       </c>
     </row>
     <row r="43">
@@ -8254,13 +8254,13 @@
         <v>73119</v>
       </c>
       <c r="B43" t="n">
-        <v>0.5134649999999999</v>
+        <v>0.512046</v>
       </c>
       <c r="C43" t="n">
-        <v>0.204331</v>
+        <v>0.203407</v>
       </c>
       <c r="D43" t="n">
-        <v>0.356666</v>
+        <v>0.356144</v>
       </c>
     </row>
     <row r="44">
@@ -8268,13 +8268,13 @@
         <v>76755</v>
       </c>
       <c r="B44" t="n">
-        <v>0.5157620000000001</v>
+        <v>0.514886</v>
       </c>
       <c r="C44" t="n">
-        <v>0.206702</v>
+        <v>0.205666</v>
       </c>
       <c r="D44" t="n">
-        <v>0.359148</v>
+        <v>0.3588</v>
       </c>
     </row>
     <row r="45">
@@ -8282,13 +8282,13 @@
         <v>80572</v>
       </c>
       <c r="B45" t="n">
-        <v>0.519826</v>
+        <v>0.519154</v>
       </c>
       <c r="C45" t="n">
-        <v>0.208884</v>
+        <v>0.208281</v>
       </c>
       <c r="D45" t="n">
-        <v>0.360475</v>
+        <v>0.360941</v>
       </c>
     </row>
     <row r="46">
@@ -8296,13 +8296,13 @@
         <v>84579</v>
       </c>
       <c r="B46" t="n">
-        <v>0.523412</v>
+        <v>0.523482</v>
       </c>
       <c r="C46" t="n">
-        <v>0.211474</v>
+        <v>0.211206</v>
       </c>
       <c r="D46" t="n">
-        <v>0.362217</v>
+        <v>0.362673</v>
       </c>
     </row>
     <row r="47">
@@ -8310,13 +8310,13 @@
         <v>88786</v>
       </c>
       <c r="B47" t="n">
-        <v>0.528371</v>
+        <v>0.527887</v>
       </c>
       <c r="C47" t="n">
-        <v>0.214692</v>
+        <v>0.213656</v>
       </c>
       <c r="D47" t="n">
-        <v>0.365171</v>
+        <v>0.365093</v>
       </c>
     </row>
     <row r="48">
@@ -8324,13 +8324,13 @@
         <v>93203</v>
       </c>
       <c r="B48" t="n">
-        <v>0.532778</v>
+        <v>0.531732</v>
       </c>
       <c r="C48" t="n">
-        <v>0.217468</v>
+        <v>0.216296</v>
       </c>
       <c r="D48" t="n">
-        <v>0.366832</v>
+        <v>0.367222</v>
       </c>
     </row>
     <row r="49">
@@ -8338,13 +8338,13 @@
         <v>97840</v>
       </c>
       <c r="B49" t="n">
-        <v>0.537305</v>
+        <v>0.536662</v>
       </c>
       <c r="C49" t="n">
-        <v>0.220223</v>
+        <v>0.219242</v>
       </c>
       <c r="D49" t="n">
-        <v>0.369335</v>
+        <v>0.368543</v>
       </c>
     </row>
     <row r="50">
@@ -8352,13 +8352,13 @@
         <v>102706</v>
       </c>
       <c r="B50" t="n">
-        <v>0.541496</v>
+        <v>0.5409659999999999</v>
       </c>
       <c r="C50" t="n">
-        <v>0.194741</v>
+        <v>0.194078</v>
       </c>
       <c r="D50" t="n">
-        <v>0.360051</v>
+        <v>0.360192</v>
       </c>
     </row>
     <row r="51">
@@ -8366,13 +8366,13 @@
         <v>107816</v>
       </c>
       <c r="B51" t="n">
-        <v>0.51011</v>
+        <v>0.509104</v>
       </c>
       <c r="C51" t="n">
-        <v>0.197242</v>
+        <v>0.196786</v>
       </c>
       <c r="D51" t="n">
-        <v>0.361443</v>
+        <v>0.361351</v>
       </c>
     </row>
     <row r="52">
@@ -8380,13 +8380,13 @@
         <v>113182</v>
       </c>
       <c r="B52" t="n">
-        <v>0.512714</v>
+        <v>0.51236</v>
       </c>
       <c r="C52" t="n">
-        <v>0.199461</v>
+        <v>0.198552</v>
       </c>
       <c r="D52" t="n">
-        <v>0.361902</v>
+        <v>0.361806</v>
       </c>
     </row>
     <row r="53">
@@ -8394,13 +8394,13 @@
         <v>118816</v>
       </c>
       <c r="B53" t="n">
-        <v>0.513795</v>
+        <v>0.513469</v>
       </c>
       <c r="C53" t="n">
-        <v>0.201379</v>
+        <v>0.199947</v>
       </c>
       <c r="D53" t="n">
-        <v>0.362749</v>
+        <v>0.363595</v>
       </c>
     </row>
     <row r="54">
@@ -8408,13 +8408,13 @@
         <v>124731</v>
       </c>
       <c r="B54" t="n">
-        <v>0.516638</v>
+        <v>0.5162600000000001</v>
       </c>
       <c r="C54" t="n">
-        <v>0.202107</v>
+        <v>0.201571</v>
       </c>
       <c r="D54" t="n">
-        <v>0.364225</v>
+        <v>0.364959</v>
       </c>
     </row>
     <row r="55">
@@ -8422,13 +8422,13 @@
         <v>130941</v>
       </c>
       <c r="B55" t="n">
-        <v>0.519137</v>
+        <v>0.518934</v>
       </c>
       <c r="C55" t="n">
-        <v>0.208464</v>
+        <v>0.205839</v>
       </c>
       <c r="D55" t="n">
-        <v>0.365571</v>
+        <v>0.366418</v>
       </c>
     </row>
     <row r="56">
@@ -8436,13 +8436,13 @@
         <v>137461</v>
       </c>
       <c r="B56" t="n">
-        <v>0.521739</v>
+        <v>0.5213</v>
       </c>
       <c r="C56" t="n">
-        <v>0.211351</v>
+        <v>0.206582</v>
       </c>
       <c r="D56" t="n">
-        <v>0.367389</v>
+        <v>0.367804</v>
       </c>
     </row>
     <row r="57">
@@ -8450,13 +8450,13 @@
         <v>144307</v>
       </c>
       <c r="B57" t="n">
-        <v>0.524879</v>
+        <v>0.524663</v>
       </c>
       <c r="C57" t="n">
-        <v>0.217581</v>
+        <v>0.210325</v>
       </c>
       <c r="D57" t="n">
-        <v>0.368971</v>
+        <v>0.369401</v>
       </c>
     </row>
     <row r="58">
@@ -8464,13 +8464,13 @@
         <v>151495</v>
       </c>
       <c r="B58" t="n">
-        <v>0.52884</v>
+        <v>0.528301</v>
       </c>
       <c r="C58" t="n">
-        <v>0.219475</v>
+        <v>0.211625</v>
       </c>
       <c r="D58" t="n">
-        <v>0.370956</v>
+        <v>0.37145</v>
       </c>
     </row>
     <row r="59">
@@ -8478,13 +8478,13 @@
         <v>159042</v>
       </c>
       <c r="B59" t="n">
-        <v>0.5331129999999999</v>
+        <v>0.531568</v>
       </c>
       <c r="C59" t="n">
-        <v>0.223368</v>
+        <v>0.217279</v>
       </c>
       <c r="D59" t="n">
-        <v>0.371586</v>
+        <v>0.372857</v>
       </c>
     </row>
     <row r="60">
@@ -8492,13 +8492,13 @@
         <v>166965</v>
       </c>
       <c r="B60" t="n">
-        <v>0.535649</v>
+        <v>0.535323</v>
       </c>
       <c r="C60" t="n">
-        <v>0.223772</v>
+        <v>0.228156</v>
       </c>
       <c r="D60" t="n">
-        <v>0.374011</v>
+        <v>0.374974</v>
       </c>
     </row>
     <row r="61">
@@ -8506,13 +8506,13 @@
         <v>175284</v>
       </c>
       <c r="B61" t="n">
-        <v>0.540289</v>
+        <v>0.539804</v>
       </c>
       <c r="C61" t="n">
-        <v>0.22764</v>
+        <v>0.229445</v>
       </c>
       <c r="D61" t="n">
-        <v>0.376189</v>
+        <v>0.3774</v>
       </c>
     </row>
     <row r="62">
@@ -8520,13 +8520,13 @@
         <v>184019</v>
       </c>
       <c r="B62" t="n">
-        <v>0.5452360000000001</v>
+        <v>0.5444</v>
       </c>
       <c r="C62" t="n">
-        <v>0.241154</v>
+        <v>0.23891</v>
       </c>
       <c r="D62" t="n">
-        <v>0.378551</v>
+        <v>0.379649</v>
       </c>
     </row>
     <row r="63">
@@ -8534,13 +8534,13 @@
         <v>193190</v>
       </c>
       <c r="B63" t="n">
-        <v>0.549796</v>
+        <v>0.548936</v>
       </c>
       <c r="C63" t="n">
-        <v>0.251471</v>
+        <v>0.24242</v>
       </c>
       <c r="D63" t="n">
-        <v>0.380988</v>
+        <v>0.381679</v>
       </c>
     </row>
     <row r="64">
@@ -8548,13 +8548,13 @@
         <v>202820</v>
       </c>
       <c r="B64" t="n">
-        <v>0.556383</v>
+        <v>0.554717</v>
       </c>
       <c r="C64" t="n">
-        <v>0.306369</v>
+        <v>0.286756</v>
       </c>
       <c r="D64" t="n">
-        <v>0.425573</v>
+        <v>0.407239</v>
       </c>
     </row>
     <row r="65">
@@ -8562,13 +8562,13 @@
         <v>212931</v>
       </c>
       <c r="B65" t="n">
-        <v>0.597543</v>
+        <v>0.57768</v>
       </c>
       <c r="C65" t="n">
-        <v>0.319039</v>
+        <v>0.307635</v>
       </c>
       <c r="D65" t="n">
-        <v>0.429776</v>
+        <v>0.420891</v>
       </c>
     </row>
     <row r="66">
@@ -8576,13 +8576,13 @@
         <v>223547</v>
       </c>
       <c r="B66" t="n">
-        <v>0.615635</v>
+        <v>0.603751</v>
       </c>
       <c r="C66" t="n">
-        <v>0.328324</v>
+        <v>0.326336</v>
       </c>
       <c r="D66" t="n">
-        <v>0.426676</v>
+        <v>0.434409</v>
       </c>
     </row>
     <row r="67">
@@ -8590,13 +8590,13 @@
         <v>234692</v>
       </c>
       <c r="B67" t="n">
-        <v>0.613446</v>
+        <v>0.61158</v>
       </c>
       <c r="C67" t="n">
-        <v>0.35101</v>
+        <v>0.344725</v>
       </c>
       <c r="D67" t="n">
-        <v>0.441299</v>
+        <v>0.441151</v>
       </c>
     </row>
     <row r="68">
@@ -8604,13 +8604,13 @@
         <v>246395</v>
       </c>
       <c r="B68" t="n">
-        <v>0.6309979999999999</v>
+        <v>0.631074</v>
       </c>
       <c r="C68" t="n">
-        <v>0.373103</v>
+        <v>0.357374</v>
       </c>
       <c r="D68" t="n">
-        <v>0.455905</v>
+        <v>0.459957</v>
       </c>
     </row>
     <row r="69">
@@ -8618,13 +8618,13 @@
         <v>258683</v>
       </c>
       <c r="B69" t="n">
-        <v>0.652214</v>
+        <v>0.63601</v>
       </c>
       <c r="C69" t="n">
-        <v>0.389509</v>
+        <v>0.381436</v>
       </c>
       <c r="D69" t="n">
-        <v>0.466867</v>
+        <v>0.467798</v>
       </c>
     </row>
     <row r="70">
@@ -8632,13 +8632,13 @@
         <v>271585</v>
       </c>
       <c r="B70" t="n">
-        <v>0.672652</v>
+        <v>0.676878</v>
       </c>
       <c r="C70" t="n">
-        <v>0.40481</v>
+        <v>0.400972</v>
       </c>
       <c r="D70" t="n">
-        <v>0.477341</v>
+        <v>0.489795</v>
       </c>
     </row>
     <row r="71">
@@ -8646,13 +8646,13 @@
         <v>285132</v>
       </c>
       <c r="B71" t="n">
-        <v>0.685445</v>
+        <v>0.698543</v>
       </c>
       <c r="C71" t="n">
-        <v>0.425123</v>
+        <v>0.423698</v>
       </c>
       <c r="D71" t="n">
-        <v>0.500275</v>
+        <v>0.506038</v>
       </c>
     </row>
     <row r="72">
@@ -8660,13 +8660,13 @@
         <v>299354</v>
       </c>
       <c r="B72" t="n">
-        <v>0.716576</v>
+        <v>0.729212</v>
       </c>
       <c r="C72" t="n">
-        <v>0.439038</v>
+        <v>0.442728</v>
       </c>
       <c r="D72" t="n">
-        <v>0.522295</v>
+        <v>0.521821</v>
       </c>
     </row>
     <row r="73">
@@ -8674,13 +8674,13 @@
         <v>314289</v>
       </c>
       <c r="B73" t="n">
-        <v>0.738851</v>
+        <v>0.7443419999999999</v>
       </c>
       <c r="C73" t="n">
-        <v>0.455244</v>
+        <v>0.46036</v>
       </c>
       <c r="D73" t="n">
-        <v>0.539492</v>
+        <v>0.5421</v>
       </c>
     </row>
     <row r="74">
@@ -8688,13 +8688,13 @@
         <v>329969</v>
       </c>
       <c r="B74" t="n">
-        <v>0.773467</v>
+        <v>0.778073</v>
       </c>
       <c r="C74" t="n">
-        <v>0.480298</v>
+        <v>0.477539</v>
       </c>
       <c r="D74" t="n">
-        <v>0.578258</v>
+        <v>0.570829</v>
       </c>
     </row>
     <row r="75">
@@ -8702,13 +8702,13 @@
         <v>346432</v>
       </c>
       <c r="B75" t="n">
-        <v>0.831687</v>
+        <v>0.816338</v>
       </c>
       <c r="C75" t="n">
-        <v>0.50393</v>
+        <v>0.499781</v>
       </c>
       <c r="D75" t="n">
-        <v>0.614004</v>
+        <v>0.608443</v>
       </c>
     </row>
     <row r="76">
@@ -8716,13 +8716,13 @@
         <v>363719</v>
       </c>
       <c r="B76" t="n">
-        <v>0.849827</v>
+        <v>0.861915</v>
       </c>
       <c r="C76" t="n">
-        <v>0.516397</v>
+        <v>0.518989</v>
       </c>
       <c r="D76" t="n">
-        <v>0.626338</v>
+        <v>0.6289360000000001</v>
       </c>
     </row>
     <row r="77">
@@ -8730,13 +8730,13 @@
         <v>381870</v>
       </c>
       <c r="B77" t="n">
-        <v>0.90318</v>
+        <v>0.893881</v>
       </c>
       <c r="C77" t="n">
-        <v>0.541533</v>
+        <v>0.537385</v>
       </c>
       <c r="D77" t="n">
-        <v>0.663689</v>
+        <v>0.666106</v>
       </c>
     </row>
     <row r="78">
@@ -8744,13 +8744,13 @@
         <v>400928</v>
       </c>
       <c r="B78" t="n">
-        <v>0.947275</v>
+        <v>0.945176</v>
       </c>
       <c r="C78" t="n">
-        <v>0.632085</v>
+        <v>0.631626</v>
       </c>
       <c r="D78" t="n">
-        <v>0.890703</v>
+        <v>0.8938700000000001</v>
       </c>
     </row>
     <row r="79">
@@ -8758,13 +8758,13 @@
         <v>420937</v>
       </c>
       <c r="B79" t="n">
-        <v>1.22659</v>
+        <v>1.22368</v>
       </c>
       <c r="C79" t="n">
-        <v>0.644002</v>
+        <v>0.64456</v>
       </c>
       <c r="D79" t="n">
-        <v>0.937367</v>
+        <v>0.937426</v>
       </c>
     </row>
     <row r="80">
@@ -8772,13 +8772,13 @@
         <v>441947</v>
       </c>
       <c r="B80" t="n">
-        <v>1.28017</v>
+        <v>1.28026</v>
       </c>
       <c r="C80" t="n">
-        <v>0.656469</v>
+        <v>0.655843</v>
       </c>
       <c r="D80" t="n">
-        <v>0.982712</v>
+        <v>0.975681</v>
       </c>
     </row>
     <row r="81">
@@ -8786,13 +8786,13 @@
         <v>464005</v>
       </c>
       <c r="B81" t="n">
-        <v>1.33767</v>
+        <v>1.32272</v>
       </c>
       <c r="C81" t="n">
-        <v>0.668106</v>
+        <v>0.668123</v>
       </c>
       <c r="D81" t="n">
-        <v>1.02524</v>
+        <v>1.01759</v>
       </c>
     </row>
     <row r="82">
@@ -8800,13 +8800,13 @@
         <v>487165</v>
       </c>
       <c r="B82" t="n">
-        <v>1.39248</v>
+        <v>1.38101</v>
       </c>
       <c r="C82" t="n">
-        <v>0.681206</v>
+        <v>0.680018</v>
       </c>
       <c r="D82" t="n">
-        <v>1.06128</v>
+        <v>1.0571</v>
       </c>
     </row>
     <row r="83">
@@ -8814,13 +8814,13 @@
         <v>511485</v>
       </c>
       <c r="B83" t="n">
-        <v>1.4338</v>
+        <v>1.42459</v>
       </c>
       <c r="C83" t="n">
-        <v>0.691177</v>
+        <v>0.690512</v>
       </c>
       <c r="D83" t="n">
-        <v>1.09653</v>
+        <v>1.10215</v>
       </c>
     </row>
     <row r="84">
@@ -8828,13 +8828,13 @@
         <v>537019</v>
       </c>
       <c r="B84" t="n">
-        <v>1.47773</v>
+        <v>1.48352</v>
       </c>
       <c r="C84" t="n">
-        <v>0.702413</v>
+        <v>0.702135</v>
       </c>
       <c r="D84" t="n">
-        <v>1.13504</v>
+        <v>1.13944</v>
       </c>
     </row>
     <row r="85">
@@ -8842,13 +8842,13 @@
         <v>563827</v>
       </c>
       <c r="B85" t="n">
-        <v>1.53033</v>
+        <v>1.52447</v>
       </c>
       <c r="C85" t="n">
-        <v>0.71572</v>
+        <v>0.713568</v>
       </c>
       <c r="D85" t="n">
-        <v>1.17474</v>
+        <v>1.17534</v>
       </c>
     </row>
     <row r="86">
@@ -8856,13 +8856,13 @@
         <v>591977</v>
       </c>
       <c r="B86" t="n">
-        <v>1.57713</v>
+        <v>1.57559</v>
       </c>
       <c r="C86" t="n">
-        <v>0.725673</v>
+        <v>0.725456</v>
       </c>
       <c r="D86" t="n">
-        <v>1.21329</v>
+        <v>1.21475</v>
       </c>
     </row>
     <row r="87">
@@ -8870,13 +8870,13 @@
         <v>621532</v>
       </c>
       <c r="B87" t="n">
-        <v>1.62637</v>
+        <v>1.62605</v>
       </c>
       <c r="C87" t="n">
-        <v>0.738173</v>
+        <v>0.737355</v>
       </c>
       <c r="D87" t="n">
-        <v>1.25122</v>
+        <v>1.24999</v>
       </c>
     </row>
     <row r="88">
@@ -8884,13 +8884,13 @@
         <v>652567</v>
       </c>
       <c r="B88" t="n">
-        <v>1.67367</v>
+        <v>1.66921</v>
       </c>
       <c r="C88" t="n">
-        <v>0.750534</v>
+        <v>0.748967</v>
       </c>
       <c r="D88" t="n">
-        <v>1.28536</v>
+        <v>1.28673</v>
       </c>
     </row>
     <row r="89">
@@ -8898,13 +8898,13 @@
         <v>685151</v>
       </c>
       <c r="B89" t="n">
-        <v>1.717</v>
+        <v>1.71701</v>
       </c>
       <c r="C89" t="n">
-        <v>0.760564</v>
+        <v>0.761603</v>
       </c>
       <c r="D89" t="n">
-        <v>1.32063</v>
+        <v>1.32231</v>
       </c>
     </row>
     <row r="90">
@@ -8912,13 +8912,13 @@
         <v>719359</v>
       </c>
       <c r="B90" t="n">
-        <v>1.75626</v>
+        <v>1.75748</v>
       </c>
       <c r="C90" t="n">
-        <v>0.775413</v>
+        <v>0.771504</v>
       </c>
       <c r="D90" t="n">
-        <v>1.35232</v>
+        <v>1.34962</v>
       </c>
     </row>
     <row r="91">
@@ -8926,13 +8926,13 @@
         <v>755280</v>
       </c>
       <c r="B91" t="n">
-        <v>1.80367</v>
+        <v>1.79857</v>
       </c>
       <c r="C91" t="n">
-        <v>0.786192</v>
+        <v>0.785458</v>
       </c>
       <c r="D91" t="n">
-        <v>1.38413</v>
+        <v>1.38495</v>
       </c>
     </row>
     <row r="92">
@@ -8940,13 +8940,13 @@
         <v>792997</v>
       </c>
       <c r="B92" t="n">
-        <v>1.84052</v>
+        <v>1.84045</v>
       </c>
       <c r="C92" t="n">
-        <v>0.792696</v>
+        <v>0.79303</v>
       </c>
       <c r="D92" t="n">
-        <v>1.56285</v>
+        <v>1.56294</v>
       </c>
     </row>
     <row r="93">
@@ -8954,13 +8954,13 @@
         <v>832595</v>
       </c>
       <c r="B93" t="n">
-        <v>2.06125</v>
+        <v>2.0634</v>
       </c>
       <c r="C93" t="n">
-        <v>0.800092</v>
+        <v>0.798771</v>
       </c>
       <c r="D93" t="n">
-        <v>1.58483</v>
+        <v>1.58604</v>
       </c>
     </row>
     <row r="94">
@@ -8968,13 +8968,13 @@
         <v>874177</v>
       </c>
       <c r="B94" t="n">
-        <v>2.08954</v>
+        <v>2.09166</v>
       </c>
       <c r="C94" t="n">
-        <v>0.807791</v>
+        <v>0.807343</v>
       </c>
       <c r="D94" t="n">
-        <v>1.60801</v>
+        <v>1.61012</v>
       </c>
     </row>
     <row r="95">
@@ -8982,13 +8982,13 @@
         <v>917832</v>
       </c>
       <c r="B95" t="n">
-        <v>2.11576</v>
+        <v>2.11955</v>
       </c>
       <c r="C95" t="n">
-        <v>0.8139960000000001</v>
+        <v>0.816905</v>
       </c>
       <c r="D95" t="n">
-        <v>1.62683</v>
+        <v>1.62741</v>
       </c>
     </row>
     <row r="96">
@@ -8996,13 +8996,13 @@
         <v>963677</v>
       </c>
       <c r="B96" t="n">
-        <v>2.14453</v>
+        <v>2.1473</v>
       </c>
       <c r="C96" t="n">
-        <v>0.823292</v>
+        <v>0.823958</v>
       </c>
       <c r="D96" t="n">
-        <v>1.64827</v>
+        <v>1.64652</v>
       </c>
     </row>
     <row r="97">
@@ -9010,13 +9010,13 @@
         <v>1011813</v>
       </c>
       <c r="B97" t="n">
-        <v>2.17287</v>
+        <v>2.17586</v>
       </c>
       <c r="C97" t="n">
-        <v>0.829768</v>
+        <v>0.830992</v>
       </c>
       <c r="D97" t="n">
-        <v>1.66702</v>
+        <v>1.66546</v>
       </c>
     </row>
     <row r="98">
@@ -9024,13 +9024,13 @@
         <v>1062351</v>
       </c>
       <c r="B98" t="n">
-        <v>2.19605</v>
+        <v>2.19508</v>
       </c>
       <c r="C98" t="n">
-        <v>0.8387869999999999</v>
+        <v>0.839639</v>
       </c>
       <c r="D98" t="n">
-        <v>1.68627</v>
+        <v>1.68511</v>
       </c>
     </row>
     <row r="99">
@@ -9038,13 +9038,13 @@
         <v>1115422</v>
       </c>
       <c r="B99" t="n">
-        <v>2.225</v>
+        <v>2.21989</v>
       </c>
       <c r="C99" t="n">
-        <v>0.8491570000000001</v>
+        <v>0.8482499999999999</v>
       </c>
       <c r="D99" t="n">
-        <v>1.70364</v>
+        <v>1.70142</v>
       </c>
     </row>
     <row r="100">
@@ -9052,13 +9052,13 @@
         <v>1171143</v>
       </c>
       <c r="B100" t="n">
-        <v>2.24781</v>
+        <v>2.24419</v>
       </c>
       <c r="C100" t="n">
-        <v>0.856642</v>
+        <v>0.85723</v>
       </c>
       <c r="D100" t="n">
-        <v>1.7197</v>
+        <v>1.71877</v>
       </c>
     </row>
     <row r="101">
@@ -9066,13 +9066,13 @@
         <v>1229634</v>
       </c>
       <c r="B101" t="n">
-        <v>2.27315</v>
+        <v>2.27253</v>
       </c>
       <c r="C101" t="n">
-        <v>0.866113</v>
+        <v>0.8666509999999999</v>
       </c>
       <c r="D101" t="n">
-        <v>1.73415</v>
+        <v>1.73674</v>
       </c>
     </row>
     <row r="102">
@@ -9080,13 +9080,13 @@
         <v>1291062</v>
       </c>
       <c r="B102" t="n">
-        <v>2.29369</v>
+        <v>2.29499</v>
       </c>
       <c r="C102" t="n">
-        <v>0.878513</v>
+        <v>0.877945</v>
       </c>
       <c r="D102" t="n">
-        <v>1.74291</v>
+        <v>1.73231</v>
       </c>
     </row>
     <row r="103">
@@ -9094,13 +9094,13 @@
         <v>1355554</v>
       </c>
       <c r="B103" t="n">
-        <v>2.32285</v>
+        <v>2.32304</v>
       </c>
       <c r="C103" t="n">
-        <v>0.887505</v>
+        <v>0.887388</v>
       </c>
       <c r="D103" t="n">
-        <v>1.75984</v>
+        <v>1.76103</v>
       </c>
     </row>
     <row r="104">
@@ -9108,13 +9108,13 @@
         <v>1423274</v>
       </c>
       <c r="B104" t="n">
-        <v>2.34742</v>
+        <v>2.34461</v>
       </c>
       <c r="C104" t="n">
-        <v>0.898603</v>
+        <v>0.898497</v>
       </c>
       <c r="D104" t="n">
-        <v>1.78021</v>
+        <v>1.78236</v>
       </c>
     </row>
     <row r="105">
@@ -9122,13 +9122,13 @@
         <v>1494380</v>
       </c>
       <c r="B105" t="n">
-        <v>2.36913</v>
+        <v>2.37034</v>
       </c>
       <c r="C105" t="n">
-        <v>0.909152</v>
+        <v>0.909905</v>
       </c>
       <c r="D105" t="n">
-        <v>1.79265</v>
+        <v>1.79457</v>
       </c>
     </row>
     <row r="106">
@@ -9136,13 +9136,13 @@
         <v>1569031</v>
       </c>
       <c r="B106" t="n">
-        <v>2.39312</v>
+        <v>2.39695</v>
       </c>
       <c r="C106" t="n">
-        <v>0.9219850000000001</v>
+        <v>0.922455</v>
       </c>
       <c r="D106" t="n">
-        <v>1.80916</v>
+        <v>1.80823</v>
       </c>
     </row>
     <row r="107">
@@ -9150,13 +9150,13 @@
         <v>1647417</v>
       </c>
       <c r="B107" t="n">
-        <v>2.50621</v>
+        <v>2.50166</v>
       </c>
       <c r="C107" t="n">
-        <v>0.869247</v>
+        <v>0.872709</v>
       </c>
       <c r="D107" t="n">
-        <v>1.90826</v>
+        <v>1.9138</v>
       </c>
     </row>
     <row r="108">
@@ -9164,13 +9164,13 @@
         <v>1729734</v>
       </c>
       <c r="B108" t="n">
-        <v>2.51784</v>
+        <v>2.52331</v>
       </c>
       <c r="C108" t="n">
-        <v>0.875909</v>
+        <v>0.878988</v>
       </c>
       <c r="D108" t="n">
-        <v>1.91711</v>
+        <v>1.91299</v>
       </c>
     </row>
     <row r="109">
@@ -9178,13 +9178,13 @@
         <v>1816153</v>
       </c>
       <c r="B109" t="n">
-        <v>2.53621</v>
+        <v>2.53971</v>
       </c>
       <c r="C109" t="n">
-        <v>0.8847739999999999</v>
+        <v>0.885087</v>
       </c>
       <c r="D109" t="n">
-        <v>1.9263</v>
+        <v>1.92797</v>
       </c>
     </row>
     <row r="110">
@@ -9192,13 +9192,13 @@
         <v>1906885</v>
       </c>
       <c r="B110" t="n">
-        <v>2.55124</v>
+        <v>2.55294</v>
       </c>
       <c r="C110" t="n">
-        <v>0.890246</v>
+        <v>0.894595</v>
       </c>
       <c r="D110" t="n">
-        <v>1.93496</v>
+        <v>1.943</v>
       </c>
     </row>
     <row r="111">
@@ -9206,13 +9206,13 @@
         <v>2002164</v>
       </c>
       <c r="B111" t="n">
-        <v>2.56355</v>
+        <v>2.56788</v>
       </c>
       <c r="C111" t="n">
-        <v>0.898873</v>
+        <v>0.900415</v>
       </c>
       <c r="D111" t="n">
-        <v>1.94235</v>
+        <v>1.94768</v>
       </c>
     </row>
     <row r="112">
@@ -9220,13 +9220,13 @@
         <v>2102198</v>
       </c>
       <c r="B112" t="n">
-        <v>2.57788</v>
+        <v>2.58113</v>
       </c>
       <c r="C112" t="n">
-        <v>0.90784</v>
+        <v>0.911507</v>
       </c>
       <c r="D112" t="n">
-        <v>1.94874</v>
+        <v>1.95206</v>
       </c>
     </row>
     <row r="113">
@@ -9234,13 +9234,13 @@
         <v>2207233</v>
       </c>
       <c r="B113" t="n">
-        <v>2.59379</v>
+        <v>2.59977</v>
       </c>
       <c r="C113" t="n">
-        <v>0.9172439999999999</v>
+        <v>0.918646</v>
       </c>
       <c r="D113" t="n">
-        <v>1.95342</v>
+        <v>1.96676</v>
       </c>
     </row>
     <row r="114">
@@ -9248,13 +9248,13 @@
         <v>2317508</v>
       </c>
       <c r="B114" t="n">
-        <v>2.61077</v>
+        <v>2.61228</v>
       </c>
       <c r="C114" t="n">
-        <v>0.930588</v>
+        <v>0.9271740000000001</v>
       </c>
       <c r="D114" t="n">
-        <v>1.96953</v>
+        <v>1.97174</v>
       </c>
     </row>
     <row r="115">
@@ -9262,13 +9262,13 @@
         <v>2433290</v>
       </c>
       <c r="B115" t="n">
-        <v>2.62088</v>
+        <v>2.62765</v>
       </c>
       <c r="C115" t="n">
-        <v>0.9383280000000001</v>
+        <v>0.939832</v>
       </c>
       <c r="D115" t="n">
-        <v>1.97452</v>
+        <v>1.97061</v>
       </c>
     </row>
     <row r="116">
@@ -9276,13 +9276,13 @@
         <v>2554854</v>
       </c>
       <c r="B116" t="n">
-        <v>2.63666</v>
+        <v>2.63925</v>
       </c>
       <c r="C116" t="n">
-        <v>0.94377</v>
+        <v>0.947524</v>
       </c>
       <c r="D116" t="n">
-        <v>1.98383</v>
+        <v>1.98284</v>
       </c>
     </row>
     <row r="117">
@@ -9290,13 +9290,13 @@
         <v>2682511</v>
       </c>
       <c r="B117" t="n">
-        <v>2.65082</v>
+        <v>2.65459</v>
       </c>
       <c r="C117" t="n">
-        <v>0.958653</v>
+        <v>0.961657</v>
       </c>
       <c r="D117" t="n">
-        <v>1.99418</v>
+        <v>1.98871</v>
       </c>
     </row>
     <row r="118">
@@ -9304,13 +9304,13 @@
         <v>2816546</v>
       </c>
       <c r="B118" t="n">
-        <v>2.66728</v>
+        <v>2.66703</v>
       </c>
       <c r="C118" t="n">
-        <v>0.967127</v>
+        <v>0.968266</v>
       </c>
       <c r="D118" t="n">
-        <v>1.99232</v>
+        <v>1.99781</v>
       </c>
     </row>
     <row r="119">
@@ -9318,13 +9318,13 @@
         <v>2957287</v>
       </c>
       <c r="B119" t="n">
-        <v>2.68338</v>
+        <v>2.68517</v>
       </c>
       <c r="C119" t="n">
-        <v>0.9769370000000001</v>
+        <v>0.977483</v>
       </c>
       <c r="D119" t="n">
-        <v>2.00917</v>
+        <v>2.00683</v>
       </c>
     </row>
   </sheetData>
@@ -9372,13 +9372,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.550639</v>
+        <v>0.554111</v>
       </c>
       <c r="C2" t="n">
-        <v>0.302384</v>
+        <v>0.42163</v>
       </c>
       <c r="D2" t="n">
-        <v>0.34061</v>
+        <v>0.353307</v>
       </c>
     </row>
     <row r="3">
@@ -9386,13 +9386,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.553503</v>
+        <v>0.564228</v>
       </c>
       <c r="C3" t="n">
-        <v>0.311444</v>
+        <v>0.4286</v>
       </c>
       <c r="D3" t="n">
-        <v>0.345955</v>
+        <v>0.356478</v>
       </c>
     </row>
     <row r="4">
@@ -9400,13 +9400,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.567472</v>
+        <v>0.569919</v>
       </c>
       <c r="C4" t="n">
-        <v>0.313268</v>
+        <v>0.427695</v>
       </c>
       <c r="D4" t="n">
-        <v>0.351248</v>
+        <v>0.361638</v>
       </c>
     </row>
     <row r="5">
@@ -9414,13 +9414,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.57078</v>
+        <v>0.58023</v>
       </c>
       <c r="C5" t="n">
-        <v>0.316956</v>
+        <v>0.433611</v>
       </c>
       <c r="D5" t="n">
-        <v>0.358889</v>
+        <v>0.363675</v>
       </c>
     </row>
     <row r="6">
@@ -9428,13 +9428,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.584186</v>
+        <v>0.582763</v>
       </c>
       <c r="C6" t="n">
-        <v>0.325054</v>
+        <v>0.445246</v>
       </c>
       <c r="D6" t="n">
-        <v>0.359222</v>
+        <v>0.367028</v>
       </c>
     </row>
     <row r="7">
@@ -9442,13 +9442,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.584461</v>
+        <v>0.5889489999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>0.334715</v>
+        <v>0.454227</v>
       </c>
       <c r="D7" t="n">
-        <v>0.369816</v>
+        <v>0.373669</v>
       </c>
     </row>
     <row r="8">
@@ -9456,13 +9456,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.5903</v>
+        <v>0.594502</v>
       </c>
       <c r="C8" t="n">
-        <v>0.337732</v>
+        <v>0.457537</v>
       </c>
       <c r="D8" t="n">
-        <v>0.380521</v>
+        <v>0.384053</v>
       </c>
     </row>
     <row r="9">
@@ -9470,13 +9470,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.5990760000000001</v>
+        <v>0.608885</v>
       </c>
       <c r="C9" t="n">
-        <v>0.341065</v>
+        <v>0.463121</v>
       </c>
       <c r="D9" t="n">
-        <v>0.384156</v>
+        <v>0.387387</v>
       </c>
     </row>
     <row r="10">
@@ -9484,13 +9484,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.615906</v>
+        <v>0.618714</v>
       </c>
       <c r="C10" t="n">
-        <v>0.349535</v>
+        <v>0.470117</v>
       </c>
       <c r="D10" t="n">
-        <v>0.388933</v>
+        <v>0.39629</v>
       </c>
     </row>
     <row r="11">
@@ -9498,13 +9498,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.624129</v>
+        <v>0.63132</v>
       </c>
       <c r="C11" t="n">
-        <v>0.349412</v>
+        <v>0.46919</v>
       </c>
       <c r="D11" t="n">
-        <v>0.39242</v>
+        <v>0.399625</v>
       </c>
     </row>
     <row r="12">
@@ -9512,13 +9512,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.625234</v>
+        <v>0.6312680000000001</v>
       </c>
       <c r="C12" t="n">
-        <v>0.355928</v>
+        <v>0.475937</v>
       </c>
       <c r="D12" t="n">
-        <v>0.398117</v>
+        <v>0.403402</v>
       </c>
     </row>
     <row r="13">
@@ -9526,13 +9526,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.636598</v>
+        <v>0.640172</v>
       </c>
       <c r="C13" t="n">
-        <v>0.356016</v>
+        <v>0.476487</v>
       </c>
       <c r="D13" t="n">
-        <v>0.405364</v>
+        <v>0.409834</v>
       </c>
     </row>
     <row r="14">
@@ -9540,13 +9540,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.649284</v>
+        <v>0.651097</v>
       </c>
       <c r="C14" t="n">
-        <v>0.357906</v>
+        <v>0.478657</v>
       </c>
       <c r="D14" t="n">
-        <v>0.410764</v>
+        <v>0.417368</v>
       </c>
     </row>
     <row r="15">
@@ -9554,13 +9554,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.656855</v>
+        <v>0.658462</v>
       </c>
       <c r="C15" t="n">
-        <v>0.368018</v>
+        <v>0.486662</v>
       </c>
       <c r="D15" t="n">
-        <v>0.413324</v>
+        <v>0.423165</v>
       </c>
     </row>
     <row r="16">
@@ -9568,13 +9568,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.657872</v>
+        <v>0.6630509999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>0.370571</v>
+        <v>0.490787</v>
       </c>
       <c r="D16" t="n">
-        <v>0.420467</v>
+        <v>0.430556</v>
       </c>
     </row>
     <row r="17">
@@ -9582,13 +9582,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.671204</v>
+        <v>0.68067</v>
       </c>
       <c r="C17" t="n">
-        <v>0.373131</v>
+        <v>0.494323</v>
       </c>
       <c r="D17" t="n">
-        <v>0.42498</v>
+        <v>0.432831</v>
       </c>
     </row>
     <row r="18">
@@ -9596,13 +9596,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.675812</v>
+        <v>0.678026</v>
       </c>
       <c r="C18" t="n">
-        <v>0.380511</v>
+        <v>0.501732</v>
       </c>
       <c r="D18" t="n">
-        <v>0.430572</v>
+        <v>0.438655</v>
       </c>
     </row>
     <row r="19">
@@ -9610,13 +9610,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.685638</v>
+        <v>0.688797</v>
       </c>
       <c r="C19" t="n">
-        <v>0.383172</v>
+        <v>0.503248</v>
       </c>
       <c r="D19" t="n">
-        <v>0.435378</v>
+        <v>0.443594</v>
       </c>
     </row>
     <row r="20">
@@ -9624,13 +9624,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.700411</v>
+        <v>0.701751</v>
       </c>
       <c r="C20" t="n">
-        <v>0.392706</v>
+        <v>0.512924</v>
       </c>
       <c r="D20" t="n">
-        <v>0.44295</v>
+        <v>0.450409</v>
       </c>
     </row>
     <row r="21">
@@ -9638,13 +9638,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.705296</v>
+        <v>0.706921</v>
       </c>
       <c r="C21" t="n">
-        <v>0.392969</v>
+        <v>0.518775</v>
       </c>
       <c r="D21" t="n">
-        <v>0.451175</v>
+        <v>0.458431</v>
       </c>
     </row>
     <row r="22">
@@ -9652,13 +9652,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.710042</v>
+        <v>0.7112810000000001</v>
       </c>
       <c r="C22" t="n">
-        <v>0.398654</v>
+        <v>0.52279</v>
       </c>
       <c r="D22" t="n">
-        <v>0.454615</v>
+        <v>0.461766</v>
       </c>
     </row>
     <row r="23">
@@ -9666,13 +9666,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.723607</v>
+        <v>0.7252769999999999</v>
       </c>
       <c r="C23" t="n">
-        <v>0.39759</v>
+        <v>0.521918</v>
       </c>
       <c r="D23" t="n">
-        <v>0.462839</v>
+        <v>0.467695</v>
       </c>
     </row>
     <row r="24">
@@ -9680,13 +9680,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.728947</v>
+        <v>0.72827</v>
       </c>
       <c r="C24" t="n">
-        <v>0.401482</v>
+        <v>0.530199</v>
       </c>
       <c r="D24" t="n">
-        <v>0.465028</v>
+        <v>0.470841</v>
       </c>
     </row>
     <row r="25">
@@ -9694,13 +9694,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.7425</v>
+        <v>0.743609</v>
       </c>
       <c r="C25" t="n">
-        <v>0.413626</v>
+        <v>0.542909</v>
       </c>
       <c r="D25" t="n">
-        <v>0.470231</v>
+        <v>0.475079</v>
       </c>
     </row>
     <row r="26">
@@ -9708,13 +9708,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.7422</v>
+        <v>0.742318</v>
       </c>
       <c r="C26" t="n">
-        <v>0.41291</v>
+        <v>0.5391</v>
       </c>
       <c r="D26" t="n">
-        <v>0.475059</v>
+        <v>0.480078</v>
       </c>
     </row>
     <row r="27">
@@ -9722,13 +9722,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.748183</v>
+        <v>0.748784</v>
       </c>
       <c r="C27" t="n">
-        <v>0.417489</v>
+        <v>0.544713</v>
       </c>
       <c r="D27" t="n">
-        <v>0.479277</v>
+        <v>0.484085</v>
       </c>
     </row>
     <row r="28">
@@ -9736,13 +9736,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.7536079999999999</v>
+        <v>0.753676</v>
       </c>
       <c r="C28" t="n">
-        <v>0.418981</v>
+        <v>0.548409</v>
       </c>
       <c r="D28" t="n">
-        <v>0.480799</v>
+        <v>0.486611</v>
       </c>
     </row>
     <row r="29">
@@ -9750,13 +9750,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.762211</v>
+        <v>0.762543</v>
       </c>
       <c r="C29" t="n">
-        <v>0.425686</v>
+        <v>0.551445</v>
       </c>
       <c r="D29" t="n">
-        <v>0.486365</v>
+        <v>0.492089</v>
       </c>
     </row>
     <row r="30">
@@ -9764,13 +9764,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.770381</v>
+        <v>0.770386</v>
       </c>
       <c r="C30" t="n">
-        <v>0.432988</v>
+        <v>0.558445</v>
       </c>
       <c r="D30" t="n">
-        <v>0.48979</v>
+        <v>0.49612</v>
       </c>
     </row>
     <row r="31">
@@ -9778,13 +9778,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.7786419999999999</v>
+        <v>0.777942</v>
       </c>
       <c r="C31" t="n">
-        <v>0.430675</v>
+        <v>0.559283</v>
       </c>
       <c r="D31" t="n">
-        <v>0.493502</v>
+        <v>0.498712</v>
       </c>
     </row>
     <row r="32">
@@ -9792,13 +9792,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.781529</v>
+        <v>0.781675</v>
       </c>
       <c r="C32" t="n">
-        <v>0.43511</v>
+        <v>0.563936</v>
       </c>
       <c r="D32" t="n">
-        <v>0.497144</v>
+        <v>0.504121</v>
       </c>
     </row>
     <row r="33">
@@ -9806,13 +9806,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.7897459999999999</v>
+        <v>0.788321</v>
       </c>
       <c r="C33" t="n">
-        <v>0.440804</v>
+        <v>0.568956</v>
       </c>
       <c r="D33" t="n">
-        <v>0.498977</v>
+        <v>0.505016</v>
       </c>
     </row>
     <row r="34">
@@ -9820,13 +9820,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.79737</v>
+        <v>0.794837</v>
       </c>
       <c r="C34" t="n">
-        <v>0.442483</v>
+        <v>0.571124</v>
       </c>
       <c r="D34" t="n">
-        <v>0.502911</v>
+        <v>0.5082410000000001</v>
       </c>
     </row>
     <row r="35">
@@ -9834,13 +9834,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.8014559999999999</v>
+        <v>0.799233</v>
       </c>
       <c r="C35" t="n">
-        <v>0.41655</v>
+        <v>0.552681</v>
       </c>
       <c r="D35" t="n">
-        <v>0.504864</v>
+        <v>0.511791</v>
       </c>
     </row>
     <row r="36">
@@ -9848,13 +9848,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.796906</v>
+        <v>0.799211</v>
       </c>
       <c r="C36" t="n">
-        <v>0.422209</v>
+        <v>0.557289</v>
       </c>
       <c r="D36" t="n">
-        <v>0.509246</v>
+        <v>0.515172</v>
       </c>
     </row>
     <row r="37">
@@ -9862,13 +9862,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.802305</v>
+        <v>0.802312</v>
       </c>
       <c r="C37" t="n">
-        <v>0.425124</v>
+        <v>0.560189</v>
       </c>
       <c r="D37" t="n">
-        <v>0.5104880000000001</v>
+        <v>0.516564</v>
       </c>
     </row>
     <row r="38">
@@ -9876,13 +9876,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.803562</v>
+        <v>0.802916</v>
       </c>
       <c r="C38" t="n">
-        <v>0.427545</v>
+        <v>0.5603050000000001</v>
       </c>
       <c r="D38" t="n">
-        <v>0.514996</v>
+        <v>0.5207580000000001</v>
       </c>
     </row>
     <row r="39">
@@ -9890,13 +9890,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.8101390000000001</v>
+        <v>0.810155</v>
       </c>
       <c r="C39" t="n">
-        <v>0.432306</v>
+        <v>0.565927</v>
       </c>
       <c r="D39" t="n">
-        <v>0.516956</v>
+        <v>0.521718</v>
       </c>
     </row>
     <row r="40">
@@ -9904,13 +9904,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.816878</v>
+        <v>0.816588</v>
       </c>
       <c r="C40" t="n">
-        <v>0.434409</v>
+        <v>0.568677</v>
       </c>
       <c r="D40" t="n">
-        <v>0.5193990000000001</v>
+        <v>0.526073</v>
       </c>
     </row>
     <row r="41">
@@ -9918,13 +9918,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.823717</v>
+        <v>0.824397</v>
       </c>
       <c r="C41" t="n">
-        <v>0.437872</v>
+        <v>0.570967</v>
       </c>
       <c r="D41" t="n">
-        <v>0.5217810000000001</v>
+        <v>0.527062</v>
       </c>
     </row>
     <row r="42">
@@ -9932,13 +9932,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.8241270000000001</v>
+        <v>0.823703</v>
       </c>
       <c r="C42" t="n">
-        <v>0.443342</v>
+        <v>0.571238</v>
       </c>
       <c r="D42" t="n">
-        <v>0.525118</v>
+        <v>0.530788</v>
       </c>
     </row>
     <row r="43">
@@ -9946,13 +9946,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.8314</v>
+        <v>0.83134</v>
       </c>
       <c r="C43" t="n">
-        <v>0.444084</v>
+        <v>0.575731</v>
       </c>
       <c r="D43" t="n">
-        <v>0.527131</v>
+        <v>0.532763</v>
       </c>
     </row>
     <row r="44">
@@ -9960,13 +9960,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.832215</v>
+        <v>0.83208</v>
       </c>
       <c r="C44" t="n">
-        <v>0.444285</v>
+        <v>0.57665</v>
       </c>
       <c r="D44" t="n">
-        <v>0.527779</v>
+        <v>0.533698</v>
       </c>
     </row>
     <row r="45">
@@ -9974,13 +9974,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.837014</v>
+        <v>0.837147</v>
       </c>
       <c r="C45" t="n">
-        <v>0.450197</v>
+        <v>0.579528</v>
       </c>
       <c r="D45" t="n">
-        <v>0.529321</v>
+        <v>0.533784</v>
       </c>
     </row>
     <row r="46">
@@ -9988,13 +9988,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.841776</v>
+        <v>0.839245</v>
       </c>
       <c r="C46" t="n">
-        <v>0.449154</v>
+        <v>0.577102</v>
       </c>
       <c r="D46" t="n">
-        <v>0.531159</v>
+        <v>0.53638</v>
       </c>
     </row>
     <row r="47">
@@ -10002,13 +10002,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.850742</v>
+        <v>0.851523</v>
       </c>
       <c r="C47" t="n">
-        <v>0.454743</v>
+        <v>0.584807</v>
       </c>
       <c r="D47" t="n">
-        <v>0.534398</v>
+        <v>0.540535</v>
       </c>
     </row>
     <row r="48">
@@ -10016,13 +10016,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.853929</v>
+        <v>0.85429</v>
       </c>
       <c r="C48" t="n">
-        <v>0.458325</v>
+        <v>0.588518</v>
       </c>
       <c r="D48" t="n">
-        <v>0.535816</v>
+        <v>0.5410199999999999</v>
       </c>
     </row>
     <row r="49">
@@ -10030,13 +10030,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.858545</v>
+        <v>0.858693</v>
       </c>
       <c r="C49" t="n">
-        <v>0.459609</v>
+        <v>0.591134</v>
       </c>
       <c r="D49" t="n">
-        <v>0.537391</v>
+        <v>0.5427</v>
       </c>
     </row>
     <row r="50">
@@ -10044,13 +10044,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.865347</v>
+        <v>0.86472</v>
       </c>
       <c r="C50" t="n">
-        <v>0.445834</v>
+        <v>0.579805</v>
       </c>
       <c r="D50" t="n">
-        <v>0.538424</v>
+        <v>0.54423</v>
       </c>
     </row>
     <row r="51">
@@ -10058,13 +10058,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.842067</v>
+        <v>0.844284</v>
       </c>
       <c r="C51" t="n">
-        <v>0.448133</v>
+        <v>0.582503</v>
       </c>
       <c r="D51" t="n">
-        <v>0.53911</v>
+        <v>0.544478</v>
       </c>
     </row>
     <row r="52">
@@ -10072,13 +10072,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.846629</v>
+        <v>0.846209</v>
       </c>
       <c r="C52" t="n">
-        <v>0.452536</v>
+        <v>0.584878</v>
       </c>
       <c r="D52" t="n">
-        <v>0.541579</v>
+        <v>0.548181</v>
       </c>
     </row>
     <row r="53">
@@ -10086,13 +10086,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.85215</v>
+        <v>0.852196</v>
       </c>
       <c r="C53" t="n">
-        <v>0.457482</v>
+        <v>0.589616</v>
       </c>
       <c r="D53" t="n">
-        <v>0.542842</v>
+        <v>0.548414</v>
       </c>
     </row>
     <row r="54">
@@ -10100,13 +10100,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.856497</v>
+        <v>0.85622</v>
       </c>
       <c r="C54" t="n">
-        <v>0.460718</v>
+        <v>0.591542</v>
       </c>
       <c r="D54" t="n">
-        <v>0.544596</v>
+        <v>0.55011</v>
       </c>
     </row>
     <row r="55">
@@ -10114,13 +10114,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.859387</v>
+        <v>0.859904</v>
       </c>
       <c r="C55" t="n">
-        <v>0.461941</v>
+        <v>0.597987</v>
       </c>
       <c r="D55" t="n">
-        <v>0.546631</v>
+        <v>0.553072</v>
       </c>
     </row>
     <row r="56">
@@ -10128,13 +10128,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.8611259999999999</v>
+        <v>0.861591</v>
       </c>
       <c r="C56" t="n">
-        <v>0.461732</v>
+        <v>0.5948020000000001</v>
       </c>
       <c r="D56" t="n">
-        <v>0.546872</v>
+        <v>0.552925</v>
       </c>
     </row>
     <row r="57">
@@ -10142,13 +10142,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.864916</v>
+        <v>0.864625</v>
       </c>
       <c r="C57" t="n">
-        <v>0.470628</v>
+        <v>0.604801</v>
       </c>
       <c r="D57" t="n">
-        <v>0.549355</v>
+        <v>0.5550389999999999</v>
       </c>
     </row>
     <row r="58">
@@ -10156,13 +10156,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.868779</v>
+        <v>0.869027</v>
       </c>
       <c r="C58" t="n">
-        <v>0.475282</v>
+        <v>0.607152</v>
       </c>
       <c r="D58" t="n">
-        <v>0.5500389999999999</v>
+        <v>0.556135</v>
       </c>
     </row>
     <row r="59">
@@ -10170,13 +10170,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.8728630000000001</v>
+        <v>0.872829</v>
       </c>
       <c r="C59" t="n">
-        <v>0.481929</v>
+        <v>0.621729</v>
       </c>
       <c r="D59" t="n">
-        <v>0.551706</v>
+        <v>0.557266</v>
       </c>
     </row>
     <row r="60">
@@ -10184,13 +10184,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.878737</v>
+        <v>0.878391</v>
       </c>
       <c r="C60" t="n">
-        <v>0.480991</v>
+        <v>0.6228</v>
       </c>
       <c r="D60" t="n">
-        <v>0.553416</v>
+        <v>0.559937</v>
       </c>
     </row>
     <row r="61">
@@ -10198,13 +10198,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.883004</v>
+        <v>0.884181</v>
       </c>
       <c r="C61" t="n">
-        <v>0.48971</v>
+        <v>0.637912</v>
       </c>
       <c r="D61" t="n">
-        <v>0.553621</v>
+        <v>0.561174</v>
       </c>
     </row>
     <row r="62">
@@ -10212,13 +10212,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.888076</v>
+        <v>0.887916</v>
       </c>
       <c r="C62" t="n">
-        <v>0.494989</v>
+        <v>0.646428</v>
       </c>
       <c r="D62" t="n">
-        <v>0.55671</v>
+        <v>0.567367</v>
       </c>
     </row>
     <row r="63">
@@ -10226,13 +10226,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.890864</v>
+        <v>0.89699</v>
       </c>
       <c r="C63" t="n">
-        <v>0.50871</v>
+        <v>0.651305</v>
       </c>
       <c r="D63" t="n">
-        <v>0.558478</v>
+        <v>0.569891</v>
       </c>
     </row>
     <row r="64">
@@ -10240,13 +10240,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.898607</v>
+        <v>0.905575</v>
       </c>
       <c r="C64" t="n">
-        <v>0.548071</v>
+        <v>0.69196</v>
       </c>
       <c r="D64" t="n">
-        <v>0.592175</v>
+        <v>0.5955240000000001</v>
       </c>
     </row>
     <row r="65">
@@ -10254,13 +10254,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.935271</v>
+        <v>0.924107</v>
       </c>
       <c r="C65" t="n">
-        <v>0.5602819999999999</v>
+        <v>0.713743</v>
       </c>
       <c r="D65" t="n">
-        <v>0.596965</v>
+        <v>0.616333</v>
       </c>
     </row>
     <row r="66">
@@ -10268,13 +10268,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.942792</v>
+        <v>0.946038</v>
       </c>
       <c r="C66" t="n">
-        <v>0.577371</v>
+        <v>0.720569</v>
       </c>
       <c r="D66" t="n">
-        <v>0.605079</v>
+        <v>0.600993</v>
       </c>
     </row>
     <row r="67">
@@ -10282,13 +10282,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.957568</v>
+        <v>0.957917</v>
       </c>
       <c r="C67" t="n">
-        <v>0.591345</v>
+        <v>0.744244</v>
       </c>
       <c r="D67" t="n">
-        <v>0.618177</v>
+        <v>0.626192</v>
       </c>
     </row>
     <row r="68">
@@ -10296,13 +10296,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.974285</v>
+        <v>0.9889</v>
       </c>
       <c r="C68" t="n">
-        <v>0.618258</v>
+        <v>0.783856</v>
       </c>
       <c r="D68" t="n">
-        <v>0.632389</v>
+        <v>0.637375</v>
       </c>
     </row>
     <row r="69">
@@ -10310,13 +10310,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>1.00057</v>
+        <v>1.00847</v>
       </c>
       <c r="C69" t="n">
-        <v>0.640795</v>
+        <v>0.801435</v>
       </c>
       <c r="D69" t="n">
-        <v>0.63981</v>
+        <v>0.658268</v>
       </c>
     </row>
     <row r="70">
@@ -10324,13 +10324,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>1.01448</v>
+        <v>1.01993</v>
       </c>
       <c r="C70" t="n">
-        <v>0.661914</v>
+        <v>0.8226329999999999</v>
       </c>
       <c r="D70" t="n">
-        <v>0.651088</v>
+        <v>0.666347</v>
       </c>
     </row>
     <row r="71">
@@ -10338,13 +10338,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>1.04037</v>
+        <v>1.05858</v>
       </c>
       <c r="C71" t="n">
-        <v>0.701326</v>
+        <v>0.858829</v>
       </c>
       <c r="D71" t="n">
-        <v>0.674579</v>
+        <v>0.689808</v>
       </c>
     </row>
     <row r="72">
@@ -10352,13 +10352,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>1.07649</v>
+        <v>1.08417</v>
       </c>
       <c r="C72" t="n">
-        <v>0.727361</v>
+        <v>0.896567</v>
       </c>
       <c r="D72" t="n">
-        <v>0.68541</v>
+        <v>0.723089</v>
       </c>
     </row>
     <row r="73">
@@ -10366,13 +10366,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>1.10532</v>
+        <v>1.1467</v>
       </c>
       <c r="C73" t="n">
-        <v>0.764061</v>
+        <v>0.930132</v>
       </c>
       <c r="D73" t="n">
-        <v>0.724699</v>
+        <v>0.7324310000000001</v>
       </c>
     </row>
     <row r="74">
@@ -10380,13 +10380,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.16634</v>
+        <v>1.17057</v>
       </c>
       <c r="C74" t="n">
-        <v>0.792004</v>
+        <v>0.9531539999999999</v>
       </c>
       <c r="D74" t="n">
-        <v>0.746862</v>
+        <v>0.767256</v>
       </c>
     </row>
     <row r="75">
@@ -10394,13 +10394,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>1.20273</v>
+        <v>1.22302</v>
       </c>
       <c r="C75" t="n">
-        <v>0.82778</v>
+        <v>0.989743</v>
       </c>
       <c r="D75" t="n">
-        <v>0.775245</v>
+        <v>0.79924</v>
       </c>
     </row>
     <row r="76">
@@ -10408,13 +10408,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>1.25659</v>
+        <v>1.27778</v>
       </c>
       <c r="C76" t="n">
-        <v>0.872375</v>
+        <v>1.03563</v>
       </c>
       <c r="D76" t="n">
-        <v>0.815604</v>
+        <v>0.851613</v>
       </c>
     </row>
     <row r="77">
@@ -10422,13 +10422,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>1.30367</v>
+        <v>1.34776</v>
       </c>
       <c r="C77" t="n">
-        <v>0.915512</v>
+        <v>1.10298</v>
       </c>
       <c r="D77" t="n">
-        <v>0.853434</v>
+        <v>0.901116</v>
       </c>
     </row>
     <row r="78">
@@ -10436,13 +10436,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>1.3864</v>
+        <v>1.43458</v>
       </c>
       <c r="C78" t="n">
-        <v>1.05499</v>
+        <v>1.25881</v>
       </c>
       <c r="D78" t="n">
-        <v>1.00216</v>
+        <v>1.02548</v>
       </c>
     </row>
     <row r="79">
@@ -10450,13 +10450,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.5842</v>
+        <v>1.58704</v>
       </c>
       <c r="C79" t="n">
-        <v>1.09764</v>
+        <v>1.30067</v>
       </c>
       <c r="D79" t="n">
-        <v>1.04994</v>
+        <v>1.05662</v>
       </c>
     </row>
     <row r="80">
@@ -10464,13 +10464,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.65943</v>
+        <v>1.66237</v>
       </c>
       <c r="C80" t="n">
-        <v>1.13632</v>
+        <v>1.34753</v>
       </c>
       <c r="D80" t="n">
-        <v>1.10718</v>
+        <v>1.10201</v>
       </c>
     </row>
     <row r="81">
@@ -10478,13 +10478,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.74564</v>
+        <v>1.72818</v>
       </c>
       <c r="C81" t="n">
-        <v>1.18254</v>
+        <v>1.39075</v>
       </c>
       <c r="D81" t="n">
-        <v>1.15577</v>
+        <v>1.1738</v>
       </c>
     </row>
     <row r="82">
@@ -10492,13 +10492,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.81492</v>
+        <v>1.80572</v>
       </c>
       <c r="C82" t="n">
-        <v>1.20971</v>
+        <v>1.4371</v>
       </c>
       <c r="D82" t="n">
-        <v>1.2063</v>
+        <v>1.23933</v>
       </c>
     </row>
     <row r="83">
@@ -10506,13 +10506,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.90361</v>
+        <v>1.91922</v>
       </c>
       <c r="C83" t="n">
-        <v>1.25425</v>
+        <v>1.4853</v>
       </c>
       <c r="D83" t="n">
-        <v>1.2666</v>
+        <v>1.29083</v>
       </c>
     </row>
     <row r="84">
@@ -10520,13 +10520,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.99213</v>
+        <v>2.01145</v>
       </c>
       <c r="C84" t="n">
-        <v>1.29818</v>
+        <v>1.53231</v>
       </c>
       <c r="D84" t="n">
-        <v>1.33059</v>
+        <v>1.336</v>
       </c>
     </row>
     <row r="85">
@@ -10534,13 +10534,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>2.09437</v>
+        <v>2.08913</v>
       </c>
       <c r="C85" t="n">
-        <v>1.34052</v>
+        <v>1.58238</v>
       </c>
       <c r="D85" t="n">
-        <v>1.39329</v>
+        <v>1.4032</v>
       </c>
     </row>
     <row r="86">
@@ -10548,13 +10548,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>2.17383</v>
+        <v>2.18599</v>
       </c>
       <c r="C86" t="n">
-        <v>1.38022</v>
+        <v>1.62066</v>
       </c>
       <c r="D86" t="n">
-        <v>1.44878</v>
+        <v>1.4575</v>
       </c>
     </row>
     <row r="87">
@@ -10562,13 +10562,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>2.2535</v>
+        <v>2.26617</v>
       </c>
       <c r="C87" t="n">
-        <v>1.41697</v>
+        <v>1.66419</v>
       </c>
       <c r="D87" t="n">
-        <v>1.51726</v>
+        <v>1.52359</v>
       </c>
     </row>
     <row r="88">
@@ -10576,13 +10576,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>2.35626</v>
+        <v>2.37026</v>
       </c>
       <c r="C88" t="n">
-        <v>1.46109</v>
+        <v>1.71645</v>
       </c>
       <c r="D88" t="n">
-        <v>1.57059</v>
+        <v>1.58603</v>
       </c>
     </row>
     <row r="89">
@@ -10590,13 +10590,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>2.44419</v>
+        <v>2.46179</v>
       </c>
       <c r="C89" t="n">
-        <v>1.50529</v>
+        <v>1.76481</v>
       </c>
       <c r="D89" t="n">
-        <v>1.62243</v>
+        <v>1.64098</v>
       </c>
     </row>
     <row r="90">
@@ -10604,13 +10604,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>2.53103</v>
+        <v>2.54057</v>
       </c>
       <c r="C90" t="n">
-        <v>1.54421</v>
+        <v>1.81214</v>
       </c>
       <c r="D90" t="n">
-        <v>1.68892</v>
+        <v>1.70014</v>
       </c>
     </row>
     <row r="91">
@@ -10618,13 +10618,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>2.61789</v>
+        <v>2.63498</v>
       </c>
       <c r="C91" t="n">
-        <v>1.58752</v>
+        <v>1.8616</v>
       </c>
       <c r="D91" t="n">
-        <v>1.74249</v>
+        <v>1.7527</v>
       </c>
     </row>
     <row r="92">
@@ -10632,13 +10632,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>2.69936</v>
+        <v>2.71159</v>
       </c>
       <c r="C92" t="n">
-        <v>1.67392</v>
+        <v>1.96828</v>
       </c>
       <c r="D92" t="n">
-        <v>1.85818</v>
+        <v>1.87143</v>
       </c>
     </row>
     <row r="93">
@@ -10646,13 +10646,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>2.87066</v>
+        <v>2.87366</v>
       </c>
       <c r="C93" t="n">
-        <v>1.70647</v>
+        <v>2.00329</v>
       </c>
       <c r="D93" t="n">
-        <v>1.90976</v>
+        <v>1.90063</v>
       </c>
     </row>
     <row r="94">
@@ -10660,13 +10660,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>2.9504</v>
+        <v>2.95144</v>
       </c>
       <c r="C94" t="n">
-        <v>1.73916</v>
+        <v>2.02139</v>
       </c>
       <c r="D94" t="n">
-        <v>1.95726</v>
+        <v>1.96519</v>
       </c>
     </row>
     <row r="95">
@@ -10674,13 +10674,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>3.0201</v>
+        <v>3.0265</v>
       </c>
       <c r="C95" t="n">
-        <v>1.77211</v>
+        <v>2.07317</v>
       </c>
       <c r="D95" t="n">
-        <v>2.00805</v>
+        <v>2.01235</v>
       </c>
     </row>
     <row r="96">
@@ -10688,13 +10688,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>3.0914</v>
+        <v>3.10233</v>
       </c>
       <c r="C96" t="n">
-        <v>1.79645</v>
+        <v>2.11556</v>
       </c>
       <c r="D96" t="n">
-        <v>2.04754</v>
+        <v>2.05537</v>
       </c>
     </row>
     <row r="97">
@@ -10702,13 +10702,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>3.15194</v>
+        <v>3.16337</v>
       </c>
       <c r="C97" t="n">
-        <v>1.83505</v>
+        <v>2.14879</v>
       </c>
       <c r="D97" t="n">
-        <v>2.09559</v>
+        <v>2.08802</v>
       </c>
     </row>
     <row r="98">
@@ -10716,13 +10716,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>3.22002</v>
+        <v>3.23995</v>
       </c>
       <c r="C98" t="n">
-        <v>1.86022</v>
+        <v>2.1848</v>
       </c>
       <c r="D98" t="n">
-        <v>2.13198</v>
+        <v>2.14488</v>
       </c>
     </row>
     <row r="99">
@@ -10730,13 +10730,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>3.27568</v>
+        <v>3.29907</v>
       </c>
       <c r="C99" t="n">
-        <v>1.90585</v>
+        <v>2.2222</v>
       </c>
       <c r="D99" t="n">
-        <v>2.18087</v>
+        <v>2.16792</v>
       </c>
     </row>
     <row r="100">
@@ -10744,13 +10744,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>3.35417</v>
+        <v>3.35311</v>
       </c>
       <c r="C100" t="n">
-        <v>1.93767</v>
+        <v>2.25354</v>
       </c>
       <c r="D100" t="n">
-        <v>2.20262</v>
+        <v>2.2187</v>
       </c>
     </row>
     <row r="101">
@@ -10758,13 +10758,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>3.40771</v>
+        <v>3.43086</v>
       </c>
       <c r="C101" t="n">
-        <v>1.96789</v>
+        <v>2.27566</v>
       </c>
       <c r="D101" t="n">
-        <v>2.25277</v>
+        <v>2.23096</v>
       </c>
     </row>
     <row r="102">
@@ -10772,13 +10772,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>3.47269</v>
+        <v>3.47763</v>
       </c>
       <c r="C102" t="n">
-        <v>2.00888</v>
+        <v>2.33208</v>
       </c>
       <c r="D102" t="n">
-        <v>2.28537</v>
+        <v>2.29512</v>
       </c>
     </row>
     <row r="103">
@@ -10786,13 +10786,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>3.54017</v>
+        <v>3.52309</v>
       </c>
       <c r="C103" t="n">
-        <v>2.0366</v>
+        <v>2.36132</v>
       </c>
       <c r="D103" t="n">
-        <v>2.32763</v>
+        <v>2.32208</v>
       </c>
     </row>
     <row r="104">
@@ -10800,13 +10800,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>3.59955</v>
+        <v>3.61544</v>
       </c>
       <c r="C104" t="n">
-        <v>2.07672</v>
+        <v>2.39794</v>
       </c>
       <c r="D104" t="n">
-        <v>2.3564</v>
+        <v>2.33819</v>
       </c>
     </row>
     <row r="105">
@@ -10814,13 +10814,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>3.6466</v>
+        <v>3.65398</v>
       </c>
       <c r="C105" t="n">
-        <v>2.10634</v>
+        <v>2.42138</v>
       </c>
       <c r="D105" t="n">
-        <v>2.38779</v>
+        <v>2.37159</v>
       </c>
     </row>
     <row r="106">
@@ -10828,13 +10828,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>3.71636</v>
+        <v>3.71037</v>
       </c>
       <c r="C106" t="n">
-        <v>2.13643</v>
+        <v>2.46333</v>
       </c>
       <c r="D106" t="n">
-        <v>2.40313</v>
+        <v>2.40772</v>
       </c>
     </row>
     <row r="107">
@@ -10842,13 +10842,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>3.72392</v>
+        <v>3.73676</v>
       </c>
       <c r="C107" t="n">
-        <v>2.11321</v>
+        <v>2.46045</v>
       </c>
       <c r="D107" t="n">
-        <v>2.46908</v>
+        <v>2.45644</v>
       </c>
     </row>
     <row r="108">
@@ -10856,13 +10856,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>3.75958</v>
+        <v>3.75993</v>
       </c>
       <c r="C108" t="n">
-        <v>2.13064</v>
+        <v>2.48309</v>
       </c>
       <c r="D108" t="n">
-        <v>2.49209</v>
+        <v>2.48663</v>
       </c>
     </row>
     <row r="109">
@@ -10870,13 +10870,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>3.80165</v>
+        <v>3.78876</v>
       </c>
       <c r="C109" t="n">
-        <v>2.14867</v>
+        <v>2.48901</v>
       </c>
       <c r="D109" t="n">
-        <v>2.52866</v>
+        <v>2.51673</v>
       </c>
     </row>
     <row r="110">
@@ -10884,13 +10884,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>3.84265</v>
+        <v>3.83686</v>
       </c>
       <c r="C110" t="n">
-        <v>2.18892</v>
+        <v>2.50795</v>
       </c>
       <c r="D110" t="n">
-        <v>2.54608</v>
+        <v>2.55049</v>
       </c>
     </row>
     <row r="111">
@@ -10898,13 +10898,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>3.88604</v>
+        <v>3.89609</v>
       </c>
       <c r="C111" t="n">
-        <v>2.18647</v>
+        <v>2.54556</v>
       </c>
       <c r="D111" t="n">
-        <v>2.58222</v>
+        <v>2.57491</v>
       </c>
     </row>
     <row r="112">
@@ -10912,13 +10912,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>3.93361</v>
+        <v>3.9355</v>
       </c>
       <c r="C112" t="n">
-        <v>2.23309</v>
+        <v>2.57631</v>
       </c>
       <c r="D112" t="n">
-        <v>2.60497</v>
+        <v>2.6027</v>
       </c>
     </row>
     <row r="113">
@@ -10926,13 +10926,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>3.97504</v>
+        <v>3.9869</v>
       </c>
       <c r="C113" t="n">
-        <v>2.25608</v>
+        <v>2.61301</v>
       </c>
       <c r="D113" t="n">
-        <v>2.6264</v>
+        <v>2.6186</v>
       </c>
     </row>
     <row r="114">
@@ -10940,13 +10940,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>4.01828</v>
+        <v>4.03436</v>
       </c>
       <c r="C114" t="n">
-        <v>2.27084</v>
+        <v>2.61721</v>
       </c>
       <c r="D114" t="n">
-        <v>2.64711</v>
+        <v>2.6484</v>
       </c>
     </row>
     <row r="115">
@@ -10954,13 +10954,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>4.07249</v>
+        <v>4.09708</v>
       </c>
       <c r="C115" t="n">
-        <v>2.28932</v>
+        <v>2.67772</v>
       </c>
       <c r="D115" t="n">
-        <v>2.67902</v>
+        <v>2.67317</v>
       </c>
     </row>
     <row r="116">
@@ -10968,13 +10968,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>4.11815</v>
+        <v>4.121</v>
       </c>
       <c r="C116" t="n">
-        <v>2.32682</v>
+        <v>2.67888</v>
       </c>
       <c r="D116" t="n">
-        <v>2.69142</v>
+        <v>2.68869</v>
       </c>
     </row>
     <row r="117">
@@ -10982,13 +10982,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>4.16939</v>
+        <v>4.16951</v>
       </c>
       <c r="C117" t="n">
-        <v>2.3544</v>
+        <v>2.72356</v>
       </c>
       <c r="D117" t="n">
-        <v>2.7117</v>
+        <v>2.72284</v>
       </c>
     </row>
     <row r="118">
@@ -10996,13 +10996,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>4.20953</v>
+        <v>4.22429</v>
       </c>
       <c r="C118" t="n">
-        <v>2.38506</v>
+        <v>2.73815</v>
       </c>
       <c r="D118" t="n">
-        <v>2.738</v>
+        <v>2.73065</v>
       </c>
     </row>
     <row r="119">
@@ -11010,13 +11010,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>4.24853</v>
+        <v>4.25417</v>
       </c>
       <c r="C119" t="n">
-        <v>2.41019</v>
+        <v>2.77503</v>
       </c>
       <c r="D119" t="n">
-        <v>2.7587</v>
+        <v>2.74085</v>
       </c>
     </row>
   </sheetData>
@@ -11064,13 +11064,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.586819</v>
+        <v>0.588413</v>
       </c>
       <c r="C2" t="n">
-        <v>0.324525</v>
+        <v>0.448246</v>
       </c>
       <c r="D2" t="n">
-        <v>0.337582</v>
+        <v>0.347134</v>
       </c>
     </row>
     <row r="3">
@@ -11078,13 +11078,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.592608</v>
+        <v>0.59413</v>
       </c>
       <c r="C3" t="n">
-        <v>0.329444</v>
+        <v>0.453515</v>
       </c>
       <c r="D3" t="n">
-        <v>0.342627</v>
+        <v>0.351228</v>
       </c>
     </row>
     <row r="4">
@@ -11092,13 +11092,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.607156</v>
+        <v>0.60409</v>
       </c>
       <c r="C4" t="n">
-        <v>0.337525</v>
+        <v>0.458628</v>
       </c>
       <c r="D4" t="n">
-        <v>0.349615</v>
+        <v>0.356027</v>
       </c>
     </row>
     <row r="5">
@@ -11106,13 +11106,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.6086510000000001</v>
+        <v>0.606118</v>
       </c>
       <c r="C5" t="n">
-        <v>0.347183</v>
+        <v>0.469127</v>
       </c>
       <c r="D5" t="n">
-        <v>0.351705</v>
+        <v>0.35891</v>
       </c>
     </row>
     <row r="6">
@@ -11120,13 +11120,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.616609</v>
+        <v>0.619164</v>
       </c>
       <c r="C6" t="n">
-        <v>0.34632</v>
+        <v>0.472168</v>
       </c>
       <c r="D6" t="n">
-        <v>0.351524</v>
+        <v>0.361261</v>
       </c>
     </row>
     <row r="7">
@@ -11134,13 +11134,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.624115</v>
+        <v>0.624166</v>
       </c>
       <c r="C7" t="n">
-        <v>0.35713</v>
+        <v>0.481369</v>
       </c>
       <c r="D7" t="n">
-        <v>0.359252</v>
+        <v>0.369412</v>
       </c>
     </row>
     <row r="8">
@@ -11148,13 +11148,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.629233</v>
+        <v>0.63459</v>
       </c>
       <c r="C8" t="n">
-        <v>0.365376</v>
+        <v>0.487783</v>
       </c>
       <c r="D8" t="n">
-        <v>0.360045</v>
+        <v>0.370816</v>
       </c>
     </row>
     <row r="9">
@@ -11162,13 +11162,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.641853</v>
+        <v>0.643039</v>
       </c>
       <c r="C9" t="n">
-        <v>0.375308</v>
+        <v>0.498845</v>
       </c>
       <c r="D9" t="n">
-        <v>0.367605</v>
+        <v>0.375844</v>
       </c>
     </row>
     <row r="10">
@@ -11176,13 +11176,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.65664</v>
+        <v>0.658315</v>
       </c>
       <c r="C10" t="n">
-        <v>0.385183</v>
+        <v>0.5082100000000001</v>
       </c>
       <c r="D10" t="n">
-        <v>0.371418</v>
+        <v>0.380824</v>
       </c>
     </row>
     <row r="11">
@@ -11190,13 +11190,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.6669389999999999</v>
+        <v>0.667279</v>
       </c>
       <c r="C11" t="n">
-        <v>0.370342</v>
+        <v>0.493798</v>
       </c>
       <c r="D11" t="n">
-        <v>0.377449</v>
+        <v>0.388593</v>
       </c>
     </row>
     <row r="12">
@@ -11204,13 +11204,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.642048</v>
+        <v>0.646316</v>
       </c>
       <c r="C12" t="n">
-        <v>0.374174</v>
+        <v>0.496167</v>
       </c>
       <c r="D12" t="n">
-        <v>0.384096</v>
+        <v>0.395257</v>
       </c>
     </row>
     <row r="13">
@@ -11218,13 +11218,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.655388</v>
+        <v>0.657327</v>
       </c>
       <c r="C13" t="n">
-        <v>0.381778</v>
+        <v>0.501145</v>
       </c>
       <c r="D13" t="n">
-        <v>0.38918</v>
+        <v>0.400027</v>
       </c>
     </row>
     <row r="14">
@@ -11232,13 +11232,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.6697149999999999</v>
+        <v>0.666535</v>
       </c>
       <c r="C14" t="n">
-        <v>0.391139</v>
+        <v>0.513616</v>
       </c>
       <c r="D14" t="n">
-        <v>0.394927</v>
+        <v>0.40296</v>
       </c>
     </row>
     <row r="15">
@@ -11246,13 +11246,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.682264</v>
+        <v>0.678297</v>
       </c>
       <c r="C15" t="n">
-        <v>0.401021</v>
+        <v>0.5205149999999999</v>
       </c>
       <c r="D15" t="n">
-        <v>0.402953</v>
+        <v>0.411924</v>
       </c>
     </row>
     <row r="16">
@@ -11260,13 +11260,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.689096</v>
+        <v>0.683643</v>
       </c>
       <c r="C16" t="n">
-        <v>0.411486</v>
+        <v>0.52763</v>
       </c>
       <c r="D16" t="n">
-        <v>0.409214</v>
+        <v>0.414543</v>
       </c>
     </row>
     <row r="17">
@@ -11274,13 +11274,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.71111</v>
+        <v>0.701412</v>
       </c>
       <c r="C17" t="n">
-        <v>0.418529</v>
+        <v>0.53488</v>
       </c>
       <c r="D17" t="n">
-        <v>0.415024</v>
+        <v>0.419296</v>
       </c>
     </row>
     <row r="18">
@@ -11288,13 +11288,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.722309</v>
+        <v>0.712593</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4208</v>
+        <v>0.541991</v>
       </c>
       <c r="D18" t="n">
-        <v>0.42083</v>
+        <v>0.424366</v>
       </c>
     </row>
     <row r="19">
@@ -11302,13 +11302,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.73268</v>
+        <v>0.7254429999999999</v>
       </c>
       <c r="C19" t="n">
-        <v>0.437016</v>
+        <v>0.559247</v>
       </c>
       <c r="D19" t="n">
-        <v>0.427697</v>
+        <v>0.431715</v>
       </c>
     </row>
     <row r="20">
@@ -11316,13 +11316,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.7489130000000001</v>
+        <v>0.744007</v>
       </c>
       <c r="C20" t="n">
-        <v>0.447056</v>
+        <v>0.566558</v>
       </c>
       <c r="D20" t="n">
-        <v>0.432365</v>
+        <v>0.437327</v>
       </c>
     </row>
     <row r="21">
@@ -11330,13 +11330,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.757135</v>
+        <v>0.757235</v>
       </c>
       <c r="C21" t="n">
-        <v>0.458991</v>
+        <v>0.580528</v>
       </c>
       <c r="D21" t="n">
-        <v>0.437778</v>
+        <v>0.443103</v>
       </c>
     </row>
     <row r="22">
@@ -11344,13 +11344,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.765697</v>
+        <v>0.767035</v>
       </c>
       <c r="C22" t="n">
-        <v>0.465695</v>
+        <v>0.5904779999999999</v>
       </c>
       <c r="D22" t="n">
-        <v>0.442299</v>
+        <v>0.449317</v>
       </c>
     </row>
     <row r="23">
@@ -11358,13 +11358,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.787772</v>
+        <v>0.787598</v>
       </c>
       <c r="C23" t="n">
-        <v>0.477615</v>
+        <v>0.604122</v>
       </c>
       <c r="D23" t="n">
-        <v>0.448942</v>
+        <v>0.454775</v>
       </c>
     </row>
     <row r="24">
@@ -11372,13 +11372,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.802808</v>
+        <v>0.798878</v>
       </c>
       <c r="C24" t="n">
-        <v>0.483856</v>
+        <v>0.614092</v>
       </c>
       <c r="D24" t="n">
-        <v>0.45196</v>
+        <v>0.458612</v>
       </c>
     </row>
     <row r="25">
@@ -11386,13 +11386,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.811032</v>
+        <v>0.810142</v>
       </c>
       <c r="C25" t="n">
-        <v>0.502431</v>
+        <v>0.627269</v>
       </c>
       <c r="D25" t="n">
-        <v>0.459306</v>
+        <v>0.466146</v>
       </c>
     </row>
     <row r="26">
@@ -11400,13 +11400,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.831873</v>
+        <v>0.8285090000000001</v>
       </c>
       <c r="C26" t="n">
-        <v>0.439609</v>
+        <v>0.561441</v>
       </c>
       <c r="D26" t="n">
-        <v>0.465019</v>
+        <v>0.470939</v>
       </c>
     </row>
     <row r="27">
@@ -11414,13 +11414,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.788771</v>
+        <v>0.790033</v>
       </c>
       <c r="C27" t="n">
-        <v>0.446227</v>
+        <v>0.5676330000000001</v>
       </c>
       <c r="D27" t="n">
-        <v>0.469034</v>
+        <v>0.474416</v>
       </c>
     </row>
     <row r="28">
@@ -11428,13 +11428,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.801235</v>
+        <v>0.79747</v>
       </c>
       <c r="C28" t="n">
-        <v>0.452559</v>
+        <v>0.572439</v>
       </c>
       <c r="D28" t="n">
-        <v>0.472839</v>
+        <v>0.479703</v>
       </c>
     </row>
     <row r="29">
@@ -11442,13 +11442,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.81036</v>
+        <v>0.8108070000000001</v>
       </c>
       <c r="C29" t="n">
-        <v>0.458039</v>
+        <v>0.57939</v>
       </c>
       <c r="D29" t="n">
-        <v>0.477452</v>
+        <v>0.48371</v>
       </c>
     </row>
     <row r="30">
@@ -11456,13 +11456,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.824699</v>
+        <v>0.821922</v>
       </c>
       <c r="C30" t="n">
-        <v>0.468359</v>
+        <v>0.588816</v>
       </c>
       <c r="D30" t="n">
-        <v>0.482013</v>
+        <v>0.488555</v>
       </c>
     </row>
     <row r="31">
@@ -11470,13 +11470,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.835602</v>
+        <v>0.836714</v>
       </c>
       <c r="C31" t="n">
-        <v>0.475564</v>
+        <v>0.598119</v>
       </c>
       <c r="D31" t="n">
-        <v>0.486313</v>
+        <v>0.491322</v>
       </c>
     </row>
     <row r="32">
@@ -11484,13 +11484,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.84824</v>
+        <v>0.851845</v>
       </c>
       <c r="C32" t="n">
-        <v>0.482914</v>
+        <v>0.608976</v>
       </c>
       <c r="D32" t="n">
-        <v>0.489784</v>
+        <v>0.497006</v>
       </c>
     </row>
     <row r="33">
@@ -11498,13 +11498,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.859585</v>
+        <v>0.858066</v>
       </c>
       <c r="C33" t="n">
-        <v>0.49232</v>
+        <v>0.615082</v>
       </c>
       <c r="D33" t="n">
-        <v>0.493529</v>
+        <v>0.500759</v>
       </c>
     </row>
     <row r="34">
@@ -11512,13 +11512,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.871463</v>
+        <v>0.870512</v>
       </c>
       <c r="C34" t="n">
-        <v>0.501111</v>
+        <v>0.628706</v>
       </c>
       <c r="D34" t="n">
-        <v>0.49597</v>
+        <v>0.503193</v>
       </c>
     </row>
     <row r="35">
@@ -11526,13 +11526,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.883149</v>
+        <v>0.882808</v>
       </c>
       <c r="C35" t="n">
-        <v>0.510883</v>
+        <v>0.633428</v>
       </c>
       <c r="D35" t="n">
-        <v>0.50019</v>
+        <v>0.508112</v>
       </c>
     </row>
     <row r="36">
@@ -11540,13 +11540,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.8983179999999999</v>
+        <v>0.8960360000000001</v>
       </c>
       <c r="C36" t="n">
-        <v>0.524103</v>
+        <v>0.649653</v>
       </c>
       <c r="D36" t="n">
-        <v>0.503572</v>
+        <v>0.510741</v>
       </c>
     </row>
     <row r="37">
@@ -11554,13 +11554,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.912231</v>
+        <v>0.909829</v>
       </c>
       <c r="C37" t="n">
-        <v>0.5348540000000001</v>
+        <v>0.66107</v>
       </c>
       <c r="D37" t="n">
-        <v>0.504089</v>
+        <v>0.512012</v>
       </c>
     </row>
     <row r="38">
@@ -11568,13 +11568,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.927101</v>
+        <v>0.924349</v>
       </c>
       <c r="C38" t="n">
-        <v>0.544964</v>
+        <v>0.67156</v>
       </c>
       <c r="D38" t="n">
-        <v>0.508345</v>
+        <v>0.515545</v>
       </c>
     </row>
     <row r="39">
@@ -11582,13 +11582,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.938968</v>
+        <v>0.9348610000000001</v>
       </c>
       <c r="C39" t="n">
-        <v>0.557681</v>
+        <v>0.6823669999999999</v>
       </c>
       <c r="D39" t="n">
-        <v>0.513307</v>
+        <v>0.520786</v>
       </c>
     </row>
     <row r="40">
@@ -11596,13 +11596,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.952675</v>
+        <v>0.953732</v>
       </c>
       <c r="C40" t="n">
-        <v>0.50423</v>
+        <v>0.625536</v>
       </c>
       <c r="D40" t="n">
-        <v>0.517862</v>
+        <v>0.52494</v>
       </c>
     </row>
     <row r="41">
@@ -11610,13 +11610,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.88496</v>
+        <v>0.885063</v>
       </c>
       <c r="C41" t="n">
-        <v>0.508485</v>
+        <v>0.631464</v>
       </c>
       <c r="D41" t="n">
-        <v>0.518631</v>
+        <v>0.527583</v>
       </c>
     </row>
     <row r="42">
@@ -11624,13 +11624,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.89727</v>
+        <v>0.896875</v>
       </c>
       <c r="C42" t="n">
-        <v>0.517397</v>
+        <v>0.640491</v>
       </c>
       <c r="D42" t="n">
-        <v>0.521388</v>
+        <v>0.528598</v>
       </c>
     </row>
     <row r="43">
@@ -11638,13 +11638,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.906865</v>
+        <v>0.905208</v>
       </c>
       <c r="C43" t="n">
-        <v>0.523566</v>
+        <v>0.648158</v>
       </c>
       <c r="D43" t="n">
-        <v>0.525496</v>
+        <v>0.532942</v>
       </c>
     </row>
     <row r="44">
@@ -11652,13 +11652,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.91435</v>
+        <v>0.913584</v>
       </c>
       <c r="C44" t="n">
-        <v>0.53155</v>
+        <v>0.657963</v>
       </c>
       <c r="D44" t="n">
-        <v>0.525819</v>
+        <v>0.53351</v>
       </c>
     </row>
     <row r="45">
@@ -11666,13 +11666,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.926517</v>
+        <v>0.92522</v>
       </c>
       <c r="C45" t="n">
-        <v>0.537676</v>
+        <v>0.66403</v>
       </c>
       <c r="D45" t="n">
-        <v>0.528318</v>
+        <v>0.536006</v>
       </c>
     </row>
     <row r="46">
@@ -11680,13 +11680,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.933001</v>
+        <v>0.930332</v>
       </c>
       <c r="C46" t="n">
-        <v>0.548569</v>
+        <v>0.673881</v>
       </c>
       <c r="D46" t="n">
-        <v>0.531134</v>
+        <v>0.538072</v>
       </c>
     </row>
     <row r="47">
@@ -11694,13 +11694,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.944951</v>
+        <v>0.941459</v>
       </c>
       <c r="C47" t="n">
-        <v>0.5566179999999999</v>
+        <v>0.68499</v>
       </c>
       <c r="D47" t="n">
-        <v>0.533433</v>
+        <v>0.541345</v>
       </c>
     </row>
     <row r="48">
@@ -11708,13 +11708,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.954835</v>
+        <v>0.951936</v>
       </c>
       <c r="C48" t="n">
-        <v>0.565373</v>
+        <v>0.690822</v>
       </c>
       <c r="D48" t="n">
-        <v>0.535765</v>
+        <v>0.543009</v>
       </c>
     </row>
     <row r="49">
@@ -11722,13 +11722,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.961871</v>
+        <v>0.959878</v>
       </c>
       <c r="C49" t="n">
-        <v>0.57353</v>
+        <v>0.699485</v>
       </c>
       <c r="D49" t="n">
-        <v>0.537818</v>
+        <v>0.545229</v>
       </c>
     </row>
     <row r="50">
@@ -11736,13 +11736,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.975168</v>
+        <v>0.973655</v>
       </c>
       <c r="C50" t="n">
-        <v>0.583142</v>
+        <v>0.712883</v>
       </c>
       <c r="D50" t="n">
-        <v>0.539247</v>
+        <v>0.547048</v>
       </c>
     </row>
     <row r="51">
@@ -11750,13 +11750,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.984484</v>
+        <v>0.9811839999999999</v>
       </c>
       <c r="C51" t="n">
-        <v>0.595252</v>
+        <v>0.7214930000000001</v>
       </c>
       <c r="D51" t="n">
-        <v>0.54242</v>
+        <v>0.550028</v>
       </c>
     </row>
     <row r="52">
@@ -11764,13 +11764,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.999291</v>
+        <v>0.995256</v>
       </c>
       <c r="C52" t="n">
-        <v>0.606457</v>
+        <v>0.736027</v>
       </c>
       <c r="D52" t="n">
-        <v>0.542459</v>
+        <v>0.549405</v>
       </c>
     </row>
     <row r="53">
@@ -11778,13 +11778,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>1.0077</v>
+        <v>1.00424</v>
       </c>
       <c r="C53" t="n">
-        <v>0.610467</v>
+        <v>0.743739</v>
       </c>
       <c r="D53" t="n">
-        <v>0.544527</v>
+        <v>0.550963</v>
       </c>
     </row>
     <row r="54">
@@ -11792,13 +11792,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>1.01957</v>
+        <v>1.01625</v>
       </c>
       <c r="C54" t="n">
-        <v>0.545897</v>
+        <v>0.672636</v>
       </c>
       <c r="D54" t="n">
-        <v>0.546871</v>
+        <v>0.553996</v>
       </c>
     </row>
     <row r="55">
@@ -11806,13 +11806,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.942617</v>
+        <v>0.942028</v>
       </c>
       <c r="C55" t="n">
-        <v>0.549476</v>
+        <v>0.678515</v>
       </c>
       <c r="D55" t="n">
-        <v>0.54758</v>
+        <v>0.555495</v>
       </c>
     </row>
     <row r="56">
@@ -11820,13 +11820,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.952264</v>
+        <v>0.949241</v>
       </c>
       <c r="C56" t="n">
-        <v>0.558236</v>
+        <v>0.687391</v>
       </c>
       <c r="D56" t="n">
-        <v>0.550243</v>
+        <v>0.55732</v>
       </c>
     </row>
     <row r="57">
@@ -11834,13 +11834,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.960956</v>
+        <v>0.957901</v>
       </c>
       <c r="C57" t="n">
-        <v>0.566701</v>
+        <v>0.696348</v>
       </c>
       <c r="D57" t="n">
-        <v>0.5503400000000001</v>
+        <v>0.557621</v>
       </c>
     </row>
     <row r="58">
@@ -11848,13 +11848,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.968201</v>
+        <v>0.966205</v>
       </c>
       <c r="C58" t="n">
-        <v>0.574696</v>
+        <v>0.702759</v>
       </c>
       <c r="D58" t="n">
-        <v>0.551614</v>
+        <v>0.559045</v>
       </c>
     </row>
     <row r="59">
@@ -11862,13 +11862,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.979003</v>
+        <v>0.976436</v>
       </c>
       <c r="C59" t="n">
-        <v>0.581856</v>
+        <v>0.71206</v>
       </c>
       <c r="D59" t="n">
-        <v>0.553924</v>
+        <v>0.5611969999999999</v>
       </c>
     </row>
     <row r="60">
@@ -11876,13 +11876,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.986422</v>
+        <v>0.984117</v>
       </c>
       <c r="C60" t="n">
-        <v>0.5908600000000001</v>
+        <v>0.721091</v>
       </c>
       <c r="D60" t="n">
-        <v>0.55515</v>
+        <v>0.562953</v>
       </c>
     </row>
     <row r="61">
@@ -11890,13 +11890,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.994383</v>
+        <v>0.99297</v>
       </c>
       <c r="C61" t="n">
-        <v>0.600787</v>
+        <v>0.729168</v>
       </c>
       <c r="D61" t="n">
-        <v>0.556678</v>
+        <v>0.564688</v>
       </c>
     </row>
     <row r="62">
@@ -11904,13 +11904,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>1.0074</v>
+        <v>1.00518</v>
       </c>
       <c r="C62" t="n">
-        <v>0.609684</v>
+        <v>0.739452</v>
       </c>
       <c r="D62" t="n">
-        <v>0.559466</v>
+        <v>0.566306</v>
       </c>
     </row>
     <row r="63">
@@ -11918,13 +11918,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>1.01717</v>
+        <v>1.01631</v>
       </c>
       <c r="C63" t="n">
-        <v>0.620793</v>
+        <v>0.7514110000000001</v>
       </c>
       <c r="D63" t="n">
-        <v>0.560874</v>
+        <v>0.567477</v>
       </c>
     </row>
     <row r="64">
@@ -11932,13 +11932,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>1.02321</v>
+        <v>1.02183</v>
       </c>
       <c r="C64" t="n">
-        <v>0.63447</v>
+        <v>0.765308</v>
       </c>
       <c r="D64" t="n">
-        <v>0.563216</v>
+        <v>0.570159</v>
       </c>
     </row>
     <row r="65">
@@ -11946,13 +11946,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>1.03402</v>
+        <v>1.03412</v>
       </c>
       <c r="C65" t="n">
-        <v>0.653019</v>
+        <v>0.780227</v>
       </c>
       <c r="D65" t="n">
-        <v>0.564981</v>
+        <v>0.572038</v>
       </c>
     </row>
     <row r="66">
@@ -11960,13 +11960,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>1.04383</v>
+        <v>1.04424</v>
       </c>
       <c r="C66" t="n">
-        <v>0.664043</v>
+        <v>0.791562</v>
       </c>
       <c r="D66" t="n">
-        <v>0.566842</v>
+        <v>0.574282</v>
       </c>
     </row>
     <row r="67">
@@ -11974,13 +11974,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.06214</v>
+        <v>1.0602</v>
       </c>
       <c r="C67" t="n">
-        <v>0.685159</v>
+        <v>0.813585</v>
       </c>
       <c r="D67" t="n">
-        <v>0.569059</v>
+        <v>0.575669</v>
       </c>
     </row>
     <row r="68">
@@ -11988,13 +11988,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>1.07496</v>
+        <v>1.07393</v>
       </c>
       <c r="C68" t="n">
-        <v>0.614156</v>
+        <v>0.746796</v>
       </c>
       <c r="D68" t="n">
-        <v>0.583742</v>
+        <v>0.594062</v>
       </c>
     </row>
     <row r="69">
@@ -12002,13 +12002,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>1.02532</v>
+        <v>1.02868</v>
       </c>
       <c r="C69" t="n">
-        <v>0.6383450000000001</v>
+        <v>0.766326</v>
       </c>
       <c r="D69" t="n">
-        <v>0.593155</v>
+        <v>0.603949</v>
       </c>
     </row>
     <row r="70">
@@ -12016,13 +12016,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>1.04268</v>
+        <v>1.04569</v>
       </c>
       <c r="C70" t="n">
-        <v>0.66504</v>
+        <v>0.7965989999999999</v>
       </c>
       <c r="D70" t="n">
-        <v>0.604585</v>
+        <v>0.615845</v>
       </c>
     </row>
     <row r="71">
@@ -12030,13 +12030,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>1.0694</v>
+        <v>1.07272</v>
       </c>
       <c r="C71" t="n">
-        <v>0.697369</v>
+        <v>0.83095</v>
       </c>
       <c r="D71" t="n">
-        <v>0.619513</v>
+        <v>0.631667</v>
       </c>
     </row>
     <row r="72">
@@ -12044,13 +12044,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>1.10133</v>
+        <v>1.10261</v>
       </c>
       <c r="C72" t="n">
-        <v>0.726959</v>
+        <v>0.864325</v>
       </c>
       <c r="D72" t="n">
-        <v>0.632579</v>
+        <v>0.644319</v>
       </c>
     </row>
     <row r="73">
@@ -12058,13 +12058,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>1.13346</v>
+        <v>1.13552</v>
       </c>
       <c r="C73" t="n">
-        <v>0.758056</v>
+        <v>0.8974490000000001</v>
       </c>
       <c r="D73" t="n">
-        <v>0.650688</v>
+        <v>0.661357</v>
       </c>
     </row>
     <row r="74">
@@ -12072,13 +12072,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.17071</v>
+        <v>1.16956</v>
       </c>
       <c r="C74" t="n">
-        <v>0.793293</v>
+        <v>0.934055</v>
       </c>
       <c r="D74" t="n">
-        <v>0.671195</v>
+        <v>0.678574</v>
       </c>
     </row>
     <row r="75">
@@ -12086,13 +12086,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>1.21629</v>
+        <v>1.21274</v>
       </c>
       <c r="C75" t="n">
-        <v>0.836201</v>
+        <v>0.974831</v>
       </c>
       <c r="D75" t="n">
-        <v>0.696466</v>
+        <v>0.701367</v>
       </c>
     </row>
     <row r="76">
@@ -12100,13 +12100,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>1.26993</v>
+        <v>1.2578</v>
       </c>
       <c r="C76" t="n">
-        <v>0.87892</v>
+        <v>1.01982</v>
       </c>
       <c r="D76" t="n">
-        <v>0.725994</v>
+        <v>0.7252110000000001</v>
       </c>
     </row>
     <row r="77">
@@ -12114,13 +12114,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>1.31769</v>
+        <v>1.30669</v>
       </c>
       <c r="C77" t="n">
-        <v>0.929159</v>
+        <v>1.06808</v>
       </c>
       <c r="D77" t="n">
-        <v>0.753647</v>
+        <v>0.750631</v>
       </c>
     </row>
     <row r="78">
@@ -12128,13 +12128,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>1.38192</v>
+        <v>1.36648</v>
       </c>
       <c r="C78" t="n">
-        <v>0.979386</v>
+        <v>1.11692</v>
       </c>
       <c r="D78" t="n">
-        <v>0.790767</v>
+        <v>0.781455</v>
       </c>
     </row>
     <row r="79">
@@ -12142,13 +12142,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.44651</v>
+        <v>1.43072</v>
       </c>
       <c r="C79" t="n">
-        <v>1.03045</v>
+        <v>1.16987</v>
       </c>
       <c r="D79" t="n">
-        <v>0.82241</v>
+        <v>0.818099</v>
       </c>
     </row>
     <row r="80">
@@ -12156,13 +12156,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.52189</v>
+        <v>1.50908</v>
       </c>
       <c r="C80" t="n">
-        <v>1.08496</v>
+        <v>1.23411</v>
       </c>
       <c r="D80" t="n">
-        <v>0.86615</v>
+        <v>0.862891</v>
       </c>
     </row>
     <row r="81">
@@ -12170,13 +12170,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.60997</v>
+        <v>1.58751</v>
       </c>
       <c r="C81" t="n">
-        <v>1.14639</v>
+        <v>1.29628</v>
       </c>
       <c r="D81" t="n">
-        <v>0.913516</v>
+        <v>0.903492</v>
       </c>
     </row>
     <row r="82">
@@ -12184,13 +12184,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.699</v>
+        <v>1.68161</v>
       </c>
       <c r="C82" t="n">
-        <v>1.21008</v>
+        <v>1.36702</v>
       </c>
       <c r="D82" t="n">
-        <v>0.9626670000000001</v>
+        <v>0.958307</v>
       </c>
     </row>
     <row r="83">
@@ -12198,13 +12198,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.80361</v>
+        <v>1.79546</v>
       </c>
       <c r="C83" t="n">
-        <v>1.18141</v>
+        <v>1.3642</v>
       </c>
       <c r="D83" t="n">
-        <v>1.08147</v>
+        <v>1.08729</v>
       </c>
     </row>
     <row r="84">
@@ -12212,13 +12212,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.82666</v>
+        <v>1.82444</v>
       </c>
       <c r="C84" t="n">
-        <v>1.2411</v>
+        <v>1.42936</v>
       </c>
       <c r="D84" t="n">
-        <v>1.13987</v>
+        <v>1.14555</v>
       </c>
     </row>
     <row r="85">
@@ -12226,13 +12226,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.92583</v>
+        <v>1.93281</v>
       </c>
       <c r="C85" t="n">
-        <v>1.29591</v>
+        <v>1.49576</v>
       </c>
       <c r="D85" t="n">
-        <v>1.19857</v>
+        <v>1.20721</v>
       </c>
     </row>
     <row r="86">
@@ -12240,13 +12240,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>2.03241</v>
+        <v>2.03882</v>
       </c>
       <c r="C86" t="n">
-        <v>1.36466</v>
+        <v>1.57078</v>
       </c>
       <c r="D86" t="n">
-        <v>1.25923</v>
+        <v>1.27032</v>
       </c>
     </row>
     <row r="87">
@@ -12254,13 +12254,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>2.13776</v>
+        <v>2.15808</v>
       </c>
       <c r="C87" t="n">
-        <v>1.42172</v>
+        <v>1.64218</v>
       </c>
       <c r="D87" t="n">
-        <v>1.32089</v>
+        <v>1.3333</v>
       </c>
     </row>
     <row r="88">
@@ -12268,13 +12268,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>2.25024</v>
+        <v>2.25638</v>
       </c>
       <c r="C88" t="n">
-        <v>1.50791</v>
+        <v>1.72631</v>
       </c>
       <c r="D88" t="n">
-        <v>1.38604</v>
+        <v>1.39584</v>
       </c>
     </row>
     <row r="89">
@@ -12282,13 +12282,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>2.38089</v>
+        <v>2.38761</v>
       </c>
       <c r="C89" t="n">
-        <v>1.58015</v>
+        <v>1.80444</v>
       </c>
       <c r="D89" t="n">
-        <v>1.44552</v>
+        <v>1.45748</v>
       </c>
     </row>
     <row r="90">
@@ -12296,13 +12296,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>2.50001</v>
+        <v>2.5164</v>
       </c>
       <c r="C90" t="n">
-        <v>1.65106</v>
+        <v>1.88997</v>
       </c>
       <c r="D90" t="n">
-        <v>1.50172</v>
+        <v>1.5146</v>
       </c>
     </row>
     <row r="91">
@@ -12310,13 +12310,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>2.62568</v>
+        <v>2.64229</v>
       </c>
       <c r="C91" t="n">
-        <v>1.73963</v>
+        <v>1.97741</v>
       </c>
       <c r="D91" t="n">
-        <v>1.56411</v>
+        <v>1.5757</v>
       </c>
     </row>
     <row r="92">
@@ -12324,13 +12324,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>2.75136</v>
+        <v>2.76555</v>
       </c>
       <c r="C92" t="n">
-        <v>1.82089</v>
+        <v>2.06499</v>
       </c>
       <c r="D92" t="n">
-        <v>1.62512</v>
+        <v>1.63331</v>
       </c>
     </row>
     <row r="93">
@@ -12338,13 +12338,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>2.87196</v>
+        <v>2.8927</v>
       </c>
       <c r="C93" t="n">
-        <v>1.90816</v>
+        <v>2.15516</v>
       </c>
       <c r="D93" t="n">
-        <v>1.66748</v>
+        <v>1.68836</v>
       </c>
     </row>
     <row r="94">
@@ -12352,13 +12352,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>3.01343</v>
+        <v>3.03671</v>
       </c>
       <c r="C94" t="n">
-        <v>1.98728</v>
+        <v>2.24873</v>
       </c>
       <c r="D94" t="n">
-        <v>1.73138</v>
+        <v>1.7406</v>
       </c>
     </row>
     <row r="95">
@@ -12366,13 +12366,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>3.14769</v>
+        <v>3.16808</v>
       </c>
       <c r="C95" t="n">
-        <v>2.08431</v>
+        <v>2.35476</v>
       </c>
       <c r="D95" t="n">
-        <v>1.78121</v>
+        <v>1.7893</v>
       </c>
     </row>
     <row r="96">
@@ -12380,13 +12380,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>3.28208</v>
+        <v>3.3099</v>
       </c>
       <c r="C96" t="n">
-        <v>2.18844</v>
+        <v>2.46261</v>
       </c>
       <c r="D96" t="n">
-        <v>1.8315</v>
+        <v>1.83505</v>
       </c>
     </row>
     <row r="97">
@@ -12394,13 +12394,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>3.42419</v>
+        <v>3.41975</v>
       </c>
       <c r="C97" t="n">
-        <v>1.94416</v>
+        <v>2.206</v>
       </c>
       <c r="D97" t="n">
-        <v>1.95766</v>
+        <v>1.96999</v>
       </c>
     </row>
     <row r="98">
@@ -12408,13 +12408,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>3.27915</v>
+        <v>3.27329</v>
       </c>
       <c r="C98" t="n">
-        <v>1.99332</v>
+        <v>2.29818</v>
       </c>
       <c r="D98" t="n">
-        <v>1.99607</v>
+        <v>2.01163</v>
       </c>
     </row>
     <row r="99">
@@ -12422,13 +12422,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>3.3619</v>
+        <v>3.36247</v>
       </c>
       <c r="C99" t="n">
-        <v>2.0625</v>
+        <v>2.35202</v>
       </c>
       <c r="D99" t="n">
-        <v>2.03141</v>
+        <v>2.05266</v>
       </c>
     </row>
     <row r="100">
@@ -12436,13 +12436,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>3.48719</v>
+        <v>3.4874</v>
       </c>
       <c r="C100" t="n">
-        <v>2.13024</v>
+        <v>2.42127</v>
       </c>
       <c r="D100" t="n">
-        <v>2.09383</v>
+        <v>2.10259</v>
       </c>
     </row>
     <row r="101">
@@ -12450,13 +12450,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>3.57284</v>
+        <v>3.58728</v>
       </c>
       <c r="C101" t="n">
-        <v>2.19854</v>
+        <v>2.49919</v>
       </c>
       <c r="D101" t="n">
-        <v>2.1356</v>
+        <v>2.11913</v>
       </c>
     </row>
     <row r="102">
@@ -12464,13 +12464,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>3.67486</v>
+        <v>3.69262</v>
       </c>
       <c r="C102" t="n">
-        <v>2.26449</v>
+        <v>2.57194</v>
       </c>
       <c r="D102" t="n">
-        <v>2.1553</v>
+        <v>2.17676</v>
       </c>
     </row>
     <row r="103">
@@ -12478,13 +12478,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>3.77337</v>
+        <v>3.79766</v>
       </c>
       <c r="C103" t="n">
-        <v>2.34321</v>
+        <v>2.64681</v>
       </c>
       <c r="D103" t="n">
-        <v>2.19605</v>
+        <v>2.20521</v>
       </c>
     </row>
     <row r="104">
@@ -12492,13 +12492,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>3.88709</v>
+        <v>3.88628</v>
       </c>
       <c r="C104" t="n">
-        <v>2.40471</v>
+        <v>2.71659</v>
       </c>
       <c r="D104" t="n">
-        <v>2.22556</v>
+        <v>2.2351</v>
       </c>
     </row>
     <row r="105">
@@ -12506,13 +12506,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>3.99004</v>
+        <v>4.01954</v>
       </c>
       <c r="C105" t="n">
-        <v>2.49829</v>
+        <v>2.81083</v>
       </c>
       <c r="D105" t="n">
-        <v>2.26457</v>
+        <v>2.28081</v>
       </c>
     </row>
     <row r="106">
@@ -12520,13 +12520,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>4.07903</v>
+        <v>4.09367</v>
       </c>
       <c r="C106" t="n">
-        <v>2.56188</v>
+        <v>2.88542</v>
       </c>
       <c r="D106" t="n">
-        <v>2.287</v>
+        <v>2.2864</v>
       </c>
     </row>
     <row r="107">
@@ -12534,13 +12534,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>4.21032</v>
+        <v>4.19147</v>
       </c>
       <c r="C107" t="n">
-        <v>2.63849</v>
+        <v>2.96907</v>
       </c>
       <c r="D107" t="n">
-        <v>2.3327</v>
+        <v>2.3249</v>
       </c>
     </row>
     <row r="108">
@@ -12548,13 +12548,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>4.27728</v>
+        <v>4.3212</v>
       </c>
       <c r="C108" t="n">
-        <v>2.7211</v>
+        <v>3.05574</v>
       </c>
       <c r="D108" t="n">
-        <v>2.36089</v>
+        <v>2.36782</v>
       </c>
     </row>
     <row r="109">
@@ -12562,13 +12562,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>4.40037</v>
+        <v>4.40786</v>
       </c>
       <c r="C109" t="n">
-        <v>2.80926</v>
+        <v>3.15634</v>
       </c>
       <c r="D109" t="n">
-        <v>2.37138</v>
+        <v>2.39388</v>
       </c>
     </row>
     <row r="110">
@@ -12576,13 +12576,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>4.51925</v>
+        <v>4.52903</v>
       </c>
       <c r="C110" t="n">
-        <v>2.87876</v>
+        <v>3.22573</v>
       </c>
       <c r="D110" t="n">
-        <v>2.4125</v>
+        <v>2.41645</v>
       </c>
     </row>
     <row r="111">
@@ -12590,13 +12590,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>4.61655</v>
+        <v>4.66612</v>
       </c>
       <c r="C111" t="n">
-        <v>2.53203</v>
+        <v>2.84806</v>
       </c>
       <c r="D111" t="n">
-        <v>2.50455</v>
+        <v>2.50653</v>
       </c>
     </row>
     <row r="112">
@@ -12604,13 +12604,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>4.28263</v>
+        <v>4.3053</v>
       </c>
       <c r="C112" t="n">
-        <v>2.58062</v>
+        <v>2.91413</v>
       </c>
       <c r="D112" t="n">
-        <v>2.51967</v>
+        <v>2.53457</v>
       </c>
     </row>
     <row r="113">
@@ -12618,13 +12618,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>4.34629</v>
+        <v>4.35667</v>
       </c>
       <c r="C113" t="n">
-        <v>2.63491</v>
+        <v>2.98727</v>
       </c>
       <c r="D113" t="n">
-        <v>2.55289</v>
+        <v>2.56561</v>
       </c>
     </row>
     <row r="114">
@@ -12632,13 +12632,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>4.44171</v>
+        <v>4.46179</v>
       </c>
       <c r="C114" t="n">
-        <v>2.69417</v>
+        <v>3.0328</v>
       </c>
       <c r="D114" t="n">
-        <v>2.58147</v>
+        <v>2.57313</v>
       </c>
     </row>
     <row r="115">
@@ -12646,13 +12646,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>4.52297</v>
+        <v>4.5508</v>
       </c>
       <c r="C115" t="n">
-        <v>2.73255</v>
+        <v>3.09825</v>
       </c>
       <c r="D115" t="n">
-        <v>2.60608</v>
+        <v>2.61323</v>
       </c>
     </row>
     <row r="116">
@@ -12660,13 +12660,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>4.61248</v>
+        <v>4.63045</v>
       </c>
       <c r="C116" t="n">
-        <v>2.80902</v>
+        <v>3.15507</v>
       </c>
       <c r="D116" t="n">
-        <v>2.62619</v>
+        <v>2.62045</v>
       </c>
     </row>
     <row r="117">
@@ -12674,13 +12674,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>4.69874</v>
+        <v>4.7176</v>
       </c>
       <c r="C117" t="n">
-        <v>2.86521</v>
+        <v>3.21895</v>
       </c>
       <c r="D117" t="n">
-        <v>2.64192</v>
+        <v>2.65185</v>
       </c>
     </row>
     <row r="118">
@@ -12688,13 +12688,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>4.80569</v>
+        <v>4.81582</v>
       </c>
       <c r="C118" t="n">
-        <v>2.94973</v>
+        <v>3.30208</v>
       </c>
       <c r="D118" t="n">
-        <v>2.65752</v>
+        <v>2.6741</v>
       </c>
     </row>
     <row r="119">
@@ -12702,13 +12702,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>4.88903</v>
+        <v>4.90111</v>
       </c>
       <c r="C119" t="n">
-        <v>3.03331</v>
+        <v>3.38083</v>
       </c>
       <c r="D119" t="n">
-        <v>2.69041</v>
+        <v>2.70425</v>
       </c>
     </row>
   </sheetData>

--- a/clang_libcpp/scattered erasure.xlsx
+++ b/clang_libcpp/scattered erasure.xlsx
@@ -7680,13 +7680,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.399253</v>
+        <v>0.397589</v>
       </c>
       <c r="C2" t="n">
-        <v>0.172505</v>
+        <v>0.172865</v>
       </c>
       <c r="D2" t="n">
-        <v>0.22433</v>
+        <v>0.223682</v>
       </c>
     </row>
     <row r="3">
@@ -7694,13 +7694,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.404215</v>
+        <v>0.399806</v>
       </c>
       <c r="C3" t="n">
-        <v>0.175648</v>
+        <v>0.175444</v>
       </c>
       <c r="D3" t="n">
-        <v>0.225939</v>
+        <v>0.231048</v>
       </c>
     </row>
     <row r="4">
@@ -7708,13 +7708,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.406557</v>
+        <v>0.406338</v>
       </c>
       <c r="C4" t="n">
-        <v>0.178781</v>
+        <v>0.179322</v>
       </c>
       <c r="D4" t="n">
-        <v>0.232723</v>
+        <v>0.239081</v>
       </c>
     </row>
     <row r="5">
@@ -7722,13 +7722,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.413516</v>
+        <v>0.413068</v>
       </c>
       <c r="C5" t="n">
-        <v>0.18252</v>
+        <v>0.183111</v>
       </c>
       <c r="D5" t="n">
-        <v>0.238017</v>
+        <v>0.24677</v>
       </c>
     </row>
     <row r="6">
@@ -7736,13 +7736,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.418108</v>
+        <v>0.420134</v>
       </c>
       <c r="C6" t="n">
-        <v>0.185945</v>
+        <v>0.186981</v>
       </c>
       <c r="D6" t="n">
-        <v>0.243898</v>
+        <v>0.252559</v>
       </c>
     </row>
     <row r="7">
@@ -7750,13 +7750,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.425392</v>
+        <v>0.423801</v>
       </c>
       <c r="C7" t="n">
-        <v>0.172807</v>
+        <v>0.172336</v>
       </c>
       <c r="D7" t="n">
-        <v>0.249399</v>
+        <v>0.24739</v>
       </c>
     </row>
     <row r="8">
@@ -7764,13 +7764,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.403132</v>
+        <v>0.40111</v>
       </c>
       <c r="C8" t="n">
-        <v>0.174894</v>
+        <v>0.174785</v>
       </c>
       <c r="D8" t="n">
-        <v>0.253418</v>
+        <v>0.252978</v>
       </c>
     </row>
     <row r="9">
@@ -7778,13 +7778,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.410296</v>
+        <v>0.404903</v>
       </c>
       <c r="C9" t="n">
-        <v>0.176688</v>
+        <v>0.17668</v>
       </c>
       <c r="D9" t="n">
-        <v>0.257075</v>
+        <v>0.258407</v>
       </c>
     </row>
     <row r="10">
@@ -7792,13 +7792,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.414173</v>
+        <v>0.413432</v>
       </c>
       <c r="C10" t="n">
-        <v>0.17884</v>
+        <v>0.178832</v>
       </c>
       <c r="D10" t="n">
-        <v>0.262446</v>
+        <v>0.261848</v>
       </c>
     </row>
     <row r="11">
@@ -7806,13 +7806,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.418435</v>
+        <v>0.419217</v>
       </c>
       <c r="C11" t="n">
-        <v>0.180337</v>
+        <v>0.180232</v>
       </c>
       <c r="D11" t="n">
-        <v>0.264931</v>
+        <v>0.26796</v>
       </c>
     </row>
     <row r="12">
@@ -7820,13 +7820,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.423712</v>
+        <v>0.425588</v>
       </c>
       <c r="C12" t="n">
-        <v>0.182422</v>
+        <v>0.182649</v>
       </c>
       <c r="D12" t="n">
-        <v>0.26879</v>
+        <v>0.270697</v>
       </c>
     </row>
     <row r="13">
@@ -7834,13 +7834,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.427695</v>
+        <v>0.428643</v>
       </c>
       <c r="C13" t="n">
-        <v>0.184718</v>
+        <v>0.185286</v>
       </c>
       <c r="D13" t="n">
-        <v>0.276257</v>
+        <v>0.276417</v>
       </c>
     </row>
     <row r="14">
@@ -7848,13 +7848,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.437305</v>
+        <v>0.436343</v>
       </c>
       <c r="C14" t="n">
-        <v>0.187009</v>
+        <v>0.187697</v>
       </c>
       <c r="D14" t="n">
-        <v>0.279165</v>
+        <v>0.281768</v>
       </c>
     </row>
     <row r="15">
@@ -7862,13 +7862,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.441345</v>
+        <v>0.443289</v>
       </c>
       <c r="C15" t="n">
-        <v>0.18936</v>
+        <v>0.19002</v>
       </c>
       <c r="D15" t="n">
-        <v>0.282957</v>
+        <v>0.286358</v>
       </c>
     </row>
     <row r="16">
@@ -7876,13 +7876,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.447212</v>
+        <v>0.449359</v>
       </c>
       <c r="C16" t="n">
-        <v>0.192089</v>
+        <v>0.192734</v>
       </c>
       <c r="D16" t="n">
-        <v>0.289008</v>
+        <v>0.291134</v>
       </c>
     </row>
     <row r="17">
@@ -7890,13 +7890,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.454669</v>
+        <v>0.456713</v>
       </c>
       <c r="C17" t="n">
-        <v>0.19427</v>
+        <v>0.194712</v>
       </c>
       <c r="D17" t="n">
-        <v>0.294106</v>
+        <v>0.295218</v>
       </c>
     </row>
     <row r="18">
@@ -7904,13 +7904,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.459902</v>
+        <v>0.459565</v>
       </c>
       <c r="C18" t="n">
-        <v>0.197273</v>
+        <v>0.197659</v>
       </c>
       <c r="D18" t="n">
-        <v>0.297497</v>
+        <v>0.300274</v>
       </c>
     </row>
     <row r="19">
@@ -7918,13 +7918,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.463675</v>
+        <v>0.464959</v>
       </c>
       <c r="C19" t="n">
-        <v>0.20032</v>
+        <v>0.200666</v>
       </c>
       <c r="D19" t="n">
-        <v>0.302863</v>
+        <v>0.30463</v>
       </c>
     </row>
     <row r="20">
@@ -7932,13 +7932,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.473888</v>
+        <v>0.472416</v>
       </c>
       <c r="C20" t="n">
-        <v>0.202893</v>
+        <v>0.20267</v>
       </c>
       <c r="D20" t="n">
-        <v>0.307131</v>
+        <v>0.308829</v>
       </c>
     </row>
     <row r="21">
@@ -7946,13 +7946,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.47757</v>
+        <v>0.477864</v>
       </c>
       <c r="C21" t="n">
-        <v>0.18349</v>
+        <v>0.183948</v>
       </c>
       <c r="D21" t="n">
-        <v>0.307112</v>
+        <v>0.307599</v>
       </c>
     </row>
     <row r="22">
@@ -7960,13 +7960,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.458806</v>
+        <v>0.456801</v>
       </c>
       <c r="C22" t="n">
-        <v>0.185164</v>
+        <v>0.185616</v>
       </c>
       <c r="D22" t="n">
-        <v>0.310544</v>
+        <v>0.310711</v>
       </c>
     </row>
     <row r="23">
@@ -7974,13 +7974,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.461872</v>
+        <v>0.462224</v>
       </c>
       <c r="C23" t="n">
-        <v>0.187223</v>
+        <v>0.187535</v>
       </c>
       <c r="D23" t="n">
-        <v>0.3127</v>
+        <v>0.312957</v>
       </c>
     </row>
     <row r="24">
@@ -7988,13 +7988,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.467979</v>
+        <v>0.465278</v>
       </c>
       <c r="C24" t="n">
-        <v>0.189313</v>
+        <v>0.189336</v>
       </c>
       <c r="D24" t="n">
-        <v>0.317922</v>
+        <v>0.318038</v>
       </c>
     </row>
     <row r="25">
@@ -8002,13 +8002,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.472515</v>
+        <v>0.47059</v>
       </c>
       <c r="C25" t="n">
-        <v>0.190761</v>
+        <v>0.191013</v>
       </c>
       <c r="D25" t="n">
-        <v>0.32064</v>
+        <v>0.318973</v>
       </c>
     </row>
     <row r="26">
@@ -8016,13 +8016,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.475954</v>
+        <v>0.473988</v>
       </c>
       <c r="C26" t="n">
-        <v>0.192955</v>
+        <v>0.193199</v>
       </c>
       <c r="D26" t="n">
-        <v>0.323921</v>
+        <v>0.323459</v>
       </c>
     </row>
     <row r="27">
@@ -8030,13 +8030,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.479728</v>
+        <v>0.478647</v>
       </c>
       <c r="C27" t="n">
-        <v>0.195142</v>
+        <v>0.194964</v>
       </c>
       <c r="D27" t="n">
-        <v>0.326854</v>
+        <v>0.326506</v>
       </c>
     </row>
     <row r="28">
@@ -8044,13 +8044,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.485344</v>
+        <v>0.481911</v>
       </c>
       <c r="C28" t="n">
-        <v>0.197835</v>
+        <v>0.197468</v>
       </c>
       <c r="D28" t="n">
-        <v>0.330068</v>
+        <v>0.330105</v>
       </c>
     </row>
     <row r="29">
@@ -8058,13 +8058,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.488713</v>
+        <v>0.487277</v>
       </c>
       <c r="C29" t="n">
-        <v>0.199989</v>
+        <v>0.19998</v>
       </c>
       <c r="D29" t="n">
-        <v>0.332535</v>
+        <v>0.332587</v>
       </c>
     </row>
     <row r="30">
@@ -8072,13 +8072,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.493353</v>
+        <v>0.490779</v>
       </c>
       <c r="C30" t="n">
-        <v>0.202214</v>
+        <v>0.202205</v>
       </c>
       <c r="D30" t="n">
-        <v>0.33522</v>
+        <v>0.335362</v>
       </c>
     </row>
     <row r="31">
@@ -8086,13 +8086,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.498755</v>
+        <v>0.495761</v>
       </c>
       <c r="C31" t="n">
-        <v>0.204779</v>
+        <v>0.205158</v>
       </c>
       <c r="D31" t="n">
-        <v>0.338985</v>
+        <v>0.338556</v>
       </c>
     </row>
     <row r="32">
@@ -8100,13 +8100,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.502749</v>
+        <v>0.500412</v>
       </c>
       <c r="C32" t="n">
-        <v>0.206988</v>
+        <v>0.206817</v>
       </c>
       <c r="D32" t="n">
-        <v>0.341448</v>
+        <v>0.341626</v>
       </c>
     </row>
     <row r="33">
@@ -8114,13 +8114,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.507006</v>
+        <v>0.5068279999999999</v>
       </c>
       <c r="C33" t="n">
-        <v>0.209559</v>
+        <v>0.209755</v>
       </c>
       <c r="D33" t="n">
-        <v>0.344661</v>
+        <v>0.345011</v>
       </c>
     </row>
     <row r="34">
@@ -8128,13 +8128,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.512995</v>
+        <v>0.511642</v>
       </c>
       <c r="C34" t="n">
-        <v>0.212011</v>
+        <v>0.212</v>
       </c>
       <c r="D34" t="n">
-        <v>0.347826</v>
+        <v>0.347239</v>
       </c>
     </row>
     <row r="35">
@@ -8142,13 +8142,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.518104</v>
+        <v>0.515923</v>
       </c>
       <c r="C35" t="n">
-        <v>0.18887</v>
+        <v>0.188753</v>
       </c>
       <c r="D35" t="n">
-        <v>0.340233</v>
+        <v>0.34006</v>
       </c>
     </row>
     <row r="36">
@@ -8156,13 +8156,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.48923</v>
+        <v>0.488933</v>
       </c>
       <c r="C36" t="n">
-        <v>0.19048</v>
+        <v>0.190311</v>
       </c>
       <c r="D36" t="n">
-        <v>0.343882</v>
+        <v>0.341889</v>
       </c>
     </row>
     <row r="37">
@@ -8170,13 +8170,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.493543</v>
+        <v>0.492164</v>
       </c>
       <c r="C37" t="n">
-        <v>0.192502</v>
+        <v>0.192461</v>
       </c>
       <c r="D37" t="n">
-        <v>0.345137</v>
+        <v>0.342322</v>
       </c>
     </row>
     <row r="38">
@@ -8184,13 +8184,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.495189</v>
+        <v>0.495122</v>
       </c>
       <c r="C38" t="n">
-        <v>0.193878</v>
+        <v>0.193665</v>
       </c>
       <c r="D38" t="n">
-        <v>0.346662</v>
+        <v>0.345926</v>
       </c>
     </row>
     <row r="39">
@@ -8198,13 +8198,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.497278</v>
+        <v>0.496425</v>
       </c>
       <c r="C39" t="n">
-        <v>0.195651</v>
+        <v>0.195877</v>
       </c>
       <c r="D39" t="n">
-        <v>0.349153</v>
+        <v>0.347489</v>
       </c>
     </row>
     <row r="40">
@@ -8212,13 +8212,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.500773</v>
+        <v>0.5011640000000001</v>
       </c>
       <c r="C40" t="n">
-        <v>0.197822</v>
+        <v>0.197685</v>
       </c>
       <c r="D40" t="n">
-        <v>0.35006</v>
+        <v>0.350457</v>
       </c>
     </row>
     <row r="41">
@@ -8226,13 +8226,13 @@
         <v>66357</v>
       </c>
       <c r="B41" t="n">
-        <v>0.5046040000000001</v>
+        <v>0.503684</v>
       </c>
       <c r="C41" t="n">
-        <v>0.199517</v>
+        <v>0.199568</v>
       </c>
       <c r="D41" t="n">
-        <v>0.352055</v>
+        <v>0.351451</v>
       </c>
     </row>
     <row r="42">
@@ -8240,13 +8240,13 @@
         <v>69656</v>
       </c>
       <c r="B42" t="n">
-        <v>0.507024</v>
+        <v>0.506427</v>
       </c>
       <c r="C42" t="n">
-        <v>0.201669</v>
+        <v>0.201935</v>
       </c>
       <c r="D42" t="n">
-        <v>0.354608</v>
+        <v>0.353959</v>
       </c>
     </row>
     <row r="43">
@@ -8254,13 +8254,13 @@
         <v>73119</v>
       </c>
       <c r="B43" t="n">
-        <v>0.512046</v>
+        <v>0.510534</v>
       </c>
       <c r="C43" t="n">
-        <v>0.203407</v>
+        <v>0.203406</v>
       </c>
       <c r="D43" t="n">
-        <v>0.356144</v>
+        <v>0.355508</v>
       </c>
     </row>
     <row r="44">
@@ -8268,13 +8268,13 @@
         <v>76755</v>
       </c>
       <c r="B44" t="n">
-        <v>0.514886</v>
+        <v>0.513611</v>
       </c>
       <c r="C44" t="n">
-        <v>0.205666</v>
+        <v>0.205672</v>
       </c>
       <c r="D44" t="n">
-        <v>0.3588</v>
+        <v>0.357611</v>
       </c>
     </row>
     <row r="45">
@@ -8282,13 +8282,13 @@
         <v>80572</v>
       </c>
       <c r="B45" t="n">
-        <v>0.519154</v>
+        <v>0.517408</v>
       </c>
       <c r="C45" t="n">
-        <v>0.208281</v>
+        <v>0.208848</v>
       </c>
       <c r="D45" t="n">
-        <v>0.360941</v>
+        <v>0.359808</v>
       </c>
     </row>
     <row r="46">
@@ -8296,13 +8296,13 @@
         <v>84579</v>
       </c>
       <c r="B46" t="n">
-        <v>0.523482</v>
+        <v>0.521845</v>
       </c>
       <c r="C46" t="n">
-        <v>0.211206</v>
+        <v>0.21136</v>
       </c>
       <c r="D46" t="n">
-        <v>0.362673</v>
+        <v>0.361853</v>
       </c>
     </row>
     <row r="47">
@@ -8310,13 +8310,13 @@
         <v>88786</v>
       </c>
       <c r="B47" t="n">
-        <v>0.527887</v>
+        <v>0.525585</v>
       </c>
       <c r="C47" t="n">
-        <v>0.213656</v>
+        <v>0.213918</v>
       </c>
       <c r="D47" t="n">
-        <v>0.365093</v>
+        <v>0.36471</v>
       </c>
     </row>
     <row r="48">
@@ -8324,13 +8324,13 @@
         <v>93203</v>
       </c>
       <c r="B48" t="n">
-        <v>0.531732</v>
+        <v>0.531017</v>
       </c>
       <c r="C48" t="n">
-        <v>0.216296</v>
+        <v>0.217227</v>
       </c>
       <c r="D48" t="n">
-        <v>0.367222</v>
+        <v>0.366502</v>
       </c>
     </row>
     <row r="49">
@@ -8338,13 +8338,13 @@
         <v>97840</v>
       </c>
       <c r="B49" t="n">
-        <v>0.536662</v>
+        <v>0.535129</v>
       </c>
       <c r="C49" t="n">
-        <v>0.219242</v>
+        <v>0.219174</v>
       </c>
       <c r="D49" t="n">
-        <v>0.368543</v>
+        <v>0.368184</v>
       </c>
     </row>
     <row r="50">
@@ -8352,13 +8352,13 @@
         <v>102706</v>
       </c>
       <c r="B50" t="n">
-        <v>0.5409659999999999</v>
+        <v>0.539481</v>
       </c>
       <c r="C50" t="n">
-        <v>0.194078</v>
+        <v>0.194144</v>
       </c>
       <c r="D50" t="n">
-        <v>0.360192</v>
+        <v>0.357864</v>
       </c>
     </row>
     <row r="51">
@@ -8366,13 +8366,13 @@
         <v>107816</v>
       </c>
       <c r="B51" t="n">
-        <v>0.509104</v>
+        <v>0.50801</v>
       </c>
       <c r="C51" t="n">
-        <v>0.196786</v>
+        <v>0.197848</v>
       </c>
       <c r="D51" t="n">
-        <v>0.361351</v>
+        <v>0.359409</v>
       </c>
     </row>
     <row r="52">
@@ -8380,13 +8380,13 @@
         <v>113182</v>
       </c>
       <c r="B52" t="n">
-        <v>0.51236</v>
+        <v>0.511327</v>
       </c>
       <c r="C52" t="n">
-        <v>0.198552</v>
+        <v>0.198192</v>
       </c>
       <c r="D52" t="n">
-        <v>0.361806</v>
+        <v>0.361013</v>
       </c>
     </row>
     <row r="53">
@@ -8394,13 +8394,13 @@
         <v>118816</v>
       </c>
       <c r="B53" t="n">
-        <v>0.513469</v>
+        <v>0.512043</v>
       </c>
       <c r="C53" t="n">
-        <v>0.199947</v>
+        <v>0.199608</v>
       </c>
       <c r="D53" t="n">
-        <v>0.363595</v>
+        <v>0.362329</v>
       </c>
     </row>
     <row r="54">
@@ -8408,13 +8408,13 @@
         <v>124731</v>
       </c>
       <c r="B54" t="n">
-        <v>0.5162600000000001</v>
+        <v>0.5149</v>
       </c>
       <c r="C54" t="n">
-        <v>0.201571</v>
+        <v>0.203718</v>
       </c>
       <c r="D54" t="n">
-        <v>0.364959</v>
+        <v>0.363002</v>
       </c>
     </row>
     <row r="55">
@@ -8422,13 +8422,13 @@
         <v>130941</v>
       </c>
       <c r="B55" t="n">
-        <v>0.518934</v>
+        <v>0.517312</v>
       </c>
       <c r="C55" t="n">
-        <v>0.205839</v>
+        <v>0.209799</v>
       </c>
       <c r="D55" t="n">
-        <v>0.366418</v>
+        <v>0.365156</v>
       </c>
     </row>
     <row r="56">
@@ -8436,13 +8436,13 @@
         <v>137461</v>
       </c>
       <c r="B56" t="n">
-        <v>0.5213</v>
+        <v>0.5205419999999999</v>
       </c>
       <c r="C56" t="n">
-        <v>0.206582</v>
+        <v>0.217609</v>
       </c>
       <c r="D56" t="n">
-        <v>0.367804</v>
+        <v>0.366456</v>
       </c>
     </row>
     <row r="57">
@@ -8450,13 +8450,13 @@
         <v>144307</v>
       </c>
       <c r="B57" t="n">
-        <v>0.524663</v>
+        <v>0.52376</v>
       </c>
       <c r="C57" t="n">
-        <v>0.210325</v>
+        <v>0.216079</v>
       </c>
       <c r="D57" t="n">
-        <v>0.369401</v>
+        <v>0.372566</v>
       </c>
     </row>
     <row r="58">
@@ -8464,13 +8464,13 @@
         <v>151495</v>
       </c>
       <c r="B58" t="n">
-        <v>0.528301</v>
+        <v>0.532656</v>
       </c>
       <c r="C58" t="n">
-        <v>0.211625</v>
+        <v>0.223118</v>
       </c>
       <c r="D58" t="n">
-        <v>0.37145</v>
+        <v>0.374471</v>
       </c>
     </row>
     <row r="59">
@@ -8478,13 +8478,13 @@
         <v>159042</v>
       </c>
       <c r="B59" t="n">
-        <v>0.531568</v>
+        <v>0.531982</v>
       </c>
       <c r="C59" t="n">
-        <v>0.217279</v>
+        <v>0.23026</v>
       </c>
       <c r="D59" t="n">
-        <v>0.372857</v>
+        <v>0.371147</v>
       </c>
     </row>
     <row r="60">
@@ -8492,13 +8492,13 @@
         <v>166965</v>
       </c>
       <c r="B60" t="n">
-        <v>0.535323</v>
+        <v>0.536521</v>
       </c>
       <c r="C60" t="n">
-        <v>0.228156</v>
+        <v>0.233913</v>
       </c>
       <c r="D60" t="n">
-        <v>0.374974</v>
+        <v>0.382256</v>
       </c>
     </row>
     <row r="61">
@@ -8506,13 +8506,13 @@
         <v>175284</v>
       </c>
       <c r="B61" t="n">
-        <v>0.539804</v>
+        <v>0.539635</v>
       </c>
       <c r="C61" t="n">
-        <v>0.229445</v>
+        <v>0.236721</v>
       </c>
       <c r="D61" t="n">
-        <v>0.3774</v>
+        <v>0.377523</v>
       </c>
     </row>
     <row r="62">
@@ -8520,13 +8520,13 @@
         <v>184019</v>
       </c>
       <c r="B62" t="n">
-        <v>0.5444</v>
+        <v>0.5465950000000001</v>
       </c>
       <c r="C62" t="n">
-        <v>0.23891</v>
+        <v>0.242277</v>
       </c>
       <c r="D62" t="n">
-        <v>0.379649</v>
+        <v>0.38034</v>
       </c>
     </row>
     <row r="63">
@@ -8534,13 +8534,13 @@
         <v>193190</v>
       </c>
       <c r="B63" t="n">
-        <v>0.548936</v>
+        <v>0.5508110000000001</v>
       </c>
       <c r="C63" t="n">
-        <v>0.24242</v>
+        <v>0.254085</v>
       </c>
       <c r="D63" t="n">
-        <v>0.381679</v>
+        <v>0.383157</v>
       </c>
     </row>
     <row r="64">
@@ -8548,13 +8548,13 @@
         <v>202820</v>
       </c>
       <c r="B64" t="n">
-        <v>0.554717</v>
+        <v>0.557346</v>
       </c>
       <c r="C64" t="n">
-        <v>0.286756</v>
+        <v>0.300082</v>
       </c>
       <c r="D64" t="n">
-        <v>0.407239</v>
+        <v>0.41233</v>
       </c>
     </row>
     <row r="65">
@@ -8562,13 +8562,13 @@
         <v>212931</v>
       </c>
       <c r="B65" t="n">
-        <v>0.57768</v>
+        <v>0.586138</v>
       </c>
       <c r="C65" t="n">
-        <v>0.307635</v>
+        <v>0.314698</v>
       </c>
       <c r="D65" t="n">
-        <v>0.420891</v>
+        <v>0.425362</v>
       </c>
     </row>
     <row r="66">
@@ -8576,13 +8576,13 @@
         <v>223547</v>
       </c>
       <c r="B66" t="n">
-        <v>0.603751</v>
+        <v>0.605959</v>
       </c>
       <c r="C66" t="n">
-        <v>0.326336</v>
+        <v>0.324106</v>
       </c>
       <c r="D66" t="n">
-        <v>0.434409</v>
+        <v>0.427455</v>
       </c>
     </row>
     <row r="67">
@@ -8590,13 +8590,13 @@
         <v>234692</v>
       </c>
       <c r="B67" t="n">
-        <v>0.61158</v>
+        <v>0.6047630000000001</v>
       </c>
       <c r="C67" t="n">
-        <v>0.344725</v>
+        <v>0.349043</v>
       </c>
       <c r="D67" t="n">
-        <v>0.441151</v>
+        <v>0.436947</v>
       </c>
     </row>
     <row r="68">
@@ -8604,13 +8604,13 @@
         <v>246395</v>
       </c>
       <c r="B68" t="n">
-        <v>0.631074</v>
+        <v>0.628064</v>
       </c>
       <c r="C68" t="n">
-        <v>0.357374</v>
+        <v>0.362304</v>
       </c>
       <c r="D68" t="n">
-        <v>0.459957</v>
+        <v>0.449977</v>
       </c>
     </row>
     <row r="69">
@@ -8618,13 +8618,13 @@
         <v>258683</v>
       </c>
       <c r="B69" t="n">
-        <v>0.63601</v>
+        <v>0.644824</v>
       </c>
       <c r="C69" t="n">
-        <v>0.381436</v>
+        <v>0.383893</v>
       </c>
       <c r="D69" t="n">
-        <v>0.467798</v>
+        <v>0.469138</v>
       </c>
     </row>
     <row r="70">
@@ -8632,13 +8632,13 @@
         <v>271585</v>
       </c>
       <c r="B70" t="n">
-        <v>0.676878</v>
+        <v>0.672225</v>
       </c>
       <c r="C70" t="n">
-        <v>0.400972</v>
+        <v>0.400331</v>
       </c>
       <c r="D70" t="n">
-        <v>0.489795</v>
+        <v>0.504745</v>
       </c>
     </row>
     <row r="71">
@@ -8646,13 +8646,13 @@
         <v>285132</v>
       </c>
       <c r="B71" t="n">
-        <v>0.698543</v>
+        <v>0.706562</v>
       </c>
       <c r="C71" t="n">
-        <v>0.423698</v>
+        <v>0.421546</v>
       </c>
       <c r="D71" t="n">
-        <v>0.506038</v>
+        <v>0.514115</v>
       </c>
     </row>
     <row r="72">
@@ -8660,13 +8660,13 @@
         <v>299354</v>
       </c>
       <c r="B72" t="n">
-        <v>0.729212</v>
+        <v>0.724197</v>
       </c>
       <c r="C72" t="n">
-        <v>0.442728</v>
+        <v>0.438143</v>
       </c>
       <c r="D72" t="n">
-        <v>0.521821</v>
+        <v>0.538809</v>
       </c>
     </row>
     <row r="73">
@@ -8674,13 +8674,13 @@
         <v>314289</v>
       </c>
       <c r="B73" t="n">
-        <v>0.7443419999999999</v>
+        <v>0.74985</v>
       </c>
       <c r="C73" t="n">
-        <v>0.46036</v>
+        <v>0.456047</v>
       </c>
       <c r="D73" t="n">
-        <v>0.5421</v>
+        <v>0.553096</v>
       </c>
     </row>
     <row r="74">
@@ -8688,13 +8688,13 @@
         <v>329969</v>
       </c>
       <c r="B74" t="n">
-        <v>0.778073</v>
+        <v>0.777612</v>
       </c>
       <c r="C74" t="n">
-        <v>0.477539</v>
+        <v>0.470869</v>
       </c>
       <c r="D74" t="n">
-        <v>0.570829</v>
+        <v>0.586203</v>
       </c>
     </row>
     <row r="75">
@@ -8702,13 +8702,13 @@
         <v>346432</v>
       </c>
       <c r="B75" t="n">
-        <v>0.816338</v>
+        <v>0.836164</v>
       </c>
       <c r="C75" t="n">
-        <v>0.499781</v>
+        <v>0.501088</v>
       </c>
       <c r="D75" t="n">
-        <v>0.608443</v>
+        <v>0.6206700000000001</v>
       </c>
     </row>
     <row r="76">
@@ -8716,13 +8716,13 @@
         <v>363719</v>
       </c>
       <c r="B76" t="n">
-        <v>0.861915</v>
+        <v>0.8551</v>
       </c>
       <c r="C76" t="n">
-        <v>0.518989</v>
+        <v>0.508938</v>
       </c>
       <c r="D76" t="n">
-        <v>0.6289360000000001</v>
+        <v>0.6344379999999999</v>
       </c>
     </row>
     <row r="77">
@@ -8730,13 +8730,13 @@
         <v>381870</v>
       </c>
       <c r="B77" t="n">
-        <v>0.893881</v>
+        <v>0.907796</v>
       </c>
       <c r="C77" t="n">
-        <v>0.537385</v>
+        <v>0.536514</v>
       </c>
       <c r="D77" t="n">
-        <v>0.666106</v>
+        <v>0.670948</v>
       </c>
     </row>
     <row r="78">
@@ -8744,13 +8744,13 @@
         <v>400928</v>
       </c>
       <c r="B78" t="n">
-        <v>0.945176</v>
+        <v>0.94839</v>
       </c>
       <c r="C78" t="n">
-        <v>0.631626</v>
+        <v>0.625306</v>
       </c>
       <c r="D78" t="n">
-        <v>0.8938700000000001</v>
+        <v>0.891576</v>
       </c>
     </row>
     <row r="79">
@@ -8758,13 +8758,13 @@
         <v>420937</v>
       </c>
       <c r="B79" t="n">
-        <v>1.22368</v>
+        <v>1.22587</v>
       </c>
       <c r="C79" t="n">
-        <v>0.64456</v>
+        <v>0.638854</v>
       </c>
       <c r="D79" t="n">
-        <v>0.937426</v>
+        <v>0.935574</v>
       </c>
     </row>
     <row r="80">
@@ -8772,13 +8772,13 @@
         <v>441947</v>
       </c>
       <c r="B80" t="n">
-        <v>1.28026</v>
+        <v>1.27775</v>
       </c>
       <c r="C80" t="n">
-        <v>0.655843</v>
+        <v>0.653278</v>
       </c>
       <c r="D80" t="n">
-        <v>0.975681</v>
+        <v>0.973395</v>
       </c>
     </row>
     <row r="81">
@@ -8786,13 +8786,13 @@
         <v>464005</v>
       </c>
       <c r="B81" t="n">
-        <v>1.32272</v>
+        <v>1.32402</v>
       </c>
       <c r="C81" t="n">
-        <v>0.668123</v>
+        <v>0.663127</v>
       </c>
       <c r="D81" t="n">
-        <v>1.01759</v>
+        <v>1.01515</v>
       </c>
     </row>
     <row r="82">
@@ -8800,13 +8800,13 @@
         <v>487165</v>
       </c>
       <c r="B82" t="n">
-        <v>1.38101</v>
+        <v>1.37963</v>
       </c>
       <c r="C82" t="n">
-        <v>0.680018</v>
+        <v>0.6780310000000001</v>
       </c>
       <c r="D82" t="n">
-        <v>1.0571</v>
+        <v>1.05439</v>
       </c>
     </row>
     <row r="83">
@@ -8814,13 +8814,13 @@
         <v>511485</v>
       </c>
       <c r="B83" t="n">
-        <v>1.42459</v>
+        <v>1.42827</v>
       </c>
       <c r="C83" t="n">
-        <v>0.690512</v>
+        <v>0.687901</v>
       </c>
       <c r="D83" t="n">
-        <v>1.10215</v>
+        <v>1.09489</v>
       </c>
     </row>
     <row r="84">
@@ -8828,13 +8828,13 @@
         <v>537019</v>
       </c>
       <c r="B84" t="n">
-        <v>1.48352</v>
+        <v>1.47857</v>
       </c>
       <c r="C84" t="n">
-        <v>0.702135</v>
+        <v>0.700975</v>
       </c>
       <c r="D84" t="n">
-        <v>1.13944</v>
+        <v>1.13567</v>
       </c>
     </row>
     <row r="85">
@@ -8842,13 +8842,13 @@
         <v>563827</v>
       </c>
       <c r="B85" t="n">
-        <v>1.52447</v>
+        <v>1.52851</v>
       </c>
       <c r="C85" t="n">
-        <v>0.713568</v>
+        <v>0.711515</v>
       </c>
       <c r="D85" t="n">
-        <v>1.17534</v>
+        <v>1.1716</v>
       </c>
     </row>
     <row r="86">
@@ -8856,13 +8856,13 @@
         <v>591977</v>
       </c>
       <c r="B86" t="n">
-        <v>1.57559</v>
+        <v>1.57508</v>
       </c>
       <c r="C86" t="n">
-        <v>0.725456</v>
+        <v>0.723535</v>
       </c>
       <c r="D86" t="n">
-        <v>1.21475</v>
+        <v>1.21175</v>
       </c>
     </row>
     <row r="87">
@@ -8870,13 +8870,13 @@
         <v>621532</v>
       </c>
       <c r="B87" t="n">
-        <v>1.62605</v>
+        <v>1.62686</v>
       </c>
       <c r="C87" t="n">
-        <v>0.737355</v>
+        <v>0.737044</v>
       </c>
       <c r="D87" t="n">
-        <v>1.24999</v>
+        <v>1.24915</v>
       </c>
     </row>
     <row r="88">
@@ -8884,13 +8884,13 @@
         <v>652567</v>
       </c>
       <c r="B88" t="n">
-        <v>1.66921</v>
+        <v>1.66856</v>
       </c>
       <c r="C88" t="n">
-        <v>0.748967</v>
+        <v>0.75125</v>
       </c>
       <c r="D88" t="n">
-        <v>1.28673</v>
+        <v>1.28116</v>
       </c>
     </row>
     <row r="89">
@@ -8898,13 +8898,13 @@
         <v>685151</v>
       </c>
       <c r="B89" t="n">
-        <v>1.71701</v>
+        <v>1.71707</v>
       </c>
       <c r="C89" t="n">
-        <v>0.761603</v>
+        <v>0.761302</v>
       </c>
       <c r="D89" t="n">
-        <v>1.32231</v>
+        <v>1.31825</v>
       </c>
     </row>
     <row r="90">
@@ -8912,13 +8912,13 @@
         <v>719359</v>
       </c>
       <c r="B90" t="n">
-        <v>1.75748</v>
+        <v>1.75995</v>
       </c>
       <c r="C90" t="n">
-        <v>0.771504</v>
+        <v>0.776581</v>
       </c>
       <c r="D90" t="n">
-        <v>1.34962</v>
+        <v>1.35408</v>
       </c>
     </row>
     <row r="91">
@@ -8926,13 +8926,13 @@
         <v>755280</v>
       </c>
       <c r="B91" t="n">
-        <v>1.79857</v>
+        <v>1.80476</v>
       </c>
       <c r="C91" t="n">
-        <v>0.785458</v>
+        <v>0.789779</v>
       </c>
       <c r="D91" t="n">
-        <v>1.38495</v>
+        <v>1.38654</v>
       </c>
     </row>
     <row r="92">
@@ -8940,13 +8940,13 @@
         <v>792997</v>
       </c>
       <c r="B92" t="n">
-        <v>1.84045</v>
+        <v>1.84668</v>
       </c>
       <c r="C92" t="n">
-        <v>0.79303</v>
+        <v>0.7955680000000001</v>
       </c>
       <c r="D92" t="n">
-        <v>1.56294</v>
+        <v>1.56704</v>
       </c>
     </row>
     <row r="93">
@@ -8954,13 +8954,13 @@
         <v>832595</v>
       </c>
       <c r="B93" t="n">
-        <v>2.0634</v>
+        <v>2.06971</v>
       </c>
       <c r="C93" t="n">
-        <v>0.798771</v>
+        <v>0.802019</v>
       </c>
       <c r="D93" t="n">
-        <v>1.58604</v>
+        <v>1.59047</v>
       </c>
     </row>
     <row r="94">
@@ -8968,13 +8968,13 @@
         <v>874177</v>
       </c>
       <c r="B94" t="n">
-        <v>2.09166</v>
+        <v>2.09887</v>
       </c>
       <c r="C94" t="n">
-        <v>0.807343</v>
+        <v>0.813654</v>
       </c>
       <c r="D94" t="n">
-        <v>1.61012</v>
+        <v>1.61664</v>
       </c>
     </row>
     <row r="95">
@@ -8982,13 +8982,13 @@
         <v>917832</v>
       </c>
       <c r="B95" t="n">
-        <v>2.11955</v>
+        <v>2.12465</v>
       </c>
       <c r="C95" t="n">
-        <v>0.816905</v>
+        <v>0.820215</v>
       </c>
       <c r="D95" t="n">
-        <v>1.62741</v>
+        <v>1.63857</v>
       </c>
     </row>
     <row r="96">
@@ -8996,13 +8996,13 @@
         <v>963677</v>
       </c>
       <c r="B96" t="n">
-        <v>2.1473</v>
+        <v>2.16039</v>
       </c>
       <c r="C96" t="n">
-        <v>0.823958</v>
+        <v>0.8302619999999999</v>
       </c>
       <c r="D96" t="n">
-        <v>1.64652</v>
+        <v>1.66062</v>
       </c>
     </row>
     <row r="97">
@@ -9010,13 +9010,13 @@
         <v>1011813</v>
       </c>
       <c r="B97" t="n">
-        <v>2.17586</v>
+        <v>2.18667</v>
       </c>
       <c r="C97" t="n">
-        <v>0.830992</v>
+        <v>0.837589</v>
       </c>
       <c r="D97" t="n">
-        <v>1.66546</v>
+        <v>1.67041</v>
       </c>
     </row>
     <row r="98">
@@ -9024,13 +9024,13 @@
         <v>1062351</v>
       </c>
       <c r="B98" t="n">
-        <v>2.19508</v>
+        <v>2.20245</v>
       </c>
       <c r="C98" t="n">
-        <v>0.839639</v>
+        <v>0.845091</v>
       </c>
       <c r="D98" t="n">
-        <v>1.68511</v>
+        <v>1.68323</v>
       </c>
     </row>
     <row r="99">
@@ -9038,13 +9038,13 @@
         <v>1115422</v>
       </c>
       <c r="B99" t="n">
-        <v>2.21989</v>
+        <v>2.22776</v>
       </c>
       <c r="C99" t="n">
-        <v>0.8482499999999999</v>
+        <v>0.855871</v>
       </c>
       <c r="D99" t="n">
-        <v>1.70142</v>
+        <v>1.70634</v>
       </c>
     </row>
     <row r="100">
@@ -9052,13 +9052,13 @@
         <v>1171143</v>
       </c>
       <c r="B100" t="n">
-        <v>2.24419</v>
+        <v>2.25441</v>
       </c>
       <c r="C100" t="n">
-        <v>0.85723</v>
+        <v>0.863246</v>
       </c>
       <c r="D100" t="n">
-        <v>1.71877</v>
+        <v>1.72373</v>
       </c>
     </row>
     <row r="101">
@@ -9066,13 +9066,13 @@
         <v>1229634</v>
       </c>
       <c r="B101" t="n">
-        <v>2.27253</v>
+        <v>2.2781</v>
       </c>
       <c r="C101" t="n">
-        <v>0.8666509999999999</v>
+        <v>0.873135</v>
       </c>
       <c r="D101" t="n">
-        <v>1.73674</v>
+        <v>1.72524</v>
       </c>
     </row>
     <row r="102">
@@ -9080,13 +9080,13 @@
         <v>1291062</v>
       </c>
       <c r="B102" t="n">
-        <v>2.29499</v>
+        <v>2.3012</v>
       </c>
       <c r="C102" t="n">
-        <v>0.877945</v>
+        <v>0.884819</v>
       </c>
       <c r="D102" t="n">
-        <v>1.73231</v>
+        <v>1.74223</v>
       </c>
     </row>
     <row r="103">
@@ -9094,13 +9094,13 @@
         <v>1355554</v>
       </c>
       <c r="B103" t="n">
-        <v>2.32304</v>
+        <v>2.32923</v>
       </c>
       <c r="C103" t="n">
-        <v>0.887388</v>
+        <v>0.892726</v>
       </c>
       <c r="D103" t="n">
-        <v>1.76103</v>
+        <v>1.77012</v>
       </c>
     </row>
     <row r="104">
@@ -9108,13 +9108,13 @@
         <v>1423274</v>
       </c>
       <c r="B104" t="n">
-        <v>2.34461</v>
+        <v>2.35011</v>
       </c>
       <c r="C104" t="n">
-        <v>0.898497</v>
+        <v>0.908312</v>
       </c>
       <c r="D104" t="n">
-        <v>1.78236</v>
+        <v>1.77696</v>
       </c>
     </row>
     <row r="105">
@@ -9122,13 +9122,13 @@
         <v>1494380</v>
       </c>
       <c r="B105" t="n">
-        <v>2.37034</v>
+        <v>2.37535</v>
       </c>
       <c r="C105" t="n">
-        <v>0.909905</v>
+        <v>0.918376</v>
       </c>
       <c r="D105" t="n">
-        <v>1.79457</v>
+        <v>1.79708</v>
       </c>
     </row>
     <row r="106">
@@ -9136,13 +9136,13 @@
         <v>1569031</v>
       </c>
       <c r="B106" t="n">
-        <v>2.39695</v>
+        <v>2.39675</v>
       </c>
       <c r="C106" t="n">
-        <v>0.922455</v>
+        <v>0.9305600000000001</v>
       </c>
       <c r="D106" t="n">
-        <v>1.80823</v>
+        <v>1.80462</v>
       </c>
     </row>
     <row r="107">
@@ -9150,13 +9150,13 @@
         <v>1647417</v>
       </c>
       <c r="B107" t="n">
-        <v>2.50166</v>
+        <v>2.51241</v>
       </c>
       <c r="C107" t="n">
-        <v>0.872709</v>
+        <v>0.876949</v>
       </c>
       <c r="D107" t="n">
-        <v>1.9138</v>
+        <v>1.90539</v>
       </c>
     </row>
     <row r="108">
@@ -9164,13 +9164,13 @@
         <v>1729734</v>
       </c>
       <c r="B108" t="n">
-        <v>2.52331</v>
+        <v>2.52341</v>
       </c>
       <c r="C108" t="n">
-        <v>0.878988</v>
+        <v>0.8828279999999999</v>
       </c>
       <c r="D108" t="n">
-        <v>1.91299</v>
+        <v>1.91476</v>
       </c>
     </row>
     <row r="109">
@@ -9178,13 +9178,13 @@
         <v>1816153</v>
       </c>
       <c r="B109" t="n">
-        <v>2.53971</v>
+        <v>2.54637</v>
       </c>
       <c r="C109" t="n">
-        <v>0.885087</v>
+        <v>0.894547</v>
       </c>
       <c r="D109" t="n">
-        <v>1.92797</v>
+        <v>1.93485</v>
       </c>
     </row>
     <row r="110">
@@ -9192,13 +9192,13 @@
         <v>1906885</v>
       </c>
       <c r="B110" t="n">
-        <v>2.55294</v>
+        <v>2.55665</v>
       </c>
       <c r="C110" t="n">
-        <v>0.894595</v>
+        <v>0.901753</v>
       </c>
       <c r="D110" t="n">
-        <v>1.943</v>
+        <v>1.93752</v>
       </c>
     </row>
     <row r="111">
@@ -9206,13 +9206,13 @@
         <v>2002164</v>
       </c>
       <c r="B111" t="n">
-        <v>2.56788</v>
+        <v>2.5722</v>
       </c>
       <c r="C111" t="n">
-        <v>0.900415</v>
+        <v>0.90707</v>
       </c>
       <c r="D111" t="n">
-        <v>1.94768</v>
+        <v>1.9429</v>
       </c>
     </row>
     <row r="112">
@@ -9220,13 +9220,13 @@
         <v>2102198</v>
       </c>
       <c r="B112" t="n">
-        <v>2.58113</v>
+        <v>2.58854</v>
       </c>
       <c r="C112" t="n">
-        <v>0.911507</v>
+        <v>0.916923</v>
       </c>
       <c r="D112" t="n">
-        <v>1.95206</v>
+        <v>1.95822</v>
       </c>
     </row>
     <row r="113">
@@ -9234,13 +9234,13 @@
         <v>2207233</v>
       </c>
       <c r="B113" t="n">
-        <v>2.59977</v>
+        <v>2.60011</v>
       </c>
       <c r="C113" t="n">
-        <v>0.918646</v>
+        <v>0.926963</v>
       </c>
       <c r="D113" t="n">
-        <v>1.96676</v>
+        <v>1.96564</v>
       </c>
     </row>
     <row r="114">
@@ -9248,13 +9248,13 @@
         <v>2317508</v>
       </c>
       <c r="B114" t="n">
-        <v>2.61228</v>
+        <v>2.61569</v>
       </c>
       <c r="C114" t="n">
-        <v>0.9271740000000001</v>
+        <v>0.9317029999999999</v>
       </c>
       <c r="D114" t="n">
-        <v>1.97174</v>
+        <v>1.97468</v>
       </c>
     </row>
     <row r="115">
@@ -9262,13 +9262,13 @@
         <v>2433290</v>
       </c>
       <c r="B115" t="n">
-        <v>2.62765</v>
+        <v>2.6301</v>
       </c>
       <c r="C115" t="n">
-        <v>0.939832</v>
+        <v>0.950195</v>
       </c>
       <c r="D115" t="n">
-        <v>1.97061</v>
+        <v>1.97797</v>
       </c>
     </row>
     <row r="116">
@@ -9276,13 +9276,13 @@
         <v>2554854</v>
       </c>
       <c r="B116" t="n">
-        <v>2.63925</v>
+        <v>2.64444</v>
       </c>
       <c r="C116" t="n">
-        <v>0.947524</v>
+        <v>0.953754</v>
       </c>
       <c r="D116" t="n">
-        <v>1.98284</v>
+        <v>1.99095</v>
       </c>
     </row>
     <row r="117">
@@ -9290,13 +9290,13 @@
         <v>2682511</v>
       </c>
       <c r="B117" t="n">
-        <v>2.65459</v>
+        <v>2.65837</v>
       </c>
       <c r="C117" t="n">
-        <v>0.961657</v>
+        <v>0.95834</v>
       </c>
       <c r="D117" t="n">
-        <v>1.98871</v>
+        <v>1.9949</v>
       </c>
     </row>
     <row r="118">
@@ -9304,13 +9304,13 @@
         <v>2816546</v>
       </c>
       <c r="B118" t="n">
-        <v>2.66703</v>
+        <v>2.67295</v>
       </c>
       <c r="C118" t="n">
-        <v>0.968266</v>
+        <v>0.98363</v>
       </c>
       <c r="D118" t="n">
-        <v>1.99781</v>
+        <v>1.997</v>
       </c>
     </row>
     <row r="119">
@@ -9318,13 +9318,13 @@
         <v>2957287</v>
       </c>
       <c r="B119" t="n">
-        <v>2.68517</v>
+        <v>2.69162</v>
       </c>
       <c r="C119" t="n">
-        <v>0.977483</v>
+        <v>0.990136</v>
       </c>
       <c r="D119" t="n">
-        <v>2.00683</v>
+        <v>2.01239</v>
       </c>
     </row>
   </sheetData>
@@ -9372,13 +9372,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.554111</v>
+        <v>0.572786</v>
       </c>
       <c r="C2" t="n">
-        <v>0.42163</v>
+        <v>0.433188</v>
       </c>
       <c r="D2" t="n">
-        <v>0.353307</v>
+        <v>0.369531</v>
       </c>
     </row>
     <row r="3">
@@ -9386,13 +9386,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.564228</v>
+        <v>0.5782389999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4286</v>
+        <v>0.440975</v>
       </c>
       <c r="D3" t="n">
-        <v>0.356478</v>
+        <v>0.376822</v>
       </c>
     </row>
     <row r="4">
@@ -9400,13 +9400,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.569919</v>
+        <v>0.59543</v>
       </c>
       <c r="C4" t="n">
-        <v>0.427695</v>
+        <v>0.441517</v>
       </c>
       <c r="D4" t="n">
-        <v>0.361638</v>
+        <v>0.377627</v>
       </c>
     </row>
     <row r="5">
@@ -9414,13 +9414,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.58023</v>
+        <v>0.597881</v>
       </c>
       <c r="C5" t="n">
-        <v>0.433611</v>
+        <v>0.44899</v>
       </c>
       <c r="D5" t="n">
-        <v>0.363675</v>
+        <v>0.381874</v>
       </c>
     </row>
     <row r="6">
@@ -9428,13 +9428,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.582763</v>
+        <v>0.60706</v>
       </c>
       <c r="C6" t="n">
-        <v>0.445246</v>
+        <v>0.459561</v>
       </c>
       <c r="D6" t="n">
-        <v>0.367028</v>
+        <v>0.390158</v>
       </c>
     </row>
     <row r="7">
@@ -9442,13 +9442,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.5889489999999999</v>
+        <v>0.615151</v>
       </c>
       <c r="C7" t="n">
-        <v>0.454227</v>
+        <v>0.470411</v>
       </c>
       <c r="D7" t="n">
-        <v>0.373669</v>
+        <v>0.396538</v>
       </c>
     </row>
     <row r="8">
@@ -9456,13 +9456,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.594502</v>
+        <v>0.622031</v>
       </c>
       <c r="C8" t="n">
-        <v>0.457537</v>
+        <v>0.473625</v>
       </c>
       <c r="D8" t="n">
-        <v>0.384053</v>
+        <v>0.403805</v>
       </c>
     </row>
     <row r="9">
@@ -9470,13 +9470,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.608885</v>
+        <v>0.636843</v>
       </c>
       <c r="C9" t="n">
-        <v>0.463121</v>
+        <v>0.479611</v>
       </c>
       <c r="D9" t="n">
-        <v>0.387387</v>
+        <v>0.412052</v>
       </c>
     </row>
     <row r="10">
@@ -9484,13 +9484,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.618714</v>
+        <v>0.64738</v>
       </c>
       <c r="C10" t="n">
-        <v>0.470117</v>
+        <v>0.48415</v>
       </c>
       <c r="D10" t="n">
-        <v>0.39629</v>
+        <v>0.421724</v>
       </c>
     </row>
     <row r="11">
@@ -9498,13 +9498,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.63132</v>
+        <v>0.668311</v>
       </c>
       <c r="C11" t="n">
-        <v>0.46919</v>
+        <v>0.482905</v>
       </c>
       <c r="D11" t="n">
-        <v>0.399625</v>
+        <v>0.420233</v>
       </c>
     </row>
     <row r="12">
@@ -9512,13 +9512,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.6312680000000001</v>
+        <v>0.657749</v>
       </c>
       <c r="C12" t="n">
-        <v>0.475937</v>
+        <v>0.486907</v>
       </c>
       <c r="D12" t="n">
-        <v>0.403402</v>
+        <v>0.429843</v>
       </c>
     </row>
     <row r="13">
@@ -9526,13 +9526,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.640172</v>
+        <v>0.667845</v>
       </c>
       <c r="C13" t="n">
-        <v>0.476487</v>
+        <v>0.489621</v>
       </c>
       <c r="D13" t="n">
-        <v>0.409834</v>
+        <v>0.429242</v>
       </c>
     </row>
     <row r="14">
@@ -9540,13 +9540,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.651097</v>
+        <v>0.672685</v>
       </c>
       <c r="C14" t="n">
-        <v>0.478657</v>
+        <v>0.49082</v>
       </c>
       <c r="D14" t="n">
-        <v>0.417368</v>
+        <v>0.436024</v>
       </c>
     </row>
     <row r="15">
@@ -9554,13 +9554,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.658462</v>
+        <v>0.68084</v>
       </c>
       <c r="C15" t="n">
-        <v>0.486662</v>
+        <v>0.496029</v>
       </c>
       <c r="D15" t="n">
-        <v>0.423165</v>
+        <v>0.439347</v>
       </c>
     </row>
     <row r="16">
@@ -9568,13 +9568,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.6630509999999999</v>
+        <v>0.682633</v>
       </c>
       <c r="C16" t="n">
-        <v>0.490787</v>
+        <v>0.5027</v>
       </c>
       <c r="D16" t="n">
-        <v>0.430556</v>
+        <v>0.443248</v>
       </c>
     </row>
     <row r="17">
@@ -9582,13 +9582,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.68067</v>
+        <v>0.686016</v>
       </c>
       <c r="C17" t="n">
-        <v>0.494323</v>
+        <v>0.501362</v>
       </c>
       <c r="D17" t="n">
-        <v>0.432831</v>
+        <v>0.441888</v>
       </c>
     </row>
     <row r="18">
@@ -9596,13 +9596,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.678026</v>
+        <v>0.6927450000000001</v>
       </c>
       <c r="C18" t="n">
-        <v>0.501732</v>
+        <v>0.513054</v>
       </c>
       <c r="D18" t="n">
-        <v>0.438655</v>
+        <v>0.449373</v>
       </c>
     </row>
     <row r="19">
@@ -9610,13 +9610,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.688797</v>
+        <v>0.707075</v>
       </c>
       <c r="C19" t="n">
-        <v>0.503248</v>
+        <v>0.51006</v>
       </c>
       <c r="D19" t="n">
-        <v>0.443594</v>
+        <v>0.453398</v>
       </c>
     </row>
     <row r="20">
@@ -9624,13 +9624,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.701751</v>
+        <v>0.714419</v>
       </c>
       <c r="C20" t="n">
-        <v>0.512924</v>
+        <v>0.521366</v>
       </c>
       <c r="D20" t="n">
-        <v>0.450409</v>
+        <v>0.45656</v>
       </c>
     </row>
     <row r="21">
@@ -9638,13 +9638,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.706921</v>
+        <v>0.720043</v>
       </c>
       <c r="C21" t="n">
-        <v>0.518775</v>
+        <v>0.516768</v>
       </c>
       <c r="D21" t="n">
-        <v>0.458431</v>
+        <v>0.456296</v>
       </c>
     </row>
     <row r="22">
@@ -9652,13 +9652,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.7112810000000001</v>
+        <v>0.710186</v>
       </c>
       <c r="C22" t="n">
-        <v>0.52279</v>
+        <v>0.522772</v>
       </c>
       <c r="D22" t="n">
-        <v>0.461766</v>
+        <v>0.456794</v>
       </c>
     </row>
     <row r="23">
@@ -9666,13 +9666,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.7252769999999999</v>
+        <v>0.72165</v>
       </c>
       <c r="C23" t="n">
-        <v>0.521918</v>
+        <v>0.519808</v>
       </c>
       <c r="D23" t="n">
-        <v>0.467695</v>
+        <v>0.467565</v>
       </c>
     </row>
     <row r="24">
@@ -9680,13 +9680,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.72827</v>
+        <v>0.725922</v>
       </c>
       <c r="C24" t="n">
-        <v>0.530199</v>
+        <v>0.527587</v>
       </c>
       <c r="D24" t="n">
-        <v>0.470841</v>
+        <v>0.470006</v>
       </c>
     </row>
     <row r="25">
@@ -9694,13 +9694,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.743609</v>
+        <v>0.740852</v>
       </c>
       <c r="C25" t="n">
-        <v>0.542909</v>
+        <v>0.540745</v>
       </c>
       <c r="D25" t="n">
-        <v>0.475079</v>
+        <v>0.470588</v>
       </c>
     </row>
     <row r="26">
@@ -9708,13 +9708,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.742318</v>
+        <v>0.73763</v>
       </c>
       <c r="C26" t="n">
-        <v>0.5391</v>
+        <v>0.536152</v>
       </c>
       <c r="D26" t="n">
-        <v>0.480078</v>
+        <v>0.476915</v>
       </c>
     </row>
     <row r="27">
@@ -9722,13 +9722,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.748784</v>
+        <v>0.74312</v>
       </c>
       <c r="C27" t="n">
-        <v>0.544713</v>
+        <v>0.543584</v>
       </c>
       <c r="D27" t="n">
-        <v>0.484085</v>
+        <v>0.481925</v>
       </c>
     </row>
     <row r="28">
@@ -9736,13 +9736,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.753676</v>
+        <v>0.749356</v>
       </c>
       <c r="C28" t="n">
-        <v>0.548409</v>
+        <v>0.545784</v>
       </c>
       <c r="D28" t="n">
-        <v>0.486611</v>
+        <v>0.481591</v>
       </c>
     </row>
     <row r="29">
@@ -9750,13 +9750,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.762543</v>
+        <v>0.755391</v>
       </c>
       <c r="C29" t="n">
-        <v>0.551445</v>
+        <v>0.552679</v>
       </c>
       <c r="D29" t="n">
-        <v>0.492089</v>
+        <v>0.489522</v>
       </c>
     </row>
     <row r="30">
@@ -9764,13 +9764,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.770386</v>
+        <v>0.764078</v>
       </c>
       <c r="C30" t="n">
-        <v>0.558445</v>
+        <v>0.554557</v>
       </c>
       <c r="D30" t="n">
-        <v>0.49612</v>
+        <v>0.493482</v>
       </c>
     </row>
     <row r="31">
@@ -9778,13 +9778,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.777942</v>
+        <v>0.7714259999999999</v>
       </c>
       <c r="C31" t="n">
-        <v>0.559283</v>
+        <v>0.560827</v>
       </c>
       <c r="D31" t="n">
-        <v>0.498712</v>
+        <v>0.496821</v>
       </c>
     </row>
     <row r="32">
@@ -9792,13 +9792,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.781675</v>
+        <v>0.774591</v>
       </c>
       <c r="C32" t="n">
-        <v>0.563936</v>
+        <v>0.565296</v>
       </c>
       <c r="D32" t="n">
-        <v>0.504121</v>
+        <v>0.499608</v>
       </c>
     </row>
     <row r="33">
@@ -9806,13 +9806,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.788321</v>
+        <v>0.782709</v>
       </c>
       <c r="C33" t="n">
-        <v>0.568956</v>
+        <v>0.568909</v>
       </c>
       <c r="D33" t="n">
-        <v>0.505016</v>
+        <v>0.500698</v>
       </c>
     </row>
     <row r="34">
@@ -9820,13 +9820,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.794837</v>
+        <v>0.791901</v>
       </c>
       <c r="C34" t="n">
-        <v>0.571124</v>
+        <v>0.571779</v>
       </c>
       <c r="D34" t="n">
-        <v>0.5082410000000001</v>
+        <v>0.504654</v>
       </c>
     </row>
     <row r="35">
@@ -9834,13 +9834,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.799233</v>
+        <v>0.792803</v>
       </c>
       <c r="C35" t="n">
-        <v>0.552681</v>
+        <v>0.552503</v>
       </c>
       <c r="D35" t="n">
-        <v>0.511791</v>
+        <v>0.507012</v>
       </c>
     </row>
     <row r="36">
@@ -9848,13 +9848,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.799211</v>
+        <v>0.791344</v>
       </c>
       <c r="C36" t="n">
-        <v>0.557289</v>
+        <v>0.556844</v>
       </c>
       <c r="D36" t="n">
-        <v>0.515172</v>
+        <v>0.509711</v>
       </c>
     </row>
     <row r="37">
@@ -9862,13 +9862,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.802312</v>
+        <v>0.796238</v>
       </c>
       <c r="C37" t="n">
-        <v>0.560189</v>
+        <v>0.559476</v>
       </c>
       <c r="D37" t="n">
-        <v>0.516564</v>
+        <v>0.5111830000000001</v>
       </c>
     </row>
     <row r="38">
@@ -9876,13 +9876,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.802916</v>
+        <v>0.798698</v>
       </c>
       <c r="C38" t="n">
-        <v>0.5603050000000001</v>
+        <v>0.561879</v>
       </c>
       <c r="D38" t="n">
-        <v>0.5207580000000001</v>
+        <v>0.514714</v>
       </c>
     </row>
     <row r="39">
@@ -9890,13 +9890,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.810155</v>
+        <v>0.804426</v>
       </c>
       <c r="C39" t="n">
-        <v>0.565927</v>
+        <v>0.566743</v>
       </c>
       <c r="D39" t="n">
-        <v>0.521718</v>
+        <v>0.517177</v>
       </c>
     </row>
     <row r="40">
@@ -9904,13 +9904,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.816588</v>
+        <v>0.811141</v>
       </c>
       <c r="C40" t="n">
-        <v>0.568677</v>
+        <v>0.569238</v>
       </c>
       <c r="D40" t="n">
-        <v>0.526073</v>
+        <v>0.520091</v>
       </c>
     </row>
     <row r="41">
@@ -9918,13 +9918,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.824397</v>
+        <v>0.8178</v>
       </c>
       <c r="C41" t="n">
-        <v>0.570967</v>
+        <v>0.570298</v>
       </c>
       <c r="D41" t="n">
-        <v>0.527062</v>
+        <v>0.5214299999999999</v>
       </c>
     </row>
     <row r="42">
@@ -9932,13 +9932,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.823703</v>
+        <v>0.819562</v>
       </c>
       <c r="C42" t="n">
-        <v>0.571238</v>
+        <v>0.570833</v>
       </c>
       <c r="D42" t="n">
-        <v>0.530788</v>
+        <v>0.524995</v>
       </c>
     </row>
     <row r="43">
@@ -9946,13 +9946,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.83134</v>
+        <v>0.824809</v>
       </c>
       <c r="C43" t="n">
-        <v>0.575731</v>
+        <v>0.571908</v>
       </c>
       <c r="D43" t="n">
-        <v>0.532763</v>
+        <v>0.524761</v>
       </c>
     </row>
     <row r="44">
@@ -9960,13 +9960,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.83208</v>
+        <v>0.826574</v>
       </c>
       <c r="C44" t="n">
-        <v>0.57665</v>
+        <v>0.574866</v>
       </c>
       <c r="D44" t="n">
-        <v>0.533698</v>
+        <v>0.527572</v>
       </c>
     </row>
     <row r="45">
@@ -9974,13 +9974,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.837147</v>
+        <v>0.829875</v>
       </c>
       <c r="C45" t="n">
-        <v>0.579528</v>
+        <v>0.578556</v>
       </c>
       <c r="D45" t="n">
-        <v>0.533784</v>
+        <v>0.528089</v>
       </c>
     </row>
     <row r="46">
@@ -9988,13 +9988,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.839245</v>
+        <v>0.8355669999999999</v>
       </c>
       <c r="C46" t="n">
-        <v>0.577102</v>
+        <v>0.57994</v>
       </c>
       <c r="D46" t="n">
-        <v>0.53638</v>
+        <v>0.5305299999999999</v>
       </c>
     </row>
     <row r="47">
@@ -10002,13 +10002,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.851523</v>
+        <v>0.844417</v>
       </c>
       <c r="C47" t="n">
-        <v>0.584807</v>
+        <v>0.584539</v>
       </c>
       <c r="D47" t="n">
-        <v>0.540535</v>
+        <v>0.533307</v>
       </c>
     </row>
     <row r="48">
@@ -10016,13 +10016,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.85429</v>
+        <v>0.846289</v>
       </c>
       <c r="C48" t="n">
-        <v>0.588518</v>
+        <v>0.585666</v>
       </c>
       <c r="D48" t="n">
-        <v>0.5410199999999999</v>
+        <v>0.533651</v>
       </c>
     </row>
     <row r="49">
@@ -10030,13 +10030,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.858693</v>
+        <v>0.851119</v>
       </c>
       <c r="C49" t="n">
-        <v>0.591134</v>
+        <v>0.590658</v>
       </c>
       <c r="D49" t="n">
-        <v>0.5427</v>
+        <v>0.535622</v>
       </c>
     </row>
     <row r="50">
@@ -10044,13 +10044,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.86472</v>
+        <v>0.860086</v>
       </c>
       <c r="C50" t="n">
-        <v>0.579805</v>
+        <v>0.583481</v>
       </c>
       <c r="D50" t="n">
-        <v>0.54423</v>
+        <v>0.536679</v>
       </c>
     </row>
     <row r="51">
@@ -10058,13 +10058,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.844284</v>
+        <v>0.835336</v>
       </c>
       <c r="C51" t="n">
-        <v>0.582503</v>
+        <v>0.583517</v>
       </c>
       <c r="D51" t="n">
-        <v>0.544478</v>
+        <v>0.539905</v>
       </c>
     </row>
     <row r="52">
@@ -10072,13 +10072,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.846209</v>
+        <v>0.8401380000000001</v>
       </c>
       <c r="C52" t="n">
-        <v>0.584878</v>
+        <v>0.584345</v>
       </c>
       <c r="D52" t="n">
-        <v>0.548181</v>
+        <v>0.540317</v>
       </c>
     </row>
     <row r="53">
@@ -10086,13 +10086,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.852196</v>
+        <v>0.845109</v>
       </c>
       <c r="C53" t="n">
-        <v>0.589616</v>
+        <v>0.590985</v>
       </c>
       <c r="D53" t="n">
-        <v>0.548414</v>
+        <v>0.541328</v>
       </c>
     </row>
     <row r="54">
@@ -10100,13 +10100,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.85622</v>
+        <v>0.851351</v>
       </c>
       <c r="C54" t="n">
-        <v>0.591542</v>
+        <v>0.596587</v>
       </c>
       <c r="D54" t="n">
-        <v>0.55011</v>
+        <v>0.543634</v>
       </c>
     </row>
     <row r="55">
@@ -10114,13 +10114,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.859904</v>
+        <v>0.852881</v>
       </c>
       <c r="C55" t="n">
-        <v>0.597987</v>
+        <v>0.599705</v>
       </c>
       <c r="D55" t="n">
-        <v>0.553072</v>
+        <v>0.5452669999999999</v>
       </c>
     </row>
     <row r="56">
@@ -10128,13 +10128,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.861591</v>
+        <v>0.855206</v>
       </c>
       <c r="C56" t="n">
-        <v>0.5948020000000001</v>
+        <v>0.5979370000000001</v>
       </c>
       <c r="D56" t="n">
-        <v>0.552925</v>
+        <v>0.545499</v>
       </c>
     </row>
     <row r="57">
@@ -10142,13 +10142,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.864625</v>
+        <v>0.859091</v>
       </c>
       <c r="C57" t="n">
-        <v>0.604801</v>
+        <v>0.60504</v>
       </c>
       <c r="D57" t="n">
-        <v>0.5550389999999999</v>
+        <v>0.547682</v>
       </c>
     </row>
     <row r="58">
@@ -10156,13 +10156,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.869027</v>
+        <v>0.861801</v>
       </c>
       <c r="C58" t="n">
-        <v>0.607152</v>
+        <v>0.6135080000000001</v>
       </c>
       <c r="D58" t="n">
-        <v>0.556135</v>
+        <v>0.54857</v>
       </c>
     </row>
     <row r="59">
@@ -10170,13 +10170,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.872829</v>
+        <v>0.86502</v>
       </c>
       <c r="C59" t="n">
-        <v>0.621729</v>
+        <v>0.622802</v>
       </c>
       <c r="D59" t="n">
-        <v>0.557266</v>
+        <v>0.549403</v>
       </c>
     </row>
     <row r="60">
@@ -10184,13 +10184,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.878391</v>
+        <v>0.871428</v>
       </c>
       <c r="C60" t="n">
-        <v>0.6228</v>
+        <v>0.623258</v>
       </c>
       <c r="D60" t="n">
-        <v>0.559937</v>
+        <v>0.552136</v>
       </c>
     </row>
     <row r="61">
@@ -10198,13 +10198,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.884181</v>
+        <v>0.874095</v>
       </c>
       <c r="C61" t="n">
-        <v>0.637912</v>
+        <v>0.631726</v>
       </c>
       <c r="D61" t="n">
-        <v>0.561174</v>
+        <v>0.553064</v>
       </c>
     </row>
     <row r="62">
@@ -10212,13 +10212,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.887916</v>
+        <v>0.882338</v>
       </c>
       <c r="C62" t="n">
-        <v>0.646428</v>
+        <v>0.63757</v>
       </c>
       <c r="D62" t="n">
-        <v>0.567367</v>
+        <v>0.557023</v>
       </c>
     </row>
     <row r="63">
@@ -10226,13 +10226,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.89699</v>
+        <v>0.883158</v>
       </c>
       <c r="C63" t="n">
-        <v>0.651305</v>
+        <v>0.6420709999999999</v>
       </c>
       <c r="D63" t="n">
-        <v>0.569891</v>
+        <v>0.5584</v>
       </c>
     </row>
     <row r="64">
@@ -10240,13 +10240,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.905575</v>
+        <v>0.893315</v>
       </c>
       <c r="C64" t="n">
-        <v>0.69196</v>
+        <v>0.692329</v>
       </c>
       <c r="D64" t="n">
-        <v>0.5955240000000001</v>
+        <v>0.592856</v>
       </c>
     </row>
     <row r="65">
@@ -10254,13 +10254,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.924107</v>
+        <v>0.934037</v>
       </c>
       <c r="C65" t="n">
-        <v>0.713743</v>
+        <v>0.715741</v>
       </c>
       <c r="D65" t="n">
-        <v>0.616333</v>
+        <v>0.602198</v>
       </c>
     </row>
     <row r="66">
@@ -10268,13 +10268,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.946038</v>
+        <v>0.947098</v>
       </c>
       <c r="C66" t="n">
-        <v>0.720569</v>
+        <v>0.731121</v>
       </c>
       <c r="D66" t="n">
-        <v>0.600993</v>
+        <v>0.616955</v>
       </c>
     </row>
     <row r="67">
@@ -10282,13 +10282,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.957917</v>
+        <v>0.966699</v>
       </c>
       <c r="C67" t="n">
-        <v>0.744244</v>
+        <v>0.759688</v>
       </c>
       <c r="D67" t="n">
-        <v>0.626192</v>
+        <v>0.630135</v>
       </c>
     </row>
     <row r="68">
@@ -10296,13 +10296,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.9889</v>
+        <v>0.994943</v>
       </c>
       <c r="C68" t="n">
-        <v>0.783856</v>
+        <v>0.775934</v>
       </c>
       <c r="D68" t="n">
-        <v>0.637375</v>
+        <v>0.642027</v>
       </c>
     </row>
     <row r="69">
@@ -10310,13 +10310,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>1.00847</v>
+        <v>1.02117</v>
       </c>
       <c r="C69" t="n">
-        <v>0.801435</v>
+        <v>0.805686</v>
       </c>
       <c r="D69" t="n">
-        <v>0.658268</v>
+        <v>0.667569</v>
       </c>
     </row>
     <row r="70">
@@ -10324,13 +10324,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>1.01993</v>
+        <v>1.06124</v>
       </c>
       <c r="C70" t="n">
-        <v>0.8226329999999999</v>
+        <v>0.834307</v>
       </c>
       <c r="D70" t="n">
-        <v>0.666347</v>
+        <v>0.675073</v>
       </c>
     </row>
     <row r="71">
@@ -10338,13 +10338,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>1.05858</v>
+        <v>1.07407</v>
       </c>
       <c r="C71" t="n">
-        <v>0.858829</v>
+        <v>0.867704</v>
       </c>
       <c r="D71" t="n">
-        <v>0.689808</v>
+        <v>0.689935</v>
       </c>
     </row>
     <row r="72">
@@ -10352,13 +10352,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>1.08417</v>
+        <v>1.09501</v>
       </c>
       <c r="C72" t="n">
-        <v>0.896567</v>
+        <v>0.8900940000000001</v>
       </c>
       <c r="D72" t="n">
-        <v>0.723089</v>
+        <v>0.718678</v>
       </c>
     </row>
     <row r="73">
@@ -10366,13 +10366,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>1.1467</v>
+        <v>1.14196</v>
       </c>
       <c r="C73" t="n">
-        <v>0.930132</v>
+        <v>0.932898</v>
       </c>
       <c r="D73" t="n">
-        <v>0.7324310000000001</v>
+        <v>0.739192</v>
       </c>
     </row>
     <row r="74">
@@ -10380,13 +10380,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.17057</v>
+        <v>1.18062</v>
       </c>
       <c r="C74" t="n">
-        <v>0.9531539999999999</v>
+        <v>0.959597</v>
       </c>
       <c r="D74" t="n">
-        <v>0.767256</v>
+        <v>0.769119</v>
       </c>
     </row>
     <row r="75">
@@ -10394,13 +10394,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>1.22302</v>
+        <v>1.23254</v>
       </c>
       <c r="C75" t="n">
-        <v>0.989743</v>
+        <v>0.99764</v>
       </c>
       <c r="D75" t="n">
-        <v>0.79924</v>
+        <v>0.799529</v>
       </c>
     </row>
     <row r="76">
@@ -10408,13 +10408,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>1.27778</v>
+        <v>1.28351</v>
       </c>
       <c r="C76" t="n">
-        <v>1.03563</v>
+        <v>1.04229</v>
       </c>
       <c r="D76" t="n">
-        <v>0.851613</v>
+        <v>0.83522</v>
       </c>
     </row>
     <row r="77">
@@ -10422,13 +10422,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>1.34776</v>
+        <v>1.32471</v>
       </c>
       <c r="C77" t="n">
-        <v>1.10298</v>
+        <v>1.08356</v>
       </c>
       <c r="D77" t="n">
-        <v>0.901116</v>
+        <v>0.8701410000000001</v>
       </c>
     </row>
     <row r="78">
@@ -10436,13 +10436,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>1.43458</v>
+        <v>1.40132</v>
       </c>
       <c r="C78" t="n">
-        <v>1.25881</v>
+        <v>1.26128</v>
       </c>
       <c r="D78" t="n">
-        <v>1.02548</v>
+        <v>1.01288</v>
       </c>
     </row>
     <row r="79">
@@ -10450,13 +10450,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.58704</v>
+        <v>1.58543</v>
       </c>
       <c r="C79" t="n">
-        <v>1.30067</v>
+        <v>1.30478</v>
       </c>
       <c r="D79" t="n">
-        <v>1.05662</v>
+        <v>1.06395</v>
       </c>
     </row>
     <row r="80">
@@ -10464,13 +10464,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.66237</v>
+        <v>1.67777</v>
       </c>
       <c r="C80" t="n">
-        <v>1.34753</v>
+        <v>1.35352</v>
       </c>
       <c r="D80" t="n">
-        <v>1.10201</v>
+        <v>1.11734</v>
       </c>
     </row>
     <row r="81">
@@ -10478,13 +10478,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.72818</v>
+        <v>1.75147</v>
       </c>
       <c r="C81" t="n">
-        <v>1.39075</v>
+        <v>1.39916</v>
       </c>
       <c r="D81" t="n">
-        <v>1.1738</v>
+        <v>1.16853</v>
       </c>
     </row>
     <row r="82">
@@ -10492,13 +10492,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.80572</v>
+        <v>1.83617</v>
       </c>
       <c r="C82" t="n">
-        <v>1.4371</v>
+        <v>1.44079</v>
       </c>
       <c r="D82" t="n">
-        <v>1.23933</v>
+        <v>1.21163</v>
       </c>
     </row>
     <row r="83">
@@ -10506,13 +10506,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.91922</v>
+        <v>1.91028</v>
       </c>
       <c r="C83" t="n">
-        <v>1.4853</v>
+        <v>1.48679</v>
       </c>
       <c r="D83" t="n">
-        <v>1.29083</v>
+        <v>1.27039</v>
       </c>
     </row>
     <row r="84">
@@ -10520,13 +10520,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>2.01145</v>
+        <v>2.00025</v>
       </c>
       <c r="C84" t="n">
-        <v>1.53231</v>
+        <v>1.53064</v>
       </c>
       <c r="D84" t="n">
-        <v>1.336</v>
+        <v>1.32736</v>
       </c>
     </row>
     <row r="85">
@@ -10534,13 +10534,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>2.08913</v>
+        <v>2.08223</v>
       </c>
       <c r="C85" t="n">
-        <v>1.58238</v>
+        <v>1.58427</v>
       </c>
       <c r="D85" t="n">
-        <v>1.4032</v>
+        <v>1.3883</v>
       </c>
     </row>
     <row r="86">
@@ -10548,13 +10548,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>2.18599</v>
+        <v>2.18048</v>
       </c>
       <c r="C86" t="n">
-        <v>1.62066</v>
+        <v>1.62284</v>
       </c>
       <c r="D86" t="n">
-        <v>1.4575</v>
+        <v>1.44821</v>
       </c>
     </row>
     <row r="87">
@@ -10562,13 +10562,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>2.26617</v>
+        <v>2.27225</v>
       </c>
       <c r="C87" t="n">
-        <v>1.66419</v>
+        <v>1.66781</v>
       </c>
       <c r="D87" t="n">
-        <v>1.52359</v>
+        <v>1.50324</v>
       </c>
     </row>
     <row r="88">
@@ -10576,13 +10576,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>2.37026</v>
+        <v>2.36487</v>
       </c>
       <c r="C88" t="n">
-        <v>1.71645</v>
+        <v>1.71608</v>
       </c>
       <c r="D88" t="n">
-        <v>1.58603</v>
+        <v>1.56273</v>
       </c>
     </row>
     <row r="89">
@@ -10590,13 +10590,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>2.46179</v>
+        <v>2.44813</v>
       </c>
       <c r="C89" t="n">
-        <v>1.76481</v>
+        <v>1.76566</v>
       </c>
       <c r="D89" t="n">
-        <v>1.64098</v>
+        <v>1.61587</v>
       </c>
     </row>
     <row r="90">
@@ -10604,13 +10604,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>2.54057</v>
+        <v>2.52727</v>
       </c>
       <c r="C90" t="n">
-        <v>1.81214</v>
+        <v>1.81171</v>
       </c>
       <c r="D90" t="n">
-        <v>1.70014</v>
+        <v>1.66923</v>
       </c>
     </row>
     <row r="91">
@@ -10618,13 +10618,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>2.63498</v>
+        <v>2.62553</v>
       </c>
       <c r="C91" t="n">
-        <v>1.8616</v>
+        <v>1.85953</v>
       </c>
       <c r="D91" t="n">
-        <v>1.7527</v>
+        <v>1.72191</v>
       </c>
     </row>
     <row r="92">
@@ -10632,13 +10632,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>2.71159</v>
+        <v>2.70876</v>
       </c>
       <c r="C92" t="n">
-        <v>1.96828</v>
+        <v>1.96938</v>
       </c>
       <c r="D92" t="n">
-        <v>1.87143</v>
+        <v>1.8407</v>
       </c>
     </row>
     <row r="93">
@@ -10646,13 +10646,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>2.87366</v>
+        <v>2.87858</v>
       </c>
       <c r="C93" t="n">
-        <v>2.00329</v>
+        <v>2.00816</v>
       </c>
       <c r="D93" t="n">
-        <v>1.90063</v>
+        <v>1.89247</v>
       </c>
     </row>
     <row r="94">
@@ -10660,13 +10660,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>2.95144</v>
+        <v>2.95398</v>
       </c>
       <c r="C94" t="n">
-        <v>2.02139</v>
+        <v>2.03563</v>
       </c>
       <c r="D94" t="n">
-        <v>1.96519</v>
+        <v>1.93377</v>
       </c>
     </row>
     <row r="95">
@@ -10674,13 +10674,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>3.0265</v>
+        <v>3.01348</v>
       </c>
       <c r="C95" t="n">
-        <v>2.07317</v>
+        <v>2.07932</v>
       </c>
       <c r="D95" t="n">
-        <v>2.01235</v>
+        <v>1.97688</v>
       </c>
     </row>
     <row r="96">
@@ -10688,13 +10688,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>3.10233</v>
+        <v>3.08941</v>
       </c>
       <c r="C96" t="n">
-        <v>2.11556</v>
+        <v>2.11247</v>
       </c>
       <c r="D96" t="n">
-        <v>2.05537</v>
+        <v>2.03</v>
       </c>
     </row>
     <row r="97">
@@ -10702,13 +10702,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>3.16337</v>
+        <v>3.16254</v>
       </c>
       <c r="C97" t="n">
-        <v>2.14879</v>
+        <v>2.14609</v>
       </c>
       <c r="D97" t="n">
-        <v>2.08802</v>
+        <v>2.06273</v>
       </c>
     </row>
     <row r="98">
@@ -10716,13 +10716,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>3.23995</v>
+        <v>3.23785</v>
       </c>
       <c r="C98" t="n">
-        <v>2.1848</v>
+        <v>2.187</v>
       </c>
       <c r="D98" t="n">
-        <v>2.14488</v>
+        <v>2.11308</v>
       </c>
     </row>
     <row r="99">
@@ -10730,13 +10730,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>3.29907</v>
+        <v>3.29924</v>
       </c>
       <c r="C99" t="n">
-        <v>2.2222</v>
+        <v>2.22727</v>
       </c>
       <c r="D99" t="n">
-        <v>2.16792</v>
+        <v>2.14192</v>
       </c>
     </row>
     <row r="100">
@@ -10744,13 +10744,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>3.35311</v>
+        <v>3.35899</v>
       </c>
       <c r="C100" t="n">
-        <v>2.25354</v>
+        <v>2.26517</v>
       </c>
       <c r="D100" t="n">
-        <v>2.2187</v>
+        <v>2.1835</v>
       </c>
     </row>
     <row r="101">
@@ -10758,13 +10758,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>3.43086</v>
+        <v>3.42862</v>
       </c>
       <c r="C101" t="n">
-        <v>2.27566</v>
+        <v>2.29342</v>
       </c>
       <c r="D101" t="n">
-        <v>2.23096</v>
+        <v>2.21734</v>
       </c>
     </row>
     <row r="102">
@@ -10772,13 +10772,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>3.47763</v>
+        <v>3.48474</v>
       </c>
       <c r="C102" t="n">
-        <v>2.33208</v>
+        <v>2.32915</v>
       </c>
       <c r="D102" t="n">
-        <v>2.29512</v>
+        <v>2.24717</v>
       </c>
     </row>
     <row r="103">
@@ -10786,13 +10786,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>3.52309</v>
+        <v>3.55716</v>
       </c>
       <c r="C103" t="n">
-        <v>2.36132</v>
+        <v>2.35655</v>
       </c>
       <c r="D103" t="n">
-        <v>2.32208</v>
+        <v>2.27614</v>
       </c>
     </row>
     <row r="104">
@@ -10800,13 +10800,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>3.61544</v>
+        <v>3.5929</v>
       </c>
       <c r="C104" t="n">
-        <v>2.39794</v>
+        <v>2.39222</v>
       </c>
       <c r="D104" t="n">
-        <v>2.33819</v>
+        <v>2.31041</v>
       </c>
     </row>
     <row r="105">
@@ -10814,13 +10814,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>3.65398</v>
+        <v>3.67137</v>
       </c>
       <c r="C105" t="n">
-        <v>2.42138</v>
+        <v>2.42362</v>
       </c>
       <c r="D105" t="n">
-        <v>2.37159</v>
+        <v>2.33226</v>
       </c>
     </row>
     <row r="106">
@@ -10828,13 +10828,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>3.71037</v>
+        <v>3.72331</v>
       </c>
       <c r="C106" t="n">
-        <v>2.46333</v>
+        <v>2.46138</v>
       </c>
       <c r="D106" t="n">
-        <v>2.40772</v>
+        <v>2.36589</v>
       </c>
     </row>
     <row r="107">
@@ -10842,13 +10842,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>3.73676</v>
+        <v>3.74976</v>
       </c>
       <c r="C107" t="n">
-        <v>2.46045</v>
+        <v>2.45435</v>
       </c>
       <c r="D107" t="n">
-        <v>2.45644</v>
+        <v>2.43117</v>
       </c>
     </row>
     <row r="108">
@@ -10856,13 +10856,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>3.75993</v>
+        <v>3.7505</v>
       </c>
       <c r="C108" t="n">
-        <v>2.48309</v>
+        <v>2.47605</v>
       </c>
       <c r="D108" t="n">
-        <v>2.48663</v>
+        <v>2.45699</v>
       </c>
     </row>
     <row r="109">
@@ -10870,13 +10870,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>3.78876</v>
+        <v>3.80804</v>
       </c>
       <c r="C109" t="n">
-        <v>2.48901</v>
+        <v>2.49283</v>
       </c>
       <c r="D109" t="n">
-        <v>2.51673</v>
+        <v>2.49384</v>
       </c>
     </row>
     <row r="110">
@@ -10884,13 +10884,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>3.83686</v>
+        <v>3.86251</v>
       </c>
       <c r="C110" t="n">
-        <v>2.50795</v>
+        <v>2.5323</v>
       </c>
       <c r="D110" t="n">
-        <v>2.55049</v>
+        <v>2.52165</v>
       </c>
     </row>
     <row r="111">
@@ -10898,13 +10898,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>3.89609</v>
+        <v>3.88841</v>
       </c>
       <c r="C111" t="n">
-        <v>2.54556</v>
+        <v>2.54577</v>
       </c>
       <c r="D111" t="n">
-        <v>2.57491</v>
+        <v>2.54477</v>
       </c>
     </row>
     <row r="112">
@@ -10912,13 +10912,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>3.9355</v>
+        <v>3.94744</v>
       </c>
       <c r="C112" t="n">
-        <v>2.57631</v>
+        <v>2.57808</v>
       </c>
       <c r="D112" t="n">
-        <v>2.6027</v>
+        <v>2.56612</v>
       </c>
     </row>
     <row r="113">
@@ -10926,13 +10926,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>3.9869</v>
+        <v>3.98347</v>
       </c>
       <c r="C113" t="n">
-        <v>2.61301</v>
+        <v>2.60585</v>
       </c>
       <c r="D113" t="n">
-        <v>2.6186</v>
+        <v>2.58575</v>
       </c>
     </row>
     <row r="114">
@@ -10940,13 +10940,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>4.03436</v>
+        <v>4.04077</v>
       </c>
       <c r="C114" t="n">
-        <v>2.61721</v>
+        <v>2.61471</v>
       </c>
       <c r="D114" t="n">
-        <v>2.6484</v>
+        <v>2.61019</v>
       </c>
     </row>
     <row r="115">
@@ -10954,13 +10954,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>4.09708</v>
+        <v>4.07532</v>
       </c>
       <c r="C115" t="n">
-        <v>2.67772</v>
+        <v>2.65044</v>
       </c>
       <c r="D115" t="n">
-        <v>2.67317</v>
+        <v>2.63478</v>
       </c>
     </row>
     <row r="116">
@@ -10968,13 +10968,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>4.121</v>
+        <v>4.12035</v>
       </c>
       <c r="C116" t="n">
-        <v>2.67888</v>
+        <v>2.68317</v>
       </c>
       <c r="D116" t="n">
-        <v>2.68869</v>
+        <v>2.66089</v>
       </c>
     </row>
     <row r="117">
@@ -10982,13 +10982,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>4.16951</v>
+        <v>4.167</v>
       </c>
       <c r="C117" t="n">
-        <v>2.72356</v>
+        <v>2.7269</v>
       </c>
       <c r="D117" t="n">
-        <v>2.72284</v>
+        <v>2.68568</v>
       </c>
     </row>
     <row r="118">
@@ -10996,13 +10996,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>4.22429</v>
+        <v>4.22186</v>
       </c>
       <c r="C118" t="n">
-        <v>2.73815</v>
+        <v>2.73535</v>
       </c>
       <c r="D118" t="n">
-        <v>2.73065</v>
+        <v>2.69965</v>
       </c>
     </row>
     <row r="119">
@@ -11010,13 +11010,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>4.25417</v>
+        <v>4.24234</v>
       </c>
       <c r="C119" t="n">
-        <v>2.77503</v>
+        <v>2.75444</v>
       </c>
       <c r="D119" t="n">
-        <v>2.74085</v>
+        <v>2.71887</v>
       </c>
     </row>
   </sheetData>
@@ -11064,13 +11064,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.588413</v>
+        <v>0.619664</v>
       </c>
       <c r="C2" t="n">
-        <v>0.448246</v>
+        <v>0.466986</v>
       </c>
       <c r="D2" t="n">
-        <v>0.347134</v>
+        <v>0.373864</v>
       </c>
     </row>
     <row r="3">
@@ -11078,13 +11078,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.59413</v>
+        <v>0.627478</v>
       </c>
       <c r="C3" t="n">
-        <v>0.453515</v>
+        <v>0.470865</v>
       </c>
       <c r="D3" t="n">
-        <v>0.351228</v>
+        <v>0.379999</v>
       </c>
     </row>
     <row r="4">
@@ -11092,13 +11092,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.60409</v>
+        <v>0.636943</v>
       </c>
       <c r="C4" t="n">
-        <v>0.458628</v>
+        <v>0.476194</v>
       </c>
       <c r="D4" t="n">
-        <v>0.356027</v>
+        <v>0.384774</v>
       </c>
     </row>
     <row r="5">
@@ -11106,13 +11106,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.606118</v>
+        <v>0.640505</v>
       </c>
       <c r="C5" t="n">
-        <v>0.469127</v>
+        <v>0.483475</v>
       </c>
       <c r="D5" t="n">
-        <v>0.35891</v>
+        <v>0.386679</v>
       </c>
     </row>
     <row r="6">
@@ -11120,13 +11120,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.619164</v>
+        <v>0.6501209999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>0.472168</v>
+        <v>0.484314</v>
       </c>
       <c r="D6" t="n">
-        <v>0.361261</v>
+        <v>0.386339</v>
       </c>
     </row>
     <row r="7">
@@ -11134,13 +11134,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.624166</v>
+        <v>0.650052</v>
       </c>
       <c r="C7" t="n">
-        <v>0.481369</v>
+        <v>0.491969</v>
       </c>
       <c r="D7" t="n">
-        <v>0.369412</v>
+        <v>0.390513</v>
       </c>
     </row>
     <row r="8">
@@ -11148,13 +11148,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.63459</v>
+        <v>0.66437</v>
       </c>
       <c r="C8" t="n">
-        <v>0.487783</v>
+        <v>0.499228</v>
       </c>
       <c r="D8" t="n">
-        <v>0.370816</v>
+        <v>0.393497</v>
       </c>
     </row>
     <row r="9">
@@ -11162,13 +11162,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.643039</v>
+        <v>0.670445</v>
       </c>
       <c r="C9" t="n">
-        <v>0.498845</v>
+        <v>0.514393</v>
       </c>
       <c r="D9" t="n">
-        <v>0.375844</v>
+        <v>0.399319</v>
       </c>
     </row>
     <row r="10">
@@ -11176,13 +11176,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.658315</v>
+        <v>0.683078</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5082100000000001</v>
+        <v>0.519697</v>
       </c>
       <c r="D10" t="n">
-        <v>0.380824</v>
+        <v>0.400475</v>
       </c>
     </row>
     <row r="11">
@@ -11190,13 +11190,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.667279</v>
+        <v>0.6862780000000001</v>
       </c>
       <c r="C11" t="n">
-        <v>0.493798</v>
+        <v>0.487992</v>
       </c>
       <c r="D11" t="n">
-        <v>0.388593</v>
+        <v>0.394826</v>
       </c>
     </row>
     <row r="12">
@@ -11204,13 +11204,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.646316</v>
+        <v>0.6357350000000001</v>
       </c>
       <c r="C12" t="n">
-        <v>0.496167</v>
+        <v>0.489139</v>
       </c>
       <c r="D12" t="n">
-        <v>0.395257</v>
+        <v>0.400887</v>
       </c>
     </row>
     <row r="13">
@@ -11218,13 +11218,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.657327</v>
+        <v>0.648888</v>
       </c>
       <c r="C13" t="n">
-        <v>0.501145</v>
+        <v>0.492285</v>
       </c>
       <c r="D13" t="n">
-        <v>0.400027</v>
+        <v>0.402575</v>
       </c>
     </row>
     <row r="14">
@@ -11232,13 +11232,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.666535</v>
+        <v>0.651845</v>
       </c>
       <c r="C14" t="n">
-        <v>0.513616</v>
+        <v>0.501676</v>
       </c>
       <c r="D14" t="n">
-        <v>0.40296</v>
+        <v>0.40449</v>
       </c>
     </row>
     <row r="15">
@@ -11246,13 +11246,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.678297</v>
+        <v>0.666</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5205149999999999</v>
+        <v>0.508669</v>
       </c>
       <c r="D15" t="n">
-        <v>0.411924</v>
+        <v>0.409728</v>
       </c>
     </row>
     <row r="16">
@@ -11260,13 +11260,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.683643</v>
+        <v>0.672747</v>
       </c>
       <c r="C16" t="n">
-        <v>0.52763</v>
+        <v>0.51734</v>
       </c>
       <c r="D16" t="n">
-        <v>0.414543</v>
+        <v>0.414835</v>
       </c>
     </row>
     <row r="17">
@@ -11274,13 +11274,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.701412</v>
+        <v>0.681888</v>
       </c>
       <c r="C17" t="n">
-        <v>0.53488</v>
+        <v>0.530386</v>
       </c>
       <c r="D17" t="n">
-        <v>0.419296</v>
+        <v>0.416264</v>
       </c>
     </row>
     <row r="18">
@@ -11288,13 +11288,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.712593</v>
+        <v>0.695088</v>
       </c>
       <c r="C18" t="n">
-        <v>0.541991</v>
+        <v>0.534905</v>
       </c>
       <c r="D18" t="n">
-        <v>0.424366</v>
+        <v>0.422553</v>
       </c>
     </row>
     <row r="19">
@@ -11302,13 +11302,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.7254429999999999</v>
+        <v>0.7060340000000001</v>
       </c>
       <c r="C19" t="n">
-        <v>0.559247</v>
+        <v>0.553975</v>
       </c>
       <c r="D19" t="n">
-        <v>0.431715</v>
+        <v>0.429724</v>
       </c>
     </row>
     <row r="20">
@@ -11316,13 +11316,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.744007</v>
+        <v>0.730497</v>
       </c>
       <c r="C20" t="n">
-        <v>0.566558</v>
+        <v>0.561905</v>
       </c>
       <c r="D20" t="n">
-        <v>0.437327</v>
+        <v>0.433893</v>
       </c>
     </row>
     <row r="21">
@@ -11330,13 +11330,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.757235</v>
+        <v>0.738662</v>
       </c>
       <c r="C21" t="n">
-        <v>0.580528</v>
+        <v>0.566682</v>
       </c>
       <c r="D21" t="n">
-        <v>0.443103</v>
+        <v>0.441308</v>
       </c>
     </row>
     <row r="22">
@@ -11344,13 +11344,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.767035</v>
+        <v>0.747818</v>
       </c>
       <c r="C22" t="n">
-        <v>0.5904779999999999</v>
+        <v>0.5810419999999999</v>
       </c>
       <c r="D22" t="n">
-        <v>0.449317</v>
+        <v>0.445461</v>
       </c>
     </row>
     <row r="23">
@@ -11358,13 +11358,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.787598</v>
+        <v>0.766114</v>
       </c>
       <c r="C23" t="n">
-        <v>0.604122</v>
+        <v>0.593577</v>
       </c>
       <c r="D23" t="n">
-        <v>0.454775</v>
+        <v>0.451048</v>
       </c>
     </row>
     <row r="24">
@@ -11372,13 +11372,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.798878</v>
+        <v>0.7789779999999999</v>
       </c>
       <c r="C24" t="n">
-        <v>0.614092</v>
+        <v>0.601178</v>
       </c>
       <c r="D24" t="n">
-        <v>0.458612</v>
+        <v>0.453742</v>
       </c>
     </row>
     <row r="25">
@@ -11386,13 +11386,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.810142</v>
+        <v>0.792851</v>
       </c>
       <c r="C25" t="n">
-        <v>0.627269</v>
+        <v>0.6152</v>
       </c>
       <c r="D25" t="n">
-        <v>0.466146</v>
+        <v>0.462096</v>
       </c>
     </row>
     <row r="26">
@@ -11400,13 +11400,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.8285090000000001</v>
+        <v>0.806812</v>
       </c>
       <c r="C26" t="n">
-        <v>0.561441</v>
+        <v>0.548831</v>
       </c>
       <c r="D26" t="n">
-        <v>0.470939</v>
+        <v>0.462488</v>
       </c>
     </row>
     <row r="27">
@@ -11414,13 +11414,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.790033</v>
+        <v>0.764243</v>
       </c>
       <c r="C27" t="n">
-        <v>0.5676330000000001</v>
+        <v>0.556191</v>
       </c>
       <c r="D27" t="n">
-        <v>0.474416</v>
+        <v>0.466678</v>
       </c>
     </row>
     <row r="28">
@@ -11428,13 +11428,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.79747</v>
+        <v>0.772038</v>
       </c>
       <c r="C28" t="n">
-        <v>0.572439</v>
+        <v>0.561589</v>
       </c>
       <c r="D28" t="n">
-        <v>0.479703</v>
+        <v>0.470286</v>
       </c>
     </row>
     <row r="29">
@@ -11442,13 +11442,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.8108070000000001</v>
+        <v>0.783293</v>
       </c>
       <c r="C29" t="n">
-        <v>0.57939</v>
+        <v>0.568287</v>
       </c>
       <c r="D29" t="n">
-        <v>0.48371</v>
+        <v>0.473949</v>
       </c>
     </row>
     <row r="30">
@@ -11456,13 +11456,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.821922</v>
+        <v>0.792067</v>
       </c>
       <c r="C30" t="n">
-        <v>0.588816</v>
+        <v>0.572248</v>
       </c>
       <c r="D30" t="n">
-        <v>0.488555</v>
+        <v>0.478676</v>
       </c>
     </row>
     <row r="31">
@@ -11470,13 +11470,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.836714</v>
+        <v>0.807258</v>
       </c>
       <c r="C31" t="n">
-        <v>0.598119</v>
+        <v>0.585167</v>
       </c>
       <c r="D31" t="n">
-        <v>0.491322</v>
+        <v>0.483217</v>
       </c>
     </row>
     <row r="32">
@@ -11484,13 +11484,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.851845</v>
+        <v>0.820012</v>
       </c>
       <c r="C32" t="n">
-        <v>0.608976</v>
+        <v>0.591292</v>
       </c>
       <c r="D32" t="n">
-        <v>0.497006</v>
+        <v>0.487383</v>
       </c>
     </row>
     <row r="33">
@@ -11498,13 +11498,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.858066</v>
+        <v>0.827002</v>
       </c>
       <c r="C33" t="n">
-        <v>0.615082</v>
+        <v>0.6011919999999999</v>
       </c>
       <c r="D33" t="n">
-        <v>0.500759</v>
+        <v>0.490774</v>
       </c>
     </row>
     <row r="34">
@@ -11512,13 +11512,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.870512</v>
+        <v>0.844948</v>
       </c>
       <c r="C34" t="n">
-        <v>0.628706</v>
+        <v>0.613798</v>
       </c>
       <c r="D34" t="n">
-        <v>0.503193</v>
+        <v>0.493699</v>
       </c>
     </row>
     <row r="35">
@@ -11526,13 +11526,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.882808</v>
+        <v>0.851221</v>
       </c>
       <c r="C35" t="n">
-        <v>0.633428</v>
+        <v>0.620856</v>
       </c>
       <c r="D35" t="n">
-        <v>0.508112</v>
+        <v>0.497117</v>
       </c>
     </row>
     <row r="36">
@@ -11540,13 +11540,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.8960360000000001</v>
+        <v>0.871632</v>
       </c>
       <c r="C36" t="n">
-        <v>0.649653</v>
+        <v>0.63627</v>
       </c>
       <c r="D36" t="n">
-        <v>0.510741</v>
+        <v>0.5000599999999999</v>
       </c>
     </row>
     <row r="37">
@@ -11554,13 +11554,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.909829</v>
+        <v>0.882989</v>
       </c>
       <c r="C37" t="n">
-        <v>0.66107</v>
+        <v>0.649155</v>
       </c>
       <c r="D37" t="n">
-        <v>0.512012</v>
+        <v>0.50337</v>
       </c>
     </row>
     <row r="38">
@@ -11568,13 +11568,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.924349</v>
+        <v>0.8962329999999999</v>
       </c>
       <c r="C38" t="n">
-        <v>0.67156</v>
+        <v>0.659363</v>
       </c>
       <c r="D38" t="n">
-        <v>0.515545</v>
+        <v>0.50787</v>
       </c>
     </row>
     <row r="39">
@@ -11582,13 +11582,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.9348610000000001</v>
+        <v>0.910892</v>
       </c>
       <c r="C39" t="n">
-        <v>0.6823669999999999</v>
+        <v>0.670739</v>
       </c>
       <c r="D39" t="n">
-        <v>0.520786</v>
+        <v>0.5112679999999999</v>
       </c>
     </row>
     <row r="40">
@@ -11596,13 +11596,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.953732</v>
+        <v>0.925167</v>
       </c>
       <c r="C40" t="n">
-        <v>0.625536</v>
+        <v>0.621058</v>
       </c>
       <c r="D40" t="n">
-        <v>0.52494</v>
+        <v>0.515496</v>
       </c>
     </row>
     <row r="41">
@@ -11610,13 +11610,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.885063</v>
+        <v>0.8713109999999999</v>
       </c>
       <c r="C41" t="n">
-        <v>0.631464</v>
+        <v>0.627082</v>
       </c>
       <c r="D41" t="n">
-        <v>0.527583</v>
+        <v>0.519255</v>
       </c>
     </row>
     <row r="42">
@@ -11624,13 +11624,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.896875</v>
+        <v>0.883406</v>
       </c>
       <c r="C42" t="n">
-        <v>0.640491</v>
+        <v>0.636931</v>
       </c>
       <c r="D42" t="n">
-        <v>0.528598</v>
+        <v>0.5228429999999999</v>
       </c>
     </row>
     <row r="43">
@@ -11638,13 +11638,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.905208</v>
+        <v>0.891216</v>
       </c>
       <c r="C43" t="n">
-        <v>0.648158</v>
+        <v>0.641242</v>
       </c>
       <c r="D43" t="n">
-        <v>0.532942</v>
+        <v>0.525792</v>
       </c>
     </row>
     <row r="44">
@@ -11652,13 +11652,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.913584</v>
+        <v>0.895301</v>
       </c>
       <c r="C44" t="n">
-        <v>0.657963</v>
+        <v>0.651655</v>
       </c>
       <c r="D44" t="n">
-        <v>0.53351</v>
+        <v>0.52786</v>
       </c>
     </row>
     <row r="45">
@@ -11666,13 +11666,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.92522</v>
+        <v>0.908178</v>
       </c>
       <c r="C45" t="n">
-        <v>0.66403</v>
+        <v>0.658806</v>
       </c>
       <c r="D45" t="n">
-        <v>0.536006</v>
+        <v>0.5306650000000001</v>
       </c>
     </row>
     <row r="46">
@@ -11680,13 +11680,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.930332</v>
+        <v>0.914907</v>
       </c>
       <c r="C46" t="n">
-        <v>0.673881</v>
+        <v>0.670287</v>
       </c>
       <c r="D46" t="n">
-        <v>0.538072</v>
+        <v>0.533241</v>
       </c>
     </row>
     <row r="47">
@@ -11694,13 +11694,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.941459</v>
+        <v>0.927779</v>
       </c>
       <c r="C47" t="n">
-        <v>0.68499</v>
+        <v>0.681532</v>
       </c>
       <c r="D47" t="n">
-        <v>0.541345</v>
+        <v>0.534285</v>
       </c>
     </row>
     <row r="48">
@@ -11708,13 +11708,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.951936</v>
+        <v>0.939511</v>
       </c>
       <c r="C48" t="n">
-        <v>0.690822</v>
+        <v>0.6872740000000001</v>
       </c>
       <c r="D48" t="n">
-        <v>0.543009</v>
+        <v>0.536114</v>
       </c>
     </row>
     <row r="49">
@@ -11722,13 +11722,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.959878</v>
+        <v>0.944999</v>
       </c>
       <c r="C49" t="n">
-        <v>0.699485</v>
+        <v>0.69709</v>
       </c>
       <c r="D49" t="n">
-        <v>0.545229</v>
+        <v>0.540382</v>
       </c>
     </row>
     <row r="50">
@@ -11736,13 +11736,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.973655</v>
+        <v>0.959442</v>
       </c>
       <c r="C50" t="n">
-        <v>0.712883</v>
+        <v>0.707083</v>
       </c>
       <c r="D50" t="n">
-        <v>0.547048</v>
+        <v>0.5426029999999999</v>
       </c>
     </row>
     <row r="51">
@@ -11750,13 +11750,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.9811839999999999</v>
+        <v>0.967324</v>
       </c>
       <c r="C51" t="n">
-        <v>0.7214930000000001</v>
+        <v>0.716892</v>
       </c>
       <c r="D51" t="n">
-        <v>0.550028</v>
+        <v>0.542821</v>
       </c>
     </row>
     <row r="52">
@@ -11764,13 +11764,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.995256</v>
+        <v>0.982504</v>
       </c>
       <c r="C52" t="n">
-        <v>0.736027</v>
+        <v>0.731305</v>
       </c>
       <c r="D52" t="n">
-        <v>0.549405</v>
+        <v>0.546524</v>
       </c>
     </row>
     <row r="53">
@@ -11778,13 +11778,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>1.00424</v>
+        <v>0.990337</v>
       </c>
       <c r="C53" t="n">
-        <v>0.743739</v>
+        <v>0.7389019999999999</v>
       </c>
       <c r="D53" t="n">
-        <v>0.550963</v>
+        <v>0.545525</v>
       </c>
     </row>
     <row r="54">
@@ -11792,13 +11792,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>1.01625</v>
+        <v>1.00383</v>
       </c>
       <c r="C54" t="n">
-        <v>0.672636</v>
+        <v>0.6720390000000001</v>
       </c>
       <c r="D54" t="n">
-        <v>0.553996</v>
+        <v>0.547616</v>
       </c>
     </row>
     <row r="55">
@@ -11806,13 +11806,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.942028</v>
+        <v>0.931481</v>
       </c>
       <c r="C55" t="n">
-        <v>0.678515</v>
+        <v>0.6769849999999999</v>
       </c>
       <c r="D55" t="n">
-        <v>0.555495</v>
+        <v>0.54961</v>
       </c>
     </row>
     <row r="56">
@@ -11820,13 +11820,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.949241</v>
+        <v>0.939039</v>
       </c>
       <c r="C56" t="n">
-        <v>0.687391</v>
+        <v>0.685531</v>
       </c>
       <c r="D56" t="n">
-        <v>0.55732</v>
+        <v>0.55083</v>
       </c>
     </row>
     <row r="57">
@@ -11834,13 +11834,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.957901</v>
+        <v>0.947329</v>
       </c>
       <c r="C57" t="n">
-        <v>0.696348</v>
+        <v>0.692558</v>
       </c>
       <c r="D57" t="n">
-        <v>0.557621</v>
+        <v>0.552007</v>
       </c>
     </row>
     <row r="58">
@@ -11848,13 +11848,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.966205</v>
+        <v>0.955958</v>
       </c>
       <c r="C58" t="n">
-        <v>0.702759</v>
+        <v>0.698387</v>
       </c>
       <c r="D58" t="n">
-        <v>0.559045</v>
+        <v>0.553845</v>
       </c>
     </row>
     <row r="59">
@@ -11862,13 +11862,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.976436</v>
+        <v>0.9647210000000001</v>
       </c>
       <c r="C59" t="n">
-        <v>0.71206</v>
+        <v>0.707678</v>
       </c>
       <c r="D59" t="n">
-        <v>0.5611969999999999</v>
+        <v>0.55631</v>
       </c>
     </row>
     <row r="60">
@@ -11876,13 +11876,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.984117</v>
+        <v>0.972025</v>
       </c>
       <c r="C60" t="n">
-        <v>0.721091</v>
+        <v>0.716784</v>
       </c>
       <c r="D60" t="n">
-        <v>0.562953</v>
+        <v>0.5565639999999999</v>
       </c>
     </row>
     <row r="61">
@@ -11890,13 +11890,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.99297</v>
+        <v>0.980281</v>
       </c>
       <c r="C61" t="n">
-        <v>0.729168</v>
+        <v>0.726239</v>
       </c>
       <c r="D61" t="n">
-        <v>0.564688</v>
+        <v>0.5595560000000001</v>
       </c>
     </row>
     <row r="62">
@@ -11904,13 +11904,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>1.00518</v>
+        <v>0.990734</v>
       </c>
       <c r="C62" t="n">
-        <v>0.739452</v>
+        <v>0.739232</v>
       </c>
       <c r="D62" t="n">
-        <v>0.566306</v>
+        <v>0.55983</v>
       </c>
     </row>
     <row r="63">
@@ -11918,13 +11918,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>1.01631</v>
+        <v>1.00147</v>
       </c>
       <c r="C63" t="n">
-        <v>0.7514110000000001</v>
+        <v>0.7531</v>
       </c>
       <c r="D63" t="n">
-        <v>0.567477</v>
+        <v>0.561173</v>
       </c>
     </row>
     <row r="64">
@@ -11932,13 +11932,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>1.02183</v>
+        <v>1.00581</v>
       </c>
       <c r="C64" t="n">
-        <v>0.765308</v>
+        <v>0.768056</v>
       </c>
       <c r="D64" t="n">
-        <v>0.570159</v>
+        <v>0.562914</v>
       </c>
     </row>
     <row r="65">
@@ -11946,13 +11946,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>1.03412</v>
+        <v>1.01782</v>
       </c>
       <c r="C65" t="n">
-        <v>0.780227</v>
+        <v>0.784466</v>
       </c>
       <c r="D65" t="n">
-        <v>0.572038</v>
+        <v>0.565334</v>
       </c>
     </row>
     <row r="66">
@@ -11960,13 +11960,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>1.04424</v>
+        <v>1.02852</v>
       </c>
       <c r="C66" t="n">
-        <v>0.791562</v>
+        <v>0.795983</v>
       </c>
       <c r="D66" t="n">
-        <v>0.574282</v>
+        <v>0.567341</v>
       </c>
     </row>
     <row r="67">
@@ -11974,13 +11974,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.0602</v>
+        <v>1.0475</v>
       </c>
       <c r="C67" t="n">
-        <v>0.813585</v>
+        <v>0.8157180000000001</v>
       </c>
       <c r="D67" t="n">
-        <v>0.575669</v>
+        <v>0.56997</v>
       </c>
     </row>
     <row r="68">
@@ -11988,13 +11988,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>1.07393</v>
+        <v>1.07633</v>
       </c>
       <c r="C68" t="n">
-        <v>0.746796</v>
+        <v>0.742168</v>
       </c>
       <c r="D68" t="n">
-        <v>0.594062</v>
+        <v>0.580302</v>
       </c>
     </row>
     <row r="69">
@@ -12002,13 +12002,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>1.02868</v>
+        <v>1.00139</v>
       </c>
       <c r="C69" t="n">
-        <v>0.766326</v>
+        <v>0.760032</v>
       </c>
       <c r="D69" t="n">
-        <v>0.603949</v>
+        <v>0.586041</v>
       </c>
     </row>
     <row r="70">
@@ -12016,13 +12016,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>1.04569</v>
+        <v>1.02107</v>
       </c>
       <c r="C70" t="n">
-        <v>0.7965989999999999</v>
+        <v>0.787281</v>
       </c>
       <c r="D70" t="n">
-        <v>0.615845</v>
+        <v>0.600314</v>
       </c>
     </row>
     <row r="71">
@@ -12030,13 +12030,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>1.07272</v>
+        <v>1.04673</v>
       </c>
       <c r="C71" t="n">
-        <v>0.83095</v>
+        <v>0.821788</v>
       </c>
       <c r="D71" t="n">
-        <v>0.631667</v>
+        <v>0.613959</v>
       </c>
     </row>
     <row r="72">
@@ -12044,13 +12044,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>1.10261</v>
+        <v>1.08615</v>
       </c>
       <c r="C72" t="n">
-        <v>0.864325</v>
+        <v>0.85986</v>
       </c>
       <c r="D72" t="n">
-        <v>0.644319</v>
+        <v>0.637499</v>
       </c>
     </row>
     <row r="73">
@@ -12058,13 +12058,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>1.13552</v>
+        <v>1.12421</v>
       </c>
       <c r="C73" t="n">
-        <v>0.8974490000000001</v>
+        <v>0.895621</v>
       </c>
       <c r="D73" t="n">
-        <v>0.661357</v>
+        <v>0.6598309999999999</v>
       </c>
     </row>
     <row r="74">
@@ -12072,13 +12072,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.16956</v>
+        <v>1.1657</v>
       </c>
       <c r="C74" t="n">
-        <v>0.934055</v>
+        <v>0.938012</v>
       </c>
       <c r="D74" t="n">
-        <v>0.678574</v>
+        <v>0.6807569999999999</v>
       </c>
     </row>
     <row r="75">
@@ -12086,13 +12086,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>1.21274</v>
+        <v>1.21016</v>
       </c>
       <c r="C75" t="n">
-        <v>0.974831</v>
+        <v>0.979787</v>
       </c>
       <c r="D75" t="n">
-        <v>0.701367</v>
+        <v>0.705776</v>
       </c>
     </row>
     <row r="76">
@@ -12100,13 +12100,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>1.2578</v>
+        <v>1.2551</v>
       </c>
       <c r="C76" t="n">
-        <v>1.01982</v>
+        <v>1.02389</v>
       </c>
       <c r="D76" t="n">
-        <v>0.7252110000000001</v>
+        <v>0.729205</v>
       </c>
     </row>
     <row r="77">
@@ -12114,13 +12114,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>1.30669</v>
+        <v>1.30987</v>
       </c>
       <c r="C77" t="n">
-        <v>1.06808</v>
+        <v>1.07317</v>
       </c>
       <c r="D77" t="n">
-        <v>0.750631</v>
+        <v>0.759949</v>
       </c>
     </row>
     <row r="78">
@@ -12128,13 +12128,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>1.36648</v>
+        <v>1.36955</v>
       </c>
       <c r="C78" t="n">
-        <v>1.11692</v>
+        <v>1.12162</v>
       </c>
       <c r="D78" t="n">
-        <v>0.781455</v>
+        <v>0.790065</v>
       </c>
     </row>
     <row r="79">
@@ -12142,13 +12142,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.43072</v>
+        <v>1.44233</v>
       </c>
       <c r="C79" t="n">
-        <v>1.16987</v>
+        <v>1.17804</v>
       </c>
       <c r="D79" t="n">
-        <v>0.818099</v>
+        <v>0.829079</v>
       </c>
     </row>
     <row r="80">
@@ -12156,13 +12156,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.50908</v>
+        <v>1.51689</v>
       </c>
       <c r="C80" t="n">
-        <v>1.23411</v>
+        <v>1.23986</v>
       </c>
       <c r="D80" t="n">
-        <v>0.862891</v>
+        <v>0.869827</v>
       </c>
     </row>
     <row r="81">
@@ -12170,13 +12170,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.58751</v>
+        <v>1.60455</v>
       </c>
       <c r="C81" t="n">
-        <v>1.29628</v>
+        <v>1.30701</v>
       </c>
       <c r="D81" t="n">
-        <v>0.903492</v>
+        <v>0.915357</v>
       </c>
     </row>
     <row r="82">
@@ -12184,13 +12184,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.68161</v>
+        <v>1.6859</v>
       </c>
       <c r="C82" t="n">
-        <v>1.36702</v>
+        <v>1.37237</v>
       </c>
       <c r="D82" t="n">
-        <v>0.958307</v>
+        <v>0.959538</v>
       </c>
     </row>
     <row r="83">
@@ -12198,13 +12198,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.79546</v>
+        <v>1.80078</v>
       </c>
       <c r="C83" t="n">
-        <v>1.3642</v>
+        <v>1.36464</v>
       </c>
       <c r="D83" t="n">
-        <v>1.08729</v>
+        <v>1.07927</v>
       </c>
     </row>
     <row r="84">
@@ -12212,13 +12212,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.82444</v>
+        <v>1.81376</v>
       </c>
       <c r="C84" t="n">
-        <v>1.42936</v>
+        <v>1.42325</v>
       </c>
       <c r="D84" t="n">
-        <v>1.14555</v>
+        <v>1.13344</v>
       </c>
     </row>
     <row r="85">
@@ -12226,13 +12226,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.93281</v>
+        <v>1.91613</v>
       </c>
       <c r="C85" t="n">
-        <v>1.49576</v>
+        <v>1.48711</v>
       </c>
       <c r="D85" t="n">
-        <v>1.20721</v>
+        <v>1.19082</v>
       </c>
     </row>
     <row r="86">
@@ -12240,13 +12240,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>2.03882</v>
+        <v>2.02539</v>
       </c>
       <c r="C86" t="n">
-        <v>1.57078</v>
+        <v>1.56309</v>
       </c>
       <c r="D86" t="n">
-        <v>1.27032</v>
+        <v>1.24811</v>
       </c>
     </row>
     <row r="87">
@@ -12254,13 +12254,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>2.15808</v>
+        <v>2.13088</v>
       </c>
       <c r="C87" t="n">
-        <v>1.64218</v>
+        <v>1.63578</v>
       </c>
       <c r="D87" t="n">
-        <v>1.3333</v>
+        <v>1.30827</v>
       </c>
     </row>
     <row r="88">
@@ -12268,13 +12268,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>2.25638</v>
+        <v>2.23157</v>
       </c>
       <c r="C88" t="n">
-        <v>1.72631</v>
+        <v>1.71542</v>
       </c>
       <c r="D88" t="n">
-        <v>1.39584</v>
+        <v>1.36634</v>
       </c>
     </row>
     <row r="89">
@@ -12282,13 +12282,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>2.38761</v>
+        <v>2.36712</v>
       </c>
       <c r="C89" t="n">
-        <v>1.80444</v>
+        <v>1.79609</v>
       </c>
       <c r="D89" t="n">
-        <v>1.45748</v>
+        <v>1.42278</v>
       </c>
     </row>
     <row r="90">
@@ -12296,13 +12296,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>2.5164</v>
+        <v>2.49303</v>
       </c>
       <c r="C90" t="n">
-        <v>1.88997</v>
+        <v>1.88042</v>
       </c>
       <c r="D90" t="n">
-        <v>1.5146</v>
+        <v>1.48641</v>
       </c>
     </row>
     <row r="91">
@@ -12310,13 +12310,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>2.64229</v>
+        <v>2.62365</v>
       </c>
       <c r="C91" t="n">
-        <v>1.97741</v>
+        <v>1.96935</v>
       </c>
       <c r="D91" t="n">
-        <v>1.5757</v>
+        <v>1.54403</v>
       </c>
     </row>
     <row r="92">
@@ -12324,13 +12324,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>2.76555</v>
+        <v>2.74453</v>
       </c>
       <c r="C92" t="n">
-        <v>2.06499</v>
+        <v>2.06177</v>
       </c>
       <c r="D92" t="n">
-        <v>1.63331</v>
+        <v>1.59429</v>
       </c>
     </row>
     <row r="93">
@@ -12338,13 +12338,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>2.8927</v>
+        <v>2.88292</v>
       </c>
       <c r="C93" t="n">
-        <v>2.15516</v>
+        <v>2.1495</v>
       </c>
       <c r="D93" t="n">
-        <v>1.68836</v>
+        <v>1.64937</v>
       </c>
     </row>
     <row r="94">
@@ -12352,13 +12352,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>3.03671</v>
+        <v>3.00666</v>
       </c>
       <c r="C94" t="n">
-        <v>2.24873</v>
+        <v>2.24647</v>
       </c>
       <c r="D94" t="n">
-        <v>1.7406</v>
+        <v>1.69843</v>
       </c>
     </row>
     <row r="95">
@@ -12366,13 +12366,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>3.16808</v>
+        <v>3.16014</v>
       </c>
       <c r="C95" t="n">
-        <v>2.35476</v>
+        <v>2.3413</v>
       </c>
       <c r="D95" t="n">
-        <v>1.7893</v>
+        <v>1.74687</v>
       </c>
     </row>
     <row r="96">
@@ -12380,13 +12380,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>3.3099</v>
+        <v>3.28718</v>
       </c>
       <c r="C96" t="n">
-        <v>2.46261</v>
+        <v>2.4512</v>
       </c>
       <c r="D96" t="n">
-        <v>1.83505</v>
+        <v>1.79494</v>
       </c>
     </row>
     <row r="97">
@@ -12394,13 +12394,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>3.41975</v>
+        <v>3.42792</v>
       </c>
       <c r="C97" t="n">
-        <v>2.206</v>
+        <v>2.23121</v>
       </c>
       <c r="D97" t="n">
-        <v>1.96999</v>
+        <v>1.92825</v>
       </c>
     </row>
     <row r="98">
@@ -12408,13 +12408,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>3.27329</v>
+        <v>3.27215</v>
       </c>
       <c r="C98" t="n">
-        <v>2.29818</v>
+        <v>2.28873</v>
       </c>
       <c r="D98" t="n">
-        <v>2.01163</v>
+        <v>1.96778</v>
       </c>
     </row>
     <row r="99">
@@ -12422,13 +12422,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>3.36247</v>
+        <v>3.38139</v>
       </c>
       <c r="C99" t="n">
-        <v>2.35202</v>
+        <v>2.36445</v>
       </c>
       <c r="D99" t="n">
-        <v>2.05266</v>
+        <v>2.02317</v>
       </c>
     </row>
     <row r="100">
@@ -12436,13 +12436,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>3.4874</v>
+        <v>3.46128</v>
       </c>
       <c r="C100" t="n">
-        <v>2.42127</v>
+        <v>2.42939</v>
       </c>
       <c r="D100" t="n">
-        <v>2.10259</v>
+        <v>2.06708</v>
       </c>
     </row>
     <row r="101">
@@ -12450,13 +12450,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>3.58728</v>
+        <v>3.59519</v>
       </c>
       <c r="C101" t="n">
-        <v>2.49919</v>
+        <v>2.4919</v>
       </c>
       <c r="D101" t="n">
-        <v>2.11913</v>
+        <v>2.10682</v>
       </c>
     </row>
     <row r="102">
@@ -12464,13 +12464,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>3.69262</v>
+        <v>3.71484</v>
       </c>
       <c r="C102" t="n">
-        <v>2.57194</v>
+        <v>2.56515</v>
       </c>
       <c r="D102" t="n">
-        <v>2.17676</v>
+        <v>2.12416</v>
       </c>
     </row>
     <row r="103">
@@ -12478,13 +12478,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>3.79766</v>
+        <v>3.79257</v>
       </c>
       <c r="C103" t="n">
-        <v>2.64681</v>
+        <v>2.64376</v>
       </c>
       <c r="D103" t="n">
-        <v>2.20521</v>
+        <v>2.18249</v>
       </c>
     </row>
     <row r="104">
@@ -12492,13 +12492,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>3.88628</v>
+        <v>3.9241</v>
       </c>
       <c r="C104" t="n">
-        <v>2.71659</v>
+        <v>2.7289</v>
       </c>
       <c r="D104" t="n">
-        <v>2.2351</v>
+        <v>2.20052</v>
       </c>
     </row>
     <row r="105">
@@ -12506,13 +12506,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>4.01954</v>
+        <v>4.02197</v>
       </c>
       <c r="C105" t="n">
-        <v>2.81083</v>
+        <v>2.80255</v>
       </c>
       <c r="D105" t="n">
-        <v>2.28081</v>
+        <v>2.231</v>
       </c>
     </row>
     <row r="106">
@@ -12520,13 +12520,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>4.09367</v>
+        <v>4.11673</v>
       </c>
       <c r="C106" t="n">
-        <v>2.88542</v>
+        <v>2.88396</v>
       </c>
       <c r="D106" t="n">
-        <v>2.2864</v>
+        <v>2.28229</v>
       </c>
     </row>
     <row r="107">
@@ -12534,13 +12534,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>4.19147</v>
+        <v>4.19074</v>
       </c>
       <c r="C107" t="n">
-        <v>2.96907</v>
+        <v>2.95863</v>
       </c>
       <c r="D107" t="n">
-        <v>2.3249</v>
+        <v>2.29229</v>
       </c>
     </row>
     <row r="108">
@@ -12548,13 +12548,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>4.3212</v>
+        <v>4.33161</v>
       </c>
       <c r="C108" t="n">
-        <v>3.05574</v>
+        <v>3.04651</v>
       </c>
       <c r="D108" t="n">
-        <v>2.36782</v>
+        <v>2.33306</v>
       </c>
     </row>
     <row r="109">
@@ -12562,13 +12562,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>4.40786</v>
+        <v>4.43867</v>
       </c>
       <c r="C109" t="n">
-        <v>3.15634</v>
+        <v>3.13159</v>
       </c>
       <c r="D109" t="n">
-        <v>2.39388</v>
+        <v>2.34677</v>
       </c>
     </row>
     <row r="110">
@@ -12576,13 +12576,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>4.52903</v>
+        <v>4.55907</v>
       </c>
       <c r="C110" t="n">
-        <v>3.22573</v>
+        <v>3.21482</v>
       </c>
       <c r="D110" t="n">
-        <v>2.41645</v>
+        <v>2.38725</v>
       </c>
     </row>
     <row r="111">
@@ -12590,13 +12590,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>4.66612</v>
+        <v>4.65244</v>
       </c>
       <c r="C111" t="n">
-        <v>2.84806</v>
+        <v>2.84774</v>
       </c>
       <c r="D111" t="n">
-        <v>2.50653</v>
+        <v>2.48513</v>
       </c>
     </row>
     <row r="112">
@@ -12604,13 +12604,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>4.3053</v>
+        <v>4.31429</v>
       </c>
       <c r="C112" t="n">
-        <v>2.91413</v>
+        <v>2.89553</v>
       </c>
       <c r="D112" t="n">
-        <v>2.53457</v>
+        <v>2.49909</v>
       </c>
     </row>
     <row r="113">
@@ -12618,13 +12618,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>4.35667</v>
+        <v>4.38924</v>
       </c>
       <c r="C113" t="n">
-        <v>2.98727</v>
+        <v>2.98073</v>
       </c>
       <c r="D113" t="n">
-        <v>2.56561</v>
+        <v>2.52355</v>
       </c>
     </row>
     <row r="114">
@@ -12632,13 +12632,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>4.46179</v>
+        <v>4.45392</v>
       </c>
       <c r="C114" t="n">
-        <v>3.0328</v>
+        <v>3.02222</v>
       </c>
       <c r="D114" t="n">
-        <v>2.57313</v>
+        <v>2.55878</v>
       </c>
     </row>
     <row r="115">
@@ -12646,13 +12646,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>4.5508</v>
+        <v>4.55165</v>
       </c>
       <c r="C115" t="n">
-        <v>3.09825</v>
+        <v>3.07932</v>
       </c>
       <c r="D115" t="n">
-        <v>2.61323</v>
+        <v>2.56765</v>
       </c>
     </row>
     <row r="116">
@@ -12660,13 +12660,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>4.63045</v>
+        <v>4.64407</v>
       </c>
       <c r="C116" t="n">
-        <v>3.15507</v>
+        <v>3.15678</v>
       </c>
       <c r="D116" t="n">
-        <v>2.62045</v>
+        <v>2.60175</v>
       </c>
     </row>
     <row r="117">
@@ -12674,13 +12674,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>4.7176</v>
+        <v>4.72407</v>
       </c>
       <c r="C117" t="n">
-        <v>3.21895</v>
+        <v>3.21325</v>
       </c>
       <c r="D117" t="n">
-        <v>2.65185</v>
+        <v>2.61127</v>
       </c>
     </row>
     <row r="118">
@@ -12688,13 +12688,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>4.81582</v>
+        <v>4.8137</v>
       </c>
       <c r="C118" t="n">
-        <v>3.30208</v>
+        <v>3.28595</v>
       </c>
       <c r="D118" t="n">
-        <v>2.6741</v>
+        <v>2.63059</v>
       </c>
     </row>
     <row r="119">
@@ -12702,13 +12702,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>4.90111</v>
+        <v>4.90937</v>
       </c>
       <c r="C119" t="n">
-        <v>3.38083</v>
+        <v>3.37113</v>
       </c>
       <c r="D119" t="n">
-        <v>2.70425</v>
+        <v>2.66222</v>
       </c>
     </row>
   </sheetData>

--- a/clang_libcpp/scattered erasure.xlsx
+++ b/clang_libcpp/scattered erasure.xlsx
@@ -7680,13 +7680,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.397589</v>
+        <v>0.401891</v>
       </c>
       <c r="C2" t="n">
-        <v>0.172865</v>
+        <v>0.177621</v>
       </c>
       <c r="D2" t="n">
-        <v>0.223682</v>
+        <v>0.232094</v>
       </c>
     </row>
     <row r="3">
@@ -7694,13 +7694,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.399806</v>
+        <v>0.407259</v>
       </c>
       <c r="C3" t="n">
-        <v>0.175444</v>
+        <v>0.179777</v>
       </c>
       <c r="D3" t="n">
-        <v>0.231048</v>
+        <v>0.238093</v>
       </c>
     </row>
     <row r="4">
@@ -7708,13 +7708,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.406338</v>
+        <v>0.41234</v>
       </c>
       <c r="C4" t="n">
-        <v>0.179322</v>
+        <v>0.182594</v>
       </c>
       <c r="D4" t="n">
-        <v>0.239081</v>
+        <v>0.244118</v>
       </c>
     </row>
     <row r="5">
@@ -7722,13 +7722,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.413068</v>
+        <v>0.422192</v>
       </c>
       <c r="C5" t="n">
-        <v>0.183111</v>
+        <v>0.184584</v>
       </c>
       <c r="D5" t="n">
-        <v>0.24677</v>
+        <v>0.245871</v>
       </c>
     </row>
     <row r="6">
@@ -7736,13 +7736,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.420134</v>
+        <v>0.422213</v>
       </c>
       <c r="C6" t="n">
-        <v>0.186981</v>
+        <v>0.188217</v>
       </c>
       <c r="D6" t="n">
-        <v>0.252559</v>
+        <v>0.250097</v>
       </c>
     </row>
     <row r="7">
@@ -7750,13 +7750,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.423801</v>
+        <v>0.427639</v>
       </c>
       <c r="C7" t="n">
-        <v>0.172336</v>
+        <v>0.173458</v>
       </c>
       <c r="D7" t="n">
-        <v>0.24739</v>
+        <v>0.248229</v>
       </c>
     </row>
     <row r="8">
@@ -7764,13 +7764,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.40111</v>
+        <v>0.401579</v>
       </c>
       <c r="C8" t="n">
-        <v>0.174785</v>
+        <v>0.175505</v>
       </c>
       <c r="D8" t="n">
-        <v>0.252978</v>
+        <v>0.251722</v>
       </c>
     </row>
     <row r="9">
@@ -7778,13 +7778,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.404903</v>
+        <v>0.407709</v>
       </c>
       <c r="C9" t="n">
-        <v>0.17668</v>
+        <v>0.177611</v>
       </c>
       <c r="D9" t="n">
-        <v>0.258407</v>
+        <v>0.260773</v>
       </c>
     </row>
     <row r="10">
@@ -7792,13 +7792,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.413432</v>
+        <v>0.417241</v>
       </c>
       <c r="C10" t="n">
-        <v>0.178832</v>
+        <v>0.17955</v>
       </c>
       <c r="D10" t="n">
-        <v>0.261848</v>
+        <v>0.26375</v>
       </c>
     </row>
     <row r="11">
@@ -7806,13 +7806,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.419217</v>
+        <v>0.421563</v>
       </c>
       <c r="C11" t="n">
-        <v>0.180232</v>
+        <v>0.180794</v>
       </c>
       <c r="D11" t="n">
-        <v>0.26796</v>
+        <v>0.268376</v>
       </c>
     </row>
     <row r="12">
@@ -7820,13 +7820,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.425588</v>
+        <v>0.426373</v>
       </c>
       <c r="C12" t="n">
-        <v>0.182649</v>
+        <v>0.18351</v>
       </c>
       <c r="D12" t="n">
-        <v>0.270697</v>
+        <v>0.272215</v>
       </c>
     </row>
     <row r="13">
@@ -7834,13 +7834,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.428643</v>
+        <v>0.432389</v>
       </c>
       <c r="C13" t="n">
-        <v>0.185286</v>
+        <v>0.18589</v>
       </c>
       <c r="D13" t="n">
-        <v>0.276417</v>
+        <v>0.277064</v>
       </c>
     </row>
     <row r="14">
@@ -7848,13 +7848,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.436343</v>
+        <v>0.440902</v>
       </c>
       <c r="C14" t="n">
-        <v>0.187697</v>
+        <v>0.188089</v>
       </c>
       <c r="D14" t="n">
-        <v>0.281768</v>
+        <v>0.281479</v>
       </c>
     </row>
     <row r="15">
@@ -7862,13 +7862,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.443289</v>
+        <v>0.445643</v>
       </c>
       <c r="C15" t="n">
-        <v>0.19002</v>
+        <v>0.190588</v>
       </c>
       <c r="D15" t="n">
-        <v>0.286358</v>
+        <v>0.285997</v>
       </c>
     </row>
     <row r="16">
@@ -7876,13 +7876,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.449359</v>
+        <v>0.448755</v>
       </c>
       <c r="C16" t="n">
-        <v>0.192734</v>
+        <v>0.192735</v>
       </c>
       <c r="D16" t="n">
-        <v>0.291134</v>
+        <v>0.288609</v>
       </c>
     </row>
     <row r="17">
@@ -7890,13 +7890,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.456713</v>
+        <v>0.453953</v>
       </c>
       <c r="C17" t="n">
-        <v>0.194712</v>
+        <v>0.194757</v>
       </c>
       <c r="D17" t="n">
-        <v>0.295218</v>
+        <v>0.29581</v>
       </c>
     </row>
     <row r="18">
@@ -7904,13 +7904,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.459565</v>
+        <v>0.460563</v>
       </c>
       <c r="C18" t="n">
-        <v>0.197659</v>
+        <v>0.197449</v>
       </c>
       <c r="D18" t="n">
-        <v>0.300274</v>
+        <v>0.299544</v>
       </c>
     </row>
     <row r="19">
@@ -7918,13 +7918,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.464959</v>
+        <v>0.464637</v>
       </c>
       <c r="C19" t="n">
-        <v>0.200666</v>
+        <v>0.200368</v>
       </c>
       <c r="D19" t="n">
-        <v>0.30463</v>
+        <v>0.30616</v>
       </c>
     </row>
     <row r="20">
@@ -7932,13 +7932,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.472416</v>
+        <v>0.47584</v>
       </c>
       <c r="C20" t="n">
-        <v>0.20267</v>
+        <v>0.203698</v>
       </c>
       <c r="D20" t="n">
-        <v>0.308829</v>
+        <v>0.310245</v>
       </c>
     </row>
     <row r="21">
@@ -7946,13 +7946,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.477864</v>
+        <v>0.47946</v>
       </c>
       <c r="C21" t="n">
-        <v>0.183948</v>
+        <v>0.183726</v>
       </c>
       <c r="D21" t="n">
-        <v>0.307599</v>
+        <v>0.308946</v>
       </c>
     </row>
     <row r="22">
@@ -7960,13 +7960,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.456801</v>
+        <v>0.45774</v>
       </c>
       <c r="C22" t="n">
-        <v>0.185616</v>
+        <v>0.185742</v>
       </c>
       <c r="D22" t="n">
-        <v>0.310711</v>
+        <v>0.311999</v>
       </c>
     </row>
     <row r="23">
@@ -7974,13 +7974,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.462224</v>
+        <v>0.463538</v>
       </c>
       <c r="C23" t="n">
-        <v>0.187535</v>
+        <v>0.187583</v>
       </c>
       <c r="D23" t="n">
-        <v>0.312957</v>
+        <v>0.315065</v>
       </c>
     </row>
     <row r="24">
@@ -7988,13 +7988,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.465278</v>
+        <v>0.466146</v>
       </c>
       <c r="C24" t="n">
-        <v>0.189336</v>
+        <v>0.189659</v>
       </c>
       <c r="D24" t="n">
-        <v>0.318038</v>
+        <v>0.318868</v>
       </c>
     </row>
     <row r="25">
@@ -8002,13 +8002,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.47059</v>
+        <v>0.472991</v>
       </c>
       <c r="C25" t="n">
-        <v>0.191013</v>
+        <v>0.191302</v>
       </c>
       <c r="D25" t="n">
-        <v>0.318973</v>
+        <v>0.321268</v>
       </c>
     </row>
     <row r="26">
@@ -8016,13 +8016,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.473988</v>
+        <v>0.475162</v>
       </c>
       <c r="C26" t="n">
-        <v>0.193199</v>
+        <v>0.193526</v>
       </c>
       <c r="D26" t="n">
-        <v>0.323459</v>
+        <v>0.324003</v>
       </c>
     </row>
     <row r="27">
@@ -8030,13 +8030,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.478647</v>
+        <v>0.479077</v>
       </c>
       <c r="C27" t="n">
-        <v>0.194964</v>
+        <v>0.195493</v>
       </c>
       <c r="D27" t="n">
-        <v>0.326506</v>
+        <v>0.327132</v>
       </c>
     </row>
     <row r="28">
@@ -8044,13 +8044,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.481911</v>
+        <v>0.483677</v>
       </c>
       <c r="C28" t="n">
-        <v>0.197468</v>
+        <v>0.197866</v>
       </c>
       <c r="D28" t="n">
-        <v>0.330105</v>
+        <v>0.330563</v>
       </c>
     </row>
     <row r="29">
@@ -8058,13 +8058,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.487277</v>
+        <v>0.488411</v>
       </c>
       <c r="C29" t="n">
-        <v>0.19998</v>
+        <v>0.200202</v>
       </c>
       <c r="D29" t="n">
-        <v>0.332587</v>
+        <v>0.333035</v>
       </c>
     </row>
     <row r="30">
@@ -8072,13 +8072,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.490779</v>
+        <v>0.492775</v>
       </c>
       <c r="C30" t="n">
-        <v>0.202205</v>
+        <v>0.202596</v>
       </c>
       <c r="D30" t="n">
-        <v>0.335362</v>
+        <v>0.335802</v>
       </c>
     </row>
     <row r="31">
@@ -8086,13 +8086,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.495761</v>
+        <v>0.496772</v>
       </c>
       <c r="C31" t="n">
-        <v>0.205158</v>
+        <v>0.205084</v>
       </c>
       <c r="D31" t="n">
-        <v>0.338556</v>
+        <v>0.339176</v>
       </c>
     </row>
     <row r="32">
@@ -8100,13 +8100,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.500412</v>
+        <v>0.500772</v>
       </c>
       <c r="C32" t="n">
-        <v>0.206817</v>
+        <v>0.207299</v>
       </c>
       <c r="D32" t="n">
-        <v>0.341626</v>
+        <v>0.341201</v>
       </c>
     </row>
     <row r="33">
@@ -8114,13 +8114,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.5068279999999999</v>
+        <v>0.506613</v>
       </c>
       <c r="C33" t="n">
-        <v>0.209755</v>
+        <v>0.20967</v>
       </c>
       <c r="D33" t="n">
-        <v>0.345011</v>
+        <v>0.344422</v>
       </c>
     </row>
     <row r="34">
@@ -8128,13 +8128,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.511642</v>
+        <v>0.5117969999999999</v>
       </c>
       <c r="C34" t="n">
-        <v>0.212</v>
+        <v>0.212659</v>
       </c>
       <c r="D34" t="n">
-        <v>0.347239</v>
+        <v>0.347288</v>
       </c>
     </row>
     <row r="35">
@@ -8142,13 +8142,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.515923</v>
+        <v>0.516298</v>
       </c>
       <c r="C35" t="n">
-        <v>0.188753</v>
+        <v>0.18892</v>
       </c>
       <c r="D35" t="n">
-        <v>0.34006</v>
+        <v>0.341788</v>
       </c>
     </row>
     <row r="36">
@@ -8156,13 +8156,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.488933</v>
+        <v>0.488644</v>
       </c>
       <c r="C36" t="n">
-        <v>0.190311</v>
+        <v>0.190493</v>
       </c>
       <c r="D36" t="n">
-        <v>0.341889</v>
+        <v>0.343456</v>
       </c>
     </row>
     <row r="37">
@@ -8170,13 +8170,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.492164</v>
+        <v>0.492186</v>
       </c>
       <c r="C37" t="n">
-        <v>0.192461</v>
+        <v>0.192731</v>
       </c>
       <c r="D37" t="n">
-        <v>0.342322</v>
+        <v>0.345097</v>
       </c>
     </row>
     <row r="38">
@@ -8184,13 +8184,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.495122</v>
+        <v>0.494876</v>
       </c>
       <c r="C38" t="n">
-        <v>0.193665</v>
+        <v>0.194307</v>
       </c>
       <c r="D38" t="n">
-        <v>0.345926</v>
+        <v>0.346775</v>
       </c>
     </row>
     <row r="39">
@@ -8198,13 +8198,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.496425</v>
+        <v>0.497384</v>
       </c>
       <c r="C39" t="n">
-        <v>0.195877</v>
+        <v>0.196174</v>
       </c>
       <c r="D39" t="n">
-        <v>0.347489</v>
+        <v>0.348614</v>
       </c>
     </row>
     <row r="40">
@@ -8212,13 +8212,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.5011640000000001</v>
+        <v>0.500989</v>
       </c>
       <c r="C40" t="n">
-        <v>0.197685</v>
+        <v>0.198177</v>
       </c>
       <c r="D40" t="n">
-        <v>0.350457</v>
+        <v>0.350511</v>
       </c>
     </row>
     <row r="41">
@@ -8226,13 +8226,13 @@
         <v>66357</v>
       </c>
       <c r="B41" t="n">
-        <v>0.503684</v>
+        <v>0.504072</v>
       </c>
       <c r="C41" t="n">
-        <v>0.199568</v>
+        <v>0.19997</v>
       </c>
       <c r="D41" t="n">
-        <v>0.351451</v>
+        <v>0.35233</v>
       </c>
     </row>
     <row r="42">
@@ -8240,13 +8240,13 @@
         <v>69656</v>
       </c>
       <c r="B42" t="n">
-        <v>0.506427</v>
+        <v>0.507984</v>
       </c>
       <c r="C42" t="n">
-        <v>0.201935</v>
+        <v>0.202591</v>
       </c>
       <c r="D42" t="n">
-        <v>0.353959</v>
+        <v>0.353811</v>
       </c>
     </row>
     <row r="43">
@@ -8254,13 +8254,13 @@
         <v>73119</v>
       </c>
       <c r="B43" t="n">
-        <v>0.510534</v>
+        <v>0.5108510000000001</v>
       </c>
       <c r="C43" t="n">
-        <v>0.203406</v>
+        <v>0.203812</v>
       </c>
       <c r="D43" t="n">
-        <v>0.355508</v>
+        <v>0.355484</v>
       </c>
     </row>
     <row r="44">
@@ -8268,13 +8268,13 @@
         <v>76755</v>
       </c>
       <c r="B44" t="n">
-        <v>0.513611</v>
+        <v>0.513577</v>
       </c>
       <c r="C44" t="n">
-        <v>0.205672</v>
+        <v>0.205912</v>
       </c>
       <c r="D44" t="n">
-        <v>0.357611</v>
+        <v>0.357609</v>
       </c>
     </row>
     <row r="45">
@@ -8282,13 +8282,13 @@
         <v>80572</v>
       </c>
       <c r="B45" t="n">
-        <v>0.517408</v>
+        <v>0.517092</v>
       </c>
       <c r="C45" t="n">
-        <v>0.208848</v>
+        <v>0.208703</v>
       </c>
       <c r="D45" t="n">
-        <v>0.359808</v>
+        <v>0.359533</v>
       </c>
     </row>
     <row r="46">
@@ -8296,13 +8296,13 @@
         <v>84579</v>
       </c>
       <c r="B46" t="n">
-        <v>0.521845</v>
+        <v>0.521265</v>
       </c>
       <c r="C46" t="n">
-        <v>0.21136</v>
+        <v>0.211045</v>
       </c>
       <c r="D46" t="n">
-        <v>0.361853</v>
+        <v>0.361747</v>
       </c>
     </row>
     <row r="47">
@@ -8310,13 +8310,13 @@
         <v>88786</v>
       </c>
       <c r="B47" t="n">
-        <v>0.525585</v>
+        <v>0.525656</v>
       </c>
       <c r="C47" t="n">
-        <v>0.213918</v>
+        <v>0.214163</v>
       </c>
       <c r="D47" t="n">
-        <v>0.36471</v>
+        <v>0.364285</v>
       </c>
     </row>
     <row r="48">
@@ -8324,13 +8324,13 @@
         <v>93203</v>
       </c>
       <c r="B48" t="n">
-        <v>0.531017</v>
+        <v>0.530699</v>
       </c>
       <c r="C48" t="n">
-        <v>0.217227</v>
+        <v>0.216963</v>
       </c>
       <c r="D48" t="n">
-        <v>0.366502</v>
+        <v>0.366038</v>
       </c>
     </row>
     <row r="49">
@@ -8338,13 +8338,13 @@
         <v>97840</v>
       </c>
       <c r="B49" t="n">
-        <v>0.535129</v>
+        <v>0.534412</v>
       </c>
       <c r="C49" t="n">
-        <v>0.219174</v>
+        <v>0.219666</v>
       </c>
       <c r="D49" t="n">
-        <v>0.368184</v>
+        <v>0.367724</v>
       </c>
     </row>
     <row r="50">
@@ -8352,13 +8352,13 @@
         <v>102706</v>
       </c>
       <c r="B50" t="n">
-        <v>0.539481</v>
+        <v>0.5389699999999999</v>
       </c>
       <c r="C50" t="n">
-        <v>0.194144</v>
+        <v>0.194679</v>
       </c>
       <c r="D50" t="n">
-        <v>0.357864</v>
+        <v>0.359227</v>
       </c>
     </row>
     <row r="51">
@@ -8366,13 +8366,13 @@
         <v>107816</v>
       </c>
       <c r="B51" t="n">
-        <v>0.50801</v>
+        <v>0.507995</v>
       </c>
       <c r="C51" t="n">
-        <v>0.197848</v>
+        <v>0.196627</v>
       </c>
       <c r="D51" t="n">
-        <v>0.359409</v>
+        <v>0.358556</v>
       </c>
     </row>
     <row r="52">
@@ -8380,13 +8380,13 @@
         <v>113182</v>
       </c>
       <c r="B52" t="n">
-        <v>0.511327</v>
+        <v>0.510373</v>
       </c>
       <c r="C52" t="n">
-        <v>0.198192</v>
+        <v>0.197777</v>
       </c>
       <c r="D52" t="n">
-        <v>0.361013</v>
+        <v>0.360422</v>
       </c>
     </row>
     <row r="53">
@@ -8394,13 +8394,13 @@
         <v>118816</v>
       </c>
       <c r="B53" t="n">
-        <v>0.512043</v>
+        <v>0.512559</v>
       </c>
       <c r="C53" t="n">
-        <v>0.199608</v>
+        <v>0.200328</v>
       </c>
       <c r="D53" t="n">
-        <v>0.362329</v>
+        <v>0.361971</v>
       </c>
     </row>
     <row r="54">
@@ -8408,13 +8408,13 @@
         <v>124731</v>
       </c>
       <c r="B54" t="n">
-        <v>0.5149</v>
+        <v>0.515209</v>
       </c>
       <c r="C54" t="n">
-        <v>0.203718</v>
+        <v>0.203596</v>
       </c>
       <c r="D54" t="n">
-        <v>0.363002</v>
+        <v>0.362177</v>
       </c>
     </row>
     <row r="55">
@@ -8422,13 +8422,13 @@
         <v>130941</v>
       </c>
       <c r="B55" t="n">
-        <v>0.517312</v>
+        <v>0.518062</v>
       </c>
       <c r="C55" t="n">
-        <v>0.209799</v>
+        <v>0.205939</v>
       </c>
       <c r="D55" t="n">
-        <v>0.365156</v>
+        <v>0.364844</v>
       </c>
     </row>
     <row r="56">
@@ -8436,13 +8436,13 @@
         <v>137461</v>
       </c>
       <c r="B56" t="n">
-        <v>0.5205419999999999</v>
+        <v>0.52032</v>
       </c>
       <c r="C56" t="n">
-        <v>0.217609</v>
+        <v>0.211296</v>
       </c>
       <c r="D56" t="n">
-        <v>0.366456</v>
+        <v>0.365964</v>
       </c>
     </row>
     <row r="57">
@@ -8450,13 +8450,13 @@
         <v>144307</v>
       </c>
       <c r="B57" t="n">
-        <v>0.52376</v>
+        <v>0.524648</v>
       </c>
       <c r="C57" t="n">
-        <v>0.216079</v>
+        <v>0.219009</v>
       </c>
       <c r="D57" t="n">
-        <v>0.372566</v>
+        <v>0.367554</v>
       </c>
     </row>
     <row r="58">
@@ -8464,13 +8464,13 @@
         <v>151495</v>
       </c>
       <c r="B58" t="n">
-        <v>0.532656</v>
+        <v>0.528598</v>
       </c>
       <c r="C58" t="n">
-        <v>0.223118</v>
+        <v>0.218336</v>
       </c>
       <c r="D58" t="n">
-        <v>0.374471</v>
+        <v>0.369153</v>
       </c>
     </row>
     <row r="59">
@@ -8478,13 +8478,13 @@
         <v>159042</v>
       </c>
       <c r="B59" t="n">
-        <v>0.531982</v>
+        <v>0.5319700000000001</v>
       </c>
       <c r="C59" t="n">
-        <v>0.23026</v>
+        <v>0.227009</v>
       </c>
       <c r="D59" t="n">
-        <v>0.371147</v>
+        <v>0.368911</v>
       </c>
     </row>
     <row r="60">
@@ -8492,13 +8492,13 @@
         <v>166965</v>
       </c>
       <c r="B60" t="n">
-        <v>0.536521</v>
+        <v>0.534255</v>
       </c>
       <c r="C60" t="n">
-        <v>0.233913</v>
+        <v>0.226508</v>
       </c>
       <c r="D60" t="n">
-        <v>0.382256</v>
+        <v>0.373403</v>
       </c>
     </row>
     <row r="61">
@@ -8506,13 +8506,13 @@
         <v>175284</v>
       </c>
       <c r="B61" t="n">
-        <v>0.539635</v>
+        <v>0.5386840000000001</v>
       </c>
       <c r="C61" t="n">
-        <v>0.236721</v>
+        <v>0.233107</v>
       </c>
       <c r="D61" t="n">
-        <v>0.377523</v>
+        <v>0.37564</v>
       </c>
     </row>
     <row r="62">
@@ -8520,13 +8520,13 @@
         <v>184019</v>
       </c>
       <c r="B62" t="n">
-        <v>0.5465950000000001</v>
+        <v>0.543616</v>
       </c>
       <c r="C62" t="n">
-        <v>0.242277</v>
+        <v>0.242442</v>
       </c>
       <c r="D62" t="n">
-        <v>0.38034</v>
+        <v>0.377866</v>
       </c>
     </row>
     <row r="63">
@@ -8534,13 +8534,13 @@
         <v>193190</v>
       </c>
       <c r="B63" t="n">
-        <v>0.5508110000000001</v>
+        <v>0.549309</v>
       </c>
       <c r="C63" t="n">
-        <v>0.254085</v>
+        <v>0.250233</v>
       </c>
       <c r="D63" t="n">
-        <v>0.383157</v>
+        <v>0.383219</v>
       </c>
     </row>
     <row r="64">
@@ -8548,13 +8548,13 @@
         <v>202820</v>
       </c>
       <c r="B64" t="n">
-        <v>0.557346</v>
+        <v>0.5586680000000001</v>
       </c>
       <c r="C64" t="n">
-        <v>0.300082</v>
+        <v>0.295485</v>
       </c>
       <c r="D64" t="n">
-        <v>0.41233</v>
+        <v>0.416662</v>
       </c>
     </row>
     <row r="65">
@@ -8562,13 +8562,13 @@
         <v>212931</v>
       </c>
       <c r="B65" t="n">
-        <v>0.586138</v>
+        <v>0.588566</v>
       </c>
       <c r="C65" t="n">
-        <v>0.314698</v>
+        <v>0.315177</v>
       </c>
       <c r="D65" t="n">
-        <v>0.425362</v>
+        <v>0.4261</v>
       </c>
     </row>
     <row r="66">
@@ -8576,13 +8576,13 @@
         <v>223547</v>
       </c>
       <c r="B66" t="n">
-        <v>0.605959</v>
+        <v>0.601679</v>
       </c>
       <c r="C66" t="n">
-        <v>0.324106</v>
+        <v>0.324419</v>
       </c>
       <c r="D66" t="n">
-        <v>0.427455</v>
+        <v>0.428433</v>
       </c>
     </row>
     <row r="67">
@@ -8590,13 +8590,13 @@
         <v>234692</v>
       </c>
       <c r="B67" t="n">
-        <v>0.6047630000000001</v>
+        <v>0.61391</v>
       </c>
       <c r="C67" t="n">
-        <v>0.349043</v>
+        <v>0.336435</v>
       </c>
       <c r="D67" t="n">
-        <v>0.436947</v>
+        <v>0.437698</v>
       </c>
     </row>
     <row r="68">
@@ -8604,13 +8604,13 @@
         <v>246395</v>
       </c>
       <c r="B68" t="n">
-        <v>0.628064</v>
+        <v>0.6301369999999999</v>
       </c>
       <c r="C68" t="n">
-        <v>0.362304</v>
+        <v>0.354226</v>
       </c>
       <c r="D68" t="n">
-        <v>0.449977</v>
+        <v>0.456811</v>
       </c>
     </row>
     <row r="69">
@@ -8618,13 +8618,13 @@
         <v>258683</v>
       </c>
       <c r="B69" t="n">
-        <v>0.644824</v>
+        <v>0.640975</v>
       </c>
       <c r="C69" t="n">
-        <v>0.383893</v>
+        <v>0.376489</v>
       </c>
       <c r="D69" t="n">
-        <v>0.469138</v>
+        <v>0.466827</v>
       </c>
     </row>
     <row r="70">
@@ -8632,13 +8632,13 @@
         <v>271585</v>
       </c>
       <c r="B70" t="n">
-        <v>0.672225</v>
+        <v>0.6674</v>
       </c>
       <c r="C70" t="n">
-        <v>0.400331</v>
+        <v>0.388504</v>
       </c>
       <c r="D70" t="n">
-        <v>0.504745</v>
+        <v>0.473034</v>
       </c>
     </row>
     <row r="71">
@@ -8646,13 +8646,13 @@
         <v>285132</v>
       </c>
       <c r="B71" t="n">
-        <v>0.706562</v>
+        <v>0.683779</v>
       </c>
       <c r="C71" t="n">
-        <v>0.421546</v>
+        <v>0.420479</v>
       </c>
       <c r="D71" t="n">
-        <v>0.514115</v>
+        <v>0.506791</v>
       </c>
     </row>
     <row r="72">
@@ -8660,13 +8660,13 @@
         <v>299354</v>
       </c>
       <c r="B72" t="n">
-        <v>0.724197</v>
+        <v>0.719678</v>
       </c>
       <c r="C72" t="n">
-        <v>0.438143</v>
+        <v>0.432339</v>
       </c>
       <c r="D72" t="n">
-        <v>0.538809</v>
+        <v>0.524583</v>
       </c>
     </row>
     <row r="73">
@@ -8674,13 +8674,13 @@
         <v>314289</v>
       </c>
       <c r="B73" t="n">
-        <v>0.74985</v>
+        <v>0.745902</v>
       </c>
       <c r="C73" t="n">
-        <v>0.456047</v>
+        <v>0.453104</v>
       </c>
       <c r="D73" t="n">
-        <v>0.553096</v>
+        <v>0.549795</v>
       </c>
     </row>
     <row r="74">
@@ -8688,13 +8688,13 @@
         <v>329969</v>
       </c>
       <c r="B74" t="n">
-        <v>0.777612</v>
+        <v>0.779345</v>
       </c>
       <c r="C74" t="n">
-        <v>0.470869</v>
+        <v>0.471777</v>
       </c>
       <c r="D74" t="n">
-        <v>0.586203</v>
+        <v>0.574573</v>
       </c>
     </row>
     <row r="75">
@@ -8702,13 +8702,13 @@
         <v>346432</v>
       </c>
       <c r="B75" t="n">
-        <v>0.836164</v>
+        <v>0.824064</v>
       </c>
       <c r="C75" t="n">
-        <v>0.501088</v>
+        <v>0.494689</v>
       </c>
       <c r="D75" t="n">
-        <v>0.6206700000000001</v>
+        <v>0.608006</v>
       </c>
     </row>
     <row r="76">
@@ -8716,13 +8716,13 @@
         <v>363719</v>
       </c>
       <c r="B76" t="n">
-        <v>0.8551</v>
+        <v>0.865293</v>
       </c>
       <c r="C76" t="n">
-        <v>0.508938</v>
+        <v>0.513937</v>
       </c>
       <c r="D76" t="n">
-        <v>0.6344379999999999</v>
+        <v>0.642352</v>
       </c>
     </row>
     <row r="77">
@@ -8730,13 +8730,13 @@
         <v>381870</v>
       </c>
       <c r="B77" t="n">
-        <v>0.907796</v>
+        <v>0.918925</v>
       </c>
       <c r="C77" t="n">
-        <v>0.536514</v>
+        <v>0.534475</v>
       </c>
       <c r="D77" t="n">
-        <v>0.670948</v>
+        <v>0.681099</v>
       </c>
     </row>
     <row r="78">
@@ -8744,13 +8744,13 @@
         <v>400928</v>
       </c>
       <c r="B78" t="n">
-        <v>0.94839</v>
+        <v>0.957457</v>
       </c>
       <c r="C78" t="n">
-        <v>0.625306</v>
+        <v>0.625313</v>
       </c>
       <c r="D78" t="n">
-        <v>0.891576</v>
+        <v>0.8954490000000001</v>
       </c>
     </row>
     <row r="79">
@@ -8758,13 +8758,13 @@
         <v>420937</v>
       </c>
       <c r="B79" t="n">
-        <v>1.22587</v>
+        <v>1.22484</v>
       </c>
       <c r="C79" t="n">
-        <v>0.638854</v>
+        <v>0.640141</v>
       </c>
       <c r="D79" t="n">
-        <v>0.935574</v>
+        <v>0.935609</v>
       </c>
     </row>
     <row r="80">
@@ -8772,13 +8772,13 @@
         <v>441947</v>
       </c>
       <c r="B80" t="n">
-        <v>1.27775</v>
+        <v>1.27385</v>
       </c>
       <c r="C80" t="n">
-        <v>0.653278</v>
+        <v>0.649756</v>
       </c>
       <c r="D80" t="n">
-        <v>0.973395</v>
+        <v>0.969865</v>
       </c>
     </row>
     <row r="81">
@@ -8786,13 +8786,13 @@
         <v>464005</v>
       </c>
       <c r="B81" t="n">
-        <v>1.32402</v>
+        <v>1.32115</v>
       </c>
       <c r="C81" t="n">
-        <v>0.663127</v>
+        <v>0.6627420000000001</v>
       </c>
       <c r="D81" t="n">
-        <v>1.01515</v>
+        <v>1.01622</v>
       </c>
     </row>
     <row r="82">
@@ -8800,13 +8800,13 @@
         <v>487165</v>
       </c>
       <c r="B82" t="n">
-        <v>1.37963</v>
+        <v>1.37854</v>
       </c>
       <c r="C82" t="n">
-        <v>0.6780310000000001</v>
+        <v>0.674316</v>
       </c>
       <c r="D82" t="n">
-        <v>1.05439</v>
+        <v>1.05062</v>
       </c>
     </row>
     <row r="83">
@@ -8814,13 +8814,13 @@
         <v>511485</v>
       </c>
       <c r="B83" t="n">
-        <v>1.42827</v>
+        <v>1.42715</v>
       </c>
       <c r="C83" t="n">
-        <v>0.687901</v>
+        <v>0.687702</v>
       </c>
       <c r="D83" t="n">
-        <v>1.09489</v>
+        <v>1.09694</v>
       </c>
     </row>
     <row r="84">
@@ -8828,13 +8828,13 @@
         <v>537019</v>
       </c>
       <c r="B84" t="n">
-        <v>1.47857</v>
+        <v>1.4836</v>
       </c>
       <c r="C84" t="n">
-        <v>0.700975</v>
+        <v>0.70082</v>
       </c>
       <c r="D84" t="n">
-        <v>1.13567</v>
+        <v>1.13206</v>
       </c>
     </row>
     <row r="85">
@@ -8842,13 +8842,13 @@
         <v>563827</v>
       </c>
       <c r="B85" t="n">
-        <v>1.52851</v>
+        <v>1.52627</v>
       </c>
       <c r="C85" t="n">
-        <v>0.711515</v>
+        <v>0.710471</v>
       </c>
       <c r="D85" t="n">
-        <v>1.1716</v>
+        <v>1.17023</v>
       </c>
     </row>
     <row r="86">
@@ -8856,13 +8856,13 @@
         <v>591977</v>
       </c>
       <c r="B86" t="n">
-        <v>1.57508</v>
+        <v>1.5756</v>
       </c>
       <c r="C86" t="n">
-        <v>0.723535</v>
+        <v>0.724356</v>
       </c>
       <c r="D86" t="n">
-        <v>1.21175</v>
+        <v>1.21089</v>
       </c>
     </row>
     <row r="87">
@@ -8870,13 +8870,13 @@
         <v>621532</v>
       </c>
       <c r="B87" t="n">
-        <v>1.62686</v>
+        <v>1.62337</v>
       </c>
       <c r="C87" t="n">
-        <v>0.737044</v>
+        <v>0.736385</v>
       </c>
       <c r="D87" t="n">
-        <v>1.24915</v>
+        <v>1.24756</v>
       </c>
     </row>
     <row r="88">
@@ -8884,13 +8884,13 @@
         <v>652567</v>
       </c>
       <c r="B88" t="n">
-        <v>1.66856</v>
+        <v>1.66809</v>
       </c>
       <c r="C88" t="n">
-        <v>0.75125</v>
+        <v>0.749817</v>
       </c>
       <c r="D88" t="n">
-        <v>1.28116</v>
+        <v>1.28089</v>
       </c>
     </row>
     <row r="89">
@@ -8898,13 +8898,13 @@
         <v>685151</v>
       </c>
       <c r="B89" t="n">
-        <v>1.71707</v>
+        <v>1.71095</v>
       </c>
       <c r="C89" t="n">
-        <v>0.761302</v>
+        <v>0.761675</v>
       </c>
       <c r="D89" t="n">
-        <v>1.31825</v>
+        <v>1.31606</v>
       </c>
     </row>
     <row r="90">
@@ -8912,13 +8912,13 @@
         <v>719359</v>
       </c>
       <c r="B90" t="n">
-        <v>1.75995</v>
+        <v>1.75437</v>
       </c>
       <c r="C90" t="n">
-        <v>0.776581</v>
+        <v>0.772868</v>
       </c>
       <c r="D90" t="n">
-        <v>1.35408</v>
+        <v>1.34533</v>
       </c>
     </row>
     <row r="91">
@@ -8926,13 +8926,13 @@
         <v>755280</v>
       </c>
       <c r="B91" t="n">
-        <v>1.80476</v>
+        <v>1.79852</v>
       </c>
       <c r="C91" t="n">
-        <v>0.789779</v>
+        <v>0.784859</v>
       </c>
       <c r="D91" t="n">
-        <v>1.38654</v>
+        <v>1.3784</v>
       </c>
     </row>
     <row r="92">
@@ -8940,13 +8940,13 @@
         <v>792997</v>
       </c>
       <c r="B92" t="n">
-        <v>1.84668</v>
+        <v>1.83919</v>
       </c>
       <c r="C92" t="n">
-        <v>0.7955680000000001</v>
+        <v>0.794285</v>
       </c>
       <c r="D92" t="n">
-        <v>1.56704</v>
+        <v>1.56536</v>
       </c>
     </row>
     <row r="93">
@@ -8954,13 +8954,13 @@
         <v>832595</v>
       </c>
       <c r="B93" t="n">
-        <v>2.06971</v>
+        <v>2.06278</v>
       </c>
       <c r="C93" t="n">
-        <v>0.802019</v>
+        <v>0.8019269999999999</v>
       </c>
       <c r="D93" t="n">
-        <v>1.59047</v>
+        <v>1.5862</v>
       </c>
     </row>
     <row r="94">
@@ -8968,13 +8968,13 @@
         <v>874177</v>
       </c>
       <c r="B94" t="n">
-        <v>2.09887</v>
+        <v>2.09084</v>
       </c>
       <c r="C94" t="n">
-        <v>0.813654</v>
+        <v>0.809579</v>
       </c>
       <c r="D94" t="n">
-        <v>1.61664</v>
+        <v>1.6062</v>
       </c>
     </row>
     <row r="95">
@@ -8982,13 +8982,13 @@
         <v>917832</v>
       </c>
       <c r="B95" t="n">
-        <v>2.12465</v>
+        <v>2.12014</v>
       </c>
       <c r="C95" t="n">
-        <v>0.820215</v>
+        <v>0.819592</v>
       </c>
       <c r="D95" t="n">
-        <v>1.63857</v>
+        <v>1.62352</v>
       </c>
     </row>
     <row r="96">
@@ -8996,13 +8996,13 @@
         <v>963677</v>
       </c>
       <c r="B96" t="n">
-        <v>2.16039</v>
+        <v>2.14948</v>
       </c>
       <c r="C96" t="n">
-        <v>0.8302619999999999</v>
+        <v>0.827116</v>
       </c>
       <c r="D96" t="n">
-        <v>1.66062</v>
+        <v>1.64484</v>
       </c>
     </row>
     <row r="97">
@@ -9010,13 +9010,13 @@
         <v>1011813</v>
       </c>
       <c r="B97" t="n">
-        <v>2.18667</v>
+        <v>2.17373</v>
       </c>
       <c r="C97" t="n">
-        <v>0.837589</v>
+        <v>0.83674</v>
       </c>
       <c r="D97" t="n">
-        <v>1.67041</v>
+        <v>1.66592</v>
       </c>
     </row>
     <row r="98">
@@ -9024,13 +9024,13 @@
         <v>1062351</v>
       </c>
       <c r="B98" t="n">
-        <v>2.20245</v>
+        <v>2.20054</v>
       </c>
       <c r="C98" t="n">
-        <v>0.845091</v>
+        <v>0.841005</v>
       </c>
       <c r="D98" t="n">
-        <v>1.68323</v>
+        <v>1.68183</v>
       </c>
     </row>
     <row r="99">
@@ -9038,13 +9038,13 @@
         <v>1115422</v>
       </c>
       <c r="B99" t="n">
-        <v>2.22776</v>
+        <v>2.22438</v>
       </c>
       <c r="C99" t="n">
-        <v>0.855871</v>
+        <v>0.85446</v>
       </c>
       <c r="D99" t="n">
-        <v>1.70634</v>
+        <v>1.70104</v>
       </c>
     </row>
     <row r="100">
@@ -9052,13 +9052,13 @@
         <v>1171143</v>
       </c>
       <c r="B100" t="n">
-        <v>2.25441</v>
+        <v>2.24756</v>
       </c>
       <c r="C100" t="n">
-        <v>0.863246</v>
+        <v>0.861117</v>
       </c>
       <c r="D100" t="n">
-        <v>1.72373</v>
+        <v>1.71713</v>
       </c>
     </row>
     <row r="101">
@@ -9066,13 +9066,13 @@
         <v>1229634</v>
       </c>
       <c r="B101" t="n">
-        <v>2.2781</v>
+        <v>2.27545</v>
       </c>
       <c r="C101" t="n">
-        <v>0.873135</v>
+        <v>0.871062</v>
       </c>
       <c r="D101" t="n">
-        <v>1.72524</v>
+        <v>1.73287</v>
       </c>
     </row>
     <row r="102">
@@ -9080,13 +9080,13 @@
         <v>1291062</v>
       </c>
       <c r="B102" t="n">
-        <v>2.3012</v>
+        <v>2.29623</v>
       </c>
       <c r="C102" t="n">
-        <v>0.884819</v>
+        <v>0.883591</v>
       </c>
       <c r="D102" t="n">
-        <v>1.74223</v>
+        <v>1.7457</v>
       </c>
     </row>
     <row r="103">
@@ -9094,13 +9094,13 @@
         <v>1355554</v>
       </c>
       <c r="B103" t="n">
-        <v>2.32923</v>
+        <v>2.324</v>
       </c>
       <c r="C103" t="n">
-        <v>0.892726</v>
+        <v>0.892265</v>
       </c>
       <c r="D103" t="n">
-        <v>1.77012</v>
+        <v>1.76291</v>
       </c>
     </row>
     <row r="104">
@@ -9108,13 +9108,13 @@
         <v>1423274</v>
       </c>
       <c r="B104" t="n">
-        <v>2.35011</v>
+        <v>2.34492</v>
       </c>
       <c r="C104" t="n">
-        <v>0.908312</v>
+        <v>0.905455</v>
       </c>
       <c r="D104" t="n">
-        <v>1.77696</v>
+        <v>1.77229</v>
       </c>
     </row>
     <row r="105">
@@ -9122,13 +9122,13 @@
         <v>1494380</v>
       </c>
       <c r="B105" t="n">
-        <v>2.37535</v>
+        <v>2.36908</v>
       </c>
       <c r="C105" t="n">
-        <v>0.918376</v>
+        <v>0.9134060000000001</v>
       </c>
       <c r="D105" t="n">
-        <v>1.79708</v>
+        <v>1.79111</v>
       </c>
     </row>
     <row r="106">
@@ -9136,13 +9136,13 @@
         <v>1569031</v>
       </c>
       <c r="B106" t="n">
-        <v>2.39675</v>
+        <v>2.38782</v>
       </c>
       <c r="C106" t="n">
-        <v>0.9305600000000001</v>
+        <v>0.928538</v>
       </c>
       <c r="D106" t="n">
-        <v>1.80462</v>
+        <v>1.80361</v>
       </c>
     </row>
     <row r="107">
@@ -9150,13 +9150,13 @@
         <v>1647417</v>
       </c>
       <c r="B107" t="n">
-        <v>2.51241</v>
+        <v>2.50422</v>
       </c>
       <c r="C107" t="n">
-        <v>0.876949</v>
+        <v>0.878781</v>
       </c>
       <c r="D107" t="n">
-        <v>1.90539</v>
+        <v>1.8981</v>
       </c>
     </row>
     <row r="108">
@@ -9164,13 +9164,13 @@
         <v>1729734</v>
       </c>
       <c r="B108" t="n">
-        <v>2.52341</v>
+        <v>2.52398</v>
       </c>
       <c r="C108" t="n">
-        <v>0.8828279999999999</v>
+        <v>0.880602</v>
       </c>
       <c r="D108" t="n">
-        <v>1.91476</v>
+        <v>1.91936</v>
       </c>
     </row>
     <row r="109">
@@ -9178,13 +9178,13 @@
         <v>1816153</v>
       </c>
       <c r="B109" t="n">
-        <v>2.54637</v>
+        <v>2.5381</v>
       </c>
       <c r="C109" t="n">
-        <v>0.894547</v>
+        <v>0.890209</v>
       </c>
       <c r="D109" t="n">
-        <v>1.93485</v>
+        <v>1.92616</v>
       </c>
     </row>
     <row r="110">
@@ -9192,13 +9192,13 @@
         <v>1906885</v>
       </c>
       <c r="B110" t="n">
-        <v>2.55665</v>
+        <v>2.54738</v>
       </c>
       <c r="C110" t="n">
-        <v>0.901753</v>
+        <v>0.896809</v>
       </c>
       <c r="D110" t="n">
-        <v>1.93752</v>
+        <v>1.93679</v>
       </c>
     </row>
     <row r="111">
@@ -9206,13 +9206,13 @@
         <v>2002164</v>
       </c>
       <c r="B111" t="n">
-        <v>2.5722</v>
+        <v>2.57014</v>
       </c>
       <c r="C111" t="n">
-        <v>0.90707</v>
+        <v>0.9059</v>
       </c>
       <c r="D111" t="n">
-        <v>1.9429</v>
+        <v>1.94176</v>
       </c>
     </row>
     <row r="112">
@@ -9220,13 +9220,13 @@
         <v>2102198</v>
       </c>
       <c r="B112" t="n">
-        <v>2.58854</v>
+        <v>2.58239</v>
       </c>
       <c r="C112" t="n">
-        <v>0.916923</v>
+        <v>0.9158269999999999</v>
       </c>
       <c r="D112" t="n">
-        <v>1.95822</v>
+        <v>1.95191</v>
       </c>
     </row>
     <row r="113">
@@ -9234,13 +9234,13 @@
         <v>2207233</v>
       </c>
       <c r="B113" t="n">
-        <v>2.60011</v>
+        <v>2.59587</v>
       </c>
       <c r="C113" t="n">
-        <v>0.926963</v>
+        <v>0.921067</v>
       </c>
       <c r="D113" t="n">
-        <v>1.96564</v>
+        <v>1.95908</v>
       </c>
     </row>
     <row r="114">
@@ -9248,13 +9248,13 @@
         <v>2317508</v>
       </c>
       <c r="B114" t="n">
-        <v>2.61569</v>
+        <v>2.60742</v>
       </c>
       <c r="C114" t="n">
-        <v>0.9317029999999999</v>
+        <v>0.936317</v>
       </c>
       <c r="D114" t="n">
-        <v>1.97468</v>
+        <v>1.965</v>
       </c>
     </row>
     <row r="115">
@@ -9262,13 +9262,13 @@
         <v>2433290</v>
       </c>
       <c r="B115" t="n">
-        <v>2.6301</v>
+        <v>2.62394</v>
       </c>
       <c r="C115" t="n">
-        <v>0.950195</v>
+        <v>0.946022</v>
       </c>
       <c r="D115" t="n">
-        <v>1.97797</v>
+        <v>1.97519</v>
       </c>
     </row>
     <row r="116">
@@ -9276,13 +9276,13 @@
         <v>2554854</v>
       </c>
       <c r="B116" t="n">
-        <v>2.64444</v>
+        <v>2.63849</v>
       </c>
       <c r="C116" t="n">
-        <v>0.953754</v>
+        <v>0.9567329999999999</v>
       </c>
       <c r="D116" t="n">
-        <v>1.99095</v>
+        <v>1.98505</v>
       </c>
     </row>
     <row r="117">
@@ -9290,13 +9290,13 @@
         <v>2682511</v>
       </c>
       <c r="B117" t="n">
-        <v>2.65837</v>
+        <v>2.65371</v>
       </c>
       <c r="C117" t="n">
-        <v>0.95834</v>
+        <v>0.966006</v>
       </c>
       <c r="D117" t="n">
-        <v>1.9949</v>
+        <v>1.98901</v>
       </c>
     </row>
     <row r="118">
@@ -9304,13 +9304,13 @@
         <v>2816546</v>
       </c>
       <c r="B118" t="n">
-        <v>2.67295</v>
+        <v>2.66647</v>
       </c>
       <c r="C118" t="n">
-        <v>0.98363</v>
+        <v>0.9730569999999999</v>
       </c>
       <c r="D118" t="n">
-        <v>1.997</v>
+        <v>1.99579</v>
       </c>
     </row>
     <row r="119">
@@ -9318,13 +9318,13 @@
         <v>2957287</v>
       </c>
       <c r="B119" t="n">
-        <v>2.69162</v>
+        <v>2.68356</v>
       </c>
       <c r="C119" t="n">
-        <v>0.990136</v>
+        <v>0.98229</v>
       </c>
       <c r="D119" t="n">
-        <v>2.01239</v>
+        <v>2.00263</v>
       </c>
     </row>
   </sheetData>
@@ -9372,13 +9372,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.572786</v>
+        <v>0.557159</v>
       </c>
       <c r="C2" t="n">
-        <v>0.433188</v>
+        <v>0.426114</v>
       </c>
       <c r="D2" t="n">
-        <v>0.369531</v>
+        <v>0.362537</v>
       </c>
     </row>
     <row r="3">
@@ -9386,13 +9386,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5782389999999999</v>
+        <v>0.571816</v>
       </c>
       <c r="C3" t="n">
-        <v>0.440975</v>
+        <v>0.435478</v>
       </c>
       <c r="D3" t="n">
-        <v>0.376822</v>
+        <v>0.362211</v>
       </c>
     </row>
     <row r="4">
@@ -9400,13 +9400,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.59543</v>
+        <v>0.574811</v>
       </c>
       <c r="C4" t="n">
-        <v>0.441517</v>
+        <v>0.430415</v>
       </c>
       <c r="D4" t="n">
-        <v>0.377627</v>
+        <v>0.36423</v>
       </c>
     </row>
     <row r="5">
@@ -9414,13 +9414,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.597881</v>
+        <v>0.580133</v>
       </c>
       <c r="C5" t="n">
-        <v>0.44899</v>
+        <v>0.436759</v>
       </c>
       <c r="D5" t="n">
-        <v>0.381874</v>
+        <v>0.372549</v>
       </c>
     </row>
     <row r="6">
@@ -9428,13 +9428,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.60706</v>
+        <v>0.591888</v>
       </c>
       <c r="C6" t="n">
-        <v>0.459561</v>
+        <v>0.450477</v>
       </c>
       <c r="D6" t="n">
-        <v>0.390158</v>
+        <v>0.371139</v>
       </c>
     </row>
     <row r="7">
@@ -9442,13 +9442,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.615151</v>
+        <v>0.586589</v>
       </c>
       <c r="C7" t="n">
-        <v>0.470411</v>
+        <v>0.454434</v>
       </c>
       <c r="D7" t="n">
-        <v>0.396538</v>
+        <v>0.373515</v>
       </c>
     </row>
     <row r="8">
@@ -9456,13 +9456,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.622031</v>
+        <v>0.5897289999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>0.473625</v>
+        <v>0.456902</v>
       </c>
       <c r="D8" t="n">
-        <v>0.403805</v>
+        <v>0.384448</v>
       </c>
     </row>
     <row r="9">
@@ -9470,13 +9470,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.636843</v>
+        <v>0.606642</v>
       </c>
       <c r="C9" t="n">
-        <v>0.479611</v>
+        <v>0.464444</v>
       </c>
       <c r="D9" t="n">
-        <v>0.412052</v>
+        <v>0.389364</v>
       </c>
     </row>
     <row r="10">
@@ -9484,13 +9484,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.64738</v>
+        <v>0.616039</v>
       </c>
       <c r="C10" t="n">
-        <v>0.48415</v>
+        <v>0.469948</v>
       </c>
       <c r="D10" t="n">
-        <v>0.421724</v>
+        <v>0.392392</v>
       </c>
     </row>
     <row r="11">
@@ -9498,13 +9498,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.668311</v>
+        <v>0.627982</v>
       </c>
       <c r="C11" t="n">
-        <v>0.482905</v>
+        <v>0.469514</v>
       </c>
       <c r="D11" t="n">
-        <v>0.420233</v>
+        <v>0.397043</v>
       </c>
     </row>
     <row r="12">
@@ -9512,13 +9512,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.657749</v>
+        <v>0.628404</v>
       </c>
       <c r="C12" t="n">
-        <v>0.486907</v>
+        <v>0.474348</v>
       </c>
       <c r="D12" t="n">
-        <v>0.429843</v>
+        <v>0.404903</v>
       </c>
     </row>
     <row r="13">
@@ -9526,13 +9526,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.667845</v>
+        <v>0.639432</v>
       </c>
       <c r="C13" t="n">
-        <v>0.489621</v>
+        <v>0.476325</v>
       </c>
       <c r="D13" t="n">
-        <v>0.429242</v>
+        <v>0.4066</v>
       </c>
     </row>
     <row r="14">
@@ -9540,13 +9540,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.672685</v>
+        <v>0.64428</v>
       </c>
       <c r="C14" t="n">
-        <v>0.49082</v>
+        <v>0.478981</v>
       </c>
       <c r="D14" t="n">
-        <v>0.436024</v>
+        <v>0.416213</v>
       </c>
     </row>
     <row r="15">
@@ -9554,13 +9554,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.68084</v>
+        <v>0.655179</v>
       </c>
       <c r="C15" t="n">
-        <v>0.496029</v>
+        <v>0.485244</v>
       </c>
       <c r="D15" t="n">
-        <v>0.439347</v>
+        <v>0.417891</v>
       </c>
     </row>
     <row r="16">
@@ -9568,13 +9568,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.682633</v>
+        <v>0.655227</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5027</v>
+        <v>0.489956</v>
       </c>
       <c r="D16" t="n">
-        <v>0.443248</v>
+        <v>0.421137</v>
       </c>
     </row>
     <row r="17">
@@ -9582,13 +9582,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.686016</v>
+        <v>0.664215</v>
       </c>
       <c r="C17" t="n">
-        <v>0.501362</v>
+        <v>0.491914</v>
       </c>
       <c r="D17" t="n">
-        <v>0.441888</v>
+        <v>0.431742</v>
       </c>
     </row>
     <row r="18">
@@ -9596,13 +9596,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.6927450000000001</v>
+        <v>0.674987</v>
       </c>
       <c r="C18" t="n">
-        <v>0.513054</v>
+        <v>0.50168</v>
       </c>
       <c r="D18" t="n">
-        <v>0.449373</v>
+        <v>0.435693</v>
       </c>
     </row>
     <row r="19">
@@ -9610,13 +9610,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.707075</v>
+        <v>0.684894</v>
       </c>
       <c r="C19" t="n">
-        <v>0.51006</v>
+        <v>0.500217</v>
       </c>
       <c r="D19" t="n">
-        <v>0.453398</v>
+        <v>0.437155</v>
       </c>
     </row>
     <row r="20">
@@ -9624,13 +9624,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.714419</v>
+        <v>0.693603</v>
       </c>
       <c r="C20" t="n">
-        <v>0.521366</v>
+        <v>0.510817</v>
       </c>
       <c r="D20" t="n">
-        <v>0.45656</v>
+        <v>0.443845</v>
       </c>
     </row>
     <row r="21">
@@ -9638,13 +9638,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.720043</v>
+        <v>0.702751</v>
       </c>
       <c r="C21" t="n">
-        <v>0.516768</v>
+        <v>0.51364</v>
       </c>
       <c r="D21" t="n">
-        <v>0.456296</v>
+        <v>0.448651</v>
       </c>
     </row>
     <row r="22">
@@ -9652,13 +9652,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.710186</v>
+        <v>0.703564</v>
       </c>
       <c r="C22" t="n">
-        <v>0.522772</v>
+        <v>0.519676</v>
       </c>
       <c r="D22" t="n">
-        <v>0.456794</v>
+        <v>0.451737</v>
       </c>
     </row>
     <row r="23">
@@ -9666,13 +9666,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.72165</v>
+        <v>0.716866</v>
       </c>
       <c r="C23" t="n">
-        <v>0.519808</v>
+        <v>0.5190090000000001</v>
       </c>
       <c r="D23" t="n">
-        <v>0.467565</v>
+        <v>0.458624</v>
       </c>
     </row>
     <row r="24">
@@ -9680,13 +9680,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.725922</v>
+        <v>0.720675</v>
       </c>
       <c r="C24" t="n">
-        <v>0.527587</v>
+        <v>0.526555</v>
       </c>
       <c r="D24" t="n">
-        <v>0.470006</v>
+        <v>0.462746</v>
       </c>
     </row>
     <row r="25">
@@ -9694,13 +9694,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.740852</v>
+        <v>0.737664</v>
       </c>
       <c r="C25" t="n">
-        <v>0.540745</v>
+        <v>0.539196</v>
       </c>
       <c r="D25" t="n">
-        <v>0.470588</v>
+        <v>0.467489</v>
       </c>
     </row>
     <row r="26">
@@ -9708,13 +9708,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.73763</v>
+        <v>0.7359</v>
       </c>
       <c r="C26" t="n">
-        <v>0.536152</v>
+        <v>0.535256</v>
       </c>
       <c r="D26" t="n">
-        <v>0.476915</v>
+        <v>0.471872</v>
       </c>
     </row>
     <row r="27">
@@ -9722,13 +9722,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.74312</v>
+        <v>0.74021</v>
       </c>
       <c r="C27" t="n">
-        <v>0.543584</v>
+        <v>0.544282</v>
       </c>
       <c r="D27" t="n">
-        <v>0.481925</v>
+        <v>0.479115</v>
       </c>
     </row>
     <row r="28">
@@ -9736,13 +9736,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.749356</v>
+        <v>0.749449</v>
       </c>
       <c r="C28" t="n">
-        <v>0.545784</v>
+        <v>0.54598</v>
       </c>
       <c r="D28" t="n">
-        <v>0.481591</v>
+        <v>0.480798</v>
       </c>
     </row>
     <row r="29">
@@ -9750,13 +9750,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.755391</v>
+        <v>0.755118</v>
       </c>
       <c r="C29" t="n">
-        <v>0.552679</v>
+        <v>0.553347</v>
       </c>
       <c r="D29" t="n">
-        <v>0.489522</v>
+        <v>0.485367</v>
       </c>
     </row>
     <row r="30">
@@ -9764,13 +9764,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.764078</v>
+        <v>0.764327</v>
       </c>
       <c r="C30" t="n">
-        <v>0.554557</v>
+        <v>0.557526</v>
       </c>
       <c r="D30" t="n">
-        <v>0.493482</v>
+        <v>0.490133</v>
       </c>
     </row>
     <row r="31">
@@ -9778,13 +9778,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.7714259999999999</v>
+        <v>0.771019</v>
       </c>
       <c r="C31" t="n">
-        <v>0.560827</v>
+        <v>0.558792</v>
       </c>
       <c r="D31" t="n">
-        <v>0.496821</v>
+        <v>0.49289</v>
       </c>
     </row>
     <row r="32">
@@ -9792,13 +9792,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.774591</v>
+        <v>0.77389</v>
       </c>
       <c r="C32" t="n">
-        <v>0.565296</v>
+        <v>0.5632200000000001</v>
       </c>
       <c r="D32" t="n">
-        <v>0.499608</v>
+        <v>0.497543</v>
       </c>
     </row>
     <row r="33">
@@ -9806,13 +9806,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.782709</v>
+        <v>0.782116</v>
       </c>
       <c r="C33" t="n">
-        <v>0.568909</v>
+        <v>0.567806</v>
       </c>
       <c r="D33" t="n">
-        <v>0.500698</v>
+        <v>0.498983</v>
       </c>
     </row>
     <row r="34">
@@ -9820,13 +9820,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.791901</v>
+        <v>0.789301</v>
       </c>
       <c r="C34" t="n">
-        <v>0.571779</v>
+        <v>0.571358</v>
       </c>
       <c r="D34" t="n">
-        <v>0.504654</v>
+        <v>0.503059</v>
       </c>
     </row>
     <row r="35">
@@ -9834,13 +9834,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.792803</v>
+        <v>0.793005</v>
       </c>
       <c r="C35" t="n">
-        <v>0.552503</v>
+        <v>0.549319</v>
       </c>
       <c r="D35" t="n">
-        <v>0.507012</v>
+        <v>0.502783</v>
       </c>
     </row>
     <row r="36">
@@ -9848,13 +9848,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.791344</v>
+        <v>0.7896609999999999</v>
       </c>
       <c r="C36" t="n">
-        <v>0.556844</v>
+        <v>0.554857</v>
       </c>
       <c r="D36" t="n">
-        <v>0.509711</v>
+        <v>0.50669</v>
       </c>
     </row>
     <row r="37">
@@ -9862,13 +9862,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.796238</v>
+        <v>0.795705</v>
       </c>
       <c r="C37" t="n">
-        <v>0.559476</v>
+        <v>0.55838</v>
       </c>
       <c r="D37" t="n">
-        <v>0.5111830000000001</v>
+        <v>0.5092449999999999</v>
       </c>
     </row>
     <row r="38">
@@ -9876,13 +9876,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.798698</v>
+        <v>0.798221</v>
       </c>
       <c r="C38" t="n">
-        <v>0.561879</v>
+        <v>0.55945</v>
       </c>
       <c r="D38" t="n">
-        <v>0.514714</v>
+        <v>0.511671</v>
       </c>
     </row>
     <row r="39">
@@ -9890,13 +9890,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.804426</v>
+        <v>0.804056</v>
       </c>
       <c r="C39" t="n">
-        <v>0.566743</v>
+        <v>0.564331</v>
       </c>
       <c r="D39" t="n">
-        <v>0.517177</v>
+        <v>0.514282</v>
       </c>
     </row>
     <row r="40">
@@ -9904,13 +9904,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.811141</v>
+        <v>0.810826</v>
       </c>
       <c r="C40" t="n">
-        <v>0.569238</v>
+        <v>0.56814</v>
       </c>
       <c r="D40" t="n">
-        <v>0.520091</v>
+        <v>0.518037</v>
       </c>
     </row>
     <row r="41">
@@ -9918,13 +9918,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.8178</v>
+        <v>0.81729</v>
       </c>
       <c r="C41" t="n">
-        <v>0.570298</v>
+        <v>0.5684669999999999</v>
       </c>
       <c r="D41" t="n">
-        <v>0.5214299999999999</v>
+        <v>0.519382</v>
       </c>
     </row>
     <row r="42">
@@ -9932,13 +9932,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.819562</v>
+        <v>0.81785</v>
       </c>
       <c r="C42" t="n">
-        <v>0.570833</v>
+        <v>0.5702390000000001</v>
       </c>
       <c r="D42" t="n">
-        <v>0.524995</v>
+        <v>0.522558</v>
       </c>
     </row>
     <row r="43">
@@ -9946,13 +9946,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.824809</v>
+        <v>0.82456</v>
       </c>
       <c r="C43" t="n">
-        <v>0.571908</v>
+        <v>0.57462</v>
       </c>
       <c r="D43" t="n">
-        <v>0.524761</v>
+        <v>0.524989</v>
       </c>
     </row>
     <row r="44">
@@ -9960,13 +9960,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.826574</v>
+        <v>0.826494</v>
       </c>
       <c r="C44" t="n">
-        <v>0.574866</v>
+        <v>0.576092</v>
       </c>
       <c r="D44" t="n">
-        <v>0.527572</v>
+        <v>0.5265919999999999</v>
       </c>
     </row>
     <row r="45">
@@ -9974,13 +9974,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.829875</v>
+        <v>0.83022</v>
       </c>
       <c r="C45" t="n">
-        <v>0.578556</v>
+        <v>0.578756</v>
       </c>
       <c r="D45" t="n">
-        <v>0.528089</v>
+        <v>0.527122</v>
       </c>
     </row>
     <row r="46">
@@ -9988,13 +9988,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.8355669999999999</v>
+        <v>0.835771</v>
       </c>
       <c r="C46" t="n">
-        <v>0.57994</v>
+        <v>0.579925</v>
       </c>
       <c r="D46" t="n">
-        <v>0.5305299999999999</v>
+        <v>0.529089</v>
       </c>
     </row>
     <row r="47">
@@ -10002,13 +10002,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.844417</v>
+        <v>0.844118</v>
       </c>
       <c r="C47" t="n">
-        <v>0.584539</v>
+        <v>0.585245</v>
       </c>
       <c r="D47" t="n">
-        <v>0.533307</v>
+        <v>0.532474</v>
       </c>
     </row>
     <row r="48">
@@ -10016,13 +10016,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.846289</v>
+        <v>0.847195</v>
       </c>
       <c r="C48" t="n">
-        <v>0.585666</v>
+        <v>0.588375</v>
       </c>
       <c r="D48" t="n">
-        <v>0.533651</v>
+        <v>0.532961</v>
       </c>
     </row>
     <row r="49">
@@ -10030,13 +10030,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.851119</v>
+        <v>0.851541</v>
       </c>
       <c r="C49" t="n">
-        <v>0.590658</v>
+        <v>0.590888</v>
       </c>
       <c r="D49" t="n">
-        <v>0.535622</v>
+        <v>0.5347190000000001</v>
       </c>
     </row>
     <row r="50">
@@ -10044,13 +10044,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.860086</v>
+        <v>0.857703</v>
       </c>
       <c r="C50" t="n">
-        <v>0.583481</v>
+        <v>0.580762</v>
       </c>
       <c r="D50" t="n">
-        <v>0.536679</v>
+        <v>0.535484</v>
       </c>
     </row>
     <row r="51">
@@ -10058,13 +10058,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.835336</v>
+        <v>0.838743</v>
       </c>
       <c r="C51" t="n">
-        <v>0.583517</v>
+        <v>0.5837560000000001</v>
       </c>
       <c r="D51" t="n">
-        <v>0.539905</v>
+        <v>0.538119</v>
       </c>
     </row>
     <row r="52">
@@ -10072,13 +10072,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.8401380000000001</v>
+        <v>0.8399720000000001</v>
       </c>
       <c r="C52" t="n">
-        <v>0.584345</v>
+        <v>0.585443</v>
       </c>
       <c r="D52" t="n">
-        <v>0.540317</v>
+        <v>0.540394</v>
       </c>
     </row>
     <row r="53">
@@ -10086,13 +10086,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.845109</v>
+        <v>0.8452769999999999</v>
       </c>
       <c r="C53" t="n">
-        <v>0.590985</v>
+        <v>0.5906</v>
       </c>
       <c r="D53" t="n">
-        <v>0.541328</v>
+        <v>0.540547</v>
       </c>
     </row>
     <row r="54">
@@ -10100,13 +10100,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.851351</v>
+        <v>0.850517</v>
       </c>
       <c r="C54" t="n">
-        <v>0.596587</v>
+        <v>0.592773</v>
       </c>
       <c r="D54" t="n">
-        <v>0.543634</v>
+        <v>0.542833</v>
       </c>
     </row>
     <row r="55">
@@ -10114,13 +10114,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.852881</v>
+        <v>0.853809</v>
       </c>
       <c r="C55" t="n">
-        <v>0.599705</v>
+        <v>0.599454</v>
       </c>
       <c r="D55" t="n">
-        <v>0.5452669999999999</v>
+        <v>0.543702</v>
       </c>
     </row>
     <row r="56">
@@ -10128,13 +10128,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.855206</v>
+        <v>0.855392</v>
       </c>
       <c r="C56" t="n">
-        <v>0.5979370000000001</v>
+        <v>0.595256</v>
       </c>
       <c r="D56" t="n">
-        <v>0.545499</v>
+        <v>0.544405</v>
       </c>
     </row>
     <row r="57">
@@ -10142,13 +10142,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.859091</v>
+        <v>0.859378</v>
       </c>
       <c r="C57" t="n">
-        <v>0.60504</v>
+        <v>0.604293</v>
       </c>
       <c r="D57" t="n">
-        <v>0.547682</v>
+        <v>0.547144</v>
       </c>
     </row>
     <row r="58">
@@ -10156,13 +10156,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.861801</v>
+        <v>0.861375</v>
       </c>
       <c r="C58" t="n">
-        <v>0.6135080000000001</v>
+        <v>0.611398</v>
       </c>
       <c r="D58" t="n">
-        <v>0.54857</v>
+        <v>0.5486490000000001</v>
       </c>
     </row>
     <row r="59">
@@ -10170,13 +10170,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.86502</v>
+        <v>0.8660330000000001</v>
       </c>
       <c r="C59" t="n">
-        <v>0.622802</v>
+        <v>0.621757</v>
       </c>
       <c r="D59" t="n">
-        <v>0.549403</v>
+        <v>0.549148</v>
       </c>
     </row>
     <row r="60">
@@ -10184,13 +10184,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.871428</v>
+        <v>0.872099</v>
       </c>
       <c r="C60" t="n">
-        <v>0.623258</v>
+        <v>0.6213880000000001</v>
       </c>
       <c r="D60" t="n">
-        <v>0.552136</v>
+        <v>0.5527</v>
       </c>
     </row>
     <row r="61">
@@ -10198,13 +10198,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.874095</v>
+        <v>0.875267</v>
       </c>
       <c r="C61" t="n">
-        <v>0.631726</v>
+        <v>0.628701</v>
       </c>
       <c r="D61" t="n">
-        <v>0.553064</v>
+        <v>0.553932</v>
       </c>
     </row>
     <row r="62">
@@ -10212,13 +10212,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.882338</v>
+        <v>0.882863</v>
       </c>
       <c r="C62" t="n">
-        <v>0.63757</v>
+        <v>0.640477</v>
       </c>
       <c r="D62" t="n">
-        <v>0.557023</v>
+        <v>0.556139</v>
       </c>
     </row>
     <row r="63">
@@ -10226,13 +10226,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.883158</v>
+        <v>0.883867</v>
       </c>
       <c r="C63" t="n">
-        <v>0.6420709999999999</v>
+        <v>0.642223</v>
       </c>
       <c r="D63" t="n">
-        <v>0.5584</v>
+        <v>0.558204</v>
       </c>
     </row>
     <row r="64">
@@ -10240,13 +10240,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.893315</v>
+        <v>0.8922060000000001</v>
       </c>
       <c r="C64" t="n">
-        <v>0.692329</v>
+        <v>0.690009</v>
       </c>
       <c r="D64" t="n">
-        <v>0.592856</v>
+        <v>0.589805</v>
       </c>
     </row>
     <row r="65">
@@ -10254,13 +10254,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.934037</v>
+        <v>0.927058</v>
       </c>
       <c r="C65" t="n">
-        <v>0.715741</v>
+        <v>0.713645</v>
       </c>
       <c r="D65" t="n">
-        <v>0.602198</v>
+        <v>0.603415</v>
       </c>
     </row>
     <row r="66">
@@ -10268,13 +10268,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.947098</v>
+        <v>0.950082</v>
       </c>
       <c r="C66" t="n">
-        <v>0.731121</v>
+        <v>0.727463</v>
       </c>
       <c r="D66" t="n">
-        <v>0.616955</v>
+        <v>0.611592</v>
       </c>
     </row>
     <row r="67">
@@ -10282,13 +10282,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.966699</v>
+        <v>0.958573</v>
       </c>
       <c r="C67" t="n">
-        <v>0.759688</v>
+        <v>0.747368</v>
       </c>
       <c r="D67" t="n">
-        <v>0.630135</v>
+        <v>0.61899</v>
       </c>
     </row>
     <row r="68">
@@ -10296,13 +10296,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.994943</v>
+        <v>0.976062</v>
       </c>
       <c r="C68" t="n">
-        <v>0.775934</v>
+        <v>0.760053</v>
       </c>
       <c r="D68" t="n">
-        <v>0.642027</v>
+        <v>0.625151</v>
       </c>
     </row>
     <row r="69">
@@ -10310,13 +10310,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>1.02117</v>
+        <v>0.989434</v>
       </c>
       <c r="C69" t="n">
-        <v>0.805686</v>
+        <v>0.7839739999999999</v>
       </c>
       <c r="D69" t="n">
-        <v>0.667569</v>
+        <v>0.642054</v>
       </c>
     </row>
     <row r="70">
@@ -10324,13 +10324,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>1.06124</v>
+        <v>1.02293</v>
       </c>
       <c r="C70" t="n">
-        <v>0.834307</v>
+        <v>0.819151</v>
       </c>
       <c r="D70" t="n">
-        <v>0.675073</v>
+        <v>0.659004</v>
       </c>
     </row>
     <row r="71">
@@ -10338,13 +10338,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>1.07407</v>
+        <v>1.04799</v>
       </c>
       <c r="C71" t="n">
-        <v>0.867704</v>
+        <v>0.841098</v>
       </c>
       <c r="D71" t="n">
-        <v>0.689935</v>
+        <v>0.682934</v>
       </c>
     </row>
     <row r="72">
@@ -10352,13 +10352,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>1.09501</v>
+        <v>1.08903</v>
       </c>
       <c r="C72" t="n">
-        <v>0.8900940000000001</v>
+        <v>0.8870400000000001</v>
       </c>
       <c r="D72" t="n">
-        <v>0.718678</v>
+        <v>0.690199</v>
       </c>
     </row>
     <row r="73">
@@ -10366,13 +10366,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>1.14196</v>
+        <v>1.1085</v>
       </c>
       <c r="C73" t="n">
-        <v>0.932898</v>
+        <v>0.911415</v>
       </c>
       <c r="D73" t="n">
-        <v>0.739192</v>
+        <v>0.7273579999999999</v>
       </c>
     </row>
     <row r="74">
@@ -10380,13 +10380,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.18062</v>
+        <v>1.17368</v>
       </c>
       <c r="C74" t="n">
-        <v>0.959597</v>
+        <v>0.955214</v>
       </c>
       <c r="D74" t="n">
-        <v>0.769119</v>
+        <v>0.766736</v>
       </c>
     </row>
     <row r="75">
@@ -10394,13 +10394,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>1.23254</v>
+        <v>1.19266</v>
       </c>
       <c r="C75" t="n">
-        <v>0.99764</v>
+        <v>0.980809</v>
       </c>
       <c r="D75" t="n">
-        <v>0.799529</v>
+        <v>0.777651</v>
       </c>
     </row>
     <row r="76">
@@ -10408,13 +10408,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>1.28351</v>
+        <v>1.24888</v>
       </c>
       <c r="C76" t="n">
-        <v>1.04229</v>
+        <v>1.02291</v>
       </c>
       <c r="D76" t="n">
-        <v>0.83522</v>
+        <v>0.810404</v>
       </c>
     </row>
     <row r="77">
@@ -10422,13 +10422,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>1.32471</v>
+        <v>1.30223</v>
       </c>
       <c r="C77" t="n">
-        <v>1.08356</v>
+        <v>1.07308</v>
       </c>
       <c r="D77" t="n">
-        <v>0.8701410000000001</v>
+        <v>0.854674</v>
       </c>
     </row>
     <row r="78">
@@ -10436,13 +10436,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>1.40132</v>
+        <v>1.37998</v>
       </c>
       <c r="C78" t="n">
-        <v>1.26128</v>
+        <v>1.25079</v>
       </c>
       <c r="D78" t="n">
-        <v>1.01288</v>
+        <v>0.994553</v>
       </c>
     </row>
     <row r="79">
@@ -10450,13 +10450,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.58543</v>
+        <v>1.56956</v>
       </c>
       <c r="C79" t="n">
-        <v>1.30478</v>
+        <v>1.29798</v>
       </c>
       <c r="D79" t="n">
-        <v>1.06395</v>
+        <v>1.04839</v>
       </c>
     </row>
     <row r="80">
@@ -10464,13 +10464,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.67777</v>
+        <v>1.64681</v>
       </c>
       <c r="C80" t="n">
-        <v>1.35352</v>
+        <v>1.34354</v>
       </c>
       <c r="D80" t="n">
-        <v>1.11734</v>
+        <v>1.09284</v>
       </c>
     </row>
     <row r="81">
@@ -10478,13 +10478,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.75147</v>
+        <v>1.72404</v>
       </c>
       <c r="C81" t="n">
-        <v>1.39916</v>
+        <v>1.38592</v>
       </c>
       <c r="D81" t="n">
-        <v>1.16853</v>
+        <v>1.15472</v>
       </c>
     </row>
     <row r="82">
@@ -10492,13 +10492,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.83617</v>
+        <v>1.81016</v>
       </c>
       <c r="C82" t="n">
-        <v>1.44079</v>
+        <v>1.43401</v>
       </c>
       <c r="D82" t="n">
-        <v>1.21163</v>
+        <v>1.21385</v>
       </c>
     </row>
     <row r="83">
@@ -10506,13 +10506,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.91028</v>
+        <v>1.89504</v>
       </c>
       <c r="C83" t="n">
-        <v>1.48679</v>
+        <v>1.4841</v>
       </c>
       <c r="D83" t="n">
-        <v>1.27039</v>
+        <v>1.26725</v>
       </c>
     </row>
     <row r="84">
@@ -10520,13 +10520,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>2.00025</v>
+        <v>1.99774</v>
       </c>
       <c r="C84" t="n">
-        <v>1.53064</v>
+        <v>1.52683</v>
       </c>
       <c r="D84" t="n">
-        <v>1.32736</v>
+        <v>1.3205</v>
       </c>
     </row>
     <row r="85">
@@ -10534,13 +10534,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>2.08223</v>
+        <v>2.07685</v>
       </c>
       <c r="C85" t="n">
-        <v>1.58427</v>
+        <v>1.57734</v>
       </c>
       <c r="D85" t="n">
-        <v>1.3883</v>
+        <v>1.38675</v>
       </c>
     </row>
     <row r="86">
@@ -10548,13 +10548,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>2.18048</v>
+        <v>2.17216</v>
       </c>
       <c r="C86" t="n">
-        <v>1.62284</v>
+        <v>1.62269</v>
       </c>
       <c r="D86" t="n">
-        <v>1.44821</v>
+        <v>1.43559</v>
       </c>
     </row>
     <row r="87">
@@ -10562,13 +10562,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>2.27225</v>
+        <v>2.25524</v>
       </c>
       <c r="C87" t="n">
-        <v>1.66781</v>
+        <v>1.66474</v>
       </c>
       <c r="D87" t="n">
-        <v>1.50324</v>
+        <v>1.49373</v>
       </c>
     </row>
     <row r="88">
@@ -10576,13 +10576,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>2.36487</v>
+        <v>2.34532</v>
       </c>
       <c r="C88" t="n">
-        <v>1.71608</v>
+        <v>1.7107</v>
       </c>
       <c r="D88" t="n">
-        <v>1.56273</v>
+        <v>1.55382</v>
       </c>
     </row>
     <row r="89">
@@ -10590,13 +10590,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>2.44813</v>
+        <v>2.44024</v>
       </c>
       <c r="C89" t="n">
-        <v>1.76566</v>
+        <v>1.7602</v>
       </c>
       <c r="D89" t="n">
-        <v>1.61587</v>
+        <v>1.60864</v>
       </c>
     </row>
     <row r="90">
@@ -10604,13 +10604,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>2.52727</v>
+        <v>2.52847</v>
       </c>
       <c r="C90" t="n">
-        <v>1.81171</v>
+        <v>1.80965</v>
       </c>
       <c r="D90" t="n">
-        <v>1.66923</v>
+        <v>1.66595</v>
       </c>
     </row>
     <row r="91">
@@ -10618,13 +10618,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>2.62553</v>
+        <v>2.62239</v>
       </c>
       <c r="C91" t="n">
-        <v>1.85953</v>
+        <v>1.85724</v>
       </c>
       <c r="D91" t="n">
-        <v>1.72191</v>
+        <v>1.71851</v>
       </c>
     </row>
     <row r="92">
@@ -10632,13 +10632,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>2.70876</v>
+        <v>2.71428</v>
       </c>
       <c r="C92" t="n">
-        <v>1.96938</v>
+        <v>1.96446</v>
       </c>
       <c r="D92" t="n">
-        <v>1.8407</v>
+        <v>1.83102</v>
       </c>
     </row>
     <row r="93">
@@ -10646,13 +10646,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>2.87858</v>
+        <v>2.86472</v>
       </c>
       <c r="C93" t="n">
-        <v>2.00816</v>
+        <v>2.00357</v>
       </c>
       <c r="D93" t="n">
-        <v>1.89247</v>
+        <v>1.88621</v>
       </c>
     </row>
     <row r="94">
@@ -10660,13 +10660,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>2.95398</v>
+        <v>2.95022</v>
       </c>
       <c r="C94" t="n">
-        <v>2.03563</v>
+        <v>2.04616</v>
       </c>
       <c r="D94" t="n">
-        <v>1.93377</v>
+        <v>1.92474</v>
       </c>
     </row>
     <row r="95">
@@ -10674,13 +10674,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>3.01348</v>
+        <v>3.01053</v>
       </c>
       <c r="C95" t="n">
-        <v>2.07932</v>
+        <v>2.07514</v>
       </c>
       <c r="D95" t="n">
-        <v>1.97688</v>
+        <v>1.97273</v>
       </c>
     </row>
     <row r="96">
@@ -10688,13 +10688,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>3.08941</v>
+        <v>3.08536</v>
       </c>
       <c r="C96" t="n">
-        <v>2.11247</v>
+        <v>2.11151</v>
       </c>
       <c r="D96" t="n">
-        <v>2.03</v>
+        <v>2.01415</v>
       </c>
     </row>
     <row r="97">
@@ -10702,13 +10702,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>3.16254</v>
+        <v>3.15738</v>
       </c>
       <c r="C97" t="n">
-        <v>2.14609</v>
+        <v>2.14218</v>
       </c>
       <c r="D97" t="n">
-        <v>2.06273</v>
+        <v>2.05639</v>
       </c>
     </row>
     <row r="98">
@@ -10716,13 +10716,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>3.23785</v>
+        <v>3.23257</v>
       </c>
       <c r="C98" t="n">
-        <v>2.187</v>
+        <v>2.18216</v>
       </c>
       <c r="D98" t="n">
-        <v>2.11308</v>
+        <v>2.10041</v>
       </c>
     </row>
     <row r="99">
@@ -10730,13 +10730,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>3.29924</v>
+        <v>3.29114</v>
       </c>
       <c r="C99" t="n">
-        <v>2.22727</v>
+        <v>2.22493</v>
       </c>
       <c r="D99" t="n">
-        <v>2.14192</v>
+        <v>2.14076</v>
       </c>
     </row>
     <row r="100">
@@ -10744,13 +10744,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>3.35899</v>
+        <v>3.35951</v>
       </c>
       <c r="C100" t="n">
-        <v>2.26517</v>
+        <v>2.25948</v>
       </c>
       <c r="D100" t="n">
-        <v>2.1835</v>
+        <v>2.17192</v>
       </c>
     </row>
     <row r="101">
@@ -10758,13 +10758,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>3.42862</v>
+        <v>3.41937</v>
       </c>
       <c r="C101" t="n">
-        <v>2.29342</v>
+        <v>2.27957</v>
       </c>
       <c r="D101" t="n">
-        <v>2.21734</v>
+        <v>2.21269</v>
       </c>
     </row>
     <row r="102">
@@ -10772,13 +10772,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>3.48474</v>
+        <v>3.45957</v>
       </c>
       <c r="C102" t="n">
-        <v>2.32915</v>
+        <v>2.32506</v>
       </c>
       <c r="D102" t="n">
-        <v>2.24717</v>
+        <v>2.24001</v>
       </c>
     </row>
     <row r="103">
@@ -10786,13 +10786,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>3.55716</v>
+        <v>3.5173</v>
       </c>
       <c r="C103" t="n">
-        <v>2.35655</v>
+        <v>2.3454</v>
       </c>
       <c r="D103" t="n">
-        <v>2.27614</v>
+        <v>2.27473</v>
       </c>
     </row>
     <row r="104">
@@ -10800,13 +10800,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>3.5929</v>
+        <v>3.58151</v>
       </c>
       <c r="C104" t="n">
-        <v>2.39222</v>
+        <v>2.39246</v>
       </c>
       <c r="D104" t="n">
-        <v>2.31041</v>
+        <v>2.30541</v>
       </c>
     </row>
     <row r="105">
@@ -10814,13 +10814,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>3.67137</v>
+        <v>3.64678</v>
       </c>
       <c r="C105" t="n">
-        <v>2.42362</v>
+        <v>2.41823</v>
       </c>
       <c r="D105" t="n">
-        <v>2.33226</v>
+        <v>2.32724</v>
       </c>
     </row>
     <row r="106">
@@ -10828,13 +10828,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>3.72331</v>
+        <v>3.7002</v>
       </c>
       <c r="C106" t="n">
-        <v>2.46138</v>
+        <v>2.45471</v>
       </c>
       <c r="D106" t="n">
-        <v>2.36589</v>
+        <v>2.35732</v>
       </c>
     </row>
     <row r="107">
@@ -10842,13 +10842,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>3.74976</v>
+        <v>3.71329</v>
       </c>
       <c r="C107" t="n">
-        <v>2.45435</v>
+        <v>2.44865</v>
       </c>
       <c r="D107" t="n">
-        <v>2.43117</v>
+        <v>2.42404</v>
       </c>
     </row>
     <row r="108">
@@ -10856,13 +10856,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>3.7505</v>
+        <v>3.75149</v>
       </c>
       <c r="C108" t="n">
-        <v>2.47605</v>
+        <v>2.46404</v>
       </c>
       <c r="D108" t="n">
-        <v>2.45699</v>
+        <v>2.44194</v>
       </c>
     </row>
     <row r="109">
@@ -10870,13 +10870,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>3.80804</v>
+        <v>3.80423</v>
       </c>
       <c r="C109" t="n">
-        <v>2.49283</v>
+        <v>2.488</v>
       </c>
       <c r="D109" t="n">
-        <v>2.49384</v>
+        <v>2.47543</v>
       </c>
     </row>
     <row r="110">
@@ -10884,13 +10884,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>3.86251</v>
+        <v>3.84539</v>
       </c>
       <c r="C110" t="n">
-        <v>2.5323</v>
+        <v>2.52763</v>
       </c>
       <c r="D110" t="n">
-        <v>2.52165</v>
+        <v>2.50195</v>
       </c>
     </row>
     <row r="111">
@@ -10898,13 +10898,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>3.88841</v>
+        <v>3.87776</v>
       </c>
       <c r="C111" t="n">
-        <v>2.54577</v>
+        <v>2.54208</v>
       </c>
       <c r="D111" t="n">
-        <v>2.54477</v>
+        <v>2.53728</v>
       </c>
     </row>
     <row r="112">
@@ -10912,13 +10912,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>3.94744</v>
+        <v>3.93158</v>
       </c>
       <c r="C112" t="n">
-        <v>2.57808</v>
+        <v>2.57613</v>
       </c>
       <c r="D112" t="n">
-        <v>2.56612</v>
+        <v>2.56114</v>
       </c>
     </row>
     <row r="113">
@@ -10926,13 +10926,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>3.98347</v>
+        <v>3.98726</v>
       </c>
       <c r="C113" t="n">
-        <v>2.60585</v>
+        <v>2.59307</v>
       </c>
       <c r="D113" t="n">
-        <v>2.58575</v>
+        <v>2.58129</v>
       </c>
     </row>
     <row r="114">
@@ -10940,13 +10940,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>4.04077</v>
+        <v>4.02648</v>
       </c>
       <c r="C114" t="n">
-        <v>2.61471</v>
+        <v>2.62313</v>
       </c>
       <c r="D114" t="n">
-        <v>2.61019</v>
+        <v>2.60696</v>
       </c>
     </row>
     <row r="115">
@@ -10954,13 +10954,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>4.07532</v>
+        <v>4.06138</v>
       </c>
       <c r="C115" t="n">
-        <v>2.65044</v>
+        <v>2.6434</v>
       </c>
       <c r="D115" t="n">
-        <v>2.63478</v>
+        <v>2.64024</v>
       </c>
     </row>
     <row r="116">
@@ -10968,13 +10968,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>4.12035</v>
+        <v>4.10391</v>
       </c>
       <c r="C116" t="n">
-        <v>2.68317</v>
+        <v>2.67034</v>
       </c>
       <c r="D116" t="n">
-        <v>2.66089</v>
+        <v>2.64681</v>
       </c>
     </row>
     <row r="117">
@@ -10982,13 +10982,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>4.167</v>
+        <v>4.15835</v>
       </c>
       <c r="C117" t="n">
-        <v>2.7269</v>
+        <v>2.69515</v>
       </c>
       <c r="D117" t="n">
-        <v>2.68568</v>
+        <v>2.66848</v>
       </c>
     </row>
     <row r="118">
@@ -10996,13 +10996,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>4.22186</v>
+        <v>4.20255</v>
       </c>
       <c r="C118" t="n">
-        <v>2.73535</v>
+        <v>2.71954</v>
       </c>
       <c r="D118" t="n">
-        <v>2.69965</v>
+        <v>2.69115</v>
       </c>
     </row>
     <row r="119">
@@ -11010,13 +11010,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>4.24234</v>
+        <v>4.24783</v>
       </c>
       <c r="C119" t="n">
-        <v>2.75444</v>
+        <v>2.74745</v>
       </c>
       <c r="D119" t="n">
-        <v>2.71887</v>
+        <v>2.71443</v>
       </c>
     </row>
   </sheetData>
@@ -11064,13 +11064,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.619664</v>
+        <v>0.598728</v>
       </c>
       <c r="C2" t="n">
-        <v>0.466986</v>
+        <v>0.454369</v>
       </c>
       <c r="D2" t="n">
-        <v>0.373864</v>
+        <v>0.356062</v>
       </c>
     </row>
     <row r="3">
@@ -11078,13 +11078,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.627478</v>
+        <v>0.606753</v>
       </c>
       <c r="C3" t="n">
-        <v>0.470865</v>
+        <v>0.458184</v>
       </c>
       <c r="D3" t="n">
-        <v>0.379999</v>
+        <v>0.361741</v>
       </c>
     </row>
     <row r="4">
@@ -11092,13 +11092,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.636943</v>
+        <v>0.619555</v>
       </c>
       <c r="C4" t="n">
-        <v>0.476194</v>
+        <v>0.466538</v>
       </c>
       <c r="D4" t="n">
-        <v>0.384774</v>
+        <v>0.369394</v>
       </c>
     </row>
     <row r="5">
@@ -11106,13 +11106,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.640505</v>
+        <v>0.624116</v>
       </c>
       <c r="C5" t="n">
-        <v>0.483475</v>
+        <v>0.475888</v>
       </c>
       <c r="D5" t="n">
-        <v>0.386679</v>
+        <v>0.372515</v>
       </c>
     </row>
     <row r="6">
@@ -11120,13 +11120,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.6501209999999999</v>
+        <v>0.635212</v>
       </c>
       <c r="C6" t="n">
-        <v>0.484314</v>
+        <v>0.475745</v>
       </c>
       <c r="D6" t="n">
-        <v>0.386339</v>
+        <v>0.373993</v>
       </c>
     </row>
     <row r="7">
@@ -11134,13 +11134,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.650052</v>
+        <v>0.637982</v>
       </c>
       <c r="C7" t="n">
-        <v>0.491969</v>
+        <v>0.48624</v>
       </c>
       <c r="D7" t="n">
-        <v>0.390513</v>
+        <v>0.380274</v>
       </c>
     </row>
     <row r="8">
@@ -11148,13 +11148,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.66437</v>
+        <v>0.649017</v>
       </c>
       <c r="C8" t="n">
-        <v>0.499228</v>
+        <v>0.494274</v>
       </c>
       <c r="D8" t="n">
-        <v>0.393497</v>
+        <v>0.382739</v>
       </c>
     </row>
     <row r="9">
@@ -11162,13 +11162,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.670445</v>
+        <v>0.6586070000000001</v>
       </c>
       <c r="C9" t="n">
-        <v>0.514393</v>
+        <v>0.507032</v>
       </c>
       <c r="D9" t="n">
-        <v>0.399319</v>
+        <v>0.388737</v>
       </c>
     </row>
     <row r="10">
@@ -11176,13 +11176,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.683078</v>
+        <v>0.674865</v>
       </c>
       <c r="C10" t="n">
-        <v>0.519697</v>
+        <v>0.515028</v>
       </c>
       <c r="D10" t="n">
-        <v>0.400475</v>
+        <v>0.391963</v>
       </c>
     </row>
     <row r="11">
@@ -11190,13 +11190,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.6862780000000001</v>
+        <v>0.677245</v>
       </c>
       <c r="C11" t="n">
-        <v>0.487992</v>
+        <v>0.500519</v>
       </c>
       <c r="D11" t="n">
-        <v>0.394826</v>
+        <v>0.39626</v>
       </c>
     </row>
     <row r="12">
@@ -11204,13 +11204,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.6357350000000001</v>
+        <v>0.656537</v>
       </c>
       <c r="C12" t="n">
-        <v>0.489139</v>
+        <v>0.502637</v>
       </c>
       <c r="D12" t="n">
-        <v>0.400887</v>
+        <v>0.403072</v>
       </c>
     </row>
     <row r="13">
@@ -11218,13 +11218,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.648888</v>
+        <v>0.6661629999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>0.492285</v>
+        <v>0.508302</v>
       </c>
       <c r="D13" t="n">
-        <v>0.402575</v>
+        <v>0.408385</v>
       </c>
     </row>
     <row r="14">
@@ -11232,13 +11232,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.651845</v>
+        <v>0.673346</v>
       </c>
       <c r="C14" t="n">
-        <v>0.501676</v>
+        <v>0.5195650000000001</v>
       </c>
       <c r="D14" t="n">
-        <v>0.40449</v>
+        <v>0.409956</v>
       </c>
     </row>
     <row r="15">
@@ -11246,13 +11246,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.666</v>
+        <v>0.6928530000000001</v>
       </c>
       <c r="C15" t="n">
-        <v>0.508669</v>
+        <v>0.5295840000000001</v>
       </c>
       <c r="D15" t="n">
-        <v>0.409728</v>
+        <v>0.420132</v>
       </c>
     </row>
     <row r="16">
@@ -11260,13 +11260,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.672747</v>
+        <v>0.693646</v>
       </c>
       <c r="C16" t="n">
-        <v>0.51734</v>
+        <v>0.538972</v>
       </c>
       <c r="D16" t="n">
-        <v>0.414835</v>
+        <v>0.423556</v>
       </c>
     </row>
     <row r="17">
@@ -11274,13 +11274,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.681888</v>
+        <v>0.712551</v>
       </c>
       <c r="C17" t="n">
-        <v>0.530386</v>
+        <v>0.544708</v>
       </c>
       <c r="D17" t="n">
-        <v>0.416264</v>
+        <v>0.428791</v>
       </c>
     </row>
     <row r="18">
@@ -11288,13 +11288,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.695088</v>
+        <v>0.720287</v>
       </c>
       <c r="C18" t="n">
-        <v>0.534905</v>
+        <v>0.549918</v>
       </c>
       <c r="D18" t="n">
-        <v>0.422553</v>
+        <v>0.43263</v>
       </c>
     </row>
     <row r="19">
@@ -11302,13 +11302,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.7060340000000001</v>
+        <v>0.72819</v>
       </c>
       <c r="C19" t="n">
-        <v>0.553975</v>
+        <v>0.563111</v>
       </c>
       <c r="D19" t="n">
-        <v>0.429724</v>
+        <v>0.436906</v>
       </c>
     </row>
     <row r="20">
@@ -11316,13 +11316,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.730497</v>
+        <v>0.743161</v>
       </c>
       <c r="C20" t="n">
-        <v>0.561905</v>
+        <v>0.569899</v>
       </c>
       <c r="D20" t="n">
-        <v>0.433893</v>
+        <v>0.441984</v>
       </c>
     </row>
     <row r="21">
@@ -11330,13 +11330,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.738662</v>
+        <v>0.750468</v>
       </c>
       <c r="C21" t="n">
-        <v>0.566682</v>
+        <v>0.581139</v>
       </c>
       <c r="D21" t="n">
-        <v>0.441308</v>
+        <v>0.4461</v>
       </c>
     </row>
     <row r="22">
@@ -11344,13 +11344,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.747818</v>
+        <v>0.760217</v>
       </c>
       <c r="C22" t="n">
-        <v>0.5810419999999999</v>
+        <v>0.590012</v>
       </c>
       <c r="D22" t="n">
-        <v>0.445461</v>
+        <v>0.450264</v>
       </c>
     </row>
     <row r="23">
@@ -11358,13 +11358,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.766114</v>
+        <v>0.781313</v>
       </c>
       <c r="C23" t="n">
-        <v>0.593577</v>
+        <v>0.607212</v>
       </c>
       <c r="D23" t="n">
-        <v>0.451048</v>
+        <v>0.458765</v>
       </c>
     </row>
     <row r="24">
@@ -11372,13 +11372,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.7789779999999999</v>
+        <v>0.792822</v>
       </c>
       <c r="C24" t="n">
-        <v>0.601178</v>
+        <v>0.612793</v>
       </c>
       <c r="D24" t="n">
-        <v>0.453742</v>
+        <v>0.460161</v>
       </c>
     </row>
     <row r="25">
@@ -11386,13 +11386,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.792851</v>
+        <v>0.804338</v>
       </c>
       <c r="C25" t="n">
-        <v>0.6152</v>
+        <v>0.627193</v>
       </c>
       <c r="D25" t="n">
-        <v>0.462096</v>
+        <v>0.468026</v>
       </c>
     </row>
     <row r="26">
@@ -11400,13 +11400,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.806812</v>
+        <v>0.823352</v>
       </c>
       <c r="C26" t="n">
-        <v>0.548831</v>
+        <v>0.565576</v>
       </c>
       <c r="D26" t="n">
-        <v>0.462488</v>
+        <v>0.471359</v>
       </c>
     </row>
     <row r="27">
@@ -11414,13 +11414,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.764243</v>
+        <v>0.783404</v>
       </c>
       <c r="C27" t="n">
-        <v>0.556191</v>
+        <v>0.570072</v>
       </c>
       <c r="D27" t="n">
-        <v>0.466678</v>
+        <v>0.476421</v>
       </c>
     </row>
     <row r="28">
@@ -11428,13 +11428,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.772038</v>
+        <v>0.792412</v>
       </c>
       <c r="C28" t="n">
-        <v>0.561589</v>
+        <v>0.576474</v>
       </c>
       <c r="D28" t="n">
-        <v>0.470286</v>
+        <v>0.47911</v>
       </c>
     </row>
     <row r="29">
@@ -11442,13 +11442,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.783293</v>
+        <v>0.806539</v>
       </c>
       <c r="C29" t="n">
-        <v>0.568287</v>
+        <v>0.583323</v>
       </c>
       <c r="D29" t="n">
-        <v>0.473949</v>
+        <v>0.483791</v>
       </c>
     </row>
     <row r="30">
@@ -11456,13 +11456,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.792067</v>
+        <v>0.816573</v>
       </c>
       <c r="C30" t="n">
-        <v>0.572248</v>
+        <v>0.592137</v>
       </c>
       <c r="D30" t="n">
-        <v>0.478676</v>
+        <v>0.489078</v>
       </c>
     </row>
     <row r="31">
@@ -11470,13 +11470,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.807258</v>
+        <v>0.826891</v>
       </c>
       <c r="C31" t="n">
-        <v>0.585167</v>
+        <v>0.600472</v>
       </c>
       <c r="D31" t="n">
-        <v>0.483217</v>
+        <v>0.493094</v>
       </c>
     </row>
     <row r="32">
@@ -11484,13 +11484,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.820012</v>
+        <v>0.839518</v>
       </c>
       <c r="C32" t="n">
-        <v>0.591292</v>
+        <v>0.610765</v>
       </c>
       <c r="D32" t="n">
-        <v>0.487383</v>
+        <v>0.496272</v>
       </c>
     </row>
     <row r="33">
@@ -11498,13 +11498,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.827002</v>
+        <v>0.8472769999999999</v>
       </c>
       <c r="C33" t="n">
-        <v>0.6011919999999999</v>
+        <v>0.615509</v>
       </c>
       <c r="D33" t="n">
-        <v>0.490774</v>
+        <v>0.499698</v>
       </c>
     </row>
     <row r="34">
@@ -11512,13 +11512,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.844948</v>
+        <v>0.862852</v>
       </c>
       <c r="C34" t="n">
-        <v>0.613798</v>
+        <v>0.629644</v>
       </c>
       <c r="D34" t="n">
-        <v>0.493699</v>
+        <v>0.502013</v>
       </c>
     </row>
     <row r="35">
@@ -11526,13 +11526,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.851221</v>
+        <v>0.872754</v>
       </c>
       <c r="C35" t="n">
-        <v>0.620856</v>
+        <v>0.635338</v>
       </c>
       <c r="D35" t="n">
-        <v>0.497117</v>
+        <v>0.506058</v>
       </c>
     </row>
     <row r="36">
@@ -11540,13 +11540,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.871632</v>
+        <v>0.887829</v>
       </c>
       <c r="C36" t="n">
-        <v>0.63627</v>
+        <v>0.650044</v>
       </c>
       <c r="D36" t="n">
-        <v>0.5000599999999999</v>
+        <v>0.508727</v>
       </c>
     </row>
     <row r="37">
@@ -11554,13 +11554,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.882989</v>
+        <v>0.899278</v>
       </c>
       <c r="C37" t="n">
-        <v>0.649155</v>
+        <v>0.660934</v>
       </c>
       <c r="D37" t="n">
-        <v>0.50337</v>
+        <v>0.510902</v>
       </c>
     </row>
     <row r="38">
@@ -11568,13 +11568,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.8962329999999999</v>
+        <v>0.912471</v>
       </c>
       <c r="C38" t="n">
-        <v>0.659363</v>
+        <v>0.672115</v>
       </c>
       <c r="D38" t="n">
-        <v>0.50787</v>
+        <v>0.514539</v>
       </c>
     </row>
     <row r="39">
@@ -11582,13 +11582,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.910892</v>
+        <v>0.924624</v>
       </c>
       <c r="C39" t="n">
-        <v>0.670739</v>
+        <v>0.682768</v>
       </c>
       <c r="D39" t="n">
-        <v>0.5112679999999999</v>
+        <v>0.51756</v>
       </c>
     </row>
     <row r="40">
@@ -11596,13 +11596,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.925167</v>
+        <v>0.940015</v>
       </c>
       <c r="C40" t="n">
-        <v>0.621058</v>
+        <v>0.62648</v>
       </c>
       <c r="D40" t="n">
-        <v>0.515496</v>
+        <v>0.519912</v>
       </c>
     </row>
     <row r="41">
@@ -11610,13 +11610,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.8713109999999999</v>
+        <v>0.877176</v>
       </c>
       <c r="C41" t="n">
-        <v>0.627082</v>
+        <v>0.6316040000000001</v>
       </c>
       <c r="D41" t="n">
-        <v>0.519255</v>
+        <v>0.5232329999999999</v>
       </c>
     </row>
     <row r="42">
@@ -11624,13 +11624,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.883406</v>
+        <v>0.888961</v>
       </c>
       <c r="C42" t="n">
-        <v>0.636931</v>
+        <v>0.6411520000000001</v>
       </c>
       <c r="D42" t="n">
-        <v>0.5228429999999999</v>
+        <v>0.526365</v>
       </c>
     </row>
     <row r="43">
@@ -11638,13 +11638,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.891216</v>
+        <v>0.897214</v>
       </c>
       <c r="C43" t="n">
-        <v>0.641242</v>
+        <v>0.647555</v>
       </c>
       <c r="D43" t="n">
-        <v>0.525792</v>
+        <v>0.529026</v>
       </c>
     </row>
     <row r="44">
@@ -11652,13 +11652,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.895301</v>
+        <v>0.902166</v>
       </c>
       <c r="C44" t="n">
-        <v>0.651655</v>
+        <v>0.657063</v>
       </c>
       <c r="D44" t="n">
-        <v>0.52786</v>
+        <v>0.531107</v>
       </c>
     </row>
     <row r="45">
@@ -11666,13 +11666,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.908178</v>
+        <v>0.9151860000000001</v>
       </c>
       <c r="C45" t="n">
-        <v>0.658806</v>
+        <v>0.663393</v>
       </c>
       <c r="D45" t="n">
-        <v>0.5306650000000001</v>
+        <v>0.532985</v>
       </c>
     </row>
     <row r="46">
@@ -11680,13 +11680,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.914907</v>
+        <v>0.921404</v>
       </c>
       <c r="C46" t="n">
-        <v>0.670287</v>
+        <v>0.672403</v>
       </c>
       <c r="D46" t="n">
-        <v>0.533241</v>
+        <v>0.5360780000000001</v>
       </c>
     </row>
     <row r="47">
@@ -11694,13 +11694,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.927779</v>
+        <v>0.932767</v>
       </c>
       <c r="C47" t="n">
-        <v>0.681532</v>
+        <v>0.685527</v>
       </c>
       <c r="D47" t="n">
-        <v>0.534285</v>
+        <v>0.536905</v>
       </c>
     </row>
     <row r="48">
@@ -11708,13 +11708,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.939511</v>
+        <v>0.943338</v>
       </c>
       <c r="C48" t="n">
-        <v>0.6872740000000001</v>
+        <v>0.690757</v>
       </c>
       <c r="D48" t="n">
-        <v>0.536114</v>
+        <v>0.538288</v>
       </c>
     </row>
     <row r="49">
@@ -11722,13 +11722,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.944999</v>
+        <v>0.950534</v>
       </c>
       <c r="C49" t="n">
-        <v>0.69709</v>
+        <v>0.698966</v>
       </c>
       <c r="D49" t="n">
-        <v>0.540382</v>
+        <v>0.542447</v>
       </c>
     </row>
     <row r="50">
@@ -11736,13 +11736,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.959442</v>
+        <v>0.964186</v>
       </c>
       <c r="C50" t="n">
-        <v>0.707083</v>
+        <v>0.7123620000000001</v>
       </c>
       <c r="D50" t="n">
-        <v>0.5426029999999999</v>
+        <v>0.544816</v>
       </c>
     </row>
     <row r="51">
@@ -11750,13 +11750,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.967324</v>
+        <v>0.971295</v>
       </c>
       <c r="C51" t="n">
-        <v>0.716892</v>
+        <v>0.722924</v>
       </c>
       <c r="D51" t="n">
-        <v>0.542821</v>
+        <v>0.54453</v>
       </c>
     </row>
     <row r="52">
@@ -11764,13 +11764,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.982504</v>
+        <v>0.986311</v>
       </c>
       <c r="C52" t="n">
-        <v>0.731305</v>
+        <v>0.7354889999999999</v>
       </c>
       <c r="D52" t="n">
-        <v>0.546524</v>
+        <v>0.548457</v>
       </c>
     </row>
     <row r="53">
@@ -11778,13 +11778,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.990337</v>
+        <v>0.995319</v>
       </c>
       <c r="C53" t="n">
-        <v>0.7389019999999999</v>
+        <v>0.744554</v>
       </c>
       <c r="D53" t="n">
-        <v>0.545525</v>
+        <v>0.547268</v>
       </c>
     </row>
     <row r="54">
@@ -11792,13 +11792,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>1.00383</v>
+        <v>1.00497</v>
       </c>
       <c r="C54" t="n">
-        <v>0.6720390000000001</v>
+        <v>0.674557</v>
       </c>
       <c r="D54" t="n">
-        <v>0.547616</v>
+        <v>0.549338</v>
       </c>
     </row>
     <row r="55">
@@ -11806,13 +11806,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.931481</v>
+        <v>0.9337299999999999</v>
       </c>
       <c r="C55" t="n">
-        <v>0.6769849999999999</v>
+        <v>0.68009</v>
       </c>
       <c r="D55" t="n">
-        <v>0.54961</v>
+        <v>0.551405</v>
       </c>
     </row>
     <row r="56">
@@ -11820,13 +11820,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.939039</v>
+        <v>0.941431</v>
       </c>
       <c r="C56" t="n">
-        <v>0.685531</v>
+        <v>0.68801</v>
       </c>
       <c r="D56" t="n">
-        <v>0.55083</v>
+        <v>0.552973</v>
       </c>
     </row>
     <row r="57">
@@ -11834,13 +11834,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.947329</v>
+        <v>0.951977</v>
       </c>
       <c r="C57" t="n">
-        <v>0.692558</v>
+        <v>0.697944</v>
       </c>
       <c r="D57" t="n">
-        <v>0.552007</v>
+        <v>0.555735</v>
       </c>
     </row>
     <row r="58">
@@ -11848,13 +11848,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.955958</v>
+        <v>0.960291</v>
       </c>
       <c r="C58" t="n">
-        <v>0.698387</v>
+        <v>0.70504</v>
       </c>
       <c r="D58" t="n">
-        <v>0.553845</v>
+        <v>0.557203</v>
       </c>
     </row>
     <row r="59">
@@ -11862,13 +11862,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.9647210000000001</v>
+        <v>0.968758</v>
       </c>
       <c r="C59" t="n">
-        <v>0.707678</v>
+        <v>0.714001</v>
       </c>
       <c r="D59" t="n">
-        <v>0.55631</v>
+        <v>0.560032</v>
       </c>
     </row>
     <row r="60">
@@ -11876,13 +11876,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.972025</v>
+        <v>0.97755</v>
       </c>
       <c r="C60" t="n">
-        <v>0.716784</v>
+        <v>0.723085</v>
       </c>
       <c r="D60" t="n">
-        <v>0.5565639999999999</v>
+        <v>0.560445</v>
       </c>
     </row>
     <row r="61">
@@ -11890,13 +11890,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.980281</v>
+        <v>0.988094</v>
       </c>
       <c r="C61" t="n">
-        <v>0.726239</v>
+        <v>0.7319909999999999</v>
       </c>
       <c r="D61" t="n">
-        <v>0.5595560000000001</v>
+        <v>0.565019</v>
       </c>
     </row>
     <row r="62">
@@ -11904,13 +11904,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.990734</v>
+        <v>0.998843</v>
       </c>
       <c r="C62" t="n">
-        <v>0.739232</v>
+        <v>0.741536</v>
       </c>
       <c r="D62" t="n">
-        <v>0.55983</v>
+        <v>0.565596</v>
       </c>
     </row>
     <row r="63">
@@ -11918,13 +11918,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>1.00147</v>
+        <v>1.01057</v>
       </c>
       <c r="C63" t="n">
-        <v>0.7531</v>
+        <v>0.756602</v>
       </c>
       <c r="D63" t="n">
-        <v>0.561173</v>
+        <v>0.568777</v>
       </c>
     </row>
     <row r="64">
@@ -11932,13 +11932,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>1.00581</v>
+        <v>1.01603</v>
       </c>
       <c r="C64" t="n">
-        <v>0.768056</v>
+        <v>0.770518</v>
       </c>
       <c r="D64" t="n">
-        <v>0.562914</v>
+        <v>0.570278</v>
       </c>
     </row>
     <row r="65">
@@ -11946,13 +11946,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>1.01782</v>
+        <v>1.02854</v>
       </c>
       <c r="C65" t="n">
-        <v>0.784466</v>
+        <v>0.78859</v>
       </c>
       <c r="D65" t="n">
-        <v>0.565334</v>
+        <v>0.572061</v>
       </c>
     </row>
     <row r="66">
@@ -11960,13 +11960,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>1.02852</v>
+        <v>1.0435</v>
       </c>
       <c r="C66" t="n">
-        <v>0.795983</v>
+        <v>0.800838</v>
       </c>
       <c r="D66" t="n">
-        <v>0.567341</v>
+        <v>0.578584</v>
       </c>
     </row>
     <row r="67">
@@ -11974,13 +11974,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.0475</v>
+        <v>1.0596</v>
       </c>
       <c r="C67" t="n">
-        <v>0.8157180000000001</v>
+        <v>0.821326</v>
       </c>
       <c r="D67" t="n">
-        <v>0.56997</v>
+        <v>0.57944</v>
       </c>
     </row>
     <row r="68">
@@ -11988,13 +11988,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>1.07633</v>
+        <v>1.07172</v>
       </c>
       <c r="C68" t="n">
-        <v>0.742168</v>
+        <v>0.74976</v>
       </c>
       <c r="D68" t="n">
-        <v>0.580302</v>
+        <v>0.590782</v>
       </c>
     </row>
     <row r="69">
@@ -12002,13 +12002,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>1.00139</v>
+        <v>1.02709</v>
       </c>
       <c r="C69" t="n">
-        <v>0.760032</v>
+        <v>0.77019</v>
       </c>
       <c r="D69" t="n">
-        <v>0.586041</v>
+        <v>0.6007710000000001</v>
       </c>
     </row>
     <row r="70">
@@ -12016,13 +12016,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>1.02107</v>
+        <v>1.04439</v>
       </c>
       <c r="C70" t="n">
-        <v>0.787281</v>
+        <v>0.799562</v>
       </c>
       <c r="D70" t="n">
-        <v>0.600314</v>
+        <v>0.615479</v>
       </c>
     </row>
     <row r="71">
@@ -12030,13 +12030,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>1.04673</v>
+        <v>1.07108</v>
       </c>
       <c r="C71" t="n">
-        <v>0.821788</v>
+        <v>0.834209</v>
       </c>
       <c r="D71" t="n">
-        <v>0.613959</v>
+        <v>0.631708</v>
       </c>
     </row>
     <row r="72">
@@ -12044,13 +12044,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>1.08615</v>
+        <v>1.10283</v>
       </c>
       <c r="C72" t="n">
-        <v>0.85986</v>
+        <v>0.866853</v>
       </c>
       <c r="D72" t="n">
-        <v>0.637499</v>
+        <v>0.64567</v>
       </c>
     </row>
     <row r="73">
@@ -12058,13 +12058,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>1.12421</v>
+        <v>1.13297</v>
       </c>
       <c r="C73" t="n">
-        <v>0.895621</v>
+        <v>0.898627</v>
       </c>
       <c r="D73" t="n">
-        <v>0.6598309999999999</v>
+        <v>0.661458</v>
       </c>
     </row>
     <row r="74">
@@ -12072,13 +12072,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.1657</v>
+        <v>1.17184</v>
       </c>
       <c r="C74" t="n">
-        <v>0.938012</v>
+        <v>0.939933</v>
       </c>
       <c r="D74" t="n">
-        <v>0.6807569999999999</v>
+        <v>0.680285</v>
       </c>
     </row>
     <row r="75">
@@ -12086,13 +12086,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>1.21016</v>
+        <v>1.22072</v>
       </c>
       <c r="C75" t="n">
-        <v>0.979787</v>
+        <v>0.986215</v>
       </c>
       <c r="D75" t="n">
-        <v>0.705776</v>
+        <v>0.709495</v>
       </c>
     </row>
     <row r="76">
@@ -12100,13 +12100,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>1.2551</v>
+        <v>1.26685</v>
       </c>
       <c r="C76" t="n">
-        <v>1.02389</v>
+        <v>1.03169</v>
       </c>
       <c r="D76" t="n">
-        <v>0.729205</v>
+        <v>0.733841</v>
       </c>
     </row>
     <row r="77">
@@ -12114,13 +12114,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>1.30987</v>
+        <v>1.31871</v>
       </c>
       <c r="C77" t="n">
-        <v>1.07317</v>
+        <v>1.08048</v>
       </c>
       <c r="D77" t="n">
-        <v>0.759949</v>
+        <v>0.762684</v>
       </c>
     </row>
     <row r="78">
@@ -12128,13 +12128,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>1.36955</v>
+        <v>1.38157</v>
       </c>
       <c r="C78" t="n">
-        <v>1.12162</v>
+        <v>1.13275</v>
       </c>
       <c r="D78" t="n">
-        <v>0.790065</v>
+        <v>0.796055</v>
       </c>
     </row>
     <row r="79">
@@ -12142,13 +12142,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.44233</v>
+        <v>1.44867</v>
       </c>
       <c r="C79" t="n">
-        <v>1.17804</v>
+        <v>1.18353</v>
       </c>
       <c r="D79" t="n">
-        <v>0.829079</v>
+        <v>0.829076</v>
       </c>
     </row>
     <row r="80">
@@ -12156,13 +12156,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.51689</v>
+        <v>1.52042</v>
       </c>
       <c r="C80" t="n">
-        <v>1.23986</v>
+        <v>1.24229</v>
       </c>
       <c r="D80" t="n">
-        <v>0.869827</v>
+        <v>0.868245</v>
       </c>
     </row>
     <row r="81">
@@ -12170,13 +12170,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.60455</v>
+        <v>1.60367</v>
       </c>
       <c r="C81" t="n">
-        <v>1.30701</v>
+        <v>1.30653</v>
       </c>
       <c r="D81" t="n">
-        <v>0.915357</v>
+        <v>0.911378</v>
       </c>
     </row>
     <row r="82">
@@ -12184,13 +12184,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.6859</v>
+        <v>1.69581</v>
       </c>
       <c r="C82" t="n">
-        <v>1.37237</v>
+        <v>1.37763</v>
       </c>
       <c r="D82" t="n">
-        <v>0.959538</v>
+        <v>0.962651</v>
       </c>
     </row>
     <row r="83">
@@ -12198,13 +12198,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.80078</v>
+        <v>1.79572</v>
       </c>
       <c r="C83" t="n">
-        <v>1.36464</v>
+        <v>1.36499</v>
       </c>
       <c r="D83" t="n">
-        <v>1.07927</v>
+        <v>1.07589</v>
       </c>
     </row>
     <row r="84">
@@ -12212,13 +12212,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.81376</v>
+        <v>1.82046</v>
       </c>
       <c r="C84" t="n">
-        <v>1.42325</v>
+        <v>1.42936</v>
       </c>
       <c r="D84" t="n">
-        <v>1.13344</v>
+        <v>1.13076</v>
       </c>
     </row>
     <row r="85">
@@ -12226,13 +12226,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.91613</v>
+        <v>1.92997</v>
       </c>
       <c r="C85" t="n">
-        <v>1.48711</v>
+        <v>1.49524</v>
       </c>
       <c r="D85" t="n">
-        <v>1.19082</v>
+        <v>1.19328</v>
       </c>
     </row>
     <row r="86">
@@ -12240,13 +12240,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>2.02539</v>
+        <v>2.02261</v>
       </c>
       <c r="C86" t="n">
-        <v>1.56309</v>
+        <v>1.56364</v>
       </c>
       <c r="D86" t="n">
-        <v>1.24811</v>
+        <v>1.24851</v>
       </c>
     </row>
     <row r="87">
@@ -12254,13 +12254,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>2.13088</v>
+        <v>2.13562</v>
       </c>
       <c r="C87" t="n">
-        <v>1.63578</v>
+        <v>1.64111</v>
       </c>
       <c r="D87" t="n">
-        <v>1.30827</v>
+        <v>1.30984</v>
       </c>
     </row>
     <row r="88">
@@ -12268,13 +12268,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>2.23157</v>
+        <v>2.25139</v>
       </c>
       <c r="C88" t="n">
-        <v>1.71542</v>
+        <v>1.72398</v>
       </c>
       <c r="D88" t="n">
-        <v>1.36634</v>
+        <v>1.37011</v>
       </c>
     </row>
     <row r="89">
@@ -12282,13 +12282,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>2.36712</v>
+        <v>2.38339</v>
       </c>
       <c r="C89" t="n">
-        <v>1.79609</v>
+        <v>1.79973</v>
       </c>
       <c r="D89" t="n">
-        <v>1.42278</v>
+        <v>1.42846</v>
       </c>
     </row>
     <row r="90">
@@ -12296,13 +12296,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>2.49303</v>
+        <v>2.49214</v>
       </c>
       <c r="C90" t="n">
-        <v>1.88042</v>
+        <v>1.88061</v>
       </c>
       <c r="D90" t="n">
-        <v>1.48641</v>
+        <v>1.48438</v>
       </c>
     </row>
     <row r="91">
@@ -12310,13 +12310,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>2.62365</v>
+        <v>2.63064</v>
       </c>
       <c r="C91" t="n">
-        <v>1.96935</v>
+        <v>1.97692</v>
       </c>
       <c r="D91" t="n">
-        <v>1.54403</v>
+        <v>1.54061</v>
       </c>
     </row>
     <row r="92">
@@ -12324,13 +12324,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>2.74453</v>
+        <v>2.75783</v>
       </c>
       <c r="C92" t="n">
-        <v>2.06177</v>
+        <v>2.07193</v>
       </c>
       <c r="D92" t="n">
-        <v>1.59429</v>
+        <v>1.59794</v>
       </c>
     </row>
     <row r="93">
@@ -12338,13 +12338,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>2.88292</v>
+        <v>2.90004</v>
       </c>
       <c r="C93" t="n">
-        <v>2.1495</v>
+        <v>2.15182</v>
       </c>
       <c r="D93" t="n">
-        <v>1.64937</v>
+        <v>1.64915</v>
       </c>
     </row>
     <row r="94">
@@ -12352,13 +12352,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>3.00666</v>
+        <v>3.01016</v>
       </c>
       <c r="C94" t="n">
-        <v>2.24647</v>
+        <v>2.24735</v>
       </c>
       <c r="D94" t="n">
-        <v>1.69843</v>
+        <v>1.70214</v>
       </c>
     </row>
     <row r="95">
@@ -12366,13 +12366,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>3.16014</v>
+        <v>3.16712</v>
       </c>
       <c r="C95" t="n">
-        <v>2.3413</v>
+        <v>2.34873</v>
       </c>
       <c r="D95" t="n">
-        <v>1.74687</v>
+        <v>1.75092</v>
       </c>
     </row>
     <row r="96">
@@ -12380,13 +12380,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>3.28718</v>
+        <v>3.29214</v>
       </c>
       <c r="C96" t="n">
-        <v>2.4512</v>
+        <v>2.46086</v>
       </c>
       <c r="D96" t="n">
-        <v>1.79494</v>
+        <v>1.79766</v>
       </c>
     </row>
     <row r="97">
@@ -12394,13 +12394,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>3.42792</v>
+        <v>3.43059</v>
       </c>
       <c r="C97" t="n">
-        <v>2.23121</v>
+        <v>2.22362</v>
       </c>
       <c r="D97" t="n">
-        <v>1.92825</v>
+        <v>1.92695</v>
       </c>
     </row>
     <row r="98">
@@ -12408,13 +12408,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>3.27215</v>
+        <v>3.27354</v>
       </c>
       <c r="C98" t="n">
-        <v>2.28873</v>
+        <v>2.29051</v>
       </c>
       <c r="D98" t="n">
-        <v>1.96778</v>
+        <v>1.96969</v>
       </c>
     </row>
     <row r="99">
@@ -12422,13 +12422,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>3.38139</v>
+        <v>3.3848</v>
       </c>
       <c r="C99" t="n">
-        <v>2.36445</v>
+        <v>2.36075</v>
       </c>
       <c r="D99" t="n">
-        <v>2.02317</v>
+        <v>2.02867</v>
       </c>
     </row>
     <row r="100">
@@ -12436,13 +12436,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>3.46128</v>
+        <v>3.48189</v>
       </c>
       <c r="C100" t="n">
-        <v>2.42939</v>
+        <v>2.42862</v>
       </c>
       <c r="D100" t="n">
-        <v>2.06708</v>
+        <v>2.05126</v>
       </c>
     </row>
     <row r="101">
@@ -12450,13 +12450,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>3.59519</v>
+        <v>3.57354</v>
       </c>
       <c r="C101" t="n">
-        <v>2.4919</v>
+        <v>2.48918</v>
       </c>
       <c r="D101" t="n">
-        <v>2.10682</v>
+        <v>2.10096</v>
       </c>
     </row>
     <row r="102">
@@ -12464,13 +12464,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>3.71484</v>
+        <v>3.72216</v>
       </c>
       <c r="C102" t="n">
-        <v>2.56515</v>
+        <v>2.56936</v>
       </c>
       <c r="D102" t="n">
-        <v>2.12416</v>
+        <v>2.12876</v>
       </c>
     </row>
     <row r="103">
@@ -12478,13 +12478,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>3.79257</v>
+        <v>3.79569</v>
       </c>
       <c r="C103" t="n">
-        <v>2.64376</v>
+        <v>2.64412</v>
       </c>
       <c r="D103" t="n">
-        <v>2.18249</v>
+        <v>2.16233</v>
       </c>
     </row>
     <row r="104">
@@ -12492,13 +12492,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>3.9241</v>
+        <v>3.90795</v>
       </c>
       <c r="C104" t="n">
-        <v>2.7289</v>
+        <v>2.72954</v>
       </c>
       <c r="D104" t="n">
-        <v>2.20052</v>
+        <v>2.19958</v>
       </c>
     </row>
     <row r="105">
@@ -12506,13 +12506,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>4.02197</v>
+        <v>4.01309</v>
       </c>
       <c r="C105" t="n">
-        <v>2.80255</v>
+        <v>2.79664</v>
       </c>
       <c r="D105" t="n">
-        <v>2.231</v>
+        <v>2.22839</v>
       </c>
     </row>
     <row r="106">
@@ -12520,13 +12520,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>4.11673</v>
+        <v>4.10466</v>
       </c>
       <c r="C106" t="n">
-        <v>2.88396</v>
+        <v>2.86073</v>
       </c>
       <c r="D106" t="n">
-        <v>2.28229</v>
+        <v>2.25543</v>
       </c>
     </row>
     <row r="107">
@@ -12534,13 +12534,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>4.19074</v>
+        <v>4.19059</v>
       </c>
       <c r="C107" t="n">
-        <v>2.95863</v>
+        <v>2.94328</v>
       </c>
       <c r="D107" t="n">
-        <v>2.29229</v>
+        <v>2.30308</v>
       </c>
     </row>
     <row r="108">
@@ -12548,13 +12548,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>4.33161</v>
+        <v>4.32357</v>
       </c>
       <c r="C108" t="n">
-        <v>3.04651</v>
+        <v>3.03634</v>
       </c>
       <c r="D108" t="n">
-        <v>2.33306</v>
+        <v>2.32594</v>
       </c>
     </row>
     <row r="109">
@@ -12562,13 +12562,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>4.43867</v>
+        <v>4.45852</v>
       </c>
       <c r="C109" t="n">
-        <v>3.13159</v>
+        <v>3.11402</v>
       </c>
       <c r="D109" t="n">
-        <v>2.34677</v>
+        <v>2.34777</v>
       </c>
     </row>
     <row r="110">
@@ -12576,13 +12576,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>4.55907</v>
+        <v>4.53403</v>
       </c>
       <c r="C110" t="n">
-        <v>3.21482</v>
+        <v>3.21422</v>
       </c>
       <c r="D110" t="n">
-        <v>2.38725</v>
+        <v>2.36989</v>
       </c>
     </row>
     <row r="111">
@@ -12590,13 +12590,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>4.65244</v>
+        <v>4.64375</v>
       </c>
       <c r="C111" t="n">
-        <v>2.84774</v>
+        <v>2.81897</v>
       </c>
       <c r="D111" t="n">
-        <v>2.48513</v>
+        <v>2.47382</v>
       </c>
     </row>
     <row r="112">
@@ -12604,13 +12604,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>4.31429</v>
+        <v>4.29765</v>
       </c>
       <c r="C112" t="n">
-        <v>2.89553</v>
+        <v>2.89781</v>
       </c>
       <c r="D112" t="n">
-        <v>2.49909</v>
+        <v>2.49046</v>
       </c>
     </row>
     <row r="113">
@@ -12618,13 +12618,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>4.38924</v>
+        <v>4.36653</v>
       </c>
       <c r="C113" t="n">
-        <v>2.98073</v>
+        <v>2.95571</v>
       </c>
       <c r="D113" t="n">
-        <v>2.52355</v>
+        <v>2.52179</v>
       </c>
     </row>
     <row r="114">
@@ -12632,13 +12632,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>4.45392</v>
+        <v>4.44081</v>
       </c>
       <c r="C114" t="n">
-        <v>3.02222</v>
+        <v>3.02161</v>
       </c>
       <c r="D114" t="n">
-        <v>2.55878</v>
+        <v>2.55797</v>
       </c>
     </row>
     <row r="115">
@@ -12646,13 +12646,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>4.55165</v>
+        <v>4.53852</v>
       </c>
       <c r="C115" t="n">
-        <v>3.07932</v>
+        <v>3.06399</v>
       </c>
       <c r="D115" t="n">
-        <v>2.56765</v>
+        <v>2.57078</v>
       </c>
     </row>
     <row r="116">
@@ -12660,13 +12660,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>4.64407</v>
+        <v>4.63007</v>
       </c>
       <c r="C116" t="n">
-        <v>3.15678</v>
+        <v>3.14272</v>
       </c>
       <c r="D116" t="n">
-        <v>2.60175</v>
+        <v>2.58486</v>
       </c>
     </row>
     <row r="117">
@@ -12674,13 +12674,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>4.72407</v>
+        <v>4.71407</v>
       </c>
       <c r="C117" t="n">
-        <v>3.21325</v>
+        <v>3.20988</v>
       </c>
       <c r="D117" t="n">
-        <v>2.61127</v>
+        <v>2.61315</v>
       </c>
     </row>
     <row r="118">
@@ -12688,13 +12688,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>4.8137</v>
+        <v>4.80347</v>
       </c>
       <c r="C118" t="n">
-        <v>3.28595</v>
+        <v>3.29178</v>
       </c>
       <c r="D118" t="n">
-        <v>2.63059</v>
+        <v>2.62616</v>
       </c>
     </row>
     <row r="119">
@@ -12702,13 +12702,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>4.90937</v>
+        <v>4.90659</v>
       </c>
       <c r="C119" t="n">
-        <v>3.37113</v>
+        <v>3.36585</v>
       </c>
       <c r="D119" t="n">
-        <v>2.66222</v>
+        <v>2.64744</v>
       </c>
     </row>
   </sheetData>
